--- a/static/Upload/5th sem.xlsx
+++ b/static/Upload/5th sem.xlsx
@@ -10,7 +10,7 @@
     <sheet name="CNC" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">CNC!$J$1:$J$119</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">CNC!$I$1:$I$119</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -33,9 +33,6 @@
     <t xml:space="preserve"> Roll No.</t>
   </si>
   <si>
-    <t>A3 (25)</t>
-  </si>
-  <si>
     <t>Final (40)</t>
   </si>
   <si>
@@ -367,6 +364,9 @@
   </si>
   <si>
     <t>Attend (%)</t>
+  </si>
+  <si>
+    <t>A3 (30)</t>
   </si>
 </sst>
 </file>
@@ -749,8 +749,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R119"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="I50" sqref="I50"/>
+    <sheetView tabSelected="1" topLeftCell="A104" workbookViewId="0">
+      <selection activeCell="M122" sqref="M122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -770,7 +770,7 @@
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B1" s="16"/>
       <c r="C1" s="16"/>
@@ -795,31 +795,31 @@
         <v>2</v>
       </c>
       <c r="D2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="F2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="G2" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H2" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="J2" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="K2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="12" t="s">
-        <v>114</v>
-      </c>
-      <c r="K2" s="3" t="s">
+      <c r="L2" s="3" t="s">
         <v>4</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>5</v>
       </c>
       <c r="N2" s="9"/>
     </row>
@@ -828,10 +828,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D3" s="1">
         <v>1</v>
@@ -843,6 +843,9 @@
         <v>0</v>
       </c>
       <c r="H3" s="1">
+        <v>0</v>
+      </c>
+      <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="14">
@@ -859,10 +862,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D4" s="1">
         <v>1</v>
@@ -874,6 +877,9 @@
         <v>0</v>
       </c>
       <c r="H4" s="1">
+        <v>0</v>
+      </c>
+      <c r="I4" s="1">
         <v>0</v>
       </c>
       <c r="J4" s="14">
@@ -890,7 +896,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C5" s="6">
         <v>210041700001</v>
@@ -906,6 +912,9 @@
       </c>
       <c r="H5" s="2">
         <v>35</v>
+      </c>
+      <c r="I5" s="2">
+        <v>30</v>
       </c>
       <c r="J5" s="15">
         <v>50</v>
@@ -920,7 +929,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C6" s="6">
         <v>210041700002</v>
@@ -929,12 +938,15 @@
         <v>1</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G6" s="2">
         <v>0</v>
       </c>
       <c r="H6" s="2">
+        <v>0</v>
+      </c>
+      <c r="I6" s="2">
         <v>0</v>
       </c>
       <c r="J6" s="15">
@@ -950,7 +962,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C7" s="6">
         <v>210041700003</v>
@@ -966,6 +978,9 @@
       </c>
       <c r="H7" s="2">
         <v>32</v>
+      </c>
+      <c r="I7" s="2">
+        <v>30</v>
       </c>
       <c r="J7" s="15">
         <v>68.75</v>
@@ -980,7 +995,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C8" s="6">
         <v>210041700005</v>
@@ -989,13 +1004,16 @@
         <v>1</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G8" s="2">
         <v>0</v>
       </c>
       <c r="H8" s="2">
         <v>23</v>
+      </c>
+      <c r="I8" s="2">
+        <v>0</v>
       </c>
       <c r="J8" s="15">
         <v>18.75</v>
@@ -1010,7 +1028,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C9" s="6">
         <v>210041700006</v>
@@ -1026,6 +1044,9 @@
       </c>
       <c r="H9" s="2">
         <v>33</v>
+      </c>
+      <c r="I9" s="2">
+        <v>0</v>
       </c>
       <c r="J9" s="15">
         <v>37.5</v>
@@ -1040,7 +1061,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C10" s="6">
         <v>210041700010</v>
@@ -1056,6 +1077,9 @@
       </c>
       <c r="H10" s="2">
         <v>35</v>
+      </c>
+      <c r="I10" s="2">
+        <v>25</v>
       </c>
       <c r="J10" s="15">
         <v>25</v>
@@ -1070,7 +1094,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C11" s="6">
         <v>210041700011</v>
@@ -1086,6 +1110,9 @@
       </c>
       <c r="H11" s="2">
         <v>33</v>
+      </c>
+      <c r="I11" s="2">
+        <v>28</v>
       </c>
       <c r="J11" s="15">
         <v>31.25</v>
@@ -1100,13 +1127,13 @@
         <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C12" s="6">
         <v>210041700013</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E12" s="2">
         <v>18</v>
@@ -1116,6 +1143,9 @@
       </c>
       <c r="H12" s="2">
         <v>33</v>
+      </c>
+      <c r="I12" s="2">
+        <v>29</v>
       </c>
       <c r="J12" s="15">
         <v>37.5</v>
@@ -1130,7 +1160,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C13" s="6">
         <v>210041700015</v>
@@ -1146,6 +1176,9 @@
       </c>
       <c r="H13" s="2">
         <v>33</v>
+      </c>
+      <c r="I13" s="2">
+        <v>0</v>
       </c>
       <c r="J13" s="15">
         <v>62.5</v>
@@ -1160,7 +1193,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C14" s="6">
         <v>210041700016</v>
@@ -1176,6 +1209,9 @@
       </c>
       <c r="H14" s="2">
         <v>34</v>
+      </c>
+      <c r="I14" s="2">
+        <v>0</v>
       </c>
       <c r="J14" s="15">
         <v>25</v>
@@ -1190,7 +1226,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C15" s="6">
         <v>210041700017</v>
@@ -1206,6 +1242,9 @@
       </c>
       <c r="H15" s="2">
         <v>32</v>
+      </c>
+      <c r="I15" s="2">
+        <v>30</v>
       </c>
       <c r="J15" s="15">
         <v>56.25</v>
@@ -1220,7 +1259,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C16" s="6">
         <v>210041700018</v>
@@ -1236,6 +1275,9 @@
       </c>
       <c r="H16" s="2">
         <v>25</v>
+      </c>
+      <c r="I16" s="2">
+        <v>0</v>
       </c>
       <c r="J16" s="15">
         <v>50</v>
@@ -1250,7 +1292,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C17" s="6">
         <v>210041700020</v>
@@ -1262,10 +1304,13 @@
         <v>5</v>
       </c>
       <c r="G17" s="2">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="H17" s="2">
         <v>35</v>
+      </c>
+      <c r="I17" s="2">
+        <v>22</v>
       </c>
       <c r="J17" s="15">
         <v>50</v>
@@ -1280,7 +1325,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C18" s="6">
         <v>210041700024</v>
@@ -1296,6 +1341,9 @@
       </c>
       <c r="H18" s="2">
         <v>0</v>
+      </c>
+      <c r="I18" s="2">
+        <v>28</v>
       </c>
       <c r="J18" s="15">
         <v>6.25</v>
@@ -1310,7 +1358,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C19" s="6">
         <v>210041700025</v>
@@ -1319,13 +1367,16 @@
         <v>5</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G19" s="2">
         <v>33</v>
       </c>
       <c r="H19" s="2">
         <v>32</v>
+      </c>
+      <c r="I19" s="2">
+        <v>30</v>
       </c>
       <c r="J19" s="15">
         <v>93.75</v>
@@ -1340,7 +1391,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C20" s="6">
         <v>210041700026</v>
@@ -1356,6 +1407,9 @@
       </c>
       <c r="H20" s="2">
         <v>33</v>
+      </c>
+      <c r="I20" s="2">
+        <v>28</v>
       </c>
       <c r="J20" s="15">
         <v>87.5</v>
@@ -1370,7 +1424,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C21" s="6">
         <v>210041700028</v>
@@ -1385,6 +1439,9 @@
         <v>0</v>
       </c>
       <c r="H21" s="2">
+        <v>0</v>
+      </c>
+      <c r="I21" s="2">
         <v>0</v>
       </c>
       <c r="J21" s="15">
@@ -1400,7 +1457,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C22" s="6">
         <v>210041700029</v>
@@ -1416,6 +1473,9 @@
       </c>
       <c r="H22" s="2">
         <v>35</v>
+      </c>
+      <c r="I22" s="2">
+        <v>29</v>
       </c>
       <c r="J22" s="15">
         <v>93.75</v>
@@ -1430,7 +1490,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C23" s="6">
         <v>210041700030</v>
@@ -1446,6 +1506,9 @@
       </c>
       <c r="H23" s="2">
         <v>34</v>
+      </c>
+      <c r="I23" s="2">
+        <v>25</v>
       </c>
       <c r="J23" s="15">
         <v>100</v>
@@ -1460,7 +1523,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C24" s="6">
         <v>210041700032</v>
@@ -1475,7 +1538,10 @@
         <v>0</v>
       </c>
       <c r="H24" s="2">
-        <v>0</v>
+        <v>20</v>
+      </c>
+      <c r="I24" s="2">
+        <v>26</v>
       </c>
       <c r="J24" s="15">
         <v>12.5</v>
@@ -1490,7 +1556,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C25" s="6">
         <v>210041700033</v>
@@ -1502,10 +1568,13 @@
         <v>4</v>
       </c>
       <c r="G25" s="2">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="H25" s="2">
-        <v>0</v>
+        <v>30</v>
+      </c>
+      <c r="I25" s="2">
+        <v>28</v>
       </c>
       <c r="J25" s="15">
         <v>31.25</v>
@@ -1520,7 +1589,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C26" s="6">
         <v>210041700034</v>
@@ -1535,6 +1604,9 @@
         <v>0</v>
       </c>
       <c r="H26" s="2">
+        <v>0</v>
+      </c>
+      <c r="I26" s="2">
         <v>0</v>
       </c>
       <c r="J26" s="15">
@@ -1550,7 +1622,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C27" s="6">
         <v>210041700035</v>
@@ -1562,10 +1634,13 @@
         <v>5</v>
       </c>
       <c r="G27" s="2">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="H27" s="2">
         <v>35</v>
+      </c>
+      <c r="I27" s="2">
+        <v>30</v>
       </c>
       <c r="J27" s="15">
         <v>37.5</v>
@@ -1580,7 +1655,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C28" s="6">
         <v>210041700036</v>
@@ -1592,10 +1667,13 @@
         <v>13</v>
       </c>
       <c r="G28" s="2">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="H28" s="2">
         <v>33</v>
+      </c>
+      <c r="I28" s="2">
+        <v>30</v>
       </c>
       <c r="J28" s="15">
         <v>37.5</v>
@@ -1610,7 +1688,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C29" s="6">
         <v>210041700037</v>
@@ -1626,6 +1704,9 @@
       </c>
       <c r="H29" s="2">
         <v>32</v>
+      </c>
+      <c r="I29" s="2">
+        <v>0</v>
       </c>
       <c r="J29" s="15">
         <v>18.75</v>
@@ -1640,7 +1721,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C30" s="6">
         <v>210041700038</v>
@@ -1656,6 +1737,9 @@
       </c>
       <c r="H30" s="2">
         <v>0</v>
+      </c>
+      <c r="I30" s="2">
+        <v>30</v>
       </c>
       <c r="J30" s="15">
         <v>31.25</v>
@@ -1670,7 +1754,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C31" s="6">
         <v>210041700040</v>
@@ -1686,6 +1770,9 @@
       </c>
       <c r="H31" s="2">
         <v>32</v>
+      </c>
+      <c r="I31" s="2">
+        <v>30</v>
       </c>
       <c r="J31" s="15">
         <v>37.5</v>
@@ -1700,7 +1787,7 @@
         <v>30</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C32" s="6">
         <v>210041700041</v>
@@ -1716,6 +1803,9 @@
       </c>
       <c r="H32" s="2">
         <v>33</v>
+      </c>
+      <c r="I32" s="2">
+        <v>29</v>
       </c>
       <c r="J32" s="15">
         <v>50</v>
@@ -1730,7 +1820,7 @@
         <v>31</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C33" s="6">
         <v>210041700044</v>
@@ -1746,6 +1836,9 @@
       </c>
       <c r="H33" s="2">
         <v>33</v>
+      </c>
+      <c r="I33" s="2">
+        <v>28</v>
       </c>
       <c r="J33" s="15">
         <v>68.75</v>
@@ -1760,7 +1853,7 @@
         <v>32</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C34" s="6">
         <v>210041700046</v>
@@ -1776,6 +1869,9 @@
       </c>
       <c r="H34" s="2">
         <v>33</v>
+      </c>
+      <c r="I34" s="2">
+        <v>30</v>
       </c>
       <c r="J34" s="15">
         <v>93.75</v>
@@ -1790,7 +1886,7 @@
         <v>33</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C35" s="6">
         <v>210041700049</v>
@@ -1806,6 +1902,9 @@
       </c>
       <c r="H35" s="2">
         <v>33</v>
+      </c>
+      <c r="I35" s="2">
+        <v>29</v>
       </c>
       <c r="J35" s="15">
         <v>75</v>
@@ -1820,7 +1919,7 @@
         <v>34</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C36" s="6">
         <v>210041700050</v>
@@ -1836,6 +1935,9 @@
       </c>
       <c r="H36" s="2">
         <v>32</v>
+      </c>
+      <c r="I36" s="2">
+        <v>0</v>
       </c>
       <c r="J36" s="15">
         <v>81.25</v>
@@ -1850,7 +1952,7 @@
         <v>35</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C37" s="6">
         <v>210041700051</v>
@@ -1866,6 +1968,9 @@
       </c>
       <c r="H37" s="2">
         <v>35</v>
+      </c>
+      <c r="I37" s="2">
+        <v>30</v>
       </c>
       <c r="J37" s="15">
         <v>68.75</v>
@@ -1880,7 +1985,7 @@
         <v>36</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C38" s="6">
         <v>210041700052</v>
@@ -1896,6 +2001,9 @@
       </c>
       <c r="H38" s="2">
         <v>34</v>
+      </c>
+      <c r="I38" s="2">
+        <v>30</v>
       </c>
       <c r="J38" s="15">
         <v>75</v>
@@ -1910,7 +2018,7 @@
         <v>37</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C39" s="6">
         <v>210041700053</v>
@@ -1925,6 +2033,9 @@
         <v>0</v>
       </c>
       <c r="H39" s="2">
+        <v>0</v>
+      </c>
+      <c r="I39" s="2">
         <v>0</v>
       </c>
       <c r="J39" s="15">
@@ -1940,7 +2051,7 @@
         <v>38</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C40" s="6">
         <v>210041700055</v>
@@ -1956,6 +2067,9 @@
       </c>
       <c r="H40" s="2">
         <v>32</v>
+      </c>
+      <c r="I40" s="2">
+        <v>0</v>
       </c>
       <c r="J40" s="15">
         <v>31.25</v>
@@ -1970,7 +2084,7 @@
         <v>39</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C41" s="6">
         <v>210041700056</v>
@@ -1986,6 +2100,9 @@
       </c>
       <c r="H41" s="2">
         <v>33</v>
+      </c>
+      <c r="I41" s="2">
+        <v>30</v>
       </c>
       <c r="J41" s="15">
         <v>56.25</v>
@@ -2000,7 +2117,7 @@
         <v>40</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C42" s="6">
         <v>210041700057</v>
@@ -2016,6 +2133,9 @@
       </c>
       <c r="H42" s="2">
         <v>30</v>
+      </c>
+      <c r="I42" s="2">
+        <v>28</v>
       </c>
       <c r="J42" s="15">
         <v>50</v>
@@ -2030,7 +2150,7 @@
         <v>41</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C43" s="6">
         <v>210041700058</v>
@@ -2046,6 +2166,9 @@
       </c>
       <c r="H43" s="2">
         <v>35</v>
+      </c>
+      <c r="I43" s="2">
+        <v>30</v>
       </c>
       <c r="J43" s="15">
         <v>31.25</v>
@@ -2060,7 +2183,7 @@
         <v>42</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C44" s="6">
         <v>210041700059</v>
@@ -2075,6 +2198,9 @@
         <v>0</v>
       </c>
       <c r="H44" s="2">
+        <v>0</v>
+      </c>
+      <c r="I44" s="2">
         <v>0</v>
       </c>
       <c r="J44" s="15">
@@ -2090,7 +2216,7 @@
         <v>43</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C45" s="6">
         <v>210041700060</v>
@@ -2105,6 +2231,9 @@
         <v>0</v>
       </c>
       <c r="H45" s="2">
+        <v>0</v>
+      </c>
+      <c r="I45" s="2">
         <v>0</v>
       </c>
       <c r="J45" s="15">
@@ -2120,7 +2249,7 @@
         <v>44</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C46" s="6">
         <v>210041700061</v>
@@ -2135,6 +2264,9 @@
         <v>0</v>
       </c>
       <c r="H46" s="2">
+        <v>0</v>
+      </c>
+      <c r="I46" s="2">
         <v>0</v>
       </c>
       <c r="J46" s="15">
@@ -2150,7 +2282,7 @@
         <v>45</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C47" s="6">
         <v>210041700062</v>
@@ -2166,6 +2298,9 @@
       </c>
       <c r="H47" s="2">
         <v>33</v>
+      </c>
+      <c r="I47" s="2">
+        <v>28</v>
       </c>
       <c r="J47" s="15">
         <v>62.5</v>
@@ -2180,7 +2315,7 @@
         <v>46</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C48" s="6">
         <v>210041700063</v>
@@ -2196,6 +2331,9 @@
       </c>
       <c r="H48" s="2">
         <v>32</v>
+      </c>
+      <c r="I48" s="2">
+        <v>0</v>
       </c>
       <c r="J48" s="15">
         <v>75</v>
@@ -2210,7 +2348,7 @@
         <v>47</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C49" s="6">
         <v>210041722001</v>
@@ -2225,6 +2363,9 @@
         <v>50</v>
       </c>
       <c r="H49" s="4">
+        <v>30</v>
+      </c>
+      <c r="I49" s="4">
         <v>30</v>
       </c>
       <c r="J49" s="15">
@@ -2241,7 +2382,7 @@
         <v>48</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C50" s="6">
         <v>210041722003</v>
@@ -2257,6 +2398,9 @@
       </c>
       <c r="H50" s="4">
         <v>35</v>
+      </c>
+      <c r="I50" s="4">
+        <v>25</v>
       </c>
       <c r="J50" s="15">
         <v>37.5</v>
@@ -2272,13 +2416,13 @@
         <v>49</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C51" s="7">
         <v>210041722004</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E51" s="2">
         <v>20</v>
@@ -2288,6 +2432,9 @@
       </c>
       <c r="H51" s="2">
         <v>35</v>
+      </c>
+      <c r="I51" s="2">
+        <v>30</v>
       </c>
       <c r="J51" s="15">
         <v>68.75</v>
@@ -2302,7 +2449,7 @@
         <v>50</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C52" s="7">
         <v>210041722005</v>
@@ -2318,6 +2465,9 @@
       </c>
       <c r="H52" s="2">
         <v>26</v>
+      </c>
+      <c r="I52" s="2">
+        <v>30</v>
       </c>
       <c r="J52" s="15">
         <v>43.75</v>
@@ -2332,7 +2482,7 @@
         <v>51</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C53" s="7">
         <v>210041722007</v>
@@ -2347,6 +2497,9 @@
         <v>0</v>
       </c>
       <c r="H53" s="2">
+        <v>0</v>
+      </c>
+      <c r="I53" s="2">
         <v>0</v>
       </c>
       <c r="J53" s="15">
@@ -2362,7 +2515,7 @@
         <v>52</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C54" s="7">
         <v>210041722008</v>
@@ -2374,10 +2527,13 @@
         <v>11</v>
       </c>
       <c r="G54" s="2">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="H54" s="2">
         <v>35</v>
+      </c>
+      <c r="I54" s="2">
+        <v>27</v>
       </c>
       <c r="J54" s="15">
         <v>81.25</v>
@@ -2392,7 +2548,7 @@
         <v>53</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C55" s="7">
         <v>210041722010</v>
@@ -2408,6 +2564,9 @@
       </c>
       <c r="H55" s="2">
         <v>34</v>
+      </c>
+      <c r="I55" s="2">
+        <v>28</v>
       </c>
       <c r="J55" s="15">
         <v>56.25</v>
@@ -2422,7 +2581,7 @@
         <v>54</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C56" s="7">
         <v>210041722012</v>
@@ -2438,6 +2597,9 @@
       </c>
       <c r="H56" s="2">
         <v>33</v>
+      </c>
+      <c r="I56" s="2">
+        <v>29</v>
       </c>
       <c r="J56" s="15">
         <v>75</v>
@@ -2452,7 +2614,7 @@
         <v>55</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C57" s="7">
         <v>210041722014</v>
@@ -2467,6 +2629,9 @@
         <v>0</v>
       </c>
       <c r="H57" s="2">
+        <v>0</v>
+      </c>
+      <c r="I57" s="2">
         <v>0</v>
       </c>
       <c r="J57" s="15">
@@ -2482,7 +2647,7 @@
         <v>56</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C58" s="7">
         <v>210041722015</v>
@@ -2498,6 +2663,9 @@
       </c>
       <c r="H58" s="2">
         <v>25</v>
+      </c>
+      <c r="I58" s="2">
+        <v>0</v>
       </c>
       <c r="J58" s="15">
         <v>18.75</v>
@@ -2512,7 +2680,7 @@
         <v>57</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C59" s="7">
         <v>210041722016</v>
@@ -2528,6 +2696,9 @@
       </c>
       <c r="H59" s="2">
         <v>33</v>
+      </c>
+      <c r="I59" s="2">
+        <v>30</v>
       </c>
       <c r="J59" s="15">
         <v>75</v>
@@ -2542,21 +2713,24 @@
         <v>58</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C60" s="7">
         <v>210041722017</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G60" s="2">
         <v>0</v>
       </c>
       <c r="H60" s="2">
+        <v>0</v>
+      </c>
+      <c r="I60" s="2">
         <v>0</v>
       </c>
       <c r="J60" s="15">
@@ -2572,7 +2746,7 @@
         <v>59</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C61" s="7">
         <v>210041722019</v>
@@ -2584,10 +2758,13 @@
         <v>6</v>
       </c>
       <c r="G61" s="2">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="H61" s="2">
         <v>33</v>
+      </c>
+      <c r="I61" s="2">
+        <v>30</v>
       </c>
       <c r="J61" s="15">
         <v>43.75</v>
@@ -2602,7 +2779,7 @@
         <v>60</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C62" s="7">
         <v>210041700012</v>
@@ -2618,6 +2795,9 @@
       </c>
       <c r="H62" s="2">
         <v>31</v>
+      </c>
+      <c r="I62" s="2">
+        <v>0</v>
       </c>
       <c r="J62" s="15">
         <v>76.923076923076934</v>
@@ -2632,7 +2812,7 @@
         <v>61</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C63" s="7">
         <v>210041700064</v>
@@ -2647,6 +2827,9 @@
         <v>0</v>
       </c>
       <c r="H63" s="2">
+        <v>0</v>
+      </c>
+      <c r="I63" s="2">
         <v>0</v>
       </c>
       <c r="J63" s="15">
@@ -2662,7 +2845,7 @@
         <v>62</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C64" s="7">
         <v>210041700065</v>
@@ -2677,6 +2860,9 @@
         <v>0</v>
       </c>
       <c r="H64" s="2">
+        <v>0</v>
+      </c>
+      <c r="I64" s="2">
         <v>0</v>
       </c>
       <c r="J64" s="15">
@@ -2692,13 +2878,13 @@
         <v>63</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C65" s="7">
         <v>210041700066</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E65" s="2">
         <v>15</v>
@@ -2707,6 +2893,9 @@
         <v>0</v>
       </c>
       <c r="H65" s="2">
+        <v>0</v>
+      </c>
+      <c r="I65" s="2">
         <v>0</v>
       </c>
       <c r="J65" s="15">
@@ -2722,7 +2911,7 @@
         <v>64</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C66" s="7">
         <v>210041700067</v>
@@ -2737,6 +2926,9 @@
         <v>33</v>
       </c>
       <c r="H66" s="2">
+        <v>0</v>
+      </c>
+      <c r="I66" s="2">
         <v>0</v>
       </c>
       <c r="J66" s="15">
@@ -2752,7 +2944,7 @@
         <v>65</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C67" s="7">
         <v>210041700068</v>
@@ -2767,6 +2959,9 @@
         <v>0</v>
       </c>
       <c r="H67" s="2">
+        <v>0</v>
+      </c>
+      <c r="I67" s="2">
         <v>0</v>
       </c>
       <c r="J67" s="15">
@@ -2782,7 +2977,7 @@
         <v>66</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C68" s="7">
         <v>210041700069</v>
@@ -2797,6 +2992,9 @@
         <v>28</v>
       </c>
       <c r="H68" s="2">
+        <v>30</v>
+      </c>
+      <c r="I68" s="2">
         <v>30</v>
       </c>
       <c r="J68" s="15">
@@ -2812,13 +3010,13 @@
         <v>67</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C69" s="7">
         <v>210041700071</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E69" s="2">
         <v>14</v>
@@ -2828,6 +3026,9 @@
       </c>
       <c r="H69" s="2">
         <v>31</v>
+      </c>
+      <c r="I69" s="2">
+        <v>28</v>
       </c>
       <c r="J69" s="15">
         <v>30.76923076923077</v>
@@ -2842,7 +3043,7 @@
         <v>68</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C70" s="7">
         <v>210041700073</v>
@@ -2854,10 +3055,13 @@
         <v>2</v>
       </c>
       <c r="G70" s="2">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="H70" s="2">
-        <v>0</v>
+        <v>29</v>
+      </c>
+      <c r="I70" s="2">
+        <v>30</v>
       </c>
       <c r="J70" s="15">
         <v>69.230769230769226</v>
@@ -2872,7 +3076,7 @@
         <v>69</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C71" s="7">
         <v>210041700076</v>
@@ -2881,13 +3085,16 @@
         <v>13</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G71" s="2">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="H71" s="2">
         <v>33</v>
+      </c>
+      <c r="I71" s="2">
+        <v>28</v>
       </c>
       <c r="J71" s="15">
         <v>69.230769230769226</v>
@@ -2902,13 +3109,13 @@
         <v>70</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C72" s="7">
         <v>210041700081</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E72" s="2">
         <v>11</v>
@@ -2917,6 +3124,9 @@
         <v>0</v>
       </c>
       <c r="H72" s="2">
+        <v>0</v>
+      </c>
+      <c r="I72" s="2">
         <v>0</v>
       </c>
       <c r="J72" s="15">
@@ -2932,7 +3142,7 @@
         <v>71</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C73" s="7">
         <v>210041700082</v>
@@ -2948,6 +3158,9 @@
       </c>
       <c r="H73" s="2">
         <v>24</v>
+      </c>
+      <c r="I73" s="2">
+        <v>0</v>
       </c>
       <c r="J73" s="15">
         <v>53.846153846153847</v>
@@ -2962,7 +3175,7 @@
         <v>72</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C74" s="7">
         <v>210041700083</v>
@@ -2978,6 +3191,9 @@
       </c>
       <c r="H74" s="2">
         <v>33</v>
+      </c>
+      <c r="I74" s="2">
+        <v>0</v>
       </c>
       <c r="J74" s="15">
         <v>69.230769230769226</v>
@@ -2992,7 +3208,7 @@
         <v>73</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C75" s="7">
         <v>210041700084</v>
@@ -3008,6 +3224,9 @@
       </c>
       <c r="H75" s="2">
         <v>30</v>
+      </c>
+      <c r="I75" s="2">
+        <v>0</v>
       </c>
       <c r="J75" s="15">
         <v>53.846153846153847</v>
@@ -3022,7 +3241,7 @@
         <v>74</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C76" s="7">
         <v>210041700085</v>
@@ -3037,6 +3256,9 @@
         <v>34</v>
       </c>
       <c r="H76" s="2">
+        <v>0</v>
+      </c>
+      <c r="I76" s="2">
         <v>0</v>
       </c>
       <c r="J76" s="15">
@@ -3052,7 +3274,7 @@
         <v>75</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C77" s="7">
         <v>210041700087</v>
@@ -3067,6 +3289,9 @@
         <v>37</v>
       </c>
       <c r="H77" s="2">
+        <v>0</v>
+      </c>
+      <c r="I77" s="2">
         <v>0</v>
       </c>
       <c r="J77" s="15">
@@ -3082,7 +3307,7 @@
         <v>76</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C78" s="7">
         <v>210041700088</v>
@@ -3091,13 +3316,16 @@
         <v>3</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G78" s="2">
         <v>33</v>
       </c>
       <c r="H78" s="2">
-        <v>0</v>
+        <v>25</v>
+      </c>
+      <c r="I78" s="2">
+        <v>30</v>
       </c>
       <c r="J78" s="15">
         <v>69.230769230769226</v>
@@ -3112,7 +3340,7 @@
         <v>77</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C79" s="7">
         <v>210041700090</v>
@@ -3124,10 +3352,13 @@
         <v>9</v>
       </c>
       <c r="G79" s="2">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="H79" s="2">
         <v>33</v>
+      </c>
+      <c r="I79" s="2">
+        <v>30</v>
       </c>
       <c r="J79" s="15">
         <v>46.153846153846153</v>
@@ -3142,7 +3373,7 @@
         <v>78</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C80" s="7">
         <v>210041700091</v>
@@ -3154,10 +3385,13 @@
         <v>8</v>
       </c>
       <c r="G80" s="2">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="H80" s="2">
-        <v>0</v>
+        <v>20</v>
+      </c>
+      <c r="I80" s="2">
+        <v>30</v>
       </c>
       <c r="J80" s="15">
         <v>53.846153846153847</v>
@@ -3172,21 +3406,24 @@
         <v>79</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C81" s="7">
         <v>210041700092</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G81" s="2">
         <v>0</v>
       </c>
       <c r="H81" s="2">
+        <v>0</v>
+      </c>
+      <c r="I81" s="2">
         <v>0</v>
       </c>
       <c r="J81" s="15">
@@ -3202,13 +3439,13 @@
         <v>80</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C82" s="7">
         <v>210041700094</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E82" s="2">
         <v>15</v>
@@ -3218,6 +3455,9 @@
       </c>
       <c r="H82" s="2">
         <v>27</v>
+      </c>
+      <c r="I82" s="2">
+        <v>0</v>
       </c>
       <c r="J82" s="15">
         <v>53.846153846153847</v>
@@ -3232,7 +3472,7 @@
         <v>81</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C83" s="7">
         <v>210041700095</v>
@@ -3247,6 +3487,9 @@
         <v>0</v>
       </c>
       <c r="H83" s="2">
+        <v>0</v>
+      </c>
+      <c r="I83" s="2">
         <v>0</v>
       </c>
       <c r="J83" s="15">
@@ -3262,7 +3505,7 @@
         <v>82</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C84" s="7">
         <v>210041700097</v>
@@ -3278,6 +3521,9 @@
       </c>
       <c r="H84" s="2">
         <v>28</v>
+      </c>
+      <c r="I84" s="2">
+        <v>0</v>
       </c>
       <c r="J84" s="15">
         <v>84.615384615384613</v>
@@ -3292,21 +3538,24 @@
         <v>83</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C85" s="7">
         <v>210041700098</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G85" s="2">
         <v>0</v>
       </c>
       <c r="H85" s="2">
+        <v>0</v>
+      </c>
+      <c r="I85" s="2">
         <v>0</v>
       </c>
       <c r="J85" s="15">
@@ -3322,21 +3571,24 @@
         <v>84</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C86" s="7">
         <v>210041700102</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G86" s="2">
         <v>33</v>
       </c>
       <c r="H86" s="2">
+        <v>0</v>
+      </c>
+      <c r="I86" s="2">
         <v>0</v>
       </c>
       <c r="J86" s="15">
@@ -3352,21 +3604,24 @@
         <v>85</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C87" s="7">
         <v>210041700103</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G87" s="2">
         <v>0</v>
       </c>
       <c r="H87" s="2">
+        <v>0</v>
+      </c>
+      <c r="I87" s="2">
         <v>0</v>
       </c>
       <c r="J87" s="15">
@@ -3382,7 +3637,7 @@
         <v>86</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C88" s="6">
         <v>210041700104</v>
@@ -3397,6 +3652,9 @@
         <v>33</v>
       </c>
       <c r="H88" s="2">
+        <v>0</v>
+      </c>
+      <c r="I88" s="2">
         <v>0</v>
       </c>
       <c r="J88" s="15">
@@ -3412,7 +3670,7 @@
         <v>87</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C89" s="6">
         <v>210041700105</v>
@@ -3424,10 +3682,13 @@
         <v>15</v>
       </c>
       <c r="G89" s="2">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="H89" s="2">
         <v>26</v>
+      </c>
+      <c r="I89" s="2">
+        <v>30</v>
       </c>
       <c r="J89" s="15">
         <v>46.153846153846153</v>
@@ -3442,7 +3703,7 @@
         <v>88</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C90" s="6">
         <v>210041700106</v>
@@ -3457,6 +3718,9 @@
         <v>0</v>
       </c>
       <c r="H90" s="2">
+        <v>0</v>
+      </c>
+      <c r="I90" s="2">
         <v>0</v>
       </c>
       <c r="J90" s="15">
@@ -3472,7 +3736,7 @@
         <v>89</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C91" s="6">
         <v>210041700108</v>
@@ -3487,6 +3751,9 @@
         <v>0</v>
       </c>
       <c r="H91" s="2">
+        <v>0</v>
+      </c>
+      <c r="I91" s="2">
         <v>0</v>
       </c>
       <c r="J91" s="15">
@@ -3502,7 +3769,7 @@
         <v>90</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C92" s="6">
         <v>210041700109</v>
@@ -3518,6 +3785,9 @@
       </c>
       <c r="H92" s="2">
         <v>28</v>
+      </c>
+      <c r="I92" s="2">
+        <v>0</v>
       </c>
       <c r="J92" s="15">
         <v>92.307692307692307</v>
@@ -3532,7 +3802,7 @@
         <v>91</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C93" s="6">
         <v>210041700112</v>
@@ -3544,10 +3814,13 @@
         <v>4</v>
       </c>
       <c r="G93" s="2">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="H93" s="2">
         <v>33</v>
+      </c>
+      <c r="I93" s="2">
+        <v>30</v>
       </c>
       <c r="J93" s="15">
         <v>69.230769230769226</v>
@@ -3562,7 +3835,7 @@
         <v>92</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C94" s="6">
         <v>210041700113</v>
@@ -3574,9 +3847,12 @@
         <v>17</v>
       </c>
       <c r="G94" s="2">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="H94" s="2">
+        <v>30</v>
+      </c>
+      <c r="I94" s="2">
         <v>30</v>
       </c>
       <c r="J94" s="15">
@@ -3592,7 +3868,7 @@
         <v>93</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C95" s="6">
         <v>210041700114</v>
@@ -3608,6 +3884,9 @@
       </c>
       <c r="H95" s="2">
         <v>35</v>
+      </c>
+      <c r="I95" s="2">
+        <v>30</v>
       </c>
       <c r="J95" s="15">
         <v>100</v>
@@ -3622,21 +3901,24 @@
         <v>94</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C96" s="6">
         <v>210041700116</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G96" s="2">
         <v>0</v>
       </c>
       <c r="H96" s="2">
+        <v>0</v>
+      </c>
+      <c r="I96" s="2">
         <v>0</v>
       </c>
       <c r="J96" s="15">
@@ -3652,7 +3934,7 @@
         <v>95</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C97" s="6">
         <v>210041700117</v>
@@ -3664,10 +3946,13 @@
         <v>10</v>
       </c>
       <c r="G97" s="2">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="H97" s="2">
         <v>0</v>
+      </c>
+      <c r="I97" s="2">
+        <v>30</v>
       </c>
       <c r="J97" s="15">
         <v>38.461538461538467</v>
@@ -3682,7 +3967,7 @@
         <v>96</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C98" s="6">
         <v>210041700119</v>
@@ -3697,6 +3982,9 @@
         <v>37</v>
       </c>
       <c r="H98" s="2">
+        <v>30</v>
+      </c>
+      <c r="I98" s="2">
         <v>0</v>
       </c>
       <c r="J98" s="15">
@@ -3712,7 +4000,7 @@
         <v>97</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C99" s="6">
         <v>210041700120</v>
@@ -3728,6 +4016,9 @@
       </c>
       <c r="H99" s="2">
         <v>31</v>
+      </c>
+      <c r="I99" s="2">
+        <v>30</v>
       </c>
       <c r="J99" s="15">
         <v>76.923076923076934</v>
@@ -3742,7 +4033,7 @@
         <v>98</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C100" s="6">
         <v>210041700122</v>
@@ -3754,10 +4045,13 @@
         <v>16</v>
       </c>
       <c r="G100" s="2">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="H100" s="2">
         <v>31</v>
+      </c>
+      <c r="I100" s="2">
+        <v>28</v>
       </c>
       <c r="J100" s="15">
         <v>38.461538461538467</v>
@@ -3772,7 +4066,7 @@
         <v>99</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C101" s="6">
         <v>210041700123</v>
@@ -3787,6 +4081,9 @@
         <v>0</v>
       </c>
       <c r="H101" s="2">
+        <v>0</v>
+      </c>
+      <c r="I101" s="2">
         <v>0</v>
       </c>
       <c r="J101" s="15">
@@ -3802,7 +4099,7 @@
         <v>100</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C102" s="6">
         <v>210041700126</v>
@@ -3811,12 +4108,15 @@
         <v>6</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G102" s="2">
         <v>0</v>
       </c>
       <c r="H102" s="2">
+        <v>0</v>
+      </c>
+      <c r="I102" s="2">
         <v>0</v>
       </c>
       <c r="J102" s="15">
@@ -3832,7 +4132,7 @@
         <v>101</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C103" s="6">
         <v>210041700128</v>
@@ -3848,6 +4148,9 @@
       </c>
       <c r="H103" s="2">
         <v>33</v>
+      </c>
+      <c r="I103" s="2">
+        <v>30</v>
       </c>
       <c r="J103" s="15">
         <v>61.53846153846154</v>
@@ -3862,7 +4165,7 @@
         <v>102</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C104" s="6">
         <v>210041722020</v>
@@ -3877,6 +4180,9 @@
         <v>40</v>
       </c>
       <c r="H104" s="2">
+        <v>30</v>
+      </c>
+      <c r="I104" s="2">
         <v>30</v>
       </c>
       <c r="J104" s="15">
@@ -3892,7 +4198,7 @@
         <v>103</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C105" s="6">
         <v>210041722021</v>
@@ -3901,12 +4207,15 @@
         <v>15</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G105" s="2">
         <v>26</v>
       </c>
       <c r="H105" s="2">
+        <v>25</v>
+      </c>
+      <c r="I105" s="2">
         <v>25</v>
       </c>
       <c r="J105" s="15">
@@ -3922,21 +4231,24 @@
         <v>104</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C106" s="6">
         <v>210041722022</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G106" s="2">
         <v>0</v>
       </c>
       <c r="H106" s="2">
+        <v>0</v>
+      </c>
+      <c r="I106" s="2">
         <v>0</v>
       </c>
       <c r="J106" s="15">
@@ -3952,21 +4264,24 @@
         <v>105</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C107" s="6">
         <v>210041722023</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G107" s="2">
         <v>0</v>
       </c>
       <c r="H107" s="2">
+        <v>0</v>
+      </c>
+      <c r="I107" s="2">
         <v>0</v>
       </c>
       <c r="J107" s="15">
@@ -3982,7 +4297,7 @@
         <v>106</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C108" s="6">
         <v>210041722024</v>
@@ -3998,6 +4313,9 @@
       </c>
       <c r="H108" s="2">
         <v>31</v>
+      </c>
+      <c r="I108" s="2">
+        <v>30</v>
       </c>
       <c r="J108" s="15">
         <v>69.230769230769226</v>
@@ -4012,7 +4330,7 @@
         <v>107</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C109" s="6">
         <v>210041722025</v>
@@ -4021,13 +4339,16 @@
         <v>19</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G109" s="2">
         <v>40</v>
       </c>
       <c r="H109" s="2">
         <v>32</v>
+      </c>
+      <c r="I109" s="2">
+        <v>30</v>
       </c>
       <c r="J109" s="15">
         <v>61.53846153846154</v>
@@ -4042,7 +4363,7 @@
         <v>108</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C110" s="6">
         <v>210041722026</v>
@@ -4051,12 +4372,15 @@
         <v>2</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G110" s="2">
         <v>0</v>
       </c>
       <c r="H110" s="2">
+        <v>0</v>
+      </c>
+      <c r="I110" s="2">
         <v>0</v>
       </c>
       <c r="J110" s="15">
@@ -4072,7 +4396,7 @@
         <v>109</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C111" s="6">
         <v>210041722027</v>
@@ -4087,6 +4411,9 @@
         <v>0</v>
       </c>
       <c r="H111" s="2">
+        <v>0</v>
+      </c>
+      <c r="I111" s="2">
         <v>0</v>
       </c>
       <c r="J111" s="15">
@@ -4102,13 +4429,13 @@
         <v>110</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C112" s="6">
         <v>210041722028</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E112" s="2">
         <v>11</v>
@@ -4117,6 +4444,9 @@
         <v>0</v>
       </c>
       <c r="H112" s="2">
+        <v>0</v>
+      </c>
+      <c r="I112" s="2">
         <v>0</v>
       </c>
       <c r="J112" s="15">
@@ -4132,7 +4462,7 @@
         <v>111</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C113" s="6">
         <v>210041722030</v>
@@ -4144,10 +4474,13 @@
         <v>14</v>
       </c>
       <c r="G113" s="2">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="H113" s="2">
         <v>27</v>
+      </c>
+      <c r="I113" s="2">
+        <v>30</v>
       </c>
       <c r="J113" s="15">
         <v>76.923076923076934</v>
@@ -4162,21 +4495,24 @@
         <v>112</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C114" s="6">
         <v>210041722032</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G114" s="2">
         <v>0</v>
       </c>
       <c r="H114" s="2">
+        <v>0</v>
+      </c>
+      <c r="I114" s="2">
         <v>0</v>
       </c>
       <c r="J114" s="15">
@@ -4192,7 +4528,7 @@
         <v>113</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C115" s="6">
         <v>210041722034</v>
@@ -4207,7 +4543,10 @@
         <v>0</v>
       </c>
       <c r="H115" s="2">
-        <v>0</v>
+        <v>27</v>
+      </c>
+      <c r="I115" s="2">
+        <v>30</v>
       </c>
       <c r="J115" s="15">
         <v>69.230769230769226</v>
@@ -4222,7 +4561,7 @@
         <v>114</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C116" s="6">
         <v>210041722035</v>
@@ -4238,6 +4577,9 @@
       </c>
       <c r="H116" s="2">
         <v>31</v>
+      </c>
+      <c r="I116" s="2">
+        <v>30</v>
       </c>
       <c r="J116" s="15">
         <v>84.615384615384613</v>
@@ -4252,7 +4594,7 @@
         <v>115</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C117" s="6">
         <v>210041722036</v>
@@ -4264,10 +4606,13 @@
         <v>12</v>
       </c>
       <c r="G117" s="2">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="H117" s="2">
         <v>28</v>
+      </c>
+      <c r="I117" s="2">
+        <v>30</v>
       </c>
       <c r="J117" s="15">
         <v>46.153846153846153</v>
@@ -4282,7 +4627,7 @@
         <v>116</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C118" s="6">
         <v>210041722037</v>
@@ -4298,6 +4643,9 @@
       </c>
       <c r="H118" s="2">
         <v>26</v>
+      </c>
+      <c r="I118" s="2">
+        <v>0</v>
       </c>
       <c r="J118" s="15">
         <v>53.846153846153847</v>
@@ -4312,7 +4660,7 @@
         <v>117</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C119" s="6">
         <v>210041722038</v>
@@ -4321,13 +4669,16 @@
         <v>22</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G119" s="2">
         <v>41</v>
       </c>
       <c r="H119" s="2">
         <v>33</v>
+      </c>
+      <c r="I119" s="2">
+        <v>30</v>
       </c>
       <c r="J119" s="15">
         <v>76.923076923076934</v>

--- a/static/Upload/5th sem.xlsx
+++ b/static/Upload/5th sem.xlsx
@@ -749,8 +749,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R119"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A104" workbookViewId="0">
-      <selection activeCell="M122" sqref="M122"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I76" sqref="I76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -908,7 +908,7 @@
         <v>13</v>
       </c>
       <c r="G5" s="2">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="H5" s="2">
         <v>35</v>
@@ -1700,7 +1700,7 @@
         <v>2</v>
       </c>
       <c r="G29" s="2">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="H29" s="2">
         <v>32</v>
@@ -2626,13 +2626,13 @@
         <v>1</v>
       </c>
       <c r="G57" s="2">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="H57" s="2">
         <v>0</v>
       </c>
       <c r="I57" s="2">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="J57" s="15">
         <v>37.5</v>
@@ -2659,7 +2659,7 @@
         <v>8</v>
       </c>
       <c r="G58" s="2">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="H58" s="2">
         <v>25</v>
@@ -2797,7 +2797,7 @@
         <v>31</v>
       </c>
       <c r="I62" s="2">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="J62" s="15">
         <v>76.923076923076934</v>
@@ -3226,7 +3226,7 @@
         <v>30</v>
       </c>
       <c r="I75" s="2">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="J75" s="15">
         <v>53.846153846153847</v>

--- a/static/Upload/5th sem.xlsx
+++ b/static/Upload/5th sem.xlsx
@@ -749,8 +749,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R119"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I76" sqref="I76"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="I78" sqref="I78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2333,7 +2333,7 @@
         <v>32</v>
       </c>
       <c r="I48" s="2">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="J48" s="15">
         <v>75</v>
@@ -2926,10 +2926,10 @@
         <v>33</v>
       </c>
       <c r="H66" s="2">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="I66" s="2">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="J66" s="15">
         <v>53.846153846153847</v>
@@ -3457,7 +3457,7 @@
         <v>27</v>
       </c>
       <c r="I82" s="2">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="J82" s="15">
         <v>53.846153846153847</v>
@@ -3586,10 +3586,10 @@
         <v>33</v>
       </c>
       <c r="H86" s="2">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="I86" s="2">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="J86" s="15">
         <v>92.307692307692307</v>

--- a/static/Upload/5th sem.xlsx
+++ b/static/Upload/5th sem.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="116">
   <si>
     <t>S.N</t>
   </si>
@@ -33,9 +33,6 @@
     <t xml:space="preserve"> Roll No.</t>
   </si>
   <si>
-    <t>Final (40)</t>
-  </si>
-  <si>
     <t>External (60)</t>
   </si>
   <si>
@@ -367,6 +364,12 @@
   </si>
   <si>
     <t>A3 (30)</t>
+  </si>
+  <si>
+    <t>Assign+Attendence</t>
+  </si>
+  <si>
+    <t>Internal (25)</t>
   </si>
 </sst>
 </file>
@@ -749,8 +752,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R119"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="I78" sqref="I78"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -761,7 +764,7 @@
     <col min="4" max="6" width="7.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="9" width="7.5703125" style="2" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11.5703125" style="13" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="12" style="2" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="9.140625" style="2"/>
     <col min="14" max="14" width="9.140625" style="8"/>
@@ -770,7 +773,7 @@
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B1" s="16"/>
       <c r="C1" s="16"/>
@@ -795,43 +798,45 @@
         <v>2</v>
       </c>
       <c r="D2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="F2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="3" t="s">
-        <v>7</v>
-      </c>
       <c r="G2" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H2" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="J2" s="12" t="s">
         <v>112</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="K2" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N2" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="J2" s="12" t="s">
-        <v>113</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D3" s="1">
         <v>1</v>
@@ -862,10 +867,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D4" s="1">
         <v>1</v>
@@ -896,7 +901,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C5" s="6">
         <v>210041700001</v>
@@ -929,7 +934,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C6" s="6">
         <v>210041700002</v>
@@ -938,7 +943,7 @@
         <v>1</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G6" s="2">
         <v>0</v>
@@ -962,7 +967,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C7" s="6">
         <v>210041700003</v>
@@ -995,7 +1000,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C8" s="6">
         <v>210041700005</v>
@@ -1004,7 +1009,7 @@
         <v>1</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G8" s="2">
         <v>0</v>
@@ -1028,7 +1033,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C9" s="6">
         <v>210041700006</v>
@@ -1061,7 +1066,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C10" s="6">
         <v>210041700010</v>
@@ -1094,7 +1099,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C11" s="6">
         <v>210041700011</v>
@@ -1127,13 +1132,13 @@
         <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C12" s="6">
         <v>210041700013</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E12" s="2">
         <v>18</v>
@@ -1160,7 +1165,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C13" s="6">
         <v>210041700015</v>
@@ -1193,7 +1198,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C14" s="6">
         <v>210041700016</v>
@@ -1226,7 +1231,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C15" s="6">
         <v>210041700017</v>
@@ -1259,7 +1264,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C16" s="6">
         <v>210041700018</v>
@@ -1292,7 +1297,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C17" s="6">
         <v>210041700020</v>
@@ -1325,7 +1330,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C18" s="6">
         <v>210041700024</v>
@@ -1358,7 +1363,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C19" s="6">
         <v>210041700025</v>
@@ -1367,7 +1372,7 @@
         <v>5</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G19" s="2">
         <v>33</v>
@@ -1391,7 +1396,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C20" s="6">
         <v>210041700026</v>
@@ -1424,7 +1429,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C21" s="6">
         <v>210041700028</v>
@@ -1457,7 +1462,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C22" s="6">
         <v>210041700029</v>
@@ -1490,7 +1495,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C23" s="6">
         <v>210041700030</v>
@@ -1523,7 +1528,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C24" s="6">
         <v>210041700032</v>
@@ -1556,7 +1561,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C25" s="6">
         <v>210041700033</v>
@@ -1589,7 +1594,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C26" s="6">
         <v>210041700034</v>
@@ -1622,7 +1627,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C27" s="6">
         <v>210041700035</v>
@@ -1655,7 +1660,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C28" s="6">
         <v>210041700036</v>
@@ -1688,7 +1693,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C29" s="6">
         <v>210041700037</v>
@@ -1721,7 +1726,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C30" s="6">
         <v>210041700038</v>
@@ -1754,7 +1759,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C31" s="6">
         <v>210041700040</v>
@@ -1787,7 +1792,7 @@
         <v>30</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C32" s="6">
         <v>210041700041</v>
@@ -1820,7 +1825,7 @@
         <v>31</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C33" s="6">
         <v>210041700044</v>
@@ -1853,7 +1858,7 @@
         <v>32</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C34" s="6">
         <v>210041700046</v>
@@ -1886,7 +1891,7 @@
         <v>33</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C35" s="6">
         <v>210041700049</v>
@@ -1919,7 +1924,7 @@
         <v>34</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C36" s="6">
         <v>210041700050</v>
@@ -1952,7 +1957,7 @@
         <v>35</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C37" s="6">
         <v>210041700051</v>
@@ -1985,7 +1990,7 @@
         <v>36</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C38" s="6">
         <v>210041700052</v>
@@ -2018,7 +2023,7 @@
         <v>37</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C39" s="6">
         <v>210041700053</v>
@@ -2051,7 +2056,7 @@
         <v>38</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C40" s="6">
         <v>210041700055</v>
@@ -2069,7 +2074,7 @@
         <v>32</v>
       </c>
       <c r="I40" s="2">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="J40" s="15">
         <v>31.25</v>
@@ -2084,7 +2089,7 @@
         <v>39</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C41" s="6">
         <v>210041700056</v>
@@ -2117,7 +2122,7 @@
         <v>40</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C42" s="6">
         <v>210041700057</v>
@@ -2150,7 +2155,7 @@
         <v>41</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C43" s="6">
         <v>210041700058</v>
@@ -2183,7 +2188,7 @@
         <v>42</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C44" s="6">
         <v>210041700059</v>
@@ -2216,7 +2221,7 @@
         <v>43</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C45" s="6">
         <v>210041700060</v>
@@ -2249,7 +2254,7 @@
         <v>44</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C46" s="6">
         <v>210041700061</v>
@@ -2282,7 +2287,7 @@
         <v>45</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C47" s="6">
         <v>210041700062</v>
@@ -2315,7 +2320,7 @@
         <v>46</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C48" s="6">
         <v>210041700063</v>
@@ -2348,7 +2353,7 @@
         <v>47</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C49" s="6">
         <v>210041722001</v>
@@ -2382,7 +2387,7 @@
         <v>48</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C50" s="6">
         <v>210041722003</v>
@@ -2416,13 +2421,13 @@
         <v>49</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C51" s="7">
         <v>210041722004</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E51" s="2">
         <v>20</v>
@@ -2449,7 +2454,7 @@
         <v>50</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C52" s="7">
         <v>210041722005</v>
@@ -2482,7 +2487,7 @@
         <v>51</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C53" s="7">
         <v>210041722007</v>
@@ -2515,7 +2520,7 @@
         <v>52</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C54" s="7">
         <v>210041722008</v>
@@ -2548,7 +2553,7 @@
         <v>53</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C55" s="7">
         <v>210041722010</v>
@@ -2581,7 +2586,7 @@
         <v>54</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C56" s="7">
         <v>210041722012</v>
@@ -2614,7 +2619,7 @@
         <v>55</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C57" s="7">
         <v>210041722014</v>
@@ -2647,7 +2652,7 @@
         <v>56</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C58" s="7">
         <v>210041722015</v>
@@ -2680,7 +2685,7 @@
         <v>57</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C59" s="7">
         <v>210041722016</v>
@@ -2713,16 +2718,16 @@
         <v>58</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C60" s="7">
         <v>210041722017</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G60" s="2">
         <v>0</v>
@@ -2746,7 +2751,7 @@
         <v>59</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C61" s="7">
         <v>210041722019</v>
@@ -2779,7 +2784,7 @@
         <v>60</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C62" s="7">
         <v>210041700012</v>
@@ -2812,7 +2817,7 @@
         <v>61</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C63" s="7">
         <v>210041700064</v>
@@ -2845,7 +2850,7 @@
         <v>62</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C64" s="7">
         <v>210041700065</v>
@@ -2878,13 +2883,13 @@
         <v>63</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C65" s="7">
         <v>210041700066</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E65" s="2">
         <v>15</v>
@@ -2911,7 +2916,7 @@
         <v>64</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C66" s="7">
         <v>210041700067</v>
@@ -2944,7 +2949,7 @@
         <v>65</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C67" s="7">
         <v>210041700068</v>
@@ -2977,7 +2982,7 @@
         <v>66</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C68" s="7">
         <v>210041700069</v>
@@ -3010,13 +3015,13 @@
         <v>67</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C69" s="7">
         <v>210041700071</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E69" s="2">
         <v>14</v>
@@ -3043,7 +3048,7 @@
         <v>68</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C70" s="7">
         <v>210041700073</v>
@@ -3076,7 +3081,7 @@
         <v>69</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C71" s="7">
         <v>210041700076</v>
@@ -3085,7 +3090,7 @@
         <v>13</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G71" s="2">
         <v>35</v>
@@ -3109,13 +3114,13 @@
         <v>70</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C72" s="7">
         <v>210041700081</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E72" s="2">
         <v>11</v>
@@ -3142,7 +3147,7 @@
         <v>71</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C73" s="7">
         <v>210041700082</v>
@@ -3175,7 +3180,7 @@
         <v>72</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C74" s="7">
         <v>210041700083</v>
@@ -3208,7 +3213,7 @@
         <v>73</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C75" s="7">
         <v>210041700084</v>
@@ -3241,7 +3246,7 @@
         <v>74</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C76" s="7">
         <v>210041700085</v>
@@ -3274,7 +3279,7 @@
         <v>75</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C77" s="7">
         <v>210041700087</v>
@@ -3307,7 +3312,7 @@
         <v>76</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C78" s="7">
         <v>210041700088</v>
@@ -3316,7 +3321,7 @@
         <v>3</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G78" s="2">
         <v>33</v>
@@ -3340,7 +3345,7 @@
         <v>77</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C79" s="7">
         <v>210041700090</v>
@@ -3373,7 +3378,7 @@
         <v>78</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C80" s="7">
         <v>210041700091</v>
@@ -3406,16 +3411,16 @@
         <v>79</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C81" s="7">
         <v>210041700092</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G81" s="2">
         <v>0</v>
@@ -3439,13 +3444,13 @@
         <v>80</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C82" s="7">
         <v>210041700094</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E82" s="2">
         <v>15</v>
@@ -3472,7 +3477,7 @@
         <v>81</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C83" s="7">
         <v>210041700095</v>
@@ -3505,7 +3510,7 @@
         <v>82</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C84" s="7">
         <v>210041700097</v>
@@ -3538,16 +3543,16 @@
         <v>83</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C85" s="7">
         <v>210041700098</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G85" s="2">
         <v>0</v>
@@ -3571,16 +3576,16 @@
         <v>84</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C86" s="7">
         <v>210041700102</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G86" s="2">
         <v>33</v>
@@ -3604,16 +3609,16 @@
         <v>85</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C87" s="7">
         <v>210041700103</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G87" s="2">
         <v>0</v>
@@ -3637,7 +3642,7 @@
         <v>86</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C88" s="6">
         <v>210041700104</v>
@@ -3670,7 +3675,7 @@
         <v>87</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C89" s="6">
         <v>210041700105</v>
@@ -3703,7 +3708,7 @@
         <v>88</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C90" s="6">
         <v>210041700106</v>
@@ -3736,7 +3741,7 @@
         <v>89</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C91" s="6">
         <v>210041700108</v>
@@ -3769,7 +3774,7 @@
         <v>90</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C92" s="6">
         <v>210041700109</v>
@@ -3802,7 +3807,7 @@
         <v>91</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C93" s="6">
         <v>210041700112</v>
@@ -3835,7 +3840,7 @@
         <v>92</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C94" s="6">
         <v>210041700113</v>
@@ -3868,7 +3873,7 @@
         <v>93</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C95" s="6">
         <v>210041700114</v>
@@ -3901,16 +3906,16 @@
         <v>94</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C96" s="6">
         <v>210041700116</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G96" s="2">
         <v>0</v>
@@ -3934,7 +3939,7 @@
         <v>95</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C97" s="6">
         <v>210041700117</v>
@@ -3967,7 +3972,7 @@
         <v>96</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C98" s="6">
         <v>210041700119</v>
@@ -4000,7 +4005,7 @@
         <v>97</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C99" s="6">
         <v>210041700120</v>
@@ -4033,7 +4038,7 @@
         <v>98</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C100" s="6">
         <v>210041700122</v>
@@ -4066,7 +4071,7 @@
         <v>99</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C101" s="6">
         <v>210041700123</v>
@@ -4099,7 +4104,7 @@
         <v>100</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C102" s="6">
         <v>210041700126</v>
@@ -4108,7 +4113,7 @@
         <v>6</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G102" s="2">
         <v>0</v>
@@ -4132,7 +4137,7 @@
         <v>101</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C103" s="6">
         <v>210041700128</v>
@@ -4165,7 +4170,7 @@
         <v>102</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C104" s="6">
         <v>210041722020</v>
@@ -4198,7 +4203,7 @@
         <v>103</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C105" s="6">
         <v>210041722021</v>
@@ -4207,7 +4212,7 @@
         <v>15</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G105" s="2">
         <v>26</v>
@@ -4231,16 +4236,16 @@
         <v>104</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C106" s="6">
         <v>210041722022</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G106" s="2">
         <v>0</v>
@@ -4264,16 +4269,16 @@
         <v>105</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C107" s="6">
         <v>210041722023</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G107" s="2">
         <v>0</v>
@@ -4297,7 +4302,7 @@
         <v>106</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C108" s="6">
         <v>210041722024</v>
@@ -4330,7 +4335,7 @@
         <v>107</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C109" s="6">
         <v>210041722025</v>
@@ -4339,7 +4344,7 @@
         <v>19</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G109" s="2">
         <v>40</v>
@@ -4363,7 +4368,7 @@
         <v>108</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C110" s="6">
         <v>210041722026</v>
@@ -4372,7 +4377,7 @@
         <v>2</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G110" s="2">
         <v>0</v>
@@ -4396,7 +4401,7 @@
         <v>109</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C111" s="6">
         <v>210041722027</v>
@@ -4429,13 +4434,13 @@
         <v>110</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C112" s="6">
         <v>210041722028</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E112" s="2">
         <v>11</v>
@@ -4462,7 +4467,7 @@
         <v>111</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C113" s="6">
         <v>210041722030</v>
@@ -4495,16 +4500,16 @@
         <v>112</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C114" s="6">
         <v>210041722032</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G114" s="2">
         <v>0</v>
@@ -4528,7 +4533,7 @@
         <v>113</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C115" s="6">
         <v>210041722034</v>
@@ -4561,7 +4566,7 @@
         <v>114</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C116" s="6">
         <v>210041722035</v>
@@ -4594,7 +4599,7 @@
         <v>115</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C117" s="6">
         <v>210041722036</v>
@@ -4627,7 +4632,7 @@
         <v>116</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C118" s="6">
         <v>210041722037</v>
@@ -4660,7 +4665,7 @@
         <v>117</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C119" s="6">
         <v>210041722038</v>
@@ -4669,7 +4674,7 @@
         <v>22</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G119" s="2">
         <v>41</v>

--- a/static/Upload/5th sem.xlsx
+++ b/static/Upload/5th sem.xlsx
@@ -10,7 +10,7 @@
     <sheet name="CNC" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">CNC!$I$1:$I$119</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">CNC!$F$1:$F$119</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="117">
   <si>
     <t>S.N</t>
   </si>
@@ -370,6 +370,9 @@
   </si>
   <si>
     <t>Internal (25)</t>
+  </si>
+  <si>
+    <t>AB</t>
   </si>
 </sst>
 </file>
@@ -752,8 +755,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R119"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="H105" sqref="H105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -844,6 +847,9 @@
       <c r="E3" s="1">
         <v>8</v>
       </c>
+      <c r="F3" s="1">
+        <v>10</v>
+      </c>
       <c r="G3" s="1">
         <v>0</v>
       </c>
@@ -878,6 +884,9 @@
       <c r="E4" s="1">
         <v>9</v>
       </c>
+      <c r="F4" s="1">
+        <v>9</v>
+      </c>
       <c r="G4" s="1">
         <v>0</v>
       </c>
@@ -912,6 +921,9 @@
       <c r="E5" s="2">
         <v>13</v>
       </c>
+      <c r="F5" s="2">
+        <v>13</v>
+      </c>
       <c r="G5" s="2">
         <v>35</v>
       </c>
@@ -945,6 +957,9 @@
       <c r="E6" s="2" t="s">
         <v>110</v>
       </c>
+      <c r="F6" s="2" t="s">
+        <v>116</v>
+      </c>
       <c r="G6" s="2">
         <v>0</v>
       </c>
@@ -978,6 +993,9 @@
       <c r="E7" s="2">
         <v>16</v>
       </c>
+      <c r="F7" s="2">
+        <v>19</v>
+      </c>
       <c r="G7" s="2">
         <v>44</v>
       </c>
@@ -1011,6 +1029,9 @@
       <c r="E8" s="2" t="s">
         <v>110</v>
       </c>
+      <c r="F8" s="2" t="s">
+        <v>116</v>
+      </c>
       <c r="G8" s="2">
         <v>0</v>
       </c>
@@ -1044,6 +1065,9 @@
       <c r="E9" s="2">
         <v>10</v>
       </c>
+      <c r="F9" s="2">
+        <v>11</v>
+      </c>
       <c r="G9" s="2">
         <v>0</v>
       </c>
@@ -1077,6 +1101,9 @@
       <c r="E10" s="2">
         <v>13</v>
       </c>
+      <c r="F10" s="2">
+        <v>6</v>
+      </c>
       <c r="G10" s="2">
         <v>35</v>
       </c>
@@ -1110,6 +1137,9 @@
       <c r="E11" s="2">
         <v>9</v>
       </c>
+      <c r="F11" s="2">
+        <v>11</v>
+      </c>
       <c r="G11" s="2">
         <v>49</v>
       </c>
@@ -1143,6 +1173,9 @@
       <c r="E12" s="2">
         <v>18</v>
       </c>
+      <c r="F12" s="2">
+        <v>16</v>
+      </c>
       <c r="G12" s="2">
         <v>0</v>
       </c>
@@ -1176,6 +1209,9 @@
       <c r="E13" s="2">
         <v>12</v>
       </c>
+      <c r="F13" s="2">
+        <v>4</v>
+      </c>
       <c r="G13" s="2">
         <v>0</v>
       </c>
@@ -1209,6 +1245,9 @@
       <c r="E14" s="2">
         <v>14</v>
       </c>
+      <c r="F14" s="2" t="s">
+        <v>116</v>
+      </c>
       <c r="G14" s="2">
         <v>38</v>
       </c>
@@ -1242,6 +1281,9 @@
       <c r="E15" s="2">
         <v>9</v>
       </c>
+      <c r="F15" s="2">
+        <v>7</v>
+      </c>
       <c r="G15" s="2">
         <v>0</v>
       </c>
@@ -1275,6 +1317,9 @@
       <c r="E16" s="2">
         <v>7</v>
       </c>
+      <c r="F16" s="2">
+        <v>6</v>
+      </c>
       <c r="G16" s="2">
         <v>0</v>
       </c>
@@ -1308,6 +1353,9 @@
       <c r="E17" s="2">
         <v>5</v>
       </c>
+      <c r="F17" s="2">
+        <v>5</v>
+      </c>
       <c r="G17" s="2">
         <v>35</v>
       </c>
@@ -1341,6 +1389,9 @@
       <c r="E18" s="2">
         <v>12</v>
       </c>
+      <c r="F18" s="2">
+        <v>10</v>
+      </c>
       <c r="G18" s="2">
         <v>0</v>
       </c>
@@ -1374,6 +1425,9 @@
       <c r="E19" s="2" t="s">
         <v>110</v>
       </c>
+      <c r="F19" s="2">
+        <v>16</v>
+      </c>
       <c r="G19" s="2">
         <v>33</v>
       </c>
@@ -1407,6 +1461,9 @@
       <c r="E20" s="2">
         <v>21</v>
       </c>
+      <c r="F20" s="2">
+        <v>9</v>
+      </c>
       <c r="G20" s="2">
         <v>45</v>
       </c>
@@ -1440,6 +1497,9 @@
       <c r="E21" s="2">
         <v>6</v>
       </c>
+      <c r="F21" s="2">
+        <v>6</v>
+      </c>
       <c r="G21" s="2">
         <v>0</v>
       </c>
@@ -1473,6 +1533,9 @@
       <c r="E22" s="2">
         <v>15</v>
       </c>
+      <c r="F22" s="2">
+        <v>10</v>
+      </c>
       <c r="G22" s="2">
         <v>38</v>
       </c>
@@ -1506,6 +1569,9 @@
       <c r="E23" s="2">
         <v>14</v>
       </c>
+      <c r="F23" s="2">
+        <v>13</v>
+      </c>
       <c r="G23" s="2">
         <v>44</v>
       </c>
@@ -1513,7 +1579,7 @@
         <v>34</v>
       </c>
       <c r="I23" s="2">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="J23" s="15">
         <v>100</v>
@@ -1539,6 +1605,9 @@
       <c r="E24" s="2">
         <v>2</v>
       </c>
+      <c r="F24" s="2">
+        <v>6</v>
+      </c>
       <c r="G24" s="2">
         <v>0</v>
       </c>
@@ -1572,6 +1641,9 @@
       <c r="E25" s="2">
         <v>4</v>
       </c>
+      <c r="F25" s="2">
+        <v>10</v>
+      </c>
       <c r="G25" s="2">
         <v>35</v>
       </c>
@@ -1605,6 +1677,9 @@
       <c r="E26" s="2">
         <v>1</v>
       </c>
+      <c r="F26" s="2">
+        <v>3</v>
+      </c>
       <c r="G26" s="2">
         <v>0</v>
       </c>
@@ -1638,6 +1713,9 @@
       <c r="E27" s="2">
         <v>5</v>
       </c>
+      <c r="F27" s="2">
+        <v>10</v>
+      </c>
       <c r="G27" s="2">
         <v>35</v>
       </c>
@@ -1671,6 +1749,9 @@
       <c r="E28" s="2">
         <v>13</v>
       </c>
+      <c r="F28" s="2">
+        <v>5.5</v>
+      </c>
       <c r="G28" s="2">
         <v>25</v>
       </c>
@@ -1704,6 +1785,9 @@
       <c r="E29" s="2">
         <v>2</v>
       </c>
+      <c r="F29" s="2">
+        <v>9</v>
+      </c>
       <c r="G29" s="2">
         <v>35</v>
       </c>
@@ -1737,6 +1821,9 @@
       <c r="E30" s="2">
         <v>3</v>
       </c>
+      <c r="F30" s="2">
+        <v>2</v>
+      </c>
       <c r="G30" s="2">
         <v>0</v>
       </c>
@@ -1770,6 +1857,9 @@
       <c r="E31" s="2">
         <v>14</v>
       </c>
+      <c r="F31" s="2">
+        <v>15</v>
+      </c>
       <c r="G31" s="2">
         <v>42</v>
       </c>
@@ -1803,6 +1893,9 @@
       <c r="E32" s="2">
         <v>17</v>
       </c>
+      <c r="F32" s="2">
+        <v>11</v>
+      </c>
       <c r="G32" s="2">
         <v>49</v>
       </c>
@@ -1836,6 +1929,9 @@
       <c r="E33" s="2">
         <v>12</v>
       </c>
+      <c r="F33" s="2">
+        <v>18</v>
+      </c>
       <c r="G33" s="2">
         <v>41</v>
       </c>
@@ -1869,6 +1965,9 @@
       <c r="E34" s="2">
         <v>19</v>
       </c>
+      <c r="F34" s="2">
+        <v>10</v>
+      </c>
       <c r="G34" s="2">
         <v>42</v>
       </c>
@@ -1902,6 +2001,9 @@
       <c r="E35" s="2">
         <v>6</v>
       </c>
+      <c r="F35" s="2">
+        <v>4</v>
+      </c>
       <c r="G35" s="2">
         <v>33</v>
       </c>
@@ -1935,6 +2037,9 @@
       <c r="E36" s="2">
         <v>16</v>
       </c>
+      <c r="F36" s="2" t="s">
+        <v>116</v>
+      </c>
       <c r="G36" s="2">
         <v>41</v>
       </c>
@@ -1968,6 +2073,9 @@
       <c r="E37" s="2">
         <v>15</v>
       </c>
+      <c r="F37" s="2">
+        <v>12</v>
+      </c>
       <c r="G37" s="2">
         <v>43</v>
       </c>
@@ -2001,6 +2109,9 @@
       <c r="E38" s="2">
         <v>15</v>
       </c>
+      <c r="F38" s="2">
+        <v>10</v>
+      </c>
       <c r="G38" s="2">
         <v>48</v>
       </c>
@@ -2034,6 +2145,9 @@
       <c r="E39" s="2">
         <v>6</v>
       </c>
+      <c r="F39" s="2">
+        <v>6</v>
+      </c>
       <c r="G39" s="2">
         <v>0</v>
       </c>
@@ -2067,6 +2181,9 @@
       <c r="E40" s="2">
         <v>9</v>
       </c>
+      <c r="F40" s="2">
+        <v>4</v>
+      </c>
       <c r="G40" s="2">
         <v>48</v>
       </c>
@@ -2100,6 +2217,9 @@
       <c r="E41" s="2">
         <v>13</v>
       </c>
+      <c r="F41" s="2">
+        <v>14</v>
+      </c>
       <c r="G41" s="2">
         <v>41</v>
       </c>
@@ -2133,6 +2253,9 @@
       <c r="E42" s="2">
         <v>9</v>
       </c>
+      <c r="F42" s="2">
+        <v>6</v>
+      </c>
       <c r="G42" s="2">
         <v>46</v>
       </c>
@@ -2166,6 +2289,9 @@
       <c r="E43" s="2">
         <v>12</v>
       </c>
+      <c r="F43" s="2">
+        <v>6</v>
+      </c>
       <c r="G43" s="2">
         <v>0</v>
       </c>
@@ -2199,6 +2325,9 @@
       <c r="E44" s="2">
         <v>4</v>
       </c>
+      <c r="F44" s="2">
+        <v>6</v>
+      </c>
       <c r="G44" s="2">
         <v>0</v>
       </c>
@@ -2232,6 +2361,9 @@
       <c r="E45" s="2">
         <v>6</v>
       </c>
+      <c r="F45" s="2">
+        <v>6</v>
+      </c>
       <c r="G45" s="2">
         <v>0</v>
       </c>
@@ -2265,6 +2397,9 @@
       <c r="E46" s="2">
         <v>6</v>
       </c>
+      <c r="F46" s="2" t="s">
+        <v>116</v>
+      </c>
       <c r="G46" s="2">
         <v>0</v>
       </c>
@@ -2298,6 +2433,9 @@
       <c r="E47" s="2">
         <v>12</v>
       </c>
+      <c r="F47" s="2">
+        <v>14</v>
+      </c>
       <c r="G47" s="2">
         <v>34</v>
       </c>
@@ -2331,6 +2469,9 @@
       <c r="E48" s="2">
         <v>19</v>
       </c>
+      <c r="F48" s="2">
+        <v>17</v>
+      </c>
       <c r="G48" s="2">
         <v>45</v>
       </c>
@@ -2363,6 +2504,9 @@
       </c>
       <c r="E49" s="4">
         <v>10</v>
+      </c>
+      <c r="F49" s="4" t="s">
+        <v>116</v>
       </c>
       <c r="G49" s="4">
         <v>50</v>
@@ -2398,6 +2542,9 @@
       <c r="E50" s="4">
         <v>15</v>
       </c>
+      <c r="F50" s="4">
+        <v>11</v>
+      </c>
       <c r="G50" s="4">
         <v>43</v>
       </c>
@@ -2432,6 +2579,9 @@
       <c r="E51" s="2">
         <v>20</v>
       </c>
+      <c r="F51" s="2">
+        <v>12</v>
+      </c>
       <c r="G51" s="2">
         <v>49</v>
       </c>
@@ -2465,6 +2615,9 @@
       <c r="E52" s="2">
         <v>0</v>
       </c>
+      <c r="F52" s="2">
+        <v>10</v>
+      </c>
       <c r="G52" s="2">
         <v>43</v>
       </c>
@@ -2498,6 +2651,9 @@
       <c r="E53" s="2">
         <v>6</v>
       </c>
+      <c r="F53" s="2">
+        <v>5</v>
+      </c>
       <c r="G53" s="2">
         <v>0</v>
       </c>
@@ -2531,6 +2687,9 @@
       <c r="E54" s="2">
         <v>11</v>
       </c>
+      <c r="F54" s="2">
+        <v>6</v>
+      </c>
       <c r="G54" s="2">
         <v>35</v>
       </c>
@@ -2564,6 +2723,9 @@
       <c r="E55" s="2">
         <v>17</v>
       </c>
+      <c r="F55" s="2">
+        <v>13</v>
+      </c>
       <c r="G55" s="2">
         <v>42</v>
       </c>
@@ -2597,6 +2759,9 @@
       <c r="E56" s="2">
         <v>19</v>
       </c>
+      <c r="F56" s="2">
+        <v>13</v>
+      </c>
       <c r="G56" s="2">
         <v>42</v>
       </c>
@@ -2630,6 +2795,9 @@
       <c r="E57" s="2">
         <v>1</v>
       </c>
+      <c r="F57" s="2">
+        <v>6</v>
+      </c>
       <c r="G57" s="2">
         <v>35</v>
       </c>
@@ -2663,6 +2831,9 @@
       <c r="E58" s="2">
         <v>8</v>
       </c>
+      <c r="F58" s="2">
+        <v>4</v>
+      </c>
       <c r="G58" s="2">
         <v>35</v>
       </c>
@@ -2696,6 +2867,9 @@
       <c r="E59" s="2">
         <v>22</v>
       </c>
+      <c r="F59" s="2">
+        <v>13</v>
+      </c>
       <c r="G59" s="2">
         <v>43</v>
       </c>
@@ -2729,6 +2903,9 @@
       <c r="E60" s="2" t="s">
         <v>110</v>
       </c>
+      <c r="F60" s="2" t="s">
+        <v>116</v>
+      </c>
       <c r="G60" s="2">
         <v>0</v>
       </c>
@@ -2762,6 +2939,9 @@
       <c r="E61" s="2">
         <v>6</v>
       </c>
+      <c r="F61" s="2" t="s">
+        <v>116</v>
+      </c>
       <c r="G61" s="2">
         <v>35</v>
       </c>
@@ -2795,8 +2975,11 @@
       <c r="E62" s="2">
         <v>16.5</v>
       </c>
+      <c r="F62" s="2">
+        <v>15</v>
+      </c>
       <c r="G62" s="2">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="H62" s="2">
         <v>31</v>
@@ -2828,6 +3011,9 @@
       <c r="E63" s="2">
         <v>10</v>
       </c>
+      <c r="F63" s="2">
+        <v>12</v>
+      </c>
       <c r="G63" s="2">
         <v>0</v>
       </c>
@@ -2861,6 +3047,9 @@
       <c r="E64" s="2">
         <v>15</v>
       </c>
+      <c r="F64" s="2">
+        <v>12</v>
+      </c>
       <c r="G64" s="2">
         <v>0</v>
       </c>
@@ -2894,6 +3083,9 @@
       <c r="E65" s="2">
         <v>15</v>
       </c>
+      <c r="F65" s="2">
+        <v>12</v>
+      </c>
       <c r="G65" s="2">
         <v>0</v>
       </c>
@@ -2927,6 +3119,9 @@
       <c r="E66" s="2">
         <v>13</v>
       </c>
+      <c r="F66" s="2">
+        <v>14</v>
+      </c>
       <c r="G66" s="2">
         <v>33</v>
       </c>
@@ -2960,6 +3155,9 @@
       <c r="E67" s="2">
         <v>10</v>
       </c>
+      <c r="F67" s="2">
+        <v>12</v>
+      </c>
       <c r="G67" s="2">
         <v>0</v>
       </c>
@@ -2993,6 +3191,9 @@
       <c r="E68" s="2">
         <v>12</v>
       </c>
+      <c r="F68" s="2">
+        <v>17</v>
+      </c>
       <c r="G68" s="2">
         <v>28</v>
       </c>
@@ -3026,6 +3227,9 @@
       <c r="E69" s="2">
         <v>14</v>
       </c>
+      <c r="F69" s="2">
+        <v>13</v>
+      </c>
       <c r="G69" s="2">
         <v>36</v>
       </c>
@@ -3059,6 +3263,9 @@
       <c r="E70" s="2">
         <v>2</v>
       </c>
+      <c r="F70" s="2">
+        <v>12</v>
+      </c>
       <c r="G70" s="2">
         <v>35</v>
       </c>
@@ -3092,6 +3299,9 @@
       <c r="E71" s="2" t="s">
         <v>110</v>
       </c>
+      <c r="F71" s="2">
+        <v>16</v>
+      </c>
       <c r="G71" s="2">
         <v>35</v>
       </c>
@@ -3125,6 +3335,9 @@
       <c r="E72" s="2">
         <v>11</v>
       </c>
+      <c r="F72" s="2">
+        <v>12</v>
+      </c>
       <c r="G72" s="2">
         <v>0</v>
       </c>
@@ -3158,6 +3371,9 @@
       <c r="E73" s="2">
         <v>14</v>
       </c>
+      <c r="F73" s="2">
+        <v>13</v>
+      </c>
       <c r="G73" s="2">
         <v>33</v>
       </c>
@@ -3191,14 +3407,17 @@
       <c r="E74" s="2">
         <v>9</v>
       </c>
+      <c r="F74" s="2">
+        <v>13</v>
+      </c>
       <c r="G74" s="2">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="H74" s="2">
         <v>33</v>
       </c>
       <c r="I74" s="2">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="J74" s="15">
         <v>69.230769230769226</v>
@@ -3224,6 +3443,9 @@
       <c r="E75" s="2">
         <v>23</v>
       </c>
+      <c r="F75" s="2" t="s">
+        <v>116</v>
+      </c>
       <c r="G75" s="2">
         <v>41</v>
       </c>
@@ -3257,6 +3479,9 @@
       <c r="E76" s="2">
         <v>18</v>
       </c>
+      <c r="F76" s="2">
+        <v>17</v>
+      </c>
       <c r="G76" s="2">
         <v>34</v>
       </c>
@@ -3290,6 +3515,9 @@
       <c r="E77" s="2">
         <v>13</v>
       </c>
+      <c r="F77" s="2" t="s">
+        <v>116</v>
+      </c>
       <c r="G77" s="2">
         <v>37</v>
       </c>
@@ -3323,6 +3551,9 @@
       <c r="E78" s="2" t="s">
         <v>110</v>
       </c>
+      <c r="F78" s="2">
+        <v>7</v>
+      </c>
       <c r="G78" s="2">
         <v>33</v>
       </c>
@@ -3356,6 +3587,9 @@
       <c r="E79" s="2">
         <v>9</v>
       </c>
+      <c r="F79" s="2">
+        <v>15</v>
+      </c>
       <c r="G79" s="2">
         <v>35</v>
       </c>
@@ -3389,6 +3623,9 @@
       <c r="E80" s="2">
         <v>8</v>
       </c>
+      <c r="F80" s="2">
+        <v>12</v>
+      </c>
       <c r="G80" s="2">
         <v>35</v>
       </c>
@@ -3422,6 +3659,9 @@
       <c r="E81" s="2" t="s">
         <v>110</v>
       </c>
+      <c r="F81" s="2" t="s">
+        <v>116</v>
+      </c>
       <c r="G81" s="2">
         <v>0</v>
       </c>
@@ -3455,6 +3695,9 @@
       <c r="E82" s="2">
         <v>15</v>
       </c>
+      <c r="F82" s="2">
+        <v>15</v>
+      </c>
       <c r="G82" s="2">
         <v>36</v>
       </c>
@@ -3488,6 +3731,9 @@
       <c r="E83" s="2">
         <v>7</v>
       </c>
+      <c r="F83" s="2">
+        <v>13</v>
+      </c>
       <c r="G83" s="2">
         <v>0</v>
       </c>
@@ -3521,6 +3767,9 @@
       <c r="E84" s="2">
         <v>16</v>
       </c>
+      <c r="F84" s="2">
+        <v>13</v>
+      </c>
       <c r="G84" s="2">
         <v>41</v>
       </c>
@@ -3554,6 +3803,9 @@
       <c r="E85" s="2" t="s">
         <v>110</v>
       </c>
+      <c r="F85" s="2" t="s">
+        <v>116</v>
+      </c>
       <c r="G85" s="2">
         <v>0</v>
       </c>
@@ -3587,6 +3839,9 @@
       <c r="E86" s="2" t="s">
         <v>110</v>
       </c>
+      <c r="F86" s="2">
+        <v>17</v>
+      </c>
       <c r="G86" s="2">
         <v>33</v>
       </c>
@@ -3620,6 +3875,9 @@
       <c r="E87" s="2" t="s">
         <v>110</v>
       </c>
+      <c r="F87" s="2" t="s">
+        <v>116</v>
+      </c>
       <c r="G87" s="2">
         <v>0</v>
       </c>
@@ -3653,6 +3911,9 @@
       <c r="E88" s="2">
         <v>13</v>
       </c>
+      <c r="F88" s="2" t="s">
+        <v>116</v>
+      </c>
       <c r="G88" s="2">
         <v>33</v>
       </c>
@@ -3686,6 +3947,9 @@
       <c r="E89" s="2">
         <v>15</v>
       </c>
+      <c r="F89" s="2">
+        <v>15</v>
+      </c>
       <c r="G89" s="2">
         <v>35</v>
       </c>
@@ -3719,6 +3983,9 @@
       <c r="E90" s="2">
         <v>16</v>
       </c>
+      <c r="F90" s="2">
+        <v>10</v>
+      </c>
       <c r="G90" s="2">
         <v>0</v>
       </c>
@@ -3752,6 +4019,9 @@
       <c r="E91" s="2">
         <v>11</v>
       </c>
+      <c r="F91" s="2">
+        <v>10</v>
+      </c>
       <c r="G91" s="2">
         <v>0</v>
       </c>
@@ -3785,6 +4055,9 @@
       <c r="E92" s="2">
         <v>17</v>
       </c>
+      <c r="F92" s="2">
+        <v>16</v>
+      </c>
       <c r="G92" s="2">
         <v>33</v>
       </c>
@@ -3818,6 +4091,9 @@
       <c r="E93" s="2">
         <v>4</v>
       </c>
+      <c r="F93" s="2">
+        <v>15</v>
+      </c>
       <c r="G93" s="2">
         <v>35</v>
       </c>
@@ -3851,6 +4127,9 @@
       <c r="E94" s="2">
         <v>17</v>
       </c>
+      <c r="F94" s="2" t="s">
+        <v>116</v>
+      </c>
       <c r="G94" s="2">
         <v>40</v>
       </c>
@@ -3884,6 +4163,9 @@
       <c r="E95" s="2">
         <v>9</v>
       </c>
+      <c r="F95" s="2">
+        <v>11</v>
+      </c>
       <c r="G95" s="2">
         <v>41</v>
       </c>
@@ -3917,6 +4199,9 @@
       <c r="E96" s="2" t="s">
         <v>110</v>
       </c>
+      <c r="F96" s="2" t="s">
+        <v>116</v>
+      </c>
       <c r="G96" s="2">
         <v>0</v>
       </c>
@@ -3950,6 +4235,9 @@
       <c r="E97" s="2">
         <v>10</v>
       </c>
+      <c r="F97" s="2">
+        <v>7</v>
+      </c>
       <c r="G97" s="2">
         <v>35</v>
       </c>
@@ -3983,6 +4271,9 @@
       <c r="E98" s="2">
         <v>15</v>
       </c>
+      <c r="F98" s="2">
+        <v>10</v>
+      </c>
       <c r="G98" s="2">
         <v>37</v>
       </c>
@@ -3990,7 +4281,7 @@
         <v>30</v>
       </c>
       <c r="I98" s="2">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="J98" s="15">
         <v>92.307692307692307</v>
@@ -4016,6 +4307,9 @@
       <c r="E99" s="2">
         <v>12</v>
       </c>
+      <c r="F99" s="2">
+        <v>15</v>
+      </c>
       <c r="G99" s="2">
         <v>43</v>
       </c>
@@ -4049,6 +4343,9 @@
       <c r="E100" s="2">
         <v>16</v>
       </c>
+      <c r="F100" s="2">
+        <v>18</v>
+      </c>
       <c r="G100" s="2">
         <v>35</v>
       </c>
@@ -4082,14 +4379,17 @@
       <c r="E101" s="2">
         <v>9</v>
       </c>
+      <c r="F101" s="2">
+        <v>11</v>
+      </c>
       <c r="G101" s="2">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="H101" s="2">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="I101" s="2">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="J101" s="15">
         <v>38.461538461538467</v>
@@ -4115,6 +4415,9 @@
       <c r="E102" s="2" t="s">
         <v>110</v>
       </c>
+      <c r="F102" s="2" t="s">
+        <v>116</v>
+      </c>
       <c r="G102" s="2">
         <v>0</v>
       </c>
@@ -4148,6 +4451,9 @@
       <c r="E103" s="2">
         <v>11</v>
       </c>
+      <c r="F103" s="2">
+        <v>16</v>
+      </c>
       <c r="G103" s="2">
         <v>41</v>
       </c>
@@ -4181,6 +4487,9 @@
       <c r="E104" s="2">
         <v>20</v>
       </c>
+      <c r="F104" s="2" t="s">
+        <v>116</v>
+      </c>
       <c r="G104" s="2">
         <v>40</v>
       </c>
@@ -4214,6 +4523,9 @@
       <c r="E105" s="2" t="s">
         <v>110</v>
       </c>
+      <c r="F105" s="2">
+        <v>14</v>
+      </c>
       <c r="G105" s="2">
         <v>26</v>
       </c>
@@ -4247,6 +4559,9 @@
       <c r="E106" s="2" t="s">
         <v>110</v>
       </c>
+      <c r="F106" s="2" t="s">
+        <v>116</v>
+      </c>
       <c r="G106" s="2">
         <v>0</v>
       </c>
@@ -4280,6 +4595,9 @@
       <c r="E107" s="2" t="s">
         <v>110</v>
       </c>
+      <c r="F107" s="2" t="s">
+        <v>116</v>
+      </c>
       <c r="G107" s="2">
         <v>0</v>
       </c>
@@ -4313,6 +4631,9 @@
       <c r="E108" s="2">
         <v>12</v>
       </c>
+      <c r="F108" s="2">
+        <v>19</v>
+      </c>
       <c r="G108" s="2">
         <v>33</v>
       </c>
@@ -4346,6 +4667,9 @@
       <c r="E109" s="2" t="s">
         <v>110</v>
       </c>
+      <c r="F109" s="2">
+        <v>20</v>
+      </c>
       <c r="G109" s="2">
         <v>40</v>
       </c>
@@ -4379,6 +4703,9 @@
       <c r="E110" s="2" t="s">
         <v>110</v>
       </c>
+      <c r="F110" s="2">
+        <v>4</v>
+      </c>
       <c r="G110" s="2">
         <v>0</v>
       </c>
@@ -4412,6 +4739,9 @@
       <c r="E111" s="2">
         <v>11</v>
       </c>
+      <c r="F111" s="2">
+        <v>17</v>
+      </c>
       <c r="G111" s="2">
         <v>0</v>
       </c>
@@ -4445,6 +4775,9 @@
       <c r="E112" s="2">
         <v>11</v>
       </c>
+      <c r="F112" s="2" t="s">
+        <v>116</v>
+      </c>
       <c r="G112" s="2">
         <v>0</v>
       </c>
@@ -4478,6 +4811,9 @@
       <c r="E113" s="2">
         <v>14</v>
       </c>
+      <c r="F113" s="2">
+        <v>16</v>
+      </c>
       <c r="G113" s="2">
         <v>30</v>
       </c>
@@ -4511,6 +4847,9 @@
       <c r="E114" s="2" t="s">
         <v>110</v>
       </c>
+      <c r="F114" s="2">
+        <v>4</v>
+      </c>
       <c r="G114" s="2">
         <v>0</v>
       </c>
@@ -4544,6 +4883,9 @@
       <c r="E115" s="2">
         <v>6</v>
       </c>
+      <c r="F115" s="2">
+        <v>11</v>
+      </c>
       <c r="G115" s="2">
         <v>0</v>
       </c>
@@ -4577,6 +4919,9 @@
       <c r="E116" s="2">
         <v>22</v>
       </c>
+      <c r="F116" s="2" t="s">
+        <v>116</v>
+      </c>
       <c r="G116" s="2">
         <v>41</v>
       </c>
@@ -4610,6 +4955,9 @@
       <c r="E117" s="2">
         <v>12</v>
       </c>
+      <c r="F117" s="2">
+        <v>13</v>
+      </c>
       <c r="G117" s="2">
         <v>35</v>
       </c>
@@ -4643,6 +4991,9 @@
       <c r="E118" s="2">
         <v>17</v>
       </c>
+      <c r="F118" s="2">
+        <v>10</v>
+      </c>
       <c r="G118" s="2">
         <v>0</v>
       </c>
@@ -4650,7 +5001,7 @@
         <v>26</v>
       </c>
       <c r="I118" s="2">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="J118" s="15">
         <v>53.846153846153847</v>
@@ -4675,6 +5026,9 @@
       </c>
       <c r="E119" s="2" t="s">
         <v>110</v>
+      </c>
+      <c r="F119" s="2">
+        <v>23</v>
       </c>
       <c r="G119" s="2">
         <v>41</v>

--- a/static/Upload/5th sem.xlsx
+++ b/static/Upload/5th sem.xlsx
@@ -360,7 +360,7 @@
     <t>A3 (5)</t>
   </si>
   <si>
-    <t>Practical(25)</t>
+    <t>Practical (25)</t>
   </si>
 </sst>
 </file>
@@ -719,8 +719,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N119"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A89" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/static/Upload/5th sem.xlsx
+++ b/static/Upload/5th sem.xlsx
@@ -719,8 +719,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N119"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L2" sqref="A1:L119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/static/Upload/5th sem.xlsx
+++ b/static/Upload/5th sem.xlsx
@@ -10,7 +10,7 @@
     <sheet name="CNC" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">CNC!$F$1:$F$119</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">CNC!$A$2:$O$112</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="135">
   <si>
     <t>S.N</t>
   </si>
@@ -228,15 +228,9 @@
     <t>SAHIL BIBAN</t>
   </si>
   <si>
-    <t>SAHIL SINGH</t>
-  </si>
-  <si>
     <t>SAURAV</t>
   </si>
   <si>
-    <t>SHANKER MEHTO</t>
-  </si>
-  <si>
     <t>SHUBHAM</t>
   </si>
   <si>
@@ -258,9 +252,6 @@
     <t>TINKU SHARMA</t>
   </si>
   <si>
-    <t>VIJAY KUMAR</t>
-  </si>
-  <si>
     <t>VIKAS</t>
   </si>
   <si>
@@ -306,18 +297,12 @@
     <t>GOVIND</t>
   </si>
   <si>
-    <t>MANOJ</t>
-  </si>
-  <si>
     <t>PRINCE KUMAR</t>
   </si>
   <si>
     <t>PRINCE KUMAR TIWARI</t>
   </si>
   <si>
-    <t>RAVI</t>
-  </si>
-  <si>
     <t>SAHIL DUHAN</t>
   </si>
   <si>
@@ -361,6 +346,87 @@
   </si>
   <si>
     <t>Practical (25)</t>
+  </si>
+  <si>
+    <t>Final(100)</t>
+  </si>
+  <si>
+    <t>18R</t>
+  </si>
+  <si>
+    <t>Pract(50)</t>
+  </si>
+  <si>
+    <t>22R</t>
+  </si>
+  <si>
+    <t>10R</t>
+  </si>
+  <si>
+    <t>17R</t>
+  </si>
+  <si>
+    <t>25R</t>
+  </si>
+  <si>
+    <t>11R</t>
+  </si>
+  <si>
+    <t>AB</t>
+  </si>
+  <si>
+    <t>7R</t>
+  </si>
+  <si>
+    <t>24R</t>
+  </si>
+  <si>
+    <t>16R</t>
+  </si>
+  <si>
+    <t>4R</t>
+  </si>
+  <si>
+    <t>23R</t>
+  </si>
+  <si>
+    <t>2R</t>
+  </si>
+  <si>
+    <t>12R</t>
+  </si>
+  <si>
+    <t>27R</t>
+  </si>
+  <si>
+    <t>28R</t>
+  </si>
+  <si>
+    <t>19R</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>20R</t>
+  </si>
+  <si>
+    <t>29R</t>
+  </si>
+  <si>
+    <t>15R</t>
+  </si>
+  <si>
+    <t>ab</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Fail</t>
+  </si>
+  <si>
+    <t>2 AB</t>
   </si>
 </sst>
 </file>
@@ -411,7 +477,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -429,6 +495,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -717,10 +786,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N119"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:O120"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L2" sqref="A1:L119"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="L120" sqref="L120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -732,28 +805,29 @@
     <col min="7" max="9" width="6.85546875" style="7" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12" style="6" bestFit="1" customWidth="1"/>
     <col min="11" max="12" width="12.7109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.140625" style="7"/>
-    <col min="14" max="14" width="18.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="7"/>
+    <col min="13" max="13" width="12.7109375" style="8" customWidth="1"/>
+    <col min="14" max="14" width="9.140625" style="7"/>
+    <col min="15" max="15" width="18.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
-      <c r="L1" s="8"/>
-    </row>
-    <row r="2" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
+    </row>
+    <row r="2" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -773,33 +847,39 @@
         <v>5</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="H2" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="N2" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="I2" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="N2" s="4" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O2" s="4" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <v>1</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C3" s="3">
         <v>200041700031</v>
@@ -831,13 +911,19 @@
       <c r="L3" s="7">
         <v>21</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="M3" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="N3" s="7">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <v>2</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C4" s="3">
         <v>200041700041</v>
@@ -869,10 +955,16 @@
       <c r="L4" s="7">
         <v>19</v>
       </c>
-      <c r="N4" s="6"/>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="7">
+      <c r="M4" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="N4" s="7">
+        <v>32</v>
+      </c>
+      <c r="O4" s="6"/>
+    </row>
+    <row r="5" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="8">
         <v>3</v>
       </c>
       <c r="B5" s="7" t="s">
@@ -908,9 +1000,15 @@
       <c r="L5" s="7">
         <v>19</v>
       </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="7">
+      <c r="M5" s="8">
+        <v>65</v>
+      </c>
+      <c r="N5" s="7">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" s="8">
         <v>4</v>
       </c>
       <c r="B6" s="7" t="s">
@@ -946,9 +1044,15 @@
       <c r="L6" s="7">
         <v>13</v>
       </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="7">
+      <c r="M6" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="N6" s="7" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="8">
         <v>5</v>
       </c>
       <c r="B7" s="7" t="s">
@@ -984,9 +1088,15 @@
       <c r="L7" s="7">
         <v>21</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="7">
+      <c r="M7" s="8">
+        <v>73</v>
+      </c>
+      <c r="N7" s="7">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" s="8">
         <v>6</v>
       </c>
       <c r="B8" s="7" t="s">
@@ -1022,9 +1132,15 @@
       <c r="L8" s="7">
         <v>13</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="7">
+      <c r="M8" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="N8" s="7" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="8">
         <v>7</v>
       </c>
       <c r="B9" s="7" t="s">
@@ -1060,9 +1176,15 @@
       <c r="L9" s="7">
         <v>15</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="7">
+      <c r="M9" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="N9" s="7">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="8">
         <v>8</v>
       </c>
       <c r="B10" s="7" t="s">
@@ -1098,9 +1220,15 @@
       <c r="L10" s="7">
         <v>19</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="7">
+      <c r="M10" s="8">
+        <v>42</v>
+      </c>
+      <c r="N10" s="7">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="8">
         <v>9</v>
       </c>
       <c r="B11" s="7" t="s">
@@ -1136,9 +1264,15 @@
       <c r="L11" s="7">
         <v>19</v>
       </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="7">
+      <c r="M11" s="8">
+        <v>38</v>
+      </c>
+      <c r="N11" s="7">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="8">
         <v>10</v>
       </c>
       <c r="B12" s="7" t="s">
@@ -1174,9 +1308,15 @@
       <c r="L12" s="7">
         <v>19</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="7">
+      <c r="M12" s="8">
+        <v>59</v>
+      </c>
+      <c r="N12" s="7">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="8">
         <v>11</v>
       </c>
       <c r="B13" s="7" t="s">
@@ -1212,9 +1352,15 @@
       <c r="L13" s="7">
         <v>18</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="7">
+      <c r="M13" s="8">
+        <v>54</v>
+      </c>
+      <c r="N13" s="7">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="8">
         <v>12</v>
       </c>
       <c r="B14" s="7" t="s">
@@ -1250,9 +1396,15 @@
       <c r="L14" s="7">
         <v>13</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="7">
+      <c r="M14" s="8">
+        <v>44</v>
+      </c>
+      <c r="N14" s="7">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="8">
         <v>13</v>
       </c>
       <c r="B15" s="7" t="s">
@@ -1288,9 +1440,15 @@
       <c r="L15" s="7">
         <v>19</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="7">
+      <c r="M15" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="N15" s="7">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="8">
         <v>14</v>
       </c>
       <c r="B16" s="7" t="s">
@@ -1326,9 +1484,15 @@
       <c r="L16" s="7">
         <v>16</v>
       </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" s="7">
+      <c r="M16" s="8">
+        <v>54</v>
+      </c>
+      <c r="N16" s="7">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="8">
         <v>15</v>
       </c>
       <c r="B17" s="7" t="s">
@@ -1364,9 +1528,15 @@
       <c r="L17" s="7">
         <v>19</v>
       </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" s="7">
+      <c r="M17" s="8">
+        <v>71</v>
+      </c>
+      <c r="N17" s="7">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="8">
         <v>16</v>
       </c>
       <c r="B18" s="7" t="s">
@@ -1402,9 +1572,15 @@
       <c r="L18" s="7">
         <v>21</v>
       </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" s="7">
+      <c r="M18" s="8">
+        <v>33</v>
+      </c>
+      <c r="N18" s="7">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="8">
         <v>17</v>
       </c>
       <c r="B19" s="7" t="s">
@@ -1440,9 +1616,15 @@
       <c r="L19" s="7">
         <v>19</v>
       </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" s="7">
+      <c r="M19" s="8">
+        <v>61</v>
+      </c>
+      <c r="N19" s="7">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="8">
         <v>18</v>
       </c>
       <c r="B20" s="7" t="s">
@@ -1478,9 +1660,15 @@
       <c r="L20" s="7">
         <v>21</v>
       </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" s="7">
+      <c r="M20" s="8">
+        <v>76</v>
+      </c>
+      <c r="N20" s="7">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="8">
         <v>19</v>
       </c>
       <c r="B21" s="7" t="s">
@@ -1516,9 +1704,15 @@
       <c r="L21" s="7">
         <v>19</v>
       </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A22" s="7">
+      <c r="M21" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="N21" s="7">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="8">
         <v>20</v>
       </c>
       <c r="B22" s="7" t="s">
@@ -1554,9 +1748,15 @@
       <c r="L22" s="7">
         <v>19</v>
       </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" s="7">
+      <c r="M22" s="8">
+        <v>67</v>
+      </c>
+      <c r="N22" s="7">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="8">
         <v>21</v>
       </c>
       <c r="B23" s="7" t="s">
@@ -1592,9 +1792,15 @@
       <c r="L23" s="7">
         <v>21</v>
       </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24" s="7">
+      <c r="M23" s="8">
+        <v>52</v>
+      </c>
+      <c r="N23" s="7">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="8">
         <v>22</v>
       </c>
       <c r="B24" s="7" t="s">
@@ -1630,9 +1836,15 @@
       <c r="L24" s="7">
         <v>19</v>
       </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25" s="7">
+      <c r="M24" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="N24" s="7">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="8">
         <v>23</v>
       </c>
       <c r="B25" s="7" t="s">
@@ -1668,9 +1880,15 @@
       <c r="L25" s="7">
         <v>19</v>
       </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A26" s="7">
+      <c r="M25" s="8">
+        <v>39</v>
+      </c>
+      <c r="N25" s="7">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="8">
         <v>24</v>
       </c>
       <c r="B26" s="7" t="s">
@@ -1706,9 +1924,15 @@
       <c r="L26" s="7">
         <v>12</v>
       </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A27" s="7">
+      <c r="M26" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="N26" s="7">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="8">
         <v>25</v>
       </c>
       <c r="B27" s="7" t="s">
@@ -1744,9 +1968,15 @@
       <c r="L27" s="7">
         <v>19</v>
       </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A28" s="7">
+      <c r="M27" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="N27" s="7">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="8">
         <v>26</v>
       </c>
       <c r="B28" s="7" t="s">
@@ -1782,9 +2012,15 @@
       <c r="L28" s="7">
         <v>19</v>
       </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A29" s="7">
+      <c r="M28" s="8">
+        <v>43</v>
+      </c>
+      <c r="N28" s="7">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="8">
         <v>27</v>
       </c>
       <c r="B29" s="7" t="s">
@@ -1820,9 +2056,15 @@
       <c r="L29" s="7">
         <v>19</v>
       </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A30" s="7">
+      <c r="M29" s="8">
+        <v>44</v>
+      </c>
+      <c r="N29" s="7">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="8">
         <v>28</v>
       </c>
       <c r="B30" s="7" t="s">
@@ -1858,9 +2100,15 @@
       <c r="L30" s="7">
         <v>20</v>
       </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A31" s="7">
+      <c r="M30" s="8">
+        <v>68</v>
+      </c>
+      <c r="N30" s="7">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="8">
         <v>29</v>
       </c>
       <c r="B31" s="7" t="s">
@@ -1896,9 +2144,15 @@
       <c r="L31" s="7">
         <v>22</v>
       </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A32" s="7">
+      <c r="M31" s="8">
+        <v>55</v>
+      </c>
+      <c r="N31" s="7">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="8">
         <v>30</v>
       </c>
       <c r="B32" s="7" t="s">
@@ -1934,9 +2188,15 @@
       <c r="L32" s="7">
         <v>21</v>
       </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A33" s="7">
+      <c r="M32" s="8">
+        <v>77</v>
+      </c>
+      <c r="N32" s="7">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="8">
         <v>31</v>
       </c>
       <c r="B33" s="7" t="s">
@@ -1972,9 +2232,15 @@
       <c r="L33" s="7">
         <v>19</v>
       </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A34" s="7">
+      <c r="M33" s="8">
+        <v>39</v>
+      </c>
+      <c r="N33" s="7">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="8">
         <v>32</v>
       </c>
       <c r="B34" s="7" t="s">
@@ -2010,9 +2276,15 @@
       <c r="L34" s="7">
         <v>21</v>
       </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A35" s="7">
+      <c r="M34" s="8">
+        <v>64</v>
+      </c>
+      <c r="N34" s="7">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="8">
         <v>33</v>
       </c>
       <c r="B35" s="7" t="s">
@@ -2048,9 +2320,15 @@
       <c r="L35" s="7">
         <v>16</v>
       </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A36" s="7">
+      <c r="M35" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="N35" s="7">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="8">
         <v>34</v>
       </c>
       <c r="B36" s="7" t="s">
@@ -2086,9 +2364,15 @@
       <c r="L36" s="7">
         <v>16</v>
       </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A37" s="7">
+      <c r="M36" s="8">
+        <v>40</v>
+      </c>
+      <c r="N36" s="7">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="8">
         <v>35</v>
       </c>
       <c r="B37" s="7" t="s">
@@ -2124,9 +2408,15 @@
       <c r="L37" s="7">
         <v>19</v>
       </c>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A38" s="7">
+      <c r="M37" s="8">
+        <v>54</v>
+      </c>
+      <c r="N37" s="7">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="8">
         <v>36</v>
       </c>
       <c r="B38" s="7" t="s">
@@ -2162,9 +2452,15 @@
       <c r="L38" s="7">
         <v>21</v>
       </c>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A39" s="7">
+      <c r="M38" s="8">
+        <v>45</v>
+      </c>
+      <c r="N38" s="7">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="8">
         <v>37</v>
       </c>
       <c r="B39" s="7" t="s">
@@ -2200,9 +2496,15 @@
       <c r="L39" s="7">
         <v>16</v>
       </c>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A40" s="7">
+      <c r="M39" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="N39" s="7">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="8">
         <v>38</v>
       </c>
       <c r="B40" s="7" t="s">
@@ -2238,9 +2540,15 @@
       <c r="L40" s="7">
         <v>20</v>
       </c>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A41" s="7">
+      <c r="M40" s="8">
+        <v>54</v>
+      </c>
+      <c r="N40" s="7">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="8">
         <v>39</v>
       </c>
       <c r="B41" s="7" t="s">
@@ -2276,9 +2584,15 @@
       <c r="L41" s="7">
         <v>22</v>
       </c>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A42" s="7">
+      <c r="M41" s="8">
+        <v>65</v>
+      </c>
+      <c r="N41" s="7">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="8">
         <v>40</v>
       </c>
       <c r="B42" s="7" t="s">
@@ -2314,9 +2628,15 @@
       <c r="L42" s="7">
         <v>21</v>
       </c>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A43" s="7">
+      <c r="M42" s="8">
+        <v>57</v>
+      </c>
+      <c r="N42" s="7">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="8">
         <v>41</v>
       </c>
       <c r="B43" s="7" t="s">
@@ -2352,9 +2672,15 @@
       <c r="L43" s="7">
         <v>21</v>
       </c>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A44" s="7">
+      <c r="M43" s="8">
+        <v>34</v>
+      </c>
+      <c r="N43" s="7">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="8">
         <v>42</v>
       </c>
       <c r="B44" s="7" t="s">
@@ -2390,9 +2716,15 @@
       <c r="L44" s="7">
         <v>21</v>
       </c>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A45" s="7">
+      <c r="M44" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="N44" s="7">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="8">
         <v>43</v>
       </c>
       <c r="B45" s="7" t="s">
@@ -2428,9 +2760,15 @@
       <c r="L45" s="7">
         <v>19</v>
       </c>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A46" s="7">
+      <c r="M45" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="N45" s="7">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="8">
         <v>44</v>
       </c>
       <c r="B46" s="7" t="s">
@@ -2466,9 +2804,15 @@
       <c r="L46" s="7">
         <v>16</v>
       </c>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A47" s="7">
+      <c r="M46" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="N46" s="7">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="8">
         <v>45</v>
       </c>
       <c r="B47" s="7" t="s">
@@ -2504,9 +2848,15 @@
       <c r="L47" s="7">
         <v>19</v>
       </c>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A48" s="7">
+      <c r="M47" s="8">
+        <v>52</v>
+      </c>
+      <c r="N47" s="7">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="8">
         <v>46</v>
       </c>
       <c r="B48" s="7" t="s">
@@ -2542,13 +2892,19 @@
       <c r="L48" s="7">
         <v>20</v>
       </c>
-    </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A49" s="7">
+      <c r="M48" s="8">
+        <v>50</v>
+      </c>
+      <c r="N48" s="7">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="8">
         <v>47</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C49" s="3">
         <v>210041722001</v>
@@ -2580,13 +2936,19 @@
       <c r="L49" s="7">
         <v>21</v>
       </c>
-    </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A50" s="7">
+      <c r="M49" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="N49" s="7">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="8">
         <v>48</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C50" s="3">
         <v>210041722003</v>
@@ -2618,13 +2980,19 @@
       <c r="L50" s="7">
         <v>19</v>
       </c>
-    </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A51" s="7">
+      <c r="M50" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="N50" s="7">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="8">
         <v>49</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C51" s="3">
         <v>210041722004</v>
@@ -2656,9 +3024,15 @@
       <c r="L51" s="7">
         <v>20</v>
       </c>
-    </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A52" s="7">
+      <c r="M51" s="8">
+        <v>67</v>
+      </c>
+      <c r="N51" s="7">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="8">
         <v>50</v>
       </c>
       <c r="B52" s="7" t="s">
@@ -2694,9 +3068,15 @@
       <c r="L52" s="7">
         <v>16</v>
       </c>
-    </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A53" s="7">
+      <c r="M52" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="N52" s="7">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="8">
         <v>51</v>
       </c>
       <c r="B53" s="7" t="s">
@@ -2732,9 +3112,15 @@
       <c r="L53" s="7">
         <v>12</v>
       </c>
-    </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A54" s="7">
+      <c r="M53" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="N53" s="7">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="8">
         <v>52</v>
       </c>
       <c r="B54" s="7" t="s">
@@ -2770,13 +3156,19 @@
       <c r="L54" s="7">
         <v>19</v>
       </c>
-    </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A55" s="7">
+      <c r="M54" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="N54" s="7">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="8">
         <v>53</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C55" s="3">
         <v>210041722010</v>
@@ -2808,13 +3200,19 @@
       <c r="L55" s="7">
         <v>21</v>
       </c>
-    </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A56" s="7">
+      <c r="M55" s="8">
+        <v>43</v>
+      </c>
+      <c r="N55" s="7">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="8">
         <v>54</v>
       </c>
       <c r="B56" s="7" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C56" s="3">
         <v>210041722012</v>
@@ -2846,13 +3244,19 @@
       <c r="L56" s="7">
         <v>21</v>
       </c>
-    </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A57" s="7">
+      <c r="M56" s="8">
+        <v>54</v>
+      </c>
+      <c r="N56" s="7">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="8">
         <v>55</v>
       </c>
       <c r="B57" s="7" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C57" s="3">
         <v>210041722014</v>
@@ -2884,9 +3288,15 @@
       <c r="L57" s="7">
         <v>12</v>
       </c>
-    </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A58" s="7">
+      <c r="M57" s="8">
+        <v>49</v>
+      </c>
+      <c r="N57" s="7">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="8">
         <v>56</v>
       </c>
       <c r="B58" s="7" t="s">
@@ -2922,9 +3332,15 @@
       <c r="L58" s="7">
         <v>20</v>
       </c>
-    </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A59" s="7">
+      <c r="M58" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="N58" s="7">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="8">
         <v>57</v>
       </c>
       <c r="B59" s="7" t="s">
@@ -2960,136 +3376,160 @@
       <c r="L59" s="7">
         <v>24</v>
       </c>
-    </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A60" s="7">
+      <c r="M59" s="8">
+        <v>75</v>
+      </c>
+      <c r="N59" s="7">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="8">
         <v>58</v>
       </c>
       <c r="B60" s="7" t="s">
-        <v>94</v>
+        <v>48</v>
       </c>
       <c r="C60" s="3">
-        <v>210041722017</v>
+        <v>210041722019</v>
       </c>
       <c r="D60" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E60" s="7">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F60" s="7">
         <v>0</v>
       </c>
       <c r="G60" s="7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H60" s="7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I60" s="7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J60" s="7">
-        <v>0</v>
+        <v>43.75</v>
       </c>
       <c r="K60" s="7">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="L60" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A61" s="7">
+        <v>20</v>
+      </c>
+      <c r="M60" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="N60" s="7">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="8">
         <v>59</v>
       </c>
       <c r="B61" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C61" s="3">
+        <v>210041700012</v>
+      </c>
+      <c r="D61" s="7">
+        <v>8</v>
+      </c>
+      <c r="E61" s="7">
+        <v>16.5</v>
+      </c>
+      <c r="F61" s="7">
+        <v>15</v>
+      </c>
+      <c r="G61" s="7">
+        <v>5</v>
+      </c>
+      <c r="H61" s="7">
+        <v>5</v>
+      </c>
+      <c r="I61" s="7">
+        <v>5</v>
+      </c>
+      <c r="J61" s="7">
+        <v>76.923076923076934</v>
+      </c>
+      <c r="K61" s="7">
+        <v>19</v>
+      </c>
+      <c r="L61" s="7">
+        <v>24</v>
+      </c>
+      <c r="M61" s="8">
+        <v>62</v>
+      </c>
+      <c r="N61" s="7">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="8">
+        <v>60</v>
+      </c>
+      <c r="B62" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C62" s="3">
+        <v>210041700064</v>
+      </c>
+      <c r="D62" s="7">
+        <v>3</v>
+      </c>
+      <c r="E62" s="7">
+        <v>10</v>
+      </c>
+      <c r="F62" s="7">
+        <v>12</v>
+      </c>
+      <c r="G62" s="7">
+        <v>0</v>
+      </c>
+      <c r="H62" s="7">
+        <v>2.5</v>
+      </c>
+      <c r="I62" s="7">
+        <v>2.5</v>
+      </c>
+      <c r="J62" s="7">
+        <v>38.461538461538467</v>
+      </c>
+      <c r="K62" s="7">
+        <v>12</v>
+      </c>
+      <c r="L62" s="7">
+        <v>18</v>
+      </c>
+      <c r="M62" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="N62" s="7">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="8">
+        <v>61</v>
+      </c>
+      <c r="B63" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="C61" s="3">
-        <v>210041722019</v>
-      </c>
-      <c r="D61" s="7">
-        <v>3</v>
-      </c>
-      <c r="E61" s="7">
-        <v>6</v>
-      </c>
-      <c r="F61" s="7">
-        <v>0</v>
-      </c>
-      <c r="G61" s="7">
-        <v>5</v>
-      </c>
-      <c r="H61" s="7">
-        <v>5</v>
-      </c>
-      <c r="I61" s="7">
-        <v>5</v>
-      </c>
-      <c r="J61" s="7">
-        <v>43.75</v>
-      </c>
-      <c r="K61" s="7">
-        <v>12</v>
-      </c>
-      <c r="L61" s="7">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A62" s="7">
-        <v>60</v>
-      </c>
-      <c r="B62" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C62" s="3">
-        <v>210041700012</v>
-      </c>
-      <c r="D62" s="7">
-        <v>8</v>
-      </c>
-      <c r="E62" s="7">
-        <v>16.5</v>
-      </c>
-      <c r="F62" s="7">
+      <c r="C63" s="3">
+        <v>210041700065</v>
+      </c>
+      <c r="D63" s="7">
+        <v>0</v>
+      </c>
+      <c r="E63" s="7">
         <v>15</v>
-      </c>
-      <c r="G62" s="7">
-        <v>5</v>
-      </c>
-      <c r="H62" s="7">
-        <v>5</v>
-      </c>
-      <c r="I62" s="7">
-        <v>5</v>
-      </c>
-      <c r="J62" s="7">
-        <v>76.923076923076934</v>
-      </c>
-      <c r="K62" s="7">
-        <v>19</v>
-      </c>
-      <c r="L62" s="7">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A63" s="7">
-        <v>61</v>
-      </c>
-      <c r="B63" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="C63" s="3">
-        <v>210041700064</v>
-      </c>
-      <c r="D63" s="7">
-        <v>3</v>
-      </c>
-      <c r="E63" s="7">
-        <v>10</v>
       </c>
       <c r="F63" s="7">
         <v>12</v>
@@ -3098,30 +3538,36 @@
         <v>0</v>
       </c>
       <c r="H63" s="7">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="I63" s="7">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="J63" s="7">
-        <v>38.461538461538467</v>
+        <v>53.846153846153847</v>
       </c>
       <c r="K63" s="7">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L63" s="7">
         <v>18</v>
       </c>
-    </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A64" s="7">
+      <c r="M63" s="8">
+        <v>63</v>
+      </c>
+      <c r="N63" s="7">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="8">
         <v>62</v>
       </c>
       <c r="B64" s="7" t="s">
         <v>48</v>
       </c>
       <c r="C64" s="3">
-        <v>210041700065</v>
+        <v>210041700066</v>
       </c>
       <c r="D64" s="7">
         <v>0</v>
@@ -3148,217 +3594,253 @@
         <v>11</v>
       </c>
       <c r="L64" s="7">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A65" s="7">
+        <v>19</v>
+      </c>
+      <c r="M64" s="8">
+        <v>77</v>
+      </c>
+      <c r="N64" s="7">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="8">
         <v>63</v>
       </c>
       <c r="B65" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C65" s="3">
-        <v>210041700066</v>
+        <v>210041700067</v>
       </c>
       <c r="D65" s="7">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="E65" s="7">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F65" s="7">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G65" s="7">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="H65" s="7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I65" s="7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J65" s="7">
         <v>53.846153846153847</v>
       </c>
       <c r="K65" s="7">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="L65" s="7">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A66" s="7">
+        <v>23</v>
+      </c>
+      <c r="M65" s="8">
+        <v>49</v>
+      </c>
+      <c r="N65" s="7">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="8">
         <v>64</v>
       </c>
       <c r="B66" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C66" s="3">
-        <v>210041700067</v>
+        <v>210041700068</v>
       </c>
       <c r="D66" s="7">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="E66" s="7">
+        <v>10</v>
+      </c>
+      <c r="F66" s="7">
+        <v>12</v>
+      </c>
+      <c r="G66" s="7">
+        <v>0</v>
+      </c>
+      <c r="H66" s="7">
+        <v>0</v>
+      </c>
+      <c r="I66" s="7">
+        <v>2</v>
+      </c>
+      <c r="J66" s="7">
+        <v>46.153846153846153</v>
+      </c>
+      <c r="K66" s="7">
+        <v>12</v>
+      </c>
+      <c r="L66" s="7">
+        <v>20</v>
+      </c>
+      <c r="M66" s="8">
+        <v>53</v>
+      </c>
+      <c r="N66" s="7">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="8">
+        <v>65</v>
+      </c>
+      <c r="B67" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="C67" s="3">
+        <v>210041700069</v>
+      </c>
+      <c r="D67" s="7">
+        <v>10</v>
+      </c>
+      <c r="E67" s="7">
+        <v>12</v>
+      </c>
+      <c r="F67" s="7">
+        <v>17</v>
+      </c>
+      <c r="G67" s="7">
+        <v>2.5</v>
+      </c>
+      <c r="H67" s="7">
+        <v>5</v>
+      </c>
+      <c r="I67" s="7">
+        <v>5</v>
+      </c>
+      <c r="J67" s="7">
+        <v>84.615384615384613</v>
+      </c>
+      <c r="K67" s="7">
+        <v>18</v>
+      </c>
+      <c r="L67" s="7">
+        <v>22</v>
+      </c>
+      <c r="M67" s="8">
+        <v>64</v>
+      </c>
+      <c r="N67" s="7">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="8">
+        <v>66</v>
+      </c>
+      <c r="B68" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C68" s="3">
+        <v>210041700071</v>
+      </c>
+      <c r="D68" s="7">
+        <v>0</v>
+      </c>
+      <c r="E68" s="7">
+        <v>14</v>
+      </c>
+      <c r="F68" s="7">
         <v>13</v>
       </c>
-      <c r="F66" s="7">
+      <c r="G68" s="7">
+        <v>5</v>
+      </c>
+      <c r="H68" s="7">
+        <v>5</v>
+      </c>
+      <c r="I68" s="7">
+        <v>5</v>
+      </c>
+      <c r="J68" s="7">
+        <v>30.76923076923077</v>
+      </c>
+      <c r="K68" s="7">
+        <v>15</v>
+      </c>
+      <c r="L68" s="7">
+        <v>23</v>
+      </c>
+      <c r="M68" s="8">
+        <v>43</v>
+      </c>
+      <c r="N68" s="7">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="8">
+        <v>67</v>
+      </c>
+      <c r="B69" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C69" s="3">
+        <v>210041700073</v>
+      </c>
+      <c r="D69" s="7">
+        <v>7</v>
+      </c>
+      <c r="E69" s="7">
+        <v>2</v>
+      </c>
+      <c r="F69" s="7">
+        <v>12</v>
+      </c>
+      <c r="G69" s="7">
+        <v>5</v>
+      </c>
+      <c r="H69" s="7">
+        <v>5</v>
+      </c>
+      <c r="I69" s="7">
+        <v>5</v>
+      </c>
+      <c r="J69" s="7">
+        <v>69.230769230769226</v>
+      </c>
+      <c r="K69" s="7">
         <v>14</v>
       </c>
-      <c r="G66" s="7">
-        <v>2.5</v>
-      </c>
-      <c r="H66" s="7">
-        <v>5</v>
-      </c>
-      <c r="I66" s="7">
-        <v>5</v>
-      </c>
-      <c r="J66" s="7">
-        <v>53.846153846153847</v>
-      </c>
-      <c r="K66" s="7">
+      <c r="L69" s="7">
+        <v>14</v>
+      </c>
+      <c r="M69" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="N69" s="7">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="8">
+        <v>68</v>
+      </c>
+      <c r="B70" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C70" s="3">
+        <v>210041700076</v>
+      </c>
+      <c r="D70" s="7">
+        <v>13</v>
+      </c>
+      <c r="E70" s="7">
+        <v>0</v>
+      </c>
+      <c r="F70" s="7">
         <v>16</v>
-      </c>
-      <c r="L66" s="7">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A67" s="7">
-        <v>65</v>
-      </c>
-      <c r="B67" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="C67" s="3">
-        <v>210041700068</v>
-      </c>
-      <c r="D67" s="7">
-        <v>1</v>
-      </c>
-      <c r="E67" s="7">
-        <v>10</v>
-      </c>
-      <c r="F67" s="7">
-        <v>12</v>
-      </c>
-      <c r="G67" s="7">
-        <v>0</v>
-      </c>
-      <c r="H67" s="7">
-        <v>0</v>
-      </c>
-      <c r="I67" s="7">
-        <v>2</v>
-      </c>
-      <c r="J67" s="7">
-        <v>46.153846153846153</v>
-      </c>
-      <c r="K67" s="7">
-        <v>12</v>
-      </c>
-      <c r="L67" s="7">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A68" s="7">
-        <v>66</v>
-      </c>
-      <c r="B68" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="C68" s="3">
-        <v>210041700069</v>
-      </c>
-      <c r="D68" s="7">
-        <v>10</v>
-      </c>
-      <c r="E68" s="7">
-        <v>12</v>
-      </c>
-      <c r="F68" s="7">
-        <v>17</v>
-      </c>
-      <c r="G68" s="7">
-        <v>2.5</v>
-      </c>
-      <c r="H68" s="7">
-        <v>5</v>
-      </c>
-      <c r="I68" s="7">
-        <v>5</v>
-      </c>
-      <c r="J68" s="7">
-        <v>84.615384615384613</v>
-      </c>
-      <c r="K68" s="7">
-        <v>18</v>
-      </c>
-      <c r="L68" s="7">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A69" s="7">
-        <v>67</v>
-      </c>
-      <c r="B69" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="C69" s="3">
-        <v>210041700071</v>
-      </c>
-      <c r="D69" s="7">
-        <v>0</v>
-      </c>
-      <c r="E69" s="7">
-        <v>14</v>
-      </c>
-      <c r="F69" s="7">
-        <v>13</v>
-      </c>
-      <c r="G69" s="7">
-        <v>5</v>
-      </c>
-      <c r="H69" s="7">
-        <v>5</v>
-      </c>
-      <c r="I69" s="7">
-        <v>5</v>
-      </c>
-      <c r="J69" s="7">
-        <v>30.76923076923077</v>
-      </c>
-      <c r="K69" s="7">
-        <v>15</v>
-      </c>
-      <c r="L69" s="7">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A70" s="7">
-        <v>68</v>
-      </c>
-      <c r="B70" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="C70" s="3">
-        <v>210041700073</v>
-      </c>
-      <c r="D70" s="7">
-        <v>7</v>
-      </c>
-      <c r="E70" s="7">
-        <v>2</v>
-      </c>
-      <c r="F70" s="7">
-        <v>12</v>
       </c>
       <c r="G70" s="7">
         <v>5</v>
@@ -3373,378 +3855,438 @@
         <v>69.230769230769226</v>
       </c>
       <c r="K70" s="7">
+        <v>17</v>
+      </c>
+      <c r="L70" s="7">
+        <v>21</v>
+      </c>
+      <c r="M70" s="8">
+        <v>50</v>
+      </c>
+      <c r="N70" s="7">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="8">
+        <v>69</v>
+      </c>
+      <c r="B71" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C71" s="3">
+        <v>210041700081</v>
+      </c>
+      <c r="D71" s="7">
+        <v>0</v>
+      </c>
+      <c r="E71" s="7">
+        <v>11</v>
+      </c>
+      <c r="F71" s="7">
+        <v>12</v>
+      </c>
+      <c r="G71" s="7">
+        <v>0</v>
+      </c>
+      <c r="H71" s="7">
+        <v>2.5</v>
+      </c>
+      <c r="I71" s="7">
+        <v>2</v>
+      </c>
+      <c r="J71" s="7">
+        <v>23.076923076923077</v>
+      </c>
+      <c r="K71" s="7">
+        <v>11</v>
+      </c>
+      <c r="L71" s="7">
+        <v>13</v>
+      </c>
+      <c r="M71" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="N71" s="7">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="8">
+        <v>70</v>
+      </c>
+      <c r="B72" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C72" s="3">
+        <v>210041700082</v>
+      </c>
+      <c r="D72" s="7">
+        <v>9</v>
+      </c>
+      <c r="E72" s="7">
         <v>14</v>
       </c>
-      <c r="L70" s="7">
+      <c r="F72" s="7">
+        <v>13</v>
+      </c>
+      <c r="G72" s="7">
+        <v>2.5</v>
+      </c>
+      <c r="H72" s="7">
+        <v>5</v>
+      </c>
+      <c r="I72" s="7">
+        <v>0</v>
+      </c>
+      <c r="J72" s="7">
+        <v>53.846153846153847</v>
+      </c>
+      <c r="K72" s="7">
         <v>14</v>
       </c>
-    </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A71" s="7">
-        <v>69</v>
-      </c>
-      <c r="B71" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="C71" s="3">
-        <v>210041700076</v>
-      </c>
-      <c r="D71" s="7">
-        <v>13</v>
-      </c>
-      <c r="E71" s="7">
-        <v>0</v>
-      </c>
-      <c r="F71" s="7">
-        <v>16</v>
-      </c>
-      <c r="G71" s="7">
-        <v>5</v>
-      </c>
-      <c r="H71" s="7">
-        <v>5</v>
-      </c>
-      <c r="I71" s="7">
-        <v>5</v>
-      </c>
-      <c r="J71" s="7">
-        <v>69.230769230769226</v>
-      </c>
-      <c r="K71" s="7">
-        <v>17</v>
-      </c>
-      <c r="L71" s="7">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A72" s="7">
-        <v>70</v>
-      </c>
-      <c r="B72" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="C72" s="3">
-        <v>210041700081</v>
-      </c>
-      <c r="D72" s="7">
-        <v>0</v>
-      </c>
-      <c r="E72" s="7">
-        <v>11</v>
-      </c>
-      <c r="F72" s="7">
-        <v>12</v>
-      </c>
-      <c r="G72" s="7">
-        <v>0</v>
-      </c>
-      <c r="H72" s="7">
-        <v>2.5</v>
-      </c>
-      <c r="I72" s="7">
-        <v>2</v>
-      </c>
-      <c r="J72" s="7">
-        <v>23.076923076923077</v>
-      </c>
-      <c r="K72" s="7">
-        <v>11</v>
-      </c>
       <c r="L72" s="7">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A73" s="7">
+        <v>23</v>
+      </c>
+      <c r="M72" s="8">
+        <v>68</v>
+      </c>
+      <c r="N72" s="7">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="8">
         <v>71</v>
       </c>
       <c r="B73" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C73" s="3">
-        <v>210041700082</v>
+        <v>210041700083</v>
       </c>
       <c r="D73" s="7">
+        <v>7</v>
+      </c>
+      <c r="E73" s="7">
         <v>9</v>
-      </c>
-      <c r="E73" s="7">
-        <v>14</v>
       </c>
       <c r="F73" s="7">
         <v>13</v>
       </c>
       <c r="G73" s="7">
+        <v>5</v>
+      </c>
+      <c r="H73" s="7">
+        <v>5</v>
+      </c>
+      <c r="I73" s="7">
+        <v>5</v>
+      </c>
+      <c r="J73" s="7">
+        <v>69.230769230769226</v>
+      </c>
+      <c r="K73" s="7">
+        <v>15</v>
+      </c>
+      <c r="L73" s="7">
+        <v>21</v>
+      </c>
+      <c r="M73" s="8">
+        <v>53</v>
+      </c>
+      <c r="N73" s="7">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="8">
+        <v>72</v>
+      </c>
+      <c r="B74" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C74" s="3">
+        <v>210041700084</v>
+      </c>
+      <c r="D74" s="7">
+        <v>18</v>
+      </c>
+      <c r="E74" s="7">
+        <v>23</v>
+      </c>
+      <c r="F74" s="7">
+        <v>0</v>
+      </c>
+      <c r="G74" s="7">
+        <v>5</v>
+      </c>
+      <c r="H74" s="7">
+        <v>5</v>
+      </c>
+      <c r="I74" s="7">
+        <v>5</v>
+      </c>
+      <c r="J74" s="7">
+        <v>53.846153846153847</v>
+      </c>
+      <c r="K74" s="7">
+        <v>21</v>
+      </c>
+      <c r="L74" s="7">
+        <v>22</v>
+      </c>
+      <c r="M74" s="8">
+        <v>76</v>
+      </c>
+      <c r="N74" s="7">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="8">
+        <v>73</v>
+      </c>
+      <c r="B75" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C75" s="3">
+        <v>210041700085</v>
+      </c>
+      <c r="D75" s="7">
+        <v>4</v>
+      </c>
+      <c r="E75" s="7">
+        <v>18</v>
+      </c>
+      <c r="F75" s="7">
+        <v>17</v>
+      </c>
+      <c r="G75" s="7">
+        <v>5</v>
+      </c>
+      <c r="H75" s="7">
+        <v>4</v>
+      </c>
+      <c r="I75" s="7">
+        <v>4</v>
+      </c>
+      <c r="J75" s="7">
+        <v>69.230769230769226</v>
+      </c>
+      <c r="K75" s="7">
+        <v>18</v>
+      </c>
+      <c r="L75" s="7">
+        <v>21</v>
+      </c>
+      <c r="M75" s="8">
+        <v>71</v>
+      </c>
+      <c r="N75" s="7">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="8">
+        <v>74</v>
+      </c>
+      <c r="B76" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="C76" s="3">
+        <v>210041700087</v>
+      </c>
+      <c r="D76" s="7">
+        <v>7</v>
+      </c>
+      <c r="E76" s="7">
+        <v>13</v>
+      </c>
+      <c r="F76" s="7">
+        <v>0</v>
+      </c>
+      <c r="G76" s="7">
+        <v>5</v>
+      </c>
+      <c r="H76" s="7">
+        <v>0</v>
+      </c>
+      <c r="I76" s="7">
+        <v>0</v>
+      </c>
+      <c r="J76" s="7">
+        <v>53.846153846153847</v>
+      </c>
+      <c r="K76" s="7">
+        <v>12</v>
+      </c>
+      <c r="L76" s="7">
+        <v>16</v>
+      </c>
+      <c r="M76" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="N76" s="7">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="8">
+        <v>75</v>
+      </c>
+      <c r="B77" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C77" s="3">
+        <v>210041700088</v>
+      </c>
+      <c r="D77" s="7">
+        <v>3</v>
+      </c>
+      <c r="E77" s="7">
+        <v>0</v>
+      </c>
+      <c r="F77" s="7">
+        <v>7</v>
+      </c>
+      <c r="G77" s="7">
         <v>2.5</v>
       </c>
-      <c r="H73" s="7">
-        <v>5</v>
-      </c>
-      <c r="I73" s="7">
-        <v>0</v>
-      </c>
-      <c r="J73" s="7">
-        <v>53.846153846153847</v>
-      </c>
-      <c r="K73" s="7">
+      <c r="H77" s="7">
+        <v>5</v>
+      </c>
+      <c r="I77" s="7">
+        <v>5</v>
+      </c>
+      <c r="J77" s="7">
+        <v>69.230769230769226</v>
+      </c>
+      <c r="K77" s="7">
+        <v>11</v>
+      </c>
+      <c r="L77" s="7">
+        <v>19</v>
+      </c>
+      <c r="M77" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="N77" s="7">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="78" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="8">
+        <v>76</v>
+      </c>
+      <c r="B78" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C78" s="3">
+        <v>210041700090</v>
+      </c>
+      <c r="D78" s="7">
+        <v>7</v>
+      </c>
+      <c r="E78" s="7">
+        <v>9</v>
+      </c>
+      <c r="F78" s="7">
+        <v>15</v>
+      </c>
+      <c r="G78" s="7">
+        <v>5</v>
+      </c>
+      <c r="H78" s="7">
+        <v>5</v>
+      </c>
+      <c r="I78" s="7">
+        <v>5</v>
+      </c>
+      <c r="J78" s="7">
+        <v>46.153846153846153</v>
+      </c>
+      <c r="K78" s="7">
         <v>14</v>
-      </c>
-      <c r="L73" s="7">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A74" s="7">
-        <v>72</v>
-      </c>
-      <c r="B74" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="C74" s="3">
-        <v>210041700083</v>
-      </c>
-      <c r="D74" s="7">
-        <v>7</v>
-      </c>
-      <c r="E74" s="7">
-        <v>9</v>
-      </c>
-      <c r="F74" s="7">
-        <v>13</v>
-      </c>
-      <c r="G74" s="7">
-        <v>5</v>
-      </c>
-      <c r="H74" s="7">
-        <v>5</v>
-      </c>
-      <c r="I74" s="7">
-        <v>5</v>
-      </c>
-      <c r="J74" s="7">
-        <v>69.230769230769226</v>
-      </c>
-      <c r="K74" s="7">
-        <v>15</v>
-      </c>
-      <c r="L74" s="7">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A75" s="7">
-        <v>73</v>
-      </c>
-      <c r="B75" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="C75" s="3">
-        <v>210041700084</v>
-      </c>
-      <c r="D75" s="7">
-        <v>18</v>
-      </c>
-      <c r="E75" s="7">
-        <v>23</v>
-      </c>
-      <c r="F75" s="7">
-        <v>0</v>
-      </c>
-      <c r="G75" s="7">
-        <v>5</v>
-      </c>
-      <c r="H75" s="7">
-        <v>5</v>
-      </c>
-      <c r="I75" s="7">
-        <v>5</v>
-      </c>
-      <c r="J75" s="7">
-        <v>53.846153846153847</v>
-      </c>
-      <c r="K75" s="7">
-        <v>21</v>
-      </c>
-      <c r="L75" s="7">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A76" s="7">
-        <v>74</v>
-      </c>
-      <c r="B76" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="C76" s="3">
-        <v>210041700085</v>
-      </c>
-      <c r="D76" s="7">
-        <v>4</v>
-      </c>
-      <c r="E76" s="7">
-        <v>18</v>
-      </c>
-      <c r="F76" s="7">
-        <v>17</v>
-      </c>
-      <c r="G76" s="7">
-        <v>5</v>
-      </c>
-      <c r="H76" s="7">
-        <v>4</v>
-      </c>
-      <c r="I76" s="7">
-        <v>4</v>
-      </c>
-      <c r="J76" s="7">
-        <v>69.230769230769226</v>
-      </c>
-      <c r="K76" s="7">
-        <v>18</v>
-      </c>
-      <c r="L76" s="7">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A77" s="7">
-        <v>75</v>
-      </c>
-      <c r="B77" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="C77" s="3">
-        <v>210041700087</v>
-      </c>
-      <c r="D77" s="7">
-        <v>7</v>
-      </c>
-      <c r="E77" s="7">
-        <v>13</v>
-      </c>
-      <c r="F77" s="7">
-        <v>0</v>
-      </c>
-      <c r="G77" s="7">
-        <v>5</v>
-      </c>
-      <c r="H77" s="7">
-        <v>0</v>
-      </c>
-      <c r="I77" s="7">
-        <v>0</v>
-      </c>
-      <c r="J77" s="7">
-        <v>53.846153846153847</v>
-      </c>
-      <c r="K77" s="7">
-        <v>12</v>
-      </c>
-      <c r="L77" s="7">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A78" s="7">
-        <v>76</v>
-      </c>
-      <c r="B78" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="C78" s="3">
-        <v>210041700088</v>
-      </c>
-      <c r="D78" s="7">
-        <v>3</v>
-      </c>
-      <c r="E78" s="7">
-        <v>0</v>
-      </c>
-      <c r="F78" s="7">
-        <v>7</v>
-      </c>
-      <c r="G78" s="7">
-        <v>2.5</v>
-      </c>
-      <c r="H78" s="7">
-        <v>5</v>
-      </c>
-      <c r="I78" s="7">
-        <v>5</v>
-      </c>
-      <c r="J78" s="7">
-        <v>69.230769230769226</v>
-      </c>
-      <c r="K78" s="7">
-        <v>11</v>
       </c>
       <c r="L78" s="7">
         <v>19</v>
       </c>
-    </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A79" s="7">
+      <c r="M78" s="8">
+        <v>43</v>
+      </c>
+      <c r="N78" s="7">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="8">
         <v>77</v>
       </c>
       <c r="B79" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C79" s="3">
-        <v>210041700090</v>
+        <v>210041700091</v>
       </c>
       <c r="D79" s="7">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E79" s="7">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F79" s="7">
+        <v>12</v>
+      </c>
+      <c r="G79" s="7">
+        <v>5</v>
+      </c>
+      <c r="H79" s="7">
+        <v>2.5</v>
+      </c>
+      <c r="I79" s="7">
+        <v>5</v>
+      </c>
+      <c r="J79" s="7">
+        <v>53.846153846153847</v>
+      </c>
+      <c r="K79" s="7">
+        <v>13</v>
+      </c>
+      <c r="L79" s="7">
+        <v>21</v>
+      </c>
+      <c r="M79" s="8">
+        <v>55</v>
+      </c>
+      <c r="N79" s="7">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="80" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="8">
+        <v>78</v>
+      </c>
+      <c r="B80" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="C80" s="3">
+        <v>210041700094</v>
+      </c>
+      <c r="D80" s="7">
+        <v>0</v>
+      </c>
+      <c r="E80" s="7">
         <v>15</v>
       </c>
-      <c r="G79" s="7">
-        <v>5</v>
-      </c>
-      <c r="H79" s="7">
-        <v>5</v>
-      </c>
-      <c r="I79" s="7">
-        <v>5</v>
-      </c>
-      <c r="J79" s="7">
-        <v>46.153846153846153</v>
-      </c>
-      <c r="K79" s="7">
-        <v>14</v>
-      </c>
-      <c r="L79" s="7">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A80" s="7">
-        <v>78</v>
-      </c>
-      <c r="B80" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="C80" s="3">
-        <v>210041700091</v>
-      </c>
-      <c r="D80" s="7">
-        <v>2</v>
-      </c>
-      <c r="E80" s="7">
-        <v>8</v>
-      </c>
       <c r="F80" s="7">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G80" s="7">
         <v>5</v>
       </c>
       <c r="H80" s="7">
-        <v>2.5</v>
+        <v>5</v>
       </c>
       <c r="I80" s="7">
         <v>5</v>
@@ -3753,331 +4295,385 @@
         <v>53.846153846153847</v>
       </c>
       <c r="K80" s="7">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="L80" s="7">
         <v>21</v>
       </c>
-    </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A81" s="7">
+      <c r="M80" s="8">
+        <v>70</v>
+      </c>
+      <c r="N80" s="7">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="81" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="8">
         <v>79</v>
       </c>
       <c r="B81" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C81" s="3">
-        <v>210041700092</v>
+        <v>210041700095</v>
       </c>
       <c r="D81" s="7">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E81" s="7">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F81" s="7">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="G81" s="7">
         <v>0</v>
       </c>
       <c r="H81" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I81" s="7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J81" s="7">
-        <v>0</v>
+        <v>38.461538461538467</v>
       </c>
       <c r="K81" s="7">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="L81" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A82" s="7">
+        <v>17</v>
+      </c>
+      <c r="M81" s="8">
+        <v>43</v>
+      </c>
+      <c r="N81" s="7">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="82" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="8">
         <v>80</v>
       </c>
       <c r="B82" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C82" s="3">
-        <v>210041700094</v>
+        <v>210041700097</v>
       </c>
       <c r="D82" s="7">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="E82" s="7">
+        <v>16</v>
+      </c>
+      <c r="F82" s="7">
+        <v>13</v>
+      </c>
+      <c r="G82" s="7">
+        <v>5</v>
+      </c>
+      <c r="H82" s="7">
+        <v>5</v>
+      </c>
+      <c r="I82" s="7">
+        <v>0</v>
+      </c>
+      <c r="J82" s="7">
+        <v>84.615384615384613</v>
+      </c>
+      <c r="K82" s="7">
+        <v>20</v>
+      </c>
+      <c r="L82" s="7">
+        <v>23</v>
+      </c>
+      <c r="M82" s="8">
+        <v>48</v>
+      </c>
+      <c r="N82" s="7">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="83" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="8">
+        <v>81</v>
+      </c>
+      <c r="B83" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="C83" s="3">
+        <v>210041700102</v>
+      </c>
+      <c r="D83" s="7">
+        <v>0</v>
+      </c>
+      <c r="E83" s="7">
+        <v>0</v>
+      </c>
+      <c r="F83" s="7">
+        <v>17</v>
+      </c>
+      <c r="G83" s="7">
+        <v>2.5</v>
+      </c>
+      <c r="H83" s="7">
+        <v>5</v>
+      </c>
+      <c r="I83" s="7">
+        <v>5</v>
+      </c>
+      <c r="J83" s="7">
+        <v>92.307692307692307</v>
+      </c>
+      <c r="K83" s="7">
         <v>15</v>
       </c>
-      <c r="F82" s="7">
+      <c r="L83" s="7">
+        <v>16</v>
+      </c>
+      <c r="M83" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="N83" s="7">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="84" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="8">
+        <v>82</v>
+      </c>
+      <c r="B84" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="C84" s="3">
+        <v>210041700104</v>
+      </c>
+      <c r="D84" s="7">
+        <v>5</v>
+      </c>
+      <c r="E84" s="7">
+        <v>13</v>
+      </c>
+      <c r="F84" s="7">
+        <v>0</v>
+      </c>
+      <c r="G84" s="7">
+        <v>2.5</v>
+      </c>
+      <c r="H84" s="7">
+        <v>0</v>
+      </c>
+      <c r="I84" s="7">
+        <v>0</v>
+      </c>
+      <c r="J84" s="7">
+        <v>69.230769230769226</v>
+      </c>
+      <c r="K84" s="7">
+        <v>12</v>
+      </c>
+      <c r="L84" s="7">
+        <v>16</v>
+      </c>
+      <c r="M84" s="8">
+        <v>33</v>
+      </c>
+      <c r="N84" s="7">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="85" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="8">
+        <v>83</v>
+      </c>
+      <c r="B85" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="C85" s="3">
+        <v>210041700105</v>
+      </c>
+      <c r="D85" s="7">
+        <v>11</v>
+      </c>
+      <c r="E85" s="7">
         <v>15</v>
       </c>
-      <c r="G82" s="7">
-        <v>5</v>
-      </c>
-      <c r="H82" s="7">
-        <v>5</v>
-      </c>
-      <c r="I82" s="7">
-        <v>5</v>
-      </c>
-      <c r="J82" s="7">
-        <v>53.846153846153847</v>
-      </c>
-      <c r="K82" s="7">
+      <c r="F85" s="7">
+        <v>15</v>
+      </c>
+      <c r="G85" s="7">
+        <v>5</v>
+      </c>
+      <c r="H85" s="7">
+        <v>5</v>
+      </c>
+      <c r="I85" s="7">
+        <v>5</v>
+      </c>
+      <c r="J85" s="7">
+        <v>46.153846153846153</v>
+      </c>
+      <c r="K85" s="7">
+        <v>16</v>
+      </c>
+      <c r="L85" s="7">
+        <v>21</v>
+      </c>
+      <c r="M85" s="8">
+        <v>71</v>
+      </c>
+      <c r="N85" s="7">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="86" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="8">
+        <v>84</v>
+      </c>
+      <c r="B86" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="C86" s="3">
+        <v>210041700106</v>
+      </c>
+      <c r="D86" s="7">
+        <v>4</v>
+      </c>
+      <c r="E86" s="7">
+        <v>16</v>
+      </c>
+      <c r="F86" s="7">
+        <v>10</v>
+      </c>
+      <c r="G86" s="7">
+        <v>0</v>
+      </c>
+      <c r="H86" s="7">
+        <v>0</v>
+      </c>
+      <c r="I86" s="7">
+        <v>0</v>
+      </c>
+      <c r="J86" s="7">
+        <v>69.230769230769226</v>
+      </c>
+      <c r="K86" s="7">
+        <v>12</v>
+      </c>
+      <c r="L86" s="7">
+        <v>21</v>
+      </c>
+      <c r="M86" s="8">
+        <v>40</v>
+      </c>
+      <c r="N86" s="7">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="87" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="8">
+        <v>85</v>
+      </c>
+      <c r="B87" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="C87" s="3">
+        <v>210041700108</v>
+      </c>
+      <c r="D87" s="7">
+        <v>3</v>
+      </c>
+      <c r="E87" s="7">
+        <v>11</v>
+      </c>
+      <c r="F87" s="7">
+        <v>10</v>
+      </c>
+      <c r="G87" s="7">
+        <v>0</v>
+      </c>
+      <c r="H87" s="7">
+        <v>3</v>
+      </c>
+      <c r="I87" s="7">
+        <v>3</v>
+      </c>
+      <c r="J87" s="7">
+        <v>38.461538461538467</v>
+      </c>
+      <c r="K87" s="7">
+        <v>12</v>
+      </c>
+      <c r="L87" s="7">
+        <v>21</v>
+      </c>
+      <c r="M87" s="8">
+        <v>34</v>
+      </c>
+      <c r="N87" s="7">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="88" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="8">
+        <v>86</v>
+      </c>
+      <c r="B88" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="C88" s="3">
+        <v>210041700109</v>
+      </c>
+      <c r="D88" s="7">
+        <v>11</v>
+      </c>
+      <c r="E88" s="7">
         <v>17</v>
       </c>
-      <c r="L82" s="7">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A83" s="7">
-        <v>81</v>
-      </c>
-      <c r="B83" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="C83" s="3">
-        <v>210041700095</v>
-      </c>
-      <c r="D83" s="7">
-        <v>7</v>
-      </c>
-      <c r="E83" s="7">
-        <v>7</v>
-      </c>
-      <c r="F83" s="7">
-        <v>13</v>
-      </c>
-      <c r="G83" s="7">
-        <v>0</v>
-      </c>
-      <c r="H83" s="7">
-        <v>3</v>
-      </c>
-      <c r="I83" s="7">
-        <v>5</v>
-      </c>
-      <c r="J83" s="7">
-        <v>38.461538461538467</v>
-      </c>
-      <c r="K83" s="7">
-        <v>12</v>
-      </c>
-      <c r="L83" s="7">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A84" s="7">
-        <v>82</v>
-      </c>
-      <c r="B84" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="C84" s="3">
-        <v>210041700097</v>
-      </c>
-      <c r="D84" s="7">
-        <v>18</v>
-      </c>
-      <c r="E84" s="7">
+      <c r="F88" s="7">
         <v>16</v>
-      </c>
-      <c r="F84" s="7">
-        <v>13</v>
-      </c>
-      <c r="G84" s="7">
-        <v>5</v>
-      </c>
-      <c r="H84" s="7">
-        <v>5</v>
-      </c>
-      <c r="I84" s="7">
-        <v>0</v>
-      </c>
-      <c r="J84" s="7">
-        <v>84.615384615384613</v>
-      </c>
-      <c r="K84" s="7">
-        <v>20</v>
-      </c>
-      <c r="L84" s="7">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A85" s="7">
-        <v>83</v>
-      </c>
-      <c r="B85" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="C85" s="3">
-        <v>210041700098</v>
-      </c>
-      <c r="D85" s="7">
-        <v>0</v>
-      </c>
-      <c r="E85" s="7">
-        <v>0</v>
-      </c>
-      <c r="F85" s="7">
-        <v>0</v>
-      </c>
-      <c r="G85" s="7">
-        <v>0</v>
-      </c>
-      <c r="H85" s="7">
-        <v>0</v>
-      </c>
-      <c r="I85" s="7">
-        <v>0</v>
-      </c>
-      <c r="J85" s="7">
-        <v>0</v>
-      </c>
-      <c r="K85" s="7">
-        <v>0</v>
-      </c>
-      <c r="L85" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A86" s="7">
-        <v>84</v>
-      </c>
-      <c r="B86" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="C86" s="3">
-        <v>210041700102</v>
-      </c>
-      <c r="D86" s="7">
-        <v>0</v>
-      </c>
-      <c r="E86" s="7">
-        <v>0</v>
-      </c>
-      <c r="F86" s="7">
-        <v>17</v>
-      </c>
-      <c r="G86" s="7">
-        <v>2.5</v>
-      </c>
-      <c r="H86" s="7">
-        <v>5</v>
-      </c>
-      <c r="I86" s="7">
-        <v>5</v>
-      </c>
-      <c r="J86" s="7">
-        <v>92.307692307692307</v>
-      </c>
-      <c r="K86" s="7">
-        <v>15</v>
-      </c>
-      <c r="L86" s="7">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A87" s="7">
-        <v>85</v>
-      </c>
-      <c r="B87" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="C87" s="3">
-        <v>210041700103</v>
-      </c>
-      <c r="D87" s="7">
-        <v>0</v>
-      </c>
-      <c r="E87" s="7">
-        <v>0</v>
-      </c>
-      <c r="F87" s="7">
-        <v>0</v>
-      </c>
-      <c r="G87" s="7">
-        <v>0</v>
-      </c>
-      <c r="H87" s="7">
-        <v>0</v>
-      </c>
-      <c r="I87" s="7">
-        <v>0</v>
-      </c>
-      <c r="J87" s="7">
-        <v>0</v>
-      </c>
-      <c r="K87" s="7">
-        <v>0</v>
-      </c>
-      <c r="L87" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A88" s="7">
-        <v>86</v>
-      </c>
-      <c r="B88" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="C88" s="3">
-        <v>210041700104</v>
-      </c>
-      <c r="D88" s="7">
-        <v>5</v>
-      </c>
-      <c r="E88" s="7">
-        <v>13</v>
-      </c>
-      <c r="F88" s="7">
-        <v>0</v>
       </c>
       <c r="G88" s="7">
         <v>2.5</v>
       </c>
       <c r="H88" s="7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I88" s="7">
         <v>0</v>
       </c>
       <c r="J88" s="7">
-        <v>69.230769230769226</v>
+        <v>92.307692307692307</v>
       </c>
       <c r="K88" s="7">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="L88" s="7">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A89" s="7">
+        <v>14</v>
+      </c>
+      <c r="M88" s="8">
+        <v>73</v>
+      </c>
+      <c r="N88" s="7">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="89" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="8">
         <v>87</v>
       </c>
       <c r="B89" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C89" s="3">
-        <v>210041700105</v>
+        <v>210041700112</v>
       </c>
       <c r="D89" s="7">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E89" s="7">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="F89" s="7">
         <v>15</v>
@@ -4092,337 +4688,391 @@
         <v>5</v>
       </c>
       <c r="J89" s="7">
+        <v>69.230769230769226</v>
+      </c>
+      <c r="K89" s="7">
+        <v>15</v>
+      </c>
+      <c r="L89" s="7">
+        <v>23</v>
+      </c>
+      <c r="M89" s="8">
+        <v>65</v>
+      </c>
+      <c r="N89" s="7">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="90" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="8">
+        <v>88</v>
+      </c>
+      <c r="B90" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="C90" s="3">
+        <v>210041700113</v>
+      </c>
+      <c r="D90" s="7">
+        <v>0</v>
+      </c>
+      <c r="E90" s="7">
+        <v>17</v>
+      </c>
+      <c r="F90" s="7">
+        <v>0</v>
+      </c>
+      <c r="G90" s="7">
+        <v>5</v>
+      </c>
+      <c r="H90" s="7">
+        <v>5</v>
+      </c>
+      <c r="I90" s="7">
+        <v>5</v>
+      </c>
+      <c r="J90" s="7">
         <v>46.153846153846153</v>
-      </c>
-      <c r="K89" s="7">
-        <v>16</v>
-      </c>
-      <c r="L89" s="7">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A90" s="7">
-        <v>88</v>
-      </c>
-      <c r="B90" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="C90" s="3">
-        <v>210041700106</v>
-      </c>
-      <c r="D90" s="7">
-        <v>4</v>
-      </c>
-      <c r="E90" s="7">
-        <v>16</v>
-      </c>
-      <c r="F90" s="7">
-        <v>10</v>
-      </c>
-      <c r="G90" s="7">
-        <v>0</v>
-      </c>
-      <c r="H90" s="7">
-        <v>0</v>
-      </c>
-      <c r="I90" s="7">
-        <v>0</v>
-      </c>
-      <c r="J90" s="7">
-        <v>69.230769230769226</v>
       </c>
       <c r="K90" s="7">
         <v>12</v>
       </c>
       <c r="L90" s="7">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A91" s="7">
+        <v>20</v>
+      </c>
+      <c r="M90" s="8">
+        <v>62</v>
+      </c>
+      <c r="N90" s="7">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="91" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="8">
         <v>89</v>
       </c>
       <c r="B91" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C91" s="3">
-        <v>210041700108</v>
+        <v>210041700114</v>
       </c>
       <c r="D91" s="7">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E91" s="7">
+        <v>9</v>
+      </c>
+      <c r="F91" s="7">
         <v>11</v>
       </c>
-      <c r="F91" s="7">
-        <v>10</v>
-      </c>
       <c r="G91" s="7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H91" s="7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I91" s="7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J91" s="7">
-        <v>38.461538461538467</v>
+        <v>100</v>
       </c>
       <c r="K91" s="7">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="L91" s="7">
         <v>21</v>
       </c>
-    </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A92" s="7">
+      <c r="M91" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="N91" s="7">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="92" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="8">
         <v>90</v>
       </c>
       <c r="B92" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C92" s="3">
-        <v>210041700109</v>
+        <v>210041700117</v>
       </c>
       <c r="D92" s="7">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="E92" s="7">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="F92" s="7">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="G92" s="7">
-        <v>2.5</v>
+        <v>5</v>
       </c>
       <c r="H92" s="7">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I92" s="7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J92" s="7">
+        <v>38.461538461538467</v>
+      </c>
+      <c r="K92" s="7">
+        <v>12</v>
+      </c>
+      <c r="L92" s="7">
+        <v>19</v>
+      </c>
+      <c r="M92" s="8">
+        <v>47</v>
+      </c>
+      <c r="N92" s="7">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="93" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="8">
+        <v>91</v>
+      </c>
+      <c r="B93" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="C93" s="3">
+        <v>210041700119</v>
+      </c>
+      <c r="D93" s="7">
+        <v>4</v>
+      </c>
+      <c r="E93" s="7">
+        <v>15</v>
+      </c>
+      <c r="F93" s="7">
+        <v>10</v>
+      </c>
+      <c r="G93" s="7">
+        <v>5</v>
+      </c>
+      <c r="H93" s="7">
+        <v>5</v>
+      </c>
+      <c r="I93" s="7">
+        <v>5</v>
+      </c>
+      <c r="J93" s="7">
         <v>92.307692307692307</v>
       </c>
-      <c r="K92" s="7">
+      <c r="K93" s="7">
         <v>18</v>
-      </c>
-      <c r="L92" s="7">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A93" s="7">
-        <v>91</v>
-      </c>
-      <c r="B93" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="C93" s="3">
-        <v>210041700112</v>
-      </c>
-      <c r="D93" s="7">
-        <v>8</v>
-      </c>
-      <c r="E93" s="7">
-        <v>4</v>
-      </c>
-      <c r="F93" s="7">
-        <v>15</v>
-      </c>
-      <c r="G93" s="7">
-        <v>5</v>
-      </c>
-      <c r="H93" s="7">
-        <v>5</v>
-      </c>
-      <c r="I93" s="7">
-        <v>5</v>
-      </c>
-      <c r="J93" s="7">
-        <v>69.230769230769226</v>
-      </c>
-      <c r="K93" s="7">
-        <v>15</v>
       </c>
       <c r="L93" s="7">
         <v>23</v>
       </c>
-    </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A94" s="7">
+      <c r="M93" s="8">
+        <v>52</v>
+      </c>
+      <c r="N93" s="7">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="94" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="8">
         <v>92</v>
       </c>
       <c r="B94" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C94" s="3">
-        <v>210041700113</v>
+        <v>210041700120</v>
       </c>
       <c r="D94" s="7">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E94" s="7">
+        <v>12</v>
+      </c>
+      <c r="F94" s="7">
+        <v>15</v>
+      </c>
+      <c r="G94" s="7">
+        <v>5</v>
+      </c>
+      <c r="H94" s="7">
+        <v>5</v>
+      </c>
+      <c r="I94" s="7">
+        <v>5</v>
+      </c>
+      <c r="J94" s="7">
+        <v>76.923076923076934</v>
+      </c>
+      <c r="K94" s="7">
         <v>17</v>
       </c>
-      <c r="F94" s="7">
-        <v>0</v>
-      </c>
-      <c r="G94" s="7">
-        <v>5</v>
-      </c>
-      <c r="H94" s="7">
-        <v>5</v>
-      </c>
-      <c r="I94" s="7">
-        <v>5</v>
-      </c>
-      <c r="J94" s="7">
-        <v>46.153846153846153</v>
-      </c>
-      <c r="K94" s="7">
-        <v>12</v>
-      </c>
       <c r="L94" s="7">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A95" s="7">
+        <v>22</v>
+      </c>
+      <c r="M94" s="8">
+        <v>56</v>
+      </c>
+      <c r="N94" s="7">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="95" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="8">
         <v>93</v>
       </c>
       <c r="B95" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C95" s="3">
-        <v>210041700114</v>
+        <v>210041700122</v>
       </c>
       <c r="D95" s="7">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E95" s="7">
+        <v>16</v>
+      </c>
+      <c r="F95" s="7">
+        <v>18</v>
+      </c>
+      <c r="G95" s="7">
+        <v>5</v>
+      </c>
+      <c r="H95" s="7">
+        <v>5</v>
+      </c>
+      <c r="I95" s="7">
+        <v>5</v>
+      </c>
+      <c r="J95" s="7">
+        <v>38.461538461538467</v>
+      </c>
+      <c r="K95" s="7">
+        <v>18</v>
+      </c>
+      <c r="L95" s="7">
+        <v>23</v>
+      </c>
+      <c r="M95" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="N95" s="7">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="96" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="8">
+        <v>94</v>
+      </c>
+      <c r="B96" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="C96" s="3">
+        <v>210041700123</v>
+      </c>
+      <c r="D96" s="7">
+        <v>3</v>
+      </c>
+      <c r="E96" s="7">
         <v>9</v>
       </c>
-      <c r="F95" s="7">
+      <c r="F96" s="7">
         <v>11</v>
       </c>
-      <c r="G95" s="7">
-        <v>5</v>
-      </c>
-      <c r="H95" s="7">
-        <v>5</v>
-      </c>
-      <c r="I95" s="7">
-        <v>5</v>
-      </c>
-      <c r="J95" s="7">
-        <v>100</v>
-      </c>
-      <c r="K95" s="7">
-        <v>16</v>
-      </c>
-      <c r="L95" s="7">
+      <c r="G96" s="7">
+        <v>5</v>
+      </c>
+      <c r="H96" s="7">
+        <v>5</v>
+      </c>
+      <c r="I96" s="7">
+        <v>5</v>
+      </c>
+      <c r="J96" s="7">
+        <v>38.461538461538467</v>
+      </c>
+      <c r="K96" s="7">
+        <v>13</v>
+      </c>
+      <c r="L96" s="7">
         <v>21</v>
       </c>
-    </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A96" s="7">
-        <v>94</v>
-      </c>
-      <c r="B96" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="C96" s="3">
-        <v>210041700116</v>
-      </c>
-      <c r="D96" s="7">
-        <v>0</v>
-      </c>
-      <c r="E96" s="7">
-        <v>0</v>
-      </c>
-      <c r="F96" s="7">
-        <v>0</v>
-      </c>
-      <c r="G96" s="7">
-        <v>0</v>
-      </c>
-      <c r="H96" s="7">
-        <v>0</v>
-      </c>
-      <c r="I96" s="7">
-        <v>0</v>
-      </c>
-      <c r="J96" s="7">
-        <v>0</v>
-      </c>
-      <c r="K96" s="7">
-        <v>0</v>
-      </c>
-      <c r="L96" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A97" s="7">
+      <c r="M96" s="8">
+        <v>33</v>
+      </c>
+      <c r="N96" s="7">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="97" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="8">
         <v>95</v>
       </c>
       <c r="B97" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C97" s="3">
-        <v>210041700117</v>
+        <v>210041700126</v>
       </c>
       <c r="D97" s="7">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E97" s="7">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="F97" s="7">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G97" s="7">
         <v>5</v>
       </c>
       <c r="H97" s="7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I97" s="7">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J97" s="7">
-        <v>38.461538461538467</v>
+        <v>61.53846153846154</v>
       </c>
       <c r="K97" s="7">
         <v>12</v>
       </c>
       <c r="L97" s="7">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A98" s="7">
+        <v>17</v>
+      </c>
+      <c r="M97" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="N97" s="7">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="98" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="8">
         <v>96</v>
       </c>
       <c r="B98" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C98" s="3">
-        <v>210041700119</v>
+        <v>210041700128</v>
       </c>
       <c r="D98" s="7">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="E98" s="7">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F98" s="7">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G98" s="7">
         <v>5</v>
@@ -4434,33 +5084,39 @@
         <v>5</v>
       </c>
       <c r="J98" s="7">
-        <v>92.307692307692307</v>
+        <v>61.53846153846154</v>
       </c>
       <c r="K98" s="7">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L98" s="7">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A99" s="7">
+        <v>21</v>
+      </c>
+      <c r="M98" s="8">
+        <v>40</v>
+      </c>
+      <c r="N98" s="7">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="99" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="8">
         <v>97</v>
       </c>
       <c r="B99" s="7" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="C99" s="3">
-        <v>210041700120</v>
+        <v>210041722020</v>
       </c>
       <c r="D99" s="7">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="E99" s="7">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="F99" s="7">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="G99" s="7">
         <v>5</v>
@@ -4472,36 +5128,42 @@
         <v>5</v>
       </c>
       <c r="J99" s="7">
-        <v>76.923076923076934</v>
+        <v>69.230769230769226</v>
       </c>
       <c r="K99" s="7">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="L99" s="7">
         <v>22</v>
       </c>
-    </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A100" s="7">
+      <c r="M99" s="8">
+        <v>74</v>
+      </c>
+      <c r="N99" s="7">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="100" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="8">
         <v>98</v>
       </c>
       <c r="B100" s="7" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="C100" s="3">
-        <v>210041700122</v>
+        <v>210041722021</v>
       </c>
       <c r="D100" s="7">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="E100" s="7">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="F100" s="7">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="G100" s="7">
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="H100" s="7">
         <v>5</v>
@@ -4510,36 +5172,42 @@
         <v>5</v>
       </c>
       <c r="J100" s="7">
-        <v>38.461538461538467</v>
+        <v>76.923076923076934</v>
       </c>
       <c r="K100" s="7">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L100" s="7">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A101" s="7">
+        <v>19</v>
+      </c>
+      <c r="M100" s="8">
+        <v>55</v>
+      </c>
+      <c r="N100" s="7">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="101" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="8">
         <v>99</v>
       </c>
       <c r="B101" s="7" t="s">
-        <v>83</v>
+        <v>64</v>
       </c>
       <c r="C101" s="3">
-        <v>210041700123</v>
+        <v>210041722024</v>
       </c>
       <c r="D101" s="7">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="E101" s="7">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F101" s="7">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="G101" s="7">
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="H101" s="7">
         <v>5</v>
@@ -4548,33 +5216,39 @@
         <v>5</v>
       </c>
       <c r="J101" s="7">
-        <v>38.461538461538467</v>
+        <v>69.230769230769226</v>
       </c>
       <c r="K101" s="7">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="L101" s="7">
         <v>21</v>
       </c>
-    </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A102" s="7">
+      <c r="M101" s="8">
+        <v>68</v>
+      </c>
+      <c r="N101" s="7">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="102" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="8">
         <v>100</v>
       </c>
       <c r="B102" s="7" t="s">
-        <v>84</v>
+        <v>66</v>
       </c>
       <c r="C102" s="3">
-        <v>210041700126</v>
+        <v>210041722025</v>
       </c>
       <c r="D102" s="7">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="E102" s="7">
         <v>0</v>
       </c>
       <c r="F102" s="7">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="G102" s="7">
         <v>5</v>
@@ -4583,229 +5257,265 @@
         <v>5</v>
       </c>
       <c r="I102" s="7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J102" s="7">
         <v>61.53846153846154</v>
       </c>
       <c r="K102" s="7">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="L102" s="7">
+        <v>22</v>
+      </c>
+      <c r="M102" s="8">
+        <v>59</v>
+      </c>
+      <c r="N102" s="7">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="103" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="8">
+        <v>101</v>
+      </c>
+      <c r="B103" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C103" s="3">
+        <v>210041722026</v>
+      </c>
+      <c r="D103" s="7">
+        <v>2</v>
+      </c>
+      <c r="E103" s="7">
+        <v>0</v>
+      </c>
+      <c r="F103" s="7">
+        <v>4</v>
+      </c>
+      <c r="G103" s="7">
+        <v>5</v>
+      </c>
+      <c r="H103" s="7">
+        <v>5</v>
+      </c>
+      <c r="I103" s="7">
+        <v>0</v>
+      </c>
+      <c r="J103" s="7">
+        <v>69.230769230769226</v>
+      </c>
+      <c r="K103" s="7">
+        <v>11</v>
+      </c>
+      <c r="L103" s="7">
+        <v>23</v>
+      </c>
+      <c r="M103" s="8">
+        <v>47</v>
+      </c>
+      <c r="N103" s="7">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="104" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A104" s="8">
+        <v>102</v>
+      </c>
+      <c r="B104" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="C104" s="3">
+        <v>210041722027</v>
+      </c>
+      <c r="D104" s="7">
+        <v>9</v>
+      </c>
+      <c r="E104" s="7">
+        <v>11</v>
+      </c>
+      <c r="F104" s="7">
         <v>17</v>
       </c>
-    </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A103" s="7">
-        <v>101</v>
-      </c>
-      <c r="B103" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="C103" s="3">
-        <v>210041700128</v>
-      </c>
-      <c r="D103" s="7">
-        <v>13</v>
-      </c>
-      <c r="E103" s="7">
-        <v>11</v>
-      </c>
-      <c r="F103" s="7">
-        <v>16</v>
-      </c>
-      <c r="G103" s="7">
-        <v>5</v>
-      </c>
-      <c r="H103" s="7">
-        <v>5</v>
-      </c>
-      <c r="I103" s="7">
-        <v>5</v>
-      </c>
-      <c r="J103" s="7">
-        <v>61.53846153846154</v>
-      </c>
-      <c r="K103" s="7">
-        <v>17</v>
-      </c>
-      <c r="L103" s="7">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A104" s="7">
-        <v>102</v>
-      </c>
-      <c r="B104" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="C104" s="3">
-        <v>210041722020</v>
-      </c>
-      <c r="D104" s="7">
-        <v>21</v>
-      </c>
-      <c r="E104" s="7">
-        <v>20</v>
-      </c>
-      <c r="F104" s="7">
-        <v>0</v>
-      </c>
       <c r="G104" s="7">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H104" s="7">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I104" s="7">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J104" s="7">
         <v>69.230769230769226</v>
       </c>
       <c r="K104" s="7">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="L104" s="7">
         <v>22</v>
       </c>
-    </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A105" s="7">
+      <c r="M104" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="N104" s="7" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="105" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="8">
         <v>103</v>
       </c>
       <c r="B105" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="C105" s="3">
+        <v>210041722028</v>
+      </c>
+      <c r="D105" s="7">
+        <v>0</v>
+      </c>
+      <c r="E105" s="7">
+        <v>11</v>
+      </c>
+      <c r="F105" s="7">
+        <v>0</v>
+      </c>
+      <c r="G105" s="7">
+        <v>0</v>
+      </c>
+      <c r="H105" s="7">
+        <v>5</v>
+      </c>
+      <c r="I105" s="7">
+        <v>5</v>
+      </c>
+      <c r="J105" s="7">
+        <v>38.461538461538467</v>
+      </c>
+      <c r="K105" s="7">
+        <v>12</v>
+      </c>
+      <c r="L105" s="7">
+        <v>16</v>
+      </c>
+      <c r="M105" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="N105" s="7">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="106" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="8">
+        <v>104</v>
+      </c>
+      <c r="B106" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="C106" s="3">
+        <v>210041722030</v>
+      </c>
+      <c r="D106" s="7">
+        <v>12</v>
+      </c>
+      <c r="E106" s="7">
+        <v>14</v>
+      </c>
+      <c r="F106" s="7">
+        <v>16</v>
+      </c>
+      <c r="G106" s="7">
+        <v>2.5</v>
+      </c>
+      <c r="H106" s="7">
+        <v>5</v>
+      </c>
+      <c r="I106" s="7">
+        <v>5</v>
+      </c>
+      <c r="J106" s="7">
+        <v>76.923076923076934</v>
+      </c>
+      <c r="K106" s="7">
+        <v>18</v>
+      </c>
+      <c r="L106" s="7">
+        <v>22</v>
+      </c>
+      <c r="M106" s="8">
+        <v>75</v>
+      </c>
+      <c r="N106" s="7">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="107" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A107" s="8">
+        <v>105</v>
+      </c>
+      <c r="B107" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="C105" s="3">
-        <v>210041722021</v>
-      </c>
-      <c r="D105" s="7">
-        <v>15</v>
-      </c>
-      <c r="E105" s="7">
-        <v>0</v>
-      </c>
-      <c r="F105" s="7">
-        <v>14</v>
-      </c>
-      <c r="G105" s="7">
-        <v>2.5</v>
-      </c>
-      <c r="H105" s="7">
-        <v>5</v>
-      </c>
-      <c r="I105" s="7">
-        <v>5</v>
-      </c>
-      <c r="J105" s="7">
-        <v>76.923076923076934</v>
-      </c>
-      <c r="K105" s="7">
-        <v>17</v>
-      </c>
-      <c r="L105" s="7">
+      <c r="C107" s="3">
+        <v>210041722032</v>
+      </c>
+      <c r="D107" s="7">
+        <v>0</v>
+      </c>
+      <c r="E107" s="7">
+        <v>0</v>
+      </c>
+      <c r="F107" s="7">
+        <v>4</v>
+      </c>
+      <c r="G107" s="7">
+        <v>5</v>
+      </c>
+      <c r="H107" s="7">
+        <v>5</v>
+      </c>
+      <c r="I107" s="7">
+        <v>0</v>
+      </c>
+      <c r="J107" s="7">
+        <v>30.76923076923077</v>
+      </c>
+      <c r="K107" s="7">
+        <v>10</v>
+      </c>
+      <c r="L107" s="7">
         <v>19</v>
       </c>
-    </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A106" s="7">
-        <v>104</v>
-      </c>
-      <c r="B106" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="C106" s="3">
-        <v>210041722022</v>
-      </c>
-      <c r="D106" s="7">
-        <v>0</v>
-      </c>
-      <c r="E106" s="7">
-        <v>0</v>
-      </c>
-      <c r="F106" s="7">
-        <v>0</v>
-      </c>
-      <c r="G106" s="7">
-        <v>0</v>
-      </c>
-      <c r="H106" s="7">
-        <v>0</v>
-      </c>
-      <c r="I106" s="7">
-        <v>0</v>
-      </c>
-      <c r="J106" s="7">
-        <v>0</v>
-      </c>
-      <c r="K106" s="7">
-        <v>0</v>
-      </c>
-      <c r="L106" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A107" s="7">
-        <v>105</v>
-      </c>
-      <c r="B107" s="7" t="s">
+      <c r="M107" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="N107" s="7">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="108" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A108" s="8">
+        <v>106</v>
+      </c>
+      <c r="B108" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="C107" s="3">
-        <v>210041722023</v>
-      </c>
-      <c r="D107" s="7">
-        <v>0</v>
-      </c>
-      <c r="E107" s="7">
-        <v>0</v>
-      </c>
-      <c r="F107" s="7">
-        <v>0</v>
-      </c>
-      <c r="G107" s="7">
-        <v>0</v>
-      </c>
-      <c r="H107" s="7">
-        <v>0</v>
-      </c>
-      <c r="I107" s="7">
-        <v>0</v>
-      </c>
-      <c r="J107" s="7">
-        <v>0</v>
-      </c>
-      <c r="K107" s="7">
-        <v>0</v>
-      </c>
-      <c r="L107" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A108" s="7">
-        <v>106</v>
-      </c>
-      <c r="B108" s="7" t="s">
-        <v>64</v>
-      </c>
       <c r="C108" s="3">
-        <v>210041722024</v>
+        <v>210041722034</v>
       </c>
       <c r="D108" s="7">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="E108" s="7">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="F108" s="7">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="G108" s="7">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="H108" s="7">
         <v>5</v>
@@ -4817,68 +5527,80 @@
         <v>69.230769230769226</v>
       </c>
       <c r="K108" s="7">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="L108" s="7">
+        <v>19</v>
+      </c>
+      <c r="M108" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="N108" s="7">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="109" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A109" s="8">
+        <v>107</v>
+      </c>
+      <c r="B109" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="C109" s="3">
+        <v>210041722035</v>
+      </c>
+      <c r="D109" s="7">
+        <v>16</v>
+      </c>
+      <c r="E109" s="7">
+        <v>22</v>
+      </c>
+      <c r="F109" s="7">
+        <v>0</v>
+      </c>
+      <c r="G109" s="7">
+        <v>5</v>
+      </c>
+      <c r="H109" s="7">
+        <v>5</v>
+      </c>
+      <c r="I109" s="7">
+        <v>5</v>
+      </c>
+      <c r="J109" s="7">
+        <v>84.615384615384613</v>
+      </c>
+      <c r="K109" s="7">
         <v>21</v>
       </c>
-    </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A109" s="7">
-        <v>107</v>
-      </c>
-      <c r="B109" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="C109" s="3">
-        <v>210041722025</v>
-      </c>
-      <c r="D109" s="7">
-        <v>19</v>
-      </c>
-      <c r="E109" s="7">
-        <v>0</v>
-      </c>
-      <c r="F109" s="7">
-        <v>20</v>
-      </c>
-      <c r="G109" s="7">
-        <v>5</v>
-      </c>
-      <c r="H109" s="7">
-        <v>5</v>
-      </c>
-      <c r="I109" s="7">
-        <v>5</v>
-      </c>
-      <c r="J109" s="7">
-        <v>61.53846153846154</v>
-      </c>
-      <c r="K109" s="7">
-        <v>20</v>
-      </c>
       <c r="L109" s="7">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A110" s="7">
+        <v>21</v>
+      </c>
+      <c r="M109" s="8">
+        <v>83</v>
+      </c>
+      <c r="N109" s="7">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="110" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A110" s="8">
         <v>108</v>
       </c>
       <c r="B110" s="7" t="s">
-        <v>66</v>
+        <v>99</v>
       </c>
       <c r="C110" s="3">
-        <v>210041722026</v>
+        <v>210041722036</v>
       </c>
       <c r="D110" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E110" s="7">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="F110" s="7">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="G110" s="7">
         <v>5</v>
@@ -4887,77 +5609,89 @@
         <v>5</v>
       </c>
       <c r="I110" s="7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J110" s="7">
-        <v>69.230769230769226</v>
+        <v>46.153846153846153</v>
       </c>
       <c r="K110" s="7">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="L110" s="7">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A111" s="7">
+        <v>21</v>
+      </c>
+      <c r="M110" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="N110" s="7">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="111" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A111" s="8">
         <v>109</v>
       </c>
       <c r="B111" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C111" s="3">
-        <v>210041722027</v>
+        <v>210041722037</v>
       </c>
       <c r="D111" s="7">
         <v>9</v>
       </c>
       <c r="E111" s="7">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="F111" s="7">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G111" s="7">
         <v>0</v>
       </c>
       <c r="H111" s="7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I111" s="7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J111" s="7">
-        <v>69.230769230769226</v>
+        <v>53.846153846153847</v>
       </c>
       <c r="K111" s="7">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="L111" s="7">
+        <v>19</v>
+      </c>
+      <c r="M111" s="8">
+        <v>57</v>
+      </c>
+      <c r="N111" s="7">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="112" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A112" s="8">
+        <v>110</v>
+      </c>
+      <c r="B112" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="C112" s="3">
+        <v>210041722038</v>
+      </c>
+      <c r="D112" s="7">
         <v>22</v>
       </c>
-    </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A112" s="7">
-        <v>110</v>
-      </c>
-      <c r="B112" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="C112" s="3">
-        <v>210041722028</v>
-      </c>
-      <c r="D112" s="7">
-        <v>0</v>
-      </c>
       <c r="E112" s="7">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="F112" s="7">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="G112" s="7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H112" s="7">
         <v>5</v>
@@ -4966,282 +5700,63 @@
         <v>5</v>
       </c>
       <c r="J112" s="7">
-        <v>38.461538461538467</v>
+        <v>76.923076923076934</v>
       </c>
       <c r="K112" s="7">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="L112" s="7">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A113" s="7">
-        <v>111</v>
-      </c>
-      <c r="B113" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="C113" s="3">
-        <v>210041722030</v>
-      </c>
-      <c r="D113" s="7">
-        <v>12</v>
-      </c>
-      <c r="E113" s="7">
-        <v>14</v>
-      </c>
-      <c r="F113" s="7">
-        <v>16</v>
-      </c>
-      <c r="G113" s="7">
-        <v>2.5</v>
-      </c>
-      <c r="H113" s="7">
-        <v>5</v>
-      </c>
-      <c r="I113" s="7">
-        <v>5</v>
-      </c>
-      <c r="J113" s="7">
-        <v>76.923076923076934</v>
-      </c>
-      <c r="K113" s="7">
-        <v>18</v>
-      </c>
-      <c r="L113" s="7">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A114" s="7">
-        <v>112</v>
-      </c>
-      <c r="B114" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="C114" s="3">
-        <v>210041722032</v>
-      </c>
-      <c r="D114" s="7">
-        <v>0</v>
-      </c>
-      <c r="E114" s="7">
-        <v>0</v>
-      </c>
-      <c r="F114" s="7">
-        <v>4</v>
-      </c>
-      <c r="G114" s="7">
-        <v>5</v>
-      </c>
-      <c r="H114" s="7">
-        <v>5</v>
-      </c>
-      <c r="I114" s="7">
-        <v>0</v>
-      </c>
-      <c r="J114" s="7">
-        <v>30.76923076923077</v>
-      </c>
-      <c r="K114" s="7">
-        <v>10</v>
-      </c>
-      <c r="L114" s="7">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A115" s="7">
-        <v>113</v>
-      </c>
-      <c r="B115" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="C115" s="3">
-        <v>210041722034</v>
-      </c>
-      <c r="D115" s="7">
-        <v>4</v>
-      </c>
-      <c r="E115" s="7">
-        <v>6</v>
-      </c>
-      <c r="F115" s="7">
-        <v>11</v>
-      </c>
-      <c r="G115" s="7">
-        <v>0</v>
-      </c>
-      <c r="H115" s="7">
-        <v>5</v>
-      </c>
-      <c r="I115" s="7">
-        <v>5</v>
-      </c>
-      <c r="J115" s="7">
-        <v>69.230769230769226</v>
-      </c>
-      <c r="K115" s="7">
-        <v>14</v>
-      </c>
-      <c r="L115" s="7">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A116" s="7">
-        <v>114</v>
-      </c>
-      <c r="B116" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="C116" s="3">
-        <v>210041722035</v>
-      </c>
-      <c r="D116" s="7">
-        <v>16</v>
-      </c>
-      <c r="E116" s="7">
-        <v>22</v>
-      </c>
-      <c r="F116" s="7">
-        <v>0</v>
-      </c>
-      <c r="G116" s="7">
-        <v>5</v>
-      </c>
-      <c r="H116" s="7">
-        <v>5</v>
-      </c>
-      <c r="I116" s="7">
-        <v>5</v>
-      </c>
-      <c r="J116" s="7">
-        <v>84.615384615384613</v>
-      </c>
-      <c r="K116" s="7">
-        <v>21</v>
-      </c>
-      <c r="L116" s="7">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A117" s="7">
-        <v>115</v>
-      </c>
-      <c r="B117" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="C117" s="3">
-        <v>210041722036</v>
-      </c>
-      <c r="D117" s="7">
-        <v>0</v>
-      </c>
-      <c r="E117" s="7">
-        <v>12</v>
-      </c>
-      <c r="F117" s="7">
-        <v>13</v>
-      </c>
-      <c r="G117" s="7">
-        <v>5</v>
-      </c>
-      <c r="H117" s="7">
-        <v>5</v>
-      </c>
-      <c r="I117" s="7">
-        <v>5</v>
-      </c>
-      <c r="J117" s="7">
-        <v>46.153846153846153</v>
-      </c>
-      <c r="K117" s="7">
-        <v>15</v>
-      </c>
-      <c r="L117" s="7">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A118" s="7">
-        <v>116</v>
-      </c>
-      <c r="B118" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="C118" s="3">
-        <v>210041722037</v>
-      </c>
-      <c r="D118" s="7">
-        <v>9</v>
-      </c>
-      <c r="E118" s="7">
-        <v>17</v>
-      </c>
-      <c r="F118" s="7">
-        <v>10</v>
-      </c>
-      <c r="G118" s="7">
-        <v>0</v>
-      </c>
-      <c r="H118" s="7">
-        <v>5</v>
-      </c>
-      <c r="I118" s="7">
-        <v>5</v>
-      </c>
-      <c r="J118" s="7">
-        <v>53.846153846153847</v>
-      </c>
-      <c r="K118" s="7">
-        <v>16</v>
-      </c>
-      <c r="L118" s="7">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A119" s="7">
-        <v>117</v>
-      </c>
-      <c r="B119" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="C119" s="3">
-        <v>210041722038</v>
-      </c>
-      <c r="D119" s="7">
-        <v>22</v>
-      </c>
-      <c r="E119" s="7">
-        <v>0</v>
-      </c>
-      <c r="F119" s="7">
         <v>23</v>
       </c>
-      <c r="G119" s="7">
-        <v>5</v>
-      </c>
-      <c r="H119" s="7">
-        <v>5</v>
-      </c>
-      <c r="I119" s="7">
-        <v>5</v>
-      </c>
-      <c r="J119" s="7">
-        <v>76.923076923076934</v>
-      </c>
-      <c r="K119" s="7">
-        <v>23</v>
-      </c>
-      <c r="L119" s="7">
-        <v>23</v>
+      <c r="M112" s="8">
+        <v>80</v>
+      </c>
+      <c r="N112" s="7">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="118" spans="12:15" x14ac:dyDescent="0.25">
+      <c r="L118" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="M118" s="8">
+        <v>74</v>
+      </c>
+      <c r="N118" s="7">
+        <v>107</v>
+      </c>
+      <c r="O118" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="119" spans="12:15" x14ac:dyDescent="0.25">
+      <c r="L119" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="M119" s="8">
+        <f>110-74</f>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="120" spans="12:15" x14ac:dyDescent="0.25">
+      <c r="M120" s="8">
+        <f>74/110</f>
+        <v>0.67272727272727273</v>
+      </c>
+      <c r="N120" s="7">
+        <f>107/108</f>
+        <v>0.9907407407407407</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A2:O112">
+    <filterColumn colId="13">
+      <filters>
+        <filter val="-"/>
+        <filter val="AB"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <mergeCells count="1">
     <mergeCell ref="A1:L1"/>
   </mergeCells>

--- a/static/Upload/5th sem.xlsx
+++ b/static/Upload/5th sem.xlsx
@@ -7,10 +7,12 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
-    <sheet name="CNC" sheetId="1" r:id="rId1"/>
+    <sheet name="CNC" sheetId="3" r:id="rId1"/>
+    <sheet name="CNC 2021" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">CNC!$A$2:$O$112</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'CNC 2021'!$A$2:$O$112</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -22,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="135">
   <si>
     <t>S.N</t>
   </si>
@@ -477,7 +479,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -495,6 +497,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -786,10 +791,4982 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O120"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="M6" sqref="M6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4.28515625" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.140625" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.42578125" style="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="7.5703125" style="9" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="6.85546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12" style="6" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="12.7109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.7109375" style="9" customWidth="1"/>
+    <col min="14" max="14" width="9.140625" style="9"/>
+    <col min="15" max="15" width="18.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="9"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
+    </row>
+    <row r="2" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" s="9">
+        <v>1</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="C3" s="3">
+        <v>200041700031</v>
+      </c>
+      <c r="D3" s="9">
+        <v>1</v>
+      </c>
+      <c r="E3" s="9">
+        <v>8</v>
+      </c>
+      <c r="F3" s="9">
+        <v>10</v>
+      </c>
+      <c r="G3" s="9">
+        <v>0</v>
+      </c>
+      <c r="H3" s="9">
+        <v>3</v>
+      </c>
+      <c r="I3" s="9">
+        <v>3</v>
+      </c>
+      <c r="J3" s="9">
+        <v>12.5</v>
+      </c>
+      <c r="K3" s="9">
+        <v>12</v>
+      </c>
+      <c r="L3" s="9">
+        <v>21</v>
+      </c>
+      <c r="M3" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="N3" s="9">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" s="9">
+        <v>2</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="C4" s="3">
+        <v>200041700041</v>
+      </c>
+      <c r="D4" s="9">
+        <v>1</v>
+      </c>
+      <c r="E4" s="9">
+        <v>9</v>
+      </c>
+      <c r="F4" s="9">
+        <v>9</v>
+      </c>
+      <c r="G4" s="9">
+        <v>0</v>
+      </c>
+      <c r="H4" s="9">
+        <v>3</v>
+      </c>
+      <c r="I4" s="9">
+        <v>3</v>
+      </c>
+      <c r="J4" s="9">
+        <v>56.25</v>
+      </c>
+      <c r="K4" s="9">
+        <v>11</v>
+      </c>
+      <c r="L4" s="9">
+        <v>19</v>
+      </c>
+      <c r="M4" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="N4" s="9">
+        <v>32</v>
+      </c>
+      <c r="O4" s="6"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" s="9">
+        <v>3</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="3">
+        <v>210041700001</v>
+      </c>
+      <c r="D5" s="9">
+        <v>4</v>
+      </c>
+      <c r="E5" s="9">
+        <v>13</v>
+      </c>
+      <c r="F5" s="9">
+        <v>13</v>
+      </c>
+      <c r="G5" s="9">
+        <v>5</v>
+      </c>
+      <c r="H5" s="9">
+        <v>5</v>
+      </c>
+      <c r="I5" s="9">
+        <v>5</v>
+      </c>
+      <c r="J5" s="9">
+        <v>50</v>
+      </c>
+      <c r="K5" s="9">
+        <v>16</v>
+      </c>
+      <c r="L5" s="9">
+        <v>19</v>
+      </c>
+      <c r="M5" s="9">
+        <v>65</v>
+      </c>
+      <c r="N5" s="9">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" s="9">
+        <v>4</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="3">
+        <v>210041700002</v>
+      </c>
+      <c r="D6" s="9">
+        <v>1</v>
+      </c>
+      <c r="E6" s="9">
+        <v>0</v>
+      </c>
+      <c r="F6" s="9">
+        <v>0</v>
+      </c>
+      <c r="G6" s="9">
+        <v>0</v>
+      </c>
+      <c r="H6" s="9">
+        <v>5</v>
+      </c>
+      <c r="I6" s="9">
+        <v>5</v>
+      </c>
+      <c r="J6" s="9">
+        <v>25</v>
+      </c>
+      <c r="K6" s="9">
+        <v>10</v>
+      </c>
+      <c r="L6" s="9">
+        <v>13</v>
+      </c>
+      <c r="M6" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="N6" s="9" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" s="9">
+        <v>5</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="3">
+        <v>210041700003</v>
+      </c>
+      <c r="D7" s="9">
+        <v>11</v>
+      </c>
+      <c r="E7" s="9">
+        <v>16</v>
+      </c>
+      <c r="F7" s="9">
+        <v>19</v>
+      </c>
+      <c r="G7" s="9">
+        <v>5</v>
+      </c>
+      <c r="H7" s="9">
+        <v>5</v>
+      </c>
+      <c r="I7" s="9">
+        <v>5</v>
+      </c>
+      <c r="J7" s="9">
+        <v>68.75</v>
+      </c>
+      <c r="K7" s="9">
+        <v>19</v>
+      </c>
+      <c r="L7" s="9">
+        <v>21</v>
+      </c>
+      <c r="M7" s="9">
+        <v>73</v>
+      </c>
+      <c r="N7" s="9">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" s="9">
+        <v>6</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="3">
+        <v>210041700005</v>
+      </c>
+      <c r="D8" s="9">
+        <v>1</v>
+      </c>
+      <c r="E8" s="9">
+        <v>0</v>
+      </c>
+      <c r="F8" s="9">
+        <v>0</v>
+      </c>
+      <c r="G8" s="9">
+        <v>5</v>
+      </c>
+      <c r="H8" s="9">
+        <v>5</v>
+      </c>
+      <c r="I8" s="9">
+        <v>0</v>
+      </c>
+      <c r="J8" s="9">
+        <v>18.75</v>
+      </c>
+      <c r="K8" s="9">
+        <v>11</v>
+      </c>
+      <c r="L8" s="9">
+        <v>13</v>
+      </c>
+      <c r="M8" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="N8" s="9" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" s="9">
+        <v>7</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="3">
+        <v>210041700006</v>
+      </c>
+      <c r="D9" s="9">
+        <v>3</v>
+      </c>
+      <c r="E9" s="9">
+        <v>10</v>
+      </c>
+      <c r="F9" s="9">
+        <v>11</v>
+      </c>
+      <c r="G9" s="9">
+        <v>0</v>
+      </c>
+      <c r="H9" s="9">
+        <v>5</v>
+      </c>
+      <c r="I9" s="9">
+        <v>0</v>
+      </c>
+      <c r="J9" s="9">
+        <v>37.5</v>
+      </c>
+      <c r="K9" s="9">
+        <v>12</v>
+      </c>
+      <c r="L9" s="9">
+        <v>15</v>
+      </c>
+      <c r="M9" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="N9" s="9">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" s="9">
+        <v>8</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="3">
+        <v>210041700010</v>
+      </c>
+      <c r="D10" s="9">
+        <v>0</v>
+      </c>
+      <c r="E10" s="9">
+        <v>13</v>
+      </c>
+      <c r="F10" s="9">
+        <v>6</v>
+      </c>
+      <c r="G10" s="9">
+        <v>5</v>
+      </c>
+      <c r="H10" s="9">
+        <v>5</v>
+      </c>
+      <c r="I10" s="9">
+        <v>5</v>
+      </c>
+      <c r="J10" s="9">
+        <v>25</v>
+      </c>
+      <c r="K10" s="9">
+        <v>13</v>
+      </c>
+      <c r="L10" s="9">
+        <v>19</v>
+      </c>
+      <c r="M10" s="9">
+        <v>42</v>
+      </c>
+      <c r="N10" s="9">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" s="9">
+        <v>9</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="3">
+        <v>210041700011</v>
+      </c>
+      <c r="D11" s="9">
+        <v>0</v>
+      </c>
+      <c r="E11" s="9">
+        <v>9</v>
+      </c>
+      <c r="F11" s="9">
+        <v>11</v>
+      </c>
+      <c r="G11" s="9">
+        <v>5</v>
+      </c>
+      <c r="H11" s="9">
+        <v>5</v>
+      </c>
+      <c r="I11" s="9">
+        <v>5</v>
+      </c>
+      <c r="J11" s="9">
+        <v>31.25</v>
+      </c>
+      <c r="K11" s="9">
+        <v>13</v>
+      </c>
+      <c r="L11" s="9">
+        <v>19</v>
+      </c>
+      <c r="M11" s="9">
+        <v>38</v>
+      </c>
+      <c r="N11" s="9">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" s="9">
+        <v>10</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="3">
+        <v>210041700013</v>
+      </c>
+      <c r="D12" s="9">
+        <v>0</v>
+      </c>
+      <c r="E12" s="9">
+        <v>18</v>
+      </c>
+      <c r="F12" s="9">
+        <v>16</v>
+      </c>
+      <c r="G12" s="9">
+        <v>0</v>
+      </c>
+      <c r="H12" s="9">
+        <v>5</v>
+      </c>
+      <c r="I12" s="9">
+        <v>5</v>
+      </c>
+      <c r="J12" s="9">
+        <v>37.5</v>
+      </c>
+      <c r="K12" s="9">
+        <v>18</v>
+      </c>
+      <c r="L12" s="9">
+        <v>19</v>
+      </c>
+      <c r="M12" s="9">
+        <v>59</v>
+      </c>
+      <c r="N12" s="9">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" s="9">
+        <v>11</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="3">
+        <v>210041700015</v>
+      </c>
+      <c r="D13" s="9">
+        <v>0</v>
+      </c>
+      <c r="E13" s="9">
+        <v>12</v>
+      </c>
+      <c r="F13" s="9">
+        <v>4</v>
+      </c>
+      <c r="G13" s="9">
+        <v>0</v>
+      </c>
+      <c r="H13" s="9">
+        <v>5</v>
+      </c>
+      <c r="I13" s="9">
+        <v>0</v>
+      </c>
+      <c r="J13" s="9">
+        <v>62.5</v>
+      </c>
+      <c r="K13" s="9">
+        <v>11</v>
+      </c>
+      <c r="L13" s="9">
+        <v>18</v>
+      </c>
+      <c r="M13" s="9">
+        <v>54</v>
+      </c>
+      <c r="N13" s="9">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" s="9">
+        <v>12</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="3">
+        <v>210041700016</v>
+      </c>
+      <c r="D14" s="9">
+        <v>7</v>
+      </c>
+      <c r="E14" s="9">
+        <v>14</v>
+      </c>
+      <c r="F14" s="9">
+        <v>0</v>
+      </c>
+      <c r="G14" s="9">
+        <v>5</v>
+      </c>
+      <c r="H14" s="9">
+        <v>5</v>
+      </c>
+      <c r="I14" s="9">
+        <v>0</v>
+      </c>
+      <c r="J14" s="9">
+        <v>25</v>
+      </c>
+      <c r="K14" s="9">
+        <v>13</v>
+      </c>
+      <c r="L14" s="9">
+        <v>13</v>
+      </c>
+      <c r="M14" s="9">
+        <v>44</v>
+      </c>
+      <c r="N14" s="9">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15" s="9">
+        <v>13</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="3">
+        <v>210041700017</v>
+      </c>
+      <c r="D15" s="9">
+        <v>0</v>
+      </c>
+      <c r="E15" s="9">
+        <v>9</v>
+      </c>
+      <c r="F15" s="9">
+        <v>7</v>
+      </c>
+      <c r="G15" s="9">
+        <v>0</v>
+      </c>
+      <c r="H15" s="9">
+        <v>5</v>
+      </c>
+      <c r="I15" s="9">
+        <v>5</v>
+      </c>
+      <c r="J15" s="9">
+        <v>56.25</v>
+      </c>
+      <c r="K15" s="9">
+        <v>13</v>
+      </c>
+      <c r="L15" s="9">
+        <v>19</v>
+      </c>
+      <c r="M15" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="N15" s="9">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16" s="9">
+        <v>14</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" s="3">
+        <v>210041700018</v>
+      </c>
+      <c r="D16" s="9">
+        <v>1</v>
+      </c>
+      <c r="E16" s="9">
+        <v>7</v>
+      </c>
+      <c r="F16" s="9">
+        <v>6</v>
+      </c>
+      <c r="G16" s="9">
+        <v>0</v>
+      </c>
+      <c r="H16" s="9">
+        <v>5</v>
+      </c>
+      <c r="I16" s="9">
+        <v>2</v>
+      </c>
+      <c r="J16" s="9">
+        <v>50</v>
+      </c>
+      <c r="K16" s="9">
+        <v>12</v>
+      </c>
+      <c r="L16" s="9">
+        <v>16</v>
+      </c>
+      <c r="M16" s="9">
+        <v>54</v>
+      </c>
+      <c r="N16" s="9">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A17" s="9">
+        <v>15</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="3">
+        <v>210041700020</v>
+      </c>
+      <c r="D17" s="9">
+        <v>2</v>
+      </c>
+      <c r="E17" s="9">
+        <v>5</v>
+      </c>
+      <c r="F17" s="9">
+        <v>5</v>
+      </c>
+      <c r="G17" s="9">
+        <v>5</v>
+      </c>
+      <c r="H17" s="9">
+        <v>5</v>
+      </c>
+      <c r="I17" s="9">
+        <v>5</v>
+      </c>
+      <c r="J17" s="9">
+        <v>50</v>
+      </c>
+      <c r="K17" s="9">
+        <v>11</v>
+      </c>
+      <c r="L17" s="9">
+        <v>19</v>
+      </c>
+      <c r="M17" s="9">
+        <v>71</v>
+      </c>
+      <c r="N17" s="9">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A18" s="9">
+        <v>16</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" s="3">
+        <v>210041700024</v>
+      </c>
+      <c r="D18" s="9">
+        <v>0</v>
+      </c>
+      <c r="E18" s="9">
+        <v>12</v>
+      </c>
+      <c r="F18" s="9">
+        <v>10</v>
+      </c>
+      <c r="G18" s="9">
+        <v>0</v>
+      </c>
+      <c r="H18" s="9">
+        <v>0</v>
+      </c>
+      <c r="I18" s="9">
+        <v>5</v>
+      </c>
+      <c r="J18" s="9">
+        <v>6.25</v>
+      </c>
+      <c r="K18" s="9">
+        <v>11</v>
+      </c>
+      <c r="L18" s="9">
+        <v>21</v>
+      </c>
+      <c r="M18" s="9">
+        <v>33</v>
+      </c>
+      <c r="N18" s="9">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A19" s="9">
+        <v>17</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19" s="3">
+        <v>210041700025</v>
+      </c>
+      <c r="D19" s="9">
+        <v>5</v>
+      </c>
+      <c r="E19" s="9">
+        <v>0</v>
+      </c>
+      <c r="F19" s="9">
+        <v>16</v>
+      </c>
+      <c r="G19" s="9">
+        <v>2.5</v>
+      </c>
+      <c r="H19" s="9">
+        <v>5</v>
+      </c>
+      <c r="I19" s="9">
+        <v>5</v>
+      </c>
+      <c r="J19" s="9">
+        <v>93.75</v>
+      </c>
+      <c r="K19" s="9">
+        <v>16</v>
+      </c>
+      <c r="L19" s="9">
+        <v>19</v>
+      </c>
+      <c r="M19" s="9">
+        <v>61</v>
+      </c>
+      <c r="N19" s="9">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A20" s="9">
+        <v>18</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20" s="3">
+        <v>210041700026</v>
+      </c>
+      <c r="D20" s="9">
+        <v>15</v>
+      </c>
+      <c r="E20" s="9">
+        <v>21</v>
+      </c>
+      <c r="F20" s="9">
+        <v>9</v>
+      </c>
+      <c r="G20" s="9">
+        <v>5</v>
+      </c>
+      <c r="H20" s="9">
+        <v>5</v>
+      </c>
+      <c r="I20" s="9">
+        <v>5</v>
+      </c>
+      <c r="J20" s="9">
+        <v>87.5</v>
+      </c>
+      <c r="K20" s="9">
+        <v>21</v>
+      </c>
+      <c r="L20" s="9">
+        <v>21</v>
+      </c>
+      <c r="M20" s="9">
+        <v>76</v>
+      </c>
+      <c r="N20" s="9">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A21" s="9">
+        <v>19</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C21" s="3">
+        <v>210041700028</v>
+      </c>
+      <c r="D21" s="9">
+        <v>3</v>
+      </c>
+      <c r="E21" s="9">
+        <v>6</v>
+      </c>
+      <c r="F21" s="9">
+        <v>6</v>
+      </c>
+      <c r="G21" s="9">
+        <v>0</v>
+      </c>
+      <c r="H21" s="9">
+        <v>3</v>
+      </c>
+      <c r="I21" s="9">
+        <v>4</v>
+      </c>
+      <c r="J21" s="9">
+        <v>56.25</v>
+      </c>
+      <c r="K21" s="9">
+        <v>12</v>
+      </c>
+      <c r="L21" s="9">
+        <v>19</v>
+      </c>
+      <c r="M21" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="N21" s="9">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A22" s="9">
+        <v>20</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22" s="3">
+        <v>210041700029</v>
+      </c>
+      <c r="D22" s="9">
+        <v>12</v>
+      </c>
+      <c r="E22" s="9">
+        <v>15</v>
+      </c>
+      <c r="F22" s="9">
+        <v>10</v>
+      </c>
+      <c r="G22" s="9">
+        <v>5</v>
+      </c>
+      <c r="H22" s="9">
+        <v>5</v>
+      </c>
+      <c r="I22" s="9">
+        <v>5</v>
+      </c>
+      <c r="J22" s="9">
+        <v>93.75</v>
+      </c>
+      <c r="K22" s="9">
+        <v>18</v>
+      </c>
+      <c r="L22" s="9">
+        <v>19</v>
+      </c>
+      <c r="M22" s="9">
+        <v>67</v>
+      </c>
+      <c r="N22" s="9">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A23" s="9">
+        <v>21</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23" s="3">
+        <v>210041700030</v>
+      </c>
+      <c r="D23" s="9">
+        <v>7</v>
+      </c>
+      <c r="E23" s="9">
+        <v>14</v>
+      </c>
+      <c r="F23" s="9">
+        <v>13</v>
+      </c>
+      <c r="G23" s="9">
+        <v>5</v>
+      </c>
+      <c r="H23" s="9">
+        <v>5</v>
+      </c>
+      <c r="I23" s="9">
+        <v>5</v>
+      </c>
+      <c r="J23" s="9">
+        <v>100</v>
+      </c>
+      <c r="K23" s="9">
+        <v>18</v>
+      </c>
+      <c r="L23" s="9">
+        <v>21</v>
+      </c>
+      <c r="M23" s="9">
+        <v>52</v>
+      </c>
+      <c r="N23" s="9">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A24" s="9">
+        <v>22</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C24" s="3">
+        <v>210041700032</v>
+      </c>
+      <c r="D24" s="9">
+        <v>0</v>
+      </c>
+      <c r="E24" s="9">
+        <v>2</v>
+      </c>
+      <c r="F24" s="9">
+        <v>6</v>
+      </c>
+      <c r="G24" s="9">
+        <v>0</v>
+      </c>
+      <c r="H24" s="9">
+        <v>2.5</v>
+      </c>
+      <c r="I24" s="9">
+        <v>5</v>
+      </c>
+      <c r="J24" s="9">
+        <v>12.5</v>
+      </c>
+      <c r="K24" s="9">
+        <v>12</v>
+      </c>
+      <c r="L24" s="9">
+        <v>19</v>
+      </c>
+      <c r="M24" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="N24" s="9">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A25" s="9">
+        <v>23</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C25" s="3">
+        <v>210041700033</v>
+      </c>
+      <c r="D25" s="9">
+        <v>5</v>
+      </c>
+      <c r="E25" s="9">
+        <v>4</v>
+      </c>
+      <c r="F25" s="9">
+        <v>10</v>
+      </c>
+      <c r="G25" s="9">
+        <v>5</v>
+      </c>
+      <c r="H25" s="9">
+        <v>5</v>
+      </c>
+      <c r="I25" s="9">
+        <v>5</v>
+      </c>
+      <c r="J25" s="9">
+        <v>31.25</v>
+      </c>
+      <c r="K25" s="9">
+        <v>12</v>
+      </c>
+      <c r="L25" s="9">
+        <v>19</v>
+      </c>
+      <c r="M25" s="9">
+        <v>39</v>
+      </c>
+      <c r="N25" s="9">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A26" s="9">
+        <v>24</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" s="3">
+        <v>210041700034</v>
+      </c>
+      <c r="D26" s="9">
+        <v>1</v>
+      </c>
+      <c r="E26" s="9">
+        <v>1</v>
+      </c>
+      <c r="F26" s="9">
+        <v>3</v>
+      </c>
+      <c r="G26" s="9">
+        <v>0</v>
+      </c>
+      <c r="H26" s="9">
+        <v>5</v>
+      </c>
+      <c r="I26" s="9">
+        <v>5</v>
+      </c>
+      <c r="J26" s="9">
+        <v>18.75</v>
+      </c>
+      <c r="K26" s="9">
+        <v>12</v>
+      </c>
+      <c r="L26" s="9">
+        <v>12</v>
+      </c>
+      <c r="M26" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="N26" s="9">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A27" s="9">
+        <v>25</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" s="3">
+        <v>210041700035</v>
+      </c>
+      <c r="D27" s="9">
+        <v>0</v>
+      </c>
+      <c r="E27" s="9">
+        <v>5</v>
+      </c>
+      <c r="F27" s="9">
+        <v>10</v>
+      </c>
+      <c r="G27" s="9">
+        <v>5</v>
+      </c>
+      <c r="H27" s="9">
+        <v>5</v>
+      </c>
+      <c r="I27" s="9">
+        <v>5</v>
+      </c>
+      <c r="J27" s="9">
+        <v>37.5</v>
+      </c>
+      <c r="K27" s="9">
+        <v>12</v>
+      </c>
+      <c r="L27" s="9">
+        <v>19</v>
+      </c>
+      <c r="M27" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="N27" s="9">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A28" s="9">
+        <v>26</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C28" s="3">
+        <v>210041700036</v>
+      </c>
+      <c r="D28" s="9">
+        <v>5</v>
+      </c>
+      <c r="E28" s="9">
+        <v>13</v>
+      </c>
+      <c r="F28" s="9">
+        <v>5.5</v>
+      </c>
+      <c r="G28" s="9">
+        <v>2.5</v>
+      </c>
+      <c r="H28" s="9">
+        <v>5</v>
+      </c>
+      <c r="I28" s="9">
+        <v>5</v>
+      </c>
+      <c r="J28" s="9">
+        <v>37.5</v>
+      </c>
+      <c r="K28" s="9">
+        <v>13</v>
+      </c>
+      <c r="L28" s="9">
+        <v>19</v>
+      </c>
+      <c r="M28" s="9">
+        <v>43</v>
+      </c>
+      <c r="N28" s="9">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A29" s="9">
+        <v>27</v>
+      </c>
+      <c r="B29" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C29" s="3">
+        <v>210041700037</v>
+      </c>
+      <c r="D29" s="9">
+        <v>3</v>
+      </c>
+      <c r="E29" s="9">
+        <v>2</v>
+      </c>
+      <c r="F29" s="9">
+        <v>9</v>
+      </c>
+      <c r="G29" s="9">
+        <v>0</v>
+      </c>
+      <c r="H29" s="9">
+        <v>5</v>
+      </c>
+      <c r="I29" s="9">
+        <v>5</v>
+      </c>
+      <c r="J29" s="9">
+        <v>18.75</v>
+      </c>
+      <c r="K29" s="9">
+        <v>11</v>
+      </c>
+      <c r="L29" s="9">
+        <v>19</v>
+      </c>
+      <c r="M29" s="9">
+        <v>44</v>
+      </c>
+      <c r="N29" s="9">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A30" s="9">
+        <v>28</v>
+      </c>
+      <c r="B30" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C30" s="3">
+        <v>210041700038</v>
+      </c>
+      <c r="D30" s="9">
+        <v>2</v>
+      </c>
+      <c r="E30" s="9">
+        <v>3</v>
+      </c>
+      <c r="F30" s="9">
+        <v>2</v>
+      </c>
+      <c r="G30" s="9">
+        <v>0</v>
+      </c>
+      <c r="H30" s="9">
+        <v>5</v>
+      </c>
+      <c r="I30" s="9">
+        <v>5</v>
+      </c>
+      <c r="J30" s="9">
+        <v>31.25</v>
+      </c>
+      <c r="K30" s="9">
+        <v>12</v>
+      </c>
+      <c r="L30" s="9">
+        <v>20</v>
+      </c>
+      <c r="M30" s="9">
+        <v>68</v>
+      </c>
+      <c r="N30" s="9">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A31" s="9">
+        <v>29</v>
+      </c>
+      <c r="B31" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C31" s="3">
+        <v>210041700040</v>
+      </c>
+      <c r="D31" s="9">
+        <v>8</v>
+      </c>
+      <c r="E31" s="9">
+        <v>14</v>
+      </c>
+      <c r="F31" s="9">
+        <v>15</v>
+      </c>
+      <c r="G31" s="9">
+        <v>5</v>
+      </c>
+      <c r="H31" s="9">
+        <v>5</v>
+      </c>
+      <c r="I31" s="9">
+        <v>5</v>
+      </c>
+      <c r="J31" s="9">
+        <v>37.5</v>
+      </c>
+      <c r="K31" s="9">
+        <v>16</v>
+      </c>
+      <c r="L31" s="9">
+        <v>22</v>
+      </c>
+      <c r="M31" s="9">
+        <v>55</v>
+      </c>
+      <c r="N31" s="9">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A32" s="9">
+        <v>30</v>
+      </c>
+      <c r="B32" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C32" s="3">
+        <v>210041700041</v>
+      </c>
+      <c r="D32" s="9">
+        <v>19</v>
+      </c>
+      <c r="E32" s="9">
+        <v>17</v>
+      </c>
+      <c r="F32" s="9">
+        <v>11</v>
+      </c>
+      <c r="G32" s="9">
+        <v>5</v>
+      </c>
+      <c r="H32" s="9">
+        <v>5</v>
+      </c>
+      <c r="I32" s="9">
+        <v>5</v>
+      </c>
+      <c r="J32" s="9">
+        <v>50</v>
+      </c>
+      <c r="K32" s="9">
+        <v>19</v>
+      </c>
+      <c r="L32" s="9">
+        <v>21</v>
+      </c>
+      <c r="M32" s="9">
+        <v>77</v>
+      </c>
+      <c r="N32" s="9">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A33" s="9">
+        <v>31</v>
+      </c>
+      <c r="B33" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C33" s="3">
+        <v>210041700044</v>
+      </c>
+      <c r="D33" s="9">
+        <v>4</v>
+      </c>
+      <c r="E33" s="9">
+        <v>12</v>
+      </c>
+      <c r="F33" s="9">
+        <v>18</v>
+      </c>
+      <c r="G33" s="9">
+        <v>5</v>
+      </c>
+      <c r="H33" s="9">
+        <v>5</v>
+      </c>
+      <c r="I33" s="9">
+        <v>5</v>
+      </c>
+      <c r="J33" s="9">
+        <v>68.75</v>
+      </c>
+      <c r="K33" s="9">
+        <v>17</v>
+      </c>
+      <c r="L33" s="9">
+        <v>19</v>
+      </c>
+      <c r="M33" s="9">
+        <v>39</v>
+      </c>
+      <c r="N33" s="9">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A34" s="9">
+        <v>32</v>
+      </c>
+      <c r="B34" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C34" s="3">
+        <v>210041700046</v>
+      </c>
+      <c r="D34" s="9">
+        <v>6</v>
+      </c>
+      <c r="E34" s="9">
+        <v>19</v>
+      </c>
+      <c r="F34" s="9">
+        <v>10</v>
+      </c>
+      <c r="G34" s="9">
+        <v>5</v>
+      </c>
+      <c r="H34" s="9">
+        <v>5</v>
+      </c>
+      <c r="I34" s="9">
+        <v>5</v>
+      </c>
+      <c r="J34" s="9">
+        <v>93.75</v>
+      </c>
+      <c r="K34" s="9">
+        <v>19</v>
+      </c>
+      <c r="L34" s="9">
+        <v>21</v>
+      </c>
+      <c r="M34" s="9">
+        <v>64</v>
+      </c>
+      <c r="N34" s="9">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A35" s="9">
+        <v>33</v>
+      </c>
+      <c r="B35" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C35" s="3">
+        <v>210041700049</v>
+      </c>
+      <c r="D35" s="9">
+        <v>2</v>
+      </c>
+      <c r="E35" s="9">
+        <v>6</v>
+      </c>
+      <c r="F35" s="9">
+        <v>4</v>
+      </c>
+      <c r="G35" s="9">
+        <v>2.5</v>
+      </c>
+      <c r="H35" s="9">
+        <v>5</v>
+      </c>
+      <c r="I35" s="9">
+        <v>5</v>
+      </c>
+      <c r="J35" s="9">
+        <v>75</v>
+      </c>
+      <c r="K35" s="9">
+        <v>12</v>
+      </c>
+      <c r="L35" s="9">
+        <v>16</v>
+      </c>
+      <c r="M35" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="N35" s="9">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A36" s="9">
+        <v>34</v>
+      </c>
+      <c r="B36" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C36" s="3">
+        <v>210041700050</v>
+      </c>
+      <c r="D36" s="9">
+        <v>7</v>
+      </c>
+      <c r="E36" s="9">
+        <v>16</v>
+      </c>
+      <c r="F36" s="9">
+        <v>0</v>
+      </c>
+      <c r="G36" s="9">
+        <v>5</v>
+      </c>
+      <c r="H36" s="9">
+        <v>5</v>
+      </c>
+      <c r="I36" s="9">
+        <v>0</v>
+      </c>
+      <c r="J36" s="9">
+        <v>81.25</v>
+      </c>
+      <c r="K36" s="9">
+        <v>16</v>
+      </c>
+      <c r="L36" s="9">
+        <v>16</v>
+      </c>
+      <c r="M36" s="9">
+        <v>40</v>
+      </c>
+      <c r="N36" s="9">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A37" s="9">
+        <v>35</v>
+      </c>
+      <c r="B37" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C37" s="3">
+        <v>210041700051</v>
+      </c>
+      <c r="D37" s="9">
+        <v>12</v>
+      </c>
+      <c r="E37" s="9">
+        <v>15</v>
+      </c>
+      <c r="F37" s="9">
+        <v>12</v>
+      </c>
+      <c r="G37" s="9">
+        <v>5</v>
+      </c>
+      <c r="H37" s="9">
+        <v>5</v>
+      </c>
+      <c r="I37" s="9">
+        <v>5</v>
+      </c>
+      <c r="J37" s="9">
+        <v>68.75</v>
+      </c>
+      <c r="K37" s="9">
+        <v>16</v>
+      </c>
+      <c r="L37" s="9">
+        <v>19</v>
+      </c>
+      <c r="M37" s="9">
+        <v>54</v>
+      </c>
+      <c r="N37" s="9">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A38" s="9">
+        <v>36</v>
+      </c>
+      <c r="B38" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C38" s="3">
+        <v>210041700052</v>
+      </c>
+      <c r="D38" s="9">
+        <v>11</v>
+      </c>
+      <c r="E38" s="9">
+        <v>15</v>
+      </c>
+      <c r="F38" s="9">
+        <v>10</v>
+      </c>
+      <c r="G38" s="9">
+        <v>5</v>
+      </c>
+      <c r="H38" s="9">
+        <v>5</v>
+      </c>
+      <c r="I38" s="9">
+        <v>5</v>
+      </c>
+      <c r="J38" s="9">
+        <v>75</v>
+      </c>
+      <c r="K38" s="9">
+        <v>17</v>
+      </c>
+      <c r="L38" s="9">
+        <v>21</v>
+      </c>
+      <c r="M38" s="9">
+        <v>45</v>
+      </c>
+      <c r="N38" s="9">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A39" s="9">
+        <v>37</v>
+      </c>
+      <c r="B39" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C39" s="3">
+        <v>210041700053</v>
+      </c>
+      <c r="D39" s="9">
+        <v>4</v>
+      </c>
+      <c r="E39" s="9">
+        <v>6</v>
+      </c>
+      <c r="F39" s="9">
+        <v>6</v>
+      </c>
+      <c r="G39" s="9">
+        <v>0</v>
+      </c>
+      <c r="H39" s="9">
+        <v>3</v>
+      </c>
+      <c r="I39" s="9">
+        <v>4</v>
+      </c>
+      <c r="J39" s="9">
+        <v>25</v>
+      </c>
+      <c r="K39" s="9">
+        <v>11</v>
+      </c>
+      <c r="L39" s="9">
+        <v>16</v>
+      </c>
+      <c r="M39" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="N39" s="9">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A40" s="9">
+        <v>38</v>
+      </c>
+      <c r="B40" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C40" s="3">
+        <v>210041700055</v>
+      </c>
+      <c r="D40" s="9">
+        <v>4</v>
+      </c>
+      <c r="E40" s="9">
+        <v>9</v>
+      </c>
+      <c r="F40" s="9">
+        <v>4</v>
+      </c>
+      <c r="G40" s="9">
+        <v>5</v>
+      </c>
+      <c r="H40" s="9">
+        <v>5</v>
+      </c>
+      <c r="I40" s="9">
+        <v>5</v>
+      </c>
+      <c r="J40" s="9">
+        <v>31.25</v>
+      </c>
+      <c r="K40" s="9">
+        <v>12</v>
+      </c>
+      <c r="L40" s="9">
+        <v>20</v>
+      </c>
+      <c r="M40" s="9">
+        <v>54</v>
+      </c>
+      <c r="N40" s="9">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A41" s="9">
+        <v>39</v>
+      </c>
+      <c r="B41" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C41" s="3">
+        <v>210041700056</v>
+      </c>
+      <c r="D41" s="9">
+        <v>4</v>
+      </c>
+      <c r="E41" s="9">
+        <v>13</v>
+      </c>
+      <c r="F41" s="9">
+        <v>14</v>
+      </c>
+      <c r="G41" s="9">
+        <v>5</v>
+      </c>
+      <c r="H41" s="9">
+        <v>5</v>
+      </c>
+      <c r="I41" s="9">
+        <v>5</v>
+      </c>
+      <c r="J41" s="9">
+        <v>56.25</v>
+      </c>
+      <c r="K41" s="9">
+        <v>16</v>
+      </c>
+      <c r="L41" s="9">
+        <v>22</v>
+      </c>
+      <c r="M41" s="9">
+        <v>65</v>
+      </c>
+      <c r="N41" s="9">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A42" s="9">
+        <v>40</v>
+      </c>
+      <c r="B42" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C42" s="3">
+        <v>210041700057</v>
+      </c>
+      <c r="D42" s="9">
+        <v>2</v>
+      </c>
+      <c r="E42" s="9">
+        <v>9</v>
+      </c>
+      <c r="F42" s="9">
+        <v>6</v>
+      </c>
+      <c r="G42" s="9">
+        <v>5</v>
+      </c>
+      <c r="H42" s="9">
+        <v>5</v>
+      </c>
+      <c r="I42" s="9">
+        <v>5</v>
+      </c>
+      <c r="J42" s="9">
+        <v>50</v>
+      </c>
+      <c r="K42" s="9">
+        <v>13</v>
+      </c>
+      <c r="L42" s="9">
+        <v>21</v>
+      </c>
+      <c r="M42" s="9">
+        <v>57</v>
+      </c>
+      <c r="N42" s="9">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A43" s="9">
+        <v>41</v>
+      </c>
+      <c r="B43" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C43" s="3">
+        <v>210041700058</v>
+      </c>
+      <c r="D43" s="9">
+        <v>6</v>
+      </c>
+      <c r="E43" s="9">
+        <v>12</v>
+      </c>
+      <c r="F43" s="9">
+        <v>6</v>
+      </c>
+      <c r="G43" s="9">
+        <v>0</v>
+      </c>
+      <c r="H43" s="9">
+        <v>5</v>
+      </c>
+      <c r="I43" s="9">
+        <v>5</v>
+      </c>
+      <c r="J43" s="9">
+        <v>31.25</v>
+      </c>
+      <c r="K43" s="9">
+        <v>13</v>
+      </c>
+      <c r="L43" s="9">
+        <v>21</v>
+      </c>
+      <c r="M43" s="9">
+        <v>34</v>
+      </c>
+      <c r="N43" s="9">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A44" s="9">
+        <v>42</v>
+      </c>
+      <c r="B44" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="C44" s="3">
+        <v>210041700059</v>
+      </c>
+      <c r="D44" s="9">
+        <v>2</v>
+      </c>
+      <c r="E44" s="9">
+        <v>4</v>
+      </c>
+      <c r="F44" s="9">
+        <v>6</v>
+      </c>
+      <c r="G44" s="9">
+        <v>0</v>
+      </c>
+      <c r="H44" s="9">
+        <v>5</v>
+      </c>
+      <c r="I44" s="9">
+        <v>0</v>
+      </c>
+      <c r="J44" s="9">
+        <v>37.5</v>
+      </c>
+      <c r="K44" s="9">
+        <v>11</v>
+      </c>
+      <c r="L44" s="9">
+        <v>21</v>
+      </c>
+      <c r="M44" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="N44" s="9">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A45" s="9">
+        <v>43</v>
+      </c>
+      <c r="B45" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C45" s="3">
+        <v>210041700060</v>
+      </c>
+      <c r="D45" s="9">
+        <v>3</v>
+      </c>
+      <c r="E45" s="9">
+        <v>6</v>
+      </c>
+      <c r="F45" s="9">
+        <v>6</v>
+      </c>
+      <c r="G45" s="9">
+        <v>0</v>
+      </c>
+      <c r="H45" s="9">
+        <v>3</v>
+      </c>
+      <c r="I45" s="9">
+        <v>4</v>
+      </c>
+      <c r="J45" s="9">
+        <v>62.5</v>
+      </c>
+      <c r="K45" s="9">
+        <v>12</v>
+      </c>
+      <c r="L45" s="9">
+        <v>19</v>
+      </c>
+      <c r="M45" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="N45" s="9">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A46" s="9">
+        <v>44</v>
+      </c>
+      <c r="B46" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="C46" s="3">
+        <v>210041700061</v>
+      </c>
+      <c r="D46" s="9">
+        <v>2</v>
+      </c>
+      <c r="E46" s="9">
+        <v>6</v>
+      </c>
+      <c r="F46" s="9">
+        <v>0</v>
+      </c>
+      <c r="G46" s="9">
+        <v>0</v>
+      </c>
+      <c r="H46" s="9">
+        <v>5</v>
+      </c>
+      <c r="I46" s="9">
+        <v>5</v>
+      </c>
+      <c r="J46" s="9">
+        <v>31.25</v>
+      </c>
+      <c r="K46" s="9">
+        <v>12</v>
+      </c>
+      <c r="L46" s="9">
+        <v>16</v>
+      </c>
+      <c r="M46" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="N46" s="9">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A47" s="9">
+        <v>45</v>
+      </c>
+      <c r="B47" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C47" s="3">
+        <v>210041700062</v>
+      </c>
+      <c r="D47" s="9">
+        <v>12</v>
+      </c>
+      <c r="E47" s="9">
+        <v>12</v>
+      </c>
+      <c r="F47" s="9">
+        <v>14</v>
+      </c>
+      <c r="G47" s="9">
+        <v>5</v>
+      </c>
+      <c r="H47" s="9">
+        <v>5</v>
+      </c>
+      <c r="I47" s="9">
+        <v>5</v>
+      </c>
+      <c r="J47" s="9">
+        <v>62.5</v>
+      </c>
+      <c r="K47" s="9">
+        <v>16</v>
+      </c>
+      <c r="L47" s="9">
+        <v>19</v>
+      </c>
+      <c r="M47" s="9">
+        <v>52</v>
+      </c>
+      <c r="N47" s="9">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A48" s="9">
+        <v>46</v>
+      </c>
+      <c r="B48" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="C48" s="3">
+        <v>210041700063</v>
+      </c>
+      <c r="D48" s="9">
+        <v>9</v>
+      </c>
+      <c r="E48" s="9">
+        <v>19</v>
+      </c>
+      <c r="F48" s="9">
+        <v>17</v>
+      </c>
+      <c r="G48" s="9">
+        <v>5</v>
+      </c>
+      <c r="H48" s="9">
+        <v>5</v>
+      </c>
+      <c r="I48" s="9">
+        <v>5</v>
+      </c>
+      <c r="J48" s="9">
+        <v>75</v>
+      </c>
+      <c r="K48" s="9">
+        <v>20</v>
+      </c>
+      <c r="L48" s="9">
+        <v>20</v>
+      </c>
+      <c r="M48" s="9">
+        <v>50</v>
+      </c>
+      <c r="N48" s="9">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A49" s="9">
+        <v>47</v>
+      </c>
+      <c r="B49" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="C49" s="3">
+        <v>210041722001</v>
+      </c>
+      <c r="D49" s="9">
+        <v>9</v>
+      </c>
+      <c r="E49" s="9">
+        <v>10</v>
+      </c>
+      <c r="F49" s="9">
+        <v>0</v>
+      </c>
+      <c r="G49" s="9">
+        <v>5</v>
+      </c>
+      <c r="H49" s="9">
+        <v>5</v>
+      </c>
+      <c r="I49" s="9">
+        <v>5</v>
+      </c>
+      <c r="J49" s="9">
+        <v>87.5</v>
+      </c>
+      <c r="K49" s="9">
+        <v>16</v>
+      </c>
+      <c r="L49" s="9">
+        <v>21</v>
+      </c>
+      <c r="M49" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="N49" s="9">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A50" s="9">
+        <v>48</v>
+      </c>
+      <c r="B50" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="C50" s="3">
+        <v>210041722003</v>
+      </c>
+      <c r="D50" s="9">
+        <v>4</v>
+      </c>
+      <c r="E50" s="9">
+        <v>15</v>
+      </c>
+      <c r="F50" s="9">
+        <v>11</v>
+      </c>
+      <c r="G50" s="9">
+        <v>5</v>
+      </c>
+      <c r="H50" s="9">
+        <v>5</v>
+      </c>
+      <c r="I50" s="9">
+        <v>5</v>
+      </c>
+      <c r="J50" s="9">
+        <v>37.5</v>
+      </c>
+      <c r="K50" s="9">
+        <v>15</v>
+      </c>
+      <c r="L50" s="9">
+        <v>19</v>
+      </c>
+      <c r="M50" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="N50" s="9">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A51" s="9">
+        <v>49</v>
+      </c>
+      <c r="B51" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="C51" s="3">
+        <v>210041722004</v>
+      </c>
+      <c r="D51" s="9">
+        <v>0</v>
+      </c>
+      <c r="E51" s="9">
+        <v>20</v>
+      </c>
+      <c r="F51" s="9">
+        <v>12</v>
+      </c>
+      <c r="G51" s="9">
+        <v>5</v>
+      </c>
+      <c r="H51" s="9">
+        <v>5</v>
+      </c>
+      <c r="I51" s="9">
+        <v>5</v>
+      </c>
+      <c r="J51" s="9">
+        <v>68.75</v>
+      </c>
+      <c r="K51" s="9">
+        <v>18</v>
+      </c>
+      <c r="L51" s="9">
+        <v>20</v>
+      </c>
+      <c r="M51" s="9">
+        <v>67</v>
+      </c>
+      <c r="N51" s="9">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A52" s="9">
+        <v>50</v>
+      </c>
+      <c r="B52" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C52" s="3">
+        <v>210041722005</v>
+      </c>
+      <c r="D52" s="9">
+        <v>5</v>
+      </c>
+      <c r="E52" s="9">
+        <v>0</v>
+      </c>
+      <c r="F52" s="9">
+        <v>10</v>
+      </c>
+      <c r="G52" s="9">
+        <v>5</v>
+      </c>
+      <c r="H52" s="9">
+        <v>5</v>
+      </c>
+      <c r="I52" s="9">
+        <v>5</v>
+      </c>
+      <c r="J52" s="9">
+        <v>43.75</v>
+      </c>
+      <c r="K52" s="9">
+        <v>12</v>
+      </c>
+      <c r="L52" s="9">
+        <v>16</v>
+      </c>
+      <c r="M52" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="N52" s="9">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A53" s="9">
+        <v>51</v>
+      </c>
+      <c r="B53" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C53" s="3">
+        <v>210041722007</v>
+      </c>
+      <c r="D53" s="9">
+        <v>2</v>
+      </c>
+      <c r="E53" s="9">
+        <v>6</v>
+      </c>
+      <c r="F53" s="9">
+        <v>5</v>
+      </c>
+      <c r="G53" s="9">
+        <v>0</v>
+      </c>
+      <c r="H53" s="9">
+        <v>4</v>
+      </c>
+      <c r="I53" s="9">
+        <v>4</v>
+      </c>
+      <c r="J53" s="9">
+        <v>18.75</v>
+      </c>
+      <c r="K53" s="9">
+        <v>12</v>
+      </c>
+      <c r="L53" s="9">
+        <v>12</v>
+      </c>
+      <c r="M53" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="N53" s="9">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A54" s="9">
+        <v>52</v>
+      </c>
+      <c r="B54" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C54" s="3">
+        <v>210041722008</v>
+      </c>
+      <c r="D54" s="9">
+        <v>3</v>
+      </c>
+      <c r="E54" s="9">
+        <v>11</v>
+      </c>
+      <c r="F54" s="9">
+        <v>6</v>
+      </c>
+      <c r="G54" s="9">
+        <v>5</v>
+      </c>
+      <c r="H54" s="9">
+        <v>5</v>
+      </c>
+      <c r="I54" s="9">
+        <v>5</v>
+      </c>
+      <c r="J54" s="9">
+        <v>81.25</v>
+      </c>
+      <c r="K54" s="9">
+        <v>15</v>
+      </c>
+      <c r="L54" s="9">
+        <v>19</v>
+      </c>
+      <c r="M54" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="N54" s="9">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A55" s="9">
+        <v>53</v>
+      </c>
+      <c r="B55" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="C55" s="3">
+        <v>210041722010</v>
+      </c>
+      <c r="D55" s="9">
+        <v>14</v>
+      </c>
+      <c r="E55" s="9">
+        <v>17</v>
+      </c>
+      <c r="F55" s="9">
+        <v>13</v>
+      </c>
+      <c r="G55" s="9">
+        <v>5</v>
+      </c>
+      <c r="H55" s="9">
+        <v>5</v>
+      </c>
+      <c r="I55" s="9">
+        <v>5</v>
+      </c>
+      <c r="J55" s="9">
+        <v>56.25</v>
+      </c>
+      <c r="K55" s="9">
+        <v>17</v>
+      </c>
+      <c r="L55" s="9">
+        <v>21</v>
+      </c>
+      <c r="M55" s="9">
+        <v>43</v>
+      </c>
+      <c r="N55" s="9">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A56" s="9">
+        <v>54</v>
+      </c>
+      <c r="B56" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="C56" s="3">
+        <v>210041722012</v>
+      </c>
+      <c r="D56" s="9">
+        <v>14</v>
+      </c>
+      <c r="E56" s="9">
+        <v>19</v>
+      </c>
+      <c r="F56" s="9">
+        <v>13</v>
+      </c>
+      <c r="G56" s="9">
+        <v>5</v>
+      </c>
+      <c r="H56" s="9">
+        <v>5</v>
+      </c>
+      <c r="I56" s="9">
+        <v>5</v>
+      </c>
+      <c r="J56" s="9">
+        <v>75</v>
+      </c>
+      <c r="K56" s="9">
+        <v>19</v>
+      </c>
+      <c r="L56" s="9">
+        <v>21</v>
+      </c>
+      <c r="M56" s="9">
+        <v>54</v>
+      </c>
+      <c r="N56" s="9">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A57" s="9">
+        <v>55</v>
+      </c>
+      <c r="B57" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="C57" s="3">
+        <v>210041722014</v>
+      </c>
+      <c r="D57" s="9">
+        <v>4</v>
+      </c>
+      <c r="E57" s="9">
+        <v>1</v>
+      </c>
+      <c r="F57" s="9">
+        <v>6</v>
+      </c>
+      <c r="G57" s="9">
+        <v>5</v>
+      </c>
+      <c r="H57" s="9">
+        <v>0</v>
+      </c>
+      <c r="I57" s="9">
+        <v>5</v>
+      </c>
+      <c r="J57" s="9">
+        <v>37.5</v>
+      </c>
+      <c r="K57" s="9">
+        <v>11</v>
+      </c>
+      <c r="L57" s="9">
+        <v>12</v>
+      </c>
+      <c r="M57" s="9">
+        <v>49</v>
+      </c>
+      <c r="N57" s="9">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A58" s="9">
+        <v>56</v>
+      </c>
+      <c r="B58" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C58" s="3">
+        <v>210041722015</v>
+      </c>
+      <c r="D58" s="9">
+        <v>2</v>
+      </c>
+      <c r="E58" s="9">
+        <v>8</v>
+      </c>
+      <c r="F58" s="9">
+        <v>4</v>
+      </c>
+      <c r="G58" s="9">
+        <v>5</v>
+      </c>
+      <c r="H58" s="9">
+        <v>5</v>
+      </c>
+      <c r="I58" s="9">
+        <v>0</v>
+      </c>
+      <c r="J58" s="9">
+        <v>18.75</v>
+      </c>
+      <c r="K58" s="9">
+        <v>11</v>
+      </c>
+      <c r="L58" s="9">
+        <v>20</v>
+      </c>
+      <c r="M58" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="N58" s="9">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A59" s="9">
+        <v>57</v>
+      </c>
+      <c r="B59" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C59" s="3">
+        <v>210041722016</v>
+      </c>
+      <c r="D59" s="9">
+        <v>10</v>
+      </c>
+      <c r="E59" s="9">
+        <v>22</v>
+      </c>
+      <c r="F59" s="9">
+        <v>13</v>
+      </c>
+      <c r="G59" s="9">
+        <v>5</v>
+      </c>
+      <c r="H59" s="9">
+        <v>5</v>
+      </c>
+      <c r="I59" s="9">
+        <v>5</v>
+      </c>
+      <c r="J59" s="9">
+        <v>75</v>
+      </c>
+      <c r="K59" s="9">
+        <v>20</v>
+      </c>
+      <c r="L59" s="9">
+        <v>24</v>
+      </c>
+      <c r="M59" s="9">
+        <v>75</v>
+      </c>
+      <c r="N59" s="9">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A60" s="9">
+        <v>58</v>
+      </c>
+      <c r="B60" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C60" s="3">
+        <v>210041722019</v>
+      </c>
+      <c r="D60" s="9">
+        <v>3</v>
+      </c>
+      <c r="E60" s="9">
+        <v>6</v>
+      </c>
+      <c r="F60" s="9">
+        <v>0</v>
+      </c>
+      <c r="G60" s="9">
+        <v>5</v>
+      </c>
+      <c r="H60" s="9">
+        <v>5</v>
+      </c>
+      <c r="I60" s="9">
+        <v>5</v>
+      </c>
+      <c r="J60" s="9">
+        <v>43.75</v>
+      </c>
+      <c r="K60" s="9">
+        <v>12</v>
+      </c>
+      <c r="L60" s="9">
+        <v>20</v>
+      </c>
+      <c r="M60" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="N60" s="9">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A61" s="9">
+        <v>59</v>
+      </c>
+      <c r="B61" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C61" s="3">
+        <v>210041700012</v>
+      </c>
+      <c r="D61" s="9">
+        <v>8</v>
+      </c>
+      <c r="E61" s="9">
+        <v>16.5</v>
+      </c>
+      <c r="F61" s="9">
+        <v>15</v>
+      </c>
+      <c r="G61" s="9">
+        <v>5</v>
+      </c>
+      <c r="H61" s="9">
+        <v>5</v>
+      </c>
+      <c r="I61" s="9">
+        <v>5</v>
+      </c>
+      <c r="J61" s="9">
+        <v>76.923076923076934</v>
+      </c>
+      <c r="K61" s="9">
+        <v>19</v>
+      </c>
+      <c r="L61" s="9">
+        <v>24</v>
+      </c>
+      <c r="M61" s="9">
+        <v>62</v>
+      </c>
+      <c r="N61" s="9">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A62" s="9">
+        <v>60</v>
+      </c>
+      <c r="B62" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="C62" s="3">
+        <v>210041700064</v>
+      </c>
+      <c r="D62" s="9">
+        <v>3</v>
+      </c>
+      <c r="E62" s="9">
+        <v>10</v>
+      </c>
+      <c r="F62" s="9">
+        <v>12</v>
+      </c>
+      <c r="G62" s="9">
+        <v>0</v>
+      </c>
+      <c r="H62" s="9">
+        <v>2.5</v>
+      </c>
+      <c r="I62" s="9">
+        <v>2.5</v>
+      </c>
+      <c r="J62" s="9">
+        <v>38.461538461538467</v>
+      </c>
+      <c r="K62" s="9">
+        <v>12</v>
+      </c>
+      <c r="L62" s="9">
+        <v>18</v>
+      </c>
+      <c r="M62" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="N62" s="9">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A63" s="9">
+        <v>61</v>
+      </c>
+      <c r="B63" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C63" s="3">
+        <v>210041700065</v>
+      </c>
+      <c r="D63" s="9">
+        <v>0</v>
+      </c>
+      <c r="E63" s="9">
+        <v>15</v>
+      </c>
+      <c r="F63" s="9">
+        <v>12</v>
+      </c>
+      <c r="G63" s="9">
+        <v>0</v>
+      </c>
+      <c r="H63" s="9">
+        <v>0</v>
+      </c>
+      <c r="I63" s="9">
+        <v>0</v>
+      </c>
+      <c r="J63" s="9">
+        <v>53.846153846153847</v>
+      </c>
+      <c r="K63" s="9">
+        <v>11</v>
+      </c>
+      <c r="L63" s="9">
+        <v>18</v>
+      </c>
+      <c r="M63" s="9">
+        <v>63</v>
+      </c>
+      <c r="N63" s="9">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A64" s="9">
+        <v>62</v>
+      </c>
+      <c r="B64" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C64" s="3">
+        <v>210041700066</v>
+      </c>
+      <c r="D64" s="9">
+        <v>0</v>
+      </c>
+      <c r="E64" s="9">
+        <v>15</v>
+      </c>
+      <c r="F64" s="9">
+        <v>12</v>
+      </c>
+      <c r="G64" s="9">
+        <v>0</v>
+      </c>
+      <c r="H64" s="9">
+        <v>0</v>
+      </c>
+      <c r="I64" s="9">
+        <v>0</v>
+      </c>
+      <c r="J64" s="9">
+        <v>53.846153846153847</v>
+      </c>
+      <c r="K64" s="9">
+        <v>11</v>
+      </c>
+      <c r="L64" s="9">
+        <v>19</v>
+      </c>
+      <c r="M64" s="9">
+        <v>77</v>
+      </c>
+      <c r="N64" s="9">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A65" s="9">
+        <v>63</v>
+      </c>
+      <c r="B65" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="C65" s="3">
+        <v>210041700067</v>
+      </c>
+      <c r="D65" s="9">
+        <v>11</v>
+      </c>
+      <c r="E65" s="9">
+        <v>13</v>
+      </c>
+      <c r="F65" s="9">
+        <v>14</v>
+      </c>
+      <c r="G65" s="9">
+        <v>2.5</v>
+      </c>
+      <c r="H65" s="9">
+        <v>5</v>
+      </c>
+      <c r="I65" s="9">
+        <v>5</v>
+      </c>
+      <c r="J65" s="9">
+        <v>53.846153846153847</v>
+      </c>
+      <c r="K65" s="9">
+        <v>16</v>
+      </c>
+      <c r="L65" s="9">
+        <v>23</v>
+      </c>
+      <c r="M65" s="9">
+        <v>49</v>
+      </c>
+      <c r="N65" s="9">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A66" s="9">
+        <v>64</v>
+      </c>
+      <c r="B66" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="C66" s="3">
+        <v>210041700068</v>
+      </c>
+      <c r="D66" s="9">
+        <v>1</v>
+      </c>
+      <c r="E66" s="9">
+        <v>10</v>
+      </c>
+      <c r="F66" s="9">
+        <v>12</v>
+      </c>
+      <c r="G66" s="9">
+        <v>0</v>
+      </c>
+      <c r="H66" s="9">
+        <v>0</v>
+      </c>
+      <c r="I66" s="9">
+        <v>2</v>
+      </c>
+      <c r="J66" s="9">
+        <v>46.153846153846153</v>
+      </c>
+      <c r="K66" s="9">
+        <v>12</v>
+      </c>
+      <c r="L66" s="9">
+        <v>20</v>
+      </c>
+      <c r="M66" s="9">
+        <v>53</v>
+      </c>
+      <c r="N66" s="9">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A67" s="9">
+        <v>65</v>
+      </c>
+      <c r="B67" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="C67" s="3">
+        <v>210041700069</v>
+      </c>
+      <c r="D67" s="9">
+        <v>10</v>
+      </c>
+      <c r="E67" s="9">
+        <v>12</v>
+      </c>
+      <c r="F67" s="9">
+        <v>17</v>
+      </c>
+      <c r="G67" s="9">
+        <v>2.5</v>
+      </c>
+      <c r="H67" s="9">
+        <v>5</v>
+      </c>
+      <c r="I67" s="9">
+        <v>5</v>
+      </c>
+      <c r="J67" s="9">
+        <v>84.615384615384613</v>
+      </c>
+      <c r="K67" s="9">
+        <v>18</v>
+      </c>
+      <c r="L67" s="9">
+        <v>22</v>
+      </c>
+      <c r="M67" s="9">
+        <v>64</v>
+      </c>
+      <c r="N67" s="9">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A68" s="9">
+        <v>66</v>
+      </c>
+      <c r="B68" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="C68" s="3">
+        <v>210041700071</v>
+      </c>
+      <c r="D68" s="9">
+        <v>0</v>
+      </c>
+      <c r="E68" s="9">
+        <v>14</v>
+      </c>
+      <c r="F68" s="9">
+        <v>13</v>
+      </c>
+      <c r="G68" s="9">
+        <v>5</v>
+      </c>
+      <c r="H68" s="9">
+        <v>5</v>
+      </c>
+      <c r="I68" s="9">
+        <v>5</v>
+      </c>
+      <c r="J68" s="9">
+        <v>30.76923076923077</v>
+      </c>
+      <c r="K68" s="9">
+        <v>15</v>
+      </c>
+      <c r="L68" s="9">
+        <v>23</v>
+      </c>
+      <c r="M68" s="9">
+        <v>43</v>
+      </c>
+      <c r="N68" s="9">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A69" s="9">
+        <v>67</v>
+      </c>
+      <c r="B69" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C69" s="3">
+        <v>210041700073</v>
+      </c>
+      <c r="D69" s="9">
+        <v>7</v>
+      </c>
+      <c r="E69" s="9">
+        <v>2</v>
+      </c>
+      <c r="F69" s="9">
+        <v>12</v>
+      </c>
+      <c r="G69" s="9">
+        <v>5</v>
+      </c>
+      <c r="H69" s="9">
+        <v>5</v>
+      </c>
+      <c r="I69" s="9">
+        <v>5</v>
+      </c>
+      <c r="J69" s="9">
+        <v>69.230769230769226</v>
+      </c>
+      <c r="K69" s="9">
+        <v>14</v>
+      </c>
+      <c r="L69" s="9">
+        <v>14</v>
+      </c>
+      <c r="M69" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="N69" s="9">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A70" s="9">
+        <v>68</v>
+      </c>
+      <c r="B70" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="C70" s="3">
+        <v>210041700076</v>
+      </c>
+      <c r="D70" s="9">
+        <v>13</v>
+      </c>
+      <c r="E70" s="9">
+        <v>0</v>
+      </c>
+      <c r="F70" s="9">
+        <v>16</v>
+      </c>
+      <c r="G70" s="9">
+        <v>5</v>
+      </c>
+      <c r="H70" s="9">
+        <v>5</v>
+      </c>
+      <c r="I70" s="9">
+        <v>5</v>
+      </c>
+      <c r="J70" s="9">
+        <v>69.230769230769226</v>
+      </c>
+      <c r="K70" s="9">
+        <v>17</v>
+      </c>
+      <c r="L70" s="9">
+        <v>21</v>
+      </c>
+      <c r="M70" s="9">
+        <v>50</v>
+      </c>
+      <c r="N70" s="9">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A71" s="9">
+        <v>69</v>
+      </c>
+      <c r="B71" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="C71" s="3">
+        <v>210041700081</v>
+      </c>
+      <c r="D71" s="9">
+        <v>0</v>
+      </c>
+      <c r="E71" s="9">
+        <v>11</v>
+      </c>
+      <c r="F71" s="9">
+        <v>12</v>
+      </c>
+      <c r="G71" s="9">
+        <v>0</v>
+      </c>
+      <c r="H71" s="9">
+        <v>2.5</v>
+      </c>
+      <c r="I71" s="9">
+        <v>2</v>
+      </c>
+      <c r="J71" s="9">
+        <v>23.076923076923077</v>
+      </c>
+      <c r="K71" s="9">
+        <v>11</v>
+      </c>
+      <c r="L71" s="9">
+        <v>13</v>
+      </c>
+      <c r="M71" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="N71" s="9">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A72" s="9">
+        <v>70</v>
+      </c>
+      <c r="B72" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="C72" s="3">
+        <v>210041700082</v>
+      </c>
+      <c r="D72" s="9">
+        <v>9</v>
+      </c>
+      <c r="E72" s="9">
+        <v>14</v>
+      </c>
+      <c r="F72" s="9">
+        <v>13</v>
+      </c>
+      <c r="G72" s="9">
+        <v>2.5</v>
+      </c>
+      <c r="H72" s="9">
+        <v>5</v>
+      </c>
+      <c r="I72" s="9">
+        <v>0</v>
+      </c>
+      <c r="J72" s="9">
+        <v>53.846153846153847</v>
+      </c>
+      <c r="K72" s="9">
+        <v>14</v>
+      </c>
+      <c r="L72" s="9">
+        <v>23</v>
+      </c>
+      <c r="M72" s="9">
+        <v>68</v>
+      </c>
+      <c r="N72" s="9">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A73" s="9">
+        <v>71</v>
+      </c>
+      <c r="B73" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="C73" s="3">
+        <v>210041700083</v>
+      </c>
+      <c r="D73" s="9">
+        <v>7</v>
+      </c>
+      <c r="E73" s="9">
+        <v>9</v>
+      </c>
+      <c r="F73" s="9">
+        <v>13</v>
+      </c>
+      <c r="G73" s="9">
+        <v>5</v>
+      </c>
+      <c r="H73" s="9">
+        <v>5</v>
+      </c>
+      <c r="I73" s="9">
+        <v>5</v>
+      </c>
+      <c r="J73" s="9">
+        <v>69.230769230769226</v>
+      </c>
+      <c r="K73" s="9">
+        <v>15</v>
+      </c>
+      <c r="L73" s="9">
+        <v>21</v>
+      </c>
+      <c r="M73" s="9">
+        <v>53</v>
+      </c>
+      <c r="N73" s="9">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A74" s="9">
+        <v>72</v>
+      </c>
+      <c r="B74" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="C74" s="3">
+        <v>210041700084</v>
+      </c>
+      <c r="D74" s="9">
+        <v>18</v>
+      </c>
+      <c r="E74" s="9">
+        <v>23</v>
+      </c>
+      <c r="F74" s="9">
+        <v>0</v>
+      </c>
+      <c r="G74" s="9">
+        <v>5</v>
+      </c>
+      <c r="H74" s="9">
+        <v>5</v>
+      </c>
+      <c r="I74" s="9">
+        <v>5</v>
+      </c>
+      <c r="J74" s="9">
+        <v>53.846153846153847</v>
+      </c>
+      <c r="K74" s="9">
+        <v>21</v>
+      </c>
+      <c r="L74" s="9">
+        <v>22</v>
+      </c>
+      <c r="M74" s="9">
+        <v>76</v>
+      </c>
+      <c r="N74" s="9">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A75" s="9">
+        <v>73</v>
+      </c>
+      <c r="B75" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="C75" s="3">
+        <v>210041700085</v>
+      </c>
+      <c r="D75" s="9">
+        <v>4</v>
+      </c>
+      <c r="E75" s="9">
+        <v>18</v>
+      </c>
+      <c r="F75" s="9">
+        <v>17</v>
+      </c>
+      <c r="G75" s="9">
+        <v>5</v>
+      </c>
+      <c r="H75" s="9">
+        <v>4</v>
+      </c>
+      <c r="I75" s="9">
+        <v>4</v>
+      </c>
+      <c r="J75" s="9">
+        <v>69.230769230769226</v>
+      </c>
+      <c r="K75" s="9">
+        <v>18</v>
+      </c>
+      <c r="L75" s="9">
+        <v>21</v>
+      </c>
+      <c r="M75" s="9">
+        <v>71</v>
+      </c>
+      <c r="N75" s="9">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A76" s="9">
+        <v>74</v>
+      </c>
+      <c r="B76" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="C76" s="3">
+        <v>210041700087</v>
+      </c>
+      <c r="D76" s="9">
+        <v>7</v>
+      </c>
+      <c r="E76" s="9">
+        <v>13</v>
+      </c>
+      <c r="F76" s="9">
+        <v>0</v>
+      </c>
+      <c r="G76" s="9">
+        <v>5</v>
+      </c>
+      <c r="H76" s="9">
+        <v>0</v>
+      </c>
+      <c r="I76" s="9">
+        <v>0</v>
+      </c>
+      <c r="J76" s="9">
+        <v>53.846153846153847</v>
+      </c>
+      <c r="K76" s="9">
+        <v>12</v>
+      </c>
+      <c r="L76" s="9">
+        <v>16</v>
+      </c>
+      <c r="M76" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="N76" s="9">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A77" s="9">
+        <v>75</v>
+      </c>
+      <c r="B77" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="C77" s="3">
+        <v>210041700088</v>
+      </c>
+      <c r="D77" s="9">
+        <v>3</v>
+      </c>
+      <c r="E77" s="9">
+        <v>0</v>
+      </c>
+      <c r="F77" s="9">
+        <v>7</v>
+      </c>
+      <c r="G77" s="9">
+        <v>2.5</v>
+      </c>
+      <c r="H77" s="9">
+        <v>5</v>
+      </c>
+      <c r="I77" s="9">
+        <v>5</v>
+      </c>
+      <c r="J77" s="9">
+        <v>69.230769230769226</v>
+      </c>
+      <c r="K77" s="9">
+        <v>11</v>
+      </c>
+      <c r="L77" s="9">
+        <v>19</v>
+      </c>
+      <c r="M77" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="N77" s="9">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A78" s="9">
+        <v>76</v>
+      </c>
+      <c r="B78" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="C78" s="3">
+        <v>210041700090</v>
+      </c>
+      <c r="D78" s="9">
+        <v>7</v>
+      </c>
+      <c r="E78" s="9">
+        <v>9</v>
+      </c>
+      <c r="F78" s="9">
+        <v>15</v>
+      </c>
+      <c r="G78" s="9">
+        <v>5</v>
+      </c>
+      <c r="H78" s="9">
+        <v>5</v>
+      </c>
+      <c r="I78" s="9">
+        <v>5</v>
+      </c>
+      <c r="J78" s="9">
+        <v>46.153846153846153</v>
+      </c>
+      <c r="K78" s="9">
+        <v>14</v>
+      </c>
+      <c r="L78" s="9">
+        <v>19</v>
+      </c>
+      <c r="M78" s="9">
+        <v>43</v>
+      </c>
+      <c r="N78" s="9">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A79" s="9">
+        <v>77</v>
+      </c>
+      <c r="B79" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="C79" s="3">
+        <v>210041700091</v>
+      </c>
+      <c r="D79" s="9">
+        <v>2</v>
+      </c>
+      <c r="E79" s="9">
+        <v>8</v>
+      </c>
+      <c r="F79" s="9">
+        <v>12</v>
+      </c>
+      <c r="G79" s="9">
+        <v>5</v>
+      </c>
+      <c r="H79" s="9">
+        <v>2.5</v>
+      </c>
+      <c r="I79" s="9">
+        <v>5</v>
+      </c>
+      <c r="J79" s="9">
+        <v>53.846153846153847</v>
+      </c>
+      <c r="K79" s="9">
+        <v>13</v>
+      </c>
+      <c r="L79" s="9">
+        <v>21</v>
+      </c>
+      <c r="M79" s="9">
+        <v>55</v>
+      </c>
+      <c r="N79" s="9">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A80" s="9">
+        <v>78</v>
+      </c>
+      <c r="B80" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="C80" s="3">
+        <v>210041700094</v>
+      </c>
+      <c r="D80" s="9">
+        <v>0</v>
+      </c>
+      <c r="E80" s="9">
+        <v>15</v>
+      </c>
+      <c r="F80" s="9">
+        <v>15</v>
+      </c>
+      <c r="G80" s="9">
+        <v>5</v>
+      </c>
+      <c r="H80" s="9">
+        <v>5</v>
+      </c>
+      <c r="I80" s="9">
+        <v>5</v>
+      </c>
+      <c r="J80" s="9">
+        <v>53.846153846153847</v>
+      </c>
+      <c r="K80" s="9">
+        <v>17</v>
+      </c>
+      <c r="L80" s="9">
+        <v>21</v>
+      </c>
+      <c r="M80" s="9">
+        <v>70</v>
+      </c>
+      <c r="N80" s="9">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A81" s="9">
+        <v>79</v>
+      </c>
+      <c r="B81" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="C81" s="3">
+        <v>210041700095</v>
+      </c>
+      <c r="D81" s="9">
+        <v>7</v>
+      </c>
+      <c r="E81" s="9">
+        <v>7</v>
+      </c>
+      <c r="F81" s="9">
+        <v>13</v>
+      </c>
+      <c r="G81" s="9">
+        <v>0</v>
+      </c>
+      <c r="H81" s="9">
+        <v>3</v>
+      </c>
+      <c r="I81" s="9">
+        <v>5</v>
+      </c>
+      <c r="J81" s="9">
+        <v>38.461538461538467</v>
+      </c>
+      <c r="K81" s="9">
+        <v>12</v>
+      </c>
+      <c r="L81" s="9">
+        <v>17</v>
+      </c>
+      <c r="M81" s="9">
+        <v>43</v>
+      </c>
+      <c r="N81" s="9">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A82" s="9">
+        <v>80</v>
+      </c>
+      <c r="B82" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="C82" s="3">
+        <v>210041700097</v>
+      </c>
+      <c r="D82" s="9">
+        <v>18</v>
+      </c>
+      <c r="E82" s="9">
+        <v>16</v>
+      </c>
+      <c r="F82" s="9">
+        <v>13</v>
+      </c>
+      <c r="G82" s="9">
+        <v>5</v>
+      </c>
+      <c r="H82" s="9">
+        <v>5</v>
+      </c>
+      <c r="I82" s="9">
+        <v>0</v>
+      </c>
+      <c r="J82" s="9">
+        <v>84.615384615384613</v>
+      </c>
+      <c r="K82" s="9">
+        <v>20</v>
+      </c>
+      <c r="L82" s="9">
+        <v>23</v>
+      </c>
+      <c r="M82" s="9">
+        <v>48</v>
+      </c>
+      <c r="N82" s="9">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A83" s="9">
+        <v>81</v>
+      </c>
+      <c r="B83" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="C83" s="3">
+        <v>210041700102</v>
+      </c>
+      <c r="D83" s="9">
+        <v>0</v>
+      </c>
+      <c r="E83" s="9">
+        <v>0</v>
+      </c>
+      <c r="F83" s="9">
+        <v>17</v>
+      </c>
+      <c r="G83" s="9">
+        <v>2.5</v>
+      </c>
+      <c r="H83" s="9">
+        <v>5</v>
+      </c>
+      <c r="I83" s="9">
+        <v>5</v>
+      </c>
+      <c r="J83" s="9">
+        <v>92.307692307692307</v>
+      </c>
+      <c r="K83" s="9">
+        <v>15</v>
+      </c>
+      <c r="L83" s="9">
+        <v>16</v>
+      </c>
+      <c r="M83" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="N83" s="9">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A84" s="9">
+        <v>82</v>
+      </c>
+      <c r="B84" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="C84" s="3">
+        <v>210041700104</v>
+      </c>
+      <c r="D84" s="9">
+        <v>5</v>
+      </c>
+      <c r="E84" s="9">
+        <v>13</v>
+      </c>
+      <c r="F84" s="9">
+        <v>0</v>
+      </c>
+      <c r="G84" s="9">
+        <v>2.5</v>
+      </c>
+      <c r="H84" s="9">
+        <v>0</v>
+      </c>
+      <c r="I84" s="9">
+        <v>0</v>
+      </c>
+      <c r="J84" s="9">
+        <v>69.230769230769226</v>
+      </c>
+      <c r="K84" s="9">
+        <v>12</v>
+      </c>
+      <c r="L84" s="9">
+        <v>16</v>
+      </c>
+      <c r="M84" s="9">
+        <v>33</v>
+      </c>
+      <c r="N84" s="9">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A85" s="9">
+        <v>83</v>
+      </c>
+      <c r="B85" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="C85" s="3">
+        <v>210041700105</v>
+      </c>
+      <c r="D85" s="9">
+        <v>11</v>
+      </c>
+      <c r="E85" s="9">
+        <v>15</v>
+      </c>
+      <c r="F85" s="9">
+        <v>15</v>
+      </c>
+      <c r="G85" s="9">
+        <v>5</v>
+      </c>
+      <c r="H85" s="9">
+        <v>5</v>
+      </c>
+      <c r="I85" s="9">
+        <v>5</v>
+      </c>
+      <c r="J85" s="9">
+        <v>46.153846153846153</v>
+      </c>
+      <c r="K85" s="9">
+        <v>16</v>
+      </c>
+      <c r="L85" s="9">
+        <v>21</v>
+      </c>
+      <c r="M85" s="9">
+        <v>71</v>
+      </c>
+      <c r="N85" s="9">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="86" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A86" s="9">
+        <v>84</v>
+      </c>
+      <c r="B86" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="C86" s="3">
+        <v>210041700106</v>
+      </c>
+      <c r="D86" s="9">
+        <v>4</v>
+      </c>
+      <c r="E86" s="9">
+        <v>16</v>
+      </c>
+      <c r="F86" s="9">
+        <v>10</v>
+      </c>
+      <c r="G86" s="9">
+        <v>0</v>
+      </c>
+      <c r="H86" s="9">
+        <v>0</v>
+      </c>
+      <c r="I86" s="9">
+        <v>0</v>
+      </c>
+      <c r="J86" s="9">
+        <v>69.230769230769226</v>
+      </c>
+      <c r="K86" s="9">
+        <v>12</v>
+      </c>
+      <c r="L86" s="9">
+        <v>21</v>
+      </c>
+      <c r="M86" s="9">
+        <v>40</v>
+      </c>
+      <c r="N86" s="9">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="87" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A87" s="9">
+        <v>85</v>
+      </c>
+      <c r="B87" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="C87" s="3">
+        <v>210041700108</v>
+      </c>
+      <c r="D87" s="9">
+        <v>3</v>
+      </c>
+      <c r="E87" s="9">
+        <v>11</v>
+      </c>
+      <c r="F87" s="9">
+        <v>10</v>
+      </c>
+      <c r="G87" s="9">
+        <v>0</v>
+      </c>
+      <c r="H87" s="9">
+        <v>3</v>
+      </c>
+      <c r="I87" s="9">
+        <v>3</v>
+      </c>
+      <c r="J87" s="9">
+        <v>38.461538461538467</v>
+      </c>
+      <c r="K87" s="9">
+        <v>12</v>
+      </c>
+      <c r="L87" s="9">
+        <v>21</v>
+      </c>
+      <c r="M87" s="9">
+        <v>34</v>
+      </c>
+      <c r="N87" s="9">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="88" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A88" s="9">
+        <v>86</v>
+      </c>
+      <c r="B88" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="C88" s="3">
+        <v>210041700109</v>
+      </c>
+      <c r="D88" s="9">
+        <v>11</v>
+      </c>
+      <c r="E88" s="9">
+        <v>17</v>
+      </c>
+      <c r="F88" s="9">
+        <v>16</v>
+      </c>
+      <c r="G88" s="9">
+        <v>2.5</v>
+      </c>
+      <c r="H88" s="9">
+        <v>5</v>
+      </c>
+      <c r="I88" s="9">
+        <v>0</v>
+      </c>
+      <c r="J88" s="9">
+        <v>92.307692307692307</v>
+      </c>
+      <c r="K88" s="9">
+        <v>18</v>
+      </c>
+      <c r="L88" s="9">
+        <v>14</v>
+      </c>
+      <c r="M88" s="9">
+        <v>73</v>
+      </c>
+      <c r="N88" s="9">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="89" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A89" s="9">
+        <v>87</v>
+      </c>
+      <c r="B89" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="C89" s="3">
+        <v>210041700112</v>
+      </c>
+      <c r="D89" s="9">
+        <v>8</v>
+      </c>
+      <c r="E89" s="9">
+        <v>4</v>
+      </c>
+      <c r="F89" s="9">
+        <v>15</v>
+      </c>
+      <c r="G89" s="9">
+        <v>5</v>
+      </c>
+      <c r="H89" s="9">
+        <v>5</v>
+      </c>
+      <c r="I89" s="9">
+        <v>5</v>
+      </c>
+      <c r="J89" s="9">
+        <v>69.230769230769226</v>
+      </c>
+      <c r="K89" s="9">
+        <v>15</v>
+      </c>
+      <c r="L89" s="9">
+        <v>23</v>
+      </c>
+      <c r="M89" s="9">
+        <v>65</v>
+      </c>
+      <c r="N89" s="9">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="90" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A90" s="9">
+        <v>88</v>
+      </c>
+      <c r="B90" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="C90" s="3">
+        <v>210041700113</v>
+      </c>
+      <c r="D90" s="9">
+        <v>0</v>
+      </c>
+      <c r="E90" s="9">
+        <v>17</v>
+      </c>
+      <c r="F90" s="9">
+        <v>0</v>
+      </c>
+      <c r="G90" s="9">
+        <v>5</v>
+      </c>
+      <c r="H90" s="9">
+        <v>5</v>
+      </c>
+      <c r="I90" s="9">
+        <v>5</v>
+      </c>
+      <c r="J90" s="9">
+        <v>46.153846153846153</v>
+      </c>
+      <c r="K90" s="9">
+        <v>12</v>
+      </c>
+      <c r="L90" s="9">
+        <v>20</v>
+      </c>
+      <c r="M90" s="9">
+        <v>62</v>
+      </c>
+      <c r="N90" s="9">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="91" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A91" s="9">
+        <v>89</v>
+      </c>
+      <c r="B91" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="C91" s="3">
+        <v>210041700114</v>
+      </c>
+      <c r="D91" s="9">
+        <v>7</v>
+      </c>
+      <c r="E91" s="9">
+        <v>9</v>
+      </c>
+      <c r="F91" s="9">
+        <v>11</v>
+      </c>
+      <c r="G91" s="9">
+        <v>5</v>
+      </c>
+      <c r="H91" s="9">
+        <v>5</v>
+      </c>
+      <c r="I91" s="9">
+        <v>5</v>
+      </c>
+      <c r="J91" s="9">
+        <v>100</v>
+      </c>
+      <c r="K91" s="9">
+        <v>16</v>
+      </c>
+      <c r="L91" s="9">
+        <v>21</v>
+      </c>
+      <c r="M91" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="N91" s="9">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="92" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A92" s="9">
+        <v>90</v>
+      </c>
+      <c r="B92" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="C92" s="3">
+        <v>210041700117</v>
+      </c>
+      <c r="D92" s="9">
+        <v>0</v>
+      </c>
+      <c r="E92" s="9">
+        <v>10</v>
+      </c>
+      <c r="F92" s="9">
+        <v>7</v>
+      </c>
+      <c r="G92" s="9">
+        <v>5</v>
+      </c>
+      <c r="H92" s="9">
+        <v>0</v>
+      </c>
+      <c r="I92" s="9">
+        <v>5</v>
+      </c>
+      <c r="J92" s="9">
+        <v>38.461538461538467</v>
+      </c>
+      <c r="K92" s="9">
+        <v>12</v>
+      </c>
+      <c r="L92" s="9">
+        <v>19</v>
+      </c>
+      <c r="M92" s="9">
+        <v>47</v>
+      </c>
+      <c r="N92" s="9">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="93" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A93" s="9">
+        <v>91</v>
+      </c>
+      <c r="B93" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="C93" s="3">
+        <v>210041700119</v>
+      </c>
+      <c r="D93" s="9">
+        <v>4</v>
+      </c>
+      <c r="E93" s="9">
+        <v>15</v>
+      </c>
+      <c r="F93" s="9">
+        <v>10</v>
+      </c>
+      <c r="G93" s="9">
+        <v>5</v>
+      </c>
+      <c r="H93" s="9">
+        <v>5</v>
+      </c>
+      <c r="I93" s="9">
+        <v>5</v>
+      </c>
+      <c r="J93" s="9">
+        <v>92.307692307692307</v>
+      </c>
+      <c r="K93" s="9">
+        <v>18</v>
+      </c>
+      <c r="L93" s="9">
+        <v>23</v>
+      </c>
+      <c r="M93" s="9">
+        <v>52</v>
+      </c>
+      <c r="N93" s="9">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="94" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A94" s="9">
+        <v>92</v>
+      </c>
+      <c r="B94" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="C94" s="3">
+        <v>210041700120</v>
+      </c>
+      <c r="D94" s="9">
+        <v>10</v>
+      </c>
+      <c r="E94" s="9">
+        <v>12</v>
+      </c>
+      <c r="F94" s="9">
+        <v>15</v>
+      </c>
+      <c r="G94" s="9">
+        <v>5</v>
+      </c>
+      <c r="H94" s="9">
+        <v>5</v>
+      </c>
+      <c r="I94" s="9">
+        <v>5</v>
+      </c>
+      <c r="J94" s="9">
+        <v>76.923076923076934</v>
+      </c>
+      <c r="K94" s="9">
+        <v>17</v>
+      </c>
+      <c r="L94" s="9">
+        <v>22</v>
+      </c>
+      <c r="M94" s="9">
+        <v>56</v>
+      </c>
+      <c r="N94" s="9">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="95" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A95" s="9">
+        <v>93</v>
+      </c>
+      <c r="B95" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="C95" s="3">
+        <v>210041700122</v>
+      </c>
+      <c r="D95" s="9">
+        <v>2</v>
+      </c>
+      <c r="E95" s="9">
+        <v>16</v>
+      </c>
+      <c r="F95" s="9">
+        <v>18</v>
+      </c>
+      <c r="G95" s="9">
+        <v>5</v>
+      </c>
+      <c r="H95" s="9">
+        <v>5</v>
+      </c>
+      <c r="I95" s="9">
+        <v>5</v>
+      </c>
+      <c r="J95" s="9">
+        <v>38.461538461538467</v>
+      </c>
+      <c r="K95" s="9">
+        <v>18</v>
+      </c>
+      <c r="L95" s="9">
+        <v>23</v>
+      </c>
+      <c r="M95" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="N95" s="9">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="96" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A96" s="9">
+        <v>94</v>
+      </c>
+      <c r="B96" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="C96" s="3">
+        <v>210041700123</v>
+      </c>
+      <c r="D96" s="9">
+        <v>3</v>
+      </c>
+      <c r="E96" s="9">
+        <v>9</v>
+      </c>
+      <c r="F96" s="9">
+        <v>11</v>
+      </c>
+      <c r="G96" s="9">
+        <v>5</v>
+      </c>
+      <c r="H96" s="9">
+        <v>5</v>
+      </c>
+      <c r="I96" s="9">
+        <v>5</v>
+      </c>
+      <c r="J96" s="9">
+        <v>38.461538461538467</v>
+      </c>
+      <c r="K96" s="9">
+        <v>13</v>
+      </c>
+      <c r="L96" s="9">
+        <v>21</v>
+      </c>
+      <c r="M96" s="9">
+        <v>33</v>
+      </c>
+      <c r="N96" s="9">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="97" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A97" s="9">
+        <v>95</v>
+      </c>
+      <c r="B97" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="C97" s="3">
+        <v>210041700126</v>
+      </c>
+      <c r="D97" s="9">
+        <v>6</v>
+      </c>
+      <c r="E97" s="9">
+        <v>0</v>
+      </c>
+      <c r="F97" s="9">
+        <v>0</v>
+      </c>
+      <c r="G97" s="9">
+        <v>5</v>
+      </c>
+      <c r="H97" s="9">
+        <v>5</v>
+      </c>
+      <c r="I97" s="9">
+        <v>0</v>
+      </c>
+      <c r="J97" s="9">
+        <v>61.53846153846154</v>
+      </c>
+      <c r="K97" s="9">
+        <v>12</v>
+      </c>
+      <c r="L97" s="9">
+        <v>17</v>
+      </c>
+      <c r="M97" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="N97" s="9">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="98" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A98" s="9">
+        <v>96</v>
+      </c>
+      <c r="B98" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="C98" s="3">
+        <v>210041700128</v>
+      </c>
+      <c r="D98" s="9">
+        <v>13</v>
+      </c>
+      <c r="E98" s="9">
+        <v>11</v>
+      </c>
+      <c r="F98" s="9">
+        <v>16</v>
+      </c>
+      <c r="G98" s="9">
+        <v>5</v>
+      </c>
+      <c r="H98" s="9">
+        <v>5</v>
+      </c>
+      <c r="I98" s="9">
+        <v>5</v>
+      </c>
+      <c r="J98" s="9">
+        <v>61.53846153846154</v>
+      </c>
+      <c r="K98" s="9">
+        <v>17</v>
+      </c>
+      <c r="L98" s="9">
+        <v>21</v>
+      </c>
+      <c r="M98" s="9">
+        <v>40</v>
+      </c>
+      <c r="N98" s="9">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="99" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A99" s="9">
+        <v>97</v>
+      </c>
+      <c r="B99" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="C99" s="3">
+        <v>210041722020</v>
+      </c>
+      <c r="D99" s="9">
+        <v>21</v>
+      </c>
+      <c r="E99" s="9">
+        <v>20</v>
+      </c>
+      <c r="F99" s="9">
+        <v>0</v>
+      </c>
+      <c r="G99" s="9">
+        <v>5</v>
+      </c>
+      <c r="H99" s="9">
+        <v>5</v>
+      </c>
+      <c r="I99" s="9">
+        <v>5</v>
+      </c>
+      <c r="J99" s="9">
+        <v>69.230769230769226</v>
+      </c>
+      <c r="K99" s="9">
+        <v>21</v>
+      </c>
+      <c r="L99" s="9">
+        <v>22</v>
+      </c>
+      <c r="M99" s="9">
+        <v>74</v>
+      </c>
+      <c r="N99" s="9">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="100" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A100" s="9">
+        <v>98</v>
+      </c>
+      <c r="B100" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="C100" s="3">
+        <v>210041722021</v>
+      </c>
+      <c r="D100" s="9">
+        <v>15</v>
+      </c>
+      <c r="E100" s="9">
+        <v>0</v>
+      </c>
+      <c r="F100" s="9">
+        <v>14</v>
+      </c>
+      <c r="G100" s="9">
+        <v>2.5</v>
+      </c>
+      <c r="H100" s="9">
+        <v>5</v>
+      </c>
+      <c r="I100" s="9">
+        <v>5</v>
+      </c>
+      <c r="J100" s="9">
+        <v>76.923076923076934</v>
+      </c>
+      <c r="K100" s="9">
+        <v>17</v>
+      </c>
+      <c r="L100" s="9">
+        <v>19</v>
+      </c>
+      <c r="M100" s="9">
+        <v>55</v>
+      </c>
+      <c r="N100" s="9">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="101" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A101" s="9">
+        <v>99</v>
+      </c>
+      <c r="B101" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="C101" s="3">
+        <v>210041722024</v>
+      </c>
+      <c r="D101" s="9">
+        <v>15</v>
+      </c>
+      <c r="E101" s="9">
+        <v>12</v>
+      </c>
+      <c r="F101" s="9">
+        <v>19</v>
+      </c>
+      <c r="G101" s="9">
+        <v>2.5</v>
+      </c>
+      <c r="H101" s="9">
+        <v>5</v>
+      </c>
+      <c r="I101" s="9">
+        <v>5</v>
+      </c>
+      <c r="J101" s="9">
+        <v>69.230769230769226</v>
+      </c>
+      <c r="K101" s="9">
+        <v>17</v>
+      </c>
+      <c r="L101" s="9">
+        <v>21</v>
+      </c>
+      <c r="M101" s="9">
+        <v>68</v>
+      </c>
+      <c r="N101" s="9">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="102" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A102" s="9">
+        <v>100</v>
+      </c>
+      <c r="B102" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="C102" s="3">
+        <v>210041722025</v>
+      </c>
+      <c r="D102" s="9">
+        <v>19</v>
+      </c>
+      <c r="E102" s="9">
+        <v>0</v>
+      </c>
+      <c r="F102" s="9">
+        <v>20</v>
+      </c>
+      <c r="G102" s="9">
+        <v>5</v>
+      </c>
+      <c r="H102" s="9">
+        <v>5</v>
+      </c>
+      <c r="I102" s="9">
+        <v>5</v>
+      </c>
+      <c r="J102" s="9">
+        <v>61.53846153846154</v>
+      </c>
+      <c r="K102" s="9">
+        <v>20</v>
+      </c>
+      <c r="L102" s="9">
+        <v>22</v>
+      </c>
+      <c r="M102" s="9">
+        <v>59</v>
+      </c>
+      <c r="N102" s="9">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="103" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A103" s="9">
+        <v>101</v>
+      </c>
+      <c r="B103" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="C103" s="3">
+        <v>210041722026</v>
+      </c>
+      <c r="D103" s="9">
+        <v>2</v>
+      </c>
+      <c r="E103" s="9">
+        <v>0</v>
+      </c>
+      <c r="F103" s="9">
+        <v>4</v>
+      </c>
+      <c r="G103" s="9">
+        <v>5</v>
+      </c>
+      <c r="H103" s="9">
+        <v>5</v>
+      </c>
+      <c r="I103" s="9">
+        <v>0</v>
+      </c>
+      <c r="J103" s="9">
+        <v>69.230769230769226</v>
+      </c>
+      <c r="K103" s="9">
+        <v>11</v>
+      </c>
+      <c r="L103" s="9">
+        <v>23</v>
+      </c>
+      <c r="M103" s="9">
+        <v>47</v>
+      </c>
+      <c r="N103" s="9">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="104" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A104" s="9">
+        <v>102</v>
+      </c>
+      <c r="B104" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="C104" s="3">
+        <v>210041722027</v>
+      </c>
+      <c r="D104" s="9">
+        <v>9</v>
+      </c>
+      <c r="E104" s="9">
+        <v>11</v>
+      </c>
+      <c r="F104" s="9">
+        <v>17</v>
+      </c>
+      <c r="G104" s="9">
+        <v>0</v>
+      </c>
+      <c r="H104" s="9">
+        <v>0</v>
+      </c>
+      <c r="I104" s="9">
+        <v>0</v>
+      </c>
+      <c r="J104" s="9">
+        <v>69.230769230769226</v>
+      </c>
+      <c r="K104" s="9">
+        <v>12</v>
+      </c>
+      <c r="L104" s="9">
+        <v>22</v>
+      </c>
+      <c r="M104" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="N104" s="9" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="105" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A105" s="9">
+        <v>103</v>
+      </c>
+      <c r="B105" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="C105" s="3">
+        <v>210041722028</v>
+      </c>
+      <c r="D105" s="9">
+        <v>0</v>
+      </c>
+      <c r="E105" s="9">
+        <v>11</v>
+      </c>
+      <c r="F105" s="9">
+        <v>0</v>
+      </c>
+      <c r="G105" s="9">
+        <v>0</v>
+      </c>
+      <c r="H105" s="9">
+        <v>5</v>
+      </c>
+      <c r="I105" s="9">
+        <v>5</v>
+      </c>
+      <c r="J105" s="9">
+        <v>38.461538461538467</v>
+      </c>
+      <c r="K105" s="9">
+        <v>12</v>
+      </c>
+      <c r="L105" s="9">
+        <v>16</v>
+      </c>
+      <c r="M105" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="N105" s="9">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="106" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A106" s="9">
+        <v>104</v>
+      </c>
+      <c r="B106" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="C106" s="3">
+        <v>210041722030</v>
+      </c>
+      <c r="D106" s="9">
+        <v>12</v>
+      </c>
+      <c r="E106" s="9">
+        <v>14</v>
+      </c>
+      <c r="F106" s="9">
+        <v>16</v>
+      </c>
+      <c r="G106" s="9">
+        <v>2.5</v>
+      </c>
+      <c r="H106" s="9">
+        <v>5</v>
+      </c>
+      <c r="I106" s="9">
+        <v>5</v>
+      </c>
+      <c r="J106" s="9">
+        <v>76.923076923076934</v>
+      </c>
+      <c r="K106" s="9">
+        <v>18</v>
+      </c>
+      <c r="L106" s="9">
+        <v>22</v>
+      </c>
+      <c r="M106" s="9">
+        <v>75</v>
+      </c>
+      <c r="N106" s="9">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="107" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A107" s="9">
+        <v>105</v>
+      </c>
+      <c r="B107" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="C107" s="3">
+        <v>210041722032</v>
+      </c>
+      <c r="D107" s="9">
+        <v>0</v>
+      </c>
+      <c r="E107" s="9">
+        <v>0</v>
+      </c>
+      <c r="F107" s="9">
+        <v>4</v>
+      </c>
+      <c r="G107" s="9">
+        <v>5</v>
+      </c>
+      <c r="H107" s="9">
+        <v>5</v>
+      </c>
+      <c r="I107" s="9">
+        <v>0</v>
+      </c>
+      <c r="J107" s="9">
+        <v>30.76923076923077</v>
+      </c>
+      <c r="K107" s="9">
+        <v>10</v>
+      </c>
+      <c r="L107" s="9">
+        <v>19</v>
+      </c>
+      <c r="M107" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="N107" s="9">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="108" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A108" s="9">
+        <v>106</v>
+      </c>
+      <c r="B108" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="C108" s="3">
+        <v>210041722034</v>
+      </c>
+      <c r="D108" s="9">
+        <v>4</v>
+      </c>
+      <c r="E108" s="9">
+        <v>6</v>
+      </c>
+      <c r="F108" s="9">
+        <v>11</v>
+      </c>
+      <c r="G108" s="9">
+        <v>0</v>
+      </c>
+      <c r="H108" s="9">
+        <v>5</v>
+      </c>
+      <c r="I108" s="9">
+        <v>5</v>
+      </c>
+      <c r="J108" s="9">
+        <v>69.230769230769226</v>
+      </c>
+      <c r="K108" s="9">
+        <v>14</v>
+      </c>
+      <c r="L108" s="9">
+        <v>19</v>
+      </c>
+      <c r="M108" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="N108" s="9">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="109" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A109" s="9">
+        <v>107</v>
+      </c>
+      <c r="B109" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="C109" s="3">
+        <v>210041722035</v>
+      </c>
+      <c r="D109" s="9">
+        <v>16</v>
+      </c>
+      <c r="E109" s="9">
+        <v>22</v>
+      </c>
+      <c r="F109" s="9">
+        <v>0</v>
+      </c>
+      <c r="G109" s="9">
+        <v>5</v>
+      </c>
+      <c r="H109" s="9">
+        <v>5</v>
+      </c>
+      <c r="I109" s="9">
+        <v>5</v>
+      </c>
+      <c r="J109" s="9">
+        <v>84.615384615384613</v>
+      </c>
+      <c r="K109" s="9">
+        <v>21</v>
+      </c>
+      <c r="L109" s="9">
+        <v>21</v>
+      </c>
+      <c r="M109" s="9">
+        <v>83</v>
+      </c>
+      <c r="N109" s="9">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="110" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A110" s="9">
+        <v>108</v>
+      </c>
+      <c r="B110" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="C110" s="3">
+        <v>210041722036</v>
+      </c>
+      <c r="D110" s="9">
+        <v>0</v>
+      </c>
+      <c r="E110" s="9">
+        <v>12</v>
+      </c>
+      <c r="F110" s="9">
+        <v>13</v>
+      </c>
+      <c r="G110" s="9">
+        <v>5</v>
+      </c>
+      <c r="H110" s="9">
+        <v>5</v>
+      </c>
+      <c r="I110" s="9">
+        <v>5</v>
+      </c>
+      <c r="J110" s="9">
+        <v>46.153846153846153</v>
+      </c>
+      <c r="K110" s="9">
+        <v>15</v>
+      </c>
+      <c r="L110" s="9">
+        <v>21</v>
+      </c>
+      <c r="M110" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="N110" s="9">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="111" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A111" s="9">
+        <v>109</v>
+      </c>
+      <c r="B111" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="C111" s="3">
+        <v>210041722037</v>
+      </c>
+      <c r="D111" s="9">
+        <v>9</v>
+      </c>
+      <c r="E111" s="9">
+        <v>17</v>
+      </c>
+      <c r="F111" s="9">
+        <v>10</v>
+      </c>
+      <c r="G111" s="9">
+        <v>0</v>
+      </c>
+      <c r="H111" s="9">
+        <v>5</v>
+      </c>
+      <c r="I111" s="9">
+        <v>5</v>
+      </c>
+      <c r="J111" s="9">
+        <v>53.846153846153847</v>
+      </c>
+      <c r="K111" s="9">
+        <v>16</v>
+      </c>
+      <c r="L111" s="9">
+        <v>19</v>
+      </c>
+      <c r="M111" s="9">
+        <v>57</v>
+      </c>
+      <c r="N111" s="9">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="112" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A112" s="9">
+        <v>110</v>
+      </c>
+      <c r="B112" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="C112" s="3">
+        <v>210041722038</v>
+      </c>
+      <c r="D112" s="9">
+        <v>22</v>
+      </c>
+      <c r="E112" s="9">
+        <v>0</v>
+      </c>
+      <c r="F112" s="9">
+        <v>23</v>
+      </c>
+      <c r="G112" s="9">
+        <v>5</v>
+      </c>
+      <c r="H112" s="9">
+        <v>5</v>
+      </c>
+      <c r="I112" s="9">
+        <v>5</v>
+      </c>
+      <c r="J112" s="9">
+        <v>76.923076923076934</v>
+      </c>
+      <c r="K112" s="9">
+        <v>23</v>
+      </c>
+      <c r="L112" s="9">
+        <v>23</v>
+      </c>
+      <c r="M112" s="9">
+        <v>80</v>
+      </c>
+      <c r="N112" s="9">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="118" spans="12:15" x14ac:dyDescent="0.25">
+      <c r="L118" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="M118" s="9">
+        <v>74</v>
+      </c>
+      <c r="N118" s="9">
+        <v>107</v>
+      </c>
+      <c r="O118" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="119" spans="12:15" x14ac:dyDescent="0.25">
+      <c r="L119" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="M119" s="9">
+        <f>110-74</f>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="120" spans="12:15" x14ac:dyDescent="0.25">
+      <c r="M120" s="9">
+        <f>74/110</f>
+        <v>0.67272727272727273</v>
+      </c>
+      <c r="N120" s="9">
+        <f>107/108</f>
+        <v>0.9907407407407407</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:L1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
   <dimension ref="A1:O120"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -812,20 +5789,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
-      <c r="L1" s="9"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
     </row>
     <row r="2" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">

--- a/static/Upload/5th sem.xlsx
+++ b/static/Upload/5th sem.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C53ED31-5A40-4E1C-BAD2-F9D94AC9C644}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CNC" sheetId="3" r:id="rId1"/>
@@ -14,7 +15,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">CNC!$A$2:$O$112</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'CNC 2021'!$A$2:$O$112</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -434,7 +435,10 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="172" formatCode="0.000"/>
+  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -479,7 +483,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -505,10 +509,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -790,46 +791,46 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O120"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D113" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="M6" sqref="M6"/>
+      <selection pane="bottomRight" activeCell="N120" sqref="N120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.28515625" style="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.140625" style="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.42578125" style="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="7.5703125" style="9" bestFit="1" customWidth="1"/>
-    <col min="7" max="9" width="6.85546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.28515625" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="7.5703125" style="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="6.85546875" style="7" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12" style="6" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="12.7109375" style="9" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.7109375" style="9" customWidth="1"/>
-    <col min="14" max="14" width="9.140625" style="9"/>
+    <col min="11" max="12" width="12.7109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.7109375" style="7" customWidth="1"/>
+    <col min="14" max="14" width="9.140625" style="7"/>
     <col min="15" max="15" width="18.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="9"/>
+    <col min="16" max="16384" width="9.140625" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
-      <c r="L1" s="10"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
     </row>
     <row r="2" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -879,4854 +880,4854 @@
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="9">
+      <c r="A3" s="7">
         <v>1</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="7" t="s">
         <v>83</v>
       </c>
       <c r="C3" s="3">
         <v>200041700031</v>
       </c>
-      <c r="D3" s="9">
+      <c r="D3" s="7">
         <v>1</v>
       </c>
-      <c r="E3" s="9">
+      <c r="E3" s="7">
         <v>8</v>
       </c>
-      <c r="F3" s="9">
+      <c r="F3" s="7">
         <v>10</v>
       </c>
-      <c r="G3" s="9">
-        <v>0</v>
-      </c>
-      <c r="H3" s="9">
+      <c r="G3" s="7">
+        <v>0</v>
+      </c>
+      <c r="H3" s="7">
         <v>3</v>
       </c>
-      <c r="I3" s="9">
+      <c r="I3" s="7">
         <v>3</v>
       </c>
-      <c r="J3" s="9">
+      <c r="J3" s="7">
         <v>12.5</v>
       </c>
-      <c r="K3" s="9">
-        <v>12</v>
-      </c>
-      <c r="L3" s="9">
+      <c r="K3" s="7">
+        <v>12</v>
+      </c>
+      <c r="L3" s="7">
         <v>21</v>
       </c>
-      <c r="M3" s="9" t="s">
+      <c r="M3" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="N3" s="9">
+      <c r="N3" s="7">
         <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="9">
+      <c r="A4" s="7">
         <v>2</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="7" t="s">
         <v>84</v>
       </c>
       <c r="C4" s="3">
         <v>200041700041</v>
       </c>
-      <c r="D4" s="9">
+      <c r="D4" s="7">
         <v>1</v>
       </c>
-      <c r="E4" s="9">
+      <c r="E4" s="7">
         <v>9</v>
       </c>
-      <c r="F4" s="9">
+      <c r="F4" s="7">
         <v>9</v>
       </c>
-      <c r="G4" s="9">
-        <v>0</v>
-      </c>
-      <c r="H4" s="9">
+      <c r="G4" s="7">
+        <v>0</v>
+      </c>
+      <c r="H4" s="7">
         <v>3</v>
       </c>
-      <c r="I4" s="9">
+      <c r="I4" s="7">
         <v>3</v>
       </c>
-      <c r="J4" s="9">
+      <c r="J4" s="7">
         <v>56.25</v>
       </c>
-      <c r="K4" s="9">
+      <c r="K4" s="7">
         <v>11</v>
       </c>
-      <c r="L4" s="9">
+      <c r="L4" s="7">
         <v>19</v>
       </c>
-      <c r="M4" s="9" t="s">
+      <c r="M4" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="N4" s="9">
+      <c r="N4" s="7">
         <v>32</v>
       </c>
       <c r="O4" s="6"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" s="9">
+      <c r="A5" s="7">
         <v>3</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="7" t="s">
         <v>7</v>
       </c>
       <c r="C5" s="3">
         <v>210041700001</v>
       </c>
-      <c r="D5" s="9">
+      <c r="D5" s="7">
         <v>4</v>
       </c>
-      <c r="E5" s="9">
+      <c r="E5" s="7">
         <v>13</v>
       </c>
-      <c r="F5" s="9">
+      <c r="F5" s="7">
         <v>13</v>
       </c>
-      <c r="G5" s="9">
-        <v>5</v>
-      </c>
-      <c r="H5" s="9">
-        <v>5</v>
-      </c>
-      <c r="I5" s="9">
-        <v>5</v>
-      </c>
-      <c r="J5" s="9">
+      <c r="G5" s="7">
+        <v>5</v>
+      </c>
+      <c r="H5" s="7">
+        <v>5</v>
+      </c>
+      <c r="I5" s="7">
+        <v>5</v>
+      </c>
+      <c r="J5" s="7">
         <v>50</v>
       </c>
-      <c r="K5" s="9">
+      <c r="K5" s="7">
         <v>16</v>
       </c>
-      <c r="L5" s="9">
+      <c r="L5" s="7">
         <v>19</v>
       </c>
-      <c r="M5" s="9">
+      <c r="M5" s="7">
         <v>65</v>
       </c>
-      <c r="N5" s="9">
+      <c r="N5" s="7">
         <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" s="9">
+      <c r="A6" s="7">
         <v>4</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="7" t="s">
         <v>8</v>
       </c>
       <c r="C6" s="3">
         <v>210041700002</v>
       </c>
-      <c r="D6" s="9">
+      <c r="D6" s="7">
         <v>1</v>
       </c>
-      <c r="E6" s="9">
-        <v>0</v>
-      </c>
-      <c r="F6" s="9">
-        <v>0</v>
-      </c>
-      <c r="G6" s="9">
-        <v>0</v>
-      </c>
-      <c r="H6" s="9">
-        <v>5</v>
-      </c>
-      <c r="I6" s="9">
-        <v>5</v>
-      </c>
-      <c r="J6" s="9">
+      <c r="E6" s="7">
+        <v>0</v>
+      </c>
+      <c r="F6" s="7">
+        <v>0</v>
+      </c>
+      <c r="G6" s="7">
+        <v>0</v>
+      </c>
+      <c r="H6" s="7">
+        <v>5</v>
+      </c>
+      <c r="I6" s="7">
+        <v>5</v>
+      </c>
+      <c r="J6" s="7">
         <v>25</v>
       </c>
-      <c r="K6" s="9">
+      <c r="K6" s="7">
         <v>10</v>
       </c>
-      <c r="L6" s="9">
+      <c r="L6" s="7">
         <v>13</v>
       </c>
-      <c r="M6" s="9" t="s">
+      <c r="M6" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="N6" s="9" t="s">
+      <c r="N6" s="7" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" s="9">
-        <v>5</v>
-      </c>
-      <c r="B7" s="9" t="s">
+      <c r="A7" s="7">
+        <v>5</v>
+      </c>
+      <c r="B7" s="7" t="s">
         <v>9</v>
       </c>
       <c r="C7" s="3">
         <v>210041700003</v>
       </c>
-      <c r="D7" s="9">
+      <c r="D7" s="7">
         <v>11</v>
       </c>
-      <c r="E7" s="9">
+      <c r="E7" s="7">
         <v>16</v>
       </c>
-      <c r="F7" s="9">
+      <c r="F7" s="7">
         <v>19</v>
       </c>
-      <c r="G7" s="9">
-        <v>5</v>
-      </c>
-      <c r="H7" s="9">
-        <v>5</v>
-      </c>
-      <c r="I7" s="9">
-        <v>5</v>
-      </c>
-      <c r="J7" s="9">
+      <c r="G7" s="7">
+        <v>5</v>
+      </c>
+      <c r="H7" s="7">
+        <v>5</v>
+      </c>
+      <c r="I7" s="7">
+        <v>5</v>
+      </c>
+      <c r="J7" s="7">
         <v>68.75</v>
       </c>
-      <c r="K7" s="9">
+      <c r="K7" s="7">
         <v>19</v>
       </c>
-      <c r="L7" s="9">
+      <c r="L7" s="7">
         <v>21</v>
       </c>
-      <c r="M7" s="9">
+      <c r="M7" s="7">
         <v>73</v>
       </c>
-      <c r="N7" s="9">
+      <c r="N7" s="7">
         <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" s="9">
+      <c r="A8" s="7">
         <v>6</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="7" t="s">
         <v>10</v>
       </c>
       <c r="C8" s="3">
         <v>210041700005</v>
       </c>
-      <c r="D8" s="9">
+      <c r="D8" s="7">
         <v>1</v>
       </c>
-      <c r="E8" s="9">
-        <v>0</v>
-      </c>
-      <c r="F8" s="9">
-        <v>0</v>
-      </c>
-      <c r="G8" s="9">
-        <v>5</v>
-      </c>
-      <c r="H8" s="9">
-        <v>5</v>
-      </c>
-      <c r="I8" s="9">
-        <v>0</v>
-      </c>
-      <c r="J8" s="9">
+      <c r="E8" s="7">
+        <v>0</v>
+      </c>
+      <c r="F8" s="7">
+        <v>0</v>
+      </c>
+      <c r="G8" s="7">
+        <v>5</v>
+      </c>
+      <c r="H8" s="7">
+        <v>5</v>
+      </c>
+      <c r="I8" s="7">
+        <v>0</v>
+      </c>
+      <c r="J8" s="7">
         <v>18.75</v>
       </c>
-      <c r="K8" s="9">
+      <c r="K8" s="7">
         <v>11</v>
       </c>
-      <c r="L8" s="9">
+      <c r="L8" s="7">
         <v>13</v>
       </c>
-      <c r="M8" s="9" t="s">
+      <c r="M8" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="N8" s="9" t="s">
+      <c r="N8" s="7" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" s="9">
+      <c r="A9" s="7">
         <v>7</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="7" t="s">
         <v>11</v>
       </c>
       <c r="C9" s="3">
         <v>210041700006</v>
       </c>
-      <c r="D9" s="9">
+      <c r="D9" s="7">
         <v>3</v>
       </c>
-      <c r="E9" s="9">
+      <c r="E9" s="7">
         <v>10</v>
       </c>
-      <c r="F9" s="9">
+      <c r="F9" s="7">
         <v>11</v>
       </c>
-      <c r="G9" s="9">
-        <v>0</v>
-      </c>
-      <c r="H9" s="9">
-        <v>5</v>
-      </c>
-      <c r="I9" s="9">
-        <v>0</v>
-      </c>
-      <c r="J9" s="9">
+      <c r="G9" s="7">
+        <v>0</v>
+      </c>
+      <c r="H9" s="7">
+        <v>5</v>
+      </c>
+      <c r="I9" s="7">
+        <v>0</v>
+      </c>
+      <c r="J9" s="7">
         <v>37.5</v>
       </c>
-      <c r="K9" s="9">
-        <v>12</v>
-      </c>
-      <c r="L9" s="9">
+      <c r="K9" s="7">
+        <v>12</v>
+      </c>
+      <c r="L9" s="7">
         <v>15</v>
       </c>
-      <c r="M9" s="9" t="s">
+      <c r="M9" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="N9" s="9">
+      <c r="N9" s="7">
         <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="9">
+      <c r="A10" s="7">
         <v>8</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="7" t="s">
         <v>12</v>
       </c>
       <c r="C10" s="3">
         <v>210041700010</v>
       </c>
-      <c r="D10" s="9">
-        <v>0</v>
-      </c>
-      <c r="E10" s="9">
+      <c r="D10" s="7">
+        <v>0</v>
+      </c>
+      <c r="E10" s="7">
         <v>13</v>
       </c>
-      <c r="F10" s="9">
+      <c r="F10" s="7">
         <v>6</v>
       </c>
-      <c r="G10" s="9">
-        <v>5</v>
-      </c>
-      <c r="H10" s="9">
-        <v>5</v>
-      </c>
-      <c r="I10" s="9">
-        <v>5</v>
-      </c>
-      <c r="J10" s="9">
+      <c r="G10" s="7">
+        <v>5</v>
+      </c>
+      <c r="H10" s="7">
+        <v>5</v>
+      </c>
+      <c r="I10" s="7">
+        <v>5</v>
+      </c>
+      <c r="J10" s="7">
         <v>25</v>
       </c>
-      <c r="K10" s="9">
+      <c r="K10" s="7">
         <v>13</v>
       </c>
-      <c r="L10" s="9">
+      <c r="L10" s="7">
         <v>19</v>
       </c>
-      <c r="M10" s="9">
+      <c r="M10" s="7">
         <v>42</v>
       </c>
-      <c r="N10" s="9">
+      <c r="N10" s="7">
         <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" s="9">
+      <c r="A11" s="7">
         <v>9</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="7" t="s">
         <v>12</v>
       </c>
       <c r="C11" s="3">
         <v>210041700011</v>
       </c>
-      <c r="D11" s="9">
-        <v>0</v>
-      </c>
-      <c r="E11" s="9">
+      <c r="D11" s="7">
+        <v>0</v>
+      </c>
+      <c r="E11" s="7">
         <v>9</v>
       </c>
-      <c r="F11" s="9">
+      <c r="F11" s="7">
         <v>11</v>
       </c>
-      <c r="G11" s="9">
-        <v>5</v>
-      </c>
-      <c r="H11" s="9">
-        <v>5</v>
-      </c>
-      <c r="I11" s="9">
-        <v>5</v>
-      </c>
-      <c r="J11" s="9">
+      <c r="G11" s="7">
+        <v>5</v>
+      </c>
+      <c r="H11" s="7">
+        <v>5</v>
+      </c>
+      <c r="I11" s="7">
+        <v>5</v>
+      </c>
+      <c r="J11" s="7">
         <v>31.25</v>
       </c>
-      <c r="K11" s="9">
+      <c r="K11" s="7">
         <v>13</v>
       </c>
-      <c r="L11" s="9">
+      <c r="L11" s="7">
         <v>19</v>
       </c>
-      <c r="M11" s="9">
+      <c r="M11" s="7">
         <v>38</v>
       </c>
-      <c r="N11" s="9">
+      <c r="N11" s="7">
         <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" s="9">
+      <c r="A12" s="7">
         <v>10</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="7" t="s">
         <v>14</v>
       </c>
       <c r="C12" s="3">
         <v>210041700013</v>
       </c>
-      <c r="D12" s="9">
-        <v>0</v>
-      </c>
-      <c r="E12" s="9">
+      <c r="D12" s="7">
+        <v>0</v>
+      </c>
+      <c r="E12" s="7">
         <v>18</v>
       </c>
-      <c r="F12" s="9">
+      <c r="F12" s="7">
         <v>16</v>
       </c>
-      <c r="G12" s="9">
-        <v>0</v>
-      </c>
-      <c r="H12" s="9">
-        <v>5</v>
-      </c>
-      <c r="I12" s="9">
-        <v>5</v>
-      </c>
-      <c r="J12" s="9">
+      <c r="G12" s="7">
+        <v>0</v>
+      </c>
+      <c r="H12" s="7">
+        <v>5</v>
+      </c>
+      <c r="I12" s="7">
+        <v>5</v>
+      </c>
+      <c r="J12" s="7">
         <v>37.5</v>
       </c>
-      <c r="K12" s="9">
+      <c r="K12" s="7">
         <v>18</v>
       </c>
-      <c r="L12" s="9">
+      <c r="L12" s="7">
         <v>19</v>
       </c>
-      <c r="M12" s="9">
+      <c r="M12" s="7">
         <v>59</v>
       </c>
-      <c r="N12" s="9">
+      <c r="N12" s="7">
         <v>44</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" s="9">
+      <c r="A13" s="7">
         <v>11</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="7" t="s">
         <v>15</v>
       </c>
       <c r="C13" s="3">
         <v>210041700015</v>
       </c>
-      <c r="D13" s="9">
-        <v>0</v>
-      </c>
-      <c r="E13" s="9">
-        <v>12</v>
-      </c>
-      <c r="F13" s="9">
+      <c r="D13" s="7">
+        <v>0</v>
+      </c>
+      <c r="E13" s="7">
+        <v>12</v>
+      </c>
+      <c r="F13" s="7">
         <v>4</v>
       </c>
-      <c r="G13" s="9">
-        <v>0</v>
-      </c>
-      <c r="H13" s="9">
-        <v>5</v>
-      </c>
-      <c r="I13" s="9">
-        <v>0</v>
-      </c>
-      <c r="J13" s="9">
+      <c r="G13" s="7">
+        <v>0</v>
+      </c>
+      <c r="H13" s="7">
+        <v>5</v>
+      </c>
+      <c r="I13" s="7">
+        <v>0</v>
+      </c>
+      <c r="J13" s="7">
         <v>62.5</v>
       </c>
-      <c r="K13" s="9">
+      <c r="K13" s="7">
         <v>11</v>
       </c>
-      <c r="L13" s="9">
+      <c r="L13" s="7">
         <v>18</v>
       </c>
-      <c r="M13" s="9">
+      <c r="M13" s="7">
         <v>54</v>
       </c>
-      <c r="N13" s="9">
+      <c r="N13" s="7">
         <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" s="9">
-        <v>12</v>
-      </c>
-      <c r="B14" s="9" t="s">
+      <c r="A14" s="7">
+        <v>12</v>
+      </c>
+      <c r="B14" s="7" t="s">
         <v>15</v>
       </c>
       <c r="C14" s="3">
         <v>210041700016</v>
       </c>
-      <c r="D14" s="9">
+      <c r="D14" s="7">
         <v>7</v>
       </c>
-      <c r="E14" s="9">
+      <c r="E14" s="7">
         <v>14</v>
       </c>
-      <c r="F14" s="9">
-        <v>0</v>
-      </c>
-      <c r="G14" s="9">
-        <v>5</v>
-      </c>
-      <c r="H14" s="9">
-        <v>5</v>
-      </c>
-      <c r="I14" s="9">
-        <v>0</v>
-      </c>
-      <c r="J14" s="9">
+      <c r="F14" s="7">
+        <v>0</v>
+      </c>
+      <c r="G14" s="7">
+        <v>5</v>
+      </c>
+      <c r="H14" s="7">
+        <v>5</v>
+      </c>
+      <c r="I14" s="7">
+        <v>0</v>
+      </c>
+      <c r="J14" s="7">
         <v>25</v>
       </c>
-      <c r="K14" s="9">
+      <c r="K14" s="7">
         <v>13</v>
       </c>
-      <c r="L14" s="9">
+      <c r="L14" s="7">
         <v>13</v>
       </c>
-      <c r="M14" s="9">
+      <c r="M14" s="7">
         <v>44</v>
       </c>
-      <c r="N14" s="9">
+      <c r="N14" s="7">
         <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15" s="9">
+      <c r="A15" s="7">
         <v>13</v>
       </c>
-      <c r="B15" s="9" t="s">
+      <c r="B15" s="7" t="s">
         <v>16</v>
       </c>
       <c r="C15" s="3">
         <v>210041700017</v>
       </c>
-      <c r="D15" s="9">
-        <v>0</v>
-      </c>
-      <c r="E15" s="9">
+      <c r="D15" s="7">
+        <v>0</v>
+      </c>
+      <c r="E15" s="7">
         <v>9</v>
       </c>
-      <c r="F15" s="9">
+      <c r="F15" s="7">
         <v>7</v>
       </c>
-      <c r="G15" s="9">
-        <v>0</v>
-      </c>
-      <c r="H15" s="9">
-        <v>5</v>
-      </c>
-      <c r="I15" s="9">
-        <v>5</v>
-      </c>
-      <c r="J15" s="9">
+      <c r="G15" s="7">
+        <v>0</v>
+      </c>
+      <c r="H15" s="7">
+        <v>5</v>
+      </c>
+      <c r="I15" s="7">
+        <v>5</v>
+      </c>
+      <c r="J15" s="7">
         <v>56.25</v>
       </c>
-      <c r="K15" s="9">
+      <c r="K15" s="7">
         <v>13</v>
       </c>
-      <c r="L15" s="9">
+      <c r="L15" s="7">
         <v>19</v>
       </c>
-      <c r="M15" s="9" t="s">
+      <c r="M15" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="N15" s="9">
+      <c r="N15" s="7">
         <v>33</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16" s="9">
+      <c r="A16" s="7">
         <v>14</v>
       </c>
-      <c r="B16" s="9" t="s">
+      <c r="B16" s="7" t="s">
         <v>17</v>
       </c>
       <c r="C16" s="3">
         <v>210041700018</v>
       </c>
-      <c r="D16" s="9">
+      <c r="D16" s="7">
         <v>1</v>
       </c>
-      <c r="E16" s="9">
+      <c r="E16" s="7">
         <v>7</v>
       </c>
-      <c r="F16" s="9">
+      <c r="F16" s="7">
         <v>6</v>
       </c>
-      <c r="G16" s="9">
-        <v>0</v>
-      </c>
-      <c r="H16" s="9">
-        <v>5</v>
-      </c>
-      <c r="I16" s="9">
+      <c r="G16" s="7">
+        <v>0</v>
+      </c>
+      <c r="H16" s="7">
+        <v>5</v>
+      </c>
+      <c r="I16" s="7">
         <v>2</v>
       </c>
-      <c r="J16" s="9">
+      <c r="J16" s="7">
         <v>50</v>
       </c>
-      <c r="K16" s="9">
-        <v>12</v>
-      </c>
-      <c r="L16" s="9">
+      <c r="K16" s="7">
+        <v>12</v>
+      </c>
+      <c r="L16" s="7">
         <v>16</v>
       </c>
-      <c r="M16" s="9">
+      <c r="M16" s="7">
         <v>54</v>
       </c>
-      <c r="N16" s="9">
+      <c r="N16" s="7">
         <v>34</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="9">
+      <c r="A17" s="7">
         <v>15</v>
       </c>
-      <c r="B17" s="9" t="s">
+      <c r="B17" s="7" t="s">
         <v>18</v>
       </c>
       <c r="C17" s="3">
         <v>210041700020</v>
       </c>
-      <c r="D17" s="9">
+      <c r="D17" s="7">
         <v>2</v>
       </c>
-      <c r="E17" s="9">
-        <v>5</v>
-      </c>
-      <c r="F17" s="9">
-        <v>5</v>
-      </c>
-      <c r="G17" s="9">
-        <v>5</v>
-      </c>
-      <c r="H17" s="9">
-        <v>5</v>
-      </c>
-      <c r="I17" s="9">
-        <v>5</v>
-      </c>
-      <c r="J17" s="9">
+      <c r="E17" s="7">
+        <v>5</v>
+      </c>
+      <c r="F17" s="7">
+        <v>5</v>
+      </c>
+      <c r="G17" s="7">
+        <v>5</v>
+      </c>
+      <c r="H17" s="7">
+        <v>5</v>
+      </c>
+      <c r="I17" s="7">
+        <v>5</v>
+      </c>
+      <c r="J17" s="7">
         <v>50</v>
       </c>
-      <c r="K17" s="9">
+      <c r="K17" s="7">
         <v>11</v>
       </c>
-      <c r="L17" s="9">
+      <c r="L17" s="7">
         <v>19</v>
       </c>
-      <c r="M17" s="9">
+      <c r="M17" s="7">
         <v>71</v>
       </c>
-      <c r="N17" s="9">
+      <c r="N17" s="7">
         <v>39</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="9">
+      <c r="A18" s="7">
         <v>16</v>
       </c>
-      <c r="B18" s="9" t="s">
+      <c r="B18" s="7" t="s">
         <v>19</v>
       </c>
       <c r="C18" s="3">
         <v>210041700024</v>
       </c>
-      <c r="D18" s="9">
-        <v>0</v>
-      </c>
-      <c r="E18" s="9">
-        <v>12</v>
-      </c>
-      <c r="F18" s="9">
+      <c r="D18" s="7">
+        <v>0</v>
+      </c>
+      <c r="E18" s="7">
+        <v>12</v>
+      </c>
+      <c r="F18" s="7">
         <v>10</v>
       </c>
-      <c r="G18" s="9">
-        <v>0</v>
-      </c>
-      <c r="H18" s="9">
-        <v>0</v>
-      </c>
-      <c r="I18" s="9">
-        <v>5</v>
-      </c>
-      <c r="J18" s="9">
+      <c r="G18" s="7">
+        <v>0</v>
+      </c>
+      <c r="H18" s="7">
+        <v>0</v>
+      </c>
+      <c r="I18" s="7">
+        <v>5</v>
+      </c>
+      <c r="J18" s="7">
         <v>6.25</v>
       </c>
-      <c r="K18" s="9">
+      <c r="K18" s="7">
         <v>11</v>
       </c>
-      <c r="L18" s="9">
+      <c r="L18" s="7">
         <v>21</v>
       </c>
-      <c r="M18" s="9">
+      <c r="M18" s="7">
         <v>33</v>
       </c>
-      <c r="N18" s="9">
+      <c r="N18" s="7">
         <v>32</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="9">
+      <c r="A19" s="7">
         <v>17</v>
       </c>
-      <c r="B19" s="9" t="s">
+      <c r="B19" s="7" t="s">
         <v>20</v>
       </c>
       <c r="C19" s="3">
         <v>210041700025</v>
       </c>
-      <c r="D19" s="9">
-        <v>5</v>
-      </c>
-      <c r="E19" s="9">
-        <v>0</v>
-      </c>
-      <c r="F19" s="9">
+      <c r="D19" s="7">
+        <v>5</v>
+      </c>
+      <c r="E19" s="7">
+        <v>0</v>
+      </c>
+      <c r="F19" s="7">
         <v>16</v>
       </c>
-      <c r="G19" s="9">
+      <c r="G19" s="7">
         <v>2.5</v>
       </c>
-      <c r="H19" s="9">
-        <v>5</v>
-      </c>
-      <c r="I19" s="9">
-        <v>5</v>
-      </c>
-      <c r="J19" s="9">
+      <c r="H19" s="7">
+        <v>5</v>
+      </c>
+      <c r="I19" s="7">
+        <v>5</v>
+      </c>
+      <c r="J19" s="7">
         <v>93.75</v>
       </c>
-      <c r="K19" s="9">
+      <c r="K19" s="7">
         <v>16</v>
       </c>
-      <c r="L19" s="9">
+      <c r="L19" s="7">
         <v>19</v>
       </c>
-      <c r="M19" s="9">
+      <c r="M19" s="7">
         <v>61</v>
       </c>
-      <c r="N19" s="9">
+      <c r="N19" s="7">
         <v>39</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" s="9">
+      <c r="A20" s="7">
         <v>18</v>
       </c>
-      <c r="B20" s="9" t="s">
+      <c r="B20" s="7" t="s">
         <v>21</v>
       </c>
       <c r="C20" s="3">
         <v>210041700026</v>
       </c>
-      <c r="D20" s="9">
+      <c r="D20" s="7">
         <v>15</v>
       </c>
-      <c r="E20" s="9">
+      <c r="E20" s="7">
         <v>21</v>
       </c>
-      <c r="F20" s="9">
+      <c r="F20" s="7">
         <v>9</v>
       </c>
-      <c r="G20" s="9">
-        <v>5</v>
-      </c>
-      <c r="H20" s="9">
-        <v>5</v>
-      </c>
-      <c r="I20" s="9">
-        <v>5</v>
-      </c>
-      <c r="J20" s="9">
+      <c r="G20" s="7">
+        <v>5</v>
+      </c>
+      <c r="H20" s="7">
+        <v>5</v>
+      </c>
+      <c r="I20" s="7">
+        <v>5</v>
+      </c>
+      <c r="J20" s="7">
         <v>87.5</v>
       </c>
-      <c r="K20" s="9">
+      <c r="K20" s="7">
         <v>21</v>
       </c>
-      <c r="L20" s="9">
+      <c r="L20" s="7">
         <v>21</v>
       </c>
-      <c r="M20" s="9">
+      <c r="M20" s="7">
         <v>76</v>
       </c>
-      <c r="N20" s="9">
+      <c r="N20" s="7">
         <v>38</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A21" s="9">
+      <c r="A21" s="7">
         <v>19</v>
       </c>
-      <c r="B21" s="9" t="s">
+      <c r="B21" s="7" t="s">
         <v>22</v>
       </c>
       <c r="C21" s="3">
         <v>210041700028</v>
       </c>
-      <c r="D21" s="9">
+      <c r="D21" s="7">
         <v>3</v>
       </c>
-      <c r="E21" s="9">
+      <c r="E21" s="7">
         <v>6</v>
       </c>
-      <c r="F21" s="9">
+      <c r="F21" s="7">
         <v>6</v>
       </c>
-      <c r="G21" s="9">
-        <v>0</v>
-      </c>
-      <c r="H21" s="9">
+      <c r="G21" s="7">
+        <v>0</v>
+      </c>
+      <c r="H21" s="7">
         <v>3</v>
       </c>
-      <c r="I21" s="9">
+      <c r="I21" s="7">
         <v>4</v>
       </c>
-      <c r="J21" s="9">
+      <c r="J21" s="7">
         <v>56.25</v>
       </c>
-      <c r="K21" s="9">
-        <v>12</v>
-      </c>
-      <c r="L21" s="9">
+      <c r="K21" s="7">
+        <v>12</v>
+      </c>
+      <c r="L21" s="7">
         <v>19</v>
       </c>
-      <c r="M21" s="9" t="s">
+      <c r="M21" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="N21" s="9">
+      <c r="N21" s="7">
         <v>34</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A22" s="9">
+      <c r="A22" s="7">
         <v>20</v>
       </c>
-      <c r="B22" s="9" t="s">
+      <c r="B22" s="7" t="s">
         <v>22</v>
       </c>
       <c r="C22" s="3">
         <v>210041700029</v>
       </c>
-      <c r="D22" s="9">
-        <v>12</v>
-      </c>
-      <c r="E22" s="9">
+      <c r="D22" s="7">
+        <v>12</v>
+      </c>
+      <c r="E22" s="7">
         <v>15</v>
       </c>
-      <c r="F22" s="9">
+      <c r="F22" s="7">
         <v>10</v>
       </c>
-      <c r="G22" s="9">
-        <v>5</v>
-      </c>
-      <c r="H22" s="9">
-        <v>5</v>
-      </c>
-      <c r="I22" s="9">
-        <v>5</v>
-      </c>
-      <c r="J22" s="9">
+      <c r="G22" s="7">
+        <v>5</v>
+      </c>
+      <c r="H22" s="7">
+        <v>5</v>
+      </c>
+      <c r="I22" s="7">
+        <v>5</v>
+      </c>
+      <c r="J22" s="7">
         <v>93.75</v>
       </c>
-      <c r="K22" s="9">
+      <c r="K22" s="7">
         <v>18</v>
       </c>
-      <c r="L22" s="9">
+      <c r="L22" s="7">
         <v>19</v>
       </c>
-      <c r="M22" s="9">
+      <c r="M22" s="7">
         <v>67</v>
       </c>
-      <c r="N22" s="9">
+      <c r="N22" s="7">
         <v>39</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A23" s="9">
+      <c r="A23" s="7">
         <v>21</v>
       </c>
-      <c r="B23" s="9" t="s">
+      <c r="B23" s="7" t="s">
         <v>23</v>
       </c>
       <c r="C23" s="3">
         <v>210041700030</v>
       </c>
-      <c r="D23" s="9">
+      <c r="D23" s="7">
         <v>7</v>
       </c>
-      <c r="E23" s="9">
+      <c r="E23" s="7">
         <v>14</v>
       </c>
-      <c r="F23" s="9">
+      <c r="F23" s="7">
         <v>13</v>
       </c>
-      <c r="G23" s="9">
-        <v>5</v>
-      </c>
-      <c r="H23" s="9">
-        <v>5</v>
-      </c>
-      <c r="I23" s="9">
-        <v>5</v>
-      </c>
-      <c r="J23" s="9">
+      <c r="G23" s="7">
+        <v>5</v>
+      </c>
+      <c r="H23" s="7">
+        <v>5</v>
+      </c>
+      <c r="I23" s="7">
+        <v>5</v>
+      </c>
+      <c r="J23" s="7">
         <v>100</v>
       </c>
-      <c r="K23" s="9">
+      <c r="K23" s="7">
         <v>18</v>
       </c>
-      <c r="L23" s="9">
+      <c r="L23" s="7">
         <v>21</v>
       </c>
-      <c r="M23" s="9">
+      <c r="M23" s="7">
         <v>52</v>
       </c>
-      <c r="N23" s="9">
+      <c r="N23" s="7">
         <v>42</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A24" s="9">
+      <c r="A24" s="7">
         <v>22</v>
       </c>
-      <c r="B24" s="9" t="s">
+      <c r="B24" s="7" t="s">
         <v>23</v>
       </c>
       <c r="C24" s="3">
         <v>210041700032</v>
       </c>
-      <c r="D24" s="9">
-        <v>0</v>
-      </c>
-      <c r="E24" s="9">
+      <c r="D24" s="7">
+        <v>0</v>
+      </c>
+      <c r="E24" s="7">
         <v>2</v>
       </c>
-      <c r="F24" s="9">
+      <c r="F24" s="7">
         <v>6</v>
       </c>
-      <c r="G24" s="9">
-        <v>0</v>
-      </c>
-      <c r="H24" s="9">
+      <c r="G24" s="7">
+        <v>0</v>
+      </c>
+      <c r="H24" s="7">
         <v>2.5</v>
       </c>
-      <c r="I24" s="9">
-        <v>5</v>
-      </c>
-      <c r="J24" s="9">
+      <c r="I24" s="7">
+        <v>5</v>
+      </c>
+      <c r="J24" s="7">
         <v>12.5</v>
       </c>
-      <c r="K24" s="9">
-        <v>12</v>
-      </c>
-      <c r="L24" s="9">
+      <c r="K24" s="7">
+        <v>12</v>
+      </c>
+      <c r="L24" s="7">
         <v>19</v>
       </c>
-      <c r="M24" s="9" t="s">
+      <c r="M24" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="N24" s="9">
+      <c r="N24" s="7">
         <v>33</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A25" s="9">
+      <c r="A25" s="7">
         <v>23</v>
       </c>
-      <c r="B25" s="9" t="s">
+      <c r="B25" s="7" t="s">
         <v>24</v>
       </c>
       <c r="C25" s="3">
         <v>210041700033</v>
       </c>
-      <c r="D25" s="9">
-        <v>5</v>
-      </c>
-      <c r="E25" s="9">
+      <c r="D25" s="7">
+        <v>5</v>
+      </c>
+      <c r="E25" s="7">
         <v>4</v>
       </c>
-      <c r="F25" s="9">
+      <c r="F25" s="7">
         <v>10</v>
       </c>
-      <c r="G25" s="9">
-        <v>5</v>
-      </c>
-      <c r="H25" s="9">
-        <v>5</v>
-      </c>
-      <c r="I25" s="9">
-        <v>5</v>
-      </c>
-      <c r="J25" s="9">
+      <c r="G25" s="7">
+        <v>5</v>
+      </c>
+      <c r="H25" s="7">
+        <v>5</v>
+      </c>
+      <c r="I25" s="7">
+        <v>5</v>
+      </c>
+      <c r="J25" s="7">
         <v>31.25</v>
       </c>
-      <c r="K25" s="9">
-        <v>12</v>
-      </c>
-      <c r="L25" s="9">
+      <c r="K25" s="7">
+        <v>12</v>
+      </c>
+      <c r="L25" s="7">
         <v>19</v>
       </c>
-      <c r="M25" s="9">
+      <c r="M25" s="7">
         <v>39</v>
       </c>
-      <c r="N25" s="9">
+      <c r="N25" s="7">
         <v>32</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A26" s="9">
+      <c r="A26" s="7">
         <v>24</v>
       </c>
-      <c r="B26" s="9" t="s">
+      <c r="B26" s="7" t="s">
         <v>25</v>
       </c>
       <c r="C26" s="3">
         <v>210041700034</v>
       </c>
-      <c r="D26" s="9">
+      <c r="D26" s="7">
         <v>1</v>
       </c>
-      <c r="E26" s="9">
+      <c r="E26" s="7">
         <v>1</v>
       </c>
-      <c r="F26" s="9">
+      <c r="F26" s="7">
         <v>3</v>
       </c>
-      <c r="G26" s="9">
-        <v>0</v>
-      </c>
-      <c r="H26" s="9">
-        <v>5</v>
-      </c>
-      <c r="I26" s="9">
-        <v>5</v>
-      </c>
-      <c r="J26" s="9">
+      <c r="G26" s="7">
+        <v>0</v>
+      </c>
+      <c r="H26" s="7">
+        <v>5</v>
+      </c>
+      <c r="I26" s="7">
+        <v>5</v>
+      </c>
+      <c r="J26" s="7">
         <v>18.75</v>
       </c>
-      <c r="K26" s="9">
-        <v>12</v>
-      </c>
-      <c r="L26" s="9">
-        <v>12</v>
-      </c>
-      <c r="M26" s="9" t="s">
+      <c r="K26" s="7">
+        <v>12</v>
+      </c>
+      <c r="L26" s="7">
+        <v>12</v>
+      </c>
+      <c r="M26" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="N26" s="9">
+      <c r="N26" s="7">
         <v>34</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A27" s="9">
+      <c r="A27" s="7">
         <v>25</v>
       </c>
-      <c r="B27" s="9" t="s">
+      <c r="B27" s="7" t="s">
         <v>26</v>
       </c>
       <c r="C27" s="3">
         <v>210041700035</v>
       </c>
-      <c r="D27" s="9">
-        <v>0</v>
-      </c>
-      <c r="E27" s="9">
-        <v>5</v>
-      </c>
-      <c r="F27" s="9">
+      <c r="D27" s="7">
+        <v>0</v>
+      </c>
+      <c r="E27" s="7">
+        <v>5</v>
+      </c>
+      <c r="F27" s="7">
         <v>10</v>
       </c>
-      <c r="G27" s="9">
-        <v>5</v>
-      </c>
-      <c r="H27" s="9">
-        <v>5</v>
-      </c>
-      <c r="I27" s="9">
-        <v>5</v>
-      </c>
-      <c r="J27" s="9">
+      <c r="G27" s="7">
+        <v>5</v>
+      </c>
+      <c r="H27" s="7">
+        <v>5</v>
+      </c>
+      <c r="I27" s="7">
+        <v>5</v>
+      </c>
+      <c r="J27" s="7">
         <v>37.5</v>
       </c>
-      <c r="K27" s="9">
-        <v>12</v>
-      </c>
-      <c r="L27" s="9">
+      <c r="K27" s="7">
+        <v>12</v>
+      </c>
+      <c r="L27" s="7">
         <v>19</v>
       </c>
-      <c r="M27" s="9" t="s">
+      <c r="M27" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="N27" s="9">
+      <c r="N27" s="7">
         <v>41</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A28" s="9">
+      <c r="A28" s="7">
         <v>26</v>
       </c>
-      <c r="B28" s="9" t="s">
+      <c r="B28" s="7" t="s">
         <v>27</v>
       </c>
       <c r="C28" s="3">
         <v>210041700036</v>
       </c>
-      <c r="D28" s="9">
-        <v>5</v>
-      </c>
-      <c r="E28" s="9">
+      <c r="D28" s="7">
+        <v>5</v>
+      </c>
+      <c r="E28" s="7">
         <v>13</v>
       </c>
-      <c r="F28" s="9">
+      <c r="F28" s="7">
         <v>5.5</v>
       </c>
-      <c r="G28" s="9">
+      <c r="G28" s="7">
         <v>2.5</v>
       </c>
-      <c r="H28" s="9">
-        <v>5</v>
-      </c>
-      <c r="I28" s="9">
-        <v>5</v>
-      </c>
-      <c r="J28" s="9">
+      <c r="H28" s="7">
+        <v>5</v>
+      </c>
+      <c r="I28" s="7">
+        <v>5</v>
+      </c>
+      <c r="J28" s="7">
         <v>37.5</v>
       </c>
-      <c r="K28" s="9">
+      <c r="K28" s="7">
         <v>13</v>
       </c>
-      <c r="L28" s="9">
+      <c r="L28" s="7">
         <v>19</v>
       </c>
-      <c r="M28" s="9">
+      <c r="M28" s="7">
         <v>43</v>
       </c>
-      <c r="N28" s="9">
+      <c r="N28" s="7">
         <v>44</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A29" s="9">
+      <c r="A29" s="7">
         <v>27</v>
       </c>
-      <c r="B29" s="9" t="s">
+      <c r="B29" s="7" t="s">
         <v>28</v>
       </c>
       <c r="C29" s="3">
         <v>210041700037</v>
       </c>
-      <c r="D29" s="9">
+      <c r="D29" s="7">
         <v>3</v>
       </c>
-      <c r="E29" s="9">
+      <c r="E29" s="7">
         <v>2</v>
       </c>
-      <c r="F29" s="9">
+      <c r="F29" s="7">
         <v>9</v>
       </c>
-      <c r="G29" s="9">
-        <v>0</v>
-      </c>
-      <c r="H29" s="9">
-        <v>5</v>
-      </c>
-      <c r="I29" s="9">
-        <v>5</v>
-      </c>
-      <c r="J29" s="9">
+      <c r="G29" s="7">
+        <v>0</v>
+      </c>
+      <c r="H29" s="7">
+        <v>5</v>
+      </c>
+      <c r="I29" s="7">
+        <v>5</v>
+      </c>
+      <c r="J29" s="7">
         <v>18.75</v>
       </c>
-      <c r="K29" s="9">
+      <c r="K29" s="7">
         <v>11</v>
       </c>
-      <c r="L29" s="9">
+      <c r="L29" s="7">
         <v>19</v>
       </c>
-      <c r="M29" s="9">
+      <c r="M29" s="7">
         <v>44</v>
       </c>
-      <c r="N29" s="9">
+      <c r="N29" s="7">
         <v>39</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A30" s="9">
+      <c r="A30" s="7">
         <v>28</v>
       </c>
-      <c r="B30" s="9" t="s">
+      <c r="B30" s="7" t="s">
         <v>29</v>
       </c>
       <c r="C30" s="3">
         <v>210041700038</v>
       </c>
-      <c r="D30" s="9">
+      <c r="D30" s="7">
         <v>2</v>
       </c>
-      <c r="E30" s="9">
+      <c r="E30" s="7">
         <v>3</v>
       </c>
-      <c r="F30" s="9">
+      <c r="F30" s="7">
         <v>2</v>
       </c>
-      <c r="G30" s="9">
-        <v>0</v>
-      </c>
-      <c r="H30" s="9">
-        <v>5</v>
-      </c>
-      <c r="I30" s="9">
-        <v>5</v>
-      </c>
-      <c r="J30" s="9">
+      <c r="G30" s="7">
+        <v>0</v>
+      </c>
+      <c r="H30" s="7">
+        <v>5</v>
+      </c>
+      <c r="I30" s="7">
+        <v>5</v>
+      </c>
+      <c r="J30" s="7">
         <v>31.25</v>
       </c>
-      <c r="K30" s="9">
-        <v>12</v>
-      </c>
-      <c r="L30" s="9">
+      <c r="K30" s="7">
+        <v>12</v>
+      </c>
+      <c r="L30" s="7">
         <v>20</v>
       </c>
-      <c r="M30" s="9">
+      <c r="M30" s="7">
         <v>68</v>
       </c>
-      <c r="N30" s="9">
+      <c r="N30" s="7">
         <v>44</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A31" s="9">
+      <c r="A31" s="7">
         <v>29</v>
       </c>
-      <c r="B31" s="9" t="s">
+      <c r="B31" s="7" t="s">
         <v>30</v>
       </c>
       <c r="C31" s="3">
         <v>210041700040</v>
       </c>
-      <c r="D31" s="9">
+      <c r="D31" s="7">
         <v>8</v>
       </c>
-      <c r="E31" s="9">
+      <c r="E31" s="7">
         <v>14</v>
       </c>
-      <c r="F31" s="9">
+      <c r="F31" s="7">
         <v>15</v>
       </c>
-      <c r="G31" s="9">
-        <v>5</v>
-      </c>
-      <c r="H31" s="9">
-        <v>5</v>
-      </c>
-      <c r="I31" s="9">
-        <v>5</v>
-      </c>
-      <c r="J31" s="9">
+      <c r="G31" s="7">
+        <v>5</v>
+      </c>
+      <c r="H31" s="7">
+        <v>5</v>
+      </c>
+      <c r="I31" s="7">
+        <v>5</v>
+      </c>
+      <c r="J31" s="7">
         <v>37.5</v>
       </c>
-      <c r="K31" s="9">
+      <c r="K31" s="7">
         <v>16</v>
       </c>
-      <c r="L31" s="9">
+      <c r="L31" s="7">
         <v>22</v>
       </c>
-      <c r="M31" s="9">
+      <c r="M31" s="7">
         <v>55</v>
       </c>
-      <c r="N31" s="9">
+      <c r="N31" s="7">
         <v>39</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A32" s="9">
+      <c r="A32" s="7">
         <v>30</v>
       </c>
-      <c r="B32" s="9" t="s">
+      <c r="B32" s="7" t="s">
         <v>31</v>
       </c>
       <c r="C32" s="3">
         <v>210041700041</v>
       </c>
-      <c r="D32" s="9">
+      <c r="D32" s="7">
         <v>19</v>
       </c>
-      <c r="E32" s="9">
+      <c r="E32" s="7">
         <v>17</v>
       </c>
-      <c r="F32" s="9">
+      <c r="F32" s="7">
         <v>11</v>
       </c>
-      <c r="G32" s="9">
-        <v>5</v>
-      </c>
-      <c r="H32" s="9">
-        <v>5</v>
-      </c>
-      <c r="I32" s="9">
-        <v>5</v>
-      </c>
-      <c r="J32" s="9">
+      <c r="G32" s="7">
+        <v>5</v>
+      </c>
+      <c r="H32" s="7">
+        <v>5</v>
+      </c>
+      <c r="I32" s="7">
+        <v>5</v>
+      </c>
+      <c r="J32" s="7">
         <v>50</v>
       </c>
-      <c r="K32" s="9">
+      <c r="K32" s="7">
         <v>19</v>
       </c>
-      <c r="L32" s="9">
+      <c r="L32" s="7">
         <v>21</v>
       </c>
-      <c r="M32" s="9">
+      <c r="M32" s="7">
         <v>77</v>
       </c>
-      <c r="N32" s="9">
+      <c r="N32" s="7">
         <v>47</v>
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A33" s="9">
+      <c r="A33" s="7">
         <v>31</v>
       </c>
-      <c r="B33" s="9" t="s">
+      <c r="B33" s="7" t="s">
         <v>32</v>
       </c>
       <c r="C33" s="3">
         <v>210041700044</v>
       </c>
-      <c r="D33" s="9">
+      <c r="D33" s="7">
         <v>4</v>
       </c>
-      <c r="E33" s="9">
-        <v>12</v>
-      </c>
-      <c r="F33" s="9">
+      <c r="E33" s="7">
+        <v>12</v>
+      </c>
+      <c r="F33" s="7">
         <v>18</v>
       </c>
-      <c r="G33" s="9">
-        <v>5</v>
-      </c>
-      <c r="H33" s="9">
-        <v>5</v>
-      </c>
-      <c r="I33" s="9">
-        <v>5</v>
-      </c>
-      <c r="J33" s="9">
+      <c r="G33" s="7">
+        <v>5</v>
+      </c>
+      <c r="H33" s="7">
+        <v>5</v>
+      </c>
+      <c r="I33" s="7">
+        <v>5</v>
+      </c>
+      <c r="J33" s="7">
         <v>68.75</v>
       </c>
-      <c r="K33" s="9">
+      <c r="K33" s="7">
         <v>17</v>
       </c>
-      <c r="L33" s="9">
+      <c r="L33" s="7">
         <v>19</v>
       </c>
-      <c r="M33" s="9">
+      <c r="M33" s="7">
         <v>39</v>
       </c>
-      <c r="N33" s="9">
+      <c r="N33" s="7">
         <v>38</v>
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A34" s="9">
+      <c r="A34" s="7">
         <v>32</v>
       </c>
-      <c r="B34" s="9" t="s">
+      <c r="B34" s="7" t="s">
         <v>33</v>
       </c>
       <c r="C34" s="3">
         <v>210041700046</v>
       </c>
-      <c r="D34" s="9">
+      <c r="D34" s="7">
         <v>6</v>
       </c>
-      <c r="E34" s="9">
+      <c r="E34" s="7">
         <v>19</v>
       </c>
-      <c r="F34" s="9">
+      <c r="F34" s="7">
         <v>10</v>
       </c>
-      <c r="G34" s="9">
-        <v>5</v>
-      </c>
-      <c r="H34" s="9">
-        <v>5</v>
-      </c>
-      <c r="I34" s="9">
-        <v>5</v>
-      </c>
-      <c r="J34" s="9">
+      <c r="G34" s="7">
+        <v>5</v>
+      </c>
+      <c r="H34" s="7">
+        <v>5</v>
+      </c>
+      <c r="I34" s="7">
+        <v>5</v>
+      </c>
+      <c r="J34" s="7">
         <v>93.75</v>
       </c>
-      <c r="K34" s="9">
+      <c r="K34" s="7">
         <v>19</v>
       </c>
-      <c r="L34" s="9">
+      <c r="L34" s="7">
         <v>21</v>
       </c>
-      <c r="M34" s="9">
+      <c r="M34" s="7">
         <v>64</v>
       </c>
-      <c r="N34" s="9">
+      <c r="N34" s="7">
         <v>42</v>
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A35" s="9">
+      <c r="A35" s="7">
         <v>33</v>
       </c>
-      <c r="B35" s="9" t="s">
+      <c r="B35" s="7" t="s">
         <v>34</v>
       </c>
       <c r="C35" s="3">
         <v>210041700049</v>
       </c>
-      <c r="D35" s="9">
+      <c r="D35" s="7">
         <v>2</v>
       </c>
-      <c r="E35" s="9">
+      <c r="E35" s="7">
         <v>6</v>
       </c>
-      <c r="F35" s="9">
+      <c r="F35" s="7">
         <v>4</v>
       </c>
-      <c r="G35" s="9">
+      <c r="G35" s="7">
         <v>2.5</v>
       </c>
-      <c r="H35" s="9">
-        <v>5</v>
-      </c>
-      <c r="I35" s="9">
-        <v>5</v>
-      </c>
-      <c r="J35" s="9">
+      <c r="H35" s="7">
+        <v>5</v>
+      </c>
+      <c r="I35" s="7">
+        <v>5</v>
+      </c>
+      <c r="J35" s="7">
         <v>75</v>
       </c>
-      <c r="K35" s="9">
-        <v>12</v>
-      </c>
-      <c r="L35" s="9">
+      <c r="K35" s="7">
+        <v>12</v>
+      </c>
+      <c r="L35" s="7">
         <v>16</v>
       </c>
-      <c r="M35" s="9" t="s">
+      <c r="M35" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="N35" s="9">
+      <c r="N35" s="7">
         <v>33</v>
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A36" s="9">
+      <c r="A36" s="7">
         <v>34</v>
       </c>
-      <c r="B36" s="9" t="s">
+      <c r="B36" s="7" t="s">
         <v>35</v>
       </c>
       <c r="C36" s="3">
         <v>210041700050</v>
       </c>
-      <c r="D36" s="9">
+      <c r="D36" s="7">
         <v>7</v>
       </c>
-      <c r="E36" s="9">
+      <c r="E36" s="7">
         <v>16</v>
       </c>
-      <c r="F36" s="9">
-        <v>0</v>
-      </c>
-      <c r="G36" s="9">
-        <v>5</v>
-      </c>
-      <c r="H36" s="9">
-        <v>5</v>
-      </c>
-      <c r="I36" s="9">
-        <v>0</v>
-      </c>
-      <c r="J36" s="9">
+      <c r="F36" s="7">
+        <v>0</v>
+      </c>
+      <c r="G36" s="7">
+        <v>5</v>
+      </c>
+      <c r="H36" s="7">
+        <v>5</v>
+      </c>
+      <c r="I36" s="7">
+        <v>0</v>
+      </c>
+      <c r="J36" s="7">
         <v>81.25</v>
       </c>
-      <c r="K36" s="9">
+      <c r="K36" s="7">
         <v>16</v>
       </c>
-      <c r="L36" s="9">
+      <c r="L36" s="7">
         <v>16</v>
       </c>
-      <c r="M36" s="9">
+      <c r="M36" s="7">
         <v>40</v>
       </c>
-      <c r="N36" s="9">
+      <c r="N36" s="7">
         <v>38</v>
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A37" s="9">
+      <c r="A37" s="7">
         <v>35</v>
       </c>
-      <c r="B37" s="9" t="s">
+      <c r="B37" s="7" t="s">
         <v>36</v>
       </c>
       <c r="C37" s="3">
         <v>210041700051</v>
       </c>
-      <c r="D37" s="9">
-        <v>12</v>
-      </c>
-      <c r="E37" s="9">
+      <c r="D37" s="7">
+        <v>12</v>
+      </c>
+      <c r="E37" s="7">
         <v>15</v>
       </c>
-      <c r="F37" s="9">
-        <v>12</v>
-      </c>
-      <c r="G37" s="9">
-        <v>5</v>
-      </c>
-      <c r="H37" s="9">
-        <v>5</v>
-      </c>
-      <c r="I37" s="9">
-        <v>5</v>
-      </c>
-      <c r="J37" s="9">
+      <c r="F37" s="7">
+        <v>12</v>
+      </c>
+      <c r="G37" s="7">
+        <v>5</v>
+      </c>
+      <c r="H37" s="7">
+        <v>5</v>
+      </c>
+      <c r="I37" s="7">
+        <v>5</v>
+      </c>
+      <c r="J37" s="7">
         <v>68.75</v>
       </c>
-      <c r="K37" s="9">
+      <c r="K37" s="7">
         <v>16</v>
       </c>
-      <c r="L37" s="9">
+      <c r="L37" s="7">
         <v>19</v>
       </c>
-      <c r="M37" s="9">
+      <c r="M37" s="7">
         <v>54</v>
       </c>
-      <c r="N37" s="9">
+      <c r="N37" s="7">
         <v>38</v>
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A38" s="9">
+      <c r="A38" s="7">
         <v>36</v>
       </c>
-      <c r="B38" s="9" t="s">
+      <c r="B38" s="7" t="s">
         <v>37</v>
       </c>
       <c r="C38" s="3">
         <v>210041700052</v>
       </c>
-      <c r="D38" s="9">
+      <c r="D38" s="7">
         <v>11</v>
       </c>
-      <c r="E38" s="9">
+      <c r="E38" s="7">
         <v>15</v>
       </c>
-      <c r="F38" s="9">
+      <c r="F38" s="7">
         <v>10</v>
       </c>
-      <c r="G38" s="9">
-        <v>5</v>
-      </c>
-      <c r="H38" s="9">
-        <v>5</v>
-      </c>
-      <c r="I38" s="9">
-        <v>5</v>
-      </c>
-      <c r="J38" s="9">
+      <c r="G38" s="7">
+        <v>5</v>
+      </c>
+      <c r="H38" s="7">
+        <v>5</v>
+      </c>
+      <c r="I38" s="7">
+        <v>5</v>
+      </c>
+      <c r="J38" s="7">
         <v>75</v>
       </c>
-      <c r="K38" s="9">
+      <c r="K38" s="7">
         <v>17</v>
       </c>
-      <c r="L38" s="9">
+      <c r="L38" s="7">
         <v>21</v>
       </c>
-      <c r="M38" s="9">
+      <c r="M38" s="7">
         <v>45</v>
       </c>
-      <c r="N38" s="9">
+      <c r="N38" s="7">
         <v>42</v>
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A39" s="9">
+      <c r="A39" s="7">
         <v>37</v>
       </c>
-      <c r="B39" s="9" t="s">
+      <c r="B39" s="7" t="s">
         <v>38</v>
       </c>
       <c r="C39" s="3">
         <v>210041700053</v>
       </c>
-      <c r="D39" s="9">
+      <c r="D39" s="7">
         <v>4</v>
       </c>
-      <c r="E39" s="9">
+      <c r="E39" s="7">
         <v>6</v>
       </c>
-      <c r="F39" s="9">
+      <c r="F39" s="7">
         <v>6</v>
       </c>
-      <c r="G39" s="9">
-        <v>0</v>
-      </c>
-      <c r="H39" s="9">
+      <c r="G39" s="7">
+        <v>0</v>
+      </c>
+      <c r="H39" s="7">
         <v>3</v>
       </c>
-      <c r="I39" s="9">
+      <c r="I39" s="7">
         <v>4</v>
       </c>
-      <c r="J39" s="9">
+      <c r="J39" s="7">
         <v>25</v>
       </c>
-      <c r="K39" s="9">
+      <c r="K39" s="7">
         <v>11</v>
       </c>
-      <c r="L39" s="9">
+      <c r="L39" s="7">
         <v>16</v>
       </c>
-      <c r="M39" s="9" t="s">
+      <c r="M39" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="N39" s="9">
+      <c r="N39" s="7">
         <v>33</v>
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A40" s="9">
+      <c r="A40" s="7">
         <v>38</v>
       </c>
-      <c r="B40" s="9" t="s">
+      <c r="B40" s="7" t="s">
         <v>39</v>
       </c>
       <c r="C40" s="3">
         <v>210041700055</v>
       </c>
-      <c r="D40" s="9">
+      <c r="D40" s="7">
         <v>4</v>
       </c>
-      <c r="E40" s="9">
+      <c r="E40" s="7">
         <v>9</v>
       </c>
-      <c r="F40" s="9">
+      <c r="F40" s="7">
         <v>4</v>
       </c>
-      <c r="G40" s="9">
-        <v>5</v>
-      </c>
-      <c r="H40" s="9">
-        <v>5</v>
-      </c>
-      <c r="I40" s="9">
-        <v>5</v>
-      </c>
-      <c r="J40" s="9">
+      <c r="G40" s="7">
+        <v>5</v>
+      </c>
+      <c r="H40" s="7">
+        <v>5</v>
+      </c>
+      <c r="I40" s="7">
+        <v>5</v>
+      </c>
+      <c r="J40" s="7">
         <v>31.25</v>
       </c>
-      <c r="K40" s="9">
-        <v>12</v>
-      </c>
-      <c r="L40" s="9">
+      <c r="K40" s="7">
+        <v>12</v>
+      </c>
+      <c r="L40" s="7">
         <v>20</v>
       </c>
-      <c r="M40" s="9">
+      <c r="M40" s="7">
         <v>54</v>
       </c>
-      <c r="N40" s="9">
+      <c r="N40" s="7">
         <v>38</v>
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A41" s="9">
+      <c r="A41" s="7">
         <v>39</v>
       </c>
-      <c r="B41" s="9" t="s">
+      <c r="B41" s="7" t="s">
         <v>39</v>
       </c>
       <c r="C41" s="3">
         <v>210041700056</v>
       </c>
-      <c r="D41" s="9">
+      <c r="D41" s="7">
         <v>4</v>
       </c>
-      <c r="E41" s="9">
+      <c r="E41" s="7">
         <v>13</v>
       </c>
-      <c r="F41" s="9">
+      <c r="F41" s="7">
         <v>14</v>
       </c>
-      <c r="G41" s="9">
-        <v>5</v>
-      </c>
-      <c r="H41" s="9">
-        <v>5</v>
-      </c>
-      <c r="I41" s="9">
-        <v>5</v>
-      </c>
-      <c r="J41" s="9">
+      <c r="G41" s="7">
+        <v>5</v>
+      </c>
+      <c r="H41" s="7">
+        <v>5</v>
+      </c>
+      <c r="I41" s="7">
+        <v>5</v>
+      </c>
+      <c r="J41" s="7">
         <v>56.25</v>
       </c>
-      <c r="K41" s="9">
+      <c r="K41" s="7">
         <v>16</v>
       </c>
-      <c r="L41" s="9">
+      <c r="L41" s="7">
         <v>22</v>
       </c>
-      <c r="M41" s="9">
+      <c r="M41" s="7">
         <v>65</v>
       </c>
-      <c r="N41" s="9">
+      <c r="N41" s="7">
         <v>33</v>
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A42" s="9">
+      <c r="A42" s="7">
         <v>40</v>
       </c>
-      <c r="B42" s="9" t="s">
+      <c r="B42" s="7" t="s">
         <v>40</v>
       </c>
       <c r="C42" s="3">
         <v>210041700057</v>
       </c>
-      <c r="D42" s="9">
+      <c r="D42" s="7">
         <v>2</v>
       </c>
-      <c r="E42" s="9">
+      <c r="E42" s="7">
         <v>9</v>
       </c>
-      <c r="F42" s="9">
+      <c r="F42" s="7">
         <v>6</v>
       </c>
-      <c r="G42" s="9">
-        <v>5</v>
-      </c>
-      <c r="H42" s="9">
-        <v>5</v>
-      </c>
-      <c r="I42" s="9">
-        <v>5</v>
-      </c>
-      <c r="J42" s="9">
+      <c r="G42" s="7">
+        <v>5</v>
+      </c>
+      <c r="H42" s="7">
+        <v>5</v>
+      </c>
+      <c r="I42" s="7">
+        <v>5</v>
+      </c>
+      <c r="J42" s="7">
         <v>50</v>
       </c>
-      <c r="K42" s="9">
+      <c r="K42" s="7">
         <v>13</v>
       </c>
-      <c r="L42" s="9">
+      <c r="L42" s="7">
         <v>21</v>
       </c>
-      <c r="M42" s="9">
+      <c r="M42" s="7">
         <v>57</v>
       </c>
-      <c r="N42" s="9">
+      <c r="N42" s="7">
         <v>41</v>
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A43" s="9">
+      <c r="A43" s="7">
         <v>41</v>
       </c>
-      <c r="B43" s="9" t="s">
+      <c r="B43" s="7" t="s">
         <v>41</v>
       </c>
       <c r="C43" s="3">
         <v>210041700058</v>
       </c>
-      <c r="D43" s="9">
+      <c r="D43" s="7">
         <v>6</v>
       </c>
-      <c r="E43" s="9">
-        <v>12</v>
-      </c>
-      <c r="F43" s="9">
+      <c r="E43" s="7">
+        <v>12</v>
+      </c>
+      <c r="F43" s="7">
         <v>6</v>
       </c>
-      <c r="G43" s="9">
-        <v>0</v>
-      </c>
-      <c r="H43" s="9">
-        <v>5</v>
-      </c>
-      <c r="I43" s="9">
-        <v>5</v>
-      </c>
-      <c r="J43" s="9">
+      <c r="G43" s="7">
+        <v>0</v>
+      </c>
+      <c r="H43" s="7">
+        <v>5</v>
+      </c>
+      <c r="I43" s="7">
+        <v>5</v>
+      </c>
+      <c r="J43" s="7">
         <v>31.25</v>
       </c>
-      <c r="K43" s="9">
+      <c r="K43" s="7">
         <v>13</v>
       </c>
-      <c r="L43" s="9">
+      <c r="L43" s="7">
         <v>21</v>
       </c>
-      <c r="M43" s="9">
+      <c r="M43" s="7">
         <v>34</v>
       </c>
-      <c r="N43" s="9">
+      <c r="N43" s="7">
         <v>35</v>
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A44" s="9">
+      <c r="A44" s="7">
         <v>42</v>
       </c>
-      <c r="B44" s="9" t="s">
+      <c r="B44" s="7" t="s">
         <v>42</v>
       </c>
       <c r="C44" s="3">
         <v>210041700059</v>
       </c>
-      <c r="D44" s="9">
+      <c r="D44" s="7">
         <v>2</v>
       </c>
-      <c r="E44" s="9">
+      <c r="E44" s="7">
         <v>4</v>
       </c>
-      <c r="F44" s="9">
+      <c r="F44" s="7">
         <v>6</v>
       </c>
-      <c r="G44" s="9">
-        <v>0</v>
-      </c>
-      <c r="H44" s="9">
-        <v>5</v>
-      </c>
-      <c r="I44" s="9">
-        <v>0</v>
-      </c>
-      <c r="J44" s="9">
+      <c r="G44" s="7">
+        <v>0</v>
+      </c>
+      <c r="H44" s="7">
+        <v>5</v>
+      </c>
+      <c r="I44" s="7">
+        <v>0</v>
+      </c>
+      <c r="J44" s="7">
         <v>37.5</v>
       </c>
-      <c r="K44" s="9">
+      <c r="K44" s="7">
         <v>11</v>
       </c>
-      <c r="L44" s="9">
+      <c r="L44" s="7">
         <v>21</v>
       </c>
-      <c r="M44" s="9" t="s">
+      <c r="M44" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="N44" s="9">
+      <c r="N44" s="7">
         <v>31</v>
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A45" s="9">
+      <c r="A45" s="7">
         <v>43</v>
       </c>
-      <c r="B45" s="9" t="s">
+      <c r="B45" s="7" t="s">
         <v>43</v>
       </c>
       <c r="C45" s="3">
         <v>210041700060</v>
       </c>
-      <c r="D45" s="9">
+      <c r="D45" s="7">
         <v>3</v>
       </c>
-      <c r="E45" s="9">
+      <c r="E45" s="7">
         <v>6</v>
       </c>
-      <c r="F45" s="9">
+      <c r="F45" s="7">
         <v>6</v>
       </c>
-      <c r="G45" s="9">
-        <v>0</v>
-      </c>
-      <c r="H45" s="9">
+      <c r="G45" s="7">
+        <v>0</v>
+      </c>
+      <c r="H45" s="7">
         <v>3</v>
       </c>
-      <c r="I45" s="9">
+      <c r="I45" s="7">
         <v>4</v>
       </c>
-      <c r="J45" s="9">
+      <c r="J45" s="7">
         <v>62.5</v>
       </c>
-      <c r="K45" s="9">
-        <v>12</v>
-      </c>
-      <c r="L45" s="9">
+      <c r="K45" s="7">
+        <v>12</v>
+      </c>
+      <c r="L45" s="7">
         <v>19</v>
       </c>
-      <c r="M45" s="9" t="s">
+      <c r="M45" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="N45" s="9">
+      <c r="N45" s="7">
         <v>44</v>
       </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A46" s="9">
+      <c r="A46" s="7">
         <v>44</v>
       </c>
-      <c r="B46" s="9" t="s">
+      <c r="B46" s="7" t="s">
         <v>44</v>
       </c>
       <c r="C46" s="3">
         <v>210041700061</v>
       </c>
-      <c r="D46" s="9">
+      <c r="D46" s="7">
         <v>2</v>
       </c>
-      <c r="E46" s="9">
+      <c r="E46" s="7">
         <v>6</v>
       </c>
-      <c r="F46" s="9">
-        <v>0</v>
-      </c>
-      <c r="G46" s="9">
-        <v>0</v>
-      </c>
-      <c r="H46" s="9">
-        <v>5</v>
-      </c>
-      <c r="I46" s="9">
-        <v>5</v>
-      </c>
-      <c r="J46" s="9">
+      <c r="F46" s="7">
+        <v>0</v>
+      </c>
+      <c r="G46" s="7">
+        <v>0</v>
+      </c>
+      <c r="H46" s="7">
+        <v>5</v>
+      </c>
+      <c r="I46" s="7">
+        <v>5</v>
+      </c>
+      <c r="J46" s="7">
         <v>31.25</v>
       </c>
-      <c r="K46" s="9">
-        <v>12</v>
-      </c>
-      <c r="L46" s="9">
+      <c r="K46" s="7">
+        <v>12</v>
+      </c>
+      <c r="L46" s="7">
         <v>16</v>
       </c>
-      <c r="M46" s="9" t="s">
+      <c r="M46" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="N46" s="9">
+      <c r="N46" s="7">
         <v>31</v>
       </c>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A47" s="9">
+      <c r="A47" s="7">
         <v>45</v>
       </c>
-      <c r="B47" s="9" t="s">
+      <c r="B47" s="7" t="s">
         <v>45</v>
       </c>
       <c r="C47" s="3">
         <v>210041700062</v>
       </c>
-      <c r="D47" s="9">
-        <v>12</v>
-      </c>
-      <c r="E47" s="9">
-        <v>12</v>
-      </c>
-      <c r="F47" s="9">
+      <c r="D47" s="7">
+        <v>12</v>
+      </c>
+      <c r="E47" s="7">
+        <v>12</v>
+      </c>
+      <c r="F47" s="7">
         <v>14</v>
       </c>
-      <c r="G47" s="9">
-        <v>5</v>
-      </c>
-      <c r="H47" s="9">
-        <v>5</v>
-      </c>
-      <c r="I47" s="9">
-        <v>5</v>
-      </c>
-      <c r="J47" s="9">
+      <c r="G47" s="7">
+        <v>5</v>
+      </c>
+      <c r="H47" s="7">
+        <v>5</v>
+      </c>
+      <c r="I47" s="7">
+        <v>5</v>
+      </c>
+      <c r="J47" s="7">
         <v>62.5</v>
       </c>
-      <c r="K47" s="9">
+      <c r="K47" s="7">
         <v>16</v>
       </c>
-      <c r="L47" s="9">
+      <c r="L47" s="7">
         <v>19</v>
       </c>
-      <c r="M47" s="9">
+      <c r="M47" s="7">
         <v>52</v>
       </c>
-      <c r="N47" s="9">
+      <c r="N47" s="7">
         <v>44</v>
       </c>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A48" s="9">
+      <c r="A48" s="7">
         <v>46</v>
       </c>
-      <c r="B48" s="9" t="s">
+      <c r="B48" s="7" t="s">
         <v>46</v>
       </c>
       <c r="C48" s="3">
         <v>210041700063</v>
       </c>
-      <c r="D48" s="9">
+      <c r="D48" s="7">
         <v>9</v>
       </c>
-      <c r="E48" s="9">
+      <c r="E48" s="7">
         <v>19</v>
       </c>
-      <c r="F48" s="9">
+      <c r="F48" s="7">
         <v>17</v>
       </c>
-      <c r="G48" s="9">
-        <v>5</v>
-      </c>
-      <c r="H48" s="9">
-        <v>5</v>
-      </c>
-      <c r="I48" s="9">
-        <v>5</v>
-      </c>
-      <c r="J48" s="9">
+      <c r="G48" s="7">
+        <v>5</v>
+      </c>
+      <c r="H48" s="7">
+        <v>5</v>
+      </c>
+      <c r="I48" s="7">
+        <v>5</v>
+      </c>
+      <c r="J48" s="7">
         <v>75</v>
       </c>
-      <c r="K48" s="9">
+      <c r="K48" s="7">
         <v>20</v>
       </c>
-      <c r="L48" s="9">
+      <c r="L48" s="7">
         <v>20</v>
       </c>
-      <c r="M48" s="9">
+      <c r="M48" s="7">
         <v>50</v>
       </c>
-      <c r="N48" s="9">
+      <c r="N48" s="7">
         <v>40</v>
       </c>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A49" s="9">
+      <c r="A49" s="7">
         <v>47</v>
       </c>
-      <c r="B49" s="9" t="s">
+      <c r="B49" s="7" t="s">
         <v>85</v>
       </c>
       <c r="C49" s="3">
         <v>210041722001</v>
       </c>
-      <c r="D49" s="9">
+      <c r="D49" s="7">
         <v>9</v>
       </c>
-      <c r="E49" s="9">
+      <c r="E49" s="7">
         <v>10</v>
       </c>
-      <c r="F49" s="9">
-        <v>0</v>
-      </c>
-      <c r="G49" s="9">
-        <v>5</v>
-      </c>
-      <c r="H49" s="9">
-        <v>5</v>
-      </c>
-      <c r="I49" s="9">
-        <v>5</v>
-      </c>
-      <c r="J49" s="9">
+      <c r="F49" s="7">
+        <v>0</v>
+      </c>
+      <c r="G49" s="7">
+        <v>5</v>
+      </c>
+      <c r="H49" s="7">
+        <v>5</v>
+      </c>
+      <c r="I49" s="7">
+        <v>5</v>
+      </c>
+      <c r="J49" s="7">
         <v>87.5</v>
       </c>
-      <c r="K49" s="9">
+      <c r="K49" s="7">
         <v>16</v>
       </c>
-      <c r="L49" s="9">
+      <c r="L49" s="7">
         <v>21</v>
       </c>
-      <c r="M49" s="9" t="s">
+      <c r="M49" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="N49" s="9">
+      <c r="N49" s="7">
         <v>33</v>
       </c>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A50" s="9">
+      <c r="A50" s="7">
         <v>48</v>
       </c>
-      <c r="B50" s="9" t="s">
+      <c r="B50" s="7" t="s">
         <v>86</v>
       </c>
       <c r="C50" s="3">
         <v>210041722003</v>
       </c>
-      <c r="D50" s="9">
+      <c r="D50" s="7">
         <v>4</v>
       </c>
-      <c r="E50" s="9">
+      <c r="E50" s="7">
         <v>15</v>
       </c>
-      <c r="F50" s="9">
+      <c r="F50" s="7">
         <v>11</v>
       </c>
-      <c r="G50" s="9">
-        <v>5</v>
-      </c>
-      <c r="H50" s="9">
-        <v>5</v>
-      </c>
-      <c r="I50" s="9">
-        <v>5</v>
-      </c>
-      <c r="J50" s="9">
+      <c r="G50" s="7">
+        <v>5</v>
+      </c>
+      <c r="H50" s="7">
+        <v>5</v>
+      </c>
+      <c r="I50" s="7">
+        <v>5</v>
+      </c>
+      <c r="J50" s="7">
         <v>37.5</v>
       </c>
-      <c r="K50" s="9">
+      <c r="K50" s="7">
         <v>15</v>
       </c>
-      <c r="L50" s="9">
+      <c r="L50" s="7">
         <v>19</v>
       </c>
-      <c r="M50" s="9" t="s">
+      <c r="M50" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="N50" s="9">
+      <c r="N50" s="7">
         <v>38</v>
       </c>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A51" s="9">
+      <c r="A51" s="7">
         <v>49</v>
       </c>
-      <c r="B51" s="9" t="s">
+      <c r="B51" s="7" t="s">
         <v>87</v>
       </c>
       <c r="C51" s="3">
         <v>210041722004</v>
       </c>
-      <c r="D51" s="9">
-        <v>0</v>
-      </c>
-      <c r="E51" s="9">
+      <c r="D51" s="7">
+        <v>0</v>
+      </c>
+      <c r="E51" s="7">
         <v>20</v>
       </c>
-      <c r="F51" s="9">
-        <v>12</v>
-      </c>
-      <c r="G51" s="9">
-        <v>5</v>
-      </c>
-      <c r="H51" s="9">
-        <v>5</v>
-      </c>
-      <c r="I51" s="9">
-        <v>5</v>
-      </c>
-      <c r="J51" s="9">
+      <c r="F51" s="7">
+        <v>12</v>
+      </c>
+      <c r="G51" s="7">
+        <v>5</v>
+      </c>
+      <c r="H51" s="7">
+        <v>5</v>
+      </c>
+      <c r="I51" s="7">
+        <v>5</v>
+      </c>
+      <c r="J51" s="7">
         <v>68.75</v>
       </c>
-      <c r="K51" s="9">
+      <c r="K51" s="7">
         <v>18</v>
       </c>
-      <c r="L51" s="9">
+      <c r="L51" s="7">
         <v>20</v>
       </c>
-      <c r="M51" s="9">
+      <c r="M51" s="7">
         <v>67</v>
       </c>
-      <c r="N51" s="9">
+      <c r="N51" s="7">
         <v>43</v>
       </c>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A52" s="9">
+      <c r="A52" s="7">
         <v>50</v>
       </c>
-      <c r="B52" s="9" t="s">
+      <c r="B52" s="7" t="s">
         <v>12</v>
       </c>
       <c r="C52" s="3">
         <v>210041722005</v>
       </c>
-      <c r="D52" s="9">
-        <v>5</v>
-      </c>
-      <c r="E52" s="9">
-        <v>0</v>
-      </c>
-      <c r="F52" s="9">
+      <c r="D52" s="7">
+        <v>5</v>
+      </c>
+      <c r="E52" s="7">
+        <v>0</v>
+      </c>
+      <c r="F52" s="7">
         <v>10</v>
       </c>
-      <c r="G52" s="9">
-        <v>5</v>
-      </c>
-      <c r="H52" s="9">
-        <v>5</v>
-      </c>
-      <c r="I52" s="9">
-        <v>5</v>
-      </c>
-      <c r="J52" s="9">
+      <c r="G52" s="7">
+        <v>5</v>
+      </c>
+      <c r="H52" s="7">
+        <v>5</v>
+      </c>
+      <c r="I52" s="7">
+        <v>5</v>
+      </c>
+      <c r="J52" s="7">
         <v>43.75</v>
       </c>
-      <c r="K52" s="9">
-        <v>12</v>
-      </c>
-      <c r="L52" s="9">
+      <c r="K52" s="7">
+        <v>12</v>
+      </c>
+      <c r="L52" s="7">
         <v>16</v>
       </c>
-      <c r="M52" s="9" t="s">
+      <c r="M52" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="N52" s="9">
+      <c r="N52" s="7">
         <v>35</v>
       </c>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A53" s="9">
+      <c r="A53" s="7">
         <v>51</v>
       </c>
-      <c r="B53" s="9" t="s">
+      <c r="B53" s="7" t="s">
         <v>16</v>
       </c>
       <c r="C53" s="3">
         <v>210041722007</v>
       </c>
-      <c r="D53" s="9">
+      <c r="D53" s="7">
         <v>2</v>
       </c>
-      <c r="E53" s="9">
+      <c r="E53" s="7">
         <v>6</v>
       </c>
-      <c r="F53" s="9">
-        <v>5</v>
-      </c>
-      <c r="G53" s="9">
-        <v>0</v>
-      </c>
-      <c r="H53" s="9">
+      <c r="F53" s="7">
+        <v>5</v>
+      </c>
+      <c r="G53" s="7">
+        <v>0</v>
+      </c>
+      <c r="H53" s="7">
         <v>4</v>
       </c>
-      <c r="I53" s="9">
+      <c r="I53" s="7">
         <v>4</v>
       </c>
-      <c r="J53" s="9">
+      <c r="J53" s="7">
         <v>18.75</v>
       </c>
-      <c r="K53" s="9">
-        <v>12</v>
-      </c>
-      <c r="L53" s="9">
-        <v>12</v>
-      </c>
-      <c r="M53" s="9" t="s">
+      <c r="K53" s="7">
+        <v>12</v>
+      </c>
+      <c r="L53" s="7">
+        <v>12</v>
+      </c>
+      <c r="M53" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="N53" s="9">
+      <c r="N53" s="7">
         <v>40</v>
       </c>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A54" s="9">
+      <c r="A54" s="7">
         <v>52</v>
       </c>
-      <c r="B54" s="9" t="s">
+      <c r="B54" s="7" t="s">
         <v>18</v>
       </c>
       <c r="C54" s="3">
         <v>210041722008</v>
       </c>
-      <c r="D54" s="9">
+      <c r="D54" s="7">
         <v>3</v>
       </c>
-      <c r="E54" s="9">
+      <c r="E54" s="7">
         <v>11</v>
       </c>
-      <c r="F54" s="9">
+      <c r="F54" s="7">
         <v>6</v>
       </c>
-      <c r="G54" s="9">
-        <v>5</v>
-      </c>
-      <c r="H54" s="9">
-        <v>5</v>
-      </c>
-      <c r="I54" s="9">
-        <v>5</v>
-      </c>
-      <c r="J54" s="9">
+      <c r="G54" s="7">
+        <v>5</v>
+      </c>
+      <c r="H54" s="7">
+        <v>5</v>
+      </c>
+      <c r="I54" s="7">
+        <v>5</v>
+      </c>
+      <c r="J54" s="7">
         <v>81.25</v>
       </c>
-      <c r="K54" s="9">
+      <c r="K54" s="7">
         <v>15</v>
       </c>
-      <c r="L54" s="9">
+      <c r="L54" s="7">
         <v>19</v>
       </c>
-      <c r="M54" s="9" t="s">
+      <c r="M54" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="N54" s="9">
+      <c r="N54" s="7">
         <v>38</v>
       </c>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A55" s="9">
+      <c r="A55" s="7">
         <v>53</v>
       </c>
-      <c r="B55" s="9" t="s">
+      <c r="B55" s="7" t="s">
         <v>88</v>
       </c>
       <c r="C55" s="3">
         <v>210041722010</v>
       </c>
-      <c r="D55" s="9">
+      <c r="D55" s="7">
         <v>14</v>
       </c>
-      <c r="E55" s="9">
+      <c r="E55" s="7">
         <v>17</v>
       </c>
-      <c r="F55" s="9">
+      <c r="F55" s="7">
         <v>13</v>
       </c>
-      <c r="G55" s="9">
-        <v>5</v>
-      </c>
-      <c r="H55" s="9">
-        <v>5</v>
-      </c>
-      <c r="I55" s="9">
-        <v>5</v>
-      </c>
-      <c r="J55" s="9">
+      <c r="G55" s="7">
+        <v>5</v>
+      </c>
+      <c r="H55" s="7">
+        <v>5</v>
+      </c>
+      <c r="I55" s="7">
+        <v>5</v>
+      </c>
+      <c r="J55" s="7">
         <v>56.25</v>
       </c>
-      <c r="K55" s="9">
+      <c r="K55" s="7">
         <v>17</v>
       </c>
-      <c r="L55" s="9">
+      <c r="L55" s="7">
         <v>21</v>
       </c>
-      <c r="M55" s="9">
+      <c r="M55" s="7">
         <v>43</v>
       </c>
-      <c r="N55" s="9">
+      <c r="N55" s="7">
         <v>42</v>
       </c>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A56" s="9">
+      <c r="A56" s="7">
         <v>54</v>
       </c>
-      <c r="B56" s="9" t="s">
+      <c r="B56" s="7" t="s">
         <v>89</v>
       </c>
       <c r="C56" s="3">
         <v>210041722012</v>
       </c>
-      <c r="D56" s="9">
+      <c r="D56" s="7">
         <v>14</v>
       </c>
-      <c r="E56" s="9">
+      <c r="E56" s="7">
         <v>19</v>
       </c>
-      <c r="F56" s="9">
+      <c r="F56" s="7">
         <v>13</v>
       </c>
-      <c r="G56" s="9">
-        <v>5</v>
-      </c>
-      <c r="H56" s="9">
-        <v>5</v>
-      </c>
-      <c r="I56" s="9">
-        <v>5</v>
-      </c>
-      <c r="J56" s="9">
+      <c r="G56" s="7">
+        <v>5</v>
+      </c>
+      <c r="H56" s="7">
+        <v>5</v>
+      </c>
+      <c r="I56" s="7">
+        <v>5</v>
+      </c>
+      <c r="J56" s="7">
         <v>75</v>
       </c>
-      <c r="K56" s="9">
+      <c r="K56" s="7">
         <v>19</v>
       </c>
-      <c r="L56" s="9">
+      <c r="L56" s="7">
         <v>21</v>
       </c>
-      <c r="M56" s="9">
+      <c r="M56" s="7">
         <v>54</v>
       </c>
-      <c r="N56" s="9">
+      <c r="N56" s="7">
         <v>43</v>
       </c>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A57" s="9">
+      <c r="A57" s="7">
         <v>55</v>
       </c>
-      <c r="B57" s="9" t="s">
+      <c r="B57" s="7" t="s">
         <v>90</v>
       </c>
       <c r="C57" s="3">
         <v>210041722014</v>
       </c>
-      <c r="D57" s="9">
+      <c r="D57" s="7">
         <v>4</v>
       </c>
-      <c r="E57" s="9">
+      <c r="E57" s="7">
         <v>1</v>
       </c>
-      <c r="F57" s="9">
+      <c r="F57" s="7">
         <v>6</v>
       </c>
-      <c r="G57" s="9">
-        <v>5</v>
-      </c>
-      <c r="H57" s="9">
-        <v>0</v>
-      </c>
-      <c r="I57" s="9">
-        <v>5</v>
-      </c>
-      <c r="J57" s="9">
+      <c r="G57" s="7">
+        <v>5</v>
+      </c>
+      <c r="H57" s="7">
+        <v>0</v>
+      </c>
+      <c r="I57" s="7">
+        <v>5</v>
+      </c>
+      <c r="J57" s="7">
         <v>37.5</v>
       </c>
-      <c r="K57" s="9">
+      <c r="K57" s="7">
         <v>11</v>
       </c>
-      <c r="L57" s="9">
-        <v>12</v>
-      </c>
-      <c r="M57" s="9">
+      <c r="L57" s="7">
+        <v>12</v>
+      </c>
+      <c r="M57" s="7">
         <v>49</v>
       </c>
-      <c r="N57" s="9">
+      <c r="N57" s="7">
         <v>34</v>
       </c>
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A58" s="9">
+      <c r="A58" s="7">
         <v>56</v>
       </c>
-      <c r="B58" s="9" t="s">
+      <c r="B58" s="7" t="s">
         <v>34</v>
       </c>
       <c r="C58" s="3">
         <v>210041722015</v>
       </c>
-      <c r="D58" s="9">
+      <c r="D58" s="7">
         <v>2</v>
       </c>
-      <c r="E58" s="9">
+      <c r="E58" s="7">
         <v>8</v>
       </c>
-      <c r="F58" s="9">
+      <c r="F58" s="7">
         <v>4</v>
       </c>
-      <c r="G58" s="9">
-        <v>5</v>
-      </c>
-      <c r="H58" s="9">
-        <v>5</v>
-      </c>
-      <c r="I58" s="9">
-        <v>0</v>
-      </c>
-      <c r="J58" s="9">
+      <c r="G58" s="7">
+        <v>5</v>
+      </c>
+      <c r="H58" s="7">
+        <v>5</v>
+      </c>
+      <c r="I58" s="7">
+        <v>0</v>
+      </c>
+      <c r="J58" s="7">
         <v>18.75</v>
       </c>
-      <c r="K58" s="9">
+      <c r="K58" s="7">
         <v>11</v>
       </c>
-      <c r="L58" s="9">
+      <c r="L58" s="7">
         <v>20</v>
       </c>
-      <c r="M58" s="9" t="s">
+      <c r="M58" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="N58" s="9">
+      <c r="N58" s="7">
         <v>32</v>
       </c>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A59" s="9">
+      <c r="A59" s="7">
         <v>57</v>
       </c>
-      <c r="B59" s="9" t="s">
+      <c r="B59" s="7" t="s">
         <v>36</v>
       </c>
       <c r="C59" s="3">
         <v>210041722016</v>
       </c>
-      <c r="D59" s="9">
+      <c r="D59" s="7">
         <v>10</v>
       </c>
-      <c r="E59" s="9">
+      <c r="E59" s="7">
         <v>22</v>
       </c>
-      <c r="F59" s="9">
+      <c r="F59" s="7">
         <v>13</v>
       </c>
-      <c r="G59" s="9">
-        <v>5</v>
-      </c>
-      <c r="H59" s="9">
-        <v>5</v>
-      </c>
-      <c r="I59" s="9">
-        <v>5</v>
-      </c>
-      <c r="J59" s="9">
+      <c r="G59" s="7">
+        <v>5</v>
+      </c>
+      <c r="H59" s="7">
+        <v>5</v>
+      </c>
+      <c r="I59" s="7">
+        <v>5</v>
+      </c>
+      <c r="J59" s="7">
         <v>75</v>
       </c>
-      <c r="K59" s="9">
+      <c r="K59" s="7">
         <v>20</v>
       </c>
-      <c r="L59" s="9">
+      <c r="L59" s="7">
         <v>24</v>
       </c>
-      <c r="M59" s="9">
+      <c r="M59" s="7">
         <v>75</v>
       </c>
-      <c r="N59" s="9">
+      <c r="N59" s="7">
         <v>46</v>
       </c>
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A60" s="9">
+      <c r="A60" s="7">
         <v>58</v>
       </c>
-      <c r="B60" s="9" t="s">
+      <c r="B60" s="7" t="s">
         <v>48</v>
       </c>
       <c r="C60" s="3">
         <v>210041722019</v>
       </c>
-      <c r="D60" s="9">
+      <c r="D60" s="7">
         <v>3</v>
       </c>
-      <c r="E60" s="9">
+      <c r="E60" s="7">
         <v>6</v>
       </c>
-      <c r="F60" s="9">
-        <v>0</v>
-      </c>
-      <c r="G60" s="9">
-        <v>5</v>
-      </c>
-      <c r="H60" s="9">
-        <v>5</v>
-      </c>
-      <c r="I60" s="9">
-        <v>5</v>
-      </c>
-      <c r="J60" s="9">
+      <c r="F60" s="7">
+        <v>0</v>
+      </c>
+      <c r="G60" s="7">
+        <v>5</v>
+      </c>
+      <c r="H60" s="7">
+        <v>5</v>
+      </c>
+      <c r="I60" s="7">
+        <v>5</v>
+      </c>
+      <c r="J60" s="7">
         <v>43.75</v>
       </c>
-      <c r="K60" s="9">
-        <v>12</v>
-      </c>
-      <c r="L60" s="9">
+      <c r="K60" s="7">
+        <v>12</v>
+      </c>
+      <c r="L60" s="7">
         <v>20</v>
       </c>
-      <c r="M60" s="9" t="s">
+      <c r="M60" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="N60" s="9">
+      <c r="N60" s="7">
         <v>37</v>
       </c>
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A61" s="9">
+      <c r="A61" s="7">
         <v>59</v>
       </c>
-      <c r="B61" s="9" t="s">
+      <c r="B61" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C61" s="3">
         <v>210041700012</v>
       </c>
-      <c r="D61" s="9">
+      <c r="D61" s="7">
         <v>8</v>
       </c>
-      <c r="E61" s="9">
+      <c r="E61" s="7">
         <v>16.5</v>
       </c>
-      <c r="F61" s="9">
+      <c r="F61" s="7">
         <v>15</v>
       </c>
-      <c r="G61" s="9">
-        <v>5</v>
-      </c>
-      <c r="H61" s="9">
-        <v>5</v>
-      </c>
-      <c r="I61" s="9">
-        <v>5</v>
-      </c>
-      <c r="J61" s="9">
+      <c r="G61" s="7">
+        <v>5</v>
+      </c>
+      <c r="H61" s="7">
+        <v>5</v>
+      </c>
+      <c r="I61" s="7">
+        <v>5</v>
+      </c>
+      <c r="J61" s="7">
         <v>76.923076923076934</v>
       </c>
-      <c r="K61" s="9">
+      <c r="K61" s="7">
         <v>19</v>
       </c>
-      <c r="L61" s="9">
+      <c r="L61" s="7">
         <v>24</v>
       </c>
-      <c r="M61" s="9">
+      <c r="M61" s="7">
         <v>62</v>
       </c>
-      <c r="N61" s="9">
+      <c r="N61" s="7">
         <v>42</v>
       </c>
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A62" s="9">
+      <c r="A62" s="7">
         <v>60</v>
       </c>
-      <c r="B62" s="9" t="s">
+      <c r="B62" s="7" t="s">
         <v>47</v>
       </c>
       <c r="C62" s="3">
         <v>210041700064</v>
       </c>
-      <c r="D62" s="9">
+      <c r="D62" s="7">
         <v>3</v>
       </c>
-      <c r="E62" s="9">
+      <c r="E62" s="7">
         <v>10</v>
       </c>
-      <c r="F62" s="9">
-        <v>12</v>
-      </c>
-      <c r="G62" s="9">
-        <v>0</v>
-      </c>
-      <c r="H62" s="9">
+      <c r="F62" s="7">
+        <v>12</v>
+      </c>
+      <c r="G62" s="7">
+        <v>0</v>
+      </c>
+      <c r="H62" s="7">
         <v>2.5</v>
       </c>
-      <c r="I62" s="9">
+      <c r="I62" s="7">
         <v>2.5</v>
       </c>
-      <c r="J62" s="9">
+      <c r="J62" s="7">
         <v>38.461538461538467</v>
       </c>
-      <c r="K62" s="9">
-        <v>12</v>
-      </c>
-      <c r="L62" s="9">
+      <c r="K62" s="7">
+        <v>12</v>
+      </c>
+      <c r="L62" s="7">
         <v>18</v>
       </c>
-      <c r="M62" s="9" t="s">
+      <c r="M62" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="N62" s="9">
+      <c r="N62" s="7">
         <v>34</v>
       </c>
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A63" s="9">
+      <c r="A63" s="7">
         <v>61</v>
       </c>
-      <c r="B63" s="9" t="s">
+      <c r="B63" s="7" t="s">
         <v>48</v>
       </c>
       <c r="C63" s="3">
         <v>210041700065</v>
       </c>
-      <c r="D63" s="9">
-        <v>0</v>
-      </c>
-      <c r="E63" s="9">
+      <c r="D63" s="7">
+        <v>0</v>
+      </c>
+      <c r="E63" s="7">
         <v>15</v>
       </c>
-      <c r="F63" s="9">
-        <v>12</v>
-      </c>
-      <c r="G63" s="9">
-        <v>0</v>
-      </c>
-      <c r="H63" s="9">
-        <v>0</v>
-      </c>
-      <c r="I63" s="9">
-        <v>0</v>
-      </c>
-      <c r="J63" s="9">
+      <c r="F63" s="7">
+        <v>12</v>
+      </c>
+      <c r="G63" s="7">
+        <v>0</v>
+      </c>
+      <c r="H63" s="7">
+        <v>0</v>
+      </c>
+      <c r="I63" s="7">
+        <v>0</v>
+      </c>
+      <c r="J63" s="7">
         <v>53.846153846153847</v>
       </c>
-      <c r="K63" s="9">
+      <c r="K63" s="7">
         <v>11</v>
       </c>
-      <c r="L63" s="9">
+      <c r="L63" s="7">
         <v>18</v>
       </c>
-      <c r="M63" s="9">
+      <c r="M63" s="7">
         <v>63</v>
       </c>
-      <c r="N63" s="9">
+      <c r="N63" s="7">
         <v>42</v>
       </c>
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A64" s="9">
+      <c r="A64" s="7">
         <v>62</v>
       </c>
-      <c r="B64" s="9" t="s">
+      <c r="B64" s="7" t="s">
         <v>48</v>
       </c>
       <c r="C64" s="3">
         <v>210041700066</v>
       </c>
-      <c r="D64" s="9">
-        <v>0</v>
-      </c>
-      <c r="E64" s="9">
+      <c r="D64" s="7">
+        <v>0</v>
+      </c>
+      <c r="E64" s="7">
         <v>15</v>
       </c>
-      <c r="F64" s="9">
-        <v>12</v>
-      </c>
-      <c r="G64" s="9">
-        <v>0</v>
-      </c>
-      <c r="H64" s="9">
-        <v>0</v>
-      </c>
-      <c r="I64" s="9">
-        <v>0</v>
-      </c>
-      <c r="J64" s="9">
+      <c r="F64" s="7">
+        <v>12</v>
+      </c>
+      <c r="G64" s="7">
+        <v>0</v>
+      </c>
+      <c r="H64" s="7">
+        <v>0</v>
+      </c>
+      <c r="I64" s="7">
+        <v>0</v>
+      </c>
+      <c r="J64" s="7">
         <v>53.846153846153847</v>
       </c>
-      <c r="K64" s="9">
+      <c r="K64" s="7">
         <v>11</v>
       </c>
-      <c r="L64" s="9">
+      <c r="L64" s="7">
         <v>19</v>
       </c>
-      <c r="M64" s="9">
+      <c r="M64" s="7">
         <v>77</v>
       </c>
-      <c r="N64" s="9">
+      <c r="N64" s="7">
         <v>39</v>
       </c>
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A65" s="9">
+      <c r="A65" s="7">
         <v>63</v>
       </c>
-      <c r="B65" s="9" t="s">
+      <c r="B65" s="7" t="s">
         <v>49</v>
       </c>
       <c r="C65" s="3">
         <v>210041700067</v>
       </c>
-      <c r="D65" s="9">
+      <c r="D65" s="7">
         <v>11</v>
       </c>
-      <c r="E65" s="9">
+      <c r="E65" s="7">
         <v>13</v>
       </c>
-      <c r="F65" s="9">
+      <c r="F65" s="7">
         <v>14</v>
       </c>
-      <c r="G65" s="9">
+      <c r="G65" s="7">
         <v>2.5</v>
       </c>
-      <c r="H65" s="9">
-        <v>5</v>
-      </c>
-      <c r="I65" s="9">
-        <v>5</v>
-      </c>
-      <c r="J65" s="9">
+      <c r="H65" s="7">
+        <v>5</v>
+      </c>
+      <c r="I65" s="7">
+        <v>5</v>
+      </c>
+      <c r="J65" s="7">
         <v>53.846153846153847</v>
       </c>
-      <c r="K65" s="9">
+      <c r="K65" s="7">
         <v>16</v>
       </c>
-      <c r="L65" s="9">
+      <c r="L65" s="7">
         <v>23</v>
       </c>
-      <c r="M65" s="9">
+      <c r="M65" s="7">
         <v>49</v>
       </c>
-      <c r="N65" s="9">
+      <c r="N65" s="7">
         <v>38</v>
       </c>
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A66" s="9">
+      <c r="A66" s="7">
         <v>64</v>
       </c>
-      <c r="B66" s="9" t="s">
+      <c r="B66" s="7" t="s">
         <v>50</v>
       </c>
       <c r="C66" s="3">
         <v>210041700068</v>
       </c>
-      <c r="D66" s="9">
+      <c r="D66" s="7">
         <v>1</v>
       </c>
-      <c r="E66" s="9">
+      <c r="E66" s="7">
         <v>10</v>
       </c>
-      <c r="F66" s="9">
-        <v>12</v>
-      </c>
-      <c r="G66" s="9">
-        <v>0</v>
-      </c>
-      <c r="H66" s="9">
-        <v>0</v>
-      </c>
-      <c r="I66" s="9">
+      <c r="F66" s="7">
+        <v>12</v>
+      </c>
+      <c r="G66" s="7">
+        <v>0</v>
+      </c>
+      <c r="H66" s="7">
+        <v>0</v>
+      </c>
+      <c r="I66" s="7">
         <v>2</v>
       </c>
-      <c r="J66" s="9">
+      <c r="J66" s="7">
         <v>46.153846153846153</v>
       </c>
-      <c r="K66" s="9">
-        <v>12</v>
-      </c>
-      <c r="L66" s="9">
+      <c r="K66" s="7">
+        <v>12</v>
+      </c>
+      <c r="L66" s="7">
         <v>20</v>
       </c>
-      <c r="M66" s="9">
+      <c r="M66" s="7">
         <v>53</v>
       </c>
-      <c r="N66" s="9">
+      <c r="N66" s="7">
         <v>35</v>
       </c>
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A67" s="9">
+      <c r="A67" s="7">
         <v>65</v>
       </c>
-      <c r="B67" s="9" t="s">
+      <c r="B67" s="7" t="s">
         <v>51</v>
       </c>
       <c r="C67" s="3">
         <v>210041700069</v>
       </c>
-      <c r="D67" s="9">
+      <c r="D67" s="7">
         <v>10</v>
       </c>
-      <c r="E67" s="9">
-        <v>12</v>
-      </c>
-      <c r="F67" s="9">
+      <c r="E67" s="7">
+        <v>12</v>
+      </c>
+      <c r="F67" s="7">
         <v>17</v>
       </c>
-      <c r="G67" s="9">
+      <c r="G67" s="7">
         <v>2.5</v>
       </c>
-      <c r="H67" s="9">
-        <v>5</v>
-      </c>
-      <c r="I67" s="9">
-        <v>5</v>
-      </c>
-      <c r="J67" s="9">
+      <c r="H67" s="7">
+        <v>5</v>
+      </c>
+      <c r="I67" s="7">
+        <v>5</v>
+      </c>
+      <c r="J67" s="7">
         <v>84.615384615384613</v>
       </c>
-      <c r="K67" s="9">
+      <c r="K67" s="7">
         <v>18</v>
       </c>
-      <c r="L67" s="9">
+      <c r="L67" s="7">
         <v>22</v>
       </c>
-      <c r="M67" s="9">
+      <c r="M67" s="7">
         <v>64</v>
       </c>
-      <c r="N67" s="9">
+      <c r="N67" s="7">
         <v>40</v>
       </c>
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A68" s="9">
+      <c r="A68" s="7">
         <v>66</v>
       </c>
-      <c r="B68" s="9" t="s">
+      <c r="B68" s="7" t="s">
         <v>52</v>
       </c>
       <c r="C68" s="3">
         <v>210041700071</v>
       </c>
-      <c r="D68" s="9">
-        <v>0</v>
-      </c>
-      <c r="E68" s="9">
+      <c r="D68" s="7">
+        <v>0</v>
+      </c>
+      <c r="E68" s="7">
         <v>14</v>
       </c>
-      <c r="F68" s="9">
+      <c r="F68" s="7">
         <v>13</v>
       </c>
-      <c r="G68" s="9">
-        <v>5</v>
-      </c>
-      <c r="H68" s="9">
-        <v>5</v>
-      </c>
-      <c r="I68" s="9">
-        <v>5</v>
-      </c>
-      <c r="J68" s="9">
+      <c r="G68" s="7">
+        <v>5</v>
+      </c>
+      <c r="H68" s="7">
+        <v>5</v>
+      </c>
+      <c r="I68" s="7">
+        <v>5</v>
+      </c>
+      <c r="J68" s="7">
         <v>30.76923076923077</v>
       </c>
-      <c r="K68" s="9">
+      <c r="K68" s="7">
         <v>15</v>
       </c>
-      <c r="L68" s="9">
+      <c r="L68" s="7">
         <v>23</v>
       </c>
-      <c r="M68" s="9">
+      <c r="M68" s="7">
         <v>43</v>
       </c>
-      <c r="N68" s="9">
+      <c r="N68" s="7">
         <v>40</v>
       </c>
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A69" s="9">
+      <c r="A69" s="7">
         <v>67</v>
       </c>
-      <c r="B69" s="9" t="s">
+      <c r="B69" s="7" t="s">
         <v>53</v>
       </c>
       <c r="C69" s="3">
         <v>210041700073</v>
       </c>
-      <c r="D69" s="9">
+      <c r="D69" s="7">
         <v>7</v>
       </c>
-      <c r="E69" s="9">
+      <c r="E69" s="7">
         <v>2</v>
       </c>
-      <c r="F69" s="9">
-        <v>12</v>
-      </c>
-      <c r="G69" s="9">
-        <v>5</v>
-      </c>
-      <c r="H69" s="9">
-        <v>5</v>
-      </c>
-      <c r="I69" s="9">
-        <v>5</v>
-      </c>
-      <c r="J69" s="9">
+      <c r="F69" s="7">
+        <v>12</v>
+      </c>
+      <c r="G69" s="7">
+        <v>5</v>
+      </c>
+      <c r="H69" s="7">
+        <v>5</v>
+      </c>
+      <c r="I69" s="7">
+        <v>5</v>
+      </c>
+      <c r="J69" s="7">
         <v>69.230769230769226</v>
       </c>
-      <c r="K69" s="9">
+      <c r="K69" s="7">
         <v>14</v>
       </c>
-      <c r="L69" s="9">
+      <c r="L69" s="7">
         <v>14</v>
       </c>
-      <c r="M69" s="9" t="s">
+      <c r="M69" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="N69" s="9">
+      <c r="N69" s="7">
         <v>30</v>
       </c>
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A70" s="9">
+      <c r="A70" s="7">
         <v>68</v>
       </c>
-      <c r="B70" s="9" t="s">
+      <c r="B70" s="7" t="s">
         <v>54</v>
       </c>
       <c r="C70" s="3">
         <v>210041700076</v>
       </c>
-      <c r="D70" s="9">
+      <c r="D70" s="7">
         <v>13</v>
       </c>
-      <c r="E70" s="9">
-        <v>0</v>
-      </c>
-      <c r="F70" s="9">
+      <c r="E70" s="7">
+        <v>0</v>
+      </c>
+      <c r="F70" s="7">
         <v>16</v>
       </c>
-      <c r="G70" s="9">
-        <v>5</v>
-      </c>
-      <c r="H70" s="9">
-        <v>5</v>
-      </c>
-      <c r="I70" s="9">
-        <v>5</v>
-      </c>
-      <c r="J70" s="9">
+      <c r="G70" s="7">
+        <v>5</v>
+      </c>
+      <c r="H70" s="7">
+        <v>5</v>
+      </c>
+      <c r="I70" s="7">
+        <v>5</v>
+      </c>
+      <c r="J70" s="7">
         <v>69.230769230769226</v>
       </c>
-      <c r="K70" s="9">
+      <c r="K70" s="7">
         <v>17</v>
       </c>
-      <c r="L70" s="9">
+      <c r="L70" s="7">
         <v>21</v>
       </c>
-      <c r="M70" s="9">
+      <c r="M70" s="7">
         <v>50</v>
       </c>
-      <c r="N70" s="9">
+      <c r="N70" s="7">
         <v>31</v>
       </c>
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A71" s="9">
+      <c r="A71" s="7">
         <v>69</v>
       </c>
-      <c r="B71" s="9" t="s">
+      <c r="B71" s="7" t="s">
         <v>55</v>
       </c>
       <c r="C71" s="3">
         <v>210041700081</v>
       </c>
-      <c r="D71" s="9">
-        <v>0</v>
-      </c>
-      <c r="E71" s="9">
+      <c r="D71" s="7">
+        <v>0</v>
+      </c>
+      <c r="E71" s="7">
         <v>11</v>
       </c>
-      <c r="F71" s="9">
-        <v>12</v>
-      </c>
-      <c r="G71" s="9">
-        <v>0</v>
-      </c>
-      <c r="H71" s="9">
+      <c r="F71" s="7">
+        <v>12</v>
+      </c>
+      <c r="G71" s="7">
+        <v>0</v>
+      </c>
+      <c r="H71" s="7">
         <v>2.5</v>
       </c>
-      <c r="I71" s="9">
+      <c r="I71" s="7">
         <v>2</v>
       </c>
-      <c r="J71" s="9">
+      <c r="J71" s="7">
         <v>23.076923076923077</v>
       </c>
-      <c r="K71" s="9">
+      <c r="K71" s="7">
         <v>11</v>
       </c>
-      <c r="L71" s="9">
+      <c r="L71" s="7">
         <v>13</v>
       </c>
-      <c r="M71" s="9" t="s">
+      <c r="M71" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="N71" s="9">
+      <c r="N71" s="7">
         <v>33</v>
       </c>
     </row>
     <row r="72" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A72" s="9">
+      <c r="A72" s="7">
         <v>70</v>
       </c>
-      <c r="B72" s="9" t="s">
+      <c r="B72" s="7" t="s">
         <v>56</v>
       </c>
       <c r="C72" s="3">
         <v>210041700082</v>
       </c>
-      <c r="D72" s="9">
+      <c r="D72" s="7">
         <v>9</v>
       </c>
-      <c r="E72" s="9">
+      <c r="E72" s="7">
         <v>14</v>
       </c>
-      <c r="F72" s="9">
+      <c r="F72" s="7">
         <v>13</v>
       </c>
-      <c r="G72" s="9">
+      <c r="G72" s="7">
         <v>2.5</v>
       </c>
-      <c r="H72" s="9">
-        <v>5</v>
-      </c>
-      <c r="I72" s="9">
-        <v>0</v>
-      </c>
-      <c r="J72" s="9">
+      <c r="H72" s="7">
+        <v>5</v>
+      </c>
+      <c r="I72" s="7">
+        <v>0</v>
+      </c>
+      <c r="J72" s="7">
         <v>53.846153846153847</v>
       </c>
-      <c r="K72" s="9">
+      <c r="K72" s="7">
         <v>14</v>
       </c>
-      <c r="L72" s="9">
+      <c r="L72" s="7">
         <v>23</v>
       </c>
-      <c r="M72" s="9">
+      <c r="M72" s="7">
         <v>68</v>
       </c>
-      <c r="N72" s="9">
+      <c r="N72" s="7">
         <v>35</v>
       </c>
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A73" s="9">
+      <c r="A73" s="7">
         <v>71</v>
       </c>
-      <c r="B73" s="9" t="s">
+      <c r="B73" s="7" t="s">
         <v>57</v>
       </c>
       <c r="C73" s="3">
         <v>210041700083</v>
       </c>
-      <c r="D73" s="9">
+      <c r="D73" s="7">
         <v>7</v>
       </c>
-      <c r="E73" s="9">
+      <c r="E73" s="7">
         <v>9</v>
       </c>
-      <c r="F73" s="9">
+      <c r="F73" s="7">
         <v>13</v>
       </c>
-      <c r="G73" s="9">
-        <v>5</v>
-      </c>
-      <c r="H73" s="9">
-        <v>5</v>
-      </c>
-      <c r="I73" s="9">
-        <v>5</v>
-      </c>
-      <c r="J73" s="9">
+      <c r="G73" s="7">
+        <v>5</v>
+      </c>
+      <c r="H73" s="7">
+        <v>5</v>
+      </c>
+      <c r="I73" s="7">
+        <v>5</v>
+      </c>
+      <c r="J73" s="7">
         <v>69.230769230769226</v>
       </c>
-      <c r="K73" s="9">
+      <c r="K73" s="7">
         <v>15</v>
       </c>
-      <c r="L73" s="9">
+      <c r="L73" s="7">
         <v>21</v>
       </c>
-      <c r="M73" s="9">
+      <c r="M73" s="7">
         <v>53</v>
       </c>
-      <c r="N73" s="9">
+      <c r="N73" s="7">
         <v>31</v>
       </c>
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A74" s="9">
+      <c r="A74" s="7">
         <v>72</v>
       </c>
-      <c r="B74" s="9" t="s">
+      <c r="B74" s="7" t="s">
         <v>58</v>
       </c>
       <c r="C74" s="3">
         <v>210041700084</v>
       </c>
-      <c r="D74" s="9">
+      <c r="D74" s="7">
         <v>18</v>
       </c>
-      <c r="E74" s="9">
+      <c r="E74" s="7">
         <v>23</v>
       </c>
-      <c r="F74" s="9">
-        <v>0</v>
-      </c>
-      <c r="G74" s="9">
-        <v>5</v>
-      </c>
-      <c r="H74" s="9">
-        <v>5</v>
-      </c>
-      <c r="I74" s="9">
-        <v>5</v>
-      </c>
-      <c r="J74" s="9">
+      <c r="F74" s="7">
+        <v>0</v>
+      </c>
+      <c r="G74" s="7">
+        <v>5</v>
+      </c>
+      <c r="H74" s="7">
+        <v>5</v>
+      </c>
+      <c r="I74" s="7">
+        <v>5</v>
+      </c>
+      <c r="J74" s="7">
         <v>53.846153846153847</v>
       </c>
-      <c r="K74" s="9">
+      <c r="K74" s="7">
         <v>21</v>
       </c>
-      <c r="L74" s="9">
+      <c r="L74" s="7">
         <v>22</v>
       </c>
-      <c r="M74" s="9">
+      <c r="M74" s="7">
         <v>76</v>
       </c>
-      <c r="N74" s="9">
+      <c r="N74" s="7">
         <v>45</v>
       </c>
     </row>
     <row r="75" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A75" s="9">
+      <c r="A75" s="7">
         <v>73</v>
       </c>
-      <c r="B75" s="9" t="s">
+      <c r="B75" s="7" t="s">
         <v>59</v>
       </c>
       <c r="C75" s="3">
         <v>210041700085</v>
       </c>
-      <c r="D75" s="9">
+      <c r="D75" s="7">
         <v>4</v>
       </c>
-      <c r="E75" s="9">
+      <c r="E75" s="7">
         <v>18</v>
       </c>
-      <c r="F75" s="9">
+      <c r="F75" s="7">
         <v>17</v>
       </c>
-      <c r="G75" s="9">
-        <v>5</v>
-      </c>
-      <c r="H75" s="9">
+      <c r="G75" s="7">
+        <v>5</v>
+      </c>
+      <c r="H75" s="7">
         <v>4</v>
       </c>
-      <c r="I75" s="9">
+      <c r="I75" s="7">
         <v>4</v>
       </c>
-      <c r="J75" s="9">
+      <c r="J75" s="7">
         <v>69.230769230769226</v>
       </c>
-      <c r="K75" s="9">
+      <c r="K75" s="7">
         <v>18</v>
       </c>
-      <c r="L75" s="9">
+      <c r="L75" s="7">
         <v>21</v>
       </c>
-      <c r="M75" s="9">
+      <c r="M75" s="7">
         <v>71</v>
       </c>
-      <c r="N75" s="9">
+      <c r="N75" s="7">
         <v>41</v>
       </c>
     </row>
     <row r="76" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A76" s="9">
+      <c r="A76" s="7">
         <v>74</v>
       </c>
-      <c r="B76" s="9" t="s">
+      <c r="B76" s="7" t="s">
         <v>60</v>
       </c>
       <c r="C76" s="3">
         <v>210041700087</v>
       </c>
-      <c r="D76" s="9">
+      <c r="D76" s="7">
         <v>7</v>
       </c>
-      <c r="E76" s="9">
+      <c r="E76" s="7">
         <v>13</v>
       </c>
-      <c r="F76" s="9">
-        <v>0</v>
-      </c>
-      <c r="G76" s="9">
-        <v>5</v>
-      </c>
-      <c r="H76" s="9">
-        <v>0</v>
-      </c>
-      <c r="I76" s="9">
-        <v>0</v>
-      </c>
-      <c r="J76" s="9">
+      <c r="F76" s="7">
+        <v>0</v>
+      </c>
+      <c r="G76" s="7">
+        <v>5</v>
+      </c>
+      <c r="H76" s="7">
+        <v>0</v>
+      </c>
+      <c r="I76" s="7">
+        <v>0</v>
+      </c>
+      <c r="J76" s="7">
         <v>53.846153846153847</v>
       </c>
-      <c r="K76" s="9">
-        <v>12</v>
-      </c>
-      <c r="L76" s="9">
+      <c r="K76" s="7">
+        <v>12</v>
+      </c>
+      <c r="L76" s="7">
         <v>16</v>
       </c>
-      <c r="M76" s="9" t="s">
+      <c r="M76" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="N76" s="9">
+      <c r="N76" s="7">
         <v>32</v>
       </c>
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A77" s="9">
+      <c r="A77" s="7">
         <v>75</v>
       </c>
-      <c r="B77" s="9" t="s">
+      <c r="B77" s="7" t="s">
         <v>61</v>
       </c>
       <c r="C77" s="3">
         <v>210041700088</v>
       </c>
-      <c r="D77" s="9">
+      <c r="D77" s="7">
         <v>3</v>
       </c>
-      <c r="E77" s="9">
-        <v>0</v>
-      </c>
-      <c r="F77" s="9">
+      <c r="E77" s="7">
+        <v>0</v>
+      </c>
+      <c r="F77" s="7">
         <v>7</v>
       </c>
-      <c r="G77" s="9">
+      <c r="G77" s="7">
         <v>2.5</v>
       </c>
-      <c r="H77" s="9">
-        <v>5</v>
-      </c>
-      <c r="I77" s="9">
-        <v>5</v>
-      </c>
-      <c r="J77" s="9">
+      <c r="H77" s="7">
+        <v>5</v>
+      </c>
+      <c r="I77" s="7">
+        <v>5</v>
+      </c>
+      <c r="J77" s="7">
         <v>69.230769230769226</v>
       </c>
-      <c r="K77" s="9">
+      <c r="K77" s="7">
         <v>11</v>
       </c>
-      <c r="L77" s="9">
+      <c r="L77" s="7">
         <v>19</v>
       </c>
-      <c r="M77" s="9" t="s">
+      <c r="M77" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="N77" s="9">
+      <c r="N77" s="7">
         <v>33</v>
       </c>
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A78" s="9">
+      <c r="A78" s="7">
         <v>76</v>
       </c>
-      <c r="B78" s="9" t="s">
+      <c r="B78" s="7" t="s">
         <v>62</v>
       </c>
       <c r="C78" s="3">
         <v>210041700090</v>
       </c>
-      <c r="D78" s="9">
+      <c r="D78" s="7">
         <v>7</v>
       </c>
-      <c r="E78" s="9">
+      <c r="E78" s="7">
         <v>9</v>
       </c>
-      <c r="F78" s="9">
+      <c r="F78" s="7">
         <v>15</v>
       </c>
-      <c r="G78" s="9">
-        <v>5</v>
-      </c>
-      <c r="H78" s="9">
-        <v>5</v>
-      </c>
-      <c r="I78" s="9">
-        <v>5</v>
-      </c>
-      <c r="J78" s="9">
+      <c r="G78" s="7">
+        <v>5</v>
+      </c>
+      <c r="H78" s="7">
+        <v>5</v>
+      </c>
+      <c r="I78" s="7">
+        <v>5</v>
+      </c>
+      <c r="J78" s="7">
         <v>46.153846153846153</v>
       </c>
-      <c r="K78" s="9">
+      <c r="K78" s="7">
         <v>14</v>
       </c>
-      <c r="L78" s="9">
+      <c r="L78" s="7">
         <v>19</v>
       </c>
-      <c r="M78" s="9">
+      <c r="M78" s="7">
         <v>43</v>
       </c>
-      <c r="N78" s="9">
+      <c r="N78" s="7">
         <v>37</v>
       </c>
     </row>
     <row r="79" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A79" s="9">
+      <c r="A79" s="7">
         <v>77</v>
       </c>
-      <c r="B79" s="9" t="s">
+      <c r="B79" s="7" t="s">
         <v>63</v>
       </c>
       <c r="C79" s="3">
         <v>210041700091</v>
       </c>
-      <c r="D79" s="9">
+      <c r="D79" s="7">
         <v>2</v>
       </c>
-      <c r="E79" s="9">
+      <c r="E79" s="7">
         <v>8</v>
       </c>
-      <c r="F79" s="9">
-        <v>12</v>
-      </c>
-      <c r="G79" s="9">
-        <v>5</v>
-      </c>
-      <c r="H79" s="9">
+      <c r="F79" s="7">
+        <v>12</v>
+      </c>
+      <c r="G79" s="7">
+        <v>5</v>
+      </c>
+      <c r="H79" s="7">
         <v>2.5</v>
       </c>
-      <c r="I79" s="9">
-        <v>5</v>
-      </c>
-      <c r="J79" s="9">
+      <c r="I79" s="7">
+        <v>5</v>
+      </c>
+      <c r="J79" s="7">
         <v>53.846153846153847</v>
       </c>
-      <c r="K79" s="9">
+      <c r="K79" s="7">
         <v>13</v>
       </c>
-      <c r="L79" s="9">
+      <c r="L79" s="7">
         <v>21</v>
       </c>
-      <c r="M79" s="9">
+      <c r="M79" s="7">
         <v>55</v>
       </c>
-      <c r="N79" s="9">
+      <c r="N79" s="7">
         <v>35</v>
       </c>
     </row>
     <row r="80" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A80" s="9">
+      <c r="A80" s="7">
         <v>78</v>
       </c>
-      <c r="B80" s="9" t="s">
+      <c r="B80" s="7" t="s">
         <v>65</v>
       </c>
       <c r="C80" s="3">
         <v>210041700094</v>
       </c>
-      <c r="D80" s="9">
-        <v>0</v>
-      </c>
-      <c r="E80" s="9">
+      <c r="D80" s="7">
+        <v>0</v>
+      </c>
+      <c r="E80" s="7">
         <v>15</v>
       </c>
-      <c r="F80" s="9">
+      <c r="F80" s="7">
         <v>15</v>
       </c>
-      <c r="G80" s="9">
-        <v>5</v>
-      </c>
-      <c r="H80" s="9">
-        <v>5</v>
-      </c>
-      <c r="I80" s="9">
-        <v>5</v>
-      </c>
-      <c r="J80" s="9">
+      <c r="G80" s="7">
+        <v>5</v>
+      </c>
+      <c r="H80" s="7">
+        <v>5</v>
+      </c>
+      <c r="I80" s="7">
+        <v>5</v>
+      </c>
+      <c r="J80" s="7">
         <v>53.846153846153847</v>
       </c>
-      <c r="K80" s="9">
+      <c r="K80" s="7">
         <v>17</v>
       </c>
-      <c r="L80" s="9">
+      <c r="L80" s="7">
         <v>21</v>
       </c>
-      <c r="M80" s="9">
+      <c r="M80" s="7">
         <v>70</v>
       </c>
-      <c r="N80" s="9">
+      <c r="N80" s="7">
         <v>42</v>
       </c>
     </row>
     <row r="81" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A81" s="9">
+      <c r="A81" s="7">
         <v>79</v>
       </c>
-      <c r="B81" s="9" t="s">
+      <c r="B81" s="7" t="s">
         <v>66</v>
       </c>
       <c r="C81" s="3">
         <v>210041700095</v>
       </c>
-      <c r="D81" s="9">
+      <c r="D81" s="7">
         <v>7</v>
       </c>
-      <c r="E81" s="9">
+      <c r="E81" s="7">
         <v>7</v>
       </c>
-      <c r="F81" s="9">
+      <c r="F81" s="7">
         <v>13</v>
       </c>
-      <c r="G81" s="9">
-        <v>0</v>
-      </c>
-      <c r="H81" s="9">
+      <c r="G81" s="7">
+        <v>0</v>
+      </c>
+      <c r="H81" s="7">
         <v>3</v>
       </c>
-      <c r="I81" s="9">
-        <v>5</v>
-      </c>
-      <c r="J81" s="9">
+      <c r="I81" s="7">
+        <v>5</v>
+      </c>
+      <c r="J81" s="7">
         <v>38.461538461538467</v>
       </c>
-      <c r="K81" s="9">
-        <v>12</v>
-      </c>
-      <c r="L81" s="9">
+      <c r="K81" s="7">
+        <v>12</v>
+      </c>
+      <c r="L81" s="7">
         <v>17</v>
       </c>
-      <c r="M81" s="9">
+      <c r="M81" s="7">
         <v>43</v>
       </c>
-      <c r="N81" s="9">
+      <c r="N81" s="7">
         <v>33</v>
       </c>
     </row>
     <row r="82" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A82" s="9">
+      <c r="A82" s="7">
         <v>80</v>
       </c>
-      <c r="B82" s="9" t="s">
+      <c r="B82" s="7" t="s">
         <v>67</v>
       </c>
       <c r="C82" s="3">
         <v>210041700097</v>
       </c>
-      <c r="D82" s="9">
+      <c r="D82" s="7">
         <v>18</v>
       </c>
-      <c r="E82" s="9">
+      <c r="E82" s="7">
         <v>16</v>
       </c>
-      <c r="F82" s="9">
+      <c r="F82" s="7">
         <v>13</v>
       </c>
-      <c r="G82" s="9">
-        <v>5</v>
-      </c>
-      <c r="H82" s="9">
-        <v>5</v>
-      </c>
-      <c r="I82" s="9">
-        <v>0</v>
-      </c>
-      <c r="J82" s="9">
+      <c r="G82" s="7">
+        <v>5</v>
+      </c>
+      <c r="H82" s="7">
+        <v>5</v>
+      </c>
+      <c r="I82" s="7">
+        <v>0</v>
+      </c>
+      <c r="J82" s="7">
         <v>84.615384615384613</v>
       </c>
-      <c r="K82" s="9">
+      <c r="K82" s="7">
         <v>20</v>
       </c>
-      <c r="L82" s="9">
+      <c r="L82" s="7">
         <v>23</v>
       </c>
-      <c r="M82" s="9">
+      <c r="M82" s="7">
         <v>48</v>
       </c>
-      <c r="N82" s="9">
+      <c r="N82" s="7">
         <v>42</v>
       </c>
     </row>
     <row r="83" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A83" s="9">
+      <c r="A83" s="7">
         <v>81</v>
       </c>
-      <c r="B83" s="9" t="s">
+      <c r="B83" s="7" t="s">
         <v>68</v>
       </c>
       <c r="C83" s="3">
         <v>210041700102</v>
       </c>
-      <c r="D83" s="9">
-        <v>0</v>
-      </c>
-      <c r="E83" s="9">
-        <v>0</v>
-      </c>
-      <c r="F83" s="9">
+      <c r="D83" s="7">
+        <v>0</v>
+      </c>
+      <c r="E83" s="7">
+        <v>0</v>
+      </c>
+      <c r="F83" s="7">
         <v>17</v>
       </c>
-      <c r="G83" s="9">
+      <c r="G83" s="7">
         <v>2.5</v>
       </c>
-      <c r="H83" s="9">
-        <v>5</v>
-      </c>
-      <c r="I83" s="9">
-        <v>5</v>
-      </c>
-      <c r="J83" s="9">
+      <c r="H83" s="7">
+        <v>5</v>
+      </c>
+      <c r="I83" s="7">
+        <v>5</v>
+      </c>
+      <c r="J83" s="7">
         <v>92.307692307692307</v>
       </c>
-      <c r="K83" s="9">
+      <c r="K83" s="7">
         <v>15</v>
       </c>
-      <c r="L83" s="9">
+      <c r="L83" s="7">
         <v>16</v>
       </c>
-      <c r="M83" s="9" t="s">
+      <c r="M83" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="N83" s="9">
+      <c r="N83" s="7">
         <v>37</v>
       </c>
     </row>
     <row r="84" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A84" s="9">
+      <c r="A84" s="7">
         <v>82</v>
       </c>
-      <c r="B84" s="9" t="s">
+      <c r="B84" s="7" t="s">
         <v>69</v>
       </c>
       <c r="C84" s="3">
         <v>210041700104</v>
       </c>
-      <c r="D84" s="9">
-        <v>5</v>
-      </c>
-      <c r="E84" s="9">
+      <c r="D84" s="7">
+        <v>5</v>
+      </c>
+      <c r="E84" s="7">
         <v>13</v>
       </c>
-      <c r="F84" s="9">
-        <v>0</v>
-      </c>
-      <c r="G84" s="9">
+      <c r="F84" s="7">
+        <v>0</v>
+      </c>
+      <c r="G84" s="7">
         <v>2.5</v>
       </c>
-      <c r="H84" s="9">
-        <v>0</v>
-      </c>
-      <c r="I84" s="9">
-        <v>0</v>
-      </c>
-      <c r="J84" s="9">
+      <c r="H84" s="7">
+        <v>0</v>
+      </c>
+      <c r="I84" s="7">
+        <v>0</v>
+      </c>
+      <c r="J84" s="7">
         <v>69.230769230769226</v>
       </c>
-      <c r="K84" s="9">
-        <v>12</v>
-      </c>
-      <c r="L84" s="9">
+      <c r="K84" s="7">
+        <v>12</v>
+      </c>
+      <c r="L84" s="7">
         <v>16</v>
       </c>
-      <c r="M84" s="9">
+      <c r="M84" s="7">
         <v>33</v>
       </c>
-      <c r="N84" s="9">
+      <c r="N84" s="7">
         <v>38</v>
       </c>
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A85" s="9">
+      <c r="A85" s="7">
         <v>83</v>
       </c>
-      <c r="B85" s="9" t="s">
+      <c r="B85" s="7" t="s">
         <v>70</v>
       </c>
       <c r="C85" s="3">
         <v>210041700105</v>
       </c>
-      <c r="D85" s="9">
+      <c r="D85" s="7">
         <v>11</v>
       </c>
-      <c r="E85" s="9">
+      <c r="E85" s="7">
         <v>15</v>
       </c>
-      <c r="F85" s="9">
+      <c r="F85" s="7">
         <v>15</v>
       </c>
-      <c r="G85" s="9">
-        <v>5</v>
-      </c>
-      <c r="H85" s="9">
-        <v>5</v>
-      </c>
-      <c r="I85" s="9">
-        <v>5</v>
-      </c>
-      <c r="J85" s="9">
+      <c r="G85" s="7">
+        <v>5</v>
+      </c>
+      <c r="H85" s="7">
+        <v>5</v>
+      </c>
+      <c r="I85" s="7">
+        <v>5</v>
+      </c>
+      <c r="J85" s="7">
         <v>46.153846153846153</v>
       </c>
-      <c r="K85" s="9">
+      <c r="K85" s="7">
         <v>16</v>
       </c>
-      <c r="L85" s="9">
+      <c r="L85" s="7">
         <v>21</v>
       </c>
-      <c r="M85" s="9">
+      <c r="M85" s="7">
         <v>71</v>
       </c>
-      <c r="N85" s="9">
+      <c r="N85" s="7">
         <v>38</v>
       </c>
     </row>
     <row r="86" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A86" s="9">
+      <c r="A86" s="7">
         <v>84</v>
       </c>
-      <c r="B86" s="9" t="s">
+      <c r="B86" s="7" t="s">
         <v>71</v>
       </c>
       <c r="C86" s="3">
         <v>210041700106</v>
       </c>
-      <c r="D86" s="9">
+      <c r="D86" s="7">
         <v>4</v>
       </c>
-      <c r="E86" s="9">
+      <c r="E86" s="7">
         <v>16</v>
       </c>
-      <c r="F86" s="9">
+      <c r="F86" s="7">
         <v>10</v>
       </c>
-      <c r="G86" s="9">
-        <v>0</v>
-      </c>
-      <c r="H86" s="9">
-        <v>0</v>
-      </c>
-      <c r="I86" s="9">
-        <v>0</v>
-      </c>
-      <c r="J86" s="9">
+      <c r="G86" s="7">
+        <v>0</v>
+      </c>
+      <c r="H86" s="7">
+        <v>0</v>
+      </c>
+      <c r="I86" s="7">
+        <v>0</v>
+      </c>
+      <c r="J86" s="7">
         <v>69.230769230769226</v>
       </c>
-      <c r="K86" s="9">
-        <v>12</v>
-      </c>
-      <c r="L86" s="9">
+      <c r="K86" s="7">
+        <v>12</v>
+      </c>
+      <c r="L86" s="7">
         <v>21</v>
       </c>
-      <c r="M86" s="9">
+      <c r="M86" s="7">
         <v>40</v>
       </c>
-      <c r="N86" s="9">
+      <c r="N86" s="7">
         <v>36</v>
       </c>
     </row>
     <row r="87" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A87" s="9">
+      <c r="A87" s="7">
         <v>85</v>
       </c>
-      <c r="B87" s="9" t="s">
+      <c r="B87" s="7" t="s">
         <v>72</v>
       </c>
       <c r="C87" s="3">
         <v>210041700108</v>
       </c>
-      <c r="D87" s="9">
+      <c r="D87" s="7">
         <v>3</v>
       </c>
-      <c r="E87" s="9">
+      <c r="E87" s="7">
         <v>11</v>
       </c>
-      <c r="F87" s="9">
+      <c r="F87" s="7">
         <v>10</v>
       </c>
-      <c r="G87" s="9">
-        <v>0</v>
-      </c>
-      <c r="H87" s="9">
+      <c r="G87" s="7">
+        <v>0</v>
+      </c>
+      <c r="H87" s="7">
         <v>3</v>
       </c>
-      <c r="I87" s="9">
+      <c r="I87" s="7">
         <v>3</v>
       </c>
-      <c r="J87" s="9">
+      <c r="J87" s="7">
         <v>38.461538461538467</v>
       </c>
-      <c r="K87" s="9">
-        <v>12</v>
-      </c>
-      <c r="L87" s="9">
+      <c r="K87" s="7">
+        <v>12</v>
+      </c>
+      <c r="L87" s="7">
         <v>21</v>
       </c>
-      <c r="M87" s="9">
+      <c r="M87" s="7">
         <v>34</v>
       </c>
-      <c r="N87" s="9">
+      <c r="N87" s="7">
         <v>40</v>
       </c>
     </row>
     <row r="88" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A88" s="9">
+      <c r="A88" s="7">
         <v>86</v>
       </c>
-      <c r="B88" s="9" t="s">
+      <c r="B88" s="7" t="s">
         <v>72</v>
       </c>
       <c r="C88" s="3">
         <v>210041700109</v>
       </c>
-      <c r="D88" s="9">
+      <c r="D88" s="7">
         <v>11</v>
       </c>
-      <c r="E88" s="9">
+      <c r="E88" s="7">
         <v>17</v>
       </c>
-      <c r="F88" s="9">
+      <c r="F88" s="7">
         <v>16</v>
       </c>
-      <c r="G88" s="9">
+      <c r="G88" s="7">
         <v>2.5</v>
       </c>
-      <c r="H88" s="9">
-        <v>5</v>
-      </c>
-      <c r="I88" s="9">
-        <v>0</v>
-      </c>
-      <c r="J88" s="9">
+      <c r="H88" s="7">
+        <v>5</v>
+      </c>
+      <c r="I88" s="7">
+        <v>0</v>
+      </c>
+      <c r="J88" s="7">
         <v>92.307692307692307</v>
       </c>
-      <c r="K88" s="9">
+      <c r="K88" s="7">
         <v>18</v>
       </c>
-      <c r="L88" s="9">
+      <c r="L88" s="7">
         <v>14</v>
       </c>
-      <c r="M88" s="9">
+      <c r="M88" s="7">
         <v>73</v>
       </c>
-      <c r="N88" s="9">
+      <c r="N88" s="7">
         <v>40</v>
       </c>
     </row>
     <row r="89" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A89" s="9">
+      <c r="A89" s="7">
         <v>87</v>
       </c>
-      <c r="B89" s="9" t="s">
+      <c r="B89" s="7" t="s">
         <v>73</v>
       </c>
       <c r="C89" s="3">
         <v>210041700112</v>
       </c>
-      <c r="D89" s="9">
+      <c r="D89" s="7">
         <v>8</v>
       </c>
-      <c r="E89" s="9">
+      <c r="E89" s="7">
         <v>4</v>
       </c>
-      <c r="F89" s="9">
+      <c r="F89" s="7">
         <v>15</v>
       </c>
-      <c r="G89" s="9">
-        <v>5</v>
-      </c>
-      <c r="H89" s="9">
-        <v>5</v>
-      </c>
-      <c r="I89" s="9">
-        <v>5</v>
-      </c>
-      <c r="J89" s="9">
+      <c r="G89" s="7">
+        <v>5</v>
+      </c>
+      <c r="H89" s="7">
+        <v>5</v>
+      </c>
+      <c r="I89" s="7">
+        <v>5</v>
+      </c>
+      <c r="J89" s="7">
         <v>69.230769230769226</v>
       </c>
-      <c r="K89" s="9">
+      <c r="K89" s="7">
         <v>15</v>
       </c>
-      <c r="L89" s="9">
+      <c r="L89" s="7">
         <v>23</v>
       </c>
-      <c r="M89" s="9">
+      <c r="M89" s="7">
         <v>65</v>
       </c>
-      <c r="N89" s="9">
+      <c r="N89" s="7">
         <v>41</v>
       </c>
     </row>
     <row r="90" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A90" s="9">
+      <c r="A90" s="7">
         <v>88</v>
       </c>
-      <c r="B90" s="9" t="s">
+      <c r="B90" s="7" t="s">
         <v>74</v>
       </c>
       <c r="C90" s="3">
         <v>210041700113</v>
       </c>
-      <c r="D90" s="9">
-        <v>0</v>
-      </c>
-      <c r="E90" s="9">
+      <c r="D90" s="7">
+        <v>0</v>
+      </c>
+      <c r="E90" s="7">
         <v>17</v>
       </c>
-      <c r="F90" s="9">
-        <v>0</v>
-      </c>
-      <c r="G90" s="9">
-        <v>5</v>
-      </c>
-      <c r="H90" s="9">
-        <v>5</v>
-      </c>
-      <c r="I90" s="9">
-        <v>5</v>
-      </c>
-      <c r="J90" s="9">
+      <c r="F90" s="7">
+        <v>0</v>
+      </c>
+      <c r="G90" s="7">
+        <v>5</v>
+      </c>
+      <c r="H90" s="7">
+        <v>5</v>
+      </c>
+      <c r="I90" s="7">
+        <v>5</v>
+      </c>
+      <c r="J90" s="7">
         <v>46.153846153846153</v>
       </c>
-      <c r="K90" s="9">
-        <v>12</v>
-      </c>
-      <c r="L90" s="9">
+      <c r="K90" s="7">
+        <v>12</v>
+      </c>
+      <c r="L90" s="7">
         <v>20</v>
       </c>
-      <c r="M90" s="9">
+      <c r="M90" s="7">
         <v>62</v>
       </c>
-      <c r="N90" s="9">
+      <c r="N90" s="7">
         <v>43</v>
       </c>
     </row>
     <row r="91" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A91" s="9">
+      <c r="A91" s="7">
         <v>89</v>
       </c>
-      <c r="B91" s="9" t="s">
+      <c r="B91" s="7" t="s">
         <v>75</v>
       </c>
       <c r="C91" s="3">
         <v>210041700114</v>
       </c>
-      <c r="D91" s="9">
+      <c r="D91" s="7">
         <v>7</v>
       </c>
-      <c r="E91" s="9">
+      <c r="E91" s="7">
         <v>9</v>
       </c>
-      <c r="F91" s="9">
+      <c r="F91" s="7">
         <v>11</v>
       </c>
-      <c r="G91" s="9">
-        <v>5</v>
-      </c>
-      <c r="H91" s="9">
-        <v>5</v>
-      </c>
-      <c r="I91" s="9">
-        <v>5</v>
-      </c>
-      <c r="J91" s="9">
+      <c r="G91" s="7">
+        <v>5</v>
+      </c>
+      <c r="H91" s="7">
+        <v>5</v>
+      </c>
+      <c r="I91" s="7">
+        <v>5</v>
+      </c>
+      <c r="J91" s="7">
         <v>100</v>
       </c>
-      <c r="K91" s="9">
+      <c r="K91" s="7">
         <v>16</v>
       </c>
-      <c r="L91" s="9">
+      <c r="L91" s="7">
         <v>21</v>
       </c>
-      <c r="M91" s="9" t="s">
+      <c r="M91" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="N91" s="9">
+      <c r="N91" s="7">
         <v>39</v>
       </c>
     </row>
     <row r="92" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A92" s="9">
+      <c r="A92" s="7">
         <v>90</v>
       </c>
-      <c r="B92" s="9" t="s">
+      <c r="B92" s="7" t="s">
         <v>76</v>
       </c>
       <c r="C92" s="3">
         <v>210041700117</v>
       </c>
-      <c r="D92" s="9">
-        <v>0</v>
-      </c>
-      <c r="E92" s="9">
+      <c r="D92" s="7">
+        <v>0</v>
+      </c>
+      <c r="E92" s="7">
         <v>10</v>
       </c>
-      <c r="F92" s="9">
+      <c r="F92" s="7">
         <v>7</v>
       </c>
-      <c r="G92" s="9">
-        <v>5</v>
-      </c>
-      <c r="H92" s="9">
-        <v>0</v>
-      </c>
-      <c r="I92" s="9">
-        <v>5</v>
-      </c>
-      <c r="J92" s="9">
+      <c r="G92" s="7">
+        <v>5</v>
+      </c>
+      <c r="H92" s="7">
+        <v>0</v>
+      </c>
+      <c r="I92" s="7">
+        <v>5</v>
+      </c>
+      <c r="J92" s="7">
         <v>38.461538461538467</v>
       </c>
-      <c r="K92" s="9">
-        <v>12</v>
-      </c>
-      <c r="L92" s="9">
+      <c r="K92" s="7">
+        <v>12</v>
+      </c>
+      <c r="L92" s="7">
         <v>19</v>
       </c>
-      <c r="M92" s="9">
+      <c r="M92" s="7">
         <v>47</v>
       </c>
-      <c r="N92" s="9">
+      <c r="N92" s="7">
         <v>35</v>
       </c>
     </row>
     <row r="93" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A93" s="9">
+      <c r="A93" s="7">
         <v>91</v>
       </c>
-      <c r="B93" s="9" t="s">
+      <c r="B93" s="7" t="s">
         <v>77</v>
       </c>
       <c r="C93" s="3">
         <v>210041700119</v>
       </c>
-      <c r="D93" s="9">
+      <c r="D93" s="7">
         <v>4</v>
       </c>
-      <c r="E93" s="9">
+      <c r="E93" s="7">
         <v>15</v>
       </c>
-      <c r="F93" s="9">
+      <c r="F93" s="7">
         <v>10</v>
       </c>
-      <c r="G93" s="9">
-        <v>5</v>
-      </c>
-      <c r="H93" s="9">
-        <v>5</v>
-      </c>
-      <c r="I93" s="9">
-        <v>5</v>
-      </c>
-      <c r="J93" s="9">
+      <c r="G93" s="7">
+        <v>5</v>
+      </c>
+      <c r="H93" s="7">
+        <v>5</v>
+      </c>
+      <c r="I93" s="7">
+        <v>5</v>
+      </c>
+      <c r="J93" s="7">
         <v>92.307692307692307</v>
       </c>
-      <c r="K93" s="9">
+      <c r="K93" s="7">
         <v>18</v>
       </c>
-      <c r="L93" s="9">
+      <c r="L93" s="7">
         <v>23</v>
       </c>
-      <c r="M93" s="9">
+      <c r="M93" s="7">
         <v>52</v>
       </c>
-      <c r="N93" s="9">
+      <c r="N93" s="7">
         <v>43</v>
       </c>
     </row>
     <row r="94" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A94" s="9">
+      <c r="A94" s="7">
         <v>92</v>
       </c>
-      <c r="B94" s="9" t="s">
+      <c r="B94" s="7" t="s">
         <v>78</v>
       </c>
       <c r="C94" s="3">
         <v>210041700120</v>
       </c>
-      <c r="D94" s="9">
+      <c r="D94" s="7">
         <v>10</v>
       </c>
-      <c r="E94" s="9">
-        <v>12</v>
-      </c>
-      <c r="F94" s="9">
+      <c r="E94" s="7">
+        <v>12</v>
+      </c>
+      <c r="F94" s="7">
         <v>15</v>
       </c>
-      <c r="G94" s="9">
-        <v>5</v>
-      </c>
-      <c r="H94" s="9">
-        <v>5</v>
-      </c>
-      <c r="I94" s="9">
-        <v>5</v>
-      </c>
-      <c r="J94" s="9">
+      <c r="G94" s="7">
+        <v>5</v>
+      </c>
+      <c r="H94" s="7">
+        <v>5</v>
+      </c>
+      <c r="I94" s="7">
+        <v>5</v>
+      </c>
+      <c r="J94" s="7">
         <v>76.923076923076934</v>
       </c>
-      <c r="K94" s="9">
+      <c r="K94" s="7">
         <v>17</v>
       </c>
-      <c r="L94" s="9">
+      <c r="L94" s="7">
         <v>22</v>
       </c>
-      <c r="M94" s="9">
+      <c r="M94" s="7">
         <v>56</v>
       </c>
-      <c r="N94" s="9">
+      <c r="N94" s="7">
         <v>40</v>
       </c>
     </row>
     <row r="95" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A95" s="9">
+      <c r="A95" s="7">
         <v>93</v>
       </c>
-      <c r="B95" s="9" t="s">
+      <c r="B95" s="7" t="s">
         <v>79</v>
       </c>
       <c r="C95" s="3">
         <v>210041700122</v>
       </c>
-      <c r="D95" s="9">
+      <c r="D95" s="7">
         <v>2</v>
       </c>
-      <c r="E95" s="9">
+      <c r="E95" s="7">
         <v>16</v>
       </c>
-      <c r="F95" s="9">
+      <c r="F95" s="7">
         <v>18</v>
       </c>
-      <c r="G95" s="9">
-        <v>5</v>
-      </c>
-      <c r="H95" s="9">
-        <v>5</v>
-      </c>
-      <c r="I95" s="9">
-        <v>5</v>
-      </c>
-      <c r="J95" s="9">
+      <c r="G95" s="7">
+        <v>5</v>
+      </c>
+      <c r="H95" s="7">
+        <v>5</v>
+      </c>
+      <c r="I95" s="7">
+        <v>5</v>
+      </c>
+      <c r="J95" s="7">
         <v>38.461538461538467</v>
       </c>
-      <c r="K95" s="9">
+      <c r="K95" s="7">
         <v>18</v>
       </c>
-      <c r="L95" s="9">
+      <c r="L95" s="7">
         <v>23</v>
       </c>
-      <c r="M95" s="9" t="s">
+      <c r="M95" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="N95" s="9">
+      <c r="N95" s="7">
         <v>41</v>
       </c>
     </row>
     <row r="96" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A96" s="9">
+      <c r="A96" s="7">
         <v>94</v>
       </c>
-      <c r="B96" s="9" t="s">
+      <c r="B96" s="7" t="s">
         <v>80</v>
       </c>
       <c r="C96" s="3">
         <v>210041700123</v>
       </c>
-      <c r="D96" s="9">
+      <c r="D96" s="7">
         <v>3</v>
       </c>
-      <c r="E96" s="9">
+      <c r="E96" s="7">
         <v>9</v>
       </c>
-      <c r="F96" s="9">
+      <c r="F96" s="7">
         <v>11</v>
       </c>
-      <c r="G96" s="9">
-        <v>5</v>
-      </c>
-      <c r="H96" s="9">
-        <v>5</v>
-      </c>
-      <c r="I96" s="9">
-        <v>5</v>
-      </c>
-      <c r="J96" s="9">
+      <c r="G96" s="7">
+        <v>5</v>
+      </c>
+      <c r="H96" s="7">
+        <v>5</v>
+      </c>
+      <c r="I96" s="7">
+        <v>5</v>
+      </c>
+      <c r="J96" s="7">
         <v>38.461538461538467</v>
       </c>
-      <c r="K96" s="9">
+      <c r="K96" s="7">
         <v>13</v>
       </c>
-      <c r="L96" s="9">
+      <c r="L96" s="7">
         <v>21</v>
       </c>
-      <c r="M96" s="9">
+      <c r="M96" s="7">
         <v>33</v>
       </c>
-      <c r="N96" s="9">
+      <c r="N96" s="7">
         <v>32</v>
       </c>
     </row>
     <row r="97" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A97" s="9">
+      <c r="A97" s="7">
         <v>95</v>
       </c>
-      <c r="B97" s="9" t="s">
+      <c r="B97" s="7" t="s">
         <v>81</v>
       </c>
       <c r="C97" s="3">
         <v>210041700126</v>
       </c>
-      <c r="D97" s="9">
+      <c r="D97" s="7">
         <v>6</v>
       </c>
-      <c r="E97" s="9">
-        <v>0</v>
-      </c>
-      <c r="F97" s="9">
-        <v>0</v>
-      </c>
-      <c r="G97" s="9">
-        <v>5</v>
-      </c>
-      <c r="H97" s="9">
-        <v>5</v>
-      </c>
-      <c r="I97" s="9">
-        <v>0</v>
-      </c>
-      <c r="J97" s="9">
+      <c r="E97" s="7">
+        <v>0</v>
+      </c>
+      <c r="F97" s="7">
+        <v>0</v>
+      </c>
+      <c r="G97" s="7">
+        <v>5</v>
+      </c>
+      <c r="H97" s="7">
+        <v>5</v>
+      </c>
+      <c r="I97" s="7">
+        <v>0</v>
+      </c>
+      <c r="J97" s="7">
         <v>61.53846153846154</v>
       </c>
-      <c r="K97" s="9">
-        <v>12</v>
-      </c>
-      <c r="L97" s="9">
+      <c r="K97" s="7">
+        <v>12</v>
+      </c>
+      <c r="L97" s="7">
         <v>17</v>
       </c>
-      <c r="M97" s="9" t="s">
+      <c r="M97" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="N97" s="9">
+      <c r="N97" s="7">
         <v>33</v>
       </c>
     </row>
     <row r="98" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A98" s="9">
+      <c r="A98" s="7">
         <v>96</v>
       </c>
-      <c r="B98" s="9" t="s">
+      <c r="B98" s="7" t="s">
         <v>82</v>
       </c>
       <c r="C98" s="3">
         <v>210041700128</v>
       </c>
-      <c r="D98" s="9">
+      <c r="D98" s="7">
         <v>13</v>
       </c>
-      <c r="E98" s="9">
+      <c r="E98" s="7">
         <v>11</v>
       </c>
-      <c r="F98" s="9">
+      <c r="F98" s="7">
         <v>16</v>
       </c>
-      <c r="G98" s="9">
-        <v>5</v>
-      </c>
-      <c r="H98" s="9">
-        <v>5</v>
-      </c>
-      <c r="I98" s="9">
-        <v>5</v>
-      </c>
-      <c r="J98" s="9">
+      <c r="G98" s="7">
+        <v>5</v>
+      </c>
+      <c r="H98" s="7">
+        <v>5</v>
+      </c>
+      <c r="I98" s="7">
+        <v>5</v>
+      </c>
+      <c r="J98" s="7">
         <v>61.53846153846154</v>
       </c>
-      <c r="K98" s="9">
+      <c r="K98" s="7">
         <v>17</v>
       </c>
-      <c r="L98" s="9">
+      <c r="L98" s="7">
         <v>21</v>
       </c>
-      <c r="M98" s="9">
+      <c r="M98" s="7">
         <v>40</v>
       </c>
-      <c r="N98" s="9">
+      <c r="N98" s="7">
         <v>38</v>
       </c>
     </row>
     <row r="99" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A99" s="9">
+      <c r="A99" s="7">
         <v>97</v>
       </c>
-      <c r="B99" s="9" t="s">
+      <c r="B99" s="7" t="s">
         <v>91</v>
       </c>
       <c r="C99" s="3">
         <v>210041722020</v>
       </c>
-      <c r="D99" s="9">
+      <c r="D99" s="7">
         <v>21</v>
       </c>
-      <c r="E99" s="9">
+      <c r="E99" s="7">
         <v>20</v>
       </c>
-      <c r="F99" s="9">
-        <v>0</v>
-      </c>
-      <c r="G99" s="9">
-        <v>5</v>
-      </c>
-      <c r="H99" s="9">
-        <v>5</v>
-      </c>
-      <c r="I99" s="9">
-        <v>5</v>
-      </c>
-      <c r="J99" s="9">
+      <c r="F99" s="7">
+        <v>0</v>
+      </c>
+      <c r="G99" s="7">
+        <v>5</v>
+      </c>
+      <c r="H99" s="7">
+        <v>5</v>
+      </c>
+      <c r="I99" s="7">
+        <v>5</v>
+      </c>
+      <c r="J99" s="7">
         <v>69.230769230769226</v>
       </c>
-      <c r="K99" s="9">
+      <c r="K99" s="7">
         <v>21</v>
       </c>
-      <c r="L99" s="9">
+      <c r="L99" s="7">
         <v>22</v>
       </c>
-      <c r="M99" s="9">
+      <c r="M99" s="7">
         <v>74</v>
       </c>
-      <c r="N99" s="9">
+      <c r="N99" s="7">
         <v>42</v>
       </c>
     </row>
     <row r="100" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A100" s="9">
+      <c r="A100" s="7">
         <v>98</v>
       </c>
-      <c r="B100" s="9" t="s">
+      <c r="B100" s="7" t="s">
         <v>92</v>
       </c>
       <c r="C100" s="3">
         <v>210041722021</v>
       </c>
-      <c r="D100" s="9">
+      <c r="D100" s="7">
         <v>15</v>
       </c>
-      <c r="E100" s="9">
-        <v>0</v>
-      </c>
-      <c r="F100" s="9">
+      <c r="E100" s="7">
+        <v>0</v>
+      </c>
+      <c r="F100" s="7">
         <v>14</v>
       </c>
-      <c r="G100" s="9">
+      <c r="G100" s="7">
         <v>2.5</v>
       </c>
-      <c r="H100" s="9">
-        <v>5</v>
-      </c>
-      <c r="I100" s="9">
-        <v>5</v>
-      </c>
-      <c r="J100" s="9">
+      <c r="H100" s="7">
+        <v>5</v>
+      </c>
+      <c r="I100" s="7">
+        <v>5</v>
+      </c>
+      <c r="J100" s="7">
         <v>76.923076923076934</v>
       </c>
-      <c r="K100" s="9">
+      <c r="K100" s="7">
         <v>17</v>
       </c>
-      <c r="L100" s="9">
+      <c r="L100" s="7">
         <v>19</v>
       </c>
-      <c r="M100" s="9">
+      <c r="M100" s="7">
         <v>55</v>
       </c>
-      <c r="N100" s="9">
+      <c r="N100" s="7">
         <v>44</v>
       </c>
     </row>
     <row r="101" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A101" s="9">
+      <c r="A101" s="7">
         <v>99</v>
       </c>
-      <c r="B101" s="9" t="s">
+      <c r="B101" s="7" t="s">
         <v>64</v>
       </c>
       <c r="C101" s="3">
         <v>210041722024</v>
       </c>
-      <c r="D101" s="9">
+      <c r="D101" s="7">
         <v>15</v>
       </c>
-      <c r="E101" s="9">
-        <v>12</v>
-      </c>
-      <c r="F101" s="9">
+      <c r="E101" s="7">
+        <v>12</v>
+      </c>
+      <c r="F101" s="7">
         <v>19</v>
       </c>
-      <c r="G101" s="9">
+      <c r="G101" s="7">
         <v>2.5</v>
       </c>
-      <c r="H101" s="9">
-        <v>5</v>
-      </c>
-      <c r="I101" s="9">
-        <v>5</v>
-      </c>
-      <c r="J101" s="9">
+      <c r="H101" s="7">
+        <v>5</v>
+      </c>
+      <c r="I101" s="7">
+        <v>5</v>
+      </c>
+      <c r="J101" s="7">
         <v>69.230769230769226</v>
       </c>
-      <c r="K101" s="9">
+      <c r="K101" s="7">
         <v>17</v>
       </c>
-      <c r="L101" s="9">
+      <c r="L101" s="7">
         <v>21</v>
       </c>
-      <c r="M101" s="9">
+      <c r="M101" s="7">
         <v>68</v>
       </c>
-      <c r="N101" s="9">
+      <c r="N101" s="7">
         <v>45</v>
       </c>
     </row>
     <row r="102" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A102" s="9">
+      <c r="A102" s="7">
         <v>100</v>
       </c>
-      <c r="B102" s="9" t="s">
+      <c r="B102" s="7" t="s">
         <v>66</v>
       </c>
       <c r="C102" s="3">
         <v>210041722025</v>
       </c>
-      <c r="D102" s="9">
+      <c r="D102" s="7">
         <v>19</v>
       </c>
-      <c r="E102" s="9">
-        <v>0</v>
-      </c>
-      <c r="F102" s="9">
+      <c r="E102" s="7">
+        <v>0</v>
+      </c>
+      <c r="F102" s="7">
         <v>20</v>
       </c>
-      <c r="G102" s="9">
-        <v>5</v>
-      </c>
-      <c r="H102" s="9">
-        <v>5</v>
-      </c>
-      <c r="I102" s="9">
-        <v>5</v>
-      </c>
-      <c r="J102" s="9">
+      <c r="G102" s="7">
+        <v>5</v>
+      </c>
+      <c r="H102" s="7">
+        <v>5</v>
+      </c>
+      <c r="I102" s="7">
+        <v>5</v>
+      </c>
+      <c r="J102" s="7">
         <v>61.53846153846154</v>
       </c>
-      <c r="K102" s="9">
+      <c r="K102" s="7">
         <v>20</v>
       </c>
-      <c r="L102" s="9">
+      <c r="L102" s="7">
         <v>22</v>
       </c>
-      <c r="M102" s="9">
+      <c r="M102" s="7">
         <v>59</v>
       </c>
-      <c r="N102" s="9">
+      <c r="N102" s="7">
         <v>44</v>
       </c>
     </row>
     <row r="103" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A103" s="9">
+      <c r="A103" s="7">
         <v>101</v>
       </c>
-      <c r="B103" s="9" t="s">
+      <c r="B103" s="7" t="s">
         <v>66</v>
       </c>
       <c r="C103" s="3">
         <v>210041722026</v>
       </c>
-      <c r="D103" s="9">
+      <c r="D103" s="7">
         <v>2</v>
       </c>
-      <c r="E103" s="9">
-        <v>0</v>
-      </c>
-      <c r="F103" s="9">
+      <c r="E103" s="7">
+        <v>0</v>
+      </c>
+      <c r="F103" s="7">
         <v>4</v>
       </c>
-      <c r="G103" s="9">
-        <v>5</v>
-      </c>
-      <c r="H103" s="9">
-        <v>5</v>
-      </c>
-      <c r="I103" s="9">
-        <v>0</v>
-      </c>
-      <c r="J103" s="9">
+      <c r="G103" s="7">
+        <v>5</v>
+      </c>
+      <c r="H103" s="7">
+        <v>5</v>
+      </c>
+      <c r="I103" s="7">
+        <v>0</v>
+      </c>
+      <c r="J103" s="7">
         <v>69.230769230769226</v>
       </c>
-      <c r="K103" s="9">
+      <c r="K103" s="7">
         <v>11</v>
       </c>
-      <c r="L103" s="9">
+      <c r="L103" s="7">
         <v>23</v>
       </c>
-      <c r="M103" s="9">
+      <c r="M103" s="7">
         <v>47</v>
       </c>
-      <c r="N103" s="9">
+      <c r="N103" s="7">
         <v>32</v>
       </c>
     </row>
     <row r="104" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A104" s="9">
+      <c r="A104" s="7">
         <v>102</v>
       </c>
-      <c r="B104" s="9" t="s">
+      <c r="B104" s="7" t="s">
         <v>93</v>
       </c>
       <c r="C104" s="3">
         <v>210041722027</v>
       </c>
-      <c r="D104" s="9">
+      <c r="D104" s="7">
         <v>9</v>
       </c>
-      <c r="E104" s="9">
+      <c r="E104" s="7">
         <v>11</v>
       </c>
-      <c r="F104" s="9">
+      <c r="F104" s="7">
         <v>17</v>
       </c>
-      <c r="G104" s="9">
-        <v>0</v>
-      </c>
-      <c r="H104" s="9">
-        <v>0</v>
-      </c>
-      <c r="I104" s="9">
-        <v>0</v>
-      </c>
-      <c r="J104" s="9">
+      <c r="G104" s="7">
+        <v>0</v>
+      </c>
+      <c r="H104" s="7">
+        <v>0</v>
+      </c>
+      <c r="I104" s="7">
+        <v>0</v>
+      </c>
+      <c r="J104" s="7">
         <v>69.230769230769226</v>
       </c>
-      <c r="K104" s="9">
-        <v>12</v>
-      </c>
-      <c r="L104" s="9">
+      <c r="K104" s="7">
+        <v>12</v>
+      </c>
+      <c r="L104" s="7">
         <v>22</v>
       </c>
-      <c r="M104" s="9" t="s">
+      <c r="M104" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="N104" s="9" t="s">
+      <c r="N104" s="7" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="105" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A105" s="9">
+      <c r="A105" s="7">
         <v>103</v>
       </c>
-      <c r="B105" s="9" t="s">
+      <c r="B105" s="7" t="s">
         <v>94</v>
       </c>
       <c r="C105" s="3">
         <v>210041722028</v>
       </c>
-      <c r="D105" s="9">
-        <v>0</v>
-      </c>
-      <c r="E105" s="9">
+      <c r="D105" s="7">
+        <v>0</v>
+      </c>
+      <c r="E105" s="7">
         <v>11</v>
       </c>
-      <c r="F105" s="9">
-        <v>0</v>
-      </c>
-      <c r="G105" s="9">
-        <v>0</v>
-      </c>
-      <c r="H105" s="9">
-        <v>5</v>
-      </c>
-      <c r="I105" s="9">
-        <v>5</v>
-      </c>
-      <c r="J105" s="9">
+      <c r="F105" s="7">
+        <v>0</v>
+      </c>
+      <c r="G105" s="7">
+        <v>0</v>
+      </c>
+      <c r="H105" s="7">
+        <v>5</v>
+      </c>
+      <c r="I105" s="7">
+        <v>5</v>
+      </c>
+      <c r="J105" s="7">
         <v>38.461538461538467</v>
       </c>
-      <c r="K105" s="9">
-        <v>12</v>
-      </c>
-      <c r="L105" s="9">
+      <c r="K105" s="7">
+        <v>12</v>
+      </c>
+      <c r="L105" s="7">
         <v>16</v>
       </c>
-      <c r="M105" s="9" t="s">
+      <c r="M105" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="N105" s="9">
+      <c r="N105" s="7">
         <v>33</v>
       </c>
     </row>
     <row r="106" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A106" s="9">
+      <c r="A106" s="7">
         <v>104</v>
       </c>
-      <c r="B106" s="9" t="s">
+      <c r="B106" s="7" t="s">
         <v>95</v>
       </c>
       <c r="C106" s="3">
         <v>210041722030</v>
       </c>
-      <c r="D106" s="9">
-        <v>12</v>
-      </c>
-      <c r="E106" s="9">
+      <c r="D106" s="7">
+        <v>12</v>
+      </c>
+      <c r="E106" s="7">
         <v>14</v>
       </c>
-      <c r="F106" s="9">
+      <c r="F106" s="7">
         <v>16</v>
       </c>
-      <c r="G106" s="9">
+      <c r="G106" s="7">
         <v>2.5</v>
       </c>
-      <c r="H106" s="9">
-        <v>5</v>
-      </c>
-      <c r="I106" s="9">
-        <v>5</v>
-      </c>
-      <c r="J106" s="9">
+      <c r="H106" s="7">
+        <v>5</v>
+      </c>
+      <c r="I106" s="7">
+        <v>5</v>
+      </c>
+      <c r="J106" s="7">
         <v>76.923076923076934</v>
       </c>
-      <c r="K106" s="9">
+      <c r="K106" s="7">
         <v>18</v>
       </c>
-      <c r="L106" s="9">
+      <c r="L106" s="7">
         <v>22</v>
       </c>
-      <c r="M106" s="9">
+      <c r="M106" s="7">
         <v>75</v>
       </c>
-      <c r="N106" s="9">
+      <c r="N106" s="7">
         <v>44</v>
       </c>
     </row>
     <row r="107" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A107" s="9">
+      <c r="A107" s="7">
         <v>105</v>
       </c>
-      <c r="B107" s="9" t="s">
+      <c r="B107" s="7" t="s">
         <v>96</v>
       </c>
       <c r="C107" s="3">
         <v>210041722032</v>
       </c>
-      <c r="D107" s="9">
-        <v>0</v>
-      </c>
-      <c r="E107" s="9">
-        <v>0</v>
-      </c>
-      <c r="F107" s="9">
+      <c r="D107" s="7">
+        <v>0</v>
+      </c>
+      <c r="E107" s="7">
+        <v>0</v>
+      </c>
+      <c r="F107" s="7">
         <v>4</v>
       </c>
-      <c r="G107" s="9">
-        <v>5</v>
-      </c>
-      <c r="H107" s="9">
-        <v>5</v>
-      </c>
-      <c r="I107" s="9">
-        <v>0</v>
-      </c>
-      <c r="J107" s="9">
+      <c r="G107" s="7">
+        <v>5</v>
+      </c>
+      <c r="H107" s="7">
+        <v>5</v>
+      </c>
+      <c r="I107" s="7">
+        <v>0</v>
+      </c>
+      <c r="J107" s="7">
         <v>30.76923076923077</v>
       </c>
-      <c r="K107" s="9">
+      <c r="K107" s="7">
         <v>10</v>
       </c>
-      <c r="L107" s="9">
+      <c r="L107" s="7">
         <v>19</v>
       </c>
-      <c r="M107" s="9" t="s">
+      <c r="M107" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="N107" s="9">
+      <c r="N107" s="7">
         <v>30</v>
       </c>
     </row>
     <row r="108" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A108" s="9">
+      <c r="A108" s="7">
         <v>106</v>
       </c>
-      <c r="B108" s="9" t="s">
+      <c r="B108" s="7" t="s">
         <v>97</v>
       </c>
       <c r="C108" s="3">
         <v>210041722034</v>
       </c>
-      <c r="D108" s="9">
+      <c r="D108" s="7">
         <v>4</v>
       </c>
-      <c r="E108" s="9">
+      <c r="E108" s="7">
         <v>6</v>
       </c>
-      <c r="F108" s="9">
+      <c r="F108" s="7">
         <v>11</v>
       </c>
-      <c r="G108" s="9">
-        <v>0</v>
-      </c>
-      <c r="H108" s="9">
-        <v>5</v>
-      </c>
-      <c r="I108" s="9">
-        <v>5</v>
-      </c>
-      <c r="J108" s="9">
+      <c r="G108" s="7">
+        <v>0</v>
+      </c>
+      <c r="H108" s="7">
+        <v>5</v>
+      </c>
+      <c r="I108" s="7">
+        <v>5</v>
+      </c>
+      <c r="J108" s="7">
         <v>69.230769230769226</v>
       </c>
-      <c r="K108" s="9">
+      <c r="K108" s="7">
         <v>14</v>
       </c>
-      <c r="L108" s="9">
+      <c r="L108" s="7">
         <v>19</v>
       </c>
-      <c r="M108" s="9" t="s">
+      <c r="M108" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="N108" s="9">
+      <c r="N108" s="7">
         <v>32</v>
       </c>
     </row>
     <row r="109" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A109" s="9">
+      <c r="A109" s="7">
         <v>107</v>
       </c>
-      <c r="B109" s="9" t="s">
+      <c r="B109" s="7" t="s">
         <v>98</v>
       </c>
       <c r="C109" s="3">
         <v>210041722035</v>
       </c>
-      <c r="D109" s="9">
+      <c r="D109" s="7">
         <v>16</v>
       </c>
-      <c r="E109" s="9">
+      <c r="E109" s="7">
         <v>22</v>
       </c>
-      <c r="F109" s="9">
-        <v>0</v>
-      </c>
-      <c r="G109" s="9">
-        <v>5</v>
-      </c>
-      <c r="H109" s="9">
-        <v>5</v>
-      </c>
-      <c r="I109" s="9">
-        <v>5</v>
-      </c>
-      <c r="J109" s="9">
+      <c r="F109" s="7">
+        <v>0</v>
+      </c>
+      <c r="G109" s="7">
+        <v>5</v>
+      </c>
+      <c r="H109" s="7">
+        <v>5</v>
+      </c>
+      <c r="I109" s="7">
+        <v>5</v>
+      </c>
+      <c r="J109" s="7">
         <v>84.615384615384613</v>
       </c>
-      <c r="K109" s="9">
+      <c r="K109" s="7">
         <v>21</v>
       </c>
-      <c r="L109" s="9">
+      <c r="L109" s="7">
         <v>21</v>
       </c>
-      <c r="M109" s="9">
+      <c r="M109" s="7">
         <v>83</v>
       </c>
-      <c r="N109" s="9">
+      <c r="N109" s="7">
         <v>41</v>
       </c>
     </row>
     <row r="110" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A110" s="9">
+      <c r="A110" s="7">
         <v>108</v>
       </c>
-      <c r="B110" s="9" t="s">
+      <c r="B110" s="7" t="s">
         <v>99</v>
       </c>
       <c r="C110" s="3">
         <v>210041722036</v>
       </c>
-      <c r="D110" s="9">
-        <v>0</v>
-      </c>
-      <c r="E110" s="9">
-        <v>12</v>
-      </c>
-      <c r="F110" s="9">
+      <c r="D110" s="7">
+        <v>0</v>
+      </c>
+      <c r="E110" s="7">
+        <v>12</v>
+      </c>
+      <c r="F110" s="7">
         <v>13</v>
       </c>
-      <c r="G110" s="9">
-        <v>5</v>
-      </c>
-      <c r="H110" s="9">
-        <v>5</v>
-      </c>
-      <c r="I110" s="9">
-        <v>5</v>
-      </c>
-      <c r="J110" s="9">
+      <c r="G110" s="7">
+        <v>5</v>
+      </c>
+      <c r="H110" s="7">
+        <v>5</v>
+      </c>
+      <c r="I110" s="7">
+        <v>5</v>
+      </c>
+      <c r="J110" s="7">
         <v>46.153846153846153</v>
       </c>
-      <c r="K110" s="9">
+      <c r="K110" s="7">
         <v>15</v>
       </c>
-      <c r="L110" s="9">
+      <c r="L110" s="7">
         <v>21</v>
       </c>
-      <c r="M110" s="9" t="s">
+      <c r="M110" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="N110" s="9">
+      <c r="N110" s="7">
         <v>32</v>
       </c>
     </row>
     <row r="111" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A111" s="9">
+      <c r="A111" s="7">
         <v>109</v>
       </c>
-      <c r="B111" s="9" t="s">
+      <c r="B111" s="7" t="s">
         <v>99</v>
       </c>
       <c r="C111" s="3">
         <v>210041722037</v>
       </c>
-      <c r="D111" s="9">
+      <c r="D111" s="7">
         <v>9</v>
       </c>
-      <c r="E111" s="9">
+      <c r="E111" s="7">
         <v>17</v>
       </c>
-      <c r="F111" s="9">
+      <c r="F111" s="7">
         <v>10</v>
       </c>
-      <c r="G111" s="9">
-        <v>0</v>
-      </c>
-      <c r="H111" s="9">
-        <v>5</v>
-      </c>
-      <c r="I111" s="9">
-        <v>5</v>
-      </c>
-      <c r="J111" s="9">
+      <c r="G111" s="7">
+        <v>0</v>
+      </c>
+      <c r="H111" s="7">
+        <v>5</v>
+      </c>
+      <c r="I111" s="7">
+        <v>5</v>
+      </c>
+      <c r="J111" s="7">
         <v>53.846153846153847</v>
       </c>
-      <c r="K111" s="9">
+      <c r="K111" s="7">
         <v>16</v>
       </c>
-      <c r="L111" s="9">
+      <c r="L111" s="7">
         <v>19</v>
       </c>
-      <c r="M111" s="9">
+      <c r="M111" s="7">
         <v>57</v>
       </c>
-      <c r="N111" s="9">
+      <c r="N111" s="7">
         <v>47</v>
       </c>
     </row>
     <row r="112" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A112" s="9">
+      <c r="A112" s="7">
         <v>110</v>
       </c>
-      <c r="B112" s="9" t="s">
+      <c r="B112" s="7" t="s">
         <v>100</v>
       </c>
       <c r="C112" s="3">
         <v>210041722038</v>
       </c>
-      <c r="D112" s="9">
+      <c r="D112" s="7">
         <v>22</v>
       </c>
-      <c r="E112" s="9">
-        <v>0</v>
-      </c>
-      <c r="F112" s="9">
+      <c r="E112" s="7">
+        <v>0</v>
+      </c>
+      <c r="F112" s="7">
         <v>23</v>
       </c>
-      <c r="G112" s="9">
-        <v>5</v>
-      </c>
-      <c r="H112" s="9">
-        <v>5</v>
-      </c>
-      <c r="I112" s="9">
-        <v>5</v>
-      </c>
-      <c r="J112" s="9">
+      <c r="G112" s="7">
+        <v>5</v>
+      </c>
+      <c r="H112" s="7">
+        <v>5</v>
+      </c>
+      <c r="I112" s="7">
+        <v>5</v>
+      </c>
+      <c r="J112" s="7">
         <v>76.923076923076934</v>
       </c>
-      <c r="K112" s="9">
+      <c r="K112" s="7">
         <v>23</v>
       </c>
-      <c r="L112" s="9">
+      <c r="L112" s="7">
         <v>23</v>
       </c>
-      <c r="M112" s="9">
+      <c r="M112" s="7">
         <v>80</v>
       </c>
-      <c r="N112" s="9">
+      <c r="N112" s="7">
         <v>47</v>
       </c>
     </row>
     <row r="118" spans="12:15" x14ac:dyDescent="0.25">
-      <c r="L118" s="9" t="s">
+      <c r="L118" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="M118" s="9">
+      <c r="M118" s="7">
         <v>74</v>
       </c>
-      <c r="N118" s="9">
+      <c r="N118" s="7">
         <v>107</v>
       </c>
       <c r="O118" s="3" t="s">
@@ -5734,20 +5735,19 @@
       </c>
     </row>
     <row r="119" spans="12:15" x14ac:dyDescent="0.25">
-      <c r="L119" s="9" t="s">
+      <c r="L119" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="M119" s="9">
-        <f>110-74</f>
-        <v>36</v>
+      <c r="M119" s="7">
+        <v>35</v>
       </c>
     </row>
     <row r="120" spans="12:15" x14ac:dyDescent="0.25">
       <c r="M120" s="9">
-        <f>74/110</f>
-        <v>0.67272727272727273</v>
-      </c>
-      <c r="N120" s="9">
+        <f>M118/(M118+M119)</f>
+        <v>0.67889908256880738</v>
+      </c>
+      <c r="N120" s="7">
         <f>107/108</f>
         <v>0.9907407407407407</v>
       </c>
@@ -5762,7 +5762,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr filterMode="1"/>
   <dimension ref="A1:O120"/>
   <sheetViews>
@@ -5782,27 +5782,27 @@
     <col min="7" max="9" width="6.85546875" style="7" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12" style="6" bestFit="1" customWidth="1"/>
     <col min="11" max="12" width="12.7109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.7109375" style="8" customWidth="1"/>
+    <col min="13" max="13" width="12.7109375" style="7" customWidth="1"/>
     <col min="14" max="14" width="9.140625" style="7"/>
     <col min="15" max="15" width="18.42578125" style="3" bestFit="1" customWidth="1"/>
     <col min="16" max="16384" width="9.140625" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
-      <c r="L1" s="10"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
     </row>
     <row r="2" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -5888,7 +5888,7 @@
       <c r="L3" s="7">
         <v>21</v>
       </c>
-      <c r="M3" s="8" t="s">
+      <c r="M3" s="7" t="s">
         <v>109</v>
       </c>
       <c r="N3" s="7">
@@ -5932,7 +5932,7 @@
       <c r="L4" s="7">
         <v>19</v>
       </c>
-      <c r="M4" s="8" t="s">
+      <c r="M4" s="7" t="s">
         <v>111</v>
       </c>
       <c r="N4" s="7">
@@ -5941,7 +5941,7 @@
       <c r="O4" s="6"/>
     </row>
     <row r="5" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="8">
+      <c r="A5" s="7">
         <v>3</v>
       </c>
       <c r="B5" s="7" t="s">
@@ -5977,7 +5977,7 @@
       <c r="L5" s="7">
         <v>19</v>
       </c>
-      <c r="M5" s="8">
+      <c r="M5" s="7">
         <v>65</v>
       </c>
       <c r="N5" s="7">
@@ -5985,7 +5985,7 @@
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" s="8">
+      <c r="A6" s="7">
         <v>4</v>
       </c>
       <c r="B6" s="7" t="s">
@@ -6021,7 +6021,7 @@
       <c r="L6" s="7">
         <v>13</v>
       </c>
-      <c r="M6" s="8" t="s">
+      <c r="M6" s="7" t="s">
         <v>112</v>
       </c>
       <c r="N6" s="7" t="s">
@@ -6029,7 +6029,7 @@
       </c>
     </row>
     <row r="7" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="8">
+      <c r="A7" s="7">
         <v>5</v>
       </c>
       <c r="B7" s="7" t="s">
@@ -6065,7 +6065,7 @@
       <c r="L7" s="7">
         <v>21</v>
       </c>
-      <c r="M7" s="8">
+      <c r="M7" s="7">
         <v>73</v>
       </c>
       <c r="N7" s="7">
@@ -6073,7 +6073,7 @@
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" s="8">
+      <c r="A8" s="7">
         <v>6</v>
       </c>
       <c r="B8" s="7" t="s">
@@ -6109,7 +6109,7 @@
       <c r="L8" s="7">
         <v>13</v>
       </c>
-      <c r="M8" s="8" t="s">
+      <c r="M8" s="7" t="s">
         <v>117</v>
       </c>
       <c r="N8" s="7" t="s">
@@ -6117,7 +6117,7 @@
       </c>
     </row>
     <row r="9" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="8">
+      <c r="A9" s="7">
         <v>7</v>
       </c>
       <c r="B9" s="7" t="s">
@@ -6153,7 +6153,7 @@
       <c r="L9" s="7">
         <v>15</v>
       </c>
-      <c r="M9" s="8" t="s">
+      <c r="M9" s="7" t="s">
         <v>109</v>
       </c>
       <c r="N9" s="7">
@@ -6161,7 +6161,7 @@
       </c>
     </row>
     <row r="10" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="8">
+      <c r="A10" s="7">
         <v>8</v>
       </c>
       <c r="B10" s="7" t="s">
@@ -6197,7 +6197,7 @@
       <c r="L10" s="7">
         <v>19</v>
       </c>
-      <c r="M10" s="8">
+      <c r="M10" s="7">
         <v>42</v>
       </c>
       <c r="N10" s="7">
@@ -6205,7 +6205,7 @@
       </c>
     </row>
     <row r="11" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="8">
+      <c r="A11" s="7">
         <v>9</v>
       </c>
       <c r="B11" s="7" t="s">
@@ -6241,7 +6241,7 @@
       <c r="L11" s="7">
         <v>19</v>
       </c>
-      <c r="M11" s="8">
+      <c r="M11" s="7">
         <v>38</v>
       </c>
       <c r="N11" s="7">
@@ -6249,7 +6249,7 @@
       </c>
     </row>
     <row r="12" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="8">
+      <c r="A12" s="7">
         <v>10</v>
       </c>
       <c r="B12" s="7" t="s">
@@ -6285,7 +6285,7 @@
       <c r="L12" s="7">
         <v>19</v>
       </c>
-      <c r="M12" s="8">
+      <c r="M12" s="7">
         <v>59</v>
       </c>
       <c r="N12" s="7">
@@ -6293,7 +6293,7 @@
       </c>
     </row>
     <row r="13" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="8">
+      <c r="A13" s="7">
         <v>11</v>
       </c>
       <c r="B13" s="7" t="s">
@@ -6329,7 +6329,7 @@
       <c r="L13" s="7">
         <v>18</v>
       </c>
-      <c r="M13" s="8">
+      <c r="M13" s="7">
         <v>54</v>
       </c>
       <c r="N13" s="7">
@@ -6337,7 +6337,7 @@
       </c>
     </row>
     <row r="14" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="8">
+      <c r="A14" s="7">
         <v>12</v>
       </c>
       <c r="B14" s="7" t="s">
@@ -6373,7 +6373,7 @@
       <c r="L14" s="7">
         <v>13</v>
       </c>
-      <c r="M14" s="8">
+      <c r="M14" s="7">
         <v>44</v>
       </c>
       <c r="N14" s="7">
@@ -6381,7 +6381,7 @@
       </c>
     </row>
     <row r="15" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="8">
+      <c r="A15" s="7">
         <v>13</v>
       </c>
       <c r="B15" s="7" t="s">
@@ -6417,7 +6417,7 @@
       <c r="L15" s="7">
         <v>19</v>
       </c>
-      <c r="M15" s="8" t="s">
+      <c r="M15" s="7" t="s">
         <v>118</v>
       </c>
       <c r="N15" s="7">
@@ -6425,7 +6425,7 @@
       </c>
     </row>
     <row r="16" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="8">
+      <c r="A16" s="7">
         <v>14</v>
       </c>
       <c r="B16" s="7" t="s">
@@ -6461,7 +6461,7 @@
       <c r="L16" s="7">
         <v>16</v>
       </c>
-      <c r="M16" s="8">
+      <c r="M16" s="7">
         <v>54</v>
       </c>
       <c r="N16" s="7">
@@ -6469,7 +6469,7 @@
       </c>
     </row>
     <row r="17" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="8">
+      <c r="A17" s="7">
         <v>15</v>
       </c>
       <c r="B17" s="7" t="s">
@@ -6505,7 +6505,7 @@
       <c r="L17" s="7">
         <v>19</v>
       </c>
-      <c r="M17" s="8">
+      <c r="M17" s="7">
         <v>71</v>
       </c>
       <c r="N17" s="7">
@@ -6513,7 +6513,7 @@
       </c>
     </row>
     <row r="18" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="8">
+      <c r="A18" s="7">
         <v>16</v>
       </c>
       <c r="B18" s="7" t="s">
@@ -6549,7 +6549,7 @@
       <c r="L18" s="7">
         <v>21</v>
       </c>
-      <c r="M18" s="8">
+      <c r="M18" s="7">
         <v>33</v>
       </c>
       <c r="N18" s="7">
@@ -6557,7 +6557,7 @@
       </c>
     </row>
     <row r="19" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="8">
+      <c r="A19" s="7">
         <v>17</v>
       </c>
       <c r="B19" s="7" t="s">
@@ -6593,7 +6593,7 @@
       <c r="L19" s="7">
         <v>19</v>
       </c>
-      <c r="M19" s="8">
+      <c r="M19" s="7">
         <v>61</v>
       </c>
       <c r="N19" s="7">
@@ -6601,7 +6601,7 @@
       </c>
     </row>
     <row r="20" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="8">
+      <c r="A20" s="7">
         <v>18</v>
       </c>
       <c r="B20" s="7" t="s">
@@ -6637,7 +6637,7 @@
       <c r="L20" s="7">
         <v>21</v>
       </c>
-      <c r="M20" s="8">
+      <c r="M20" s="7">
         <v>76</v>
       </c>
       <c r="N20" s="7">
@@ -6645,7 +6645,7 @@
       </c>
     </row>
     <row r="21" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="8">
+      <c r="A21" s="7">
         <v>19</v>
       </c>
       <c r="B21" s="7" t="s">
@@ -6681,7 +6681,7 @@
       <c r="L21" s="7">
         <v>19</v>
       </c>
-      <c r="M21" s="8" t="s">
+      <c r="M21" s="7" t="s">
         <v>119</v>
       </c>
       <c r="N21" s="7">
@@ -6689,7 +6689,7 @@
       </c>
     </row>
     <row r="22" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="8">
+      <c r="A22" s="7">
         <v>20</v>
       </c>
       <c r="B22" s="7" t="s">
@@ -6725,7 +6725,7 @@
       <c r="L22" s="7">
         <v>19</v>
       </c>
-      <c r="M22" s="8">
+      <c r="M22" s="7">
         <v>67</v>
       </c>
       <c r="N22" s="7">
@@ -6733,7 +6733,7 @@
       </c>
     </row>
     <row r="23" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="8">
+      <c r="A23" s="7">
         <v>21</v>
       </c>
       <c r="B23" s="7" t="s">
@@ -6769,7 +6769,7 @@
       <c r="L23" s="7">
         <v>21</v>
       </c>
-      <c r="M23" s="8">
+      <c r="M23" s="7">
         <v>52</v>
       </c>
       <c r="N23" s="7">
@@ -6777,7 +6777,7 @@
       </c>
     </row>
     <row r="24" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="8">
+      <c r="A24" s="7">
         <v>22</v>
       </c>
       <c r="B24" s="7" t="s">
@@ -6813,7 +6813,7 @@
       <c r="L24" s="7">
         <v>19</v>
       </c>
-      <c r="M24" s="8" t="s">
+      <c r="M24" s="7" t="s">
         <v>113</v>
       </c>
       <c r="N24" s="7">
@@ -6821,7 +6821,7 @@
       </c>
     </row>
     <row r="25" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="8">
+      <c r="A25" s="7">
         <v>23</v>
       </c>
       <c r="B25" s="7" t="s">
@@ -6857,7 +6857,7 @@
       <c r="L25" s="7">
         <v>19</v>
       </c>
-      <c r="M25" s="8">
+      <c r="M25" s="7">
         <v>39</v>
       </c>
       <c r="N25" s="7">
@@ -6865,7 +6865,7 @@
       </c>
     </row>
     <row r="26" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="8">
+      <c r="A26" s="7">
         <v>24</v>
       </c>
       <c r="B26" s="7" t="s">
@@ -6901,7 +6901,7 @@
       <c r="L26" s="7">
         <v>12</v>
       </c>
-      <c r="M26" s="8" t="s">
+      <c r="M26" s="7" t="s">
         <v>120</v>
       </c>
       <c r="N26" s="7">
@@ -6909,7 +6909,7 @@
       </c>
     </row>
     <row r="27" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="8">
+      <c r="A27" s="7">
         <v>25</v>
       </c>
       <c r="B27" s="7" t="s">
@@ -6945,7 +6945,7 @@
       <c r="L27" s="7">
         <v>19</v>
       </c>
-      <c r="M27" s="8" t="s">
+      <c r="M27" s="7" t="s">
         <v>121</v>
       </c>
       <c r="N27" s="7">
@@ -6953,7 +6953,7 @@
       </c>
     </row>
     <row r="28" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="8">
+      <c r="A28" s="7">
         <v>26</v>
       </c>
       <c r="B28" s="7" t="s">
@@ -6989,7 +6989,7 @@
       <c r="L28" s="7">
         <v>19</v>
       </c>
-      <c r="M28" s="8">
+      <c r="M28" s="7">
         <v>43</v>
       </c>
       <c r="N28" s="7">
@@ -6997,7 +6997,7 @@
       </c>
     </row>
     <row r="29" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="8">
+      <c r="A29" s="7">
         <v>27</v>
       </c>
       <c r="B29" s="7" t="s">
@@ -7033,7 +7033,7 @@
       <c r="L29" s="7">
         <v>19</v>
       </c>
-      <c r="M29" s="8">
+      <c r="M29" s="7">
         <v>44</v>
       </c>
       <c r="N29" s="7">
@@ -7041,7 +7041,7 @@
       </c>
     </row>
     <row r="30" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="8">
+      <c r="A30" s="7">
         <v>28</v>
       </c>
       <c r="B30" s="7" t="s">
@@ -7077,7 +7077,7 @@
       <c r="L30" s="7">
         <v>20</v>
       </c>
-      <c r="M30" s="8">
+      <c r="M30" s="7">
         <v>68</v>
       </c>
       <c r="N30" s="7">
@@ -7085,7 +7085,7 @@
       </c>
     </row>
     <row r="31" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="8">
+      <c r="A31" s="7">
         <v>29</v>
       </c>
       <c r="B31" s="7" t="s">
@@ -7121,7 +7121,7 @@
       <c r="L31" s="7">
         <v>22</v>
       </c>
-      <c r="M31" s="8">
+      <c r="M31" s="7">
         <v>55</v>
       </c>
       <c r="N31" s="7">
@@ -7129,7 +7129,7 @@
       </c>
     </row>
     <row r="32" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="8">
+      <c r="A32" s="7">
         <v>30</v>
       </c>
       <c r="B32" s="7" t="s">
@@ -7165,7 +7165,7 @@
       <c r="L32" s="7">
         <v>21</v>
       </c>
-      <c r="M32" s="8">
+      <c r="M32" s="7">
         <v>77</v>
       </c>
       <c r="N32" s="7">
@@ -7173,7 +7173,7 @@
       </c>
     </row>
     <row r="33" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="8">
+      <c r="A33" s="7">
         <v>31</v>
       </c>
       <c r="B33" s="7" t="s">
@@ -7209,7 +7209,7 @@
       <c r="L33" s="7">
         <v>19</v>
       </c>
-      <c r="M33" s="8">
+      <c r="M33" s="7">
         <v>39</v>
       </c>
       <c r="N33" s="7">
@@ -7217,7 +7217,7 @@
       </c>
     </row>
     <row r="34" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="8">
+      <c r="A34" s="7">
         <v>32</v>
       </c>
       <c r="B34" s="7" t="s">
@@ -7253,7 +7253,7 @@
       <c r="L34" s="7">
         <v>21</v>
       </c>
-      <c r="M34" s="8">
+      <c r="M34" s="7">
         <v>64</v>
       </c>
       <c r="N34" s="7">
@@ -7261,7 +7261,7 @@
       </c>
     </row>
     <row r="35" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="8">
+      <c r="A35" s="7">
         <v>33</v>
       </c>
       <c r="B35" s="7" t="s">
@@ -7297,7 +7297,7 @@
       <c r="L35" s="7">
         <v>16</v>
       </c>
-      <c r="M35" s="8" t="s">
+      <c r="M35" s="7" t="s">
         <v>121</v>
       </c>
       <c r="N35" s="7">
@@ -7305,7 +7305,7 @@
       </c>
     </row>
     <row r="36" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="8">
+      <c r="A36" s="7">
         <v>34</v>
       </c>
       <c r="B36" s="7" t="s">
@@ -7341,7 +7341,7 @@
       <c r="L36" s="7">
         <v>16</v>
       </c>
-      <c r="M36" s="8">
+      <c r="M36" s="7">
         <v>40</v>
       </c>
       <c r="N36" s="7">
@@ -7349,7 +7349,7 @@
       </c>
     </row>
     <row r="37" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="8">
+      <c r="A37" s="7">
         <v>35</v>
       </c>
       <c r="B37" s="7" t="s">
@@ -7385,7 +7385,7 @@
       <c r="L37" s="7">
         <v>19</v>
       </c>
-      <c r="M37" s="8">
+      <c r="M37" s="7">
         <v>54</v>
       </c>
       <c r="N37" s="7">
@@ -7393,7 +7393,7 @@
       </c>
     </row>
     <row r="38" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="8">
+      <c r="A38" s="7">
         <v>36</v>
       </c>
       <c r="B38" s="7" t="s">
@@ -7429,7 +7429,7 @@
       <c r="L38" s="7">
         <v>21</v>
       </c>
-      <c r="M38" s="8">
+      <c r="M38" s="7">
         <v>45</v>
       </c>
       <c r="N38" s="7">
@@ -7437,7 +7437,7 @@
       </c>
     </row>
     <row r="39" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="8">
+      <c r="A39" s="7">
         <v>37</v>
       </c>
       <c r="B39" s="7" t="s">
@@ -7473,7 +7473,7 @@
       <c r="L39" s="7">
         <v>16</v>
       </c>
-      <c r="M39" s="8" t="s">
+      <c r="M39" s="7" t="s">
         <v>122</v>
       </c>
       <c r="N39" s="7">
@@ -7481,7 +7481,7 @@
       </c>
     </row>
     <row r="40" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="8">
+      <c r="A40" s="7">
         <v>38</v>
       </c>
       <c r="B40" s="7" t="s">
@@ -7517,7 +7517,7 @@
       <c r="L40" s="7">
         <v>20</v>
       </c>
-      <c r="M40" s="8">
+      <c r="M40" s="7">
         <v>54</v>
       </c>
       <c r="N40" s="7">
@@ -7525,7 +7525,7 @@
       </c>
     </row>
     <row r="41" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="8">
+      <c r="A41" s="7">
         <v>39</v>
       </c>
       <c r="B41" s="7" t="s">
@@ -7561,7 +7561,7 @@
       <c r="L41" s="7">
         <v>22</v>
       </c>
-      <c r="M41" s="8">
+      <c r="M41" s="7">
         <v>65</v>
       </c>
       <c r="N41" s="7">
@@ -7569,7 +7569,7 @@
       </c>
     </row>
     <row r="42" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="8">
+      <c r="A42" s="7">
         <v>40</v>
       </c>
       <c r="B42" s="7" t="s">
@@ -7605,7 +7605,7 @@
       <c r="L42" s="7">
         <v>21</v>
       </c>
-      <c r="M42" s="8">
+      <c r="M42" s="7">
         <v>57</v>
       </c>
       <c r="N42" s="7">
@@ -7613,7 +7613,7 @@
       </c>
     </row>
     <row r="43" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="8">
+      <c r="A43" s="7">
         <v>41</v>
       </c>
       <c r="B43" s="7" t="s">
@@ -7649,7 +7649,7 @@
       <c r="L43" s="7">
         <v>21</v>
       </c>
-      <c r="M43" s="8">
+      <c r="M43" s="7">
         <v>34</v>
       </c>
       <c r="N43" s="7">
@@ -7657,7 +7657,7 @@
       </c>
     </row>
     <row r="44" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="8">
+      <c r="A44" s="7">
         <v>42</v>
       </c>
       <c r="B44" s="7" t="s">
@@ -7693,7 +7693,7 @@
       <c r="L44" s="7">
         <v>21</v>
       </c>
-      <c r="M44" s="8" t="s">
+      <c r="M44" s="7" t="s">
         <v>115</v>
       </c>
       <c r="N44" s="7">
@@ -7701,7 +7701,7 @@
       </c>
     </row>
     <row r="45" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="8">
+      <c r="A45" s="7">
         <v>43</v>
       </c>
       <c r="B45" s="7" t="s">
@@ -7737,7 +7737,7 @@
       <c r="L45" s="7">
         <v>19</v>
       </c>
-      <c r="M45" s="8" t="s">
+      <c r="M45" s="7" t="s">
         <v>123</v>
       </c>
       <c r="N45" s="7">
@@ -7745,7 +7745,7 @@
       </c>
     </row>
     <row r="46" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="8">
+      <c r="A46" s="7">
         <v>44</v>
       </c>
       <c r="B46" s="7" t="s">
@@ -7781,7 +7781,7 @@
       <c r="L46" s="7">
         <v>16</v>
       </c>
-      <c r="M46" s="8" t="s">
+      <c r="M46" s="7" t="s">
         <v>111</v>
       </c>
       <c r="N46" s="7">
@@ -7789,7 +7789,7 @@
       </c>
     </row>
     <row r="47" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="8">
+      <c r="A47" s="7">
         <v>45</v>
       </c>
       <c r="B47" s="7" t="s">
@@ -7825,7 +7825,7 @@
       <c r="L47" s="7">
         <v>19</v>
       </c>
-      <c r="M47" s="8">
+      <c r="M47" s="7">
         <v>52</v>
       </c>
       <c r="N47" s="7">
@@ -7833,7 +7833,7 @@
       </c>
     </row>
     <row r="48" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="8">
+      <c r="A48" s="7">
         <v>46</v>
       </c>
       <c r="B48" s="7" t="s">
@@ -7869,7 +7869,7 @@
       <c r="L48" s="7">
         <v>20</v>
       </c>
-      <c r="M48" s="8">
+      <c r="M48" s="7">
         <v>50</v>
       </c>
       <c r="N48" s="7">
@@ -7877,7 +7877,7 @@
       </c>
     </row>
     <row r="49" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="8">
+      <c r="A49" s="7">
         <v>47</v>
       </c>
       <c r="B49" s="7" t="s">
@@ -7913,7 +7913,7 @@
       <c r="L49" s="7">
         <v>21</v>
       </c>
-      <c r="M49" s="8" t="s">
+      <c r="M49" s="7" t="s">
         <v>113</v>
       </c>
       <c r="N49" s="7">
@@ -7921,7 +7921,7 @@
       </c>
     </row>
     <row r="50" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="8">
+      <c r="A50" s="7">
         <v>48</v>
       </c>
       <c r="B50" s="7" t="s">
@@ -7957,7 +7957,7 @@
       <c r="L50" s="7">
         <v>19</v>
       </c>
-      <c r="M50" s="8" t="s">
+      <c r="M50" s="7" t="s">
         <v>121</v>
       </c>
       <c r="N50" s="7">
@@ -7965,7 +7965,7 @@
       </c>
     </row>
     <row r="51" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="8">
+      <c r="A51" s="7">
         <v>49</v>
       </c>
       <c r="B51" s="7" t="s">
@@ -8001,7 +8001,7 @@
       <c r="L51" s="7">
         <v>20</v>
       </c>
-      <c r="M51" s="8">
+      <c r="M51" s="7">
         <v>67</v>
       </c>
       <c r="N51" s="7">
@@ -8009,7 +8009,7 @@
       </c>
     </row>
     <row r="52" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="8">
+      <c r="A52" s="7">
         <v>50</v>
       </c>
       <c r="B52" s="7" t="s">
@@ -8045,7 +8045,7 @@
       <c r="L52" s="7">
         <v>16</v>
       </c>
-      <c r="M52" s="8" t="s">
+      <c r="M52" s="7" t="s">
         <v>124</v>
       </c>
       <c r="N52" s="7">
@@ -8053,7 +8053,7 @@
       </c>
     </row>
     <row r="53" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="8">
+      <c r="A53" s="7">
         <v>51</v>
       </c>
       <c r="B53" s="7" t="s">
@@ -8089,7 +8089,7 @@
       <c r="L53" s="7">
         <v>12</v>
       </c>
-      <c r="M53" s="8" t="s">
+      <c r="M53" s="7" t="s">
         <v>125</v>
       </c>
       <c r="N53" s="7">
@@ -8097,7 +8097,7 @@
       </c>
     </row>
     <row r="54" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="8">
+      <c r="A54" s="7">
         <v>52</v>
       </c>
       <c r="B54" s="7" t="s">
@@ -8133,7 +8133,7 @@
       <c r="L54" s="7">
         <v>19</v>
       </c>
-      <c r="M54" s="8" t="s">
+      <c r="M54" s="7" t="s">
         <v>125</v>
       </c>
       <c r="N54" s="7">
@@ -8141,7 +8141,7 @@
       </c>
     </row>
     <row r="55" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="8">
+      <c r="A55" s="7">
         <v>53</v>
       </c>
       <c r="B55" s="7" t="s">
@@ -8177,7 +8177,7 @@
       <c r="L55" s="7">
         <v>21</v>
       </c>
-      <c r="M55" s="8">
+      <c r="M55" s="7">
         <v>43</v>
       </c>
       <c r="N55" s="7">
@@ -8185,7 +8185,7 @@
       </c>
     </row>
     <row r="56" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="8">
+      <c r="A56" s="7">
         <v>54</v>
       </c>
       <c r="B56" s="7" t="s">
@@ -8221,7 +8221,7 @@
       <c r="L56" s="7">
         <v>21</v>
       </c>
-      <c r="M56" s="8">
+      <c r="M56" s="7">
         <v>54</v>
       </c>
       <c r="N56" s="7">
@@ -8229,7 +8229,7 @@
       </c>
     </row>
     <row r="57" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="8">
+      <c r="A57" s="7">
         <v>55</v>
       </c>
       <c r="B57" s="7" t="s">
@@ -8265,7 +8265,7 @@
       <c r="L57" s="7">
         <v>12</v>
       </c>
-      <c r="M57" s="8">
+      <c r="M57" s="7">
         <v>49</v>
       </c>
       <c r="N57" s="7">
@@ -8273,7 +8273,7 @@
       </c>
     </row>
     <row r="58" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="8">
+      <c r="A58" s="7">
         <v>56</v>
       </c>
       <c r="B58" s="7" t="s">
@@ -8309,7 +8309,7 @@
       <c r="L58" s="7">
         <v>20</v>
       </c>
-      <c r="M58" s="8" t="s">
+      <c r="M58" s="7" t="s">
         <v>126</v>
       </c>
       <c r="N58" s="7">
@@ -8317,7 +8317,7 @@
       </c>
     </row>
     <row r="59" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="8">
+      <c r="A59" s="7">
         <v>57</v>
       </c>
       <c r="B59" s="7" t="s">
@@ -8353,7 +8353,7 @@
       <c r="L59" s="7">
         <v>24</v>
       </c>
-      <c r="M59" s="8">
+      <c r="M59" s="7">
         <v>75</v>
       </c>
       <c r="N59" s="7">
@@ -8361,7 +8361,7 @@
       </c>
     </row>
     <row r="60" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="8">
+      <c r="A60" s="7">
         <v>58</v>
       </c>
       <c r="B60" s="7" t="s">
@@ -8397,7 +8397,7 @@
       <c r="L60" s="7">
         <v>20</v>
       </c>
-      <c r="M60" s="8" t="s">
+      <c r="M60" s="7" t="s">
         <v>113</v>
       </c>
       <c r="N60" s="7">
@@ -8405,7 +8405,7 @@
       </c>
     </row>
     <row r="61" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="8">
+      <c r="A61" s="7">
         <v>59</v>
       </c>
       <c r="B61" s="7" t="s">
@@ -8441,7 +8441,7 @@
       <c r="L61" s="7">
         <v>24</v>
       </c>
-      <c r="M61" s="8">
+      <c r="M61" s="7">
         <v>62</v>
       </c>
       <c r="N61" s="7">
@@ -8449,7 +8449,7 @@
       </c>
     </row>
     <row r="62" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="8">
+      <c r="A62" s="7">
         <v>60</v>
       </c>
       <c r="B62" s="7" t="s">
@@ -8485,7 +8485,7 @@
       <c r="L62" s="7">
         <v>18</v>
       </c>
-      <c r="M62" s="8" t="s">
+      <c r="M62" s="7" t="s">
         <v>121</v>
       </c>
       <c r="N62" s="7">
@@ -8493,7 +8493,7 @@
       </c>
     </row>
     <row r="63" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="8">
+      <c r="A63" s="7">
         <v>61</v>
       </c>
       <c r="B63" s="7" t="s">
@@ -8529,7 +8529,7 @@
       <c r="L63" s="7">
         <v>18</v>
       </c>
-      <c r="M63" s="8">
+      <c r="M63" s="7">
         <v>63</v>
       </c>
       <c r="N63" s="7">
@@ -8537,7 +8537,7 @@
       </c>
     </row>
     <row r="64" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="8">
+      <c r="A64" s="7">
         <v>62</v>
       </c>
       <c r="B64" s="7" t="s">
@@ -8573,7 +8573,7 @@
       <c r="L64" s="7">
         <v>19</v>
       </c>
-      <c r="M64" s="8">
+      <c r="M64" s="7">
         <v>77</v>
       </c>
       <c r="N64" s="7">
@@ -8581,7 +8581,7 @@
       </c>
     </row>
     <row r="65" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="8">
+      <c r="A65" s="7">
         <v>63</v>
       </c>
       <c r="B65" s="7" t="s">
@@ -8617,7 +8617,7 @@
       <c r="L65" s="7">
         <v>23</v>
       </c>
-      <c r="M65" s="8">
+      <c r="M65" s="7">
         <v>49</v>
       </c>
       <c r="N65" s="7">
@@ -8625,7 +8625,7 @@
       </c>
     </row>
     <row r="66" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="8">
+      <c r="A66" s="7">
         <v>64</v>
       </c>
       <c r="B66" s="7" t="s">
@@ -8661,7 +8661,7 @@
       <c r="L66" s="7">
         <v>20</v>
       </c>
-      <c r="M66" s="8">
+      <c r="M66" s="7">
         <v>53</v>
       </c>
       <c r="N66" s="7">
@@ -8669,7 +8669,7 @@
       </c>
     </row>
     <row r="67" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="8">
+      <c r="A67" s="7">
         <v>65</v>
       </c>
       <c r="B67" s="7" t="s">
@@ -8705,7 +8705,7 @@
       <c r="L67" s="7">
         <v>22</v>
       </c>
-      <c r="M67" s="8">
+      <c r="M67" s="7">
         <v>64</v>
       </c>
       <c r="N67" s="7">
@@ -8713,7 +8713,7 @@
       </c>
     </row>
     <row r="68" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="8">
+      <c r="A68" s="7">
         <v>66</v>
       </c>
       <c r="B68" s="7" t="s">
@@ -8749,7 +8749,7 @@
       <c r="L68" s="7">
         <v>23</v>
       </c>
-      <c r="M68" s="8">
+      <c r="M68" s="7">
         <v>43</v>
       </c>
       <c r="N68" s="7">
@@ -8757,7 +8757,7 @@
       </c>
     </row>
     <row r="69" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="8">
+      <c r="A69" s="7">
         <v>67</v>
       </c>
       <c r="B69" s="7" t="s">
@@ -8793,7 +8793,7 @@
       <c r="L69" s="7">
         <v>14</v>
       </c>
-      <c r="M69" s="8" t="s">
+      <c r="M69" s="7" t="s">
         <v>124</v>
       </c>
       <c r="N69" s="7">
@@ -8801,7 +8801,7 @@
       </c>
     </row>
     <row r="70" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="8">
+      <c r="A70" s="7">
         <v>68</v>
       </c>
       <c r="B70" s="7" t="s">
@@ -8837,7 +8837,7 @@
       <c r="L70" s="7">
         <v>21</v>
       </c>
-      <c r="M70" s="8">
+      <c r="M70" s="7">
         <v>50</v>
       </c>
       <c r="N70" s="7">
@@ -8845,7 +8845,7 @@
       </c>
     </row>
     <row r="71" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="8">
+      <c r="A71" s="7">
         <v>69</v>
       </c>
       <c r="B71" s="7" t="s">
@@ -8881,7 +8881,7 @@
       <c r="L71" s="7">
         <v>13</v>
       </c>
-      <c r="M71" s="8" t="s">
+      <c r="M71" s="7" t="s">
         <v>111</v>
       </c>
       <c r="N71" s="7">
@@ -8889,7 +8889,7 @@
       </c>
     </row>
     <row r="72" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="8">
+      <c r="A72" s="7">
         <v>70</v>
       </c>
       <c r="B72" s="7" t="s">
@@ -8925,7 +8925,7 @@
       <c r="L72" s="7">
         <v>23</v>
       </c>
-      <c r="M72" s="8">
+      <c r="M72" s="7">
         <v>68</v>
       </c>
       <c r="N72" s="7">
@@ -8933,7 +8933,7 @@
       </c>
     </row>
     <row r="73" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="8">
+      <c r="A73" s="7">
         <v>71</v>
       </c>
       <c r="B73" s="7" t="s">
@@ -8969,7 +8969,7 @@
       <c r="L73" s="7">
         <v>21</v>
       </c>
-      <c r="M73" s="8">
+      <c r="M73" s="7">
         <v>53</v>
       </c>
       <c r="N73" s="7">
@@ -8977,7 +8977,7 @@
       </c>
     </row>
     <row r="74" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="8">
+      <c r="A74" s="7">
         <v>72</v>
       </c>
       <c r="B74" s="7" t="s">
@@ -9013,7 +9013,7 @@
       <c r="L74" s="7">
         <v>22</v>
       </c>
-      <c r="M74" s="8">
+      <c r="M74" s="7">
         <v>76</v>
       </c>
       <c r="N74" s="7">
@@ -9021,7 +9021,7 @@
       </c>
     </row>
     <row r="75" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="8">
+      <c r="A75" s="7">
         <v>73</v>
       </c>
       <c r="B75" s="7" t="s">
@@ -9057,7 +9057,7 @@
       <c r="L75" s="7">
         <v>21</v>
       </c>
-      <c r="M75" s="8">
+      <c r="M75" s="7">
         <v>71</v>
       </c>
       <c r="N75" s="7">
@@ -9065,7 +9065,7 @@
       </c>
     </row>
     <row r="76" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="8">
+      <c r="A76" s="7">
         <v>74</v>
       </c>
       <c r="B76" s="7" t="s">
@@ -9101,7 +9101,7 @@
       <c r="L76" s="7">
         <v>16</v>
       </c>
-      <c r="M76" s="8" t="s">
+      <c r="M76" s="7" t="s">
         <v>121</v>
       </c>
       <c r="N76" s="7">
@@ -9109,7 +9109,7 @@
       </c>
     </row>
     <row r="77" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="8">
+      <c r="A77" s="7">
         <v>75</v>
       </c>
       <c r="B77" s="7" t="s">
@@ -9145,7 +9145,7 @@
       <c r="L77" s="7">
         <v>19</v>
       </c>
-      <c r="M77" s="8" t="s">
+      <c r="M77" s="7" t="s">
         <v>128</v>
       </c>
       <c r="N77" s="7">
@@ -9153,7 +9153,7 @@
       </c>
     </row>
     <row r="78" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="8">
+      <c r="A78" s="7">
         <v>76</v>
       </c>
       <c r="B78" s="7" t="s">
@@ -9189,7 +9189,7 @@
       <c r="L78" s="7">
         <v>19</v>
       </c>
-      <c r="M78" s="8">
+      <c r="M78" s="7">
         <v>43</v>
       </c>
       <c r="N78" s="7">
@@ -9197,7 +9197,7 @@
       </c>
     </row>
     <row r="79" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="8">
+      <c r="A79" s="7">
         <v>77</v>
       </c>
       <c r="B79" s="7" t="s">
@@ -9233,7 +9233,7 @@
       <c r="L79" s="7">
         <v>21</v>
       </c>
-      <c r="M79" s="8">
+      <c r="M79" s="7">
         <v>55</v>
       </c>
       <c r="N79" s="7">
@@ -9241,7 +9241,7 @@
       </c>
     </row>
     <row r="80" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="8">
+      <c r="A80" s="7">
         <v>78</v>
       </c>
       <c r="B80" s="7" t="s">
@@ -9277,7 +9277,7 @@
       <c r="L80" s="7">
         <v>21</v>
       </c>
-      <c r="M80" s="8">
+      <c r="M80" s="7">
         <v>70</v>
       </c>
       <c r="N80" s="7">
@@ -9285,7 +9285,7 @@
       </c>
     </row>
     <row r="81" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="8">
+      <c r="A81" s="7">
         <v>79</v>
       </c>
       <c r="B81" s="7" t="s">
@@ -9321,7 +9321,7 @@
       <c r="L81" s="7">
         <v>17</v>
       </c>
-      <c r="M81" s="8">
+      <c r="M81" s="7">
         <v>43</v>
       </c>
       <c r="N81" s="7">
@@ -9329,7 +9329,7 @@
       </c>
     </row>
     <row r="82" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="8">
+      <c r="A82" s="7">
         <v>80</v>
       </c>
       <c r="B82" s="7" t="s">
@@ -9365,7 +9365,7 @@
       <c r="L82" s="7">
         <v>23</v>
       </c>
-      <c r="M82" s="8">
+      <c r="M82" s="7">
         <v>48</v>
       </c>
       <c r="N82" s="7">
@@ -9373,7 +9373,7 @@
       </c>
     </row>
     <row r="83" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="8">
+      <c r="A83" s="7">
         <v>81</v>
       </c>
       <c r="B83" s="7" t="s">
@@ -9409,7 +9409,7 @@
       <c r="L83" s="7">
         <v>16</v>
       </c>
-      <c r="M83" s="8" t="s">
+      <c r="M83" s="7" t="s">
         <v>125</v>
       </c>
       <c r="N83" s="7">
@@ -9417,7 +9417,7 @@
       </c>
     </row>
     <row r="84" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="8">
+      <c r="A84" s="7">
         <v>82</v>
       </c>
       <c r="B84" s="7" t="s">
@@ -9453,7 +9453,7 @@
       <c r="L84" s="7">
         <v>16</v>
       </c>
-      <c r="M84" s="8">
+      <c r="M84" s="7">
         <v>33</v>
       </c>
       <c r="N84" s="7">
@@ -9461,7 +9461,7 @@
       </c>
     </row>
     <row r="85" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="8">
+      <c r="A85" s="7">
         <v>83</v>
       </c>
       <c r="B85" s="7" t="s">
@@ -9497,7 +9497,7 @@
       <c r="L85" s="7">
         <v>21</v>
       </c>
-      <c r="M85" s="8">
+      <c r="M85" s="7">
         <v>71</v>
       </c>
       <c r="N85" s="7">
@@ -9505,7 +9505,7 @@
       </c>
     </row>
     <row r="86" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="8">
+      <c r="A86" s="7">
         <v>84</v>
       </c>
       <c r="B86" s="7" t="s">
@@ -9541,7 +9541,7 @@
       <c r="L86" s="7">
         <v>21</v>
       </c>
-      <c r="M86" s="8">
+      <c r="M86" s="7">
         <v>40</v>
       </c>
       <c r="N86" s="7">
@@ -9549,7 +9549,7 @@
       </c>
     </row>
     <row r="87" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="8">
+      <c r="A87" s="7">
         <v>85</v>
       </c>
       <c r="B87" s="7" t="s">
@@ -9585,7 +9585,7 @@
       <c r="L87" s="7">
         <v>21</v>
       </c>
-      <c r="M87" s="8">
+      <c r="M87" s="7">
         <v>34</v>
       </c>
       <c r="N87" s="7">
@@ -9593,7 +9593,7 @@
       </c>
     </row>
     <row r="88" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="8">
+      <c r="A88" s="7">
         <v>86</v>
       </c>
       <c r="B88" s="7" t="s">
@@ -9629,7 +9629,7 @@
       <c r="L88" s="7">
         <v>14</v>
       </c>
-      <c r="M88" s="8">
+      <c r="M88" s="7">
         <v>73</v>
       </c>
       <c r="N88" s="7">
@@ -9637,7 +9637,7 @@
       </c>
     </row>
     <row r="89" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="8">
+      <c r="A89" s="7">
         <v>87</v>
       </c>
       <c r="B89" s="7" t="s">
@@ -9673,7 +9673,7 @@
       <c r="L89" s="7">
         <v>23</v>
       </c>
-      <c r="M89" s="8">
+      <c r="M89" s="7">
         <v>65</v>
       </c>
       <c r="N89" s="7">
@@ -9681,7 +9681,7 @@
       </c>
     </row>
     <row r="90" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="8">
+      <c r="A90" s="7">
         <v>88</v>
       </c>
       <c r="B90" s="7" t="s">
@@ -9717,7 +9717,7 @@
       <c r="L90" s="7">
         <v>20</v>
       </c>
-      <c r="M90" s="8">
+      <c r="M90" s="7">
         <v>62</v>
       </c>
       <c r="N90" s="7">
@@ -9725,7 +9725,7 @@
       </c>
     </row>
     <row r="91" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="8">
+      <c r="A91" s="7">
         <v>89</v>
       </c>
       <c r="B91" s="7" t="s">
@@ -9761,7 +9761,7 @@
       <c r="L91" s="7">
         <v>21</v>
       </c>
-      <c r="M91" s="8" t="s">
+      <c r="M91" s="7" t="s">
         <v>129</v>
       </c>
       <c r="N91" s="7">
@@ -9769,7 +9769,7 @@
       </c>
     </row>
     <row r="92" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="8">
+      <c r="A92" s="7">
         <v>90</v>
       </c>
       <c r="B92" s="7" t="s">
@@ -9805,7 +9805,7 @@
       <c r="L92" s="7">
         <v>19</v>
       </c>
-      <c r="M92" s="8">
+      <c r="M92" s="7">
         <v>47</v>
       </c>
       <c r="N92" s="7">
@@ -9813,7 +9813,7 @@
       </c>
     </row>
     <row r="93" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="8">
+      <c r="A93" s="7">
         <v>91</v>
       </c>
       <c r="B93" s="7" t="s">
@@ -9849,7 +9849,7 @@
       <c r="L93" s="7">
         <v>23</v>
       </c>
-      <c r="M93" s="8">
+      <c r="M93" s="7">
         <v>52</v>
       </c>
       <c r="N93" s="7">
@@ -9857,7 +9857,7 @@
       </c>
     </row>
     <row r="94" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="8">
+      <c r="A94" s="7">
         <v>92</v>
       </c>
       <c r="B94" s="7" t="s">
@@ -9893,7 +9893,7 @@
       <c r="L94" s="7">
         <v>22</v>
       </c>
-      <c r="M94" s="8">
+      <c r="M94" s="7">
         <v>56</v>
       </c>
       <c r="N94" s="7">
@@ -9901,7 +9901,7 @@
       </c>
     </row>
     <row r="95" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="8">
+      <c r="A95" s="7">
         <v>93</v>
       </c>
       <c r="B95" s="7" t="s">
@@ -9937,7 +9937,7 @@
       <c r="L95" s="7">
         <v>23</v>
       </c>
-      <c r="M95" s="8" t="s">
+      <c r="M95" s="7" t="s">
         <v>114</v>
       </c>
       <c r="N95" s="7">
@@ -9945,7 +9945,7 @@
       </c>
     </row>
     <row r="96" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="8">
+      <c r="A96" s="7">
         <v>94</v>
       </c>
       <c r="B96" s="7" t="s">
@@ -9981,7 +9981,7 @@
       <c r="L96" s="7">
         <v>21</v>
       </c>
-      <c r="M96" s="8">
+      <c r="M96" s="7">
         <v>33</v>
       </c>
       <c r="N96" s="7">
@@ -9989,7 +9989,7 @@
       </c>
     </row>
     <row r="97" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="8">
+      <c r="A97" s="7">
         <v>95</v>
       </c>
       <c r="B97" s="7" t="s">
@@ -10025,7 +10025,7 @@
       <c r="L97" s="7">
         <v>17</v>
       </c>
-      <c r="M97" s="8" t="s">
+      <c r="M97" s="7" t="s">
         <v>130</v>
       </c>
       <c r="N97" s="7">
@@ -10033,7 +10033,7 @@
       </c>
     </row>
     <row r="98" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="8">
+      <c r="A98" s="7">
         <v>96</v>
       </c>
       <c r="B98" s="7" t="s">
@@ -10069,7 +10069,7 @@
       <c r="L98" s="7">
         <v>21</v>
       </c>
-      <c r="M98" s="8">
+      <c r="M98" s="7">
         <v>40</v>
       </c>
       <c r="N98" s="7">
@@ -10077,7 +10077,7 @@
       </c>
     </row>
     <row r="99" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="8">
+      <c r="A99" s="7">
         <v>97</v>
       </c>
       <c r="B99" s="7" t="s">
@@ -10113,7 +10113,7 @@
       <c r="L99" s="7">
         <v>22</v>
       </c>
-      <c r="M99" s="8">
+      <c r="M99" s="7">
         <v>74</v>
       </c>
       <c r="N99" s="7">
@@ -10121,7 +10121,7 @@
       </c>
     </row>
     <row r="100" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="8">
+      <c r="A100" s="7">
         <v>98</v>
       </c>
       <c r="B100" s="7" t="s">
@@ -10157,7 +10157,7 @@
       <c r="L100" s="7">
         <v>19</v>
       </c>
-      <c r="M100" s="8">
+      <c r="M100" s="7">
         <v>55</v>
       </c>
       <c r="N100" s="7">
@@ -10165,7 +10165,7 @@
       </c>
     </row>
     <row r="101" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="8">
+      <c r="A101" s="7">
         <v>99</v>
       </c>
       <c r="B101" s="7" t="s">
@@ -10201,7 +10201,7 @@
       <c r="L101" s="7">
         <v>21</v>
       </c>
-      <c r="M101" s="8">
+      <c r="M101" s="7">
         <v>68</v>
       </c>
       <c r="N101" s="7">
@@ -10209,7 +10209,7 @@
       </c>
     </row>
     <row r="102" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="8">
+      <c r="A102" s="7">
         <v>100</v>
       </c>
       <c r="B102" s="7" t="s">
@@ -10245,7 +10245,7 @@
       <c r="L102" s="7">
         <v>22</v>
       </c>
-      <c r="M102" s="8">
+      <c r="M102" s="7">
         <v>59</v>
       </c>
       <c r="N102" s="7">
@@ -10253,7 +10253,7 @@
       </c>
     </row>
     <row r="103" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="8">
+      <c r="A103" s="7">
         <v>101</v>
       </c>
       <c r="B103" s="7" t="s">
@@ -10289,7 +10289,7 @@
       <c r="L103" s="7">
         <v>23</v>
       </c>
-      <c r="M103" s="8">
+      <c r="M103" s="7">
         <v>47</v>
       </c>
       <c r="N103" s="7">
@@ -10297,7 +10297,7 @@
       </c>
     </row>
     <row r="104" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A104" s="8">
+      <c r="A104" s="7">
         <v>102</v>
       </c>
       <c r="B104" s="7" t="s">
@@ -10333,7 +10333,7 @@
       <c r="L104" s="7">
         <v>22</v>
       </c>
-      <c r="M104" s="8" t="s">
+      <c r="M104" s="7" t="s">
         <v>127</v>
       </c>
       <c r="N104" s="7" t="s">
@@ -10341,7 +10341,7 @@
       </c>
     </row>
     <row r="105" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="8">
+      <c r="A105" s="7">
         <v>103</v>
       </c>
       <c r="B105" s="7" t="s">
@@ -10377,7 +10377,7 @@
       <c r="L105" s="7">
         <v>16</v>
       </c>
-      <c r="M105" s="8" t="s">
+      <c r="M105" s="7" t="s">
         <v>124</v>
       </c>
       <c r="N105" s="7">
@@ -10385,7 +10385,7 @@
       </c>
     </row>
     <row r="106" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="8">
+      <c r="A106" s="7">
         <v>104</v>
       </c>
       <c r="B106" s="7" t="s">
@@ -10421,7 +10421,7 @@
       <c r="L106" s="7">
         <v>22</v>
       </c>
-      <c r="M106" s="8">
+      <c r="M106" s="7">
         <v>75</v>
       </c>
       <c r="N106" s="7">
@@ -10429,7 +10429,7 @@
       </c>
     </row>
     <row r="107" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="8">
+      <c r="A107" s="7">
         <v>105</v>
       </c>
       <c r="B107" s="7" t="s">
@@ -10465,7 +10465,7 @@
       <c r="L107" s="7">
         <v>19</v>
       </c>
-      <c r="M107" s="8" t="s">
+      <c r="M107" s="7" t="s">
         <v>128</v>
       </c>
       <c r="N107" s="7">
@@ -10473,7 +10473,7 @@
       </c>
     </row>
     <row r="108" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="8">
+      <c r="A108" s="7">
         <v>106</v>
       </c>
       <c r="B108" s="7" t="s">
@@ -10509,7 +10509,7 @@
       <c r="L108" s="7">
         <v>19</v>
       </c>
-      <c r="M108" s="8" t="s">
+      <c r="M108" s="7" t="s">
         <v>121</v>
       </c>
       <c r="N108" s="7">
@@ -10517,7 +10517,7 @@
       </c>
     </row>
     <row r="109" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="8">
+      <c r="A109" s="7">
         <v>107</v>
       </c>
       <c r="B109" s="7" t="s">
@@ -10553,7 +10553,7 @@
       <c r="L109" s="7">
         <v>21</v>
       </c>
-      <c r="M109" s="8">
+      <c r="M109" s="7">
         <v>83</v>
       </c>
       <c r="N109" s="7">
@@ -10561,7 +10561,7 @@
       </c>
     </row>
     <row r="110" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="8">
+      <c r="A110" s="7">
         <v>108</v>
       </c>
       <c r="B110" s="7" t="s">
@@ -10597,7 +10597,7 @@
       <c r="L110" s="7">
         <v>21</v>
       </c>
-      <c r="M110" s="8" t="s">
+      <c r="M110" s="7" t="s">
         <v>127</v>
       </c>
       <c r="N110" s="7">
@@ -10605,7 +10605,7 @@
       </c>
     </row>
     <row r="111" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="8">
+      <c r="A111" s="7">
         <v>109</v>
       </c>
       <c r="B111" s="7" t="s">
@@ -10641,7 +10641,7 @@
       <c r="L111" s="7">
         <v>19</v>
       </c>
-      <c r="M111" s="8">
+      <c r="M111" s="7">
         <v>57</v>
       </c>
       <c r="N111" s="7">
@@ -10649,7 +10649,7 @@
       </c>
     </row>
     <row r="112" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="8">
+      <c r="A112" s="7">
         <v>110</v>
       </c>
       <c r="B112" s="7" t="s">
@@ -10685,7 +10685,7 @@
       <c r="L112" s="7">
         <v>23</v>
       </c>
-      <c r="M112" s="8">
+      <c r="M112" s="7">
         <v>80</v>
       </c>
       <c r="N112" s="7">
@@ -10696,7 +10696,7 @@
       <c r="L118" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="M118" s="8">
+      <c r="M118" s="7">
         <v>74</v>
       </c>
       <c r="N118" s="7">
@@ -10710,13 +10710,13 @@
       <c r="L119" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="M119" s="8">
+      <c r="M119" s="7">
         <f>110-74</f>
         <v>36</v>
       </c>
     </row>
     <row r="120" spans="12:15" x14ac:dyDescent="0.25">
-      <c r="M120" s="8">
+      <c r="M120" s="7">
         <f>74/110</f>
         <v>0.67272727272727273</v>
       </c>
@@ -10726,7 +10726,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:O112">
+  <autoFilter ref="A2:O112" xr:uid="{00000000-0009-0000-0000-000001000000}">
     <filterColumn colId="13">
       <filters>
         <filter val="-"/>

--- a/static/Upload/5th sem.xlsx
+++ b/static/Upload/5th sem.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C53ED31-5A40-4E1C-BAD2-F9D94AC9C644}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4261CE4-E2CB-42C1-B15B-05A2C12C699E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="12900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CNC" sheetId="3" r:id="rId1"/>
@@ -437,7 +437,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="172" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -506,10 +506,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -795,10 +795,10 @@
   <dimension ref="A1:O120"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D113" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D50" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="N120" sqref="N120"/>
+      <selection pane="bottomRight" activeCell="M61" sqref="M61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -817,20 +817,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
-      <c r="L1" s="8"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
     </row>
     <row r="2" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -5743,7 +5743,7 @@
       </c>
     </row>
     <row r="120" spans="12:15" x14ac:dyDescent="0.25">
-      <c r="M120" s="9">
+      <c r="M120" s="8">
         <f>M118/(M118+M119)</f>
         <v>0.67889908256880738</v>
       </c>
@@ -5753,6 +5753,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A2:O112" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <mergeCells count="1">
     <mergeCell ref="A1:L1"/>
   </mergeCells>
@@ -5789,20 +5790,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
-      <c r="L1" s="8"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
     </row>
     <row r="2" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">

--- a/static/Upload/5th sem.xlsx
+++ b/static/Upload/5th sem.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D075C6D-5B25-421F-95B0-BC9711DDE19C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64BD7626-0539-4348-93C8-CA9F54A0B8A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -12,7 +12,7 @@
     <sheet name="CNC 2021" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">CNC!$A$2:$N$112</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">CNC!$A$2:$N$91</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'CNC 2021'!$A$2:$O$112</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="231">
   <si>
     <t>S.N</t>
   </si>
@@ -447,12 +447,6 @@
     <t>Final (40)</t>
   </si>
   <si>
-    <t>Anurag</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
     <t>AADITYA BENIWAL</t>
   </si>
   <si>
@@ -462,9 +456,6 @@
     <t>AMAN SHARMA</t>
   </si>
   <si>
-    <t>AMANDEEP</t>
-  </si>
-  <si>
     <t>ANKUSH</t>
   </si>
   <si>
@@ -486,9 +477,6 @@
     <t>CHAHAT</t>
   </si>
   <si>
-    <t>CHANDAN KUMAR</t>
-  </si>
-  <si>
     <t>CHETAN SAINI</t>
   </si>
   <si>
@@ -507,9 +495,6 @@
     <t>HARISH</t>
   </si>
   <si>
-    <t>HARSHIT</t>
-  </si>
-  <si>
     <t>HEMANT</t>
   </si>
   <si>
@@ -522,9 +507,6 @@
     <t>KAPIL BHARDWAJ</t>
   </si>
   <si>
-    <t>KARTIK</t>
-  </si>
-  <si>
     <t>LAKSHAY</t>
   </si>
   <si>
@@ -549,9 +531,6 @@
     <t>MOHIT KUMAR SONI</t>
   </si>
   <si>
-    <t>NAVNEET</t>
-  </si>
-  <si>
     <t>NITIN</t>
   </si>
   <si>
@@ -579,9 +558,6 @@
     <t>Ankush</t>
   </si>
   <si>
-    <t>Atul</t>
-  </si>
-  <si>
     <t>Bjarang</t>
   </si>
   <si>
@@ -615,9 +591,6 @@
     <t>Ravinder</t>
   </si>
   <si>
-    <t>PRASHANT</t>
-  </si>
-  <si>
     <t>PRAVEEN</t>
   </si>
   <si>
@@ -639,9 +612,6 @@
     <t>RAVI</t>
   </si>
   <si>
-    <t>RAVINDER</t>
-  </si>
-  <si>
     <t>RITESH KUMAR</t>
   </si>
   <si>
@@ -687,15 +657,9 @@
     <t>SHUBHAM PRAJAPATI</t>
   </si>
   <si>
-    <t>SONU</t>
-  </si>
-  <si>
     <t>SOURAV SINGH</t>
   </si>
   <si>
-    <t>SUKHBACHAN</t>
-  </si>
-  <si>
     <t>SUMIT KUMAR</t>
   </si>
   <si>
@@ -708,12 +672,6 @@
     <t>TUSHANT</t>
   </si>
   <si>
-    <t>VAGISH</t>
-  </si>
-  <si>
-    <t>VIKASH KUMAR</t>
-  </si>
-  <si>
     <t>VIVEK KOHAR</t>
   </si>
   <si>
@@ -730,9 +688,6 @@
   </si>
   <si>
     <t>Rahul Jangra</t>
-  </si>
-  <si>
-    <t>Raman</t>
   </si>
   <si>
     <t>Ravi</t>
@@ -772,7 +727,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -797,41 +752,18 @@
     </font>
     <font>
       <sz val="11"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
   </fonts>
-  <fills count="7">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -841,30 +773,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FFFFFFCC"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC00000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC00000"/>
-        <bgColor rgb="FFFFFFCC"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
         <bgColor rgb="FFFFFFCC"/>
       </patternFill>
     </fill>
@@ -896,7 +804,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -919,76 +827,44 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="12" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="12" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="12" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="12" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="12" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="12" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="12" fontId="6" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="12" fontId="6" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -997,11 +873,14 @@
     <xf numFmtId="12" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="12" fontId="3" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="12" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1283,31 +1162,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N133"/>
+  <dimension ref="A1:Q110"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D74" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="O1" sqref="O1:O1048576"/>
+      <selection pane="bottomRight" activeCell="C85" sqref="C85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.28515625" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.42578125" style="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="7.5703125" style="7" bestFit="1" customWidth="1"/>
-    <col min="7" max="9" width="6.85546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12" style="6" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="12.7109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.7109375" style="7" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="7"/>
+    <col min="1" max="1" width="4.28515625" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.42578125" style="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="7.5703125" style="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="6.85546875" style="10" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12" style="25" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="12.7109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.7109375" style="10" customWidth="1"/>
+    <col min="14" max="15" width="9.140625" style="10"/>
+    <col min="16" max="16" width="19.140625" style="10" customWidth="1"/>
+    <col min="17" max="17" width="16.85546875" style="10" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
-        <v>242</v>
+        <v>227</v>
       </c>
       <c r="B1" s="9"/>
       <c r="C1" s="9"/>
@@ -1321,5311 +1203,2961 @@
       <c r="K1" s="9"/>
       <c r="L1" s="9"/>
     </row>
-    <row r="2" spans="1:14" s="2" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="11" t="s">
+    <row r="2" spans="1:17" s="2" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="14" t="s">
         <v>135</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="E2" s="15" t="s">
         <v>136</v>
       </c>
-      <c r="F2" s="15" t="s">
+      <c r="F2" s="16" t="s">
         <v>137</v>
       </c>
-      <c r="G2" s="13" t="s">
+      <c r="G2" s="14" t="s">
         <v>104</v>
       </c>
-      <c r="H2" s="13" t="s">
+      <c r="H2" s="14" t="s">
         <v>105</v>
       </c>
-      <c r="I2" s="13" t="s">
+      <c r="I2" s="14" t="s">
         <v>106</v>
       </c>
-      <c r="J2" s="13" t="s">
+      <c r="J2" s="14" t="s">
         <v>138</v>
       </c>
-      <c r="K2" s="13" t="s">
+      <c r="K2" s="14" t="s">
         <v>139</v>
       </c>
-      <c r="L2" s="13" t="s">
-        <v>244</v>
+      <c r="L2" s="14" t="s">
+        <v>229</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="N2" s="13" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="10">
+        <v>228</v>
+      </c>
+      <c r="N2" s="14" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A3" s="11">
         <v>1</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="17" t="s">
         <v>140</v>
       </c>
-      <c r="C3" s="17">
-        <v>210041700021</v>
-      </c>
-      <c r="D3" s="10" t="s">
+      <c r="C3" s="18">
+        <v>220041700001</v>
+      </c>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="19"/>
+      <c r="K3" s="19"/>
+      <c r="L3" s="20"/>
+      <c r="P3" s="18">
+        <v>220041700001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A4" s="11">
+        <v>2</v>
+      </c>
+      <c r="B4" s="17" t="s">
         <v>141</v>
       </c>
-      <c r="E3" s="10">
+      <c r="C4" s="18">
+        <v>220041700004</v>
+      </c>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="19"/>
+      <c r="K4" s="19"/>
+      <c r="L4" s="20"/>
+      <c r="P4" s="18">
+        <v>220041700004</v>
+      </c>
+      <c r="Q4" s="26">
+        <f>P4-220041700000</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A5" s="11">
+        <v>3</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="18">
+        <v>220041700006</v>
+      </c>
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="19"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="19"/>
+      <c r="K5" s="19"/>
+      <c r="L5" s="20"/>
+      <c r="P5" s="18">
+        <v>220041700006</v>
+      </c>
+      <c r="Q5" s="26">
+        <f t="shared" ref="Q5:Q68" si="0">P5-220041700000</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A6" s="11">
+        <v>4</v>
+      </c>
+      <c r="B6" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="18">
+        <v>220041700007</v>
+      </c>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="19"/>
+      <c r="K6" s="19"/>
+      <c r="L6" s="20"/>
+      <c r="P6" s="18">
+        <v>220041700007</v>
+      </c>
+      <c r="Q6" s="26">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A7" s="11">
+        <v>5</v>
+      </c>
+      <c r="B7" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="18">
+        <v>220041700008</v>
+      </c>
+      <c r="D7" s="19"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="19"/>
+      <c r="K7" s="19"/>
+      <c r="L7" s="20"/>
+      <c r="P7" s="18">
+        <v>220041700008</v>
+      </c>
+      <c r="Q7" s="26">
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="F3" s="10">
-        <v>5</v>
-      </c>
-      <c r="G3" s="10">
-        <v>0</v>
-      </c>
-      <c r="H3" s="10">
-        <f>P3</f>
-        <v>0</v>
-      </c>
-      <c r="I3" s="10">
-        <v>0</v>
-      </c>
-      <c r="J3" s="10"/>
-      <c r="K3" s="10">
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A8" s="11">
+        <v>6</v>
+      </c>
+      <c r="B8" s="17" t="s">
+        <v>142</v>
+      </c>
+      <c r="C8" s="18">
+        <v>220041700009</v>
+      </c>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="19"/>
+      <c r="K8" s="19"/>
+      <c r="L8" s="20"/>
+      <c r="P8" s="18">
+        <v>220041700009</v>
+      </c>
+      <c r="Q8" s="26">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A9" s="11">
+        <v>7</v>
+      </c>
+      <c r="B9" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="18">
+        <v>220041700011</v>
+      </c>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="19"/>
+      <c r="K9" s="19"/>
+      <c r="L9" s="20"/>
+      <c r="P9" s="18">
+        <v>220041700011</v>
+      </c>
+      <c r="Q9" s="26">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A10" s="11">
         <v>8</v>
       </c>
-      <c r="L3" s="10"/>
-      <c r="M3" s="7" t="s">
+      <c r="B10" s="17" t="s">
+        <v>143</v>
+      </c>
+      <c r="C10" s="18">
+        <v>220041700013</v>
+      </c>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="19"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="19"/>
+      <c r="K10" s="19"/>
+      <c r="L10" s="20"/>
+      <c r="P10" s="18">
+        <v>220041700013</v>
+      </c>
+      <c r="Q10" s="26">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A11" s="11">
+        <v>9</v>
+      </c>
+      <c r="B11" s="17" t="s">
+        <v>144</v>
+      </c>
+      <c r="C11" s="18">
+        <v>220041700014</v>
+      </c>
+      <c r="D11" s="19"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="19"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="19"/>
+      <c r="K11" s="19"/>
+      <c r="L11" s="20"/>
+      <c r="P11" s="18">
+        <v>220041700014</v>
+      </c>
+      <c r="Q11" s="26">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A12" s="11">
+        <v>10</v>
+      </c>
+      <c r="B12" s="17" t="s">
+        <v>145</v>
+      </c>
+      <c r="C12" s="18">
+        <v>220041700016</v>
+      </c>
+      <c r="D12" s="19"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="19"/>
+      <c r="K12" s="19"/>
+      <c r="L12" s="20"/>
+      <c r="P12" s="18">
+        <v>220041700016</v>
+      </c>
+      <c r="Q12" s="26">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A13" s="11">
+        <v>11</v>
+      </c>
+      <c r="B13" s="17" t="s">
+        <v>146</v>
+      </c>
+      <c r="C13" s="18">
+        <v>220041700017</v>
+      </c>
+      <c r="D13" s="19"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="19"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="19"/>
+      <c r="K13" s="19"/>
+      <c r="L13" s="20"/>
+      <c r="P13" s="18">
+        <v>220041700017</v>
+      </c>
+      <c r="Q13" s="26">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A14" s="11">
+        <v>12</v>
+      </c>
+      <c r="B14" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" s="18">
+        <v>220041700020</v>
+      </c>
+      <c r="D14" s="19"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="19"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="19"/>
+      <c r="K14" s="19"/>
+      <c r="L14" s="20"/>
+      <c r="P14" s="18">
+        <v>220041700020</v>
+      </c>
+      <c r="Q14" s="26">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A15" s="11">
+        <v>13</v>
+      </c>
+      <c r="B15" s="17" t="s">
+        <v>147</v>
+      </c>
+      <c r="C15" s="18">
+        <v>220041700022</v>
+      </c>
+      <c r="D15" s="19"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="19"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="11"/>
+      <c r="J15" s="19"/>
+      <c r="K15" s="19"/>
+      <c r="L15" s="20"/>
+      <c r="P15" s="18">
+        <v>220041700022</v>
+      </c>
+      <c r="Q15" s="26">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A16" s="11">
+        <v>14</v>
+      </c>
+      <c r="B16" s="17" t="s">
+        <v>148</v>
+      </c>
+      <c r="C16" s="18">
+        <v>220041700023</v>
+      </c>
+      <c r="D16" s="19"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="19"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="11"/>
+      <c r="J16" s="19"/>
+      <c r="K16" s="19"/>
+      <c r="L16" s="20"/>
+      <c r="P16" s="18">
+        <v>220041700023</v>
+      </c>
+      <c r="Q16" s="26">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A17" s="11">
+        <v>15</v>
+      </c>
+      <c r="B17" s="17" t="s">
+        <v>149</v>
+      </c>
+      <c r="C17" s="18">
+        <v>220041700024</v>
+      </c>
+      <c r="D17" s="19"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="19"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="11"/>
+      <c r="J17" s="19"/>
+      <c r="K17" s="19"/>
+      <c r="L17" s="20"/>
+      <c r="P17" s="18">
+        <v>220041700024</v>
+      </c>
+      <c r="Q17" s="26">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A18" s="11">
+        <v>16</v>
+      </c>
+      <c r="B18" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" s="18">
+        <v>220041700025</v>
+      </c>
+      <c r="D18" s="19"/>
+      <c r="E18" s="19"/>
+      <c r="F18" s="19"/>
+      <c r="G18" s="19"/>
+      <c r="H18" s="11"/>
+      <c r="I18" s="11"/>
+      <c r="J18" s="19"/>
+      <c r="K18" s="19"/>
+      <c r="L18" s="20"/>
+      <c r="P18" s="18">
+        <v>220041700025</v>
+      </c>
+      <c r="Q18" s="26">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A19" s="11">
+        <v>17</v>
+      </c>
+      <c r="B19" s="17" t="s">
+        <v>150</v>
+      </c>
+      <c r="C19" s="18">
+        <v>220041700027</v>
+      </c>
+      <c r="D19" s="19"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="19"/>
+      <c r="G19" s="19"/>
+      <c r="H19" s="11"/>
+      <c r="I19" s="11"/>
+      <c r="J19" s="19"/>
+      <c r="K19" s="19"/>
+      <c r="L19" s="20"/>
+      <c r="P19" s="18">
+        <v>220041700027</v>
+      </c>
+      <c r="Q19" s="26">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A20" s="11">
+        <v>18</v>
+      </c>
+      <c r="B20" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" s="18">
+        <v>220041700028</v>
+      </c>
+      <c r="D20" s="19"/>
+      <c r="E20" s="19"/>
+      <c r="F20" s="19"/>
+      <c r="G20" s="19"/>
+      <c r="H20" s="11"/>
+      <c r="I20" s="11"/>
+      <c r="J20" s="19"/>
+      <c r="K20" s="19"/>
+      <c r="L20" s="20"/>
+      <c r="P20" s="18">
+        <v>220041700028</v>
+      </c>
+      <c r="Q20" s="26">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A21" s="11">
+        <v>19</v>
+      </c>
+      <c r="B21" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" s="18">
+        <v>220041700029</v>
+      </c>
+      <c r="D21" s="19"/>
+      <c r="E21" s="19"/>
+      <c r="F21" s="19"/>
+      <c r="G21" s="19"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="11"/>
+      <c r="J21" s="19"/>
+      <c r="K21" s="19"/>
+      <c r="L21" s="20"/>
+      <c r="P21" s="18">
+        <v>220041700029</v>
+      </c>
+      <c r="Q21" s="26">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A22" s="11">
+        <v>20</v>
+      </c>
+      <c r="B22" s="17" t="s">
+        <v>151</v>
+      </c>
+      <c r="C22" s="18">
+        <v>220041700031</v>
+      </c>
+      <c r="D22" s="19"/>
+      <c r="E22" s="19"/>
+      <c r="F22" s="19"/>
+      <c r="G22" s="19"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="11"/>
+      <c r="J22" s="19"/>
+      <c r="K22" s="19"/>
+      <c r="L22" s="20"/>
+      <c r="P22" s="18">
+        <v>220041700031</v>
+      </c>
+      <c r="Q22" s="26">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A23" s="11">
+        <v>21</v>
+      </c>
+      <c r="B23" s="17" t="s">
+        <v>152</v>
+      </c>
+      <c r="C23" s="18">
+        <v>220041700033</v>
+      </c>
+      <c r="D23" s="19"/>
+      <c r="E23" s="19"/>
+      <c r="F23" s="19"/>
+      <c r="G23" s="19"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="11"/>
+      <c r="J23" s="19"/>
+      <c r="K23" s="19"/>
+      <c r="L23" s="20"/>
+      <c r="P23" s="18">
+        <v>220041700033</v>
+      </c>
+      <c r="Q23" s="26">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A24" s="11">
+        <v>22</v>
+      </c>
+      <c r="B24" s="17" t="s">
+        <v>153</v>
+      </c>
+      <c r="C24" s="18">
+        <v>220041700034</v>
+      </c>
+      <c r="D24" s="19"/>
+      <c r="E24" s="19"/>
+      <c r="F24" s="19"/>
+      <c r="G24" s="19"/>
+      <c r="H24" s="11"/>
+      <c r="I24" s="11"/>
+      <c r="J24" s="19"/>
+      <c r="K24" s="19"/>
+      <c r="L24" s="20"/>
+      <c r="P24" s="18">
+        <v>220041700034</v>
+      </c>
+      <c r="Q24" s="26">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A25" s="11">
+        <v>23</v>
+      </c>
+      <c r="B25" s="17" t="s">
+        <v>154</v>
+      </c>
+      <c r="C25" s="18">
+        <v>220041700035</v>
+      </c>
+      <c r="D25" s="19"/>
+      <c r="E25" s="19"/>
+      <c r="F25" s="19"/>
+      <c r="G25" s="19"/>
+      <c r="H25" s="11"/>
+      <c r="I25" s="11"/>
+      <c r="J25" s="19"/>
+      <c r="K25" s="19"/>
+      <c r="L25" s="20"/>
+      <c r="P25" s="18">
+        <v>220041700035</v>
+      </c>
+      <c r="Q25" s="26">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A26" s="11">
+        <v>24</v>
+      </c>
+      <c r="B26" s="17" t="s">
+        <v>155</v>
+      </c>
+      <c r="C26" s="18">
+        <v>220041700036</v>
+      </c>
+      <c r="D26" s="19"/>
+      <c r="E26" s="19"/>
+      <c r="F26" s="19"/>
+      <c r="G26" s="19"/>
+      <c r="H26" s="11"/>
+      <c r="I26" s="11"/>
+      <c r="J26" s="19"/>
+      <c r="K26" s="19"/>
+      <c r="L26" s="20"/>
+      <c r="P26" s="18">
+        <v>220041700036</v>
+      </c>
+      <c r="Q26" s="26">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A27" s="11">
+        <v>25</v>
+      </c>
+      <c r="B27" s="17" t="s">
+        <v>156</v>
+      </c>
+      <c r="C27" s="18">
+        <v>220041700039</v>
+      </c>
+      <c r="D27" s="19"/>
+      <c r="E27" s="19"/>
+      <c r="F27" s="19"/>
+      <c r="G27" s="21"/>
+      <c r="H27" s="11"/>
+      <c r="I27" s="11"/>
+      <c r="J27" s="19"/>
+      <c r="K27" s="19"/>
+      <c r="L27" s="20"/>
+      <c r="P27" s="18">
+        <v>220041700039</v>
+      </c>
+      <c r="Q27" s="26">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A28" s="11">
+        <v>26</v>
+      </c>
+      <c r="B28" s="17" t="s">
+        <v>157</v>
+      </c>
+      <c r="C28" s="18">
+        <v>220041700040</v>
+      </c>
+      <c r="D28" s="19"/>
+      <c r="E28" s="19"/>
+      <c r="F28" s="19"/>
+      <c r="G28" s="21"/>
+      <c r="H28" s="11"/>
+      <c r="I28" s="11"/>
+      <c r="J28" s="19"/>
+      <c r="K28" s="19"/>
+      <c r="L28" s="20"/>
+      <c r="P28" s="18">
+        <v>220041700040</v>
+      </c>
+      <c r="Q28" s="26">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A29" s="11">
+        <v>27</v>
+      </c>
+      <c r="B29" s="17" t="s">
+        <v>158</v>
+      </c>
+      <c r="C29" s="18">
+        <v>220041700042</v>
+      </c>
+      <c r="D29" s="19"/>
+      <c r="E29" s="19"/>
+      <c r="F29" s="19"/>
+      <c r="G29" s="21"/>
+      <c r="H29" s="11"/>
+      <c r="I29" s="11"/>
+      <c r="J29" s="19"/>
+      <c r="K29" s="19"/>
+      <c r="L29" s="20"/>
+      <c r="P29" s="18">
+        <v>220041700042</v>
+      </c>
+      <c r="Q29" s="26">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A30" s="11">
+        <v>28</v>
+      </c>
+      <c r="B30" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="C30" s="18">
+        <v>220041700043</v>
+      </c>
+      <c r="D30" s="19"/>
+      <c r="E30" s="19"/>
+      <c r="F30" s="19"/>
+      <c r="G30" s="21"/>
+      <c r="H30" s="11"/>
+      <c r="I30" s="11"/>
+      <c r="J30" s="19"/>
+      <c r="K30" s="19"/>
+      <c r="L30" s="20"/>
+      <c r="P30" s="18">
+        <v>220041700043</v>
+      </c>
+      <c r="Q30" s="26">
+        <f t="shared" si="0"/>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A31" s="11">
+        <v>29</v>
+      </c>
+      <c r="B31" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="C31" s="18">
+        <v>220041700044</v>
+      </c>
+      <c r="D31" s="19"/>
+      <c r="E31" s="19"/>
+      <c r="F31" s="19"/>
+      <c r="G31" s="19"/>
+      <c r="H31" s="11"/>
+      <c r="I31" s="11"/>
+      <c r="J31" s="19"/>
+      <c r="K31" s="19"/>
+      <c r="L31" s="20"/>
+      <c r="P31" s="18">
+        <v>220041700044</v>
+      </c>
+      <c r="Q31" s="26">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A32" s="11">
+        <v>30</v>
+      </c>
+      <c r="B32" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="C32" s="18">
+        <v>220041700045</v>
+      </c>
+      <c r="D32" s="19"/>
+      <c r="E32" s="19"/>
+      <c r="F32" s="19"/>
+      <c r="G32" s="19"/>
+      <c r="H32" s="11"/>
+      <c r="I32" s="11"/>
+      <c r="J32" s="19"/>
+      <c r="K32" s="19"/>
+      <c r="L32" s="20"/>
+      <c r="P32" s="18">
+        <v>220041700045</v>
+      </c>
+      <c r="Q32" s="26">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A33" s="11">
+        <v>31</v>
+      </c>
+      <c r="B33" s="17" t="s">
+        <v>159</v>
+      </c>
+      <c r="C33" s="18">
+        <v>220041700046</v>
+      </c>
+      <c r="D33" s="19"/>
+      <c r="E33" s="19"/>
+      <c r="F33" s="19"/>
+      <c r="G33" s="19"/>
+      <c r="H33" s="11"/>
+      <c r="I33" s="11"/>
+      <c r="J33" s="19"/>
+      <c r="K33" s="19"/>
+      <c r="L33" s="20"/>
+      <c r="P33" s="18">
+        <v>220041700046</v>
+      </c>
+      <c r="Q33" s="26">
+        <f t="shared" si="0"/>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A34" s="11">
+        <v>32</v>
+      </c>
+      <c r="B34" s="17" t="s">
+        <v>160</v>
+      </c>
+      <c r="C34" s="18">
+        <v>220041700049</v>
+      </c>
+      <c r="D34" s="19"/>
+      <c r="E34" s="19"/>
+      <c r="F34" s="19"/>
+      <c r="G34" s="21"/>
+      <c r="H34" s="11"/>
+      <c r="I34" s="11"/>
+      <c r="J34" s="19"/>
+      <c r="K34" s="19"/>
+      <c r="L34" s="20"/>
+      <c r="P34" s="18">
+        <v>220041700049</v>
+      </c>
+      <c r="Q34" s="26">
+        <f t="shared" si="0"/>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A35" s="11">
+        <v>33</v>
+      </c>
+      <c r="B35" s="17" t="s">
+        <v>161</v>
+      </c>
+      <c r="C35" s="18">
+        <v>220041700051</v>
+      </c>
+      <c r="D35" s="19"/>
+      <c r="E35" s="19"/>
+      <c r="F35" s="19"/>
+      <c r="G35" s="19"/>
+      <c r="H35" s="11"/>
+      <c r="I35" s="11"/>
+      <c r="J35" s="19"/>
+      <c r="K35" s="19"/>
+      <c r="L35" s="20"/>
+      <c r="P35" s="18">
+        <v>220041700051</v>
+      </c>
+      <c r="Q35" s="26">
+        <f t="shared" si="0"/>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A36" s="11">
+        <v>34</v>
+      </c>
+      <c r="B36" s="17" t="s">
+        <v>162</v>
+      </c>
+      <c r="C36" s="18">
+        <v>220041700052</v>
+      </c>
+      <c r="D36" s="19"/>
+      <c r="E36" s="19"/>
+      <c r="F36" s="19"/>
+      <c r="G36" s="19"/>
+      <c r="H36" s="11"/>
+      <c r="I36" s="11"/>
+      <c r="J36" s="19"/>
+      <c r="K36" s="19"/>
+      <c r="L36" s="20"/>
+      <c r="P36" s="18">
+        <v>220041700052</v>
+      </c>
+      <c r="Q36" s="26">
+        <f t="shared" si="0"/>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A37" s="11">
+        <v>35</v>
+      </c>
+      <c r="B37" s="17" t="s">
+        <v>163</v>
+      </c>
+      <c r="C37" s="18">
+        <v>220041700054</v>
+      </c>
+      <c r="D37" s="19"/>
+      <c r="E37" s="19"/>
+      <c r="F37" s="19"/>
+      <c r="G37" s="19"/>
+      <c r="H37" s="11"/>
+      <c r="I37" s="11"/>
+      <c r="J37" s="19"/>
+      <c r="K37" s="19"/>
+      <c r="L37" s="20"/>
+      <c r="P37" s="18">
+        <v>220041700054</v>
+      </c>
+      <c r="Q37" s="26">
+        <f t="shared" si="0"/>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A38" s="11">
+        <v>36</v>
+      </c>
+      <c r="B38" s="17" t="s">
+        <v>164</v>
+      </c>
+      <c r="C38" s="18">
+        <v>220041700056</v>
+      </c>
+      <c r="D38" s="19"/>
+      <c r="E38" s="19"/>
+      <c r="F38" s="19"/>
+      <c r="G38" s="19"/>
+      <c r="H38" s="11"/>
+      <c r="I38" s="11"/>
+      <c r="J38" s="19"/>
+      <c r="K38" s="19"/>
+      <c r="L38" s="20"/>
+      <c r="P38" s="18">
+        <v>220041700056</v>
+      </c>
+      <c r="Q38" s="26">
+        <f t="shared" si="0"/>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A39" s="11">
+        <v>37</v>
+      </c>
+      <c r="B39" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="C39" s="18">
+        <v>220041700057</v>
+      </c>
+      <c r="D39" s="19"/>
+      <c r="E39" s="19"/>
+      <c r="F39" s="19"/>
+      <c r="G39" s="19"/>
+      <c r="H39" s="11"/>
+      <c r="I39" s="11"/>
+      <c r="J39" s="19"/>
+      <c r="K39" s="19"/>
+      <c r="L39" s="20"/>
+      <c r="P39" s="18">
+        <v>220041700057</v>
+      </c>
+      <c r="Q39" s="26">
+        <f t="shared" si="0"/>
+        <v>57</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A40" s="11">
+        <v>38</v>
+      </c>
+      <c r="B40" s="17" t="s">
+        <v>166</v>
+      </c>
+      <c r="C40" s="18">
+        <v>220041700060</v>
+      </c>
+      <c r="D40" s="19"/>
+      <c r="E40" s="19"/>
+      <c r="F40" s="19"/>
+      <c r="G40" s="19"/>
+      <c r="H40" s="11"/>
+      <c r="I40" s="11"/>
+      <c r="J40" s="19"/>
+      <c r="K40" s="19"/>
+      <c r="L40" s="20"/>
+      <c r="P40" s="18">
+        <v>220041700060</v>
+      </c>
+      <c r="Q40" s="26">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A41" s="11">
+        <v>39</v>
+      </c>
+      <c r="B41" s="17" t="s">
+        <v>167</v>
+      </c>
+      <c r="C41" s="18">
+        <v>220041700061</v>
+      </c>
+      <c r="D41" s="19"/>
+      <c r="E41" s="19"/>
+      <c r="F41" s="19"/>
+      <c r="G41" s="21"/>
+      <c r="H41" s="11"/>
+      <c r="I41" s="11"/>
+      <c r="J41" s="19"/>
+      <c r="K41" s="19"/>
+      <c r="L41" s="20"/>
+      <c r="P41" s="18">
+        <v>220041700061</v>
+      </c>
+      <c r="Q41" s="26">
+        <f t="shared" si="0"/>
+        <v>61</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A42" s="11">
+        <v>40</v>
+      </c>
+      <c r="B42" s="17" t="s">
+        <v>168</v>
+      </c>
+      <c r="C42" s="18">
+        <v>220041700064</v>
+      </c>
+      <c r="D42" s="19"/>
+      <c r="E42" s="19"/>
+      <c r="F42" s="19"/>
+      <c r="G42" s="21"/>
+      <c r="H42" s="11"/>
+      <c r="I42" s="11"/>
+      <c r="J42" s="19"/>
+      <c r="K42" s="19"/>
+      <c r="L42" s="20"/>
+      <c r="P42" s="18">
+        <v>220041700064</v>
+      </c>
+      <c r="Q42" s="26">
+        <f t="shared" si="0"/>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A43" s="11">
+        <v>41</v>
+      </c>
+      <c r="B43" s="17" t="s">
+        <v>169</v>
+      </c>
+      <c r="C43" s="18">
+        <v>220041700065</v>
+      </c>
+      <c r="D43" s="19"/>
+      <c r="E43" s="19"/>
+      <c r="F43" s="19"/>
+      <c r="G43" s="19"/>
+      <c r="H43" s="11"/>
+      <c r="I43" s="11"/>
+      <c r="J43" s="19"/>
+      <c r="K43" s="19"/>
+      <c r="L43" s="20"/>
+      <c r="P43" s="18">
+        <v>220041700065</v>
+      </c>
+      <c r="Q43" s="26">
+        <f t="shared" si="0"/>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A44" s="11">
+        <v>42</v>
+      </c>
+      <c r="B44" s="17" t="s">
+        <v>170</v>
+      </c>
+      <c r="C44" s="18">
+        <v>220041700066</v>
+      </c>
+      <c r="D44" s="19"/>
+      <c r="E44" s="19"/>
+      <c r="F44" s="19"/>
+      <c r="G44" s="19"/>
+      <c r="H44" s="11"/>
+      <c r="I44" s="11"/>
+      <c r="J44" s="19"/>
+      <c r="K44" s="19"/>
+      <c r="L44" s="20"/>
+      <c r="P44" s="18">
+        <v>220041700066</v>
+      </c>
+      <c r="Q44" s="26">
+        <f t="shared" si="0"/>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A45" s="11">
+        <v>43</v>
+      </c>
+      <c r="B45" s="17" t="s">
+        <v>171</v>
+      </c>
+      <c r="C45" s="18">
+        <v>220041700067</v>
+      </c>
+      <c r="D45" s="19"/>
+      <c r="E45" s="19"/>
+      <c r="F45" s="19"/>
+      <c r="G45" s="19"/>
+      <c r="H45" s="11"/>
+      <c r="I45" s="11"/>
+      <c r="J45" s="19"/>
+      <c r="K45" s="19"/>
+      <c r="L45" s="20"/>
+      <c r="P45" s="18">
+        <v>220041700067</v>
+      </c>
+      <c r="Q45" s="26">
+        <f t="shared" si="0"/>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A46" s="11">
+        <v>44</v>
+      </c>
+      <c r="B46" s="22" t="s">
+        <v>172</v>
+      </c>
+      <c r="C46" s="23">
+        <v>220041723001</v>
+      </c>
+      <c r="D46" s="19"/>
+      <c r="E46" s="19"/>
+      <c r="F46" s="19"/>
+      <c r="G46" s="19"/>
+      <c r="H46" s="11"/>
+      <c r="I46" s="11"/>
+      <c r="J46" s="19"/>
+      <c r="K46" s="19"/>
+      <c r="L46" s="20"/>
+      <c r="P46" s="23">
+        <v>220041723001</v>
+      </c>
+      <c r="Q46" s="26">
+        <f>P46</f>
+        <v>220041723001</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A47" s="11">
+        <v>45</v>
+      </c>
+      <c r="B47" s="22" t="s">
+        <v>173</v>
+      </c>
+      <c r="C47" s="23">
+        <v>220041723002</v>
+      </c>
+      <c r="D47" s="19"/>
+      <c r="E47" s="19"/>
+      <c r="F47" s="19"/>
+      <c r="G47" s="19"/>
+      <c r="H47" s="11"/>
+      <c r="I47" s="11"/>
+      <c r="J47" s="19"/>
+      <c r="K47" s="19"/>
+      <c r="L47" s="20"/>
+      <c r="P47" s="23">
+        <v>220041723002</v>
+      </c>
+      <c r="Q47" s="26">
+        <f>P47-220041723000</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A48" s="11">
+        <v>46</v>
+      </c>
+      <c r="B48" s="22" t="s">
+        <v>174</v>
+      </c>
+      <c r="C48" s="23">
+        <v>220041723003</v>
+      </c>
+      <c r="D48" s="19"/>
+      <c r="E48" s="19"/>
+      <c r="F48" s="19"/>
+      <c r="G48" s="19"/>
+      <c r="H48" s="11"/>
+      <c r="I48" s="11"/>
+      <c r="J48" s="19"/>
+      <c r="K48" s="19"/>
+      <c r="L48" s="20"/>
+      <c r="P48" s="23">
+        <v>220041723003</v>
+      </c>
+      <c r="Q48" s="26">
+        <f t="shared" ref="Q48:Q59" si="1">P48-220041723000</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A49" s="11">
+        <v>47</v>
+      </c>
+      <c r="B49" s="22" t="s">
+        <v>175</v>
+      </c>
+      <c r="C49" s="23">
+        <v>220041723004</v>
+      </c>
+      <c r="D49" s="19"/>
+      <c r="E49" s="19"/>
+      <c r="F49" s="19"/>
+      <c r="G49" s="19"/>
+      <c r="H49" s="11"/>
+      <c r="I49" s="11"/>
+      <c r="J49" s="19"/>
+      <c r="K49" s="19"/>
+      <c r="L49" s="20"/>
+      <c r="P49" s="23">
+        <v>220041723004</v>
+      </c>
+      <c r="Q49" s="26">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A50" s="11">
+        <v>48</v>
+      </c>
+      <c r="B50" s="22" t="s">
+        <v>176</v>
+      </c>
+      <c r="C50" s="23">
+        <v>220041723005</v>
+      </c>
+      <c r="D50" s="19"/>
+      <c r="E50" s="19"/>
+      <c r="F50" s="19"/>
+      <c r="G50" s="19"/>
+      <c r="H50" s="11"/>
+      <c r="I50" s="11"/>
+      <c r="J50" s="19"/>
+      <c r="K50" s="19"/>
+      <c r="L50" s="20"/>
+      <c r="P50" s="23">
+        <v>220041723005</v>
+      </c>
+      <c r="Q50" s="26">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A51" s="11">
+        <v>49</v>
+      </c>
+      <c r="B51" s="22" t="s">
+        <v>177</v>
+      </c>
+      <c r="C51" s="23">
+        <v>220041723007</v>
+      </c>
+      <c r="D51" s="19"/>
+      <c r="E51" s="19"/>
+      <c r="F51" s="19"/>
+      <c r="G51" s="19"/>
+      <c r="H51" s="11"/>
+      <c r="I51" s="11"/>
+      <c r="J51" s="19"/>
+      <c r="K51" s="19"/>
+      <c r="L51" s="20"/>
+      <c r="P51" s="23">
+        <v>220041723007</v>
+      </c>
+      <c r="Q51" s="26">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A52" s="11">
+        <v>50</v>
+      </c>
+      <c r="B52" s="22" t="s">
+        <v>178</v>
+      </c>
+      <c r="C52" s="23">
+        <v>220041723008</v>
+      </c>
+      <c r="D52" s="19"/>
+      <c r="E52" s="19"/>
+      <c r="F52" s="19"/>
+      <c r="G52" s="19"/>
+      <c r="H52" s="11"/>
+      <c r="I52" s="11"/>
+      <c r="J52" s="19"/>
+      <c r="K52" s="19"/>
+      <c r="L52" s="20"/>
+      <c r="P52" s="23">
+        <v>220041723008</v>
+      </c>
+      <c r="Q52" s="26">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A53" s="11">
+        <v>51</v>
+      </c>
+      <c r="B53" s="22" t="s">
+        <v>179</v>
+      </c>
+      <c r="C53" s="23">
+        <v>220041723009</v>
+      </c>
+      <c r="D53" s="19"/>
+      <c r="E53" s="19"/>
+      <c r="F53" s="19"/>
+      <c r="G53" s="19"/>
+      <c r="H53" s="11"/>
+      <c r="I53" s="11"/>
+      <c r="J53" s="19"/>
+      <c r="K53" s="19"/>
+      <c r="L53" s="20"/>
+      <c r="P53" s="23">
+        <v>220041723009</v>
+      </c>
+      <c r="Q53" s="26">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A54" s="11">
+        <v>52</v>
+      </c>
+      <c r="B54" s="22" t="s">
+        <v>180</v>
+      </c>
+      <c r="C54" s="23">
+        <v>220041723011</v>
+      </c>
+      <c r="D54" s="19"/>
+      <c r="E54" s="19"/>
+      <c r="F54" s="19"/>
+      <c r="G54" s="19"/>
+      <c r="H54" s="11"/>
+      <c r="I54" s="11"/>
+      <c r="J54" s="19"/>
+      <c r="K54" s="19"/>
+      <c r="L54" s="20"/>
+      <c r="P54" s="23">
+        <v>220041723011</v>
+      </c>
+      <c r="Q54" s="26">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A55" s="11">
+        <v>53</v>
+      </c>
+      <c r="B55" s="22" t="s">
+        <v>181</v>
+      </c>
+      <c r="C55" s="23">
+        <v>220041723012</v>
+      </c>
+      <c r="D55" s="19"/>
+      <c r="E55" s="19"/>
+      <c r="F55" s="19"/>
+      <c r="G55" s="21"/>
+      <c r="H55" s="11"/>
+      <c r="I55" s="11"/>
+      <c r="J55" s="19"/>
+      <c r="K55" s="19"/>
+      <c r="L55" s="20"/>
+      <c r="P55" s="23">
+        <v>220041723012</v>
+      </c>
+      <c r="Q55" s="26">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A56" s="11">
+        <v>54</v>
+      </c>
+      <c r="B56" s="22" t="s">
+        <v>182</v>
+      </c>
+      <c r="C56" s="23">
+        <v>220041723013</v>
+      </c>
+      <c r="D56" s="19"/>
+      <c r="E56" s="19"/>
+      <c r="F56" s="19"/>
+      <c r="G56" s="19"/>
+      <c r="H56" s="11"/>
+      <c r="I56" s="11"/>
+      <c r="J56" s="19"/>
+      <c r="K56" s="19"/>
+      <c r="L56" s="20"/>
+      <c r="P56" s="23">
+        <v>220041723013</v>
+      </c>
+      <c r="Q56" s="26">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A57" s="11">
+        <v>55</v>
+      </c>
+      <c r="B57" s="22" t="s">
+        <v>183</v>
+      </c>
+      <c r="C57" s="23">
+        <v>220041723014</v>
+      </c>
+      <c r="D57" s="19"/>
+      <c r="E57" s="19"/>
+      <c r="F57" s="19"/>
+      <c r="G57" s="19"/>
+      <c r="H57" s="11"/>
+      <c r="I57" s="11"/>
+      <c r="J57" s="19"/>
+      <c r="K57" s="19"/>
+      <c r="L57" s="20"/>
+      <c r="P57" s="23">
+        <v>220041723014</v>
+      </c>
+      <c r="Q57" s="26">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A58" s="11">
+        <v>56</v>
+      </c>
+      <c r="B58" s="22" t="s">
+        <v>184</v>
+      </c>
+      <c r="C58" s="23">
+        <v>220041723015</v>
+      </c>
+      <c r="D58" s="19"/>
+      <c r="E58" s="19"/>
+      <c r="F58" s="19"/>
+      <c r="G58" s="19"/>
+      <c r="H58" s="11"/>
+      <c r="I58" s="11"/>
+      <c r="J58" s="19"/>
+      <c r="K58" s="19"/>
+      <c r="L58" s="20"/>
+      <c r="P58" s="23">
+        <v>220041723015</v>
+      </c>
+      <c r="Q58" s="26">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A59" s="11">
+        <v>57</v>
+      </c>
+      <c r="B59" s="22" t="s">
+        <v>185</v>
+      </c>
+      <c r="C59" s="23">
+        <v>220041723016</v>
+      </c>
+      <c r="D59" s="19"/>
+      <c r="E59" s="19"/>
+      <c r="F59" s="19"/>
+      <c r="G59" s="19"/>
+      <c r="H59" s="11"/>
+      <c r="I59" s="11"/>
+      <c r="J59" s="19"/>
+      <c r="K59" s="19"/>
+      <c r="L59" s="20"/>
+      <c r="P59" s="23">
+        <v>220041723016</v>
+      </c>
+      <c r="Q59" s="26">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A60" s="11">
+        <v>58</v>
+      </c>
+      <c r="B60" s="22" t="s">
+        <v>186</v>
+      </c>
+      <c r="C60" s="23">
+        <v>210041700070</v>
+      </c>
+      <c r="D60" s="19"/>
+      <c r="E60" s="19"/>
+      <c r="F60" s="19"/>
+      <c r="G60" s="19"/>
+      <c r="H60" s="11"/>
+      <c r="I60" s="11"/>
+      <c r="J60" s="19"/>
+      <c r="K60" s="19"/>
+      <c r="L60" s="20"/>
+      <c r="P60" s="23">
+        <v>210041700070</v>
+      </c>
+      <c r="Q60" s="26">
+        <f>P60</f>
+        <v>210041700070</v>
+      </c>
+    </row>
+    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A61" s="11">
+        <v>59</v>
+      </c>
+      <c r="B61" s="22" t="s">
+        <v>187</v>
+      </c>
+      <c r="C61" s="23">
+        <v>210041700089</v>
+      </c>
+      <c r="D61" s="19"/>
+      <c r="E61" s="19"/>
+      <c r="F61" s="19"/>
+      <c r="G61" s="19"/>
+      <c r="H61" s="11"/>
+      <c r="I61" s="11"/>
+      <c r="J61" s="19"/>
+      <c r="K61" s="19"/>
+      <c r="L61" s="20"/>
+      <c r="P61" s="23">
+        <v>210041700089</v>
+      </c>
+      <c r="Q61" s="26">
+        <f>P61</f>
+        <v>210041700089</v>
+      </c>
+    </row>
+    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A62" s="11">
+        <v>60</v>
+      </c>
+      <c r="B62" s="17" t="s">
+        <v>188</v>
+      </c>
+      <c r="C62" s="18">
+        <v>220041700070</v>
+      </c>
+      <c r="D62" s="19"/>
+      <c r="E62" s="19"/>
+      <c r="F62" s="19"/>
+      <c r="G62" s="19"/>
+      <c r="H62" s="11"/>
+      <c r="I62" s="11"/>
+      <c r="J62" s="19"/>
+      <c r="K62" s="19"/>
+      <c r="L62" s="20"/>
+      <c r="P62" s="18">
+        <v>220041700070</v>
+      </c>
+      <c r="Q62" s="26">
+        <f t="shared" si="0"/>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A63" s="11">
+        <v>61</v>
+      </c>
+      <c r="B63" s="17" t="s">
+        <v>189</v>
+      </c>
+      <c r="C63" s="18">
+        <v>220041700071</v>
+      </c>
+      <c r="D63" s="19"/>
+      <c r="E63" s="19"/>
+      <c r="F63" s="19"/>
+      <c r="G63" s="19"/>
+      <c r="H63" s="11"/>
+      <c r="I63" s="11"/>
+      <c r="J63" s="19"/>
+      <c r="K63" s="19"/>
+      <c r="L63" s="20"/>
+      <c r="P63" s="18">
+        <v>220041700071</v>
+      </c>
+      <c r="Q63" s="26">
+        <f t="shared" si="0"/>
+        <v>71</v>
+      </c>
+    </row>
+    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A64" s="11">
+        <v>62</v>
+      </c>
+      <c r="B64" s="17" t="s">
+        <v>190</v>
+      </c>
+      <c r="C64" s="18">
+        <v>220041700072</v>
+      </c>
+      <c r="D64" s="19"/>
+      <c r="E64" s="19"/>
+      <c r="F64" s="19"/>
+      <c r="G64" s="19"/>
+      <c r="H64" s="11"/>
+      <c r="I64" s="11"/>
+      <c r="J64" s="19"/>
+      <c r="K64" s="19"/>
+      <c r="L64" s="20"/>
+      <c r="P64" s="18">
+        <v>220041700072</v>
+      </c>
+      <c r="Q64" s="26">
+        <f t="shared" si="0"/>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="65" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A65" s="11">
+        <v>63</v>
+      </c>
+      <c r="B65" s="17" t="s">
+        <v>191</v>
+      </c>
+      <c r="C65" s="18">
+        <v>220041700077</v>
+      </c>
+      <c r="D65" s="19"/>
+      <c r="E65" s="19"/>
+      <c r="F65" s="19"/>
+      <c r="G65" s="19"/>
+      <c r="H65" s="11"/>
+      <c r="I65" s="11"/>
+      <c r="J65" s="19"/>
+      <c r="K65" s="19"/>
+      <c r="L65" s="20"/>
+      <c r="P65" s="18">
+        <v>220041700077</v>
+      </c>
+      <c r="Q65" s="26">
+        <f t="shared" si="0"/>
+        <v>77</v>
+      </c>
+    </row>
+    <row r="66" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A66" s="11">
+        <v>64</v>
+      </c>
+      <c r="B66" s="17" t="s">
+        <v>192</v>
+      </c>
+      <c r="C66" s="18">
+        <v>220041700078</v>
+      </c>
+      <c r="D66" s="19"/>
+      <c r="E66" s="19"/>
+      <c r="F66" s="19"/>
+      <c r="G66" s="19"/>
+      <c r="H66" s="11"/>
+      <c r="I66" s="11"/>
+      <c r="J66" s="19"/>
+      <c r="K66" s="19"/>
+      <c r="L66" s="20"/>
+      <c r="P66" s="18">
+        <v>220041700078</v>
+      </c>
+      <c r="Q66" s="26">
+        <f t="shared" si="0"/>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="67" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A67" s="11">
+        <v>65</v>
+      </c>
+      <c r="B67" s="17" t="s">
+        <v>193</v>
+      </c>
+      <c r="C67" s="18">
+        <v>220041700080</v>
+      </c>
+      <c r="D67" s="19"/>
+      <c r="E67" s="19"/>
+      <c r="F67" s="19"/>
+      <c r="G67" s="19"/>
+      <c r="H67" s="11"/>
+      <c r="I67" s="11"/>
+      <c r="J67" s="19"/>
+      <c r="K67" s="19"/>
+      <c r="L67" s="20"/>
+      <c r="P67" s="18">
+        <v>220041700080</v>
+      </c>
+      <c r="Q67" s="26">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="68" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A68" s="11">
+        <v>66</v>
+      </c>
+      <c r="B68" s="17" t="s">
+        <v>194</v>
+      </c>
+      <c r="C68" s="18">
+        <v>220041700081</v>
+      </c>
+      <c r="D68" s="19"/>
+      <c r="E68" s="19"/>
+      <c r="F68" s="19"/>
+      <c r="G68" s="19"/>
+      <c r="H68" s="11"/>
+      <c r="I68" s="11"/>
+      <c r="J68" s="19"/>
+      <c r="K68" s="19"/>
+      <c r="L68" s="20"/>
+      <c r="P68" s="18">
+        <v>220041700081</v>
+      </c>
+      <c r="Q68" s="26">
+        <f t="shared" si="0"/>
+        <v>81</v>
+      </c>
+    </row>
+    <row r="69" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A69" s="11">
+        <v>67</v>
+      </c>
+      <c r="B69" s="17" t="s">
+        <v>195</v>
+      </c>
+      <c r="C69" s="18">
+        <v>220041700084</v>
+      </c>
+      <c r="D69" s="19"/>
+      <c r="E69" s="19"/>
+      <c r="F69" s="19"/>
+      <c r="G69" s="19"/>
+      <c r="H69" s="11"/>
+      <c r="I69" s="11"/>
+      <c r="J69" s="19"/>
+      <c r="K69" s="19"/>
+      <c r="L69" s="20"/>
+      <c r="P69" s="18">
+        <v>220041700084</v>
+      </c>
+      <c r="Q69" s="26">
+        <f t="shared" ref="Q69:Q110" si="2">P69-220041700000</f>
+        <v>84</v>
+      </c>
+    </row>
+    <row r="70" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A70" s="11">
+        <v>68</v>
+      </c>
+      <c r="B70" s="17" t="s">
+        <v>196</v>
+      </c>
+      <c r="C70" s="18">
+        <v>220041700085</v>
+      </c>
+      <c r="D70" s="19"/>
+      <c r="E70" s="19"/>
+      <c r="F70" s="19"/>
+      <c r="G70" s="19"/>
+      <c r="H70" s="11"/>
+      <c r="I70" s="11"/>
+      <c r="J70" s="19"/>
+      <c r="K70" s="19"/>
+      <c r="L70" s="20"/>
+      <c r="P70" s="18">
+        <v>220041700085</v>
+      </c>
+      <c r="Q70" s="26">
+        <f t="shared" si="2"/>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="71" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A71" s="11">
+        <v>69</v>
+      </c>
+      <c r="B71" s="17" t="s">
+        <v>197</v>
+      </c>
+      <c r="C71" s="18">
+        <v>220041700086</v>
+      </c>
+      <c r="D71" s="19"/>
+      <c r="E71" s="19"/>
+      <c r="F71" s="19"/>
+      <c r="G71" s="19"/>
+      <c r="H71" s="11"/>
+      <c r="I71" s="11"/>
+      <c r="J71" s="19"/>
+      <c r="K71" s="19"/>
+      <c r="L71" s="20"/>
+      <c r="P71" s="18">
+        <v>220041700086</v>
+      </c>
+      <c r="Q71" s="26">
+        <f t="shared" si="2"/>
+        <v>86</v>
+      </c>
+    </row>
+    <row r="72" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A72" s="11">
+        <v>70</v>
+      </c>
+      <c r="B72" s="17" t="s">
+        <v>198</v>
+      </c>
+      <c r="C72" s="18">
+        <v>220041700087</v>
+      </c>
+      <c r="D72" s="19"/>
+      <c r="E72" s="19"/>
+      <c r="F72" s="19"/>
+      <c r="G72" s="19"/>
+      <c r="H72" s="11"/>
+      <c r="I72" s="11"/>
+      <c r="J72" s="19"/>
+      <c r="K72" s="19"/>
+      <c r="L72" s="20"/>
+      <c r="P72" s="18">
+        <v>220041700087</v>
+      </c>
+      <c r="Q72" s="26">
+        <f t="shared" si="2"/>
+        <v>87</v>
+      </c>
+    </row>
+    <row r="73" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A73" s="11">
+        <v>71</v>
+      </c>
+      <c r="B73" s="17" t="s">
+        <v>199</v>
+      </c>
+      <c r="C73" s="18">
+        <v>220041700092</v>
+      </c>
+      <c r="D73" s="19"/>
+      <c r="E73" s="19"/>
+      <c r="F73" s="19"/>
+      <c r="G73" s="19"/>
+      <c r="H73" s="11"/>
+      <c r="I73" s="11"/>
+      <c r="J73" s="19"/>
+      <c r="K73" s="19"/>
+      <c r="L73" s="20"/>
+      <c r="P73" s="18">
+        <v>220041700092</v>
+      </c>
+      <c r="Q73" s="26">
+        <f t="shared" si="2"/>
+        <v>92</v>
+      </c>
+    </row>
+    <row r="74" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A74" s="11">
+        <v>72</v>
+      </c>
+      <c r="B74" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="C74" s="18">
+        <v>220041700096</v>
+      </c>
+      <c r="D74" s="19"/>
+      <c r="E74" s="19"/>
+      <c r="F74" s="19"/>
+      <c r="G74" s="19"/>
+      <c r="H74" s="11"/>
+      <c r="I74" s="11"/>
+      <c r="J74" s="19"/>
+      <c r="K74" s="19"/>
+      <c r="L74" s="20"/>
+      <c r="P74" s="18">
+        <v>220041700096</v>
+      </c>
+      <c r="Q74" s="26">
+        <f t="shared" si="2"/>
+        <v>96</v>
+      </c>
+    </row>
+    <row r="75" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A75" s="11">
+        <v>73</v>
+      </c>
+      <c r="B75" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="C75" s="18">
+        <v>220041700097</v>
+      </c>
+      <c r="D75" s="19"/>
+      <c r="E75" s="19"/>
+      <c r="F75" s="19"/>
+      <c r="G75" s="21"/>
+      <c r="H75" s="11"/>
+      <c r="I75" s="11"/>
+      <c r="J75" s="19"/>
+      <c r="K75" s="19"/>
+      <c r="L75" s="20"/>
+      <c r="P75" s="18">
+        <v>220041700097</v>
+      </c>
+      <c r="Q75" s="26">
+        <f t="shared" si="2"/>
+        <v>97</v>
+      </c>
+    </row>
+    <row r="76" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A76" s="11">
+        <v>74</v>
+      </c>
+      <c r="B76" s="17" t="s">
+        <v>200</v>
+      </c>
+      <c r="C76" s="18">
+        <v>220041700098</v>
+      </c>
+      <c r="D76" s="19"/>
+      <c r="E76" s="19"/>
+      <c r="F76" s="19"/>
+      <c r="G76" s="19"/>
+      <c r="H76" s="11"/>
+      <c r="I76" s="11"/>
+      <c r="J76" s="19"/>
+      <c r="K76" s="19"/>
+      <c r="L76" s="20"/>
+      <c r="P76" s="18">
+        <v>220041700098</v>
+      </c>
+      <c r="Q76" s="26">
+        <f t="shared" si="2"/>
+        <v>98</v>
+      </c>
+    </row>
+    <row r="77" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A77" s="11">
+        <v>75</v>
+      </c>
+      <c r="B77" s="17" t="s">
+        <v>201</v>
+      </c>
+      <c r="C77" s="18">
+        <v>220041700099</v>
+      </c>
+      <c r="D77" s="19"/>
+      <c r="E77" s="19"/>
+      <c r="F77" s="19"/>
+      <c r="G77" s="19"/>
+      <c r="H77" s="11"/>
+      <c r="I77" s="11"/>
+      <c r="J77" s="19"/>
+      <c r="K77" s="19"/>
+      <c r="L77" s="20"/>
+      <c r="P77" s="18">
+        <v>220041700099</v>
+      </c>
+      <c r="Q77" s="26">
+        <f t="shared" si="2"/>
+        <v>99</v>
+      </c>
+    </row>
+    <row r="78" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A78" s="11">
+        <v>76</v>
+      </c>
+      <c r="B78" s="17" t="s">
+        <v>202</v>
+      </c>
+      <c r="C78" s="18">
+        <v>220041700100</v>
+      </c>
+      <c r="D78" s="19"/>
+      <c r="E78" s="19"/>
+      <c r="F78" s="19"/>
+      <c r="G78" s="19"/>
+      <c r="H78" s="11"/>
+      <c r="I78" s="11"/>
+      <c r="J78" s="19"/>
+      <c r="K78" s="19"/>
+      <c r="L78" s="20"/>
+      <c r="P78" s="18">
+        <v>220041700100</v>
+      </c>
+      <c r="Q78" s="26">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="79" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A79" s="11">
+        <v>77</v>
+      </c>
+      <c r="B79" s="17" t="s">
+        <v>203</v>
+      </c>
+      <c r="C79" s="18">
+        <v>220041700102</v>
+      </c>
+      <c r="D79" s="19"/>
+      <c r="E79" s="19"/>
+      <c r="F79" s="19"/>
+      <c r="G79" s="19"/>
+      <c r="H79" s="11"/>
+      <c r="I79" s="11"/>
+      <c r="J79" s="19"/>
+      <c r="K79" s="19"/>
+      <c r="L79" s="20"/>
+      <c r="P79" s="18">
+        <v>220041700102</v>
+      </c>
+      <c r="Q79" s="26">
+        <f t="shared" si="2"/>
+        <v>102</v>
+      </c>
+    </row>
+    <row r="80" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A80" s="11">
+        <v>78</v>
+      </c>
+      <c r="B80" s="17" t="s">
+        <v>204</v>
+      </c>
+      <c r="C80" s="18">
+        <v>220041700103</v>
+      </c>
+      <c r="D80" s="19"/>
+      <c r="E80" s="19"/>
+      <c r="F80" s="19"/>
+      <c r="G80" s="19"/>
+      <c r="H80" s="11"/>
+      <c r="I80" s="11"/>
+      <c r="J80" s="19"/>
+      <c r="K80" s="19"/>
+      <c r="L80" s="20"/>
+      <c r="P80" s="18">
+        <v>220041700103</v>
+      </c>
+      <c r="Q80" s="26">
+        <f t="shared" si="2"/>
+        <v>103</v>
+      </c>
+    </row>
+    <row r="81" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A81" s="11">
+        <v>79</v>
+      </c>
+      <c r="B81" s="17" t="s">
+        <v>205</v>
+      </c>
+      <c r="C81" s="18">
+        <v>220041700104</v>
+      </c>
+      <c r="D81" s="19"/>
+      <c r="E81" s="19"/>
+      <c r="F81" s="19"/>
+      <c r="G81" s="21"/>
+      <c r="H81" s="11"/>
+      <c r="I81" s="11"/>
+      <c r="J81" s="19"/>
+      <c r="K81" s="19"/>
+      <c r="L81" s="20"/>
+      <c r="P81" s="18">
+        <v>220041700104</v>
+      </c>
+      <c r="Q81" s="26">
+        <f t="shared" si="2"/>
+        <v>104</v>
+      </c>
+    </row>
+    <row r="82" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A82" s="11">
+        <v>80</v>
+      </c>
+      <c r="B82" s="17" t="s">
+        <v>206</v>
+      </c>
+      <c r="C82" s="18">
+        <v>220041700105</v>
+      </c>
+      <c r="D82" s="19"/>
+      <c r="E82" s="19"/>
+      <c r="F82" s="19"/>
+      <c r="G82" s="19"/>
+      <c r="H82" s="11"/>
+      <c r="I82" s="11"/>
+      <c r="J82" s="19"/>
+      <c r="K82" s="19"/>
+      <c r="L82" s="20"/>
+      <c r="P82" s="18">
+        <v>220041700105</v>
+      </c>
+      <c r="Q82" s="26">
+        <f t="shared" si="2"/>
+        <v>105</v>
+      </c>
+    </row>
+    <row r="83" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A83" s="11">
+        <v>81</v>
+      </c>
+      <c r="B83" s="17" t="s">
+        <v>207</v>
+      </c>
+      <c r="C83" s="18">
+        <v>220041700106</v>
+      </c>
+      <c r="D83" s="19"/>
+      <c r="E83" s="19"/>
+      <c r="F83" s="19"/>
+      <c r="G83" s="19"/>
+      <c r="H83" s="11"/>
+      <c r="I83" s="11"/>
+      <c r="J83" s="19"/>
+      <c r="K83" s="19"/>
+      <c r="L83" s="20"/>
+      <c r="P83" s="18">
+        <v>220041700106</v>
+      </c>
+      <c r="Q83" s="26">
+        <f t="shared" si="2"/>
+        <v>106</v>
+      </c>
+    </row>
+    <row r="84" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A84" s="11">
+        <v>82</v>
+      </c>
+      <c r="B84" s="17" t="s">
+        <v>208</v>
+      </c>
+      <c r="C84" s="18">
+        <v>220041700107</v>
+      </c>
+      <c r="D84" s="19"/>
+      <c r="E84" s="19"/>
+      <c r="F84" s="19"/>
+      <c r="G84" s="19"/>
+      <c r="H84" s="11"/>
+      <c r="I84" s="11"/>
+      <c r="J84" s="19"/>
+      <c r="K84" s="19"/>
+      <c r="L84" s="20"/>
+      <c r="P84" s="18">
+        <v>220041700107</v>
+      </c>
+      <c r="Q84" s="26">
+        <f t="shared" si="2"/>
+        <v>107</v>
+      </c>
+    </row>
+    <row r="85" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A85" s="11">
+        <v>83</v>
+      </c>
+      <c r="B85" s="17" t="s">
+        <v>209</v>
+      </c>
+      <c r="C85" s="18">
+        <v>220041700109</v>
+      </c>
+      <c r="D85" s="19"/>
+      <c r="E85" s="19"/>
+      <c r="F85" s="19"/>
+      <c r="G85" s="19"/>
+      <c r="H85" s="11"/>
+      <c r="I85" s="11"/>
+      <c r="J85" s="19"/>
+      <c r="K85" s="19"/>
+      <c r="L85" s="20"/>
+      <c r="P85" s="18">
+        <v>220041700109</v>
+      </c>
+      <c r="Q85" s="26">
+        <f t="shared" si="2"/>
         <v>109</v>
       </c>
-      <c r="N3" s="7">
+    </row>
+    <row r="86" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A86" s="11">
+        <v>84</v>
+      </c>
+      <c r="B86" s="17" t="s">
+        <v>210</v>
+      </c>
+      <c r="C86" s="18">
+        <v>220041700112</v>
+      </c>
+      <c r="D86" s="19"/>
+      <c r="E86" s="19"/>
+      <c r="F86" s="19"/>
+      <c r="G86" s="19"/>
+      <c r="H86" s="11"/>
+      <c r="I86" s="11"/>
+      <c r="J86" s="19"/>
+      <c r="K86" s="19"/>
+      <c r="L86" s="20"/>
+      <c r="P86" s="18">
+        <v>220041700112</v>
+      </c>
+      <c r="Q86" s="26">
+        <f t="shared" si="2"/>
+        <v>112</v>
+      </c>
+    </row>
+    <row r="87" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A87" s="11">
+        <v>85</v>
+      </c>
+      <c r="B87" s="17" t="s">
+        <v>211</v>
+      </c>
+      <c r="C87" s="18">
+        <v>220041700115</v>
+      </c>
+      <c r="D87" s="19"/>
+      <c r="E87" s="19"/>
+      <c r="F87" s="19"/>
+      <c r="G87" s="21"/>
+      <c r="H87" s="11"/>
+      <c r="I87" s="11"/>
+      <c r="J87" s="19"/>
+      <c r="K87" s="19"/>
+      <c r="L87" s="20"/>
+      <c r="P87" s="18">
+        <v>220041700115</v>
+      </c>
+      <c r="Q87" s="26">
+        <f t="shared" si="2"/>
+        <v>115</v>
+      </c>
+    </row>
+    <row r="88" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A88" s="11">
+        <v>86</v>
+      </c>
+      <c r="B88" s="17" t="s">
+        <v>212</v>
+      </c>
+      <c r="C88" s="18">
+        <v>220041700116</v>
+      </c>
+      <c r="D88" s="19"/>
+      <c r="E88" s="19"/>
+      <c r="F88" s="19"/>
+      <c r="G88" s="21"/>
+      <c r="H88" s="11"/>
+      <c r="I88" s="11"/>
+      <c r="J88" s="19"/>
+      <c r="K88" s="19"/>
+      <c r="L88" s="20"/>
+      <c r="P88" s="18">
+        <v>220041700116</v>
+      </c>
+      <c r="Q88" s="26">
+        <f t="shared" si="2"/>
+        <v>116</v>
+      </c>
+    </row>
+    <row r="89" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A89" s="11">
+        <v>87</v>
+      </c>
+      <c r="B89" s="17" t="s">
+        <v>213</v>
+      </c>
+      <c r="C89" s="18">
+        <v>220041700117</v>
+      </c>
+      <c r="D89" s="19"/>
+      <c r="E89" s="19"/>
+      <c r="F89" s="19"/>
+      <c r="G89" s="19"/>
+      <c r="H89" s="11"/>
+      <c r="I89" s="11"/>
+      <c r="J89" s="19"/>
+      <c r="K89" s="19"/>
+      <c r="L89" s="20"/>
+      <c r="P89" s="18">
+        <v>220041700117</v>
+      </c>
+      <c r="Q89" s="26">
+        <f t="shared" si="2"/>
+        <v>117</v>
+      </c>
+    </row>
+    <row r="90" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A90" s="11">
+        <v>88</v>
+      </c>
+      <c r="B90" s="17" t="s">
+        <v>214</v>
+      </c>
+      <c r="C90" s="18">
+        <v>220041700118</v>
+      </c>
+      <c r="D90" s="19"/>
+      <c r="E90" s="19"/>
+      <c r="F90" s="19"/>
+      <c r="G90" s="19"/>
+      <c r="H90" s="11"/>
+      <c r="I90" s="11"/>
+      <c r="J90" s="19"/>
+      <c r="K90" s="19"/>
+      <c r="L90" s="20"/>
+      <c r="P90" s="18">
+        <v>220041700118</v>
+      </c>
+      <c r="Q90" s="26">
+        <f t="shared" si="2"/>
+        <v>118</v>
+      </c>
+    </row>
+    <row r="91" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A91" s="11">
+        <v>89</v>
+      </c>
+      <c r="B91" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="C91" s="18">
+        <v>220041700121</v>
+      </c>
+      <c r="D91" s="19"/>
+      <c r="E91" s="19"/>
+      <c r="F91" s="19"/>
+      <c r="G91" s="19"/>
+      <c r="H91" s="11"/>
+      <c r="I91" s="11"/>
+      <c r="J91" s="19"/>
+      <c r="K91" s="19"/>
+      <c r="L91" s="20"/>
+      <c r="P91" s="18">
+        <v>220041700121</v>
+      </c>
+      <c r="Q91" s="26">
+        <f t="shared" si="2"/>
+        <v>121</v>
+      </c>
+    </row>
+    <row r="92" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A92" s="11">
+        <v>90</v>
+      </c>
+      <c r="B92" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="C92" s="18">
+        <v>220041700122</v>
+      </c>
+      <c r="D92" s="19"/>
+      <c r="E92" s="19"/>
+      <c r="F92" s="19"/>
+      <c r="G92" s="19"/>
+      <c r="H92" s="11"/>
+      <c r="I92" s="11"/>
+      <c r="J92" s="19"/>
+      <c r="K92" s="19"/>
+      <c r="L92" s="20"/>
+      <c r="P92" s="18">
+        <v>220041700122</v>
+      </c>
+      <c r="Q92" s="26">
+        <f t="shared" si="2"/>
+        <v>122</v>
+      </c>
+    </row>
+    <row r="93" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A93" s="11">
+        <v>91</v>
+      </c>
+      <c r="B93" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="C93" s="18">
+        <v>220041700123</v>
+      </c>
+      <c r="D93" s="19"/>
+      <c r="E93" s="19"/>
+      <c r="F93" s="19"/>
+      <c r="G93" s="21"/>
+      <c r="H93" s="11"/>
+      <c r="I93" s="11"/>
+      <c r="J93" s="19"/>
+      <c r="K93" s="19"/>
+      <c r="L93" s="20"/>
+      <c r="P93" s="18">
+        <v>220041700123</v>
+      </c>
+      <c r="Q93" s="26">
+        <f t="shared" si="2"/>
+        <v>123</v>
+      </c>
+    </row>
+    <row r="94" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A94" s="11">
+        <v>92</v>
+      </c>
+      <c r="B94" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="C94" s="18">
+        <v>220041700125</v>
+      </c>
+      <c r="D94" s="19"/>
+      <c r="E94" s="19"/>
+      <c r="F94" s="19"/>
+      <c r="G94" s="19"/>
+      <c r="H94" s="11"/>
+      <c r="I94" s="11"/>
+      <c r="J94" s="19"/>
+      <c r="K94" s="19"/>
+      <c r="L94" s="20"/>
+      <c r="P94" s="18">
+        <v>220041700125</v>
+      </c>
+      <c r="Q94" s="26">
+        <f t="shared" si="2"/>
+        <v>125</v>
+      </c>
+    </row>
+    <row r="95" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A95" s="11">
+        <v>93</v>
+      </c>
+      <c r="B95" s="17" t="s">
+        <v>215</v>
+      </c>
+      <c r="C95" s="18">
+        <v>220041700130</v>
+      </c>
+      <c r="D95" s="19"/>
+      <c r="E95" s="19"/>
+      <c r="F95" s="19"/>
+      <c r="G95" s="21"/>
+      <c r="H95" s="11"/>
+      <c r="I95" s="11"/>
+      <c r="J95" s="19"/>
+      <c r="K95" s="19"/>
+      <c r="L95" s="20"/>
+      <c r="P95" s="18">
+        <v>220041700130</v>
+      </c>
+      <c r="Q95" s="26">
+        <f t="shared" si="2"/>
+        <v>130</v>
+      </c>
+    </row>
+    <row r="96" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A96" s="11">
+        <v>94</v>
+      </c>
+      <c r="B96" s="17" t="s">
+        <v>216</v>
+      </c>
+      <c r="C96" s="18">
+        <v>220041700131</v>
+      </c>
+      <c r="D96" s="19"/>
+      <c r="E96" s="19"/>
+      <c r="F96" s="19"/>
+      <c r="G96" s="21"/>
+      <c r="H96" s="11"/>
+      <c r="I96" s="11"/>
+      <c r="J96" s="19"/>
+      <c r="K96" s="19"/>
+      <c r="L96" s="20"/>
+      <c r="P96" s="18">
+        <v>220041700131</v>
+      </c>
+      <c r="Q96" s="26">
+        <f t="shared" si="2"/>
+        <v>131</v>
+      </c>
+    </row>
+    <row r="97" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A97" s="11">
+        <v>95</v>
+      </c>
+      <c r="B97" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="C97" s="18">
+        <v>220041700132</v>
+      </c>
+      <c r="D97" s="19"/>
+      <c r="E97" s="19"/>
+      <c r="F97" s="19"/>
+      <c r="G97" s="19"/>
+      <c r="H97" s="11"/>
+      <c r="I97" s="11"/>
+      <c r="J97" s="19"/>
+      <c r="K97" s="19"/>
+      <c r="L97" s="20"/>
+      <c r="P97" s="18">
+        <v>220041700132</v>
+      </c>
+      <c r="Q97" s="26">
+        <f t="shared" si="2"/>
+        <v>132</v>
+      </c>
+    </row>
+    <row r="98" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A98" s="11">
+        <v>96</v>
+      </c>
+      <c r="B98" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="C98" s="18">
+        <v>220041700133</v>
+      </c>
+      <c r="D98" s="19"/>
+      <c r="E98" s="19"/>
+      <c r="F98" s="19"/>
+      <c r="G98" s="19"/>
+      <c r="H98" s="11"/>
+      <c r="I98" s="11"/>
+      <c r="J98" s="19"/>
+      <c r="K98" s="19"/>
+      <c r="L98" s="20"/>
+      <c r="M98" s="24"/>
+      <c r="P98" s="18">
+        <v>220041700133</v>
+      </c>
+      <c r="Q98" s="26">
+        <f t="shared" si="2"/>
+        <v>133</v>
+      </c>
+    </row>
+    <row r="99" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A99" s="11">
+        <v>97</v>
+      </c>
+      <c r="B99" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="C99" s="18">
+        <v>220041700134</v>
+      </c>
+      <c r="D99" s="19"/>
+      <c r="E99" s="19"/>
+      <c r="F99" s="19"/>
+      <c r="G99" s="21"/>
+      <c r="H99" s="11"/>
+      <c r="I99" s="11"/>
+      <c r="J99" s="19"/>
+      <c r="K99" s="19"/>
+      <c r="L99" s="20"/>
+      <c r="P99" s="18">
+        <v>220041700134</v>
+      </c>
+      <c r="Q99" s="26">
+        <f t="shared" si="2"/>
+        <v>134</v>
+      </c>
+    </row>
+    <row r="100" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A100" s="11">
+        <v>98</v>
+      </c>
+      <c r="B100" s="22" t="s">
+        <v>217</v>
+      </c>
+      <c r="C100" s="23">
+        <v>220041723018</v>
+      </c>
+      <c r="D100" s="19"/>
+      <c r="E100" s="19"/>
+      <c r="F100" s="19"/>
+      <c r="G100" s="21"/>
+      <c r="H100" s="11"/>
+      <c r="I100" s="11"/>
+      <c r="J100" s="19"/>
+      <c r="K100" s="19"/>
+      <c r="L100" s="20"/>
+      <c r="P100" s="23">
+        <v>220041723018</v>
+      </c>
+      <c r="Q100" s="23">
+        <v>220041723018</v>
+      </c>
+    </row>
+    <row r="101" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A101" s="11">
+        <v>99</v>
+      </c>
+      <c r="B101" s="22" t="s">
+        <v>218</v>
+      </c>
+      <c r="C101" s="23">
+        <v>220041723019</v>
+      </c>
+      <c r="D101" s="19"/>
+      <c r="E101" s="19"/>
+      <c r="F101" s="19"/>
+      <c r="G101" s="21"/>
+      <c r="H101" s="11"/>
+      <c r="I101" s="11"/>
+      <c r="J101" s="19"/>
+      <c r="K101" s="19"/>
+      <c r="L101" s="20"/>
+      <c r="P101" s="23">
+        <v>220041723019</v>
+      </c>
+      <c r="Q101" s="26">
+        <f>P101-220041723000</f>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="102" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A102" s="11">
+        <v>100</v>
+      </c>
+      <c r="B102" s="22" t="s">
+        <v>219</v>
+      </c>
+      <c r="C102" s="23">
+        <v>220041723020</v>
+      </c>
+      <c r="D102" s="19"/>
+      <c r="E102" s="19"/>
+      <c r="F102" s="19"/>
+      <c r="G102" s="19"/>
+      <c r="H102" s="11"/>
+      <c r="I102" s="11"/>
+      <c r="J102" s="19"/>
+      <c r="K102" s="19"/>
+      <c r="L102" s="20"/>
+      <c r="P102" s="23">
+        <v>220041723020</v>
+      </c>
+      <c r="Q102" s="26">
+        <f t="shared" ref="Q102:Q110" si="3">P102-220041723000</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="103" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A103" s="11">
+        <v>101</v>
+      </c>
+      <c r="B103" s="22" t="s">
+        <v>220</v>
+      </c>
+      <c r="C103" s="23">
+        <v>220041723021</v>
+      </c>
+      <c r="D103" s="19"/>
+      <c r="E103" s="19"/>
+      <c r="F103" s="19"/>
+      <c r="G103" s="21"/>
+      <c r="H103" s="11"/>
+      <c r="I103" s="11"/>
+      <c r="J103" s="19"/>
+      <c r="K103" s="19"/>
+      <c r="L103" s="20"/>
+      <c r="P103" s="23">
+        <v>220041723021</v>
+      </c>
+      <c r="Q103" s="26">
+        <f t="shared" si="3"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="104" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A104" s="11">
+        <v>102</v>
+      </c>
+      <c r="B104" s="22" t="s">
+        <v>219</v>
+      </c>
+      <c r="C104" s="23">
+        <v>220041723022</v>
+      </c>
+      <c r="D104" s="19"/>
+      <c r="E104" s="19"/>
+      <c r="F104" s="19"/>
+      <c r="G104" s="19"/>
+      <c r="H104" s="11"/>
+      <c r="I104" s="11"/>
+      <c r="J104" s="19"/>
+      <c r="K104" s="19"/>
+      <c r="L104" s="20"/>
+      <c r="P104" s="23">
+        <v>220041723022</v>
+      </c>
+      <c r="Q104" s="26">
+        <f t="shared" si="3"/>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="105" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A105" s="11">
+        <v>103</v>
+      </c>
+      <c r="B105" s="22" t="s">
+        <v>221</v>
+      </c>
+      <c r="C105" s="23">
+        <v>220041723025</v>
+      </c>
+      <c r="D105" s="19"/>
+      <c r="E105" s="19"/>
+      <c r="F105" s="19"/>
+      <c r="G105" s="21"/>
+      <c r="H105" s="11"/>
+      <c r="I105" s="11"/>
+      <c r="J105" s="19"/>
+      <c r="K105" s="19"/>
+      <c r="L105" s="20"/>
+      <c r="P105" s="23">
+        <v>220041723025</v>
+      </c>
+      <c r="Q105" s="26">
+        <f t="shared" si="3"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="106" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A106" s="11">
+        <v>104</v>
+      </c>
+      <c r="B106" s="22" t="s">
+        <v>222</v>
+      </c>
+      <c r="C106" s="23">
+        <v>220041723027</v>
+      </c>
+      <c r="D106" s="19"/>
+      <c r="E106" s="19"/>
+      <c r="F106" s="19"/>
+      <c r="G106" s="19"/>
+      <c r="H106" s="11"/>
+      <c r="I106" s="11"/>
+      <c r="J106" s="19"/>
+      <c r="K106" s="19"/>
+      <c r="L106" s="20"/>
+      <c r="P106" s="23">
+        <v>220041723027</v>
+      </c>
+      <c r="Q106" s="26">
+        <f t="shared" si="3"/>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="107" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A107" s="11">
+        <v>105</v>
+      </c>
+      <c r="B107" s="22" t="s">
+        <v>223</v>
+      </c>
+      <c r="C107" s="23">
+        <v>220041723028</v>
+      </c>
+      <c r="D107" s="19"/>
+      <c r="E107" s="19"/>
+      <c r="F107" s="19"/>
+      <c r="G107" s="21"/>
+      <c r="H107" s="11"/>
+      <c r="I107" s="11"/>
+      <c r="J107" s="19"/>
+      <c r="K107" s="19"/>
+      <c r="L107" s="20"/>
+      <c r="P107" s="23">
+        <v>220041723028</v>
+      </c>
+      <c r="Q107" s="26">
+        <f t="shared" si="3"/>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="108" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A108" s="11">
+        <v>106</v>
+      </c>
+      <c r="B108" s="22" t="s">
+        <v>224</v>
+      </c>
+      <c r="C108" s="23">
+        <v>220041723032</v>
+      </c>
+      <c r="D108" s="19"/>
+      <c r="E108" s="19"/>
+      <c r="F108" s="19"/>
+      <c r="G108" s="19"/>
+      <c r="H108" s="11"/>
+      <c r="I108" s="11"/>
+      <c r="J108" s="19"/>
+      <c r="K108" s="19"/>
+      <c r="L108" s="20"/>
+      <c r="P108" s="23">
+        <v>220041723032</v>
+      </c>
+      <c r="Q108" s="26">
+        <f t="shared" si="3"/>
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="10">
-        <v>2</v>
-      </c>
-      <c r="B4" s="16" t="s">
-        <v>142</v>
-      </c>
-      <c r="C4" s="18">
-        <v>220041700001</v>
-      </c>
-      <c r="D4" s="19">
-        <v>13</v>
-      </c>
-      <c r="E4" s="19">
-        <v>15</v>
-      </c>
-      <c r="F4" s="19">
-        <v>12</v>
-      </c>
-      <c r="G4" s="19">
-        <v>4</v>
-      </c>
-      <c r="H4" s="10">
-        <f t="shared" ref="H4:H67" si="0">P4</f>
-        <v>0</v>
-      </c>
-      <c r="I4" s="10">
-        <v>5</v>
-      </c>
-      <c r="J4" s="19"/>
-      <c r="K4" s="19">
-        <v>23</v>
-      </c>
-      <c r="L4" s="20"/>
-      <c r="M4" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="N4" s="7">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="10">
-        <v>3</v>
-      </c>
-      <c r="B5" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="18">
-        <v>220041700003</v>
-      </c>
-      <c r="D5" s="19">
-        <v>9</v>
-      </c>
-      <c r="E5" s="19">
-        <v>7</v>
-      </c>
-      <c r="F5" s="19">
-        <v>15</v>
-      </c>
-      <c r="G5" s="19">
-        <v>4.5</v>
-      </c>
-      <c r="H5" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I5" s="10">
-        <v>0</v>
-      </c>
-      <c r="J5" s="19"/>
-      <c r="K5" s="19">
-        <v>20</v>
-      </c>
-      <c r="L5" s="20"/>
-      <c r="M5" s="7">
-        <v>65</v>
-      </c>
-      <c r="N5" s="7">
+    <row r="109" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A109" s="11">
+        <v>107</v>
+      </c>
+      <c r="B109" s="22" t="s">
+        <v>225</v>
+      </c>
+      <c r="C109" s="23">
+        <v>220041723033</v>
+      </c>
+      <c r="D109" s="19"/>
+      <c r="E109" s="19"/>
+      <c r="F109" s="22"/>
+      <c r="G109" s="19"/>
+      <c r="H109" s="11"/>
+      <c r="I109" s="11"/>
+      <c r="J109" s="19"/>
+      <c r="K109" s="19"/>
+      <c r="L109" s="20"/>
+      <c r="P109" s="23">
+        <v>220041723033</v>
+      </c>
+      <c r="Q109" s="26">
+        <f t="shared" si="3"/>
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="10">
-        <v>4</v>
-      </c>
-      <c r="B6" s="16" t="s">
-        <v>143</v>
-      </c>
-      <c r="C6" s="18">
-        <v>220041700004</v>
-      </c>
-      <c r="D6" s="19">
-        <v>7</v>
-      </c>
-      <c r="E6" s="19">
-        <v>16</v>
-      </c>
-      <c r="F6" s="19">
-        <v>12</v>
-      </c>
-      <c r="G6" s="19">
-        <v>4.5</v>
-      </c>
-      <c r="H6" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I6" s="10">
-        <v>5</v>
-      </c>
-      <c r="J6" s="19"/>
-      <c r="K6" s="19">
-        <v>24</v>
-      </c>
-      <c r="L6" s="20"/>
-      <c r="M6" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="N6" s="7" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="10">
-        <v>5</v>
-      </c>
-      <c r="B7" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="18">
-        <v>220041700006</v>
-      </c>
-      <c r="D7" s="19">
-        <v>5</v>
-      </c>
-      <c r="E7" s="19">
-        <v>8</v>
-      </c>
-      <c r="F7" s="19">
-        <v>16</v>
-      </c>
-      <c r="G7" s="19">
-        <v>5</v>
-      </c>
-      <c r="H7" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I7" s="10">
-        <v>5</v>
-      </c>
-      <c r="J7" s="19"/>
-      <c r="K7" s="19">
-        <v>22</v>
-      </c>
-      <c r="L7" s="20"/>
-      <c r="M7" s="7">
-        <v>73</v>
-      </c>
-      <c r="N7" s="7">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="10">
-        <v>6</v>
-      </c>
-      <c r="B8" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="18">
-        <v>220041700007</v>
-      </c>
-      <c r="D8" s="19">
-        <v>9</v>
-      </c>
-      <c r="E8" s="19">
-        <v>7</v>
-      </c>
-      <c r="F8" s="19">
-        <v>11</v>
-      </c>
-      <c r="G8" s="21">
-        <v>0</v>
-      </c>
-      <c r="H8" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I8" s="10">
-        <v>5</v>
-      </c>
-      <c r="J8" s="19"/>
-      <c r="K8" s="19">
-        <v>20</v>
-      </c>
-      <c r="L8" s="20"/>
-      <c r="M8" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="N8" s="7" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="10">
-        <v>7</v>
-      </c>
-      <c r="B9" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" s="18">
-        <v>220041700008</v>
-      </c>
-      <c r="D9" s="19">
-        <v>8</v>
-      </c>
-      <c r="E9" s="19">
-        <v>19</v>
-      </c>
-      <c r="F9" s="19">
-        <v>16</v>
-      </c>
-      <c r="G9" s="19">
-        <v>4.5</v>
-      </c>
-      <c r="H9" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I9" s="10">
-        <v>5</v>
-      </c>
-      <c r="J9" s="19"/>
-      <c r="K9" s="19">
-        <v>28</v>
-      </c>
-      <c r="L9" s="20"/>
-      <c r="M9" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="N9" s="7">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="10">
-        <v>8</v>
-      </c>
-      <c r="B10" s="16" t="s">
-        <v>144</v>
-      </c>
-      <c r="C10" s="18">
-        <v>220041700009</v>
-      </c>
-      <c r="D10" s="19">
-        <v>7</v>
-      </c>
-      <c r="E10" s="19">
-        <v>13</v>
-      </c>
-      <c r="F10" s="19">
-        <v>17</v>
-      </c>
-      <c r="G10" s="19">
-        <v>3</v>
-      </c>
-      <c r="H10" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I10" s="10">
-        <v>5</v>
-      </c>
-      <c r="J10" s="19"/>
-      <c r="K10" s="19">
-        <v>25</v>
-      </c>
-      <c r="L10" s="20"/>
-      <c r="M10" s="7">
-        <v>42</v>
-      </c>
-      <c r="N10" s="7">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="10">
-        <v>9</v>
-      </c>
-      <c r="B11" s="16" t="s">
-        <v>145</v>
-      </c>
-      <c r="C11" s="18">
-        <v>220041700010</v>
-      </c>
-      <c r="D11" s="19">
-        <v>4</v>
-      </c>
-      <c r="E11" s="19">
-        <v>12</v>
-      </c>
-      <c r="F11" s="19">
-        <v>13</v>
-      </c>
-      <c r="G11" s="21">
-        <v>0</v>
-      </c>
-      <c r="H11" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I11" s="10">
-        <v>5</v>
-      </c>
-      <c r="J11" s="19"/>
-      <c r="K11" s="19">
-        <v>21</v>
-      </c>
-      <c r="L11" s="20"/>
-      <c r="M11" s="7">
-        <v>38</v>
-      </c>
-      <c r="N11" s="7">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="10">
-        <v>10</v>
-      </c>
-      <c r="B12" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="C12" s="18">
-        <v>220041700011</v>
-      </c>
-      <c r="D12" s="19">
-        <v>5</v>
-      </c>
-      <c r="E12" s="19">
-        <v>15</v>
-      </c>
-      <c r="F12" s="19">
-        <v>11</v>
-      </c>
-      <c r="G12" s="19">
-        <v>4.5</v>
-      </c>
-      <c r="H12" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I12" s="10">
-        <v>0</v>
-      </c>
-      <c r="J12" s="19"/>
-      <c r="K12" s="19">
-        <v>20</v>
-      </c>
-      <c r="L12" s="20"/>
-      <c r="M12" s="7">
-        <v>59</v>
-      </c>
-      <c r="N12" s="7">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="22">
-        <v>11</v>
-      </c>
-      <c r="B13" s="23" t="s">
-        <v>146</v>
-      </c>
-      <c r="C13" s="24">
-        <v>220041700012</v>
-      </c>
-      <c r="D13" s="25" t="s">
-        <v>141</v>
-      </c>
-      <c r="E13" s="25">
-        <v>13</v>
-      </c>
-      <c r="F13" s="25" t="s">
-        <v>141</v>
-      </c>
-      <c r="G13" s="25">
-        <v>4</v>
-      </c>
-      <c r="H13" s="22">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I13" s="22">
-        <v>0</v>
-      </c>
-      <c r="J13" s="25"/>
-      <c r="K13" s="25">
-        <v>9</v>
-      </c>
-      <c r="L13" s="26"/>
-      <c r="M13" s="7">
-        <v>54</v>
-      </c>
-      <c r="N13" s="7">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="10">
-        <v>12</v>
-      </c>
-      <c r="B14" s="16" t="s">
-        <v>146</v>
-      </c>
-      <c r="C14" s="18">
-        <v>220041700013</v>
-      </c>
-      <c r="D14" s="19">
-        <v>3</v>
-      </c>
-      <c r="E14" s="19">
-        <v>12</v>
-      </c>
-      <c r="F14" s="19">
-        <v>10</v>
-      </c>
-      <c r="G14" s="19">
-        <v>4.5</v>
-      </c>
-      <c r="H14" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I14" s="10">
-        <v>5</v>
-      </c>
-      <c r="J14" s="19"/>
-      <c r="K14" s="19">
-        <v>20</v>
-      </c>
-      <c r="L14" s="20"/>
-      <c r="M14" s="7">
-        <v>44</v>
-      </c>
-      <c r="N14" s="7">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="10">
-        <v>13</v>
-      </c>
-      <c r="B15" s="16" t="s">
-        <v>147</v>
-      </c>
-      <c r="C15" s="18">
-        <v>220041700014</v>
-      </c>
-      <c r="D15" s="19">
-        <v>10</v>
-      </c>
-      <c r="E15" s="19">
-        <v>15</v>
-      </c>
-      <c r="F15" s="19">
-        <v>12</v>
-      </c>
-      <c r="G15" s="19">
-        <v>4.5</v>
-      </c>
-      <c r="H15" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I15" s="10">
-        <v>5</v>
-      </c>
-      <c r="J15" s="19"/>
-      <c r="K15" s="19">
-        <v>23</v>
-      </c>
-      <c r="L15" s="20"/>
-      <c r="M15" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="N15" s="7">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="10">
-        <v>14</v>
-      </c>
-      <c r="B16" s="16" t="s">
-        <v>148</v>
-      </c>
-      <c r="C16" s="18">
-        <v>220041700016</v>
-      </c>
-      <c r="D16" s="19">
-        <v>16</v>
-      </c>
-      <c r="E16" s="19">
-        <v>15</v>
-      </c>
-      <c r="F16" s="19">
-        <v>12</v>
-      </c>
-      <c r="G16" s="19">
-        <v>4.5</v>
-      </c>
-      <c r="H16" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I16" s="10">
-        <v>5</v>
-      </c>
-      <c r="J16" s="19"/>
-      <c r="K16" s="19">
-        <v>24</v>
-      </c>
-      <c r="L16" s="20"/>
-      <c r="M16" s="7">
-        <v>54</v>
-      </c>
-      <c r="N16" s="7">
+    <row r="110" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A110" s="11">
+        <v>108</v>
+      </c>
+      <c r="B110" s="22" t="s">
+        <v>226</v>
+      </c>
+      <c r="C110" s="23">
+        <v>220041723034</v>
+      </c>
+      <c r="D110" s="19"/>
+      <c r="E110" s="19"/>
+      <c r="F110" s="19"/>
+      <c r="G110" s="19"/>
+      <c r="H110" s="11"/>
+      <c r="I110" s="11"/>
+      <c r="J110" s="19"/>
+      <c r="K110" s="19"/>
+      <c r="L110" s="20"/>
+      <c r="P110" s="23">
+        <v>220041723034</v>
+      </c>
+      <c r="Q110" s="26">
+        <f t="shared" si="3"/>
         <v>34</v>
       </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="10">
-        <v>15</v>
-      </c>
-      <c r="B17" s="16" t="s">
-        <v>149</v>
-      </c>
-      <c r="C17" s="18">
-        <v>220041700017</v>
-      </c>
-      <c r="D17" s="19">
-        <v>16</v>
-      </c>
-      <c r="E17" s="19">
-        <v>22</v>
-      </c>
-      <c r="F17" s="19">
-        <v>12</v>
-      </c>
-      <c r="G17" s="19">
-        <v>5</v>
-      </c>
-      <c r="H17" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I17" s="10">
-        <v>5</v>
-      </c>
-      <c r="J17" s="19"/>
-      <c r="K17" s="19">
-        <v>28</v>
-      </c>
-      <c r="L17" s="20"/>
-      <c r="M17" s="7">
-        <v>71</v>
-      </c>
-      <c r="N17" s="7">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="10">
-        <v>16</v>
-      </c>
-      <c r="B18" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="C18" s="18">
-        <v>220041700020</v>
-      </c>
-      <c r="D18" s="19">
-        <v>14</v>
-      </c>
-      <c r="E18" s="19">
-        <v>18</v>
-      </c>
-      <c r="F18" s="19">
-        <v>6</v>
-      </c>
-      <c r="G18" s="19">
-        <v>4.5</v>
-      </c>
-      <c r="H18" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I18" s="10">
-        <v>5</v>
-      </c>
-      <c r="J18" s="19"/>
-      <c r="K18" s="19">
-        <v>25</v>
-      </c>
-      <c r="L18" s="20"/>
-      <c r="M18" s="7">
-        <v>33</v>
-      </c>
-      <c r="N18" s="7">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="10">
-        <v>17</v>
-      </c>
-      <c r="B19" s="16" t="s">
-        <v>150</v>
-      </c>
-      <c r="C19" s="18">
-        <v>220041700022</v>
-      </c>
-      <c r="D19" s="19">
-        <v>21</v>
-      </c>
-      <c r="E19" s="19">
-        <v>28</v>
-      </c>
-      <c r="F19" s="19">
-        <v>27</v>
-      </c>
-      <c r="G19" s="19">
-        <v>4.5</v>
-      </c>
-      <c r="H19" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I19" s="10">
-        <v>5</v>
-      </c>
-      <c r="J19" s="19"/>
-      <c r="K19" s="19">
-        <v>37</v>
-      </c>
-      <c r="L19" s="20"/>
-      <c r="M19" s="7">
-        <v>61</v>
-      </c>
-      <c r="N19" s="7">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" s="10">
-        <v>18</v>
-      </c>
-      <c r="B20" s="16" t="s">
-        <v>151</v>
-      </c>
-      <c r="C20" s="18">
-        <v>220041700023</v>
-      </c>
-      <c r="D20" s="19">
-        <v>20</v>
-      </c>
-      <c r="E20" s="19">
-        <v>21</v>
-      </c>
-      <c r="F20" s="19">
-        <v>20</v>
-      </c>
-      <c r="G20" s="19">
-        <v>4.5</v>
-      </c>
-      <c r="H20" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I20" s="10">
-        <v>5</v>
-      </c>
-      <c r="J20" s="19"/>
-      <c r="K20" s="19">
-        <v>30</v>
-      </c>
-      <c r="L20" s="20"/>
-      <c r="M20" s="7">
-        <v>76</v>
-      </c>
-      <c r="N20" s="7">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A21" s="10">
-        <v>19</v>
-      </c>
-      <c r="B21" s="16" t="s">
-        <v>152</v>
-      </c>
-      <c r="C21" s="18">
-        <v>220041700024</v>
-      </c>
-      <c r="D21" s="19">
-        <v>14</v>
-      </c>
-      <c r="E21" s="19">
-        <v>14</v>
-      </c>
-      <c r="F21" s="19">
-        <v>0</v>
-      </c>
-      <c r="G21" s="19">
-        <v>4.5</v>
-      </c>
-      <c r="H21" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I21" s="10">
-        <v>5</v>
-      </c>
-      <c r="J21" s="19"/>
-      <c r="K21" s="19">
-        <v>23</v>
-      </c>
-      <c r="L21" s="20"/>
-      <c r="M21" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="N21" s="7">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A22" s="10">
-        <v>20</v>
-      </c>
-      <c r="B22" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="C22" s="18">
-        <v>220041700025</v>
-      </c>
-      <c r="D22" s="19">
-        <v>4</v>
-      </c>
-      <c r="E22" s="19">
-        <v>16</v>
-      </c>
-      <c r="F22" s="19">
-        <v>12</v>
-      </c>
-      <c r="G22" s="19">
-        <v>4.5</v>
-      </c>
-      <c r="H22" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I22" s="10">
-        <v>5</v>
-      </c>
-      <c r="J22" s="19"/>
-      <c r="K22" s="19">
-        <v>21</v>
-      </c>
-      <c r="L22" s="20"/>
-      <c r="M22" s="7">
-        <v>67</v>
-      </c>
-      <c r="N22" s="7">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A23" s="27">
-        <v>21</v>
-      </c>
-      <c r="B23" s="28" t="s">
-        <v>153</v>
-      </c>
-      <c r="C23" s="29">
-        <v>220041700026</v>
-      </c>
-      <c r="D23" s="30">
-        <v>2</v>
-      </c>
-      <c r="E23" s="30" t="s">
-        <v>141</v>
-      </c>
-      <c r="F23" s="30">
-        <v>8</v>
-      </c>
-      <c r="G23" s="31">
-        <v>0</v>
-      </c>
-      <c r="H23" s="27">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I23" s="27">
-        <v>0</v>
-      </c>
-      <c r="J23" s="30"/>
-      <c r="K23" s="30">
-        <v>6</v>
-      </c>
-      <c r="L23" s="32"/>
-      <c r="M23" s="7">
-        <v>52</v>
-      </c>
-      <c r="N23" s="7">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A24" s="10">
-        <v>22</v>
-      </c>
-      <c r="B24" s="16" t="s">
-        <v>154</v>
-      </c>
-      <c r="C24" s="18">
-        <v>220041700027</v>
-      </c>
-      <c r="D24" s="19">
-        <v>6</v>
-      </c>
-      <c r="E24" s="19">
-        <v>12</v>
-      </c>
-      <c r="F24" s="19">
-        <v>13</v>
-      </c>
-      <c r="G24" s="19">
-        <v>4.5</v>
-      </c>
-      <c r="H24" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I24" s="10">
-        <v>5</v>
-      </c>
-      <c r="J24" s="19"/>
-      <c r="K24" s="19">
-        <v>23</v>
-      </c>
-      <c r="L24" s="20"/>
-      <c r="M24" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="N24" s="7">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A25" s="10">
-        <v>23</v>
-      </c>
-      <c r="B25" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="C25" s="18">
-        <v>220041700028</v>
-      </c>
-      <c r="D25" s="19">
-        <v>14</v>
-      </c>
-      <c r="E25" s="19">
-        <v>24</v>
-      </c>
-      <c r="F25" s="19">
-        <v>22</v>
-      </c>
-      <c r="G25" s="19">
-        <v>5</v>
-      </c>
-      <c r="H25" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I25" s="10">
-        <v>5</v>
-      </c>
-      <c r="J25" s="19"/>
-      <c r="K25" s="19">
-        <v>33</v>
-      </c>
-      <c r="L25" s="20"/>
-      <c r="M25" s="7">
-        <v>39</v>
-      </c>
-      <c r="N25" s="7">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A26" s="10">
-        <v>24</v>
-      </c>
-      <c r="B26" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="C26" s="18">
-        <v>220041700029</v>
-      </c>
-      <c r="D26" s="19">
-        <v>4</v>
-      </c>
-      <c r="E26" s="19">
-        <v>9</v>
-      </c>
-      <c r="F26" s="19">
-        <v>6</v>
-      </c>
-      <c r="G26" s="19">
-        <v>5</v>
-      </c>
-      <c r="H26" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I26" s="10">
-        <v>5</v>
-      </c>
-      <c r="J26" s="19"/>
-      <c r="K26" s="19">
-        <v>16</v>
-      </c>
-      <c r="L26" s="20"/>
-      <c r="M26" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="N26" s="7">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A27" s="10">
-        <v>25</v>
-      </c>
-      <c r="B27" s="16" t="s">
-        <v>155</v>
-      </c>
-      <c r="C27" s="18">
-        <v>220041700031</v>
-      </c>
-      <c r="D27" s="19">
-        <v>5</v>
-      </c>
-      <c r="E27" s="19">
-        <v>14</v>
-      </c>
-      <c r="F27" s="19">
-        <v>12</v>
-      </c>
-      <c r="G27" s="19">
-        <v>4</v>
-      </c>
-      <c r="H27" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I27" s="10">
-        <v>5</v>
-      </c>
-      <c r="J27" s="19"/>
-      <c r="K27" s="19">
-        <v>22</v>
-      </c>
-      <c r="L27" s="20"/>
-      <c r="M27" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="N27" s="7">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A28" s="10">
-        <v>26</v>
-      </c>
-      <c r="B28" s="16" t="s">
-        <v>156</v>
-      </c>
-      <c r="C28" s="18">
-        <v>220041700033</v>
-      </c>
-      <c r="D28" s="19">
-        <v>12</v>
-      </c>
-      <c r="E28" s="19">
-        <v>13</v>
-      </c>
-      <c r="F28" s="19">
-        <v>12</v>
-      </c>
-      <c r="G28" s="19">
-        <v>4</v>
-      </c>
-      <c r="H28" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I28" s="10">
-        <v>5</v>
-      </c>
-      <c r="J28" s="19"/>
-      <c r="K28" s="19">
-        <v>21</v>
-      </c>
-      <c r="L28" s="20"/>
-      <c r="M28" s="7">
-        <v>43</v>
-      </c>
-      <c r="N28" s="7">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A29" s="10">
-        <v>27</v>
-      </c>
-      <c r="B29" s="16" t="s">
-        <v>157</v>
-      </c>
-      <c r="C29" s="18">
-        <v>220041700034</v>
-      </c>
-      <c r="D29" s="19">
-        <v>12</v>
-      </c>
-      <c r="E29" s="19">
-        <v>15</v>
-      </c>
-      <c r="F29" s="19">
-        <v>14</v>
-      </c>
-      <c r="G29" s="19">
-        <v>5</v>
-      </c>
-      <c r="H29" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I29" s="10">
-        <v>5</v>
-      </c>
-      <c r="J29" s="19"/>
-      <c r="K29" s="19">
-        <v>23</v>
-      </c>
-      <c r="L29" s="20"/>
-      <c r="M29" s="7">
-        <v>44</v>
-      </c>
-      <c r="N29" s="7">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A30" s="10">
-        <v>28</v>
-      </c>
-      <c r="B30" s="16" t="s">
-        <v>158</v>
-      </c>
-      <c r="C30" s="18">
-        <v>220041700035</v>
-      </c>
-      <c r="D30" s="19">
-        <v>3</v>
-      </c>
-      <c r="E30" s="19">
-        <v>12</v>
-      </c>
-      <c r="F30" s="19">
-        <v>14</v>
-      </c>
-      <c r="G30" s="19">
-        <v>4</v>
-      </c>
-      <c r="H30" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I30" s="10">
-        <v>5</v>
-      </c>
-      <c r="J30" s="19"/>
-      <c r="K30" s="19">
-        <v>23</v>
-      </c>
-      <c r="L30" s="20"/>
-      <c r="M30" s="7">
-        <v>68</v>
-      </c>
-      <c r="N30" s="7">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A31" s="10">
-        <v>29</v>
-      </c>
-      <c r="B31" s="16" t="s">
-        <v>159</v>
-      </c>
-      <c r="C31" s="18">
-        <v>220041700036</v>
-      </c>
-      <c r="D31" s="19">
-        <v>17</v>
-      </c>
-      <c r="E31" s="19">
-        <v>20</v>
-      </c>
-      <c r="F31" s="19">
-        <v>25</v>
-      </c>
-      <c r="G31" s="19">
-        <v>5</v>
-      </c>
-      <c r="H31" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I31" s="10">
-        <v>5</v>
-      </c>
-      <c r="J31" s="19"/>
-      <c r="K31" s="19">
-        <v>32</v>
-      </c>
-      <c r="L31" s="20"/>
-      <c r="M31" s="7">
-        <v>55</v>
-      </c>
-      <c r="N31" s="7">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A32" s="10">
-        <v>30</v>
-      </c>
-      <c r="B32" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="C32" s="18">
-        <v>220041700037</v>
-      </c>
-      <c r="D32" s="19" t="s">
-        <v>141</v>
-      </c>
-      <c r="E32" s="19">
-        <v>5</v>
-      </c>
-      <c r="F32" s="19" t="s">
-        <v>141</v>
-      </c>
-      <c r="G32" s="21">
-        <v>0</v>
-      </c>
-      <c r="H32" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I32" s="10">
-        <v>0</v>
-      </c>
-      <c r="J32" s="19"/>
-      <c r="K32" s="19">
-        <v>3</v>
-      </c>
-      <c r="L32" s="20"/>
-      <c r="M32" s="7">
-        <v>77</v>
-      </c>
-      <c r="N32" s="7">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A33" s="10">
-        <v>31</v>
-      </c>
-      <c r="B33" s="16" t="s">
-        <v>160</v>
-      </c>
-      <c r="C33" s="18">
-        <v>220041700038</v>
-      </c>
-      <c r="D33" s="19">
-        <v>7</v>
-      </c>
-      <c r="E33" s="19">
-        <v>2</v>
-      </c>
-      <c r="F33" s="19">
-        <v>12</v>
-      </c>
-      <c r="G33" s="21">
-        <v>0</v>
-      </c>
-      <c r="H33" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I33" s="10">
-        <v>0</v>
-      </c>
-      <c r="J33" s="19"/>
-      <c r="K33" s="19">
-        <v>11</v>
-      </c>
-      <c r="L33" s="20"/>
-      <c r="M33" s="7">
-        <v>39</v>
-      </c>
-      <c r="N33" s="7">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A34" s="10">
-        <v>32</v>
-      </c>
-      <c r="B34" s="16" t="s">
-        <v>161</v>
-      </c>
-      <c r="C34" s="18">
-        <v>220041700039</v>
-      </c>
-      <c r="D34" s="19">
-        <v>13</v>
-      </c>
-      <c r="E34" s="19">
-        <v>20</v>
-      </c>
-      <c r="F34" s="19">
-        <v>19</v>
-      </c>
-      <c r="G34" s="21">
-        <v>0</v>
-      </c>
-      <c r="H34" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I34" s="10">
-        <v>5</v>
-      </c>
-      <c r="J34" s="19"/>
-      <c r="K34" s="19">
-        <v>27</v>
-      </c>
-      <c r="L34" s="20"/>
-      <c r="M34" s="7">
-        <v>64</v>
-      </c>
-      <c r="N34" s="7">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A35" s="10">
-        <v>33</v>
-      </c>
-      <c r="B35" s="16" t="s">
-        <v>162</v>
-      </c>
-      <c r="C35" s="18">
-        <v>220041700040</v>
-      </c>
-      <c r="D35" s="19">
-        <v>7</v>
-      </c>
-      <c r="E35" s="19">
-        <v>6</v>
-      </c>
-      <c r="F35" s="19">
-        <v>16</v>
-      </c>
-      <c r="G35" s="21">
-        <v>0</v>
-      </c>
-      <c r="H35" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I35" s="10">
-        <v>5</v>
-      </c>
-      <c r="J35" s="19"/>
-      <c r="K35" s="19">
-        <v>21</v>
-      </c>
-      <c r="L35" s="20"/>
-      <c r="M35" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="N35" s="7">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A36" s="10">
-        <v>34</v>
-      </c>
-      <c r="B36" s="16" t="s">
-        <v>163</v>
-      </c>
-      <c r="C36" s="18">
-        <v>220041700042</v>
-      </c>
-      <c r="D36" s="19">
-        <v>7</v>
-      </c>
-      <c r="E36" s="19">
-        <v>6</v>
-      </c>
-      <c r="F36" s="19">
-        <v>12</v>
-      </c>
-      <c r="G36" s="21">
-        <v>0</v>
-      </c>
-      <c r="H36" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I36" s="10">
-        <v>0</v>
-      </c>
-      <c r="J36" s="19"/>
-      <c r="K36" s="19">
-        <v>16</v>
-      </c>
-      <c r="L36" s="20"/>
-      <c r="M36" s="7">
-        <v>40</v>
-      </c>
-      <c r="N36" s="7">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A37" s="10">
-        <v>35</v>
-      </c>
-      <c r="B37" s="33" t="s">
-        <v>34</v>
-      </c>
-      <c r="C37" s="18">
-        <v>220041700043</v>
-      </c>
-      <c r="D37" s="19">
-        <v>16</v>
-      </c>
-      <c r="E37" s="19">
-        <v>15</v>
-      </c>
-      <c r="F37" s="19">
-        <v>7</v>
-      </c>
-      <c r="G37" s="21">
-        <v>0</v>
-      </c>
-      <c r="H37" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I37" s="10">
-        <v>5</v>
-      </c>
-      <c r="J37" s="19"/>
-      <c r="K37" s="19">
-        <v>21</v>
-      </c>
-      <c r="L37" s="20"/>
-      <c r="M37" s="7">
-        <v>54</v>
-      </c>
-      <c r="N37" s="7">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A38" s="10">
-        <v>36</v>
-      </c>
-      <c r="B38" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="C38" s="18">
-        <v>220041700044</v>
-      </c>
-      <c r="D38" s="19">
-        <v>12</v>
-      </c>
-      <c r="E38" s="19">
-        <v>10</v>
-      </c>
-      <c r="F38" s="19">
-        <v>15</v>
-      </c>
-      <c r="G38" s="19">
-        <v>5</v>
-      </c>
-      <c r="H38" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I38" s="10">
-        <v>5</v>
-      </c>
-      <c r="J38" s="19"/>
-      <c r="K38" s="19">
-        <v>23</v>
-      </c>
-      <c r="L38" s="20"/>
-      <c r="M38" s="7">
-        <v>45</v>
-      </c>
-      <c r="N38" s="7">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A39" s="10">
-        <v>37</v>
-      </c>
-      <c r="B39" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="C39" s="18">
-        <v>220041700045</v>
-      </c>
-      <c r="D39" s="19">
-        <v>8</v>
-      </c>
-      <c r="E39" s="19">
-        <v>18</v>
-      </c>
-      <c r="F39" s="19">
-        <v>7</v>
-      </c>
-      <c r="G39" s="19">
-        <v>4.5</v>
-      </c>
-      <c r="H39" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I39" s="10">
-        <v>5</v>
-      </c>
-      <c r="J39" s="19"/>
-      <c r="K39" s="19">
-        <v>22</v>
-      </c>
-      <c r="L39" s="20"/>
-      <c r="M39" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="N39" s="7">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A40" s="10">
-        <v>38</v>
-      </c>
-      <c r="B40" s="16" t="s">
-        <v>164</v>
-      </c>
-      <c r="C40" s="18">
-        <v>220041700046</v>
-      </c>
-      <c r="D40" s="19">
-        <v>8</v>
-      </c>
-      <c r="E40" s="19">
-        <v>18</v>
-      </c>
-      <c r="F40" s="19">
-        <v>10</v>
-      </c>
-      <c r="G40" s="19">
-        <v>4.5</v>
-      </c>
-      <c r="H40" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I40" s="10">
-        <v>5</v>
-      </c>
-      <c r="J40" s="19"/>
-      <c r="K40" s="19">
-        <v>23</v>
-      </c>
-      <c r="L40" s="20"/>
-      <c r="M40" s="7">
-        <v>54</v>
-      </c>
-      <c r="N40" s="7">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A41" s="27">
-        <v>39</v>
-      </c>
-      <c r="B41" s="28" t="s">
-        <v>165</v>
-      </c>
-      <c r="C41" s="29">
-        <v>220041700048</v>
-      </c>
-      <c r="D41" s="30">
-        <v>4</v>
-      </c>
-      <c r="E41" s="30">
-        <v>3</v>
-      </c>
-      <c r="F41" s="30">
-        <v>8</v>
-      </c>
-      <c r="G41" s="31">
-        <v>0</v>
-      </c>
-      <c r="H41" s="27">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I41" s="27">
-        <v>0</v>
-      </c>
-      <c r="J41" s="30"/>
-      <c r="K41" s="30">
-        <v>8</v>
-      </c>
-      <c r="L41" s="32"/>
-      <c r="M41" s="7">
-        <v>65</v>
-      </c>
-      <c r="N41" s="7">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A42" s="10">
-        <v>40</v>
-      </c>
-      <c r="B42" s="16" t="s">
-        <v>166</v>
-      </c>
-      <c r="C42" s="18">
-        <v>220041700049</v>
-      </c>
-      <c r="D42" s="19">
-        <v>13</v>
-      </c>
-      <c r="E42" s="19">
-        <v>12</v>
-      </c>
-      <c r="F42" s="19">
-        <v>24</v>
-      </c>
-      <c r="G42" s="21">
-        <v>0</v>
-      </c>
-      <c r="H42" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I42" s="10">
-        <v>5</v>
-      </c>
-      <c r="J42" s="19"/>
-      <c r="K42" s="19">
-        <v>26</v>
-      </c>
-      <c r="L42" s="20"/>
-      <c r="M42" s="7">
-        <v>57</v>
-      </c>
-      <c r="N42" s="7">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A43" s="10">
-        <v>41</v>
-      </c>
-      <c r="B43" s="16" t="s">
-        <v>167</v>
-      </c>
-      <c r="C43" s="18">
-        <v>220041700051</v>
-      </c>
-      <c r="D43" s="19">
-        <v>12</v>
-      </c>
-      <c r="E43" s="19">
-        <v>20</v>
-      </c>
-      <c r="F43" s="19">
-        <v>19</v>
-      </c>
-      <c r="G43" s="19">
-        <v>5</v>
-      </c>
-      <c r="H43" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I43" s="10">
-        <v>5</v>
-      </c>
-      <c r="J43" s="19"/>
-      <c r="K43" s="19">
-        <v>28</v>
-      </c>
-      <c r="L43" s="20"/>
-      <c r="M43" s="7">
-        <v>34</v>
-      </c>
-      <c r="N43" s="7">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A44" s="10">
-        <v>42</v>
-      </c>
-      <c r="B44" s="16" t="s">
-        <v>168</v>
-      </c>
-      <c r="C44" s="18">
-        <v>220041700052</v>
-      </c>
-      <c r="D44" s="19">
-        <v>5</v>
-      </c>
-      <c r="E44" s="19">
-        <v>14</v>
-      </c>
-      <c r="F44" s="19">
-        <v>10</v>
-      </c>
-      <c r="G44" s="19">
-        <v>3</v>
-      </c>
-      <c r="H44" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I44" s="10">
-        <v>5</v>
-      </c>
-      <c r="J44" s="19"/>
-      <c r="K44" s="19">
-        <v>21</v>
-      </c>
-      <c r="L44" s="20"/>
-      <c r="M44" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="N44" s="7">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A45" s="10">
-        <v>43</v>
-      </c>
-      <c r="B45" s="16" t="s">
-        <v>169</v>
-      </c>
-      <c r="C45" s="18">
-        <v>220041700054</v>
-      </c>
-      <c r="D45" s="19">
-        <v>3</v>
-      </c>
-      <c r="E45" s="19">
-        <v>4</v>
-      </c>
-      <c r="F45" s="19">
-        <v>14</v>
-      </c>
-      <c r="G45" s="19">
-        <v>3.5</v>
-      </c>
-      <c r="H45" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I45" s="10">
-        <v>5</v>
-      </c>
-      <c r="J45" s="19"/>
-      <c r="K45" s="19">
-        <v>20</v>
-      </c>
-      <c r="L45" s="20"/>
-      <c r="M45" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="N45" s="7">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A46" s="27">
-        <v>44</v>
-      </c>
-      <c r="B46" s="28" t="s">
-        <v>39</v>
-      </c>
-      <c r="C46" s="29">
-        <v>220041700055</v>
-      </c>
-      <c r="D46" s="30">
-        <v>0</v>
-      </c>
-      <c r="E46" s="30" t="s">
-        <v>141</v>
-      </c>
-      <c r="F46" s="30" t="s">
-        <v>141</v>
-      </c>
-      <c r="G46" s="30">
-        <v>4.5</v>
-      </c>
-      <c r="H46" s="27">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I46" s="27">
-        <v>0</v>
-      </c>
-      <c r="J46" s="30"/>
-      <c r="K46" s="30">
-        <v>4</v>
-      </c>
-      <c r="L46" s="32"/>
-      <c r="M46" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="N46" s="7">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A47" s="10">
-        <v>45</v>
-      </c>
-      <c r="B47" s="16" t="s">
-        <v>170</v>
-      </c>
-      <c r="C47" s="18">
-        <v>220041700056</v>
-      </c>
-      <c r="D47" s="19">
-        <v>5</v>
-      </c>
-      <c r="E47" s="19">
-        <v>16</v>
-      </c>
-      <c r="F47" s="19">
-        <v>6</v>
-      </c>
-      <c r="G47" s="19">
-        <v>5</v>
-      </c>
-      <c r="H47" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I47" s="10">
-        <v>5</v>
-      </c>
-      <c r="J47" s="19"/>
-      <c r="K47" s="19">
-        <v>20</v>
-      </c>
-      <c r="L47" s="20"/>
-      <c r="M47" s="7">
-        <v>52</v>
-      </c>
-      <c r="N47" s="7">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A48" s="10">
-        <v>46</v>
-      </c>
-      <c r="B48" s="16" t="s">
-        <v>171</v>
-      </c>
-      <c r="C48" s="18">
-        <v>220041700057</v>
-      </c>
-      <c r="D48" s="19">
-        <v>6</v>
-      </c>
-      <c r="E48" s="19">
-        <v>16</v>
-      </c>
-      <c r="F48" s="19">
-        <v>9</v>
-      </c>
-      <c r="G48" s="19">
-        <v>3</v>
-      </c>
-      <c r="H48" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I48" s="10">
-        <v>5</v>
-      </c>
-      <c r="J48" s="19"/>
-      <c r="K48" s="19">
-        <v>21</v>
-      </c>
-      <c r="L48" s="20"/>
-      <c r="M48" s="7">
-        <v>50</v>
-      </c>
-      <c r="N48" s="7">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A49" s="10">
-        <v>47</v>
-      </c>
-      <c r="B49" s="16" t="s">
-        <v>171</v>
-      </c>
-      <c r="C49" s="18">
-        <v>220041700058</v>
-      </c>
-      <c r="D49" s="19">
-        <v>2</v>
-      </c>
-      <c r="E49" s="19" t="s">
-        <v>141</v>
-      </c>
-      <c r="F49" s="19" t="s">
-        <v>141</v>
-      </c>
-      <c r="G49" s="21">
-        <v>0</v>
-      </c>
-      <c r="H49" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I49" s="10">
-        <v>0</v>
-      </c>
-      <c r="J49" s="19"/>
-      <c r="K49" s="19">
-        <v>1</v>
-      </c>
-      <c r="L49" s="20"/>
-      <c r="M49" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="N49" s="7">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A50" s="27">
-        <v>48</v>
-      </c>
-      <c r="B50" s="28" t="s">
-        <v>41</v>
-      </c>
-      <c r="C50" s="29">
-        <v>220041700059</v>
-      </c>
-      <c r="D50" s="30">
-        <v>3</v>
-      </c>
-      <c r="E50" s="30" t="s">
-        <v>141</v>
-      </c>
-      <c r="F50" s="30" t="s">
-        <v>141</v>
-      </c>
-      <c r="G50" s="31">
-        <v>0</v>
-      </c>
-      <c r="H50" s="27">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I50" s="27">
-        <v>0</v>
-      </c>
-      <c r="J50" s="30"/>
-      <c r="K50" s="30">
-        <v>2</v>
-      </c>
-      <c r="L50" s="32"/>
-      <c r="M50" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="N50" s="7">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A51" s="10">
-        <v>49</v>
-      </c>
-      <c r="B51" s="16" t="s">
-        <v>172</v>
-      </c>
-      <c r="C51" s="18">
-        <v>220041700060</v>
-      </c>
-      <c r="D51" s="19">
-        <v>9</v>
-      </c>
-      <c r="E51" s="19">
-        <v>14</v>
-      </c>
-      <c r="F51" s="19">
-        <v>13</v>
-      </c>
-      <c r="G51" s="19">
-        <v>4.5</v>
-      </c>
-      <c r="H51" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I51" s="10">
-        <v>5</v>
-      </c>
-      <c r="J51" s="19"/>
-      <c r="K51" s="19">
-        <v>21</v>
-      </c>
-      <c r="L51" s="20"/>
-      <c r="M51" s="7">
-        <v>67</v>
-      </c>
-      <c r="N51" s="7">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A52" s="10">
-        <v>50</v>
-      </c>
-      <c r="B52" s="16" t="s">
-        <v>173</v>
-      </c>
-      <c r="C52" s="18">
-        <v>220041700061</v>
-      </c>
-      <c r="D52" s="19">
-        <v>3</v>
-      </c>
-      <c r="E52" s="19">
-        <v>8</v>
-      </c>
-      <c r="F52" s="19">
-        <v>3</v>
-      </c>
-      <c r="G52" s="21">
-        <v>0</v>
-      </c>
-      <c r="H52" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I52" s="10">
-        <v>0</v>
-      </c>
-      <c r="J52" s="19"/>
-      <c r="K52" s="19">
-        <v>16</v>
-      </c>
-      <c r="L52" s="20"/>
-      <c r="M52" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="N52" s="7">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A53" s="27">
-        <v>51</v>
-      </c>
-      <c r="B53" s="28" t="s">
-        <v>174</v>
-      </c>
-      <c r="C53" s="29">
-        <v>220041700063</v>
-      </c>
-      <c r="D53" s="30">
-        <v>0</v>
-      </c>
-      <c r="E53" s="30" t="s">
-        <v>141</v>
-      </c>
-      <c r="F53" s="30" t="s">
-        <v>141</v>
-      </c>
-      <c r="G53" s="30">
-        <v>4</v>
-      </c>
-      <c r="H53" s="27">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I53" s="27">
-        <v>5</v>
-      </c>
-      <c r="J53" s="30"/>
-      <c r="K53" s="30">
-        <v>6</v>
-      </c>
-      <c r="L53" s="32"/>
-      <c r="M53" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="N53" s="7">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A54" s="10">
-        <v>52</v>
-      </c>
-      <c r="B54" s="16" t="s">
-        <v>175</v>
-      </c>
-      <c r="C54" s="18">
-        <v>220041700064</v>
-      </c>
-      <c r="D54" s="19">
-        <v>5</v>
-      </c>
-      <c r="E54" s="19">
-        <v>9</v>
-      </c>
-      <c r="F54" s="19">
-        <v>12</v>
-      </c>
-      <c r="G54" s="21">
-        <v>0</v>
-      </c>
-      <c r="H54" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I54" s="10">
-        <v>5</v>
-      </c>
-      <c r="J54" s="19"/>
-      <c r="K54" s="19">
-        <v>20</v>
-      </c>
-      <c r="L54" s="20"/>
-      <c r="M54" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="N54" s="7">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A55" s="10">
-        <v>53</v>
-      </c>
-      <c r="B55" s="16" t="s">
-        <v>176</v>
-      </c>
-      <c r="C55" s="18">
-        <v>220041700065</v>
-      </c>
-      <c r="D55" s="19">
-        <v>13</v>
-      </c>
-      <c r="E55" s="19">
-        <v>18</v>
-      </c>
-      <c r="F55" s="19">
-        <v>17</v>
-      </c>
-      <c r="G55" s="19">
-        <v>5</v>
-      </c>
-      <c r="H55" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I55" s="10">
-        <v>5</v>
-      </c>
-      <c r="J55" s="19"/>
-      <c r="K55" s="19">
-        <v>27</v>
-      </c>
-      <c r="L55" s="20"/>
-      <c r="M55" s="7">
-        <v>43</v>
-      </c>
-      <c r="N55" s="7">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A56" s="10">
-        <v>54</v>
-      </c>
-      <c r="B56" s="16" t="s">
-        <v>177</v>
-      </c>
-      <c r="C56" s="18">
-        <v>220041700066</v>
-      </c>
-      <c r="D56" s="19">
-        <v>9</v>
-      </c>
-      <c r="E56" s="19">
-        <v>23</v>
-      </c>
-      <c r="F56" s="19">
-        <v>20</v>
-      </c>
-      <c r="G56" s="19">
-        <v>4.5</v>
-      </c>
-      <c r="H56" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I56" s="10">
-        <v>5</v>
-      </c>
-      <c r="J56" s="19"/>
-      <c r="K56" s="19">
-        <v>31</v>
-      </c>
-      <c r="L56" s="20"/>
-      <c r="M56" s="7">
-        <v>54</v>
-      </c>
-      <c r="N56" s="7">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A57" s="10">
-        <v>55</v>
-      </c>
-      <c r="B57" s="16" t="s">
-        <v>178</v>
-      </c>
-      <c r="C57" s="18">
-        <v>220041700067</v>
-      </c>
-      <c r="D57" s="19">
-        <v>20</v>
-      </c>
-      <c r="E57" s="19">
-        <v>21</v>
-      </c>
-      <c r="F57" s="19">
-        <v>20</v>
-      </c>
-      <c r="G57" s="19">
-        <v>5</v>
-      </c>
-      <c r="H57" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I57" s="10">
-        <v>5</v>
-      </c>
-      <c r="J57" s="19"/>
-      <c r="K57" s="19">
-        <v>30</v>
-      </c>
-      <c r="L57" s="20"/>
-      <c r="M57" s="7">
-        <v>49</v>
-      </c>
-      <c r="N57" s="7">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A58" s="10">
-        <v>56</v>
-      </c>
-      <c r="B58" s="34" t="s">
-        <v>179</v>
-      </c>
-      <c r="C58" s="35">
-        <v>220041723001</v>
-      </c>
-      <c r="D58" s="19">
-        <v>3</v>
-      </c>
-      <c r="E58" s="19">
-        <v>9</v>
-      </c>
-      <c r="F58" s="19">
-        <v>22</v>
-      </c>
-      <c r="G58" s="19">
-        <v>4.5</v>
-      </c>
-      <c r="H58" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I58" s="10">
-        <v>5</v>
-      </c>
-      <c r="J58" s="19"/>
-      <c r="K58" s="19">
-        <v>25</v>
-      </c>
-      <c r="L58" s="20"/>
-      <c r="M58" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="N58" s="7">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A59" s="10">
-        <v>57</v>
-      </c>
-      <c r="B59" s="34" t="s">
-        <v>180</v>
-      </c>
-      <c r="C59" s="35">
-        <v>220041723002</v>
-      </c>
-      <c r="D59" s="19">
-        <v>4</v>
-      </c>
-      <c r="E59" s="19">
-        <v>12</v>
-      </c>
-      <c r="F59" s="19">
-        <v>6</v>
-      </c>
-      <c r="G59" s="19">
-        <v>4</v>
-      </c>
-      <c r="H59" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I59" s="10">
-        <v>5</v>
-      </c>
-      <c r="J59" s="19"/>
-      <c r="K59" s="19">
-        <v>20</v>
-      </c>
-      <c r="L59" s="20"/>
-      <c r="M59" s="7">
-        <v>75</v>
-      </c>
-      <c r="N59" s="7">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A60" s="10">
-        <v>58</v>
-      </c>
-      <c r="B60" s="34" t="s">
-        <v>181</v>
-      </c>
-      <c r="C60" s="35">
-        <v>220041723003</v>
-      </c>
-      <c r="D60" s="19">
-        <v>17</v>
-      </c>
-      <c r="E60" s="19">
-        <v>18</v>
-      </c>
-      <c r="F60" s="19">
-        <v>15</v>
-      </c>
-      <c r="G60" s="19">
-        <v>5</v>
-      </c>
-      <c r="H60" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I60" s="10">
-        <v>5</v>
-      </c>
-      <c r="J60" s="19"/>
-      <c r="K60" s="19">
-        <v>26</v>
-      </c>
-      <c r="L60" s="20"/>
-      <c r="M60" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="N60" s="7">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A61" s="10">
-        <v>59</v>
-      </c>
-      <c r="B61" s="34" t="s">
-        <v>182</v>
-      </c>
-      <c r="C61" s="35">
-        <v>220041723004</v>
-      </c>
-      <c r="D61" s="19">
-        <v>17</v>
-      </c>
-      <c r="E61" s="19">
-        <v>24</v>
-      </c>
-      <c r="F61" s="19">
-        <v>19</v>
-      </c>
-      <c r="G61" s="19">
-        <v>5</v>
-      </c>
-      <c r="H61" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I61" s="10">
-        <v>5</v>
-      </c>
-      <c r="J61" s="19"/>
-      <c r="K61" s="19">
-        <v>31</v>
-      </c>
-      <c r="L61" s="20"/>
-      <c r="M61" s="7">
-        <v>62</v>
-      </c>
-      <c r="N61" s="7">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A62" s="10">
-        <v>60</v>
-      </c>
-      <c r="B62" s="34" t="s">
-        <v>183</v>
-      </c>
-      <c r="C62" s="35">
-        <v>220041723005</v>
-      </c>
-      <c r="D62" s="19">
-        <v>21</v>
-      </c>
-      <c r="E62" s="19">
-        <v>29</v>
-      </c>
-      <c r="F62" s="19">
-        <v>24</v>
-      </c>
-      <c r="G62" s="19">
-        <v>4.5</v>
-      </c>
-      <c r="H62" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I62" s="10">
-        <v>5</v>
-      </c>
-      <c r="J62" s="19"/>
-      <c r="K62" s="19">
-        <v>37</v>
-      </c>
-      <c r="L62" s="20"/>
-      <c r="M62" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="N62" s="7">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A63" s="27">
-        <v>61</v>
-      </c>
-      <c r="B63" s="36" t="s">
-        <v>184</v>
-      </c>
-      <c r="C63" s="37">
-        <v>220041723006</v>
-      </c>
-      <c r="D63" s="30">
-        <v>2</v>
-      </c>
-      <c r="E63" s="30">
-        <v>13</v>
-      </c>
-      <c r="F63" s="30" t="s">
-        <v>141</v>
-      </c>
-      <c r="G63" s="31">
-        <v>0</v>
-      </c>
-      <c r="H63" s="27">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I63" s="27">
-        <v>0</v>
-      </c>
-      <c r="J63" s="30"/>
-      <c r="K63" s="30">
-        <v>9</v>
-      </c>
-      <c r="L63" s="32"/>
-      <c r="M63" s="7">
-        <v>63</v>
-      </c>
-      <c r="N63" s="7">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A64" s="10">
-        <v>62</v>
-      </c>
-      <c r="B64" s="34" t="s">
-        <v>185</v>
-      </c>
-      <c r="C64" s="35">
-        <v>220041723007</v>
-      </c>
-      <c r="D64" s="19">
-        <v>12</v>
-      </c>
-      <c r="E64" s="19">
-        <v>15</v>
-      </c>
-      <c r="F64" s="19">
-        <v>17</v>
-      </c>
-      <c r="G64" s="19">
-        <v>5</v>
-      </c>
-      <c r="H64" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I64" s="10">
-        <v>0</v>
-      </c>
-      <c r="J64" s="19"/>
-      <c r="K64" s="19">
-        <v>21</v>
-      </c>
-      <c r="L64" s="20"/>
-      <c r="M64" s="7">
-        <v>77</v>
-      </c>
-      <c r="N64" s="7">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A65" s="10">
-        <v>63</v>
-      </c>
-      <c r="B65" s="34" t="s">
-        <v>186</v>
-      </c>
-      <c r="C65" s="35">
-        <v>220041723008</v>
-      </c>
-      <c r="D65" s="19">
-        <v>3</v>
-      </c>
-      <c r="E65" s="19">
-        <v>8</v>
-      </c>
-      <c r="F65" s="19">
-        <v>5</v>
-      </c>
-      <c r="G65" s="19">
-        <v>4.5</v>
-      </c>
-      <c r="H65" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I65" s="10">
-        <v>5</v>
-      </c>
-      <c r="J65" s="19"/>
-      <c r="K65" s="19">
-        <v>16</v>
-      </c>
-      <c r="L65" s="20"/>
-      <c r="M65" s="7">
-        <v>49</v>
-      </c>
-      <c r="N65" s="7">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A66" s="10">
-        <v>64</v>
-      </c>
-      <c r="B66" s="34" t="s">
-        <v>187</v>
-      </c>
-      <c r="C66" s="35">
-        <v>220041723009</v>
-      </c>
-      <c r="D66" s="19">
-        <v>19</v>
-      </c>
-      <c r="E66" s="19">
-        <v>17</v>
-      </c>
-      <c r="F66" s="19">
-        <v>17</v>
-      </c>
-      <c r="G66" s="19">
-        <v>5</v>
-      </c>
-      <c r="H66" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I66" s="10">
-        <v>5</v>
-      </c>
-      <c r="J66" s="19"/>
-      <c r="K66" s="19">
-        <v>26</v>
-      </c>
-      <c r="L66" s="20"/>
-      <c r="M66" s="7">
-        <v>53</v>
-      </c>
-      <c r="N66" s="7">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A67" s="10">
-        <v>65</v>
-      </c>
-      <c r="B67" s="34" t="s">
-        <v>188</v>
-      </c>
-      <c r="C67" s="35">
-        <v>220041723011</v>
-      </c>
-      <c r="D67" s="19">
-        <v>13</v>
-      </c>
-      <c r="E67" s="19">
-        <v>8</v>
-      </c>
-      <c r="F67" s="19">
-        <v>20</v>
-      </c>
-      <c r="G67" s="19">
-        <v>5</v>
-      </c>
-      <c r="H67" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I67" s="10">
-        <v>5</v>
-      </c>
-      <c r="J67" s="19"/>
-      <c r="K67" s="19">
-        <v>25</v>
-      </c>
-      <c r="L67" s="20"/>
-      <c r="M67" s="7">
-        <v>64</v>
-      </c>
-      <c r="N67" s="7">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A68" s="10">
-        <v>66</v>
-      </c>
-      <c r="B68" s="34" t="s">
-        <v>189</v>
-      </c>
-      <c r="C68" s="35">
-        <v>220041723012</v>
-      </c>
-      <c r="D68" s="19">
-        <v>14</v>
-      </c>
-      <c r="E68" s="19">
-        <v>22</v>
-      </c>
-      <c r="F68" s="19">
-        <v>21</v>
-      </c>
-      <c r="G68" s="21">
-        <v>0</v>
-      </c>
-      <c r="H68" s="10">
-        <f t="shared" ref="H68:H131" si="1">P68</f>
-        <v>0</v>
-      </c>
-      <c r="I68" s="10">
-        <v>5</v>
-      </c>
-      <c r="J68" s="19"/>
-      <c r="K68" s="19">
-        <v>28</v>
-      </c>
-      <c r="L68" s="20"/>
-      <c r="M68" s="7">
-        <v>43</v>
-      </c>
-      <c r="N68" s="7">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A69" s="10">
-        <v>67</v>
-      </c>
-      <c r="B69" s="34" t="s">
-        <v>190</v>
-      </c>
-      <c r="C69" s="35">
-        <v>220041723013</v>
-      </c>
-      <c r="D69" s="19">
-        <v>9</v>
-      </c>
-      <c r="E69" s="19">
-        <v>14</v>
-      </c>
-      <c r="F69" s="19">
-        <v>12</v>
-      </c>
-      <c r="G69" s="19">
-        <v>4.5</v>
-      </c>
-      <c r="H69" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I69" s="10">
-        <v>5</v>
-      </c>
-      <c r="J69" s="19"/>
-      <c r="K69" s="19">
-        <v>22</v>
-      </c>
-      <c r="L69" s="20"/>
-      <c r="M69" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="N69" s="7">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A70" s="10">
-        <v>68</v>
-      </c>
-      <c r="B70" s="34" t="s">
-        <v>191</v>
-      </c>
-      <c r="C70" s="35">
-        <v>220041723014</v>
-      </c>
-      <c r="D70" s="19">
-        <v>3</v>
-      </c>
-      <c r="E70" s="19">
-        <v>12</v>
-      </c>
-      <c r="F70" s="19">
-        <v>16</v>
-      </c>
-      <c r="G70" s="19">
-        <v>5</v>
-      </c>
-      <c r="H70" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I70" s="10">
-        <v>5</v>
-      </c>
-      <c r="J70" s="19"/>
-      <c r="K70" s="19">
-        <v>24</v>
-      </c>
-      <c r="L70" s="20"/>
-      <c r="M70" s="7">
-        <v>50</v>
-      </c>
-      <c r="N70" s="7">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A71" s="10">
-        <v>69</v>
-      </c>
-      <c r="B71" s="34" t="s">
-        <v>192</v>
-      </c>
-      <c r="C71" s="35">
-        <v>220041723015</v>
-      </c>
-      <c r="D71" s="19">
-        <v>4</v>
-      </c>
-      <c r="E71" s="19">
-        <v>12</v>
-      </c>
-      <c r="F71" s="19">
-        <v>16</v>
-      </c>
-      <c r="G71" s="19">
-        <v>5</v>
-      </c>
-      <c r="H71" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I71" s="10">
-        <v>5</v>
-      </c>
-      <c r="J71" s="19"/>
-      <c r="K71" s="19">
-        <v>22</v>
-      </c>
-      <c r="L71" s="20"/>
-      <c r="M71" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="N71" s="7">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A72" s="10">
-        <v>70</v>
-      </c>
-      <c r="B72" s="34" t="s">
-        <v>193</v>
-      </c>
-      <c r="C72" s="35">
-        <v>220041723016</v>
-      </c>
-      <c r="D72" s="19">
-        <v>21</v>
-      </c>
-      <c r="E72" s="19">
-        <v>26</v>
-      </c>
-      <c r="F72" s="19">
-        <v>13</v>
-      </c>
-      <c r="G72" s="19">
-        <v>5</v>
-      </c>
-      <c r="H72" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I72" s="10">
-        <v>5</v>
-      </c>
-      <c r="J72" s="19"/>
-      <c r="K72" s="19">
-        <v>33</v>
-      </c>
-      <c r="L72" s="20"/>
-      <c r="M72" s="7">
-        <v>68</v>
-      </c>
-      <c r="N72" s="7">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A73" s="10">
-        <v>71</v>
-      </c>
-      <c r="B73" s="34" t="s">
-        <v>194</v>
-      </c>
-      <c r="C73" s="35">
-        <v>210041700070</v>
-      </c>
-      <c r="D73" s="19">
-        <v>5</v>
-      </c>
-      <c r="E73" s="19">
-        <v>17</v>
-      </c>
-      <c r="F73" s="19">
-        <v>14</v>
-      </c>
-      <c r="G73" s="19">
-        <v>5</v>
-      </c>
-      <c r="H73" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I73" s="10">
-        <v>5</v>
-      </c>
-      <c r="J73" s="19"/>
-      <c r="K73" s="19">
-        <v>24</v>
-      </c>
-      <c r="L73" s="20"/>
-      <c r="M73" s="7">
-        <v>53</v>
-      </c>
-      <c r="N73" s="7">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A74" s="10">
-        <v>72</v>
-      </c>
-      <c r="B74" s="34" t="s">
-        <v>195</v>
-      </c>
-      <c r="C74" s="35">
-        <v>210041700089</v>
-      </c>
-      <c r="D74" s="19">
-        <v>7</v>
-      </c>
-      <c r="E74" s="19">
-        <v>16</v>
-      </c>
-      <c r="F74" s="19">
-        <v>16</v>
-      </c>
-      <c r="G74" s="19">
-        <v>5</v>
-      </c>
-      <c r="H74" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I74" s="10">
-        <v>5</v>
-      </c>
-      <c r="J74" s="19"/>
-      <c r="K74" s="19">
-        <v>22</v>
-      </c>
-      <c r="L74" s="20"/>
-      <c r="M74" s="7">
-        <v>76</v>
-      </c>
-      <c r="N74" s="7">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A75" s="27">
-        <v>73</v>
-      </c>
-      <c r="B75" s="28" t="s">
-        <v>196</v>
-      </c>
-      <c r="C75" s="29">
-        <v>220041700069</v>
-      </c>
-      <c r="D75" s="30">
-        <v>2</v>
-      </c>
-      <c r="E75" s="30">
-        <v>5</v>
-      </c>
-      <c r="F75" s="30">
-        <v>3</v>
-      </c>
-      <c r="G75" s="31">
-        <v>0</v>
-      </c>
-      <c r="H75" s="27">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I75" s="27">
-        <v>0</v>
-      </c>
-      <c r="J75" s="30"/>
-      <c r="K75" s="30">
-        <v>7</v>
-      </c>
-      <c r="L75" s="32"/>
-      <c r="M75" s="7">
-        <v>71</v>
-      </c>
-      <c r="N75" s="7">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A76" s="10">
-        <v>74</v>
-      </c>
-      <c r="B76" s="16" t="s">
-        <v>197</v>
-      </c>
-      <c r="C76" s="18">
-        <v>220041700070</v>
-      </c>
-      <c r="D76" s="19">
-        <v>2</v>
-      </c>
-      <c r="E76" s="19">
-        <v>15</v>
-      </c>
-      <c r="F76" s="19">
-        <v>7</v>
-      </c>
-      <c r="G76" s="19">
-        <v>5</v>
-      </c>
-      <c r="H76" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I76" s="10">
-        <v>0</v>
-      </c>
-      <c r="J76" s="19"/>
-      <c r="K76" s="19">
-        <v>16</v>
-      </c>
-      <c r="L76" s="20"/>
-      <c r="M76" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="N76" s="7">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A77" s="10">
-        <v>75</v>
-      </c>
-      <c r="B77" s="16" t="s">
-        <v>198</v>
-      </c>
-      <c r="C77" s="18">
-        <v>220041700071</v>
-      </c>
-      <c r="D77" s="19">
-        <v>16</v>
-      </c>
-      <c r="E77" s="19">
-        <v>28</v>
-      </c>
-      <c r="F77" s="19">
-        <v>22</v>
-      </c>
-      <c r="G77" s="19">
-        <v>5</v>
-      </c>
-      <c r="H77" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I77" s="10">
-        <v>5</v>
-      </c>
-      <c r="J77" s="19"/>
-      <c r="K77" s="19">
-        <v>35</v>
-      </c>
-      <c r="L77" s="20"/>
-      <c r="M77" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="N77" s="7">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A78" s="10">
-        <v>76</v>
-      </c>
-      <c r="B78" s="16" t="s">
-        <v>199</v>
-      </c>
-      <c r="C78" s="18">
-        <v>220041700072</v>
-      </c>
-      <c r="D78" s="19">
-        <v>0</v>
-      </c>
-      <c r="E78" s="19" t="s">
-        <v>141</v>
-      </c>
-      <c r="F78" s="19">
-        <v>12</v>
-      </c>
-      <c r="G78" s="19">
-        <v>3</v>
-      </c>
-      <c r="H78" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I78" s="10">
-        <v>5</v>
-      </c>
-      <c r="J78" s="19"/>
-      <c r="K78" s="19">
-        <v>16</v>
-      </c>
-      <c r="L78" s="20"/>
-      <c r="M78" s="7">
-        <v>43</v>
-      </c>
-      <c r="N78" s="7">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A79" s="27">
-        <v>77</v>
-      </c>
-      <c r="B79" s="28" t="s">
-        <v>54</v>
-      </c>
-      <c r="C79" s="29">
-        <v>220041700073</v>
-      </c>
-      <c r="D79" s="30" t="s">
-        <v>141</v>
-      </c>
-      <c r="E79" s="30" t="s">
-        <v>141</v>
-      </c>
-      <c r="F79" s="30" t="s">
-        <v>141</v>
-      </c>
-      <c r="G79" s="31">
-        <v>0</v>
-      </c>
-      <c r="H79" s="27">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I79" s="27">
-        <v>0</v>
-      </c>
-      <c r="J79" s="30"/>
-      <c r="K79" s="30">
-        <v>0</v>
-      </c>
-      <c r="L79" s="32"/>
-      <c r="M79" s="7">
-        <v>55</v>
-      </c>
-      <c r="N79" s="7">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A80" s="10">
-        <v>78</v>
-      </c>
-      <c r="B80" s="16" t="s">
-        <v>200</v>
-      </c>
-      <c r="C80" s="18">
-        <v>220041700077</v>
-      </c>
-      <c r="D80" s="19">
-        <v>6</v>
-      </c>
-      <c r="E80" s="19">
-        <v>18</v>
-      </c>
-      <c r="F80" s="19">
-        <v>15</v>
-      </c>
-      <c r="G80" s="19">
-        <v>5</v>
-      </c>
-      <c r="H80" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I80" s="10">
-        <v>5</v>
-      </c>
-      <c r="J80" s="19"/>
-      <c r="K80" s="19">
-        <v>27</v>
-      </c>
-      <c r="L80" s="20"/>
-      <c r="M80" s="7">
-        <v>70</v>
-      </c>
-      <c r="N80" s="7">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A81" s="10">
-        <v>79</v>
-      </c>
-      <c r="B81" s="16" t="s">
-        <v>201</v>
-      </c>
-      <c r="C81" s="18">
-        <v>220041700078</v>
-      </c>
-      <c r="D81" s="19">
-        <v>14</v>
-      </c>
-      <c r="E81" s="19">
-        <v>18</v>
-      </c>
-      <c r="F81" s="19">
-        <v>18</v>
-      </c>
-      <c r="G81" s="19">
-        <v>5</v>
-      </c>
-      <c r="H81" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I81" s="10">
-        <v>5</v>
-      </c>
-      <c r="J81" s="19"/>
-      <c r="K81" s="19">
-        <v>28</v>
-      </c>
-      <c r="L81" s="20"/>
-      <c r="M81" s="7">
-        <v>43</v>
-      </c>
-      <c r="N81" s="7">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A82" s="10">
-        <v>80</v>
-      </c>
-      <c r="B82" s="16" t="s">
-        <v>202</v>
-      </c>
-      <c r="C82" s="18">
-        <v>220041700080</v>
-      </c>
-      <c r="D82" s="19">
-        <v>2</v>
-      </c>
-      <c r="E82" s="19">
-        <v>15</v>
-      </c>
-      <c r="F82" s="19">
-        <v>3</v>
-      </c>
-      <c r="G82" s="19">
-        <v>3</v>
-      </c>
-      <c r="H82" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I82" s="10">
-        <v>0</v>
-      </c>
-      <c r="J82" s="19"/>
-      <c r="K82" s="19">
-        <v>20</v>
-      </c>
-      <c r="L82" s="20"/>
-      <c r="M82" s="7">
-        <v>48</v>
-      </c>
-      <c r="N82" s="7">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A83" s="10">
-        <v>81</v>
-      </c>
-      <c r="B83" s="16" t="s">
-        <v>203</v>
-      </c>
-      <c r="C83" s="18">
-        <v>220041700081</v>
-      </c>
-      <c r="D83" s="19">
-        <v>8</v>
-      </c>
-      <c r="E83" s="19">
-        <v>14</v>
-      </c>
-      <c r="F83" s="19">
-        <v>3</v>
-      </c>
-      <c r="G83" s="19">
-        <v>4.5</v>
-      </c>
-      <c r="H83" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I83" s="10">
-        <v>0</v>
-      </c>
-      <c r="J83" s="19"/>
-      <c r="K83" s="19">
-        <v>20</v>
-      </c>
-      <c r="L83" s="20"/>
-      <c r="M83" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="N83" s="7">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A84" s="27">
-        <v>82</v>
-      </c>
-      <c r="B84" s="28" t="s">
-        <v>204</v>
-      </c>
-      <c r="C84" s="29">
-        <v>220041700082</v>
-      </c>
-      <c r="D84" s="30">
-        <v>6</v>
-      </c>
-      <c r="E84" s="30" t="s">
-        <v>141</v>
-      </c>
-      <c r="F84" s="30">
-        <v>5</v>
-      </c>
-      <c r="G84" s="31">
-        <v>0</v>
-      </c>
-      <c r="H84" s="27">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I84" s="27">
-        <v>0</v>
-      </c>
-      <c r="J84" s="30"/>
-      <c r="K84" s="30">
-        <v>6</v>
-      </c>
-      <c r="L84" s="32"/>
-      <c r="M84" s="7">
-        <v>33</v>
-      </c>
-      <c r="N84" s="7">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A85" s="10">
-        <v>83</v>
-      </c>
-      <c r="B85" s="16" t="s">
-        <v>205</v>
-      </c>
-      <c r="C85" s="18">
-        <v>220041700084</v>
-      </c>
-      <c r="D85" s="19">
-        <v>3</v>
-      </c>
-      <c r="E85" s="19">
-        <v>13</v>
-      </c>
-      <c r="F85" s="19">
-        <v>4</v>
-      </c>
-      <c r="G85" s="19">
-        <v>5</v>
-      </c>
-      <c r="H85" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I85" s="10">
-        <v>5</v>
-      </c>
-      <c r="J85" s="19"/>
-      <c r="K85" s="19">
-        <v>20</v>
-      </c>
-      <c r="L85" s="20"/>
-      <c r="M85" s="7">
-        <v>71</v>
-      </c>
-      <c r="N85" s="7">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A86" s="10">
-        <v>84</v>
-      </c>
-      <c r="B86" s="16" t="s">
-        <v>206</v>
-      </c>
-      <c r="C86" s="18">
-        <v>220041700085</v>
-      </c>
-      <c r="D86" s="19">
-        <v>4</v>
-      </c>
-      <c r="E86" s="19">
-        <v>13</v>
-      </c>
-      <c r="F86" s="19">
-        <v>10</v>
-      </c>
-      <c r="G86" s="19">
-        <v>5</v>
-      </c>
-      <c r="H86" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I86" s="10">
-        <v>5</v>
-      </c>
-      <c r="J86" s="19"/>
-      <c r="K86" s="19">
-        <v>20</v>
-      </c>
-      <c r="L86" s="20"/>
-      <c r="M86" s="7">
-        <v>40</v>
-      </c>
-      <c r="N86" s="7">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A87" s="10">
-        <v>85</v>
-      </c>
-      <c r="B87" s="16" t="s">
-        <v>207</v>
-      </c>
-      <c r="C87" s="18">
-        <v>220041700086</v>
-      </c>
-      <c r="D87" s="19">
-        <v>12</v>
-      </c>
-      <c r="E87" s="19">
-        <v>16</v>
-      </c>
-      <c r="F87" s="19">
-        <v>9</v>
-      </c>
-      <c r="G87" s="19">
-        <v>5</v>
-      </c>
-      <c r="H87" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I87" s="10">
-        <v>0</v>
-      </c>
-      <c r="J87" s="19"/>
-      <c r="K87" s="19">
-        <v>21</v>
-      </c>
-      <c r="L87" s="20"/>
-      <c r="M87" s="7">
-        <v>34</v>
-      </c>
-      <c r="N87" s="7">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A88" s="10">
-        <v>86</v>
-      </c>
-      <c r="B88" s="16" t="s">
-        <v>208</v>
-      </c>
-      <c r="C88" s="18">
-        <v>220041700087</v>
-      </c>
-      <c r="D88" s="19">
-        <v>5</v>
-      </c>
-      <c r="E88" s="19">
-        <v>15</v>
-      </c>
-      <c r="F88" s="19">
-        <v>12</v>
-      </c>
-      <c r="G88" s="19">
-        <v>5</v>
-      </c>
-      <c r="H88" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I88" s="10">
-        <v>0</v>
-      </c>
-      <c r="J88" s="19"/>
-      <c r="K88" s="19">
-        <v>20</v>
-      </c>
-      <c r="L88" s="20"/>
-      <c r="M88" s="7">
-        <v>73</v>
-      </c>
-      <c r="N88" s="7">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="89" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A89" s="27">
-        <v>87</v>
-      </c>
-      <c r="B89" s="28" t="s">
-        <v>208</v>
-      </c>
-      <c r="C89" s="29">
-        <v>220041700088</v>
-      </c>
-      <c r="D89" s="30">
-        <v>8</v>
-      </c>
-      <c r="E89" s="30">
-        <v>13</v>
-      </c>
-      <c r="F89" s="30">
-        <v>9</v>
-      </c>
-      <c r="G89" s="31">
-        <v>0</v>
-      </c>
-      <c r="H89" s="27">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I89" s="27">
-        <v>0</v>
-      </c>
-      <c r="J89" s="30"/>
-      <c r="K89" s="30">
-        <v>13</v>
-      </c>
-      <c r="L89" s="32"/>
-      <c r="M89" s="7">
-        <v>65</v>
-      </c>
-      <c r="N89" s="7">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A90" s="10">
-        <v>88</v>
-      </c>
-      <c r="B90" s="16" t="s">
-        <v>209</v>
-      </c>
-      <c r="C90" s="18">
-        <v>220041700092</v>
-      </c>
-      <c r="D90" s="19">
-        <v>4</v>
-      </c>
-      <c r="E90" s="19" t="s">
-        <v>141</v>
-      </c>
-      <c r="F90" s="19">
-        <v>8</v>
-      </c>
-      <c r="G90" s="19">
-        <v>2.5</v>
-      </c>
-      <c r="H90" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I90" s="10">
-        <v>5</v>
-      </c>
-      <c r="J90" s="19"/>
-      <c r="K90" s="19">
-        <v>16</v>
-      </c>
-      <c r="L90" s="20"/>
-      <c r="M90" s="7">
-        <v>62</v>
-      </c>
-      <c r="N90" s="7">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="91" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A91" s="10">
-        <v>89</v>
-      </c>
-      <c r="B91" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="C91" s="18">
-        <v>220041700096</v>
-      </c>
-      <c r="D91" s="19">
-        <v>10</v>
-      </c>
-      <c r="E91" s="19">
-        <v>8</v>
-      </c>
-      <c r="F91" s="19">
-        <v>2</v>
-      </c>
-      <c r="G91" s="19">
-        <v>5</v>
-      </c>
-      <c r="H91" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I91" s="10">
-        <v>5</v>
-      </c>
-      <c r="J91" s="19"/>
-      <c r="K91" s="19">
-        <v>17</v>
-      </c>
-      <c r="L91" s="20"/>
-      <c r="M91" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="N91" s="7">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="92" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A92" s="10">
-        <v>90</v>
-      </c>
-      <c r="B92" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="C92" s="18">
-        <v>220041700097</v>
-      </c>
-      <c r="D92" s="19">
-        <v>9</v>
-      </c>
-      <c r="E92" s="19">
-        <v>15</v>
-      </c>
-      <c r="F92" s="19" t="s">
-        <v>141</v>
-      </c>
-      <c r="G92" s="21">
-        <v>0</v>
-      </c>
-      <c r="H92" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I92" s="10">
-        <v>0</v>
-      </c>
-      <c r="J92" s="19"/>
-      <c r="K92" s="19">
-        <v>20</v>
-      </c>
-      <c r="L92" s="20"/>
-      <c r="M92" s="7">
-        <v>47</v>
-      </c>
-      <c r="N92" s="7">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="93" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A93" s="10">
-        <v>91</v>
-      </c>
-      <c r="B93" s="16" t="s">
-        <v>210</v>
-      </c>
-      <c r="C93" s="18">
-        <v>220041700098</v>
-      </c>
-      <c r="D93" s="19">
-        <v>12</v>
-      </c>
-      <c r="E93" s="19">
-        <v>12</v>
-      </c>
-      <c r="F93" s="19">
-        <v>3</v>
-      </c>
-      <c r="G93" s="19">
-        <v>4.5</v>
-      </c>
-      <c r="H93" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I93" s="10">
-        <v>5</v>
-      </c>
-      <c r="J93" s="19"/>
-      <c r="K93" s="19">
-        <v>21</v>
-      </c>
-      <c r="L93" s="20"/>
-      <c r="M93" s="7">
-        <v>52</v>
-      </c>
-      <c r="N93" s="7">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="94" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A94" s="10">
-        <v>92</v>
-      </c>
-      <c r="B94" s="16" t="s">
-        <v>211</v>
-      </c>
-      <c r="C94" s="18">
-        <v>220041700099</v>
-      </c>
-      <c r="D94" s="19">
-        <v>18</v>
-      </c>
-      <c r="E94" s="19">
-        <v>24</v>
-      </c>
-      <c r="F94" s="19">
-        <v>19</v>
-      </c>
-      <c r="G94" s="19">
-        <v>5</v>
-      </c>
-      <c r="H94" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I94" s="10">
-        <v>5</v>
-      </c>
-      <c r="J94" s="19"/>
-      <c r="K94" s="19">
-        <v>31</v>
-      </c>
-      <c r="L94" s="20"/>
-      <c r="M94" s="7">
-        <v>56</v>
-      </c>
-      <c r="N94" s="7">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="95" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A95" s="10">
-        <v>93</v>
-      </c>
-      <c r="B95" s="16" t="s">
-        <v>212</v>
-      </c>
-      <c r="C95" s="18">
-        <v>220041700100</v>
-      </c>
-      <c r="D95" s="19">
-        <v>17</v>
-      </c>
-      <c r="E95" s="19">
-        <v>22</v>
-      </c>
-      <c r="F95" s="19" t="s">
-        <v>141</v>
-      </c>
-      <c r="G95" s="19">
-        <v>5</v>
-      </c>
-      <c r="H95" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I95" s="10">
-        <v>5</v>
-      </c>
-      <c r="J95" s="19"/>
-      <c r="K95" s="19">
-        <v>28</v>
-      </c>
-      <c r="L95" s="20"/>
-      <c r="M95" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="N95" s="7">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="96" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A96" s="10">
-        <v>94</v>
-      </c>
-      <c r="B96" s="16" t="s">
-        <v>213</v>
-      </c>
-      <c r="C96" s="18">
-        <v>220041700102</v>
-      </c>
-      <c r="D96" s="19">
-        <v>4</v>
-      </c>
-      <c r="E96" s="19">
-        <v>12</v>
-      </c>
-      <c r="F96" s="19">
-        <v>12</v>
-      </c>
-      <c r="G96" s="19">
-        <v>5</v>
-      </c>
-      <c r="H96" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I96" s="10">
-        <v>5</v>
-      </c>
-      <c r="J96" s="19"/>
-      <c r="K96" s="19">
-        <v>21</v>
-      </c>
-      <c r="L96" s="20"/>
-      <c r="M96" s="7">
-        <v>33</v>
-      </c>
-      <c r="N96" s="7">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="97" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A97" s="10">
-        <v>95</v>
-      </c>
-      <c r="B97" s="16" t="s">
-        <v>214</v>
-      </c>
-      <c r="C97" s="18">
-        <v>220041700103</v>
-      </c>
-      <c r="D97" s="19">
-        <v>6</v>
-      </c>
-      <c r="E97" s="19">
-        <v>15</v>
-      </c>
-      <c r="F97" s="19">
-        <v>13</v>
-      </c>
-      <c r="G97" s="19">
-        <v>4</v>
-      </c>
-      <c r="H97" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I97" s="10">
-        <v>5</v>
-      </c>
-      <c r="J97" s="19"/>
-      <c r="K97" s="19">
-        <v>23</v>
-      </c>
-      <c r="L97" s="20"/>
-      <c r="M97" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="N97" s="7">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="98" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A98" s="10">
-        <v>96</v>
-      </c>
-      <c r="B98" s="16" t="s">
-        <v>215</v>
-      </c>
-      <c r="C98" s="18">
-        <v>220041700104</v>
-      </c>
-      <c r="D98" s="19">
-        <v>9</v>
-      </c>
-      <c r="E98" s="19">
-        <v>12</v>
-      </c>
-      <c r="F98" s="19" t="s">
-        <v>141</v>
-      </c>
-      <c r="G98" s="21">
-        <v>0</v>
-      </c>
-      <c r="H98" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I98" s="10">
-        <v>0</v>
-      </c>
-      <c r="J98" s="19"/>
-      <c r="K98" s="19">
-        <v>16</v>
-      </c>
-      <c r="L98" s="20"/>
-      <c r="M98" s="7">
-        <v>40</v>
-      </c>
-      <c r="N98" s="7">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="99" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A99" s="10">
-        <v>97</v>
-      </c>
-      <c r="B99" s="16" t="s">
-        <v>216</v>
-      </c>
-      <c r="C99" s="18">
-        <v>220041700105</v>
-      </c>
-      <c r="D99" s="19">
-        <v>0</v>
-      </c>
-      <c r="E99" s="19">
-        <v>5</v>
-      </c>
-      <c r="F99" s="19">
-        <v>6</v>
-      </c>
-      <c r="G99" s="19">
-        <v>4</v>
-      </c>
-      <c r="H99" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I99" s="10">
-        <v>5</v>
-      </c>
-      <c r="J99" s="19"/>
-      <c r="K99" s="19">
-        <v>16</v>
-      </c>
-      <c r="L99" s="20"/>
-      <c r="M99" s="7">
-        <v>74</v>
-      </c>
-      <c r="N99" s="7">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="100" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A100" s="10">
-        <v>98</v>
-      </c>
-      <c r="B100" s="16" t="s">
-        <v>217</v>
-      </c>
-      <c r="C100" s="18">
-        <v>220041700106</v>
-      </c>
-      <c r="D100" s="19">
-        <v>12</v>
-      </c>
-      <c r="E100" s="19">
-        <v>16</v>
-      </c>
-      <c r="F100" s="19">
-        <v>12</v>
-      </c>
-      <c r="G100" s="19">
-        <v>5</v>
-      </c>
-      <c r="H100" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I100" s="10">
-        <v>5</v>
-      </c>
-      <c r="J100" s="19"/>
-      <c r="K100" s="19">
-        <v>23</v>
-      </c>
-      <c r="L100" s="20"/>
-      <c r="M100" s="7">
-        <v>55</v>
-      </c>
-      <c r="N100" s="7">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="101" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A101" s="10">
-        <v>99</v>
-      </c>
-      <c r="B101" s="16" t="s">
-        <v>218</v>
-      </c>
-      <c r="C101" s="18">
-        <v>220041700107</v>
-      </c>
-      <c r="D101" s="19">
-        <v>15</v>
-      </c>
-      <c r="E101" s="19">
-        <v>18</v>
-      </c>
-      <c r="F101" s="19">
-        <v>20</v>
-      </c>
-      <c r="G101" s="19">
-        <v>5</v>
-      </c>
-      <c r="H101" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I101" s="10">
-        <v>5</v>
-      </c>
-      <c r="J101" s="19"/>
-      <c r="K101" s="19">
-        <v>28</v>
-      </c>
-      <c r="L101" s="20"/>
-      <c r="M101" s="7">
-        <v>68</v>
-      </c>
-      <c r="N101" s="7">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="102" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A102" s="27">
-        <v>100</v>
-      </c>
-      <c r="B102" s="28" t="s">
-        <v>69</v>
-      </c>
-      <c r="C102" s="29">
-        <v>220041700108</v>
-      </c>
-      <c r="D102" s="30">
-        <v>2</v>
-      </c>
-      <c r="E102" s="30">
-        <v>9</v>
-      </c>
-      <c r="F102" s="30">
-        <v>6</v>
-      </c>
-      <c r="G102" s="31">
-        <v>0</v>
-      </c>
-      <c r="H102" s="27">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I102" s="27">
-        <v>0</v>
-      </c>
-      <c r="J102" s="30"/>
-      <c r="K102" s="30">
-        <v>10</v>
-      </c>
-      <c r="L102" s="32"/>
-      <c r="M102" s="7">
-        <v>59</v>
-      </c>
-      <c r="N102" s="7">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="103" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A103" s="10">
-        <v>101</v>
-      </c>
-      <c r="B103" s="16" t="s">
-        <v>219</v>
-      </c>
-      <c r="C103" s="18">
-        <v>220041700109</v>
-      </c>
-      <c r="D103" s="19">
-        <v>18</v>
-      </c>
-      <c r="E103" s="19">
-        <v>24</v>
-      </c>
-      <c r="F103" s="19">
-        <v>25</v>
-      </c>
-      <c r="G103" s="19">
-        <v>5</v>
-      </c>
-      <c r="H103" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I103" s="10">
-        <v>5</v>
-      </c>
-      <c r="J103" s="19"/>
-      <c r="K103" s="19">
-        <v>33</v>
-      </c>
-      <c r="L103" s="20"/>
-      <c r="M103" s="7">
-        <v>47</v>
-      </c>
-      <c r="N103" s="7">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="104" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A104" s="27">
-        <v>102</v>
-      </c>
-      <c r="B104" s="28" t="s">
-        <v>220</v>
-      </c>
-      <c r="C104" s="29">
-        <v>220041700110</v>
-      </c>
-      <c r="D104" s="30">
-        <v>4</v>
-      </c>
-      <c r="E104" s="30">
-        <v>4</v>
-      </c>
-      <c r="F104" s="30">
-        <v>2</v>
-      </c>
-      <c r="G104" s="31">
-        <v>0</v>
-      </c>
-      <c r="H104" s="27">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I104" s="27">
-        <v>0</v>
-      </c>
-      <c r="J104" s="30"/>
-      <c r="K104" s="30">
-        <v>5</v>
-      </c>
-      <c r="L104" s="32"/>
-      <c r="M104" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="N104" s="7" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="105" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A105" s="10">
-        <v>103</v>
-      </c>
-      <c r="B105" s="16" t="s">
-        <v>221</v>
-      </c>
-      <c r="C105" s="18">
-        <v>220041700112</v>
-      </c>
-      <c r="D105" s="19">
-        <v>14</v>
-      </c>
-      <c r="E105" s="19">
-        <v>12</v>
-      </c>
-      <c r="F105" s="19">
-        <v>15</v>
-      </c>
-      <c r="G105" s="19">
-        <v>4.5</v>
-      </c>
-      <c r="H105" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I105" s="10">
-        <v>5</v>
-      </c>
-      <c r="J105" s="19"/>
-      <c r="K105" s="19">
-        <v>24</v>
-      </c>
-      <c r="L105" s="20"/>
-      <c r="M105" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="N105" s="7">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="106" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A106" s="27">
-        <v>104</v>
-      </c>
-      <c r="B106" s="28" t="s">
-        <v>222</v>
-      </c>
-      <c r="C106" s="29">
-        <v>220041700113</v>
-      </c>
-      <c r="D106" s="30">
-        <v>6</v>
-      </c>
-      <c r="E106" s="30">
-        <v>12</v>
-      </c>
-      <c r="F106" s="30" t="s">
-        <v>141</v>
-      </c>
-      <c r="G106" s="31">
-        <v>0</v>
-      </c>
-      <c r="H106" s="27">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I106" s="27">
-        <v>5</v>
-      </c>
-      <c r="J106" s="30"/>
-      <c r="K106" s="30">
-        <v>16</v>
-      </c>
-      <c r="L106" s="32"/>
-      <c r="M106" s="7">
-        <v>75</v>
-      </c>
-      <c r="N106" s="7">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="107" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A107" s="10">
-        <v>105</v>
-      </c>
-      <c r="B107" s="16" t="s">
-        <v>223</v>
-      </c>
-      <c r="C107" s="18">
-        <v>220041700115</v>
-      </c>
-      <c r="D107" s="19">
-        <v>5</v>
-      </c>
-      <c r="E107" s="19">
-        <v>14</v>
-      </c>
-      <c r="F107" s="19">
-        <v>12</v>
-      </c>
-      <c r="G107" s="21">
-        <v>0</v>
-      </c>
-      <c r="H107" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I107" s="10">
-        <v>5</v>
-      </c>
-      <c r="J107" s="19"/>
-      <c r="K107" s="19">
-        <v>21</v>
-      </c>
-      <c r="L107" s="20"/>
-      <c r="M107" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="N107" s="7">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="108" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A108" s="10">
-        <v>106</v>
-      </c>
-      <c r="B108" s="16" t="s">
-        <v>224</v>
-      </c>
-      <c r="C108" s="18">
-        <v>220041700116</v>
-      </c>
-      <c r="D108" s="19">
-        <v>9</v>
-      </c>
-      <c r="E108" s="19">
-        <v>10</v>
-      </c>
-      <c r="F108" s="19" t="s">
-        <v>141</v>
-      </c>
-      <c r="G108" s="21">
-        <v>0</v>
-      </c>
-      <c r="H108" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I108" s="10">
-        <v>0</v>
-      </c>
-      <c r="J108" s="19"/>
-      <c r="K108" s="19">
-        <v>20</v>
-      </c>
-      <c r="L108" s="20"/>
-      <c r="M108" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="N108" s="7">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="109" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A109" s="10">
-        <v>107</v>
-      </c>
-      <c r="B109" s="16" t="s">
-        <v>225</v>
-      </c>
-      <c r="C109" s="18">
-        <v>220041700117</v>
-      </c>
-      <c r="D109" s="19">
-        <v>19</v>
-      </c>
-      <c r="E109" s="19">
-        <v>20</v>
-      </c>
-      <c r="F109" s="19" t="s">
-        <v>141</v>
-      </c>
-      <c r="G109" s="19">
-        <v>4.5</v>
-      </c>
-      <c r="H109" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I109" s="10">
-        <v>5</v>
-      </c>
-      <c r="J109" s="19"/>
-      <c r="K109" s="19">
-        <v>28</v>
-      </c>
-      <c r="L109" s="20"/>
-      <c r="M109" s="7">
-        <v>83</v>
-      </c>
-      <c r="N109" s="7">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="110" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A110" s="10">
-        <v>108</v>
-      </c>
-      <c r="B110" s="16" t="s">
-        <v>226</v>
-      </c>
-      <c r="C110" s="18">
-        <v>220041700118</v>
-      </c>
-      <c r="D110" s="19">
-        <v>5</v>
-      </c>
-      <c r="E110" s="19">
-        <v>9</v>
-      </c>
-      <c r="F110" s="19">
-        <v>12</v>
-      </c>
-      <c r="G110" s="19">
-        <v>3</v>
-      </c>
-      <c r="H110" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I110" s="10">
-        <v>5</v>
-      </c>
-      <c r="J110" s="19"/>
-      <c r="K110" s="19">
-        <v>20</v>
-      </c>
-      <c r="L110" s="20"/>
-      <c r="M110" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="N110" s="7">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="111" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A111" s="27">
-        <v>109</v>
-      </c>
-      <c r="B111" s="28" t="s">
-        <v>227</v>
-      </c>
-      <c r="C111" s="29">
-        <v>220041700119</v>
-      </c>
-      <c r="D111" s="30" t="s">
-        <v>141</v>
-      </c>
-      <c r="E111" s="30" t="s">
-        <v>141</v>
-      </c>
-      <c r="F111" s="30" t="s">
-        <v>141</v>
-      </c>
-      <c r="G111" s="31">
-        <v>0</v>
-      </c>
-      <c r="H111" s="27">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I111" s="27">
-        <v>0</v>
-      </c>
-      <c r="J111" s="30"/>
-      <c r="K111" s="30">
-        <v>0</v>
-      </c>
-      <c r="L111" s="32"/>
-      <c r="M111" s="7">
-        <v>57</v>
-      </c>
-      <c r="N111" s="7">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="112" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A112" s="10">
-        <v>110</v>
-      </c>
-      <c r="B112" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="C112" s="18">
-        <v>220041700121</v>
-      </c>
-      <c r="D112" s="19">
-        <v>12</v>
-      </c>
-      <c r="E112" s="19">
-        <v>18</v>
-      </c>
-      <c r="F112" s="19">
-        <v>14</v>
-      </c>
-      <c r="G112" s="19">
-        <v>5</v>
-      </c>
-      <c r="H112" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I112" s="10">
-        <v>5</v>
-      </c>
-      <c r="J112" s="19"/>
-      <c r="K112" s="19">
-        <v>25</v>
-      </c>
-      <c r="L112" s="20"/>
-      <c r="M112" s="7">
-        <v>80</v>
-      </c>
-      <c r="N112" s="7">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="113" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A113" s="10">
-        <v>111</v>
-      </c>
-      <c r="B113" s="16" t="s">
-        <v>97</v>
-      </c>
-      <c r="C113" s="18">
-        <v>220041700122</v>
-      </c>
-      <c r="D113" s="19">
-        <v>4</v>
-      </c>
-      <c r="E113" s="19">
-        <v>13</v>
-      </c>
-      <c r="F113" s="19">
-        <v>5</v>
-      </c>
-      <c r="G113" s="19">
-        <v>5</v>
-      </c>
-      <c r="H113" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I113" s="10">
-        <v>5</v>
-      </c>
-      <c r="J113" s="19"/>
-      <c r="K113" s="19">
-        <v>17</v>
-      </c>
-      <c r="L113" s="20"/>
-    </row>
-    <row r="114" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A114" s="10">
-        <v>112</v>
-      </c>
-      <c r="B114" s="16" t="s">
-        <v>97</v>
-      </c>
-      <c r="C114" s="18">
-        <v>220041700123</v>
-      </c>
-      <c r="D114" s="19">
-        <v>1</v>
-      </c>
-      <c r="E114" s="19">
-        <v>19</v>
-      </c>
-      <c r="F114" s="19">
-        <v>4</v>
-      </c>
-      <c r="G114" s="21">
-        <v>0</v>
-      </c>
-      <c r="H114" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I114" s="10">
-        <v>5</v>
-      </c>
-      <c r="J114" s="19"/>
-      <c r="K114" s="19">
-        <v>20</v>
-      </c>
-      <c r="L114" s="20"/>
-    </row>
-    <row r="115" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A115" s="27">
-        <v>113</v>
-      </c>
-      <c r="B115" s="28" t="s">
-        <v>228</v>
-      </c>
-      <c r="C115" s="29">
-        <v>220041700124</v>
-      </c>
-      <c r="D115" s="30">
-        <v>1</v>
-      </c>
-      <c r="E115" s="30">
-        <v>12</v>
-      </c>
-      <c r="F115" s="30">
-        <v>4</v>
-      </c>
-      <c r="G115" s="31">
-        <v>0</v>
-      </c>
-      <c r="H115" s="27">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I115" s="27">
-        <v>0</v>
-      </c>
-      <c r="J115" s="30"/>
-      <c r="K115" s="30">
-        <v>12</v>
-      </c>
-      <c r="L115" s="32"/>
-    </row>
-    <row r="116" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A116" s="10">
-        <v>114</v>
-      </c>
-      <c r="B116" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="C116" s="18">
-        <v>220041700125</v>
-      </c>
-      <c r="D116" s="19">
-        <v>6</v>
-      </c>
-      <c r="E116" s="19">
-        <v>8</v>
-      </c>
-      <c r="F116" s="19">
-        <v>9</v>
-      </c>
-      <c r="G116" s="19">
-        <v>2.5</v>
-      </c>
-      <c r="H116" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I116" s="10">
-        <v>5</v>
-      </c>
-      <c r="J116" s="19"/>
-      <c r="K116" s="19">
-        <v>17</v>
-      </c>
-      <c r="L116" s="20"/>
-    </row>
-    <row r="117" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A117" s="10">
-        <v>115</v>
-      </c>
-      <c r="B117" s="16" t="s">
-        <v>229</v>
-      </c>
-      <c r="C117" s="18">
-        <v>220041700130</v>
-      </c>
-      <c r="D117" s="19">
-        <v>4</v>
-      </c>
-      <c r="E117" s="19">
-        <v>14</v>
-      </c>
-      <c r="F117" s="19">
-        <v>5</v>
-      </c>
-      <c r="G117" s="21">
-        <v>0</v>
-      </c>
-      <c r="H117" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I117" s="10">
-        <v>5</v>
-      </c>
-      <c r="J117" s="19"/>
-      <c r="K117" s="19">
-        <v>20</v>
-      </c>
-      <c r="L117" s="20"/>
-    </row>
-    <row r="118" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A118" s="10">
-        <v>116</v>
-      </c>
-      <c r="B118" s="16" t="s">
-        <v>230</v>
-      </c>
-      <c r="C118" s="18">
-        <v>220041700131</v>
-      </c>
-      <c r="D118" s="19">
-        <v>4</v>
-      </c>
-      <c r="E118" s="19">
-        <v>17</v>
-      </c>
-      <c r="F118" s="19">
-        <v>19</v>
-      </c>
-      <c r="G118" s="21">
-        <v>0</v>
-      </c>
-      <c r="H118" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I118" s="10">
-        <v>5</v>
-      </c>
-      <c r="J118" s="19"/>
-      <c r="K118" s="19">
-        <v>28</v>
-      </c>
-      <c r="L118" s="20"/>
-      <c r="M118" s="7">
-        <v>74</v>
-      </c>
-      <c r="N118" s="7">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="119" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A119" s="10">
-        <v>117</v>
-      </c>
-      <c r="B119" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="C119" s="18">
-        <v>220041700132</v>
-      </c>
-      <c r="D119" s="19">
-        <v>15</v>
-      </c>
-      <c r="E119" s="19" t="s">
-        <v>141</v>
-      </c>
-      <c r="F119" s="19">
-        <v>16</v>
-      </c>
-      <c r="G119" s="19">
-        <v>5</v>
-      </c>
-      <c r="H119" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I119" s="10">
-        <v>5</v>
-      </c>
-      <c r="J119" s="19"/>
-      <c r="K119" s="19">
-        <v>25</v>
-      </c>
-      <c r="L119" s="20"/>
-      <c r="M119" s="7">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="120" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A120" s="10">
-        <v>118</v>
-      </c>
-      <c r="B120" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="C120" s="18">
-        <v>220041700133</v>
-      </c>
-      <c r="D120" s="19">
-        <v>8</v>
-      </c>
-      <c r="E120" s="19">
-        <v>17</v>
-      </c>
-      <c r="F120" s="19">
-        <v>16</v>
-      </c>
-      <c r="G120" s="19">
-        <v>4.5</v>
-      </c>
-      <c r="H120" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I120" s="10">
-        <v>5</v>
-      </c>
-      <c r="J120" s="19"/>
-      <c r="K120" s="19">
-        <v>26</v>
-      </c>
-      <c r="L120" s="20"/>
-      <c r="M120" s="8">
-        <f>M118/(M118+M119)</f>
-        <v>0.67889908256880738</v>
-      </c>
-      <c r="N120" s="7">
-        <f>107/108</f>
-        <v>0.9907407407407407</v>
-      </c>
-    </row>
-    <row r="121" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A121" s="10">
-        <v>119</v>
-      </c>
-      <c r="B121" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="C121" s="18">
-        <v>220041700134</v>
-      </c>
-      <c r="D121" s="19">
-        <v>17</v>
-      </c>
-      <c r="E121" s="19">
-        <v>18</v>
-      </c>
-      <c r="F121" s="19" t="s">
-        <v>141</v>
-      </c>
-      <c r="G121" s="21">
-        <v>0</v>
-      </c>
-      <c r="H121" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I121" s="10">
-        <v>0</v>
-      </c>
-      <c r="J121" s="19"/>
-      <c r="K121" s="19">
-        <v>20</v>
-      </c>
-      <c r="L121" s="20"/>
-    </row>
-    <row r="122" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A122" s="10">
-        <v>120</v>
-      </c>
-      <c r="B122" s="34" t="s">
-        <v>231</v>
-      </c>
-      <c r="C122" s="35">
-        <v>220041723018</v>
-      </c>
-      <c r="D122" s="19">
-        <v>7</v>
-      </c>
-      <c r="E122" s="19">
-        <v>14</v>
-      </c>
-      <c r="F122" s="19">
-        <v>7</v>
-      </c>
-      <c r="G122" s="21">
-        <v>0</v>
-      </c>
-      <c r="H122" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I122" s="10">
-        <v>5</v>
-      </c>
-      <c r="J122" s="19"/>
-      <c r="K122" s="19">
-        <v>20</v>
-      </c>
-      <c r="L122" s="20"/>
-    </row>
-    <row r="123" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A123" s="10">
-        <v>121</v>
-      </c>
-      <c r="B123" s="34" t="s">
-        <v>232</v>
-      </c>
-      <c r="C123" s="35">
-        <v>220041723019</v>
-      </c>
-      <c r="D123" s="19">
-        <v>7</v>
-      </c>
-      <c r="E123" s="19">
-        <v>6</v>
-      </c>
-      <c r="F123" s="19">
-        <v>7</v>
-      </c>
-      <c r="G123" s="21">
-        <v>0</v>
-      </c>
-      <c r="H123" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I123" s="10">
-        <v>5</v>
-      </c>
-      <c r="J123" s="19"/>
-      <c r="K123" s="19">
-        <v>16</v>
-      </c>
-      <c r="L123" s="20"/>
-    </row>
-    <row r="124" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A124" s="10">
-        <v>122</v>
-      </c>
-      <c r="B124" s="34" t="s">
-        <v>233</v>
-      </c>
-      <c r="C124" s="35">
-        <v>220041723020</v>
-      </c>
-      <c r="D124" s="19">
-        <v>15</v>
-      </c>
-      <c r="E124" s="19">
-        <v>18</v>
-      </c>
-      <c r="F124" s="19">
-        <v>15</v>
-      </c>
-      <c r="G124" s="19">
-        <v>5</v>
-      </c>
-      <c r="H124" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I124" s="10">
-        <v>5</v>
-      </c>
-      <c r="J124" s="19"/>
-      <c r="K124" s="19">
-        <v>27</v>
-      </c>
-      <c r="L124" s="20"/>
-    </row>
-    <row r="125" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A125" s="10">
-        <v>123</v>
-      </c>
-      <c r="B125" s="34" t="s">
-        <v>234</v>
-      </c>
-      <c r="C125" s="35">
-        <v>220041723021</v>
-      </c>
-      <c r="D125" s="19">
-        <v>9</v>
-      </c>
-      <c r="E125" s="19">
-        <v>12</v>
-      </c>
-      <c r="F125" s="19">
-        <v>13</v>
-      </c>
-      <c r="G125" s="21">
-        <v>0</v>
-      </c>
-      <c r="H125" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I125" s="10">
-        <v>5</v>
-      </c>
-      <c r="J125" s="19"/>
-      <c r="K125" s="19">
-        <v>21</v>
-      </c>
-      <c r="L125" s="20"/>
-    </row>
-    <row r="126" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A126" s="10">
-        <v>124</v>
-      </c>
-      <c r="B126" s="34" t="s">
-        <v>233</v>
-      </c>
-      <c r="C126" s="35">
-        <v>220041723022</v>
-      </c>
-      <c r="D126" s="19">
-        <v>12</v>
-      </c>
-      <c r="E126" s="19">
-        <v>15</v>
-      </c>
-      <c r="F126" s="19">
-        <v>2</v>
-      </c>
-      <c r="G126" s="19">
-        <v>4</v>
-      </c>
-      <c r="H126" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I126" s="10">
-        <v>0</v>
-      </c>
-      <c r="J126" s="19"/>
-      <c r="K126" s="19">
-        <v>22</v>
-      </c>
-      <c r="L126" s="20"/>
-    </row>
-    <row r="127" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A127" s="27">
-        <v>125</v>
-      </c>
-      <c r="B127" s="36" t="s">
-        <v>235</v>
-      </c>
-      <c r="C127" s="37">
-        <v>220041723023</v>
-      </c>
-      <c r="D127" s="30" t="s">
-        <v>141</v>
-      </c>
-      <c r="E127" s="30" t="s">
-        <v>141</v>
-      </c>
-      <c r="F127" s="30" t="s">
-        <v>141</v>
-      </c>
-      <c r="G127" s="30">
-        <v>5</v>
-      </c>
-      <c r="H127" s="27">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I127" s="27">
-        <v>0</v>
-      </c>
-      <c r="J127" s="30"/>
-      <c r="K127" s="30">
-        <v>4</v>
-      </c>
-      <c r="L127" s="32"/>
-    </row>
-    <row r="128" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A128" s="10">
-        <v>126</v>
-      </c>
-      <c r="B128" s="34" t="s">
-        <v>236</v>
-      </c>
-      <c r="C128" s="35">
-        <v>220041723025</v>
-      </c>
-      <c r="D128" s="19">
-        <v>4</v>
-      </c>
-      <c r="E128" s="19">
-        <v>5</v>
-      </c>
-      <c r="F128" s="19">
-        <v>6</v>
-      </c>
-      <c r="G128" s="21">
-        <v>0</v>
-      </c>
-      <c r="H128" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I128" s="10">
-        <v>5</v>
-      </c>
-      <c r="J128" s="19"/>
-      <c r="K128" s="19">
-        <v>16</v>
-      </c>
-      <c r="L128" s="20"/>
-    </row>
-    <row r="129" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A129" s="10">
-        <v>127</v>
-      </c>
-      <c r="B129" s="34" t="s">
-        <v>237</v>
-      </c>
-      <c r="C129" s="35">
-        <v>220041723027</v>
-      </c>
-      <c r="D129" s="19">
-        <v>19</v>
-      </c>
-      <c r="E129" s="19">
-        <v>25</v>
-      </c>
-      <c r="F129" s="19">
-        <v>20</v>
-      </c>
-      <c r="G129" s="19">
-        <v>5</v>
-      </c>
-      <c r="H129" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I129" s="10">
-        <v>5</v>
-      </c>
-      <c r="J129" s="19"/>
-      <c r="K129" s="19">
-        <v>32</v>
-      </c>
-      <c r="L129" s="20"/>
-    </row>
-    <row r="130" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A130" s="10">
-        <v>128</v>
-      </c>
-      <c r="B130" s="34" t="s">
-        <v>238</v>
-      </c>
-      <c r="C130" s="35">
-        <v>220041723028</v>
-      </c>
-      <c r="D130" s="19">
-        <v>6</v>
-      </c>
-      <c r="E130" s="19">
-        <v>12</v>
-      </c>
-      <c r="F130" s="19" t="s">
-        <v>141</v>
-      </c>
-      <c r="G130" s="21">
-        <v>0</v>
-      </c>
-      <c r="H130" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I130" s="10">
-        <v>5</v>
-      </c>
-      <c r="J130" s="19"/>
-      <c r="K130" s="19">
-        <v>21</v>
-      </c>
-      <c r="L130" s="20"/>
-    </row>
-    <row r="131" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A131" s="10">
-        <v>129</v>
-      </c>
-      <c r="B131" s="34" t="s">
-        <v>239</v>
-      </c>
-      <c r="C131" s="35">
-        <v>220041723032</v>
-      </c>
-      <c r="D131" s="19">
-        <v>14</v>
-      </c>
-      <c r="E131" s="19">
-        <v>24</v>
-      </c>
-      <c r="F131" s="19">
-        <v>13</v>
-      </c>
-      <c r="G131" s="19">
-        <v>4.5</v>
-      </c>
-      <c r="H131" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I131" s="10">
-        <v>5</v>
-      </c>
-      <c r="J131" s="19"/>
-      <c r="K131" s="19">
-        <v>29</v>
-      </c>
-      <c r="L131" s="20"/>
-    </row>
-    <row r="132" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A132" s="10">
-        <v>130</v>
-      </c>
-      <c r="B132" s="34" t="s">
-        <v>240</v>
-      </c>
-      <c r="C132" s="35">
-        <v>220041723033</v>
-      </c>
-      <c r="D132" s="19">
-        <v>9</v>
-      </c>
-      <c r="E132" s="19">
-        <v>21</v>
-      </c>
-      <c r="F132" s="34">
-        <v>13</v>
-      </c>
-      <c r="G132" s="19">
-        <v>4</v>
-      </c>
-      <c r="H132" s="10">
-        <f t="shared" ref="H132:H133" si="2">P132</f>
-        <v>0</v>
-      </c>
-      <c r="I132" s="10">
-        <v>5</v>
-      </c>
-      <c r="J132" s="19"/>
-      <c r="K132" s="19">
-        <v>27</v>
-      </c>
-      <c r="L132" s="20"/>
-    </row>
-    <row r="133" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A133" s="10">
-        <v>131</v>
-      </c>
-      <c r="B133" s="34" t="s">
-        <v>241</v>
-      </c>
-      <c r="C133" s="35">
-        <v>220041723034</v>
-      </c>
-      <c r="D133" s="19">
-        <v>15</v>
-      </c>
-      <c r="E133" s="19">
-        <v>19</v>
-      </c>
-      <c r="F133" s="19">
-        <v>17</v>
-      </c>
-      <c r="G133" s="19">
-        <v>3</v>
-      </c>
-      <c r="H133" s="10">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I133" s="10">
-        <v>5</v>
-      </c>
-      <c r="J133" s="19"/>
-      <c r="K133" s="19">
-        <v>27</v>
-      </c>
-      <c r="L133" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -6663,20 +4195,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
-      <c r="L1" s="9"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
     </row>
     <row r="2" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">

--- a/static/Upload/5th sem.xlsx
+++ b/static/Upload/5th sem.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64BD7626-0539-4348-93C8-CA9F54A0B8A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140"/>
   </bookViews>
   <sheets>
     <sheet name="CNC" sheetId="3" r:id="rId1"/>
     <sheet name="CNC 2021" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">CNC!$A$2:$N$91</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">CNC!$A$2:$N$92</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'CNC 2021'!$A$2:$O$112</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -723,7 +722,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
@@ -804,7 +803,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -825,12 +824,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -879,7 +872,10 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="12" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1161,3003 +1157,2249 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q110"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N110"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D74" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C85" sqref="C85"/>
+      <selection pane="bottomRight" activeCell="A58" sqref="A58:A110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.28515625" style="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.140625" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.42578125" style="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="7.5703125" style="10" bestFit="1" customWidth="1"/>
-    <col min="7" max="9" width="6.85546875" style="10" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12" style="25" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="12.7109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.7109375" style="10" customWidth="1"/>
-    <col min="14" max="15" width="9.140625" style="10"/>
-    <col min="16" max="16" width="19.140625" style="10" customWidth="1"/>
-    <col min="17" max="17" width="16.85546875" style="10" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="10"/>
+    <col min="1" max="1" width="4.28515625" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.42578125" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="7.5703125" style="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="6.85546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12" style="23" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="12.7109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.7109375" style="8" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" s="24" t="s">
         <v>227</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
-      <c r="L1" s="9"/>
-    </row>
-    <row r="2" spans="1:17" s="2" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="12" t="s">
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="24"/>
+      <c r="L1" s="24"/>
+    </row>
+    <row r="2" spans="1:14" s="2" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="D2" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="E2" s="13" t="s">
         <v>136</v>
       </c>
-      <c r="F2" s="16" t="s">
+      <c r="F2" s="14" t="s">
         <v>137</v>
       </c>
-      <c r="G2" s="14" t="s">
+      <c r="G2" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="H2" s="14" t="s">
+      <c r="H2" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="I2" s="14" t="s">
+      <c r="I2" s="12" t="s">
         <v>106</v>
       </c>
-      <c r="J2" s="14" t="s">
+      <c r="J2" s="12" t="s">
         <v>138</v>
       </c>
-      <c r="K2" s="14" t="s">
+      <c r="K2" s="12" t="s">
         <v>139</v>
       </c>
-      <c r="L2" s="14" t="s">
+      <c r="L2" s="12" t="s">
         <v>229</v>
       </c>
       <c r="M2" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="N2" s="14" t="s">
+      <c r="N2" s="12" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="11">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" s="9">
         <v>1</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="15" t="s">
         <v>140</v>
       </c>
-      <c r="C3" s="18">
+      <c r="C3" s="16">
         <v>220041700001</v>
       </c>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="19"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
-      <c r="J3" s="19"/>
-      <c r="K3" s="19"/>
-      <c r="L3" s="20"/>
-      <c r="P3" s="18">
-        <v>220041700001</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="11">
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="17"/>
+      <c r="K3" s="17"/>
+      <c r="L3" s="18"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" s="9">
         <v>2</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="15" t="s">
         <v>141</v>
       </c>
-      <c r="C4" s="18">
+      <c r="C4" s="16">
         <v>220041700004</v>
       </c>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="19"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="11"/>
-      <c r="J4" s="19"/>
-      <c r="K4" s="19"/>
-      <c r="L4" s="20"/>
-      <c r="P4" s="18">
-        <v>220041700004</v>
-      </c>
-      <c r="Q4" s="26">
-        <f>P4-220041700000</f>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="17"/>
+      <c r="K4" s="17"/>
+      <c r="L4" s="18"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" s="9">
+        <v>3</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="16">
+        <v>220041700006</v>
+      </c>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="17"/>
+      <c r="K5" s="17"/>
+      <c r="L5" s="18"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" s="9">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="11">
-        <v>3</v>
-      </c>
-      <c r="B5" s="17" t="s">
+      <c r="B6" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="18">
-        <v>220041700006</v>
-      </c>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="19"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="11"/>
-      <c r="J5" s="19"/>
-      <c r="K5" s="19"/>
-      <c r="L5" s="20"/>
-      <c r="P5" s="18">
-        <v>220041700006</v>
-      </c>
-      <c r="Q5" s="26">
-        <f t="shared" ref="Q5:Q68" si="0">P5-220041700000</f>
+      <c r="C6" s="16">
+        <v>220041700007</v>
+      </c>
+      <c r="D6" s="17"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="17"/>
+      <c r="K6" s="17"/>
+      <c r="L6" s="18"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" s="9">
+        <v>5</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="16">
+        <v>220041700008</v>
+      </c>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="17"/>
+      <c r="K7" s="17"/>
+      <c r="L7" s="18"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" s="9">
         <v>6</v>
       </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="11">
-        <v>4</v>
-      </c>
-      <c r="B6" s="17" t="s">
+      <c r="B8" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="C8" s="16">
+        <v>220041700009</v>
+      </c>
+      <c r="D8" s="17"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="17"/>
+      <c r="K8" s="17"/>
+      <c r="L8" s="18"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" s="9">
+        <v>7</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="16">
+        <v>220041700011</v>
+      </c>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="17"/>
+      <c r="K9" s="17"/>
+      <c r="L9" s="18"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" s="9">
+        <v>8</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>143</v>
+      </c>
+      <c r="C10" s="16">
+        <v>220041700013</v>
+      </c>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="17"/>
+      <c r="K10" s="17"/>
+      <c r="L10" s="18"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" s="9">
+        <v>9</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>144</v>
+      </c>
+      <c r="C11" s="16">
+        <v>220041700014</v>
+      </c>
+      <c r="D11" s="17"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="17"/>
+      <c r="K11" s="17"/>
+      <c r="L11" s="18"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" s="9">
+        <v>10</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>145</v>
+      </c>
+      <c r="C12" s="16">
+        <v>220041700016</v>
+      </c>
+      <c r="D12" s="17"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="17"/>
+      <c r="K12" s="17"/>
+      <c r="L12" s="18"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" s="9">
+        <v>11</v>
+      </c>
+      <c r="B13" s="15" t="s">
+        <v>146</v>
+      </c>
+      <c r="C13" s="16">
+        <v>220041700017</v>
+      </c>
+      <c r="D13" s="17"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="17"/>
+      <c r="K13" s="17"/>
+      <c r="L13" s="18"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14" s="9">
         <v>12</v>
       </c>
-      <c r="C6" s="18">
-        <v>220041700007</v>
-      </c>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="21"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="11"/>
-      <c r="J6" s="19"/>
-      <c r="K6" s="19"/>
-      <c r="L6" s="20"/>
-      <c r="P6" s="18">
-        <v>220041700007</v>
-      </c>
-      <c r="Q6" s="26">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" s="11">
-        <v>5</v>
-      </c>
-      <c r="B7" s="17" t="s">
+      <c r="B14" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" s="16">
+        <v>220041700020</v>
+      </c>
+      <c r="D14" s="17"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="17"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="17"/>
+      <c r="K14" s="17"/>
+      <c r="L14" s="18"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15" s="9">
+        <v>13</v>
+      </c>
+      <c r="B15" s="15" t="s">
+        <v>147</v>
+      </c>
+      <c r="C15" s="16">
+        <v>220041700022</v>
+      </c>
+      <c r="D15" s="17"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="17"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="17"/>
+      <c r="K15" s="17"/>
+      <c r="L15" s="18"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16" s="9">
+        <v>14</v>
+      </c>
+      <c r="B16" s="15" t="s">
+        <v>148</v>
+      </c>
+      <c r="C16" s="16">
+        <v>220041700023</v>
+      </c>
+      <c r="D16" s="17"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="17"/>
+      <c r="G16" s="17"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="9"/>
+      <c r="J16" s="17"/>
+      <c r="K16" s="17"/>
+      <c r="L16" s="18"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" s="9">
         <v>15</v>
       </c>
-      <c r="C7" s="18">
-        <v>220041700008</v>
-      </c>
-      <c r="D7" s="19"/>
-      <c r="E7" s="19"/>
-      <c r="F7" s="19"/>
-      <c r="G7" s="19"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="11"/>
-      <c r="J7" s="19"/>
-      <c r="K7" s="19"/>
-      <c r="L7" s="20"/>
-      <c r="P7" s="18">
-        <v>220041700008</v>
-      </c>
-      <c r="Q7" s="26">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" s="11">
-        <v>6</v>
-      </c>
-      <c r="B8" s="17" t="s">
-        <v>142</v>
-      </c>
-      <c r="C8" s="18">
-        <v>220041700009</v>
-      </c>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="19"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="11"/>
-      <c r="J8" s="19"/>
-      <c r="K8" s="19"/>
-      <c r="L8" s="20"/>
-      <c r="P8" s="18">
-        <v>220041700009</v>
-      </c>
-      <c r="Q8" s="26">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9" s="11">
-        <v>7</v>
-      </c>
-      <c r="B9" s="17" t="s">
+      <c r="B17" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="C17" s="16">
+        <v>220041700024</v>
+      </c>
+      <c r="D17" s="17"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="17"/>
+      <c r="G17" s="17"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="9"/>
+      <c r="J17" s="17"/>
+      <c r="K17" s="17"/>
+      <c r="L17" s="18"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" s="9">
+        <v>16</v>
+      </c>
+      <c r="B18" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" s="16">
+        <v>220041700025</v>
+      </c>
+      <c r="D18" s="17"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="17"/>
+      <c r="G18" s="17"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="9"/>
+      <c r="J18" s="17"/>
+      <c r="K18" s="17"/>
+      <c r="L18" s="18"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" s="9">
+        <v>17</v>
+      </c>
+      <c r="B19" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="C19" s="16">
+        <v>220041700027</v>
+      </c>
+      <c r="D19" s="17"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="17"/>
+      <c r="G19" s="17"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="9"/>
+      <c r="J19" s="17"/>
+      <c r="K19" s="17"/>
+      <c r="L19" s="18"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" s="9">
         <v>18</v>
       </c>
-      <c r="C9" s="18">
-        <v>220041700011</v>
-      </c>
-      <c r="D9" s="19"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="19"/>
-      <c r="G9" s="19"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="11"/>
-      <c r="J9" s="19"/>
-      <c r="K9" s="19"/>
-      <c r="L9" s="20"/>
-      <c r="P9" s="18">
-        <v>220041700011</v>
-      </c>
-      <c r="Q9" s="26">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10" s="11">
-        <v>8</v>
-      </c>
-      <c r="B10" s="17" t="s">
-        <v>143</v>
-      </c>
-      <c r="C10" s="18">
-        <v>220041700013</v>
-      </c>
-      <c r="D10" s="19"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="19"/>
-      <c r="G10" s="19"/>
-      <c r="H10" s="11"/>
-      <c r="I10" s="11"/>
-      <c r="J10" s="19"/>
-      <c r="K10" s="19"/>
-      <c r="L10" s="20"/>
-      <c r="P10" s="18">
-        <v>220041700013</v>
-      </c>
-      <c r="Q10" s="26">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" s="11">
-        <v>9</v>
-      </c>
-      <c r="B11" s="17" t="s">
-        <v>144</v>
-      </c>
-      <c r="C11" s="18">
-        <v>220041700014</v>
-      </c>
-      <c r="D11" s="19"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="19"/>
-      <c r="G11" s="19"/>
-      <c r="H11" s="11"/>
-      <c r="I11" s="11"/>
-      <c r="J11" s="19"/>
-      <c r="K11" s="19"/>
-      <c r="L11" s="20"/>
-      <c r="P11" s="18">
-        <v>220041700014</v>
-      </c>
-      <c r="Q11" s="26">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" s="11">
-        <v>10</v>
-      </c>
-      <c r="B12" s="17" t="s">
-        <v>145</v>
-      </c>
-      <c r="C12" s="18">
-        <v>220041700016</v>
-      </c>
-      <c r="D12" s="19"/>
-      <c r="E12" s="19"/>
-      <c r="F12" s="19"/>
-      <c r="G12" s="19"/>
-      <c r="H12" s="11"/>
-      <c r="I12" s="11"/>
-      <c r="J12" s="19"/>
-      <c r="K12" s="19"/>
-      <c r="L12" s="20"/>
-      <c r="P12" s="18">
-        <v>220041700016</v>
-      </c>
-      <c r="Q12" s="26">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" s="11">
-        <v>11</v>
-      </c>
-      <c r="B13" s="17" t="s">
-        <v>146</v>
-      </c>
-      <c r="C13" s="18">
-        <v>220041700017</v>
-      </c>
-      <c r="D13" s="19"/>
-      <c r="E13" s="19"/>
-      <c r="F13" s="19"/>
-      <c r="G13" s="19"/>
-      <c r="H13" s="11"/>
-      <c r="I13" s="11"/>
-      <c r="J13" s="19"/>
-      <c r="K13" s="19"/>
-      <c r="L13" s="20"/>
-      <c r="P13" s="18">
-        <v>220041700017</v>
-      </c>
-      <c r="Q13" s="26">
-        <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14" s="11">
-        <v>12</v>
-      </c>
-      <c r="B14" s="17" t="s">
+      <c r="B20" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" s="16">
+        <v>220041700028</v>
+      </c>
+      <c r="D20" s="17"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="17"/>
+      <c r="G20" s="17"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="9"/>
+      <c r="J20" s="17"/>
+      <c r="K20" s="17"/>
+      <c r="L20" s="18"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" s="9">
         <v>19</v>
       </c>
-      <c r="C14" s="18">
-        <v>220041700020</v>
-      </c>
-      <c r="D14" s="19"/>
-      <c r="E14" s="19"/>
-      <c r="F14" s="19"/>
-      <c r="G14" s="19"/>
-      <c r="H14" s="11"/>
-      <c r="I14" s="11"/>
-      <c r="J14" s="19"/>
-      <c r="K14" s="19"/>
-      <c r="L14" s="20"/>
-      <c r="P14" s="18">
-        <v>220041700020</v>
-      </c>
-      <c r="Q14" s="26">
-        <f t="shared" si="0"/>
+      <c r="B21" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" s="16">
+        <v>220041700029</v>
+      </c>
+      <c r="D21" s="17"/>
+      <c r="E21" s="17"/>
+      <c r="F21" s="17"/>
+      <c r="G21" s="17"/>
+      <c r="H21" s="9"/>
+      <c r="I21" s="9"/>
+      <c r="J21" s="17"/>
+      <c r="K21" s="17"/>
+      <c r="L21" s="18"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" s="9">
         <v>20</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A15" s="11">
-        <v>13</v>
-      </c>
-      <c r="B15" s="17" t="s">
-        <v>147</v>
-      </c>
-      <c r="C15" s="18">
-        <v>220041700022</v>
-      </c>
-      <c r="D15" s="19"/>
-      <c r="E15" s="19"/>
-      <c r="F15" s="19"/>
-      <c r="G15" s="19"/>
-      <c r="H15" s="11"/>
-      <c r="I15" s="11"/>
-      <c r="J15" s="19"/>
-      <c r="K15" s="19"/>
-      <c r="L15" s="20"/>
-      <c r="P15" s="18">
-        <v>220041700022</v>
-      </c>
-      <c r="Q15" s="26">
-        <f t="shared" si="0"/>
+      <c r="B22" s="15" t="s">
+        <v>151</v>
+      </c>
+      <c r="C22" s="16">
+        <v>220041700031</v>
+      </c>
+      <c r="D22" s="17"/>
+      <c r="E22" s="17"/>
+      <c r="F22" s="17"/>
+      <c r="G22" s="17"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="9"/>
+      <c r="J22" s="17"/>
+      <c r="K22" s="17"/>
+      <c r="L22" s="18"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" s="9">
+        <v>21</v>
+      </c>
+      <c r="B23" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="C23" s="16">
+        <v>220041700033</v>
+      </c>
+      <c r="D23" s="17"/>
+      <c r="E23" s="17"/>
+      <c r="F23" s="17"/>
+      <c r="G23" s="17"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="9"/>
+      <c r="J23" s="17"/>
+      <c r="K23" s="17"/>
+      <c r="L23" s="18"/>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" s="9">
         <v>22</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" s="11">
-        <v>14</v>
-      </c>
-      <c r="B16" s="17" t="s">
-        <v>148</v>
-      </c>
-      <c r="C16" s="18">
-        <v>220041700023</v>
-      </c>
-      <c r="D16" s="19"/>
-      <c r="E16" s="19"/>
-      <c r="F16" s="19"/>
-      <c r="G16" s="19"/>
-      <c r="H16" s="11"/>
-      <c r="I16" s="11"/>
-      <c r="J16" s="19"/>
-      <c r="K16" s="19"/>
-      <c r="L16" s="20"/>
-      <c r="P16" s="18">
-        <v>220041700023</v>
-      </c>
-      <c r="Q16" s="26">
-        <f t="shared" si="0"/>
+      <c r="B24" s="15" t="s">
+        <v>153</v>
+      </c>
+      <c r="C24" s="16">
+        <v>220041700034</v>
+      </c>
+      <c r="D24" s="17"/>
+      <c r="E24" s="17"/>
+      <c r="F24" s="17"/>
+      <c r="G24" s="17"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="9"/>
+      <c r="J24" s="17"/>
+      <c r="K24" s="17"/>
+      <c r="L24" s="18"/>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25" s="9">
         <v>23</v>
       </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A17" s="11">
-        <v>15</v>
-      </c>
-      <c r="B17" s="17" t="s">
-        <v>149</v>
-      </c>
-      <c r="C17" s="18">
-        <v>220041700024</v>
-      </c>
-      <c r="D17" s="19"/>
-      <c r="E17" s="19"/>
-      <c r="F17" s="19"/>
-      <c r="G17" s="19"/>
-      <c r="H17" s="11"/>
-      <c r="I17" s="11"/>
-      <c r="J17" s="19"/>
-      <c r="K17" s="19"/>
-      <c r="L17" s="20"/>
-      <c r="P17" s="18">
-        <v>220041700024</v>
-      </c>
-      <c r="Q17" s="26">
-        <f t="shared" si="0"/>
+      <c r="B25" s="15" t="s">
+        <v>154</v>
+      </c>
+      <c r="C25" s="16">
+        <v>220041700035</v>
+      </c>
+      <c r="D25" s="17"/>
+      <c r="E25" s="17"/>
+      <c r="F25" s="17"/>
+      <c r="G25" s="17"/>
+      <c r="H25" s="9"/>
+      <c r="I25" s="9"/>
+      <c r="J25" s="17"/>
+      <c r="K25" s="17"/>
+      <c r="L25" s="18"/>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26" s="9">
         <v>24</v>
       </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A18" s="11">
-        <v>16</v>
-      </c>
-      <c r="B18" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="C18" s="18">
-        <v>220041700025</v>
-      </c>
-      <c r="D18" s="19"/>
-      <c r="E18" s="19"/>
-      <c r="F18" s="19"/>
-      <c r="G18" s="19"/>
-      <c r="H18" s="11"/>
-      <c r="I18" s="11"/>
-      <c r="J18" s="19"/>
-      <c r="K18" s="19"/>
-      <c r="L18" s="20"/>
-      <c r="P18" s="18">
-        <v>220041700025</v>
-      </c>
-      <c r="Q18" s="26">
-        <f t="shared" si="0"/>
+      <c r="B26" s="15" t="s">
+        <v>155</v>
+      </c>
+      <c r="C26" s="16">
+        <v>220041700036</v>
+      </c>
+      <c r="D26" s="17"/>
+      <c r="E26" s="17"/>
+      <c r="F26" s="17"/>
+      <c r="G26" s="17"/>
+      <c r="H26" s="9"/>
+      <c r="I26" s="9"/>
+      <c r="J26" s="17"/>
+      <c r="K26" s="17"/>
+      <c r="L26" s="18"/>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27" s="9">
         <v>25</v>
       </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A19" s="11">
-        <v>17</v>
-      </c>
-      <c r="B19" s="17" t="s">
-        <v>150</v>
-      </c>
-      <c r="C19" s="18">
-        <v>220041700027</v>
-      </c>
-      <c r="D19" s="19"/>
-      <c r="E19" s="19"/>
-      <c r="F19" s="19"/>
-      <c r="G19" s="19"/>
-      <c r="H19" s="11"/>
-      <c r="I19" s="11"/>
-      <c r="J19" s="19"/>
-      <c r="K19" s="19"/>
-      <c r="L19" s="20"/>
-      <c r="P19" s="18">
-        <v>220041700027</v>
-      </c>
-      <c r="Q19" s="26">
-        <f t="shared" si="0"/>
+      <c r="B27" s="15" t="s">
+        <v>156</v>
+      </c>
+      <c r="C27" s="16">
+        <v>220041700039</v>
+      </c>
+      <c r="D27" s="17"/>
+      <c r="E27" s="17"/>
+      <c r="F27" s="17"/>
+      <c r="G27" s="19"/>
+      <c r="H27" s="9"/>
+      <c r="I27" s="9"/>
+      <c r="J27" s="17"/>
+      <c r="K27" s="17"/>
+      <c r="L27" s="18"/>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A28" s="9">
+        <v>26</v>
+      </c>
+      <c r="B28" s="15" t="s">
+        <v>157</v>
+      </c>
+      <c r="C28" s="16">
+        <v>220041700040</v>
+      </c>
+      <c r="D28" s="17"/>
+      <c r="E28" s="17"/>
+      <c r="F28" s="17"/>
+      <c r="G28" s="19"/>
+      <c r="H28" s="9"/>
+      <c r="I28" s="9"/>
+      <c r="J28" s="17"/>
+      <c r="K28" s="17"/>
+      <c r="L28" s="18"/>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A29" s="9">
         <v>27</v>
       </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A20" s="11">
-        <v>18</v>
-      </c>
-      <c r="B20" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="C20" s="18">
-        <v>220041700028</v>
-      </c>
-      <c r="D20" s="19"/>
-      <c r="E20" s="19"/>
-      <c r="F20" s="19"/>
-      <c r="G20" s="19"/>
-      <c r="H20" s="11"/>
-      <c r="I20" s="11"/>
-      <c r="J20" s="19"/>
-      <c r="K20" s="19"/>
-      <c r="L20" s="20"/>
-      <c r="P20" s="18">
-        <v>220041700028</v>
-      </c>
-      <c r="Q20" s="26">
-        <f t="shared" si="0"/>
+      <c r="B29" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="C29" s="16">
+        <v>220041700042</v>
+      </c>
+      <c r="D29" s="17"/>
+      <c r="E29" s="17"/>
+      <c r="F29" s="17"/>
+      <c r="G29" s="19"/>
+      <c r="H29" s="9"/>
+      <c r="I29" s="9"/>
+      <c r="J29" s="17"/>
+      <c r="K29" s="17"/>
+      <c r="L29" s="18"/>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A30" s="9">
         <v>28</v>
       </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A21" s="11">
-        <v>19</v>
-      </c>
-      <c r="B21" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="C21" s="18">
-        <v>220041700029</v>
-      </c>
-      <c r="D21" s="19"/>
-      <c r="E21" s="19"/>
-      <c r="F21" s="19"/>
-      <c r="G21" s="19"/>
-      <c r="H21" s="11"/>
-      <c r="I21" s="11"/>
-      <c r="J21" s="19"/>
-      <c r="K21" s="19"/>
-      <c r="L21" s="20"/>
-      <c r="P21" s="18">
-        <v>220041700029</v>
-      </c>
-      <c r="Q21" s="26">
-        <f t="shared" si="0"/>
+      <c r="B30" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="C30" s="16">
+        <v>220041700043</v>
+      </c>
+      <c r="D30" s="17"/>
+      <c r="E30" s="17"/>
+      <c r="F30" s="17"/>
+      <c r="G30" s="19"/>
+      <c r="H30" s="9"/>
+      <c r="I30" s="9"/>
+      <c r="J30" s="17"/>
+      <c r="K30" s="17"/>
+      <c r="L30" s="18"/>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A31" s="9">
         <v>29</v>
       </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A22" s="11">
-        <v>20</v>
-      </c>
-      <c r="B22" s="17" t="s">
-        <v>151</v>
-      </c>
-      <c r="C22" s="18">
-        <v>220041700031</v>
-      </c>
-      <c r="D22" s="19"/>
-      <c r="E22" s="19"/>
-      <c r="F22" s="19"/>
-      <c r="G22" s="19"/>
-      <c r="H22" s="11"/>
-      <c r="I22" s="11"/>
-      <c r="J22" s="19"/>
-      <c r="K22" s="19"/>
-      <c r="L22" s="20"/>
-      <c r="P22" s="18">
-        <v>220041700031</v>
-      </c>
-      <c r="Q22" s="26">
-        <f t="shared" si="0"/>
+      <c r="B31" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="C31" s="16">
+        <v>220041700044</v>
+      </c>
+      <c r="D31" s="17"/>
+      <c r="E31" s="17"/>
+      <c r="F31" s="17"/>
+      <c r="G31" s="17"/>
+      <c r="H31" s="9"/>
+      <c r="I31" s="9"/>
+      <c r="J31" s="17"/>
+      <c r="K31" s="17"/>
+      <c r="L31" s="18"/>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A32" s="9">
+        <v>30</v>
+      </c>
+      <c r="B32" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="C32" s="16">
+        <v>220041700045</v>
+      </c>
+      <c r="D32" s="17"/>
+      <c r="E32" s="17"/>
+      <c r="F32" s="17"/>
+      <c r="G32" s="17"/>
+      <c r="H32" s="9"/>
+      <c r="I32" s="9"/>
+      <c r="J32" s="17"/>
+      <c r="K32" s="17"/>
+      <c r="L32" s="18"/>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A33" s="9">
         <v>31</v>
       </c>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A23" s="11">
-        <v>21</v>
-      </c>
-      <c r="B23" s="17" t="s">
-        <v>152</v>
-      </c>
-      <c r="C23" s="18">
-        <v>220041700033</v>
-      </c>
-      <c r="D23" s="19"/>
-      <c r="E23" s="19"/>
-      <c r="F23" s="19"/>
-      <c r="G23" s="19"/>
-      <c r="H23" s="11"/>
-      <c r="I23" s="11"/>
-      <c r="J23" s="19"/>
-      <c r="K23" s="19"/>
-      <c r="L23" s="20"/>
-      <c r="P23" s="18">
-        <v>220041700033</v>
-      </c>
-      <c r="Q23" s="26">
-        <f t="shared" si="0"/>
+      <c r="B33" s="15" t="s">
+        <v>159</v>
+      </c>
+      <c r="C33" s="16">
+        <v>220041700046</v>
+      </c>
+      <c r="D33" s="17"/>
+      <c r="E33" s="17"/>
+      <c r="F33" s="17"/>
+      <c r="G33" s="17"/>
+      <c r="H33" s="9"/>
+      <c r="I33" s="9"/>
+      <c r="J33" s="17"/>
+      <c r="K33" s="17"/>
+      <c r="L33" s="18"/>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A34" s="9">
+        <v>32</v>
+      </c>
+      <c r="B34" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="C34" s="16">
+        <v>220041700049</v>
+      </c>
+      <c r="D34" s="17"/>
+      <c r="E34" s="17"/>
+      <c r="F34" s="17"/>
+      <c r="G34" s="19"/>
+      <c r="H34" s="9"/>
+      <c r="I34" s="9"/>
+      <c r="J34" s="17"/>
+      <c r="K34" s="17"/>
+      <c r="L34" s="18"/>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A35" s="9">
         <v>33</v>
       </c>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A24" s="11">
-        <v>22</v>
-      </c>
-      <c r="B24" s="17" t="s">
-        <v>153</v>
-      </c>
-      <c r="C24" s="18">
-        <v>220041700034</v>
-      </c>
-      <c r="D24" s="19"/>
-      <c r="E24" s="19"/>
-      <c r="F24" s="19"/>
-      <c r="G24" s="19"/>
-      <c r="H24" s="11"/>
-      <c r="I24" s="11"/>
-      <c r="J24" s="19"/>
-      <c r="K24" s="19"/>
-      <c r="L24" s="20"/>
-      <c r="P24" s="18">
-        <v>220041700034</v>
-      </c>
-      <c r="Q24" s="26">
-        <f t="shared" si="0"/>
+      <c r="B35" s="15" t="s">
+        <v>161</v>
+      </c>
+      <c r="C35" s="16">
+        <v>220041700051</v>
+      </c>
+      <c r="D35" s="17"/>
+      <c r="E35" s="17"/>
+      <c r="F35" s="17"/>
+      <c r="G35" s="17"/>
+      <c r="H35" s="9"/>
+      <c r="I35" s="9"/>
+      <c r="J35" s="17"/>
+      <c r="K35" s="17"/>
+      <c r="L35" s="18"/>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A36" s="9">
         <v>34</v>
       </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A25" s="11">
-        <v>23</v>
-      </c>
-      <c r="B25" s="17" t="s">
-        <v>154</v>
-      </c>
-      <c r="C25" s="18">
-        <v>220041700035</v>
-      </c>
-      <c r="D25" s="19"/>
-      <c r="E25" s="19"/>
-      <c r="F25" s="19"/>
-      <c r="G25" s="19"/>
-      <c r="H25" s="11"/>
-      <c r="I25" s="11"/>
-      <c r="J25" s="19"/>
-      <c r="K25" s="19"/>
-      <c r="L25" s="20"/>
-      <c r="P25" s="18">
-        <v>220041700035</v>
-      </c>
-      <c r="Q25" s="26">
-        <f t="shared" si="0"/>
+      <c r="B36" s="15" t="s">
+        <v>162</v>
+      </c>
+      <c r="C36" s="16">
+        <v>220041700052</v>
+      </c>
+      <c r="D36" s="17"/>
+      <c r="E36" s="17"/>
+      <c r="F36" s="17"/>
+      <c r="G36" s="17"/>
+      <c r="H36" s="9"/>
+      <c r="I36" s="9"/>
+      <c r="J36" s="17"/>
+      <c r="K36" s="17"/>
+      <c r="L36" s="18"/>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A37" s="9">
         <v>35</v>
       </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A26" s="11">
-        <v>24</v>
-      </c>
-      <c r="B26" s="17" t="s">
-        <v>155</v>
-      </c>
-      <c r="C26" s="18">
-        <v>220041700036</v>
-      </c>
-      <c r="D26" s="19"/>
-      <c r="E26" s="19"/>
-      <c r="F26" s="19"/>
-      <c r="G26" s="19"/>
-      <c r="H26" s="11"/>
-      <c r="I26" s="11"/>
-      <c r="J26" s="19"/>
-      <c r="K26" s="19"/>
-      <c r="L26" s="20"/>
-      <c r="P26" s="18">
-        <v>220041700036</v>
-      </c>
-      <c r="Q26" s="26">
-        <f t="shared" si="0"/>
+      <c r="B37" s="15" t="s">
+        <v>163</v>
+      </c>
+      <c r="C37" s="16">
+        <v>220041700054</v>
+      </c>
+      <c r="D37" s="17"/>
+      <c r="E37" s="17"/>
+      <c r="F37" s="17"/>
+      <c r="G37" s="17"/>
+      <c r="H37" s="9"/>
+      <c r="I37" s="9"/>
+      <c r="J37" s="17"/>
+      <c r="K37" s="17"/>
+      <c r="L37" s="18"/>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A38" s="9">
         <v>36</v>
       </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A27" s="11">
-        <v>25</v>
-      </c>
-      <c r="B27" s="17" t="s">
-        <v>156</v>
-      </c>
-      <c r="C27" s="18">
-        <v>220041700039</v>
-      </c>
-      <c r="D27" s="19"/>
-      <c r="E27" s="19"/>
-      <c r="F27" s="19"/>
-      <c r="G27" s="21"/>
-      <c r="H27" s="11"/>
-      <c r="I27" s="11"/>
-      <c r="J27" s="19"/>
-      <c r="K27" s="19"/>
-      <c r="L27" s="20"/>
-      <c r="P27" s="18">
-        <v>220041700039</v>
-      </c>
-      <c r="Q27" s="26">
-        <f t="shared" si="0"/>
+      <c r="B38" s="15" t="s">
+        <v>164</v>
+      </c>
+      <c r="C38" s="16">
+        <v>220041700056</v>
+      </c>
+      <c r="D38" s="17"/>
+      <c r="E38" s="17"/>
+      <c r="F38" s="17"/>
+      <c r="G38" s="17"/>
+      <c r="H38" s="9"/>
+      <c r="I38" s="9"/>
+      <c r="J38" s="17"/>
+      <c r="K38" s="17"/>
+      <c r="L38" s="18"/>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A39" s="9">
+        <v>37</v>
+      </c>
+      <c r="B39" s="15" t="s">
+        <v>165</v>
+      </c>
+      <c r="C39" s="16">
+        <v>220041700057</v>
+      </c>
+      <c r="D39" s="17"/>
+      <c r="E39" s="17"/>
+      <c r="F39" s="17"/>
+      <c r="G39" s="17"/>
+      <c r="H39" s="9"/>
+      <c r="I39" s="9"/>
+      <c r="J39" s="17"/>
+      <c r="K39" s="17"/>
+      <c r="L39" s="18"/>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A40" s="9">
+        <v>38</v>
+      </c>
+      <c r="B40" s="15" t="s">
+        <v>166</v>
+      </c>
+      <c r="C40" s="16">
+        <v>220041700060</v>
+      </c>
+      <c r="D40" s="17"/>
+      <c r="E40" s="17"/>
+      <c r="F40" s="17"/>
+      <c r="G40" s="17"/>
+      <c r="H40" s="9"/>
+      <c r="I40" s="9"/>
+      <c r="J40" s="17"/>
+      <c r="K40" s="17"/>
+      <c r="L40" s="18"/>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A41" s="9">
         <v>39</v>
       </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A28" s="11">
-        <v>26</v>
-      </c>
-      <c r="B28" s="17" t="s">
-        <v>157</v>
-      </c>
-      <c r="C28" s="18">
-        <v>220041700040</v>
-      </c>
-      <c r="D28" s="19"/>
-      <c r="E28" s="19"/>
-      <c r="F28" s="19"/>
-      <c r="G28" s="21"/>
-      <c r="H28" s="11"/>
-      <c r="I28" s="11"/>
-      <c r="J28" s="19"/>
-      <c r="K28" s="19"/>
-      <c r="L28" s="20"/>
-      <c r="P28" s="18">
-        <v>220041700040</v>
-      </c>
-      <c r="Q28" s="26">
-        <f t="shared" si="0"/>
+      <c r="B41" s="15" t="s">
+        <v>167</v>
+      </c>
+      <c r="C41" s="16">
+        <v>220041700061</v>
+      </c>
+      <c r="D41" s="17"/>
+      <c r="E41" s="17"/>
+      <c r="F41" s="17"/>
+      <c r="G41" s="19"/>
+      <c r="H41" s="9"/>
+      <c r="I41" s="9"/>
+      <c r="J41" s="17"/>
+      <c r="K41" s="17"/>
+      <c r="L41" s="18"/>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A42" s="9">
         <v>40</v>
       </c>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A29" s="11">
-        <v>27</v>
-      </c>
-      <c r="B29" s="17" t="s">
-        <v>158</v>
-      </c>
-      <c r="C29" s="18">
-        <v>220041700042</v>
-      </c>
-      <c r="D29" s="19"/>
-      <c r="E29" s="19"/>
-      <c r="F29" s="19"/>
-      <c r="G29" s="21"/>
-      <c r="H29" s="11"/>
-      <c r="I29" s="11"/>
-      <c r="J29" s="19"/>
-      <c r="K29" s="19"/>
-      <c r="L29" s="20"/>
-      <c r="P29" s="18">
-        <v>220041700042</v>
-      </c>
-      <c r="Q29" s="26">
-        <f t="shared" si="0"/>
+      <c r="B42" s="15" t="s">
+        <v>168</v>
+      </c>
+      <c r="C42" s="16">
+        <v>220041700064</v>
+      </c>
+      <c r="D42" s="17"/>
+      <c r="E42" s="17"/>
+      <c r="F42" s="17"/>
+      <c r="G42" s="19"/>
+      <c r="H42" s="9"/>
+      <c r="I42" s="9"/>
+      <c r="J42" s="17"/>
+      <c r="K42" s="17"/>
+      <c r="L42" s="18"/>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A43" s="9">
+        <v>41</v>
+      </c>
+      <c r="B43" s="15" t="s">
+        <v>169</v>
+      </c>
+      <c r="C43" s="16">
+        <v>220041700065</v>
+      </c>
+      <c r="D43" s="17"/>
+      <c r="E43" s="17"/>
+      <c r="F43" s="17"/>
+      <c r="G43" s="17"/>
+      <c r="H43" s="9"/>
+      <c r="I43" s="9"/>
+      <c r="J43" s="17"/>
+      <c r="K43" s="17"/>
+      <c r="L43" s="18"/>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A44" s="9">
         <v>42</v>
       </c>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A30" s="11">
-        <v>28</v>
-      </c>
-      <c r="B30" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="C30" s="18">
-        <v>220041700043</v>
-      </c>
-      <c r="D30" s="19"/>
-      <c r="E30" s="19"/>
-      <c r="F30" s="19"/>
-      <c r="G30" s="21"/>
-      <c r="H30" s="11"/>
-      <c r="I30" s="11"/>
-      <c r="J30" s="19"/>
-      <c r="K30" s="19"/>
-      <c r="L30" s="20"/>
-      <c r="P30" s="18">
-        <v>220041700043</v>
-      </c>
-      <c r="Q30" s="26">
-        <f t="shared" si="0"/>
+      <c r="B44" s="15" t="s">
+        <v>170</v>
+      </c>
+      <c r="C44" s="16">
+        <v>220041700066</v>
+      </c>
+      <c r="D44" s="17"/>
+      <c r="E44" s="17"/>
+      <c r="F44" s="17"/>
+      <c r="G44" s="17"/>
+      <c r="H44" s="9"/>
+      <c r="I44" s="9"/>
+      <c r="J44" s="17"/>
+      <c r="K44" s="17"/>
+      <c r="L44" s="18"/>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A45" s="9">
         <v>43</v>
       </c>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A31" s="11">
-        <v>29</v>
-      </c>
-      <c r="B31" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="C31" s="18">
-        <v>220041700044</v>
-      </c>
-      <c r="D31" s="19"/>
-      <c r="E31" s="19"/>
-      <c r="F31" s="19"/>
-      <c r="G31" s="19"/>
-      <c r="H31" s="11"/>
-      <c r="I31" s="11"/>
-      <c r="J31" s="19"/>
-      <c r="K31" s="19"/>
-      <c r="L31" s="20"/>
-      <c r="P31" s="18">
-        <v>220041700044</v>
-      </c>
-      <c r="Q31" s="26">
-        <f t="shared" si="0"/>
+      <c r="B45" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="C45" s="16">
+        <v>220041700067</v>
+      </c>
+      <c r="D45" s="17"/>
+      <c r="E45" s="17"/>
+      <c r="F45" s="17"/>
+      <c r="G45" s="17"/>
+      <c r="H45" s="9"/>
+      <c r="I45" s="9"/>
+      <c r="J45" s="17"/>
+      <c r="K45" s="17"/>
+      <c r="L45" s="18"/>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A46" s="9">
         <v>44</v>
       </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A32" s="11">
-        <v>30</v>
-      </c>
-      <c r="B32" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="C32" s="18">
-        <v>220041700045</v>
-      </c>
-      <c r="D32" s="19"/>
-      <c r="E32" s="19"/>
-      <c r="F32" s="19"/>
-      <c r="G32" s="19"/>
-      <c r="H32" s="11"/>
-      <c r="I32" s="11"/>
-      <c r="J32" s="19"/>
-      <c r="K32" s="19"/>
-      <c r="L32" s="20"/>
-      <c r="P32" s="18">
-        <v>220041700045</v>
-      </c>
-      <c r="Q32" s="26">
-        <f t="shared" si="0"/>
+      <c r="B46" s="20" t="s">
+        <v>172</v>
+      </c>
+      <c r="C46" s="21">
+        <v>220041723001</v>
+      </c>
+      <c r="D46" s="17"/>
+      <c r="E46" s="17"/>
+      <c r="F46" s="17"/>
+      <c r="G46" s="17"/>
+      <c r="H46" s="9"/>
+      <c r="I46" s="9"/>
+      <c r="J46" s="17"/>
+      <c r="K46" s="17"/>
+      <c r="L46" s="18"/>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A47" s="9">
         <v>45</v>
       </c>
-    </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A33" s="11">
-        <v>31</v>
-      </c>
-      <c r="B33" s="17" t="s">
-        <v>159</v>
-      </c>
-      <c r="C33" s="18">
-        <v>220041700046</v>
-      </c>
-      <c r="D33" s="19"/>
-      <c r="E33" s="19"/>
-      <c r="F33" s="19"/>
-      <c r="G33" s="19"/>
-      <c r="H33" s="11"/>
-      <c r="I33" s="11"/>
-      <c r="J33" s="19"/>
-      <c r="K33" s="19"/>
-      <c r="L33" s="20"/>
-      <c r="P33" s="18">
-        <v>220041700046</v>
-      </c>
-      <c r="Q33" s="26">
-        <f t="shared" si="0"/>
+      <c r="B47" s="20" t="s">
+        <v>173</v>
+      </c>
+      <c r="C47" s="21">
+        <v>220041723002</v>
+      </c>
+      <c r="D47" s="17"/>
+      <c r="E47" s="17"/>
+      <c r="F47" s="17"/>
+      <c r="G47" s="17"/>
+      <c r="H47" s="9"/>
+      <c r="I47" s="9"/>
+      <c r="J47" s="17"/>
+      <c r="K47" s="17"/>
+      <c r="L47" s="18"/>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A48" s="9">
         <v>46</v>
       </c>
-    </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A34" s="11">
-        <v>32</v>
-      </c>
-      <c r="B34" s="17" t="s">
-        <v>160</v>
-      </c>
-      <c r="C34" s="18">
-        <v>220041700049</v>
-      </c>
-      <c r="D34" s="19"/>
-      <c r="E34" s="19"/>
-      <c r="F34" s="19"/>
-      <c r="G34" s="21"/>
-      <c r="H34" s="11"/>
-      <c r="I34" s="11"/>
-      <c r="J34" s="19"/>
-      <c r="K34" s="19"/>
-      <c r="L34" s="20"/>
-      <c r="P34" s="18">
-        <v>220041700049</v>
-      </c>
-      <c r="Q34" s="26">
-        <f t="shared" si="0"/>
+      <c r="B48" s="20" t="s">
+        <v>174</v>
+      </c>
+      <c r="C48" s="21">
+        <v>220041723003</v>
+      </c>
+      <c r="D48" s="17"/>
+      <c r="E48" s="17"/>
+      <c r="F48" s="17"/>
+      <c r="G48" s="17"/>
+      <c r="H48" s="9"/>
+      <c r="I48" s="9"/>
+      <c r="J48" s="17"/>
+      <c r="K48" s="17"/>
+      <c r="L48" s="18"/>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A49" s="9">
+        <v>47</v>
+      </c>
+      <c r="B49" s="20" t="s">
+        <v>175</v>
+      </c>
+      <c r="C49" s="21">
+        <v>220041723004</v>
+      </c>
+      <c r="D49" s="17"/>
+      <c r="E49" s="17"/>
+      <c r="F49" s="17"/>
+      <c r="G49" s="17"/>
+      <c r="H49" s="9"/>
+      <c r="I49" s="9"/>
+      <c r="J49" s="17"/>
+      <c r="K49" s="17"/>
+      <c r="L49" s="18"/>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A50" s="9">
+        <v>48</v>
+      </c>
+      <c r="B50" s="20" t="s">
+        <v>176</v>
+      </c>
+      <c r="C50" s="21">
+        <v>220041723005</v>
+      </c>
+      <c r="D50" s="17"/>
+      <c r="E50" s="17"/>
+      <c r="F50" s="17"/>
+      <c r="G50" s="17"/>
+      <c r="H50" s="9"/>
+      <c r="I50" s="9"/>
+      <c r="J50" s="17"/>
+      <c r="K50" s="17"/>
+      <c r="L50" s="18"/>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A51" s="9">
         <v>49</v>
       </c>
-    </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A35" s="11">
-        <v>33</v>
-      </c>
-      <c r="B35" s="17" t="s">
-        <v>161</v>
-      </c>
-      <c r="C35" s="18">
-        <v>220041700051</v>
-      </c>
-      <c r="D35" s="19"/>
-      <c r="E35" s="19"/>
-      <c r="F35" s="19"/>
-      <c r="G35" s="19"/>
-      <c r="H35" s="11"/>
-      <c r="I35" s="11"/>
-      <c r="J35" s="19"/>
-      <c r="K35" s="19"/>
-      <c r="L35" s="20"/>
-      <c r="P35" s="18">
-        <v>220041700051</v>
-      </c>
-      <c r="Q35" s="26">
-        <f t="shared" si="0"/>
+      <c r="B51" s="20" t="s">
+        <v>177</v>
+      </c>
+      <c r="C51" s="21">
+        <v>220041723007</v>
+      </c>
+      <c r="D51" s="17"/>
+      <c r="E51" s="17"/>
+      <c r="F51" s="17"/>
+      <c r="G51" s="17"/>
+      <c r="H51" s="9"/>
+      <c r="I51" s="9"/>
+      <c r="J51" s="17"/>
+      <c r="K51" s="17"/>
+      <c r="L51" s="18"/>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A52" s="9">
+        <v>50</v>
+      </c>
+      <c r="B52" s="20" t="s">
+        <v>178</v>
+      </c>
+      <c r="C52" s="21">
+        <v>220041723008</v>
+      </c>
+      <c r="D52" s="17"/>
+      <c r="E52" s="17"/>
+      <c r="F52" s="17"/>
+      <c r="G52" s="17"/>
+      <c r="H52" s="9"/>
+      <c r="I52" s="9"/>
+      <c r="J52" s="17"/>
+      <c r="K52" s="17"/>
+      <c r="L52" s="18"/>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A53" s="9">
         <v>51</v>
       </c>
-    </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A36" s="11">
-        <v>34</v>
-      </c>
-      <c r="B36" s="17" t="s">
-        <v>162</v>
-      </c>
-      <c r="C36" s="18">
-        <v>220041700052</v>
-      </c>
-      <c r="D36" s="19"/>
-      <c r="E36" s="19"/>
-      <c r="F36" s="19"/>
-      <c r="G36" s="19"/>
-      <c r="H36" s="11"/>
-      <c r="I36" s="11"/>
-      <c r="J36" s="19"/>
-      <c r="K36" s="19"/>
-      <c r="L36" s="20"/>
-      <c r="P36" s="18">
-        <v>220041700052</v>
-      </c>
-      <c r="Q36" s="26">
-        <f t="shared" si="0"/>
+      <c r="B53" s="20" t="s">
+        <v>179</v>
+      </c>
+      <c r="C53" s="21">
+        <v>220041723009</v>
+      </c>
+      <c r="D53" s="17"/>
+      <c r="E53" s="17"/>
+      <c r="F53" s="17"/>
+      <c r="G53" s="17"/>
+      <c r="H53" s="9"/>
+      <c r="I53" s="9"/>
+      <c r="J53" s="17"/>
+      <c r="K53" s="17"/>
+      <c r="L53" s="18"/>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A54" s="9">
         <v>52</v>
       </c>
-    </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A37" s="11">
-        <v>35</v>
-      </c>
-      <c r="B37" s="17" t="s">
-        <v>163</v>
-      </c>
-      <c r="C37" s="18">
-        <v>220041700054</v>
-      </c>
-      <c r="D37" s="19"/>
-      <c r="E37" s="19"/>
-      <c r="F37" s="19"/>
-      <c r="G37" s="19"/>
-      <c r="H37" s="11"/>
-      <c r="I37" s="11"/>
-      <c r="J37" s="19"/>
-      <c r="K37" s="19"/>
-      <c r="L37" s="20"/>
-      <c r="P37" s="18">
-        <v>220041700054</v>
-      </c>
-      <c r="Q37" s="26">
-        <f t="shared" si="0"/>
+      <c r="B54" s="20" t="s">
+        <v>180</v>
+      </c>
+      <c r="C54" s="21">
+        <v>220041723011</v>
+      </c>
+      <c r="D54" s="17"/>
+      <c r="E54" s="17"/>
+      <c r="F54" s="17"/>
+      <c r="G54" s="17"/>
+      <c r="H54" s="9"/>
+      <c r="I54" s="9"/>
+      <c r="J54" s="17"/>
+      <c r="K54" s="17"/>
+      <c r="L54" s="18"/>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A55" s="9">
+        <v>53</v>
+      </c>
+      <c r="B55" s="20" t="s">
+        <v>181</v>
+      </c>
+      <c r="C55" s="21">
+        <v>220041723012</v>
+      </c>
+      <c r="D55" s="17"/>
+      <c r="E55" s="17"/>
+      <c r="F55" s="17"/>
+      <c r="G55" s="19"/>
+      <c r="H55" s="9"/>
+      <c r="I55" s="9"/>
+      <c r="J55" s="17"/>
+      <c r="K55" s="17"/>
+      <c r="L55" s="18"/>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A56" s="9">
         <v>54</v>
       </c>
-    </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A38" s="11">
-        <v>36</v>
-      </c>
-      <c r="B38" s="17" t="s">
-        <v>164</v>
-      </c>
-      <c r="C38" s="18">
-        <v>220041700056</v>
-      </c>
-      <c r="D38" s="19"/>
-      <c r="E38" s="19"/>
-      <c r="F38" s="19"/>
-      <c r="G38" s="19"/>
-      <c r="H38" s="11"/>
-      <c r="I38" s="11"/>
-      <c r="J38" s="19"/>
-      <c r="K38" s="19"/>
-      <c r="L38" s="20"/>
-      <c r="P38" s="18">
-        <v>220041700056</v>
-      </c>
-      <c r="Q38" s="26">
-        <f t="shared" si="0"/>
+      <c r="B56" s="20" t="s">
+        <v>182</v>
+      </c>
+      <c r="C56" s="21">
+        <v>220041723013</v>
+      </c>
+      <c r="D56" s="17"/>
+      <c r="E56" s="17"/>
+      <c r="F56" s="17"/>
+      <c r="G56" s="17"/>
+      <c r="H56" s="9"/>
+      <c r="I56" s="9"/>
+      <c r="J56" s="17"/>
+      <c r="K56" s="17"/>
+      <c r="L56" s="18"/>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A57" s="9">
+        <v>55</v>
+      </c>
+      <c r="B57" s="20" t="s">
+        <v>183</v>
+      </c>
+      <c r="C57" s="21">
+        <v>220041723014</v>
+      </c>
+      <c r="D57" s="17"/>
+      <c r="E57" s="17"/>
+      <c r="F57" s="17"/>
+      <c r="G57" s="17"/>
+      <c r="H57" s="9"/>
+      <c r="I57" s="9"/>
+      <c r="J57" s="17"/>
+      <c r="K57" s="17"/>
+      <c r="L57" s="18"/>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A58" s="9">
         <v>56</v>
       </c>
-    </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A39" s="11">
-        <v>37</v>
-      </c>
-      <c r="B39" s="17" t="s">
-        <v>165</v>
-      </c>
-      <c r="C39" s="18">
-        <v>220041700057</v>
-      </c>
-      <c r="D39" s="19"/>
-      <c r="E39" s="19"/>
-      <c r="F39" s="19"/>
-      <c r="G39" s="19"/>
-      <c r="H39" s="11"/>
-      <c r="I39" s="11"/>
-      <c r="J39" s="19"/>
-      <c r="K39" s="19"/>
-      <c r="L39" s="20"/>
-      <c r="P39" s="18">
-        <v>220041700057</v>
-      </c>
-      <c r="Q39" s="26">
-        <f t="shared" si="0"/>
+      <c r="B58" s="20" t="s">
+        <v>184</v>
+      </c>
+      <c r="C58" s="21">
+        <v>220041723015</v>
+      </c>
+      <c r="D58" s="17"/>
+      <c r="E58" s="17"/>
+      <c r="F58" s="17"/>
+      <c r="G58" s="17"/>
+      <c r="H58" s="9"/>
+      <c r="I58" s="9"/>
+      <c r="J58" s="17"/>
+      <c r="K58" s="17"/>
+      <c r="L58" s="18"/>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A59" s="9">
         <v>57</v>
       </c>
-    </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A40" s="11">
-        <v>38</v>
-      </c>
-      <c r="B40" s="17" t="s">
-        <v>166</v>
-      </c>
-      <c r="C40" s="18">
-        <v>220041700060</v>
-      </c>
-      <c r="D40" s="19"/>
-      <c r="E40" s="19"/>
-      <c r="F40" s="19"/>
-      <c r="G40" s="19"/>
-      <c r="H40" s="11"/>
-      <c r="I40" s="11"/>
-      <c r="J40" s="19"/>
-      <c r="K40" s="19"/>
-      <c r="L40" s="20"/>
-      <c r="P40" s="18">
-        <v>220041700060</v>
-      </c>
-      <c r="Q40" s="26">
-        <f t="shared" si="0"/>
+      <c r="B59" s="20" t="s">
+        <v>185</v>
+      </c>
+      <c r="C59" s="21">
+        <v>220041723016</v>
+      </c>
+      <c r="D59" s="17"/>
+      <c r="E59" s="17"/>
+      <c r="F59" s="17"/>
+      <c r="G59" s="17"/>
+      <c r="H59" s="9"/>
+      <c r="I59" s="9"/>
+      <c r="J59" s="17"/>
+      <c r="K59" s="17"/>
+      <c r="L59" s="18"/>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A60" s="9">
+        <v>58</v>
+      </c>
+      <c r="B60" s="20" t="s">
+        <v>217</v>
+      </c>
+      <c r="C60" s="21">
+        <v>220041723018</v>
+      </c>
+      <c r="D60" s="17"/>
+      <c r="E60" s="17"/>
+      <c r="F60" s="17"/>
+      <c r="G60" s="19"/>
+      <c r="H60" s="9"/>
+      <c r="I60" s="9"/>
+      <c r="J60" s="17"/>
+      <c r="K60" s="17"/>
+      <c r="L60" s="18"/>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A61" s="9">
+        <v>59</v>
+      </c>
+      <c r="B61" s="20" t="s">
+        <v>186</v>
+      </c>
+      <c r="C61" s="21">
+        <v>210041700070</v>
+      </c>
+      <c r="D61" s="17"/>
+      <c r="E61" s="17"/>
+      <c r="F61" s="17"/>
+      <c r="G61" s="17"/>
+      <c r="H61" s="9"/>
+      <c r="I61" s="9"/>
+      <c r="J61" s="17"/>
+      <c r="K61" s="17"/>
+      <c r="L61" s="18"/>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A62" s="9">
         <v>60</v>
       </c>
-    </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A41" s="11">
-        <v>39</v>
-      </c>
-      <c r="B41" s="17" t="s">
-        <v>167</v>
-      </c>
-      <c r="C41" s="18">
-        <v>220041700061</v>
-      </c>
-      <c r="D41" s="19"/>
-      <c r="E41" s="19"/>
-      <c r="F41" s="19"/>
-      <c r="G41" s="21"/>
-      <c r="H41" s="11"/>
-      <c r="I41" s="11"/>
-      <c r="J41" s="19"/>
-      <c r="K41" s="19"/>
-      <c r="L41" s="20"/>
-      <c r="P41" s="18">
-        <v>220041700061</v>
-      </c>
-      <c r="Q41" s="26">
-        <f t="shared" si="0"/>
+      <c r="B62" s="20" t="s">
+        <v>187</v>
+      </c>
+      <c r="C62" s="21">
+        <v>210041700089</v>
+      </c>
+      <c r="D62" s="17"/>
+      <c r="E62" s="17"/>
+      <c r="F62" s="17"/>
+      <c r="G62" s="17"/>
+      <c r="H62" s="9"/>
+      <c r="I62" s="9"/>
+      <c r="J62" s="17"/>
+      <c r="K62" s="17"/>
+      <c r="L62" s="18"/>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A63" s="9">
         <v>61</v>
       </c>
-    </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A42" s="11">
-        <v>40</v>
-      </c>
-      <c r="B42" s="17" t="s">
-        <v>168</v>
-      </c>
-      <c r="C42" s="18">
-        <v>220041700064</v>
-      </c>
-      <c r="D42" s="19"/>
-      <c r="E42" s="19"/>
-      <c r="F42" s="19"/>
-      <c r="G42" s="21"/>
-      <c r="H42" s="11"/>
-      <c r="I42" s="11"/>
-      <c r="J42" s="19"/>
-      <c r="K42" s="19"/>
-      <c r="L42" s="20"/>
-      <c r="P42" s="18">
-        <v>220041700064</v>
-      </c>
-      <c r="Q42" s="26">
-        <f t="shared" si="0"/>
+      <c r="B63" s="15" t="s">
+        <v>188</v>
+      </c>
+      <c r="C63" s="16">
+        <v>220041700070</v>
+      </c>
+      <c r="D63" s="17"/>
+      <c r="E63" s="17"/>
+      <c r="F63" s="17"/>
+      <c r="G63" s="17"/>
+      <c r="H63" s="9"/>
+      <c r="I63" s="9"/>
+      <c r="J63" s="17"/>
+      <c r="K63" s="17"/>
+      <c r="L63" s="18"/>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A64" s="9">
+        <v>62</v>
+      </c>
+      <c r="B64" s="15" t="s">
+        <v>189</v>
+      </c>
+      <c r="C64" s="16">
+        <v>220041700071</v>
+      </c>
+      <c r="D64" s="17"/>
+      <c r="E64" s="17"/>
+      <c r="F64" s="17"/>
+      <c r="G64" s="17"/>
+      <c r="H64" s="9"/>
+      <c r="I64" s="9"/>
+      <c r="J64" s="17"/>
+      <c r="K64" s="17"/>
+      <c r="L64" s="18"/>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A65" s="9">
+        <v>63</v>
+      </c>
+      <c r="B65" s="15" t="s">
+        <v>190</v>
+      </c>
+      <c r="C65" s="16">
+        <v>220041700072</v>
+      </c>
+      <c r="D65" s="17"/>
+      <c r="E65" s="17"/>
+      <c r="F65" s="17"/>
+      <c r="G65" s="17"/>
+      <c r="H65" s="9"/>
+      <c r="I65" s="9"/>
+      <c r="J65" s="17"/>
+      <c r="K65" s="17"/>
+      <c r="L65" s="18"/>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A66" s="9">
         <v>64</v>
       </c>
-    </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A43" s="11">
-        <v>41</v>
-      </c>
-      <c r="B43" s="17" t="s">
-        <v>169</v>
-      </c>
-      <c r="C43" s="18">
-        <v>220041700065</v>
-      </c>
-      <c r="D43" s="19"/>
-      <c r="E43" s="19"/>
-      <c r="F43" s="19"/>
-      <c r="G43" s="19"/>
-      <c r="H43" s="11"/>
-      <c r="I43" s="11"/>
-      <c r="J43" s="19"/>
-      <c r="K43" s="19"/>
-      <c r="L43" s="20"/>
-      <c r="P43" s="18">
-        <v>220041700065</v>
-      </c>
-      <c r="Q43" s="26">
-        <f t="shared" si="0"/>
+      <c r="B66" s="15" t="s">
+        <v>191</v>
+      </c>
+      <c r="C66" s="16">
+        <v>220041700077</v>
+      </c>
+      <c r="D66" s="17"/>
+      <c r="E66" s="17"/>
+      <c r="F66" s="17"/>
+      <c r="G66" s="17"/>
+      <c r="H66" s="9"/>
+      <c r="I66" s="9"/>
+      <c r="J66" s="17"/>
+      <c r="K66" s="17"/>
+      <c r="L66" s="18"/>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A67" s="9">
         <v>65</v>
       </c>
-    </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A44" s="11">
-        <v>42</v>
-      </c>
-      <c r="B44" s="17" t="s">
-        <v>170</v>
-      </c>
-      <c r="C44" s="18">
-        <v>220041700066</v>
-      </c>
-      <c r="D44" s="19"/>
-      <c r="E44" s="19"/>
-      <c r="F44" s="19"/>
-      <c r="G44" s="19"/>
-      <c r="H44" s="11"/>
-      <c r="I44" s="11"/>
-      <c r="J44" s="19"/>
-      <c r="K44" s="19"/>
-      <c r="L44" s="20"/>
-      <c r="P44" s="18">
-        <v>220041700066</v>
-      </c>
-      <c r="Q44" s="26">
-        <f t="shared" si="0"/>
+      <c r="B67" s="15" t="s">
+        <v>192</v>
+      </c>
+      <c r="C67" s="16">
+        <v>220041700078</v>
+      </c>
+      <c r="D67" s="17"/>
+      <c r="E67" s="17"/>
+      <c r="F67" s="17"/>
+      <c r="G67" s="17"/>
+      <c r="H67" s="9"/>
+      <c r="I67" s="9"/>
+      <c r="J67" s="17"/>
+      <c r="K67" s="17"/>
+      <c r="L67" s="18"/>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A68" s="9">
         <v>66</v>
       </c>
-    </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A45" s="11">
-        <v>43</v>
-      </c>
-      <c r="B45" s="17" t="s">
-        <v>171</v>
-      </c>
-      <c r="C45" s="18">
-        <v>220041700067</v>
-      </c>
-      <c r="D45" s="19"/>
-      <c r="E45" s="19"/>
-      <c r="F45" s="19"/>
-      <c r="G45" s="19"/>
-      <c r="H45" s="11"/>
-      <c r="I45" s="11"/>
-      <c r="J45" s="19"/>
-      <c r="K45" s="19"/>
-      <c r="L45" s="20"/>
-      <c r="P45" s="18">
-        <v>220041700067</v>
-      </c>
-      <c r="Q45" s="26">
-        <f t="shared" si="0"/>
+      <c r="B68" s="15" t="s">
+        <v>193</v>
+      </c>
+      <c r="C68" s="16">
+        <v>220041700080</v>
+      </c>
+      <c r="D68" s="17"/>
+      <c r="E68" s="17"/>
+      <c r="F68" s="17"/>
+      <c r="G68" s="17"/>
+      <c r="H68" s="9"/>
+      <c r="I68" s="9"/>
+      <c r="J68" s="17"/>
+      <c r="K68" s="17"/>
+      <c r="L68" s="18"/>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A69" s="9">
         <v>67</v>
       </c>
-    </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A46" s="11">
-        <v>44</v>
-      </c>
-      <c r="B46" s="22" t="s">
-        <v>172</v>
-      </c>
-      <c r="C46" s="23">
-        <v>220041723001</v>
-      </c>
-      <c r="D46" s="19"/>
-      <c r="E46" s="19"/>
-      <c r="F46" s="19"/>
-      <c r="G46" s="19"/>
-      <c r="H46" s="11"/>
-      <c r="I46" s="11"/>
-      <c r="J46" s="19"/>
-      <c r="K46" s="19"/>
-      <c r="L46" s="20"/>
-      <c r="P46" s="23">
-        <v>220041723001</v>
-      </c>
-      <c r="Q46" s="26">
-        <f>P46</f>
-        <v>220041723001</v>
-      </c>
-    </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A47" s="11">
-        <v>45</v>
-      </c>
-      <c r="B47" s="22" t="s">
-        <v>173</v>
-      </c>
-      <c r="C47" s="23">
-        <v>220041723002</v>
-      </c>
-      <c r="D47" s="19"/>
-      <c r="E47" s="19"/>
-      <c r="F47" s="19"/>
-      <c r="G47" s="19"/>
-      <c r="H47" s="11"/>
-      <c r="I47" s="11"/>
-      <c r="J47" s="19"/>
-      <c r="K47" s="19"/>
-      <c r="L47" s="20"/>
-      <c r="P47" s="23">
-        <v>220041723002</v>
-      </c>
-      <c r="Q47" s="26">
-        <f>P47-220041723000</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A48" s="11">
-        <v>46</v>
-      </c>
-      <c r="B48" s="22" t="s">
-        <v>174</v>
-      </c>
-      <c r="C48" s="23">
-        <v>220041723003</v>
-      </c>
-      <c r="D48" s="19"/>
-      <c r="E48" s="19"/>
-      <c r="F48" s="19"/>
-      <c r="G48" s="19"/>
-      <c r="H48" s="11"/>
-      <c r="I48" s="11"/>
-      <c r="J48" s="19"/>
-      <c r="K48" s="19"/>
-      <c r="L48" s="20"/>
-      <c r="P48" s="23">
-        <v>220041723003</v>
-      </c>
-      <c r="Q48" s="26">
-        <f t="shared" ref="Q48:Q59" si="1">P48-220041723000</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A49" s="11">
-        <v>47</v>
-      </c>
-      <c r="B49" s="22" t="s">
-        <v>175</v>
-      </c>
-      <c r="C49" s="23">
-        <v>220041723004</v>
-      </c>
-      <c r="D49" s="19"/>
-      <c r="E49" s="19"/>
-      <c r="F49" s="19"/>
-      <c r="G49" s="19"/>
-      <c r="H49" s="11"/>
-      <c r="I49" s="11"/>
-      <c r="J49" s="19"/>
-      <c r="K49" s="19"/>
-      <c r="L49" s="20"/>
-      <c r="P49" s="23">
-        <v>220041723004</v>
-      </c>
-      <c r="Q49" s="26">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A50" s="11">
-        <v>48</v>
-      </c>
-      <c r="B50" s="22" t="s">
-        <v>176</v>
-      </c>
-      <c r="C50" s="23">
-        <v>220041723005</v>
-      </c>
-      <c r="D50" s="19"/>
-      <c r="E50" s="19"/>
-      <c r="F50" s="19"/>
-      <c r="G50" s="19"/>
-      <c r="H50" s="11"/>
-      <c r="I50" s="11"/>
-      <c r="J50" s="19"/>
-      <c r="K50" s="19"/>
-      <c r="L50" s="20"/>
-      <c r="P50" s="23">
-        <v>220041723005</v>
-      </c>
-      <c r="Q50" s="26">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A51" s="11">
-        <v>49</v>
-      </c>
-      <c r="B51" s="22" t="s">
-        <v>177</v>
-      </c>
-      <c r="C51" s="23">
-        <v>220041723007</v>
-      </c>
-      <c r="D51" s="19"/>
-      <c r="E51" s="19"/>
-      <c r="F51" s="19"/>
-      <c r="G51" s="19"/>
-      <c r="H51" s="11"/>
-      <c r="I51" s="11"/>
-      <c r="J51" s="19"/>
-      <c r="K51" s="19"/>
-      <c r="L51" s="20"/>
-      <c r="P51" s="23">
-        <v>220041723007</v>
-      </c>
-      <c r="Q51" s="26">
-        <f t="shared" si="1"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A52" s="11">
-        <v>50</v>
-      </c>
-      <c r="B52" s="22" t="s">
-        <v>178</v>
-      </c>
-      <c r="C52" s="23">
-        <v>220041723008</v>
-      </c>
-      <c r="D52" s="19"/>
-      <c r="E52" s="19"/>
-      <c r="F52" s="19"/>
-      <c r="G52" s="19"/>
-      <c r="H52" s="11"/>
-      <c r="I52" s="11"/>
-      <c r="J52" s="19"/>
-      <c r="K52" s="19"/>
-      <c r="L52" s="20"/>
-      <c r="P52" s="23">
-        <v>220041723008</v>
-      </c>
-      <c r="Q52" s="26">
-        <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A53" s="11">
-        <v>51</v>
-      </c>
-      <c r="B53" s="22" t="s">
-        <v>179</v>
-      </c>
-      <c r="C53" s="23">
-        <v>220041723009</v>
-      </c>
-      <c r="D53" s="19"/>
-      <c r="E53" s="19"/>
-      <c r="F53" s="19"/>
-      <c r="G53" s="19"/>
-      <c r="H53" s="11"/>
-      <c r="I53" s="11"/>
-      <c r="J53" s="19"/>
-      <c r="K53" s="19"/>
-      <c r="L53" s="20"/>
-      <c r="P53" s="23">
-        <v>220041723009</v>
-      </c>
-      <c r="Q53" s="26">
-        <f t="shared" si="1"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A54" s="11">
-        <v>52</v>
-      </c>
-      <c r="B54" s="22" t="s">
-        <v>180</v>
-      </c>
-      <c r="C54" s="23">
-        <v>220041723011</v>
-      </c>
-      <c r="D54" s="19"/>
-      <c r="E54" s="19"/>
-      <c r="F54" s="19"/>
-      <c r="G54" s="19"/>
-      <c r="H54" s="11"/>
-      <c r="I54" s="11"/>
-      <c r="J54" s="19"/>
-      <c r="K54" s="19"/>
-      <c r="L54" s="20"/>
-      <c r="P54" s="23">
-        <v>220041723011</v>
-      </c>
-      <c r="Q54" s="26">
-        <f t="shared" si="1"/>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A55" s="11">
-        <v>53</v>
-      </c>
-      <c r="B55" s="22" t="s">
-        <v>181</v>
-      </c>
-      <c r="C55" s="23">
-        <v>220041723012</v>
-      </c>
-      <c r="D55" s="19"/>
-      <c r="E55" s="19"/>
-      <c r="F55" s="19"/>
-      <c r="G55" s="21"/>
-      <c r="H55" s="11"/>
-      <c r="I55" s="11"/>
-      <c r="J55" s="19"/>
-      <c r="K55" s="19"/>
-      <c r="L55" s="20"/>
-      <c r="P55" s="23">
-        <v>220041723012</v>
-      </c>
-      <c r="Q55" s="26">
-        <f t="shared" si="1"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A56" s="11">
-        <v>54</v>
-      </c>
-      <c r="B56" s="22" t="s">
-        <v>182</v>
-      </c>
-      <c r="C56" s="23">
-        <v>220041723013</v>
-      </c>
-      <c r="D56" s="19"/>
-      <c r="E56" s="19"/>
-      <c r="F56" s="19"/>
-      <c r="G56" s="19"/>
-      <c r="H56" s="11"/>
-      <c r="I56" s="11"/>
-      <c r="J56" s="19"/>
-      <c r="K56" s="19"/>
-      <c r="L56" s="20"/>
-      <c r="P56" s="23">
-        <v>220041723013</v>
-      </c>
-      <c r="Q56" s="26">
-        <f t="shared" si="1"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A57" s="11">
-        <v>55</v>
-      </c>
-      <c r="B57" s="22" t="s">
-        <v>183</v>
-      </c>
-      <c r="C57" s="23">
-        <v>220041723014</v>
-      </c>
-      <c r="D57" s="19"/>
-      <c r="E57" s="19"/>
-      <c r="F57" s="19"/>
-      <c r="G57" s="19"/>
-      <c r="H57" s="11"/>
-      <c r="I57" s="11"/>
-      <c r="J57" s="19"/>
-      <c r="K57" s="19"/>
-      <c r="L57" s="20"/>
-      <c r="P57" s="23">
-        <v>220041723014</v>
-      </c>
-      <c r="Q57" s="26">
-        <f t="shared" si="1"/>
-        <v>14</v>
-      </c>
-    </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A58" s="11">
-        <v>56</v>
-      </c>
-      <c r="B58" s="22" t="s">
-        <v>184</v>
-      </c>
-      <c r="C58" s="23">
-        <v>220041723015</v>
-      </c>
-      <c r="D58" s="19"/>
-      <c r="E58" s="19"/>
-      <c r="F58" s="19"/>
-      <c r="G58" s="19"/>
-      <c r="H58" s="11"/>
-      <c r="I58" s="11"/>
-      <c r="J58" s="19"/>
-      <c r="K58" s="19"/>
-      <c r="L58" s="20"/>
-      <c r="P58" s="23">
-        <v>220041723015</v>
-      </c>
-      <c r="Q58" s="26">
-        <f t="shared" si="1"/>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A59" s="11">
-        <v>57</v>
-      </c>
-      <c r="B59" s="22" t="s">
-        <v>185</v>
-      </c>
-      <c r="C59" s="23">
-        <v>220041723016</v>
-      </c>
-      <c r="D59" s="19"/>
-      <c r="E59" s="19"/>
-      <c r="F59" s="19"/>
-      <c r="G59" s="19"/>
-      <c r="H59" s="11"/>
-      <c r="I59" s="11"/>
-      <c r="J59" s="19"/>
-      <c r="K59" s="19"/>
-      <c r="L59" s="20"/>
-      <c r="P59" s="23">
-        <v>220041723016</v>
-      </c>
-      <c r="Q59" s="26">
-        <f t="shared" si="1"/>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A60" s="11">
-        <v>58</v>
-      </c>
-      <c r="B60" s="22" t="s">
-        <v>186</v>
-      </c>
-      <c r="C60" s="23">
-        <v>210041700070</v>
-      </c>
-      <c r="D60" s="19"/>
-      <c r="E60" s="19"/>
-      <c r="F60" s="19"/>
-      <c r="G60" s="19"/>
-      <c r="H60" s="11"/>
-      <c r="I60" s="11"/>
-      <c r="J60" s="19"/>
-      <c r="K60" s="19"/>
-      <c r="L60" s="20"/>
-      <c r="P60" s="23">
-        <v>210041700070</v>
-      </c>
-      <c r="Q60" s="26">
-        <f>P60</f>
-        <v>210041700070</v>
-      </c>
-    </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A61" s="11">
-        <v>59</v>
-      </c>
-      <c r="B61" s="22" t="s">
-        <v>187</v>
-      </c>
-      <c r="C61" s="23">
-        <v>210041700089</v>
-      </c>
-      <c r="D61" s="19"/>
-      <c r="E61" s="19"/>
-      <c r="F61" s="19"/>
-      <c r="G61" s="19"/>
-      <c r="H61" s="11"/>
-      <c r="I61" s="11"/>
-      <c r="J61" s="19"/>
-      <c r="K61" s="19"/>
-      <c r="L61" s="20"/>
-      <c r="P61" s="23">
-        <v>210041700089</v>
-      </c>
-      <c r="Q61" s="26">
-        <f>P61</f>
-        <v>210041700089</v>
-      </c>
-    </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A62" s="11">
-        <v>60</v>
-      </c>
-      <c r="B62" s="17" t="s">
-        <v>188</v>
-      </c>
-      <c r="C62" s="18">
-        <v>220041700070</v>
-      </c>
-      <c r="D62" s="19"/>
-      <c r="E62" s="19"/>
-      <c r="F62" s="19"/>
-      <c r="G62" s="19"/>
-      <c r="H62" s="11"/>
-      <c r="I62" s="11"/>
-      <c r="J62" s="19"/>
-      <c r="K62" s="19"/>
-      <c r="L62" s="20"/>
-      <c r="P62" s="18">
-        <v>220041700070</v>
-      </c>
-      <c r="Q62" s="26">
-        <f t="shared" si="0"/>
+      <c r="B69" s="15" t="s">
+        <v>194</v>
+      </c>
+      <c r="C69" s="16">
+        <v>220041700081</v>
+      </c>
+      <c r="D69" s="17"/>
+      <c r="E69" s="17"/>
+      <c r="F69" s="17"/>
+      <c r="G69" s="17"/>
+      <c r="H69" s="9"/>
+      <c r="I69" s="9"/>
+      <c r="J69" s="17"/>
+      <c r="K69" s="17"/>
+      <c r="L69" s="18"/>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A70" s="9">
+        <v>68</v>
+      </c>
+      <c r="B70" s="15" t="s">
+        <v>195</v>
+      </c>
+      <c r="C70" s="16">
+        <v>220041700084</v>
+      </c>
+      <c r="D70" s="17"/>
+      <c r="E70" s="17"/>
+      <c r="F70" s="17"/>
+      <c r="G70" s="17"/>
+      <c r="H70" s="9"/>
+      <c r="I70" s="9"/>
+      <c r="J70" s="17"/>
+      <c r="K70" s="17"/>
+      <c r="L70" s="18"/>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A71" s="9">
+        <v>69</v>
+      </c>
+      <c r="B71" s="15" t="s">
+        <v>196</v>
+      </c>
+      <c r="C71" s="16">
+        <v>220041700085</v>
+      </c>
+      <c r="D71" s="17"/>
+      <c r="E71" s="17"/>
+      <c r="F71" s="17"/>
+      <c r="G71" s="17"/>
+      <c r="H71" s="9"/>
+      <c r="I71" s="9"/>
+      <c r="J71" s="17"/>
+      <c r="K71" s="17"/>
+      <c r="L71" s="18"/>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A72" s="9">
         <v>70</v>
       </c>
-    </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A63" s="11">
-        <v>61</v>
-      </c>
-      <c r="B63" s="17" t="s">
-        <v>189</v>
-      </c>
-      <c r="C63" s="18">
-        <v>220041700071</v>
-      </c>
-      <c r="D63" s="19"/>
-      <c r="E63" s="19"/>
-      <c r="F63" s="19"/>
-      <c r="G63" s="19"/>
-      <c r="H63" s="11"/>
-      <c r="I63" s="11"/>
-      <c r="J63" s="19"/>
-      <c r="K63" s="19"/>
-      <c r="L63" s="20"/>
-      <c r="P63" s="18">
-        <v>220041700071</v>
-      </c>
-      <c r="Q63" s="26">
-        <f t="shared" si="0"/>
+      <c r="B72" s="15" t="s">
+        <v>197</v>
+      </c>
+      <c r="C72" s="16">
+        <v>220041700086</v>
+      </c>
+      <c r="D72" s="17"/>
+      <c r="E72" s="17"/>
+      <c r="F72" s="17"/>
+      <c r="G72" s="17"/>
+      <c r="H72" s="9"/>
+      <c r="I72" s="9"/>
+      <c r="J72" s="17"/>
+      <c r="K72" s="17"/>
+      <c r="L72" s="18"/>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A73" s="9">
         <v>71</v>
       </c>
-    </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A64" s="11">
-        <v>62</v>
-      </c>
-      <c r="B64" s="17" t="s">
-        <v>190</v>
-      </c>
-      <c r="C64" s="18">
-        <v>220041700072</v>
-      </c>
-      <c r="D64" s="19"/>
-      <c r="E64" s="19"/>
-      <c r="F64" s="19"/>
-      <c r="G64" s="19"/>
-      <c r="H64" s="11"/>
-      <c r="I64" s="11"/>
-      <c r="J64" s="19"/>
-      <c r="K64" s="19"/>
-      <c r="L64" s="20"/>
-      <c r="P64" s="18">
-        <v>220041700072</v>
-      </c>
-      <c r="Q64" s="26">
-        <f t="shared" si="0"/>
+      <c r="B73" s="15" t="s">
+        <v>198</v>
+      </c>
+      <c r="C73" s="16">
+        <v>220041700087</v>
+      </c>
+      <c r="D73" s="17"/>
+      <c r="E73" s="17"/>
+      <c r="F73" s="17"/>
+      <c r="G73" s="17"/>
+      <c r="H73" s="9"/>
+      <c r="I73" s="9"/>
+      <c r="J73" s="17"/>
+      <c r="K73" s="17"/>
+      <c r="L73" s="18"/>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A74" s="9">
         <v>72</v>
       </c>
-    </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A65" s="11">
-        <v>63</v>
-      </c>
-      <c r="B65" s="17" t="s">
-        <v>191</v>
-      </c>
-      <c r="C65" s="18">
-        <v>220041700077</v>
-      </c>
-      <c r="D65" s="19"/>
-      <c r="E65" s="19"/>
-      <c r="F65" s="19"/>
-      <c r="G65" s="19"/>
-      <c r="H65" s="11"/>
-      <c r="I65" s="11"/>
-      <c r="J65" s="19"/>
-      <c r="K65" s="19"/>
-      <c r="L65" s="20"/>
-      <c r="P65" s="18">
-        <v>220041700077</v>
-      </c>
-      <c r="Q65" s="26">
-        <f t="shared" si="0"/>
+      <c r="B74" s="15" t="s">
+        <v>199</v>
+      </c>
+      <c r="C74" s="16">
+        <v>220041700092</v>
+      </c>
+      <c r="D74" s="17"/>
+      <c r="E74" s="17"/>
+      <c r="F74" s="17"/>
+      <c r="G74" s="17"/>
+      <c r="H74" s="9"/>
+      <c r="I74" s="9"/>
+      <c r="J74" s="17"/>
+      <c r="K74" s="17"/>
+      <c r="L74" s="18"/>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A75" s="9">
+        <v>73</v>
+      </c>
+      <c r="B75" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="C75" s="16">
+        <v>220041700096</v>
+      </c>
+      <c r="D75" s="17"/>
+      <c r="E75" s="17"/>
+      <c r="F75" s="17"/>
+      <c r="G75" s="17"/>
+      <c r="H75" s="9"/>
+      <c r="I75" s="9"/>
+      <c r="J75" s="17"/>
+      <c r="K75" s="17"/>
+      <c r="L75" s="18"/>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A76" s="9">
+        <v>74</v>
+      </c>
+      <c r="B76" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="C76" s="16">
+        <v>220041700097</v>
+      </c>
+      <c r="D76" s="17"/>
+      <c r="E76" s="17"/>
+      <c r="F76" s="17"/>
+      <c r="G76" s="19"/>
+      <c r="H76" s="9"/>
+      <c r="I76" s="9"/>
+      <c r="J76" s="17"/>
+      <c r="K76" s="17"/>
+      <c r="L76" s="18"/>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A77" s="9">
+        <v>75</v>
+      </c>
+      <c r="B77" s="15" t="s">
+        <v>200</v>
+      </c>
+      <c r="C77" s="16">
+        <v>220041700098</v>
+      </c>
+      <c r="D77" s="17"/>
+      <c r="E77" s="17"/>
+      <c r="F77" s="17"/>
+      <c r="G77" s="17"/>
+      <c r="H77" s="9"/>
+      <c r="I77" s="9"/>
+      <c r="J77" s="17"/>
+      <c r="K77" s="17"/>
+      <c r="L77" s="18"/>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A78" s="9">
+        <v>76</v>
+      </c>
+      <c r="B78" s="15" t="s">
+        <v>201</v>
+      </c>
+      <c r="C78" s="16">
+        <v>220041700099</v>
+      </c>
+      <c r="D78" s="17"/>
+      <c r="E78" s="17"/>
+      <c r="F78" s="17"/>
+      <c r="G78" s="17"/>
+      <c r="H78" s="9"/>
+      <c r="I78" s="9"/>
+      <c r="J78" s="17"/>
+      <c r="K78" s="17"/>
+      <c r="L78" s="18"/>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A79" s="9">
         <v>77</v>
       </c>
-    </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A66" s="11">
-        <v>64</v>
-      </c>
-      <c r="B66" s="17" t="s">
-        <v>192</v>
-      </c>
-      <c r="C66" s="18">
-        <v>220041700078</v>
-      </c>
-      <c r="D66" s="19"/>
-      <c r="E66" s="19"/>
-      <c r="F66" s="19"/>
-      <c r="G66" s="19"/>
-      <c r="H66" s="11"/>
-      <c r="I66" s="11"/>
-      <c r="J66" s="19"/>
-      <c r="K66" s="19"/>
-      <c r="L66" s="20"/>
-      <c r="P66" s="18">
-        <v>220041700078</v>
-      </c>
-      <c r="Q66" s="26">
-        <f t="shared" si="0"/>
+      <c r="B79" s="15" t="s">
+        <v>202</v>
+      </c>
+      <c r="C79" s="16">
+        <v>220041700100</v>
+      </c>
+      <c r="D79" s="17"/>
+      <c r="E79" s="17"/>
+      <c r="F79" s="17"/>
+      <c r="G79" s="17"/>
+      <c r="H79" s="9"/>
+      <c r="I79" s="9"/>
+      <c r="J79" s="17"/>
+      <c r="K79" s="17"/>
+      <c r="L79" s="18"/>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A80" s="9">
         <v>78</v>
       </c>
-    </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A67" s="11">
-        <v>65</v>
-      </c>
-      <c r="B67" s="17" t="s">
-        <v>193</v>
-      </c>
-      <c r="C67" s="18">
-        <v>220041700080</v>
-      </c>
-      <c r="D67" s="19"/>
-      <c r="E67" s="19"/>
-      <c r="F67" s="19"/>
-      <c r="G67" s="19"/>
-      <c r="H67" s="11"/>
-      <c r="I67" s="11"/>
-      <c r="J67" s="19"/>
-      <c r="K67" s="19"/>
-      <c r="L67" s="20"/>
-      <c r="P67" s="18">
-        <v>220041700080</v>
-      </c>
-      <c r="Q67" s="26">
-        <f t="shared" si="0"/>
+      <c r="B80" s="15" t="s">
+        <v>203</v>
+      </c>
+      <c r="C80" s="16">
+        <v>220041700102</v>
+      </c>
+      <c r="D80" s="17"/>
+      <c r="E80" s="17"/>
+      <c r="F80" s="17"/>
+      <c r="G80" s="17"/>
+      <c r="H80" s="9"/>
+      <c r="I80" s="9"/>
+      <c r="J80" s="17"/>
+      <c r="K80" s="17"/>
+      <c r="L80" s="18"/>
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A81" s="9">
+        <v>79</v>
+      </c>
+      <c r="B81" s="15" t="s">
+        <v>204</v>
+      </c>
+      <c r="C81" s="16">
+        <v>220041700103</v>
+      </c>
+      <c r="D81" s="17"/>
+      <c r="E81" s="17"/>
+      <c r="F81" s="17"/>
+      <c r="G81" s="17"/>
+      <c r="H81" s="9"/>
+      <c r="I81" s="9"/>
+      <c r="J81" s="17"/>
+      <c r="K81" s="17"/>
+      <c r="L81" s="18"/>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A82" s="9">
         <v>80</v>
       </c>
-    </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A68" s="11">
-        <v>66</v>
-      </c>
-      <c r="B68" s="17" t="s">
-        <v>194</v>
-      </c>
-      <c r="C68" s="18">
-        <v>220041700081</v>
-      </c>
-      <c r="D68" s="19"/>
-      <c r="E68" s="19"/>
-      <c r="F68" s="19"/>
-      <c r="G68" s="19"/>
-      <c r="H68" s="11"/>
-      <c r="I68" s="11"/>
-      <c r="J68" s="19"/>
-      <c r="K68" s="19"/>
-      <c r="L68" s="20"/>
-      <c r="P68" s="18">
-        <v>220041700081</v>
-      </c>
-      <c r="Q68" s="26">
-        <f t="shared" si="0"/>
+      <c r="B82" s="15" t="s">
+        <v>205</v>
+      </c>
+      <c r="C82" s="16">
+        <v>220041700104</v>
+      </c>
+      <c r="D82" s="17"/>
+      <c r="E82" s="17"/>
+      <c r="F82" s="17"/>
+      <c r="G82" s="19"/>
+      <c r="H82" s="9"/>
+      <c r="I82" s="9"/>
+      <c r="J82" s="17"/>
+      <c r="K82" s="17"/>
+      <c r="L82" s="18"/>
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A83" s="9">
         <v>81</v>
       </c>
-    </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A69" s="11">
-        <v>67</v>
-      </c>
-      <c r="B69" s="17" t="s">
-        <v>195</v>
-      </c>
-      <c r="C69" s="18">
-        <v>220041700084</v>
-      </c>
-      <c r="D69" s="19"/>
-      <c r="E69" s="19"/>
-      <c r="F69" s="19"/>
-      <c r="G69" s="19"/>
-      <c r="H69" s="11"/>
-      <c r="I69" s="11"/>
-      <c r="J69" s="19"/>
-      <c r="K69" s="19"/>
-      <c r="L69" s="20"/>
-      <c r="P69" s="18">
-        <v>220041700084</v>
-      </c>
-      <c r="Q69" s="26">
-        <f t="shared" ref="Q69:Q110" si="2">P69-220041700000</f>
+      <c r="B83" s="15" t="s">
+        <v>206</v>
+      </c>
+      <c r="C83" s="16">
+        <v>220041700105</v>
+      </c>
+      <c r="D83" s="17"/>
+      <c r="E83" s="17"/>
+      <c r="F83" s="17"/>
+      <c r="G83" s="17"/>
+      <c r="H83" s="9"/>
+      <c r="I83" s="9"/>
+      <c r="J83" s="17"/>
+      <c r="K83" s="17"/>
+      <c r="L83" s="18"/>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A84" s="9">
+        <v>82</v>
+      </c>
+      <c r="B84" s="15" t="s">
+        <v>207</v>
+      </c>
+      <c r="C84" s="16">
+        <v>220041700106</v>
+      </c>
+      <c r="D84" s="17"/>
+      <c r="E84" s="17"/>
+      <c r="F84" s="17"/>
+      <c r="G84" s="17"/>
+      <c r="H84" s="9"/>
+      <c r="I84" s="9"/>
+      <c r="J84" s="17"/>
+      <c r="K84" s="17"/>
+      <c r="L84" s="18"/>
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A85" s="9">
+        <v>83</v>
+      </c>
+      <c r="B85" s="15" t="s">
+        <v>208</v>
+      </c>
+      <c r="C85" s="16">
+        <v>220041700107</v>
+      </c>
+      <c r="D85" s="17"/>
+      <c r="E85" s="17"/>
+      <c r="F85" s="17"/>
+      <c r="G85" s="17"/>
+      <c r="H85" s="9"/>
+      <c r="I85" s="9"/>
+      <c r="J85" s="17"/>
+      <c r="K85" s="17"/>
+      <c r="L85" s="18"/>
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A86" s="9">
         <v>84</v>
       </c>
-    </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A70" s="11">
-        <v>68</v>
-      </c>
-      <c r="B70" s="17" t="s">
-        <v>196</v>
-      </c>
-      <c r="C70" s="18">
-        <v>220041700085</v>
-      </c>
-      <c r="D70" s="19"/>
-      <c r="E70" s="19"/>
-      <c r="F70" s="19"/>
-      <c r="G70" s="19"/>
-      <c r="H70" s="11"/>
-      <c r="I70" s="11"/>
-      <c r="J70" s="19"/>
-      <c r="K70" s="19"/>
-      <c r="L70" s="20"/>
-      <c r="P70" s="18">
-        <v>220041700085</v>
-      </c>
-      <c r="Q70" s="26">
-        <f t="shared" si="2"/>
+      <c r="B86" s="15" t="s">
+        <v>209</v>
+      </c>
+      <c r="C86" s="16">
+        <v>220041700109</v>
+      </c>
+      <c r="D86" s="17"/>
+      <c r="E86" s="17"/>
+      <c r="F86" s="17"/>
+      <c r="G86" s="17"/>
+      <c r="H86" s="9"/>
+      <c r="I86" s="9"/>
+      <c r="J86" s="17"/>
+      <c r="K86" s="17"/>
+      <c r="L86" s="18"/>
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A87" s="9">
         <v>85</v>
       </c>
-    </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A71" s="11">
-        <v>69</v>
-      </c>
-      <c r="B71" s="17" t="s">
-        <v>197</v>
-      </c>
-      <c r="C71" s="18">
-        <v>220041700086</v>
-      </c>
-      <c r="D71" s="19"/>
-      <c r="E71" s="19"/>
-      <c r="F71" s="19"/>
-      <c r="G71" s="19"/>
-      <c r="H71" s="11"/>
-      <c r="I71" s="11"/>
-      <c r="J71" s="19"/>
-      <c r="K71" s="19"/>
-      <c r="L71" s="20"/>
-      <c r="P71" s="18">
-        <v>220041700086</v>
-      </c>
-      <c r="Q71" s="26">
-        <f t="shared" si="2"/>
+      <c r="B87" s="15" t="s">
+        <v>210</v>
+      </c>
+      <c r="C87" s="16">
+        <v>220041700112</v>
+      </c>
+      <c r="D87" s="17"/>
+      <c r="E87" s="17"/>
+      <c r="F87" s="17"/>
+      <c r="G87" s="17"/>
+      <c r="H87" s="9"/>
+      <c r="I87" s="9"/>
+      <c r="J87" s="17"/>
+      <c r="K87" s="17"/>
+      <c r="L87" s="18"/>
+    </row>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A88" s="9">
         <v>86</v>
       </c>
-    </row>
-    <row r="72" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A72" s="11">
-        <v>70</v>
-      </c>
-      <c r="B72" s="17" t="s">
-        <v>198</v>
-      </c>
-      <c r="C72" s="18">
-        <v>220041700087</v>
-      </c>
-      <c r="D72" s="19"/>
-      <c r="E72" s="19"/>
-      <c r="F72" s="19"/>
-      <c r="G72" s="19"/>
-      <c r="H72" s="11"/>
-      <c r="I72" s="11"/>
-      <c r="J72" s="19"/>
-      <c r="K72" s="19"/>
-      <c r="L72" s="20"/>
-      <c r="P72" s="18">
-        <v>220041700087</v>
-      </c>
-      <c r="Q72" s="26">
-        <f t="shared" si="2"/>
+      <c r="B88" s="15" t="s">
+        <v>211</v>
+      </c>
+      <c r="C88" s="16">
+        <v>220041700115</v>
+      </c>
+      <c r="D88" s="17"/>
+      <c r="E88" s="17"/>
+      <c r="F88" s="17"/>
+      <c r="G88" s="19"/>
+      <c r="H88" s="9"/>
+      <c r="I88" s="9"/>
+      <c r="J88" s="17"/>
+      <c r="K88" s="17"/>
+      <c r="L88" s="18"/>
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A89" s="9">
         <v>87</v>
       </c>
-    </row>
-    <row r="73" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A73" s="11">
-        <v>71</v>
-      </c>
-      <c r="B73" s="17" t="s">
-        <v>199</v>
-      </c>
-      <c r="C73" s="18">
-        <v>220041700092</v>
-      </c>
-      <c r="D73" s="19"/>
-      <c r="E73" s="19"/>
-      <c r="F73" s="19"/>
-      <c r="G73" s="19"/>
-      <c r="H73" s="11"/>
-      <c r="I73" s="11"/>
-      <c r="J73" s="19"/>
-      <c r="K73" s="19"/>
-      <c r="L73" s="20"/>
-      <c r="P73" s="18">
-        <v>220041700092</v>
-      </c>
-      <c r="Q73" s="26">
-        <f t="shared" si="2"/>
+      <c r="B89" s="15" t="s">
+        <v>212</v>
+      </c>
+      <c r="C89" s="16">
+        <v>220041700116</v>
+      </c>
+      <c r="D89" s="17"/>
+      <c r="E89" s="17"/>
+      <c r="F89" s="17"/>
+      <c r="G89" s="19"/>
+      <c r="H89" s="9"/>
+      <c r="I89" s="9"/>
+      <c r="J89" s="17"/>
+      <c r="K89" s="17"/>
+      <c r="L89" s="18"/>
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A90" s="9">
+        <v>88</v>
+      </c>
+      <c r="B90" s="15" t="s">
+        <v>213</v>
+      </c>
+      <c r="C90" s="16">
+        <v>220041700117</v>
+      </c>
+      <c r="D90" s="17"/>
+      <c r="E90" s="17"/>
+      <c r="F90" s="17"/>
+      <c r="G90" s="17"/>
+      <c r="H90" s="9"/>
+      <c r="I90" s="9"/>
+      <c r="J90" s="17"/>
+      <c r="K90" s="17"/>
+      <c r="L90" s="18"/>
+    </row>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A91" s="9">
+        <v>89</v>
+      </c>
+      <c r="B91" s="15" t="s">
+        <v>214</v>
+      </c>
+      <c r="C91" s="16">
+        <v>220041700118</v>
+      </c>
+      <c r="D91" s="17"/>
+      <c r="E91" s="17"/>
+      <c r="F91" s="17"/>
+      <c r="G91" s="17"/>
+      <c r="H91" s="9"/>
+      <c r="I91" s="9"/>
+      <c r="J91" s="17"/>
+      <c r="K91" s="17"/>
+      <c r="L91" s="18"/>
+    </row>
+    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A92" s="9">
+        <v>90</v>
+      </c>
+      <c r="B92" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="C92" s="16">
+        <v>220041700121</v>
+      </c>
+      <c r="D92" s="17"/>
+      <c r="E92" s="17"/>
+      <c r="F92" s="17"/>
+      <c r="G92" s="17"/>
+      <c r="H92" s="9"/>
+      <c r="I92" s="9"/>
+      <c r="J92" s="17"/>
+      <c r="K92" s="17"/>
+      <c r="L92" s="18"/>
+    </row>
+    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A93" s="9">
+        <v>91</v>
+      </c>
+      <c r="B93" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="C93" s="16">
+        <v>220041700122</v>
+      </c>
+      <c r="D93" s="17"/>
+      <c r="E93" s="17"/>
+      <c r="F93" s="17"/>
+      <c r="G93" s="17"/>
+      <c r="H93" s="9"/>
+      <c r="I93" s="9"/>
+      <c r="J93" s="17"/>
+      <c r="K93" s="17"/>
+      <c r="L93" s="18"/>
+    </row>
+    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A94" s="9">
         <v>92</v>
       </c>
-    </row>
-    <row r="74" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A74" s="11">
-        <v>72</v>
-      </c>
-      <c r="B74" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="C74" s="18">
-        <v>220041700096</v>
-      </c>
-      <c r="D74" s="19"/>
-      <c r="E74" s="19"/>
-      <c r="F74" s="19"/>
-      <c r="G74" s="19"/>
-      <c r="H74" s="11"/>
-      <c r="I74" s="11"/>
-      <c r="J74" s="19"/>
-      <c r="K74" s="19"/>
-      <c r="L74" s="20"/>
-      <c r="P74" s="18">
-        <v>220041700096</v>
-      </c>
-      <c r="Q74" s="26">
-        <f t="shared" si="2"/>
+      <c r="B94" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="C94" s="16">
+        <v>220041700123</v>
+      </c>
+      <c r="D94" s="17"/>
+      <c r="E94" s="17"/>
+      <c r="F94" s="17"/>
+      <c r="G94" s="19"/>
+      <c r="H94" s="9"/>
+      <c r="I94" s="9"/>
+      <c r="J94" s="17"/>
+      <c r="K94" s="17"/>
+      <c r="L94" s="18"/>
+    </row>
+    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A95" s="9">
+        <v>93</v>
+      </c>
+      <c r="B95" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="C95" s="16">
+        <v>220041700125</v>
+      </c>
+      <c r="D95" s="17"/>
+      <c r="E95" s="17"/>
+      <c r="F95" s="17"/>
+      <c r="G95" s="17"/>
+      <c r="H95" s="9"/>
+      <c r="I95" s="9"/>
+      <c r="J95" s="17"/>
+      <c r="K95" s="17"/>
+      <c r="L95" s="18"/>
+    </row>
+    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A96" s="9">
+        <v>94</v>
+      </c>
+      <c r="B96" s="15" t="s">
+        <v>215</v>
+      </c>
+      <c r="C96" s="16">
+        <v>220041700130</v>
+      </c>
+      <c r="D96" s="17"/>
+      <c r="E96" s="17"/>
+      <c r="F96" s="17"/>
+      <c r="G96" s="19"/>
+      <c r="H96" s="9"/>
+      <c r="I96" s="9"/>
+      <c r="J96" s="17"/>
+      <c r="K96" s="17"/>
+      <c r="L96" s="18"/>
+    </row>
+    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A97" s="9">
+        <v>95</v>
+      </c>
+      <c r="B97" s="15" t="s">
+        <v>216</v>
+      </c>
+      <c r="C97" s="16">
+        <v>220041700131</v>
+      </c>
+      <c r="D97" s="17"/>
+      <c r="E97" s="17"/>
+      <c r="F97" s="17"/>
+      <c r="G97" s="19"/>
+      <c r="H97" s="9"/>
+      <c r="I97" s="9"/>
+      <c r="J97" s="17"/>
+      <c r="K97" s="17"/>
+      <c r="L97" s="18"/>
+    </row>
+    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A98" s="9">
         <v>96</v>
       </c>
-    </row>
-    <row r="75" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A75" s="11">
-        <v>73</v>
-      </c>
-      <c r="B75" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="C75" s="18">
-        <v>220041700097</v>
-      </c>
-      <c r="D75" s="19"/>
-      <c r="E75" s="19"/>
-      <c r="F75" s="19"/>
-      <c r="G75" s="21"/>
-      <c r="H75" s="11"/>
-      <c r="I75" s="11"/>
-      <c r="J75" s="19"/>
-      <c r="K75" s="19"/>
-      <c r="L75" s="20"/>
-      <c r="P75" s="18">
-        <v>220041700097</v>
-      </c>
-      <c r="Q75" s="26">
-        <f t="shared" si="2"/>
+      <c r="B98" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="C98" s="16">
+        <v>220041700132</v>
+      </c>
+      <c r="D98" s="17"/>
+      <c r="E98" s="17"/>
+      <c r="F98" s="17"/>
+      <c r="G98" s="17"/>
+      <c r="H98" s="9"/>
+      <c r="I98" s="9"/>
+      <c r="J98" s="17"/>
+      <c r="K98" s="17"/>
+      <c r="L98" s="18"/>
+    </row>
+    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A99" s="9">
         <v>97</v>
       </c>
-    </row>
-    <row r="76" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A76" s="11">
-        <v>74</v>
-      </c>
-      <c r="B76" s="17" t="s">
-        <v>200</v>
-      </c>
-      <c r="C76" s="18">
-        <v>220041700098</v>
-      </c>
-      <c r="D76" s="19"/>
-      <c r="E76" s="19"/>
-      <c r="F76" s="19"/>
-      <c r="G76" s="19"/>
-      <c r="H76" s="11"/>
-      <c r="I76" s="11"/>
-      <c r="J76" s="19"/>
-      <c r="K76" s="19"/>
-      <c r="L76" s="20"/>
-      <c r="P76" s="18">
-        <v>220041700098</v>
-      </c>
-      <c r="Q76" s="26">
-        <f t="shared" si="2"/>
+      <c r="B99" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="C99" s="16">
+        <v>220041700133</v>
+      </c>
+      <c r="D99" s="17"/>
+      <c r="E99" s="17"/>
+      <c r="F99" s="17"/>
+      <c r="G99" s="17"/>
+      <c r="H99" s="9"/>
+      <c r="I99" s="9"/>
+      <c r="J99" s="17"/>
+      <c r="K99" s="17"/>
+      <c r="L99" s="18"/>
+      <c r="M99" s="22"/>
+    </row>
+    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A100" s="9">
         <v>98</v>
       </c>
-    </row>
-    <row r="77" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A77" s="11">
-        <v>75</v>
-      </c>
-      <c r="B77" s="17" t="s">
-        <v>201</v>
-      </c>
-      <c r="C77" s="18">
-        <v>220041700099</v>
-      </c>
-      <c r="D77" s="19"/>
-      <c r="E77" s="19"/>
-      <c r="F77" s="19"/>
-      <c r="G77" s="19"/>
-      <c r="H77" s="11"/>
-      <c r="I77" s="11"/>
-      <c r="J77" s="19"/>
-      <c r="K77" s="19"/>
-      <c r="L77" s="20"/>
-      <c r="P77" s="18">
-        <v>220041700099</v>
-      </c>
-      <c r="Q77" s="26">
-        <f t="shared" si="2"/>
+      <c r="B100" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="C100" s="16">
+        <v>220041700134</v>
+      </c>
+      <c r="D100" s="17"/>
+      <c r="E100" s="17"/>
+      <c r="F100" s="17"/>
+      <c r="G100" s="19"/>
+      <c r="H100" s="9"/>
+      <c r="I100" s="9"/>
+      <c r="J100" s="17"/>
+      <c r="K100" s="17"/>
+      <c r="L100" s="18"/>
+    </row>
+    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A101" s="9">
         <v>99</v>
       </c>
-    </row>
-    <row r="78" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A78" s="11">
-        <v>76</v>
-      </c>
-      <c r="B78" s="17" t="s">
-        <v>202</v>
-      </c>
-      <c r="C78" s="18">
-        <v>220041700100</v>
-      </c>
-      <c r="D78" s="19"/>
-      <c r="E78" s="19"/>
-      <c r="F78" s="19"/>
-      <c r="G78" s="19"/>
-      <c r="H78" s="11"/>
-      <c r="I78" s="11"/>
-      <c r="J78" s="19"/>
-      <c r="K78" s="19"/>
-      <c r="L78" s="20"/>
-      <c r="P78" s="18">
-        <v>220041700100</v>
-      </c>
-      <c r="Q78" s="26">
-        <f t="shared" si="2"/>
+      <c r="B101" s="20" t="s">
+        <v>218</v>
+      </c>
+      <c r="C101" s="21">
+        <v>220041723019</v>
+      </c>
+      <c r="D101" s="17"/>
+      <c r="E101" s="17"/>
+      <c r="F101" s="17"/>
+      <c r="G101" s="19"/>
+      <c r="H101" s="9"/>
+      <c r="I101" s="9"/>
+      <c r="J101" s="17"/>
+      <c r="K101" s="17"/>
+      <c r="L101" s="18"/>
+    </row>
+    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A102" s="9">
         <v>100</v>
       </c>
-    </row>
-    <row r="79" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A79" s="11">
-        <v>77</v>
-      </c>
-      <c r="B79" s="17" t="s">
-        <v>203</v>
-      </c>
-      <c r="C79" s="18">
-        <v>220041700102</v>
-      </c>
-      <c r="D79" s="19"/>
-      <c r="E79" s="19"/>
-      <c r="F79" s="19"/>
-      <c r="G79" s="19"/>
-      <c r="H79" s="11"/>
-      <c r="I79" s="11"/>
-      <c r="J79" s="19"/>
-      <c r="K79" s="19"/>
-      <c r="L79" s="20"/>
-      <c r="P79" s="18">
-        <v>220041700102</v>
-      </c>
-      <c r="Q79" s="26">
-        <f t="shared" si="2"/>
+      <c r="B102" s="20" t="s">
+        <v>219</v>
+      </c>
+      <c r="C102" s="21">
+        <v>220041723020</v>
+      </c>
+      <c r="D102" s="17"/>
+      <c r="E102" s="17"/>
+      <c r="F102" s="17"/>
+      <c r="G102" s="17"/>
+      <c r="H102" s="9"/>
+      <c r="I102" s="9"/>
+      <c r="J102" s="17"/>
+      <c r="K102" s="17"/>
+      <c r="L102" s="18"/>
+    </row>
+    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A103" s="9">
+        <v>101</v>
+      </c>
+      <c r="B103" s="20" t="s">
+        <v>220</v>
+      </c>
+      <c r="C103" s="21">
+        <v>220041723021</v>
+      </c>
+      <c r="D103" s="17"/>
+      <c r="E103" s="17"/>
+      <c r="F103" s="17"/>
+      <c r="G103" s="19"/>
+      <c r="H103" s="9"/>
+      <c r="I103" s="9"/>
+      <c r="J103" s="17"/>
+      <c r="K103" s="17"/>
+      <c r="L103" s="18"/>
+    </row>
+    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A104" s="9">
         <v>102</v>
       </c>
-    </row>
-    <row r="80" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A80" s="11">
-        <v>78</v>
-      </c>
-      <c r="B80" s="17" t="s">
-        <v>204</v>
-      </c>
-      <c r="C80" s="18">
-        <v>220041700103</v>
-      </c>
-      <c r="D80" s="19"/>
-      <c r="E80" s="19"/>
-      <c r="F80" s="19"/>
-      <c r="G80" s="19"/>
-      <c r="H80" s="11"/>
-      <c r="I80" s="11"/>
-      <c r="J80" s="19"/>
-      <c r="K80" s="19"/>
-      <c r="L80" s="20"/>
-      <c r="P80" s="18">
-        <v>220041700103</v>
-      </c>
-      <c r="Q80" s="26">
-        <f t="shared" si="2"/>
+      <c r="B104" s="20" t="s">
+        <v>219</v>
+      </c>
+      <c r="C104" s="21">
+        <v>220041723022</v>
+      </c>
+      <c r="D104" s="17"/>
+      <c r="E104" s="17"/>
+      <c r="F104" s="17"/>
+      <c r="G104" s="17"/>
+      <c r="H104" s="9"/>
+      <c r="I104" s="9"/>
+      <c r="J104" s="17"/>
+      <c r="K104" s="17"/>
+      <c r="L104" s="18"/>
+    </row>
+    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A105" s="9">
         <v>103</v>
       </c>
-    </row>
-    <row r="81" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A81" s="11">
-        <v>79</v>
-      </c>
-      <c r="B81" s="17" t="s">
-        <v>205</v>
-      </c>
-      <c r="C81" s="18">
-        <v>220041700104</v>
-      </c>
-      <c r="D81" s="19"/>
-      <c r="E81" s="19"/>
-      <c r="F81" s="19"/>
-      <c r="G81" s="21"/>
-      <c r="H81" s="11"/>
-      <c r="I81" s="11"/>
-      <c r="J81" s="19"/>
-      <c r="K81" s="19"/>
-      <c r="L81" s="20"/>
-      <c r="P81" s="18">
-        <v>220041700104</v>
-      </c>
-      <c r="Q81" s="26">
-        <f t="shared" si="2"/>
+      <c r="B105" s="20" t="s">
+        <v>221</v>
+      </c>
+      <c r="C105" s="21">
+        <v>220041723025</v>
+      </c>
+      <c r="D105" s="17"/>
+      <c r="E105" s="17"/>
+      <c r="F105" s="17"/>
+      <c r="G105" s="19"/>
+      <c r="H105" s="9"/>
+      <c r="I105" s="9"/>
+      <c r="J105" s="17"/>
+      <c r="K105" s="17"/>
+      <c r="L105" s="18"/>
+    </row>
+    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A106" s="9">
         <v>104</v>
       </c>
-    </row>
-    <row r="82" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A82" s="11">
-        <v>80</v>
-      </c>
-      <c r="B82" s="17" t="s">
-        <v>206</v>
-      </c>
-      <c r="C82" s="18">
-        <v>220041700105</v>
-      </c>
-      <c r="D82" s="19"/>
-      <c r="E82" s="19"/>
-      <c r="F82" s="19"/>
-      <c r="G82" s="19"/>
-      <c r="H82" s="11"/>
-      <c r="I82" s="11"/>
-      <c r="J82" s="19"/>
-      <c r="K82" s="19"/>
-      <c r="L82" s="20"/>
-      <c r="P82" s="18">
-        <v>220041700105</v>
-      </c>
-      <c r="Q82" s="26">
-        <f t="shared" si="2"/>
+      <c r="B106" s="20" t="s">
+        <v>222</v>
+      </c>
+      <c r="C106" s="21">
+        <v>220041723027</v>
+      </c>
+      <c r="D106" s="17"/>
+      <c r="E106" s="17"/>
+      <c r="F106" s="17"/>
+      <c r="G106" s="17"/>
+      <c r="H106" s="9"/>
+      <c r="I106" s="9"/>
+      <c r="J106" s="17"/>
+      <c r="K106" s="17"/>
+      <c r="L106" s="18"/>
+    </row>
+    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A107" s="9">
         <v>105</v>
       </c>
-    </row>
-    <row r="83" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A83" s="11">
-        <v>81</v>
-      </c>
-      <c r="B83" s="17" t="s">
-        <v>207</v>
-      </c>
-      <c r="C83" s="18">
-        <v>220041700106</v>
-      </c>
-      <c r="D83" s="19"/>
-      <c r="E83" s="19"/>
-      <c r="F83" s="19"/>
-      <c r="G83" s="19"/>
-      <c r="H83" s="11"/>
-      <c r="I83" s="11"/>
-      <c r="J83" s="19"/>
-      <c r="K83" s="19"/>
-      <c r="L83" s="20"/>
-      <c r="P83" s="18">
-        <v>220041700106</v>
-      </c>
-      <c r="Q83" s="26">
-        <f t="shared" si="2"/>
+      <c r="B107" s="20" t="s">
+        <v>223</v>
+      </c>
+      <c r="C107" s="21">
+        <v>220041723028</v>
+      </c>
+      <c r="D107" s="17"/>
+      <c r="E107" s="17"/>
+      <c r="F107" s="17"/>
+      <c r="G107" s="19"/>
+      <c r="H107" s="9"/>
+      <c r="I107" s="9"/>
+      <c r="J107" s="17"/>
+      <c r="K107" s="17"/>
+      <c r="L107" s="18"/>
+    </row>
+    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A108" s="9">
         <v>106</v>
       </c>
-    </row>
-    <row r="84" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A84" s="11">
-        <v>82</v>
-      </c>
-      <c r="B84" s="17" t="s">
-        <v>208</v>
-      </c>
-      <c r="C84" s="18">
-        <v>220041700107</v>
-      </c>
-      <c r="D84" s="19"/>
-      <c r="E84" s="19"/>
-      <c r="F84" s="19"/>
-      <c r="G84" s="19"/>
-      <c r="H84" s="11"/>
-      <c r="I84" s="11"/>
-      <c r="J84" s="19"/>
-      <c r="K84" s="19"/>
-      <c r="L84" s="20"/>
-      <c r="P84" s="18">
-        <v>220041700107</v>
-      </c>
-      <c r="Q84" s="26">
-        <f t="shared" si="2"/>
+      <c r="B108" s="20" t="s">
+        <v>224</v>
+      </c>
+      <c r="C108" s="21">
+        <v>220041723032</v>
+      </c>
+      <c r="D108" s="17"/>
+      <c r="E108" s="17"/>
+      <c r="F108" s="17"/>
+      <c r="G108" s="17"/>
+      <c r="H108" s="9"/>
+      <c r="I108" s="9"/>
+      <c r="J108" s="17"/>
+      <c r="K108" s="17"/>
+      <c r="L108" s="18"/>
+    </row>
+    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A109" s="9">
         <v>107</v>
       </c>
-    </row>
-    <row r="85" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A85" s="11">
-        <v>83</v>
-      </c>
-      <c r="B85" s="17" t="s">
-        <v>209</v>
-      </c>
-      <c r="C85" s="18">
-        <v>220041700109</v>
-      </c>
-      <c r="D85" s="19"/>
-      <c r="E85" s="19"/>
-      <c r="F85" s="19"/>
-      <c r="G85" s="19"/>
-      <c r="H85" s="11"/>
-      <c r="I85" s="11"/>
-      <c r="J85" s="19"/>
-      <c r="K85" s="19"/>
-      <c r="L85" s="20"/>
-      <c r="P85" s="18">
-        <v>220041700109</v>
-      </c>
-      <c r="Q85" s="26">
-        <f t="shared" si="2"/>
-        <v>109</v>
-      </c>
-    </row>
-    <row r="86" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A86" s="11">
-        <v>84</v>
-      </c>
-      <c r="B86" s="17" t="s">
-        <v>210</v>
-      </c>
-      <c r="C86" s="18">
-        <v>220041700112</v>
-      </c>
-      <c r="D86" s="19"/>
-      <c r="E86" s="19"/>
-      <c r="F86" s="19"/>
-      <c r="G86" s="19"/>
-      <c r="H86" s="11"/>
-      <c r="I86" s="11"/>
-      <c r="J86" s="19"/>
-      <c r="K86" s="19"/>
-      <c r="L86" s="20"/>
-      <c r="P86" s="18">
-        <v>220041700112</v>
-      </c>
-      <c r="Q86" s="26">
-        <f t="shared" si="2"/>
-        <v>112</v>
-      </c>
-    </row>
-    <row r="87" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A87" s="11">
-        <v>85</v>
-      </c>
-      <c r="B87" s="17" t="s">
-        <v>211</v>
-      </c>
-      <c r="C87" s="18">
-        <v>220041700115</v>
-      </c>
-      <c r="D87" s="19"/>
-      <c r="E87" s="19"/>
-      <c r="F87" s="19"/>
-      <c r="G87" s="21"/>
-      <c r="H87" s="11"/>
-      <c r="I87" s="11"/>
-      <c r="J87" s="19"/>
-      <c r="K87" s="19"/>
-      <c r="L87" s="20"/>
-      <c r="P87" s="18">
-        <v>220041700115</v>
-      </c>
-      <c r="Q87" s="26">
-        <f t="shared" si="2"/>
-        <v>115</v>
-      </c>
-    </row>
-    <row r="88" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A88" s="11">
-        <v>86</v>
-      </c>
-      <c r="B88" s="17" t="s">
-        <v>212</v>
-      </c>
-      <c r="C88" s="18">
-        <v>220041700116</v>
-      </c>
-      <c r="D88" s="19"/>
-      <c r="E88" s="19"/>
-      <c r="F88" s="19"/>
-      <c r="G88" s="21"/>
-      <c r="H88" s="11"/>
-      <c r="I88" s="11"/>
-      <c r="J88" s="19"/>
-      <c r="K88" s="19"/>
-      <c r="L88" s="20"/>
-      <c r="P88" s="18">
-        <v>220041700116</v>
-      </c>
-      <c r="Q88" s="26">
-        <f t="shared" si="2"/>
-        <v>116</v>
-      </c>
-    </row>
-    <row r="89" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A89" s="11">
-        <v>87</v>
-      </c>
-      <c r="B89" s="17" t="s">
-        <v>213</v>
-      </c>
-      <c r="C89" s="18">
-        <v>220041700117</v>
-      </c>
-      <c r="D89" s="19"/>
-      <c r="E89" s="19"/>
-      <c r="F89" s="19"/>
-      <c r="G89" s="19"/>
-      <c r="H89" s="11"/>
-      <c r="I89" s="11"/>
-      <c r="J89" s="19"/>
-      <c r="K89" s="19"/>
-      <c r="L89" s="20"/>
-      <c r="P89" s="18">
-        <v>220041700117</v>
-      </c>
-      <c r="Q89" s="26">
-        <f t="shared" si="2"/>
-        <v>117</v>
-      </c>
-    </row>
-    <row r="90" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A90" s="11">
-        <v>88</v>
-      </c>
-      <c r="B90" s="17" t="s">
-        <v>214</v>
-      </c>
-      <c r="C90" s="18">
-        <v>220041700118</v>
-      </c>
-      <c r="D90" s="19"/>
-      <c r="E90" s="19"/>
-      <c r="F90" s="19"/>
-      <c r="G90" s="19"/>
-      <c r="H90" s="11"/>
-      <c r="I90" s="11"/>
-      <c r="J90" s="19"/>
-      <c r="K90" s="19"/>
-      <c r="L90" s="20"/>
-      <c r="P90" s="18">
-        <v>220041700118</v>
-      </c>
-      <c r="Q90" s="26">
-        <f t="shared" si="2"/>
-        <v>118</v>
-      </c>
-    </row>
-    <row r="91" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A91" s="11">
-        <v>89</v>
-      </c>
-      <c r="B91" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="C91" s="18">
-        <v>220041700121</v>
-      </c>
-      <c r="D91" s="19"/>
-      <c r="E91" s="19"/>
-      <c r="F91" s="19"/>
-      <c r="G91" s="19"/>
-      <c r="H91" s="11"/>
-      <c r="I91" s="11"/>
-      <c r="J91" s="19"/>
-      <c r="K91" s="19"/>
-      <c r="L91" s="20"/>
-      <c r="P91" s="18">
-        <v>220041700121</v>
-      </c>
-      <c r="Q91" s="26">
-        <f t="shared" si="2"/>
-        <v>121</v>
-      </c>
-    </row>
-    <row r="92" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A92" s="11">
-        <v>90</v>
-      </c>
-      <c r="B92" s="17" t="s">
-        <v>97</v>
-      </c>
-      <c r="C92" s="18">
-        <v>220041700122</v>
-      </c>
-      <c r="D92" s="19"/>
-      <c r="E92" s="19"/>
-      <c r="F92" s="19"/>
-      <c r="G92" s="19"/>
-      <c r="H92" s="11"/>
-      <c r="I92" s="11"/>
-      <c r="J92" s="19"/>
-      <c r="K92" s="19"/>
-      <c r="L92" s="20"/>
-      <c r="P92" s="18">
-        <v>220041700122</v>
-      </c>
-      <c r="Q92" s="26">
-        <f t="shared" si="2"/>
-        <v>122</v>
-      </c>
-    </row>
-    <row r="93" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A93" s="11">
-        <v>91</v>
-      </c>
-      <c r="B93" s="17" t="s">
-        <v>97</v>
-      </c>
-      <c r="C93" s="18">
-        <v>220041700123</v>
-      </c>
-      <c r="D93" s="19"/>
-      <c r="E93" s="19"/>
-      <c r="F93" s="19"/>
-      <c r="G93" s="21"/>
-      <c r="H93" s="11"/>
-      <c r="I93" s="11"/>
-      <c r="J93" s="19"/>
-      <c r="K93" s="19"/>
-      <c r="L93" s="20"/>
-      <c r="P93" s="18">
-        <v>220041700123</v>
-      </c>
-      <c r="Q93" s="26">
-        <f t="shared" si="2"/>
-        <v>123</v>
-      </c>
-    </row>
-    <row r="94" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A94" s="11">
-        <v>92</v>
-      </c>
-      <c r="B94" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="C94" s="18">
-        <v>220041700125</v>
-      </c>
-      <c r="D94" s="19"/>
-      <c r="E94" s="19"/>
-      <c r="F94" s="19"/>
-      <c r="G94" s="19"/>
-      <c r="H94" s="11"/>
-      <c r="I94" s="11"/>
-      <c r="J94" s="19"/>
-      <c r="K94" s="19"/>
-      <c r="L94" s="20"/>
-      <c r="P94" s="18">
-        <v>220041700125</v>
-      </c>
-      <c r="Q94" s="26">
-        <f t="shared" si="2"/>
-        <v>125</v>
-      </c>
-    </row>
-    <row r="95" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A95" s="11">
-        <v>93</v>
-      </c>
-      <c r="B95" s="17" t="s">
-        <v>215</v>
-      </c>
-      <c r="C95" s="18">
-        <v>220041700130</v>
-      </c>
-      <c r="D95" s="19"/>
-      <c r="E95" s="19"/>
-      <c r="F95" s="19"/>
-      <c r="G95" s="21"/>
-      <c r="H95" s="11"/>
-      <c r="I95" s="11"/>
-      <c r="J95" s="19"/>
-      <c r="K95" s="19"/>
-      <c r="L95" s="20"/>
-      <c r="P95" s="18">
-        <v>220041700130</v>
-      </c>
-      <c r="Q95" s="26">
-        <f t="shared" si="2"/>
-        <v>130</v>
-      </c>
-    </row>
-    <row r="96" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A96" s="11">
-        <v>94</v>
-      </c>
-      <c r="B96" s="17" t="s">
-        <v>216</v>
-      </c>
-      <c r="C96" s="18">
-        <v>220041700131</v>
-      </c>
-      <c r="D96" s="19"/>
-      <c r="E96" s="19"/>
-      <c r="F96" s="19"/>
-      <c r="G96" s="21"/>
-      <c r="H96" s="11"/>
-      <c r="I96" s="11"/>
-      <c r="J96" s="19"/>
-      <c r="K96" s="19"/>
-      <c r="L96" s="20"/>
-      <c r="P96" s="18">
-        <v>220041700131</v>
-      </c>
-      <c r="Q96" s="26">
-        <f t="shared" si="2"/>
-        <v>131</v>
-      </c>
-    </row>
-    <row r="97" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A97" s="11">
-        <v>95</v>
-      </c>
-      <c r="B97" s="17" t="s">
-        <v>82</v>
-      </c>
-      <c r="C97" s="18">
-        <v>220041700132</v>
-      </c>
-      <c r="D97" s="19"/>
-      <c r="E97" s="19"/>
-      <c r="F97" s="19"/>
-      <c r="G97" s="19"/>
-      <c r="H97" s="11"/>
-      <c r="I97" s="11"/>
-      <c r="J97" s="19"/>
-      <c r="K97" s="19"/>
-      <c r="L97" s="20"/>
-      <c r="P97" s="18">
-        <v>220041700132</v>
-      </c>
-      <c r="Q97" s="26">
-        <f t="shared" si="2"/>
-        <v>132</v>
-      </c>
-    </row>
-    <row r="98" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A98" s="11">
-        <v>96</v>
-      </c>
-      <c r="B98" s="17" t="s">
-        <v>82</v>
-      </c>
-      <c r="C98" s="18">
-        <v>220041700133</v>
-      </c>
-      <c r="D98" s="19"/>
-      <c r="E98" s="19"/>
-      <c r="F98" s="19"/>
-      <c r="G98" s="19"/>
-      <c r="H98" s="11"/>
-      <c r="I98" s="11"/>
-      <c r="J98" s="19"/>
-      <c r="K98" s="19"/>
-      <c r="L98" s="20"/>
-      <c r="M98" s="24"/>
-      <c r="P98" s="18">
-        <v>220041700133</v>
-      </c>
-      <c r="Q98" s="26">
-        <f t="shared" si="2"/>
-        <v>133</v>
-      </c>
-    </row>
-    <row r="99" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A99" s="11">
-        <v>97</v>
-      </c>
-      <c r="B99" s="17" t="s">
-        <v>82</v>
-      </c>
-      <c r="C99" s="18">
-        <v>220041700134</v>
-      </c>
-      <c r="D99" s="19"/>
-      <c r="E99" s="19"/>
-      <c r="F99" s="19"/>
-      <c r="G99" s="21"/>
-      <c r="H99" s="11"/>
-      <c r="I99" s="11"/>
-      <c r="J99" s="19"/>
-      <c r="K99" s="19"/>
-      <c r="L99" s="20"/>
-      <c r="P99" s="18">
-        <v>220041700134</v>
-      </c>
-      <c r="Q99" s="26">
-        <f t="shared" si="2"/>
-        <v>134</v>
-      </c>
-    </row>
-    <row r="100" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A100" s="11">
-        <v>98</v>
-      </c>
-      <c r="B100" s="22" t="s">
-        <v>217</v>
-      </c>
-      <c r="C100" s="23">
-        <v>220041723018</v>
-      </c>
-      <c r="D100" s="19"/>
-      <c r="E100" s="19"/>
-      <c r="F100" s="19"/>
-      <c r="G100" s="21"/>
-      <c r="H100" s="11"/>
-      <c r="I100" s="11"/>
-      <c r="J100" s="19"/>
-      <c r="K100" s="19"/>
-      <c r="L100" s="20"/>
-      <c r="P100" s="23">
-        <v>220041723018</v>
-      </c>
-      <c r="Q100" s="23">
-        <v>220041723018</v>
-      </c>
-    </row>
-    <row r="101" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A101" s="11">
-        <v>99</v>
-      </c>
-      <c r="B101" s="22" t="s">
-        <v>218</v>
-      </c>
-      <c r="C101" s="23">
-        <v>220041723019</v>
-      </c>
-      <c r="D101" s="19"/>
-      <c r="E101" s="19"/>
-      <c r="F101" s="19"/>
-      <c r="G101" s="21"/>
-      <c r="H101" s="11"/>
-      <c r="I101" s="11"/>
-      <c r="J101" s="19"/>
-      <c r="K101" s="19"/>
-      <c r="L101" s="20"/>
-      <c r="P101" s="23">
-        <v>220041723019</v>
-      </c>
-      <c r="Q101" s="26">
-        <f>P101-220041723000</f>
-        <v>19</v>
-      </c>
-    </row>
-    <row r="102" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A102" s="11">
-        <v>100</v>
-      </c>
-      <c r="B102" s="22" t="s">
-        <v>219</v>
-      </c>
-      <c r="C102" s="23">
-        <v>220041723020</v>
-      </c>
-      <c r="D102" s="19"/>
-      <c r="E102" s="19"/>
-      <c r="F102" s="19"/>
-      <c r="G102" s="19"/>
-      <c r="H102" s="11"/>
-      <c r="I102" s="11"/>
-      <c r="J102" s="19"/>
-      <c r="K102" s="19"/>
-      <c r="L102" s="20"/>
-      <c r="P102" s="23">
-        <v>220041723020</v>
-      </c>
-      <c r="Q102" s="26">
-        <f t="shared" ref="Q102:Q110" si="3">P102-220041723000</f>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="103" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A103" s="11">
-        <v>101</v>
-      </c>
-      <c r="B103" s="22" t="s">
-        <v>220</v>
-      </c>
-      <c r="C103" s="23">
-        <v>220041723021</v>
-      </c>
-      <c r="D103" s="19"/>
-      <c r="E103" s="19"/>
-      <c r="F103" s="19"/>
-      <c r="G103" s="21"/>
-      <c r="H103" s="11"/>
-      <c r="I103" s="11"/>
-      <c r="J103" s="19"/>
-      <c r="K103" s="19"/>
-      <c r="L103" s="20"/>
-      <c r="P103" s="23">
-        <v>220041723021</v>
-      </c>
-      <c r="Q103" s="26">
-        <f t="shared" si="3"/>
-        <v>21</v>
-      </c>
-    </row>
-    <row r="104" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A104" s="11">
-        <v>102</v>
-      </c>
-      <c r="B104" s="22" t="s">
-        <v>219</v>
-      </c>
-      <c r="C104" s="23">
-        <v>220041723022</v>
-      </c>
-      <c r="D104" s="19"/>
-      <c r="E104" s="19"/>
-      <c r="F104" s="19"/>
-      <c r="G104" s="19"/>
-      <c r="H104" s="11"/>
-      <c r="I104" s="11"/>
-      <c r="J104" s="19"/>
-      <c r="K104" s="19"/>
-      <c r="L104" s="20"/>
-      <c r="P104" s="23">
-        <v>220041723022</v>
-      </c>
-      <c r="Q104" s="26">
-        <f t="shared" si="3"/>
-        <v>22</v>
-      </c>
-    </row>
-    <row r="105" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A105" s="11">
-        <v>103</v>
-      </c>
-      <c r="B105" s="22" t="s">
-        <v>221</v>
-      </c>
-      <c r="C105" s="23">
-        <v>220041723025</v>
-      </c>
-      <c r="D105" s="19"/>
-      <c r="E105" s="19"/>
-      <c r="F105" s="19"/>
-      <c r="G105" s="21"/>
-      <c r="H105" s="11"/>
-      <c r="I105" s="11"/>
-      <c r="J105" s="19"/>
-      <c r="K105" s="19"/>
-      <c r="L105" s="20"/>
-      <c r="P105" s="23">
-        <v>220041723025</v>
-      </c>
-      <c r="Q105" s="26">
-        <f t="shared" si="3"/>
-        <v>25</v>
-      </c>
-    </row>
-    <row r="106" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A106" s="11">
-        <v>104</v>
-      </c>
-      <c r="B106" s="22" t="s">
-        <v>222</v>
-      </c>
-      <c r="C106" s="23">
-        <v>220041723027</v>
-      </c>
-      <c r="D106" s="19"/>
-      <c r="E106" s="19"/>
-      <c r="F106" s="19"/>
-      <c r="G106" s="19"/>
-      <c r="H106" s="11"/>
-      <c r="I106" s="11"/>
-      <c r="J106" s="19"/>
-      <c r="K106" s="19"/>
-      <c r="L106" s="20"/>
-      <c r="P106" s="23">
-        <v>220041723027</v>
-      </c>
-      <c r="Q106" s="26">
-        <f t="shared" si="3"/>
-        <v>27</v>
-      </c>
-    </row>
-    <row r="107" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A107" s="11">
-        <v>105</v>
-      </c>
-      <c r="B107" s="22" t="s">
-        <v>223</v>
-      </c>
-      <c r="C107" s="23">
-        <v>220041723028</v>
-      </c>
-      <c r="D107" s="19"/>
-      <c r="E107" s="19"/>
-      <c r="F107" s="19"/>
-      <c r="G107" s="21"/>
-      <c r="H107" s="11"/>
-      <c r="I107" s="11"/>
-      <c r="J107" s="19"/>
-      <c r="K107" s="19"/>
-      <c r="L107" s="20"/>
-      <c r="P107" s="23">
-        <v>220041723028</v>
-      </c>
-      <c r="Q107" s="26">
-        <f t="shared" si="3"/>
-        <v>28</v>
-      </c>
-    </row>
-    <row r="108" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A108" s="11">
-        <v>106</v>
-      </c>
-      <c r="B108" s="22" t="s">
-        <v>224</v>
-      </c>
-      <c r="C108" s="23">
-        <v>220041723032</v>
-      </c>
-      <c r="D108" s="19"/>
-      <c r="E108" s="19"/>
-      <c r="F108" s="19"/>
-      <c r="G108" s="19"/>
-      <c r="H108" s="11"/>
-      <c r="I108" s="11"/>
-      <c r="J108" s="19"/>
-      <c r="K108" s="19"/>
-      <c r="L108" s="20"/>
-      <c r="P108" s="23">
-        <v>220041723032</v>
-      </c>
-      <c r="Q108" s="26">
-        <f t="shared" si="3"/>
-        <v>32</v>
-      </c>
-    </row>
-    <row r="109" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A109" s="11">
-        <v>107</v>
-      </c>
-      <c r="B109" s="22" t="s">
+      <c r="B109" s="20" t="s">
         <v>225</v>
       </c>
-      <c r="C109" s="23">
+      <c r="C109" s="21">
         <v>220041723033</v>
       </c>
-      <c r="D109" s="19"/>
-      <c r="E109" s="19"/>
-      <c r="F109" s="22"/>
-      <c r="G109" s="19"/>
-      <c r="H109" s="11"/>
-      <c r="I109" s="11"/>
-      <c r="J109" s="19"/>
-      <c r="K109" s="19"/>
-      <c r="L109" s="20"/>
-      <c r="P109" s="23">
-        <v>220041723033</v>
-      </c>
-      <c r="Q109" s="26">
-        <f t="shared" si="3"/>
-        <v>33</v>
-      </c>
-    </row>
-    <row r="110" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A110" s="11">
+      <c r="D109" s="17"/>
+      <c r="E109" s="17"/>
+      <c r="F109" s="20"/>
+      <c r="G109" s="17"/>
+      <c r="H109" s="9"/>
+      <c r="I109" s="9"/>
+      <c r="J109" s="17"/>
+      <c r="K109" s="17"/>
+      <c r="L109" s="18"/>
+    </row>
+    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A110" s="9">
         <v>108</v>
       </c>
-      <c r="B110" s="22" t="s">
+      <c r="B110" s="20" t="s">
         <v>226</v>
       </c>
-      <c r="C110" s="23">
+      <c r="C110" s="21">
         <v>220041723034</v>
       </c>
-      <c r="D110" s="19"/>
-      <c r="E110" s="19"/>
-      <c r="F110" s="19"/>
-      <c r="G110" s="19"/>
-      <c r="H110" s="11"/>
-      <c r="I110" s="11"/>
-      <c r="J110" s="19"/>
-      <c r="K110" s="19"/>
-      <c r="L110" s="20"/>
-      <c r="P110" s="23">
-        <v>220041723034</v>
-      </c>
-      <c r="Q110" s="26">
-        <f t="shared" si="3"/>
-        <v>34</v>
-      </c>
+      <c r="D110" s="17"/>
+      <c r="E110" s="17"/>
+      <c r="F110" s="17"/>
+      <c r="G110" s="17"/>
+      <c r="H110" s="9"/>
+      <c r="I110" s="9"/>
+      <c r="J110" s="17"/>
+      <c r="K110" s="17"/>
+      <c r="L110" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4169,7 +3411,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O120"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
@@ -4195,20 +3437,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
-      <c r="L1" s="8"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
+      <c r="K1" s="25"/>
+      <c r="L1" s="25"/>
     </row>
     <row r="2" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">

--- a/static/Upload/5th sem.xlsx
+++ b/static/Upload/5th sem.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD81D6CC-A189-4A4B-96B4-30BE1DDA536F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CNC" sheetId="3" r:id="rId1"/>
     <sheet name="CNC 2021" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">CNC!$A$2:$N$92</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">CNC!$A$2:$Q$111</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'CNC 2021'!$A$2:$O$112</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="236">
   <si>
     <t>S.N</t>
   </si>
@@ -717,16 +718,31 @@
   </si>
   <si>
     <t>Practical (60)</t>
+  </si>
+  <si>
+    <t>Roshni</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>S1(40)</t>
+  </si>
+  <si>
+    <t>S2(40)</t>
+  </si>
+  <si>
+    <t>S3(40)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -760,6 +776,11 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -803,7 +824,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -824,9 +845,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -857,25 +875,19 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="12" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1157,2251 +1169,3153 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N110"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:Q111"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A58" sqref="A58:A110"/>
+      <selection pane="bottomRight" activeCell="O3" sqref="O3:O111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.28515625" style="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.140625" style="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.42578125" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="7.5703125" style="8" bestFit="1" customWidth="1"/>
-    <col min="7" max="9" width="6.85546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12" style="23" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="12.7109375" style="8" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.7109375" style="8" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="8"/>
+    <col min="1" max="1" width="4.28515625" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="7.5703125" style="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="6.85546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12" style="6" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="12.7109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.7109375" style="7" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="s">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A1" s="21" t="s">
         <v>227</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
-      <c r="K1" s="24"/>
-      <c r="L1" s="24"/>
-    </row>
-    <row r="2" spans="1:14" s="2" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="10" t="s">
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="21"/>
+      <c r="L1" s="21"/>
+    </row>
+    <row r="2" spans="1:17" s="2" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="11" t="s">
         <v>135</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="E2" s="12" t="s">
         <v>136</v>
       </c>
-      <c r="F2" s="14" t="s">
+      <c r="F2" s="13" t="s">
         <v>137</v>
       </c>
-      <c r="G2" s="12" t="s">
+      <c r="G2" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="H2" s="12" t="s">
+      <c r="H2" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="I2" s="12" t="s">
+      <c r="I2" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="J2" s="12" t="s">
+      <c r="J2" s="11" t="s">
         <v>138</v>
       </c>
-      <c r="K2" s="12" t="s">
+      <c r="K2" s="11" t="s">
         <v>139</v>
       </c>
-      <c r="L2" s="12" t="s">
+      <c r="L2" s="11" t="s">
         <v>229</v>
       </c>
       <c r="M2" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="N2" s="12" t="s">
+      <c r="N2" s="11" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="9">
+      <c r="O2" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A3" s="8">
         <v>1</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="14" t="s">
         <v>140</v>
       </c>
-      <c r="C3" s="16">
+      <c r="C3" s="15">
         <v>220041700001</v>
       </c>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
-      <c r="J3" s="17"/>
-      <c r="K3" s="17"/>
-      <c r="L3" s="18"/>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="9">
+      <c r="D3" s="16">
+        <v>17</v>
+      </c>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16">
+        <v>5</v>
+      </c>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="16"/>
+      <c r="K3" s="16"/>
+      <c r="L3" s="17"/>
+      <c r="O3" s="22">
+        <f>SUM(D3)+G3+J3</f>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A4" s="8">
         <v>2</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="14" t="s">
         <v>141</v>
       </c>
-      <c r="C4" s="16">
+      <c r="C4" s="15">
         <v>220041700004</v>
       </c>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="17"/>
-      <c r="K4" s="17"/>
-      <c r="L4" s="18"/>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="9">
+      <c r="D4" s="16">
+        <v>20</v>
+      </c>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="16">
+        <v>5</v>
+      </c>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="16"/>
+      <c r="K4" s="16"/>
+      <c r="L4" s="17"/>
+      <c r="O4" s="22">
+        <f t="shared" ref="O4:O67" si="0">SUM(D4)+G4+J4</f>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A5" s="8">
         <v>3</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="16">
+      <c r="C5" s="15">
         <v>220041700006</v>
       </c>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="17"/>
-      <c r="K5" s="17"/>
-      <c r="L5" s="18"/>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="9">
+      <c r="D5" s="16">
+        <v>10</v>
+      </c>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="16">
+        <v>5</v>
+      </c>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="16"/>
+      <c r="K5" s="16"/>
+      <c r="L5" s="17"/>
+      <c r="O5" s="22">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A6" s="8">
         <v>4</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="16">
+      <c r="C6" s="15">
         <v>220041700007</v>
       </c>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="19"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="17"/>
-      <c r="K6" s="17"/>
-      <c r="L6" s="18"/>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="9">
-        <v>5</v>
-      </c>
-      <c r="B7" s="15" t="s">
+      <c r="D6" s="16">
+        <v>12</v>
+      </c>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="16">
+        <v>5</v>
+      </c>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="16"/>
+      <c r="K6" s="16"/>
+      <c r="L6" s="17"/>
+      <c r="O6" s="22">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A7" s="8">
+        <v>5</v>
+      </c>
+      <c r="B7" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="16">
+      <c r="C7" s="15">
         <v>220041700008</v>
       </c>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="17"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9"/>
-      <c r="J7" s="17"/>
-      <c r="K7" s="17"/>
-      <c r="L7" s="18"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="9">
+      <c r="D7" s="16">
+        <v>10</v>
+      </c>
+      <c r="E7" s="16"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="16">
+        <v>5</v>
+      </c>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="16"/>
+      <c r="K7" s="16"/>
+      <c r="L7" s="17"/>
+      <c r="O7" s="22">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A8" s="8">
         <v>6</v>
       </c>
-      <c r="B8" s="15" t="s">
+      <c r="B8" s="14" t="s">
         <v>142</v>
       </c>
-      <c r="C8" s="16">
+      <c r="C8" s="15">
         <v>220041700009</v>
       </c>
-      <c r="D8" s="17"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="17"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="9"/>
-      <c r="J8" s="17"/>
-      <c r="K8" s="17"/>
-      <c r="L8" s="18"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="9">
+      <c r="D8" s="16">
+        <v>17</v>
+      </c>
+      <c r="E8" s="16"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="16">
+        <v>5</v>
+      </c>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="16"/>
+      <c r="K8" s="16"/>
+      <c r="L8" s="17"/>
+      <c r="O8" s="22">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A9" s="8">
         <v>7</v>
       </c>
-      <c r="B9" s="15" t="s">
+      <c r="B9" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="16">
+      <c r="C9" s="15">
         <v>220041700011</v>
       </c>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="17"/>
-      <c r="G9" s="17"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="9"/>
-      <c r="J9" s="17"/>
-      <c r="K9" s="17"/>
-      <c r="L9" s="18"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="9">
+      <c r="D9" s="16">
+        <v>17</v>
+      </c>
+      <c r="E9" s="16"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="16">
+        <v>0</v>
+      </c>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="16"/>
+      <c r="K9" s="16"/>
+      <c r="L9" s="17"/>
+      <c r="O9" s="22">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A10" s="8">
         <v>8</v>
       </c>
-      <c r="B10" s="15" t="s">
+      <c r="B10" s="14" t="s">
         <v>143</v>
       </c>
-      <c r="C10" s="16">
+      <c r="C10" s="15">
         <v>220041700013</v>
       </c>
-      <c r="D10" s="17"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="17"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="9"/>
-      <c r="J10" s="17"/>
-      <c r="K10" s="17"/>
-      <c r="L10" s="18"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="9">
+      <c r="D10" s="16">
+        <v>15</v>
+      </c>
+      <c r="E10" s="16"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="16">
+        <v>0</v>
+      </c>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="16"/>
+      <c r="K10" s="16"/>
+      <c r="L10" s="17"/>
+      <c r="O10" s="22">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A11" s="8">
         <v>9</v>
       </c>
-      <c r="B11" s="15" t="s">
+      <c r="B11" s="14" t="s">
         <v>144</v>
       </c>
-      <c r="C11" s="16">
+      <c r="C11" s="15">
         <v>220041700014</v>
       </c>
-      <c r="D11" s="17"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="17"/>
-      <c r="G11" s="17"/>
-      <c r="H11" s="9"/>
-      <c r="I11" s="9"/>
-      <c r="J11" s="17"/>
-      <c r="K11" s="17"/>
-      <c r="L11" s="18"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="9">
+      <c r="D11" s="16">
+        <v>14</v>
+      </c>
+      <c r="E11" s="16"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="16">
+        <v>5</v>
+      </c>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="16"/>
+      <c r="K11" s="16"/>
+      <c r="L11" s="17"/>
+      <c r="O11" s="22">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A12" s="8">
         <v>10</v>
       </c>
-      <c r="B12" s="15" t="s">
+      <c r="B12" s="14" t="s">
         <v>145</v>
       </c>
-      <c r="C12" s="16">
+      <c r="C12" s="15">
         <v>220041700016</v>
       </c>
-      <c r="D12" s="17"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="17"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="9"/>
-      <c r="J12" s="17"/>
-      <c r="K12" s="17"/>
-      <c r="L12" s="18"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="9">
+      <c r="D12" s="16">
+        <v>14</v>
+      </c>
+      <c r="E12" s="16"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="16">
+        <v>0</v>
+      </c>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="16"/>
+      <c r="K12" s="16"/>
+      <c r="L12" s="17"/>
+      <c r="O12" s="22">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A13" s="8">
         <v>11</v>
       </c>
-      <c r="B13" s="15" t="s">
+      <c r="B13" s="14" t="s">
         <v>146</v>
       </c>
-      <c r="C13" s="16">
+      <c r="C13" s="15">
         <v>220041700017</v>
       </c>
-      <c r="D13" s="17"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="17"/>
-      <c r="H13" s="9"/>
-      <c r="I13" s="9"/>
-      <c r="J13" s="17"/>
-      <c r="K13" s="17"/>
-      <c r="L13" s="18"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="9">
+      <c r="D13" s="16">
+        <v>16</v>
+      </c>
+      <c r="E13" s="16"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="16">
+        <v>5</v>
+      </c>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="16"/>
+      <c r="K13" s="16"/>
+      <c r="L13" s="17"/>
+      <c r="O13" s="22">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A14" s="8">
         <v>12</v>
       </c>
-      <c r="B14" s="15" t="s">
+      <c r="B14" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="C14" s="16">
+      <c r="C14" s="15">
         <v>220041700020</v>
       </c>
-      <c r="D14" s="17"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="17"/>
-      <c r="G14" s="17"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="9"/>
-      <c r="J14" s="17"/>
-      <c r="K14" s="17"/>
-      <c r="L14" s="18"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="9">
+      <c r="D14" s="16">
+        <v>12</v>
+      </c>
+      <c r="E14" s="16"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="16">
+        <v>5</v>
+      </c>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="16"/>
+      <c r="K14" s="16"/>
+      <c r="L14" s="17"/>
+      <c r="O14" s="22">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A15" s="8">
         <v>13</v>
       </c>
-      <c r="B15" s="15" t="s">
+      <c r="B15" s="14" t="s">
         <v>147</v>
       </c>
-      <c r="C15" s="16">
+      <c r="C15" s="15">
         <v>220041700022</v>
       </c>
-      <c r="D15" s="17"/>
-      <c r="E15" s="17"/>
-      <c r="F15" s="17"/>
-      <c r="G15" s="17"/>
-      <c r="H15" s="9"/>
-      <c r="I15" s="9"/>
-      <c r="J15" s="17"/>
-      <c r="K15" s="17"/>
-      <c r="L15" s="18"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="9">
+      <c r="D15" s="16">
+        <v>25</v>
+      </c>
+      <c r="E15" s="16"/>
+      <c r="F15" s="16"/>
+      <c r="G15" s="16">
+        <v>0</v>
+      </c>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="16"/>
+      <c r="K15" s="16"/>
+      <c r="L15" s="17"/>
+      <c r="O15" s="22">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A16" s="8">
         <v>14</v>
       </c>
-      <c r="B16" s="15" t="s">
+      <c r="B16" s="14" t="s">
         <v>148</v>
       </c>
-      <c r="C16" s="16">
+      <c r="C16" s="15">
         <v>220041700023</v>
       </c>
-      <c r="D16" s="17"/>
-      <c r="E16" s="17"/>
-      <c r="F16" s="17"/>
-      <c r="G16" s="17"/>
-      <c r="H16" s="9"/>
-      <c r="I16" s="9"/>
-      <c r="J16" s="17"/>
-      <c r="K16" s="17"/>
-      <c r="L16" s="18"/>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" s="9">
+      <c r="D16" s="16">
+        <v>19</v>
+      </c>
+      <c r="E16" s="16"/>
+      <c r="F16" s="16"/>
+      <c r="G16" s="16">
+        <v>5</v>
+      </c>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="16"/>
+      <c r="K16" s="16"/>
+      <c r="L16" s="17"/>
+      <c r="O16" s="22">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A17" s="8">
         <v>15</v>
       </c>
-      <c r="B17" s="15" t="s">
+      <c r="B17" s="14" t="s">
         <v>149</v>
       </c>
-      <c r="C17" s="16">
+      <c r="C17" s="15">
         <v>220041700024</v>
       </c>
-      <c r="D17" s="17"/>
-      <c r="E17" s="17"/>
-      <c r="F17" s="17"/>
-      <c r="G17" s="17"/>
-      <c r="H17" s="9"/>
-      <c r="I17" s="9"/>
-      <c r="J17" s="17"/>
-      <c r="K17" s="17"/>
-      <c r="L17" s="18"/>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" s="9">
+      <c r="D17" s="16">
         <v>16</v>
       </c>
-      <c r="B18" s="15" t="s">
+      <c r="E17" s="16"/>
+      <c r="F17" s="16"/>
+      <c r="G17" s="16">
+        <v>5</v>
+      </c>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="16"/>
+      <c r="K17" s="16"/>
+      <c r="L17" s="17"/>
+      <c r="O17" s="22">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A18" s="8">
+        <v>16</v>
+      </c>
+      <c r="B18" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="C18" s="16">
+      <c r="C18" s="15">
         <v>220041700025</v>
       </c>
-      <c r="D18" s="17"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="17"/>
-      <c r="G18" s="17"/>
-      <c r="H18" s="9"/>
-      <c r="I18" s="9"/>
-      <c r="J18" s="17"/>
-      <c r="K18" s="17"/>
-      <c r="L18" s="18"/>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" s="9">
+      <c r="D18" s="16">
+        <v>10</v>
+      </c>
+      <c r="E18" s="16"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="16">
+        <v>5</v>
+      </c>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="16"/>
+      <c r="K18" s="16"/>
+      <c r="L18" s="17"/>
+      <c r="O18" s="22">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A19" s="8">
         <v>17</v>
       </c>
-      <c r="B19" s="15" t="s">
+      <c r="B19" s="14" t="s">
         <v>150</v>
       </c>
-      <c r="C19" s="16">
+      <c r="C19" s="15">
         <v>220041700027</v>
       </c>
-      <c r="D19" s="17"/>
-      <c r="E19" s="17"/>
-      <c r="F19" s="17"/>
-      <c r="G19" s="17"/>
-      <c r="H19" s="9"/>
-      <c r="I19" s="9"/>
-      <c r="J19" s="17"/>
-      <c r="K19" s="17"/>
-      <c r="L19" s="18"/>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" s="9">
+      <c r="D19" s="16">
+        <v>9</v>
+      </c>
+      <c r="E19" s="16"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="16">
+        <v>5</v>
+      </c>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="16"/>
+      <c r="K19" s="16"/>
+      <c r="L19" s="17"/>
+      <c r="O19" s="22">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A20" s="8">
         <v>18</v>
       </c>
-      <c r="B20" s="15" t="s">
+      <c r="B20" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="C20" s="16">
+      <c r="C20" s="15">
         <v>220041700028</v>
       </c>
-      <c r="D20" s="17"/>
-      <c r="E20" s="17"/>
-      <c r="F20" s="17"/>
-      <c r="G20" s="17"/>
-      <c r="H20" s="9"/>
-      <c r="I20" s="9"/>
-      <c r="J20" s="17"/>
-      <c r="K20" s="17"/>
-      <c r="L20" s="18"/>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" s="9">
+      <c r="D20" s="16">
         <v>19</v>
       </c>
-      <c r="B21" s="15" t="s">
+      <c r="E20" s="16"/>
+      <c r="F20" s="16"/>
+      <c r="G20" s="16">
+        <v>0</v>
+      </c>
+      <c r="H20" s="8"/>
+      <c r="I20" s="8"/>
+      <c r="J20" s="16"/>
+      <c r="K20" s="16"/>
+      <c r="L20" s="17"/>
+      <c r="O20" s="22">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A21" s="8">
+        <v>19</v>
+      </c>
+      <c r="B21" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="C21" s="16">
+      <c r="C21" s="15">
         <v>220041700029</v>
       </c>
-      <c r="D21" s="17"/>
-      <c r="E21" s="17"/>
-      <c r="F21" s="17"/>
-      <c r="G21" s="17"/>
-      <c r="H21" s="9"/>
-      <c r="I21" s="9"/>
-      <c r="J21" s="17"/>
-      <c r="K21" s="17"/>
-      <c r="L21" s="18"/>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A22" s="9">
+      <c r="D21" s="16">
+        <v>12</v>
+      </c>
+      <c r="E21" s="16"/>
+      <c r="F21" s="16"/>
+      <c r="G21" s="16">
+        <v>5</v>
+      </c>
+      <c r="H21" s="8"/>
+      <c r="I21" s="8"/>
+      <c r="J21" s="16"/>
+      <c r="K21" s="16"/>
+      <c r="L21" s="17"/>
+      <c r="O21" s="22">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A22" s="8">
         <v>20</v>
       </c>
-      <c r="B22" s="15" t="s">
+      <c r="B22" s="14" t="s">
         <v>151</v>
       </c>
-      <c r="C22" s="16">
+      <c r="C22" s="15">
         <v>220041700031</v>
       </c>
-      <c r="D22" s="17"/>
-      <c r="E22" s="17"/>
-      <c r="F22" s="17"/>
-      <c r="G22" s="17"/>
-      <c r="H22" s="9"/>
-      <c r="I22" s="9"/>
-      <c r="J22" s="17"/>
-      <c r="K22" s="17"/>
-      <c r="L22" s="18"/>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" s="9">
+      <c r="D22" s="16">
+        <v>15</v>
+      </c>
+      <c r="E22" s="16"/>
+      <c r="F22" s="16"/>
+      <c r="G22" s="16">
+        <v>5</v>
+      </c>
+      <c r="H22" s="8"/>
+      <c r="I22" s="8"/>
+      <c r="J22" s="16"/>
+      <c r="K22" s="16"/>
+      <c r="L22" s="17"/>
+      <c r="O22" s="22">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A23" s="8">
         <v>21</v>
       </c>
-      <c r="B23" s="15" t="s">
+      <c r="B23" s="14" t="s">
         <v>152</v>
       </c>
-      <c r="C23" s="16">
+      <c r="C23" s="15">
         <v>220041700033</v>
       </c>
-      <c r="D23" s="17"/>
-      <c r="E23" s="17"/>
-      <c r="F23" s="17"/>
-      <c r="G23" s="17"/>
-      <c r="H23" s="9"/>
-      <c r="I23" s="9"/>
-      <c r="J23" s="17"/>
-      <c r="K23" s="17"/>
-      <c r="L23" s="18"/>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24" s="9">
+      <c r="D23" s="16">
+        <v>8</v>
+      </c>
+      <c r="E23" s="16"/>
+      <c r="F23" s="16"/>
+      <c r="G23" s="16">
+        <v>5</v>
+      </c>
+      <c r="H23" s="8"/>
+      <c r="I23" s="8"/>
+      <c r="J23" s="16"/>
+      <c r="K23" s="16"/>
+      <c r="L23" s="17"/>
+      <c r="O23" s="22">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A24" s="8">
         <v>22</v>
       </c>
-      <c r="B24" s="15" t="s">
+      <c r="B24" s="14" t="s">
         <v>153</v>
       </c>
-      <c r="C24" s="16">
+      <c r="C24" s="15">
         <v>220041700034</v>
       </c>
-      <c r="D24" s="17"/>
-      <c r="E24" s="17"/>
-      <c r="F24" s="17"/>
-      <c r="G24" s="17"/>
-      <c r="H24" s="9"/>
-      <c r="I24" s="9"/>
-      <c r="J24" s="17"/>
-      <c r="K24" s="17"/>
-      <c r="L24" s="18"/>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25" s="9">
+      <c r="D24" s="16">
+        <v>14</v>
+      </c>
+      <c r="E24" s="16"/>
+      <c r="F24" s="16"/>
+      <c r="G24" s="16">
+        <v>0</v>
+      </c>
+      <c r="H24" s="8"/>
+      <c r="I24" s="8"/>
+      <c r="J24" s="16"/>
+      <c r="K24" s="16"/>
+      <c r="L24" s="17"/>
+      <c r="O24" s="22">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A25" s="8">
         <v>23</v>
       </c>
-      <c r="B25" s="15" t="s">
+      <c r="B25" s="14" t="s">
         <v>154</v>
       </c>
-      <c r="C25" s="16">
+      <c r="C25" s="15">
         <v>220041700035</v>
       </c>
-      <c r="D25" s="17"/>
-      <c r="E25" s="17"/>
-      <c r="F25" s="17"/>
-      <c r="G25" s="17"/>
-      <c r="H25" s="9"/>
-      <c r="I25" s="9"/>
-      <c r="J25" s="17"/>
-      <c r="K25" s="17"/>
-      <c r="L25" s="18"/>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A26" s="9">
+      <c r="D25" s="16">
+        <v>10</v>
+      </c>
+      <c r="E25" s="16"/>
+      <c r="F25" s="16"/>
+      <c r="G25" s="16">
+        <v>5</v>
+      </c>
+      <c r="H25" s="8"/>
+      <c r="I25" s="8"/>
+      <c r="J25" s="16"/>
+      <c r="K25" s="16"/>
+      <c r="L25" s="17"/>
+      <c r="O25" s="22">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A26" s="8">
         <v>24</v>
       </c>
-      <c r="B26" s="15" t="s">
+      <c r="B26" s="14" t="s">
         <v>155</v>
       </c>
-      <c r="C26" s="16">
+      <c r="C26" s="15">
         <v>220041700036</v>
       </c>
-      <c r="D26" s="17"/>
-      <c r="E26" s="17"/>
-      <c r="F26" s="17"/>
-      <c r="G26" s="17"/>
-      <c r="H26" s="9"/>
-      <c r="I26" s="9"/>
-      <c r="J26" s="17"/>
-      <c r="K26" s="17"/>
-      <c r="L26" s="18"/>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A27" s="9">
+      <c r="D26" s="16">
+        <v>23</v>
+      </c>
+      <c r="E26" s="16"/>
+      <c r="F26" s="16"/>
+      <c r="G26" s="16">
+        <v>0</v>
+      </c>
+      <c r="H26" s="8"/>
+      <c r="I26" s="8"/>
+      <c r="J26" s="16"/>
+      <c r="K26" s="16"/>
+      <c r="L26" s="17"/>
+      <c r="O26" s="22">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A27" s="8">
         <v>25</v>
       </c>
-      <c r="B27" s="15" t="s">
+      <c r="B27" s="14" t="s">
         <v>156</v>
       </c>
-      <c r="C27" s="16">
+      <c r="C27" s="15">
         <v>220041700039</v>
       </c>
-      <c r="D27" s="17"/>
-      <c r="E27" s="17"/>
-      <c r="F27" s="17"/>
-      <c r="G27" s="19"/>
-      <c r="H27" s="9"/>
-      <c r="I27" s="9"/>
-      <c r="J27" s="17"/>
-      <c r="K27" s="17"/>
-      <c r="L27" s="18"/>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A28" s="9">
+      <c r="D27" s="16">
+        <v>15</v>
+      </c>
+      <c r="E27" s="16"/>
+      <c r="F27" s="16"/>
+      <c r="G27" s="16">
+        <v>5</v>
+      </c>
+      <c r="H27" s="8"/>
+      <c r="I27" s="8"/>
+      <c r="J27" s="16"/>
+      <c r="K27" s="16"/>
+      <c r="L27" s="17"/>
+      <c r="O27" s="22">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A28" s="8">
         <v>26</v>
       </c>
-      <c r="B28" s="15" t="s">
+      <c r="B28" s="14" t="s">
         <v>157</v>
       </c>
-      <c r="C28" s="16">
+      <c r="C28" s="15">
         <v>220041700040</v>
       </c>
-      <c r="D28" s="17"/>
-      <c r="E28" s="17"/>
-      <c r="F28" s="17"/>
-      <c r="G28" s="19"/>
-      <c r="H28" s="9"/>
-      <c r="I28" s="9"/>
-      <c r="J28" s="17"/>
-      <c r="K28" s="17"/>
-      <c r="L28" s="18"/>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A29" s="9">
+      <c r="D28" s="16">
+        <v>12</v>
+      </c>
+      <c r="E28" s="16"/>
+      <c r="F28" s="16"/>
+      <c r="G28" s="16">
+        <v>5</v>
+      </c>
+      <c r="H28" s="8"/>
+      <c r="I28" s="8"/>
+      <c r="J28" s="16"/>
+      <c r="K28" s="16"/>
+      <c r="L28" s="17"/>
+      <c r="O28" s="22">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A29" s="8">
         <v>27</v>
       </c>
-      <c r="B29" s="15" t="s">
+      <c r="B29" s="14" t="s">
         <v>158</v>
       </c>
-      <c r="C29" s="16">
+      <c r="C29" s="15">
         <v>220041700042</v>
       </c>
-      <c r="D29" s="17"/>
-      <c r="E29" s="17"/>
-      <c r="F29" s="17"/>
-      <c r="G29" s="19"/>
-      <c r="H29" s="9"/>
-      <c r="I29" s="9"/>
-      <c r="J29" s="17"/>
-      <c r="K29" s="17"/>
-      <c r="L29" s="18"/>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A30" s="9">
+      <c r="D29" s="16">
+        <v>12</v>
+      </c>
+      <c r="E29" s="16"/>
+      <c r="F29" s="16"/>
+      <c r="G29" s="16">
+        <v>5</v>
+      </c>
+      <c r="H29" s="8"/>
+      <c r="I29" s="8"/>
+      <c r="J29" s="16"/>
+      <c r="K29" s="16"/>
+      <c r="L29" s="17"/>
+      <c r="O29" s="22">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A30" s="8">
         <v>28</v>
       </c>
-      <c r="B30" s="15" t="s">
+      <c r="B30" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="C30" s="16">
+      <c r="C30" s="15">
         <v>220041700043</v>
       </c>
-      <c r="D30" s="17"/>
-      <c r="E30" s="17"/>
-      <c r="F30" s="17"/>
-      <c r="G30" s="19"/>
-      <c r="H30" s="9"/>
-      <c r="I30" s="9"/>
-      <c r="J30" s="17"/>
-      <c r="K30" s="17"/>
-      <c r="L30" s="18"/>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A31" s="9">
+      <c r="D30" s="16">
+        <v>20</v>
+      </c>
+      <c r="E30" s="16"/>
+      <c r="F30" s="16"/>
+      <c r="G30" s="16">
+        <v>0</v>
+      </c>
+      <c r="H30" s="8"/>
+      <c r="I30" s="8"/>
+      <c r="J30" s="16"/>
+      <c r="K30" s="16"/>
+      <c r="L30" s="17"/>
+      <c r="O30" s="22">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A31" s="8">
         <v>29</v>
       </c>
-      <c r="B31" s="15" t="s">
+      <c r="B31" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="C31" s="16">
+      <c r="C31" s="15">
         <v>220041700044</v>
       </c>
-      <c r="D31" s="17"/>
-      <c r="E31" s="17"/>
-      <c r="F31" s="17"/>
-      <c r="G31" s="17"/>
-      <c r="H31" s="9"/>
-      <c r="I31" s="9"/>
-      <c r="J31" s="17"/>
-      <c r="K31" s="17"/>
-      <c r="L31" s="18"/>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A32" s="9">
+      <c r="D31" s="16">
+        <v>10</v>
+      </c>
+      <c r="E31" s="16"/>
+      <c r="F31" s="16"/>
+      <c r="G31" s="16">
+        <v>5</v>
+      </c>
+      <c r="H31" s="8"/>
+      <c r="I31" s="8"/>
+      <c r="J31" s="16"/>
+      <c r="K31" s="16"/>
+      <c r="L31" s="17"/>
+      <c r="O31" s="22">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A32" s="8">
         <v>30</v>
       </c>
-      <c r="B32" s="15" t="s">
+      <c r="B32" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="C32" s="16">
+      <c r="C32" s="15">
         <v>220041700045</v>
       </c>
-      <c r="D32" s="17"/>
-      <c r="E32" s="17"/>
-      <c r="F32" s="17"/>
-      <c r="G32" s="17"/>
-      <c r="H32" s="9"/>
-      <c r="I32" s="9"/>
-      <c r="J32" s="17"/>
-      <c r="K32" s="17"/>
-      <c r="L32" s="18"/>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A33" s="9">
+      <c r="D32" s="16">
+        <v>12</v>
+      </c>
+      <c r="E32" s="16"/>
+      <c r="F32" s="16"/>
+      <c r="G32" s="16">
+        <v>5</v>
+      </c>
+      <c r="H32" s="8"/>
+      <c r="I32" s="8"/>
+      <c r="J32" s="16"/>
+      <c r="K32" s="16"/>
+      <c r="L32" s="17"/>
+      <c r="O32" s="22">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A33" s="8">
         <v>31</v>
       </c>
-      <c r="B33" s="15" t="s">
+      <c r="B33" s="14" t="s">
         <v>159</v>
       </c>
-      <c r="C33" s="16">
+      <c r="C33" s="15">
         <v>220041700046</v>
       </c>
-      <c r="D33" s="17"/>
-      <c r="E33" s="17"/>
-      <c r="F33" s="17"/>
-      <c r="G33" s="17"/>
-      <c r="H33" s="9"/>
-      <c r="I33" s="9"/>
-      <c r="J33" s="17"/>
-      <c r="K33" s="17"/>
-      <c r="L33" s="18"/>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A34" s="9">
+      <c r="D33" s="16">
+        <v>18</v>
+      </c>
+      <c r="E33" s="16"/>
+      <c r="F33" s="16"/>
+      <c r="G33" s="16">
+        <v>5</v>
+      </c>
+      <c r="H33" s="8"/>
+      <c r="I33" s="8"/>
+      <c r="J33" s="16"/>
+      <c r="K33" s="16"/>
+      <c r="L33" s="17"/>
+      <c r="O33" s="22">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A34" s="8">
         <v>32</v>
       </c>
-      <c r="B34" s="15" t="s">
+      <c r="B34" s="14" t="s">
         <v>160</v>
       </c>
-      <c r="C34" s="16">
+      <c r="C34" s="15">
         <v>220041700049</v>
       </c>
-      <c r="D34" s="17"/>
-      <c r="E34" s="17"/>
-      <c r="F34" s="17"/>
-      <c r="G34" s="19"/>
-      <c r="H34" s="9"/>
-      <c r="I34" s="9"/>
-      <c r="J34" s="17"/>
-      <c r="K34" s="17"/>
-      <c r="L34" s="18"/>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A35" s="9">
+      <c r="D34" s="16">
+        <v>13</v>
+      </c>
+      <c r="E34" s="16"/>
+      <c r="F34" s="16"/>
+      <c r="G34" s="16">
+        <v>5</v>
+      </c>
+      <c r="H34" s="8"/>
+      <c r="I34" s="8"/>
+      <c r="J34" s="16"/>
+      <c r="K34" s="16"/>
+      <c r="L34" s="17"/>
+      <c r="O34" s="22">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A35" s="8">
         <v>33</v>
       </c>
-      <c r="B35" s="15" t="s">
+      <c r="B35" s="14" t="s">
         <v>161</v>
       </c>
-      <c r="C35" s="16">
+      <c r="C35" s="15">
         <v>220041700051</v>
       </c>
-      <c r="D35" s="17"/>
-      <c r="E35" s="17"/>
-      <c r="F35" s="17"/>
-      <c r="G35" s="17"/>
-      <c r="H35" s="9"/>
-      <c r="I35" s="9"/>
-      <c r="J35" s="17"/>
-      <c r="K35" s="17"/>
-      <c r="L35" s="18"/>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A36" s="9">
+      <c r="D35" s="16">
+        <v>12</v>
+      </c>
+      <c r="E35" s="16"/>
+      <c r="F35" s="16"/>
+      <c r="G35" s="16">
+        <v>5</v>
+      </c>
+      <c r="H35" s="8"/>
+      <c r="I35" s="8"/>
+      <c r="J35" s="16"/>
+      <c r="K35" s="16"/>
+      <c r="L35" s="17"/>
+      <c r="O35" s="22">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A36" s="8">
         <v>34</v>
       </c>
-      <c r="B36" s="15" t="s">
+      <c r="B36" s="14" t="s">
         <v>162</v>
       </c>
-      <c r="C36" s="16">
+      <c r="C36" s="15">
         <v>220041700052</v>
       </c>
-      <c r="D36" s="17"/>
-      <c r="E36" s="17"/>
-      <c r="F36" s="17"/>
-      <c r="G36" s="17"/>
-      <c r="H36" s="9"/>
-      <c r="I36" s="9"/>
-      <c r="J36" s="17"/>
-      <c r="K36" s="17"/>
-      <c r="L36" s="18"/>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A37" s="9">
+      <c r="D36" s="16">
+        <v>17</v>
+      </c>
+      <c r="E36" s="16"/>
+      <c r="F36" s="16"/>
+      <c r="G36" s="16">
+        <v>5</v>
+      </c>
+      <c r="H36" s="8"/>
+      <c r="I36" s="8"/>
+      <c r="J36" s="16"/>
+      <c r="K36" s="16"/>
+      <c r="L36" s="17"/>
+      <c r="O36" s="22">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A37" s="8">
         <v>35</v>
       </c>
-      <c r="B37" s="15" t="s">
+      <c r="B37" s="14" t="s">
         <v>163</v>
       </c>
-      <c r="C37" s="16">
+      <c r="C37" s="15">
         <v>220041700054</v>
       </c>
-      <c r="D37" s="17"/>
-      <c r="E37" s="17"/>
-      <c r="F37" s="17"/>
-      <c r="G37" s="17"/>
-      <c r="H37" s="9"/>
-      <c r="I37" s="9"/>
-      <c r="J37" s="17"/>
-      <c r="K37" s="17"/>
-      <c r="L37" s="18"/>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A38" s="9">
+      <c r="D37" s="16">
+        <v>15</v>
+      </c>
+      <c r="E37" s="16"/>
+      <c r="F37" s="16"/>
+      <c r="G37" s="16">
+        <v>5</v>
+      </c>
+      <c r="H37" s="8"/>
+      <c r="I37" s="8"/>
+      <c r="J37" s="16"/>
+      <c r="K37" s="16"/>
+      <c r="L37" s="17"/>
+      <c r="O37" s="22">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A38" s="8">
         <v>36</v>
       </c>
-      <c r="B38" s="15" t="s">
+      <c r="B38" s="14" t="s">
         <v>164</v>
       </c>
-      <c r="C38" s="16">
+      <c r="C38" s="15">
         <v>220041700056</v>
       </c>
-      <c r="D38" s="17"/>
-      <c r="E38" s="17"/>
-      <c r="F38" s="17"/>
-      <c r="G38" s="17"/>
-      <c r="H38" s="9"/>
-      <c r="I38" s="9"/>
-      <c r="J38" s="17"/>
-      <c r="K38" s="17"/>
-      <c r="L38" s="18"/>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A39" s="9">
+      <c r="D38" s="16">
+        <v>15</v>
+      </c>
+      <c r="E38" s="16"/>
+      <c r="F38" s="16"/>
+      <c r="G38" s="16">
+        <v>5</v>
+      </c>
+      <c r="H38" s="8"/>
+      <c r="I38" s="8"/>
+      <c r="J38" s="16"/>
+      <c r="K38" s="16"/>
+      <c r="L38" s="17"/>
+      <c r="O38" s="22">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A39" s="8">
         <v>37</v>
       </c>
-      <c r="B39" s="15" t="s">
+      <c r="B39" s="14" t="s">
         <v>165</v>
       </c>
-      <c r="C39" s="16">
+      <c r="C39" s="15">
         <v>220041700057</v>
       </c>
-      <c r="D39" s="17"/>
-      <c r="E39" s="17"/>
-      <c r="F39" s="17"/>
-      <c r="G39" s="17"/>
-      <c r="H39" s="9"/>
-      <c r="I39" s="9"/>
-      <c r="J39" s="17"/>
-      <c r="K39" s="17"/>
-      <c r="L39" s="18"/>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A40" s="9">
+      <c r="D39" s="16">
+        <v>17</v>
+      </c>
+      <c r="E39" s="16"/>
+      <c r="F39" s="16"/>
+      <c r="G39" s="16">
+        <v>5</v>
+      </c>
+      <c r="H39" s="8"/>
+      <c r="I39" s="8"/>
+      <c r="J39" s="16"/>
+      <c r="K39" s="16"/>
+      <c r="L39" s="17"/>
+      <c r="O39" s="22">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A40" s="8">
         <v>38</v>
       </c>
-      <c r="B40" s="15" t="s">
+      <c r="B40" s="14" t="s">
         <v>166</v>
       </c>
-      <c r="C40" s="16">
+      <c r="C40" s="15">
         <v>220041700060</v>
       </c>
-      <c r="D40" s="17"/>
-      <c r="E40" s="17"/>
-      <c r="F40" s="17"/>
-      <c r="G40" s="17"/>
-      <c r="H40" s="9"/>
-      <c r="I40" s="9"/>
-      <c r="J40" s="17"/>
-      <c r="K40" s="17"/>
-      <c r="L40" s="18"/>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A41" s="9">
+      <c r="D40" s="16">
+        <v>15</v>
+      </c>
+      <c r="E40" s="16"/>
+      <c r="F40" s="16"/>
+      <c r="G40" s="16">
+        <v>5</v>
+      </c>
+      <c r="H40" s="8"/>
+      <c r="I40" s="8"/>
+      <c r="J40" s="16"/>
+      <c r="K40" s="16"/>
+      <c r="L40" s="17"/>
+      <c r="O40" s="22">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A41" s="8">
         <v>39</v>
       </c>
-      <c r="B41" s="15" t="s">
+      <c r="B41" s="14" t="s">
         <v>167</v>
       </c>
-      <c r="C41" s="16">
+      <c r="C41" s="15">
         <v>220041700061</v>
       </c>
-      <c r="D41" s="17"/>
-      <c r="E41" s="17"/>
-      <c r="F41" s="17"/>
-      <c r="G41" s="19"/>
-      <c r="H41" s="9"/>
-      <c r="I41" s="9"/>
-      <c r="J41" s="17"/>
-      <c r="K41" s="17"/>
-      <c r="L41" s="18"/>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A42" s="9">
+      <c r="D41" s="16" t="s">
+        <v>232</v>
+      </c>
+      <c r="E41" s="16"/>
+      <c r="F41" s="16"/>
+      <c r="G41" s="16">
+        <v>0</v>
+      </c>
+      <c r="H41" s="8"/>
+      <c r="I41" s="8"/>
+      <c r="J41" s="16"/>
+      <c r="K41" s="16"/>
+      <c r="L41" s="17"/>
+      <c r="O41" s="22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A42" s="8">
         <v>40</v>
       </c>
-      <c r="B42" s="15" t="s">
+      <c r="B42" s="14" t="s">
         <v>168</v>
       </c>
-      <c r="C42" s="16">
+      <c r="C42" s="15">
         <v>220041700064</v>
       </c>
-      <c r="D42" s="17"/>
-      <c r="E42" s="17"/>
-      <c r="F42" s="17"/>
-      <c r="G42" s="19"/>
-      <c r="H42" s="9"/>
-      <c r="I42" s="9"/>
-      <c r="J42" s="17"/>
-      <c r="K42" s="17"/>
-      <c r="L42" s="18"/>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A43" s="9">
+      <c r="D42" s="16">
+        <v>13</v>
+      </c>
+      <c r="E42" s="16"/>
+      <c r="F42" s="16"/>
+      <c r="G42" s="16">
+        <v>5</v>
+      </c>
+      <c r="H42" s="8"/>
+      <c r="I42" s="8"/>
+      <c r="J42" s="16"/>
+      <c r="K42" s="16"/>
+      <c r="L42" s="17"/>
+      <c r="O42" s="22">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A43" s="8">
         <v>41</v>
       </c>
-      <c r="B43" s="15" t="s">
+      <c r="B43" s="14" t="s">
         <v>169</v>
       </c>
-      <c r="C43" s="16">
+      <c r="C43" s="15">
         <v>220041700065</v>
       </c>
-      <c r="D43" s="17"/>
-      <c r="E43" s="17"/>
-      <c r="F43" s="17"/>
-      <c r="G43" s="17"/>
-      <c r="H43" s="9"/>
-      <c r="I43" s="9"/>
-      <c r="J43" s="17"/>
-      <c r="K43" s="17"/>
-      <c r="L43" s="18"/>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A44" s="9">
+      <c r="D43" s="16">
+        <v>20</v>
+      </c>
+      <c r="E43" s="16"/>
+      <c r="F43" s="16"/>
+      <c r="G43" s="16">
+        <v>5</v>
+      </c>
+      <c r="H43" s="8"/>
+      <c r="I43" s="8"/>
+      <c r="J43" s="16"/>
+      <c r="K43" s="16"/>
+      <c r="L43" s="17"/>
+      <c r="O43" s="22">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A44" s="8">
         <v>42</v>
       </c>
-      <c r="B44" s="15" t="s">
+      <c r="B44" s="14" t="s">
         <v>170</v>
       </c>
-      <c r="C44" s="16">
+      <c r="C44" s="15">
         <v>220041700066</v>
       </c>
-      <c r="D44" s="17"/>
-      <c r="E44" s="17"/>
-      <c r="F44" s="17"/>
-      <c r="G44" s="17"/>
-      <c r="H44" s="9"/>
-      <c r="I44" s="9"/>
-      <c r="J44" s="17"/>
-      <c r="K44" s="17"/>
-      <c r="L44" s="18"/>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A45" s="9">
+      <c r="D44" s="16">
+        <v>17</v>
+      </c>
+      <c r="E44" s="16"/>
+      <c r="F44" s="16"/>
+      <c r="G44" s="16">
+        <v>0</v>
+      </c>
+      <c r="H44" s="8"/>
+      <c r="I44" s="8"/>
+      <c r="J44" s="16"/>
+      <c r="K44" s="16"/>
+      <c r="L44" s="17"/>
+      <c r="O44" s="22">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A45" s="8">
         <v>43</v>
       </c>
-      <c r="B45" s="15" t="s">
+      <c r="B45" s="14" t="s">
         <v>171</v>
       </c>
-      <c r="C45" s="16">
+      <c r="C45" s="15">
         <v>220041700067</v>
       </c>
-      <c r="D45" s="17"/>
-      <c r="E45" s="17"/>
-      <c r="F45" s="17"/>
-      <c r="G45" s="17"/>
-      <c r="H45" s="9"/>
-      <c r="I45" s="9"/>
-      <c r="J45" s="17"/>
-      <c r="K45" s="17"/>
-      <c r="L45" s="18"/>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A46" s="9">
+      <c r="D45" s="16">
+        <v>22</v>
+      </c>
+      <c r="E45" s="16"/>
+      <c r="F45" s="16"/>
+      <c r="G45" s="16">
+        <v>5</v>
+      </c>
+      <c r="H45" s="8"/>
+      <c r="I45" s="8"/>
+      <c r="J45" s="16"/>
+      <c r="K45" s="16"/>
+      <c r="L45" s="17"/>
+      <c r="O45" s="22">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A46" s="8">
         <v>44</v>
       </c>
-      <c r="B46" s="20" t="s">
+      <c r="B46" s="18" t="s">
         <v>172</v>
       </c>
-      <c r="C46" s="21">
+      <c r="C46" s="19">
         <v>220041723001</v>
       </c>
-      <c r="D46" s="17"/>
-      <c r="E46" s="17"/>
-      <c r="F46" s="17"/>
-      <c r="G46" s="17"/>
-      <c r="H46" s="9"/>
-      <c r="I46" s="9"/>
-      <c r="J46" s="17"/>
-      <c r="K46" s="17"/>
-      <c r="L46" s="18"/>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A47" s="9">
+      <c r="D46" s="16">
+        <v>21</v>
+      </c>
+      <c r="E46" s="16"/>
+      <c r="F46" s="16"/>
+      <c r="G46" s="16">
+        <v>5</v>
+      </c>
+      <c r="H46" s="8"/>
+      <c r="I46" s="8"/>
+      <c r="J46" s="16"/>
+      <c r="K46" s="16"/>
+      <c r="L46" s="17"/>
+      <c r="O46" s="22">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A47" s="8">
         <v>45</v>
       </c>
-      <c r="B47" s="20" t="s">
+      <c r="B47" s="18" t="s">
         <v>173</v>
       </c>
-      <c r="C47" s="21">
+      <c r="C47" s="19">
         <v>220041723002</v>
       </c>
-      <c r="D47" s="17"/>
-      <c r="E47" s="17"/>
-      <c r="F47" s="17"/>
-      <c r="G47" s="17"/>
-      <c r="H47" s="9"/>
-      <c r="I47" s="9"/>
-      <c r="J47" s="17"/>
-      <c r="K47" s="17"/>
-      <c r="L47" s="18"/>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A48" s="9">
+      <c r="D47" s="16">
+        <v>16</v>
+      </c>
+      <c r="E47" s="16"/>
+      <c r="F47" s="16"/>
+      <c r="G47" s="16">
+        <v>5</v>
+      </c>
+      <c r="H47" s="8"/>
+      <c r="I47" s="8"/>
+      <c r="J47" s="16"/>
+      <c r="K47" s="16"/>
+      <c r="L47" s="17"/>
+      <c r="O47" s="22">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A48" s="8">
         <v>46</v>
       </c>
-      <c r="B48" s="20" t="s">
+      <c r="B48" s="18" t="s">
         <v>174</v>
       </c>
-      <c r="C48" s="21">
+      <c r="C48" s="19">
         <v>220041723003</v>
       </c>
-      <c r="D48" s="17"/>
-      <c r="E48" s="17"/>
-      <c r="F48" s="17"/>
-      <c r="G48" s="17"/>
-      <c r="H48" s="9"/>
-      <c r="I48" s="9"/>
-      <c r="J48" s="17"/>
-      <c r="K48" s="17"/>
-      <c r="L48" s="18"/>
-    </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A49" s="9">
+      <c r="D48" s="16">
+        <v>16</v>
+      </c>
+      <c r="E48" s="16"/>
+      <c r="F48" s="16"/>
+      <c r="G48" s="16">
+        <v>5</v>
+      </c>
+      <c r="H48" s="8"/>
+      <c r="I48" s="8"/>
+      <c r="J48" s="16"/>
+      <c r="K48" s="16"/>
+      <c r="L48" s="17"/>
+      <c r="O48" s="22">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A49" s="8">
         <v>47</v>
       </c>
-      <c r="B49" s="20" t="s">
+      <c r="B49" s="18" t="s">
         <v>175</v>
       </c>
-      <c r="C49" s="21">
+      <c r="C49" s="19">
         <v>220041723004</v>
       </c>
-      <c r="D49" s="17"/>
-      <c r="E49" s="17"/>
-      <c r="F49" s="17"/>
-      <c r="G49" s="17"/>
-      <c r="H49" s="9"/>
-      <c r="I49" s="9"/>
-      <c r="J49" s="17"/>
-      <c r="K49" s="17"/>
-      <c r="L49" s="18"/>
-    </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A50" s="9">
+      <c r="D49" s="16">
+        <v>20</v>
+      </c>
+      <c r="E49" s="16"/>
+      <c r="F49" s="16"/>
+      <c r="G49" s="16">
+        <v>5</v>
+      </c>
+      <c r="H49" s="8"/>
+      <c r="I49" s="8"/>
+      <c r="J49" s="16"/>
+      <c r="K49" s="16"/>
+      <c r="L49" s="17"/>
+      <c r="O49" s="22">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A50" s="8">
         <v>48</v>
       </c>
-      <c r="B50" s="20" t="s">
+      <c r="B50" s="18" t="s">
         <v>176</v>
       </c>
-      <c r="C50" s="21">
+      <c r="C50" s="19">
         <v>220041723005</v>
       </c>
-      <c r="D50" s="17"/>
-      <c r="E50" s="17"/>
-      <c r="F50" s="17"/>
-      <c r="G50" s="17"/>
-      <c r="H50" s="9"/>
-      <c r="I50" s="9"/>
-      <c r="J50" s="17"/>
-      <c r="K50" s="17"/>
-      <c r="L50" s="18"/>
-    </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A51" s="9">
+      <c r="D50" s="16">
+        <v>26</v>
+      </c>
+      <c r="E50" s="16"/>
+      <c r="F50" s="16"/>
+      <c r="G50" s="16">
+        <v>5</v>
+      </c>
+      <c r="H50" s="8"/>
+      <c r="I50" s="8"/>
+      <c r="J50" s="16"/>
+      <c r="K50" s="16"/>
+      <c r="L50" s="17"/>
+      <c r="O50" s="22">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A51" s="8">
         <v>49</v>
       </c>
-      <c r="B51" s="20" t="s">
+      <c r="B51" s="18" t="s">
         <v>177</v>
       </c>
-      <c r="C51" s="21">
+      <c r="C51" s="19">
         <v>220041723007</v>
       </c>
-      <c r="D51" s="17"/>
-      <c r="E51" s="17"/>
-      <c r="F51" s="17"/>
-      <c r="G51" s="17"/>
-      <c r="H51" s="9"/>
-      <c r="I51" s="9"/>
-      <c r="J51" s="17"/>
-      <c r="K51" s="17"/>
-      <c r="L51" s="18"/>
-    </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A52" s="9">
+      <c r="D51" s="16">
+        <v>19</v>
+      </c>
+      <c r="E51" s="16"/>
+      <c r="F51" s="16"/>
+      <c r="G51" s="16">
+        <v>5</v>
+      </c>
+      <c r="H51" s="8"/>
+      <c r="I51" s="8"/>
+      <c r="J51" s="16"/>
+      <c r="K51" s="16"/>
+      <c r="L51" s="17"/>
+      <c r="O51" s="22">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A52" s="8">
         <v>50</v>
       </c>
-      <c r="B52" s="20" t="s">
+      <c r="B52" s="18" t="s">
         <v>178</v>
       </c>
-      <c r="C52" s="21">
+      <c r="C52" s="19">
         <v>220041723008</v>
       </c>
-      <c r="D52" s="17"/>
-      <c r="E52" s="17"/>
-      <c r="F52" s="17"/>
-      <c r="G52" s="17"/>
-      <c r="H52" s="9"/>
-      <c r="I52" s="9"/>
-      <c r="J52" s="17"/>
-      <c r="K52" s="17"/>
-      <c r="L52" s="18"/>
-    </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A53" s="9">
+      <c r="D52" s="16" t="s">
+        <v>232</v>
+      </c>
+      <c r="E52" s="16"/>
+      <c r="F52" s="16"/>
+      <c r="G52" s="16">
+        <v>5</v>
+      </c>
+      <c r="H52" s="8"/>
+      <c r="I52" s="8"/>
+      <c r="J52" s="16"/>
+      <c r="K52" s="16"/>
+      <c r="L52" s="17"/>
+      <c r="O52" s="22">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A53" s="8">
         <v>51</v>
       </c>
-      <c r="B53" s="20" t="s">
+      <c r="B53" s="18" t="s">
         <v>179</v>
       </c>
-      <c r="C53" s="21">
+      <c r="C53" s="19">
         <v>220041723009</v>
       </c>
-      <c r="D53" s="17"/>
-      <c r="E53" s="17"/>
-      <c r="F53" s="17"/>
-      <c r="G53" s="17"/>
-      <c r="H53" s="9"/>
-      <c r="I53" s="9"/>
-      <c r="J53" s="17"/>
-      <c r="K53" s="17"/>
-      <c r="L53" s="18"/>
-    </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A54" s="9">
+      <c r="D53" s="16">
+        <v>15</v>
+      </c>
+      <c r="E53" s="16"/>
+      <c r="F53" s="16"/>
+      <c r="G53" s="16">
+        <v>5</v>
+      </c>
+      <c r="H53" s="8"/>
+      <c r="I53" s="8"/>
+      <c r="J53" s="16"/>
+      <c r="K53" s="16"/>
+      <c r="L53" s="17"/>
+      <c r="O53" s="22">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A54" s="8">
         <v>52</v>
       </c>
-      <c r="B54" s="20" t="s">
+      <c r="B54" s="18" t="s">
         <v>180</v>
       </c>
-      <c r="C54" s="21">
+      <c r="C54" s="19">
         <v>220041723011</v>
       </c>
-      <c r="D54" s="17"/>
-      <c r="E54" s="17"/>
-      <c r="F54" s="17"/>
-      <c r="G54" s="17"/>
-      <c r="H54" s="9"/>
-      <c r="I54" s="9"/>
-      <c r="J54" s="17"/>
-      <c r="K54" s="17"/>
-      <c r="L54" s="18"/>
-    </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A55" s="9">
+      <c r="D54" s="16" t="s">
+        <v>232</v>
+      </c>
+      <c r="E54" s="16"/>
+      <c r="F54" s="16"/>
+      <c r="G54" s="16">
+        <v>0</v>
+      </c>
+      <c r="H54" s="8"/>
+      <c r="I54" s="8"/>
+      <c r="J54" s="16"/>
+      <c r="K54" s="16"/>
+      <c r="L54" s="17"/>
+      <c r="O54" s="22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A55" s="8">
         <v>53</v>
       </c>
-      <c r="B55" s="20" t="s">
+      <c r="B55" s="18" t="s">
         <v>181</v>
       </c>
-      <c r="C55" s="21">
+      <c r="C55" s="19">
         <v>220041723012</v>
       </c>
-      <c r="D55" s="17"/>
-      <c r="E55" s="17"/>
-      <c r="F55" s="17"/>
-      <c r="G55" s="19"/>
-      <c r="H55" s="9"/>
-      <c r="I55" s="9"/>
-      <c r="J55" s="17"/>
-      <c r="K55" s="17"/>
-      <c r="L55" s="18"/>
-    </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A56" s="9">
+      <c r="D55" s="16">
+        <v>15</v>
+      </c>
+      <c r="E55" s="16"/>
+      <c r="F55" s="16"/>
+      <c r="G55" s="16">
+        <v>0</v>
+      </c>
+      <c r="H55" s="8"/>
+      <c r="I55" s="8"/>
+      <c r="J55" s="16"/>
+      <c r="K55" s="16"/>
+      <c r="L55" s="17"/>
+      <c r="O55" s="22">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A56" s="8">
         <v>54</v>
       </c>
-      <c r="B56" s="20" t="s">
+      <c r="B56" s="18" t="s">
         <v>182</v>
       </c>
-      <c r="C56" s="21">
+      <c r="C56" s="19">
         <v>220041723013</v>
       </c>
-      <c r="D56" s="17"/>
-      <c r="E56" s="17"/>
-      <c r="F56" s="17"/>
-      <c r="G56" s="17"/>
-      <c r="H56" s="9"/>
-      <c r="I56" s="9"/>
-      <c r="J56" s="17"/>
-      <c r="K56" s="17"/>
-      <c r="L56" s="18"/>
-    </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A57" s="9">
+      <c r="D56" s="16">
+        <v>23</v>
+      </c>
+      <c r="E56" s="16"/>
+      <c r="F56" s="16"/>
+      <c r="G56" s="16">
+        <v>5</v>
+      </c>
+      <c r="H56" s="8"/>
+      <c r="I56" s="8"/>
+      <c r="J56" s="16"/>
+      <c r="K56" s="16"/>
+      <c r="L56" s="17"/>
+      <c r="O56" s="22">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A57" s="8">
         <v>55</v>
       </c>
-      <c r="B57" s="20" t="s">
+      <c r="B57" s="18" t="s">
         <v>183</v>
       </c>
-      <c r="C57" s="21">
+      <c r="C57" s="19">
         <v>220041723014</v>
       </c>
-      <c r="D57" s="17"/>
-      <c r="E57" s="17"/>
-      <c r="F57" s="17"/>
-      <c r="G57" s="17"/>
-      <c r="H57" s="9"/>
-      <c r="I57" s="9"/>
-      <c r="J57" s="17"/>
-      <c r="K57" s="17"/>
-      <c r="L57" s="18"/>
-    </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A58" s="9">
+      <c r="D57" s="16">
+        <v>19</v>
+      </c>
+      <c r="E57" s="16"/>
+      <c r="F57" s="16"/>
+      <c r="G57" s="16">
+        <v>5</v>
+      </c>
+      <c r="H57" s="8"/>
+      <c r="I57" s="8"/>
+      <c r="J57" s="16"/>
+      <c r="K57" s="16"/>
+      <c r="L57" s="17"/>
+      <c r="O57" s="22">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A58" s="8">
         <v>56</v>
       </c>
-      <c r="B58" s="20" t="s">
+      <c r="B58" s="18" t="s">
         <v>184</v>
       </c>
-      <c r="C58" s="21">
+      <c r="C58" s="19">
         <v>220041723015</v>
       </c>
-      <c r="D58" s="17"/>
-      <c r="E58" s="17"/>
-      <c r="F58" s="17"/>
-      <c r="G58" s="17"/>
-      <c r="H58" s="9"/>
-      <c r="I58" s="9"/>
-      <c r="J58" s="17"/>
-      <c r="K58" s="17"/>
-      <c r="L58" s="18"/>
-    </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A59" s="9">
+      <c r="D58" s="16">
+        <v>15</v>
+      </c>
+      <c r="E58" s="16"/>
+      <c r="F58" s="16"/>
+      <c r="G58" s="16">
+        <v>5</v>
+      </c>
+      <c r="H58" s="8"/>
+      <c r="I58" s="8"/>
+      <c r="J58" s="16"/>
+      <c r="K58" s="16"/>
+      <c r="L58" s="17"/>
+      <c r="O58" s="22">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A59" s="8">
         <v>57</v>
       </c>
-      <c r="B59" s="20" t="s">
+      <c r="B59" s="18" t="s">
         <v>185</v>
       </c>
-      <c r="C59" s="21">
+      <c r="C59" s="19">
         <v>220041723016</v>
       </c>
-      <c r="D59" s="17"/>
-      <c r="E59" s="17"/>
-      <c r="F59" s="17"/>
-      <c r="G59" s="17"/>
-      <c r="H59" s="9"/>
-      <c r="I59" s="9"/>
-      <c r="J59" s="17"/>
-      <c r="K59" s="17"/>
-      <c r="L59" s="18"/>
-    </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A60" s="9">
+      <c r="D59" s="16">
+        <v>27</v>
+      </c>
+      <c r="E59" s="16"/>
+      <c r="F59" s="16"/>
+      <c r="G59" s="16">
+        <v>5</v>
+      </c>
+      <c r="H59" s="8"/>
+      <c r="I59" s="8"/>
+      <c r="J59" s="16"/>
+      <c r="K59" s="16"/>
+      <c r="L59" s="17"/>
+      <c r="O59" s="22">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A60" s="8">
         <v>58</v>
       </c>
-      <c r="B60" s="20" t="s">
+      <c r="B60" s="18" t="s">
         <v>217</v>
       </c>
-      <c r="C60" s="21">
+      <c r="C60" s="19">
         <v>220041723018</v>
       </c>
-      <c r="D60" s="17"/>
-      <c r="E60" s="17"/>
-      <c r="F60" s="17"/>
-      <c r="G60" s="19"/>
-      <c r="H60" s="9"/>
-      <c r="I60" s="9"/>
-      <c r="J60" s="17"/>
-      <c r="K60" s="17"/>
-      <c r="L60" s="18"/>
-    </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A61" s="9">
+      <c r="D60" s="16">
+        <v>13</v>
+      </c>
+      <c r="E60" s="16"/>
+      <c r="F60" s="16"/>
+      <c r="G60" s="16">
+        <v>0</v>
+      </c>
+      <c r="H60" s="8"/>
+      <c r="I60" s="8"/>
+      <c r="J60" s="16"/>
+      <c r="K60" s="16"/>
+      <c r="L60" s="17"/>
+      <c r="O60" s="22">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A61" s="8">
         <v>59</v>
       </c>
-      <c r="B61" s="20" t="s">
+      <c r="B61" s="18" t="s">
+        <v>231</v>
+      </c>
+      <c r="C61" s="19">
+        <v>200041700092</v>
+      </c>
+      <c r="D61" s="16">
+        <v>7</v>
+      </c>
+      <c r="E61" s="16"/>
+      <c r="F61" s="16"/>
+      <c r="G61" s="16">
+        <v>5</v>
+      </c>
+      <c r="H61" s="8"/>
+      <c r="I61" s="8"/>
+      <c r="J61" s="16"/>
+      <c r="K61" s="16"/>
+      <c r="L61" s="17"/>
+      <c r="O61" s="22">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A62" s="8">
+        <v>59</v>
+      </c>
+      <c r="B62" s="18" t="s">
         <v>186</v>
       </c>
-      <c r="C61" s="21">
+      <c r="C62" s="19">
         <v>210041700070</v>
       </c>
-      <c r="D61" s="17"/>
-      <c r="E61" s="17"/>
-      <c r="F61" s="17"/>
-      <c r="G61" s="17"/>
-      <c r="H61" s="9"/>
-      <c r="I61" s="9"/>
-      <c r="J61" s="17"/>
-      <c r="K61" s="17"/>
-      <c r="L61" s="18"/>
-    </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A62" s="9">
+      <c r="D62" s="16">
+        <v>14</v>
+      </c>
+      <c r="E62" s="16"/>
+      <c r="F62" s="16"/>
+      <c r="G62" s="16">
+        <v>0</v>
+      </c>
+      <c r="H62" s="8"/>
+      <c r="I62" s="8"/>
+      <c r="J62" s="16"/>
+      <c r="K62" s="16"/>
+      <c r="L62" s="17"/>
+      <c r="O62" s="22">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A63" s="8">
         <v>60</v>
       </c>
-      <c r="B62" s="20" t="s">
+      <c r="B63" s="18" t="s">
         <v>187</v>
       </c>
-      <c r="C62" s="21">
+      <c r="C63" s="19">
         <v>210041700089</v>
       </c>
-      <c r="D62" s="17"/>
-      <c r="E62" s="17"/>
-      <c r="F62" s="17"/>
-      <c r="G62" s="17"/>
-      <c r="H62" s="9"/>
-      <c r="I62" s="9"/>
-      <c r="J62" s="17"/>
-      <c r="K62" s="17"/>
-      <c r="L62" s="18"/>
-    </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A63" s="9">
+      <c r="D63" s="16">
+        <v>12</v>
+      </c>
+      <c r="E63" s="16"/>
+      <c r="F63" s="16"/>
+      <c r="G63" s="16">
+        <v>5</v>
+      </c>
+      <c r="H63" s="8"/>
+      <c r="I63" s="8"/>
+      <c r="J63" s="16"/>
+      <c r="K63" s="16"/>
+      <c r="L63" s="17"/>
+      <c r="O63" s="22">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A64" s="8">
         <v>61</v>
       </c>
-      <c r="B63" s="15" t="s">
+      <c r="B64" s="14" t="s">
         <v>188</v>
       </c>
-      <c r="C63" s="16">
+      <c r="C64" s="15">
         <v>220041700070</v>
       </c>
-      <c r="D63" s="17"/>
-      <c r="E63" s="17"/>
-      <c r="F63" s="17"/>
-      <c r="G63" s="17"/>
-      <c r="H63" s="9"/>
-      <c r="I63" s="9"/>
-      <c r="J63" s="17"/>
-      <c r="K63" s="17"/>
-      <c r="L63" s="18"/>
-    </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A64" s="9">
+      <c r="D64" s="16">
+        <v>13</v>
+      </c>
+      <c r="E64" s="16"/>
+      <c r="F64" s="16"/>
+      <c r="G64" s="16">
+        <v>1</v>
+      </c>
+      <c r="H64" s="8"/>
+      <c r="I64" s="8"/>
+      <c r="J64" s="16"/>
+      <c r="K64" s="16"/>
+      <c r="L64" s="17"/>
+      <c r="O64" s="22">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A65" s="8">
         <v>62</v>
       </c>
-      <c r="B64" s="15" t="s">
+      <c r="B65" s="14" t="s">
         <v>189</v>
       </c>
-      <c r="C64" s="16">
+      <c r="C65" s="15">
         <v>220041700071</v>
       </c>
-      <c r="D64" s="17"/>
-      <c r="E64" s="17"/>
-      <c r="F64" s="17"/>
-      <c r="G64" s="17"/>
-      <c r="H64" s="9"/>
-      <c r="I64" s="9"/>
-      <c r="J64" s="17"/>
-      <c r="K64" s="17"/>
-      <c r="L64" s="18"/>
-    </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A65" s="9">
+      <c r="D65" s="16">
+        <v>18</v>
+      </c>
+      <c r="E65" s="16"/>
+      <c r="F65" s="16"/>
+      <c r="G65" s="16">
+        <v>5</v>
+      </c>
+      <c r="H65" s="8"/>
+      <c r="I65" s="8"/>
+      <c r="J65" s="16"/>
+      <c r="K65" s="16"/>
+      <c r="L65" s="17"/>
+      <c r="O65" s="22">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A66" s="8">
         <v>63</v>
       </c>
-      <c r="B65" s="15" t="s">
+      <c r="B66" s="14" t="s">
         <v>190</v>
       </c>
-      <c r="C65" s="16">
+      <c r="C66" s="15">
         <v>220041700072</v>
       </c>
-      <c r="D65" s="17"/>
-      <c r="E65" s="17"/>
-      <c r="F65" s="17"/>
-      <c r="G65" s="17"/>
-      <c r="H65" s="9"/>
-      <c r="I65" s="9"/>
-      <c r="J65" s="17"/>
-      <c r="K65" s="17"/>
-      <c r="L65" s="18"/>
-    </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A66" s="9">
+      <c r="D66" s="16">
+        <v>9</v>
+      </c>
+      <c r="E66" s="16"/>
+      <c r="F66" s="16"/>
+      <c r="G66" s="16">
+        <v>0</v>
+      </c>
+      <c r="H66" s="8"/>
+      <c r="I66" s="8"/>
+      <c r="J66" s="16"/>
+      <c r="K66" s="16"/>
+      <c r="L66" s="17"/>
+      <c r="O66" s="22">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A67" s="8">
         <v>64</v>
       </c>
-      <c r="B66" s="15" t="s">
+      <c r="B67" s="14" t="s">
         <v>191</v>
       </c>
-      <c r="C66" s="16">
+      <c r="C67" s="15">
         <v>220041700077</v>
       </c>
-      <c r="D66" s="17"/>
-      <c r="E66" s="17"/>
-      <c r="F66" s="17"/>
-      <c r="G66" s="17"/>
-      <c r="H66" s="9"/>
-      <c r="I66" s="9"/>
-      <c r="J66" s="17"/>
-      <c r="K66" s="17"/>
-      <c r="L66" s="18"/>
-    </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A67" s="9">
+      <c r="D67" s="16">
+        <v>13</v>
+      </c>
+      <c r="E67" s="16"/>
+      <c r="F67" s="16"/>
+      <c r="G67" s="16">
+        <v>5</v>
+      </c>
+      <c r="H67" s="8"/>
+      <c r="I67" s="8"/>
+      <c r="J67" s="16"/>
+      <c r="K67" s="16"/>
+      <c r="L67" s="17"/>
+      <c r="O67" s="22">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A68" s="8">
         <v>65</v>
       </c>
-      <c r="B67" s="15" t="s">
+      <c r="B68" s="14" t="s">
         <v>192</v>
       </c>
-      <c r="C67" s="16">
+      <c r="C68" s="15">
         <v>220041700078</v>
       </c>
-      <c r="D67" s="17"/>
-      <c r="E67" s="17"/>
-      <c r="F67" s="17"/>
-      <c r="G67" s="17"/>
-      <c r="H67" s="9"/>
-      <c r="I67" s="9"/>
-      <c r="J67" s="17"/>
-      <c r="K67" s="17"/>
-      <c r="L67" s="18"/>
-    </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A68" s="9">
+      <c r="D68" s="16">
+        <v>15</v>
+      </c>
+      <c r="E68" s="16"/>
+      <c r="F68" s="16"/>
+      <c r="G68" s="16">
+        <v>5</v>
+      </c>
+      <c r="H68" s="8"/>
+      <c r="I68" s="8"/>
+      <c r="J68" s="16"/>
+      <c r="K68" s="16"/>
+      <c r="L68" s="17"/>
+      <c r="O68" s="22">
+        <f t="shared" ref="O68:O111" si="1">SUM(D68)+G68+J68</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A69" s="8">
         <v>66</v>
       </c>
-      <c r="B68" s="15" t="s">
+      <c r="B69" s="14" t="s">
         <v>193</v>
       </c>
-      <c r="C68" s="16">
+      <c r="C69" s="15">
         <v>220041700080</v>
       </c>
-      <c r="D68" s="17"/>
-      <c r="E68" s="17"/>
-      <c r="F68" s="17"/>
-      <c r="G68" s="17"/>
-      <c r="H68" s="9"/>
-      <c r="I68" s="9"/>
-      <c r="J68" s="17"/>
-      <c r="K68" s="17"/>
-      <c r="L68" s="18"/>
-    </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A69" s="9">
+      <c r="D69" s="16">
+        <v>9</v>
+      </c>
+      <c r="E69" s="16"/>
+      <c r="F69" s="16"/>
+      <c r="G69" s="16">
+        <v>5</v>
+      </c>
+      <c r="H69" s="8"/>
+      <c r="I69" s="8"/>
+      <c r="J69" s="16"/>
+      <c r="K69" s="16"/>
+      <c r="L69" s="17"/>
+      <c r="O69" s="22">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A70" s="8">
         <v>67</v>
       </c>
-      <c r="B69" s="15" t="s">
+      <c r="B70" s="14" t="s">
         <v>194</v>
       </c>
-      <c r="C69" s="16">
+      <c r="C70" s="15">
         <v>220041700081</v>
       </c>
-      <c r="D69" s="17"/>
-      <c r="E69" s="17"/>
-      <c r="F69" s="17"/>
-      <c r="G69" s="17"/>
-      <c r="H69" s="9"/>
-      <c r="I69" s="9"/>
-      <c r="J69" s="17"/>
-      <c r="K69" s="17"/>
-      <c r="L69" s="18"/>
-    </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A70" s="9">
+      <c r="D70" s="16">
+        <v>13</v>
+      </c>
+      <c r="E70" s="16"/>
+      <c r="F70" s="16"/>
+      <c r="G70" s="16">
+        <v>5</v>
+      </c>
+      <c r="H70" s="8"/>
+      <c r="I70" s="8"/>
+      <c r="J70" s="16"/>
+      <c r="K70" s="16"/>
+      <c r="L70" s="17"/>
+      <c r="O70" s="22">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A71" s="8">
         <v>68</v>
       </c>
-      <c r="B70" s="15" t="s">
+      <c r="B71" s="14" t="s">
         <v>195</v>
       </c>
-      <c r="C70" s="16">
+      <c r="C71" s="15">
         <v>220041700084</v>
       </c>
-      <c r="D70" s="17"/>
-      <c r="E70" s="17"/>
-      <c r="F70" s="17"/>
-      <c r="G70" s="17"/>
-      <c r="H70" s="9"/>
-      <c r="I70" s="9"/>
-      <c r="J70" s="17"/>
-      <c r="K70" s="17"/>
-      <c r="L70" s="18"/>
-    </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A71" s="9">
+      <c r="D71" s="16">
+        <v>10</v>
+      </c>
+      <c r="E71" s="16"/>
+      <c r="F71" s="16"/>
+      <c r="G71" s="16">
+        <v>5</v>
+      </c>
+      <c r="H71" s="8"/>
+      <c r="I71" s="8"/>
+      <c r="J71" s="16"/>
+      <c r="K71" s="16"/>
+      <c r="L71" s="17"/>
+      <c r="O71" s="22">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A72" s="8">
         <v>69</v>
       </c>
-      <c r="B71" s="15" t="s">
+      <c r="B72" s="14" t="s">
         <v>196</v>
       </c>
-      <c r="C71" s="16">
+      <c r="C72" s="15">
         <v>220041700085</v>
       </c>
-      <c r="D71" s="17"/>
-      <c r="E71" s="17"/>
-      <c r="F71" s="17"/>
-      <c r="G71" s="17"/>
-      <c r="H71" s="9"/>
-      <c r="I71" s="9"/>
-      <c r="J71" s="17"/>
-      <c r="K71" s="17"/>
-      <c r="L71" s="18"/>
-    </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A72" s="9">
+      <c r="D72" s="16">
+        <v>9</v>
+      </c>
+      <c r="E72" s="16"/>
+      <c r="F72" s="16"/>
+      <c r="G72" s="16">
+        <v>5</v>
+      </c>
+      <c r="H72" s="8"/>
+      <c r="I72" s="8"/>
+      <c r="J72" s="16"/>
+      <c r="K72" s="16"/>
+      <c r="L72" s="17"/>
+      <c r="O72" s="22">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A73" s="8">
         <v>70</v>
       </c>
-      <c r="B72" s="15" t="s">
+      <c r="B73" s="14" t="s">
         <v>197</v>
       </c>
-      <c r="C72" s="16">
+      <c r="C73" s="15">
         <v>220041700086</v>
       </c>
-      <c r="D72" s="17"/>
-      <c r="E72" s="17"/>
-      <c r="F72" s="17"/>
-      <c r="G72" s="17"/>
-      <c r="H72" s="9"/>
-      <c r="I72" s="9"/>
-      <c r="J72" s="17"/>
-      <c r="K72" s="17"/>
-      <c r="L72" s="18"/>
-    </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A73" s="9">
+      <c r="D73" s="16">
+        <v>15</v>
+      </c>
+      <c r="E73" s="16"/>
+      <c r="F73" s="16"/>
+      <c r="G73" s="16">
+        <v>5</v>
+      </c>
+      <c r="H73" s="8"/>
+      <c r="I73" s="8"/>
+      <c r="J73" s="16"/>
+      <c r="K73" s="16"/>
+      <c r="L73" s="17"/>
+      <c r="O73" s="22">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A74" s="8">
         <v>71</v>
       </c>
-      <c r="B73" s="15" t="s">
+      <c r="B74" s="14" t="s">
         <v>198</v>
       </c>
-      <c r="C73" s="16">
+      <c r="C74" s="15">
         <v>220041700087</v>
       </c>
-      <c r="D73" s="17"/>
-      <c r="E73" s="17"/>
-      <c r="F73" s="17"/>
-      <c r="G73" s="17"/>
-      <c r="H73" s="9"/>
-      <c r="I73" s="9"/>
-      <c r="J73" s="17"/>
-      <c r="K73" s="17"/>
-      <c r="L73" s="18"/>
-    </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A74" s="9">
+      <c r="D74" s="16">
+        <v>12</v>
+      </c>
+      <c r="E74" s="16"/>
+      <c r="F74" s="16"/>
+      <c r="G74" s="16">
+        <v>5</v>
+      </c>
+      <c r="H74" s="8"/>
+      <c r="I74" s="8"/>
+      <c r="J74" s="16"/>
+      <c r="K74" s="16"/>
+      <c r="L74" s="17"/>
+      <c r="O74" s="22">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A75" s="8">
         <v>72</v>
       </c>
-      <c r="B74" s="15" t="s">
+      <c r="B75" s="14" t="s">
         <v>199</v>
       </c>
-      <c r="C74" s="16">
+      <c r="C75" s="15">
         <v>220041700092</v>
       </c>
-      <c r="D74" s="17"/>
-      <c r="E74" s="17"/>
-      <c r="F74" s="17"/>
-      <c r="G74" s="17"/>
-      <c r="H74" s="9"/>
-      <c r="I74" s="9"/>
-      <c r="J74" s="17"/>
-      <c r="K74" s="17"/>
-      <c r="L74" s="18"/>
-    </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A75" s="9">
+      <c r="D75" s="16">
+        <v>8</v>
+      </c>
+      <c r="E75" s="16"/>
+      <c r="F75" s="16"/>
+      <c r="G75" s="16">
+        <v>5</v>
+      </c>
+      <c r="H75" s="8"/>
+      <c r="I75" s="8"/>
+      <c r="J75" s="16"/>
+      <c r="K75" s="16"/>
+      <c r="L75" s="17"/>
+      <c r="O75" s="22">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A76" s="8">
         <v>73</v>
       </c>
-      <c r="B75" s="15" t="s">
+      <c r="B76" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="C75" s="16">
+      <c r="C76" s="15">
         <v>220041700096</v>
       </c>
-      <c r="D75" s="17"/>
-      <c r="E75" s="17"/>
-      <c r="F75" s="17"/>
-      <c r="G75" s="17"/>
-      <c r="H75" s="9"/>
-      <c r="I75" s="9"/>
-      <c r="J75" s="17"/>
-      <c r="K75" s="17"/>
-      <c r="L75" s="18"/>
-    </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A76" s="9">
+      <c r="D76" s="16">
+        <v>12</v>
+      </c>
+      <c r="E76" s="16"/>
+      <c r="F76" s="16"/>
+      <c r="G76" s="16">
+        <v>5</v>
+      </c>
+      <c r="H76" s="8"/>
+      <c r="I76" s="8"/>
+      <c r="J76" s="16"/>
+      <c r="K76" s="16"/>
+      <c r="L76" s="17"/>
+      <c r="O76" s="22">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="77" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A77" s="8">
         <v>74</v>
       </c>
-      <c r="B76" s="15" t="s">
+      <c r="B77" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="C76" s="16">
+      <c r="C77" s="15">
         <v>220041700097</v>
       </c>
-      <c r="D76" s="17"/>
-      <c r="E76" s="17"/>
-      <c r="F76" s="17"/>
-      <c r="G76" s="19"/>
-      <c r="H76" s="9"/>
-      <c r="I76" s="9"/>
-      <c r="J76" s="17"/>
-      <c r="K76" s="17"/>
-      <c r="L76" s="18"/>
-    </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A77" s="9">
+      <c r="D77" s="16">
+        <v>10</v>
+      </c>
+      <c r="E77" s="16"/>
+      <c r="F77" s="16"/>
+      <c r="G77" s="16">
+        <v>0</v>
+      </c>
+      <c r="H77" s="8"/>
+      <c r="I77" s="8"/>
+      <c r="J77" s="16"/>
+      <c r="K77" s="16"/>
+      <c r="L77" s="17"/>
+      <c r="O77" s="22">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="78" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A78" s="8">
         <v>75</v>
       </c>
-      <c r="B77" s="15" t="s">
+      <c r="B78" s="14" t="s">
         <v>200</v>
       </c>
-      <c r="C77" s="16">
+      <c r="C78" s="15">
         <v>220041700098</v>
       </c>
-      <c r="D77" s="17"/>
-      <c r="E77" s="17"/>
-      <c r="F77" s="17"/>
-      <c r="G77" s="17"/>
-      <c r="H77" s="9"/>
-      <c r="I77" s="9"/>
-      <c r="J77" s="17"/>
-      <c r="K77" s="17"/>
-      <c r="L77" s="18"/>
-    </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A78" s="9">
+      <c r="D78" s="16">
+        <v>15</v>
+      </c>
+      <c r="E78" s="16"/>
+      <c r="F78" s="16"/>
+      <c r="G78" s="16">
+        <v>5</v>
+      </c>
+      <c r="H78" s="8"/>
+      <c r="I78" s="8"/>
+      <c r="J78" s="16"/>
+      <c r="K78" s="16"/>
+      <c r="L78" s="17"/>
+      <c r="O78" s="22">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="79" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A79" s="8">
         <v>76</v>
       </c>
-      <c r="B78" s="15" t="s">
+      <c r="B79" s="14" t="s">
         <v>201</v>
       </c>
-      <c r="C78" s="16">
+      <c r="C79" s="15">
         <v>220041700099</v>
       </c>
-      <c r="D78" s="17"/>
-      <c r="E78" s="17"/>
-      <c r="F78" s="17"/>
-      <c r="G78" s="17"/>
-      <c r="H78" s="9"/>
-      <c r="I78" s="9"/>
-      <c r="J78" s="17"/>
-      <c r="K78" s="17"/>
-      <c r="L78" s="18"/>
-    </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A79" s="9">
+      <c r="D79" s="16">
+        <v>17</v>
+      </c>
+      <c r="E79" s="16"/>
+      <c r="F79" s="16"/>
+      <c r="G79" s="16">
+        <v>5</v>
+      </c>
+      <c r="H79" s="8"/>
+      <c r="I79" s="8"/>
+      <c r="J79" s="16"/>
+      <c r="K79" s="16"/>
+      <c r="L79" s="17"/>
+      <c r="O79" s="22">
+        <f t="shared" si="1"/>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="80" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A80" s="8">
         <v>77</v>
       </c>
-      <c r="B79" s="15" t="s">
+      <c r="B80" s="14" t="s">
         <v>202</v>
       </c>
-      <c r="C79" s="16">
+      <c r="C80" s="15">
         <v>220041700100</v>
       </c>
-      <c r="D79" s="17"/>
-      <c r="E79" s="17"/>
-      <c r="F79" s="17"/>
-      <c r="G79" s="17"/>
-      <c r="H79" s="9"/>
-      <c r="I79" s="9"/>
-      <c r="J79" s="17"/>
-      <c r="K79" s="17"/>
-      <c r="L79" s="18"/>
-    </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A80" s="9">
+      <c r="D80" s="16">
+        <v>17</v>
+      </c>
+      <c r="E80" s="16"/>
+      <c r="F80" s="16"/>
+      <c r="G80" s="16">
+        <v>5</v>
+      </c>
+      <c r="H80" s="8"/>
+      <c r="I80" s="8"/>
+      <c r="J80" s="16"/>
+      <c r="K80" s="16"/>
+      <c r="L80" s="17"/>
+      <c r="O80" s="22">
+        <f t="shared" si="1"/>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="81" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A81" s="8">
         <v>78</v>
       </c>
-      <c r="B80" s="15" t="s">
+      <c r="B81" s="14" t="s">
         <v>203</v>
       </c>
-      <c r="C80" s="16">
+      <c r="C81" s="15">
         <v>220041700102</v>
       </c>
-      <c r="D80" s="17"/>
-      <c r="E80" s="17"/>
-      <c r="F80" s="17"/>
-      <c r="G80" s="17"/>
-      <c r="H80" s="9"/>
-      <c r="I80" s="9"/>
-      <c r="J80" s="17"/>
-      <c r="K80" s="17"/>
-      <c r="L80" s="18"/>
-    </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A81" s="9">
+      <c r="D81" s="16">
+        <v>8</v>
+      </c>
+      <c r="E81" s="16"/>
+      <c r="F81" s="16"/>
+      <c r="G81" s="16">
+        <v>5</v>
+      </c>
+      <c r="H81" s="8"/>
+      <c r="I81" s="8"/>
+      <c r="J81" s="16"/>
+      <c r="K81" s="16"/>
+      <c r="L81" s="17"/>
+      <c r="O81" s="22">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="82" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A82" s="8">
         <v>79</v>
       </c>
-      <c r="B81" s="15" t="s">
+      <c r="B82" s="14" t="s">
         <v>204</v>
       </c>
-      <c r="C81" s="16">
+      <c r="C82" s="15">
         <v>220041700103</v>
       </c>
-      <c r="D81" s="17"/>
-      <c r="E81" s="17"/>
-      <c r="F81" s="17"/>
-      <c r="G81" s="17"/>
-      <c r="H81" s="9"/>
-      <c r="I81" s="9"/>
-      <c r="J81" s="17"/>
-      <c r="K81" s="17"/>
-      <c r="L81" s="18"/>
-    </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A82" s="9">
+      <c r="D82" s="16">
+        <v>20</v>
+      </c>
+      <c r="E82" s="16"/>
+      <c r="F82" s="16"/>
+      <c r="G82" s="16">
+        <v>5</v>
+      </c>
+      <c r="H82" s="8"/>
+      <c r="I82" s="8"/>
+      <c r="J82" s="16"/>
+      <c r="K82" s="16"/>
+      <c r="L82" s="17"/>
+      <c r="O82" s="22">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="83" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A83" s="8">
         <v>80</v>
       </c>
-      <c r="B82" s="15" t="s">
+      <c r="B83" s="14" t="s">
         <v>205</v>
       </c>
-      <c r="C82" s="16">
+      <c r="C83" s="15">
         <v>220041700104</v>
       </c>
-      <c r="D82" s="17"/>
-      <c r="E82" s="17"/>
-      <c r="F82" s="17"/>
-      <c r="G82" s="19"/>
-      <c r="H82" s="9"/>
-      <c r="I82" s="9"/>
-      <c r="J82" s="17"/>
-      <c r="K82" s="17"/>
-      <c r="L82" s="18"/>
-    </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A83" s="9">
+      <c r="D83" s="16">
+        <v>13</v>
+      </c>
+      <c r="E83" s="16"/>
+      <c r="F83" s="16"/>
+      <c r="G83" s="16">
+        <v>0</v>
+      </c>
+      <c r="H83" s="8"/>
+      <c r="I83" s="8"/>
+      <c r="J83" s="16"/>
+      <c r="K83" s="16"/>
+      <c r="L83" s="17"/>
+      <c r="O83" s="22">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="84" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A84" s="8">
         <v>81</v>
       </c>
-      <c r="B83" s="15" t="s">
+      <c r="B84" s="14" t="s">
         <v>206</v>
       </c>
-      <c r="C83" s="16">
+      <c r="C84" s="15">
         <v>220041700105</v>
       </c>
-      <c r="D83" s="17"/>
-      <c r="E83" s="17"/>
-      <c r="F83" s="17"/>
-      <c r="G83" s="17"/>
-      <c r="H83" s="9"/>
-      <c r="I83" s="9"/>
-      <c r="J83" s="17"/>
-      <c r="K83" s="17"/>
-      <c r="L83" s="18"/>
-    </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A84" s="9">
+      <c r="D84" s="16">
+        <v>12</v>
+      </c>
+      <c r="E84" s="16"/>
+      <c r="F84" s="16"/>
+      <c r="G84" s="16">
+        <v>1</v>
+      </c>
+      <c r="H84" s="8"/>
+      <c r="I84" s="8"/>
+      <c r="J84" s="16"/>
+      <c r="K84" s="16"/>
+      <c r="L84" s="17"/>
+      <c r="O84" s="22">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="85" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A85" s="8">
         <v>82</v>
       </c>
-      <c r="B84" s="15" t="s">
+      <c r="B85" s="14" t="s">
         <v>207</v>
       </c>
-      <c r="C84" s="16">
+      <c r="C85" s="15">
         <v>220041700106</v>
       </c>
-      <c r="D84" s="17"/>
-      <c r="E84" s="17"/>
-      <c r="F84" s="17"/>
-      <c r="G84" s="17"/>
-      <c r="H84" s="9"/>
-      <c r="I84" s="9"/>
-      <c r="J84" s="17"/>
-      <c r="K84" s="17"/>
-      <c r="L84" s="18"/>
-    </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A85" s="9">
+      <c r="D85" s="16">
+        <v>12</v>
+      </c>
+      <c r="E85" s="16"/>
+      <c r="F85" s="16"/>
+      <c r="G85" s="16">
+        <v>5</v>
+      </c>
+      <c r="H85" s="8"/>
+      <c r="I85" s="8"/>
+      <c r="J85" s="16"/>
+      <c r="K85" s="16"/>
+      <c r="L85" s="17"/>
+      <c r="O85" s="22">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="86" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A86" s="8">
         <v>83</v>
       </c>
-      <c r="B85" s="15" t="s">
+      <c r="B86" s="14" t="s">
         <v>208</v>
       </c>
-      <c r="C85" s="16">
+      <c r="C86" s="15">
         <v>220041700107</v>
       </c>
-      <c r="D85" s="17"/>
-      <c r="E85" s="17"/>
-      <c r="F85" s="17"/>
-      <c r="G85" s="17"/>
-      <c r="H85" s="9"/>
-      <c r="I85" s="9"/>
-      <c r="J85" s="17"/>
-      <c r="K85" s="17"/>
-      <c r="L85" s="18"/>
-    </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A86" s="9">
+      <c r="D86" s="16">
+        <v>15</v>
+      </c>
+      <c r="E86" s="16"/>
+      <c r="F86" s="16"/>
+      <c r="G86" s="16">
+        <v>5</v>
+      </c>
+      <c r="H86" s="8"/>
+      <c r="I86" s="8"/>
+      <c r="J86" s="16"/>
+      <c r="K86" s="16"/>
+      <c r="L86" s="17"/>
+      <c r="O86" s="22">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="87" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A87" s="8">
         <v>84</v>
       </c>
-      <c r="B86" s="15" t="s">
+      <c r="B87" s="14" t="s">
         <v>209</v>
       </c>
-      <c r="C86" s="16">
+      <c r="C87" s="15">
         <v>220041700109</v>
       </c>
-      <c r="D86" s="17"/>
-      <c r="E86" s="17"/>
-      <c r="F86" s="17"/>
-      <c r="G86" s="17"/>
-      <c r="H86" s="9"/>
-      <c r="I86" s="9"/>
-      <c r="J86" s="17"/>
-      <c r="K86" s="17"/>
-      <c r="L86" s="18"/>
-    </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A87" s="9">
+      <c r="D87" s="16">
+        <v>20</v>
+      </c>
+      <c r="E87" s="16"/>
+      <c r="F87" s="16"/>
+      <c r="G87" s="16">
+        <v>5</v>
+      </c>
+      <c r="H87" s="8"/>
+      <c r="I87" s="8"/>
+      <c r="J87" s="16"/>
+      <c r="K87" s="16"/>
+      <c r="L87" s="17"/>
+      <c r="O87" s="22">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="88" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A88" s="8">
         <v>85</v>
       </c>
-      <c r="B87" s="15" t="s">
+      <c r="B88" s="14" t="s">
         <v>210</v>
       </c>
-      <c r="C87" s="16">
+      <c r="C88" s="15">
         <v>220041700112</v>
       </c>
-      <c r="D87" s="17"/>
-      <c r="E87" s="17"/>
-      <c r="F87" s="17"/>
-      <c r="G87" s="17"/>
-      <c r="H87" s="9"/>
-      <c r="I87" s="9"/>
-      <c r="J87" s="17"/>
-      <c r="K87" s="17"/>
-      <c r="L87" s="18"/>
-    </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A88" s="9">
+      <c r="D88" s="16">
+        <v>14</v>
+      </c>
+      <c r="E88" s="16"/>
+      <c r="F88" s="16"/>
+      <c r="G88" s="16">
+        <v>5</v>
+      </c>
+      <c r="H88" s="8"/>
+      <c r="I88" s="8"/>
+      <c r="J88" s="16"/>
+      <c r="K88" s="16"/>
+      <c r="L88" s="17"/>
+      <c r="O88" s="22">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="89" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A89" s="8">
         <v>86</v>
       </c>
-      <c r="B88" s="15" t="s">
+      <c r="B89" s="14" t="s">
         <v>211</v>
       </c>
-      <c r="C88" s="16">
+      <c r="C89" s="15">
         <v>220041700115</v>
       </c>
-      <c r="D88" s="17"/>
-      <c r="E88" s="17"/>
-      <c r="F88" s="17"/>
-      <c r="G88" s="19"/>
-      <c r="H88" s="9"/>
-      <c r="I88" s="9"/>
-      <c r="J88" s="17"/>
-      <c r="K88" s="17"/>
-      <c r="L88" s="18"/>
-    </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A89" s="9">
+      <c r="D89" s="16">
+        <v>7</v>
+      </c>
+      <c r="E89" s="16"/>
+      <c r="F89" s="16"/>
+      <c r="G89" s="16">
+        <v>0</v>
+      </c>
+      <c r="H89" s="8"/>
+      <c r="I89" s="8"/>
+      <c r="J89" s="16"/>
+      <c r="K89" s="16"/>
+      <c r="L89" s="17"/>
+      <c r="O89" s="22">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="90" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A90" s="8">
         <v>87</v>
       </c>
-      <c r="B89" s="15" t="s">
+      <c r="B90" s="14" t="s">
         <v>212</v>
       </c>
-      <c r="C89" s="16">
+      <c r="C90" s="15">
         <v>220041700116</v>
       </c>
-      <c r="D89" s="17"/>
-      <c r="E89" s="17"/>
-      <c r="F89" s="17"/>
-      <c r="G89" s="19"/>
-      <c r="H89" s="9"/>
-      <c r="I89" s="9"/>
-      <c r="J89" s="17"/>
-      <c r="K89" s="17"/>
-      <c r="L89" s="18"/>
-    </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A90" s="9">
+      <c r="D90" s="16">
+        <v>16</v>
+      </c>
+      <c r="E90" s="16"/>
+      <c r="F90" s="16"/>
+      <c r="G90" s="16">
+        <v>4</v>
+      </c>
+      <c r="H90" s="8"/>
+      <c r="I90" s="8"/>
+      <c r="J90" s="16"/>
+      <c r="K90" s="16"/>
+      <c r="L90" s="17"/>
+      <c r="O90" s="22">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="91" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A91" s="8">
         <v>88</v>
       </c>
-      <c r="B90" s="15" t="s">
+      <c r="B91" s="14" t="s">
         <v>213</v>
       </c>
-      <c r="C90" s="16">
+      <c r="C91" s="15">
         <v>220041700117</v>
       </c>
-      <c r="D90" s="17"/>
-      <c r="E90" s="17"/>
-      <c r="F90" s="17"/>
-      <c r="G90" s="17"/>
-      <c r="H90" s="9"/>
-      <c r="I90" s="9"/>
-      <c r="J90" s="17"/>
-      <c r="K90" s="17"/>
-      <c r="L90" s="18"/>
-    </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A91" s="9">
+      <c r="D91" s="16">
+        <v>16</v>
+      </c>
+      <c r="E91" s="16"/>
+      <c r="F91" s="16"/>
+      <c r="G91" s="16">
+        <v>5</v>
+      </c>
+      <c r="H91" s="8"/>
+      <c r="I91" s="8"/>
+      <c r="J91" s="16"/>
+      <c r="K91" s="16"/>
+      <c r="L91" s="17"/>
+      <c r="O91" s="22">
+        <f t="shared" si="1"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="92" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A92" s="8">
         <v>89</v>
       </c>
-      <c r="B91" s="15" t="s">
+      <c r="B92" s="14" t="s">
         <v>214</v>
       </c>
-      <c r="C91" s="16">
+      <c r="C92" s="15">
         <v>220041700118</v>
       </c>
-      <c r="D91" s="17"/>
-      <c r="E91" s="17"/>
-      <c r="F91" s="17"/>
-      <c r="G91" s="17"/>
-      <c r="H91" s="9"/>
-      <c r="I91" s="9"/>
-      <c r="J91" s="17"/>
-      <c r="K91" s="17"/>
-      <c r="L91" s="18"/>
-    </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A92" s="9">
+      <c r="D92" s="16">
+        <v>13</v>
+      </c>
+      <c r="E92" s="16"/>
+      <c r="F92" s="16"/>
+      <c r="G92" s="16">
+        <v>5</v>
+      </c>
+      <c r="H92" s="8"/>
+      <c r="I92" s="8"/>
+      <c r="J92" s="16"/>
+      <c r="K92" s="16"/>
+      <c r="L92" s="17"/>
+      <c r="O92" s="22">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="93" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A93" s="8">
         <v>90</v>
       </c>
-      <c r="B92" s="15" t="s">
+      <c r="B93" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="C92" s="16">
+      <c r="C93" s="15">
         <v>220041700121</v>
       </c>
-      <c r="D92" s="17"/>
-      <c r="E92" s="17"/>
-      <c r="F92" s="17"/>
-      <c r="G92" s="17"/>
-      <c r="H92" s="9"/>
-      <c r="I92" s="9"/>
-      <c r="J92" s="17"/>
-      <c r="K92" s="17"/>
-      <c r="L92" s="18"/>
-    </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A93" s="9">
+      <c r="D93" s="16">
+        <v>16</v>
+      </c>
+      <c r="E93" s="16"/>
+      <c r="F93" s="16"/>
+      <c r="G93" s="16">
+        <v>5</v>
+      </c>
+      <c r="H93" s="8"/>
+      <c r="I93" s="8"/>
+      <c r="J93" s="16"/>
+      <c r="K93" s="16"/>
+      <c r="L93" s="17"/>
+      <c r="O93" s="22">
+        <f t="shared" si="1"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="94" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A94" s="8">
         <v>91</v>
       </c>
-      <c r="B93" s="15" t="s">
+      <c r="B94" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="C93" s="16">
+      <c r="C94" s="15">
         <v>220041700122</v>
       </c>
-      <c r="D93" s="17"/>
-      <c r="E93" s="17"/>
-      <c r="F93" s="17"/>
-      <c r="G93" s="17"/>
-      <c r="H93" s="9"/>
-      <c r="I93" s="9"/>
-      <c r="J93" s="17"/>
-      <c r="K93" s="17"/>
-      <c r="L93" s="18"/>
-    </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A94" s="9">
+      <c r="D94" s="16">
+        <v>5</v>
+      </c>
+      <c r="E94" s="16"/>
+      <c r="F94" s="16"/>
+      <c r="G94" s="16">
+        <v>5</v>
+      </c>
+      <c r="H94" s="8"/>
+      <c r="I94" s="8"/>
+      <c r="J94" s="16"/>
+      <c r="K94" s="16"/>
+      <c r="L94" s="17"/>
+      <c r="O94" s="22">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="95" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A95" s="8">
         <v>92</v>
       </c>
-      <c r="B94" s="15" t="s">
+      <c r="B95" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="C94" s="16">
+      <c r="C95" s="15">
         <v>220041700123</v>
       </c>
-      <c r="D94" s="17"/>
-      <c r="E94" s="17"/>
-      <c r="F94" s="17"/>
-      <c r="G94" s="19"/>
-      <c r="H94" s="9"/>
-      <c r="I94" s="9"/>
-      <c r="J94" s="17"/>
-      <c r="K94" s="17"/>
-      <c r="L94" s="18"/>
-    </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A95" s="9">
+      <c r="D95" s="16">
+        <v>5</v>
+      </c>
+      <c r="E95" s="16"/>
+      <c r="F95" s="16"/>
+      <c r="G95" s="16">
+        <v>5</v>
+      </c>
+      <c r="H95" s="8"/>
+      <c r="I95" s="8"/>
+      <c r="J95" s="16"/>
+      <c r="K95" s="16"/>
+      <c r="L95" s="17"/>
+      <c r="O95" s="22">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="96" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A96" s="8">
         <v>93</v>
       </c>
-      <c r="B95" s="15" t="s">
+      <c r="B96" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="C95" s="16">
+      <c r="C96" s="15">
         <v>220041700125</v>
       </c>
-      <c r="D95" s="17"/>
-      <c r="E95" s="17"/>
-      <c r="F95" s="17"/>
-      <c r="G95" s="17"/>
-      <c r="H95" s="9"/>
-      <c r="I95" s="9"/>
-      <c r="J95" s="17"/>
-      <c r="K95" s="17"/>
-      <c r="L95" s="18"/>
-    </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A96" s="9">
+      <c r="D96" s="16">
+        <v>9</v>
+      </c>
+      <c r="E96" s="16"/>
+      <c r="F96" s="16"/>
+      <c r="G96" s="16">
+        <v>5</v>
+      </c>
+      <c r="H96" s="8"/>
+      <c r="I96" s="8"/>
+      <c r="J96" s="16"/>
+      <c r="K96" s="16"/>
+      <c r="L96" s="17"/>
+      <c r="O96" s="22">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="97" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A97" s="8">
         <v>94</v>
       </c>
-      <c r="B96" s="15" t="s">
+      <c r="B97" s="14" t="s">
         <v>215</v>
       </c>
-      <c r="C96" s="16">
+      <c r="C97" s="15">
         <v>220041700130</v>
       </c>
-      <c r="D96" s="17"/>
-      <c r="E96" s="17"/>
-      <c r="F96" s="17"/>
-      <c r="G96" s="19"/>
-      <c r="H96" s="9"/>
-      <c r="I96" s="9"/>
-      <c r="J96" s="17"/>
-      <c r="K96" s="17"/>
-      <c r="L96" s="18"/>
-    </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A97" s="9">
+      <c r="D97" s="16" t="s">
+        <v>232</v>
+      </c>
+      <c r="E97" s="16"/>
+      <c r="F97" s="16"/>
+      <c r="G97" s="16">
+        <v>5</v>
+      </c>
+      <c r="H97" s="8"/>
+      <c r="I97" s="8"/>
+      <c r="J97" s="16"/>
+      <c r="K97" s="16"/>
+      <c r="L97" s="17"/>
+      <c r="O97" s="22">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="98" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A98" s="8">
         <v>95</v>
       </c>
-      <c r="B97" s="15" t="s">
+      <c r="B98" s="14" t="s">
         <v>216</v>
       </c>
-      <c r="C97" s="16">
+      <c r="C98" s="15">
         <v>220041700131</v>
       </c>
-      <c r="D97" s="17"/>
-      <c r="E97" s="17"/>
-      <c r="F97" s="17"/>
-      <c r="G97" s="19"/>
-      <c r="H97" s="9"/>
-      <c r="I97" s="9"/>
-      <c r="J97" s="17"/>
-      <c r="K97" s="17"/>
-      <c r="L97" s="18"/>
-    </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A98" s="9">
+      <c r="D98" s="16">
+        <v>12</v>
+      </c>
+      <c r="E98" s="16"/>
+      <c r="F98" s="16"/>
+      <c r="G98" s="16">
+        <v>5</v>
+      </c>
+      <c r="H98" s="8"/>
+      <c r="I98" s="8"/>
+      <c r="J98" s="16"/>
+      <c r="K98" s="16"/>
+      <c r="L98" s="17"/>
+      <c r="O98" s="22">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="99" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A99" s="8">
         <v>96</v>
       </c>
-      <c r="B98" s="15" t="s">
+      <c r="B99" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="C98" s="16">
+      <c r="C99" s="15">
         <v>220041700132</v>
       </c>
-      <c r="D98" s="17"/>
-      <c r="E98" s="17"/>
-      <c r="F98" s="17"/>
-      <c r="G98" s="17"/>
-      <c r="H98" s="9"/>
-      <c r="I98" s="9"/>
-      <c r="J98" s="17"/>
-      <c r="K98" s="17"/>
-      <c r="L98" s="18"/>
-    </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A99" s="9">
+      <c r="D99" s="16">
+        <v>14</v>
+      </c>
+      <c r="E99" s="16"/>
+      <c r="F99" s="16"/>
+      <c r="G99" s="16">
+        <v>5</v>
+      </c>
+      <c r="H99" s="8"/>
+      <c r="I99" s="8"/>
+      <c r="J99" s="16"/>
+      <c r="K99" s="16"/>
+      <c r="L99" s="17"/>
+      <c r="O99" s="22">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="100" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A100" s="8">
         <v>97</v>
       </c>
-      <c r="B99" s="15" t="s">
+      <c r="B100" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="C99" s="16">
+      <c r="C100" s="15">
         <v>220041700133</v>
       </c>
-      <c r="D99" s="17"/>
-      <c r="E99" s="17"/>
-      <c r="F99" s="17"/>
-      <c r="G99" s="17"/>
-      <c r="H99" s="9"/>
-      <c r="I99" s="9"/>
-      <c r="J99" s="17"/>
-      <c r="K99" s="17"/>
-      <c r="L99" s="18"/>
-      <c r="M99" s="22"/>
-    </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A100" s="9">
+      <c r="D100" s="16">
+        <v>10</v>
+      </c>
+      <c r="E100" s="16"/>
+      <c r="F100" s="16"/>
+      <c r="G100" s="16">
+        <v>5</v>
+      </c>
+      <c r="H100" s="8"/>
+      <c r="I100" s="8"/>
+      <c r="J100" s="16"/>
+      <c r="K100" s="16"/>
+      <c r="L100" s="17"/>
+      <c r="M100" s="20"/>
+      <c r="O100" s="22">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="101" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A101" s="8">
         <v>98</v>
       </c>
-      <c r="B100" s="15" t="s">
+      <c r="B101" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="C100" s="16">
+      <c r="C101" s="15">
         <v>220041700134</v>
       </c>
-      <c r="D100" s="17"/>
-      <c r="E100" s="17"/>
-      <c r="F100" s="17"/>
-      <c r="G100" s="19"/>
-      <c r="H100" s="9"/>
-      <c r="I100" s="9"/>
-      <c r="J100" s="17"/>
-      <c r="K100" s="17"/>
-      <c r="L100" s="18"/>
-    </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A101" s="9">
+      <c r="D101" s="16">
+        <v>15</v>
+      </c>
+      <c r="E101" s="16"/>
+      <c r="F101" s="16"/>
+      <c r="G101" s="16">
+        <v>0</v>
+      </c>
+      <c r="H101" s="8"/>
+      <c r="I101" s="8"/>
+      <c r="J101" s="16"/>
+      <c r="K101" s="16"/>
+      <c r="L101" s="17"/>
+      <c r="O101" s="22">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="102" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A102" s="8">
         <v>99</v>
       </c>
-      <c r="B101" s="20" t="s">
+      <c r="B102" s="18" t="s">
         <v>218</v>
       </c>
-      <c r="C101" s="21">
+      <c r="C102" s="19">
         <v>220041723019</v>
       </c>
-      <c r="D101" s="17"/>
-      <c r="E101" s="17"/>
-      <c r="F101" s="17"/>
-      <c r="G101" s="19"/>
-      <c r="H101" s="9"/>
-      <c r="I101" s="9"/>
-      <c r="J101" s="17"/>
-      <c r="K101" s="17"/>
-      <c r="L101" s="18"/>
-    </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A102" s="9">
+      <c r="D102" s="16">
+        <v>9</v>
+      </c>
+      <c r="E102" s="16"/>
+      <c r="F102" s="16"/>
+      <c r="G102" s="16">
+        <v>5</v>
+      </c>
+      <c r="H102" s="8"/>
+      <c r="I102" s="8"/>
+      <c r="J102" s="16"/>
+      <c r="K102" s="16"/>
+      <c r="L102" s="17"/>
+      <c r="O102" s="22">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="103" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A103" s="8">
         <v>100</v>
       </c>
-      <c r="B102" s="20" t="s">
+      <c r="B103" s="18" t="s">
         <v>219</v>
       </c>
-      <c r="C102" s="21">
+      <c r="C103" s="19">
         <v>220041723020</v>
       </c>
-      <c r="D102" s="17"/>
-      <c r="E102" s="17"/>
-      <c r="F102" s="17"/>
-      <c r="G102" s="17"/>
-      <c r="H102" s="9"/>
-      <c r="I102" s="9"/>
-      <c r="J102" s="17"/>
-      <c r="K102" s="17"/>
-      <c r="L102" s="18"/>
-    </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A103" s="9">
+      <c r="D103" s="16">
+        <v>15</v>
+      </c>
+      <c r="E103" s="16"/>
+      <c r="F103" s="16"/>
+      <c r="G103" s="16">
+        <v>5</v>
+      </c>
+      <c r="H103" s="8"/>
+      <c r="I103" s="8"/>
+      <c r="J103" s="16"/>
+      <c r="K103" s="16"/>
+      <c r="L103" s="17"/>
+      <c r="O103" s="22">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="104" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A104" s="8">
         <v>101</v>
       </c>
-      <c r="B103" s="20" t="s">
+      <c r="B104" s="18" t="s">
         <v>220</v>
       </c>
-      <c r="C103" s="21">
+      <c r="C104" s="19">
         <v>220041723021</v>
       </c>
-      <c r="D103" s="17"/>
-      <c r="E103" s="17"/>
-      <c r="F103" s="17"/>
-      <c r="G103" s="19"/>
-      <c r="H103" s="9"/>
-      <c r="I103" s="9"/>
-      <c r="J103" s="17"/>
-      <c r="K103" s="17"/>
-      <c r="L103" s="18"/>
-    </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A104" s="9">
+      <c r="D104" s="16" t="s">
+        <v>232</v>
+      </c>
+      <c r="E104" s="16"/>
+      <c r="F104" s="16"/>
+      <c r="G104" s="16">
+        <v>0</v>
+      </c>
+      <c r="H104" s="8"/>
+      <c r="I104" s="8"/>
+      <c r="J104" s="16"/>
+      <c r="K104" s="16"/>
+      <c r="L104" s="17"/>
+      <c r="O104" s="22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A105" s="8">
         <v>102</v>
       </c>
-      <c r="B104" s="20" t="s">
+      <c r="B105" s="18" t="s">
         <v>219</v>
       </c>
-      <c r="C104" s="21">
+      <c r="C105" s="19">
         <v>220041723022</v>
       </c>
-      <c r="D104" s="17"/>
-      <c r="E104" s="17"/>
-      <c r="F104" s="17"/>
-      <c r="G104" s="17"/>
-      <c r="H104" s="9"/>
-      <c r="I104" s="9"/>
-      <c r="J104" s="17"/>
-      <c r="K104" s="17"/>
-      <c r="L104" s="18"/>
-    </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A105" s="9">
+      <c r="D105" s="16" t="s">
+        <v>232</v>
+      </c>
+      <c r="E105" s="16"/>
+      <c r="F105" s="16"/>
+      <c r="G105" s="16">
+        <v>0</v>
+      </c>
+      <c r="H105" s="8"/>
+      <c r="I105" s="8"/>
+      <c r="J105" s="16"/>
+      <c r="K105" s="16"/>
+      <c r="L105" s="17"/>
+      <c r="O105" s="22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A106" s="8">
         <v>103</v>
       </c>
-      <c r="B105" s="20" t="s">
+      <c r="B106" s="18" t="s">
         <v>221</v>
       </c>
-      <c r="C105" s="21">
+      <c r="C106" s="19">
         <v>220041723025</v>
       </c>
-      <c r="D105" s="17"/>
-      <c r="E105" s="17"/>
-      <c r="F105" s="17"/>
-      <c r="G105" s="19"/>
-      <c r="H105" s="9"/>
-      <c r="I105" s="9"/>
-      <c r="J105" s="17"/>
-      <c r="K105" s="17"/>
-      <c r="L105" s="18"/>
-    </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A106" s="9">
+      <c r="D106" s="16">
+        <v>6</v>
+      </c>
+      <c r="E106" s="16"/>
+      <c r="F106" s="16"/>
+      <c r="G106" s="16">
+        <v>5</v>
+      </c>
+      <c r="H106" s="8"/>
+      <c r="I106" s="8"/>
+      <c r="J106" s="16"/>
+      <c r="K106" s="16"/>
+      <c r="L106" s="17"/>
+      <c r="O106" s="22">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="107" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A107" s="8">
         <v>104</v>
       </c>
-      <c r="B106" s="20" t="s">
+      <c r="B107" s="18" t="s">
         <v>222</v>
       </c>
-      <c r="C106" s="21">
+      <c r="C107" s="19">
         <v>220041723027</v>
       </c>
-      <c r="D106" s="17"/>
-      <c r="E106" s="17"/>
-      <c r="F106" s="17"/>
-      <c r="G106" s="17"/>
-      <c r="H106" s="9"/>
-      <c r="I106" s="9"/>
-      <c r="J106" s="17"/>
-      <c r="K106" s="17"/>
-      <c r="L106" s="18"/>
-    </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A107" s="9">
+      <c r="D107" s="16">
+        <v>18</v>
+      </c>
+      <c r="E107" s="16"/>
+      <c r="F107" s="16"/>
+      <c r="G107" s="16">
+        <v>5</v>
+      </c>
+      <c r="H107" s="8"/>
+      <c r="I107" s="8"/>
+      <c r="J107" s="16"/>
+      <c r="K107" s="16"/>
+      <c r="L107" s="17"/>
+      <c r="O107" s="22">
+        <f t="shared" si="1"/>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="108" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A108" s="8">
         <v>105</v>
       </c>
-      <c r="B107" s="20" t="s">
+      <c r="B108" s="18" t="s">
         <v>223</v>
       </c>
-      <c r="C107" s="21">
+      <c r="C108" s="19">
         <v>220041723028</v>
       </c>
-      <c r="D107" s="17"/>
-      <c r="E107" s="17"/>
-      <c r="F107" s="17"/>
-      <c r="G107" s="19"/>
-      <c r="H107" s="9"/>
-      <c r="I107" s="9"/>
-      <c r="J107" s="17"/>
-      <c r="K107" s="17"/>
-      <c r="L107" s="18"/>
-    </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A108" s="9">
+      <c r="D108" s="16">
+        <v>3</v>
+      </c>
+      <c r="E108" s="16"/>
+      <c r="F108" s="16"/>
+      <c r="G108" s="16">
+        <v>3</v>
+      </c>
+      <c r="H108" s="8"/>
+      <c r="I108" s="8"/>
+      <c r="J108" s="16"/>
+      <c r="K108" s="16"/>
+      <c r="L108" s="17"/>
+      <c r="O108" s="22">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="109" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A109" s="8">
         <v>106</v>
       </c>
-      <c r="B108" s="20" t="s">
+      <c r="B109" s="18" t="s">
         <v>224</v>
       </c>
-      <c r="C108" s="21">
+      <c r="C109" s="19">
         <v>220041723032</v>
       </c>
-      <c r="D108" s="17"/>
-      <c r="E108" s="17"/>
-      <c r="F108" s="17"/>
-      <c r="G108" s="17"/>
-      <c r="H108" s="9"/>
-      <c r="I108" s="9"/>
-      <c r="J108" s="17"/>
-      <c r="K108" s="17"/>
-      <c r="L108" s="18"/>
-    </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A109" s="9">
+      <c r="D109" s="16">
+        <v>16</v>
+      </c>
+      <c r="E109" s="16"/>
+      <c r="F109" s="16"/>
+      <c r="G109" s="16">
+        <v>5</v>
+      </c>
+      <c r="H109" s="8"/>
+      <c r="I109" s="8"/>
+      <c r="J109" s="16"/>
+      <c r="K109" s="16"/>
+      <c r="L109" s="17"/>
+      <c r="O109" s="22">
+        <f t="shared" si="1"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="110" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A110" s="8">
         <v>107</v>
       </c>
-      <c r="B109" s="20" t="s">
+      <c r="B110" s="18" t="s">
         <v>225</v>
       </c>
-      <c r="C109" s="21">
+      <c r="C110" s="19">
         <v>220041723033</v>
       </c>
-      <c r="D109" s="17"/>
-      <c r="E109" s="17"/>
-      <c r="F109" s="20"/>
-      <c r="G109" s="17"/>
-      <c r="H109" s="9"/>
-      <c r="I109" s="9"/>
-      <c r="J109" s="17"/>
-      <c r="K109" s="17"/>
-      <c r="L109" s="18"/>
-    </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A110" s="9">
+      <c r="D110" s="16">
+        <v>17</v>
+      </c>
+      <c r="E110" s="16"/>
+      <c r="F110" s="18"/>
+      <c r="G110" s="16">
+        <v>5</v>
+      </c>
+      <c r="H110" s="8"/>
+      <c r="I110" s="8"/>
+      <c r="J110" s="16"/>
+      <c r="K110" s="16"/>
+      <c r="L110" s="17"/>
+      <c r="O110" s="22">
+        <f t="shared" si="1"/>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="111" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A111" s="8">
         <v>108</v>
       </c>
-      <c r="B110" s="20" t="s">
+      <c r="B111" s="18" t="s">
         <v>226</v>
       </c>
-      <c r="C110" s="21">
+      <c r="C111" s="19">
         <v>220041723034</v>
       </c>
-      <c r="D110" s="17"/>
-      <c r="E110" s="17"/>
-      <c r="F110" s="17"/>
-      <c r="G110" s="17"/>
-      <c r="H110" s="9"/>
-      <c r="I110" s="9"/>
-      <c r="J110" s="17"/>
-      <c r="K110" s="17"/>
-      <c r="L110" s="18"/>
+      <c r="D111" s="16">
+        <v>16</v>
+      </c>
+      <c r="E111" s="16"/>
+      <c r="F111" s="16"/>
+      <c r="G111" s="16">
+        <v>5</v>
+      </c>
+      <c r="H111" s="8"/>
+      <c r="I111" s="8"/>
+      <c r="J111" s="16"/>
+      <c r="K111" s="16"/>
+      <c r="L111" s="17"/>
+      <c r="O111" s="22">
+        <f t="shared" si="1"/>
+        <v>21</v>
+      </c>
     </row>
   </sheetData>
+  <autoFilter ref="A2:Q111" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <mergeCells count="1">
     <mergeCell ref="A1:L1"/>
   </mergeCells>
@@ -3411,7 +4325,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:O120"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
@@ -3437,20 +4351,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
-      <c r="K1" s="25"/>
-      <c r="L1" s="25"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="21"/>
+      <c r="L1" s="21"/>
     </row>
     <row r="2" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">

--- a/static/Upload/5th sem.xlsx
+++ b/static/Upload/5th sem.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD81D6CC-A189-4A4B-96B4-30BE1DDA536F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140"/>
   </bookViews>
   <sheets>
     <sheet name="CNC" sheetId="3" r:id="rId1"/>
     <sheet name="CNC 2021" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">CNC!$A$2:$Q$111</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">CNC!$A$2:$T$111</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'CNC 2021'!$A$2:$O$112</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="239">
   <si>
     <t>S.N</t>
   </si>
@@ -733,12 +732,21 @@
   </si>
   <si>
     <t>S3(40)</t>
+  </si>
+  <si>
+    <t>P1</t>
+  </si>
+  <si>
+    <t>P2</t>
+  </si>
+  <si>
+    <t>P3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
@@ -824,7 +832,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -889,6 +897,12 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1169,14 +1183,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q111"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:T111"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="O3" sqref="O3:O111"/>
+      <selection pane="bottomRight" activeCell="P11" sqref="P11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1189,26 +1203,28 @@
     <col min="10" max="10" width="12" style="6" bestFit="1" customWidth="1"/>
     <col min="11" max="12" width="12.7109375" style="7" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="12.7109375" style="7" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="7"/>
+    <col min="14" max="14" width="9.140625" style="7"/>
+    <col min="15" max="17" width="9.140625" style="21"/>
+    <col min="18" max="16384" width="9.140625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="21" t="s">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A1" s="23" t="s">
         <v>227</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
-      <c r="J1" s="21"/>
-      <c r="K1" s="21"/>
-      <c r="L1" s="21"/>
-    </row>
-    <row r="2" spans="1:17" s="2" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
+      <c r="K1" s="23"/>
+      <c r="L1" s="23"/>
+    </row>
+    <row r="2" spans="1:20" s="2" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>0</v>
       </c>
@@ -1251,17 +1267,26 @@
       <c r="N2" s="11" t="s">
         <v>230</v>
       </c>
-      <c r="O2" s="2" t="s">
+      <c r="O2" s="24" t="s">
+        <v>236</v>
+      </c>
+      <c r="P2" s="24" t="s">
+        <v>237</v>
+      </c>
+      <c r="Q2" s="24" t="s">
+        <v>238</v>
+      </c>
+      <c r="R2" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="P2" s="2" t="s">
+      <c r="S2" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="Q2" s="2" t="s">
+      <c r="T2" s="2" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
         <v>1</v>
       </c>
@@ -1284,12 +1309,20 @@
       <c r="J3" s="16"/>
       <c r="K3" s="16"/>
       <c r="L3" s="17"/>
-      <c r="O3" s="22">
-        <f>SUM(D3)+G3+J3</f>
+      <c r="R3" s="22">
+        <f>SUM(D3)+G3+O3</f>
         <v>22</v>
       </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S3" s="22">
+        <f t="shared" ref="S3:T18" si="0">SUM(E3)+H3+P3</f>
+        <v>0</v>
+      </c>
+      <c r="T3" s="22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
         <v>2</v>
       </c>
@@ -1312,12 +1345,20 @@
       <c r="J4" s="16"/>
       <c r="K4" s="16"/>
       <c r="L4" s="17"/>
-      <c r="O4" s="22">
-        <f t="shared" ref="O4:O67" si="0">SUM(D4)+G4+J4</f>
+      <c r="R4" s="22">
+        <f t="shared" ref="R4:T67" si="1">SUM(D4)+G4+O4</f>
         <v>25</v>
       </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S4" s="22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T4" s="22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
         <v>3</v>
       </c>
@@ -1340,12 +1381,20 @@
       <c r="J5" s="16"/>
       <c r="K5" s="16"/>
       <c r="L5" s="17"/>
-      <c r="O5" s="22">
+      <c r="R5" s="22">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="S5" s="22">
         <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="T5" s="22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
         <v>4</v>
       </c>
@@ -1368,12 +1417,20 @@
       <c r="J6" s="16"/>
       <c r="K6" s="16"/>
       <c r="L6" s="17"/>
-      <c r="O6" s="22">
+      <c r="R6" s="22">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+      <c r="S6" s="22">
         <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="T6" s="22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
         <v>5</v>
       </c>
@@ -1396,12 +1453,20 @@
       <c r="J7" s="16"/>
       <c r="K7" s="16"/>
       <c r="L7" s="17"/>
-      <c r="O7" s="22">
+      <c r="R7" s="22">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="S7" s="22">
         <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="T7" s="22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
         <v>6</v>
       </c>
@@ -1424,12 +1489,20 @@
       <c r="J8" s="16"/>
       <c r="K8" s="16"/>
       <c r="L8" s="17"/>
-      <c r="O8" s="22">
+      <c r="R8" s="22">
+        <f t="shared" si="1"/>
+        <v>22</v>
+      </c>
+      <c r="S8" s="22">
         <f t="shared" si="0"/>
-        <v>22</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="T8" s="22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
         <v>7</v>
       </c>
@@ -1452,12 +1525,20 @@
       <c r="J9" s="16"/>
       <c r="K9" s="16"/>
       <c r="L9" s="17"/>
-      <c r="O9" s="22">
+      <c r="R9" s="22">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+      <c r="S9" s="22">
         <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="T9" s="22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
         <v>8</v>
       </c>
@@ -1480,12 +1561,20 @@
       <c r="J10" s="16"/>
       <c r="K10" s="16"/>
       <c r="L10" s="17"/>
-      <c r="O10" s="22">
+      <c r="R10" s="22">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="S10" s="22">
         <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="T10" s="22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" s="8">
         <v>9</v>
       </c>
@@ -1508,12 +1597,20 @@
       <c r="J11" s="16"/>
       <c r="K11" s="16"/>
       <c r="L11" s="17"/>
-      <c r="O11" s="22">
+      <c r="R11" s="22">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+      <c r="S11" s="22">
         <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="T11" s="22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" s="8">
         <v>10</v>
       </c>
@@ -1536,12 +1633,20 @@
       <c r="J12" s="16"/>
       <c r="K12" s="16"/>
       <c r="L12" s="17"/>
-      <c r="O12" s="22">
+      <c r="R12" s="22">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="S12" s="22">
         <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="T12" s="22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" s="8">
         <v>11</v>
       </c>
@@ -1564,12 +1669,20 @@
       <c r="J13" s="16"/>
       <c r="K13" s="16"/>
       <c r="L13" s="17"/>
-      <c r="O13" s="22">
+      <c r="R13" s="22">
+        <f t="shared" si="1"/>
+        <v>21</v>
+      </c>
+      <c r="S13" s="22">
         <f t="shared" si="0"/>
-        <v>21</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="T13" s="22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" s="8">
         <v>12</v>
       </c>
@@ -1592,12 +1705,20 @@
       <c r="J14" s="16"/>
       <c r="K14" s="16"/>
       <c r="L14" s="17"/>
-      <c r="O14" s="22">
+      <c r="R14" s="22">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+      <c r="S14" s="22">
         <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="T14" s="22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" s="8">
         <v>13</v>
       </c>
@@ -1613,19 +1734,27 @@
       <c r="E15" s="16"/>
       <c r="F15" s="16"/>
       <c r="G15" s="16">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H15" s="8"/>
       <c r="I15" s="8"/>
       <c r="J15" s="16"/>
       <c r="K15" s="16"/>
       <c r="L15" s="17"/>
-      <c r="O15" s="22">
+      <c r="R15" s="22">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="S15" s="22">
         <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="T15" s="22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" s="8">
         <v>14</v>
       </c>
@@ -1648,12 +1777,20 @@
       <c r="J16" s="16"/>
       <c r="K16" s="16"/>
       <c r="L16" s="17"/>
-      <c r="O16" s="22">
+      <c r="R16" s="22">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="S16" s="22">
         <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="T16" s="22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A17" s="8">
         <v>15</v>
       </c>
@@ -1676,12 +1813,20 @@
       <c r="J17" s="16"/>
       <c r="K17" s="16"/>
       <c r="L17" s="17"/>
-      <c r="O17" s="22">
+      <c r="R17" s="22">
+        <f t="shared" si="1"/>
+        <v>21</v>
+      </c>
+      <c r="S17" s="22">
         <f t="shared" si="0"/>
-        <v>21</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="T17" s="22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A18" s="8">
         <v>16</v>
       </c>
@@ -1704,12 +1849,20 @@
       <c r="J18" s="16"/>
       <c r="K18" s="16"/>
       <c r="L18" s="17"/>
-      <c r="O18" s="22">
+      <c r="R18" s="22">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="S18" s="22">
         <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="T18" s="22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A19" s="8">
         <v>17</v>
       </c>
@@ -1732,12 +1885,20 @@
       <c r="J19" s="16"/>
       <c r="K19" s="16"/>
       <c r="L19" s="17"/>
-      <c r="O19" s="22">
-        <f t="shared" si="0"/>
+      <c r="R19" s="22">
+        <f t="shared" si="1"/>
         <v>14</v>
       </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="S19" s="22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T19" s="22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A20" s="8">
         <v>18</v>
       </c>
@@ -1753,19 +1914,27 @@
       <c r="E20" s="16"/>
       <c r="F20" s="16"/>
       <c r="G20" s="16">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H20" s="8"/>
       <c r="I20" s="8"/>
       <c r="J20" s="16"/>
       <c r="K20" s="16"/>
       <c r="L20" s="17"/>
-      <c r="O20" s="22">
-        <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R20" s="22">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="S20" s="22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T20" s="22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A21" s="8">
         <v>19</v>
       </c>
@@ -1788,12 +1957,20 @@
       <c r="J21" s="16"/>
       <c r="K21" s="16"/>
       <c r="L21" s="17"/>
-      <c r="O21" s="22">
-        <f t="shared" si="0"/>
+      <c r="R21" s="22">
+        <f t="shared" si="1"/>
         <v>17</v>
       </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="S21" s="22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T21" s="22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A22" s="8">
         <v>20</v>
       </c>
@@ -1816,12 +1993,20 @@
       <c r="J22" s="16"/>
       <c r="K22" s="16"/>
       <c r="L22" s="17"/>
-      <c r="O22" s="22">
-        <f t="shared" si="0"/>
+      <c r="R22" s="22">
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="S22" s="22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T22" s="22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A23" s="8">
         <v>21</v>
       </c>
@@ -1844,12 +2029,20 @@
       <c r="J23" s="16"/>
       <c r="K23" s="16"/>
       <c r="L23" s="17"/>
-      <c r="O23" s="22">
-        <f t="shared" si="0"/>
+      <c r="R23" s="22">
+        <f t="shared" si="1"/>
         <v>13</v>
       </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="S23" s="22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T23" s="22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A24" s="8">
         <v>22</v>
       </c>
@@ -1872,12 +2065,20 @@
       <c r="J24" s="16"/>
       <c r="K24" s="16"/>
       <c r="L24" s="17"/>
-      <c r="O24" s="22">
-        <f t="shared" si="0"/>
+      <c r="R24" s="22">
+        <f t="shared" si="1"/>
         <v>14</v>
       </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="S24" s="22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T24" s="22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A25" s="8">
         <v>23</v>
       </c>
@@ -1900,12 +2101,20 @@
       <c r="J25" s="16"/>
       <c r="K25" s="16"/>
       <c r="L25" s="17"/>
-      <c r="O25" s="22">
-        <f t="shared" si="0"/>
+      <c r="R25" s="22">
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="S25" s="22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T25" s="22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A26" s="8">
         <v>24</v>
       </c>
@@ -1921,19 +2130,27 @@
       <c r="E26" s="16"/>
       <c r="F26" s="16"/>
       <c r="G26" s="16">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H26" s="8"/>
       <c r="I26" s="8"/>
       <c r="J26" s="16"/>
       <c r="K26" s="16"/>
       <c r="L26" s="17"/>
-      <c r="O26" s="22">
-        <f t="shared" si="0"/>
-        <v>23</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R26" s="22">
+        <f t="shared" si="1"/>
+        <v>28</v>
+      </c>
+      <c r="S26" s="22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T26" s="22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A27" s="8">
         <v>25</v>
       </c>
@@ -1956,12 +2173,20 @@
       <c r="J27" s="16"/>
       <c r="K27" s="16"/>
       <c r="L27" s="17"/>
-      <c r="O27" s="22">
-        <f t="shared" si="0"/>
+      <c r="R27" s="22">
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="S27" s="22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T27" s="22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A28" s="8">
         <v>26</v>
       </c>
@@ -1984,12 +2209,20 @@
       <c r="J28" s="16"/>
       <c r="K28" s="16"/>
       <c r="L28" s="17"/>
-      <c r="O28" s="22">
-        <f t="shared" si="0"/>
+      <c r="R28" s="22">
+        <f t="shared" si="1"/>
         <v>17</v>
       </c>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="S28" s="22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T28" s="22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A29" s="8">
         <v>27</v>
       </c>
@@ -2012,12 +2245,20 @@
       <c r="J29" s="16"/>
       <c r="K29" s="16"/>
       <c r="L29" s="17"/>
-      <c r="O29" s="22">
-        <f t="shared" si="0"/>
+      <c r="R29" s="22">
+        <f t="shared" si="1"/>
         <v>17</v>
       </c>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="S29" s="22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T29" s="22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" s="8">
         <v>28</v>
       </c>
@@ -2040,12 +2281,20 @@
       <c r="J30" s="16"/>
       <c r="K30" s="16"/>
       <c r="L30" s="17"/>
-      <c r="O30" s="22">
-        <f t="shared" si="0"/>
+      <c r="R30" s="22">
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="S30" s="22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T30" s="22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A31" s="8">
         <v>29</v>
       </c>
@@ -2068,12 +2317,20 @@
       <c r="J31" s="16"/>
       <c r="K31" s="16"/>
       <c r="L31" s="17"/>
-      <c r="O31" s="22">
-        <f t="shared" si="0"/>
+      <c r="R31" s="22">
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="S31" s="22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T31" s="22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A32" s="8">
         <v>30</v>
       </c>
@@ -2096,12 +2353,20 @@
       <c r="J32" s="16"/>
       <c r="K32" s="16"/>
       <c r="L32" s="17"/>
-      <c r="O32" s="22">
-        <f t="shared" si="0"/>
+      <c r="R32" s="22">
+        <f t="shared" si="1"/>
         <v>17</v>
       </c>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="S32" s="22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T32" s="22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A33" s="8">
         <v>31</v>
       </c>
@@ -2124,12 +2389,20 @@
       <c r="J33" s="16"/>
       <c r="K33" s="16"/>
       <c r="L33" s="17"/>
-      <c r="O33" s="22">
-        <f t="shared" si="0"/>
+      <c r="R33" s="22">
+        <f t="shared" si="1"/>
         <v>23</v>
       </c>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="S33" s="22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T33" s="22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A34" s="8">
         <v>32</v>
       </c>
@@ -2152,12 +2425,20 @@
       <c r="J34" s="16"/>
       <c r="K34" s="16"/>
       <c r="L34" s="17"/>
-      <c r="O34" s="22">
-        <f t="shared" si="0"/>
+      <c r="R34" s="22">
+        <f t="shared" si="1"/>
         <v>18</v>
       </c>
-    </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="S34" s="22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T34" s="22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A35" s="8">
         <v>33</v>
       </c>
@@ -2180,12 +2461,20 @@
       <c r="J35" s="16"/>
       <c r="K35" s="16"/>
       <c r="L35" s="17"/>
-      <c r="O35" s="22">
-        <f t="shared" si="0"/>
+      <c r="R35" s="22">
+        <f t="shared" si="1"/>
         <v>17</v>
       </c>
-    </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="S35" s="22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T35" s="22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A36" s="8">
         <v>34</v>
       </c>
@@ -2208,12 +2497,20 @@
       <c r="J36" s="16"/>
       <c r="K36" s="16"/>
       <c r="L36" s="17"/>
-      <c r="O36" s="22">
-        <f t="shared" si="0"/>
+      <c r="R36" s="22">
+        <f t="shared" si="1"/>
         <v>22</v>
       </c>
-    </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="S36" s="22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T36" s="22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A37" s="8">
         <v>35</v>
       </c>
@@ -2236,12 +2533,20 @@
       <c r="J37" s="16"/>
       <c r="K37" s="16"/>
       <c r="L37" s="17"/>
-      <c r="O37" s="22">
-        <f t="shared" si="0"/>
+      <c r="R37" s="22">
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
-    </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="S37" s="22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T37" s="22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A38" s="8">
         <v>36</v>
       </c>
@@ -2264,12 +2569,20 @@
       <c r="J38" s="16"/>
       <c r="K38" s="16"/>
       <c r="L38" s="17"/>
-      <c r="O38" s="22">
-        <f t="shared" si="0"/>
+      <c r="R38" s="22">
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
-    </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="S38" s="22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T38" s="22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A39" s="8">
         <v>37</v>
       </c>
@@ -2292,12 +2605,20 @@
       <c r="J39" s="16"/>
       <c r="K39" s="16"/>
       <c r="L39" s="17"/>
-      <c r="O39" s="22">
-        <f t="shared" si="0"/>
+      <c r="R39" s="22">
+        <f t="shared" si="1"/>
         <v>22</v>
       </c>
-    </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="S39" s="22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T39" s="22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A40" s="8">
         <v>38</v>
       </c>
@@ -2320,12 +2641,20 @@
       <c r="J40" s="16"/>
       <c r="K40" s="16"/>
       <c r="L40" s="17"/>
-      <c r="O40" s="22">
-        <f t="shared" si="0"/>
+      <c r="R40" s="22">
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
-    </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="S40" s="22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T40" s="22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A41" s="8">
         <v>39</v>
       </c>
@@ -2348,12 +2677,20 @@
       <c r="J41" s="16"/>
       <c r="K41" s="16"/>
       <c r="L41" s="17"/>
-      <c r="O41" s="22">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R41" s="22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S41" s="22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T41" s="22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A42" s="8">
         <v>40</v>
       </c>
@@ -2376,12 +2713,20 @@
       <c r="J42" s="16"/>
       <c r="K42" s="16"/>
       <c r="L42" s="17"/>
-      <c r="O42" s="22">
-        <f t="shared" si="0"/>
+      <c r="R42" s="22">
+        <f t="shared" si="1"/>
         <v>18</v>
       </c>
-    </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="S42" s="22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T42" s="22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A43" s="8">
         <v>41</v>
       </c>
@@ -2404,12 +2749,20 @@
       <c r="J43" s="16"/>
       <c r="K43" s="16"/>
       <c r="L43" s="17"/>
-      <c r="O43" s="22">
-        <f t="shared" si="0"/>
+      <c r="R43" s="22">
+        <f t="shared" si="1"/>
         <v>25</v>
       </c>
-    </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="S43" s="22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T43" s="22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A44" s="8">
         <v>42</v>
       </c>
@@ -2425,19 +2778,27 @@
       <c r="E44" s="16"/>
       <c r="F44" s="16"/>
       <c r="G44" s="16">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H44" s="8"/>
       <c r="I44" s="8"/>
       <c r="J44" s="16"/>
       <c r="K44" s="16"/>
       <c r="L44" s="17"/>
-      <c r="O44" s="22">
-        <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-    </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R44" s="22">
+        <f t="shared" si="1"/>
+        <v>22</v>
+      </c>
+      <c r="S44" s="22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T44" s="22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A45" s="8">
         <v>43</v>
       </c>
@@ -2460,12 +2821,20 @@
       <c r="J45" s="16"/>
       <c r="K45" s="16"/>
       <c r="L45" s="17"/>
-      <c r="O45" s="22">
-        <f t="shared" si="0"/>
+      <c r="R45" s="22">
+        <f t="shared" si="1"/>
         <v>27</v>
       </c>
-    </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="S45" s="22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T45" s="22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A46" s="8">
         <v>44</v>
       </c>
@@ -2488,12 +2857,20 @@
       <c r="J46" s="16"/>
       <c r="K46" s="16"/>
       <c r="L46" s="17"/>
-      <c r="O46" s="22">
-        <f t="shared" si="0"/>
+      <c r="R46" s="22">
+        <f t="shared" si="1"/>
         <v>26</v>
       </c>
-    </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="S46" s="22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T46" s="22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A47" s="8">
         <v>45</v>
       </c>
@@ -2516,12 +2893,20 @@
       <c r="J47" s="16"/>
       <c r="K47" s="16"/>
       <c r="L47" s="17"/>
-      <c r="O47" s="22">
-        <f t="shared" si="0"/>
+      <c r="R47" s="22">
+        <f t="shared" si="1"/>
         <v>21</v>
       </c>
-    </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="S47" s="22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T47" s="22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A48" s="8">
         <v>46</v>
       </c>
@@ -2544,12 +2929,20 @@
       <c r="J48" s="16"/>
       <c r="K48" s="16"/>
       <c r="L48" s="17"/>
-      <c r="O48" s="22">
-        <f t="shared" si="0"/>
+      <c r="R48" s="22">
+        <f t="shared" si="1"/>
         <v>21</v>
       </c>
-    </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="S48" s="22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T48" s="22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A49" s="8">
         <v>47</v>
       </c>
@@ -2572,12 +2965,20 @@
       <c r="J49" s="16"/>
       <c r="K49" s="16"/>
       <c r="L49" s="17"/>
-      <c r="O49" s="22">
-        <f t="shared" si="0"/>
+      <c r="R49" s="22">
+        <f t="shared" si="1"/>
         <v>25</v>
       </c>
-    </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="S49" s="22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T49" s="22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A50" s="8">
         <v>48</v>
       </c>
@@ -2600,12 +3001,20 @@
       <c r="J50" s="16"/>
       <c r="K50" s="16"/>
       <c r="L50" s="17"/>
-      <c r="O50" s="22">
-        <f t="shared" si="0"/>
+      <c r="R50" s="22">
+        <f t="shared" si="1"/>
         <v>31</v>
       </c>
-    </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="S50" s="22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T50" s="22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A51" s="8">
         <v>49</v>
       </c>
@@ -2628,12 +3037,20 @@
       <c r="J51" s="16"/>
       <c r="K51" s="16"/>
       <c r="L51" s="17"/>
-      <c r="O51" s="22">
-        <f t="shared" si="0"/>
+      <c r="R51" s="22">
+        <f t="shared" si="1"/>
         <v>24</v>
       </c>
-    </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="S51" s="22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T51" s="22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A52" s="8">
         <v>50</v>
       </c>
@@ -2656,12 +3073,20 @@
       <c r="J52" s="16"/>
       <c r="K52" s="16"/>
       <c r="L52" s="17"/>
-      <c r="O52" s="22">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R52" s="22">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="S52" s="22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T52" s="22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A53" s="8">
         <v>51</v>
       </c>
@@ -2684,12 +3109,20 @@
       <c r="J53" s="16"/>
       <c r="K53" s="16"/>
       <c r="L53" s="17"/>
-      <c r="O53" s="22">
-        <f t="shared" si="0"/>
+      <c r="R53" s="22">
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
-    </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="S53" s="22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T53" s="22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A54" s="8">
         <v>52</v>
       </c>
@@ -2712,12 +3145,20 @@
       <c r="J54" s="16"/>
       <c r="K54" s="16"/>
       <c r="L54" s="17"/>
-      <c r="O54" s="22">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R54" s="22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S54" s="22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T54" s="22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A55" s="8">
         <v>53</v>
       </c>
@@ -2740,12 +3181,20 @@
       <c r="J55" s="16"/>
       <c r="K55" s="16"/>
       <c r="L55" s="17"/>
-      <c r="O55" s="22">
-        <f t="shared" si="0"/>
+      <c r="R55" s="22">
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
-    </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="S55" s="22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T55" s="22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A56" s="8">
         <v>54</v>
       </c>
@@ -2768,12 +3217,20 @@
       <c r="J56" s="16"/>
       <c r="K56" s="16"/>
       <c r="L56" s="17"/>
-      <c r="O56" s="22">
-        <f t="shared" si="0"/>
+      <c r="R56" s="22">
+        <f t="shared" si="1"/>
         <v>28</v>
       </c>
-    </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="S56" s="22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T56" s="22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A57" s="8">
         <v>55</v>
       </c>
@@ -2796,12 +3253,20 @@
       <c r="J57" s="16"/>
       <c r="K57" s="16"/>
       <c r="L57" s="17"/>
-      <c r="O57" s="22">
-        <f t="shared" si="0"/>
+      <c r="R57" s="22">
+        <f t="shared" si="1"/>
         <v>24</v>
       </c>
-    </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="S57" s="22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T57" s="22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A58" s="8">
         <v>56</v>
       </c>
@@ -2824,12 +3289,20 @@
       <c r="J58" s="16"/>
       <c r="K58" s="16"/>
       <c r="L58" s="17"/>
-      <c r="O58" s="22">
-        <f t="shared" si="0"/>
+      <c r="R58" s="22">
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
-    </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="S58" s="22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T58" s="22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A59" s="8">
         <v>57</v>
       </c>
@@ -2852,12 +3325,20 @@
       <c r="J59" s="16"/>
       <c r="K59" s="16"/>
       <c r="L59" s="17"/>
-      <c r="O59" s="22">
-        <f t="shared" si="0"/>
+      <c r="R59" s="22">
+        <f t="shared" si="1"/>
         <v>32</v>
       </c>
-    </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="S59" s="22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T59" s="22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A60" s="8">
         <v>58</v>
       </c>
@@ -2880,12 +3361,20 @@
       <c r="J60" s="16"/>
       <c r="K60" s="16"/>
       <c r="L60" s="17"/>
-      <c r="O60" s="22">
-        <f t="shared" si="0"/>
+      <c r="R60" s="22">
+        <f t="shared" si="1"/>
         <v>13</v>
       </c>
-    </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="S60" s="22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T60" s="22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A61" s="8">
         <v>59</v>
       </c>
@@ -2908,12 +3397,20 @@
       <c r="J61" s="16"/>
       <c r="K61" s="16"/>
       <c r="L61" s="17"/>
-      <c r="O61" s="22">
-        <f t="shared" si="0"/>
+      <c r="R61" s="22">
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
-    </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="S61" s="22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T61" s="22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A62" s="8">
         <v>59</v>
       </c>
@@ -2936,12 +3433,20 @@
       <c r="J62" s="16"/>
       <c r="K62" s="16"/>
       <c r="L62" s="17"/>
-      <c r="O62" s="22">
-        <f t="shared" si="0"/>
+      <c r="R62" s="22">
+        <f t="shared" si="1"/>
         <v>14</v>
       </c>
-    </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="S62" s="22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T62" s="22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A63" s="8">
         <v>60</v>
       </c>
@@ -2964,12 +3469,20 @@
       <c r="J63" s="16"/>
       <c r="K63" s="16"/>
       <c r="L63" s="17"/>
-      <c r="O63" s="22">
-        <f t="shared" si="0"/>
+      <c r="R63" s="22">
+        <f t="shared" si="1"/>
         <v>17</v>
       </c>
-    </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="S63" s="22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T63" s="22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A64" s="8">
         <v>61</v>
       </c>
@@ -2992,12 +3505,20 @@
       <c r="J64" s="16"/>
       <c r="K64" s="16"/>
       <c r="L64" s="17"/>
-      <c r="O64" s="22">
-        <f t="shared" si="0"/>
+      <c r="R64" s="22">
+        <f t="shared" si="1"/>
         <v>14</v>
       </c>
-    </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="S64" s="22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T64" s="22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A65" s="8">
         <v>62</v>
       </c>
@@ -3020,12 +3541,20 @@
       <c r="J65" s="16"/>
       <c r="K65" s="16"/>
       <c r="L65" s="17"/>
-      <c r="O65" s="22">
-        <f t="shared" si="0"/>
+      <c r="R65" s="22">
+        <f t="shared" si="1"/>
         <v>23</v>
       </c>
-    </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="S65" s="22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T65" s="22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A66" s="8">
         <v>63</v>
       </c>
@@ -3048,12 +3577,20 @@
       <c r="J66" s="16"/>
       <c r="K66" s="16"/>
       <c r="L66" s="17"/>
-      <c r="O66" s="22">
-        <f t="shared" si="0"/>
+      <c r="R66" s="22">
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
-    </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="S66" s="22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T66" s="22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A67" s="8">
         <v>64</v>
       </c>
@@ -3076,12 +3613,20 @@
       <c r="J67" s="16"/>
       <c r="K67" s="16"/>
       <c r="L67" s="17"/>
-      <c r="O67" s="22">
-        <f t="shared" si="0"/>
+      <c r="R67" s="22">
+        <f t="shared" si="1"/>
         <v>18</v>
       </c>
-    </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="S67" s="22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T67" s="22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A68" s="8">
         <v>65</v>
       </c>
@@ -3104,12 +3649,20 @@
       <c r="J68" s="16"/>
       <c r="K68" s="16"/>
       <c r="L68" s="17"/>
-      <c r="O68" s="22">
-        <f t="shared" ref="O68:O111" si="1">SUM(D68)+G68+J68</f>
+      <c r="R68" s="22">
+        <f t="shared" ref="R68:T111" si="2">SUM(D68)+G68+O68</f>
         <v>20</v>
       </c>
-    </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="S68" s="22">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T68" s="22">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A69" s="8">
         <v>66</v>
       </c>
@@ -3132,12 +3685,20 @@
       <c r="J69" s="16"/>
       <c r="K69" s="16"/>
       <c r="L69" s="17"/>
-      <c r="O69" s="22">
-        <f t="shared" si="1"/>
+      <c r="R69" s="22">
+        <f t="shared" si="2"/>
         <v>14</v>
       </c>
-    </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="S69" s="22">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T69" s="22">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A70" s="8">
         <v>67</v>
       </c>
@@ -3160,12 +3721,20 @@
       <c r="J70" s="16"/>
       <c r="K70" s="16"/>
       <c r="L70" s="17"/>
-      <c r="O70" s="22">
-        <f t="shared" si="1"/>
+      <c r="R70" s="22">
+        <f t="shared" si="2"/>
         <v>18</v>
       </c>
-    </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="S70" s="22">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T70" s="22">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A71" s="8">
         <v>68</v>
       </c>
@@ -3188,12 +3757,20 @@
       <c r="J71" s="16"/>
       <c r="K71" s="16"/>
       <c r="L71" s="17"/>
-      <c r="O71" s="22">
-        <f t="shared" si="1"/>
+      <c r="R71" s="22">
+        <f t="shared" si="2"/>
         <v>15</v>
       </c>
-    </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="S71" s="22">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T71" s="22">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A72" s="8">
         <v>69</v>
       </c>
@@ -3216,12 +3793,20 @@
       <c r="J72" s="16"/>
       <c r="K72" s="16"/>
       <c r="L72" s="17"/>
-      <c r="O72" s="22">
-        <f t="shared" si="1"/>
+      <c r="R72" s="22">
+        <f t="shared" si="2"/>
         <v>14</v>
       </c>
-    </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="S72" s="22">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T72" s="22">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A73" s="8">
         <v>70</v>
       </c>
@@ -3244,12 +3829,20 @@
       <c r="J73" s="16"/>
       <c r="K73" s="16"/>
       <c r="L73" s="17"/>
-      <c r="O73" s="22">
-        <f t="shared" si="1"/>
+      <c r="R73" s="22">
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
-    </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="S73" s="22">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T73" s="22">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A74" s="8">
         <v>71</v>
       </c>
@@ -3272,12 +3865,20 @@
       <c r="J74" s="16"/>
       <c r="K74" s="16"/>
       <c r="L74" s="17"/>
-      <c r="O74" s="22">
-        <f t="shared" si="1"/>
+      <c r="R74" s="22">
+        <f t="shared" si="2"/>
         <v>17</v>
       </c>
-    </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="S74" s="22">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T74" s="22">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A75" s="8">
         <v>72</v>
       </c>
@@ -3300,12 +3901,20 @@
       <c r="J75" s="16"/>
       <c r="K75" s="16"/>
       <c r="L75" s="17"/>
-      <c r="O75" s="22">
-        <f t="shared" si="1"/>
+      <c r="R75" s="22">
+        <f t="shared" si="2"/>
         <v>13</v>
       </c>
-    </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="S75" s="22">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T75" s="22">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A76" s="8">
         <v>73</v>
       </c>
@@ -3328,12 +3937,20 @@
       <c r="J76" s="16"/>
       <c r="K76" s="16"/>
       <c r="L76" s="17"/>
-      <c r="O76" s="22">
-        <f t="shared" si="1"/>
+      <c r="R76" s="22">
+        <f t="shared" si="2"/>
         <v>17</v>
       </c>
-    </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="S76" s="22">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T76" s="22">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A77" s="8">
         <v>74</v>
       </c>
@@ -3356,12 +3973,20 @@
       <c r="J77" s="16"/>
       <c r="K77" s="16"/>
       <c r="L77" s="17"/>
-      <c r="O77" s="22">
-        <f t="shared" si="1"/>
+      <c r="R77" s="22">
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
-    </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="S77" s="22">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T77" s="22">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A78" s="8">
         <v>75</v>
       </c>
@@ -3384,12 +4009,20 @@
       <c r="J78" s="16"/>
       <c r="K78" s="16"/>
       <c r="L78" s="17"/>
-      <c r="O78" s="22">
-        <f t="shared" si="1"/>
+      <c r="R78" s="22">
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
-    </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="S78" s="22">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T78" s="22">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A79" s="8">
         <v>76</v>
       </c>
@@ -3412,12 +4045,20 @@
       <c r="J79" s="16"/>
       <c r="K79" s="16"/>
       <c r="L79" s="17"/>
-      <c r="O79" s="22">
-        <f t="shared" si="1"/>
+      <c r="R79" s="22">
+        <f t="shared" si="2"/>
         <v>22</v>
       </c>
-    </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="S79" s="22">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T79" s="22">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A80" s="8">
         <v>77</v>
       </c>
@@ -3440,12 +4081,20 @@
       <c r="J80" s="16"/>
       <c r="K80" s="16"/>
       <c r="L80" s="17"/>
-      <c r="O80" s="22">
-        <f t="shared" si="1"/>
+      <c r="R80" s="22">
+        <f t="shared" si="2"/>
         <v>22</v>
       </c>
-    </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="S80" s="22">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T80" s="22">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A81" s="8">
         <v>78</v>
       </c>
@@ -3468,12 +4117,20 @@
       <c r="J81" s="16"/>
       <c r="K81" s="16"/>
       <c r="L81" s="17"/>
-      <c r="O81" s="22">
-        <f t="shared" si="1"/>
+      <c r="R81" s="22">
+        <f t="shared" si="2"/>
         <v>13</v>
       </c>
-    </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="S81" s="22">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T81" s="22">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A82" s="8">
         <v>79</v>
       </c>
@@ -3496,12 +4153,20 @@
       <c r="J82" s="16"/>
       <c r="K82" s="16"/>
       <c r="L82" s="17"/>
-      <c r="O82" s="22">
-        <f t="shared" si="1"/>
+      <c r="R82" s="22">
+        <f t="shared" si="2"/>
         <v>25</v>
       </c>
-    </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="S82" s="22">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T82" s="22">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A83" s="8">
         <v>80</v>
       </c>
@@ -3524,12 +4189,20 @@
       <c r="J83" s="16"/>
       <c r="K83" s="16"/>
       <c r="L83" s="17"/>
-      <c r="O83" s="22">
-        <f t="shared" si="1"/>
+      <c r="R83" s="22">
+        <f t="shared" si="2"/>
         <v>13</v>
       </c>
-    </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="S83" s="22">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T83" s="22">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A84" s="8">
         <v>81</v>
       </c>
@@ -3552,12 +4225,20 @@
       <c r="J84" s="16"/>
       <c r="K84" s="16"/>
       <c r="L84" s="17"/>
-      <c r="O84" s="22">
-        <f t="shared" si="1"/>
+      <c r="R84" s="22">
+        <f t="shared" si="2"/>
         <v>13</v>
       </c>
-    </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="S84" s="22">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T84" s="22">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A85" s="8">
         <v>82</v>
       </c>
@@ -3580,12 +4261,20 @@
       <c r="J85" s="16"/>
       <c r="K85" s="16"/>
       <c r="L85" s="17"/>
-      <c r="O85" s="22">
-        <f t="shared" si="1"/>
+      <c r="R85" s="22">
+        <f t="shared" si="2"/>
         <v>17</v>
       </c>
-    </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="S85" s="22">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T85" s="22">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A86" s="8">
         <v>83</v>
       </c>
@@ -3608,12 +4297,20 @@
       <c r="J86" s="16"/>
       <c r="K86" s="16"/>
       <c r="L86" s="17"/>
-      <c r="O86" s="22">
-        <f t="shared" si="1"/>
+      <c r="R86" s="22">
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
-    </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="S86" s="22">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T86" s="22">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A87" s="8">
         <v>84</v>
       </c>
@@ -3636,12 +4333,20 @@
       <c r="J87" s="16"/>
       <c r="K87" s="16"/>
       <c r="L87" s="17"/>
-      <c r="O87" s="22">
-        <f t="shared" si="1"/>
+      <c r="R87" s="22">
+        <f t="shared" si="2"/>
         <v>25</v>
       </c>
-    </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="S87" s="22">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T87" s="22">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A88" s="8">
         <v>85</v>
       </c>
@@ -3664,12 +4369,20 @@
       <c r="J88" s="16"/>
       <c r="K88" s="16"/>
       <c r="L88" s="17"/>
-      <c r="O88" s="22">
-        <f t="shared" si="1"/>
+      <c r="R88" s="22">
+        <f t="shared" si="2"/>
         <v>19</v>
       </c>
-    </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="S88" s="22">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T88" s="22">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A89" s="8">
         <v>86</v>
       </c>
@@ -3692,12 +4405,20 @@
       <c r="J89" s="16"/>
       <c r="K89" s="16"/>
       <c r="L89" s="17"/>
-      <c r="O89" s="22">
-        <f t="shared" si="1"/>
+      <c r="R89" s="22">
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
-    </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="S89" s="22">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T89" s="22">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A90" s="8">
         <v>87</v>
       </c>
@@ -3720,12 +4441,20 @@
       <c r="J90" s="16"/>
       <c r="K90" s="16"/>
       <c r="L90" s="17"/>
-      <c r="O90" s="22">
-        <f t="shared" si="1"/>
+      <c r="R90" s="22">
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
-    </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="S90" s="22">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T90" s="22">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A91" s="8">
         <v>88</v>
       </c>
@@ -3748,12 +4477,20 @@
       <c r="J91" s="16"/>
       <c r="K91" s="16"/>
       <c r="L91" s="17"/>
-      <c r="O91" s="22">
-        <f t="shared" si="1"/>
+      <c r="R91" s="22">
+        <f t="shared" si="2"/>
         <v>21</v>
       </c>
-    </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="S91" s="22">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T91" s="22">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A92" s="8">
         <v>89</v>
       </c>
@@ -3776,12 +4513,20 @@
       <c r="J92" s="16"/>
       <c r="K92" s="16"/>
       <c r="L92" s="17"/>
-      <c r="O92" s="22">
-        <f t="shared" si="1"/>
+      <c r="R92" s="22">
+        <f t="shared" si="2"/>
         <v>18</v>
       </c>
-    </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="S92" s="22">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T92" s="22">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A93" s="8">
         <v>90</v>
       </c>
@@ -3804,12 +4549,20 @@
       <c r="J93" s="16"/>
       <c r="K93" s="16"/>
       <c r="L93" s="17"/>
-      <c r="O93" s="22">
-        <f t="shared" si="1"/>
+      <c r="R93" s="22">
+        <f t="shared" si="2"/>
         <v>21</v>
       </c>
-    </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="S93" s="22">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T93" s="22">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A94" s="8">
         <v>91</v>
       </c>
@@ -3832,12 +4585,20 @@
       <c r="J94" s="16"/>
       <c r="K94" s="16"/>
       <c r="L94" s="17"/>
-      <c r="O94" s="22">
-        <f t="shared" si="1"/>
+      <c r="R94" s="22">
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
-    </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="S94" s="22">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T94" s="22">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A95" s="8">
         <v>92</v>
       </c>
@@ -3860,12 +4621,20 @@
       <c r="J95" s="16"/>
       <c r="K95" s="16"/>
       <c r="L95" s="17"/>
-      <c r="O95" s="22">
-        <f t="shared" si="1"/>
+      <c r="R95" s="22">
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
-    </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="S95" s="22">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T95" s="22">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A96" s="8">
         <v>93</v>
       </c>
@@ -3888,12 +4657,20 @@
       <c r="J96" s="16"/>
       <c r="K96" s="16"/>
       <c r="L96" s="17"/>
-      <c r="O96" s="22">
-        <f t="shared" si="1"/>
+      <c r="R96" s="22">
+        <f t="shared" si="2"/>
         <v>14</v>
       </c>
-    </row>
-    <row r="97" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="S96" s="22">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T96" s="22">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A97" s="8">
         <v>94</v>
       </c>
@@ -3916,12 +4693,20 @@
       <c r="J97" s="16"/>
       <c r="K97" s="16"/>
       <c r="L97" s="17"/>
-      <c r="O97" s="22">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="98" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R97" s="22">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="S97" s="22">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T97" s="22">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A98" s="8">
         <v>95</v>
       </c>
@@ -3944,12 +4729,20 @@
       <c r="J98" s="16"/>
       <c r="K98" s="16"/>
       <c r="L98" s="17"/>
-      <c r="O98" s="22">
-        <f t="shared" si="1"/>
+      <c r="R98" s="22">
+        <f t="shared" si="2"/>
         <v>17</v>
       </c>
-    </row>
-    <row r="99" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="S98" s="22">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T98" s="22">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A99" s="8">
         <v>96</v>
       </c>
@@ -3972,12 +4765,20 @@
       <c r="J99" s="16"/>
       <c r="K99" s="16"/>
       <c r="L99" s="17"/>
-      <c r="O99" s="22">
-        <f t="shared" si="1"/>
+      <c r="R99" s="22">
+        <f t="shared" si="2"/>
         <v>19</v>
       </c>
-    </row>
-    <row r="100" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="S99" s="22">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T99" s="22">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A100" s="8">
         <v>97</v>
       </c>
@@ -4001,12 +4802,20 @@
       <c r="K100" s="16"/>
       <c r="L100" s="17"/>
       <c r="M100" s="20"/>
-      <c r="O100" s="22">
-        <f t="shared" si="1"/>
+      <c r="R100" s="22">
+        <f t="shared" si="2"/>
         <v>15</v>
       </c>
-    </row>
-    <row r="101" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="S100" s="22">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T100" s="22">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A101" s="8">
         <v>98</v>
       </c>
@@ -4029,12 +4838,20 @@
       <c r="J101" s="16"/>
       <c r="K101" s="16"/>
       <c r="L101" s="17"/>
-      <c r="O101" s="22">
-        <f t="shared" si="1"/>
+      <c r="R101" s="22">
+        <f t="shared" si="2"/>
         <v>15</v>
       </c>
-    </row>
-    <row r="102" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="S101" s="22">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T101" s="22">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A102" s="8">
         <v>99</v>
       </c>
@@ -4057,12 +4874,20 @@
       <c r="J102" s="16"/>
       <c r="K102" s="16"/>
       <c r="L102" s="17"/>
-      <c r="O102" s="22">
-        <f t="shared" si="1"/>
+      <c r="R102" s="22">
+        <f t="shared" si="2"/>
         <v>14</v>
       </c>
-    </row>
-    <row r="103" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="S102" s="22">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T102" s="22">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A103" s="8">
         <v>100</v>
       </c>
@@ -4085,12 +4910,20 @@
       <c r="J103" s="16"/>
       <c r="K103" s="16"/>
       <c r="L103" s="17"/>
-      <c r="O103" s="22">
-        <f t="shared" si="1"/>
+      <c r="R103" s="22">
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
-    </row>
-    <row r="104" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="S103" s="22">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T103" s="22">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A104" s="8">
         <v>101</v>
       </c>
@@ -4113,12 +4946,20 @@
       <c r="J104" s="16"/>
       <c r="K104" s="16"/>
       <c r="L104" s="17"/>
-      <c r="O104" s="22">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R104" s="22">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S104" s="22">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T104" s="22">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A105" s="8">
         <v>102</v>
       </c>
@@ -4141,12 +4982,20 @@
       <c r="J105" s="16"/>
       <c r="K105" s="16"/>
       <c r="L105" s="17"/>
-      <c r="O105" s="22">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="106" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R105" s="22">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S105" s="22">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T105" s="22">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A106" s="8">
         <v>103</v>
       </c>
@@ -4169,12 +5018,20 @@
       <c r="J106" s="16"/>
       <c r="K106" s="16"/>
       <c r="L106" s="17"/>
-      <c r="O106" s="22">
-        <f t="shared" si="1"/>
+      <c r="R106" s="22">
+        <f t="shared" si="2"/>
         <v>11</v>
       </c>
-    </row>
-    <row r="107" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="S106" s="22">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T106" s="22">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A107" s="8">
         <v>104</v>
       </c>
@@ -4197,12 +5054,20 @@
       <c r="J107" s="16"/>
       <c r="K107" s="16"/>
       <c r="L107" s="17"/>
-      <c r="O107" s="22">
-        <f t="shared" si="1"/>
+      <c r="R107" s="22">
+        <f t="shared" si="2"/>
         <v>23</v>
       </c>
-    </row>
-    <row r="108" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="S107" s="22">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T107" s="22">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A108" s="8">
         <v>105</v>
       </c>
@@ -4225,12 +5090,20 @@
       <c r="J108" s="16"/>
       <c r="K108" s="16"/>
       <c r="L108" s="17"/>
-      <c r="O108" s="22">
-        <f t="shared" si="1"/>
+      <c r="R108" s="22">
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
-    </row>
-    <row r="109" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="S108" s="22">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T108" s="22">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A109" s="8">
         <v>106</v>
       </c>
@@ -4253,12 +5126,20 @@
       <c r="J109" s="16"/>
       <c r="K109" s="16"/>
       <c r="L109" s="17"/>
-      <c r="O109" s="22">
-        <f t="shared" si="1"/>
+      <c r="R109" s="22">
+        <f t="shared" si="2"/>
         <v>21</v>
       </c>
-    </row>
-    <row r="110" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="S109" s="22">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T109" s="22">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A110" s="8">
         <v>107</v>
       </c>
@@ -4281,12 +5162,20 @@
       <c r="J110" s="16"/>
       <c r="K110" s="16"/>
       <c r="L110" s="17"/>
-      <c r="O110" s="22">
-        <f t="shared" si="1"/>
+      <c r="R110" s="22">
+        <f t="shared" si="2"/>
         <v>22</v>
       </c>
-    </row>
-    <row r="111" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="S110" s="22">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T110" s="22">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A111" s="8">
         <v>108</v>
       </c>
@@ -4309,13 +5198,21 @@
       <c r="J111" s="16"/>
       <c r="K111" s="16"/>
       <c r="L111" s="17"/>
-      <c r="O111" s="22">
-        <f t="shared" si="1"/>
+      <c r="R111" s="22">
+        <f t="shared" si="2"/>
         <v>21</v>
       </c>
+      <c r="S111" s="22">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T111" s="22">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:Q111" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A2:T111"/>
   <mergeCells count="1">
     <mergeCell ref="A1:L1"/>
   </mergeCells>
@@ -4325,11 +5222,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O120"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D92" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="L120" sqref="L120"/>
@@ -4351,20 +5248,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
-      <c r="J1" s="21"/>
-      <c r="K1" s="21"/>
-      <c r="L1" s="21"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
+      <c r="K1" s="23"/>
+      <c r="L1" s="23"/>
     </row>
     <row r="2" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">

--- a/static/Upload/5th sem.xlsx
+++ b/static/Upload/5th sem.xlsx
@@ -898,11 +898,11 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1187,10 +1187,10 @@
   <dimension ref="A1:T111"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D50" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="P11" sqref="P11"/>
+      <selection pane="bottomRight" activeCell="H57" sqref="H57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1209,20 +1209,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="24" t="s">
         <v>227</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
-      <c r="K1" s="23"/>
-      <c r="L1" s="23"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="24"/>
+      <c r="L1" s="24"/>
     </row>
     <row r="2" spans="1:20" s="2" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
@@ -1267,13 +1267,13 @@
       <c r="N2" s="11" t="s">
         <v>230</v>
       </c>
-      <c r="O2" s="24" t="s">
+      <c r="O2" s="23" t="s">
         <v>236</v>
       </c>
-      <c r="P2" s="24" t="s">
+      <c r="P2" s="23" t="s">
         <v>237</v>
       </c>
-      <c r="Q2" s="24" t="s">
+      <c r="Q2" s="23" t="s">
         <v>238</v>
       </c>
       <c r="R2" s="2" t="s">
@@ -1518,7 +1518,7 @@
       <c r="E9" s="16"/>
       <c r="F9" s="16"/>
       <c r="G9" s="16">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H9" s="8"/>
       <c r="I9" s="8"/>
@@ -1527,7 +1527,7 @@
       <c r="L9" s="17"/>
       <c r="R9" s="22">
         <f t="shared" si="1"/>
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="S9" s="22">
         <f t="shared" si="0"/>
@@ -3174,7 +3174,7 @@
       <c r="E55" s="16"/>
       <c r="F55" s="16"/>
       <c r="G55" s="16">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H55" s="8"/>
       <c r="I55" s="8"/>
@@ -3183,7 +3183,7 @@
       <c r="L55" s="17"/>
       <c r="R55" s="22">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="S55" s="22">
         <f t="shared" si="1"/>
@@ -5248,20 +5248,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
-      <c r="K1" s="23"/>
-      <c r="L1" s="23"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="24"/>
+      <c r="L1" s="24"/>
     </row>
     <row r="2" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">

--- a/static/Upload/5th sem.xlsx
+++ b/static/Upload/5th sem.xlsx
@@ -1187,10 +1187,10 @@
   <dimension ref="A1:T111"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D50" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D48" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H57" sqref="H57"/>
+      <selection pane="bottomRight" activeCell="G60" sqref="G60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1554,7 +1554,7 @@
       <c r="E10" s="16"/>
       <c r="F10" s="16"/>
       <c r="G10" s="16">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H10" s="8"/>
       <c r="I10" s="8"/>
@@ -1563,7 +1563,7 @@
       <c r="L10" s="17"/>
       <c r="R10" s="22">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="S10" s="22">
         <f t="shared" si="0"/>
@@ -1626,7 +1626,7 @@
       <c r="E12" s="16"/>
       <c r="F12" s="16"/>
       <c r="G12" s="16">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H12" s="8"/>
       <c r="I12" s="8"/>
@@ -1635,7 +1635,7 @@
       <c r="L12" s="17"/>
       <c r="R12" s="22">
         <f t="shared" si="1"/>
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="S12" s="22">
         <f t="shared" si="0"/>
@@ -2058,7 +2058,7 @@
       <c r="E24" s="16"/>
       <c r="F24" s="16"/>
       <c r="G24" s="16">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H24" s="8"/>
       <c r="I24" s="8"/>
@@ -2067,7 +2067,7 @@
       <c r="L24" s="17"/>
       <c r="R24" s="22">
         <f t="shared" si="1"/>
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="S24" s="22">
         <f t="shared" si="1"/>
@@ -2274,7 +2274,7 @@
       <c r="E30" s="16"/>
       <c r="F30" s="16"/>
       <c r="G30" s="16">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H30" s="8"/>
       <c r="I30" s="8"/>
@@ -2283,7 +2283,7 @@
       <c r="L30" s="17"/>
       <c r="R30" s="22">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="S30" s="22">
         <f t="shared" si="1"/>
@@ -3354,7 +3354,7 @@
       <c r="E60" s="16"/>
       <c r="F60" s="16"/>
       <c r="G60" s="16">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H60" s="8"/>
       <c r="I60" s="8"/>
@@ -3363,7 +3363,7 @@
       <c r="L60" s="17"/>
       <c r="R60" s="22">
         <f t="shared" si="1"/>
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="S60" s="22">
         <f t="shared" si="1"/>

--- a/static/Upload/5th sem.xlsx
+++ b/static/Upload/5th sem.xlsx
@@ -908,7 +908,28 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1187,10 +1208,10 @@
   <dimension ref="A1:T111"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D48" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="I2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G60" sqref="G60"/>
+      <selection pane="bottomRight" activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1307,7 +1328,9 @@
       <c r="H3" s="8"/>
       <c r="I3" s="8"/>
       <c r="J3" s="16"/>
-      <c r="K3" s="16"/>
+      <c r="K3" s="16">
+        <v>25</v>
+      </c>
       <c r="L3" s="17"/>
       <c r="R3" s="22">
         <f>SUM(D3)+G3+O3</f>
@@ -1343,7 +1366,9 @@
       <c r="H4" s="8"/>
       <c r="I4" s="8"/>
       <c r="J4" s="16"/>
-      <c r="K4" s="16"/>
+      <c r="K4" s="16">
+        <v>30</v>
+      </c>
       <c r="L4" s="17"/>
       <c r="R4" s="22">
         <f t="shared" ref="R4:T67" si="1">SUM(D4)+G4+O4</f>
@@ -1379,7 +1404,9 @@
       <c r="H5" s="8"/>
       <c r="I5" s="8"/>
       <c r="J5" s="16"/>
-      <c r="K5" s="16"/>
+      <c r="K5" s="16">
+        <v>20</v>
+      </c>
       <c r="L5" s="17"/>
       <c r="R5" s="22">
         <f t="shared" si="1"/>
@@ -1415,7 +1442,9 @@
       <c r="H6" s="8"/>
       <c r="I6" s="8"/>
       <c r="J6" s="16"/>
-      <c r="K6" s="16"/>
+      <c r="K6" s="16">
+        <v>21</v>
+      </c>
       <c r="L6" s="17"/>
       <c r="R6" s="22">
         <f t="shared" si="1"/>
@@ -1451,7 +1480,9 @@
       <c r="H7" s="8"/>
       <c r="I7" s="8"/>
       <c r="J7" s="16"/>
-      <c r="K7" s="16"/>
+      <c r="K7" s="16">
+        <v>20</v>
+      </c>
       <c r="L7" s="17"/>
       <c r="R7" s="22">
         <f t="shared" si="1"/>
@@ -1487,7 +1518,9 @@
       <c r="H8" s="8"/>
       <c r="I8" s="8"/>
       <c r="J8" s="16"/>
-      <c r="K8" s="16"/>
+      <c r="K8" s="16">
+        <v>27</v>
+      </c>
       <c r="L8" s="17"/>
       <c r="R8" s="22">
         <f t="shared" si="1"/>
@@ -1523,7 +1556,9 @@
       <c r="H9" s="8"/>
       <c r="I9" s="8"/>
       <c r="J9" s="16"/>
-      <c r="K9" s="16"/>
+      <c r="K9" s="16">
+        <v>23</v>
+      </c>
       <c r="L9" s="17"/>
       <c r="R9" s="22">
         <f t="shared" si="1"/>
@@ -1559,7 +1594,9 @@
       <c r="H10" s="8"/>
       <c r="I10" s="8"/>
       <c r="J10" s="16"/>
-      <c r="K10" s="16"/>
+      <c r="K10" s="16">
+        <v>22</v>
+      </c>
       <c r="L10" s="17"/>
       <c r="R10" s="22">
         <f t="shared" si="1"/>
@@ -1595,7 +1632,9 @@
       <c r="H11" s="8"/>
       <c r="I11" s="8"/>
       <c r="J11" s="16"/>
-      <c r="K11" s="16"/>
+      <c r="K11" s="16">
+        <v>24</v>
+      </c>
       <c r="L11" s="17"/>
       <c r="R11" s="22">
         <f t="shared" si="1"/>
@@ -1631,7 +1670,9 @@
       <c r="H12" s="8"/>
       <c r="I12" s="8"/>
       <c r="J12" s="16"/>
-      <c r="K12" s="16"/>
+      <c r="K12" s="16">
+        <v>20</v>
+      </c>
       <c r="L12" s="17"/>
       <c r="R12" s="22">
         <f t="shared" si="1"/>
@@ -1667,7 +1708,9 @@
       <c r="H13" s="8"/>
       <c r="I13" s="8"/>
       <c r="J13" s="16"/>
-      <c r="K13" s="16"/>
+      <c r="K13" s="16">
+        <v>24</v>
+      </c>
       <c r="L13" s="17"/>
       <c r="R13" s="22">
         <f t="shared" si="1"/>
@@ -1703,7 +1746,9 @@
       <c r="H14" s="8"/>
       <c r="I14" s="8"/>
       <c r="J14" s="16"/>
-      <c r="K14" s="16"/>
+      <c r="K14" s="16">
+        <v>22</v>
+      </c>
       <c r="L14" s="17"/>
       <c r="R14" s="22">
         <f t="shared" si="1"/>
@@ -1739,7 +1784,9 @@
       <c r="H15" s="8"/>
       <c r="I15" s="8"/>
       <c r="J15" s="16"/>
-      <c r="K15" s="16"/>
+      <c r="K15" s="16">
+        <v>35</v>
+      </c>
       <c r="L15" s="17"/>
       <c r="R15" s="22">
         <f t="shared" si="1"/>
@@ -1775,7 +1822,9 @@
       <c r="H16" s="8"/>
       <c r="I16" s="8"/>
       <c r="J16" s="16"/>
-      <c r="K16" s="16"/>
+      <c r="K16" s="16">
+        <v>28</v>
+      </c>
       <c r="L16" s="17"/>
       <c r="R16" s="22">
         <f t="shared" si="1"/>
@@ -1811,7 +1860,9 @@
       <c r="H17" s="8"/>
       <c r="I17" s="8"/>
       <c r="J17" s="16"/>
-      <c r="K17" s="16"/>
+      <c r="K17" s="16">
+        <v>25</v>
+      </c>
       <c r="L17" s="17"/>
       <c r="R17" s="22">
         <f t="shared" si="1"/>
@@ -1847,7 +1898,9 @@
       <c r="H18" s="8"/>
       <c r="I18" s="8"/>
       <c r="J18" s="16"/>
-      <c r="K18" s="16"/>
+      <c r="K18" s="16">
+        <v>17</v>
+      </c>
       <c r="L18" s="17"/>
       <c r="R18" s="22">
         <f t="shared" si="1"/>
@@ -1883,7 +1936,9 @@
       <c r="H19" s="8"/>
       <c r="I19" s="8"/>
       <c r="J19" s="16"/>
-      <c r="K19" s="16"/>
+      <c r="K19" s="16">
+        <v>18</v>
+      </c>
       <c r="L19" s="17"/>
       <c r="R19" s="22">
         <f t="shared" si="1"/>
@@ -1919,7 +1974,9 @@
       <c r="H20" s="8"/>
       <c r="I20" s="8"/>
       <c r="J20" s="16"/>
-      <c r="K20" s="16"/>
+      <c r="K20" s="16">
+        <v>28</v>
+      </c>
       <c r="L20" s="17"/>
       <c r="R20" s="22">
         <f t="shared" si="1"/>
@@ -1955,7 +2012,9 @@
       <c r="H21" s="8"/>
       <c r="I21" s="8"/>
       <c r="J21" s="16"/>
-      <c r="K21" s="16"/>
+      <c r="K21" s="16">
+        <v>20</v>
+      </c>
       <c r="L21" s="17"/>
       <c r="R21" s="22">
         <f t="shared" si="1"/>
@@ -1991,7 +2050,9 @@
       <c r="H22" s="8"/>
       <c r="I22" s="8"/>
       <c r="J22" s="16"/>
-      <c r="K22" s="16"/>
+      <c r="K22" s="16">
+        <v>24</v>
+      </c>
       <c r="L22" s="17"/>
       <c r="R22" s="22">
         <f t="shared" si="1"/>
@@ -2027,7 +2088,9 @@
       <c r="H23" s="8"/>
       <c r="I23" s="8"/>
       <c r="J23" s="16"/>
-      <c r="K23" s="16"/>
+      <c r="K23" s="16">
+        <v>16</v>
+      </c>
       <c r="L23" s="17"/>
       <c r="R23" s="22">
         <f t="shared" si="1"/>
@@ -2063,7 +2126,9 @@
       <c r="H24" s="8"/>
       <c r="I24" s="8"/>
       <c r="J24" s="16"/>
-      <c r="K24" s="16"/>
+      <c r="K24" s="16">
+        <v>23</v>
+      </c>
       <c r="L24" s="17"/>
       <c r="R24" s="22">
         <f t="shared" si="1"/>
@@ -2099,7 +2164,9 @@
       <c r="H25" s="8"/>
       <c r="I25" s="8"/>
       <c r="J25" s="16"/>
-      <c r="K25" s="16"/>
+      <c r="K25" s="16">
+        <v>20</v>
+      </c>
       <c r="L25" s="17"/>
       <c r="R25" s="22">
         <f t="shared" si="1"/>
@@ -2135,7 +2202,9 @@
       <c r="H26" s="8"/>
       <c r="I26" s="8"/>
       <c r="J26" s="16"/>
-      <c r="K26" s="16"/>
+      <c r="K26" s="16">
+        <v>33</v>
+      </c>
       <c r="L26" s="17"/>
       <c r="R26" s="22">
         <f t="shared" si="1"/>
@@ -2171,7 +2240,9 @@
       <c r="H27" s="8"/>
       <c r="I27" s="8"/>
       <c r="J27" s="16"/>
-      <c r="K27" s="16"/>
+      <c r="K27" s="16">
+        <v>23</v>
+      </c>
       <c r="L27" s="17"/>
       <c r="R27" s="22">
         <f t="shared" si="1"/>
@@ -2207,7 +2278,9 @@
       <c r="H28" s="8"/>
       <c r="I28" s="8"/>
       <c r="J28" s="16"/>
-      <c r="K28" s="16"/>
+      <c r="K28" s="16">
+        <v>20</v>
+      </c>
       <c r="L28" s="17"/>
       <c r="R28" s="22">
         <f t="shared" si="1"/>
@@ -2243,7 +2316,9 @@
       <c r="H29" s="8"/>
       <c r="I29" s="8"/>
       <c r="J29" s="16"/>
-      <c r="K29" s="16"/>
+      <c r="K29" s="16">
+        <v>21</v>
+      </c>
       <c r="L29" s="17"/>
       <c r="R29" s="22">
         <f t="shared" si="1"/>
@@ -2279,7 +2354,9 @@
       <c r="H30" s="8"/>
       <c r="I30" s="8"/>
       <c r="J30" s="16"/>
-      <c r="K30" s="16"/>
+      <c r="K30" s="16">
+        <v>28</v>
+      </c>
       <c r="L30" s="17"/>
       <c r="R30" s="22">
         <f t="shared" si="1"/>
@@ -2315,7 +2392,9 @@
       <c r="H31" s="8"/>
       <c r="I31" s="8"/>
       <c r="J31" s="16"/>
-      <c r="K31" s="16"/>
+      <c r="K31" s="16">
+        <v>20</v>
+      </c>
       <c r="L31" s="17"/>
       <c r="R31" s="22">
         <f t="shared" si="1"/>
@@ -2351,7 +2430,9 @@
       <c r="H32" s="8"/>
       <c r="I32" s="8"/>
       <c r="J32" s="16"/>
-      <c r="K32" s="16"/>
+      <c r="K32" s="16">
+        <v>20</v>
+      </c>
       <c r="L32" s="17"/>
       <c r="R32" s="22">
         <f t="shared" si="1"/>
@@ -2387,7 +2468,9 @@
       <c r="H33" s="8"/>
       <c r="I33" s="8"/>
       <c r="J33" s="16"/>
-      <c r="K33" s="16"/>
+      <c r="K33" s="16">
+        <v>26</v>
+      </c>
       <c r="L33" s="17"/>
       <c r="R33" s="22">
         <f t="shared" si="1"/>
@@ -2423,7 +2506,9 @@
       <c r="H34" s="8"/>
       <c r="I34" s="8"/>
       <c r="J34" s="16"/>
-      <c r="K34" s="16"/>
+      <c r="K34" s="16">
+        <v>22</v>
+      </c>
       <c r="L34" s="17"/>
       <c r="R34" s="22">
         <f t="shared" si="1"/>
@@ -2459,7 +2544,9 @@
       <c r="H35" s="8"/>
       <c r="I35" s="8"/>
       <c r="J35" s="16"/>
-      <c r="K35" s="16"/>
+      <c r="K35" s="16">
+        <v>22</v>
+      </c>
       <c r="L35" s="17"/>
       <c r="R35" s="22">
         <f t="shared" si="1"/>
@@ -2495,7 +2582,9 @@
       <c r="H36" s="8"/>
       <c r="I36" s="8"/>
       <c r="J36" s="16"/>
-      <c r="K36" s="16"/>
+      <c r="K36" s="16">
+        <v>26</v>
+      </c>
       <c r="L36" s="17"/>
       <c r="R36" s="22">
         <f t="shared" si="1"/>
@@ -2531,7 +2620,9 @@
       <c r="H37" s="8"/>
       <c r="I37" s="8"/>
       <c r="J37" s="16"/>
-      <c r="K37" s="16"/>
+      <c r="K37" s="16">
+        <v>24</v>
+      </c>
       <c r="L37" s="17"/>
       <c r="R37" s="22">
         <f t="shared" si="1"/>
@@ -2567,7 +2658,9 @@
       <c r="H38" s="8"/>
       <c r="I38" s="8"/>
       <c r="J38" s="16"/>
-      <c r="K38" s="16"/>
+      <c r="K38" s="16">
+        <v>24</v>
+      </c>
       <c r="L38" s="17"/>
       <c r="R38" s="22">
         <f t="shared" si="1"/>
@@ -2603,7 +2696,9 @@
       <c r="H39" s="8"/>
       <c r="I39" s="8"/>
       <c r="J39" s="16"/>
-      <c r="K39" s="16"/>
+      <c r="K39" s="16">
+        <v>27</v>
+      </c>
       <c r="L39" s="17"/>
       <c r="R39" s="22">
         <f t="shared" si="1"/>
@@ -2639,7 +2734,9 @@
       <c r="H40" s="8"/>
       <c r="I40" s="8"/>
       <c r="J40" s="16"/>
-      <c r="K40" s="16"/>
+      <c r="K40" s="16">
+        <v>23</v>
+      </c>
       <c r="L40" s="17"/>
       <c r="R40" s="22">
         <f t="shared" si="1"/>
@@ -2675,7 +2772,9 @@
       <c r="H41" s="8"/>
       <c r="I41" s="8"/>
       <c r="J41" s="16"/>
-      <c r="K41" s="16"/>
+      <c r="K41" s="16">
+        <v>0</v>
+      </c>
       <c r="L41" s="17"/>
       <c r="R41" s="22">
         <f t="shared" si="1"/>
@@ -2711,7 +2810,9 @@
       <c r="H42" s="8"/>
       <c r="I42" s="8"/>
       <c r="J42" s="16"/>
-      <c r="K42" s="16"/>
+      <c r="K42" s="16">
+        <v>21</v>
+      </c>
       <c r="L42" s="17"/>
       <c r="R42" s="22">
         <f t="shared" si="1"/>
@@ -2747,7 +2848,9 @@
       <c r="H43" s="8"/>
       <c r="I43" s="8"/>
       <c r="J43" s="16"/>
-      <c r="K43" s="16"/>
+      <c r="K43" s="16">
+        <v>29</v>
+      </c>
       <c r="L43" s="17"/>
       <c r="R43" s="22">
         <f t="shared" si="1"/>
@@ -2783,7 +2886,9 @@
       <c r="H44" s="8"/>
       <c r="I44" s="8"/>
       <c r="J44" s="16"/>
-      <c r="K44" s="16"/>
+      <c r="K44" s="16">
+        <v>27</v>
+      </c>
       <c r="L44" s="17"/>
       <c r="R44" s="22">
         <f t="shared" si="1"/>
@@ -2819,7 +2924,9 @@
       <c r="H45" s="8"/>
       <c r="I45" s="8"/>
       <c r="J45" s="16"/>
-      <c r="K45" s="16"/>
+      <c r="K45" s="16">
+        <v>32</v>
+      </c>
       <c r="L45" s="17"/>
       <c r="R45" s="22">
         <f t="shared" si="1"/>
@@ -2855,7 +2962,9 @@
       <c r="H46" s="8"/>
       <c r="I46" s="8"/>
       <c r="J46" s="16"/>
-      <c r="K46" s="16"/>
+      <c r="K46" s="16">
+        <v>29</v>
+      </c>
       <c r="L46" s="17"/>
       <c r="R46" s="22">
         <f t="shared" si="1"/>
@@ -2891,7 +3000,9 @@
       <c r="H47" s="8"/>
       <c r="I47" s="8"/>
       <c r="J47" s="16"/>
-      <c r="K47" s="16"/>
+      <c r="K47" s="16">
+        <v>25</v>
+      </c>
       <c r="L47" s="17"/>
       <c r="R47" s="22">
         <f t="shared" si="1"/>
@@ -2927,7 +3038,9 @@
       <c r="H48" s="8"/>
       <c r="I48" s="8"/>
       <c r="J48" s="16"/>
-      <c r="K48" s="16"/>
+      <c r="K48" s="16">
+        <v>25</v>
+      </c>
       <c r="L48" s="17"/>
       <c r="R48" s="22">
         <f t="shared" si="1"/>
@@ -2963,7 +3076,9 @@
       <c r="H49" s="8"/>
       <c r="I49" s="8"/>
       <c r="J49" s="16"/>
-      <c r="K49" s="16"/>
+      <c r="K49" s="16">
+        <v>30</v>
+      </c>
       <c r="L49" s="17"/>
       <c r="R49" s="22">
         <f t="shared" si="1"/>
@@ -2999,7 +3114,9 @@
       <c r="H50" s="8"/>
       <c r="I50" s="8"/>
       <c r="J50" s="16"/>
-      <c r="K50" s="16"/>
+      <c r="K50" s="16">
+        <v>35</v>
+      </c>
       <c r="L50" s="17"/>
       <c r="R50" s="22">
         <f t="shared" si="1"/>
@@ -3035,7 +3152,9 @@
       <c r="H51" s="8"/>
       <c r="I51" s="8"/>
       <c r="J51" s="16"/>
-      <c r="K51" s="16"/>
+      <c r="K51" s="16">
+        <v>25</v>
+      </c>
       <c r="L51" s="17"/>
       <c r="R51" s="22">
         <f t="shared" si="1"/>
@@ -3071,7 +3190,9 @@
       <c r="H52" s="8"/>
       <c r="I52" s="8"/>
       <c r="J52" s="16"/>
-      <c r="K52" s="16"/>
+      <c r="K52" s="16">
+        <v>6</v>
+      </c>
       <c r="L52" s="17"/>
       <c r="R52" s="22">
         <f t="shared" si="1"/>
@@ -3107,7 +3228,9 @@
       <c r="H53" s="8"/>
       <c r="I53" s="8"/>
       <c r="J53" s="16"/>
-      <c r="K53" s="16"/>
+      <c r="K53" s="16">
+        <v>24</v>
+      </c>
       <c r="L53" s="17"/>
       <c r="R53" s="22">
         <f t="shared" si="1"/>
@@ -3143,7 +3266,9 @@
       <c r="H54" s="8"/>
       <c r="I54" s="8"/>
       <c r="J54" s="16"/>
-      <c r="K54" s="16"/>
+      <c r="K54" s="16">
+        <v>1</v>
+      </c>
       <c r="L54" s="17"/>
       <c r="R54" s="22">
         <f t="shared" si="1"/>
@@ -3179,7 +3304,9 @@
       <c r="H55" s="8"/>
       <c r="I55" s="8"/>
       <c r="J55" s="16"/>
-      <c r="K55" s="16"/>
+      <c r="K55" s="16">
+        <v>23</v>
+      </c>
       <c r="L55" s="17"/>
       <c r="R55" s="22">
         <f t="shared" si="1"/>
@@ -3215,7 +3342,9 @@
       <c r="H56" s="8"/>
       <c r="I56" s="8"/>
       <c r="J56" s="16"/>
-      <c r="K56" s="16"/>
+      <c r="K56" s="16">
+        <v>32</v>
+      </c>
       <c r="L56" s="17"/>
       <c r="R56" s="22">
         <f t="shared" si="1"/>
@@ -3251,7 +3380,9 @@
       <c r="H57" s="8"/>
       <c r="I57" s="8"/>
       <c r="J57" s="16"/>
-      <c r="K57" s="16"/>
+      <c r="K57" s="16">
+        <v>27</v>
+      </c>
       <c r="L57" s="17"/>
       <c r="R57" s="22">
         <f t="shared" si="1"/>
@@ -3287,7 +3418,9 @@
       <c r="H58" s="8"/>
       <c r="I58" s="8"/>
       <c r="J58" s="16"/>
-      <c r="K58" s="16"/>
+      <c r="K58" s="16">
+        <v>23</v>
+      </c>
       <c r="L58" s="17"/>
       <c r="R58" s="22">
         <f t="shared" si="1"/>
@@ -3323,7 +3456,9 @@
       <c r="H59" s="8"/>
       <c r="I59" s="8"/>
       <c r="J59" s="16"/>
-      <c r="K59" s="16"/>
+      <c r="K59" s="16">
+        <v>37</v>
+      </c>
       <c r="L59" s="17"/>
       <c r="R59" s="22">
         <f t="shared" si="1"/>
@@ -3359,7 +3494,9 @@
       <c r="H60" s="8"/>
       <c r="I60" s="8"/>
       <c r="J60" s="16"/>
-      <c r="K60" s="16"/>
+      <c r="K60" s="16">
+        <v>22</v>
+      </c>
       <c r="L60" s="17"/>
       <c r="R60" s="22">
         <f t="shared" si="1"/>
@@ -3395,7 +3532,9 @@
       <c r="H61" s="8"/>
       <c r="I61" s="8"/>
       <c r="J61" s="16"/>
-      <c r="K61" s="16"/>
+      <c r="K61" s="16">
+        <v>16</v>
+      </c>
       <c r="L61" s="17"/>
       <c r="R61" s="22">
         <f t="shared" si="1"/>
@@ -3431,7 +3570,9 @@
       <c r="H62" s="8"/>
       <c r="I62" s="8"/>
       <c r="J62" s="16"/>
-      <c r="K62" s="16"/>
+      <c r="K62" s="16">
+        <v>17</v>
+      </c>
       <c r="L62" s="17"/>
       <c r="R62" s="22">
         <f t="shared" si="1"/>
@@ -3467,7 +3608,9 @@
       <c r="H63" s="8"/>
       <c r="I63" s="8"/>
       <c r="J63" s="16"/>
-      <c r="K63" s="16"/>
+      <c r="K63" s="16">
+        <v>20</v>
+      </c>
       <c r="L63" s="17"/>
       <c r="R63" s="22">
         <f t="shared" si="1"/>
@@ -3498,16 +3641,18 @@
       <c r="E64" s="16"/>
       <c r="F64" s="16"/>
       <c r="G64" s="16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H64" s="8"/>
       <c r="I64" s="8"/>
       <c r="J64" s="16"/>
-      <c r="K64" s="16"/>
+      <c r="K64" s="16">
+        <v>20</v>
+      </c>
       <c r="L64" s="17"/>
       <c r="R64" s="22">
         <f t="shared" si="1"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="S64" s="22">
         <f t="shared" si="1"/>
@@ -3539,7 +3684,9 @@
       <c r="H65" s="8"/>
       <c r="I65" s="8"/>
       <c r="J65" s="16"/>
-      <c r="K65" s="16"/>
+      <c r="K65" s="16">
+        <v>28</v>
+      </c>
       <c r="L65" s="17"/>
       <c r="R65" s="22">
         <f t="shared" si="1"/>
@@ -3575,7 +3722,9 @@
       <c r="H66" s="8"/>
       <c r="I66" s="8"/>
       <c r="J66" s="16"/>
-      <c r="K66" s="16"/>
+      <c r="K66" s="16">
+        <v>11</v>
+      </c>
       <c r="L66" s="17"/>
       <c r="R66" s="22">
         <f t="shared" si="1"/>
@@ -3611,7 +3760,9 @@
       <c r="H67" s="8"/>
       <c r="I67" s="8"/>
       <c r="J67" s="16"/>
-      <c r="K67" s="16"/>
+      <c r="K67" s="16">
+        <v>23</v>
+      </c>
       <c r="L67" s="17"/>
       <c r="R67" s="22">
         <f t="shared" si="1"/>
@@ -3647,7 +3798,9 @@
       <c r="H68" s="8"/>
       <c r="I68" s="8"/>
       <c r="J68" s="16"/>
-      <c r="K68" s="16"/>
+      <c r="K68" s="16">
+        <v>24</v>
+      </c>
       <c r="L68" s="17"/>
       <c r="R68" s="22">
         <f t="shared" ref="R68:T111" si="2">SUM(D68)+G68+O68</f>
@@ -3673,7 +3826,7 @@
         <v>220041700080</v>
       </c>
       <c r="D69" s="16">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E69" s="16"/>
       <c r="F69" s="16"/>
@@ -3683,11 +3836,13 @@
       <c r="H69" s="8"/>
       <c r="I69" s="8"/>
       <c r="J69" s="16"/>
-      <c r="K69" s="16"/>
+      <c r="K69" s="16">
+        <v>20</v>
+      </c>
       <c r="L69" s="17"/>
       <c r="R69" s="22">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="S69" s="22">
         <f t="shared" si="2"/>
@@ -3719,7 +3874,9 @@
       <c r="H70" s="8"/>
       <c r="I70" s="8"/>
       <c r="J70" s="16"/>
-      <c r="K70" s="16"/>
+      <c r="K70" s="16">
+        <v>23</v>
+      </c>
       <c r="L70" s="17"/>
       <c r="R70" s="22">
         <f t="shared" si="2"/>
@@ -3755,7 +3912,9 @@
       <c r="H71" s="8"/>
       <c r="I71" s="8"/>
       <c r="J71" s="16"/>
-      <c r="K71" s="16"/>
+      <c r="K71" s="16">
+        <v>18</v>
+      </c>
       <c r="L71" s="17"/>
       <c r="R71" s="22">
         <f t="shared" si="2"/>
@@ -3791,7 +3950,9 @@
       <c r="H72" s="8"/>
       <c r="I72" s="8"/>
       <c r="J72" s="16"/>
-      <c r="K72" s="16"/>
+      <c r="K72" s="16">
+        <v>18</v>
+      </c>
       <c r="L72" s="17"/>
       <c r="R72" s="22">
         <f t="shared" si="2"/>
@@ -3827,7 +3988,9 @@
       <c r="H73" s="8"/>
       <c r="I73" s="8"/>
       <c r="J73" s="16"/>
-      <c r="K73" s="16"/>
+      <c r="K73" s="16">
+        <v>25</v>
+      </c>
       <c r="L73" s="17"/>
       <c r="R73" s="22">
         <f t="shared" si="2"/>
@@ -3863,7 +4026,9 @@
       <c r="H74" s="8"/>
       <c r="I74" s="8"/>
       <c r="J74" s="16"/>
-      <c r="K74" s="16"/>
+      <c r="K74" s="16">
+        <v>20</v>
+      </c>
       <c r="L74" s="17"/>
       <c r="R74" s="22">
         <f t="shared" si="2"/>
@@ -3899,7 +4064,9 @@
       <c r="H75" s="8"/>
       <c r="I75" s="8"/>
       <c r="J75" s="16"/>
-      <c r="K75" s="16"/>
+      <c r="K75" s="16">
+        <v>17</v>
+      </c>
       <c r="L75" s="17"/>
       <c r="R75" s="22">
         <f t="shared" si="2"/>
@@ -3935,7 +4102,9 @@
       <c r="H76" s="8"/>
       <c r="I76" s="8"/>
       <c r="J76" s="16"/>
-      <c r="K76" s="16"/>
+      <c r="K76" s="16">
+        <v>20</v>
+      </c>
       <c r="L76" s="17"/>
       <c r="R76" s="22">
         <f t="shared" si="2"/>
@@ -3971,7 +4140,9 @@
       <c r="H77" s="8"/>
       <c r="I77" s="8"/>
       <c r="J77" s="16"/>
-      <c r="K77" s="16"/>
+      <c r="K77" s="16">
+        <v>12</v>
+      </c>
       <c r="L77" s="17"/>
       <c r="R77" s="22">
         <f t="shared" si="2"/>
@@ -4007,7 +4178,9 @@
       <c r="H78" s="8"/>
       <c r="I78" s="8"/>
       <c r="J78" s="16"/>
-      <c r="K78" s="16"/>
+      <c r="K78" s="16">
+        <v>25</v>
+      </c>
       <c r="L78" s="17"/>
       <c r="R78" s="22">
         <f t="shared" si="2"/>
@@ -4043,7 +4216,9 @@
       <c r="H79" s="8"/>
       <c r="I79" s="8"/>
       <c r="J79" s="16"/>
-      <c r="K79" s="16"/>
+      <c r="K79" s="16">
+        <v>26</v>
+      </c>
       <c r="L79" s="17"/>
       <c r="R79" s="22">
         <f t="shared" si="2"/>
@@ -4079,7 +4254,9 @@
       <c r="H80" s="8"/>
       <c r="I80" s="8"/>
       <c r="J80" s="16"/>
-      <c r="K80" s="16"/>
+      <c r="K80" s="16">
+        <v>25</v>
+      </c>
       <c r="L80" s="17"/>
       <c r="R80" s="22">
         <f t="shared" si="2"/>
@@ -4115,7 +4292,9 @@
       <c r="H81" s="8"/>
       <c r="I81" s="8"/>
       <c r="J81" s="16"/>
-      <c r="K81" s="16"/>
+      <c r="K81" s="16">
+        <v>16</v>
+      </c>
       <c r="L81" s="17"/>
       <c r="R81" s="22">
         <f t="shared" si="2"/>
@@ -4151,7 +4330,9 @@
       <c r="H82" s="8"/>
       <c r="I82" s="8"/>
       <c r="J82" s="16"/>
-      <c r="K82" s="16"/>
+      <c r="K82" s="16">
+        <v>30</v>
+      </c>
       <c r="L82" s="17"/>
       <c r="R82" s="22">
         <f t="shared" si="2"/>
@@ -4187,7 +4368,9 @@
       <c r="H83" s="8"/>
       <c r="I83" s="8"/>
       <c r="J83" s="16"/>
-      <c r="K83" s="16"/>
+      <c r="K83" s="16">
+        <v>16</v>
+      </c>
       <c r="L83" s="17"/>
       <c r="R83" s="22">
         <f t="shared" si="2"/>
@@ -4218,16 +4401,18 @@
       <c r="E84" s="16"/>
       <c r="F84" s="16"/>
       <c r="G84" s="16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H84" s="8"/>
       <c r="I84" s="8"/>
       <c r="J84" s="16"/>
-      <c r="K84" s="16"/>
+      <c r="K84" s="16">
+        <v>16</v>
+      </c>
       <c r="L84" s="17"/>
       <c r="R84" s="22">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="S84" s="22">
         <f t="shared" si="2"/>
@@ -4259,7 +4444,9 @@
       <c r="H85" s="8"/>
       <c r="I85" s="8"/>
       <c r="J85" s="16"/>
-      <c r="K85" s="16"/>
+      <c r="K85" s="16">
+        <v>22</v>
+      </c>
       <c r="L85" s="17"/>
       <c r="R85" s="22">
         <f t="shared" si="2"/>
@@ -4295,7 +4482,9 @@
       <c r="H86" s="8"/>
       <c r="I86" s="8"/>
       <c r="J86" s="16"/>
-      <c r="K86" s="16"/>
+      <c r="K86" s="16">
+        <v>22</v>
+      </c>
       <c r="L86" s="17"/>
       <c r="R86" s="22">
         <f t="shared" si="2"/>
@@ -4331,7 +4520,9 @@
       <c r="H87" s="8"/>
       <c r="I87" s="8"/>
       <c r="J87" s="16"/>
-      <c r="K87" s="16"/>
+      <c r="K87" s="16">
+        <v>30</v>
+      </c>
       <c r="L87" s="17"/>
       <c r="R87" s="22">
         <f t="shared" si="2"/>
@@ -4367,7 +4558,9 @@
       <c r="H88" s="8"/>
       <c r="I88" s="8"/>
       <c r="J88" s="16"/>
-      <c r="K88" s="16"/>
+      <c r="K88" s="16">
+        <v>24</v>
+      </c>
       <c r="L88" s="17"/>
       <c r="R88" s="22">
         <f t="shared" si="2"/>
@@ -4403,7 +4596,9 @@
       <c r="H89" s="8"/>
       <c r="I89" s="8"/>
       <c r="J89" s="16"/>
-      <c r="K89" s="16"/>
+      <c r="K89" s="16">
+        <v>8</v>
+      </c>
       <c r="L89" s="17"/>
       <c r="R89" s="22">
         <f t="shared" si="2"/>
@@ -4439,7 +4634,9 @@
       <c r="H90" s="8"/>
       <c r="I90" s="8"/>
       <c r="J90" s="16"/>
-      <c r="K90" s="16"/>
+      <c r="K90" s="16">
+        <v>23</v>
+      </c>
       <c r="L90" s="17"/>
       <c r="R90" s="22">
         <f t="shared" si="2"/>
@@ -4475,7 +4672,9 @@
       <c r="H91" s="8"/>
       <c r="I91" s="8"/>
       <c r="J91" s="16"/>
-      <c r="K91" s="16"/>
+      <c r="K91" s="16">
+        <v>24</v>
+      </c>
       <c r="L91" s="17"/>
       <c r="R91" s="22">
         <f t="shared" si="2"/>
@@ -4511,7 +4710,9 @@
       <c r="H92" s="8"/>
       <c r="I92" s="8"/>
       <c r="J92" s="16"/>
-      <c r="K92" s="16"/>
+      <c r="K92" s="16">
+        <v>23</v>
+      </c>
       <c r="L92" s="17"/>
       <c r="R92" s="22">
         <f t="shared" si="2"/>
@@ -4547,7 +4748,9 @@
       <c r="H93" s="8"/>
       <c r="I93" s="8"/>
       <c r="J93" s="16"/>
-      <c r="K93" s="16"/>
+      <c r="K93" s="16">
+        <v>26</v>
+      </c>
       <c r="L93" s="17"/>
       <c r="R93" s="22">
         <f t="shared" si="2"/>
@@ -4583,7 +4786,9 @@
       <c r="H94" s="8"/>
       <c r="I94" s="8"/>
       <c r="J94" s="16"/>
-      <c r="K94" s="16"/>
+      <c r="K94" s="16">
+        <v>13</v>
+      </c>
       <c r="L94" s="17"/>
       <c r="R94" s="22">
         <f t="shared" si="2"/>
@@ -4619,7 +4824,9 @@
       <c r="H95" s="8"/>
       <c r="I95" s="8"/>
       <c r="J95" s="16"/>
-      <c r="K95" s="16"/>
+      <c r="K95" s="16">
+        <v>13</v>
+      </c>
       <c r="L95" s="17"/>
       <c r="R95" s="22">
         <f t="shared" si="2"/>
@@ -4645,7 +4852,7 @@
         <v>220041700125</v>
       </c>
       <c r="D96" s="16">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E96" s="16"/>
       <c r="F96" s="16"/>
@@ -4655,11 +4862,13 @@
       <c r="H96" s="8"/>
       <c r="I96" s="8"/>
       <c r="J96" s="16"/>
-      <c r="K96" s="16"/>
+      <c r="K96" s="16">
+        <v>20</v>
+      </c>
       <c r="L96" s="17"/>
       <c r="R96" s="22">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="S96" s="22">
         <f t="shared" si="2"/>
@@ -4691,7 +4900,9 @@
       <c r="H97" s="8"/>
       <c r="I97" s="8"/>
       <c r="J97" s="16"/>
-      <c r="K97" s="16"/>
+      <c r="K97" s="16">
+        <v>7</v>
+      </c>
       <c r="L97" s="17"/>
       <c r="R97" s="22">
         <f t="shared" si="2"/>
@@ -4727,7 +4938,9 @@
       <c r="H98" s="8"/>
       <c r="I98" s="8"/>
       <c r="J98" s="16"/>
-      <c r="K98" s="16"/>
+      <c r="K98" s="16">
+        <v>20</v>
+      </c>
       <c r="L98" s="17"/>
       <c r="R98" s="22">
         <f t="shared" si="2"/>
@@ -4763,7 +4976,9 @@
       <c r="H99" s="8"/>
       <c r="I99" s="8"/>
       <c r="J99" s="16"/>
-      <c r="K99" s="16"/>
+      <c r="K99" s="16">
+        <v>22</v>
+      </c>
       <c r="L99" s="17"/>
       <c r="R99" s="22">
         <f t="shared" si="2"/>
@@ -4799,7 +5014,9 @@
       <c r="H100" s="8"/>
       <c r="I100" s="8"/>
       <c r="J100" s="16"/>
-      <c r="K100" s="16"/>
+      <c r="K100" s="16">
+        <v>18</v>
+      </c>
       <c r="L100" s="17"/>
       <c r="M100" s="20"/>
       <c r="R100" s="22">
@@ -4836,7 +5053,9 @@
       <c r="H101" s="8"/>
       <c r="I101" s="8"/>
       <c r="J101" s="16"/>
-      <c r="K101" s="16"/>
+      <c r="K101" s="16">
+        <v>18</v>
+      </c>
       <c r="L101" s="17"/>
       <c r="R101" s="22">
         <f t="shared" si="2"/>
@@ -4872,7 +5091,9 @@
       <c r="H102" s="8"/>
       <c r="I102" s="8"/>
       <c r="J102" s="16"/>
-      <c r="K102" s="16"/>
+      <c r="K102" s="16">
+        <v>17</v>
+      </c>
       <c r="L102" s="17"/>
       <c r="R102" s="22">
         <f t="shared" si="2"/>
@@ -4908,7 +5129,9 @@
       <c r="H103" s="8"/>
       <c r="I103" s="8"/>
       <c r="J103" s="16"/>
-      <c r="K103" s="16"/>
+      <c r="K103" s="16">
+        <v>25</v>
+      </c>
       <c r="L103" s="17"/>
       <c r="R103" s="22">
         <f t="shared" si="2"/>
@@ -4944,7 +5167,9 @@
       <c r="H104" s="8"/>
       <c r="I104" s="8"/>
       <c r="J104" s="16"/>
-      <c r="K104" s="16"/>
+      <c r="K104" s="16">
+        <v>0</v>
+      </c>
       <c r="L104" s="17"/>
       <c r="R104" s="22">
         <f t="shared" si="2"/>
@@ -4980,7 +5205,9 @@
       <c r="H105" s="8"/>
       <c r="I105" s="8"/>
       <c r="J105" s="16"/>
-      <c r="K105" s="16"/>
+      <c r="K105" s="16">
+        <v>0</v>
+      </c>
       <c r="L105" s="17"/>
       <c r="R105" s="22">
         <f t="shared" si="2"/>
@@ -5016,7 +5243,9 @@
       <c r="H106" s="8"/>
       <c r="I106" s="8"/>
       <c r="J106" s="16"/>
-      <c r="K106" s="16"/>
+      <c r="K106" s="16">
+        <v>14</v>
+      </c>
       <c r="L106" s="17"/>
       <c r="R106" s="22">
         <f t="shared" si="2"/>
@@ -5052,7 +5281,9 @@
       <c r="H107" s="8"/>
       <c r="I107" s="8"/>
       <c r="J107" s="16"/>
-      <c r="K107" s="16"/>
+      <c r="K107" s="16">
+        <v>28</v>
+      </c>
       <c r="L107" s="17"/>
       <c r="R107" s="22">
         <f t="shared" si="2"/>
@@ -5088,7 +5319,9 @@
       <c r="H108" s="8"/>
       <c r="I108" s="8"/>
       <c r="J108" s="16"/>
-      <c r="K108" s="16"/>
+      <c r="K108" s="16">
+        <v>9</v>
+      </c>
       <c r="L108" s="17"/>
       <c r="R108" s="22">
         <f t="shared" si="2"/>
@@ -5124,7 +5357,9 @@
       <c r="H109" s="8"/>
       <c r="I109" s="8"/>
       <c r="J109" s="16"/>
-      <c r="K109" s="16"/>
+      <c r="K109" s="16">
+        <v>26</v>
+      </c>
       <c r="L109" s="17"/>
       <c r="R109" s="22">
         <f t="shared" si="2"/>
@@ -5160,7 +5395,9 @@
       <c r="H110" s="8"/>
       <c r="I110" s="8"/>
       <c r="J110" s="16"/>
-      <c r="K110" s="16"/>
+      <c r="K110" s="16">
+        <v>27</v>
+      </c>
       <c r="L110" s="17"/>
       <c r="R110" s="22">
         <f t="shared" si="2"/>
@@ -5196,7 +5433,9 @@
       <c r="H111" s="8"/>
       <c r="I111" s="8"/>
       <c r="J111" s="16"/>
-      <c r="K111" s="16"/>
+      <c r="K111" s="16">
+        <v>26</v>
+      </c>
       <c r="L111" s="17"/>
       <c r="R111" s="22">
         <f t="shared" si="2"/>
@@ -5216,6 +5455,11 @@
   <mergeCells count="1">
     <mergeCell ref="A1:L1"/>
   </mergeCells>
+  <conditionalFormatting sqref="K18:K108">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
+      <formula>16</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/static/Upload/5th sem.xlsx
+++ b/static/Upload/5th sem.xlsx
@@ -750,7 +750,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -790,8 +790,14 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -802,6 +808,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
         <bgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -832,7 +844,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -904,21 +916,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1208,10 +1216,10 @@
   <dimension ref="A1:T111"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="I2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="I47" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K6" sqref="K6"/>
+      <selection pane="bottomRight" activeCell="L3" sqref="L3:L60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1230,20 +1238,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="25" t="s">
         <v>227</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
-      <c r="K1" s="24"/>
-      <c r="L1" s="24"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
+      <c r="K1" s="25"/>
+      <c r="L1" s="25"/>
     </row>
     <row r="2" spans="1:20" s="2" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
@@ -1331,7 +1339,9 @@
       <c r="K3" s="16">
         <v>25</v>
       </c>
-      <c r="L3" s="17"/>
+      <c r="L3" s="24">
+        <v>16</v>
+      </c>
       <c r="R3" s="22">
         <f>SUM(D3)+G3+O3</f>
         <v>22</v>
@@ -1369,7 +1379,9 @@
       <c r="K4" s="16">
         <v>30</v>
       </c>
-      <c r="L4" s="17"/>
+      <c r="L4" s="24">
+        <v>39</v>
+      </c>
       <c r="R4" s="22">
         <f t="shared" ref="R4:T67" si="1">SUM(D4)+G4+O4</f>
         <v>25</v>
@@ -1407,7 +1419,9 @@
       <c r="K5" s="16">
         <v>20</v>
       </c>
-      <c r="L5" s="17"/>
+      <c r="L5" s="24">
+        <v>39</v>
+      </c>
       <c r="R5" s="22">
         <f t="shared" si="1"/>
         <v>15</v>
@@ -1445,7 +1459,9 @@
       <c r="K6" s="16">
         <v>21</v>
       </c>
-      <c r="L6" s="17"/>
+      <c r="L6" s="24">
+        <v>16</v>
+      </c>
       <c r="R6" s="22">
         <f t="shared" si="1"/>
         <v>17</v>
@@ -1483,7 +1499,9 @@
       <c r="K7" s="16">
         <v>20</v>
       </c>
-      <c r="L7" s="17"/>
+      <c r="L7" s="24">
+        <v>30</v>
+      </c>
       <c r="R7" s="22">
         <f t="shared" si="1"/>
         <v>15</v>
@@ -1521,7 +1539,9 @@
       <c r="K8" s="16">
         <v>27</v>
       </c>
-      <c r="L8" s="17"/>
+      <c r="L8" s="24">
+        <v>34</v>
+      </c>
       <c r="R8" s="22">
         <f t="shared" si="1"/>
         <v>22</v>
@@ -1559,7 +1579,9 @@
       <c r="K9" s="16">
         <v>23</v>
       </c>
-      <c r="L9" s="17"/>
+      <c r="L9" s="24">
+        <v>16</v>
+      </c>
       <c r="R9" s="22">
         <f t="shared" si="1"/>
         <v>22</v>
@@ -1597,7 +1619,9 @@
       <c r="K10" s="16">
         <v>22</v>
       </c>
-      <c r="L10" s="17"/>
+      <c r="L10" s="24">
+        <v>16</v>
+      </c>
       <c r="R10" s="22">
         <f t="shared" si="1"/>
         <v>20</v>
@@ -1635,7 +1659,9 @@
       <c r="K11" s="16">
         <v>24</v>
       </c>
-      <c r="L11" s="17"/>
+      <c r="L11" s="24">
+        <v>36</v>
+      </c>
       <c r="R11" s="22">
         <f t="shared" si="1"/>
         <v>19</v>
@@ -1673,7 +1699,9 @@
       <c r="K12" s="16">
         <v>20</v>
       </c>
-      <c r="L12" s="17"/>
+      <c r="L12" s="24">
+        <v>16</v>
+      </c>
       <c r="R12" s="22">
         <f t="shared" si="1"/>
         <v>18</v>
@@ -1711,7 +1739,9 @@
       <c r="K13" s="16">
         <v>24</v>
       </c>
-      <c r="L13" s="17"/>
+      <c r="L13" s="24">
+        <v>30</v>
+      </c>
       <c r="R13" s="22">
         <f t="shared" si="1"/>
         <v>21</v>
@@ -1749,7 +1779,9 @@
       <c r="K14" s="16">
         <v>22</v>
       </c>
-      <c r="L14" s="17"/>
+      <c r="L14" s="24">
+        <v>36</v>
+      </c>
       <c r="R14" s="22">
         <f t="shared" si="1"/>
         <v>17</v>
@@ -1787,7 +1819,9 @@
       <c r="K15" s="16">
         <v>35</v>
       </c>
-      <c r="L15" s="17"/>
+      <c r="L15" s="24">
+        <v>39</v>
+      </c>
       <c r="R15" s="22">
         <f t="shared" si="1"/>
         <v>30</v>
@@ -1825,7 +1859,9 @@
       <c r="K16" s="16">
         <v>28</v>
       </c>
-      <c r="L16" s="17"/>
+      <c r="L16" s="24">
+        <v>36</v>
+      </c>
       <c r="R16" s="22">
         <f t="shared" si="1"/>
         <v>24</v>
@@ -1863,7 +1899,9 @@
       <c r="K17" s="16">
         <v>25</v>
       </c>
-      <c r="L17" s="17"/>
+      <c r="L17" s="24">
+        <v>34</v>
+      </c>
       <c r="R17" s="22">
         <f t="shared" si="1"/>
         <v>21</v>
@@ -1901,7 +1939,9 @@
       <c r="K18" s="16">
         <v>17</v>
       </c>
-      <c r="L18" s="17"/>
+      <c r="L18" s="24">
+        <v>34</v>
+      </c>
       <c r="R18" s="22">
         <f t="shared" si="1"/>
         <v>15</v>
@@ -1939,7 +1979,9 @@
       <c r="K19" s="16">
         <v>18</v>
       </c>
-      <c r="L19" s="17"/>
+      <c r="L19" s="24">
+        <v>39</v>
+      </c>
       <c r="R19" s="22">
         <f t="shared" si="1"/>
         <v>14</v>
@@ -1977,7 +2019,9 @@
       <c r="K20" s="16">
         <v>28</v>
       </c>
-      <c r="L20" s="17"/>
+      <c r="L20" s="24">
+        <v>36</v>
+      </c>
       <c r="R20" s="22">
         <f t="shared" si="1"/>
         <v>24</v>
@@ -2015,7 +2059,9 @@
       <c r="K21" s="16">
         <v>20</v>
       </c>
-      <c r="L21" s="17"/>
+      <c r="L21" s="24">
+        <v>36</v>
+      </c>
       <c r="R21" s="22">
         <f t="shared" si="1"/>
         <v>17</v>
@@ -2053,7 +2099,9 @@
       <c r="K22" s="16">
         <v>24</v>
       </c>
-      <c r="L22" s="17"/>
+      <c r="L22" s="24">
+        <v>39</v>
+      </c>
       <c r="R22" s="22">
         <f t="shared" si="1"/>
         <v>20</v>
@@ -2091,7 +2139,9 @@
       <c r="K23" s="16">
         <v>16</v>
       </c>
-      <c r="L23" s="17"/>
+      <c r="L23" s="24">
+        <v>39</v>
+      </c>
       <c r="R23" s="22">
         <f t="shared" si="1"/>
         <v>13</v>
@@ -2129,7 +2179,9 @@
       <c r="K24" s="16">
         <v>23</v>
       </c>
-      <c r="L24" s="17"/>
+      <c r="L24" s="24">
+        <v>34</v>
+      </c>
       <c r="R24" s="22">
         <f t="shared" si="1"/>
         <v>19</v>
@@ -2167,7 +2219,9 @@
       <c r="K25" s="16">
         <v>20</v>
       </c>
-      <c r="L25" s="17"/>
+      <c r="L25" s="24">
+        <v>16</v>
+      </c>
       <c r="R25" s="22">
         <f t="shared" si="1"/>
         <v>15</v>
@@ -2205,7 +2259,9 @@
       <c r="K26" s="16">
         <v>33</v>
       </c>
-      <c r="L26" s="17"/>
+      <c r="L26" s="24">
+        <v>16</v>
+      </c>
       <c r="R26" s="22">
         <f t="shared" si="1"/>
         <v>28</v>
@@ -2243,7 +2299,9 @@
       <c r="K27" s="16">
         <v>23</v>
       </c>
-      <c r="L27" s="17"/>
+      <c r="L27" s="24">
+        <v>16</v>
+      </c>
       <c r="R27" s="22">
         <f t="shared" si="1"/>
         <v>20</v>
@@ -2281,7 +2339,9 @@
       <c r="K28" s="16">
         <v>20</v>
       </c>
-      <c r="L28" s="17"/>
+      <c r="L28" s="24">
+        <v>16</v>
+      </c>
       <c r="R28" s="22">
         <f t="shared" si="1"/>
         <v>17</v>
@@ -2319,7 +2379,9 @@
       <c r="K29" s="16">
         <v>21</v>
       </c>
-      <c r="L29" s="17"/>
+      <c r="L29" s="24">
+        <v>34</v>
+      </c>
       <c r="R29" s="22">
         <f t="shared" si="1"/>
         <v>17</v>
@@ -2357,7 +2419,9 @@
       <c r="K30" s="16">
         <v>28</v>
       </c>
-      <c r="L30" s="17"/>
+      <c r="L30" s="24">
+        <v>32</v>
+      </c>
       <c r="R30" s="22">
         <f t="shared" si="1"/>
         <v>25</v>
@@ -2395,7 +2459,9 @@
       <c r="K31" s="16">
         <v>20</v>
       </c>
-      <c r="L31" s="17"/>
+      <c r="L31" s="24">
+        <v>32</v>
+      </c>
       <c r="R31" s="22">
         <f t="shared" si="1"/>
         <v>15</v>
@@ -2433,7 +2499,9 @@
       <c r="K32" s="16">
         <v>20</v>
       </c>
-      <c r="L32" s="17"/>
+      <c r="L32" s="24">
+        <v>39</v>
+      </c>
       <c r="R32" s="22">
         <f t="shared" si="1"/>
         <v>17</v>
@@ -2471,7 +2539,9 @@
       <c r="K33" s="16">
         <v>26</v>
       </c>
-      <c r="L33" s="17"/>
+      <c r="L33" s="24">
+        <v>32</v>
+      </c>
       <c r="R33" s="22">
         <f t="shared" si="1"/>
         <v>23</v>
@@ -2509,7 +2579,9 @@
       <c r="K34" s="16">
         <v>22</v>
       </c>
-      <c r="L34" s="17"/>
+      <c r="L34" s="24">
+        <v>16</v>
+      </c>
       <c r="R34" s="22">
         <f t="shared" si="1"/>
         <v>18</v>
@@ -2547,7 +2619,9 @@
       <c r="K35" s="16">
         <v>22</v>
       </c>
-      <c r="L35" s="17"/>
+      <c r="L35" s="24">
+        <v>36</v>
+      </c>
       <c r="R35" s="22">
         <f t="shared" si="1"/>
         <v>17</v>
@@ -2585,7 +2659,9 @@
       <c r="K36" s="16">
         <v>26</v>
       </c>
-      <c r="L36" s="17"/>
+      <c r="L36" s="24">
+        <v>34</v>
+      </c>
       <c r="R36" s="22">
         <f t="shared" si="1"/>
         <v>22</v>
@@ -2623,7 +2699,9 @@
       <c r="K37" s="16">
         <v>24</v>
       </c>
-      <c r="L37" s="17"/>
+      <c r="L37" s="24">
+        <v>32</v>
+      </c>
       <c r="R37" s="22">
         <f t="shared" si="1"/>
         <v>20</v>
@@ -2661,7 +2739,9 @@
       <c r="K38" s="16">
         <v>24</v>
       </c>
-      <c r="L38" s="17"/>
+      <c r="L38" s="24">
+        <v>28</v>
+      </c>
       <c r="R38" s="22">
         <f t="shared" si="1"/>
         <v>20</v>
@@ -2699,7 +2779,9 @@
       <c r="K39" s="16">
         <v>27</v>
       </c>
-      <c r="L39" s="17"/>
+      <c r="L39" s="24">
+        <v>36</v>
+      </c>
       <c r="R39" s="22">
         <f t="shared" si="1"/>
         <v>22</v>
@@ -2737,7 +2819,9 @@
       <c r="K40" s="16">
         <v>23</v>
       </c>
-      <c r="L40" s="17"/>
+      <c r="L40" s="24">
+        <v>16</v>
+      </c>
       <c r="R40" s="22">
         <f t="shared" si="1"/>
         <v>20</v>
@@ -2775,7 +2859,9 @@
       <c r="K41" s="16">
         <v>0</v>
       </c>
-      <c r="L41" s="17"/>
+      <c r="L41" s="26">
+        <v>0</v>
+      </c>
       <c r="R41" s="22">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -2813,7 +2899,9 @@
       <c r="K42" s="16">
         <v>21</v>
       </c>
-      <c r="L42" s="17"/>
+      <c r="L42" s="24">
+        <v>36</v>
+      </c>
       <c r="R42" s="22">
         <f t="shared" si="1"/>
         <v>18</v>
@@ -2851,7 +2939,9 @@
       <c r="K43" s="16">
         <v>29</v>
       </c>
-      <c r="L43" s="17"/>
+      <c r="L43" s="24">
+        <v>39</v>
+      </c>
       <c r="R43" s="22">
         <f t="shared" si="1"/>
         <v>25</v>
@@ -2889,7 +2979,9 @@
       <c r="K44" s="16">
         <v>27</v>
       </c>
-      <c r="L44" s="17"/>
+      <c r="L44" s="24">
+        <v>39</v>
+      </c>
       <c r="R44" s="22">
         <f t="shared" si="1"/>
         <v>22</v>
@@ -2927,7 +3019,9 @@
       <c r="K45" s="16">
         <v>32</v>
       </c>
-      <c r="L45" s="17"/>
+      <c r="L45" s="24">
+        <v>16</v>
+      </c>
       <c r="R45" s="22">
         <f t="shared" si="1"/>
         <v>27</v>
@@ -2965,7 +3059,9 @@
       <c r="K46" s="16">
         <v>29</v>
       </c>
-      <c r="L46" s="17"/>
+      <c r="L46" s="24">
+        <v>39</v>
+      </c>
       <c r="R46" s="22">
         <f t="shared" si="1"/>
         <v>26</v>
@@ -3003,7 +3099,9 @@
       <c r="K47" s="16">
         <v>25</v>
       </c>
-      <c r="L47" s="17"/>
+      <c r="L47" s="24">
+        <v>32</v>
+      </c>
       <c r="R47" s="22">
         <f t="shared" si="1"/>
         <v>21</v>
@@ -3041,7 +3139,9 @@
       <c r="K48" s="16">
         <v>25</v>
       </c>
-      <c r="L48" s="17"/>
+      <c r="L48" s="24">
+        <v>32</v>
+      </c>
       <c r="R48" s="22">
         <f t="shared" si="1"/>
         <v>21</v>
@@ -3079,7 +3179,9 @@
       <c r="K49" s="16">
         <v>30</v>
       </c>
-      <c r="L49" s="17"/>
+      <c r="L49" s="24">
+        <v>36</v>
+      </c>
       <c r="R49" s="22">
         <f t="shared" si="1"/>
         <v>25</v>
@@ -3117,7 +3219,9 @@
       <c r="K50" s="16">
         <v>35</v>
       </c>
-      <c r="L50" s="17"/>
+      <c r="L50" s="24">
+        <v>36</v>
+      </c>
       <c r="R50" s="22">
         <f t="shared" si="1"/>
         <v>31</v>
@@ -3155,7 +3259,9 @@
       <c r="K51" s="16">
         <v>25</v>
       </c>
-      <c r="L51" s="17"/>
+      <c r="L51" s="24">
+        <v>39</v>
+      </c>
       <c r="R51" s="22">
         <f t="shared" si="1"/>
         <v>24</v>
@@ -3193,7 +3299,9 @@
       <c r="K52" s="16">
         <v>6</v>
       </c>
-      <c r="L52" s="17"/>
+      <c r="L52" s="26">
+        <v>32</v>
+      </c>
       <c r="R52" s="22">
         <f t="shared" si="1"/>
         <v>5</v>
@@ -3231,7 +3339,9 @@
       <c r="K53" s="16">
         <v>24</v>
       </c>
-      <c r="L53" s="17"/>
+      <c r="L53" s="24">
+        <v>39</v>
+      </c>
       <c r="R53" s="22">
         <f t="shared" si="1"/>
         <v>20</v>
@@ -3269,7 +3379,9 @@
       <c r="K54" s="16">
         <v>1</v>
       </c>
-      <c r="L54" s="17"/>
+      <c r="L54" s="26">
+        <v>16</v>
+      </c>
       <c r="R54" s="22">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -3307,7 +3419,9 @@
       <c r="K55" s="16">
         <v>23</v>
       </c>
-      <c r="L55" s="17"/>
+      <c r="L55" s="24">
+        <v>36</v>
+      </c>
       <c r="R55" s="22">
         <f t="shared" si="1"/>
         <v>20</v>
@@ -3345,7 +3459,9 @@
       <c r="K56" s="16">
         <v>32</v>
       </c>
-      <c r="L56" s="17"/>
+      <c r="L56" s="24">
+        <v>36</v>
+      </c>
       <c r="R56" s="22">
         <f t="shared" si="1"/>
         <v>28</v>
@@ -3383,7 +3499,9 @@
       <c r="K57" s="16">
         <v>27</v>
       </c>
-      <c r="L57" s="17"/>
+      <c r="L57" s="24">
+        <v>36</v>
+      </c>
       <c r="R57" s="22">
         <f t="shared" si="1"/>
         <v>24</v>
@@ -3421,7 +3539,9 @@
       <c r="K58" s="16">
         <v>23</v>
       </c>
-      <c r="L58" s="17"/>
+      <c r="L58" s="24">
+        <v>36</v>
+      </c>
       <c r="R58" s="22">
         <f t="shared" si="1"/>
         <v>20</v>
@@ -3459,7 +3579,9 @@
       <c r="K59" s="16">
         <v>37</v>
       </c>
-      <c r="L59" s="17"/>
+      <c r="L59" s="24">
+        <v>39</v>
+      </c>
       <c r="R59" s="22">
         <f t="shared" si="1"/>
         <v>32</v>
@@ -3497,7 +3619,9 @@
       <c r="K60" s="16">
         <v>22</v>
       </c>
-      <c r="L60" s="17"/>
+      <c r="L60" s="24">
+        <v>16</v>
+      </c>
       <c r="R60" s="22">
         <f t="shared" si="1"/>
         <v>18</v>
@@ -5492,20 +5616,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
-      <c r="K1" s="24"/>
-      <c r="L1" s="24"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
+      <c r="K1" s="25"/>
+      <c r="L1" s="25"/>
     </row>
     <row r="2" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">

--- a/static/Upload/5th sem.xlsx
+++ b/static/Upload/5th sem.xlsx
@@ -916,10 +916,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1216,10 +1216,10 @@
   <dimension ref="A1:T111"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="I47" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="L3" sqref="L3:L60"/>
+      <selection pane="bottomRight" activeCell="A89" sqref="A89:XFD89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1238,20 +1238,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="26" t="s">
         <v>227</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
-      <c r="K1" s="25"/>
-      <c r="L1" s="25"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="26"/>
+      <c r="L1" s="26"/>
     </row>
     <row r="2" spans="1:20" s="2" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
@@ -2859,7 +2859,7 @@
       <c r="K41" s="16">
         <v>0</v>
       </c>
-      <c r="L41" s="26">
+      <c r="L41" s="25">
         <v>0</v>
       </c>
       <c r="R41" s="22">
@@ -3299,7 +3299,7 @@
       <c r="K52" s="16">
         <v>6</v>
       </c>
-      <c r="L52" s="26">
+      <c r="L52" s="25">
         <v>32</v>
       </c>
       <c r="R52" s="22">
@@ -3379,7 +3379,7 @@
       <c r="K54" s="16">
         <v>1</v>
       </c>
-      <c r="L54" s="26">
+      <c r="L54" s="25">
         <v>16</v>
       </c>
       <c r="R54" s="22">
@@ -4715,18 +4715,18 @@
       <c r="E89" s="16"/>
       <c r="F89" s="16"/>
       <c r="G89" s="16">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H89" s="8"/>
       <c r="I89" s="8"/>
       <c r="J89" s="16"/>
       <c r="K89" s="16">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="L89" s="17"/>
       <c r="R89" s="22">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="S89" s="22">
         <f t="shared" si="2"/>
@@ -5616,20 +5616,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
-      <c r="K1" s="25"/>
-      <c r="L1" s="25"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="26"/>
+      <c r="L1" s="26"/>
     </row>
     <row r="2" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">

--- a/static/Upload/5th sem.xlsx
+++ b/static/Upload/5th sem.xlsx
@@ -844,7 +844,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -894,7 +894,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -913,10 +912,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1216,10 +1215,10 @@
   <dimension ref="A1:T111"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D98" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A89" sqref="A89:XFD89"/>
+      <selection pane="bottomRight" activeCell="L105" sqref="L105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1230,28 +1229,29 @@
     <col min="4" max="6" width="7.5703125" style="7" bestFit="1" customWidth="1"/>
     <col min="7" max="9" width="6.85546875" style="7" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12" style="6" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="12.7109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.7109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.7109375" style="24" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="12.7109375" style="7" customWidth="1"/>
     <col min="14" max="14" width="9.140625" style="7"/>
-    <col min="15" max="17" width="9.140625" style="21"/>
+    <col min="15" max="17" width="9.140625" style="20"/>
     <col min="18" max="16384" width="9.140625" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="25" t="s">
         <v>227</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="26"/>
-      <c r="K1" s="26"/>
-      <c r="L1" s="26"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
+      <c r="K1" s="25"/>
+      <c r="L1" s="25"/>
     </row>
     <row r="2" spans="1:20" s="2" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
@@ -1296,13 +1296,13 @@
       <c r="N2" s="11" t="s">
         <v>230</v>
       </c>
-      <c r="O2" s="23" t="s">
+      <c r="O2" s="22" t="s">
         <v>236</v>
       </c>
-      <c r="P2" s="23" t="s">
+      <c r="P2" s="22" t="s">
         <v>237</v>
       </c>
-      <c r="Q2" s="23" t="s">
+      <c r="Q2" s="22" t="s">
         <v>238</v>
       </c>
       <c r="R2" s="2" t="s">
@@ -1342,15 +1342,15 @@
       <c r="L3" s="24">
         <v>16</v>
       </c>
-      <c r="R3" s="22">
+      <c r="R3" s="21">
         <f>SUM(D3)+G3+O3</f>
         <v>22</v>
       </c>
-      <c r="S3" s="22">
+      <c r="S3" s="21">
         <f t="shared" ref="S3:T18" si="0">SUM(E3)+H3+P3</f>
         <v>0</v>
       </c>
-      <c r="T3" s="22">
+      <c r="T3" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1382,15 +1382,15 @@
       <c r="L4" s="24">
         <v>39</v>
       </c>
-      <c r="R4" s="22">
+      <c r="R4" s="21">
         <f t="shared" ref="R4:T67" si="1">SUM(D4)+G4+O4</f>
         <v>25</v>
       </c>
-      <c r="S4" s="22">
+      <c r="S4" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="T4" s="22">
+      <c r="T4" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1422,15 +1422,15 @@
       <c r="L5" s="24">
         <v>39</v>
       </c>
-      <c r="R5" s="22">
+      <c r="R5" s="21">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="S5" s="22">
+      <c r="S5" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="T5" s="22">
+      <c r="T5" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1462,15 +1462,15 @@
       <c r="L6" s="24">
         <v>16</v>
       </c>
-      <c r="R6" s="22">
+      <c r="R6" s="21">
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
-      <c r="S6" s="22">
+      <c r="S6" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="T6" s="22">
+      <c r="T6" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1502,15 +1502,15 @@
       <c r="L7" s="24">
         <v>30</v>
       </c>
-      <c r="R7" s="22">
+      <c r="R7" s="21">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="S7" s="22">
+      <c r="S7" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="T7" s="22">
+      <c r="T7" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1542,15 +1542,15 @@
       <c r="L8" s="24">
         <v>34</v>
       </c>
-      <c r="R8" s="22">
+      <c r="R8" s="21">
         <f t="shared" si="1"/>
         <v>22</v>
       </c>
-      <c r="S8" s="22">
+      <c r="S8" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="T8" s="22">
+      <c r="T8" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1582,15 +1582,15 @@
       <c r="L9" s="24">
         <v>16</v>
       </c>
-      <c r="R9" s="22">
+      <c r="R9" s="21">
         <f t="shared" si="1"/>
         <v>22</v>
       </c>
-      <c r="S9" s="22">
+      <c r="S9" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="T9" s="22">
+      <c r="T9" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1622,15 +1622,15 @@
       <c r="L10" s="24">
         <v>16</v>
       </c>
-      <c r="R10" s="22">
+      <c r="R10" s="21">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="S10" s="22">
+      <c r="S10" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="T10" s="22">
+      <c r="T10" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1662,15 +1662,15 @@
       <c r="L11" s="24">
         <v>36</v>
       </c>
-      <c r="R11" s="22">
+      <c r="R11" s="21">
         <f t="shared" si="1"/>
         <v>19</v>
       </c>
-      <c r="S11" s="22">
+      <c r="S11" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="T11" s="22">
+      <c r="T11" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1702,15 +1702,15 @@
       <c r="L12" s="24">
         <v>16</v>
       </c>
-      <c r="R12" s="22">
+      <c r="R12" s="21">
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
-      <c r="S12" s="22">
+      <c r="S12" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="T12" s="22">
+      <c r="T12" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1742,15 +1742,15 @@
       <c r="L13" s="24">
         <v>30</v>
       </c>
-      <c r="R13" s="22">
+      <c r="R13" s="21">
         <f t="shared" si="1"/>
         <v>21</v>
       </c>
-      <c r="S13" s="22">
+      <c r="S13" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="T13" s="22">
+      <c r="T13" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1782,15 +1782,15 @@
       <c r="L14" s="24">
         <v>36</v>
       </c>
-      <c r="R14" s="22">
+      <c r="R14" s="21">
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
-      <c r="S14" s="22">
+      <c r="S14" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="T14" s="22">
+      <c r="T14" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1822,15 +1822,15 @@
       <c r="L15" s="24">
         <v>39</v>
       </c>
-      <c r="R15" s="22">
+      <c r="R15" s="21">
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
-      <c r="S15" s="22">
+      <c r="S15" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="T15" s="22">
+      <c r="T15" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1862,15 +1862,15 @@
       <c r="L16" s="24">
         <v>36</v>
       </c>
-      <c r="R16" s="22">
+      <c r="R16" s="21">
         <f t="shared" si="1"/>
         <v>24</v>
       </c>
-      <c r="S16" s="22">
+      <c r="S16" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="T16" s="22">
+      <c r="T16" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1902,15 +1902,15 @@
       <c r="L17" s="24">
         <v>34</v>
       </c>
-      <c r="R17" s="22">
+      <c r="R17" s="21">
         <f t="shared" si="1"/>
         <v>21</v>
       </c>
-      <c r="S17" s="22">
+      <c r="S17" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="T17" s="22">
+      <c r="T17" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1942,15 +1942,15 @@
       <c r="L18" s="24">
         <v>34</v>
       </c>
-      <c r="R18" s="22">
+      <c r="R18" s="21">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="S18" s="22">
+      <c r="S18" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="T18" s="22">
+      <c r="T18" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1982,15 +1982,15 @@
       <c r="L19" s="24">
         <v>39</v>
       </c>
-      <c r="R19" s="22">
+      <c r="R19" s="21">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="S19" s="22">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="T19" s="22">
+      <c r="S19" s="21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T19" s="21">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -2022,15 +2022,15 @@
       <c r="L20" s="24">
         <v>36</v>
       </c>
-      <c r="R20" s="22">
+      <c r="R20" s="21">
         <f t="shared" si="1"/>
         <v>24</v>
       </c>
-      <c r="S20" s="22">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="T20" s="22">
+      <c r="S20" s="21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T20" s="21">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -2062,15 +2062,15 @@
       <c r="L21" s="24">
         <v>36</v>
       </c>
-      <c r="R21" s="22">
+      <c r="R21" s="21">
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
-      <c r="S21" s="22">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="T21" s="22">
+      <c r="S21" s="21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T21" s="21">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -2102,15 +2102,15 @@
       <c r="L22" s="24">
         <v>39</v>
       </c>
-      <c r="R22" s="22">
+      <c r="R22" s="21">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="S22" s="22">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="T22" s="22">
+      <c r="S22" s="21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T22" s="21">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -2142,15 +2142,15 @@
       <c r="L23" s="24">
         <v>39</v>
       </c>
-      <c r="R23" s="22">
+      <c r="R23" s="21">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="S23" s="22">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="T23" s="22">
+      <c r="S23" s="21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T23" s="21">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -2182,15 +2182,15 @@
       <c r="L24" s="24">
         <v>34</v>
       </c>
-      <c r="R24" s="22">
+      <c r="R24" s="21">
         <f t="shared" si="1"/>
         <v>19</v>
       </c>
-      <c r="S24" s="22">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="T24" s="22">
+      <c r="S24" s="21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T24" s="21">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -2222,15 +2222,15 @@
       <c r="L25" s="24">
         <v>16</v>
       </c>
-      <c r="R25" s="22">
+      <c r="R25" s="21">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="S25" s="22">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="T25" s="22">
+      <c r="S25" s="21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T25" s="21">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -2260,17 +2260,17 @@
         <v>33</v>
       </c>
       <c r="L26" s="24">
-        <v>16</v>
-      </c>
-      <c r="R26" s="22">
+        <v>36</v>
+      </c>
+      <c r="R26" s="21">
         <f t="shared" si="1"/>
         <v>28</v>
       </c>
-      <c r="S26" s="22">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="T26" s="22">
+      <c r="S26" s="21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T26" s="21">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -2302,15 +2302,15 @@
       <c r="L27" s="24">
         <v>16</v>
       </c>
-      <c r="R27" s="22">
+      <c r="R27" s="21">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="S27" s="22">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="T27" s="22">
+      <c r="S27" s="21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T27" s="21">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -2342,15 +2342,15 @@
       <c r="L28" s="24">
         <v>16</v>
       </c>
-      <c r="R28" s="22">
+      <c r="R28" s="21">
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
-      <c r="S28" s="22">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="T28" s="22">
+      <c r="S28" s="21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T28" s="21">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -2382,15 +2382,15 @@
       <c r="L29" s="24">
         <v>34</v>
       </c>
-      <c r="R29" s="22">
+      <c r="R29" s="21">
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
-      <c r="S29" s="22">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="T29" s="22">
+      <c r="S29" s="21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T29" s="21">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -2422,15 +2422,15 @@
       <c r="L30" s="24">
         <v>32</v>
       </c>
-      <c r="R30" s="22">
+      <c r="R30" s="21">
         <f t="shared" si="1"/>
         <v>25</v>
       </c>
-      <c r="S30" s="22">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="T30" s="22">
+      <c r="S30" s="21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T30" s="21">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -2462,15 +2462,15 @@
       <c r="L31" s="24">
         <v>32</v>
       </c>
-      <c r="R31" s="22">
+      <c r="R31" s="21">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="S31" s="22">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="T31" s="22">
+      <c r="S31" s="21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T31" s="21">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -2502,15 +2502,15 @@
       <c r="L32" s="24">
         <v>39</v>
       </c>
-      <c r="R32" s="22">
+      <c r="R32" s="21">
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
-      <c r="S32" s="22">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="T32" s="22">
+      <c r="S32" s="21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T32" s="21">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -2542,15 +2542,15 @@
       <c r="L33" s="24">
         <v>32</v>
       </c>
-      <c r="R33" s="22">
+      <c r="R33" s="21">
         <f t="shared" si="1"/>
         <v>23</v>
       </c>
-      <c r="S33" s="22">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="T33" s="22">
+      <c r="S33" s="21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T33" s="21">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -2582,15 +2582,15 @@
       <c r="L34" s="24">
         <v>16</v>
       </c>
-      <c r="R34" s="22">
+      <c r="R34" s="21">
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
-      <c r="S34" s="22">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="T34" s="22">
+      <c r="S34" s="21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T34" s="21">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -2622,15 +2622,15 @@
       <c r="L35" s="24">
         <v>36</v>
       </c>
-      <c r="R35" s="22">
+      <c r="R35" s="21">
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
-      <c r="S35" s="22">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="T35" s="22">
+      <c r="S35" s="21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T35" s="21">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -2662,15 +2662,15 @@
       <c r="L36" s="24">
         <v>34</v>
       </c>
-      <c r="R36" s="22">
+      <c r="R36" s="21">
         <f t="shared" si="1"/>
         <v>22</v>
       </c>
-      <c r="S36" s="22">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="T36" s="22">
+      <c r="S36" s="21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T36" s="21">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -2702,15 +2702,15 @@
       <c r="L37" s="24">
         <v>32</v>
       </c>
-      <c r="R37" s="22">
+      <c r="R37" s="21">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="S37" s="22">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="T37" s="22">
+      <c r="S37" s="21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T37" s="21">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -2742,15 +2742,15 @@
       <c r="L38" s="24">
         <v>28</v>
       </c>
-      <c r="R38" s="22">
+      <c r="R38" s="21">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="S38" s="22">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="T38" s="22">
+      <c r="S38" s="21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T38" s="21">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -2782,15 +2782,15 @@
       <c r="L39" s="24">
         <v>36</v>
       </c>
-      <c r="R39" s="22">
+      <c r="R39" s="21">
         <f t="shared" si="1"/>
         <v>22</v>
       </c>
-      <c r="S39" s="22">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="T39" s="22">
+      <c r="S39" s="21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T39" s="21">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -2822,15 +2822,15 @@
       <c r="L40" s="24">
         <v>16</v>
       </c>
-      <c r="R40" s="22">
+      <c r="R40" s="21">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="S40" s="22">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="T40" s="22">
+      <c r="S40" s="21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T40" s="21">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -2859,18 +2859,18 @@
       <c r="K41" s="16">
         <v>0</v>
       </c>
-      <c r="L41" s="25">
-        <v>0</v>
-      </c>
-      <c r="R41" s="22">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="S41" s="22">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="T41" s="22">
+      <c r="L41" s="23">
+        <v>0</v>
+      </c>
+      <c r="R41" s="21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S41" s="21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T41" s="21">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -2902,15 +2902,15 @@
       <c r="L42" s="24">
         <v>36</v>
       </c>
-      <c r="R42" s="22">
+      <c r="R42" s="21">
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
-      <c r="S42" s="22">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="T42" s="22">
+      <c r="S42" s="21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T42" s="21">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -2942,15 +2942,15 @@
       <c r="L43" s="24">
         <v>39</v>
       </c>
-      <c r="R43" s="22">
+      <c r="R43" s="21">
         <f t="shared" si="1"/>
         <v>25</v>
       </c>
-      <c r="S43" s="22">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="T43" s="22">
+      <c r="S43" s="21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T43" s="21">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -2982,15 +2982,15 @@
       <c r="L44" s="24">
         <v>39</v>
       </c>
-      <c r="R44" s="22">
+      <c r="R44" s="21">
         <f t="shared" si="1"/>
         <v>22</v>
       </c>
-      <c r="S44" s="22">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="T44" s="22">
+      <c r="S44" s="21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T44" s="21">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -3022,15 +3022,15 @@
       <c r="L45" s="24">
         <v>16</v>
       </c>
-      <c r="R45" s="22">
+      <c r="R45" s="21">
         <f t="shared" si="1"/>
         <v>27</v>
       </c>
-      <c r="S45" s="22">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="T45" s="22">
+      <c r="S45" s="21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T45" s="21">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -3039,10 +3039,10 @@
       <c r="A46" s="8">
         <v>44</v>
       </c>
-      <c r="B46" s="18" t="s">
+      <c r="B46" s="17" t="s">
         <v>172</v>
       </c>
-      <c r="C46" s="19">
+      <c r="C46" s="18">
         <v>220041723001</v>
       </c>
       <c r="D46" s="16">
@@ -3062,15 +3062,15 @@
       <c r="L46" s="24">
         <v>39</v>
       </c>
-      <c r="R46" s="22">
+      <c r="R46" s="21">
         <f t="shared" si="1"/>
         <v>26</v>
       </c>
-      <c r="S46" s="22">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="T46" s="22">
+      <c r="S46" s="21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T46" s="21">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -3079,10 +3079,10 @@
       <c r="A47" s="8">
         <v>45</v>
       </c>
-      <c r="B47" s="18" t="s">
+      <c r="B47" s="17" t="s">
         <v>173</v>
       </c>
-      <c r="C47" s="19">
+      <c r="C47" s="18">
         <v>220041723002</v>
       </c>
       <c r="D47" s="16">
@@ -3102,15 +3102,15 @@
       <c r="L47" s="24">
         <v>32</v>
       </c>
-      <c r="R47" s="22">
+      <c r="R47" s="21">
         <f t="shared" si="1"/>
         <v>21</v>
       </c>
-      <c r="S47" s="22">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="T47" s="22">
+      <c r="S47" s="21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T47" s="21">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -3119,10 +3119,10 @@
       <c r="A48" s="8">
         <v>46</v>
       </c>
-      <c r="B48" s="18" t="s">
+      <c r="B48" s="17" t="s">
         <v>174</v>
       </c>
-      <c r="C48" s="19">
+      <c r="C48" s="18">
         <v>220041723003</v>
       </c>
       <c r="D48" s="16">
@@ -3142,15 +3142,15 @@
       <c r="L48" s="24">
         <v>32</v>
       </c>
-      <c r="R48" s="22">
+      <c r="R48" s="21">
         <f t="shared" si="1"/>
         <v>21</v>
       </c>
-      <c r="S48" s="22">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="T48" s="22">
+      <c r="S48" s="21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T48" s="21">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -3159,10 +3159,10 @@
       <c r="A49" s="8">
         <v>47</v>
       </c>
-      <c r="B49" s="18" t="s">
+      <c r="B49" s="17" t="s">
         <v>175</v>
       </c>
-      <c r="C49" s="19">
+      <c r="C49" s="18">
         <v>220041723004</v>
       </c>
       <c r="D49" s="16">
@@ -3182,15 +3182,15 @@
       <c r="L49" s="24">
         <v>36</v>
       </c>
-      <c r="R49" s="22">
+      <c r="R49" s="21">
         <f t="shared" si="1"/>
         <v>25</v>
       </c>
-      <c r="S49" s="22">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="T49" s="22">
+      <c r="S49" s="21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T49" s="21">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -3199,10 +3199,10 @@
       <c r="A50" s="8">
         <v>48</v>
       </c>
-      <c r="B50" s="18" t="s">
+      <c r="B50" s="17" t="s">
         <v>176</v>
       </c>
-      <c r="C50" s="19">
+      <c r="C50" s="18">
         <v>220041723005</v>
       </c>
       <c r="D50" s="16">
@@ -3222,15 +3222,15 @@
       <c r="L50" s="24">
         <v>36</v>
       </c>
-      <c r="R50" s="22">
+      <c r="R50" s="21">
         <f t="shared" si="1"/>
         <v>31</v>
       </c>
-      <c r="S50" s="22">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="T50" s="22">
+      <c r="S50" s="21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T50" s="21">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -3239,10 +3239,10 @@
       <c r="A51" s="8">
         <v>49</v>
       </c>
-      <c r="B51" s="18" t="s">
+      <c r="B51" s="17" t="s">
         <v>177</v>
       </c>
-      <c r="C51" s="19">
+      <c r="C51" s="18">
         <v>220041723007</v>
       </c>
       <c r="D51" s="16">
@@ -3262,15 +3262,15 @@
       <c r="L51" s="24">
         <v>39</v>
       </c>
-      <c r="R51" s="22">
+      <c r="R51" s="21">
         <f t="shared" si="1"/>
         <v>24</v>
       </c>
-      <c r="S51" s="22">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="T51" s="22">
+      <c r="S51" s="21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T51" s="21">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -3279,10 +3279,10 @@
       <c r="A52" s="8">
         <v>50</v>
       </c>
-      <c r="B52" s="18" t="s">
+      <c r="B52" s="17" t="s">
         <v>178</v>
       </c>
-      <c r="C52" s="19">
+      <c r="C52" s="18">
         <v>220041723008</v>
       </c>
       <c r="D52" s="16" t="s">
@@ -3299,18 +3299,18 @@
       <c r="K52" s="16">
         <v>6</v>
       </c>
-      <c r="L52" s="25">
+      <c r="L52" s="23">
         <v>32</v>
       </c>
-      <c r="R52" s="22">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="S52" s="22">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="T52" s="22">
+      <c r="R52" s="21">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="S52" s="21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T52" s="21">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -3319,10 +3319,10 @@
       <c r="A53" s="8">
         <v>51</v>
       </c>
-      <c r="B53" s="18" t="s">
+      <c r="B53" s="17" t="s">
         <v>179</v>
       </c>
-      <c r="C53" s="19">
+      <c r="C53" s="18">
         <v>220041723009</v>
       </c>
       <c r="D53" s="16">
@@ -3342,15 +3342,15 @@
       <c r="L53" s="24">
         <v>39</v>
       </c>
-      <c r="R53" s="22">
+      <c r="R53" s="21">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="S53" s="22">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="T53" s="22">
+      <c r="S53" s="21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T53" s="21">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -3359,10 +3359,10 @@
       <c r="A54" s="8">
         <v>52</v>
       </c>
-      <c r="B54" s="18" t="s">
+      <c r="B54" s="17" t="s">
         <v>180</v>
       </c>
-      <c r="C54" s="19">
+      <c r="C54" s="18">
         <v>220041723011</v>
       </c>
       <c r="D54" s="16" t="s">
@@ -3379,18 +3379,18 @@
       <c r="K54" s="16">
         <v>1</v>
       </c>
-      <c r="L54" s="25">
+      <c r="L54" s="23">
         <v>16</v>
       </c>
-      <c r="R54" s="22">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="S54" s="22">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="T54" s="22">
+      <c r="R54" s="21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S54" s="21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T54" s="21">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -3399,10 +3399,10 @@
       <c r="A55" s="8">
         <v>53</v>
       </c>
-      <c r="B55" s="18" t="s">
+      <c r="B55" s="17" t="s">
         <v>181</v>
       </c>
-      <c r="C55" s="19">
+      <c r="C55" s="18">
         <v>220041723012</v>
       </c>
       <c r="D55" s="16">
@@ -3422,15 +3422,15 @@
       <c r="L55" s="24">
         <v>36</v>
       </c>
-      <c r="R55" s="22">
+      <c r="R55" s="21">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="S55" s="22">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="T55" s="22">
+      <c r="S55" s="21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T55" s="21">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -3439,10 +3439,10 @@
       <c r="A56" s="8">
         <v>54</v>
       </c>
-      <c r="B56" s="18" t="s">
+      <c r="B56" s="17" t="s">
         <v>182</v>
       </c>
-      <c r="C56" s="19">
+      <c r="C56" s="18">
         <v>220041723013</v>
       </c>
       <c r="D56" s="16">
@@ -3462,15 +3462,15 @@
       <c r="L56" s="24">
         <v>36</v>
       </c>
-      <c r="R56" s="22">
+      <c r="R56" s="21">
         <f t="shared" si="1"/>
         <v>28</v>
       </c>
-      <c r="S56" s="22">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="T56" s="22">
+      <c r="S56" s="21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T56" s="21">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -3479,10 +3479,10 @@
       <c r="A57" s="8">
         <v>55</v>
       </c>
-      <c r="B57" s="18" t="s">
+      <c r="B57" s="17" t="s">
         <v>183</v>
       </c>
-      <c r="C57" s="19">
+      <c r="C57" s="18">
         <v>220041723014</v>
       </c>
       <c r="D57" s="16">
@@ -3502,15 +3502,15 @@
       <c r="L57" s="24">
         <v>36</v>
       </c>
-      <c r="R57" s="22">
+      <c r="R57" s="21">
         <f t="shared" si="1"/>
         <v>24</v>
       </c>
-      <c r="S57" s="22">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="T57" s="22">
+      <c r="S57" s="21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T57" s="21">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -3519,10 +3519,10 @@
       <c r="A58" s="8">
         <v>56</v>
       </c>
-      <c r="B58" s="18" t="s">
+      <c r="B58" s="17" t="s">
         <v>184</v>
       </c>
-      <c r="C58" s="19">
+      <c r="C58" s="18">
         <v>220041723015</v>
       </c>
       <c r="D58" s="16">
@@ -3542,15 +3542,15 @@
       <c r="L58" s="24">
         <v>36</v>
       </c>
-      <c r="R58" s="22">
+      <c r="R58" s="21">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="S58" s="22">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="T58" s="22">
+      <c r="S58" s="21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T58" s="21">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -3559,10 +3559,10 @@
       <c r="A59" s="8">
         <v>57</v>
       </c>
-      <c r="B59" s="18" t="s">
+      <c r="B59" s="17" t="s">
         <v>185</v>
       </c>
-      <c r="C59" s="19">
+      <c r="C59" s="18">
         <v>220041723016</v>
       </c>
       <c r="D59" s="16">
@@ -3582,15 +3582,15 @@
       <c r="L59" s="24">
         <v>39</v>
       </c>
-      <c r="R59" s="22">
+      <c r="R59" s="21">
         <f t="shared" si="1"/>
         <v>32</v>
       </c>
-      <c r="S59" s="22">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="T59" s="22">
+      <c r="S59" s="21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T59" s="21">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -3599,10 +3599,10 @@
       <c r="A60" s="8">
         <v>58</v>
       </c>
-      <c r="B60" s="18" t="s">
+      <c r="B60" s="17" t="s">
         <v>217</v>
       </c>
-      <c r="C60" s="19">
+      <c r="C60" s="18">
         <v>220041723018</v>
       </c>
       <c r="D60" s="16">
@@ -3620,17 +3620,17 @@
         <v>22</v>
       </c>
       <c r="L60" s="24">
-        <v>16</v>
-      </c>
-      <c r="R60" s="22">
+        <v>30</v>
+      </c>
+      <c r="R60" s="21">
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
-      <c r="S60" s="22">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="T60" s="22">
+      <c r="S60" s="21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T60" s="21">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -3639,10 +3639,10 @@
       <c r="A61" s="8">
         <v>59</v>
       </c>
-      <c r="B61" s="18" t="s">
+      <c r="B61" s="17" t="s">
         <v>231</v>
       </c>
-      <c r="C61" s="19">
+      <c r="C61" s="18">
         <v>200041700092</v>
       </c>
       <c r="D61" s="16">
@@ -3659,16 +3659,18 @@
       <c r="K61" s="16">
         <v>16</v>
       </c>
-      <c r="L61" s="17"/>
-      <c r="R61" s="22">
+      <c r="L61" s="16">
+        <v>36</v>
+      </c>
+      <c r="R61" s="21">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="S61" s="22">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="T61" s="22">
+      <c r="S61" s="21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T61" s="21">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -3677,10 +3679,10 @@
       <c r="A62" s="8">
         <v>59</v>
       </c>
-      <c r="B62" s="18" t="s">
+      <c r="B62" s="17" t="s">
         <v>186</v>
       </c>
-      <c r="C62" s="19">
+      <c r="C62" s="18">
         <v>210041700070</v>
       </c>
       <c r="D62" s="16">
@@ -3697,16 +3699,18 @@
       <c r="K62" s="16">
         <v>17</v>
       </c>
-      <c r="L62" s="17"/>
-      <c r="R62" s="22">
+      <c r="L62" s="16">
+        <v>34</v>
+      </c>
+      <c r="R62" s="21">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="S62" s="22">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="T62" s="22">
+      <c r="S62" s="21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T62" s="21">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -3715,10 +3719,10 @@
       <c r="A63" s="8">
         <v>60</v>
       </c>
-      <c r="B63" s="18" t="s">
+      <c r="B63" s="17" t="s">
         <v>187</v>
       </c>
-      <c r="C63" s="19">
+      <c r="C63" s="18">
         <v>210041700089</v>
       </c>
       <c r="D63" s="16">
@@ -3735,16 +3739,18 @@
       <c r="K63" s="16">
         <v>20</v>
       </c>
-      <c r="L63" s="17"/>
-      <c r="R63" s="22">
+      <c r="L63" s="16">
+        <v>32</v>
+      </c>
+      <c r="R63" s="21">
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
-      <c r="S63" s="22">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="T63" s="22">
+      <c r="S63" s="21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T63" s="21">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -3773,16 +3779,18 @@
       <c r="K64" s="16">
         <v>20</v>
       </c>
-      <c r="L64" s="17"/>
-      <c r="R64" s="22">
+      <c r="L64" s="16">
+        <v>36</v>
+      </c>
+      <c r="R64" s="21">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="S64" s="22">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="T64" s="22">
+      <c r="S64" s="21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T64" s="21">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -3811,16 +3819,18 @@
       <c r="K65" s="16">
         <v>28</v>
       </c>
-      <c r="L65" s="17"/>
-      <c r="R65" s="22">
+      <c r="L65" s="16">
+        <v>39</v>
+      </c>
+      <c r="R65" s="21">
         <f t="shared" si="1"/>
         <v>23</v>
       </c>
-      <c r="S65" s="22">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="T65" s="22">
+      <c r="S65" s="21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T65" s="21">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -3849,16 +3859,18 @@
       <c r="K66" s="16">
         <v>11</v>
       </c>
-      <c r="L66" s="17"/>
-      <c r="R66" s="22">
+      <c r="L66" s="16">
+        <v>28</v>
+      </c>
+      <c r="R66" s="21">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="S66" s="22">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="T66" s="22">
+      <c r="S66" s="21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T66" s="21">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -3887,16 +3899,18 @@
       <c r="K67" s="16">
         <v>23</v>
       </c>
-      <c r="L67" s="17"/>
-      <c r="R67" s="22">
+      <c r="L67" s="16">
+        <v>39</v>
+      </c>
+      <c r="R67" s="21">
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
-      <c r="S67" s="22">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="T67" s="22">
+      <c r="S67" s="21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T67" s="21">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -3925,16 +3939,18 @@
       <c r="K68" s="16">
         <v>24</v>
       </c>
-      <c r="L68" s="17"/>
-      <c r="R68" s="22">
+      <c r="L68" s="16">
+        <v>39</v>
+      </c>
+      <c r="R68" s="21">
         <f t="shared" ref="R68:T111" si="2">SUM(D68)+G68+O68</f>
         <v>20</v>
       </c>
-      <c r="S68" s="22">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="T68" s="22">
+      <c r="S68" s="21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T68" s="21">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -3963,16 +3979,18 @@
       <c r="K69" s="16">
         <v>20</v>
       </c>
-      <c r="L69" s="17"/>
-      <c r="R69" s="22">
+      <c r="L69" s="16">
+        <v>36</v>
+      </c>
+      <c r="R69" s="21">
         <f t="shared" si="2"/>
         <v>15</v>
       </c>
-      <c r="S69" s="22">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="T69" s="22">
+      <c r="S69" s="21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T69" s="21">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -4001,16 +4019,18 @@
       <c r="K70" s="16">
         <v>23</v>
       </c>
-      <c r="L70" s="17"/>
-      <c r="R70" s="22">
+      <c r="L70" s="16">
+        <v>28</v>
+      </c>
+      <c r="R70" s="21">
         <f t="shared" si="2"/>
         <v>18</v>
       </c>
-      <c r="S70" s="22">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="T70" s="22">
+      <c r="S70" s="21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T70" s="21">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -4039,16 +4059,18 @@
       <c r="K71" s="16">
         <v>18</v>
       </c>
-      <c r="L71" s="17"/>
-      <c r="R71" s="22">
+      <c r="L71" s="16">
+        <v>28</v>
+      </c>
+      <c r="R71" s="21">
         <f t="shared" si="2"/>
         <v>15</v>
       </c>
-      <c r="S71" s="22">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="T71" s="22">
+      <c r="S71" s="21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T71" s="21">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -4077,16 +4099,18 @@
       <c r="K72" s="16">
         <v>18</v>
       </c>
-      <c r="L72" s="17"/>
-      <c r="R72" s="22">
+      <c r="L72" s="16">
+        <v>28</v>
+      </c>
+      <c r="R72" s="21">
         <f t="shared" si="2"/>
         <v>14</v>
       </c>
-      <c r="S72" s="22">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="T72" s="22">
+      <c r="S72" s="21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T72" s="21">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -4115,16 +4139,18 @@
       <c r="K73" s="16">
         <v>25</v>
       </c>
-      <c r="L73" s="17"/>
-      <c r="R73" s="22">
+      <c r="L73" s="16">
+        <v>28</v>
+      </c>
+      <c r="R73" s="21">
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
-      <c r="S73" s="22">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="T73" s="22">
+      <c r="S73" s="21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T73" s="21">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -4153,16 +4179,18 @@
       <c r="K74" s="16">
         <v>20</v>
       </c>
-      <c r="L74" s="17"/>
-      <c r="R74" s="22">
+      <c r="L74" s="16">
+        <v>28</v>
+      </c>
+      <c r="R74" s="21">
         <f t="shared" si="2"/>
         <v>17</v>
       </c>
-      <c r="S74" s="22">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="T74" s="22">
+      <c r="S74" s="21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T74" s="21">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -4191,16 +4219,18 @@
       <c r="K75" s="16">
         <v>17</v>
       </c>
-      <c r="L75" s="17"/>
-      <c r="R75" s="22">
+      <c r="L75" s="16">
+        <v>28</v>
+      </c>
+      <c r="R75" s="21">
         <f t="shared" si="2"/>
         <v>13</v>
       </c>
-      <c r="S75" s="22">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="T75" s="22">
+      <c r="S75" s="21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T75" s="21">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -4229,16 +4259,18 @@
       <c r="K76" s="16">
         <v>20</v>
       </c>
-      <c r="L76" s="17"/>
-      <c r="R76" s="22">
+      <c r="L76" s="16">
+        <v>20</v>
+      </c>
+      <c r="R76" s="21">
         <f t="shared" si="2"/>
         <v>17</v>
       </c>
-      <c r="S76" s="22">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="T76" s="22">
+      <c r="S76" s="21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T76" s="21">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -4267,16 +4299,18 @@
       <c r="K77" s="16">
         <v>12</v>
       </c>
-      <c r="L77" s="17"/>
-      <c r="R77" s="22">
+      <c r="L77" s="16">
+        <v>20</v>
+      </c>
+      <c r="R77" s="21">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="S77" s="22">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="T77" s="22">
+      <c r="S77" s="21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T77" s="21">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -4305,16 +4339,18 @@
       <c r="K78" s="16">
         <v>25</v>
       </c>
-      <c r="L78" s="17"/>
-      <c r="R78" s="22">
+      <c r="L78" s="16">
+        <v>28</v>
+      </c>
+      <c r="R78" s="21">
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
-      <c r="S78" s="22">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="T78" s="22">
+      <c r="S78" s="21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T78" s="21">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -4343,16 +4379,18 @@
       <c r="K79" s="16">
         <v>26</v>
       </c>
-      <c r="L79" s="17"/>
-      <c r="R79" s="22">
+      <c r="L79" s="16">
+        <v>30</v>
+      </c>
+      <c r="R79" s="21">
         <f t="shared" si="2"/>
         <v>22</v>
       </c>
-      <c r="S79" s="22">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="T79" s="22">
+      <c r="S79" s="21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T79" s="21">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -4381,16 +4419,18 @@
       <c r="K80" s="16">
         <v>25</v>
       </c>
-      <c r="L80" s="17"/>
-      <c r="R80" s="22">
+      <c r="L80" s="16">
+        <v>32</v>
+      </c>
+      <c r="R80" s="21">
         <f t="shared" si="2"/>
         <v>22</v>
       </c>
-      <c r="S80" s="22">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="T80" s="22">
+      <c r="S80" s="21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T80" s="21">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -4419,16 +4459,18 @@
       <c r="K81" s="16">
         <v>16</v>
       </c>
-      <c r="L81" s="17"/>
-      <c r="R81" s="22">
+      <c r="L81" s="16">
+        <v>34</v>
+      </c>
+      <c r="R81" s="21">
         <f t="shared" si="2"/>
         <v>13</v>
       </c>
-      <c r="S81" s="22">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="T81" s="22">
+      <c r="S81" s="21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T81" s="21">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -4457,16 +4499,18 @@
       <c r="K82" s="16">
         <v>30</v>
       </c>
-      <c r="L82" s="17"/>
-      <c r="R82" s="22">
+      <c r="L82" s="16">
+        <v>36</v>
+      </c>
+      <c r="R82" s="21">
         <f t="shared" si="2"/>
         <v>25</v>
       </c>
-      <c r="S82" s="22">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="T82" s="22">
+      <c r="S82" s="21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T82" s="21">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -4495,16 +4539,18 @@
       <c r="K83" s="16">
         <v>16</v>
       </c>
-      <c r="L83" s="17"/>
-      <c r="R83" s="22">
+      <c r="L83" s="16">
+        <v>16</v>
+      </c>
+      <c r="R83" s="21">
         <f t="shared" si="2"/>
         <v>13</v>
       </c>
-      <c r="S83" s="22">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="T83" s="22">
+      <c r="S83" s="21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T83" s="21">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -4533,16 +4579,18 @@
       <c r="K84" s="16">
         <v>16</v>
       </c>
-      <c r="L84" s="17"/>
-      <c r="R84" s="22">
+      <c r="L84" s="16">
+        <v>28</v>
+      </c>
+      <c r="R84" s="21">
         <f t="shared" si="2"/>
         <v>14</v>
       </c>
-      <c r="S84" s="22">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="T84" s="22">
+      <c r="S84" s="21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T84" s="21">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -4571,16 +4619,18 @@
       <c r="K85" s="16">
         <v>22</v>
       </c>
-      <c r="L85" s="17"/>
-      <c r="R85" s="22">
+      <c r="L85" s="16">
+        <v>34</v>
+      </c>
+      <c r="R85" s="21">
         <f t="shared" si="2"/>
         <v>17</v>
       </c>
-      <c r="S85" s="22">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="T85" s="22">
+      <c r="S85" s="21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T85" s="21">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -4609,16 +4659,18 @@
       <c r="K86" s="16">
         <v>22</v>
       </c>
-      <c r="L86" s="17"/>
-      <c r="R86" s="22">
+      <c r="L86" s="16">
+        <v>36</v>
+      </c>
+      <c r="R86" s="21">
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
-      <c r="S86" s="22">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="T86" s="22">
+      <c r="S86" s="21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T86" s="21">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -4647,16 +4699,18 @@
       <c r="K87" s="16">
         <v>30</v>
       </c>
-      <c r="L87" s="17"/>
-      <c r="R87" s="22">
+      <c r="L87" s="16">
+        <v>39</v>
+      </c>
+      <c r="R87" s="21">
         <f t="shared" si="2"/>
         <v>25</v>
       </c>
-      <c r="S87" s="22">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="T87" s="22">
+      <c r="S87" s="21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T87" s="21">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -4685,16 +4739,18 @@
       <c r="K88" s="16">
         <v>24</v>
       </c>
-      <c r="L88" s="17"/>
-      <c r="R88" s="22">
+      <c r="L88" s="16">
+        <v>36</v>
+      </c>
+      <c r="R88" s="21">
         <f t="shared" si="2"/>
         <v>19</v>
       </c>
-      <c r="S88" s="22">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="T88" s="22">
+      <c r="S88" s="21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T88" s="21">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -4723,16 +4779,18 @@
       <c r="K89" s="16">
         <v>12</v>
       </c>
-      <c r="L89" s="17"/>
-      <c r="R89" s="22">
+      <c r="L89" s="16">
+        <v>36</v>
+      </c>
+      <c r="R89" s="21">
         <f t="shared" si="2"/>
         <v>11</v>
       </c>
-      <c r="S89" s="22">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="T89" s="22">
+      <c r="S89" s="21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T89" s="21">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -4761,16 +4819,18 @@
       <c r="K90" s="16">
         <v>23</v>
       </c>
-      <c r="L90" s="17"/>
-      <c r="R90" s="22">
+      <c r="L90" s="16">
+        <v>36</v>
+      </c>
+      <c r="R90" s="21">
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
-      <c r="S90" s="22">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="T90" s="22">
+      <c r="S90" s="21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T90" s="21">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -4799,16 +4859,18 @@
       <c r="K91" s="16">
         <v>24</v>
       </c>
-      <c r="L91" s="17"/>
-      <c r="R91" s="22">
+      <c r="L91" s="16">
+        <v>36</v>
+      </c>
+      <c r="R91" s="21">
         <f t="shared" si="2"/>
         <v>21</v>
       </c>
-      <c r="S91" s="22">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="T91" s="22">
+      <c r="S91" s="21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T91" s="21">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -4837,16 +4899,18 @@
       <c r="K92" s="16">
         <v>23</v>
       </c>
-      <c r="L92" s="17"/>
-      <c r="R92" s="22">
+      <c r="L92" s="16">
+        <v>39</v>
+      </c>
+      <c r="R92" s="21">
         <f t="shared" si="2"/>
         <v>18</v>
       </c>
-      <c r="S92" s="22">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="T92" s="22">
+      <c r="S92" s="21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T92" s="21">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -4875,16 +4939,18 @@
       <c r="K93" s="16">
         <v>26</v>
       </c>
-      <c r="L93" s="17"/>
-      <c r="R93" s="22">
+      <c r="L93" s="16">
+        <v>34</v>
+      </c>
+      <c r="R93" s="21">
         <f t="shared" si="2"/>
         <v>21</v>
       </c>
-      <c r="S93" s="22">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="T93" s="22">
+      <c r="S93" s="21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T93" s="21">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -4913,16 +4979,18 @@
       <c r="K94" s="16">
         <v>13</v>
       </c>
-      <c r="L94" s="17"/>
-      <c r="R94" s="22">
+      <c r="L94" s="16">
+        <v>34</v>
+      </c>
+      <c r="R94" s="21">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="S94" s="22">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="T94" s="22">
+      <c r="S94" s="21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T94" s="21">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -4951,16 +5019,18 @@
       <c r="K95" s="16">
         <v>13</v>
       </c>
-      <c r="L95" s="17"/>
-      <c r="R95" s="22">
+      <c r="L95" s="16">
+        <v>28</v>
+      </c>
+      <c r="R95" s="21">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="S95" s="22">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="T95" s="22">
+      <c r="S95" s="21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T95" s="21">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -4989,16 +5059,18 @@
       <c r="K96" s="16">
         <v>20</v>
       </c>
-      <c r="L96" s="17"/>
-      <c r="R96" s="22">
+      <c r="L96" s="16">
+        <v>30</v>
+      </c>
+      <c r="R96" s="21">
         <f t="shared" si="2"/>
         <v>15</v>
       </c>
-      <c r="S96" s="22">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="T96" s="22">
+      <c r="S96" s="21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T96" s="21">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -5027,16 +5099,18 @@
       <c r="K97" s="16">
         <v>7</v>
       </c>
-      <c r="L97" s="17"/>
-      <c r="R97" s="22">
-        <f t="shared" si="2"/>
-        <v>5</v>
-      </c>
-      <c r="S97" s="22">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="T97" s="22">
+      <c r="L97" s="16">
+        <v>30</v>
+      </c>
+      <c r="R97" s="21">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="S97" s="21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T97" s="21">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -5065,16 +5139,18 @@
       <c r="K98" s="16">
         <v>20</v>
       </c>
-      <c r="L98" s="17"/>
-      <c r="R98" s="22">
+      <c r="L98" s="16">
+        <v>16</v>
+      </c>
+      <c r="R98" s="21">
         <f t="shared" si="2"/>
         <v>17</v>
       </c>
-      <c r="S98" s="22">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="T98" s="22">
+      <c r="S98" s="21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T98" s="21">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -5103,16 +5179,18 @@
       <c r="K99" s="16">
         <v>22</v>
       </c>
-      <c r="L99" s="17"/>
-      <c r="R99" s="22">
+      <c r="L99" s="16">
+        <v>34</v>
+      </c>
+      <c r="R99" s="21">
         <f t="shared" si="2"/>
         <v>19</v>
       </c>
-      <c r="S99" s="22">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="T99" s="22">
+      <c r="S99" s="21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T99" s="21">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -5141,17 +5219,19 @@
       <c r="K100" s="16">
         <v>18</v>
       </c>
-      <c r="L100" s="17"/>
-      <c r="M100" s="20"/>
-      <c r="R100" s="22">
+      <c r="L100" s="16">
+        <v>28</v>
+      </c>
+      <c r="M100" s="19"/>
+      <c r="R100" s="21">
         <f t="shared" si="2"/>
         <v>15</v>
       </c>
-      <c r="S100" s="22">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="T100" s="22">
+      <c r="S100" s="21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T100" s="21">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -5180,16 +5260,18 @@
       <c r="K101" s="16">
         <v>18</v>
       </c>
-      <c r="L101" s="17"/>
-      <c r="R101" s="22">
+      <c r="L101" s="16">
+        <v>20</v>
+      </c>
+      <c r="R101" s="21">
         <f t="shared" si="2"/>
         <v>15</v>
       </c>
-      <c r="S101" s="22">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="T101" s="22">
+      <c r="S101" s="21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T101" s="21">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -5198,10 +5280,10 @@
       <c r="A102" s="8">
         <v>99</v>
       </c>
-      <c r="B102" s="18" t="s">
+      <c r="B102" s="17" t="s">
         <v>218</v>
       </c>
-      <c r="C102" s="19">
+      <c r="C102" s="18">
         <v>220041723019</v>
       </c>
       <c r="D102" s="16">
@@ -5218,16 +5300,18 @@
       <c r="K102" s="16">
         <v>17</v>
       </c>
-      <c r="L102" s="17"/>
-      <c r="R102" s="22">
+      <c r="L102" s="16">
+        <v>28</v>
+      </c>
+      <c r="R102" s="21">
         <f t="shared" si="2"/>
         <v>14</v>
       </c>
-      <c r="S102" s="22">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="T102" s="22">
+      <c r="S102" s="21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T102" s="21">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -5236,10 +5320,10 @@
       <c r="A103" s="8">
         <v>100</v>
       </c>
-      <c r="B103" s="18" t="s">
+      <c r="B103" s="17" t="s">
         <v>219</v>
       </c>
-      <c r="C103" s="19">
+      <c r="C103" s="18">
         <v>220041723020</v>
       </c>
       <c r="D103" s="16">
@@ -5256,16 +5340,18 @@
       <c r="K103" s="16">
         <v>25</v>
       </c>
-      <c r="L103" s="17"/>
-      <c r="R103" s="22">
+      <c r="L103" s="16">
+        <v>36</v>
+      </c>
+      <c r="R103" s="21">
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
-      <c r="S103" s="22">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="T103" s="22">
+      <c r="S103" s="21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T103" s="21">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -5274,10 +5360,10 @@
       <c r="A104" s="8">
         <v>101</v>
       </c>
-      <c r="B104" s="18" t="s">
+      <c r="B104" s="17" t="s">
         <v>220</v>
       </c>
-      <c r="C104" s="19">
+      <c r="C104" s="18">
         <v>220041723021</v>
       </c>
       <c r="D104" s="16" t="s">
@@ -5294,16 +5380,18 @@
       <c r="K104" s="16">
         <v>0</v>
       </c>
-      <c r="L104" s="17"/>
-      <c r="R104" s="22">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="S104" s="22">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="T104" s="22">
+      <c r="L104" s="16">
+        <v>30</v>
+      </c>
+      <c r="R104" s="21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S104" s="21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T104" s="21">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -5312,10 +5400,10 @@
       <c r="A105" s="8">
         <v>102</v>
       </c>
-      <c r="B105" s="18" t="s">
+      <c r="B105" s="17" t="s">
         <v>219</v>
       </c>
-      <c r="C105" s="19">
+      <c r="C105" s="18">
         <v>220041723022</v>
       </c>
       <c r="D105" s="16" t="s">
@@ -5332,16 +5420,18 @@
       <c r="K105" s="16">
         <v>0</v>
       </c>
-      <c r="L105" s="17"/>
-      <c r="R105" s="22">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="S105" s="22">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="T105" s="22">
+      <c r="L105" s="16">
+        <v>0</v>
+      </c>
+      <c r="R105" s="21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S105" s="21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T105" s="21">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -5350,10 +5440,10 @@
       <c r="A106" s="8">
         <v>103</v>
       </c>
-      <c r="B106" s="18" t="s">
+      <c r="B106" s="17" t="s">
         <v>221</v>
       </c>
-      <c r="C106" s="19">
+      <c r="C106" s="18">
         <v>220041723025</v>
       </c>
       <c r="D106" s="16">
@@ -5370,16 +5460,18 @@
       <c r="K106" s="16">
         <v>14</v>
       </c>
-      <c r="L106" s="17"/>
-      <c r="R106" s="22">
+      <c r="L106" s="16">
+        <v>39</v>
+      </c>
+      <c r="R106" s="21">
         <f t="shared" si="2"/>
         <v>11</v>
       </c>
-      <c r="S106" s="22">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="T106" s="22">
+      <c r="S106" s="21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T106" s="21">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -5388,10 +5480,10 @@
       <c r="A107" s="8">
         <v>104</v>
       </c>
-      <c r="B107" s="18" t="s">
+      <c r="B107" s="17" t="s">
         <v>222</v>
       </c>
-      <c r="C107" s="19">
+      <c r="C107" s="18">
         <v>220041723027</v>
       </c>
       <c r="D107" s="16">
@@ -5408,16 +5500,18 @@
       <c r="K107" s="16">
         <v>28</v>
       </c>
-      <c r="L107" s="17"/>
-      <c r="R107" s="22">
+      <c r="L107" s="16">
+        <v>39</v>
+      </c>
+      <c r="R107" s="21">
         <f t="shared" si="2"/>
         <v>23</v>
       </c>
-      <c r="S107" s="22">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="T107" s="22">
+      <c r="S107" s="21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T107" s="21">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -5426,10 +5520,10 @@
       <c r="A108" s="8">
         <v>105</v>
       </c>
-      <c r="B108" s="18" t="s">
+      <c r="B108" s="17" t="s">
         <v>223</v>
       </c>
-      <c r="C108" s="19">
+      <c r="C108" s="18">
         <v>220041723028</v>
       </c>
       <c r="D108" s="16">
@@ -5446,16 +5540,18 @@
       <c r="K108" s="16">
         <v>9</v>
       </c>
-      <c r="L108" s="17"/>
-      <c r="R108" s="22">
+      <c r="L108" s="16">
+        <v>20</v>
+      </c>
+      <c r="R108" s="21">
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="S108" s="22">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="T108" s="22">
+      <c r="S108" s="21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T108" s="21">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -5464,10 +5560,10 @@
       <c r="A109" s="8">
         <v>106</v>
       </c>
-      <c r="B109" s="18" t="s">
+      <c r="B109" s="17" t="s">
         <v>224</v>
       </c>
-      <c r="C109" s="19">
+      <c r="C109" s="18">
         <v>220041723032</v>
       </c>
       <c r="D109" s="16">
@@ -5484,16 +5580,18 @@
       <c r="K109" s="16">
         <v>26</v>
       </c>
-      <c r="L109" s="17"/>
-      <c r="R109" s="22">
+      <c r="L109" s="16">
+        <v>39</v>
+      </c>
+      <c r="R109" s="21">
         <f t="shared" si="2"/>
         <v>21</v>
       </c>
-      <c r="S109" s="22">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="T109" s="22">
+      <c r="S109" s="21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T109" s="21">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -5502,17 +5600,17 @@
       <c r="A110" s="8">
         <v>107</v>
       </c>
-      <c r="B110" s="18" t="s">
+      <c r="B110" s="17" t="s">
         <v>225</v>
       </c>
-      <c r="C110" s="19">
+      <c r="C110" s="18">
         <v>220041723033</v>
       </c>
       <c r="D110" s="16">
         <v>17</v>
       </c>
       <c r="E110" s="16"/>
-      <c r="F110" s="18"/>
+      <c r="F110" s="17"/>
       <c r="G110" s="16">
         <v>5</v>
       </c>
@@ -5522,16 +5620,18 @@
       <c r="K110" s="16">
         <v>27</v>
       </c>
-      <c r="L110" s="17"/>
-      <c r="R110" s="22">
+      <c r="L110" s="16">
+        <v>39</v>
+      </c>
+      <c r="R110" s="21">
         <f t="shared" si="2"/>
         <v>22</v>
       </c>
-      <c r="S110" s="22">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="T110" s="22">
+      <c r="S110" s="21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T110" s="21">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -5540,10 +5640,10 @@
       <c r="A111" s="8">
         <v>108</v>
       </c>
-      <c r="B111" s="18" t="s">
+      <c r="B111" s="17" t="s">
         <v>226</v>
       </c>
-      <c r="C111" s="19">
+      <c r="C111" s="18">
         <v>220041723034</v>
       </c>
       <c r="D111" s="16">
@@ -5560,16 +5660,18 @@
       <c r="K111" s="16">
         <v>26</v>
       </c>
-      <c r="L111" s="17"/>
-      <c r="R111" s="22">
+      <c r="L111" s="16">
+        <v>36</v>
+      </c>
+      <c r="R111" s="21">
         <f t="shared" si="2"/>
         <v>21</v>
       </c>
-      <c r="S111" s="22">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="T111" s="22">
+      <c r="S111" s="21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T111" s="21">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -5616,20 +5718,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="26"/>
-      <c r="K1" s="26"/>
-      <c r="L1" s="26"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
+      <c r="K1" s="25"/>
+      <c r="L1" s="25"/>
     </row>
     <row r="2" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">

--- a/static/Upload/5th sem.xlsx
+++ b/static/Upload/5th sem.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CA90380-80A8-40E0-AE5F-22C99CEDBB01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CNC" sheetId="3" r:id="rId1"/>
@@ -13,8 +14,9 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">CNC!$A$2:$T$111</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'CNC 2021'!$A$2:$O$112</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">CNC!$A$1:$L$111</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -746,7 +748,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
@@ -844,7 +846,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -903,19 +905,13 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1211,47 +1207,48 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T111"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D98" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="L105" sqref="L105"/>
+      <selection pane="bottomRight" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.28515625" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.42578125" style="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="7.5703125" style="7" bestFit="1" customWidth="1"/>
-    <col min="7" max="9" width="6.85546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12" style="6" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.7109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.7109375" style="24" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.7109375" style="7" customWidth="1"/>
-    <col min="14" max="14" width="9.140625" style="7"/>
-    <col min="15" max="17" width="9.140625" style="20"/>
-    <col min="18" max="16384" width="9.140625" style="7"/>
+    <col min="1" max="1" width="8.85546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="12.140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="11.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.5703125" style="7" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.85546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.5703125" style="7" bestFit="1" customWidth="1"/>
+    <col min="15" max="17" width="8" style="7" bestFit="1" customWidth="1"/>
+    <col min="18" max="20" width="11" style="7" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="23" t="s">
         <v>227</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
-      <c r="K1" s="25"/>
-      <c r="L1" s="25"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
+      <c r="K1" s="23"/>
+      <c r="L1" s="23"/>
     </row>
     <row r="2" spans="1:20" s="2" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
@@ -1296,13 +1293,13 @@
       <c r="N2" s="11" t="s">
         <v>230</v>
       </c>
-      <c r="O2" s="22" t="s">
+      <c r="O2" s="21" t="s">
         <v>236</v>
       </c>
-      <c r="P2" s="22" t="s">
+      <c r="P2" s="21" t="s">
         <v>237</v>
       </c>
-      <c r="Q2" s="22" t="s">
+      <c r="Q2" s="21" t="s">
         <v>238</v>
       </c>
       <c r="R2" s="2" t="s">
@@ -1339,18 +1336,18 @@
       <c r="K3" s="16">
         <v>25</v>
       </c>
-      <c r="L3" s="24">
+      <c r="L3" s="7">
         <v>16</v>
       </c>
-      <c r="R3" s="21">
+      <c r="R3" s="20">
         <f>SUM(D3)+G3+O3</f>
         <v>22</v>
       </c>
-      <c r="S3" s="21">
+      <c r="S3" s="20">
         <f t="shared" ref="S3:T18" si="0">SUM(E3)+H3+P3</f>
         <v>0</v>
       </c>
-      <c r="T3" s="21">
+      <c r="T3" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1379,18 +1376,18 @@
       <c r="K4" s="16">
         <v>30</v>
       </c>
-      <c r="L4" s="24">
+      <c r="L4" s="7">
         <v>39</v>
       </c>
-      <c r="R4" s="21">
+      <c r="R4" s="20">
         <f t="shared" ref="R4:T67" si="1">SUM(D4)+G4+O4</f>
         <v>25</v>
       </c>
-      <c r="S4" s="21">
+      <c r="S4" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="T4" s="21">
+      <c r="T4" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1419,18 +1416,18 @@
       <c r="K5" s="16">
         <v>20</v>
       </c>
-      <c r="L5" s="24">
+      <c r="L5" s="7">
         <v>39</v>
       </c>
-      <c r="R5" s="21">
+      <c r="R5" s="20">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="S5" s="21">
+      <c r="S5" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="T5" s="21">
+      <c r="T5" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1459,18 +1456,18 @@
       <c r="K6" s="16">
         <v>21</v>
       </c>
-      <c r="L6" s="24">
+      <c r="L6" s="7">
         <v>16</v>
       </c>
-      <c r="R6" s="21">
+      <c r="R6" s="20">
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
-      <c r="S6" s="21">
+      <c r="S6" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="T6" s="21">
+      <c r="T6" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1499,18 +1496,18 @@
       <c r="K7" s="16">
         <v>20</v>
       </c>
-      <c r="L7" s="24">
+      <c r="L7" s="7">
         <v>30</v>
       </c>
-      <c r="R7" s="21">
+      <c r="R7" s="20">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="S7" s="21">
+      <c r="S7" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="T7" s="21">
+      <c r="T7" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1539,18 +1536,18 @@
       <c r="K8" s="16">
         <v>27</v>
       </c>
-      <c r="L8" s="24">
+      <c r="L8" s="7">
         <v>34</v>
       </c>
-      <c r="R8" s="21">
+      <c r="R8" s="20">
         <f t="shared" si="1"/>
         <v>22</v>
       </c>
-      <c r="S8" s="21">
+      <c r="S8" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="T8" s="21">
+      <c r="T8" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1579,18 +1576,18 @@
       <c r="K9" s="16">
         <v>23</v>
       </c>
-      <c r="L9" s="24">
+      <c r="L9" s="7">
         <v>16</v>
       </c>
-      <c r="R9" s="21">
+      <c r="R9" s="20">
         <f t="shared" si="1"/>
         <v>22</v>
       </c>
-      <c r="S9" s="21">
+      <c r="S9" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="T9" s="21">
+      <c r="T9" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1619,18 +1616,18 @@
       <c r="K10" s="16">
         <v>22</v>
       </c>
-      <c r="L10" s="24">
+      <c r="L10" s="7">
         <v>16</v>
       </c>
-      <c r="R10" s="21">
+      <c r="R10" s="20">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="S10" s="21">
+      <c r="S10" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="T10" s="21">
+      <c r="T10" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1659,18 +1656,18 @@
       <c r="K11" s="16">
         <v>24</v>
       </c>
-      <c r="L11" s="24">
+      <c r="L11" s="7">
         <v>36</v>
       </c>
-      <c r="R11" s="21">
+      <c r="R11" s="20">
         <f t="shared" si="1"/>
         <v>19</v>
       </c>
-      <c r="S11" s="21">
+      <c r="S11" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="T11" s="21">
+      <c r="T11" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1699,18 +1696,18 @@
       <c r="K12" s="16">
         <v>20</v>
       </c>
-      <c r="L12" s="24">
+      <c r="L12" s="7">
         <v>16</v>
       </c>
-      <c r="R12" s="21">
+      <c r="R12" s="20">
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
-      <c r="S12" s="21">
+      <c r="S12" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="T12" s="21">
+      <c r="T12" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1739,18 +1736,18 @@
       <c r="K13" s="16">
         <v>24</v>
       </c>
-      <c r="L13" s="24">
+      <c r="L13" s="7">
         <v>30</v>
       </c>
-      <c r="R13" s="21">
+      <c r="R13" s="20">
         <f t="shared" si="1"/>
         <v>21</v>
       </c>
-      <c r="S13" s="21">
+      <c r="S13" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="T13" s="21">
+      <c r="T13" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1779,18 +1776,18 @@
       <c r="K14" s="16">
         <v>22</v>
       </c>
-      <c r="L14" s="24">
+      <c r="L14" s="7">
         <v>36</v>
       </c>
-      <c r="R14" s="21">
+      <c r="R14" s="20">
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
-      <c r="S14" s="21">
+      <c r="S14" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="T14" s="21">
+      <c r="T14" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1819,18 +1816,18 @@
       <c r="K15" s="16">
         <v>35</v>
       </c>
-      <c r="L15" s="24">
+      <c r="L15" s="7">
         <v>39</v>
       </c>
-      <c r="R15" s="21">
+      <c r="R15" s="20">
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
-      <c r="S15" s="21">
+      <c r="S15" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="T15" s="21">
+      <c r="T15" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1859,18 +1856,18 @@
       <c r="K16" s="16">
         <v>28</v>
       </c>
-      <c r="L16" s="24">
+      <c r="L16" s="7">
         <v>36</v>
       </c>
-      <c r="R16" s="21">
+      <c r="R16" s="20">
         <f t="shared" si="1"/>
         <v>24</v>
       </c>
-      <c r="S16" s="21">
+      <c r="S16" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="T16" s="21">
+      <c r="T16" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1899,18 +1896,18 @@
       <c r="K17" s="16">
         <v>25</v>
       </c>
-      <c r="L17" s="24">
+      <c r="L17" s="7">
         <v>34</v>
       </c>
-      <c r="R17" s="21">
+      <c r="R17" s="20">
         <f t="shared" si="1"/>
         <v>21</v>
       </c>
-      <c r="S17" s="21">
+      <c r="S17" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="T17" s="21">
+      <c r="T17" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1939,18 +1936,18 @@
       <c r="K18" s="16">
         <v>17</v>
       </c>
-      <c r="L18" s="24">
+      <c r="L18" s="7">
         <v>34</v>
       </c>
-      <c r="R18" s="21">
+      <c r="R18" s="20">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="S18" s="21">
+      <c r="S18" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="T18" s="21">
+      <c r="T18" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1979,18 +1976,18 @@
       <c r="K19" s="16">
         <v>18</v>
       </c>
-      <c r="L19" s="24">
+      <c r="L19" s="7">
         <v>39</v>
       </c>
-      <c r="R19" s="21">
+      <c r="R19" s="20">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="S19" s="21">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="T19" s="21">
+      <c r="S19" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T19" s="20">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -2019,18 +2016,18 @@
       <c r="K20" s="16">
         <v>28</v>
       </c>
-      <c r="L20" s="24">
+      <c r="L20" s="7">
         <v>36</v>
       </c>
-      <c r="R20" s="21">
+      <c r="R20" s="20">
         <f t="shared" si="1"/>
         <v>24</v>
       </c>
-      <c r="S20" s="21">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="T20" s="21">
+      <c r="S20" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T20" s="20">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -2059,18 +2056,18 @@
       <c r="K21" s="16">
         <v>20</v>
       </c>
-      <c r="L21" s="24">
+      <c r="L21" s="7">
         <v>36</v>
       </c>
-      <c r="R21" s="21">
+      <c r="R21" s="20">
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
-      <c r="S21" s="21">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="T21" s="21">
+      <c r="S21" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T21" s="20">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -2099,18 +2096,18 @@
       <c r="K22" s="16">
         <v>24</v>
       </c>
-      <c r="L22" s="24">
+      <c r="L22" s="7">
         <v>39</v>
       </c>
-      <c r="R22" s="21">
+      <c r="R22" s="20">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="S22" s="21">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="T22" s="21">
+      <c r="S22" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T22" s="20">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -2139,18 +2136,18 @@
       <c r="K23" s="16">
         <v>16</v>
       </c>
-      <c r="L23" s="24">
+      <c r="L23" s="7">
         <v>39</v>
       </c>
-      <c r="R23" s="21">
+      <c r="R23" s="20">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="S23" s="21">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="T23" s="21">
+      <c r="S23" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T23" s="20">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -2179,18 +2176,18 @@
       <c r="K24" s="16">
         <v>23</v>
       </c>
-      <c r="L24" s="24">
+      <c r="L24" s="7">
         <v>34</v>
       </c>
-      <c r="R24" s="21">
+      <c r="R24" s="20">
         <f t="shared" si="1"/>
         <v>19</v>
       </c>
-      <c r="S24" s="21">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="T24" s="21">
+      <c r="S24" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T24" s="20">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -2219,18 +2216,18 @@
       <c r="K25" s="16">
         <v>20</v>
       </c>
-      <c r="L25" s="24">
+      <c r="L25" s="7">
         <v>16</v>
       </c>
-      <c r="R25" s="21">
+      <c r="R25" s="20">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="S25" s="21">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="T25" s="21">
+      <c r="S25" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T25" s="20">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -2259,18 +2256,18 @@
       <c r="K26" s="16">
         <v>33</v>
       </c>
-      <c r="L26" s="24">
+      <c r="L26" s="7">
         <v>36</v>
       </c>
-      <c r="R26" s="21">
+      <c r="R26" s="20">
         <f t="shared" si="1"/>
         <v>28</v>
       </c>
-      <c r="S26" s="21">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="T26" s="21">
+      <c r="S26" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T26" s="20">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -2299,18 +2296,18 @@
       <c r="K27" s="16">
         <v>23</v>
       </c>
-      <c r="L27" s="24">
+      <c r="L27" s="7">
         <v>16</v>
       </c>
-      <c r="R27" s="21">
+      <c r="R27" s="20">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="S27" s="21">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="T27" s="21">
+      <c r="S27" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T27" s="20">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -2339,18 +2336,18 @@
       <c r="K28" s="16">
         <v>20</v>
       </c>
-      <c r="L28" s="24">
+      <c r="L28" s="7">
         <v>16</v>
       </c>
-      <c r="R28" s="21">
+      <c r="R28" s="20">
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
-      <c r="S28" s="21">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="T28" s="21">
+      <c r="S28" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T28" s="20">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -2379,18 +2376,18 @@
       <c r="K29" s="16">
         <v>21</v>
       </c>
-      <c r="L29" s="24">
+      <c r="L29" s="7">
         <v>34</v>
       </c>
-      <c r="R29" s="21">
+      <c r="R29" s="20">
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
-      <c r="S29" s="21">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="T29" s="21">
+      <c r="S29" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T29" s="20">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -2419,18 +2416,18 @@
       <c r="K30" s="16">
         <v>28</v>
       </c>
-      <c r="L30" s="24">
+      <c r="L30" s="7">
         <v>32</v>
       </c>
-      <c r="R30" s="21">
+      <c r="R30" s="20">
         <f t="shared" si="1"/>
         <v>25</v>
       </c>
-      <c r="S30" s="21">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="T30" s="21">
+      <c r="S30" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T30" s="20">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -2459,18 +2456,18 @@
       <c r="K31" s="16">
         <v>20</v>
       </c>
-      <c r="L31" s="24">
+      <c r="L31" s="7">
         <v>32</v>
       </c>
-      <c r="R31" s="21">
+      <c r="R31" s="20">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="S31" s="21">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="T31" s="21">
+      <c r="S31" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T31" s="20">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -2499,18 +2496,18 @@
       <c r="K32" s="16">
         <v>20</v>
       </c>
-      <c r="L32" s="24">
+      <c r="L32" s="7">
         <v>39</v>
       </c>
-      <c r="R32" s="21">
+      <c r="R32" s="20">
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
-      <c r="S32" s="21">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="T32" s="21">
+      <c r="S32" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T32" s="20">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -2539,18 +2536,18 @@
       <c r="K33" s="16">
         <v>26</v>
       </c>
-      <c r="L33" s="24">
+      <c r="L33" s="7">
         <v>32</v>
       </c>
-      <c r="R33" s="21">
+      <c r="R33" s="20">
         <f t="shared" si="1"/>
         <v>23</v>
       </c>
-      <c r="S33" s="21">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="T33" s="21">
+      <c r="S33" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T33" s="20">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -2579,18 +2576,18 @@
       <c r="K34" s="16">
         <v>22</v>
       </c>
-      <c r="L34" s="24">
+      <c r="L34" s="7">
         <v>16</v>
       </c>
-      <c r="R34" s="21">
+      <c r="R34" s="20">
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
-      <c r="S34" s="21">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="T34" s="21">
+      <c r="S34" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T34" s="20">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -2619,18 +2616,18 @@
       <c r="K35" s="16">
         <v>22</v>
       </c>
-      <c r="L35" s="24">
+      <c r="L35" s="7">
         <v>36</v>
       </c>
-      <c r="R35" s="21">
+      <c r="R35" s="20">
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
-      <c r="S35" s="21">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="T35" s="21">
+      <c r="S35" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T35" s="20">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -2659,18 +2656,18 @@
       <c r="K36" s="16">
         <v>26</v>
       </c>
-      <c r="L36" s="24">
+      <c r="L36" s="7">
         <v>34</v>
       </c>
-      <c r="R36" s="21">
+      <c r="R36" s="20">
         <f t="shared" si="1"/>
         <v>22</v>
       </c>
-      <c r="S36" s="21">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="T36" s="21">
+      <c r="S36" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T36" s="20">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -2699,18 +2696,18 @@
       <c r="K37" s="16">
         <v>24</v>
       </c>
-      <c r="L37" s="24">
+      <c r="L37" s="7">
         <v>32</v>
       </c>
-      <c r="R37" s="21">
+      <c r="R37" s="20">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="S37" s="21">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="T37" s="21">
+      <c r="S37" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T37" s="20">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -2739,18 +2736,18 @@
       <c r="K38" s="16">
         <v>24</v>
       </c>
-      <c r="L38" s="24">
-        <v>28</v>
-      </c>
-      <c r="R38" s="21">
+      <c r="L38" s="7">
+        <v>32</v>
+      </c>
+      <c r="R38" s="20">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="S38" s="21">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="T38" s="21">
+      <c r="S38" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T38" s="20">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -2779,18 +2776,18 @@
       <c r="K39" s="16">
         <v>27</v>
       </c>
-      <c r="L39" s="24">
+      <c r="L39" s="7">
         <v>36</v>
       </c>
-      <c r="R39" s="21">
+      <c r="R39" s="20">
         <f t="shared" si="1"/>
         <v>22</v>
       </c>
-      <c r="S39" s="21">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="T39" s="21">
+      <c r="S39" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T39" s="20">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -2819,18 +2816,18 @@
       <c r="K40" s="16">
         <v>23</v>
       </c>
-      <c r="L40" s="24">
+      <c r="L40" s="7">
         <v>16</v>
       </c>
-      <c r="R40" s="21">
+      <c r="R40" s="20">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="S40" s="21">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="T40" s="21">
+      <c r="S40" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T40" s="20">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -2859,18 +2856,18 @@
       <c r="K41" s="16">
         <v>0</v>
       </c>
-      <c r="L41" s="23">
-        <v>0</v>
-      </c>
-      <c r="R41" s="21">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="S41" s="21">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="T41" s="21">
+      <c r="L41" s="22">
+        <v>0</v>
+      </c>
+      <c r="R41" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S41" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T41" s="20">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -2899,18 +2896,18 @@
       <c r="K42" s="16">
         <v>21</v>
       </c>
-      <c r="L42" s="24">
+      <c r="L42" s="7">
         <v>36</v>
       </c>
-      <c r="R42" s="21">
+      <c r="R42" s="20">
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
-      <c r="S42" s="21">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="T42" s="21">
+      <c r="S42" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T42" s="20">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -2939,18 +2936,18 @@
       <c r="K43" s="16">
         <v>29</v>
       </c>
-      <c r="L43" s="24">
+      <c r="L43" s="7">
         <v>39</v>
       </c>
-      <c r="R43" s="21">
+      <c r="R43" s="20">
         <f t="shared" si="1"/>
         <v>25</v>
       </c>
-      <c r="S43" s="21">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="T43" s="21">
+      <c r="S43" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T43" s="20">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -2979,18 +2976,18 @@
       <c r="K44" s="16">
         <v>27</v>
       </c>
-      <c r="L44" s="24">
+      <c r="L44" s="7">
         <v>39</v>
       </c>
-      <c r="R44" s="21">
+      <c r="R44" s="20">
         <f t="shared" si="1"/>
         <v>22</v>
       </c>
-      <c r="S44" s="21">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="T44" s="21">
+      <c r="S44" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T44" s="20">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -3019,18 +3016,18 @@
       <c r="K45" s="16">
         <v>32</v>
       </c>
-      <c r="L45" s="24">
+      <c r="L45" s="7">
         <v>16</v>
       </c>
-      <c r="R45" s="21">
+      <c r="R45" s="20">
         <f t="shared" si="1"/>
         <v>27</v>
       </c>
-      <c r="S45" s="21">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="T45" s="21">
+      <c r="S45" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T45" s="20">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -3059,18 +3056,18 @@
       <c r="K46" s="16">
         <v>29</v>
       </c>
-      <c r="L46" s="24">
+      <c r="L46" s="7">
         <v>39</v>
       </c>
-      <c r="R46" s="21">
+      <c r="R46" s="20">
         <f t="shared" si="1"/>
         <v>26</v>
       </c>
-      <c r="S46" s="21">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="T46" s="21">
+      <c r="S46" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T46" s="20">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -3099,18 +3096,18 @@
       <c r="K47" s="16">
         <v>25</v>
       </c>
-      <c r="L47" s="24">
+      <c r="L47" s="7">
         <v>32</v>
       </c>
-      <c r="R47" s="21">
+      <c r="R47" s="20">
         <f t="shared" si="1"/>
         <v>21</v>
       </c>
-      <c r="S47" s="21">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="T47" s="21">
+      <c r="S47" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T47" s="20">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -3139,18 +3136,18 @@
       <c r="K48" s="16">
         <v>25</v>
       </c>
-      <c r="L48" s="24">
+      <c r="L48" s="7">
         <v>32</v>
       </c>
-      <c r="R48" s="21">
+      <c r="R48" s="20">
         <f t="shared" si="1"/>
         <v>21</v>
       </c>
-      <c r="S48" s="21">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="T48" s="21">
+      <c r="S48" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T48" s="20">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -3179,18 +3176,18 @@
       <c r="K49" s="16">
         <v>30</v>
       </c>
-      <c r="L49" s="24">
+      <c r="L49" s="7">
         <v>36</v>
       </c>
-      <c r="R49" s="21">
+      <c r="R49" s="20">
         <f t="shared" si="1"/>
         <v>25</v>
       </c>
-      <c r="S49" s="21">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="T49" s="21">
+      <c r="S49" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T49" s="20">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -3219,18 +3216,18 @@
       <c r="K50" s="16">
         <v>35</v>
       </c>
-      <c r="L50" s="24">
+      <c r="L50" s="7">
         <v>36</v>
       </c>
-      <c r="R50" s="21">
+      <c r="R50" s="20">
         <f t="shared" si="1"/>
         <v>31</v>
       </c>
-      <c r="S50" s="21">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="T50" s="21">
+      <c r="S50" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T50" s="20">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -3259,18 +3256,18 @@
       <c r="K51" s="16">
         <v>25</v>
       </c>
-      <c r="L51" s="24">
+      <c r="L51" s="7">
         <v>39</v>
       </c>
-      <c r="R51" s="21">
+      <c r="R51" s="20">
         <f t="shared" si="1"/>
         <v>24</v>
       </c>
-      <c r="S51" s="21">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="T51" s="21">
+      <c r="S51" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T51" s="20">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -3299,18 +3296,18 @@
       <c r="K52" s="16">
         <v>6</v>
       </c>
-      <c r="L52" s="23">
+      <c r="L52" s="22">
         <v>32</v>
       </c>
-      <c r="R52" s="21">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="S52" s="21">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="T52" s="21">
+      <c r="R52" s="20">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="S52" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T52" s="20">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -3339,18 +3336,18 @@
       <c r="K53" s="16">
         <v>24</v>
       </c>
-      <c r="L53" s="24">
+      <c r="L53" s="7">
         <v>39</v>
       </c>
-      <c r="R53" s="21">
+      <c r="R53" s="20">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="S53" s="21">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="T53" s="21">
+      <c r="S53" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T53" s="20">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -3379,18 +3376,18 @@
       <c r="K54" s="16">
         <v>1</v>
       </c>
-      <c r="L54" s="23">
+      <c r="L54" s="22">
         <v>16</v>
       </c>
-      <c r="R54" s="21">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="S54" s="21">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="T54" s="21">
+      <c r="R54" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S54" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T54" s="20">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -3419,18 +3416,18 @@
       <c r="K55" s="16">
         <v>23</v>
       </c>
-      <c r="L55" s="24">
+      <c r="L55" s="7">
         <v>36</v>
       </c>
-      <c r="R55" s="21">
+      <c r="R55" s="20">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="S55" s="21">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="T55" s="21">
+      <c r="S55" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T55" s="20">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -3459,18 +3456,18 @@
       <c r="K56" s="16">
         <v>32</v>
       </c>
-      <c r="L56" s="24">
+      <c r="L56" s="7">
         <v>36</v>
       </c>
-      <c r="R56" s="21">
+      <c r="R56" s="20">
         <f t="shared" si="1"/>
         <v>28</v>
       </c>
-      <c r="S56" s="21">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="T56" s="21">
+      <c r="S56" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T56" s="20">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -3499,18 +3496,18 @@
       <c r="K57" s="16">
         <v>27</v>
       </c>
-      <c r="L57" s="24">
+      <c r="L57" s="7">
         <v>36</v>
       </c>
-      <c r="R57" s="21">
+      <c r="R57" s="20">
         <f t="shared" si="1"/>
         <v>24</v>
       </c>
-      <c r="S57" s="21">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="T57" s="21">
+      <c r="S57" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T57" s="20">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -3539,18 +3536,18 @@
       <c r="K58" s="16">
         <v>23</v>
       </c>
-      <c r="L58" s="24">
+      <c r="L58" s="7">
         <v>36</v>
       </c>
-      <c r="R58" s="21">
+      <c r="R58" s="20">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="S58" s="21">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="T58" s="21">
+      <c r="S58" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T58" s="20">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -3579,18 +3576,18 @@
       <c r="K59" s="16">
         <v>37</v>
       </c>
-      <c r="L59" s="24">
+      <c r="L59" s="7">
         <v>39</v>
       </c>
-      <c r="R59" s="21">
+      <c r="R59" s="20">
         <f t="shared" si="1"/>
         <v>32</v>
       </c>
-      <c r="S59" s="21">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="T59" s="21">
+      <c r="S59" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T59" s="20">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -3619,18 +3616,18 @@
       <c r="K60" s="16">
         <v>22</v>
       </c>
-      <c r="L60" s="24">
+      <c r="L60" s="7">
         <v>30</v>
       </c>
-      <c r="R60" s="21">
+      <c r="R60" s="20">
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
-      <c r="S60" s="21">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="T60" s="21">
+      <c r="S60" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T60" s="20">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -3662,15 +3659,15 @@
       <c r="L61" s="16">
         <v>36</v>
       </c>
-      <c r="R61" s="21">
+      <c r="R61" s="20">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="S61" s="21">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="T61" s="21">
+      <c r="S61" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T61" s="20">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -3702,15 +3699,15 @@
       <c r="L62" s="16">
         <v>34</v>
       </c>
-      <c r="R62" s="21">
+      <c r="R62" s="20">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="S62" s="21">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="T62" s="21">
+      <c r="S62" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T62" s="20">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -3742,15 +3739,15 @@
       <c r="L63" s="16">
         <v>32</v>
       </c>
-      <c r="R63" s="21">
+      <c r="R63" s="20">
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
-      <c r="S63" s="21">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="T63" s="21">
+      <c r="S63" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T63" s="20">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -3782,15 +3779,15 @@
       <c r="L64" s="16">
         <v>36</v>
       </c>
-      <c r="R64" s="21">
+      <c r="R64" s="20">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="S64" s="21">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="T64" s="21">
+      <c r="S64" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T64" s="20">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -3822,15 +3819,15 @@
       <c r="L65" s="16">
         <v>39</v>
       </c>
-      <c r="R65" s="21">
+      <c r="R65" s="20">
         <f t="shared" si="1"/>
         <v>23</v>
       </c>
-      <c r="S65" s="21">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="T65" s="21">
+      <c r="S65" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T65" s="20">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -3862,15 +3859,15 @@
       <c r="L66" s="16">
         <v>28</v>
       </c>
-      <c r="R66" s="21">
+      <c r="R66" s="20">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="S66" s="21">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="T66" s="21">
+      <c r="S66" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T66" s="20">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -3902,15 +3899,15 @@
       <c r="L67" s="16">
         <v>39</v>
       </c>
-      <c r="R67" s="21">
+      <c r="R67" s="20">
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
-      <c r="S67" s="21">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="T67" s="21">
+      <c r="S67" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T67" s="20">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -3942,15 +3939,15 @@
       <c r="L68" s="16">
         <v>39</v>
       </c>
-      <c r="R68" s="21">
+      <c r="R68" s="20">
         <f t="shared" ref="R68:T111" si="2">SUM(D68)+G68+O68</f>
         <v>20</v>
       </c>
-      <c r="S68" s="21">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="T68" s="21">
+      <c r="S68" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T68" s="20">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -3982,15 +3979,15 @@
       <c r="L69" s="16">
         <v>36</v>
       </c>
-      <c r="R69" s="21">
+      <c r="R69" s="20">
         <f t="shared" si="2"/>
         <v>15</v>
       </c>
-      <c r="S69" s="21">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="T69" s="21">
+      <c r="S69" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T69" s="20">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -4022,15 +4019,15 @@
       <c r="L70" s="16">
         <v>28</v>
       </c>
-      <c r="R70" s="21">
+      <c r="R70" s="20">
         <f t="shared" si="2"/>
         <v>18</v>
       </c>
-      <c r="S70" s="21">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="T70" s="21">
+      <c r="S70" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T70" s="20">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -4062,15 +4059,15 @@
       <c r="L71" s="16">
         <v>28</v>
       </c>
-      <c r="R71" s="21">
+      <c r="R71" s="20">
         <f t="shared" si="2"/>
         <v>15</v>
       </c>
-      <c r="S71" s="21">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="T71" s="21">
+      <c r="S71" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T71" s="20">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -4102,15 +4099,15 @@
       <c r="L72" s="16">
         <v>28</v>
       </c>
-      <c r="R72" s="21">
+      <c r="R72" s="20">
         <f t="shared" si="2"/>
         <v>14</v>
       </c>
-      <c r="S72" s="21">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="T72" s="21">
+      <c r="S72" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T72" s="20">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -4142,15 +4139,15 @@
       <c r="L73" s="16">
         <v>28</v>
       </c>
-      <c r="R73" s="21">
+      <c r="R73" s="20">
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
-      <c r="S73" s="21">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="T73" s="21">
+      <c r="S73" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T73" s="20">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -4182,15 +4179,15 @@
       <c r="L74" s="16">
         <v>28</v>
       </c>
-      <c r="R74" s="21">
+      <c r="R74" s="20">
         <f t="shared" si="2"/>
         <v>17</v>
       </c>
-      <c r="S74" s="21">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="T74" s="21">
+      <c r="S74" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T74" s="20">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -4222,15 +4219,15 @@
       <c r="L75" s="16">
         <v>28</v>
       </c>
-      <c r="R75" s="21">
+      <c r="R75" s="20">
         <f t="shared" si="2"/>
         <v>13</v>
       </c>
-      <c r="S75" s="21">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="T75" s="21">
+      <c r="S75" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T75" s="20">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -4262,15 +4259,15 @@
       <c r="L76" s="16">
         <v>20</v>
       </c>
-      <c r="R76" s="21">
+      <c r="R76" s="20">
         <f t="shared" si="2"/>
         <v>17</v>
       </c>
-      <c r="S76" s="21">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="T76" s="21">
+      <c r="S76" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T76" s="20">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -4302,15 +4299,15 @@
       <c r="L77" s="16">
         <v>20</v>
       </c>
-      <c r="R77" s="21">
+      <c r="R77" s="20">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="S77" s="21">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="T77" s="21">
+      <c r="S77" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T77" s="20">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -4342,15 +4339,15 @@
       <c r="L78" s="16">
         <v>28</v>
       </c>
-      <c r="R78" s="21">
+      <c r="R78" s="20">
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
-      <c r="S78" s="21">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="T78" s="21">
+      <c r="S78" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T78" s="20">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -4382,15 +4379,15 @@
       <c r="L79" s="16">
         <v>30</v>
       </c>
-      <c r="R79" s="21">
+      <c r="R79" s="20">
         <f t="shared" si="2"/>
         <v>22</v>
       </c>
-      <c r="S79" s="21">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="T79" s="21">
+      <c r="S79" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T79" s="20">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -4422,15 +4419,15 @@
       <c r="L80" s="16">
         <v>32</v>
       </c>
-      <c r="R80" s="21">
+      <c r="R80" s="20">
         <f t="shared" si="2"/>
         <v>22</v>
       </c>
-      <c r="S80" s="21">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="T80" s="21">
+      <c r="S80" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T80" s="20">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -4462,15 +4459,15 @@
       <c r="L81" s="16">
         <v>34</v>
       </c>
-      <c r="R81" s="21">
+      <c r="R81" s="20">
         <f t="shared" si="2"/>
         <v>13</v>
       </c>
-      <c r="S81" s="21">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="T81" s="21">
+      <c r="S81" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T81" s="20">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -4502,15 +4499,15 @@
       <c r="L82" s="16">
         <v>36</v>
       </c>
-      <c r="R82" s="21">
+      <c r="R82" s="20">
         <f t="shared" si="2"/>
         <v>25</v>
       </c>
-      <c r="S82" s="21">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="T82" s="21">
+      <c r="S82" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T82" s="20">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -4542,15 +4539,15 @@
       <c r="L83" s="16">
         <v>16</v>
       </c>
-      <c r="R83" s="21">
+      <c r="R83" s="20">
         <f t="shared" si="2"/>
         <v>13</v>
       </c>
-      <c r="S83" s="21">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="T83" s="21">
+      <c r="S83" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T83" s="20">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -4582,15 +4579,15 @@
       <c r="L84" s="16">
         <v>28</v>
       </c>
-      <c r="R84" s="21">
+      <c r="R84" s="20">
         <f t="shared" si="2"/>
         <v>14</v>
       </c>
-      <c r="S84" s="21">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="T84" s="21">
+      <c r="S84" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T84" s="20">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -4622,15 +4619,15 @@
       <c r="L85" s="16">
         <v>34</v>
       </c>
-      <c r="R85" s="21">
+      <c r="R85" s="20">
         <f t="shared" si="2"/>
         <v>17</v>
       </c>
-      <c r="S85" s="21">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="T85" s="21">
+      <c r="S85" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T85" s="20">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -4662,15 +4659,15 @@
       <c r="L86" s="16">
         <v>36</v>
       </c>
-      <c r="R86" s="21">
+      <c r="R86" s="20">
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
-      <c r="S86" s="21">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="T86" s="21">
+      <c r="S86" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T86" s="20">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -4702,15 +4699,15 @@
       <c r="L87" s="16">
         <v>39</v>
       </c>
-      <c r="R87" s="21">
+      <c r="R87" s="20">
         <f t="shared" si="2"/>
         <v>25</v>
       </c>
-      <c r="S87" s="21">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="T87" s="21">
+      <c r="S87" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T87" s="20">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -4742,15 +4739,15 @@
       <c r="L88" s="16">
         <v>36</v>
       </c>
-      <c r="R88" s="21">
+      <c r="R88" s="20">
         <f t="shared" si="2"/>
         <v>19</v>
       </c>
-      <c r="S88" s="21">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="T88" s="21">
+      <c r="S88" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T88" s="20">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -4782,15 +4779,15 @@
       <c r="L89" s="16">
         <v>36</v>
       </c>
-      <c r="R89" s="21">
+      <c r="R89" s="20">
         <f t="shared" si="2"/>
         <v>11</v>
       </c>
-      <c r="S89" s="21">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="T89" s="21">
+      <c r="S89" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T89" s="20">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -4822,15 +4819,15 @@
       <c r="L90" s="16">
         <v>36</v>
       </c>
-      <c r="R90" s="21">
+      <c r="R90" s="20">
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
-      <c r="S90" s="21">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="T90" s="21">
+      <c r="S90" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T90" s="20">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -4862,15 +4859,15 @@
       <c r="L91" s="16">
         <v>36</v>
       </c>
-      <c r="R91" s="21">
+      <c r="R91" s="20">
         <f t="shared" si="2"/>
         <v>21</v>
       </c>
-      <c r="S91" s="21">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="T91" s="21">
+      <c r="S91" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T91" s="20">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -4902,15 +4899,15 @@
       <c r="L92" s="16">
         <v>39</v>
       </c>
-      <c r="R92" s="21">
+      <c r="R92" s="20">
         <f t="shared" si="2"/>
         <v>18</v>
       </c>
-      <c r="S92" s="21">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="T92" s="21">
+      <c r="S92" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T92" s="20">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -4942,15 +4939,15 @@
       <c r="L93" s="16">
         <v>34</v>
       </c>
-      <c r="R93" s="21">
+      <c r="R93" s="20">
         <f t="shared" si="2"/>
         <v>21</v>
       </c>
-      <c r="S93" s="21">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="T93" s="21">
+      <c r="S93" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T93" s="20">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -4982,15 +4979,15 @@
       <c r="L94" s="16">
         <v>34</v>
       </c>
-      <c r="R94" s="21">
+      <c r="R94" s="20">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="S94" s="21">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="T94" s="21">
+      <c r="S94" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T94" s="20">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -5022,15 +5019,15 @@
       <c r="L95" s="16">
         <v>28</v>
       </c>
-      <c r="R95" s="21">
+      <c r="R95" s="20">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="S95" s="21">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="T95" s="21">
+      <c r="S95" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T95" s="20">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -5062,15 +5059,15 @@
       <c r="L96" s="16">
         <v>30</v>
       </c>
-      <c r="R96" s="21">
+      <c r="R96" s="20">
         <f t="shared" si="2"/>
         <v>15</v>
       </c>
-      <c r="S96" s="21">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="T96" s="21">
+      <c r="S96" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T96" s="20">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -5102,15 +5099,15 @@
       <c r="L97" s="16">
         <v>30</v>
       </c>
-      <c r="R97" s="21">
-        <f t="shared" si="2"/>
-        <v>5</v>
-      </c>
-      <c r="S97" s="21">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="T97" s="21">
+      <c r="R97" s="20">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="S97" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T97" s="20">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -5142,15 +5139,15 @@
       <c r="L98" s="16">
         <v>16</v>
       </c>
-      <c r="R98" s="21">
+      <c r="R98" s="20">
         <f t="shared" si="2"/>
         <v>17</v>
       </c>
-      <c r="S98" s="21">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="T98" s="21">
+      <c r="S98" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T98" s="20">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -5182,15 +5179,15 @@
       <c r="L99" s="16">
         <v>34</v>
       </c>
-      <c r="R99" s="21">
+      <c r="R99" s="20">
         <f t="shared" si="2"/>
         <v>19</v>
       </c>
-      <c r="S99" s="21">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="T99" s="21">
+      <c r="S99" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T99" s="20">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -5223,15 +5220,15 @@
         <v>28</v>
       </c>
       <c r="M100" s="19"/>
-      <c r="R100" s="21">
+      <c r="R100" s="20">
         <f t="shared" si="2"/>
         <v>15</v>
       </c>
-      <c r="S100" s="21">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="T100" s="21">
+      <c r="S100" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T100" s="20">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -5263,15 +5260,15 @@
       <c r="L101" s="16">
         <v>20</v>
       </c>
-      <c r="R101" s="21">
+      <c r="R101" s="20">
         <f t="shared" si="2"/>
         <v>15</v>
       </c>
-      <c r="S101" s="21">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="T101" s="21">
+      <c r="S101" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T101" s="20">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -5303,15 +5300,15 @@
       <c r="L102" s="16">
         <v>28</v>
       </c>
-      <c r="R102" s="21">
+      <c r="R102" s="20">
         <f t="shared" si="2"/>
         <v>14</v>
       </c>
-      <c r="S102" s="21">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="T102" s="21">
+      <c r="S102" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T102" s="20">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -5343,15 +5340,15 @@
       <c r="L103" s="16">
         <v>36</v>
       </c>
-      <c r="R103" s="21">
+      <c r="R103" s="20">
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
-      <c r="S103" s="21">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="T103" s="21">
+      <c r="S103" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T103" s="20">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -5383,15 +5380,15 @@
       <c r="L104" s="16">
         <v>30</v>
       </c>
-      <c r="R104" s="21">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="S104" s="21">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="T104" s="21">
+      <c r="R104" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S104" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T104" s="20">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -5423,15 +5420,15 @@
       <c r="L105" s="16">
         <v>0</v>
       </c>
-      <c r="R105" s="21">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="S105" s="21">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="T105" s="21">
+      <c r="R105" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S105" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T105" s="20">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -5463,15 +5460,15 @@
       <c r="L106" s="16">
         <v>39</v>
       </c>
-      <c r="R106" s="21">
+      <c r="R106" s="20">
         <f t="shared" si="2"/>
         <v>11</v>
       </c>
-      <c r="S106" s="21">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="T106" s="21">
+      <c r="S106" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T106" s="20">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -5503,15 +5500,15 @@
       <c r="L107" s="16">
         <v>39</v>
       </c>
-      <c r="R107" s="21">
+      <c r="R107" s="20">
         <f t="shared" si="2"/>
         <v>23</v>
       </c>
-      <c r="S107" s="21">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="T107" s="21">
+      <c r="S107" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T107" s="20">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -5543,15 +5540,15 @@
       <c r="L108" s="16">
         <v>20</v>
       </c>
-      <c r="R108" s="21">
+      <c r="R108" s="20">
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="S108" s="21">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="T108" s="21">
+      <c r="S108" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T108" s="20">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -5583,15 +5580,15 @@
       <c r="L109" s="16">
         <v>39</v>
       </c>
-      <c r="R109" s="21">
+      <c r="R109" s="20">
         <f t="shared" si="2"/>
         <v>21</v>
       </c>
-      <c r="S109" s="21">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="T109" s="21">
+      <c r="S109" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T109" s="20">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -5623,15 +5620,15 @@
       <c r="L110" s="16">
         <v>39</v>
       </c>
-      <c r="R110" s="21">
+      <c r="R110" s="20">
         <f t="shared" si="2"/>
         <v>22</v>
       </c>
-      <c r="S110" s="21">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="T110" s="21">
+      <c r="S110" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T110" s="20">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -5663,21 +5660,21 @@
       <c r="L111" s="16">
         <v>36</v>
       </c>
-      <c r="R111" s="21">
+      <c r="R111" s="20">
         <f t="shared" si="2"/>
         <v>21</v>
       </c>
-      <c r="S111" s="21">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="T111" s="21">
+      <c r="S111" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T111" s="20">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:T111"/>
+  <autoFilter ref="A2:T111" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <mergeCells count="1">
     <mergeCell ref="A1:L1"/>
   </mergeCells>
@@ -5692,7 +5689,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:O120"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
@@ -5718,20 +5715,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
-      <c r="K1" s="25"/>
-      <c r="L1" s="25"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
+      <c r="K1" s="23"/>
+      <c r="L1" s="23"/>
     </row>
     <row r="2" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">

--- a/static/Upload/5th sem.xlsx
+++ b/static/Upload/5th sem.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CA90380-80A8-40E0-AE5F-22C99CEDBB01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140"/>
   </bookViews>
   <sheets>
     <sheet name="CNC" sheetId="3" r:id="rId1"/>
@@ -16,7 +15,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'CNC 2021'!$A$2:$O$112</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">CNC!$A$1:$L$111</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -748,7 +747,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
@@ -921,7 +920,17 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1207,14 +1216,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T111"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="L2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" sqref="A1:XFD1048576"/>
+      <selection pane="bottomRight" activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1250,7 +1259,7 @@
       <c r="K1" s="23"/>
       <c r="L1" s="23"/>
     </row>
-    <row r="2" spans="1:20" s="2" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>0</v>
       </c>
@@ -1337,7 +1346,7 @@
         <v>25</v>
       </c>
       <c r="L3" s="7">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="R3" s="20">
         <f>SUM(D3)+G3+O3</f>
@@ -2217,7 +2226,7 @@
         <v>20</v>
       </c>
       <c r="L25" s="7">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="R25" s="20">
         <f t="shared" si="1"/>
@@ -2577,7 +2586,7 @@
         <v>22</v>
       </c>
       <c r="L34" s="7">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="R34" s="20">
         <f t="shared" si="1"/>
@@ -2737,7 +2746,7 @@
         <v>24</v>
       </c>
       <c r="L38" s="7">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="R38" s="20">
         <f t="shared" si="1"/>
@@ -3017,7 +3026,7 @@
         <v>32</v>
       </c>
       <c r="L45" s="7">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="R45" s="20">
         <f t="shared" si="1"/>
@@ -3848,20 +3857,20 @@
       <c r="E66" s="16"/>
       <c r="F66" s="16"/>
       <c r="G66" s="16">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H66" s="8"/>
       <c r="I66" s="8"/>
       <c r="J66" s="16"/>
       <c r="K66" s="16">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="L66" s="16">
         <v>28</v>
       </c>
       <c r="R66" s="20">
         <f t="shared" si="1"/>
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="S66" s="20">
         <f t="shared" si="1"/>
@@ -5674,12 +5683,12 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:T111" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A2:T111"/>
   <mergeCells count="1">
     <mergeCell ref="A1:L1"/>
   </mergeCells>
   <conditionalFormatting sqref="K18:K108">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
       <formula>16</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5689,7 +5698,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O120"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">

--- a/static/Upload/5th sem.xlsx
+++ b/static/Upload/5th sem.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="239">
   <si>
     <t>S.N</t>
   </si>
@@ -920,17 +920,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1220,10 +1210,10 @@
   <dimension ref="A1:T111"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="L2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D98" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="L4" sqref="L4"/>
+      <selection pane="bottomRight" activeCell="E3" sqref="E3:E111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1334,7 +1324,9 @@
       <c r="D3" s="16">
         <v>17</v>
       </c>
-      <c r="E3" s="16"/>
+      <c r="E3" s="16">
+        <v>16</v>
+      </c>
       <c r="F3" s="16"/>
       <c r="G3" s="16">
         <v>5</v>
@@ -1354,7 +1346,7 @@
       </c>
       <c r="S3" s="20">
         <f t="shared" ref="S3:T18" si="0">SUM(E3)+H3+P3</f>
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="T3" s="20">
         <f t="shared" si="0"/>
@@ -1374,7 +1366,9 @@
       <c r="D4" s="16">
         <v>20</v>
       </c>
-      <c r="E4" s="16"/>
+      <c r="E4" s="16">
+        <v>15</v>
+      </c>
       <c r="F4" s="16"/>
       <c r="G4" s="16">
         <v>5</v>
@@ -1394,7 +1388,7 @@
       </c>
       <c r="S4" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="T4" s="20">
         <f t="shared" si="0"/>
@@ -1414,7 +1408,9 @@
       <c r="D5" s="16">
         <v>10</v>
       </c>
-      <c r="E5" s="16"/>
+      <c r="E5" s="16">
+        <v>12</v>
+      </c>
       <c r="F5" s="16"/>
       <c r="G5" s="16">
         <v>5</v>
@@ -1434,7 +1430,7 @@
       </c>
       <c r="S5" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="T5" s="20">
         <f t="shared" si="0"/>
@@ -1454,7 +1450,9 @@
       <c r="D6" s="16">
         <v>12</v>
       </c>
-      <c r="E6" s="16"/>
+      <c r="E6" s="16">
+        <v>7</v>
+      </c>
       <c r="F6" s="16"/>
       <c r="G6" s="16">
         <v>5</v>
@@ -1474,7 +1472,7 @@
       </c>
       <c r="S6" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="T6" s="20">
         <f t="shared" si="0"/>
@@ -1494,7 +1492,9 @@
       <c r="D7" s="16">
         <v>10</v>
       </c>
-      <c r="E7" s="16"/>
+      <c r="E7" s="16">
+        <v>10</v>
+      </c>
       <c r="F7" s="16"/>
       <c r="G7" s="16">
         <v>5</v>
@@ -1514,7 +1514,7 @@
       </c>
       <c r="S7" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="T7" s="20">
         <f t="shared" si="0"/>
@@ -1534,7 +1534,9 @@
       <c r="D8" s="16">
         <v>17</v>
       </c>
-      <c r="E8" s="16"/>
+      <c r="E8" s="16">
+        <v>9</v>
+      </c>
       <c r="F8" s="16"/>
       <c r="G8" s="16">
         <v>5</v>
@@ -1554,7 +1556,7 @@
       </c>
       <c r="S8" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="T8" s="20">
         <f t="shared" si="0"/>
@@ -1574,7 +1576,9 @@
       <c r="D9" s="16">
         <v>17</v>
       </c>
-      <c r="E9" s="16"/>
+      <c r="E9" s="16">
+        <v>4</v>
+      </c>
       <c r="F9" s="16"/>
       <c r="G9" s="16">
         <v>5</v>
@@ -1594,7 +1598,7 @@
       </c>
       <c r="S9" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="T9" s="20">
         <f t="shared" si="0"/>
@@ -1614,7 +1618,9 @@
       <c r="D10" s="16">
         <v>15</v>
       </c>
-      <c r="E10" s="16"/>
+      <c r="E10" s="16">
+        <v>15</v>
+      </c>
       <c r="F10" s="16"/>
       <c r="G10" s="16">
         <v>5</v>
@@ -1634,7 +1640,7 @@
       </c>
       <c r="S10" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="T10" s="20">
         <f t="shared" si="0"/>
@@ -1654,7 +1660,9 @@
       <c r="D11" s="16">
         <v>14</v>
       </c>
-      <c r="E11" s="16"/>
+      <c r="E11" s="16">
+        <v>13</v>
+      </c>
       <c r="F11" s="16"/>
       <c r="G11" s="16">
         <v>5</v>
@@ -1674,7 +1682,7 @@
       </c>
       <c r="S11" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="T11" s="20">
         <f t="shared" si="0"/>
@@ -1694,7 +1702,9 @@
       <c r="D12" s="16">
         <v>14</v>
       </c>
-      <c r="E12" s="16"/>
+      <c r="E12" s="16">
+        <v>15</v>
+      </c>
       <c r="F12" s="16"/>
       <c r="G12" s="16">
         <v>4</v>
@@ -1714,7 +1724,7 @@
       </c>
       <c r="S12" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="T12" s="20">
         <f t="shared" si="0"/>
@@ -1734,7 +1744,9 @@
       <c r="D13" s="16">
         <v>16</v>
       </c>
-      <c r="E13" s="16"/>
+      <c r="E13" s="16">
+        <v>23</v>
+      </c>
       <c r="F13" s="16"/>
       <c r="G13" s="16">
         <v>5</v>
@@ -1754,7 +1766,7 @@
       </c>
       <c r="S13" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="T13" s="20">
         <f t="shared" si="0"/>
@@ -1774,7 +1786,9 @@
       <c r="D14" s="16">
         <v>12</v>
       </c>
-      <c r="E14" s="16"/>
+      <c r="E14" s="16">
+        <v>17</v>
+      </c>
       <c r="F14" s="16"/>
       <c r="G14" s="16">
         <v>5</v>
@@ -1794,7 +1808,7 @@
       </c>
       <c r="S14" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="T14" s="20">
         <f t="shared" si="0"/>
@@ -1814,7 +1828,9 @@
       <c r="D15" s="16">
         <v>25</v>
       </c>
-      <c r="E15" s="16"/>
+      <c r="E15" s="16">
+        <v>26</v>
+      </c>
       <c r="F15" s="16"/>
       <c r="G15" s="16">
         <v>5</v>
@@ -1834,7 +1850,7 @@
       </c>
       <c r="S15" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="T15" s="20">
         <f t="shared" si="0"/>
@@ -1854,7 +1870,9 @@
       <c r="D16" s="16">
         <v>19</v>
       </c>
-      <c r="E16" s="16"/>
+      <c r="E16" s="16">
+        <v>26</v>
+      </c>
       <c r="F16" s="16"/>
       <c r="G16" s="16">
         <v>5</v>
@@ -1874,7 +1892,7 @@
       </c>
       <c r="S16" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="T16" s="20">
         <f t="shared" si="0"/>
@@ -1894,7 +1912,9 @@
       <c r="D17" s="16">
         <v>16</v>
       </c>
-      <c r="E17" s="16"/>
+      <c r="E17" s="16">
+        <v>17</v>
+      </c>
       <c r="F17" s="16"/>
       <c r="G17" s="16">
         <v>5</v>
@@ -1914,7 +1934,7 @@
       </c>
       <c r="S17" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="T17" s="20">
         <f t="shared" si="0"/>
@@ -1934,7 +1954,9 @@
       <c r="D18" s="16">
         <v>10</v>
       </c>
-      <c r="E18" s="16"/>
+      <c r="E18" s="16">
+        <v>9</v>
+      </c>
       <c r="F18" s="16"/>
       <c r="G18" s="16">
         <v>5</v>
@@ -1954,7 +1976,7 @@
       </c>
       <c r="S18" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="T18" s="20">
         <f t="shared" si="0"/>
@@ -1974,7 +1996,9 @@
       <c r="D19" s="16">
         <v>9</v>
       </c>
-      <c r="E19" s="16"/>
+      <c r="E19" s="16">
+        <v>14</v>
+      </c>
       <c r="F19" s="16"/>
       <c r="G19" s="16">
         <v>5</v>
@@ -1994,7 +2018,7 @@
       </c>
       <c r="S19" s="20">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="T19" s="20">
         <f t="shared" si="1"/>
@@ -2014,7 +2038,9 @@
       <c r="D20" s="16">
         <v>19</v>
       </c>
-      <c r="E20" s="16"/>
+      <c r="E20" s="16">
+        <v>27</v>
+      </c>
       <c r="F20" s="16"/>
       <c r="G20" s="16">
         <v>5</v>
@@ -2034,7 +2060,7 @@
       </c>
       <c r="S20" s="20">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="T20" s="20">
         <f t="shared" si="1"/>
@@ -2054,7 +2080,9 @@
       <c r="D21" s="16">
         <v>12</v>
       </c>
-      <c r="E21" s="16"/>
+      <c r="E21" s="16">
+        <v>12</v>
+      </c>
       <c r="F21" s="16"/>
       <c r="G21" s="16">
         <v>5</v>
@@ -2074,7 +2102,7 @@
       </c>
       <c r="S21" s="20">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="T21" s="20">
         <f t="shared" si="1"/>
@@ -2094,7 +2122,9 @@
       <c r="D22" s="16">
         <v>15</v>
       </c>
-      <c r="E22" s="16"/>
+      <c r="E22" s="16">
+        <v>12</v>
+      </c>
       <c r="F22" s="16"/>
       <c r="G22" s="16">
         <v>5</v>
@@ -2114,7 +2144,7 @@
       </c>
       <c r="S22" s="20">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="T22" s="20">
         <f t="shared" si="1"/>
@@ -2134,7 +2164,9 @@
       <c r="D23" s="16">
         <v>8</v>
       </c>
-      <c r="E23" s="16"/>
+      <c r="E23" s="16">
+        <v>13</v>
+      </c>
       <c r="F23" s="16"/>
       <c r="G23" s="16">
         <v>5</v>
@@ -2154,7 +2186,7 @@
       </c>
       <c r="S23" s="20">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="T23" s="20">
         <f t="shared" si="1"/>
@@ -2174,7 +2206,9 @@
       <c r="D24" s="16">
         <v>14</v>
       </c>
-      <c r="E24" s="16"/>
+      <c r="E24" s="16">
+        <v>15</v>
+      </c>
       <c r="F24" s="16"/>
       <c r="G24" s="16">
         <v>5</v>
@@ -2194,7 +2228,7 @@
       </c>
       <c r="S24" s="20">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="T24" s="20">
         <f t="shared" si="1"/>
@@ -2214,7 +2248,9 @@
       <c r="D25" s="16">
         <v>10</v>
       </c>
-      <c r="E25" s="16"/>
+      <c r="E25" s="16">
+        <v>12</v>
+      </c>
       <c r="F25" s="16"/>
       <c r="G25" s="16">
         <v>5</v>
@@ -2234,7 +2270,7 @@
       </c>
       <c r="S25" s="20">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="T25" s="20">
         <f t="shared" si="1"/>
@@ -2254,7 +2290,9 @@
       <c r="D26" s="16">
         <v>23</v>
       </c>
-      <c r="E26" s="16"/>
+      <c r="E26" s="16">
+        <v>16</v>
+      </c>
       <c r="F26" s="16"/>
       <c r="G26" s="16">
         <v>5</v>
@@ -2274,7 +2312,7 @@
       </c>
       <c r="S26" s="20">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="T26" s="20">
         <f t="shared" si="1"/>
@@ -2294,7 +2332,9 @@
       <c r="D27" s="16">
         <v>15</v>
       </c>
-      <c r="E27" s="16"/>
+      <c r="E27" s="16">
+        <v>12</v>
+      </c>
       <c r="F27" s="16"/>
       <c r="G27" s="16">
         <v>5</v>
@@ -2314,7 +2354,7 @@
       </c>
       <c r="S27" s="20">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="T27" s="20">
         <f t="shared" si="1"/>
@@ -2334,7 +2374,9 @@
       <c r="D28" s="16">
         <v>12</v>
       </c>
-      <c r="E28" s="16"/>
+      <c r="E28" s="16">
+        <v>8</v>
+      </c>
       <c r="F28" s="16"/>
       <c r="G28" s="16">
         <v>5</v>
@@ -2354,7 +2396,7 @@
       </c>
       <c r="S28" s="20">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="T28" s="20">
         <f t="shared" si="1"/>
@@ -2374,7 +2416,9 @@
       <c r="D29" s="16">
         <v>12</v>
       </c>
-      <c r="E29" s="16"/>
+      <c r="E29" s="16">
+        <v>9</v>
+      </c>
       <c r="F29" s="16"/>
       <c r="G29" s="16">
         <v>5</v>
@@ -2394,7 +2438,7 @@
       </c>
       <c r="S29" s="20">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="T29" s="20">
         <f t="shared" si="1"/>
@@ -2414,7 +2458,9 @@
       <c r="D30" s="16">
         <v>20</v>
       </c>
-      <c r="E30" s="16"/>
+      <c r="E30" s="16">
+        <v>13</v>
+      </c>
       <c r="F30" s="16"/>
       <c r="G30" s="16">
         <v>5</v>
@@ -2434,7 +2480,7 @@
       </c>
       <c r="S30" s="20">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="T30" s="20">
         <f t="shared" si="1"/>
@@ -2454,7 +2500,9 @@
       <c r="D31" s="16">
         <v>10</v>
       </c>
-      <c r="E31" s="16"/>
+      <c r="E31" s="16">
+        <v>4</v>
+      </c>
       <c r="F31" s="16"/>
       <c r="G31" s="16">
         <v>5</v>
@@ -2474,7 +2522,7 @@
       </c>
       <c r="S31" s="20">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="T31" s="20">
         <f t="shared" si="1"/>
@@ -2494,7 +2542,9 @@
       <c r="D32" s="16">
         <v>12</v>
       </c>
-      <c r="E32" s="16"/>
+      <c r="E32" s="16">
+        <v>9</v>
+      </c>
       <c r="F32" s="16"/>
       <c r="G32" s="16">
         <v>5</v>
@@ -2514,7 +2564,7 @@
       </c>
       <c r="S32" s="20">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="T32" s="20">
         <f t="shared" si="1"/>
@@ -2534,7 +2584,9 @@
       <c r="D33" s="16">
         <v>18</v>
       </c>
-      <c r="E33" s="16"/>
+      <c r="E33" s="16">
+        <v>20</v>
+      </c>
       <c r="F33" s="16"/>
       <c r="G33" s="16">
         <v>5</v>
@@ -2554,7 +2606,7 @@
       </c>
       <c r="S33" s="20">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="T33" s="20">
         <f t="shared" si="1"/>
@@ -2574,7 +2626,9 @@
       <c r="D34" s="16">
         <v>13</v>
       </c>
-      <c r="E34" s="16"/>
+      <c r="E34" s="16" t="s">
+        <v>232</v>
+      </c>
       <c r="F34" s="16"/>
       <c r="G34" s="16">
         <v>5</v>
@@ -2614,7 +2668,9 @@
       <c r="D35" s="16">
         <v>12</v>
       </c>
-      <c r="E35" s="16"/>
+      <c r="E35" s="16">
+        <v>8</v>
+      </c>
       <c r="F35" s="16"/>
       <c r="G35" s="16">
         <v>5</v>
@@ -2634,7 +2690,7 @@
       </c>
       <c r="S35" s="20">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="T35" s="20">
         <f t="shared" si="1"/>
@@ -2654,7 +2710,9 @@
       <c r="D36" s="16">
         <v>17</v>
       </c>
-      <c r="E36" s="16"/>
+      <c r="E36" s="16">
+        <v>10</v>
+      </c>
       <c r="F36" s="16"/>
       <c r="G36" s="16">
         <v>5</v>
@@ -2674,7 +2732,7 @@
       </c>
       <c r="S36" s="20">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="T36" s="20">
         <f t="shared" si="1"/>
@@ -2694,7 +2752,9 @@
       <c r="D37" s="16">
         <v>15</v>
       </c>
-      <c r="E37" s="16"/>
+      <c r="E37" s="16">
+        <v>12</v>
+      </c>
       <c r="F37" s="16"/>
       <c r="G37" s="16">
         <v>5</v>
@@ -2714,7 +2774,7 @@
       </c>
       <c r="S37" s="20">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="T37" s="20">
         <f t="shared" si="1"/>
@@ -2734,7 +2794,9 @@
       <c r="D38" s="16">
         <v>15</v>
       </c>
-      <c r="E38" s="16"/>
+      <c r="E38" s="16">
+        <v>10</v>
+      </c>
       <c r="F38" s="16"/>
       <c r="G38" s="16">
         <v>5</v>
@@ -2754,7 +2816,7 @@
       </c>
       <c r="S38" s="20">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="T38" s="20">
         <f t="shared" si="1"/>
@@ -2774,7 +2836,9 @@
       <c r="D39" s="16">
         <v>17</v>
       </c>
-      <c r="E39" s="16"/>
+      <c r="E39" s="16">
+        <v>10</v>
+      </c>
       <c r="F39" s="16"/>
       <c r="G39" s="16">
         <v>5</v>
@@ -2794,7 +2858,7 @@
       </c>
       <c r="S39" s="20">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="T39" s="20">
         <f t="shared" si="1"/>
@@ -2814,7 +2878,9 @@
       <c r="D40" s="16">
         <v>15</v>
       </c>
-      <c r="E40" s="16"/>
+      <c r="E40" s="16">
+        <v>8</v>
+      </c>
       <c r="F40" s="16"/>
       <c r="G40" s="16">
         <v>5</v>
@@ -2834,7 +2900,7 @@
       </c>
       <c r="S40" s="20">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="T40" s="20">
         <f t="shared" si="1"/>
@@ -2854,7 +2920,9 @@
       <c r="D41" s="16" t="s">
         <v>232</v>
       </c>
-      <c r="E41" s="16"/>
+      <c r="E41" s="16" t="s">
+        <v>232</v>
+      </c>
       <c r="F41" s="16"/>
       <c r="G41" s="16">
         <v>0</v>
@@ -2894,7 +2962,9 @@
       <c r="D42" s="16">
         <v>13</v>
       </c>
-      <c r="E42" s="16"/>
+      <c r="E42" s="16">
+        <v>9</v>
+      </c>
       <c r="F42" s="16"/>
       <c r="G42" s="16">
         <v>5</v>
@@ -2914,7 +2984,7 @@
       </c>
       <c r="S42" s="20">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="T42" s="20">
         <f t="shared" si="1"/>
@@ -2934,7 +3004,9 @@
       <c r="D43" s="16">
         <v>20</v>
       </c>
-      <c r="E43" s="16"/>
+      <c r="E43" s="16">
+        <v>18</v>
+      </c>
       <c r="F43" s="16"/>
       <c r="G43" s="16">
         <v>5</v>
@@ -2954,7 +3026,7 @@
       </c>
       <c r="S43" s="20">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="T43" s="20">
         <f t="shared" si="1"/>
@@ -2974,7 +3046,9 @@
       <c r="D44" s="16">
         <v>17</v>
       </c>
-      <c r="E44" s="16"/>
+      <c r="E44" s="16">
+        <v>17</v>
+      </c>
       <c r="F44" s="16"/>
       <c r="G44" s="16">
         <v>5</v>
@@ -2994,7 +3068,7 @@
       </c>
       <c r="S44" s="20">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="T44" s="20">
         <f t="shared" si="1"/>
@@ -3014,7 +3088,9 @@
       <c r="D45" s="16">
         <v>22</v>
       </c>
-      <c r="E45" s="16"/>
+      <c r="E45" s="16" t="s">
+        <v>232</v>
+      </c>
       <c r="F45" s="16"/>
       <c r="G45" s="16">
         <v>5</v>
@@ -3054,7 +3130,9 @@
       <c r="D46" s="16">
         <v>21</v>
       </c>
-      <c r="E46" s="16"/>
+      <c r="E46" s="16">
+        <v>22</v>
+      </c>
       <c r="F46" s="16"/>
       <c r="G46" s="16">
         <v>5</v>
@@ -3074,7 +3152,7 @@
       </c>
       <c r="S46" s="20">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="T46" s="20">
         <f t="shared" si="1"/>
@@ -3094,7 +3172,9 @@
       <c r="D47" s="16">
         <v>16</v>
       </c>
-      <c r="E47" s="16"/>
+      <c r="E47" s="16">
+        <v>10</v>
+      </c>
       <c r="F47" s="16"/>
       <c r="G47" s="16">
         <v>5</v>
@@ -3114,7 +3194,7 @@
       </c>
       <c r="S47" s="20">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="T47" s="20">
         <f t="shared" si="1"/>
@@ -3134,7 +3214,9 @@
       <c r="D48" s="16">
         <v>16</v>
       </c>
-      <c r="E48" s="16"/>
+      <c r="E48" s="16">
+        <v>21</v>
+      </c>
       <c r="F48" s="16"/>
       <c r="G48" s="16">
         <v>5</v>
@@ -3154,7 +3236,7 @@
       </c>
       <c r="S48" s="20">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="T48" s="20">
         <f t="shared" si="1"/>
@@ -3174,7 +3256,9 @@
       <c r="D49" s="16">
         <v>20</v>
       </c>
-      <c r="E49" s="16"/>
+      <c r="E49" s="16">
+        <v>25</v>
+      </c>
       <c r="F49" s="16"/>
       <c r="G49" s="16">
         <v>5</v>
@@ -3194,7 +3278,7 @@
       </c>
       <c r="S49" s="20">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="T49" s="20">
         <f t="shared" si="1"/>
@@ -3214,7 +3298,9 @@
       <c r="D50" s="16">
         <v>26</v>
       </c>
-      <c r="E50" s="16"/>
+      <c r="E50" s="16">
+        <v>30</v>
+      </c>
       <c r="F50" s="16"/>
       <c r="G50" s="16">
         <v>5</v>
@@ -3234,7 +3320,7 @@
       </c>
       <c r="S50" s="20">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="T50" s="20">
         <f t="shared" si="1"/>
@@ -3254,7 +3340,9 @@
       <c r="D51" s="16">
         <v>19</v>
       </c>
-      <c r="E51" s="16"/>
+      <c r="E51" s="16">
+        <v>17</v>
+      </c>
       <c r="F51" s="16"/>
       <c r="G51" s="16">
         <v>5</v>
@@ -3274,7 +3362,7 @@
       </c>
       <c r="S51" s="20">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="T51" s="20">
         <f t="shared" si="1"/>
@@ -3294,7 +3382,9 @@
       <c r="D52" s="16" t="s">
         <v>232</v>
       </c>
-      <c r="E52" s="16"/>
+      <c r="E52" s="16">
+        <v>10</v>
+      </c>
       <c r="F52" s="16"/>
       <c r="G52" s="16">
         <v>5</v>
@@ -3314,7 +3404,7 @@
       </c>
       <c r="S52" s="20">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="T52" s="20">
         <f t="shared" si="1"/>
@@ -3334,7 +3424,9 @@
       <c r="D53" s="16">
         <v>15</v>
       </c>
-      <c r="E53" s="16"/>
+      <c r="E53" s="16">
+        <v>21</v>
+      </c>
       <c r="F53" s="16"/>
       <c r="G53" s="16">
         <v>5</v>
@@ -3354,7 +3446,7 @@
       </c>
       <c r="S53" s="20">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="T53" s="20">
         <f t="shared" si="1"/>
@@ -3374,7 +3466,9 @@
       <c r="D54" s="16" t="s">
         <v>232</v>
       </c>
-      <c r="E54" s="16"/>
+      <c r="E54" s="16" t="s">
+        <v>232</v>
+      </c>
       <c r="F54" s="16"/>
       <c r="G54" s="16">
         <v>0</v>
@@ -3414,7 +3508,9 @@
       <c r="D55" s="16">
         <v>15</v>
       </c>
-      <c r="E55" s="16"/>
+      <c r="E55" s="16">
+        <v>18</v>
+      </c>
       <c r="F55" s="16"/>
       <c r="G55" s="16">
         <v>5</v>
@@ -3434,7 +3530,7 @@
       </c>
       <c r="S55" s="20">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="T55" s="20">
         <f t="shared" si="1"/>
@@ -3454,7 +3550,9 @@
       <c r="D56" s="16">
         <v>23</v>
       </c>
-      <c r="E56" s="16"/>
+      <c r="E56" s="16" t="s">
+        <v>232</v>
+      </c>
       <c r="F56" s="16"/>
       <c r="G56" s="16">
         <v>5</v>
@@ -3494,7 +3592,9 @@
       <c r="D57" s="16">
         <v>19</v>
       </c>
-      <c r="E57" s="16"/>
+      <c r="E57" s="16">
+        <v>10</v>
+      </c>
       <c r="F57" s="16"/>
       <c r="G57" s="16">
         <v>5</v>
@@ -3514,7 +3614,7 @@
       </c>
       <c r="S57" s="20">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="T57" s="20">
         <f t="shared" si="1"/>
@@ -3534,7 +3634,9 @@
       <c r="D58" s="16">
         <v>15</v>
       </c>
-      <c r="E58" s="16"/>
+      <c r="E58" s="16">
+        <v>12</v>
+      </c>
       <c r="F58" s="16"/>
       <c r="G58" s="16">
         <v>5</v>
@@ -3554,7 +3656,7 @@
       </c>
       <c r="S58" s="20">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="T58" s="20">
         <f t="shared" si="1"/>
@@ -3574,7 +3676,9 @@
       <c r="D59" s="16">
         <v>27</v>
       </c>
-      <c r="E59" s="16"/>
+      <c r="E59" s="16" t="s">
+        <v>232</v>
+      </c>
       <c r="F59" s="16"/>
       <c r="G59" s="16">
         <v>5</v>
@@ -3614,7 +3718,9 @@
       <c r="D60" s="16">
         <v>13</v>
       </c>
-      <c r="E60" s="16"/>
+      <c r="E60" s="16">
+        <v>14</v>
+      </c>
       <c r="F60" s="16"/>
       <c r="G60" s="16">
         <v>5</v>
@@ -3634,7 +3740,7 @@
       </c>
       <c r="S60" s="20">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="T60" s="20">
         <f t="shared" si="1"/>
@@ -3654,7 +3760,9 @@
       <c r="D61" s="16">
         <v>7</v>
       </c>
-      <c r="E61" s="16"/>
+      <c r="E61" s="16">
+        <v>18</v>
+      </c>
       <c r="F61" s="16"/>
       <c r="G61" s="16">
         <v>5</v>
@@ -3674,7 +3782,7 @@
       </c>
       <c r="S61" s="20">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="T61" s="20">
         <f t="shared" si="1"/>
@@ -3694,7 +3802,9 @@
       <c r="D62" s="16">
         <v>14</v>
       </c>
-      <c r="E62" s="16"/>
+      <c r="E62" s="16">
+        <v>10</v>
+      </c>
       <c r="F62" s="16"/>
       <c r="G62" s="16">
         <v>0</v>
@@ -3714,7 +3824,7 @@
       </c>
       <c r="S62" s="20">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="T62" s="20">
         <f t="shared" si="1"/>
@@ -3734,7 +3844,9 @@
       <c r="D63" s="16">
         <v>12</v>
       </c>
-      <c r="E63" s="16"/>
+      <c r="E63" s="16">
+        <v>13</v>
+      </c>
       <c r="F63" s="16"/>
       <c r="G63" s="16">
         <v>5</v>
@@ -3754,7 +3866,7 @@
       </c>
       <c r="S63" s="20">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="T63" s="20">
         <f t="shared" si="1"/>
@@ -3774,7 +3886,9 @@
       <c r="D64" s="16">
         <v>13</v>
       </c>
-      <c r="E64" s="16"/>
+      <c r="E64" s="16">
+        <v>14</v>
+      </c>
       <c r="F64" s="16"/>
       <c r="G64" s="16">
         <v>2</v>
@@ -3794,7 +3908,7 @@
       </c>
       <c r="S64" s="20">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="T64" s="20">
         <f t="shared" si="1"/>
@@ -3814,7 +3928,9 @@
       <c r="D65" s="16">
         <v>18</v>
       </c>
-      <c r="E65" s="16"/>
+      <c r="E65" s="16">
+        <v>27</v>
+      </c>
       <c r="F65" s="16"/>
       <c r="G65" s="16">
         <v>5</v>
@@ -3834,7 +3950,7 @@
       </c>
       <c r="S65" s="20">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="T65" s="20">
         <f t="shared" si="1"/>
@@ -3854,7 +3970,9 @@
       <c r="D66" s="16">
         <v>9</v>
       </c>
-      <c r="E66" s="16"/>
+      <c r="E66" s="16">
+        <v>6</v>
+      </c>
       <c r="F66" s="16"/>
       <c r="G66" s="16">
         <v>5</v>
@@ -3874,7 +3992,7 @@
       </c>
       <c r="S66" s="20">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="T66" s="20">
         <f t="shared" si="1"/>
@@ -3894,7 +4012,9 @@
       <c r="D67" s="16">
         <v>13</v>
       </c>
-      <c r="E67" s="16"/>
+      <c r="E67" s="16">
+        <v>10</v>
+      </c>
       <c r="F67" s="16"/>
       <c r="G67" s="16">
         <v>5</v>
@@ -3914,7 +4034,7 @@
       </c>
       <c r="S67" s="20">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="T67" s="20">
         <f t="shared" si="1"/>
@@ -3934,7 +4054,9 @@
       <c r="D68" s="16">
         <v>15</v>
       </c>
-      <c r="E68" s="16"/>
+      <c r="E68" s="16">
+        <v>13</v>
+      </c>
       <c r="F68" s="16"/>
       <c r="G68" s="16">
         <v>5</v>
@@ -3954,7 +4076,7 @@
       </c>
       <c r="S68" s="20">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="T68" s="20">
         <f t="shared" si="2"/>
@@ -3974,7 +4096,9 @@
       <c r="D69" s="16">
         <v>10</v>
       </c>
-      <c r="E69" s="16"/>
+      <c r="E69" s="16">
+        <v>4</v>
+      </c>
       <c r="F69" s="16"/>
       <c r="G69" s="16">
         <v>5</v>
@@ -3994,7 +4118,7 @@
       </c>
       <c r="S69" s="20">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="T69" s="20">
         <f t="shared" si="2"/>
@@ -4014,7 +4138,9 @@
       <c r="D70" s="16">
         <v>13</v>
       </c>
-      <c r="E70" s="16"/>
+      <c r="E70" s="16">
+        <v>6</v>
+      </c>
       <c r="F70" s="16"/>
       <c r="G70" s="16">
         <v>5</v>
@@ -4034,7 +4160,7 @@
       </c>
       <c r="S70" s="20">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="T70" s="20">
         <f t="shared" si="2"/>
@@ -4054,7 +4180,9 @@
       <c r="D71" s="16">
         <v>10</v>
       </c>
-      <c r="E71" s="16"/>
+      <c r="E71" s="16">
+        <v>8</v>
+      </c>
       <c r="F71" s="16"/>
       <c r="G71" s="16">
         <v>5</v>
@@ -4074,7 +4202,7 @@
       </c>
       <c r="S71" s="20">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="T71" s="20">
         <f t="shared" si="2"/>
@@ -4094,7 +4222,9 @@
       <c r="D72" s="16">
         <v>9</v>
       </c>
-      <c r="E72" s="16"/>
+      <c r="E72" s="16">
+        <v>2</v>
+      </c>
       <c r="F72" s="16"/>
       <c r="G72" s="16">
         <v>5</v>
@@ -4114,7 +4244,7 @@
       </c>
       <c r="S72" s="20">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T72" s="20">
         <f t="shared" si="2"/>
@@ -4134,7 +4264,9 @@
       <c r="D73" s="16">
         <v>15</v>
       </c>
-      <c r="E73" s="16"/>
+      <c r="E73" s="16">
+        <v>17</v>
+      </c>
       <c r="F73" s="16"/>
       <c r="G73" s="16">
         <v>5</v>
@@ -4154,7 +4286,7 @@
       </c>
       <c r="S73" s="20">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="T73" s="20">
         <f t="shared" si="2"/>
@@ -4174,7 +4306,9 @@
       <c r="D74" s="16">
         <v>12</v>
       </c>
-      <c r="E74" s="16"/>
+      <c r="E74" s="16">
+        <v>10</v>
+      </c>
       <c r="F74" s="16"/>
       <c r="G74" s="16">
         <v>5</v>
@@ -4194,7 +4328,7 @@
       </c>
       <c r="S74" s="20">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="T74" s="20">
         <f t="shared" si="2"/>
@@ -4214,7 +4348,9 @@
       <c r="D75" s="16">
         <v>8</v>
       </c>
-      <c r="E75" s="16"/>
+      <c r="E75" s="16">
+        <v>10</v>
+      </c>
       <c r="F75" s="16"/>
       <c r="G75" s="16">
         <v>5</v>
@@ -4234,7 +4370,7 @@
       </c>
       <c r="S75" s="20">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="T75" s="20">
         <f t="shared" si="2"/>
@@ -4254,7 +4390,9 @@
       <c r="D76" s="16">
         <v>12</v>
       </c>
-      <c r="E76" s="16"/>
+      <c r="E76" s="16">
+        <v>15</v>
+      </c>
       <c r="F76" s="16"/>
       <c r="G76" s="16">
         <v>5</v>
@@ -4274,7 +4412,7 @@
       </c>
       <c r="S76" s="20">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="T76" s="20">
         <f t="shared" si="2"/>
@@ -4294,7 +4432,9 @@
       <c r="D77" s="16">
         <v>10</v>
       </c>
-      <c r="E77" s="16"/>
+      <c r="E77" s="16">
+        <v>6</v>
+      </c>
       <c r="F77" s="16"/>
       <c r="G77" s="16">
         <v>0</v>
@@ -4314,7 +4454,7 @@
       </c>
       <c r="S77" s="20">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="T77" s="20">
         <f t="shared" si="2"/>
@@ -4334,7 +4474,9 @@
       <c r="D78" s="16">
         <v>15</v>
       </c>
-      <c r="E78" s="16"/>
+      <c r="E78" s="16">
+        <v>20</v>
+      </c>
       <c r="F78" s="16"/>
       <c r="G78" s="16">
         <v>5</v>
@@ -4354,7 +4496,7 @@
       </c>
       <c r="S78" s="20">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="T78" s="20">
         <f t="shared" si="2"/>
@@ -4374,7 +4516,9 @@
       <c r="D79" s="16">
         <v>17</v>
       </c>
-      <c r="E79" s="16"/>
+      <c r="E79" s="16">
+        <v>12</v>
+      </c>
       <c r="F79" s="16"/>
       <c r="G79" s="16">
         <v>5</v>
@@ -4394,7 +4538,7 @@
       </c>
       <c r="S79" s="20">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="T79" s="20">
         <f t="shared" si="2"/>
@@ -4414,7 +4558,9 @@
       <c r="D80" s="16">
         <v>17</v>
       </c>
-      <c r="E80" s="16"/>
+      <c r="E80" s="16">
+        <v>10</v>
+      </c>
       <c r="F80" s="16"/>
       <c r="G80" s="16">
         <v>5</v>
@@ -4434,7 +4580,7 @@
       </c>
       <c r="S80" s="20">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="T80" s="20">
         <f t="shared" si="2"/>
@@ -4454,7 +4600,9 @@
       <c r="D81" s="16">
         <v>8</v>
       </c>
-      <c r="E81" s="16"/>
+      <c r="E81" s="16">
+        <v>13</v>
+      </c>
       <c r="F81" s="16"/>
       <c r="G81" s="16">
         <v>5</v>
@@ -4474,7 +4622,7 @@
       </c>
       <c r="S81" s="20">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="T81" s="20">
         <f t="shared" si="2"/>
@@ -4494,7 +4642,9 @@
       <c r="D82" s="16">
         <v>20</v>
       </c>
-      <c r="E82" s="16"/>
+      <c r="E82" s="16">
+        <v>18</v>
+      </c>
       <c r="F82" s="16"/>
       <c r="G82" s="16">
         <v>5</v>
@@ -4514,7 +4664,7 @@
       </c>
       <c r="S82" s="20">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="T82" s="20">
         <f t="shared" si="2"/>
@@ -4534,7 +4684,9 @@
       <c r="D83" s="16">
         <v>13</v>
       </c>
-      <c r="E83" s="16"/>
+      <c r="E83" s="16">
+        <v>9</v>
+      </c>
       <c r="F83" s="16"/>
       <c r="G83" s="16">
         <v>0</v>
@@ -4554,7 +4706,7 @@
       </c>
       <c r="S83" s="20">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="T83" s="20">
         <f t="shared" si="2"/>
@@ -4574,7 +4726,9 @@
       <c r="D84" s="16">
         <v>12</v>
       </c>
-      <c r="E84" s="16"/>
+      <c r="E84" s="16">
+        <v>3</v>
+      </c>
       <c r="F84" s="16"/>
       <c r="G84" s="16">
         <v>2</v>
@@ -4594,7 +4748,7 @@
       </c>
       <c r="S84" s="20">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="T84" s="20">
         <f t="shared" si="2"/>
@@ -4614,7 +4768,9 @@
       <c r="D85" s="16">
         <v>12</v>
       </c>
-      <c r="E85" s="16"/>
+      <c r="E85" s="16">
+        <v>10</v>
+      </c>
       <c r="F85" s="16"/>
       <c r="G85" s="16">
         <v>5</v>
@@ -4634,7 +4790,7 @@
       </c>
       <c r="S85" s="20">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="T85" s="20">
         <f t="shared" si="2"/>
@@ -4654,7 +4810,9 @@
       <c r="D86" s="16">
         <v>15</v>
       </c>
-      <c r="E86" s="16"/>
+      <c r="E86" s="16">
+        <v>17</v>
+      </c>
       <c r="F86" s="16"/>
       <c r="G86" s="16">
         <v>5</v>
@@ -4674,7 +4832,7 @@
       </c>
       <c r="S86" s="20">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="T86" s="20">
         <f t="shared" si="2"/>
@@ -4694,7 +4852,9 @@
       <c r="D87" s="16">
         <v>20</v>
       </c>
-      <c r="E87" s="16"/>
+      <c r="E87" s="16">
+        <v>27</v>
+      </c>
       <c r="F87" s="16"/>
       <c r="G87" s="16">
         <v>5</v>
@@ -4714,7 +4874,7 @@
       </c>
       <c r="S87" s="20">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="T87" s="20">
         <f t="shared" si="2"/>
@@ -4734,7 +4894,9 @@
       <c r="D88" s="16">
         <v>14</v>
       </c>
-      <c r="E88" s="16"/>
+      <c r="E88" s="16">
+        <v>7</v>
+      </c>
       <c r="F88" s="16"/>
       <c r="G88" s="16">
         <v>5</v>
@@ -4754,7 +4916,7 @@
       </c>
       <c r="S88" s="20">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="T88" s="20">
         <f t="shared" si="2"/>
@@ -4774,7 +4936,9 @@
       <c r="D89" s="16">
         <v>7</v>
       </c>
-      <c r="E89" s="16"/>
+      <c r="E89" s="16">
+        <v>12</v>
+      </c>
       <c r="F89" s="16"/>
       <c r="G89" s="16">
         <v>4</v>
@@ -4794,7 +4958,7 @@
       </c>
       <c r="S89" s="20">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="T89" s="20">
         <f t="shared" si="2"/>
@@ -4814,7 +4978,9 @@
       <c r="D90" s="16">
         <v>16</v>
       </c>
-      <c r="E90" s="16"/>
+      <c r="E90" s="16">
+        <v>11</v>
+      </c>
       <c r="F90" s="16"/>
       <c r="G90" s="16">
         <v>4</v>
@@ -4834,7 +5000,7 @@
       </c>
       <c r="S90" s="20">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="T90" s="20">
         <f t="shared" si="2"/>
@@ -4854,7 +5020,9 @@
       <c r="D91" s="16">
         <v>16</v>
       </c>
-      <c r="E91" s="16"/>
+      <c r="E91" s="16">
+        <v>16</v>
+      </c>
       <c r="F91" s="16"/>
       <c r="G91" s="16">
         <v>5</v>
@@ -4874,7 +5042,7 @@
       </c>
       <c r="S91" s="20">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="T91" s="20">
         <f t="shared" si="2"/>
@@ -4894,7 +5062,9 @@
       <c r="D92" s="16">
         <v>13</v>
       </c>
-      <c r="E92" s="16"/>
+      <c r="E92" s="16">
+        <v>5</v>
+      </c>
       <c r="F92" s="16"/>
       <c r="G92" s="16">
         <v>5</v>
@@ -4914,7 +5084,7 @@
       </c>
       <c r="S92" s="20">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="T92" s="20">
         <f t="shared" si="2"/>
@@ -4934,7 +5104,9 @@
       <c r="D93" s="16">
         <v>16</v>
       </c>
-      <c r="E93" s="16"/>
+      <c r="E93" s="16">
+        <v>16</v>
+      </c>
       <c r="F93" s="16"/>
       <c r="G93" s="16">
         <v>5</v>
@@ -4954,7 +5126,7 @@
       </c>
       <c r="S93" s="20">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="T93" s="20">
         <f t="shared" si="2"/>
@@ -4974,7 +5146,9 @@
       <c r="D94" s="16">
         <v>5</v>
       </c>
-      <c r="E94" s="16"/>
+      <c r="E94" s="16">
+        <v>10</v>
+      </c>
       <c r="F94" s="16"/>
       <c r="G94" s="16">
         <v>5</v>
@@ -4994,7 +5168,7 @@
       </c>
       <c r="S94" s="20">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="T94" s="20">
         <f t="shared" si="2"/>
@@ -5014,7 +5188,9 @@
       <c r="D95" s="16">
         <v>5</v>
       </c>
-      <c r="E95" s="16"/>
+      <c r="E95" s="16">
+        <v>13</v>
+      </c>
       <c r="F95" s="16"/>
       <c r="G95" s="16">
         <v>5</v>
@@ -5034,7 +5210,7 @@
       </c>
       <c r="S95" s="20">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="T95" s="20">
         <f t="shared" si="2"/>
@@ -5054,7 +5230,9 @@
       <c r="D96" s="16">
         <v>10</v>
       </c>
-      <c r="E96" s="16"/>
+      <c r="E96" s="16">
+        <v>5</v>
+      </c>
       <c r="F96" s="16"/>
       <c r="G96" s="16">
         <v>5</v>
@@ -5074,7 +5252,7 @@
       </c>
       <c r="S96" s="20">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="T96" s="20">
         <f t="shared" si="2"/>
@@ -5094,7 +5272,9 @@
       <c r="D97" s="16" t="s">
         <v>232</v>
       </c>
-      <c r="E97" s="16"/>
+      <c r="E97" s="16">
+        <v>11</v>
+      </c>
       <c r="F97" s="16"/>
       <c r="G97" s="16">
         <v>5</v>
@@ -5114,7 +5294,7 @@
       </c>
       <c r="S97" s="20">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="T97" s="20">
         <f t="shared" si="2"/>
@@ -5134,7 +5314,9 @@
       <c r="D98" s="16">
         <v>12</v>
       </c>
-      <c r="E98" s="16"/>
+      <c r="E98" s="16" t="s">
+        <v>232</v>
+      </c>
       <c r="F98" s="16"/>
       <c r="G98" s="16">
         <v>5</v>
@@ -5174,7 +5356,9 @@
       <c r="D99" s="16">
         <v>14</v>
       </c>
-      <c r="E99" s="16"/>
+      <c r="E99" s="16">
+        <v>13</v>
+      </c>
       <c r="F99" s="16"/>
       <c r="G99" s="16">
         <v>5</v>
@@ -5194,7 +5378,7 @@
       </c>
       <c r="S99" s="20">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="T99" s="20">
         <f t="shared" si="2"/>
@@ -5214,7 +5398,9 @@
       <c r="D100" s="16">
         <v>10</v>
       </c>
-      <c r="E100" s="16"/>
+      <c r="E100" s="16">
+        <v>12</v>
+      </c>
       <c r="F100" s="16"/>
       <c r="G100" s="16">
         <v>5</v>
@@ -5235,7 +5421,7 @@
       </c>
       <c r="S100" s="20">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="T100" s="20">
         <f t="shared" si="2"/>
@@ -5255,7 +5441,9 @@
       <c r="D101" s="16">
         <v>15</v>
       </c>
-      <c r="E101" s="16"/>
+      <c r="E101" s="16">
+        <v>16</v>
+      </c>
       <c r="F101" s="16"/>
       <c r="G101" s="16">
         <v>0</v>
@@ -5275,7 +5463,7 @@
       </c>
       <c r="S101" s="20">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="T101" s="20">
         <f t="shared" si="2"/>
@@ -5295,7 +5483,9 @@
       <c r="D102" s="16">
         <v>9</v>
       </c>
-      <c r="E102" s="16"/>
+      <c r="E102" s="16">
+        <v>10</v>
+      </c>
       <c r="F102" s="16"/>
       <c r="G102" s="16">
         <v>5</v>
@@ -5315,7 +5505,7 @@
       </c>
       <c r="S102" s="20">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="T102" s="20">
         <f t="shared" si="2"/>
@@ -5335,7 +5525,9 @@
       <c r="D103" s="16">
         <v>15</v>
       </c>
-      <c r="E103" s="16"/>
+      <c r="E103" s="16">
+        <v>25</v>
+      </c>
       <c r="F103" s="16"/>
       <c r="G103" s="16">
         <v>5</v>
@@ -5355,7 +5547,7 @@
       </c>
       <c r="S103" s="20">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="T103" s="20">
         <f t="shared" si="2"/>
@@ -5375,7 +5567,9 @@
       <c r="D104" s="16" t="s">
         <v>232</v>
       </c>
-      <c r="E104" s="16"/>
+      <c r="E104" s="16">
+        <v>12</v>
+      </c>
       <c r="F104" s="16"/>
       <c r="G104" s="16">
         <v>0</v>
@@ -5395,7 +5589,7 @@
       </c>
       <c r="S104" s="20">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="T104" s="20">
         <f t="shared" si="2"/>
@@ -5415,7 +5609,9 @@
       <c r="D105" s="16" t="s">
         <v>232</v>
       </c>
-      <c r="E105" s="16"/>
+      <c r="E105" s="16" t="s">
+        <v>232</v>
+      </c>
       <c r="F105" s="16"/>
       <c r="G105" s="16">
         <v>0</v>
@@ -5455,7 +5651,9 @@
       <c r="D106" s="16">
         <v>6</v>
       </c>
-      <c r="E106" s="16"/>
+      <c r="E106" s="16">
+        <v>12</v>
+      </c>
       <c r="F106" s="16"/>
       <c r="G106" s="16">
         <v>5</v>
@@ -5475,7 +5673,7 @@
       </c>
       <c r="S106" s="20">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="T106" s="20">
         <f t="shared" si="2"/>
@@ -5495,7 +5693,9 @@
       <c r="D107" s="16">
         <v>18</v>
       </c>
-      <c r="E107" s="16"/>
+      <c r="E107" s="16">
+        <v>30</v>
+      </c>
       <c r="F107" s="16"/>
       <c r="G107" s="16">
         <v>5</v>
@@ -5515,7 +5715,7 @@
       </c>
       <c r="S107" s="20">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="T107" s="20">
         <f t="shared" si="2"/>
@@ -5535,7 +5735,9 @@
       <c r="D108" s="16">
         <v>3</v>
       </c>
-      <c r="E108" s="16"/>
+      <c r="E108" s="16">
+        <v>6</v>
+      </c>
       <c r="F108" s="16"/>
       <c r="G108" s="16">
         <v>3</v>
@@ -5555,7 +5757,7 @@
       </c>
       <c r="S108" s="20">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="T108" s="20">
         <f t="shared" si="2"/>
@@ -5575,7 +5777,9 @@
       <c r="D109" s="16">
         <v>16</v>
       </c>
-      <c r="E109" s="16"/>
+      <c r="E109" s="16">
+        <v>30</v>
+      </c>
       <c r="F109" s="16"/>
       <c r="G109" s="16">
         <v>5</v>
@@ -5595,7 +5799,7 @@
       </c>
       <c r="S109" s="20">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="T109" s="20">
         <f t="shared" si="2"/>
@@ -5615,7 +5819,9 @@
       <c r="D110" s="16">
         <v>17</v>
       </c>
-      <c r="E110" s="16"/>
+      <c r="E110" s="16">
+        <v>14</v>
+      </c>
       <c r="F110" s="17"/>
       <c r="G110" s="16">
         <v>5</v>
@@ -5635,7 +5841,7 @@
       </c>
       <c r="S110" s="20">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="T110" s="20">
         <f t="shared" si="2"/>
@@ -5655,7 +5861,9 @@
       <c r="D111" s="16">
         <v>16</v>
       </c>
-      <c r="E111" s="16"/>
+      <c r="E111" s="16">
+        <v>13</v>
+      </c>
       <c r="F111" s="16"/>
       <c r="G111" s="16">
         <v>5</v>
@@ -5675,7 +5883,7 @@
       </c>
       <c r="S111" s="20">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="T111" s="20">
         <f t="shared" si="2"/>
@@ -5688,7 +5896,7 @@
     <mergeCell ref="A1:L1"/>
   </mergeCells>
   <conditionalFormatting sqref="K18:K108">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
       <formula>16</formula>
     </cfRule>
   </conditionalFormatting>

--- a/static/Upload/5th sem.xlsx
+++ b/static/Upload/5th sem.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="239">
   <si>
     <t>S.N</t>
   </si>
@@ -1210,10 +1210,10 @@
   <dimension ref="A1:T111"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D98" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="I2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E3" sqref="E3:E111"/>
+      <selection pane="bottomRight" activeCell="H3" sqref="H3:H111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1327,11 +1327,15 @@
       <c r="E3" s="16">
         <v>16</v>
       </c>
-      <c r="F3" s="16"/>
+      <c r="F3" s="16">
+        <v>12</v>
+      </c>
       <c r="G3" s="16">
         <v>5</v>
       </c>
-      <c r="H3" s="8"/>
+      <c r="H3" s="8">
+        <v>4</v>
+      </c>
       <c r="I3" s="8"/>
       <c r="J3" s="16"/>
       <c r="K3" s="16">
@@ -1346,11 +1350,11 @@
       </c>
       <c r="S3" s="20">
         <f t="shared" ref="S3:T18" si="0">SUM(E3)+H3+P3</f>
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="T3" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
@@ -1369,11 +1373,15 @@
       <c r="E4" s="16">
         <v>15</v>
       </c>
-      <c r="F4" s="16"/>
+      <c r="F4" s="16">
+        <v>13</v>
+      </c>
       <c r="G4" s="16">
         <v>5</v>
       </c>
-      <c r="H4" s="8"/>
+      <c r="H4" s="8">
+        <v>5</v>
+      </c>
       <c r="I4" s="8"/>
       <c r="J4" s="16"/>
       <c r="K4" s="16">
@@ -1388,11 +1396,11 @@
       </c>
       <c r="S4" s="20">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="T4" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
@@ -1411,11 +1419,15 @@
       <c r="E5" s="16">
         <v>12</v>
       </c>
-      <c r="F5" s="16"/>
+      <c r="F5" s="16">
+        <v>14</v>
+      </c>
       <c r="G5" s="16">
         <v>5</v>
       </c>
-      <c r="H5" s="8"/>
+      <c r="H5" s="8">
+        <v>5</v>
+      </c>
       <c r="I5" s="8"/>
       <c r="J5" s="16"/>
       <c r="K5" s="16">
@@ -1430,11 +1442,11 @@
       </c>
       <c r="S5" s="20">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="T5" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
@@ -1453,11 +1465,15 @@
       <c r="E6" s="16">
         <v>7</v>
       </c>
-      <c r="F6" s="16"/>
+      <c r="F6" s="16">
+        <v>10</v>
+      </c>
       <c r="G6" s="16">
         <v>5</v>
       </c>
-      <c r="H6" s="8"/>
+      <c r="H6" s="8">
+        <v>5</v>
+      </c>
       <c r="I6" s="8"/>
       <c r="J6" s="16"/>
       <c r="K6" s="16">
@@ -1472,11 +1488,11 @@
       </c>
       <c r="S6" s="20">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="T6" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
@@ -1495,11 +1511,15 @@
       <c r="E7" s="16">
         <v>10</v>
       </c>
-      <c r="F7" s="16"/>
+      <c r="F7" s="16">
+        <v>15</v>
+      </c>
       <c r="G7" s="16">
         <v>5</v>
       </c>
-      <c r="H7" s="8"/>
+      <c r="H7" s="8">
+        <v>5</v>
+      </c>
       <c r="I7" s="8"/>
       <c r="J7" s="16"/>
       <c r="K7" s="16">
@@ -1514,11 +1534,11 @@
       </c>
       <c r="S7" s="20">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T7" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
@@ -1537,11 +1557,15 @@
       <c r="E8" s="16">
         <v>9</v>
       </c>
-      <c r="F8" s="16"/>
+      <c r="F8" s="16">
+        <v>14</v>
+      </c>
       <c r="G8" s="16">
         <v>5</v>
       </c>
-      <c r="H8" s="8"/>
+      <c r="H8" s="8">
+        <v>4</v>
+      </c>
       <c r="I8" s="8"/>
       <c r="J8" s="16"/>
       <c r="K8" s="16">
@@ -1556,11 +1580,11 @@
       </c>
       <c r="S8" s="20">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="T8" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
@@ -1579,11 +1603,15 @@
       <c r="E9" s="16">
         <v>4</v>
       </c>
-      <c r="F9" s="16"/>
+      <c r="F9" s="16">
+        <v>8</v>
+      </c>
       <c r="G9" s="16">
         <v>5</v>
       </c>
-      <c r="H9" s="8"/>
+      <c r="H9" s="8">
+        <v>5</v>
+      </c>
       <c r="I9" s="8"/>
       <c r="J9" s="16"/>
       <c r="K9" s="16">
@@ -1598,11 +1626,11 @@
       </c>
       <c r="S9" s="20">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="T9" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
@@ -1621,11 +1649,15 @@
       <c r="E10" s="16">
         <v>15</v>
       </c>
-      <c r="F10" s="16"/>
+      <c r="F10" s="16">
+        <v>16</v>
+      </c>
       <c r="G10" s="16">
         <v>5</v>
       </c>
-      <c r="H10" s="8"/>
+      <c r="H10" s="8">
+        <v>2</v>
+      </c>
       <c r="I10" s="8"/>
       <c r="J10" s="16"/>
       <c r="K10" s="16">
@@ -1640,11 +1672,11 @@
       </c>
       <c r="S10" s="20">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="T10" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
@@ -1663,11 +1695,15 @@
       <c r="E11" s="16">
         <v>13</v>
       </c>
-      <c r="F11" s="16"/>
+      <c r="F11" s="16">
+        <v>12</v>
+      </c>
       <c r="G11" s="16">
         <v>5</v>
       </c>
-      <c r="H11" s="8"/>
+      <c r="H11" s="8">
+        <v>4</v>
+      </c>
       <c r="I11" s="8"/>
       <c r="J11" s="16"/>
       <c r="K11" s="16">
@@ -1682,11 +1718,11 @@
       </c>
       <c r="S11" s="20">
         <f t="shared" si="0"/>
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="T11" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
@@ -1705,11 +1741,15 @@
       <c r="E12" s="16">
         <v>15</v>
       </c>
-      <c r="F12" s="16"/>
+      <c r="F12" s="16">
+        <v>21</v>
+      </c>
       <c r="G12" s="16">
         <v>4</v>
       </c>
-      <c r="H12" s="8"/>
+      <c r="H12" s="8">
+        <v>5</v>
+      </c>
       <c r="I12" s="8"/>
       <c r="J12" s="16"/>
       <c r="K12" s="16">
@@ -1724,11 +1764,11 @@
       </c>
       <c r="S12" s="20">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="T12" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
@@ -1747,11 +1787,15 @@
       <c r="E13" s="16">
         <v>23</v>
       </c>
-      <c r="F13" s="16"/>
+      <c r="F13" s="16">
+        <v>12</v>
+      </c>
       <c r="G13" s="16">
         <v>5</v>
       </c>
-      <c r="H13" s="8"/>
+      <c r="H13" s="8">
+        <v>5</v>
+      </c>
       <c r="I13" s="8"/>
       <c r="J13" s="16"/>
       <c r="K13" s="16">
@@ -1766,11 +1810,11 @@
       </c>
       <c r="S13" s="20">
         <f t="shared" si="0"/>
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="T13" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
@@ -1789,11 +1833,15 @@
       <c r="E14" s="16">
         <v>17</v>
       </c>
-      <c r="F14" s="16"/>
+      <c r="F14" s="16">
+        <v>18</v>
+      </c>
       <c r="G14" s="16">
         <v>5</v>
       </c>
-      <c r="H14" s="8"/>
+      <c r="H14" s="8">
+        <v>0</v>
+      </c>
       <c r="I14" s="8"/>
       <c r="J14" s="16"/>
       <c r="K14" s="16">
@@ -1812,7 +1860,7 @@
       </c>
       <c r="T14" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
@@ -1831,11 +1879,15 @@
       <c r="E15" s="16">
         <v>26</v>
       </c>
-      <c r="F15" s="16"/>
+      <c r="F15" s="16">
+        <v>29</v>
+      </c>
       <c r="G15" s="16">
         <v>5</v>
       </c>
-      <c r="H15" s="8"/>
+      <c r="H15" s="8">
+        <v>5</v>
+      </c>
       <c r="I15" s="8"/>
       <c r="J15" s="16"/>
       <c r="K15" s="16">
@@ -1850,11 +1902,11 @@
       </c>
       <c r="S15" s="20">
         <f t="shared" si="0"/>
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="T15" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
@@ -1873,11 +1925,15 @@
       <c r="E16" s="16">
         <v>26</v>
       </c>
-      <c r="F16" s="16"/>
+      <c r="F16" s="16">
+        <v>24</v>
+      </c>
       <c r="G16" s="16">
         <v>5</v>
       </c>
-      <c r="H16" s="8"/>
+      <c r="H16" s="8">
+        <v>5</v>
+      </c>
       <c r="I16" s="8"/>
       <c r="J16" s="16"/>
       <c r="K16" s="16">
@@ -1892,11 +1948,11 @@
       </c>
       <c r="S16" s="20">
         <f t="shared" si="0"/>
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="T16" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>24</v>
       </c>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.25">
@@ -1915,11 +1971,15 @@
       <c r="E17" s="16">
         <v>17</v>
       </c>
-      <c r="F17" s="16"/>
+      <c r="F17" s="16">
+        <v>7</v>
+      </c>
       <c r="G17" s="16">
         <v>5</v>
       </c>
-      <c r="H17" s="8"/>
+      <c r="H17" s="8">
+        <v>4</v>
+      </c>
       <c r="I17" s="8"/>
       <c r="J17" s="16"/>
       <c r="K17" s="16">
@@ -1934,11 +1994,11 @@
       </c>
       <c r="S17" s="20">
         <f t="shared" si="0"/>
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="T17" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.25">
@@ -1955,13 +2015,17 @@
         <v>10</v>
       </c>
       <c r="E18" s="16">
-        <v>9</v>
-      </c>
-      <c r="F18" s="16"/>
+        <v>10</v>
+      </c>
+      <c r="F18" s="16">
+        <v>14</v>
+      </c>
       <c r="G18" s="16">
         <v>5</v>
       </c>
-      <c r="H18" s="8"/>
+      <c r="H18" s="8">
+        <v>5</v>
+      </c>
       <c r="I18" s="8"/>
       <c r="J18" s="16"/>
       <c r="K18" s="16">
@@ -1976,11 +2040,11 @@
       </c>
       <c r="S18" s="20">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="T18" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>14</v>
       </c>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.25">
@@ -1999,11 +2063,15 @@
       <c r="E19" s="16">
         <v>14</v>
       </c>
-      <c r="F19" s="16"/>
+      <c r="F19" s="16">
+        <v>11</v>
+      </c>
       <c r="G19" s="16">
         <v>5</v>
       </c>
-      <c r="H19" s="8"/>
+      <c r="H19" s="8">
+        <v>5</v>
+      </c>
       <c r="I19" s="8"/>
       <c r="J19" s="16"/>
       <c r="K19" s="16">
@@ -2018,11 +2086,11 @@
       </c>
       <c r="S19" s="20">
         <f t="shared" si="1"/>
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="T19" s="20">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.25">
@@ -2041,11 +2109,15 @@
       <c r="E20" s="16">
         <v>27</v>
       </c>
-      <c r="F20" s="16"/>
+      <c r="F20" s="16">
+        <v>24</v>
+      </c>
       <c r="G20" s="16">
         <v>5</v>
       </c>
-      <c r="H20" s="8"/>
+      <c r="H20" s="8">
+        <v>5</v>
+      </c>
       <c r="I20" s="8"/>
       <c r="J20" s="16"/>
       <c r="K20" s="16">
@@ -2060,11 +2132,11 @@
       </c>
       <c r="S20" s="20">
         <f t="shared" si="1"/>
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="T20" s="20">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>24</v>
       </c>
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.25">
@@ -2083,11 +2155,15 @@
       <c r="E21" s="16">
         <v>12</v>
       </c>
-      <c r="F21" s="16"/>
+      <c r="F21" s="16">
+        <v>9</v>
+      </c>
       <c r="G21" s="16">
         <v>5</v>
       </c>
-      <c r="H21" s="8"/>
+      <c r="H21" s="8">
+        <v>4</v>
+      </c>
       <c r="I21" s="8"/>
       <c r="J21" s="16"/>
       <c r="K21" s="16">
@@ -2102,11 +2178,11 @@
       </c>
       <c r="S21" s="20">
         <f t="shared" si="1"/>
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="T21" s="20">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.25">
@@ -2125,11 +2201,15 @@
       <c r="E22" s="16">
         <v>12</v>
       </c>
-      <c r="F22" s="16"/>
+      <c r="F22" s="16">
+        <v>12</v>
+      </c>
       <c r="G22" s="16">
         <v>5</v>
       </c>
-      <c r="H22" s="8"/>
+      <c r="H22" s="8">
+        <v>3</v>
+      </c>
       <c r="I22" s="8"/>
       <c r="J22" s="16"/>
       <c r="K22" s="16">
@@ -2144,11 +2224,11 @@
       </c>
       <c r="S22" s="20">
         <f t="shared" si="1"/>
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="T22" s="20">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.25">
@@ -2167,11 +2247,15 @@
       <c r="E23" s="16">
         <v>13</v>
       </c>
-      <c r="F23" s="16"/>
+      <c r="F23" s="16">
+        <v>13</v>
+      </c>
       <c r="G23" s="16">
         <v>5</v>
       </c>
-      <c r="H23" s="8"/>
+      <c r="H23" s="8">
+        <v>5</v>
+      </c>
       <c r="I23" s="8"/>
       <c r="J23" s="16"/>
       <c r="K23" s="16">
@@ -2186,11 +2270,11 @@
       </c>
       <c r="S23" s="20">
         <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="T23" s="20">
+        <f t="shared" si="1"/>
         <v>13</v>
-      </c>
-      <c r="T23" s="20">
-        <f t="shared" si="1"/>
-        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.25">
@@ -2209,11 +2293,15 @@
       <c r="E24" s="16">
         <v>15</v>
       </c>
-      <c r="F24" s="16"/>
+      <c r="F24" s="16">
+        <v>18</v>
+      </c>
       <c r="G24" s="16">
         <v>5</v>
       </c>
-      <c r="H24" s="8"/>
+      <c r="H24" s="8">
+        <v>5</v>
+      </c>
       <c r="I24" s="8"/>
       <c r="J24" s="16"/>
       <c r="K24" s="16">
@@ -2228,11 +2316,11 @@
       </c>
       <c r="S24" s="20">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="T24" s="20">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>18</v>
       </c>
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.25">
@@ -2251,11 +2339,15 @@
       <c r="E25" s="16">
         <v>12</v>
       </c>
-      <c r="F25" s="16"/>
+      <c r="F25" s="16">
+        <v>10</v>
+      </c>
       <c r="G25" s="16">
         <v>5</v>
       </c>
-      <c r="H25" s="8"/>
+      <c r="H25" s="8">
+        <v>3</v>
+      </c>
       <c r="I25" s="8"/>
       <c r="J25" s="16"/>
       <c r="K25" s="16">
@@ -2270,11 +2362,11 @@
       </c>
       <c r="S25" s="20">
         <f t="shared" si="1"/>
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="T25" s="20">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.25">
@@ -2293,11 +2385,15 @@
       <c r="E26" s="16">
         <v>16</v>
       </c>
-      <c r="F26" s="16"/>
+      <c r="F26" s="16">
+        <v>12</v>
+      </c>
       <c r="G26" s="16">
         <v>5</v>
       </c>
-      <c r="H26" s="8"/>
+      <c r="H26" s="8">
+        <v>5</v>
+      </c>
       <c r="I26" s="8"/>
       <c r="J26" s="16"/>
       <c r="K26" s="16">
@@ -2312,11 +2408,11 @@
       </c>
       <c r="S26" s="20">
         <f t="shared" si="1"/>
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="T26" s="20">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.25">
@@ -2335,11 +2431,15 @@
       <c r="E27" s="16">
         <v>12</v>
       </c>
-      <c r="F27" s="16"/>
+      <c r="F27" s="16">
+        <v>14</v>
+      </c>
       <c r="G27" s="16">
         <v>5</v>
       </c>
-      <c r="H27" s="8"/>
+      <c r="H27" s="8">
+        <v>1</v>
+      </c>
       <c r="I27" s="8"/>
       <c r="J27" s="16"/>
       <c r="K27" s="16">
@@ -2354,11 +2454,11 @@
       </c>
       <c r="S27" s="20">
         <f t="shared" si="1"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="T27" s="20">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>14</v>
       </c>
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.25">
@@ -2377,11 +2477,15 @@
       <c r="E28" s="16">
         <v>8</v>
       </c>
-      <c r="F28" s="16"/>
+      <c r="F28" s="16">
+        <v>12</v>
+      </c>
       <c r="G28" s="16">
         <v>5</v>
       </c>
-      <c r="H28" s="8"/>
+      <c r="H28" s="8">
+        <v>5</v>
+      </c>
       <c r="I28" s="8"/>
       <c r="J28" s="16"/>
       <c r="K28" s="16">
@@ -2396,11 +2500,11 @@
       </c>
       <c r="S28" s="20">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="T28" s="20">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.25">
@@ -2419,11 +2523,15 @@
       <c r="E29" s="16">
         <v>9</v>
       </c>
-      <c r="F29" s="16"/>
+      <c r="F29" s="16">
+        <v>16</v>
+      </c>
       <c r="G29" s="16">
         <v>5</v>
       </c>
-      <c r="H29" s="8"/>
+      <c r="H29" s="8">
+        <v>5</v>
+      </c>
       <c r="I29" s="8"/>
       <c r="J29" s="16"/>
       <c r="K29" s="16">
@@ -2438,11 +2546,11 @@
       </c>
       <c r="S29" s="20">
         <f t="shared" si="1"/>
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="T29" s="20">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.25">
@@ -2461,11 +2569,15 @@
       <c r="E30" s="16">
         <v>13</v>
       </c>
-      <c r="F30" s="16"/>
+      <c r="F30" s="16">
+        <v>11</v>
+      </c>
       <c r="G30" s="16">
         <v>5</v>
       </c>
-      <c r="H30" s="8"/>
+      <c r="H30" s="8">
+        <v>5</v>
+      </c>
       <c r="I30" s="8"/>
       <c r="J30" s="16"/>
       <c r="K30" s="16">
@@ -2480,11 +2592,11 @@
       </c>
       <c r="S30" s="20">
         <f t="shared" si="1"/>
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="T30" s="20">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.25">
@@ -2503,11 +2615,15 @@
       <c r="E31" s="16">
         <v>4</v>
       </c>
-      <c r="F31" s="16"/>
+      <c r="F31" s="16">
+        <v>14</v>
+      </c>
       <c r="G31" s="16">
         <v>5</v>
       </c>
-      <c r="H31" s="8"/>
+      <c r="H31" s="8">
+        <v>5</v>
+      </c>
       <c r="I31" s="8"/>
       <c r="J31" s="16"/>
       <c r="K31" s="16">
@@ -2522,11 +2638,11 @@
       </c>
       <c r="S31" s="20">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="T31" s="20">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>14</v>
       </c>
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.25">
@@ -2545,11 +2661,15 @@
       <c r="E32" s="16">
         <v>9</v>
       </c>
-      <c r="F32" s="16"/>
+      <c r="F32" s="16">
+        <v>12</v>
+      </c>
       <c r="G32" s="16">
         <v>5</v>
       </c>
-      <c r="H32" s="8"/>
+      <c r="H32" s="8">
+        <v>5</v>
+      </c>
       <c r="I32" s="8"/>
       <c r="J32" s="16"/>
       <c r="K32" s="16">
@@ -2564,11 +2684,11 @@
       </c>
       <c r="S32" s="20">
         <f t="shared" si="1"/>
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="T32" s="20">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="33" spans="1:20" x14ac:dyDescent="0.25">
@@ -2587,11 +2707,15 @@
       <c r="E33" s="16">
         <v>20</v>
       </c>
-      <c r="F33" s="16"/>
+      <c r="F33" s="16">
+        <v>15</v>
+      </c>
       <c r="G33" s="16">
         <v>5</v>
       </c>
-      <c r="H33" s="8"/>
+      <c r="H33" s="8">
+        <v>1</v>
+      </c>
       <c r="I33" s="8"/>
       <c r="J33" s="16"/>
       <c r="K33" s="16">
@@ -2606,11 +2730,11 @@
       </c>
       <c r="S33" s="20">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="T33" s="20">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="34" spans="1:20" x14ac:dyDescent="0.25">
@@ -2629,11 +2753,15 @@
       <c r="E34" s="16" t="s">
         <v>232</v>
       </c>
-      <c r="F34" s="16"/>
+      <c r="F34" s="16">
+        <v>10</v>
+      </c>
       <c r="G34" s="16">
         <v>5</v>
       </c>
-      <c r="H34" s="8"/>
+      <c r="H34" s="8">
+        <v>5</v>
+      </c>
       <c r="I34" s="8"/>
       <c r="J34" s="16"/>
       <c r="K34" s="16">
@@ -2648,11 +2776,11 @@
       </c>
       <c r="S34" s="20">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="T34" s="20">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="35" spans="1:20" x14ac:dyDescent="0.25">
@@ -2671,11 +2799,15 @@
       <c r="E35" s="16">
         <v>8</v>
       </c>
-      <c r="F35" s="16"/>
+      <c r="F35" s="16">
+        <v>16</v>
+      </c>
       <c r="G35" s="16">
         <v>5</v>
       </c>
-      <c r="H35" s="8"/>
+      <c r="H35" s="8">
+        <v>5</v>
+      </c>
       <c r="I35" s="8"/>
       <c r="J35" s="16"/>
       <c r="K35" s="16">
@@ -2690,11 +2822,11 @@
       </c>
       <c r="S35" s="20">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="T35" s="20">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" spans="1:20" x14ac:dyDescent="0.25">
@@ -2713,11 +2845,15 @@
       <c r="E36" s="16">
         <v>10</v>
       </c>
-      <c r="F36" s="16"/>
+      <c r="F36" s="16">
+        <v>12</v>
+      </c>
       <c r="G36" s="16">
         <v>5</v>
       </c>
-      <c r="H36" s="8"/>
+      <c r="H36" s="8">
+        <v>4</v>
+      </c>
       <c r="I36" s="8"/>
       <c r="J36" s="16"/>
       <c r="K36" s="16">
@@ -2732,11 +2868,11 @@
       </c>
       <c r="S36" s="20">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="T36" s="20">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="37" spans="1:20" x14ac:dyDescent="0.25">
@@ -2755,11 +2891,15 @@
       <c r="E37" s="16">
         <v>12</v>
       </c>
-      <c r="F37" s="16"/>
+      <c r="F37" s="16">
+        <v>7</v>
+      </c>
       <c r="G37" s="16">
         <v>5</v>
       </c>
-      <c r="H37" s="8"/>
+      <c r="H37" s="8">
+        <v>4</v>
+      </c>
       <c r="I37" s="8"/>
       <c r="J37" s="16"/>
       <c r="K37" s="16">
@@ -2774,11 +2914,11 @@
       </c>
       <c r="S37" s="20">
         <f t="shared" si="1"/>
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="T37" s="20">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="38" spans="1:20" x14ac:dyDescent="0.25">
@@ -2797,11 +2937,15 @@
       <c r="E38" s="16">
         <v>10</v>
       </c>
-      <c r="F38" s="16"/>
+      <c r="F38" s="16">
+        <v>12</v>
+      </c>
       <c r="G38" s="16">
         <v>5</v>
       </c>
-      <c r="H38" s="8"/>
+      <c r="H38" s="8">
+        <v>4</v>
+      </c>
       <c r="I38" s="8"/>
       <c r="J38" s="16"/>
       <c r="K38" s="16">
@@ -2816,11 +2960,11 @@
       </c>
       <c r="S38" s="20">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="T38" s="20">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="39" spans="1:20" x14ac:dyDescent="0.25">
@@ -2839,11 +2983,15 @@
       <c r="E39" s="16">
         <v>10</v>
       </c>
-      <c r="F39" s="16"/>
+      <c r="F39" s="16">
+        <v>14</v>
+      </c>
       <c r="G39" s="16">
         <v>5</v>
       </c>
-      <c r="H39" s="8"/>
+      <c r="H39" s="8">
+        <v>1</v>
+      </c>
       <c r="I39" s="8"/>
       <c r="J39" s="16"/>
       <c r="K39" s="16">
@@ -2858,11 +3006,11 @@
       </c>
       <c r="S39" s="20">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="T39" s="20">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>14</v>
       </c>
     </row>
     <row r="40" spans="1:20" x14ac:dyDescent="0.25">
@@ -2881,11 +3029,15 @@
       <c r="E40" s="16">
         <v>8</v>
       </c>
-      <c r="F40" s="16"/>
+      <c r="F40" s="16">
+        <v>16</v>
+      </c>
       <c r="G40" s="16">
         <v>5</v>
       </c>
-      <c r="H40" s="8"/>
+      <c r="H40" s="8">
+        <v>5</v>
+      </c>
       <c r="I40" s="8"/>
       <c r="J40" s="16"/>
       <c r="K40" s="16">
@@ -2900,11 +3052,11 @@
       </c>
       <c r="S40" s="20">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="T40" s="20">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" spans="1:20" x14ac:dyDescent="0.25">
@@ -2923,11 +3075,15 @@
       <c r="E41" s="16" t="s">
         <v>232</v>
       </c>
-      <c r="F41" s="16"/>
+      <c r="F41" s="16">
+        <v>0</v>
+      </c>
       <c r="G41" s="16">
         <v>0</v>
       </c>
-      <c r="H41" s="8"/>
+      <c r="H41" s="8">
+        <v>0</v>
+      </c>
       <c r="I41" s="8"/>
       <c r="J41" s="16"/>
       <c r="K41" s="16">
@@ -2965,11 +3121,15 @@
       <c r="E42" s="16">
         <v>9</v>
       </c>
-      <c r="F42" s="16"/>
+      <c r="F42" s="16">
+        <v>12</v>
+      </c>
       <c r="G42" s="16">
         <v>5</v>
       </c>
-      <c r="H42" s="8"/>
+      <c r="H42" s="8">
+        <v>5</v>
+      </c>
       <c r="I42" s="8"/>
       <c r="J42" s="16"/>
       <c r="K42" s="16">
@@ -2984,11 +3144,11 @@
       </c>
       <c r="S42" s="20">
         <f t="shared" si="1"/>
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="T42" s="20">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="43" spans="1:20" x14ac:dyDescent="0.25">
@@ -3007,11 +3167,15 @@
       <c r="E43" s="16">
         <v>18</v>
       </c>
-      <c r="F43" s="16"/>
+      <c r="F43" s="16">
+        <v>15</v>
+      </c>
       <c r="G43" s="16">
         <v>5</v>
       </c>
-      <c r="H43" s="8"/>
+      <c r="H43" s="8">
+        <v>5</v>
+      </c>
       <c r="I43" s="8"/>
       <c r="J43" s="16"/>
       <c r="K43" s="16">
@@ -3026,11 +3190,11 @@
       </c>
       <c r="S43" s="20">
         <f t="shared" si="1"/>
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="T43" s="20">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="44" spans="1:20" x14ac:dyDescent="0.25">
@@ -3049,11 +3213,15 @@
       <c r="E44" s="16">
         <v>17</v>
       </c>
-      <c r="F44" s="16"/>
+      <c r="F44" s="16" t="s">
+        <v>232</v>
+      </c>
       <c r="G44" s="16">
         <v>5</v>
       </c>
-      <c r="H44" s="8"/>
+      <c r="H44" s="8">
+        <v>5</v>
+      </c>
       <c r="I44" s="8"/>
       <c r="J44" s="16"/>
       <c r="K44" s="16">
@@ -3068,7 +3236,7 @@
       </c>
       <c r="S44" s="20">
         <f t="shared" si="1"/>
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="T44" s="20">
         <f t="shared" si="1"/>
@@ -3091,11 +3259,15 @@
       <c r="E45" s="16" t="s">
         <v>232</v>
       </c>
-      <c r="F45" s="16"/>
+      <c r="F45" s="16">
+        <v>25</v>
+      </c>
       <c r="G45" s="16">
         <v>5</v>
       </c>
-      <c r="H45" s="8"/>
+      <c r="H45" s="8">
+        <v>5</v>
+      </c>
       <c r="I45" s="8"/>
       <c r="J45" s="16"/>
       <c r="K45" s="16">
@@ -3110,11 +3282,11 @@
       </c>
       <c r="S45" s="20">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="T45" s="20">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>25</v>
       </c>
     </row>
     <row r="46" spans="1:20" x14ac:dyDescent="0.25">
@@ -3133,11 +3305,15 @@
       <c r="E46" s="16">
         <v>22</v>
       </c>
-      <c r="F46" s="16"/>
+      <c r="F46" s="16">
+        <v>6</v>
+      </c>
       <c r="G46" s="16">
         <v>5</v>
       </c>
-      <c r="H46" s="8"/>
+      <c r="H46" s="8">
+        <v>5</v>
+      </c>
       <c r="I46" s="8"/>
       <c r="J46" s="16"/>
       <c r="K46" s="16">
@@ -3152,11 +3328,11 @@
       </c>
       <c r="S46" s="20">
         <f t="shared" si="1"/>
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="T46" s="20">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="47" spans="1:20" x14ac:dyDescent="0.25">
@@ -3175,11 +3351,15 @@
       <c r="E47" s="16">
         <v>10</v>
       </c>
-      <c r="F47" s="16"/>
+      <c r="F47" s="16">
+        <v>5</v>
+      </c>
       <c r="G47" s="16">
         <v>5</v>
       </c>
-      <c r="H47" s="8"/>
+      <c r="H47" s="8">
+        <v>5</v>
+      </c>
       <c r="I47" s="8"/>
       <c r="J47" s="16"/>
       <c r="K47" s="16">
@@ -3194,11 +3374,11 @@
       </c>
       <c r="S47" s="20">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T47" s="20">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="48" spans="1:20" x14ac:dyDescent="0.25">
@@ -3217,11 +3397,15 @@
       <c r="E48" s="16">
         <v>21</v>
       </c>
-      <c r="F48" s="16"/>
+      <c r="F48" s="16">
+        <v>18</v>
+      </c>
       <c r="G48" s="16">
         <v>5</v>
       </c>
-      <c r="H48" s="8"/>
+      <c r="H48" s="8">
+        <v>5</v>
+      </c>
       <c r="I48" s="8"/>
       <c r="J48" s="16"/>
       <c r="K48" s="16">
@@ -3236,11 +3420,11 @@
       </c>
       <c r="S48" s="20">
         <f t="shared" si="1"/>
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="T48" s="20">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>18</v>
       </c>
     </row>
     <row r="49" spans="1:20" x14ac:dyDescent="0.25">
@@ -3259,11 +3443,15 @@
       <c r="E49" s="16">
         <v>25</v>
       </c>
-      <c r="F49" s="16"/>
+      <c r="F49" s="16">
+        <v>24</v>
+      </c>
       <c r="G49" s="16">
         <v>5</v>
       </c>
-      <c r="H49" s="8"/>
+      <c r="H49" s="8">
+        <v>4</v>
+      </c>
       <c r="I49" s="8"/>
       <c r="J49" s="16"/>
       <c r="K49" s="16">
@@ -3278,11 +3466,11 @@
       </c>
       <c r="S49" s="20">
         <f t="shared" si="1"/>
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="T49" s="20">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>24</v>
       </c>
     </row>
     <row r="50" spans="1:20" x14ac:dyDescent="0.25">
@@ -3301,11 +3489,15 @@
       <c r="E50" s="16">
         <v>30</v>
       </c>
-      <c r="F50" s="16"/>
+      <c r="F50" s="16">
+        <v>29</v>
+      </c>
       <c r="G50" s="16">
         <v>5</v>
       </c>
-      <c r="H50" s="8"/>
+      <c r="H50" s="8">
+        <v>4</v>
+      </c>
       <c r="I50" s="8"/>
       <c r="J50" s="16"/>
       <c r="K50" s="16">
@@ -3320,11 +3512,11 @@
       </c>
       <c r="S50" s="20">
         <f t="shared" si="1"/>
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="T50" s="20">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>29</v>
       </c>
     </row>
     <row r="51" spans="1:20" x14ac:dyDescent="0.25">
@@ -3343,11 +3535,15 @@
       <c r="E51" s="16">
         <v>17</v>
       </c>
-      <c r="F51" s="16"/>
+      <c r="F51" s="16">
+        <v>17</v>
+      </c>
       <c r="G51" s="16">
         <v>5</v>
       </c>
-      <c r="H51" s="8"/>
+      <c r="H51" s="8">
+        <v>5</v>
+      </c>
       <c r="I51" s="8"/>
       <c r="J51" s="16"/>
       <c r="K51" s="16">
@@ -3362,11 +3558,11 @@
       </c>
       <c r="S51" s="20">
         <f t="shared" si="1"/>
+        <v>22</v>
+      </c>
+      <c r="T51" s="20">
+        <f t="shared" si="1"/>
         <v>17</v>
-      </c>
-      <c r="T51" s="20">
-        <f t="shared" si="1"/>
-        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:20" x14ac:dyDescent="0.25">
@@ -3385,11 +3581,15 @@
       <c r="E52" s="16">
         <v>10</v>
       </c>
-      <c r="F52" s="16"/>
+      <c r="F52" s="16">
+        <v>9</v>
+      </c>
       <c r="G52" s="16">
         <v>5</v>
       </c>
-      <c r="H52" s="8"/>
+      <c r="H52" s="8">
+        <v>5</v>
+      </c>
       <c r="I52" s="8"/>
       <c r="J52" s="16"/>
       <c r="K52" s="16">
@@ -3404,11 +3604,11 @@
       </c>
       <c r="S52" s="20">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T52" s="20">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="53" spans="1:20" x14ac:dyDescent="0.25">
@@ -3427,11 +3627,15 @@
       <c r="E53" s="16">
         <v>21</v>
       </c>
-      <c r="F53" s="16"/>
+      <c r="F53" s="16">
+        <v>9</v>
+      </c>
       <c r="G53" s="16">
         <v>5</v>
       </c>
-      <c r="H53" s="8"/>
+      <c r="H53" s="8">
+        <v>4</v>
+      </c>
       <c r="I53" s="8"/>
       <c r="J53" s="16"/>
       <c r="K53" s="16">
@@ -3446,11 +3650,11 @@
       </c>
       <c r="S53" s="20">
         <f t="shared" si="1"/>
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="T53" s="20">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="54" spans="1:20" x14ac:dyDescent="0.25">
@@ -3469,11 +3673,15 @@
       <c r="E54" s="16" t="s">
         <v>232</v>
       </c>
-      <c r="F54" s="16"/>
+      <c r="F54" s="16" t="s">
+        <v>232</v>
+      </c>
       <c r="G54" s="16">
         <v>0</v>
       </c>
-      <c r="H54" s="8"/>
+      <c r="H54" s="8">
+        <v>0</v>
+      </c>
       <c r="I54" s="8"/>
       <c r="J54" s="16"/>
       <c r="K54" s="16">
@@ -3511,11 +3719,15 @@
       <c r="E55" s="16">
         <v>18</v>
       </c>
-      <c r="F55" s="16"/>
+      <c r="F55" s="16">
+        <v>2</v>
+      </c>
       <c r="G55" s="16">
         <v>5</v>
       </c>
-      <c r="H55" s="8"/>
+      <c r="H55" s="8">
+        <v>0</v>
+      </c>
       <c r="I55" s="8"/>
       <c r="J55" s="16"/>
       <c r="K55" s="16">
@@ -3534,7 +3746,7 @@
       </c>
       <c r="T55" s="20">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56" spans="1:20" x14ac:dyDescent="0.25">
@@ -3553,11 +3765,15 @@
       <c r="E56" s="16" t="s">
         <v>232</v>
       </c>
-      <c r="F56" s="16"/>
+      <c r="F56" s="16">
+        <v>1</v>
+      </c>
       <c r="G56" s="16">
         <v>5</v>
       </c>
-      <c r="H56" s="8"/>
+      <c r="H56" s="8">
+        <v>4</v>
+      </c>
       <c r="I56" s="8"/>
       <c r="J56" s="16"/>
       <c r="K56" s="16">
@@ -3572,11 +3788,11 @@
       </c>
       <c r="S56" s="20">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="T56" s="20">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:20" x14ac:dyDescent="0.25">
@@ -3595,11 +3811,15 @@
       <c r="E57" s="16">
         <v>10</v>
       </c>
-      <c r="F57" s="16"/>
+      <c r="F57" s="16">
+        <v>5</v>
+      </c>
       <c r="G57" s="16">
         <v>5</v>
       </c>
-      <c r="H57" s="8"/>
+      <c r="H57" s="8">
+        <v>5</v>
+      </c>
       <c r="I57" s="8"/>
       <c r="J57" s="16"/>
       <c r="K57" s="16">
@@ -3614,11 +3834,11 @@
       </c>
       <c r="S57" s="20">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T57" s="20">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="58" spans="1:20" x14ac:dyDescent="0.25">
@@ -3637,11 +3857,15 @@
       <c r="E58" s="16">
         <v>12</v>
       </c>
-      <c r="F58" s="16"/>
+      <c r="F58" s="16">
+        <v>7</v>
+      </c>
       <c r="G58" s="16">
         <v>5</v>
       </c>
-      <c r="H58" s="8"/>
+      <c r="H58" s="8">
+        <v>4</v>
+      </c>
       <c r="I58" s="8"/>
       <c r="J58" s="16"/>
       <c r="K58" s="16">
@@ -3656,11 +3880,11 @@
       </c>
       <c r="S58" s="20">
         <f t="shared" si="1"/>
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="T58" s="20">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="59" spans="1:20" x14ac:dyDescent="0.25">
@@ -3679,11 +3903,15 @@
       <c r="E59" s="16" t="s">
         <v>232</v>
       </c>
-      <c r="F59" s="16"/>
+      <c r="F59" s="16">
+        <v>29</v>
+      </c>
       <c r="G59" s="16">
         <v>5</v>
       </c>
-      <c r="H59" s="8"/>
+      <c r="H59" s="8">
+        <v>4</v>
+      </c>
       <c r="I59" s="8"/>
       <c r="J59" s="16"/>
       <c r="K59" s="16">
@@ -3698,11 +3926,11 @@
       </c>
       <c r="S59" s="20">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="T59" s="20">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>29</v>
       </c>
     </row>
     <row r="60" spans="1:20" x14ac:dyDescent="0.25">
@@ -3721,11 +3949,15 @@
       <c r="E60" s="16">
         <v>14</v>
       </c>
-      <c r="F60" s="16"/>
+      <c r="F60" s="16">
+        <v>12</v>
+      </c>
       <c r="G60" s="16">
         <v>5</v>
       </c>
-      <c r="H60" s="8"/>
+      <c r="H60" s="8">
+        <v>1</v>
+      </c>
       <c r="I60" s="8"/>
       <c r="J60" s="16"/>
       <c r="K60" s="16">
@@ -3740,11 +3972,11 @@
       </c>
       <c r="S60" s="20">
         <f t="shared" si="1"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="T60" s="20">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="61" spans="1:20" x14ac:dyDescent="0.25">
@@ -3763,11 +3995,15 @@
       <c r="E61" s="16">
         <v>18</v>
       </c>
-      <c r="F61" s="16"/>
+      <c r="F61" s="16">
+        <v>23</v>
+      </c>
       <c r="G61" s="16">
         <v>5</v>
       </c>
-      <c r="H61" s="8"/>
+      <c r="H61" s="8">
+        <v>4</v>
+      </c>
       <c r="I61" s="8"/>
       <c r="J61" s="16"/>
       <c r="K61" s="16">
@@ -3782,11 +4018,11 @@
       </c>
       <c r="S61" s="20">
         <f t="shared" si="1"/>
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="T61" s="20">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>23</v>
       </c>
     </row>
     <row r="62" spans="1:20" x14ac:dyDescent="0.25">
@@ -3805,11 +4041,15 @@
       <c r="E62" s="16">
         <v>10</v>
       </c>
-      <c r="F62" s="16"/>
+      <c r="F62" s="16">
+        <v>16</v>
+      </c>
       <c r="G62" s="16">
         <v>0</v>
       </c>
-      <c r="H62" s="8"/>
+      <c r="H62" s="8">
+        <v>5</v>
+      </c>
       <c r="I62" s="8"/>
       <c r="J62" s="16"/>
       <c r="K62" s="16">
@@ -3824,11 +4064,11 @@
       </c>
       <c r="S62" s="20">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T62" s="20">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" spans="1:20" x14ac:dyDescent="0.25">
@@ -3847,11 +4087,15 @@
       <c r="E63" s="16">
         <v>13</v>
       </c>
-      <c r="F63" s="16"/>
+      <c r="F63" s="16">
+        <v>15</v>
+      </c>
       <c r="G63" s="16">
         <v>5</v>
       </c>
-      <c r="H63" s="8"/>
+      <c r="H63" s="8">
+        <v>3</v>
+      </c>
       <c r="I63" s="8"/>
       <c r="J63" s="16"/>
       <c r="K63" s="16">
@@ -3866,11 +4110,11 @@
       </c>
       <c r="S63" s="20">
         <f t="shared" si="1"/>
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="T63" s="20">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="64" spans="1:20" x14ac:dyDescent="0.25">
@@ -3889,11 +4133,15 @@
       <c r="E64" s="16">
         <v>14</v>
       </c>
-      <c r="F64" s="16"/>
+      <c r="F64" s="16">
+        <v>13</v>
+      </c>
       <c r="G64" s="16">
         <v>2</v>
       </c>
-      <c r="H64" s="8"/>
+      <c r="H64" s="8">
+        <v>4</v>
+      </c>
       <c r="I64" s="8"/>
       <c r="J64" s="16"/>
       <c r="K64" s="16">
@@ -3908,11 +4156,11 @@
       </c>
       <c r="S64" s="20">
         <f t="shared" si="1"/>
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="T64" s="20">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="65" spans="1:20" x14ac:dyDescent="0.25">
@@ -3931,11 +4179,15 @@
       <c r="E65" s="16">
         <v>27</v>
       </c>
-      <c r="F65" s="16"/>
+      <c r="F65" s="16">
+        <v>27</v>
+      </c>
       <c r="G65" s="16">
         <v>5</v>
       </c>
-      <c r="H65" s="8"/>
+      <c r="H65" s="8">
+        <v>5</v>
+      </c>
       <c r="I65" s="8"/>
       <c r="J65" s="16"/>
       <c r="K65" s="16">
@@ -3950,11 +4202,11 @@
       </c>
       <c r="S65" s="20">
         <f t="shared" si="1"/>
+        <v>32</v>
+      </c>
+      <c r="T65" s="20">
+        <f t="shared" si="1"/>
         <v>27</v>
-      </c>
-      <c r="T65" s="20">
-        <f t="shared" si="1"/>
-        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:20" x14ac:dyDescent="0.25">
@@ -3973,11 +4225,15 @@
       <c r="E66" s="16">
         <v>6</v>
       </c>
-      <c r="F66" s="16"/>
+      <c r="F66" s="16">
+        <v>10</v>
+      </c>
       <c r="G66" s="16">
         <v>5</v>
       </c>
-      <c r="H66" s="8"/>
+      <c r="H66" s="8">
+        <v>0</v>
+      </c>
       <c r="I66" s="8"/>
       <c r="J66" s="16"/>
       <c r="K66" s="16">
@@ -3996,7 +4252,7 @@
       </c>
       <c r="T66" s="20">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="67" spans="1:20" x14ac:dyDescent="0.25">
@@ -4015,11 +4271,15 @@
       <c r="E67" s="16">
         <v>10</v>
       </c>
-      <c r="F67" s="16"/>
+      <c r="F67" s="16">
+        <v>18</v>
+      </c>
       <c r="G67" s="16">
         <v>5</v>
       </c>
-      <c r="H67" s="8"/>
+      <c r="H67" s="8">
+        <v>5</v>
+      </c>
       <c r="I67" s="8"/>
       <c r="J67" s="16"/>
       <c r="K67" s="16">
@@ -4034,11 +4294,11 @@
       </c>
       <c r="S67" s="20">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T67" s="20">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>18</v>
       </c>
     </row>
     <row r="68" spans="1:20" x14ac:dyDescent="0.25">
@@ -4057,11 +4317,15 @@
       <c r="E68" s="16">
         <v>13</v>
       </c>
-      <c r="F68" s="16"/>
+      <c r="F68" s="16">
+        <v>13</v>
+      </c>
       <c r="G68" s="16">
         <v>5</v>
       </c>
-      <c r="H68" s="8"/>
+      <c r="H68" s="8">
+        <v>5</v>
+      </c>
       <c r="I68" s="8"/>
       <c r="J68" s="16"/>
       <c r="K68" s="16">
@@ -4076,11 +4340,11 @@
       </c>
       <c r="S68" s="20">
         <f t="shared" si="2"/>
+        <v>18</v>
+      </c>
+      <c r="T68" s="20">
+        <f t="shared" si="2"/>
         <v>13</v>
-      </c>
-      <c r="T68" s="20">
-        <f t="shared" si="2"/>
-        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:20" x14ac:dyDescent="0.25">
@@ -4099,11 +4363,15 @@
       <c r="E69" s="16">
         <v>4</v>
       </c>
-      <c r="F69" s="16"/>
+      <c r="F69" s="16">
+        <v>15</v>
+      </c>
       <c r="G69" s="16">
         <v>5</v>
       </c>
-      <c r="H69" s="8"/>
+      <c r="H69" s="8">
+        <v>4</v>
+      </c>
       <c r="I69" s="8"/>
       <c r="J69" s="16"/>
       <c r="K69" s="16">
@@ -4118,11 +4386,11 @@
       </c>
       <c r="S69" s="20">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="T69" s="20">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="70" spans="1:20" x14ac:dyDescent="0.25">
@@ -4141,11 +4409,15 @@
       <c r="E70" s="16">
         <v>6</v>
       </c>
-      <c r="F70" s="16"/>
+      <c r="F70" s="16">
+        <v>14</v>
+      </c>
       <c r="G70" s="16">
         <v>5</v>
       </c>
-      <c r="H70" s="8"/>
+      <c r="H70" s="8">
+        <v>2</v>
+      </c>
       <c r="I70" s="8"/>
       <c r="J70" s="16"/>
       <c r="K70" s="16">
@@ -4160,11 +4432,11 @@
       </c>
       <c r="S70" s="20">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="T70" s="20">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>14</v>
       </c>
     </row>
     <row r="71" spans="1:20" x14ac:dyDescent="0.25">
@@ -4183,11 +4455,15 @@
       <c r="E71" s="16">
         <v>8</v>
       </c>
-      <c r="F71" s="16"/>
+      <c r="F71" s="16">
+        <v>15</v>
+      </c>
       <c r="G71" s="16">
         <v>5</v>
       </c>
-      <c r="H71" s="8"/>
+      <c r="H71" s="8">
+        <v>5</v>
+      </c>
       <c r="I71" s="8"/>
       <c r="J71" s="16"/>
       <c r="K71" s="16">
@@ -4202,11 +4478,11 @@
       </c>
       <c r="S71" s="20">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="T71" s="20">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="72" spans="1:20" x14ac:dyDescent="0.25">
@@ -4220,16 +4496,20 @@
         <v>220041700085</v>
       </c>
       <c r="D72" s="16">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E72" s="16">
         <v>2</v>
       </c>
-      <c r="F72" s="16"/>
+      <c r="F72" s="16">
+        <v>13</v>
+      </c>
       <c r="G72" s="16">
         <v>5</v>
       </c>
-      <c r="H72" s="8"/>
+      <c r="H72" s="8">
+        <v>5</v>
+      </c>
       <c r="I72" s="8"/>
       <c r="J72" s="16"/>
       <c r="K72" s="16">
@@ -4240,15 +4520,15 @@
       </c>
       <c r="R72" s="20">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="S72" s="20">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="T72" s="20">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="73" spans="1:20" x14ac:dyDescent="0.25">
@@ -4267,11 +4547,15 @@
       <c r="E73" s="16">
         <v>17</v>
       </c>
-      <c r="F73" s="16"/>
+      <c r="F73" s="16">
+        <v>3</v>
+      </c>
       <c r="G73" s="16">
         <v>5</v>
       </c>
-      <c r="H73" s="8"/>
+      <c r="H73" s="8">
+        <v>4</v>
+      </c>
       <c r="I73" s="8"/>
       <c r="J73" s="16"/>
       <c r="K73" s="16">
@@ -4286,11 +4570,11 @@
       </c>
       <c r="S73" s="20">
         <f t="shared" si="2"/>
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="T73" s="20">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="74" spans="1:20" x14ac:dyDescent="0.25">
@@ -4309,11 +4593,15 @@
       <c r="E74" s="16">
         <v>10</v>
       </c>
-      <c r="F74" s="16"/>
+      <c r="F74" s="16">
+        <v>7</v>
+      </c>
       <c r="G74" s="16">
         <v>5</v>
       </c>
-      <c r="H74" s="8"/>
+      <c r="H74" s="8">
+        <v>5</v>
+      </c>
       <c r="I74" s="8"/>
       <c r="J74" s="16"/>
       <c r="K74" s="16">
@@ -4328,11 +4616,11 @@
       </c>
       <c r="S74" s="20">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T74" s="20">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="75" spans="1:20" x14ac:dyDescent="0.25">
@@ -4351,11 +4639,15 @@
       <c r="E75" s="16">
         <v>10</v>
       </c>
-      <c r="F75" s="16"/>
+      <c r="F75" s="16">
+        <v>12</v>
+      </c>
       <c r="G75" s="16">
         <v>5</v>
       </c>
-      <c r="H75" s="8"/>
+      <c r="H75" s="8">
+        <v>5</v>
+      </c>
       <c r="I75" s="8"/>
       <c r="J75" s="16"/>
       <c r="K75" s="16">
@@ -4370,11 +4662,11 @@
       </c>
       <c r="S75" s="20">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T75" s="20">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="76" spans="1:20" x14ac:dyDescent="0.25">
@@ -4393,11 +4685,15 @@
       <c r="E76" s="16">
         <v>15</v>
       </c>
-      <c r="F76" s="16"/>
+      <c r="F76" s="16">
+        <v>8</v>
+      </c>
       <c r="G76" s="16">
         <v>5</v>
       </c>
-      <c r="H76" s="8"/>
+      <c r="H76" s="8">
+        <v>4</v>
+      </c>
       <c r="I76" s="8"/>
       <c r="J76" s="16"/>
       <c r="K76" s="16">
@@ -4412,11 +4708,11 @@
       </c>
       <c r="S76" s="20">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="T76" s="20">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="77" spans="1:20" x14ac:dyDescent="0.25">
@@ -4435,11 +4731,15 @@
       <c r="E77" s="16">
         <v>6</v>
       </c>
-      <c r="F77" s="16"/>
+      <c r="F77" s="16">
+        <v>15</v>
+      </c>
       <c r="G77" s="16">
         <v>0</v>
       </c>
-      <c r="H77" s="8"/>
+      <c r="H77" s="8">
+        <v>5</v>
+      </c>
       <c r="I77" s="8"/>
       <c r="J77" s="16"/>
       <c r="K77" s="16">
@@ -4454,11 +4754,11 @@
       </c>
       <c r="S77" s="20">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="T77" s="20">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="78" spans="1:20" x14ac:dyDescent="0.25">
@@ -4477,11 +4777,15 @@
       <c r="E78" s="16">
         <v>20</v>
       </c>
-      <c r="F78" s="16"/>
+      <c r="F78" s="16">
+        <v>11</v>
+      </c>
       <c r="G78" s="16">
         <v>5</v>
       </c>
-      <c r="H78" s="8"/>
+      <c r="H78" s="8">
+        <v>4</v>
+      </c>
       <c r="I78" s="8"/>
       <c r="J78" s="16"/>
       <c r="K78" s="16">
@@ -4496,11 +4800,11 @@
       </c>
       <c r="S78" s="20">
         <f t="shared" si="2"/>
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="T78" s="20">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="79" spans="1:20" x14ac:dyDescent="0.25">
@@ -4519,11 +4823,15 @@
       <c r="E79" s="16">
         <v>12</v>
       </c>
-      <c r="F79" s="16"/>
+      <c r="F79" s="16">
+        <v>17</v>
+      </c>
       <c r="G79" s="16">
         <v>5</v>
       </c>
-      <c r="H79" s="8"/>
+      <c r="H79" s="8">
+        <v>4</v>
+      </c>
       <c r="I79" s="8"/>
       <c r="J79" s="16"/>
       <c r="K79" s="16">
@@ -4538,11 +4846,11 @@
       </c>
       <c r="S79" s="20">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="T79" s="20">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>17</v>
       </c>
     </row>
     <row r="80" spans="1:20" x14ac:dyDescent="0.25">
@@ -4561,11 +4869,15 @@
       <c r="E80" s="16">
         <v>10</v>
       </c>
-      <c r="F80" s="16"/>
+      <c r="F80" s="16" t="s">
+        <v>232</v>
+      </c>
       <c r="G80" s="16">
         <v>5</v>
       </c>
-      <c r="H80" s="8"/>
+      <c r="H80" s="8">
+        <v>4</v>
+      </c>
       <c r="I80" s="8"/>
       <c r="J80" s="16"/>
       <c r="K80" s="16">
@@ -4580,7 +4892,7 @@
       </c>
       <c r="S80" s="20">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="T80" s="20">
         <f t="shared" si="2"/>
@@ -4603,11 +4915,15 @@
       <c r="E81" s="16">
         <v>13</v>
       </c>
-      <c r="F81" s="16"/>
+      <c r="F81" s="16">
+        <v>16</v>
+      </c>
       <c r="G81" s="16">
         <v>5</v>
       </c>
-      <c r="H81" s="8"/>
+      <c r="H81" s="8">
+        <v>5</v>
+      </c>
       <c r="I81" s="8"/>
       <c r="J81" s="16"/>
       <c r="K81" s="16">
@@ -4622,11 +4938,11 @@
       </c>
       <c r="S81" s="20">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="T81" s="20">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="82" spans="1:20" x14ac:dyDescent="0.25">
@@ -4645,11 +4961,15 @@
       <c r="E82" s="16">
         <v>18</v>
       </c>
-      <c r="F82" s="16"/>
+      <c r="F82" s="16">
+        <v>19</v>
+      </c>
       <c r="G82" s="16">
         <v>5</v>
       </c>
-      <c r="H82" s="8"/>
+      <c r="H82" s="8">
+        <v>5</v>
+      </c>
       <c r="I82" s="8"/>
       <c r="J82" s="16"/>
       <c r="K82" s="16">
@@ -4664,11 +4984,11 @@
       </c>
       <c r="S82" s="20">
         <f t="shared" si="2"/>
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="T82" s="20">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>19</v>
       </c>
     </row>
     <row r="83" spans="1:20" x14ac:dyDescent="0.25">
@@ -4687,11 +5007,15 @@
       <c r="E83" s="16">
         <v>9</v>
       </c>
-      <c r="F83" s="16"/>
+      <c r="F83" s="16">
+        <v>17</v>
+      </c>
       <c r="G83" s="16">
         <v>0</v>
       </c>
-      <c r="H83" s="8"/>
+      <c r="H83" s="8">
+        <v>5</v>
+      </c>
       <c r="I83" s="8"/>
       <c r="J83" s="16"/>
       <c r="K83" s="16">
@@ -4706,11 +5030,11 @@
       </c>
       <c r="S83" s="20">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="T83" s="20">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>17</v>
       </c>
     </row>
     <row r="84" spans="1:20" x14ac:dyDescent="0.25">
@@ -4729,11 +5053,15 @@
       <c r="E84" s="16">
         <v>3</v>
       </c>
-      <c r="F84" s="16"/>
+      <c r="F84" s="16">
+        <v>17</v>
+      </c>
       <c r="G84" s="16">
         <v>2</v>
       </c>
-      <c r="H84" s="8"/>
+      <c r="H84" s="8">
+        <v>4</v>
+      </c>
       <c r="I84" s="8"/>
       <c r="J84" s="16"/>
       <c r="K84" s="16">
@@ -4748,11 +5076,11 @@
       </c>
       <c r="S84" s="20">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="T84" s="20">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>17</v>
       </c>
     </row>
     <row r="85" spans="1:20" x14ac:dyDescent="0.25">
@@ -4771,11 +5099,15 @@
       <c r="E85" s="16">
         <v>10</v>
       </c>
-      <c r="F85" s="16"/>
+      <c r="F85" s="16">
+        <v>8</v>
+      </c>
       <c r="G85" s="16">
         <v>5</v>
       </c>
-      <c r="H85" s="8"/>
+      <c r="H85" s="8">
+        <v>5</v>
+      </c>
       <c r="I85" s="8"/>
       <c r="J85" s="16"/>
       <c r="K85" s="16">
@@ -4790,11 +5122,11 @@
       </c>
       <c r="S85" s="20">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T85" s="20">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="86" spans="1:20" x14ac:dyDescent="0.25">
@@ -4813,11 +5145,15 @@
       <c r="E86" s="16">
         <v>17</v>
       </c>
-      <c r="F86" s="16"/>
+      <c r="F86" s="16">
+        <v>12</v>
+      </c>
       <c r="G86" s="16">
         <v>5</v>
       </c>
-      <c r="H86" s="8"/>
+      <c r="H86" s="8">
+        <v>4</v>
+      </c>
       <c r="I86" s="8"/>
       <c r="J86" s="16"/>
       <c r="K86" s="16">
@@ -4832,11 +5168,11 @@
       </c>
       <c r="S86" s="20">
         <f t="shared" si="2"/>
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="T86" s="20">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="87" spans="1:20" x14ac:dyDescent="0.25">
@@ -4855,11 +5191,15 @@
       <c r="E87" s="16">
         <v>27</v>
       </c>
-      <c r="F87" s="16"/>
+      <c r="F87" s="16">
+        <v>27</v>
+      </c>
       <c r="G87" s="16">
         <v>5</v>
       </c>
-      <c r="H87" s="8"/>
+      <c r="H87" s="8">
+        <v>5</v>
+      </c>
       <c r="I87" s="8"/>
       <c r="J87" s="16"/>
       <c r="K87" s="16">
@@ -4874,11 +5214,11 @@
       </c>
       <c r="S87" s="20">
         <f t="shared" si="2"/>
+        <v>32</v>
+      </c>
+      <c r="T87" s="20">
+        <f t="shared" si="2"/>
         <v>27</v>
-      </c>
-      <c r="T87" s="20">
-        <f t="shared" si="2"/>
-        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:20" x14ac:dyDescent="0.25">
@@ -4897,11 +5237,15 @@
       <c r="E88" s="16">
         <v>7</v>
       </c>
-      <c r="F88" s="16"/>
+      <c r="F88" s="16">
+        <v>17</v>
+      </c>
       <c r="G88" s="16">
         <v>5</v>
       </c>
-      <c r="H88" s="8"/>
+      <c r="H88" s="8">
+        <v>5</v>
+      </c>
       <c r="I88" s="8"/>
       <c r="J88" s="16"/>
       <c r="K88" s="16">
@@ -4916,11 +5260,11 @@
       </c>
       <c r="S88" s="20">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="T88" s="20">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>17</v>
       </c>
     </row>
     <row r="89" spans="1:20" x14ac:dyDescent="0.25">
@@ -4939,11 +5283,15 @@
       <c r="E89" s="16">
         <v>12</v>
       </c>
-      <c r="F89" s="16"/>
+      <c r="F89" s="16">
+        <v>16</v>
+      </c>
       <c r="G89" s="16">
         <v>4</v>
       </c>
-      <c r="H89" s="8"/>
+      <c r="H89" s="8">
+        <v>4</v>
+      </c>
       <c r="I89" s="8"/>
       <c r="J89" s="16"/>
       <c r="K89" s="16">
@@ -4958,11 +5306,11 @@
       </c>
       <c r="S89" s="20">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="T89" s="20">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="90" spans="1:20" x14ac:dyDescent="0.25">
@@ -4981,11 +5329,15 @@
       <c r="E90" s="16">
         <v>11</v>
       </c>
-      <c r="F90" s="16"/>
+      <c r="F90" s="16">
+        <v>13</v>
+      </c>
       <c r="G90" s="16">
         <v>4</v>
       </c>
-      <c r="H90" s="8"/>
+      <c r="H90" s="8">
+        <v>2</v>
+      </c>
       <c r="I90" s="8"/>
       <c r="J90" s="16"/>
       <c r="K90" s="16">
@@ -5000,11 +5352,11 @@
       </c>
       <c r="S90" s="20">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="T90" s="20">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="91" spans="1:20" x14ac:dyDescent="0.25">
@@ -5023,11 +5375,15 @@
       <c r="E91" s="16">
         <v>16</v>
       </c>
-      <c r="F91" s="16"/>
+      <c r="F91" s="16" t="s">
+        <v>232</v>
+      </c>
       <c r="G91" s="16">
         <v>5</v>
       </c>
-      <c r="H91" s="8"/>
+      <c r="H91" s="8">
+        <v>5</v>
+      </c>
       <c r="I91" s="8"/>
       <c r="J91" s="16"/>
       <c r="K91" s="16">
@@ -5042,7 +5398,7 @@
       </c>
       <c r="S91" s="20">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="T91" s="20">
         <f t="shared" si="2"/>
@@ -5063,13 +5419,17 @@
         <v>13</v>
       </c>
       <c r="E92" s="16">
-        <v>5</v>
-      </c>
-      <c r="F92" s="16"/>
+        <v>6</v>
+      </c>
+      <c r="F92" s="16">
+        <v>10</v>
+      </c>
       <c r="G92" s="16">
         <v>5</v>
       </c>
-      <c r="H92" s="8"/>
+      <c r="H92" s="8">
+        <v>5</v>
+      </c>
       <c r="I92" s="8"/>
       <c r="J92" s="16"/>
       <c r="K92" s="16">
@@ -5084,11 +5444,11 @@
       </c>
       <c r="S92" s="20">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="T92" s="20">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="93" spans="1:20" x14ac:dyDescent="0.25">
@@ -5107,11 +5467,15 @@
       <c r="E93" s="16">
         <v>16</v>
       </c>
-      <c r="F93" s="16"/>
+      <c r="F93" s="16">
+        <v>10</v>
+      </c>
       <c r="G93" s="16">
         <v>5</v>
       </c>
-      <c r="H93" s="8"/>
+      <c r="H93" s="8">
+        <v>4</v>
+      </c>
       <c r="I93" s="8"/>
       <c r="J93" s="16"/>
       <c r="K93" s="16">
@@ -5126,11 +5490,11 @@
       </c>
       <c r="S93" s="20">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="T93" s="20">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="94" spans="1:20" x14ac:dyDescent="0.25">
@@ -5149,11 +5513,15 @@
       <c r="E94" s="16">
         <v>10</v>
       </c>
-      <c r="F94" s="16"/>
+      <c r="F94" s="16">
+        <v>13</v>
+      </c>
       <c r="G94" s="16">
         <v>5</v>
       </c>
-      <c r="H94" s="8"/>
+      <c r="H94" s="8">
+        <v>5</v>
+      </c>
       <c r="I94" s="8"/>
       <c r="J94" s="16"/>
       <c r="K94" s="16">
@@ -5168,11 +5536,11 @@
       </c>
       <c r="S94" s="20">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T94" s="20">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="95" spans="1:20" x14ac:dyDescent="0.25">
@@ -5191,11 +5559,15 @@
       <c r="E95" s="16">
         <v>13</v>
       </c>
-      <c r="F95" s="16"/>
+      <c r="F95" s="16">
+        <v>12</v>
+      </c>
       <c r="G95" s="16">
         <v>5</v>
       </c>
-      <c r="H95" s="8"/>
+      <c r="H95" s="8">
+        <v>5</v>
+      </c>
       <c r="I95" s="8"/>
       <c r="J95" s="16"/>
       <c r="K95" s="16">
@@ -5210,11 +5582,11 @@
       </c>
       <c r="S95" s="20">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="T95" s="20">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="96" spans="1:20" x14ac:dyDescent="0.25">
@@ -5233,11 +5605,15 @@
       <c r="E96" s="16">
         <v>5</v>
       </c>
-      <c r="F96" s="16"/>
+      <c r="F96" s="16">
+        <v>15</v>
+      </c>
       <c r="G96" s="16">
         <v>5</v>
       </c>
-      <c r="H96" s="8"/>
+      <c r="H96" s="8">
+        <v>5</v>
+      </c>
       <c r="I96" s="8"/>
       <c r="J96" s="16"/>
       <c r="K96" s="16">
@@ -5252,11 +5628,11 @@
       </c>
       <c r="S96" s="20">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T96" s="20">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="97" spans="1:20" x14ac:dyDescent="0.25">
@@ -5275,11 +5651,15 @@
       <c r="E97" s="16">
         <v>11</v>
       </c>
-      <c r="F97" s="16"/>
+      <c r="F97" s="16">
+        <v>19</v>
+      </c>
       <c r="G97" s="16">
         <v>5</v>
       </c>
-      <c r="H97" s="8"/>
+      <c r="H97" s="8">
+        <v>4</v>
+      </c>
       <c r="I97" s="8"/>
       <c r="J97" s="16"/>
       <c r="K97" s="16">
@@ -5294,11 +5674,11 @@
       </c>
       <c r="S97" s="20">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="T97" s="20">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>19</v>
       </c>
     </row>
     <row r="98" spans="1:20" x14ac:dyDescent="0.25">
@@ -5317,11 +5697,15 @@
       <c r="E98" s="16" t="s">
         <v>232</v>
       </c>
-      <c r="F98" s="16"/>
+      <c r="F98" s="16">
+        <v>22</v>
+      </c>
       <c r="G98" s="16">
         <v>5</v>
       </c>
-      <c r="H98" s="8"/>
+      <c r="H98" s="8">
+        <v>3</v>
+      </c>
       <c r="I98" s="8"/>
       <c r="J98" s="16"/>
       <c r="K98" s="16">
@@ -5336,11 +5720,11 @@
       </c>
       <c r="S98" s="20">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="T98" s="20">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>22</v>
       </c>
     </row>
     <row r="99" spans="1:20" x14ac:dyDescent="0.25">
@@ -5359,11 +5743,15 @@
       <c r="E99" s="16">
         <v>13</v>
       </c>
-      <c r="F99" s="16"/>
+      <c r="F99" s="16">
+        <v>20</v>
+      </c>
       <c r="G99" s="16">
         <v>5</v>
       </c>
-      <c r="H99" s="8"/>
+      <c r="H99" s="8">
+        <v>5</v>
+      </c>
       <c r="I99" s="8"/>
       <c r="J99" s="16"/>
       <c r="K99" s="16">
@@ -5378,11 +5766,11 @@
       </c>
       <c r="S99" s="20">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="T99" s="20">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="100" spans="1:20" x14ac:dyDescent="0.25">
@@ -5401,11 +5789,15 @@
       <c r="E100" s="16">
         <v>12</v>
       </c>
-      <c r="F100" s="16"/>
+      <c r="F100" s="16">
+        <v>15</v>
+      </c>
       <c r="G100" s="16">
         <v>5</v>
       </c>
-      <c r="H100" s="8"/>
+      <c r="H100" s="8">
+        <v>3</v>
+      </c>
       <c r="I100" s="8"/>
       <c r="J100" s="16"/>
       <c r="K100" s="16">
@@ -5421,11 +5813,11 @@
       </c>
       <c r="S100" s="20">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="T100" s="20">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="101" spans="1:20" x14ac:dyDescent="0.25">
@@ -5444,11 +5836,15 @@
       <c r="E101" s="16">
         <v>16</v>
       </c>
-      <c r="F101" s="16"/>
+      <c r="F101" s="16">
+        <v>15</v>
+      </c>
       <c r="G101" s="16">
         <v>0</v>
       </c>
-      <c r="H101" s="8"/>
+      <c r="H101" s="8">
+        <v>0</v>
+      </c>
       <c r="I101" s="8"/>
       <c r="J101" s="16"/>
       <c r="K101" s="16">
@@ -5467,7 +5863,7 @@
       </c>
       <c r="T101" s="20">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="102" spans="1:20" x14ac:dyDescent="0.25">
@@ -5486,11 +5882,15 @@
       <c r="E102" s="16">
         <v>10</v>
       </c>
-      <c r="F102" s="16"/>
+      <c r="F102" s="16">
+        <v>11</v>
+      </c>
       <c r="G102" s="16">
         <v>5</v>
       </c>
-      <c r="H102" s="8"/>
+      <c r="H102" s="8">
+        <v>5</v>
+      </c>
       <c r="I102" s="8"/>
       <c r="J102" s="16"/>
       <c r="K102" s="16">
@@ -5505,11 +5905,11 @@
       </c>
       <c r="S102" s="20">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T102" s="20">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="103" spans="1:20" x14ac:dyDescent="0.25">
@@ -5528,11 +5928,15 @@
       <c r="E103" s="16">
         <v>25</v>
       </c>
-      <c r="F103" s="16"/>
+      <c r="F103" s="16">
+        <v>20</v>
+      </c>
       <c r="G103" s="16">
         <v>5</v>
       </c>
-      <c r="H103" s="8"/>
+      <c r="H103" s="8">
+        <v>5</v>
+      </c>
       <c r="I103" s="8"/>
       <c r="J103" s="16"/>
       <c r="K103" s="16">
@@ -5547,11 +5951,11 @@
       </c>
       <c r="S103" s="20">
         <f t="shared" si="2"/>
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="T103" s="20">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="104" spans="1:20" x14ac:dyDescent="0.25">
@@ -5570,11 +5974,15 @@
       <c r="E104" s="16">
         <v>12</v>
       </c>
-      <c r="F104" s="16"/>
+      <c r="F104" s="16">
+        <v>20</v>
+      </c>
       <c r="G104" s="16">
         <v>0</v>
       </c>
-      <c r="H104" s="8"/>
+      <c r="H104" s="8">
+        <v>4</v>
+      </c>
       <c r="I104" s="8"/>
       <c r="J104" s="16"/>
       <c r="K104" s="16">
@@ -5589,11 +5997,11 @@
       </c>
       <c r="S104" s="20">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="T104" s="20">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="105" spans="1:20" x14ac:dyDescent="0.25">
@@ -5612,11 +6020,15 @@
       <c r="E105" s="16" t="s">
         <v>232</v>
       </c>
-      <c r="F105" s="16"/>
+      <c r="F105" s="16" t="s">
+        <v>232</v>
+      </c>
       <c r="G105" s="16">
         <v>0</v>
       </c>
-      <c r="H105" s="8"/>
+      <c r="H105" s="8">
+        <v>0</v>
+      </c>
       <c r="I105" s="8"/>
       <c r="J105" s="16"/>
       <c r="K105" s="16">
@@ -5654,11 +6066,15 @@
       <c r="E106" s="16">
         <v>12</v>
       </c>
-      <c r="F106" s="16"/>
+      <c r="F106" s="16">
+        <v>18</v>
+      </c>
       <c r="G106" s="16">
         <v>5</v>
       </c>
-      <c r="H106" s="8"/>
+      <c r="H106" s="8">
+        <v>4</v>
+      </c>
       <c r="I106" s="8"/>
       <c r="J106" s="16"/>
       <c r="K106" s="16">
@@ -5673,11 +6089,11 @@
       </c>
       <c r="S106" s="20">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="T106" s="20">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>18</v>
       </c>
     </row>
     <row r="107" spans="1:20" x14ac:dyDescent="0.25">
@@ -5696,11 +6112,15 @@
       <c r="E107" s="16">
         <v>30</v>
       </c>
-      <c r="F107" s="16"/>
+      <c r="F107" s="16">
+        <v>27</v>
+      </c>
       <c r="G107" s="16">
         <v>5</v>
       </c>
-      <c r="H107" s="8"/>
+      <c r="H107" s="8">
+        <v>5</v>
+      </c>
       <c r="I107" s="8"/>
       <c r="J107" s="16"/>
       <c r="K107" s="16">
@@ -5715,11 +6135,11 @@
       </c>
       <c r="S107" s="20">
         <f t="shared" si="2"/>
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="T107" s="20">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>27</v>
       </c>
     </row>
     <row r="108" spans="1:20" x14ac:dyDescent="0.25">
@@ -5738,11 +6158,15 @@
       <c r="E108" s="16">
         <v>6</v>
       </c>
-      <c r="F108" s="16"/>
+      <c r="F108" s="16">
+        <v>15</v>
+      </c>
       <c r="G108" s="16">
         <v>3</v>
       </c>
-      <c r="H108" s="8"/>
+      <c r="H108" s="8">
+        <v>5</v>
+      </c>
       <c r="I108" s="8"/>
       <c r="J108" s="16"/>
       <c r="K108" s="16">
@@ -5757,11 +6181,11 @@
       </c>
       <c r="S108" s="20">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="T108" s="20">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="109" spans="1:20" x14ac:dyDescent="0.25">
@@ -5780,11 +6204,15 @@
       <c r="E109" s="16">
         <v>30</v>
       </c>
-      <c r="F109" s="16"/>
+      <c r="F109" s="16">
+        <v>26</v>
+      </c>
       <c r="G109" s="16">
         <v>5</v>
       </c>
-      <c r="H109" s="8"/>
+      <c r="H109" s="8">
+        <v>5</v>
+      </c>
       <c r="I109" s="8"/>
       <c r="J109" s="16"/>
       <c r="K109" s="16">
@@ -5799,11 +6227,11 @@
       </c>
       <c r="S109" s="20">
         <f t="shared" si="2"/>
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="T109" s="20">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>26</v>
       </c>
     </row>
     <row r="110" spans="1:20" x14ac:dyDescent="0.25">
@@ -5822,11 +6250,15 @@
       <c r="E110" s="16">
         <v>14</v>
       </c>
-      <c r="F110" s="17"/>
+      <c r="F110" s="17">
+        <v>16</v>
+      </c>
       <c r="G110" s="16">
         <v>5</v>
       </c>
-      <c r="H110" s="8"/>
+      <c r="H110" s="8">
+        <v>5</v>
+      </c>
       <c r="I110" s="8"/>
       <c r="J110" s="16"/>
       <c r="K110" s="16">
@@ -5841,11 +6273,11 @@
       </c>
       <c r="S110" s="20">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="T110" s="20">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="111" spans="1:20" x14ac:dyDescent="0.25">
@@ -5864,11 +6296,15 @@
       <c r="E111" s="16">
         <v>13</v>
       </c>
-      <c r="F111" s="16"/>
+      <c r="F111" s="16">
+        <v>23</v>
+      </c>
       <c r="G111" s="16">
         <v>5</v>
       </c>
-      <c r="H111" s="8"/>
+      <c r="H111" s="8">
+        <v>5</v>
+      </c>
       <c r="I111" s="8"/>
       <c r="J111" s="16"/>
       <c r="K111" s="16">
@@ -5883,11 +6319,11 @@
       </c>
       <c r="S111" s="20">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="T111" s="20">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/static/Upload/5th sem.xlsx
+++ b/static/Upload/5th sem.xlsx
@@ -7,15 +7,19 @@
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140"/>
   </bookViews>
   <sheets>
-    <sheet name="CNC" sheetId="3" r:id="rId1"/>
-    <sheet name="CNC 2021" sheetId="1" r:id="rId2"/>
+    <sheet name="CNC" sheetId="6" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="7" r:id="rId2"/>
+    <sheet name="CNC 2024" sheetId="5" r:id="rId3"/>
+    <sheet name="CNC 2023" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">CNC!$A$2:$T$111</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'CNC 2021'!$A$2:$O$112</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">CNC!$A$1:$L$111</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">CNC!$A$2:$T$98</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'CNC 2023'!$A$2:$O$112</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'CNC 2024'!$A$2:$T$111</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">CNC!$A$1:$L$98</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">'CNC 2024'!$A$1:$L$111</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="495" uniqueCount="304">
   <si>
     <t>S.N</t>
   </si>
@@ -742,16 +746,212 @@
   </si>
   <si>
     <t>P3</t>
+  </si>
+  <si>
+    <t>220041700069</t>
+  </si>
+  <si>
+    <t>Parashant</t>
+  </si>
+  <si>
+    <t>220041700082</t>
+  </si>
+  <si>
+    <t>220041700088</t>
+  </si>
+  <si>
+    <t>Rohit Kumar</t>
+  </si>
+  <si>
+    <t>220041700110</t>
+  </si>
+  <si>
+    <t>Sonu</t>
+  </si>
+  <si>
+    <t>220041700124</t>
+  </si>
+  <si>
+    <t>Vikash Kumar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NITIN </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PAWAN </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PRINCE </t>
+  </si>
+  <si>
+    <t>PRITAM</t>
+  </si>
+  <si>
+    <t>PUNEET</t>
+  </si>
+  <si>
+    <t>RAJESH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RAVINDER </t>
+  </si>
+  <si>
+    <t>RITU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ROHIT </t>
+  </si>
+  <si>
+    <t>SACHIN</t>
+  </si>
+  <si>
+    <t>SAILESH</t>
+  </si>
+  <si>
+    <t>SANDEEP</t>
+  </si>
+  <si>
+    <t>SHARAD</t>
+  </si>
+  <si>
+    <t>SIKANDER</t>
+  </si>
+  <si>
+    <t>SOHAN LAL</t>
+  </si>
+  <si>
+    <t>SUKHBIR</t>
+  </si>
+  <si>
+    <t>SUKHDEV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SUNNY </t>
+  </si>
+  <si>
+    <t>VIJAY</t>
+  </si>
+  <si>
+    <t>VINEET</t>
+  </si>
+  <si>
+    <t>PUSHKAR</t>
+  </si>
+  <si>
+    <t>SUNDER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TINKU </t>
+  </si>
+  <si>
+    <t>AAKASH</t>
+  </si>
+  <si>
+    <t>AKANSHI</t>
+  </si>
+  <si>
+    <t>ANKIT KUMAR</t>
+  </si>
+  <si>
+    <t>ANNU</t>
+  </si>
+  <si>
+    <t>ANSHUL</t>
+  </si>
+  <si>
+    <t>ANURAG</t>
+  </si>
+  <si>
+    <t>ASHISH</t>
+  </si>
+  <si>
+    <t>BHAVISHYA</t>
+  </si>
+  <si>
+    <t>DEEKSHA DEVI</t>
+  </si>
+  <si>
+    <t>DHEERAJ KUMAR</t>
+  </si>
+  <si>
+    <t>DHRUV</t>
+  </si>
+  <si>
+    <t>HIMAMNSHU NAYAL</t>
+  </si>
+  <si>
+    <t>JASHAN</t>
+  </si>
+  <si>
+    <t>KAMAL</t>
+  </si>
+  <si>
+    <t>KARMJEET</t>
+  </si>
+  <si>
+    <t>KARTIK</t>
+  </si>
+  <si>
+    <t>KHUSHI SHARMA</t>
+  </si>
+  <si>
+    <t>KRISHAN KANT</t>
+  </si>
+  <si>
+    <t>LALIT KUMAR</t>
+  </si>
+  <si>
+    <t>LUCKY</t>
+  </si>
+  <si>
+    <t>MOHIT</t>
+  </si>
+  <si>
+    <t>MONU</t>
+  </si>
+  <si>
+    <t>NARENDER</t>
+  </si>
+  <si>
+    <t>NASIB ALI</t>
+  </si>
+  <si>
+    <t>NEERAJ</t>
+  </si>
+  <si>
+    <t>NIKESH</t>
+  </si>
+  <si>
+    <t>ARYAN KUMAR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HITESH </t>
+  </si>
+  <si>
+    <t>AMIT KUMAR</t>
+  </si>
+  <si>
+    <t>ANIL</t>
+  </si>
+  <si>
+    <t>ANISH YADAV</t>
+  </si>
+  <si>
+    <t>AMANDEEP</t>
+  </si>
+  <si>
+    <t>HARSHIT</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="0;[Red]0"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -797,8 +997,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -817,8 +1022,38 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor rgb="FFF5FFFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF5FFFA"/>
+        <bgColor rgb="FFF5FFFA"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -841,11 +1076,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -916,11 +1177,72 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1207,47 +1529,3147 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T111"/>
+  <dimension ref="A1:T98"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="I2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D86" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H3" sqref="H3:H111"/>
+      <selection pane="bottomRight" activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.5703125" style="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="12.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="7" max="9" width="11.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.85546875" style="24" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27" style="24" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" style="24" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="12.140625" style="24" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="11.42578125" style="24" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="14.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="7" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.5703125" style="7" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.85546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.5703125" style="7" bestFit="1" customWidth="1"/>
-    <col min="15" max="17" width="8" style="7" bestFit="1" customWidth="1"/>
-    <col min="18" max="20" width="11" style="7" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="7"/>
+    <col min="11" max="11" width="14.42578125" style="24" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.5703125" style="24" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.85546875" style="24" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.5703125" style="24" bestFit="1" customWidth="1"/>
+    <col min="15" max="17" width="8" style="24" bestFit="1" customWidth="1"/>
+    <col min="18" max="20" width="11" style="24" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="24"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="25" t="s">
         <v>227</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
-      <c r="K1" s="23"/>
-      <c r="L1" s="23"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
+      <c r="K1" s="25"/>
+      <c r="L1" s="25"/>
+    </row>
+    <row r="2" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="H2" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="I2" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="J2" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="K2" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="L2" s="11" t="s">
+        <v>229</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="N2" s="11" t="s">
+        <v>230</v>
+      </c>
+      <c r="O2" s="21" t="s">
+        <v>236</v>
+      </c>
+      <c r="P2" s="21" t="s">
+        <v>237</v>
+      </c>
+      <c r="Q2" s="21" t="s">
+        <v>238</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A3" s="8">
+        <v>1</v>
+      </c>
+      <c r="B3" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="35">
+        <v>220041700003</v>
+      </c>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16">
+        <v>0</v>
+      </c>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="16"/>
+      <c r="K3" s="16"/>
+      <c r="R3" s="20"/>
+      <c r="S3" s="20"/>
+      <c r="T3" s="20"/>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A4" s="8">
+        <v>2</v>
+      </c>
+      <c r="B4" s="40" t="s">
+        <v>302</v>
+      </c>
+      <c r="C4" s="35">
+        <v>220041700010</v>
+      </c>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="16">
+        <v>0</v>
+      </c>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="16"/>
+      <c r="K4" s="16"/>
+      <c r="R4" s="20"/>
+      <c r="S4" s="20"/>
+      <c r="T4" s="20"/>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A5" s="8">
+        <v>3</v>
+      </c>
+      <c r="B5" s="40" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" s="35">
+        <v>220041700037</v>
+      </c>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="16">
+        <v>0</v>
+      </c>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="16"/>
+      <c r="K5" s="16"/>
+      <c r="R5" s="20"/>
+      <c r="S5" s="20"/>
+      <c r="T5" s="20"/>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A6" s="8">
+        <v>4</v>
+      </c>
+      <c r="B6" s="40" t="s">
+        <v>303</v>
+      </c>
+      <c r="C6" s="35">
+        <v>220041700038</v>
+      </c>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="16">
+        <v>0</v>
+      </c>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="16"/>
+      <c r="K6" s="16"/>
+      <c r="R6" s="20"/>
+      <c r="S6" s="20"/>
+      <c r="T6" s="20"/>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A7" s="8">
+        <v>5</v>
+      </c>
+      <c r="B7" s="40" t="s">
+        <v>286</v>
+      </c>
+      <c r="C7" s="35">
+        <v>220041700048</v>
+      </c>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="16">
+        <v>0</v>
+      </c>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="16"/>
+      <c r="K7" s="16"/>
+      <c r="R7" s="20"/>
+      <c r="S7" s="20"/>
+      <c r="T7" s="20"/>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A8" s="8">
+        <v>6</v>
+      </c>
+      <c r="B8" s="40" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8" s="35">
+        <v>220041700059</v>
+      </c>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="16">
+        <v>0</v>
+      </c>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="16"/>
+      <c r="K8" s="16"/>
+      <c r="R8" s="20"/>
+      <c r="S8" s="20"/>
+      <c r="T8" s="20"/>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A9" s="8">
+        <v>7</v>
+      </c>
+      <c r="B9" s="40" t="s">
+        <v>157</v>
+      </c>
+      <c r="C9" s="35">
+        <v>220041723011</v>
+      </c>
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="16">
+        <v>5</v>
+      </c>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="16"/>
+      <c r="K9" s="16"/>
+      <c r="R9" s="20"/>
+      <c r="S9" s="20"/>
+      <c r="T9" s="20"/>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A10" s="8">
+        <v>8</v>
+      </c>
+      <c r="B10" s="34" t="s">
+        <v>271</v>
+      </c>
+      <c r="C10" s="35">
+        <v>230041700001</v>
+      </c>
+      <c r="D10" s="16"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="16">
+        <v>5</v>
+      </c>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="16"/>
+      <c r="K10" s="16"/>
+      <c r="R10" s="20"/>
+      <c r="S10" s="20"/>
+      <c r="T10" s="20"/>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A11" s="8">
+        <v>9</v>
+      </c>
+      <c r="B11" s="34" t="s">
+        <v>272</v>
+      </c>
+      <c r="C11" s="35">
+        <v>230041700003</v>
+      </c>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="16">
+        <v>5</v>
+      </c>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="16"/>
+      <c r="K11" s="16"/>
+      <c r="R11" s="20"/>
+      <c r="S11" s="20"/>
+      <c r="T11" s="20"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A12" s="8">
+        <v>10</v>
+      </c>
+      <c r="B12" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="37">
+        <v>230041700004</v>
+      </c>
+      <c r="D12" s="16"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="16">
+        <v>5</v>
+      </c>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="16"/>
+      <c r="K12" s="16"/>
+      <c r="R12" s="20"/>
+      <c r="S12" s="20"/>
+      <c r="T12" s="20"/>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A13" s="8">
+        <v>11</v>
+      </c>
+      <c r="B13" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="35">
+        <v>230041700005</v>
+      </c>
+      <c r="D13" s="16"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="16">
+        <v>5</v>
+      </c>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="16"/>
+      <c r="K13" s="16"/>
+      <c r="R13" s="20"/>
+      <c r="S13" s="20"/>
+      <c r="T13" s="20"/>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A14" s="8">
+        <v>12</v>
+      </c>
+      <c r="B14" s="36" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="37">
+        <v>230041700010</v>
+      </c>
+      <c r="D14" s="16"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="16">
+        <v>5</v>
+      </c>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="16"/>
+      <c r="K14" s="16"/>
+      <c r="R14" s="20"/>
+      <c r="S14" s="20"/>
+      <c r="T14" s="20"/>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A15" s="8">
+        <v>13</v>
+      </c>
+      <c r="B15" s="36" t="s">
+        <v>273</v>
+      </c>
+      <c r="C15" s="37">
+        <v>230041700012</v>
+      </c>
+      <c r="D15" s="16"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="16"/>
+      <c r="G15" s="16">
+        <v>0</v>
+      </c>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="16"/>
+      <c r="K15" s="16"/>
+      <c r="R15" s="20"/>
+      <c r="S15" s="20"/>
+      <c r="T15" s="20"/>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A16" s="8">
+        <v>14</v>
+      </c>
+      <c r="B16" s="34" t="s">
+        <v>274</v>
+      </c>
+      <c r="C16" s="35">
+        <v>230041700015</v>
+      </c>
+      <c r="D16" s="16"/>
+      <c r="E16" s="16"/>
+      <c r="F16" s="16"/>
+      <c r="G16" s="16">
+        <v>5</v>
+      </c>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="16"/>
+      <c r="K16" s="16"/>
+      <c r="R16" s="20"/>
+      <c r="S16" s="20"/>
+      <c r="T16" s="20"/>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A17" s="8">
+        <v>15</v>
+      </c>
+      <c r="B17" s="36" t="s">
+        <v>275</v>
+      </c>
+      <c r="C17" s="37">
+        <v>230041700016</v>
+      </c>
+      <c r="D17" s="16"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="16"/>
+      <c r="G17" s="16">
+        <v>0</v>
+      </c>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="16"/>
+      <c r="K17" s="16"/>
+      <c r="R17" s="20"/>
+      <c r="S17" s="20"/>
+      <c r="T17" s="20"/>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A18" s="8">
+        <v>16</v>
+      </c>
+      <c r="B18" s="34" t="s">
+        <v>144</v>
+      </c>
+      <c r="C18" s="35">
+        <v>230041700017</v>
+      </c>
+      <c r="D18" s="16"/>
+      <c r="E18" s="16"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="16">
+        <v>5</v>
+      </c>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="16"/>
+      <c r="K18" s="16"/>
+      <c r="R18" s="20"/>
+      <c r="S18" s="20"/>
+      <c r="T18" s="20"/>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A19" s="8">
+        <v>17</v>
+      </c>
+      <c r="B19" s="36" t="s">
+        <v>276</v>
+      </c>
+      <c r="C19" s="37">
+        <v>230041700018</v>
+      </c>
+      <c r="D19" s="16"/>
+      <c r="E19" s="16"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="16">
+        <v>0</v>
+      </c>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="16"/>
+      <c r="K19" s="16"/>
+      <c r="R19" s="20"/>
+      <c r="S19" s="20"/>
+      <c r="T19" s="20"/>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A20" s="8">
+        <v>18</v>
+      </c>
+      <c r="B20" s="34" t="s">
+        <v>277</v>
+      </c>
+      <c r="C20" s="35">
+        <v>230041700019</v>
+      </c>
+      <c r="D20" s="16"/>
+      <c r="E20" s="16"/>
+      <c r="F20" s="16"/>
+      <c r="G20" s="16">
+        <v>5</v>
+      </c>
+      <c r="H20" s="8"/>
+      <c r="I20" s="8"/>
+      <c r="J20" s="16"/>
+      <c r="K20" s="16"/>
+      <c r="R20" s="20"/>
+      <c r="S20" s="20"/>
+      <c r="T20" s="20"/>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A21" s="8">
+        <v>19</v>
+      </c>
+      <c r="B21" s="34" t="s">
+        <v>278</v>
+      </c>
+      <c r="C21" s="35">
+        <v>230041700021</v>
+      </c>
+      <c r="D21" s="16"/>
+      <c r="E21" s="16"/>
+      <c r="F21" s="16"/>
+      <c r="G21" s="16">
+        <v>5</v>
+      </c>
+      <c r="H21" s="8"/>
+      <c r="I21" s="8"/>
+      <c r="J21" s="16"/>
+      <c r="K21" s="16"/>
+      <c r="R21" s="20"/>
+      <c r="S21" s="20"/>
+      <c r="T21" s="20"/>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A22" s="8">
+        <v>20</v>
+      </c>
+      <c r="B22" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22" s="37">
+        <v>230041700024</v>
+      </c>
+      <c r="D22" s="16"/>
+      <c r="E22" s="16"/>
+      <c r="F22" s="16"/>
+      <c r="G22" s="16">
+        <v>5</v>
+      </c>
+      <c r="H22" s="8"/>
+      <c r="I22" s="8"/>
+      <c r="J22" s="16"/>
+      <c r="K22" s="16"/>
+      <c r="R22" s="20"/>
+      <c r="S22" s="20"/>
+      <c r="T22" s="20"/>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A23" s="8">
+        <v>21</v>
+      </c>
+      <c r="B23" s="34" t="s">
+        <v>279</v>
+      </c>
+      <c r="C23" s="35">
+        <v>230041700025</v>
+      </c>
+      <c r="D23" s="16"/>
+      <c r="E23" s="16"/>
+      <c r="F23" s="16"/>
+      <c r="G23" s="16">
+        <v>5</v>
+      </c>
+      <c r="H23" s="8"/>
+      <c r="I23" s="8"/>
+      <c r="J23" s="16"/>
+      <c r="K23" s="16"/>
+      <c r="R23" s="20"/>
+      <c r="S23" s="20"/>
+      <c r="T23" s="20"/>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A24" s="8">
+        <v>22</v>
+      </c>
+      <c r="B24" s="34" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" s="35">
+        <v>230041700027</v>
+      </c>
+      <c r="D24" s="16"/>
+      <c r="E24" s="16"/>
+      <c r="F24" s="16"/>
+      <c r="G24" s="16">
+        <v>5</v>
+      </c>
+      <c r="H24" s="8"/>
+      <c r="I24" s="8"/>
+      <c r="J24" s="16"/>
+      <c r="K24" s="16"/>
+      <c r="R24" s="20"/>
+      <c r="S24" s="20"/>
+      <c r="T24" s="20"/>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A25" s="8">
+        <v>23</v>
+      </c>
+      <c r="B25" s="34" t="s">
+        <v>280</v>
+      </c>
+      <c r="C25" s="35">
+        <v>230041700029</v>
+      </c>
+      <c r="D25" s="16"/>
+      <c r="E25" s="16"/>
+      <c r="F25" s="16"/>
+      <c r="G25" s="16">
+        <v>5</v>
+      </c>
+      <c r="H25" s="8"/>
+      <c r="I25" s="8"/>
+      <c r="J25" s="16"/>
+      <c r="K25" s="16"/>
+      <c r="R25" s="20"/>
+      <c r="S25" s="20"/>
+      <c r="T25" s="20"/>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A26" s="8">
+        <v>24</v>
+      </c>
+      <c r="B26" s="36" t="s">
+        <v>281</v>
+      </c>
+      <c r="C26" s="37">
+        <v>230041700030</v>
+      </c>
+      <c r="D26" s="16"/>
+      <c r="E26" s="16"/>
+      <c r="F26" s="16"/>
+      <c r="G26" s="16">
+        <v>0</v>
+      </c>
+      <c r="H26" s="8"/>
+      <c r="I26" s="8"/>
+      <c r="J26" s="16"/>
+      <c r="K26" s="16"/>
+      <c r="R26" s="20"/>
+      <c r="S26" s="20"/>
+      <c r="T26" s="20"/>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A27" s="8">
+        <v>25</v>
+      </c>
+      <c r="B27" s="36" t="s">
+        <v>152</v>
+      </c>
+      <c r="C27" s="37">
+        <v>230041700032</v>
+      </c>
+      <c r="D27" s="16"/>
+      <c r="E27" s="16"/>
+      <c r="F27" s="16"/>
+      <c r="G27" s="16">
+        <v>5</v>
+      </c>
+      <c r="H27" s="8"/>
+      <c r="I27" s="8"/>
+      <c r="J27" s="16"/>
+      <c r="K27" s="16"/>
+      <c r="R27" s="20"/>
+      <c r="S27" s="20"/>
+      <c r="T27" s="20"/>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A28" s="8">
+        <v>26</v>
+      </c>
+      <c r="B28" s="34" t="s">
+        <v>90</v>
+      </c>
+      <c r="C28" s="35">
+        <v>230041700033</v>
+      </c>
+      <c r="D28" s="16"/>
+      <c r="E28" s="16"/>
+      <c r="F28" s="16"/>
+      <c r="G28" s="16">
+        <v>0</v>
+      </c>
+      <c r="H28" s="8"/>
+      <c r="I28" s="8"/>
+      <c r="J28" s="16"/>
+      <c r="K28" s="16"/>
+      <c r="R28" s="20"/>
+      <c r="S28" s="20"/>
+      <c r="T28" s="20"/>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A29" s="8">
+        <v>27</v>
+      </c>
+      <c r="B29" s="36" t="s">
+        <v>153</v>
+      </c>
+      <c r="C29" s="37">
+        <v>230041700034</v>
+      </c>
+      <c r="D29" s="16"/>
+      <c r="E29" s="16"/>
+      <c r="F29" s="16"/>
+      <c r="G29" s="16">
+        <v>0</v>
+      </c>
+      <c r="H29" s="8"/>
+      <c r="I29" s="8"/>
+      <c r="J29" s="16"/>
+      <c r="K29" s="16"/>
+      <c r="R29" s="20"/>
+      <c r="S29" s="20"/>
+      <c r="T29" s="20"/>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A30" s="8">
+        <v>28</v>
+      </c>
+      <c r="B30" s="34" t="s">
+        <v>282</v>
+      </c>
+      <c r="C30" s="35">
+        <v>230041700037</v>
+      </c>
+      <c r="D30" s="16"/>
+      <c r="E30" s="16"/>
+      <c r="F30" s="16"/>
+      <c r="G30" s="16">
+        <v>0</v>
+      </c>
+      <c r="H30" s="8"/>
+      <c r="I30" s="8"/>
+      <c r="J30" s="16"/>
+      <c r="K30" s="16"/>
+      <c r="R30" s="20"/>
+      <c r="S30" s="20"/>
+      <c r="T30" s="20"/>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A31" s="8">
+        <v>29</v>
+      </c>
+      <c r="B31" s="34" t="s">
+        <v>283</v>
+      </c>
+      <c r="C31" s="35">
+        <v>230041700041</v>
+      </c>
+      <c r="D31" s="16"/>
+      <c r="E31" s="16"/>
+      <c r="F31" s="16"/>
+      <c r="G31" s="16">
+        <v>5</v>
+      </c>
+      <c r="H31" s="8"/>
+      <c r="I31" s="8"/>
+      <c r="J31" s="16"/>
+      <c r="K31" s="16"/>
+      <c r="R31" s="20"/>
+      <c r="S31" s="20"/>
+      <c r="T31" s="20"/>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A32" s="8">
+        <v>30</v>
+      </c>
+      <c r="B32" s="36" t="s">
+        <v>34</v>
+      </c>
+      <c r="C32" s="37">
+        <v>230041700042</v>
+      </c>
+      <c r="D32" s="16"/>
+      <c r="E32" s="16"/>
+      <c r="F32" s="16"/>
+      <c r="G32" s="16">
+        <v>5</v>
+      </c>
+      <c r="H32" s="8"/>
+      <c r="I32" s="8"/>
+      <c r="J32" s="16"/>
+      <c r="K32" s="16"/>
+      <c r="R32" s="20"/>
+      <c r="S32" s="20"/>
+      <c r="T32" s="20"/>
+    </row>
+    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A33" s="8">
+        <v>31</v>
+      </c>
+      <c r="B33" s="36" t="s">
+        <v>284</v>
+      </c>
+      <c r="C33" s="37">
+        <v>230041700044</v>
+      </c>
+      <c r="D33" s="16"/>
+      <c r="E33" s="16"/>
+      <c r="F33" s="16"/>
+      <c r="G33" s="16">
+        <v>5</v>
+      </c>
+      <c r="H33" s="8"/>
+      <c r="I33" s="8"/>
+      <c r="J33" s="16"/>
+      <c r="K33" s="16"/>
+      <c r="R33" s="20"/>
+      <c r="S33" s="20"/>
+      <c r="T33" s="20"/>
+    </row>
+    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A34" s="8">
+        <v>32</v>
+      </c>
+      <c r="B34" s="34" t="s">
+        <v>285</v>
+      </c>
+      <c r="C34" s="35">
+        <v>230041700045</v>
+      </c>
+      <c r="D34" s="16"/>
+      <c r="E34" s="16"/>
+      <c r="F34" s="16"/>
+      <c r="G34" s="16">
+        <v>0</v>
+      </c>
+      <c r="H34" s="8"/>
+      <c r="I34" s="8"/>
+      <c r="J34" s="16"/>
+      <c r="K34" s="16"/>
+      <c r="R34" s="20"/>
+      <c r="S34" s="20"/>
+      <c r="T34" s="20"/>
+    </row>
+    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A35" s="8">
+        <v>33</v>
+      </c>
+      <c r="B35" s="36" t="s">
+        <v>286</v>
+      </c>
+      <c r="C35" s="37">
+        <v>230041700046</v>
+      </c>
+      <c r="D35" s="16"/>
+      <c r="E35" s="16"/>
+      <c r="F35" s="16"/>
+      <c r="G35" s="16">
+        <v>0</v>
+      </c>
+      <c r="H35" s="8"/>
+      <c r="I35" s="8"/>
+      <c r="J35" s="16"/>
+      <c r="K35" s="16"/>
+      <c r="R35" s="20"/>
+      <c r="S35" s="20"/>
+      <c r="T35" s="20"/>
+    </row>
+    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A36" s="8">
+        <v>34</v>
+      </c>
+      <c r="B36" s="34" t="s">
+        <v>287</v>
+      </c>
+      <c r="C36" s="35">
+        <v>230041700047</v>
+      </c>
+      <c r="D36" s="16"/>
+      <c r="E36" s="16"/>
+      <c r="F36" s="16"/>
+      <c r="G36" s="16">
+        <v>5</v>
+      </c>
+      <c r="H36" s="8"/>
+      <c r="I36" s="8"/>
+      <c r="J36" s="16"/>
+      <c r="K36" s="16"/>
+      <c r="R36" s="20"/>
+      <c r="S36" s="20"/>
+      <c r="T36" s="20"/>
+    </row>
+    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A37" s="8">
+        <v>35</v>
+      </c>
+      <c r="B37" s="36" t="s">
+        <v>288</v>
+      </c>
+      <c r="C37" s="37">
+        <v>230041700048</v>
+      </c>
+      <c r="D37" s="16"/>
+      <c r="E37" s="16"/>
+      <c r="F37" s="16"/>
+      <c r="G37" s="16">
+        <v>5</v>
+      </c>
+      <c r="H37" s="8"/>
+      <c r="I37" s="8"/>
+      <c r="J37" s="16"/>
+      <c r="K37" s="16"/>
+      <c r="R37" s="20"/>
+      <c r="S37" s="20"/>
+      <c r="T37" s="20"/>
+    </row>
+    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A38" s="8">
+        <v>36</v>
+      </c>
+      <c r="B38" s="36" t="s">
+        <v>161</v>
+      </c>
+      <c r="C38" s="37">
+        <v>230041700050</v>
+      </c>
+      <c r="D38" s="16"/>
+      <c r="E38" s="16"/>
+      <c r="F38" s="16"/>
+      <c r="G38" s="16">
+        <v>5</v>
+      </c>
+      <c r="H38" s="8"/>
+      <c r="I38" s="8"/>
+      <c r="J38" s="16"/>
+      <c r="K38" s="16"/>
+      <c r="R38" s="20"/>
+      <c r="S38" s="20"/>
+      <c r="T38" s="20"/>
+    </row>
+    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A39" s="8">
+        <v>37</v>
+      </c>
+      <c r="B39" s="34" t="s">
+        <v>289</v>
+      </c>
+      <c r="C39" s="35">
+        <v>230041700051</v>
+      </c>
+      <c r="D39" s="16"/>
+      <c r="E39" s="16"/>
+      <c r="F39" s="16"/>
+      <c r="G39" s="16">
+        <v>5</v>
+      </c>
+      <c r="H39" s="8"/>
+      <c r="I39" s="8"/>
+      <c r="J39" s="16"/>
+      <c r="K39" s="16"/>
+      <c r="R39" s="20"/>
+      <c r="S39" s="20"/>
+      <c r="T39" s="20"/>
+    </row>
+    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A40" s="8">
+        <v>38</v>
+      </c>
+      <c r="B40" s="36" t="s">
+        <v>290</v>
+      </c>
+      <c r="C40" s="37">
+        <v>230041700052</v>
+      </c>
+      <c r="D40" s="16"/>
+      <c r="E40" s="16"/>
+      <c r="F40" s="16"/>
+      <c r="G40" s="16">
+        <v>0</v>
+      </c>
+      <c r="H40" s="8"/>
+      <c r="I40" s="8"/>
+      <c r="J40" s="16"/>
+      <c r="K40" s="16"/>
+      <c r="R40" s="20"/>
+      <c r="S40" s="20"/>
+      <c r="T40" s="20"/>
+    </row>
+    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A41" s="8">
+        <v>39</v>
+      </c>
+      <c r="B41" s="36" t="s">
+        <v>165</v>
+      </c>
+      <c r="C41" s="37">
+        <v>230041700056</v>
+      </c>
+      <c r="D41" s="16"/>
+      <c r="E41" s="16"/>
+      <c r="F41" s="16"/>
+      <c r="G41" s="16">
+        <v>0</v>
+      </c>
+      <c r="H41" s="8"/>
+      <c r="I41" s="8"/>
+      <c r="J41" s="16"/>
+      <c r="K41" s="16"/>
+      <c r="L41" s="22"/>
+      <c r="R41" s="20"/>
+      <c r="S41" s="20"/>
+      <c r="T41" s="20"/>
+    </row>
+    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A42" s="8">
+        <v>40</v>
+      </c>
+      <c r="B42" s="36" t="s">
+        <v>41</v>
+      </c>
+      <c r="C42" s="37">
+        <v>230041700058</v>
+      </c>
+      <c r="D42" s="16"/>
+      <c r="E42" s="16"/>
+      <c r="F42" s="16"/>
+      <c r="G42" s="16">
+        <v>0</v>
+      </c>
+      <c r="H42" s="8"/>
+      <c r="I42" s="8"/>
+      <c r="J42" s="16"/>
+      <c r="K42" s="16"/>
+      <c r="R42" s="20"/>
+      <c r="S42" s="20"/>
+      <c r="T42" s="20"/>
+    </row>
+    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A43" s="8">
+        <v>41</v>
+      </c>
+      <c r="B43" s="34" t="s">
+        <v>291</v>
+      </c>
+      <c r="C43" s="35">
+        <v>230041700059</v>
+      </c>
+      <c r="D43" s="16"/>
+      <c r="E43" s="16"/>
+      <c r="F43" s="16"/>
+      <c r="G43" s="16">
+        <v>0</v>
+      </c>
+      <c r="H43" s="8"/>
+      <c r="I43" s="8"/>
+      <c r="J43" s="16"/>
+      <c r="K43" s="16"/>
+      <c r="R43" s="20"/>
+      <c r="S43" s="20"/>
+      <c r="T43" s="20"/>
+    </row>
+    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A44" s="8">
+        <v>42</v>
+      </c>
+      <c r="B44" s="36" t="s">
+        <v>292</v>
+      </c>
+      <c r="C44" s="37">
+        <v>230041700062</v>
+      </c>
+      <c r="D44" s="16"/>
+      <c r="E44" s="16"/>
+      <c r="F44" s="16"/>
+      <c r="G44" s="16">
+        <v>0</v>
+      </c>
+      <c r="H44" s="8"/>
+      <c r="I44" s="8"/>
+      <c r="J44" s="16"/>
+      <c r="K44" s="16"/>
+      <c r="R44" s="20"/>
+      <c r="S44" s="20"/>
+      <c r="T44" s="20"/>
+    </row>
+    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A45" s="8">
+        <v>43</v>
+      </c>
+      <c r="B45" s="34" t="s">
+        <v>293</v>
+      </c>
+      <c r="C45" s="35">
+        <v>230041700063</v>
+      </c>
+      <c r="D45" s="16"/>
+      <c r="E45" s="16"/>
+      <c r="F45" s="16"/>
+      <c r="G45" s="16">
+        <v>0</v>
+      </c>
+      <c r="H45" s="8"/>
+      <c r="I45" s="8"/>
+      <c r="J45" s="16"/>
+      <c r="K45" s="16"/>
+      <c r="R45" s="20"/>
+      <c r="S45" s="20"/>
+      <c r="T45" s="20"/>
+    </row>
+    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A46" s="8">
+        <v>44</v>
+      </c>
+      <c r="B46" s="36" t="s">
+        <v>294</v>
+      </c>
+      <c r="C46" s="37">
+        <v>230041700066</v>
+      </c>
+      <c r="D46" s="16"/>
+      <c r="E46" s="16"/>
+      <c r="F46" s="16"/>
+      <c r="G46" s="16">
+        <v>5</v>
+      </c>
+      <c r="H46" s="8"/>
+      <c r="I46" s="8"/>
+      <c r="J46" s="16"/>
+      <c r="K46" s="16"/>
+      <c r="R46" s="20"/>
+      <c r="S46" s="20"/>
+      <c r="T46" s="20"/>
+    </row>
+    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A47" s="8">
+        <v>45</v>
+      </c>
+      <c r="B47" s="36" t="s">
+        <v>295</v>
+      </c>
+      <c r="C47" s="37">
+        <v>230041700068</v>
+      </c>
+      <c r="D47" s="16"/>
+      <c r="E47" s="16"/>
+      <c r="F47" s="16"/>
+      <c r="G47" s="16">
+        <v>0</v>
+      </c>
+      <c r="H47" s="8"/>
+      <c r="I47" s="8"/>
+      <c r="J47" s="16"/>
+      <c r="K47" s="16"/>
+      <c r="R47" s="20"/>
+      <c r="S47" s="20"/>
+      <c r="T47" s="20"/>
+    </row>
+    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A48" s="8">
+        <v>46</v>
+      </c>
+      <c r="B48" s="34" t="s">
+        <v>296</v>
+      </c>
+      <c r="C48" s="35">
+        <v>230041700069</v>
+      </c>
+      <c r="D48" s="16"/>
+      <c r="E48" s="16"/>
+      <c r="F48" s="16"/>
+      <c r="G48" s="16">
+        <v>0</v>
+      </c>
+      <c r="H48" s="8"/>
+      <c r="I48" s="8"/>
+      <c r="J48" s="16"/>
+      <c r="K48" s="16"/>
+      <c r="R48" s="20"/>
+      <c r="S48" s="20"/>
+      <c r="T48" s="20"/>
+    </row>
+    <row r="49" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A49" s="8">
+        <v>47</v>
+      </c>
+      <c r="B49" s="39" t="s">
+        <v>297</v>
+      </c>
+      <c r="C49" s="38">
+        <v>230041724001</v>
+      </c>
+      <c r="D49" s="16"/>
+      <c r="E49" s="16"/>
+      <c r="F49" s="16"/>
+      <c r="G49" s="16">
+        <v>0</v>
+      </c>
+      <c r="H49" s="8"/>
+      <c r="I49" s="8"/>
+      <c r="J49" s="16"/>
+      <c r="K49" s="16"/>
+      <c r="R49" s="20"/>
+      <c r="S49" s="20"/>
+      <c r="T49" s="20"/>
+    </row>
+    <row r="50" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A50" s="8">
+        <v>48</v>
+      </c>
+      <c r="B50" s="39" t="s">
+        <v>87</v>
+      </c>
+      <c r="C50" s="38">
+        <v>230041724004</v>
+      </c>
+      <c r="D50" s="16"/>
+      <c r="E50" s="16"/>
+      <c r="F50" s="16"/>
+      <c r="G50" s="16">
+        <v>0</v>
+      </c>
+      <c r="H50" s="8"/>
+      <c r="I50" s="8"/>
+      <c r="J50" s="16"/>
+      <c r="K50" s="16"/>
+      <c r="R50" s="20"/>
+      <c r="S50" s="20"/>
+      <c r="T50" s="20"/>
+    </row>
+    <row r="51" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A51" s="8">
+        <v>49</v>
+      </c>
+      <c r="B51" s="39" t="s">
+        <v>12</v>
+      </c>
+      <c r="C51" s="38">
+        <v>230041724005</v>
+      </c>
+      <c r="D51" s="16"/>
+      <c r="E51" s="16"/>
+      <c r="F51" s="16"/>
+      <c r="G51" s="16">
+        <v>0</v>
+      </c>
+      <c r="H51" s="8"/>
+      <c r="I51" s="8"/>
+      <c r="J51" s="16"/>
+      <c r="K51" s="16"/>
+      <c r="R51" s="20"/>
+      <c r="S51" s="20"/>
+      <c r="T51" s="20"/>
+    </row>
+    <row r="52" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A52" s="8">
+        <v>50</v>
+      </c>
+      <c r="B52" s="39" t="s">
+        <v>299</v>
+      </c>
+      <c r="C52" s="38">
+        <v>230041724006</v>
+      </c>
+      <c r="D52" s="16"/>
+      <c r="E52" s="16"/>
+      <c r="F52" s="16"/>
+      <c r="G52" s="16">
+        <v>0</v>
+      </c>
+      <c r="H52" s="8"/>
+      <c r="I52" s="8"/>
+      <c r="J52" s="16"/>
+      <c r="K52" s="16"/>
+      <c r="L52" s="22"/>
+      <c r="R52" s="20"/>
+      <c r="S52" s="20"/>
+      <c r="T52" s="20"/>
+    </row>
+    <row r="53" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A53" s="8">
+        <v>51</v>
+      </c>
+      <c r="B53" s="39" t="s">
+        <v>300</v>
+      </c>
+      <c r="C53" s="38">
+        <v>230041724007</v>
+      </c>
+      <c r="D53" s="16"/>
+      <c r="E53" s="16"/>
+      <c r="F53" s="16"/>
+      <c r="G53" s="16">
+        <v>5</v>
+      </c>
+      <c r="H53" s="8"/>
+      <c r="I53" s="8"/>
+      <c r="J53" s="16"/>
+      <c r="K53" s="16"/>
+      <c r="R53" s="20"/>
+      <c r="S53" s="20"/>
+      <c r="T53" s="20"/>
+    </row>
+    <row r="54" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A54" s="8">
+        <v>52</v>
+      </c>
+      <c r="B54" s="39" t="s">
+        <v>301</v>
+      </c>
+      <c r="C54" s="38">
+        <v>230041724008</v>
+      </c>
+      <c r="D54" s="16"/>
+      <c r="E54" s="16"/>
+      <c r="F54" s="16"/>
+      <c r="G54" s="16">
+        <v>5</v>
+      </c>
+      <c r="H54" s="8"/>
+      <c r="I54" s="8"/>
+      <c r="J54" s="16"/>
+      <c r="K54" s="16"/>
+      <c r="L54" s="22"/>
+      <c r="R54" s="20"/>
+      <c r="S54" s="20"/>
+      <c r="T54" s="20"/>
+    </row>
+    <row r="55" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A55" s="8">
+        <v>53</v>
+      </c>
+      <c r="B55" s="39" t="s">
+        <v>149</v>
+      </c>
+      <c r="C55" s="38">
+        <v>230041724009</v>
+      </c>
+      <c r="D55" s="16"/>
+      <c r="E55" s="16"/>
+      <c r="F55" s="16"/>
+      <c r="G55" s="16">
+        <v>5</v>
+      </c>
+      <c r="H55" s="8"/>
+      <c r="I55" s="8"/>
+      <c r="J55" s="16"/>
+      <c r="K55" s="16"/>
+      <c r="R55" s="20"/>
+      <c r="S55" s="20"/>
+      <c r="T55" s="20"/>
+    </row>
+    <row r="56" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A56" s="8">
+        <v>54</v>
+      </c>
+      <c r="B56" s="39" t="s">
+        <v>23</v>
+      </c>
+      <c r="C56" s="38">
+        <v>230041724010</v>
+      </c>
+      <c r="D56" s="16"/>
+      <c r="E56" s="16"/>
+      <c r="F56" s="16"/>
+      <c r="G56" s="16">
+        <v>5</v>
+      </c>
+      <c r="H56" s="8"/>
+      <c r="I56" s="8"/>
+      <c r="J56" s="16"/>
+      <c r="K56" s="16"/>
+      <c r="R56" s="20"/>
+      <c r="S56" s="20"/>
+      <c r="T56" s="20"/>
+    </row>
+    <row r="57" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A57" s="8">
+        <v>55</v>
+      </c>
+      <c r="B57" s="40" t="s">
+        <v>298</v>
+      </c>
+      <c r="C57" s="38">
+        <v>230041724013</v>
+      </c>
+      <c r="D57" s="16"/>
+      <c r="E57" s="16"/>
+      <c r="F57" s="16"/>
+      <c r="G57" s="16">
+        <v>5</v>
+      </c>
+      <c r="H57" s="8"/>
+      <c r="I57" s="8"/>
+      <c r="J57" s="16"/>
+      <c r="K57" s="16"/>
+      <c r="R57" s="20"/>
+      <c r="S57" s="20"/>
+      <c r="T57" s="20"/>
+    </row>
+    <row r="58" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A58" s="8">
+        <v>56</v>
+      </c>
+      <c r="B58" s="40" t="s">
+        <v>168</v>
+      </c>
+      <c r="C58" s="38">
+        <v>230041724014</v>
+      </c>
+      <c r="D58" s="16"/>
+      <c r="E58" s="16"/>
+      <c r="F58" s="16"/>
+      <c r="G58" s="16">
+        <v>5</v>
+      </c>
+      <c r="H58" s="8"/>
+      <c r="I58" s="8"/>
+      <c r="J58" s="16"/>
+      <c r="K58" s="16"/>
+      <c r="R58" s="20"/>
+      <c r="S58" s="20"/>
+      <c r="T58" s="20"/>
+    </row>
+    <row r="59" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A59" s="8">
+        <v>57</v>
+      </c>
+      <c r="B59" s="27" t="s">
+        <v>240</v>
+      </c>
+      <c r="C59" s="26" t="s">
+        <v>239</v>
+      </c>
+      <c r="D59" s="27"/>
+      <c r="E59" s="16"/>
+      <c r="F59" s="16"/>
+      <c r="G59" s="16">
+        <v>0</v>
+      </c>
+      <c r="H59" s="8"/>
+      <c r="I59" s="8"/>
+      <c r="J59" s="16"/>
+      <c r="K59" s="16"/>
+      <c r="R59" s="20"/>
+      <c r="S59" s="20"/>
+      <c r="T59" s="20"/>
+    </row>
+    <row r="60" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A60" s="8">
+        <v>58</v>
+      </c>
+      <c r="B60" s="27" t="s">
+        <v>187</v>
+      </c>
+      <c r="C60" s="26" t="s">
+        <v>241</v>
+      </c>
+      <c r="D60" s="27"/>
+      <c r="E60" s="16"/>
+      <c r="F60" s="16"/>
+      <c r="G60" s="16">
+        <v>0</v>
+      </c>
+      <c r="H60" s="8"/>
+      <c r="I60" s="8"/>
+      <c r="J60" s="16"/>
+      <c r="K60" s="16"/>
+      <c r="R60" s="20"/>
+      <c r="S60" s="20"/>
+      <c r="T60" s="20"/>
+    </row>
+    <row r="61" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A61" s="8">
+        <v>59</v>
+      </c>
+      <c r="B61" s="27" t="s">
+        <v>243</v>
+      </c>
+      <c r="C61" s="26" t="s">
+        <v>242</v>
+      </c>
+      <c r="D61" s="27"/>
+      <c r="E61" s="16"/>
+      <c r="F61" s="16"/>
+      <c r="G61" s="16">
+        <v>5</v>
+      </c>
+      <c r="H61" s="8"/>
+      <c r="I61" s="8"/>
+      <c r="J61" s="16"/>
+      <c r="K61" s="16"/>
+      <c r="L61" s="16"/>
+      <c r="R61" s="20"/>
+      <c r="S61" s="20"/>
+      <c r="T61" s="20"/>
+    </row>
+    <row r="62" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A62" s="8">
+        <v>60</v>
+      </c>
+      <c r="B62" s="27" t="s">
+        <v>245</v>
+      </c>
+      <c r="C62" s="26" t="s">
+        <v>244</v>
+      </c>
+      <c r="D62" s="27"/>
+      <c r="E62" s="16"/>
+      <c r="F62" s="16"/>
+      <c r="G62" s="16">
+        <v>0</v>
+      </c>
+      <c r="H62" s="8"/>
+      <c r="I62" s="8"/>
+      <c r="J62" s="16"/>
+      <c r="K62" s="16"/>
+      <c r="L62" s="16"/>
+      <c r="R62" s="20"/>
+      <c r="S62" s="20"/>
+      <c r="T62" s="20"/>
+    </row>
+    <row r="63" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A63" s="8">
+        <v>61</v>
+      </c>
+      <c r="B63" s="27" t="s">
+        <v>247</v>
+      </c>
+      <c r="C63" s="26" t="s">
+        <v>246</v>
+      </c>
+      <c r="D63" s="27"/>
+      <c r="E63" s="16"/>
+      <c r="F63" s="16"/>
+      <c r="G63" s="16">
+        <v>5</v>
+      </c>
+      <c r="H63" s="8"/>
+      <c r="I63" s="8"/>
+      <c r="J63" s="16"/>
+      <c r="K63" s="16"/>
+      <c r="L63" s="16"/>
+      <c r="R63" s="20"/>
+      <c r="S63" s="20"/>
+      <c r="T63" s="20"/>
+    </row>
+    <row r="64" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A64" s="8">
+        <v>62</v>
+      </c>
+      <c r="B64" s="29" t="s">
+        <v>248</v>
+      </c>
+      <c r="C64" s="28">
+        <v>230041700071</v>
+      </c>
+      <c r="D64" s="29"/>
+      <c r="E64" s="16"/>
+      <c r="F64" s="16"/>
+      <c r="G64" s="16">
+        <v>5</v>
+      </c>
+      <c r="H64" s="8"/>
+      <c r="I64" s="8"/>
+      <c r="J64" s="16"/>
+      <c r="K64" s="16"/>
+      <c r="L64" s="16"/>
+      <c r="R64" s="20"/>
+      <c r="S64" s="20"/>
+      <c r="T64" s="20"/>
+    </row>
+    <row r="65" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A65" s="8">
+        <v>63</v>
+      </c>
+      <c r="B65" s="31" t="s">
+        <v>52</v>
+      </c>
+      <c r="C65" s="30">
+        <v>230041700072</v>
+      </c>
+      <c r="D65" s="31"/>
+      <c r="E65" s="16"/>
+      <c r="F65" s="16"/>
+      <c r="G65" s="16">
+        <v>5</v>
+      </c>
+      <c r="H65" s="8"/>
+      <c r="I65" s="8"/>
+      <c r="J65" s="16"/>
+      <c r="K65" s="16"/>
+      <c r="L65" s="16"/>
+      <c r="R65" s="20"/>
+      <c r="S65" s="20"/>
+      <c r="T65" s="20"/>
+    </row>
+    <row r="66" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A66" s="8">
+        <v>64</v>
+      </c>
+      <c r="B66" s="31" t="s">
+        <v>170</v>
+      </c>
+      <c r="C66" s="30">
+        <v>230041700074</v>
+      </c>
+      <c r="D66" s="31"/>
+      <c r="E66" s="16"/>
+      <c r="F66" s="16"/>
+      <c r="G66" s="16">
+        <v>5</v>
+      </c>
+      <c r="H66" s="8"/>
+      <c r="I66" s="8"/>
+      <c r="J66" s="16"/>
+      <c r="K66" s="16"/>
+      <c r="L66" s="16"/>
+      <c r="R66" s="20"/>
+      <c r="S66" s="20"/>
+      <c r="T66" s="20"/>
+    </row>
+    <row r="67" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A67" s="8">
+        <v>65</v>
+      </c>
+      <c r="B67" s="31" t="s">
+        <v>249</v>
+      </c>
+      <c r="C67" s="30">
+        <v>230041700076</v>
+      </c>
+      <c r="D67" s="31"/>
+      <c r="E67" s="16"/>
+      <c r="F67" s="16"/>
+      <c r="G67" s="16">
+        <v>5</v>
+      </c>
+      <c r="H67" s="8"/>
+      <c r="I67" s="8"/>
+      <c r="J67" s="16"/>
+      <c r="K67" s="16"/>
+      <c r="L67" s="16"/>
+      <c r="R67" s="20"/>
+      <c r="S67" s="20"/>
+      <c r="T67" s="20"/>
+    </row>
+    <row r="68" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A68" s="8">
+        <v>66</v>
+      </c>
+      <c r="B68" s="31" t="s">
+        <v>250</v>
+      </c>
+      <c r="C68" s="30">
+        <v>230041700078</v>
+      </c>
+      <c r="D68" s="31"/>
+      <c r="E68" s="16"/>
+      <c r="F68" s="16"/>
+      <c r="G68" s="16">
+        <v>5</v>
+      </c>
+      <c r="H68" s="8"/>
+      <c r="I68" s="8"/>
+      <c r="J68" s="16"/>
+      <c r="K68" s="16"/>
+      <c r="L68" s="16"/>
+      <c r="R68" s="20"/>
+      <c r="S68" s="20"/>
+      <c r="T68" s="20"/>
+    </row>
+    <row r="69" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A69" s="8">
+        <v>67</v>
+      </c>
+      <c r="B69" s="29" t="s">
+        <v>251</v>
+      </c>
+      <c r="C69" s="28">
+        <v>230041700079</v>
+      </c>
+      <c r="D69" s="29"/>
+      <c r="E69" s="16"/>
+      <c r="F69" s="16"/>
+      <c r="G69" s="16">
+        <v>5</v>
+      </c>
+      <c r="H69" s="8"/>
+      <c r="I69" s="8"/>
+      <c r="J69" s="16"/>
+      <c r="K69" s="16"/>
+      <c r="L69" s="16"/>
+      <c r="R69" s="20"/>
+      <c r="S69" s="20"/>
+      <c r="T69" s="20"/>
+    </row>
+    <row r="70" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A70" s="8">
+        <v>68</v>
+      </c>
+      <c r="B70" s="31" t="s">
+        <v>252</v>
+      </c>
+      <c r="C70" s="30">
+        <v>230041700080</v>
+      </c>
+      <c r="D70" s="31"/>
+      <c r="E70" s="16"/>
+      <c r="F70" s="16"/>
+      <c r="G70" s="16">
+        <v>5</v>
+      </c>
+      <c r="H70" s="8"/>
+      <c r="I70" s="8"/>
+      <c r="J70" s="16"/>
+      <c r="K70" s="16"/>
+      <c r="L70" s="16"/>
+      <c r="R70" s="20"/>
+      <c r="S70" s="20"/>
+      <c r="T70" s="20"/>
+    </row>
+    <row r="71" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A71" s="8">
+        <v>69</v>
+      </c>
+      <c r="B71" s="31" t="s">
+        <v>54</v>
+      </c>
+      <c r="C71" s="30">
+        <v>230041700082</v>
+      </c>
+      <c r="D71" s="31"/>
+      <c r="E71" s="16"/>
+      <c r="F71" s="16"/>
+      <c r="G71" s="16">
+        <v>0</v>
+      </c>
+      <c r="H71" s="8"/>
+      <c r="I71" s="8"/>
+      <c r="J71" s="16"/>
+      <c r="K71" s="16"/>
+      <c r="L71" s="16"/>
+      <c r="R71" s="20"/>
+      <c r="S71" s="20"/>
+      <c r="T71" s="20"/>
+    </row>
+    <row r="72" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A72" s="8">
+        <v>70</v>
+      </c>
+      <c r="B72" s="31" t="s">
+        <v>253</v>
+      </c>
+      <c r="C72" s="30">
+        <v>230041700084</v>
+      </c>
+      <c r="D72" s="31"/>
+      <c r="E72" s="16"/>
+      <c r="F72" s="16"/>
+      <c r="G72" s="16">
+        <v>5</v>
+      </c>
+      <c r="H72" s="8"/>
+      <c r="I72" s="8"/>
+      <c r="J72" s="16"/>
+      <c r="K72" s="16"/>
+      <c r="L72" s="16"/>
+      <c r="R72" s="20"/>
+      <c r="S72" s="20"/>
+      <c r="T72" s="20"/>
+    </row>
+    <row r="73" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A73" s="8">
+        <v>71</v>
+      </c>
+      <c r="B73" s="29" t="s">
+        <v>254</v>
+      </c>
+      <c r="C73" s="28">
+        <v>230041700087</v>
+      </c>
+      <c r="D73" s="29"/>
+      <c r="E73" s="16"/>
+      <c r="F73" s="16"/>
+      <c r="G73" s="16">
+        <v>5</v>
+      </c>
+      <c r="H73" s="8"/>
+      <c r="I73" s="8"/>
+      <c r="J73" s="16"/>
+      <c r="K73" s="16"/>
+      <c r="L73" s="16"/>
+      <c r="R73" s="20"/>
+      <c r="S73" s="20"/>
+      <c r="T73" s="20"/>
+    </row>
+    <row r="74" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A74" s="8">
+        <v>72</v>
+      </c>
+      <c r="B74" s="31" t="s">
+        <v>255</v>
+      </c>
+      <c r="C74" s="30">
+        <v>230041700088</v>
+      </c>
+      <c r="D74" s="31"/>
+      <c r="E74" s="16"/>
+      <c r="F74" s="16"/>
+      <c r="G74" s="16">
+        <v>5</v>
+      </c>
+      <c r="H74" s="8"/>
+      <c r="I74" s="8"/>
+      <c r="J74" s="16"/>
+      <c r="K74" s="16"/>
+      <c r="L74" s="16"/>
+      <c r="R74" s="20"/>
+      <c r="S74" s="20"/>
+      <c r="T74" s="20"/>
+    </row>
+    <row r="75" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A75" s="8">
+        <v>73</v>
+      </c>
+      <c r="B75" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="C75" s="28">
+        <v>230041700091</v>
+      </c>
+      <c r="D75" s="29"/>
+      <c r="E75" s="16"/>
+      <c r="F75" s="16"/>
+      <c r="G75" s="16">
+        <v>5</v>
+      </c>
+      <c r="H75" s="8"/>
+      <c r="I75" s="8"/>
+      <c r="J75" s="16"/>
+      <c r="K75" s="16"/>
+      <c r="L75" s="16"/>
+      <c r="R75" s="20"/>
+      <c r="S75" s="20"/>
+      <c r="T75" s="20"/>
+    </row>
+    <row r="76" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A76" s="8">
+        <v>74</v>
+      </c>
+      <c r="B76" s="31" t="s">
+        <v>256</v>
+      </c>
+      <c r="C76" s="30">
+        <v>230041700094</v>
+      </c>
+      <c r="D76" s="31"/>
+      <c r="E76" s="16"/>
+      <c r="F76" s="16"/>
+      <c r="G76" s="16">
+        <v>5</v>
+      </c>
+      <c r="H76" s="8"/>
+      <c r="I76" s="8"/>
+      <c r="J76" s="16"/>
+      <c r="K76" s="16"/>
+      <c r="L76" s="16"/>
+      <c r="R76" s="20"/>
+      <c r="S76" s="20"/>
+      <c r="T76" s="20"/>
+    </row>
+    <row r="77" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A77" s="8">
+        <v>75</v>
+      </c>
+      <c r="B77" s="29" t="s">
+        <v>257</v>
+      </c>
+      <c r="C77" s="28">
+        <v>230041700097</v>
+      </c>
+      <c r="D77" s="29"/>
+      <c r="E77" s="16"/>
+      <c r="F77" s="16"/>
+      <c r="G77" s="16">
+        <v>5</v>
+      </c>
+      <c r="H77" s="8"/>
+      <c r="I77" s="8"/>
+      <c r="J77" s="16"/>
+      <c r="K77" s="16"/>
+      <c r="L77" s="16"/>
+      <c r="R77" s="20"/>
+      <c r="S77" s="20"/>
+      <c r="T77" s="20"/>
+    </row>
+    <row r="78" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A78" s="8">
+        <v>76</v>
+      </c>
+      <c r="B78" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="C78" s="30">
+        <v>230041700098</v>
+      </c>
+      <c r="D78" s="31"/>
+      <c r="E78" s="16"/>
+      <c r="F78" s="16"/>
+      <c r="G78" s="16">
+        <v>5</v>
+      </c>
+      <c r="H78" s="8"/>
+      <c r="I78" s="8"/>
+      <c r="J78" s="16"/>
+      <c r="K78" s="16"/>
+      <c r="L78" s="16"/>
+      <c r="R78" s="20"/>
+      <c r="S78" s="20"/>
+      <c r="T78" s="20"/>
+    </row>
+    <row r="79" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A79" s="8">
+        <v>77</v>
+      </c>
+      <c r="B79" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="C79" s="30">
+        <v>230041700102</v>
+      </c>
+      <c r="D79" s="31"/>
+      <c r="E79" s="16"/>
+      <c r="F79" s="16"/>
+      <c r="G79" s="16">
+        <v>5</v>
+      </c>
+      <c r="H79" s="8"/>
+      <c r="I79" s="8"/>
+      <c r="J79" s="16"/>
+      <c r="K79" s="16"/>
+      <c r="L79" s="16"/>
+      <c r="R79" s="20"/>
+      <c r="S79" s="20"/>
+      <c r="T79" s="20"/>
+    </row>
+    <row r="80" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A80" s="8">
+        <v>78</v>
+      </c>
+      <c r="B80" s="31" t="s">
+        <v>258</v>
+      </c>
+      <c r="C80" s="30">
+        <v>230041700104</v>
+      </c>
+      <c r="D80" s="31"/>
+      <c r="E80" s="16"/>
+      <c r="F80" s="16"/>
+      <c r="G80" s="16">
+        <v>5</v>
+      </c>
+      <c r="H80" s="8"/>
+      <c r="I80" s="8"/>
+      <c r="J80" s="16"/>
+      <c r="K80" s="16"/>
+      <c r="L80" s="16"/>
+      <c r="R80" s="20"/>
+      <c r="S80" s="20"/>
+      <c r="T80" s="20"/>
+    </row>
+    <row r="81" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A81" s="8">
+        <v>79</v>
+      </c>
+      <c r="B81" s="29" t="s">
+        <v>259</v>
+      </c>
+      <c r="C81" s="28">
+        <v>230041700105</v>
+      </c>
+      <c r="D81" s="29"/>
+      <c r="E81" s="16"/>
+      <c r="F81" s="16"/>
+      <c r="G81" s="16">
+        <v>5</v>
+      </c>
+      <c r="H81" s="8"/>
+      <c r="I81" s="8"/>
+      <c r="J81" s="16"/>
+      <c r="K81" s="16"/>
+      <c r="L81" s="16"/>
+      <c r="R81" s="20"/>
+      <c r="S81" s="20"/>
+      <c r="T81" s="20"/>
+    </row>
+    <row r="82" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A82" s="8">
+        <v>80</v>
+      </c>
+      <c r="B82" s="31" t="s">
+        <v>260</v>
+      </c>
+      <c r="C82" s="30">
+        <v>230041700108</v>
+      </c>
+      <c r="D82" s="31"/>
+      <c r="E82" s="16"/>
+      <c r="F82" s="16"/>
+      <c r="G82" s="16">
+        <v>5</v>
+      </c>
+      <c r="H82" s="8"/>
+      <c r="I82" s="8"/>
+      <c r="J82" s="16"/>
+      <c r="K82" s="16"/>
+      <c r="L82" s="16"/>
+      <c r="R82" s="20"/>
+      <c r="S82" s="20"/>
+      <c r="T82" s="20"/>
+    </row>
+    <row r="83" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A83" s="8">
+        <v>81</v>
+      </c>
+      <c r="B83" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="C83" s="30">
+        <v>230041700110</v>
+      </c>
+      <c r="D83" s="31"/>
+      <c r="E83" s="16"/>
+      <c r="F83" s="16"/>
+      <c r="G83" s="16">
+        <v>5</v>
+      </c>
+      <c r="H83" s="8"/>
+      <c r="I83" s="8"/>
+      <c r="J83" s="16"/>
+      <c r="K83" s="16"/>
+      <c r="L83" s="16"/>
+      <c r="R83" s="20"/>
+      <c r="S83" s="20"/>
+      <c r="T83" s="20"/>
+    </row>
+    <row r="84" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A84" s="8">
+        <v>82</v>
+      </c>
+      <c r="B84" s="29" t="s">
+        <v>261</v>
+      </c>
+      <c r="C84" s="28">
+        <v>230041700111</v>
+      </c>
+      <c r="D84" s="29"/>
+      <c r="E84" s="16"/>
+      <c r="F84" s="16"/>
+      <c r="G84" s="16">
+        <v>5</v>
+      </c>
+      <c r="H84" s="8"/>
+      <c r="I84" s="8"/>
+      <c r="J84" s="16"/>
+      <c r="K84" s="16"/>
+      <c r="L84" s="16"/>
+      <c r="R84" s="20"/>
+      <c r="S84" s="20"/>
+      <c r="T84" s="20"/>
+    </row>
+    <row r="85" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A85" s="8">
+        <v>83</v>
+      </c>
+      <c r="B85" s="31" t="s">
+        <v>262</v>
+      </c>
+      <c r="C85" s="30">
+        <v>230041700112</v>
+      </c>
+      <c r="D85" s="31"/>
+      <c r="E85" s="16"/>
+      <c r="F85" s="16"/>
+      <c r="G85" s="16">
+        <v>0</v>
+      </c>
+      <c r="H85" s="8"/>
+      <c r="I85" s="8"/>
+      <c r="J85" s="16"/>
+      <c r="K85" s="16"/>
+      <c r="L85" s="16"/>
+      <c r="R85" s="20"/>
+      <c r="S85" s="20"/>
+      <c r="T85" s="20"/>
+    </row>
+    <row r="86" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A86" s="8">
+        <v>84</v>
+      </c>
+      <c r="B86" s="31" t="s">
+        <v>71</v>
+      </c>
+      <c r="C86" s="30">
+        <v>230041700116</v>
+      </c>
+      <c r="D86" s="31"/>
+      <c r="E86" s="16"/>
+      <c r="F86" s="16"/>
+      <c r="G86" s="16">
+        <v>5</v>
+      </c>
+      <c r="H86" s="8"/>
+      <c r="I86" s="8"/>
+      <c r="J86" s="16"/>
+      <c r="K86" s="16"/>
+      <c r="L86" s="16"/>
+      <c r="R86" s="20"/>
+      <c r="S86" s="20"/>
+      <c r="T86" s="20"/>
+    </row>
+    <row r="87" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A87" s="8">
+        <v>85</v>
+      </c>
+      <c r="B87" s="29" t="s">
+        <v>263</v>
+      </c>
+      <c r="C87" s="28">
+        <v>230041700117</v>
+      </c>
+      <c r="D87" s="29"/>
+      <c r="E87" s="16"/>
+      <c r="F87" s="16"/>
+      <c r="G87" s="16">
+        <v>5</v>
+      </c>
+      <c r="H87" s="8"/>
+      <c r="I87" s="8"/>
+      <c r="J87" s="16"/>
+      <c r="K87" s="16"/>
+      <c r="L87" s="16"/>
+      <c r="R87" s="20"/>
+      <c r="S87" s="20"/>
+      <c r="T87" s="20"/>
+    </row>
+    <row r="88" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A88" s="8">
+        <v>86</v>
+      </c>
+      <c r="B88" s="31" t="s">
+        <v>264</v>
+      </c>
+      <c r="C88" s="30">
+        <v>230041700118</v>
+      </c>
+      <c r="D88" s="31"/>
+      <c r="E88" s="16"/>
+      <c r="F88" s="16"/>
+      <c r="G88" s="16">
+        <v>5</v>
+      </c>
+      <c r="H88" s="8"/>
+      <c r="I88" s="8"/>
+      <c r="J88" s="16"/>
+      <c r="K88" s="16"/>
+      <c r="L88" s="16"/>
+      <c r="R88" s="20"/>
+      <c r="S88" s="20"/>
+      <c r="T88" s="20"/>
+    </row>
+    <row r="89" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A89" s="8">
+        <v>87</v>
+      </c>
+      <c r="B89" s="29" t="s">
+        <v>265</v>
+      </c>
+      <c r="C89" s="28">
+        <v>230041700123</v>
+      </c>
+      <c r="D89" s="29"/>
+      <c r="E89" s="16"/>
+      <c r="F89" s="16"/>
+      <c r="G89" s="16">
+        <v>0</v>
+      </c>
+      <c r="H89" s="8"/>
+      <c r="I89" s="8"/>
+      <c r="J89" s="16"/>
+      <c r="K89" s="16"/>
+      <c r="L89" s="16"/>
+      <c r="R89" s="20"/>
+      <c r="S89" s="20"/>
+      <c r="T89" s="20"/>
+    </row>
+    <row r="90" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A90" s="8">
+        <v>88</v>
+      </c>
+      <c r="B90" s="31" t="s">
+        <v>266</v>
+      </c>
+      <c r="C90" s="30">
+        <v>230041700126</v>
+      </c>
+      <c r="D90" s="31"/>
+      <c r="E90" s="16"/>
+      <c r="F90" s="16"/>
+      <c r="G90" s="16">
+        <v>0</v>
+      </c>
+      <c r="H90" s="8"/>
+      <c r="I90" s="8"/>
+      <c r="J90" s="16"/>
+      <c r="K90" s="16"/>
+      <c r="L90" s="16"/>
+      <c r="R90" s="20"/>
+      <c r="S90" s="20"/>
+      <c r="T90" s="20"/>
+    </row>
+    <row r="91" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A91" s="8">
+        <v>89</v>
+      </c>
+      <c r="B91" s="29" t="s">
+        <v>266</v>
+      </c>
+      <c r="C91" s="28">
+        <v>230041700127</v>
+      </c>
+      <c r="D91" s="29"/>
+      <c r="E91" s="16"/>
+      <c r="F91" s="16"/>
+      <c r="G91" s="16">
+        <v>5</v>
+      </c>
+      <c r="H91" s="8"/>
+      <c r="I91" s="8"/>
+      <c r="J91" s="16"/>
+      <c r="K91" s="16"/>
+      <c r="L91" s="16"/>
+      <c r="R91" s="20"/>
+      <c r="S91" s="20"/>
+      <c r="T91" s="20"/>
+    </row>
+    <row r="92" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A92" s="8">
+        <v>90</v>
+      </c>
+      <c r="B92" s="29" t="s">
+        <v>267</v>
+      </c>
+      <c r="C92" s="28">
+        <v>230041700131</v>
+      </c>
+      <c r="D92" s="29"/>
+      <c r="E92" s="16"/>
+      <c r="F92" s="16"/>
+      <c r="G92" s="16">
+        <v>0</v>
+      </c>
+      <c r="H92" s="8"/>
+      <c r="I92" s="8"/>
+      <c r="J92" s="16"/>
+      <c r="K92" s="16"/>
+      <c r="L92" s="16"/>
+      <c r="R92" s="20"/>
+      <c r="S92" s="20"/>
+      <c r="T92" s="20"/>
+    </row>
+    <row r="93" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A93" s="8">
+        <v>91</v>
+      </c>
+      <c r="B93" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="C93" s="30">
+        <v>230041700136</v>
+      </c>
+      <c r="D93" s="31"/>
+      <c r="E93" s="16"/>
+      <c r="F93" s="16"/>
+      <c r="G93" s="16">
+        <v>5</v>
+      </c>
+      <c r="H93" s="8"/>
+      <c r="I93" s="8"/>
+      <c r="J93" s="16"/>
+      <c r="K93" s="16"/>
+      <c r="L93" s="16"/>
+      <c r="R93" s="20"/>
+      <c r="S93" s="20"/>
+      <c r="T93" s="20"/>
+    </row>
+    <row r="94" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A94" s="8">
+        <v>92</v>
+      </c>
+      <c r="B94" s="33" t="s">
+        <v>252</v>
+      </c>
+      <c r="C94" s="32">
+        <v>230041724015</v>
+      </c>
+      <c r="D94" s="33"/>
+      <c r="E94" s="16"/>
+      <c r="F94" s="16"/>
+      <c r="G94" s="16">
+        <v>5</v>
+      </c>
+      <c r="H94" s="8"/>
+      <c r="I94" s="8"/>
+      <c r="J94" s="16"/>
+      <c r="K94" s="16"/>
+      <c r="L94" s="16"/>
+      <c r="R94" s="20"/>
+      <c r="S94" s="20"/>
+      <c r="T94" s="20"/>
+    </row>
+    <row r="95" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A95" s="8">
+        <v>93</v>
+      </c>
+      <c r="B95" s="33" t="s">
+        <v>268</v>
+      </c>
+      <c r="C95" s="32">
+        <v>230041724016</v>
+      </c>
+      <c r="D95" s="33"/>
+      <c r="E95" s="16"/>
+      <c r="F95" s="16"/>
+      <c r="G95" s="16">
+        <v>5</v>
+      </c>
+      <c r="H95" s="8"/>
+      <c r="I95" s="8"/>
+      <c r="J95" s="16"/>
+      <c r="K95" s="16"/>
+      <c r="L95" s="16"/>
+      <c r="R95" s="20"/>
+      <c r="S95" s="20"/>
+      <c r="T95" s="20"/>
+    </row>
+    <row r="96" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A96" s="8">
+        <v>94</v>
+      </c>
+      <c r="B96" s="33" t="s">
+        <v>54</v>
+      </c>
+      <c r="C96" s="32">
+        <v>230041724017</v>
+      </c>
+      <c r="D96" s="33"/>
+      <c r="E96" s="16"/>
+      <c r="F96" s="16"/>
+      <c r="G96" s="16">
+        <v>5</v>
+      </c>
+      <c r="H96" s="8"/>
+      <c r="I96" s="8"/>
+      <c r="J96" s="16"/>
+      <c r="K96" s="16"/>
+      <c r="L96" s="16"/>
+      <c r="R96" s="20"/>
+      <c r="S96" s="20"/>
+      <c r="T96" s="20"/>
+    </row>
+    <row r="97" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A97" s="8">
+        <v>95</v>
+      </c>
+      <c r="B97" s="33" t="s">
+        <v>269</v>
+      </c>
+      <c r="C97" s="32">
+        <v>230041724025</v>
+      </c>
+      <c r="D97" s="33"/>
+      <c r="E97" s="16"/>
+      <c r="F97" s="16"/>
+      <c r="G97" s="16">
+        <v>5</v>
+      </c>
+      <c r="H97" s="8"/>
+      <c r="I97" s="8"/>
+      <c r="J97" s="16"/>
+      <c r="K97" s="16"/>
+      <c r="L97" s="16"/>
+      <c r="R97" s="20"/>
+      <c r="S97" s="20"/>
+      <c r="T97" s="20"/>
+    </row>
+    <row r="98" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A98" s="8">
+        <v>96</v>
+      </c>
+      <c r="B98" s="33" t="s">
+        <v>270</v>
+      </c>
+      <c r="C98" s="32">
+        <v>230041724026</v>
+      </c>
+      <c r="D98" s="33"/>
+      <c r="E98" s="16"/>
+      <c r="F98" s="16"/>
+      <c r="G98" s="16">
+        <v>5</v>
+      </c>
+      <c r="H98" s="8"/>
+      <c r="I98" s="8"/>
+      <c r="J98" s="16"/>
+      <c r="K98" s="16"/>
+      <c r="L98" s="16"/>
+      <c r="R98" s="20"/>
+      <c r="S98" s="20"/>
+      <c r="T98" s="20"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="A2:T98"/>
+  <mergeCells count="1">
+    <mergeCell ref="A1:L1"/>
+  </mergeCells>
+  <conditionalFormatting sqref="K18:K98">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
+      <formula>16</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C56"/>
+  <sheetViews>
+    <sheetView topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B56"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="13.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="35">
+        <v>220041700003</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>302</v>
+      </c>
+      <c r="C2" s="35">
+        <v>220041700010</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" s="35">
+        <v>220041700037</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>303</v>
+      </c>
+      <c r="C4" s="35">
+        <v>220041700038</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>286</v>
+      </c>
+      <c r="C5" s="35">
+        <v>220041700048</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6" s="35">
+        <v>220041700059</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
+        <v>157</v>
+      </c>
+      <c r="C7" s="35">
+        <v>220041723011</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>8</v>
+      </c>
+      <c r="B8" s="34" t="s">
+        <v>271</v>
+      </c>
+      <c r="C8" s="35">
+        <v>230041700001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>9</v>
+      </c>
+      <c r="B9" s="34" t="s">
+        <v>272</v>
+      </c>
+      <c r="C9" s="35">
+        <v>230041700003</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>10</v>
+      </c>
+      <c r="B10" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="37">
+        <v>230041700004</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>11</v>
+      </c>
+      <c r="B11" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="35">
+        <v>230041700005</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>12</v>
+      </c>
+      <c r="B12" s="36" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="37">
+        <v>230041700010</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>13</v>
+      </c>
+      <c r="B13" s="36" t="s">
+        <v>273</v>
+      </c>
+      <c r="C13" s="37">
+        <v>230041700012</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>14</v>
+      </c>
+      <c r="B14" s="34" t="s">
+        <v>274</v>
+      </c>
+      <c r="C14" s="35">
+        <v>230041700015</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>15</v>
+      </c>
+      <c r="B15" s="36" t="s">
+        <v>275</v>
+      </c>
+      <c r="C15" s="37">
+        <v>230041700016</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>16</v>
+      </c>
+      <c r="B16" s="34" t="s">
+        <v>144</v>
+      </c>
+      <c r="C16" s="35">
+        <v>230041700017</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>17</v>
+      </c>
+      <c r="B17" s="36" t="s">
+        <v>276</v>
+      </c>
+      <c r="C17" s="37">
+        <v>230041700018</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>18</v>
+      </c>
+      <c r="B18" s="34" t="s">
+        <v>277</v>
+      </c>
+      <c r="C18" s="35">
+        <v>230041700019</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>19</v>
+      </c>
+      <c r="B19" s="34" t="s">
+        <v>278</v>
+      </c>
+      <c r="C19" s="35">
+        <v>230041700021</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>20</v>
+      </c>
+      <c r="B20" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="C20" s="37">
+        <v>230041700024</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>21</v>
+      </c>
+      <c r="B21" s="34" t="s">
+        <v>279</v>
+      </c>
+      <c r="C21" s="35">
+        <v>230041700025</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>22</v>
+      </c>
+      <c r="B22" s="34" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" s="35">
+        <v>230041700027</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>23</v>
+      </c>
+      <c r="B23" s="34" t="s">
+        <v>280</v>
+      </c>
+      <c r="C23" s="35">
+        <v>230041700029</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>24</v>
+      </c>
+      <c r="B24" s="36" t="s">
+        <v>281</v>
+      </c>
+      <c r="C24" s="37">
+        <v>230041700030</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>25</v>
+      </c>
+      <c r="B25" s="36" t="s">
+        <v>152</v>
+      </c>
+      <c r="C25" s="37">
+        <v>230041700032</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>26</v>
+      </c>
+      <c r="B26" s="34" t="s">
+        <v>90</v>
+      </c>
+      <c r="C26" s="35">
+        <v>230041700033</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>27</v>
+      </c>
+      <c r="B27" s="36" t="s">
+        <v>153</v>
+      </c>
+      <c r="C27" s="37">
+        <v>230041700034</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>28</v>
+      </c>
+      <c r="B28" s="34" t="s">
+        <v>282</v>
+      </c>
+      <c r="C28" s="35">
+        <v>230041700037</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>29</v>
+      </c>
+      <c r="B29" s="34" t="s">
+        <v>283</v>
+      </c>
+      <c r="C29" s="35">
+        <v>230041700041</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>30</v>
+      </c>
+      <c r="B30" s="36" t="s">
+        <v>34</v>
+      </c>
+      <c r="C30" s="37">
+        <v>230041700042</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>31</v>
+      </c>
+      <c r="B31" s="36" t="s">
+        <v>284</v>
+      </c>
+      <c r="C31" s="37">
+        <v>230041700044</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>32</v>
+      </c>
+      <c r="B32" s="34" t="s">
+        <v>285</v>
+      </c>
+      <c r="C32" s="35">
+        <v>230041700045</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>33</v>
+      </c>
+      <c r="B33" s="36" t="s">
+        <v>286</v>
+      </c>
+      <c r="C33" s="37">
+        <v>230041700046</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>34</v>
+      </c>
+      <c r="B34" s="34" t="s">
+        <v>287</v>
+      </c>
+      <c r="C34" s="35">
+        <v>230041700047</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>35</v>
+      </c>
+      <c r="B35" s="36" t="s">
+        <v>288</v>
+      </c>
+      <c r="C35" s="37">
+        <v>230041700048</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>36</v>
+      </c>
+      <c r="B36" s="36" t="s">
+        <v>161</v>
+      </c>
+      <c r="C36" s="37">
+        <v>230041700050</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>37</v>
+      </c>
+      <c r="B37" s="34" t="s">
+        <v>289</v>
+      </c>
+      <c r="C37" s="35">
+        <v>230041700051</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>38</v>
+      </c>
+      <c r="B38" s="36" t="s">
+        <v>290</v>
+      </c>
+      <c r="C38" s="37">
+        <v>230041700052</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>39</v>
+      </c>
+      <c r="B39" s="36" t="s">
+        <v>165</v>
+      </c>
+      <c r="C39" s="37">
+        <v>230041700056</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>40</v>
+      </c>
+      <c r="B40" s="36" t="s">
+        <v>41</v>
+      </c>
+      <c r="C40" s="37">
+        <v>230041700058</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>41</v>
+      </c>
+      <c r="B41" s="34" t="s">
+        <v>291</v>
+      </c>
+      <c r="C41" s="35">
+        <v>230041700059</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>42</v>
+      </c>
+      <c r="B42" s="36" t="s">
+        <v>292</v>
+      </c>
+      <c r="C42" s="37">
+        <v>230041700062</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>43</v>
+      </c>
+      <c r="B43" s="34" t="s">
+        <v>293</v>
+      </c>
+      <c r="C43" s="35">
+        <v>230041700063</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>44</v>
+      </c>
+      <c r="B44" s="36" t="s">
+        <v>294</v>
+      </c>
+      <c r="C44" s="37">
+        <v>230041700066</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>45</v>
+      </c>
+      <c r="B45" s="36" t="s">
+        <v>295</v>
+      </c>
+      <c r="C45" s="37">
+        <v>230041700068</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>46</v>
+      </c>
+      <c r="B46" s="34" t="s">
+        <v>296</v>
+      </c>
+      <c r="C46" s="35">
+        <v>230041700069</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>47</v>
+      </c>
+      <c r="B47" s="39" t="s">
+        <v>297</v>
+      </c>
+      <c r="C47" s="38">
+        <v>230041724001</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>48</v>
+      </c>
+      <c r="B48" s="39" t="s">
+        <v>87</v>
+      </c>
+      <c r="C48" s="38">
+        <v>230041724004</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>49</v>
+      </c>
+      <c r="B49" s="39" t="s">
+        <v>12</v>
+      </c>
+      <c r="C49" s="38">
+        <v>230041724005</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>50</v>
+      </c>
+      <c r="B50" s="39" t="s">
+        <v>299</v>
+      </c>
+      <c r="C50" s="38">
+        <v>230041724006</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>51</v>
+      </c>
+      <c r="B51" s="39" t="s">
+        <v>300</v>
+      </c>
+      <c r="C51" s="38">
+        <v>230041724007</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>52</v>
+      </c>
+      <c r="B52" s="39" t="s">
+        <v>301</v>
+      </c>
+      <c r="C52" s="38">
+        <v>230041724008</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>53</v>
+      </c>
+      <c r="B53" s="39" t="s">
+        <v>149</v>
+      </c>
+      <c r="C53" s="38">
+        <v>230041724009</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>54</v>
+      </c>
+      <c r="B54" s="39" t="s">
+        <v>23</v>
+      </c>
+      <c r="C54" s="38">
+        <v>230041724010</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>55</v>
+      </c>
+      <c r="B55" t="s">
+        <v>298</v>
+      </c>
+      <c r="C55" s="38">
+        <v>230041724013</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>56</v>
+      </c>
+      <c r="B56" t="s">
+        <v>168</v>
+      </c>
+      <c r="C56" s="38">
+        <v>230041724014</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:T111"/>
+  <sheetViews>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="B26" sqref="B26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8.85546875" style="23" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27" style="23" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" style="23" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="12.140625" style="23" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="11.42578125" style="23" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="23" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.5703125" style="23" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.85546875" style="23" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.5703125" style="23" bestFit="1" customWidth="1"/>
+    <col min="15" max="17" width="8" style="23" bestFit="1" customWidth="1"/>
+    <col min="18" max="20" width="11" style="23" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="23"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A1" s="25" t="s">
+        <v>227</v>
+      </c>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
+      <c r="K1" s="25"/>
+      <c r="L1" s="25"/>
     </row>
     <row r="2" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
@@ -1341,7 +4763,7 @@
       <c r="K3" s="16">
         <v>25</v>
       </c>
-      <c r="L3" s="7">
+      <c r="L3" s="23">
         <v>30</v>
       </c>
       <c r="R3" s="20">
@@ -1387,7 +4809,7 @@
       <c r="K4" s="16">
         <v>30</v>
       </c>
-      <c r="L4" s="7">
+      <c r="L4" s="23">
         <v>39</v>
       </c>
       <c r="R4" s="20">
@@ -1433,7 +4855,7 @@
       <c r="K5" s="16">
         <v>20</v>
       </c>
-      <c r="L5" s="7">
+      <c r="L5" s="23">
         <v>39</v>
       </c>
       <c r="R5" s="20">
@@ -1479,7 +4901,7 @@
       <c r="K6" s="16">
         <v>21</v>
       </c>
-      <c r="L6" s="7">
+      <c r="L6" s="23">
         <v>16</v>
       </c>
       <c r="R6" s="20">
@@ -1525,7 +4947,7 @@
       <c r="K7" s="16">
         <v>20</v>
       </c>
-      <c r="L7" s="7">
+      <c r="L7" s="23">
         <v>30</v>
       </c>
       <c r="R7" s="20">
@@ -1571,7 +4993,7 @@
       <c r="K8" s="16">
         <v>27</v>
       </c>
-      <c r="L8" s="7">
+      <c r="L8" s="23">
         <v>34</v>
       </c>
       <c r="R8" s="20">
@@ -1617,7 +5039,7 @@
       <c r="K9" s="16">
         <v>23</v>
       </c>
-      <c r="L9" s="7">
+      <c r="L9" s="23">
         <v>16</v>
       </c>
       <c r="R9" s="20">
@@ -1663,7 +5085,7 @@
       <c r="K10" s="16">
         <v>22</v>
       </c>
-      <c r="L10" s="7">
+      <c r="L10" s="23">
         <v>16</v>
       </c>
       <c r="R10" s="20">
@@ -1709,7 +5131,7 @@
       <c r="K11" s="16">
         <v>24</v>
       </c>
-      <c r="L11" s="7">
+      <c r="L11" s="23">
         <v>36</v>
       </c>
       <c r="R11" s="20">
@@ -1755,7 +5177,7 @@
       <c r="K12" s="16">
         <v>20</v>
       </c>
-      <c r="L12" s="7">
+      <c r="L12" s="23">
         <v>16</v>
       </c>
       <c r="R12" s="20">
@@ -1801,7 +5223,7 @@
       <c r="K13" s="16">
         <v>24</v>
       </c>
-      <c r="L13" s="7">
+      <c r="L13" s="23">
         <v>30</v>
       </c>
       <c r="R13" s="20">
@@ -1847,7 +5269,7 @@
       <c r="K14" s="16">
         <v>22</v>
       </c>
-      <c r="L14" s="7">
+      <c r="L14" s="23">
         <v>36</v>
       </c>
       <c r="R14" s="20">
@@ -1893,7 +5315,7 @@
       <c r="K15" s="16">
         <v>35</v>
       </c>
-      <c r="L15" s="7">
+      <c r="L15" s="23">
         <v>39</v>
       </c>
       <c r="R15" s="20">
@@ -1939,7 +5361,7 @@
       <c r="K16" s="16">
         <v>28</v>
       </c>
-      <c r="L16" s="7">
+      <c r="L16" s="23">
         <v>36</v>
       </c>
       <c r="R16" s="20">
@@ -1985,7 +5407,7 @@
       <c r="K17" s="16">
         <v>25</v>
       </c>
-      <c r="L17" s="7">
+      <c r="L17" s="23">
         <v>34</v>
       </c>
       <c r="R17" s="20">
@@ -2031,7 +5453,7 @@
       <c r="K18" s="16">
         <v>17</v>
       </c>
-      <c r="L18" s="7">
+      <c r="L18" s="23">
         <v>34</v>
       </c>
       <c r="R18" s="20">
@@ -2077,7 +5499,7 @@
       <c r="K19" s="16">
         <v>18</v>
       </c>
-      <c r="L19" s="7">
+      <c r="L19" s="23">
         <v>39</v>
       </c>
       <c r="R19" s="20">
@@ -2123,7 +5545,7 @@
       <c r="K20" s="16">
         <v>28</v>
       </c>
-      <c r="L20" s="7">
+      <c r="L20" s="23">
         <v>36</v>
       </c>
       <c r="R20" s="20">
@@ -2169,7 +5591,7 @@
       <c r="K21" s="16">
         <v>20</v>
       </c>
-      <c r="L21" s="7">
+      <c r="L21" s="23">
         <v>36</v>
       </c>
       <c r="R21" s="20">
@@ -2215,7 +5637,7 @@
       <c r="K22" s="16">
         <v>24</v>
       </c>
-      <c r="L22" s="7">
+      <c r="L22" s="23">
         <v>39</v>
       </c>
       <c r="R22" s="20">
@@ -2261,7 +5683,7 @@
       <c r="K23" s="16">
         <v>16</v>
       </c>
-      <c r="L23" s="7">
+      <c r="L23" s="23">
         <v>39</v>
       </c>
       <c r="R23" s="20">
@@ -2307,7 +5729,7 @@
       <c r="K24" s="16">
         <v>23</v>
       </c>
-      <c r="L24" s="7">
+      <c r="L24" s="23">
         <v>34</v>
       </c>
       <c r="R24" s="20">
@@ -2353,7 +5775,7 @@
       <c r="K25" s="16">
         <v>20</v>
       </c>
-      <c r="L25" s="7">
+      <c r="L25" s="23">
         <v>36</v>
       </c>
       <c r="R25" s="20">
@@ -2399,7 +5821,7 @@
       <c r="K26" s="16">
         <v>33</v>
       </c>
-      <c r="L26" s="7">
+      <c r="L26" s="23">
         <v>36</v>
       </c>
       <c r="R26" s="20">
@@ -2445,7 +5867,7 @@
       <c r="K27" s="16">
         <v>23</v>
       </c>
-      <c r="L27" s="7">
+      <c r="L27" s="23">
         <v>16</v>
       </c>
       <c r="R27" s="20">
@@ -2491,7 +5913,7 @@
       <c r="K28" s="16">
         <v>20</v>
       </c>
-      <c r="L28" s="7">
+      <c r="L28" s="23">
         <v>16</v>
       </c>
       <c r="R28" s="20">
@@ -2537,7 +5959,7 @@
       <c r="K29" s="16">
         <v>21</v>
       </c>
-      <c r="L29" s="7">
+      <c r="L29" s="23">
         <v>34</v>
       </c>
       <c r="R29" s="20">
@@ -2583,7 +6005,7 @@
       <c r="K30" s="16">
         <v>28</v>
       </c>
-      <c r="L30" s="7">
+      <c r="L30" s="23">
         <v>32</v>
       </c>
       <c r="R30" s="20">
@@ -2629,7 +6051,7 @@
       <c r="K31" s="16">
         <v>20</v>
       </c>
-      <c r="L31" s="7">
+      <c r="L31" s="23">
         <v>32</v>
       </c>
       <c r="R31" s="20">
@@ -2675,7 +6097,7 @@
       <c r="K32" s="16">
         <v>20</v>
       </c>
-      <c r="L32" s="7">
+      <c r="L32" s="23">
         <v>39</v>
       </c>
       <c r="R32" s="20">
@@ -2721,7 +6143,7 @@
       <c r="K33" s="16">
         <v>26</v>
       </c>
-      <c r="L33" s="7">
+      <c r="L33" s="23">
         <v>32</v>
       </c>
       <c r="R33" s="20">
@@ -2767,7 +6189,7 @@
       <c r="K34" s="16">
         <v>22</v>
       </c>
-      <c r="L34" s="7">
+      <c r="L34" s="23">
         <v>32</v>
       </c>
       <c r="R34" s="20">
@@ -2813,7 +6235,7 @@
       <c r="K35" s="16">
         <v>22</v>
       </c>
-      <c r="L35" s="7">
+      <c r="L35" s="23">
         <v>36</v>
       </c>
       <c r="R35" s="20">
@@ -2859,7 +6281,7 @@
       <c r="K36" s="16">
         <v>26</v>
       </c>
-      <c r="L36" s="7">
+      <c r="L36" s="23">
         <v>34</v>
       </c>
       <c r="R36" s="20">
@@ -2905,7 +6327,7 @@
       <c r="K37" s="16">
         <v>24</v>
       </c>
-      <c r="L37" s="7">
+      <c r="L37" s="23">
         <v>32</v>
       </c>
       <c r="R37" s="20">
@@ -2951,7 +6373,7 @@
       <c r="K38" s="16">
         <v>24</v>
       </c>
-      <c r="L38" s="7">
+      <c r="L38" s="23">
         <v>28</v>
       </c>
       <c r="R38" s="20">
@@ -2997,7 +6419,7 @@
       <c r="K39" s="16">
         <v>27</v>
       </c>
-      <c r="L39" s="7">
+      <c r="L39" s="23">
         <v>36</v>
       </c>
       <c r="R39" s="20">
@@ -3043,7 +6465,7 @@
       <c r="K40" s="16">
         <v>23</v>
       </c>
-      <c r="L40" s="7">
+      <c r="L40" s="23">
         <v>16</v>
       </c>
       <c r="R40" s="20">
@@ -3135,7 +6557,7 @@
       <c r="K42" s="16">
         <v>21</v>
       </c>
-      <c r="L42" s="7">
+      <c r="L42" s="23">
         <v>36</v>
       </c>
       <c r="R42" s="20">
@@ -3181,7 +6603,7 @@
       <c r="K43" s="16">
         <v>29</v>
       </c>
-      <c r="L43" s="7">
+      <c r="L43" s="23">
         <v>39</v>
       </c>
       <c r="R43" s="20">
@@ -3227,7 +6649,7 @@
       <c r="K44" s="16">
         <v>27</v>
       </c>
-      <c r="L44" s="7">
+      <c r="L44" s="23">
         <v>39</v>
       </c>
       <c r="R44" s="20">
@@ -3273,7 +6695,7 @@
       <c r="K45" s="16">
         <v>32</v>
       </c>
-      <c r="L45" s="7">
+      <c r="L45" s="23">
         <v>39</v>
       </c>
       <c r="R45" s="20">
@@ -3319,7 +6741,7 @@
       <c r="K46" s="16">
         <v>29</v>
       </c>
-      <c r="L46" s="7">
+      <c r="L46" s="23">
         <v>39</v>
       </c>
       <c r="R46" s="20">
@@ -3365,7 +6787,7 @@
       <c r="K47" s="16">
         <v>25</v>
       </c>
-      <c r="L47" s="7">
+      <c r="L47" s="23">
         <v>32</v>
       </c>
       <c r="R47" s="20">
@@ -3411,7 +6833,7 @@
       <c r="K48" s="16">
         <v>25</v>
       </c>
-      <c r="L48" s="7">
+      <c r="L48" s="23">
         <v>32</v>
       </c>
       <c r="R48" s="20">
@@ -3457,7 +6879,7 @@
       <c r="K49" s="16">
         <v>30</v>
       </c>
-      <c r="L49" s="7">
+      <c r="L49" s="23">
         <v>36</v>
       </c>
       <c r="R49" s="20">
@@ -3503,7 +6925,7 @@
       <c r="K50" s="16">
         <v>35</v>
       </c>
-      <c r="L50" s="7">
+      <c r="L50" s="23">
         <v>36</v>
       </c>
       <c r="R50" s="20">
@@ -3549,7 +6971,7 @@
       <c r="K51" s="16">
         <v>25</v>
       </c>
-      <c r="L51" s="7">
+      <c r="L51" s="23">
         <v>39</v>
       </c>
       <c r="R51" s="20">
@@ -3641,7 +7063,7 @@
       <c r="K53" s="16">
         <v>24</v>
       </c>
-      <c r="L53" s="7">
+      <c r="L53" s="23">
         <v>39</v>
       </c>
       <c r="R53" s="20">
@@ -3733,7 +7155,7 @@
       <c r="K55" s="16">
         <v>23</v>
       </c>
-      <c r="L55" s="7">
+      <c r="L55" s="23">
         <v>36</v>
       </c>
       <c r="R55" s="20">
@@ -3779,7 +7201,7 @@
       <c r="K56" s="16">
         <v>32</v>
       </c>
-      <c r="L56" s="7">
+      <c r="L56" s="23">
         <v>36</v>
       </c>
       <c r="R56" s="20">
@@ -3825,7 +7247,7 @@
       <c r="K57" s="16">
         <v>27</v>
       </c>
-      <c r="L57" s="7">
+      <c r="L57" s="23">
         <v>36</v>
       </c>
       <c r="R57" s="20">
@@ -3871,7 +7293,7 @@
       <c r="K58" s="16">
         <v>23</v>
       </c>
-      <c r="L58" s="7">
+      <c r="L58" s="23">
         <v>36</v>
       </c>
       <c r="R58" s="20">
@@ -3917,7 +7339,7 @@
       <c r="K59" s="16">
         <v>37</v>
       </c>
-      <c r="L59" s="7">
+      <c r="L59" s="23">
         <v>39</v>
       </c>
       <c r="R59" s="20">
@@ -3963,7 +7385,7 @@
       <c r="K60" s="16">
         <v>22</v>
       </c>
-      <c r="L60" s="7">
+      <c r="L60" s="23">
         <v>30</v>
       </c>
       <c r="R60" s="20">
@@ -6341,7 +9763,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O120"/>
   <sheetViews>
@@ -6368,20 +9790,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
-      <c r="K1" s="23"/>
-      <c r="L1" s="23"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
+      <c r="K1" s="25"/>
+      <c r="L1" s="25"/>
     </row>
     <row r="2" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">

--- a/static/Upload/5th sem.xlsx
+++ b/static/Upload/5th sem.xlsx
@@ -1180,9 +1180,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1227,6 +1224,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1532,10 +1532,10 @@
   <dimension ref="A1:T98"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D86" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D32" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D3" sqref="D3"/>
+      <selection pane="bottomRight" activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1556,20 +1556,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="40" t="s">
         <v>227</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
-      <c r="K1" s="25"/>
-      <c r="L1" s="25"/>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
+      <c r="I1" s="40"/>
+      <c r="J1" s="40"/>
+      <c r="K1" s="40"/>
+      <c r="L1" s="40"/>
     </row>
     <row r="2" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
@@ -1637,10 +1637,10 @@
       <c r="A3" s="8">
         <v>1</v>
       </c>
-      <c r="B3" s="40" t="s">
+      <c r="B3" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="35">
+      <c r="C3" s="34">
         <v>220041700003</v>
       </c>
       <c r="D3" s="16"/>
@@ -1661,10 +1661,10 @@
       <c r="A4" s="8">
         <v>2</v>
       </c>
-      <c r="B4" s="40" t="s">
+      <c r="B4" s="39" t="s">
         <v>302</v>
       </c>
-      <c r="C4" s="35">
+      <c r="C4" s="34">
         <v>220041700010</v>
       </c>
       <c r="D4" s="16"/>
@@ -1685,10 +1685,10 @@
       <c r="A5" s="8">
         <v>3</v>
       </c>
-      <c r="B5" s="40" t="s">
+      <c r="B5" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="C5" s="35">
+      <c r="C5" s="34">
         <v>220041700037</v>
       </c>
       <c r="D5" s="16"/>
@@ -1709,10 +1709,10 @@
       <c r="A6" s="8">
         <v>4</v>
       </c>
-      <c r="B6" s="40" t="s">
+      <c r="B6" s="39" t="s">
         <v>303</v>
       </c>
-      <c r="C6" s="35">
+      <c r="C6" s="34">
         <v>220041700038</v>
       </c>
       <c r="D6" s="16"/>
@@ -1733,10 +1733,10 @@
       <c r="A7" s="8">
         <v>5</v>
       </c>
-      <c r="B7" s="40" t="s">
+      <c r="B7" s="39" t="s">
         <v>286</v>
       </c>
-      <c r="C7" s="35">
+      <c r="C7" s="34">
         <v>220041700048</v>
       </c>
       <c r="D7" s="16"/>
@@ -1757,10 +1757,10 @@
       <c r="A8" s="8">
         <v>6</v>
       </c>
-      <c r="B8" s="40" t="s">
+      <c r="B8" s="39" t="s">
         <v>41</v>
       </c>
-      <c r="C8" s="35">
+      <c r="C8" s="34">
         <v>220041700059</v>
       </c>
       <c r="D8" s="16"/>
@@ -1781,10 +1781,10 @@
       <c r="A9" s="8">
         <v>7</v>
       </c>
-      <c r="B9" s="40" t="s">
+      <c r="B9" s="39" t="s">
         <v>157</v>
       </c>
-      <c r="C9" s="35">
+      <c r="C9" s="34">
         <v>220041723011</v>
       </c>
       <c r="D9" s="16"/>
@@ -1805,10 +1805,10 @@
       <c r="A10" s="8">
         <v>8</v>
       </c>
-      <c r="B10" s="34" t="s">
+      <c r="B10" s="33" t="s">
         <v>271</v>
       </c>
-      <c r="C10" s="35">
+      <c r="C10" s="34">
         <v>230041700001</v>
       </c>
       <c r="D10" s="16"/>
@@ -1829,10 +1829,10 @@
       <c r="A11" s="8">
         <v>9</v>
       </c>
-      <c r="B11" s="34" t="s">
+      <c r="B11" s="33" t="s">
         <v>272</v>
       </c>
-      <c r="C11" s="35">
+      <c r="C11" s="34">
         <v>230041700003</v>
       </c>
       <c r="D11" s="16"/>
@@ -1853,10 +1853,10 @@
       <c r="A12" s="8">
         <v>10</v>
       </c>
-      <c r="B12" s="36" t="s">
+      <c r="B12" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="37">
+      <c r="C12" s="36">
         <v>230041700004</v>
       </c>
       <c r="D12" s="16"/>
@@ -1877,10 +1877,10 @@
       <c r="A13" s="8">
         <v>11</v>
       </c>
-      <c r="B13" s="34" t="s">
+      <c r="B13" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="35">
+      <c r="C13" s="34">
         <v>230041700005</v>
       </c>
       <c r="D13" s="16"/>
@@ -1901,10 +1901,10 @@
       <c r="A14" s="8">
         <v>12</v>
       </c>
-      <c r="B14" s="36" t="s">
+      <c r="B14" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="37">
+      <c r="C14" s="36">
         <v>230041700010</v>
       </c>
       <c r="D14" s="16"/>
@@ -1925,10 +1925,10 @@
       <c r="A15" s="8">
         <v>13</v>
       </c>
-      <c r="B15" s="36" t="s">
+      <c r="B15" s="35" t="s">
         <v>273</v>
       </c>
-      <c r="C15" s="37">
+      <c r="C15" s="36">
         <v>230041700012</v>
       </c>
       <c r="D15" s="16"/>
@@ -1949,10 +1949,10 @@
       <c r="A16" s="8">
         <v>14</v>
       </c>
-      <c r="B16" s="34" t="s">
+      <c r="B16" s="33" t="s">
         <v>274</v>
       </c>
-      <c r="C16" s="35">
+      <c r="C16" s="34">
         <v>230041700015</v>
       </c>
       <c r="D16" s="16"/>
@@ -1973,10 +1973,10 @@
       <c r="A17" s="8">
         <v>15</v>
       </c>
-      <c r="B17" s="36" t="s">
+      <c r="B17" s="35" t="s">
         <v>275</v>
       </c>
-      <c r="C17" s="37">
+      <c r="C17" s="36">
         <v>230041700016</v>
       </c>
       <c r="D17" s="16"/>
@@ -1997,10 +1997,10 @@
       <c r="A18" s="8">
         <v>16</v>
       </c>
-      <c r="B18" s="34" t="s">
+      <c r="B18" s="33" t="s">
         <v>144</v>
       </c>
-      <c r="C18" s="35">
+      <c r="C18" s="34">
         <v>230041700017</v>
       </c>
       <c r="D18" s="16"/>
@@ -2021,10 +2021,10 @@
       <c r="A19" s="8">
         <v>17</v>
       </c>
-      <c r="B19" s="36" t="s">
+      <c r="B19" s="35" t="s">
         <v>276</v>
       </c>
-      <c r="C19" s="37">
+      <c r="C19" s="36">
         <v>230041700018</v>
       </c>
       <c r="D19" s="16"/>
@@ -2045,10 +2045,10 @@
       <c r="A20" s="8">
         <v>18</v>
       </c>
-      <c r="B20" s="34" t="s">
+      <c r="B20" s="33" t="s">
         <v>277</v>
       </c>
-      <c r="C20" s="35">
+      <c r="C20" s="34">
         <v>230041700019</v>
       </c>
       <c r="D20" s="16"/>
@@ -2069,10 +2069,10 @@
       <c r="A21" s="8">
         <v>19</v>
       </c>
-      <c r="B21" s="34" t="s">
+      <c r="B21" s="33" t="s">
         <v>278</v>
       </c>
-      <c r="C21" s="35">
+      <c r="C21" s="34">
         <v>230041700021</v>
       </c>
       <c r="D21" s="16"/>
@@ -2093,10 +2093,10 @@
       <c r="A22" s="8">
         <v>20</v>
       </c>
-      <c r="B22" s="36" t="s">
+      <c r="B22" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="C22" s="37">
+      <c r="C22" s="36">
         <v>230041700024</v>
       </c>
       <c r="D22" s="16"/>
@@ -2117,10 +2117,10 @@
       <c r="A23" s="8">
         <v>21</v>
       </c>
-      <c r="B23" s="34" t="s">
+      <c r="B23" s="33" t="s">
         <v>279</v>
       </c>
-      <c r="C23" s="35">
+      <c r="C23" s="34">
         <v>230041700025</v>
       </c>
       <c r="D23" s="16"/>
@@ -2141,10 +2141,10 @@
       <c r="A24" s="8">
         <v>22</v>
       </c>
-      <c r="B24" s="34" t="s">
+      <c r="B24" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="C24" s="35">
+      <c r="C24" s="34">
         <v>230041700027</v>
       </c>
       <c r="D24" s="16"/>
@@ -2165,10 +2165,10 @@
       <c r="A25" s="8">
         <v>23</v>
       </c>
-      <c r="B25" s="34" t="s">
+      <c r="B25" s="33" t="s">
         <v>280</v>
       </c>
-      <c r="C25" s="35">
+      <c r="C25" s="34">
         <v>230041700029</v>
       </c>
       <c r="D25" s="16"/>
@@ -2189,10 +2189,10 @@
       <c r="A26" s="8">
         <v>24</v>
       </c>
-      <c r="B26" s="36" t="s">
+      <c r="B26" s="35" t="s">
         <v>281</v>
       </c>
-      <c r="C26" s="37">
+      <c r="C26" s="36">
         <v>230041700030</v>
       </c>
       <c r="D26" s="16"/>
@@ -2213,10 +2213,10 @@
       <c r="A27" s="8">
         <v>25</v>
       </c>
-      <c r="B27" s="36" t="s">
+      <c r="B27" s="35" t="s">
         <v>152</v>
       </c>
-      <c r="C27" s="37">
+      <c r="C27" s="36">
         <v>230041700032</v>
       </c>
       <c r="D27" s="16"/>
@@ -2237,10 +2237,10 @@
       <c r="A28" s="8">
         <v>26</v>
       </c>
-      <c r="B28" s="34" t="s">
+      <c r="B28" s="33" t="s">
         <v>90</v>
       </c>
-      <c r="C28" s="35">
+      <c r="C28" s="34">
         <v>230041700033</v>
       </c>
       <c r="D28" s="16"/>
@@ -2261,10 +2261,10 @@
       <c r="A29" s="8">
         <v>27</v>
       </c>
-      <c r="B29" s="36" t="s">
+      <c r="B29" s="35" t="s">
         <v>153</v>
       </c>
-      <c r="C29" s="37">
+      <c r="C29" s="36">
         <v>230041700034</v>
       </c>
       <c r="D29" s="16"/>
@@ -2285,10 +2285,10 @@
       <c r="A30" s="8">
         <v>28</v>
       </c>
-      <c r="B30" s="34" t="s">
+      <c r="B30" s="33" t="s">
         <v>282</v>
       </c>
-      <c r="C30" s="35">
+      <c r="C30" s="34">
         <v>230041700037</v>
       </c>
       <c r="D30" s="16"/>
@@ -2309,10 +2309,10 @@
       <c r="A31" s="8">
         <v>29</v>
       </c>
-      <c r="B31" s="34" t="s">
+      <c r="B31" s="33" t="s">
         <v>283</v>
       </c>
-      <c r="C31" s="35">
+      <c r="C31" s="34">
         <v>230041700041</v>
       </c>
       <c r="D31" s="16"/>
@@ -2333,10 +2333,10 @@
       <c r="A32" s="8">
         <v>30</v>
       </c>
-      <c r="B32" s="36" t="s">
+      <c r="B32" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="C32" s="37">
+      <c r="C32" s="36">
         <v>230041700042</v>
       </c>
       <c r="D32" s="16"/>
@@ -2357,10 +2357,10 @@
       <c r="A33" s="8">
         <v>31</v>
       </c>
-      <c r="B33" s="36" t="s">
+      <c r="B33" s="35" t="s">
         <v>284</v>
       </c>
-      <c r="C33" s="37">
+      <c r="C33" s="36">
         <v>230041700044</v>
       </c>
       <c r="D33" s="16"/>
@@ -2381,17 +2381,17 @@
       <c r="A34" s="8">
         <v>32</v>
       </c>
-      <c r="B34" s="34" t="s">
+      <c r="B34" s="33" t="s">
         <v>285</v>
       </c>
-      <c r="C34" s="35">
+      <c r="C34" s="34">
         <v>230041700045</v>
       </c>
       <c r="D34" s="16"/>
       <c r="E34" s="16"/>
       <c r="F34" s="16"/>
       <c r="G34" s="16">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H34" s="8"/>
       <c r="I34" s="8"/>
@@ -2405,10 +2405,10 @@
       <c r="A35" s="8">
         <v>33</v>
       </c>
-      <c r="B35" s="36" t="s">
+      <c r="B35" s="35" t="s">
         <v>286</v>
       </c>
-      <c r="C35" s="37">
+      <c r="C35" s="36">
         <v>230041700046</v>
       </c>
       <c r="D35" s="16"/>
@@ -2429,10 +2429,10 @@
       <c r="A36" s="8">
         <v>34</v>
       </c>
-      <c r="B36" s="34" t="s">
+      <c r="B36" s="33" t="s">
         <v>287</v>
       </c>
-      <c r="C36" s="35">
+      <c r="C36" s="34">
         <v>230041700047</v>
       </c>
       <c r="D36" s="16"/>
@@ -2453,10 +2453,10 @@
       <c r="A37" s="8">
         <v>35</v>
       </c>
-      <c r="B37" s="36" t="s">
+      <c r="B37" s="35" t="s">
         <v>288</v>
       </c>
-      <c r="C37" s="37">
+      <c r="C37" s="36">
         <v>230041700048</v>
       </c>
       <c r="D37" s="16"/>
@@ -2477,10 +2477,10 @@
       <c r="A38" s="8">
         <v>36</v>
       </c>
-      <c r="B38" s="36" t="s">
+      <c r="B38" s="35" t="s">
         <v>161</v>
       </c>
-      <c r="C38" s="37">
+      <c r="C38" s="36">
         <v>230041700050</v>
       </c>
       <c r="D38" s="16"/>
@@ -2501,10 +2501,10 @@
       <c r="A39" s="8">
         <v>37</v>
       </c>
-      <c r="B39" s="34" t="s">
+      <c r="B39" s="33" t="s">
         <v>289</v>
       </c>
-      <c r="C39" s="35">
+      <c r="C39" s="34">
         <v>230041700051</v>
       </c>
       <c r="D39" s="16"/>
@@ -2525,10 +2525,10 @@
       <c r="A40" s="8">
         <v>38</v>
       </c>
-      <c r="B40" s="36" t="s">
+      <c r="B40" s="35" t="s">
         <v>290</v>
       </c>
-      <c r="C40" s="37">
+      <c r="C40" s="36">
         <v>230041700052</v>
       </c>
       <c r="D40" s="16"/>
@@ -2549,10 +2549,10 @@
       <c r="A41" s="8">
         <v>39</v>
       </c>
-      <c r="B41" s="36" t="s">
+      <c r="B41" s="35" t="s">
         <v>165</v>
       </c>
-      <c r="C41" s="37">
+      <c r="C41" s="36">
         <v>230041700056</v>
       </c>
       <c r="D41" s="16"/>
@@ -2574,10 +2574,10 @@
       <c r="A42" s="8">
         <v>40</v>
       </c>
-      <c r="B42" s="36" t="s">
+      <c r="B42" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="C42" s="37">
+      <c r="C42" s="36">
         <v>230041700058</v>
       </c>
       <c r="D42" s="16"/>
@@ -2598,10 +2598,10 @@
       <c r="A43" s="8">
         <v>41</v>
       </c>
-      <c r="B43" s="34" t="s">
+      <c r="B43" s="33" t="s">
         <v>291</v>
       </c>
-      <c r="C43" s="35">
+      <c r="C43" s="34">
         <v>230041700059</v>
       </c>
       <c r="D43" s="16"/>
@@ -2622,10 +2622,10 @@
       <c r="A44" s="8">
         <v>42</v>
       </c>
-      <c r="B44" s="36" t="s">
+      <c r="B44" s="35" t="s">
         <v>292</v>
       </c>
-      <c r="C44" s="37">
+      <c r="C44" s="36">
         <v>230041700062</v>
       </c>
       <c r="D44" s="16"/>
@@ -2646,10 +2646,10 @@
       <c r="A45" s="8">
         <v>43</v>
       </c>
-      <c r="B45" s="34" t="s">
+      <c r="B45" s="33" t="s">
         <v>293</v>
       </c>
-      <c r="C45" s="35">
+      <c r="C45" s="34">
         <v>230041700063</v>
       </c>
       <c r="D45" s="16"/>
@@ -2670,10 +2670,10 @@
       <c r="A46" s="8">
         <v>44</v>
       </c>
-      <c r="B46" s="36" t="s">
+      <c r="B46" s="35" t="s">
         <v>294</v>
       </c>
-      <c r="C46" s="37">
+      <c r="C46" s="36">
         <v>230041700066</v>
       </c>
       <c r="D46" s="16"/>
@@ -2694,17 +2694,17 @@
       <c r="A47" s="8">
         <v>45</v>
       </c>
-      <c r="B47" s="36" t="s">
+      <c r="B47" s="35" t="s">
         <v>295</v>
       </c>
-      <c r="C47" s="37">
+      <c r="C47" s="36">
         <v>230041700068</v>
       </c>
       <c r="D47" s="16"/>
       <c r="E47" s="16"/>
       <c r="F47" s="16"/>
       <c r="G47" s="16">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H47" s="8"/>
       <c r="I47" s="8"/>
@@ -2718,10 +2718,10 @@
       <c r="A48" s="8">
         <v>46</v>
       </c>
-      <c r="B48" s="34" t="s">
+      <c r="B48" s="33" t="s">
         <v>296</v>
       </c>
-      <c r="C48" s="35">
+      <c r="C48" s="34">
         <v>230041700069</v>
       </c>
       <c r="D48" s="16"/>
@@ -2742,10 +2742,10 @@
       <c r="A49" s="8">
         <v>47</v>
       </c>
-      <c r="B49" s="39" t="s">
+      <c r="B49" s="38" t="s">
         <v>297</v>
       </c>
-      <c r="C49" s="38">
+      <c r="C49" s="37">
         <v>230041724001</v>
       </c>
       <c r="D49" s="16"/>
@@ -2766,10 +2766,10 @@
       <c r="A50" s="8">
         <v>48</v>
       </c>
-      <c r="B50" s="39" t="s">
+      <c r="B50" s="38" t="s">
         <v>87</v>
       </c>
-      <c r="C50" s="38">
+      <c r="C50" s="37">
         <v>230041724004</v>
       </c>
       <c r="D50" s="16"/>
@@ -2790,10 +2790,10 @@
       <c r="A51" s="8">
         <v>49</v>
       </c>
-      <c r="B51" s="39" t="s">
+      <c r="B51" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="C51" s="38">
+      <c r="C51" s="37">
         <v>230041724005</v>
       </c>
       <c r="D51" s="16"/>
@@ -2814,10 +2814,10 @@
       <c r="A52" s="8">
         <v>50</v>
       </c>
-      <c r="B52" s="39" t="s">
+      <c r="B52" s="38" t="s">
         <v>299</v>
       </c>
-      <c r="C52" s="38">
+      <c r="C52" s="37">
         <v>230041724006</v>
       </c>
       <c r="D52" s="16"/>
@@ -2839,10 +2839,10 @@
       <c r="A53" s="8">
         <v>51</v>
       </c>
-      <c r="B53" s="39" t="s">
+      <c r="B53" s="38" t="s">
         <v>300</v>
       </c>
-      <c r="C53" s="38">
+      <c r="C53" s="37">
         <v>230041724007</v>
       </c>
       <c r="D53" s="16"/>
@@ -2863,10 +2863,10 @@
       <c r="A54" s="8">
         <v>52</v>
       </c>
-      <c r="B54" s="39" t="s">
+      <c r="B54" s="38" t="s">
         <v>301</v>
       </c>
-      <c r="C54" s="38">
+      <c r="C54" s="37">
         <v>230041724008</v>
       </c>
       <c r="D54" s="16"/>
@@ -2888,10 +2888,10 @@
       <c r="A55" s="8">
         <v>53</v>
       </c>
-      <c r="B55" s="39" t="s">
+      <c r="B55" s="38" t="s">
         <v>149</v>
       </c>
-      <c r="C55" s="38">
+      <c r="C55" s="37">
         <v>230041724009</v>
       </c>
       <c r="D55" s="16"/>
@@ -2912,10 +2912,10 @@
       <c r="A56" s="8">
         <v>54</v>
       </c>
-      <c r="B56" s="39" t="s">
+      <c r="B56" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="C56" s="38">
+      <c r="C56" s="37">
         <v>230041724010</v>
       </c>
       <c r="D56" s="16"/>
@@ -2936,10 +2936,10 @@
       <c r="A57" s="8">
         <v>55</v>
       </c>
-      <c r="B57" s="40" t="s">
+      <c r="B57" s="39" t="s">
         <v>298</v>
       </c>
-      <c r="C57" s="38">
+      <c r="C57" s="37">
         <v>230041724013</v>
       </c>
       <c r="D57" s="16"/>
@@ -2960,10 +2960,10 @@
       <c r="A58" s="8">
         <v>56</v>
       </c>
-      <c r="B58" s="40" t="s">
+      <c r="B58" s="39" t="s">
         <v>168</v>
       </c>
-      <c r="C58" s="38">
+      <c r="C58" s="37">
         <v>230041724014</v>
       </c>
       <c r="D58" s="16"/>
@@ -2984,13 +2984,13 @@
       <c r="A59" s="8">
         <v>57</v>
       </c>
-      <c r="B59" s="27" t="s">
+      <c r="B59" s="26" t="s">
         <v>240</v>
       </c>
-      <c r="C59" s="26" t="s">
+      <c r="C59" s="25" t="s">
         <v>239</v>
       </c>
-      <c r="D59" s="27"/>
+      <c r="D59" s="26"/>
       <c r="E59" s="16"/>
       <c r="F59" s="16"/>
       <c r="G59" s="16">
@@ -3008,13 +3008,13 @@
       <c r="A60" s="8">
         <v>58</v>
       </c>
-      <c r="B60" s="27" t="s">
+      <c r="B60" s="26" t="s">
         <v>187</v>
       </c>
-      <c r="C60" s="26" t="s">
+      <c r="C60" s="25" t="s">
         <v>241</v>
       </c>
-      <c r="D60" s="27"/>
+      <c r="D60" s="26"/>
       <c r="E60" s="16"/>
       <c r="F60" s="16"/>
       <c r="G60" s="16">
@@ -3032,13 +3032,13 @@
       <c r="A61" s="8">
         <v>59</v>
       </c>
-      <c r="B61" s="27" t="s">
+      <c r="B61" s="26" t="s">
         <v>243</v>
       </c>
-      <c r="C61" s="26" t="s">
+      <c r="C61" s="25" t="s">
         <v>242</v>
       </c>
-      <c r="D61" s="27"/>
+      <c r="D61" s="26"/>
       <c r="E61" s="16"/>
       <c r="F61" s="16"/>
       <c r="G61" s="16">
@@ -3057,13 +3057,13 @@
       <c r="A62" s="8">
         <v>60</v>
       </c>
-      <c r="B62" s="27" t="s">
+      <c r="B62" s="26" t="s">
         <v>245</v>
       </c>
-      <c r="C62" s="26" t="s">
+      <c r="C62" s="25" t="s">
         <v>244</v>
       </c>
-      <c r="D62" s="27"/>
+      <c r="D62" s="26"/>
       <c r="E62" s="16"/>
       <c r="F62" s="16"/>
       <c r="G62" s="16">
@@ -3082,13 +3082,13 @@
       <c r="A63" s="8">
         <v>61</v>
       </c>
-      <c r="B63" s="27" t="s">
+      <c r="B63" s="26" t="s">
         <v>247</v>
       </c>
-      <c r="C63" s="26" t="s">
+      <c r="C63" s="25" t="s">
         <v>246</v>
       </c>
-      <c r="D63" s="27"/>
+      <c r="D63" s="26"/>
       <c r="E63" s="16"/>
       <c r="F63" s="16"/>
       <c r="G63" s="16">
@@ -3107,13 +3107,13 @@
       <c r="A64" s="8">
         <v>62</v>
       </c>
-      <c r="B64" s="29" t="s">
+      <c r="B64" s="28" t="s">
         <v>248</v>
       </c>
-      <c r="C64" s="28">
+      <c r="C64" s="27">
         <v>230041700071</v>
       </c>
-      <c r="D64" s="29"/>
+      <c r="D64" s="28"/>
       <c r="E64" s="16"/>
       <c r="F64" s="16"/>
       <c r="G64" s="16">
@@ -3132,13 +3132,13 @@
       <c r="A65" s="8">
         <v>63</v>
       </c>
-      <c r="B65" s="31" t="s">
+      <c r="B65" s="30" t="s">
         <v>52</v>
       </c>
-      <c r="C65" s="30">
+      <c r="C65" s="29">
         <v>230041700072</v>
       </c>
-      <c r="D65" s="31"/>
+      <c r="D65" s="30"/>
       <c r="E65" s="16"/>
       <c r="F65" s="16"/>
       <c r="G65" s="16">
@@ -3157,13 +3157,13 @@
       <c r="A66" s="8">
         <v>64</v>
       </c>
-      <c r="B66" s="31" t="s">
+      <c r="B66" s="30" t="s">
         <v>170</v>
       </c>
-      <c r="C66" s="30">
+      <c r="C66" s="29">
         <v>230041700074</v>
       </c>
-      <c r="D66" s="31"/>
+      <c r="D66" s="30"/>
       <c r="E66" s="16"/>
       <c r="F66" s="16"/>
       <c r="G66" s="16">
@@ -3182,13 +3182,13 @@
       <c r="A67" s="8">
         <v>65</v>
       </c>
-      <c r="B67" s="31" t="s">
+      <c r="B67" s="30" t="s">
         <v>249</v>
       </c>
-      <c r="C67" s="30">
+      <c r="C67" s="29">
         <v>230041700076</v>
       </c>
-      <c r="D67" s="31"/>
+      <c r="D67" s="30"/>
       <c r="E67" s="16"/>
       <c r="F67" s="16"/>
       <c r="G67" s="16">
@@ -3207,13 +3207,13 @@
       <c r="A68" s="8">
         <v>66</v>
       </c>
-      <c r="B68" s="31" t="s">
+      <c r="B68" s="30" t="s">
         <v>250</v>
       </c>
-      <c r="C68" s="30">
+      <c r="C68" s="29">
         <v>230041700078</v>
       </c>
-      <c r="D68" s="31"/>
+      <c r="D68" s="30"/>
       <c r="E68" s="16"/>
       <c r="F68" s="16"/>
       <c r="G68" s="16">
@@ -3232,13 +3232,13 @@
       <c r="A69" s="8">
         <v>67</v>
       </c>
-      <c r="B69" s="29" t="s">
+      <c r="B69" s="28" t="s">
         <v>251</v>
       </c>
-      <c r="C69" s="28">
+      <c r="C69" s="27">
         <v>230041700079</v>
       </c>
-      <c r="D69" s="29"/>
+      <c r="D69" s="28"/>
       <c r="E69" s="16"/>
       <c r="F69" s="16"/>
       <c r="G69" s="16">
@@ -3257,13 +3257,13 @@
       <c r="A70" s="8">
         <v>68</v>
       </c>
-      <c r="B70" s="31" t="s">
+      <c r="B70" s="30" t="s">
         <v>252</v>
       </c>
-      <c r="C70" s="30">
+      <c r="C70" s="29">
         <v>230041700080</v>
       </c>
-      <c r="D70" s="31"/>
+      <c r="D70" s="30"/>
       <c r="E70" s="16"/>
       <c r="F70" s="16"/>
       <c r="G70" s="16">
@@ -3282,13 +3282,13 @@
       <c r="A71" s="8">
         <v>69</v>
       </c>
-      <c r="B71" s="31" t="s">
+      <c r="B71" s="30" t="s">
         <v>54</v>
       </c>
-      <c r="C71" s="30">
+      <c r="C71" s="29">
         <v>230041700082</v>
       </c>
-      <c r="D71" s="31"/>
+      <c r="D71" s="30"/>
       <c r="E71" s="16"/>
       <c r="F71" s="16"/>
       <c r="G71" s="16">
@@ -3307,13 +3307,13 @@
       <c r="A72" s="8">
         <v>70</v>
       </c>
-      <c r="B72" s="31" t="s">
+      <c r="B72" s="30" t="s">
         <v>253</v>
       </c>
-      <c r="C72" s="30">
+      <c r="C72" s="29">
         <v>230041700084</v>
       </c>
-      <c r="D72" s="31"/>
+      <c r="D72" s="30"/>
       <c r="E72" s="16"/>
       <c r="F72" s="16"/>
       <c r="G72" s="16">
@@ -3332,13 +3332,13 @@
       <c r="A73" s="8">
         <v>71</v>
       </c>
-      <c r="B73" s="29" t="s">
+      <c r="B73" s="28" t="s">
         <v>254</v>
       </c>
-      <c r="C73" s="28">
+      <c r="C73" s="27">
         <v>230041700087</v>
       </c>
-      <c r="D73" s="29"/>
+      <c r="D73" s="28"/>
       <c r="E73" s="16"/>
       <c r="F73" s="16"/>
       <c r="G73" s="16">
@@ -3357,13 +3357,13 @@
       <c r="A74" s="8">
         <v>72</v>
       </c>
-      <c r="B74" s="31" t="s">
+      <c r="B74" s="30" t="s">
         <v>255</v>
       </c>
-      <c r="C74" s="30">
+      <c r="C74" s="29">
         <v>230041700088</v>
       </c>
-      <c r="D74" s="31"/>
+      <c r="D74" s="30"/>
       <c r="E74" s="16"/>
       <c r="F74" s="16"/>
       <c r="G74" s="16">
@@ -3382,13 +3382,13 @@
       <c r="A75" s="8">
         <v>73</v>
       </c>
-      <c r="B75" s="29" t="s">
+      <c r="B75" s="28" t="s">
         <v>64</v>
       </c>
-      <c r="C75" s="28">
+      <c r="C75" s="27">
         <v>230041700091</v>
       </c>
-      <c r="D75" s="29"/>
+      <c r="D75" s="28"/>
       <c r="E75" s="16"/>
       <c r="F75" s="16"/>
       <c r="G75" s="16">
@@ -3407,13 +3407,13 @@
       <c r="A76" s="8">
         <v>74</v>
       </c>
-      <c r="B76" s="31" t="s">
+      <c r="B76" s="30" t="s">
         <v>256</v>
       </c>
-      <c r="C76" s="30">
+      <c r="C76" s="29">
         <v>230041700094</v>
       </c>
-      <c r="D76" s="31"/>
+      <c r="D76" s="30"/>
       <c r="E76" s="16"/>
       <c r="F76" s="16"/>
       <c r="G76" s="16">
@@ -3432,13 +3432,13 @@
       <c r="A77" s="8">
         <v>75</v>
       </c>
-      <c r="B77" s="29" t="s">
+      <c r="B77" s="28" t="s">
         <v>257</v>
       </c>
-      <c r="C77" s="28">
+      <c r="C77" s="27">
         <v>230041700097</v>
       </c>
-      <c r="D77" s="29"/>
+      <c r="D77" s="28"/>
       <c r="E77" s="16"/>
       <c r="F77" s="16"/>
       <c r="G77" s="16">
@@ -3457,13 +3457,13 @@
       <c r="A78" s="8">
         <v>76</v>
       </c>
-      <c r="B78" s="31" t="s">
+      <c r="B78" s="30" t="s">
         <v>66</v>
       </c>
-      <c r="C78" s="30">
+      <c r="C78" s="29">
         <v>230041700098</v>
       </c>
-      <c r="D78" s="31"/>
+      <c r="D78" s="30"/>
       <c r="E78" s="16"/>
       <c r="F78" s="16"/>
       <c r="G78" s="16">
@@ -3482,13 +3482,13 @@
       <c r="A79" s="8">
         <v>77</v>
       </c>
-      <c r="B79" s="31" t="s">
+      <c r="B79" s="30" t="s">
         <v>66</v>
       </c>
-      <c r="C79" s="30">
+      <c r="C79" s="29">
         <v>230041700102</v>
       </c>
-      <c r="D79" s="31"/>
+      <c r="D79" s="30"/>
       <c r="E79" s="16"/>
       <c r="F79" s="16"/>
       <c r="G79" s="16">
@@ -3507,13 +3507,13 @@
       <c r="A80" s="8">
         <v>78</v>
       </c>
-      <c r="B80" s="31" t="s">
+      <c r="B80" s="30" t="s">
         <v>258</v>
       </c>
-      <c r="C80" s="30">
+      <c r="C80" s="29">
         <v>230041700104</v>
       </c>
-      <c r="D80" s="31"/>
+      <c r="D80" s="30"/>
       <c r="E80" s="16"/>
       <c r="F80" s="16"/>
       <c r="G80" s="16">
@@ -3532,13 +3532,13 @@
       <c r="A81" s="8">
         <v>79</v>
       </c>
-      <c r="B81" s="29" t="s">
+      <c r="B81" s="28" t="s">
         <v>259</v>
       </c>
-      <c r="C81" s="28">
+      <c r="C81" s="27">
         <v>230041700105</v>
       </c>
-      <c r="D81" s="29"/>
+      <c r="D81" s="28"/>
       <c r="E81" s="16"/>
       <c r="F81" s="16"/>
       <c r="G81" s="16">
@@ -3557,13 +3557,13 @@
       <c r="A82" s="8">
         <v>80</v>
       </c>
-      <c r="B82" s="31" t="s">
+      <c r="B82" s="30" t="s">
         <v>260</v>
       </c>
-      <c r="C82" s="30">
+      <c r="C82" s="29">
         <v>230041700108</v>
       </c>
-      <c r="D82" s="31"/>
+      <c r="D82" s="30"/>
       <c r="E82" s="16"/>
       <c r="F82" s="16"/>
       <c r="G82" s="16">
@@ -3582,13 +3582,13 @@
       <c r="A83" s="8">
         <v>81</v>
       </c>
-      <c r="B83" s="31" t="s">
+      <c r="B83" s="30" t="s">
         <v>69</v>
       </c>
-      <c r="C83" s="30">
+      <c r="C83" s="29">
         <v>230041700110</v>
       </c>
-      <c r="D83" s="31"/>
+      <c r="D83" s="30"/>
       <c r="E83" s="16"/>
       <c r="F83" s="16"/>
       <c r="G83" s="16">
@@ -3607,13 +3607,13 @@
       <c r="A84" s="8">
         <v>82</v>
       </c>
-      <c r="B84" s="29" t="s">
+      <c r="B84" s="28" t="s">
         <v>261</v>
       </c>
-      <c r="C84" s="28">
+      <c r="C84" s="27">
         <v>230041700111</v>
       </c>
-      <c r="D84" s="29"/>
+      <c r="D84" s="28"/>
       <c r="E84" s="16"/>
       <c r="F84" s="16"/>
       <c r="G84" s="16">
@@ -3632,13 +3632,13 @@
       <c r="A85" s="8">
         <v>83</v>
       </c>
-      <c r="B85" s="31" t="s">
+      <c r="B85" s="30" t="s">
         <v>262</v>
       </c>
-      <c r="C85" s="30">
+      <c r="C85" s="29">
         <v>230041700112</v>
       </c>
-      <c r="D85" s="31"/>
+      <c r="D85" s="30"/>
       <c r="E85" s="16"/>
       <c r="F85" s="16"/>
       <c r="G85" s="16">
@@ -3657,13 +3657,13 @@
       <c r="A86" s="8">
         <v>84</v>
       </c>
-      <c r="B86" s="31" t="s">
+      <c r="B86" s="30" t="s">
         <v>71</v>
       </c>
-      <c r="C86" s="30">
+      <c r="C86" s="29">
         <v>230041700116</v>
       </c>
-      <c r="D86" s="31"/>
+      <c r="D86" s="30"/>
       <c r="E86" s="16"/>
       <c r="F86" s="16"/>
       <c r="G86" s="16">
@@ -3682,13 +3682,13 @@
       <c r="A87" s="8">
         <v>85</v>
       </c>
-      <c r="B87" s="29" t="s">
+      <c r="B87" s="28" t="s">
         <v>263</v>
       </c>
-      <c r="C87" s="28">
+      <c r="C87" s="27">
         <v>230041700117</v>
       </c>
-      <c r="D87" s="29"/>
+      <c r="D87" s="28"/>
       <c r="E87" s="16"/>
       <c r="F87" s="16"/>
       <c r="G87" s="16">
@@ -3707,13 +3707,13 @@
       <c r="A88" s="8">
         <v>86</v>
       </c>
-      <c r="B88" s="31" t="s">
+      <c r="B88" s="30" t="s">
         <v>264</v>
       </c>
-      <c r="C88" s="30">
+      <c r="C88" s="29">
         <v>230041700118</v>
       </c>
-      <c r="D88" s="31"/>
+      <c r="D88" s="30"/>
       <c r="E88" s="16"/>
       <c r="F88" s="16"/>
       <c r="G88" s="16">
@@ -3732,13 +3732,13 @@
       <c r="A89" s="8">
         <v>87</v>
       </c>
-      <c r="B89" s="29" t="s">
+      <c r="B89" s="28" t="s">
         <v>265</v>
       </c>
-      <c r="C89" s="28">
+      <c r="C89" s="27">
         <v>230041700123</v>
       </c>
-      <c r="D89" s="29"/>
+      <c r="D89" s="28"/>
       <c r="E89" s="16"/>
       <c r="F89" s="16"/>
       <c r="G89" s="16">
@@ -3757,13 +3757,13 @@
       <c r="A90" s="8">
         <v>88</v>
       </c>
-      <c r="B90" s="31" t="s">
+      <c r="B90" s="30" t="s">
         <v>266</v>
       </c>
-      <c r="C90" s="30">
+      <c r="C90" s="29">
         <v>230041700126</v>
       </c>
-      <c r="D90" s="31"/>
+      <c r="D90" s="30"/>
       <c r="E90" s="16"/>
       <c r="F90" s="16"/>
       <c r="G90" s="16">
@@ -3782,13 +3782,13 @@
       <c r="A91" s="8">
         <v>89</v>
       </c>
-      <c r="B91" s="29" t="s">
+      <c r="B91" s="28" t="s">
         <v>266</v>
       </c>
-      <c r="C91" s="28">
+      <c r="C91" s="27">
         <v>230041700127</v>
       </c>
-      <c r="D91" s="29"/>
+      <c r="D91" s="28"/>
       <c r="E91" s="16"/>
       <c r="F91" s="16"/>
       <c r="G91" s="16">
@@ -3807,13 +3807,13 @@
       <c r="A92" s="8">
         <v>90</v>
       </c>
-      <c r="B92" s="29" t="s">
+      <c r="B92" s="28" t="s">
         <v>267</v>
       </c>
-      <c r="C92" s="28">
+      <c r="C92" s="27">
         <v>230041700131</v>
       </c>
-      <c r="D92" s="29"/>
+      <c r="D92" s="28"/>
       <c r="E92" s="16"/>
       <c r="F92" s="16"/>
       <c r="G92" s="16">
@@ -3832,13 +3832,13 @@
       <c r="A93" s="8">
         <v>91</v>
       </c>
-      <c r="B93" s="31" t="s">
+      <c r="B93" s="30" t="s">
         <v>82</v>
       </c>
-      <c r="C93" s="30">
+      <c r="C93" s="29">
         <v>230041700136</v>
       </c>
-      <c r="D93" s="31"/>
+      <c r="D93" s="30"/>
       <c r="E93" s="16"/>
       <c r="F93" s="16"/>
       <c r="G93" s="16">
@@ -3857,13 +3857,13 @@
       <c r="A94" s="8">
         <v>92</v>
       </c>
-      <c r="B94" s="33" t="s">
+      <c r="B94" s="32" t="s">
         <v>252</v>
       </c>
-      <c r="C94" s="32">
+      <c r="C94" s="31">
         <v>230041724015</v>
       </c>
-      <c r="D94" s="33"/>
+      <c r="D94" s="32"/>
       <c r="E94" s="16"/>
       <c r="F94" s="16"/>
       <c r="G94" s="16">
@@ -3882,13 +3882,13 @@
       <c r="A95" s="8">
         <v>93</v>
       </c>
-      <c r="B95" s="33" t="s">
+      <c r="B95" s="32" t="s">
         <v>268</v>
       </c>
-      <c r="C95" s="32">
+      <c r="C95" s="31">
         <v>230041724016</v>
       </c>
-      <c r="D95" s="33"/>
+      <c r="D95" s="32"/>
       <c r="E95" s="16"/>
       <c r="F95" s="16"/>
       <c r="G95" s="16">
@@ -3907,13 +3907,13 @@
       <c r="A96" s="8">
         <v>94</v>
       </c>
-      <c r="B96" s="33" t="s">
+      <c r="B96" s="32" t="s">
         <v>54</v>
       </c>
-      <c r="C96" s="32">
+      <c r="C96" s="31">
         <v>230041724017</v>
       </c>
-      <c r="D96" s="33"/>
+      <c r="D96" s="32"/>
       <c r="E96" s="16"/>
       <c r="F96" s="16"/>
       <c r="G96" s="16">
@@ -3932,13 +3932,13 @@
       <c r="A97" s="8">
         <v>95</v>
       </c>
-      <c r="B97" s="33" t="s">
+      <c r="B97" s="32" t="s">
         <v>269</v>
       </c>
-      <c r="C97" s="32">
+      <c r="C97" s="31">
         <v>230041724025</v>
       </c>
-      <c r="D97" s="33"/>
+      <c r="D97" s="32"/>
       <c r="E97" s="16"/>
       <c r="F97" s="16"/>
       <c r="G97" s="16">
@@ -3957,13 +3957,13 @@
       <c r="A98" s="8">
         <v>96</v>
       </c>
-      <c r="B98" s="33" t="s">
+      <c r="B98" s="32" t="s">
         <v>270</v>
       </c>
-      <c r="C98" s="32">
+      <c r="C98" s="31">
         <v>230041724026</v>
       </c>
-      <c r="D98" s="33"/>
+      <c r="D98" s="32"/>
       <c r="E98" s="16"/>
       <c r="F98" s="16"/>
       <c r="G98" s="16">
@@ -4013,7 +4013,7 @@
       <c r="B1" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="35">
+      <c r="C1" s="34">
         <v>220041700003</v>
       </c>
     </row>
@@ -4024,7 +4024,7 @@
       <c r="B2" t="s">
         <v>302</v>
       </c>
-      <c r="C2" s="35">
+      <c r="C2" s="34">
         <v>220041700010</v>
       </c>
     </row>
@@ -4035,7 +4035,7 @@
       <c r="B3" t="s">
         <v>33</v>
       </c>
-      <c r="C3" s="35">
+      <c r="C3" s="34">
         <v>220041700037</v>
       </c>
     </row>
@@ -4046,7 +4046,7 @@
       <c r="B4" t="s">
         <v>303</v>
       </c>
-      <c r="C4" s="35">
+      <c r="C4" s="34">
         <v>220041700038</v>
       </c>
     </row>
@@ -4057,7 +4057,7 @@
       <c r="B5" t="s">
         <v>286</v>
       </c>
-      <c r="C5" s="35">
+      <c r="C5" s="34">
         <v>220041700048</v>
       </c>
     </row>
@@ -4068,7 +4068,7 @@
       <c r="B6" t="s">
         <v>41</v>
       </c>
-      <c r="C6" s="35">
+      <c r="C6" s="34">
         <v>220041700059</v>
       </c>
     </row>
@@ -4079,7 +4079,7 @@
       <c r="B7" t="s">
         <v>157</v>
       </c>
-      <c r="C7" s="35">
+      <c r="C7" s="34">
         <v>220041723011</v>
       </c>
     </row>
@@ -4087,10 +4087,10 @@
       <c r="A8">
         <v>8</v>
       </c>
-      <c r="B8" s="34" t="s">
+      <c r="B8" s="33" t="s">
         <v>271</v>
       </c>
-      <c r="C8" s="35">
+      <c r="C8" s="34">
         <v>230041700001</v>
       </c>
     </row>
@@ -4098,10 +4098,10 @@
       <c r="A9">
         <v>9</v>
       </c>
-      <c r="B9" s="34" t="s">
+      <c r="B9" s="33" t="s">
         <v>272</v>
       </c>
-      <c r="C9" s="35">
+      <c r="C9" s="34">
         <v>230041700003</v>
       </c>
     </row>
@@ -4109,10 +4109,10 @@
       <c r="A10">
         <v>10</v>
       </c>
-      <c r="B10" s="36" t="s">
+      <c r="B10" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="37">
+      <c r="C10" s="36">
         <v>230041700004</v>
       </c>
     </row>
@@ -4120,10 +4120,10 @@
       <c r="A11">
         <v>11</v>
       </c>
-      <c r="B11" s="34" t="s">
+      <c r="B11" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="35">
+      <c r="C11" s="34">
         <v>230041700005</v>
       </c>
     </row>
@@ -4131,10 +4131,10 @@
       <c r="A12">
         <v>12</v>
       </c>
-      <c r="B12" s="36" t="s">
+      <c r="B12" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="37">
+      <c r="C12" s="36">
         <v>230041700010</v>
       </c>
     </row>
@@ -4142,10 +4142,10 @@
       <c r="A13">
         <v>13</v>
       </c>
-      <c r="B13" s="36" t="s">
+      <c r="B13" s="35" t="s">
         <v>273</v>
       </c>
-      <c r="C13" s="37">
+      <c r="C13" s="36">
         <v>230041700012</v>
       </c>
     </row>
@@ -4153,10 +4153,10 @@
       <c r="A14">
         <v>14</v>
       </c>
-      <c r="B14" s="34" t="s">
+      <c r="B14" s="33" t="s">
         <v>274</v>
       </c>
-      <c r="C14" s="35">
+      <c r="C14" s="34">
         <v>230041700015</v>
       </c>
     </row>
@@ -4164,10 +4164,10 @@
       <c r="A15">
         <v>15</v>
       </c>
-      <c r="B15" s="36" t="s">
+      <c r="B15" s="35" t="s">
         <v>275</v>
       </c>
-      <c r="C15" s="37">
+      <c r="C15" s="36">
         <v>230041700016</v>
       </c>
     </row>
@@ -4175,10 +4175,10 @@
       <c r="A16">
         <v>16</v>
       </c>
-      <c r="B16" s="34" t="s">
+      <c r="B16" s="33" t="s">
         <v>144</v>
       </c>
-      <c r="C16" s="35">
+      <c r="C16" s="34">
         <v>230041700017</v>
       </c>
     </row>
@@ -4186,10 +4186,10 @@
       <c r="A17">
         <v>17</v>
       </c>
-      <c r="B17" s="36" t="s">
+      <c r="B17" s="35" t="s">
         <v>276</v>
       </c>
-      <c r="C17" s="37">
+      <c r="C17" s="36">
         <v>230041700018</v>
       </c>
     </row>
@@ -4197,10 +4197,10 @@
       <c r="A18">
         <v>18</v>
       </c>
-      <c r="B18" s="34" t="s">
+      <c r="B18" s="33" t="s">
         <v>277</v>
       </c>
-      <c r="C18" s="35">
+      <c r="C18" s="34">
         <v>230041700019</v>
       </c>
     </row>
@@ -4208,10 +4208,10 @@
       <c r="A19">
         <v>19</v>
       </c>
-      <c r="B19" s="34" t="s">
+      <c r="B19" s="33" t="s">
         <v>278</v>
       </c>
-      <c r="C19" s="35">
+      <c r="C19" s="34">
         <v>230041700021</v>
       </c>
     </row>
@@ -4219,10 +4219,10 @@
       <c r="A20">
         <v>20</v>
       </c>
-      <c r="B20" s="36" t="s">
+      <c r="B20" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="C20" s="37">
+      <c r="C20" s="36">
         <v>230041700024</v>
       </c>
     </row>
@@ -4230,10 +4230,10 @@
       <c r="A21">
         <v>21</v>
       </c>
-      <c r="B21" s="34" t="s">
+      <c r="B21" s="33" t="s">
         <v>279</v>
       </c>
-      <c r="C21" s="35">
+      <c r="C21" s="34">
         <v>230041700025</v>
       </c>
     </row>
@@ -4241,10 +4241,10 @@
       <c r="A22">
         <v>22</v>
       </c>
-      <c r="B22" s="34" t="s">
+      <c r="B22" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="C22" s="35">
+      <c r="C22" s="34">
         <v>230041700027</v>
       </c>
     </row>
@@ -4252,10 +4252,10 @@
       <c r="A23">
         <v>23</v>
       </c>
-      <c r="B23" s="34" t="s">
+      <c r="B23" s="33" t="s">
         <v>280</v>
       </c>
-      <c r="C23" s="35">
+      <c r="C23" s="34">
         <v>230041700029</v>
       </c>
     </row>
@@ -4263,10 +4263,10 @@
       <c r="A24">
         <v>24</v>
       </c>
-      <c r="B24" s="36" t="s">
+      <c r="B24" s="35" t="s">
         <v>281</v>
       </c>
-      <c r="C24" s="37">
+      <c r="C24" s="36">
         <v>230041700030</v>
       </c>
     </row>
@@ -4274,10 +4274,10 @@
       <c r="A25">
         <v>25</v>
       </c>
-      <c r="B25" s="36" t="s">
+      <c r="B25" s="35" t="s">
         <v>152</v>
       </c>
-      <c r="C25" s="37">
+      <c r="C25" s="36">
         <v>230041700032</v>
       </c>
     </row>
@@ -4285,10 +4285,10 @@
       <c r="A26">
         <v>26</v>
       </c>
-      <c r="B26" s="34" t="s">
+      <c r="B26" s="33" t="s">
         <v>90</v>
       </c>
-      <c r="C26" s="35">
+      <c r="C26" s="34">
         <v>230041700033</v>
       </c>
     </row>
@@ -4296,10 +4296,10 @@
       <c r="A27">
         <v>27</v>
       </c>
-      <c r="B27" s="36" t="s">
+      <c r="B27" s="35" t="s">
         <v>153</v>
       </c>
-      <c r="C27" s="37">
+      <c r="C27" s="36">
         <v>230041700034</v>
       </c>
     </row>
@@ -4307,10 +4307,10 @@
       <c r="A28">
         <v>28</v>
       </c>
-      <c r="B28" s="34" t="s">
+      <c r="B28" s="33" t="s">
         <v>282</v>
       </c>
-      <c r="C28" s="35">
+      <c r="C28" s="34">
         <v>230041700037</v>
       </c>
     </row>
@@ -4318,10 +4318,10 @@
       <c r="A29">
         <v>29</v>
       </c>
-      <c r="B29" s="34" t="s">
+      <c r="B29" s="33" t="s">
         <v>283</v>
       </c>
-      <c r="C29" s="35">
+      <c r="C29" s="34">
         <v>230041700041</v>
       </c>
     </row>
@@ -4329,10 +4329,10 @@
       <c r="A30">
         <v>30</v>
       </c>
-      <c r="B30" s="36" t="s">
+      <c r="B30" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="C30" s="37">
+      <c r="C30" s="36">
         <v>230041700042</v>
       </c>
     </row>
@@ -4340,10 +4340,10 @@
       <c r="A31">
         <v>31</v>
       </c>
-      <c r="B31" s="36" t="s">
+      <c r="B31" s="35" t="s">
         <v>284</v>
       </c>
-      <c r="C31" s="37">
+      <c r="C31" s="36">
         <v>230041700044</v>
       </c>
     </row>
@@ -4351,10 +4351,10 @@
       <c r="A32">
         <v>32</v>
       </c>
-      <c r="B32" s="34" t="s">
+      <c r="B32" s="33" t="s">
         <v>285</v>
       </c>
-      <c r="C32" s="35">
+      <c r="C32" s="34">
         <v>230041700045</v>
       </c>
     </row>
@@ -4362,10 +4362,10 @@
       <c r="A33">
         <v>33</v>
       </c>
-      <c r="B33" s="36" t="s">
+      <c r="B33" s="35" t="s">
         <v>286</v>
       </c>
-      <c r="C33" s="37">
+      <c r="C33" s="36">
         <v>230041700046</v>
       </c>
     </row>
@@ -4373,10 +4373,10 @@
       <c r="A34">
         <v>34</v>
       </c>
-      <c r="B34" s="34" t="s">
+      <c r="B34" s="33" t="s">
         <v>287</v>
       </c>
-      <c r="C34" s="35">
+      <c r="C34" s="34">
         <v>230041700047</v>
       </c>
     </row>
@@ -4384,10 +4384,10 @@
       <c r="A35">
         <v>35</v>
       </c>
-      <c r="B35" s="36" t="s">
+      <c r="B35" s="35" t="s">
         <v>288</v>
       </c>
-      <c r="C35" s="37">
+      <c r="C35" s="36">
         <v>230041700048</v>
       </c>
     </row>
@@ -4395,10 +4395,10 @@
       <c r="A36">
         <v>36</v>
       </c>
-      <c r="B36" s="36" t="s">
+      <c r="B36" s="35" t="s">
         <v>161</v>
       </c>
-      <c r="C36" s="37">
+      <c r="C36" s="36">
         <v>230041700050</v>
       </c>
     </row>
@@ -4406,10 +4406,10 @@
       <c r="A37">
         <v>37</v>
       </c>
-      <c r="B37" s="34" t="s">
+      <c r="B37" s="33" t="s">
         <v>289</v>
       </c>
-      <c r="C37" s="35">
+      <c r="C37" s="34">
         <v>230041700051</v>
       </c>
     </row>
@@ -4417,10 +4417,10 @@
       <c r="A38">
         <v>38</v>
       </c>
-      <c r="B38" s="36" t="s">
+      <c r="B38" s="35" t="s">
         <v>290</v>
       </c>
-      <c r="C38" s="37">
+      <c r="C38" s="36">
         <v>230041700052</v>
       </c>
     </row>
@@ -4428,10 +4428,10 @@
       <c r="A39">
         <v>39</v>
       </c>
-      <c r="B39" s="36" t="s">
+      <c r="B39" s="35" t="s">
         <v>165</v>
       </c>
-      <c r="C39" s="37">
+      <c r="C39" s="36">
         <v>230041700056</v>
       </c>
     </row>
@@ -4439,10 +4439,10 @@
       <c r="A40">
         <v>40</v>
       </c>
-      <c r="B40" s="36" t="s">
+      <c r="B40" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="C40" s="37">
+      <c r="C40" s="36">
         <v>230041700058</v>
       </c>
     </row>
@@ -4450,10 +4450,10 @@
       <c r="A41">
         <v>41</v>
       </c>
-      <c r="B41" s="34" t="s">
+      <c r="B41" s="33" t="s">
         <v>291</v>
       </c>
-      <c r="C41" s="35">
+      <c r="C41" s="34">
         <v>230041700059</v>
       </c>
     </row>
@@ -4461,10 +4461,10 @@
       <c r="A42">
         <v>42</v>
       </c>
-      <c r="B42" s="36" t="s">
+      <c r="B42" s="35" t="s">
         <v>292</v>
       </c>
-      <c r="C42" s="37">
+      <c r="C42" s="36">
         <v>230041700062</v>
       </c>
     </row>
@@ -4472,10 +4472,10 @@
       <c r="A43">
         <v>43</v>
       </c>
-      <c r="B43" s="34" t="s">
+      <c r="B43" s="33" t="s">
         <v>293</v>
       </c>
-      <c r="C43" s="35">
+      <c r="C43" s="34">
         <v>230041700063</v>
       </c>
     </row>
@@ -4483,10 +4483,10 @@
       <c r="A44">
         <v>44</v>
       </c>
-      <c r="B44" s="36" t="s">
+      <c r="B44" s="35" t="s">
         <v>294</v>
       </c>
-      <c r="C44" s="37">
+      <c r="C44" s="36">
         <v>230041700066</v>
       </c>
     </row>
@@ -4494,10 +4494,10 @@
       <c r="A45">
         <v>45</v>
       </c>
-      <c r="B45" s="36" t="s">
+      <c r="B45" s="35" t="s">
         <v>295</v>
       </c>
-      <c r="C45" s="37">
+      <c r="C45" s="36">
         <v>230041700068</v>
       </c>
     </row>
@@ -4505,10 +4505,10 @@
       <c r="A46">
         <v>46</v>
       </c>
-      <c r="B46" s="34" t="s">
+      <c r="B46" s="33" t="s">
         <v>296</v>
       </c>
-      <c r="C46" s="35">
+      <c r="C46" s="34">
         <v>230041700069</v>
       </c>
     </row>
@@ -4516,10 +4516,10 @@
       <c r="A47">
         <v>47</v>
       </c>
-      <c r="B47" s="39" t="s">
+      <c r="B47" s="38" t="s">
         <v>297</v>
       </c>
-      <c r="C47" s="38">
+      <c r="C47" s="37">
         <v>230041724001</v>
       </c>
     </row>
@@ -4527,10 +4527,10 @@
       <c r="A48">
         <v>48</v>
       </c>
-      <c r="B48" s="39" t="s">
+      <c r="B48" s="38" t="s">
         <v>87</v>
       </c>
-      <c r="C48" s="38">
+      <c r="C48" s="37">
         <v>230041724004</v>
       </c>
     </row>
@@ -4538,10 +4538,10 @@
       <c r="A49">
         <v>49</v>
       </c>
-      <c r="B49" s="39" t="s">
+      <c r="B49" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="C49" s="38">
+      <c r="C49" s="37">
         <v>230041724005</v>
       </c>
     </row>
@@ -4549,10 +4549,10 @@
       <c r="A50">
         <v>50</v>
       </c>
-      <c r="B50" s="39" t="s">
+      <c r="B50" s="38" t="s">
         <v>299</v>
       </c>
-      <c r="C50" s="38">
+      <c r="C50" s="37">
         <v>230041724006</v>
       </c>
     </row>
@@ -4560,10 +4560,10 @@
       <c r="A51">
         <v>51</v>
       </c>
-      <c r="B51" s="39" t="s">
+      <c r="B51" s="38" t="s">
         <v>300</v>
       </c>
-      <c r="C51" s="38">
+      <c r="C51" s="37">
         <v>230041724007</v>
       </c>
     </row>
@@ -4571,10 +4571,10 @@
       <c r="A52">
         <v>52</v>
       </c>
-      <c r="B52" s="39" t="s">
+      <c r="B52" s="38" t="s">
         <v>301</v>
       </c>
-      <c r="C52" s="38">
+      <c r="C52" s="37">
         <v>230041724008</v>
       </c>
     </row>
@@ -4582,10 +4582,10 @@
       <c r="A53">
         <v>53</v>
       </c>
-      <c r="B53" s="39" t="s">
+      <c r="B53" s="38" t="s">
         <v>149</v>
       </c>
-      <c r="C53" s="38">
+      <c r="C53" s="37">
         <v>230041724009</v>
       </c>
     </row>
@@ -4593,10 +4593,10 @@
       <c r="A54">
         <v>54</v>
       </c>
-      <c r="B54" s="39" t="s">
+      <c r="B54" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="C54" s="38">
+      <c r="C54" s="37">
         <v>230041724010</v>
       </c>
     </row>
@@ -4607,7 +4607,7 @@
       <c r="B55" t="s">
         <v>298</v>
       </c>
-      <c r="C55" s="38">
+      <c r="C55" s="37">
         <v>230041724013</v>
       </c>
     </row>
@@ -4618,7 +4618,7 @@
       <c r="B56" t="s">
         <v>168</v>
       </c>
-      <c r="C56" s="38">
+      <c r="C56" s="37">
         <v>230041724014</v>
       </c>
     </row>
@@ -4656,20 +4656,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="40" t="s">
         <v>227</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
-      <c r="K1" s="25"/>
-      <c r="L1" s="25"/>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
+      <c r="I1" s="40"/>
+      <c r="J1" s="40"/>
+      <c r="K1" s="40"/>
+      <c r="L1" s="40"/>
     </row>
     <row r="2" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
@@ -9790,20 +9790,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
-      <c r="K1" s="25"/>
-      <c r="L1" s="25"/>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
+      <c r="I1" s="40"/>
+      <c r="J1" s="40"/>
+      <c r="K1" s="40"/>
+      <c r="L1" s="40"/>
     </row>
     <row r="2" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">

--- a/static/Upload/5th sem.xlsx
+++ b/static/Upload/5th sem.xlsx
@@ -1106,7 +1106,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1224,6 +1224,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1529,13 +1532,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T98"/>
+  <dimension ref="A1:V98"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D32" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="I74" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G35" sqref="G35"/>
+      <selection pane="bottomRight" activeCell="V99" sqref="V99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1555,23 +1558,23 @@
     <col min="21" max="16384" width="9.140625" style="24"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="40" t="s">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A1" s="41" t="s">
         <v>227</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
-      <c r="H1" s="40"/>
-      <c r="I1" s="40"/>
-      <c r="J1" s="40"/>
-      <c r="K1" s="40"/>
-      <c r="L1" s="40"/>
-    </row>
-    <row r="2" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
+      <c r="I1" s="41"/>
+      <c r="J1" s="41"/>
+      <c r="K1" s="41"/>
+      <c r="L1" s="41"/>
+    </row>
+    <row r="2" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>0</v>
       </c>
@@ -1633,7 +1636,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
         <v>1</v>
       </c>
@@ -1651,13 +1654,23 @@
       </c>
       <c r="H3" s="8"/>
       <c r="I3" s="8"/>
-      <c r="J3" s="16"/>
+      <c r="J3" s="16">
+        <f>U3</f>
+        <v>0</v>
+      </c>
       <c r="K3" s="16"/>
       <c r="R3" s="20"/>
       <c r="S3" s="20"/>
       <c r="T3" s="20"/>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U3" s="24">
+        <f>ROUNDUP((V3/14)*100,2)</f>
+        <v>0</v>
+      </c>
+      <c r="V3" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
         <v>2</v>
       </c>
@@ -1675,13 +1688,23 @@
       </c>
       <c r="H4" s="8"/>
       <c r="I4" s="8"/>
-      <c r="J4" s="16"/>
+      <c r="J4" s="16">
+        <f t="shared" ref="J4:J67" si="0">U4</f>
+        <v>28.580000000000002</v>
+      </c>
       <c r="K4" s="16"/>
       <c r="R4" s="20"/>
       <c r="S4" s="20"/>
       <c r="T4" s="20"/>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U4" s="40">
+        <f t="shared" ref="U4:U67" si="1">ROUNDUP((V4/14)*100,2)</f>
+        <v>28.580000000000002</v>
+      </c>
+      <c r="V4" s="24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
         <v>3</v>
       </c>
@@ -1699,13 +1722,23 @@
       </c>
       <c r="H5" s="8"/>
       <c r="I5" s="8"/>
-      <c r="J5" s="16"/>
+      <c r="J5" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="K5" s="16"/>
       <c r="R5" s="20"/>
       <c r="S5" s="20"/>
       <c r="T5" s="20"/>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U5" s="40">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="V5" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
         <v>4</v>
       </c>
@@ -1723,13 +1756,23 @@
       </c>
       <c r="H6" s="8"/>
       <c r="I6" s="8"/>
-      <c r="J6" s="16"/>
+      <c r="J6" s="16">
+        <f t="shared" si="0"/>
+        <v>14.29</v>
+      </c>
       <c r="K6" s="16"/>
       <c r="R6" s="20"/>
       <c r="S6" s="20"/>
       <c r="T6" s="20"/>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U6" s="40">
+        <f t="shared" si="1"/>
+        <v>14.29</v>
+      </c>
+      <c r="V6" s="24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
         <v>5</v>
       </c>
@@ -1747,13 +1790,23 @@
       </c>
       <c r="H7" s="8"/>
       <c r="I7" s="8"/>
-      <c r="J7" s="16"/>
+      <c r="J7" s="16">
+        <f t="shared" si="0"/>
+        <v>21.430000000000003</v>
+      </c>
       <c r="K7" s="16"/>
       <c r="R7" s="20"/>
       <c r="S7" s="20"/>
       <c r="T7" s="20"/>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U7" s="40">
+        <f t="shared" si="1"/>
+        <v>21.430000000000003</v>
+      </c>
+      <c r="V7" s="24">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
         <v>6</v>
       </c>
@@ -1771,13 +1824,23 @@
       </c>
       <c r="H8" s="8"/>
       <c r="I8" s="8"/>
-      <c r="J8" s="16"/>
+      <c r="J8" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="K8" s="16"/>
       <c r="R8" s="20"/>
       <c r="S8" s="20"/>
       <c r="T8" s="20"/>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U8" s="40">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="V8" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
         <v>7</v>
       </c>
@@ -1795,13 +1858,23 @@
       </c>
       <c r="H9" s="8"/>
       <c r="I9" s="8"/>
-      <c r="J9" s="16"/>
+      <c r="J9" s="16">
+        <f t="shared" si="0"/>
+        <v>42.86</v>
+      </c>
       <c r="K9" s="16"/>
       <c r="R9" s="20"/>
       <c r="S9" s="20"/>
       <c r="T9" s="20"/>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U9" s="40">
+        <f t="shared" si="1"/>
+        <v>42.86</v>
+      </c>
+      <c r="V9" s="24">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
         <v>8</v>
       </c>
@@ -1819,13 +1892,23 @@
       </c>
       <c r="H10" s="8"/>
       <c r="I10" s="8"/>
-      <c r="J10" s="16"/>
+      <c r="J10" s="16">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
       <c r="K10" s="16"/>
       <c r="R10" s="20"/>
       <c r="S10" s="20"/>
       <c r="T10" s="20"/>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U10" s="40">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="V10" s="24">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11" s="8">
         <v>9</v>
       </c>
@@ -1843,13 +1926,23 @@
       </c>
       <c r="H11" s="8"/>
       <c r="I11" s="8"/>
-      <c r="J11" s="16"/>
+      <c r="J11" s="16">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
       <c r="K11" s="16"/>
       <c r="R11" s="20"/>
       <c r="S11" s="20"/>
       <c r="T11" s="20"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U11" s="40">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="V11" s="24">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12" s="8">
         <v>10</v>
       </c>
@@ -1867,13 +1960,23 @@
       </c>
       <c r="H12" s="8"/>
       <c r="I12" s="8"/>
-      <c r="J12" s="16"/>
+      <c r="J12" s="16">
+        <f t="shared" si="0"/>
+        <v>71.430000000000007</v>
+      </c>
       <c r="K12" s="16"/>
       <c r="R12" s="20"/>
       <c r="S12" s="20"/>
       <c r="T12" s="20"/>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U12" s="40">
+        <f t="shared" si="1"/>
+        <v>71.430000000000007</v>
+      </c>
+      <c r="V12" s="24">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A13" s="8">
         <v>11</v>
       </c>
@@ -1891,13 +1994,23 @@
       </c>
       <c r="H13" s="8"/>
       <c r="I13" s="8"/>
-      <c r="J13" s="16"/>
+      <c r="J13" s="16">
+        <f t="shared" si="0"/>
+        <v>85.72</v>
+      </c>
       <c r="K13" s="16"/>
       <c r="R13" s="20"/>
       <c r="S13" s="20"/>
       <c r="T13" s="20"/>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U13" s="40">
+        <f t="shared" si="1"/>
+        <v>85.72</v>
+      </c>
+      <c r="V13" s="24">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A14" s="8">
         <v>12</v>
       </c>
@@ -1915,13 +2028,23 @@
       </c>
       <c r="H14" s="8"/>
       <c r="I14" s="8"/>
-      <c r="J14" s="16"/>
+      <c r="J14" s="16">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
       <c r="K14" s="16"/>
       <c r="R14" s="20"/>
       <c r="S14" s="20"/>
       <c r="T14" s="20"/>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U14" s="40">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="V14" s="24">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A15" s="8">
         <v>13</v>
       </c>
@@ -1939,13 +2062,23 @@
       </c>
       <c r="H15" s="8"/>
       <c r="I15" s="8"/>
-      <c r="J15" s="16"/>
+      <c r="J15" s="16">
+        <f t="shared" si="0"/>
+        <v>42.86</v>
+      </c>
       <c r="K15" s="16"/>
       <c r="R15" s="20"/>
       <c r="S15" s="20"/>
       <c r="T15" s="20"/>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U15" s="40">
+        <f t="shared" si="1"/>
+        <v>42.86</v>
+      </c>
+      <c r="V15" s="24">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A16" s="8">
         <v>14</v>
       </c>
@@ -1963,13 +2096,23 @@
       </c>
       <c r="H16" s="8"/>
       <c r="I16" s="8"/>
-      <c r="J16" s="16"/>
+      <c r="J16" s="16">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
       <c r="K16" s="16"/>
       <c r="R16" s="20"/>
       <c r="S16" s="20"/>
       <c r="T16" s="20"/>
-    </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U16" s="40">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="V16" s="24">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A17" s="8">
         <v>15</v>
       </c>
@@ -1987,13 +2130,23 @@
       </c>
       <c r="H17" s="8"/>
       <c r="I17" s="8"/>
-      <c r="J17" s="16"/>
+      <c r="J17" s="16">
+        <f t="shared" si="0"/>
+        <v>28.580000000000002</v>
+      </c>
       <c r="K17" s="16"/>
       <c r="R17" s="20"/>
       <c r="S17" s="20"/>
       <c r="T17" s="20"/>
-    </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U17" s="40">
+        <f t="shared" si="1"/>
+        <v>28.580000000000002</v>
+      </c>
+      <c r="V17" s="24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A18" s="8">
         <v>16</v>
       </c>
@@ -2011,13 +2164,23 @@
       </c>
       <c r="H18" s="8"/>
       <c r="I18" s="8"/>
-      <c r="J18" s="16"/>
+      <c r="J18" s="16">
+        <f t="shared" si="0"/>
+        <v>57.15</v>
+      </c>
       <c r="K18" s="16"/>
       <c r="R18" s="20"/>
       <c r="S18" s="20"/>
       <c r="T18" s="20"/>
-    </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U18" s="40">
+        <f t="shared" si="1"/>
+        <v>57.15</v>
+      </c>
+      <c r="V18" s="24">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A19" s="8">
         <v>17</v>
       </c>
@@ -2035,13 +2198,23 @@
       </c>
       <c r="H19" s="8"/>
       <c r="I19" s="8"/>
-      <c r="J19" s="16"/>
+      <c r="J19" s="16">
+        <f t="shared" si="0"/>
+        <v>28.580000000000002</v>
+      </c>
       <c r="K19" s="16"/>
       <c r="R19" s="20"/>
       <c r="S19" s="20"/>
       <c r="T19" s="20"/>
-    </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U19" s="40">
+        <f t="shared" si="1"/>
+        <v>28.580000000000002</v>
+      </c>
+      <c r="V19" s="24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A20" s="8">
         <v>18</v>
       </c>
@@ -2059,13 +2232,23 @@
       </c>
       <c r="H20" s="8"/>
       <c r="I20" s="8"/>
-      <c r="J20" s="16"/>
+      <c r="J20" s="16">
+        <f t="shared" si="0"/>
+        <v>92.86</v>
+      </c>
       <c r="K20" s="16"/>
       <c r="R20" s="20"/>
       <c r="S20" s="20"/>
       <c r="T20" s="20"/>
-    </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U20" s="40">
+        <f t="shared" si="1"/>
+        <v>92.86</v>
+      </c>
+      <c r="V20" s="24">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A21" s="8">
         <v>19</v>
       </c>
@@ -2083,13 +2266,23 @@
       </c>
       <c r="H21" s="8"/>
       <c r="I21" s="8"/>
-      <c r="J21" s="16"/>
+      <c r="J21" s="16">
+        <f t="shared" si="0"/>
+        <v>64.290000000000006</v>
+      </c>
       <c r="K21" s="16"/>
       <c r="R21" s="20"/>
       <c r="S21" s="20"/>
       <c r="T21" s="20"/>
-    </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U21" s="40">
+        <f t="shared" si="1"/>
+        <v>64.290000000000006</v>
+      </c>
+      <c r="V21" s="24">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A22" s="8">
         <v>20</v>
       </c>
@@ -2107,13 +2300,23 @@
       </c>
       <c r="H22" s="8"/>
       <c r="I22" s="8"/>
-      <c r="J22" s="16"/>
+      <c r="J22" s="16">
+        <f t="shared" si="0"/>
+        <v>28.580000000000002</v>
+      </c>
       <c r="K22" s="16"/>
       <c r="R22" s="20"/>
       <c r="S22" s="20"/>
       <c r="T22" s="20"/>
-    </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U22" s="40">
+        <f t="shared" si="1"/>
+        <v>28.580000000000002</v>
+      </c>
+      <c r="V22" s="24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A23" s="8">
         <v>21</v>
       </c>
@@ -2131,13 +2334,23 @@
       </c>
       <c r="H23" s="8"/>
       <c r="I23" s="8"/>
-      <c r="J23" s="16"/>
+      <c r="J23" s="16">
+        <f t="shared" si="0"/>
+        <v>71.430000000000007</v>
+      </c>
       <c r="K23" s="16"/>
       <c r="R23" s="20"/>
       <c r="S23" s="20"/>
       <c r="T23" s="20"/>
-    </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U23" s="40">
+        <f t="shared" si="1"/>
+        <v>71.430000000000007</v>
+      </c>
+      <c r="V23" s="24">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A24" s="8">
         <v>22</v>
       </c>
@@ -2155,13 +2368,23 @@
       </c>
       <c r="H24" s="8"/>
       <c r="I24" s="8"/>
-      <c r="J24" s="16"/>
+      <c r="J24" s="16">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
       <c r="K24" s="16"/>
       <c r="R24" s="20"/>
       <c r="S24" s="20"/>
       <c r="T24" s="20"/>
-    </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U24" s="40">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="V24" s="24">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A25" s="8">
         <v>23</v>
       </c>
@@ -2179,13 +2402,23 @@
       </c>
       <c r="H25" s="8"/>
       <c r="I25" s="8"/>
-      <c r="J25" s="16"/>
+      <c r="J25" s="16">
+        <f t="shared" si="0"/>
+        <v>78.58</v>
+      </c>
       <c r="K25" s="16"/>
       <c r="R25" s="20"/>
       <c r="S25" s="20"/>
       <c r="T25" s="20"/>
-    </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U25" s="40">
+        <f t="shared" si="1"/>
+        <v>78.58</v>
+      </c>
+      <c r="V25" s="24">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A26" s="8">
         <v>24</v>
       </c>
@@ -2203,13 +2436,23 @@
       </c>
       <c r="H26" s="8"/>
       <c r="I26" s="8"/>
-      <c r="J26" s="16"/>
+      <c r="J26" s="16">
+        <f t="shared" si="0"/>
+        <v>21.430000000000003</v>
+      </c>
       <c r="K26" s="16"/>
       <c r="R26" s="20"/>
       <c r="S26" s="20"/>
       <c r="T26" s="20"/>
-    </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U26" s="40">
+        <f t="shared" si="1"/>
+        <v>21.430000000000003</v>
+      </c>
+      <c r="V26" s="24">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A27" s="8">
         <v>25</v>
       </c>
@@ -2227,13 +2470,23 @@
       </c>
       <c r="H27" s="8"/>
       <c r="I27" s="8"/>
-      <c r="J27" s="16"/>
+      <c r="J27" s="16">
+        <f t="shared" si="0"/>
+        <v>85.72</v>
+      </c>
       <c r="K27" s="16"/>
       <c r="R27" s="20"/>
       <c r="S27" s="20"/>
       <c r="T27" s="20"/>
-    </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U27" s="40">
+        <f t="shared" si="1"/>
+        <v>85.72</v>
+      </c>
+      <c r="V27" s="24">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A28" s="8">
         <v>26</v>
       </c>
@@ -2251,13 +2504,23 @@
       </c>
       <c r="H28" s="8"/>
       <c r="I28" s="8"/>
-      <c r="J28" s="16"/>
+      <c r="J28" s="16">
+        <f t="shared" si="0"/>
+        <v>92.86</v>
+      </c>
       <c r="K28" s="16"/>
       <c r="R28" s="20"/>
       <c r="S28" s="20"/>
       <c r="T28" s="20"/>
-    </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U28" s="40">
+        <f t="shared" si="1"/>
+        <v>92.86</v>
+      </c>
+      <c r="V28" s="24">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A29" s="8">
         <v>27</v>
       </c>
@@ -2275,13 +2538,23 @@
       </c>
       <c r="H29" s="8"/>
       <c r="I29" s="8"/>
-      <c r="J29" s="16"/>
+      <c r="J29" s="16">
+        <f t="shared" si="0"/>
+        <v>57.15</v>
+      </c>
       <c r="K29" s="16"/>
       <c r="R29" s="20"/>
       <c r="S29" s="20"/>
       <c r="T29" s="20"/>
-    </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U29" s="40">
+        <f t="shared" si="1"/>
+        <v>57.15</v>
+      </c>
+      <c r="V29" s="24">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A30" s="8">
         <v>28</v>
       </c>
@@ -2299,13 +2572,23 @@
       </c>
       <c r="H30" s="8"/>
       <c r="I30" s="8"/>
-      <c r="J30" s="16"/>
+      <c r="J30" s="16">
+        <f t="shared" si="0"/>
+        <v>35.72</v>
+      </c>
       <c r="K30" s="16"/>
       <c r="R30" s="20"/>
       <c r="S30" s="20"/>
       <c r="T30" s="20"/>
-    </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U30" s="40">
+        <f t="shared" si="1"/>
+        <v>35.72</v>
+      </c>
+      <c r="V30" s="24">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A31" s="8">
         <v>29</v>
       </c>
@@ -2323,13 +2606,23 @@
       </c>
       <c r="H31" s="8"/>
       <c r="I31" s="8"/>
-      <c r="J31" s="16"/>
+      <c r="J31" s="16">
+        <f t="shared" si="0"/>
+        <v>85.72</v>
+      </c>
       <c r="K31" s="16"/>
       <c r="R31" s="20"/>
       <c r="S31" s="20"/>
       <c r="T31" s="20"/>
-    </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U31" s="40">
+        <f t="shared" si="1"/>
+        <v>85.72</v>
+      </c>
+      <c r="V31" s="24">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A32" s="8">
         <v>30</v>
       </c>
@@ -2347,13 +2640,23 @@
       </c>
       <c r="H32" s="8"/>
       <c r="I32" s="8"/>
-      <c r="J32" s="16"/>
+      <c r="J32" s="16">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
       <c r="K32" s="16"/>
       <c r="R32" s="20"/>
       <c r="S32" s="20"/>
       <c r="T32" s="20"/>
-    </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U32" s="40">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="V32" s="24">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="33" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A33" s="8">
         <v>31</v>
       </c>
@@ -2371,13 +2674,23 @@
       </c>
       <c r="H33" s="8"/>
       <c r="I33" s="8"/>
-      <c r="J33" s="16"/>
+      <c r="J33" s="16">
+        <f t="shared" si="0"/>
+        <v>71.430000000000007</v>
+      </c>
       <c r="K33" s="16"/>
       <c r="R33" s="20"/>
       <c r="S33" s="20"/>
       <c r="T33" s="20"/>
-    </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U33" s="40">
+        <f t="shared" si="1"/>
+        <v>71.430000000000007</v>
+      </c>
+      <c r="V33" s="24">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A34" s="8">
         <v>32</v>
       </c>
@@ -2395,13 +2708,23 @@
       </c>
       <c r="H34" s="8"/>
       <c r="I34" s="8"/>
-      <c r="J34" s="16"/>
+      <c r="J34" s="16">
+        <f t="shared" si="0"/>
+        <v>64.290000000000006</v>
+      </c>
       <c r="K34" s="16"/>
       <c r="R34" s="20"/>
       <c r="S34" s="20"/>
       <c r="T34" s="20"/>
-    </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U34" s="40">
+        <f t="shared" si="1"/>
+        <v>64.290000000000006</v>
+      </c>
+      <c r="V34" s="24">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A35" s="8">
         <v>33</v>
       </c>
@@ -2419,13 +2742,23 @@
       </c>
       <c r="H35" s="8"/>
       <c r="I35" s="8"/>
-      <c r="J35" s="16"/>
+      <c r="J35" s="16">
+        <f t="shared" si="0"/>
+        <v>14.29</v>
+      </c>
       <c r="K35" s="16"/>
       <c r="R35" s="20"/>
       <c r="S35" s="20"/>
       <c r="T35" s="20"/>
-    </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U35" s="40">
+        <f t="shared" si="1"/>
+        <v>14.29</v>
+      </c>
+      <c r="V35" s="24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A36" s="8">
         <v>34</v>
       </c>
@@ -2443,13 +2776,23 @@
       </c>
       <c r="H36" s="8"/>
       <c r="I36" s="8"/>
-      <c r="J36" s="16"/>
+      <c r="J36" s="16">
+        <f t="shared" si="0"/>
+        <v>71.430000000000007</v>
+      </c>
       <c r="K36" s="16"/>
       <c r="R36" s="20"/>
       <c r="S36" s="20"/>
       <c r="T36" s="20"/>
-    </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U36" s="40">
+        <f t="shared" si="1"/>
+        <v>71.430000000000007</v>
+      </c>
+      <c r="V36" s="24">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A37" s="8">
         <v>35</v>
       </c>
@@ -2467,13 +2810,23 @@
       </c>
       <c r="H37" s="8"/>
       <c r="I37" s="8"/>
-      <c r="J37" s="16"/>
+      <c r="J37" s="16">
+        <f t="shared" si="0"/>
+        <v>64.290000000000006</v>
+      </c>
       <c r="K37" s="16"/>
       <c r="R37" s="20"/>
       <c r="S37" s="20"/>
       <c r="T37" s="20"/>
-    </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U37" s="40">
+        <f t="shared" si="1"/>
+        <v>64.290000000000006</v>
+      </c>
+      <c r="V37" s="24">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A38" s="8">
         <v>36</v>
       </c>
@@ -2491,13 +2844,23 @@
       </c>
       <c r="H38" s="8"/>
       <c r="I38" s="8"/>
-      <c r="J38" s="16"/>
+      <c r="J38" s="16">
+        <f t="shared" si="0"/>
+        <v>92.86</v>
+      </c>
       <c r="K38" s="16"/>
       <c r="R38" s="20"/>
       <c r="S38" s="20"/>
       <c r="T38" s="20"/>
-    </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U38" s="40">
+        <f t="shared" si="1"/>
+        <v>92.86</v>
+      </c>
+      <c r="V38" s="24">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="39" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A39" s="8">
         <v>37</v>
       </c>
@@ -2515,13 +2878,23 @@
       </c>
       <c r="H39" s="8"/>
       <c r="I39" s="8"/>
-      <c r="J39" s="16"/>
+      <c r="J39" s="16">
+        <f t="shared" si="0"/>
+        <v>78.58</v>
+      </c>
       <c r="K39" s="16"/>
       <c r="R39" s="20"/>
       <c r="S39" s="20"/>
       <c r="T39" s="20"/>
-    </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U39" s="40">
+        <f t="shared" si="1"/>
+        <v>78.58</v>
+      </c>
+      <c r="V39" s="24">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="40" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A40" s="8">
         <v>38</v>
       </c>
@@ -2539,13 +2912,23 @@
       </c>
       <c r="H40" s="8"/>
       <c r="I40" s="8"/>
-      <c r="J40" s="16"/>
+      <c r="J40" s="16">
+        <f t="shared" si="0"/>
+        <v>35.72</v>
+      </c>
       <c r="K40" s="16"/>
       <c r="R40" s="20"/>
       <c r="S40" s="20"/>
       <c r="T40" s="20"/>
-    </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U40" s="40">
+        <f t="shared" si="1"/>
+        <v>35.72</v>
+      </c>
+      <c r="V40" s="24">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A41" s="8">
         <v>39</v>
       </c>
@@ -2563,14 +2946,24 @@
       </c>
       <c r="H41" s="8"/>
       <c r="I41" s="8"/>
-      <c r="J41" s="16"/>
+      <c r="J41" s="16">
+        <f t="shared" si="0"/>
+        <v>35.72</v>
+      </c>
       <c r="K41" s="16"/>
       <c r="L41" s="22"/>
       <c r="R41" s="20"/>
       <c r="S41" s="20"/>
       <c r="T41" s="20"/>
-    </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U41" s="40">
+        <f t="shared" si="1"/>
+        <v>35.72</v>
+      </c>
+      <c r="V41" s="24">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A42" s="8">
         <v>40</v>
       </c>
@@ -2588,13 +2981,23 @@
       </c>
       <c r="H42" s="8"/>
       <c r="I42" s="8"/>
-      <c r="J42" s="16"/>
+      <c r="J42" s="16">
+        <f t="shared" si="0"/>
+        <v>35.72</v>
+      </c>
       <c r="K42" s="16"/>
       <c r="R42" s="20"/>
       <c r="S42" s="20"/>
       <c r="T42" s="20"/>
-    </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U42" s="40">
+        <f t="shared" si="1"/>
+        <v>35.72</v>
+      </c>
+      <c r="V42" s="24">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A43" s="8">
         <v>41</v>
       </c>
@@ -2612,13 +3015,23 @@
       </c>
       <c r="H43" s="8"/>
       <c r="I43" s="8"/>
-      <c r="J43" s="16"/>
+      <c r="J43" s="16">
+        <f t="shared" si="0"/>
+        <v>78.58</v>
+      </c>
       <c r="K43" s="16"/>
       <c r="R43" s="20"/>
       <c r="S43" s="20"/>
       <c r="T43" s="20"/>
-    </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U43" s="40">
+        <f t="shared" si="1"/>
+        <v>78.58</v>
+      </c>
+      <c r="V43" s="24">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="44" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A44" s="8">
         <v>42</v>
       </c>
@@ -2636,13 +3049,23 @@
       </c>
       <c r="H44" s="8"/>
       <c r="I44" s="8"/>
-      <c r="J44" s="16"/>
+      <c r="J44" s="16">
+        <f t="shared" si="0"/>
+        <v>14.29</v>
+      </c>
       <c r="K44" s="16"/>
       <c r="R44" s="20"/>
       <c r="S44" s="20"/>
       <c r="T44" s="20"/>
-    </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U44" s="40">
+        <f t="shared" si="1"/>
+        <v>14.29</v>
+      </c>
+      <c r="V44" s="24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A45" s="8">
         <v>43</v>
       </c>
@@ -2660,13 +3083,23 @@
       </c>
       <c r="H45" s="8"/>
       <c r="I45" s="8"/>
-      <c r="J45" s="16"/>
+      <c r="J45" s="16">
+        <f t="shared" si="0"/>
+        <v>28.580000000000002</v>
+      </c>
       <c r="K45" s="16"/>
       <c r="R45" s="20"/>
       <c r="S45" s="20"/>
       <c r="T45" s="20"/>
-    </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U45" s="40">
+        <f t="shared" si="1"/>
+        <v>28.580000000000002</v>
+      </c>
+      <c r="V45" s="24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A46" s="8">
         <v>44</v>
       </c>
@@ -2684,13 +3117,23 @@
       </c>
       <c r="H46" s="8"/>
       <c r="I46" s="8"/>
-      <c r="J46" s="16"/>
+      <c r="J46" s="16">
+        <f t="shared" si="0"/>
+        <v>57.15</v>
+      </c>
       <c r="K46" s="16"/>
       <c r="R46" s="20"/>
       <c r="S46" s="20"/>
       <c r="T46" s="20"/>
-    </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U46" s="40">
+        <f t="shared" si="1"/>
+        <v>57.15</v>
+      </c>
+      <c r="V46" s="24">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A47" s="8">
         <v>45</v>
       </c>
@@ -2708,13 +3151,23 @@
       </c>
       <c r="H47" s="8"/>
       <c r="I47" s="8"/>
-      <c r="J47" s="16"/>
+      <c r="J47" s="16">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
       <c r="K47" s="16"/>
       <c r="R47" s="20"/>
       <c r="S47" s="20"/>
       <c r="T47" s="20"/>
-    </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U47" s="40">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="V47" s="24">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A48" s="8">
         <v>46</v>
       </c>
@@ -2732,13 +3185,23 @@
       </c>
       <c r="H48" s="8"/>
       <c r="I48" s="8"/>
-      <c r="J48" s="16"/>
+      <c r="J48" s="16">
+        <f t="shared" si="0"/>
+        <v>21.430000000000003</v>
+      </c>
       <c r="K48" s="16"/>
       <c r="R48" s="20"/>
       <c r="S48" s="20"/>
       <c r="T48" s="20"/>
-    </row>
-    <row r="49" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U48" s="40">
+        <f t="shared" si="1"/>
+        <v>21.430000000000003</v>
+      </c>
+      <c r="V48" s="24">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A49" s="8">
         <v>47</v>
       </c>
@@ -2756,13 +3219,23 @@
       </c>
       <c r="H49" s="8"/>
       <c r="I49" s="8"/>
-      <c r="J49" s="16"/>
+      <c r="J49" s="16">
+        <f t="shared" si="0"/>
+        <v>21.430000000000003</v>
+      </c>
       <c r="K49" s="16"/>
       <c r="R49" s="20"/>
       <c r="S49" s="20"/>
       <c r="T49" s="20"/>
-    </row>
-    <row r="50" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U49" s="40">
+        <f t="shared" si="1"/>
+        <v>21.430000000000003</v>
+      </c>
+      <c r="V49" s="24">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A50" s="8">
         <v>48</v>
       </c>
@@ -2780,13 +3253,23 @@
       </c>
       <c r="H50" s="8"/>
       <c r="I50" s="8"/>
-      <c r="J50" s="16"/>
+      <c r="J50" s="16">
+        <f t="shared" si="0"/>
+        <v>14.29</v>
+      </c>
       <c r="K50" s="16"/>
       <c r="R50" s="20"/>
       <c r="S50" s="20"/>
       <c r="T50" s="20"/>
-    </row>
-    <row r="51" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U50" s="40">
+        <f t="shared" si="1"/>
+        <v>14.29</v>
+      </c>
+      <c r="V50" s="24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A51" s="8">
         <v>49</v>
       </c>
@@ -2804,13 +3287,23 @@
       </c>
       <c r="H51" s="8"/>
       <c r="I51" s="8"/>
-      <c r="J51" s="16"/>
+      <c r="J51" s="16">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
       <c r="K51" s="16"/>
       <c r="R51" s="20"/>
       <c r="S51" s="20"/>
       <c r="T51" s="20"/>
-    </row>
-    <row r="52" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U51" s="40">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="V51" s="24">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="52" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A52" s="8">
         <v>50</v>
       </c>
@@ -2828,14 +3321,24 @@
       </c>
       <c r="H52" s="8"/>
       <c r="I52" s="8"/>
-      <c r="J52" s="16"/>
+      <c r="J52" s="16">
+        <f t="shared" si="0"/>
+        <v>42.86</v>
+      </c>
       <c r="K52" s="16"/>
       <c r="L52" s="22"/>
       <c r="R52" s="20"/>
       <c r="S52" s="20"/>
       <c r="T52" s="20"/>
-    </row>
-    <row r="53" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U52" s="40">
+        <f t="shared" si="1"/>
+        <v>42.86</v>
+      </c>
+      <c r="V52" s="24">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A53" s="8">
         <v>51</v>
       </c>
@@ -2853,13 +3356,23 @@
       </c>
       <c r="H53" s="8"/>
       <c r="I53" s="8"/>
-      <c r="J53" s="16"/>
+      <c r="J53" s="16">
+        <f t="shared" si="0"/>
+        <v>64.290000000000006</v>
+      </c>
       <c r="K53" s="16"/>
       <c r="R53" s="20"/>
       <c r="S53" s="20"/>
       <c r="T53" s="20"/>
-    </row>
-    <row r="54" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U53" s="40">
+        <f t="shared" si="1"/>
+        <v>64.290000000000006</v>
+      </c>
+      <c r="V53" s="24">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="54" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A54" s="8">
         <v>52</v>
       </c>
@@ -2877,14 +3390,24 @@
       </c>
       <c r="H54" s="8"/>
       <c r="I54" s="8"/>
-      <c r="J54" s="16"/>
+      <c r="J54" s="16">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
       <c r="K54" s="16"/>
       <c r="L54" s="22"/>
       <c r="R54" s="20"/>
       <c r="S54" s="20"/>
       <c r="T54" s="20"/>
-    </row>
-    <row r="55" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U54" s="40">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="V54" s="24">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="55" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A55" s="8">
         <v>53</v>
       </c>
@@ -2902,13 +3425,23 @@
       </c>
       <c r="H55" s="8"/>
       <c r="I55" s="8"/>
-      <c r="J55" s="16"/>
+      <c r="J55" s="16">
+        <f t="shared" si="0"/>
+        <v>85.72</v>
+      </c>
       <c r="K55" s="16"/>
       <c r="R55" s="20"/>
       <c r="S55" s="20"/>
       <c r="T55" s="20"/>
-    </row>
-    <row r="56" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U55" s="40">
+        <f t="shared" si="1"/>
+        <v>85.72</v>
+      </c>
+      <c r="V55" s="24">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="56" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A56" s="8">
         <v>54</v>
       </c>
@@ -2926,13 +3459,23 @@
       </c>
       <c r="H56" s="8"/>
       <c r="I56" s="8"/>
-      <c r="J56" s="16"/>
+      <c r="J56" s="16">
+        <f t="shared" si="0"/>
+        <v>78.58</v>
+      </c>
       <c r="K56" s="16"/>
       <c r="R56" s="20"/>
       <c r="S56" s="20"/>
       <c r="T56" s="20"/>
-    </row>
-    <row r="57" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U56" s="40">
+        <f t="shared" si="1"/>
+        <v>78.58</v>
+      </c>
+      <c r="V56" s="24">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="57" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A57" s="8">
         <v>55</v>
       </c>
@@ -2950,13 +3493,23 @@
       </c>
       <c r="H57" s="8"/>
       <c r="I57" s="8"/>
-      <c r="J57" s="16"/>
+      <c r="J57" s="16">
+        <f t="shared" si="0"/>
+        <v>71.430000000000007</v>
+      </c>
       <c r="K57" s="16"/>
       <c r="R57" s="20"/>
       <c r="S57" s="20"/>
       <c r="T57" s="20"/>
-    </row>
-    <row r="58" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U57" s="40">
+        <f t="shared" si="1"/>
+        <v>71.430000000000007</v>
+      </c>
+      <c r="V57" s="24">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A58" s="8">
         <v>56</v>
       </c>
@@ -2974,13 +3527,23 @@
       </c>
       <c r="H58" s="8"/>
       <c r="I58" s="8"/>
-      <c r="J58" s="16"/>
+      <c r="J58" s="16">
+        <f t="shared" si="0"/>
+        <v>78.58</v>
+      </c>
       <c r="K58" s="16"/>
       <c r="R58" s="20"/>
       <c r="S58" s="20"/>
       <c r="T58" s="20"/>
-    </row>
-    <row r="59" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U58" s="40">
+        <f t="shared" si="1"/>
+        <v>78.58</v>
+      </c>
+      <c r="V58" s="24">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="59" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A59" s="8">
         <v>57</v>
       </c>
@@ -2998,13 +3561,23 @@
       </c>
       <c r="H59" s="8"/>
       <c r="I59" s="8"/>
-      <c r="J59" s="16"/>
+      <c r="J59" s="16">
+        <f t="shared" si="0"/>
+        <v>35.72</v>
+      </c>
       <c r="K59" s="16"/>
       <c r="R59" s="20"/>
       <c r="S59" s="20"/>
       <c r="T59" s="20"/>
-    </row>
-    <row r="60" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U59" s="40">
+        <f t="shared" si="1"/>
+        <v>35.72</v>
+      </c>
+      <c r="V59" s="24">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A60" s="8">
         <v>58</v>
       </c>
@@ -3022,13 +3595,23 @@
       </c>
       <c r="H60" s="8"/>
       <c r="I60" s="8"/>
-      <c r="J60" s="16"/>
+      <c r="J60" s="16">
+        <f t="shared" si="0"/>
+        <v>28.580000000000002</v>
+      </c>
       <c r="K60" s="16"/>
       <c r="R60" s="20"/>
       <c r="S60" s="20"/>
       <c r="T60" s="20"/>
-    </row>
-    <row r="61" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U60" s="40">
+        <f t="shared" si="1"/>
+        <v>28.580000000000002</v>
+      </c>
+      <c r="V60" s="24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A61" s="8">
         <v>59</v>
       </c>
@@ -3046,14 +3629,24 @@
       </c>
       <c r="H61" s="8"/>
       <c r="I61" s="8"/>
-      <c r="J61" s="16"/>
+      <c r="J61" s="16">
+        <f t="shared" si="0"/>
+        <v>71.430000000000007</v>
+      </c>
       <c r="K61" s="16"/>
       <c r="L61" s="16"/>
       <c r="R61" s="20"/>
       <c r="S61" s="20"/>
       <c r="T61" s="20"/>
-    </row>
-    <row r="62" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U61" s="40">
+        <f t="shared" si="1"/>
+        <v>71.430000000000007</v>
+      </c>
+      <c r="V61" s="24">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="62" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A62" s="8">
         <v>60</v>
       </c>
@@ -3071,14 +3664,24 @@
       </c>
       <c r="H62" s="8"/>
       <c r="I62" s="8"/>
-      <c r="J62" s="16"/>
+      <c r="J62" s="16">
+        <f t="shared" si="0"/>
+        <v>35.72</v>
+      </c>
       <c r="K62" s="16"/>
       <c r="L62" s="16"/>
       <c r="R62" s="20"/>
       <c r="S62" s="20"/>
       <c r="T62" s="20"/>
-    </row>
-    <row r="63" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U62" s="40">
+        <f t="shared" si="1"/>
+        <v>35.72</v>
+      </c>
+      <c r="V62" s="24">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A63" s="8">
         <v>61</v>
       </c>
@@ -3096,14 +3699,24 @@
       </c>
       <c r="H63" s="8"/>
       <c r="I63" s="8"/>
-      <c r="J63" s="16"/>
+      <c r="J63" s="16">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
       <c r="K63" s="16"/>
       <c r="L63" s="16"/>
       <c r="R63" s="20"/>
       <c r="S63" s="20"/>
       <c r="T63" s="20"/>
-    </row>
-    <row r="64" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U63" s="40">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="V63" s="24">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="64" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A64" s="8">
         <v>62</v>
       </c>
@@ -3121,14 +3734,24 @@
       </c>
       <c r="H64" s="8"/>
       <c r="I64" s="8"/>
-      <c r="J64" s="16"/>
+      <c r="J64" s="16">
+        <f t="shared" si="0"/>
+        <v>85.72</v>
+      </c>
       <c r="K64" s="16"/>
       <c r="L64" s="16"/>
       <c r="R64" s="20"/>
       <c r="S64" s="20"/>
       <c r="T64" s="20"/>
-    </row>
-    <row r="65" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U64" s="40">
+        <f t="shared" si="1"/>
+        <v>85.72</v>
+      </c>
+      <c r="V64" s="24">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="65" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A65" s="8">
         <v>63</v>
       </c>
@@ -3146,14 +3769,24 @@
       </c>
       <c r="H65" s="8"/>
       <c r="I65" s="8"/>
-      <c r="J65" s="16"/>
+      <c r="J65" s="16">
+        <f t="shared" si="0"/>
+        <v>57.15</v>
+      </c>
       <c r="K65" s="16"/>
       <c r="L65" s="16"/>
       <c r="R65" s="20"/>
       <c r="S65" s="20"/>
       <c r="T65" s="20"/>
-    </row>
-    <row r="66" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U65" s="40">
+        <f t="shared" si="1"/>
+        <v>57.15</v>
+      </c>
+      <c r="V65" s="24">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="66" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A66" s="8">
         <v>64</v>
       </c>
@@ -3171,14 +3804,24 @@
       </c>
       <c r="H66" s="8"/>
       <c r="I66" s="8"/>
-      <c r="J66" s="16"/>
+      <c r="J66" s="16">
+        <f t="shared" si="0"/>
+        <v>85.72</v>
+      </c>
       <c r="K66" s="16"/>
       <c r="L66" s="16"/>
       <c r="R66" s="20"/>
       <c r="S66" s="20"/>
       <c r="T66" s="20"/>
-    </row>
-    <row r="67" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U66" s="40">
+        <f t="shared" si="1"/>
+        <v>85.72</v>
+      </c>
+      <c r="V66" s="24">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="67" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A67" s="8">
         <v>65</v>
       </c>
@@ -3196,14 +3839,24 @@
       </c>
       <c r="H67" s="8"/>
       <c r="I67" s="8"/>
-      <c r="J67" s="16"/>
+      <c r="J67" s="16">
+        <f t="shared" si="0"/>
+        <v>64.290000000000006</v>
+      </c>
       <c r="K67" s="16"/>
       <c r="L67" s="16"/>
       <c r="R67" s="20"/>
       <c r="S67" s="20"/>
       <c r="T67" s="20"/>
-    </row>
-    <row r="68" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U67" s="40">
+        <f t="shared" si="1"/>
+        <v>64.290000000000006</v>
+      </c>
+      <c r="V67" s="24">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="68" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A68" s="8">
         <v>66</v>
       </c>
@@ -3221,14 +3874,24 @@
       </c>
       <c r="H68" s="8"/>
       <c r="I68" s="8"/>
-      <c r="J68" s="16"/>
+      <c r="J68" s="16">
+        <f t="shared" ref="J68:J98" si="2">U68</f>
+        <v>50</v>
+      </c>
       <c r="K68" s="16"/>
       <c r="L68" s="16"/>
       <c r="R68" s="20"/>
       <c r="S68" s="20"/>
       <c r="T68" s="20"/>
-    </row>
-    <row r="69" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U68" s="40">
+        <f t="shared" ref="U68:U98" si="3">ROUNDUP((V68/14)*100,2)</f>
+        <v>50</v>
+      </c>
+      <c r="V68" s="24">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="69" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A69" s="8">
         <v>67</v>
       </c>
@@ -3246,14 +3909,24 @@
       </c>
       <c r="H69" s="8"/>
       <c r="I69" s="8"/>
-      <c r="J69" s="16"/>
+      <c r="J69" s="16">
+        <f t="shared" si="2"/>
+        <v>92.86</v>
+      </c>
       <c r="K69" s="16"/>
       <c r="L69" s="16"/>
       <c r="R69" s="20"/>
       <c r="S69" s="20"/>
       <c r="T69" s="20"/>
-    </row>
-    <row r="70" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U69" s="40">
+        <f t="shared" si="3"/>
+        <v>92.86</v>
+      </c>
+      <c r="V69" s="24">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="70" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A70" s="8">
         <v>68</v>
       </c>
@@ -3271,14 +3944,24 @@
       </c>
       <c r="H70" s="8"/>
       <c r="I70" s="8"/>
-      <c r="J70" s="16"/>
+      <c r="J70" s="16">
+        <f t="shared" si="2"/>
+        <v>92.86</v>
+      </c>
       <c r="K70" s="16"/>
       <c r="L70" s="16"/>
       <c r="R70" s="20"/>
       <c r="S70" s="20"/>
       <c r="T70" s="20"/>
-    </row>
-    <row r="71" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U70" s="40">
+        <f t="shared" si="3"/>
+        <v>92.86</v>
+      </c>
+      <c r="V70" s="24">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="71" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A71" s="8">
         <v>69</v>
       </c>
@@ -3296,14 +3979,24 @@
       </c>
       <c r="H71" s="8"/>
       <c r="I71" s="8"/>
-      <c r="J71" s="16"/>
+      <c r="J71" s="16">
+        <f t="shared" si="2"/>
+        <v>42.86</v>
+      </c>
       <c r="K71" s="16"/>
       <c r="L71" s="16"/>
       <c r="R71" s="20"/>
       <c r="S71" s="20"/>
       <c r="T71" s="20"/>
-    </row>
-    <row r="72" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U71" s="40">
+        <f t="shared" si="3"/>
+        <v>42.86</v>
+      </c>
+      <c r="V71" s="24">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="72" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A72" s="8">
         <v>70</v>
       </c>
@@ -3321,14 +4014,24 @@
       </c>
       <c r="H72" s="8"/>
       <c r="I72" s="8"/>
-      <c r="J72" s="16"/>
+      <c r="J72" s="16">
+        <f t="shared" si="2"/>
+        <v>92.86</v>
+      </c>
       <c r="K72" s="16"/>
       <c r="L72" s="16"/>
       <c r="R72" s="20"/>
       <c r="S72" s="20"/>
       <c r="T72" s="20"/>
-    </row>
-    <row r="73" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U72" s="40">
+        <f t="shared" si="3"/>
+        <v>92.86</v>
+      </c>
+      <c r="V72" s="24">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="73" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A73" s="8">
         <v>71</v>
       </c>
@@ -3346,14 +4049,24 @@
       </c>
       <c r="H73" s="8"/>
       <c r="I73" s="8"/>
-      <c r="J73" s="16"/>
+      <c r="J73" s="16">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
       <c r="K73" s="16"/>
       <c r="L73" s="16"/>
       <c r="R73" s="20"/>
       <c r="S73" s="20"/>
       <c r="T73" s="20"/>
-    </row>
-    <row r="74" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U73" s="40">
+        <f t="shared" si="3"/>
+        <v>100</v>
+      </c>
+      <c r="V73" s="24">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="74" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A74" s="8">
         <v>72</v>
       </c>
@@ -3371,14 +4084,24 @@
       </c>
       <c r="H74" s="8"/>
       <c r="I74" s="8"/>
-      <c r="J74" s="16"/>
+      <c r="J74" s="16">
+        <f t="shared" si="2"/>
+        <v>92.86</v>
+      </c>
       <c r="K74" s="16"/>
       <c r="L74" s="16"/>
       <c r="R74" s="20"/>
       <c r="S74" s="20"/>
       <c r="T74" s="20"/>
-    </row>
-    <row r="75" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U74" s="40">
+        <f t="shared" si="3"/>
+        <v>92.86</v>
+      </c>
+      <c r="V74" s="24">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="75" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A75" s="8">
         <v>73</v>
       </c>
@@ -3396,14 +4119,24 @@
       </c>
       <c r="H75" s="8"/>
       <c r="I75" s="8"/>
-      <c r="J75" s="16"/>
+      <c r="J75" s="16">
+        <f t="shared" si="2"/>
+        <v>71.430000000000007</v>
+      </c>
       <c r="K75" s="16"/>
       <c r="L75" s="16"/>
       <c r="R75" s="20"/>
       <c r="S75" s="20"/>
       <c r="T75" s="20"/>
-    </row>
-    <row r="76" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U75" s="40">
+        <f t="shared" si="3"/>
+        <v>71.430000000000007</v>
+      </c>
+      <c r="V75" s="24">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="76" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A76" s="8">
         <v>74</v>
       </c>
@@ -3421,14 +4154,24 @@
       </c>
       <c r="H76" s="8"/>
       <c r="I76" s="8"/>
-      <c r="J76" s="16"/>
+      <c r="J76" s="16">
+        <f t="shared" si="2"/>
+        <v>64.290000000000006</v>
+      </c>
       <c r="K76" s="16"/>
       <c r="L76" s="16"/>
       <c r="R76" s="20"/>
       <c r="S76" s="20"/>
       <c r="T76" s="20"/>
-    </row>
-    <row r="77" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U76" s="40">
+        <f t="shared" si="3"/>
+        <v>64.290000000000006</v>
+      </c>
+      <c r="V76" s="24">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="77" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A77" s="8">
         <v>75</v>
       </c>
@@ -3446,14 +4189,24 @@
       </c>
       <c r="H77" s="8"/>
       <c r="I77" s="8"/>
-      <c r="J77" s="16"/>
+      <c r="J77" s="16">
+        <f t="shared" si="2"/>
+        <v>92.86</v>
+      </c>
       <c r="K77" s="16"/>
       <c r="L77" s="16"/>
       <c r="R77" s="20"/>
       <c r="S77" s="20"/>
       <c r="T77" s="20"/>
-    </row>
-    <row r="78" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U77" s="40">
+        <f t="shared" si="3"/>
+        <v>92.86</v>
+      </c>
+      <c r="V77" s="24">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="78" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A78" s="8">
         <v>76</v>
       </c>
@@ -3471,14 +4224,24 @@
       </c>
       <c r="H78" s="8"/>
       <c r="I78" s="8"/>
-      <c r="J78" s="16"/>
+      <c r="J78" s="16">
+        <f t="shared" si="2"/>
+        <v>50</v>
+      </c>
       <c r="K78" s="16"/>
       <c r="L78" s="16"/>
       <c r="R78" s="20"/>
       <c r="S78" s="20"/>
       <c r="T78" s="20"/>
-    </row>
-    <row r="79" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U78" s="40">
+        <f t="shared" si="3"/>
+        <v>50</v>
+      </c>
+      <c r="V78" s="24">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="79" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A79" s="8">
         <v>77</v>
       </c>
@@ -3496,14 +4259,24 @@
       </c>
       <c r="H79" s="8"/>
       <c r="I79" s="8"/>
-      <c r="J79" s="16"/>
+      <c r="J79" s="16">
+        <f t="shared" si="2"/>
+        <v>57.15</v>
+      </c>
       <c r="K79" s="16"/>
       <c r="L79" s="16"/>
       <c r="R79" s="20"/>
       <c r="S79" s="20"/>
       <c r="T79" s="20"/>
-    </row>
-    <row r="80" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U79" s="40">
+        <f t="shared" si="3"/>
+        <v>57.15</v>
+      </c>
+      <c r="V79" s="24">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="80" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A80" s="8">
         <v>78</v>
       </c>
@@ -3521,14 +4294,24 @@
       </c>
       <c r="H80" s="8"/>
       <c r="I80" s="8"/>
-      <c r="J80" s="16"/>
+      <c r="J80" s="16">
+        <f t="shared" si="2"/>
+        <v>92.86</v>
+      </c>
       <c r="K80" s="16"/>
       <c r="L80" s="16"/>
       <c r="R80" s="20"/>
       <c r="S80" s="20"/>
       <c r="T80" s="20"/>
-    </row>
-    <row r="81" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U80" s="40">
+        <f t="shared" si="3"/>
+        <v>92.86</v>
+      </c>
+      <c r="V80" s="24">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="81" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A81" s="8">
         <v>79</v>
       </c>
@@ -3546,14 +4329,24 @@
       </c>
       <c r="H81" s="8"/>
       <c r="I81" s="8"/>
-      <c r="J81" s="16"/>
+      <c r="J81" s="16">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
       <c r="K81" s="16"/>
       <c r="L81" s="16"/>
       <c r="R81" s="20"/>
       <c r="S81" s="20"/>
       <c r="T81" s="20"/>
-    </row>
-    <row r="82" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U81" s="40">
+        <f t="shared" si="3"/>
+        <v>100</v>
+      </c>
+      <c r="V81" s="24">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="82" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A82" s="8">
         <v>80</v>
       </c>
@@ -3571,14 +4364,24 @@
       </c>
       <c r="H82" s="8"/>
       <c r="I82" s="8"/>
-      <c r="J82" s="16"/>
+      <c r="J82" s="16">
+        <f t="shared" si="2"/>
+        <v>78.58</v>
+      </c>
       <c r="K82" s="16"/>
       <c r="L82" s="16"/>
       <c r="R82" s="20"/>
       <c r="S82" s="20"/>
       <c r="T82" s="20"/>
-    </row>
-    <row r="83" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U82" s="40">
+        <f t="shared" si="3"/>
+        <v>78.58</v>
+      </c>
+      <c r="V82" s="24">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="83" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A83" s="8">
         <v>81</v>
       </c>
@@ -3596,14 +4399,24 @@
       </c>
       <c r="H83" s="8"/>
       <c r="I83" s="8"/>
-      <c r="J83" s="16"/>
+      <c r="J83" s="16">
+        <f t="shared" si="2"/>
+        <v>92.86</v>
+      </c>
       <c r="K83" s="16"/>
       <c r="L83" s="16"/>
       <c r="R83" s="20"/>
       <c r="S83" s="20"/>
       <c r="T83" s="20"/>
-    </row>
-    <row r="84" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U83" s="40">
+        <f t="shared" si="3"/>
+        <v>92.86</v>
+      </c>
+      <c r="V83" s="24">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="84" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A84" s="8">
         <v>82</v>
       </c>
@@ -3621,14 +4434,24 @@
       </c>
       <c r="H84" s="8"/>
       <c r="I84" s="8"/>
-      <c r="J84" s="16"/>
+      <c r="J84" s="16">
+        <f t="shared" si="2"/>
+        <v>71.430000000000007</v>
+      </c>
       <c r="K84" s="16"/>
       <c r="L84" s="16"/>
       <c r="R84" s="20"/>
       <c r="S84" s="20"/>
       <c r="T84" s="20"/>
-    </row>
-    <row r="85" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U84" s="40">
+        <f t="shared" si="3"/>
+        <v>71.430000000000007</v>
+      </c>
+      <c r="V84" s="24">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="85" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A85" s="8">
         <v>83</v>
       </c>
@@ -3646,14 +4469,24 @@
       </c>
       <c r="H85" s="8"/>
       <c r="I85" s="8"/>
-      <c r="J85" s="16"/>
+      <c r="J85" s="16">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="K85" s="16"/>
       <c r="L85" s="16"/>
       <c r="R85" s="20"/>
       <c r="S85" s="20"/>
       <c r="T85" s="20"/>
-    </row>
-    <row r="86" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U85" s="40">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="V85" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A86" s="8">
         <v>84</v>
       </c>
@@ -3671,14 +4504,24 @@
       </c>
       <c r="H86" s="8"/>
       <c r="I86" s="8"/>
-      <c r="J86" s="16"/>
+      <c r="J86" s="16">
+        <f t="shared" si="2"/>
+        <v>57.15</v>
+      </c>
       <c r="K86" s="16"/>
       <c r="L86" s="16"/>
       <c r="R86" s="20"/>
       <c r="S86" s="20"/>
       <c r="T86" s="20"/>
-    </row>
-    <row r="87" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U86" s="40">
+        <f t="shared" si="3"/>
+        <v>57.15</v>
+      </c>
+      <c r="V86" s="24">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="87" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A87" s="8">
         <v>85</v>
       </c>
@@ -3696,14 +4539,24 @@
       </c>
       <c r="H87" s="8"/>
       <c r="I87" s="8"/>
-      <c r="J87" s="16"/>
+      <c r="J87" s="16">
+        <f t="shared" si="2"/>
+        <v>57.15</v>
+      </c>
       <c r="K87" s="16"/>
       <c r="L87" s="16"/>
       <c r="R87" s="20"/>
       <c r="S87" s="20"/>
       <c r="T87" s="20"/>
-    </row>
-    <row r="88" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U87" s="40">
+        <f t="shared" si="3"/>
+        <v>57.15</v>
+      </c>
+      <c r="V87" s="24">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="88" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A88" s="8">
         <v>86</v>
       </c>
@@ -3721,14 +4574,24 @@
       </c>
       <c r="H88" s="8"/>
       <c r="I88" s="8"/>
-      <c r="J88" s="16"/>
+      <c r="J88" s="16">
+        <f t="shared" si="2"/>
+        <v>64.290000000000006</v>
+      </c>
       <c r="K88" s="16"/>
       <c r="L88" s="16"/>
       <c r="R88" s="20"/>
       <c r="S88" s="20"/>
       <c r="T88" s="20"/>
-    </row>
-    <row r="89" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U88" s="40">
+        <f t="shared" si="3"/>
+        <v>64.290000000000006</v>
+      </c>
+      <c r="V88" s="24">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="89" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A89" s="8">
         <v>87</v>
       </c>
@@ -3746,14 +4609,24 @@
       </c>
       <c r="H89" s="8"/>
       <c r="I89" s="8"/>
-      <c r="J89" s="16"/>
+      <c r="J89" s="16">
+        <f t="shared" si="2"/>
+        <v>7.1499999999999995</v>
+      </c>
       <c r="K89" s="16"/>
       <c r="L89" s="16"/>
       <c r="R89" s="20"/>
       <c r="S89" s="20"/>
       <c r="T89" s="20"/>
-    </row>
-    <row r="90" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U89" s="40">
+        <f t="shared" si="3"/>
+        <v>7.1499999999999995</v>
+      </c>
+      <c r="V89" s="24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A90" s="8">
         <v>88</v>
       </c>
@@ -3771,14 +4644,24 @@
       </c>
       <c r="H90" s="8"/>
       <c r="I90" s="8"/>
-      <c r="J90" s="16"/>
+      <c r="J90" s="16">
+        <f t="shared" si="2"/>
+        <v>50</v>
+      </c>
       <c r="K90" s="16"/>
       <c r="L90" s="16"/>
       <c r="R90" s="20"/>
       <c r="S90" s="20"/>
       <c r="T90" s="20"/>
-    </row>
-    <row r="91" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U90" s="40">
+        <f t="shared" si="3"/>
+        <v>50</v>
+      </c>
+      <c r="V90" s="24">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="91" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A91" s="8">
         <v>89</v>
       </c>
@@ -3796,14 +4679,24 @@
       </c>
       <c r="H91" s="8"/>
       <c r="I91" s="8"/>
-      <c r="J91" s="16"/>
+      <c r="J91" s="16">
+        <f t="shared" si="2"/>
+        <v>92.86</v>
+      </c>
       <c r="K91" s="16"/>
       <c r="L91" s="16"/>
       <c r="R91" s="20"/>
       <c r="S91" s="20"/>
       <c r="T91" s="20"/>
-    </row>
-    <row r="92" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U91" s="40">
+        <f t="shared" si="3"/>
+        <v>92.86</v>
+      </c>
+      <c r="V91" s="24">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="92" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A92" s="8">
         <v>90</v>
       </c>
@@ -3821,14 +4714,24 @@
       </c>
       <c r="H92" s="8"/>
       <c r="I92" s="8"/>
-      <c r="J92" s="16"/>
+      <c r="J92" s="16">
+        <f t="shared" si="2"/>
+        <v>42.86</v>
+      </c>
       <c r="K92" s="16"/>
       <c r="L92" s="16"/>
       <c r="R92" s="20"/>
       <c r="S92" s="20"/>
       <c r="T92" s="20"/>
-    </row>
-    <row r="93" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U92" s="40">
+        <f t="shared" si="3"/>
+        <v>42.86</v>
+      </c>
+      <c r="V92" s="24">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="93" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A93" s="8">
         <v>91</v>
       </c>
@@ -3846,14 +4749,24 @@
       </c>
       <c r="H93" s="8"/>
       <c r="I93" s="8"/>
-      <c r="J93" s="16"/>
+      <c r="J93" s="16">
+        <f t="shared" si="2"/>
+        <v>57.15</v>
+      </c>
       <c r="K93" s="16"/>
       <c r="L93" s="16"/>
       <c r="R93" s="20"/>
       <c r="S93" s="20"/>
       <c r="T93" s="20"/>
-    </row>
-    <row r="94" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U93" s="40">
+        <f t="shared" si="3"/>
+        <v>57.15</v>
+      </c>
+      <c r="V93" s="24">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="94" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A94" s="8">
         <v>92</v>
       </c>
@@ -3871,14 +4784,24 @@
       </c>
       <c r="H94" s="8"/>
       <c r="I94" s="8"/>
-      <c r="J94" s="16"/>
+      <c r="J94" s="16">
+        <f t="shared" si="2"/>
+        <v>92.86</v>
+      </c>
       <c r="K94" s="16"/>
       <c r="L94" s="16"/>
       <c r="R94" s="20"/>
       <c r="S94" s="20"/>
       <c r="T94" s="20"/>
-    </row>
-    <row r="95" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U94" s="40">
+        <f t="shared" si="3"/>
+        <v>92.86</v>
+      </c>
+      <c r="V94" s="24">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="95" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A95" s="8">
         <v>93</v>
       </c>
@@ -3896,14 +4819,24 @@
       </c>
       <c r="H95" s="8"/>
       <c r="I95" s="8"/>
-      <c r="J95" s="16"/>
+      <c r="J95" s="16">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
       <c r="K95" s="16"/>
       <c r="L95" s="16"/>
       <c r="R95" s="20"/>
       <c r="S95" s="20"/>
       <c r="T95" s="20"/>
-    </row>
-    <row r="96" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U95" s="40">
+        <f t="shared" si="3"/>
+        <v>100</v>
+      </c>
+      <c r="V95" s="24">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="96" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A96" s="8">
         <v>94</v>
       </c>
@@ -3921,14 +4854,24 @@
       </c>
       <c r="H96" s="8"/>
       <c r="I96" s="8"/>
-      <c r="J96" s="16"/>
+      <c r="J96" s="16">
+        <f t="shared" si="2"/>
+        <v>64.290000000000006</v>
+      </c>
       <c r="K96" s="16"/>
       <c r="L96" s="16"/>
       <c r="R96" s="20"/>
       <c r="S96" s="20"/>
       <c r="T96" s="20"/>
-    </row>
-    <row r="97" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U96" s="40">
+        <f t="shared" si="3"/>
+        <v>64.290000000000006</v>
+      </c>
+      <c r="V96" s="24">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="97" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A97" s="8">
         <v>95</v>
       </c>
@@ -3946,14 +4889,24 @@
       </c>
       <c r="H97" s="8"/>
       <c r="I97" s="8"/>
-      <c r="J97" s="16"/>
+      <c r="J97" s="16">
+        <f t="shared" si="2"/>
+        <v>42.86</v>
+      </c>
       <c r="K97" s="16"/>
       <c r="L97" s="16"/>
       <c r="R97" s="20"/>
       <c r="S97" s="20"/>
       <c r="T97" s="20"/>
-    </row>
-    <row r="98" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U97" s="40">
+        <f t="shared" si="3"/>
+        <v>42.86</v>
+      </c>
+      <c r="V97" s="24">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="98" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A98" s="8">
         <v>96</v>
       </c>
@@ -3971,12 +4924,22 @@
       </c>
       <c r="H98" s="8"/>
       <c r="I98" s="8"/>
-      <c r="J98" s="16"/>
+      <c r="J98" s="16">
+        <f t="shared" si="2"/>
+        <v>85.72</v>
+      </c>
       <c r="K98" s="16"/>
       <c r="L98" s="16"/>
       <c r="R98" s="20"/>
       <c r="S98" s="20"/>
       <c r="T98" s="20"/>
+      <c r="U98" s="40">
+        <f t="shared" si="3"/>
+        <v>85.72</v>
+      </c>
+      <c r="V98" s="24">
+        <v>12</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A2:T98"/>
@@ -4656,20 +5619,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="41" t="s">
         <v>227</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
-      <c r="H1" s="40"/>
-      <c r="I1" s="40"/>
-      <c r="J1" s="40"/>
-      <c r="K1" s="40"/>
-      <c r="L1" s="40"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
+      <c r="I1" s="41"/>
+      <c r="J1" s="41"/>
+      <c r="K1" s="41"/>
+      <c r="L1" s="41"/>
     </row>
     <row r="2" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
@@ -9790,20 +10753,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
-      <c r="H1" s="40"/>
-      <c r="I1" s="40"/>
-      <c r="J1" s="40"/>
-      <c r="K1" s="40"/>
-      <c r="L1" s="40"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
+      <c r="I1" s="41"/>
+      <c r="J1" s="41"/>
+      <c r="K1" s="41"/>
+      <c r="L1" s="41"/>
     </row>
     <row r="2" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">

--- a/static/Upload/5th sem.xlsx
+++ b/static/Upload/5th sem.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="304">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="498" uniqueCount="304">
   <si>
     <t>5th Sem 2022-25</t>
   </si>
@@ -105,6 +105,9 @@
     <t>ABHISHEK</t>
   </si>
   <si>
+    <t>A</t>
+  </si>
+  <si>
     <t>AMANDEEP</t>
   </si>
   <si>
@@ -349,9 +352,6 @@
   </si>
   <si>
     <t>SOHAN LAL</t>
-  </si>
-  <si>
-    <t>A</t>
   </si>
   <si>
     <t>SOURABH</t>
@@ -964,7 +964,7 @@
     <numFmt numFmtId="181" formatCode="0.000"/>
     <numFmt numFmtId="182" formatCode="0;[Red]0"/>
   </numFmts>
-  <fonts count="28">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1014,13 +1014,6 @@
       <sz val="11"/>
       <name val="Calibri"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <u/>
@@ -1553,28 +1546,31 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1583,118 +1579,115 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2145,9 +2138,9 @@
   <dimension ref="A1:W98"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A66" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="2" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B71" sqref="$A71:$XFD71"/>
+      <selection pane="bottomLeft" activeCell="D59" sqref="D59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -2245,7 +2238,9 @@
       <c r="C3" s="23">
         <v>220041700003</v>
       </c>
-      <c r="D3" s="16"/>
+      <c r="D3" s="16" t="s">
+        <v>22</v>
+      </c>
       <c r="E3" s="16"/>
       <c r="F3" s="16"/>
       <c r="G3" s="16">
@@ -2281,12 +2276,14 @@
         <v>2</v>
       </c>
       <c r="B4" s="29" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C4" s="23">
         <v>220041700010</v>
       </c>
-      <c r="D4" s="16"/>
+      <c r="D4" s="16">
+        <v>12</v>
+      </c>
       <c r="E4" s="16"/>
       <c r="F4" s="16"/>
       <c r="G4" s="16">
@@ -2300,7 +2297,7 @@
       </c>
       <c r="K4" s="16">
         <f t="shared" ref="K4:K35" si="1">ROUNDUP(SUM(D4)+SUM(G4)+ROUNDUP(SUM(W4),0),0)</f>
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="R4" s="21"/>
       <c r="S4" s="21"/>
@@ -2322,12 +2319,14 @@
         <v>3</v>
       </c>
       <c r="B5" s="29" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C5" s="23">
         <v>220041700037</v>
       </c>
-      <c r="D5" s="16"/>
+      <c r="D5" s="16">
+        <v>13</v>
+      </c>
       <c r="E5" s="16"/>
       <c r="F5" s="16"/>
       <c r="G5" s="16">
@@ -2341,7 +2340,7 @@
       </c>
       <c r="K5" s="16">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="R5" s="21"/>
       <c r="S5" s="21"/>
@@ -2363,12 +2362,14 @@
         <v>4</v>
       </c>
       <c r="B6" s="29" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C6" s="23">
         <v>220041700038</v>
       </c>
-      <c r="D6" s="16"/>
+      <c r="D6" s="16">
+        <v>14</v>
+      </c>
       <c r="E6" s="16"/>
       <c r="F6" s="16"/>
       <c r="G6" s="16">
@@ -2382,7 +2383,7 @@
       </c>
       <c r="K6" s="16">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="R6" s="21"/>
       <c r="S6" s="21"/>
@@ -2404,12 +2405,14 @@
         <v>5</v>
       </c>
       <c r="B7" s="29" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C7" s="23">
         <v>220041700048</v>
       </c>
-      <c r="D7" s="16"/>
+      <c r="D7" s="16">
+        <v>14</v>
+      </c>
       <c r="E7" s="16"/>
       <c r="F7" s="16"/>
       <c r="G7" s="16">
@@ -2423,7 +2426,7 @@
       </c>
       <c r="K7" s="16">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="R7" s="21"/>
       <c r="S7" s="21"/>
@@ -2445,12 +2448,14 @@
         <v>6</v>
       </c>
       <c r="B8" s="29" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C8" s="23">
         <v>220041700059</v>
       </c>
-      <c r="D8" s="16"/>
+      <c r="D8" s="16" t="s">
+        <v>22</v>
+      </c>
       <c r="E8" s="16"/>
       <c r="F8" s="16"/>
       <c r="G8" s="16">
@@ -2486,12 +2491,14 @@
         <v>7</v>
       </c>
       <c r="B9" s="29" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C9" s="23">
         <v>220041723011</v>
       </c>
-      <c r="D9" s="16"/>
+      <c r="D9" s="16">
+        <v>18</v>
+      </c>
       <c r="E9" s="16"/>
       <c r="F9" s="16"/>
       <c r="G9" s="16">
@@ -2505,7 +2512,7 @@
       </c>
       <c r="K9" s="16">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="R9" s="21"/>
       <c r="S9" s="21"/>
@@ -2527,12 +2534,14 @@
         <v>8</v>
       </c>
       <c r="B10" s="24" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C10" s="23">
         <v>230041700001</v>
       </c>
-      <c r="D10" s="16"/>
+      <c r="D10" s="16">
+        <v>18</v>
+      </c>
       <c r="E10" s="16"/>
       <c r="F10" s="16"/>
       <c r="G10" s="16">
@@ -2546,7 +2555,7 @@
       </c>
       <c r="K10" s="16">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="R10" s="21"/>
       <c r="S10" s="21"/>
@@ -2568,12 +2577,14 @@
         <v>9</v>
       </c>
       <c r="B11" s="24" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C11" s="23">
         <v>230041700003</v>
       </c>
-      <c r="D11" s="16"/>
+      <c r="D11" s="16">
+        <v>29</v>
+      </c>
       <c r="E11" s="16"/>
       <c r="F11" s="16"/>
       <c r="G11" s="16">
@@ -2587,7 +2598,7 @@
       </c>
       <c r="K11" s="16">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="R11" s="21"/>
       <c r="S11" s="21"/>
@@ -2609,12 +2620,14 @@
         <v>10</v>
       </c>
       <c r="B12" s="25" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C12" s="26">
         <v>230041700004</v>
       </c>
-      <c r="D12" s="16"/>
+      <c r="D12" s="16">
+        <v>19</v>
+      </c>
       <c r="E12" s="16"/>
       <c r="F12" s="16"/>
       <c r="G12" s="16">
@@ -2628,7 +2641,7 @@
       </c>
       <c r="K12" s="16">
         <f t="shared" si="1"/>
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="R12" s="21"/>
       <c r="S12" s="21"/>
@@ -2650,12 +2663,14 @@
         <v>11</v>
       </c>
       <c r="B13" s="24" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C13" s="23">
         <v>230041700005</v>
       </c>
-      <c r="D13" s="16"/>
+      <c r="D13" s="16">
+        <v>20</v>
+      </c>
       <c r="E13" s="16"/>
       <c r="F13" s="16"/>
       <c r="G13" s="16">
@@ -2669,7 +2684,7 @@
       </c>
       <c r="K13" s="16">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="R13" s="21"/>
       <c r="S13" s="21"/>
@@ -2691,12 +2706,14 @@
         <v>12</v>
       </c>
       <c r="B14" s="25" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C14" s="26">
         <v>230041700010</v>
       </c>
-      <c r="D14" s="16"/>
+      <c r="D14" s="16">
+        <v>19</v>
+      </c>
       <c r="E14" s="16"/>
       <c r="F14" s="16"/>
       <c r="G14" s="16">
@@ -2710,7 +2727,7 @@
       </c>
       <c r="K14" s="16">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="R14" s="21"/>
       <c r="S14" s="21"/>
@@ -2732,12 +2749,14 @@
         <v>13</v>
       </c>
       <c r="B15" s="25" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C15" s="26">
         <v>230041700012</v>
       </c>
-      <c r="D15" s="16"/>
+      <c r="D15" s="16">
+        <v>12</v>
+      </c>
       <c r="E15" s="16"/>
       <c r="F15" s="16"/>
       <c r="G15" s="16">
@@ -2751,7 +2770,7 @@
       </c>
       <c r="K15" s="16">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="R15" s="21"/>
       <c r="S15" s="21"/>
@@ -2773,12 +2792,14 @@
         <v>14</v>
       </c>
       <c r="B16" s="24" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C16" s="23">
         <v>230041700015</v>
       </c>
-      <c r="D16" s="16"/>
+      <c r="D16" s="16">
+        <v>26</v>
+      </c>
       <c r="E16" s="16"/>
       <c r="F16" s="16"/>
       <c r="G16" s="16">
@@ -2792,7 +2813,7 @@
       </c>
       <c r="K16" s="16">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="R16" s="21"/>
       <c r="S16" s="21"/>
@@ -2814,12 +2835,14 @@
         <v>15</v>
       </c>
       <c r="B17" s="25" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C17" s="26">
         <v>230041700016</v>
       </c>
-      <c r="D17" s="16"/>
+      <c r="D17" s="16">
+        <v>5</v>
+      </c>
       <c r="E17" s="16"/>
       <c r="F17" s="16"/>
       <c r="G17" s="16">
@@ -2833,7 +2856,7 @@
       </c>
       <c r="K17" s="16">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="R17" s="21"/>
       <c r="S17" s="21"/>
@@ -2855,12 +2878,14 @@
         <v>16</v>
       </c>
       <c r="B18" s="24" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C18" s="23">
         <v>230041700017</v>
       </c>
-      <c r="D18" s="16"/>
+      <c r="D18" s="16">
+        <v>22</v>
+      </c>
       <c r="E18" s="16"/>
       <c r="F18" s="16"/>
       <c r="G18" s="16">
@@ -2874,7 +2899,7 @@
       </c>
       <c r="K18" s="16">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="R18" s="21"/>
       <c r="S18" s="21"/>
@@ -2896,12 +2921,14 @@
         <v>17</v>
       </c>
       <c r="B19" s="25" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C19" s="26">
         <v>230041700018</v>
       </c>
-      <c r="D19" s="16"/>
+      <c r="D19" s="16">
+        <v>6</v>
+      </c>
       <c r="E19" s="16"/>
       <c r="F19" s="16"/>
       <c r="G19" s="16">
@@ -2915,7 +2942,7 @@
       </c>
       <c r="K19" s="16">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="R19" s="21"/>
       <c r="S19" s="21"/>
@@ -2937,12 +2964,14 @@
         <v>18</v>
       </c>
       <c r="B20" s="24" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C20" s="23">
         <v>230041700019</v>
       </c>
-      <c r="D20" s="16"/>
+      <c r="D20" s="16">
+        <v>15</v>
+      </c>
       <c r="E20" s="16"/>
       <c r="F20" s="16"/>
       <c r="G20" s="16">
@@ -2956,7 +2985,7 @@
       </c>
       <c r="K20" s="16">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="R20" s="21"/>
       <c r="S20" s="21"/>
@@ -2978,12 +3007,14 @@
         <v>19</v>
       </c>
       <c r="B21" s="24" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C21" s="23">
         <v>230041700021</v>
       </c>
-      <c r="D21" s="16"/>
+      <c r="D21" s="16">
+        <v>18</v>
+      </c>
       <c r="E21" s="16"/>
       <c r="F21" s="16"/>
       <c r="G21" s="16">
@@ -2997,7 +3028,7 @@
       </c>
       <c r="K21" s="16">
         <f t="shared" si="1"/>
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="R21" s="21"/>
       <c r="S21" s="21"/>
@@ -3019,12 +3050,14 @@
         <v>20</v>
       </c>
       <c r="B22" s="25" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C22" s="26">
         <v>230041700024</v>
       </c>
-      <c r="D22" s="16"/>
+      <c r="D22" s="16">
+        <v>18</v>
+      </c>
       <c r="E22" s="16"/>
       <c r="F22" s="16"/>
       <c r="G22" s="16">
@@ -3038,7 +3071,7 @@
       </c>
       <c r="K22" s="16">
         <f t="shared" si="1"/>
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="R22" s="21"/>
       <c r="S22" s="21"/>
@@ -3060,12 +3093,14 @@
         <v>21</v>
       </c>
       <c r="B23" s="24" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C23" s="23">
         <v>230041700025</v>
       </c>
-      <c r="D23" s="16"/>
+      <c r="D23" s="16">
+        <v>26</v>
+      </c>
       <c r="E23" s="16"/>
       <c r="F23" s="16"/>
       <c r="G23" s="16">
@@ -3079,7 +3114,7 @@
       </c>
       <c r="K23" s="16">
         <f t="shared" si="1"/>
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="R23" s="21"/>
       <c r="S23" s="21"/>
@@ -3101,12 +3136,14 @@
         <v>22</v>
       </c>
       <c r="B24" s="24" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C24" s="23">
         <v>230041700027</v>
       </c>
-      <c r="D24" s="16"/>
+      <c r="D24" s="16">
+        <v>19</v>
+      </c>
       <c r="E24" s="16"/>
       <c r="F24" s="16"/>
       <c r="G24" s="16">
@@ -3120,7 +3157,7 @@
       </c>
       <c r="K24" s="16">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="R24" s="21"/>
       <c r="S24" s="21"/>
@@ -3142,12 +3179,14 @@
         <v>23</v>
       </c>
       <c r="B25" s="24" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C25" s="23">
         <v>230041700029</v>
       </c>
-      <c r="D25" s="16"/>
+      <c r="D25" s="16">
+        <v>17</v>
+      </c>
       <c r="E25" s="16"/>
       <c r="F25" s="16"/>
       <c r="G25" s="16">
@@ -3161,7 +3200,7 @@
       </c>
       <c r="K25" s="16">
         <f t="shared" si="1"/>
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="R25" s="21"/>
       <c r="S25" s="21"/>
@@ -3183,12 +3222,14 @@
         <v>24</v>
       </c>
       <c r="B26" s="25" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C26" s="26">
         <v>230041700030</v>
       </c>
-      <c r="D26" s="16"/>
+      <c r="D26" s="16">
+        <v>17</v>
+      </c>
       <c r="E26" s="16"/>
       <c r="F26" s="16"/>
       <c r="G26" s="16">
@@ -3202,7 +3243,7 @@
       </c>
       <c r="K26" s="16">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="R26" s="21"/>
       <c r="S26" s="21"/>
@@ -3224,12 +3265,14 @@
         <v>25</v>
       </c>
       <c r="B27" s="25" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C27" s="26">
         <v>230041700032</v>
       </c>
-      <c r="D27" s="16"/>
+      <c r="D27" s="16">
+        <v>22</v>
+      </c>
       <c r="E27" s="16"/>
       <c r="F27" s="16"/>
       <c r="G27" s="16">
@@ -3243,7 +3286,7 @@
       </c>
       <c r="K27" s="16">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="R27" s="21"/>
       <c r="S27" s="21"/>
@@ -3265,12 +3308,14 @@
         <v>26</v>
       </c>
       <c r="B28" s="24" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C28" s="23">
         <v>230041700033</v>
       </c>
-      <c r="D28" s="16"/>
+      <c r="D28" s="16">
+        <v>14</v>
+      </c>
       <c r="E28" s="16"/>
       <c r="F28" s="16"/>
       <c r="G28" s="16">
@@ -3284,7 +3329,7 @@
       </c>
       <c r="K28" s="16">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="R28" s="21"/>
       <c r="S28" s="21"/>
@@ -3306,12 +3351,14 @@
         <v>27</v>
       </c>
       <c r="B29" s="25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C29" s="26">
         <v>230041700034</v>
       </c>
-      <c r="D29" s="16"/>
+      <c r="D29" s="16">
+        <v>16</v>
+      </c>
       <c r="E29" s="16"/>
       <c r="F29" s="16"/>
       <c r="G29" s="16">
@@ -3325,7 +3372,7 @@
       </c>
       <c r="K29" s="16">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="R29" s="21"/>
       <c r="S29" s="21"/>
@@ -3347,12 +3394,14 @@
         <v>28</v>
       </c>
       <c r="B30" s="24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C30" s="23">
         <v>230041700037</v>
       </c>
-      <c r="D30" s="16"/>
+      <c r="D30" s="16">
+        <v>10</v>
+      </c>
       <c r="E30" s="16"/>
       <c r="F30" s="16"/>
       <c r="G30" s="16">
@@ -3366,7 +3415,7 @@
       </c>
       <c r="K30" s="16">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="R30" s="21"/>
       <c r="S30" s="21"/>
@@ -3388,12 +3437,14 @@
         <v>29</v>
       </c>
       <c r="B31" s="24" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C31" s="23">
         <v>230041700041</v>
       </c>
-      <c r="D31" s="16"/>
+      <c r="D31" s="16">
+        <v>14</v>
+      </c>
       <c r="E31" s="16"/>
       <c r="F31" s="16"/>
       <c r="G31" s="16">
@@ -3407,7 +3458,7 @@
       </c>
       <c r="K31" s="16">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="R31" s="21"/>
       <c r="S31" s="21"/>
@@ -3429,12 +3480,14 @@
         <v>30</v>
       </c>
       <c r="B32" s="25" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C32" s="26">
         <v>230041700042</v>
       </c>
-      <c r="D32" s="16"/>
+      <c r="D32" s="16">
+        <v>16</v>
+      </c>
       <c r="E32" s="16"/>
       <c r="F32" s="16"/>
       <c r="G32" s="16">
@@ -3448,7 +3501,7 @@
       </c>
       <c r="K32" s="16">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="R32" s="21"/>
       <c r="S32" s="21"/>
@@ -3470,12 +3523,14 @@
         <v>31</v>
       </c>
       <c r="B33" s="25" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C33" s="26">
         <v>230041700044</v>
       </c>
-      <c r="D33" s="16"/>
+      <c r="D33" s="16">
+        <v>20</v>
+      </c>
       <c r="E33" s="16"/>
       <c r="F33" s="16"/>
       <c r="G33" s="16">
@@ -3489,7 +3544,7 @@
       </c>
       <c r="K33" s="16">
         <f t="shared" si="1"/>
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="R33" s="21"/>
       <c r="S33" s="21"/>
@@ -3511,12 +3566,14 @@
         <v>32</v>
       </c>
       <c r="B34" s="24" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C34" s="23">
         <v>230041700045</v>
       </c>
-      <c r="D34" s="16"/>
+      <c r="D34" s="16">
+        <v>12</v>
+      </c>
       <c r="E34" s="16"/>
       <c r="F34" s="16"/>
       <c r="G34" s="16">
@@ -3530,7 +3587,7 @@
       </c>
       <c r="K34" s="16">
         <f t="shared" si="1"/>
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="R34" s="21"/>
       <c r="S34" s="21"/>
@@ -3552,12 +3609,14 @@
         <v>33</v>
       </c>
       <c r="B35" s="25" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C35" s="26">
         <v>230041700046</v>
       </c>
-      <c r="D35" s="16"/>
+      <c r="D35" s="16">
+        <v>9</v>
+      </c>
       <c r="E35" s="16"/>
       <c r="F35" s="16"/>
       <c r="G35" s="16">
@@ -3571,7 +3630,7 @@
       </c>
       <c r="K35" s="16">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="R35" s="21"/>
       <c r="S35" s="21"/>
@@ -3593,12 +3652,14 @@
         <v>34</v>
       </c>
       <c r="B36" s="24" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C36" s="23">
         <v>230041700047</v>
       </c>
-      <c r="D36" s="16"/>
+      <c r="D36" s="16">
+        <v>21</v>
+      </c>
       <c r="E36" s="16"/>
       <c r="F36" s="16"/>
       <c r="G36" s="16">
@@ -3612,7 +3673,7 @@
       </c>
       <c r="K36" s="16">
         <f t="shared" ref="K36:K67" si="4">ROUNDUP(SUM(D36)+SUM(G36)+ROUNDUP(SUM(W36),0),0)</f>
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="R36" s="21"/>
       <c r="S36" s="21"/>
@@ -3634,12 +3695,14 @@
         <v>35</v>
       </c>
       <c r="B37" s="25" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C37" s="26">
         <v>230041700048</v>
       </c>
-      <c r="D37" s="16"/>
+      <c r="D37" s="16">
+        <v>18</v>
+      </c>
       <c r="E37" s="16"/>
       <c r="F37" s="16"/>
       <c r="G37" s="16">
@@ -3653,7 +3716,7 @@
       </c>
       <c r="K37" s="16">
         <f t="shared" si="4"/>
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="R37" s="21"/>
       <c r="S37" s="21"/>
@@ -3675,12 +3738,14 @@
         <v>36</v>
       </c>
       <c r="B38" s="25" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C38" s="26">
         <v>230041700050</v>
       </c>
-      <c r="D38" s="16"/>
+      <c r="D38" s="16">
+        <v>10</v>
+      </c>
       <c r="E38" s="16"/>
       <c r="F38" s="16"/>
       <c r="G38" s="16">
@@ -3694,7 +3759,7 @@
       </c>
       <c r="K38" s="16">
         <f t="shared" si="4"/>
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="R38" s="21"/>
       <c r="S38" s="21"/>
@@ -3716,12 +3781,14 @@
         <v>37</v>
       </c>
       <c r="B39" s="24" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C39" s="23">
         <v>230041700051</v>
       </c>
-      <c r="D39" s="16"/>
+      <c r="D39" s="16">
+        <v>21</v>
+      </c>
       <c r="E39" s="16"/>
       <c r="F39" s="16"/>
       <c r="G39" s="16">
@@ -3735,7 +3802,7 @@
       </c>
       <c r="K39" s="16">
         <f t="shared" si="4"/>
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="R39" s="21"/>
       <c r="S39" s="21"/>
@@ -3757,12 +3824,14 @@
         <v>38</v>
       </c>
       <c r="B40" s="25" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C40" s="26">
         <v>230041700052</v>
       </c>
-      <c r="D40" s="16"/>
+      <c r="D40" s="16">
+        <v>12</v>
+      </c>
       <c r="E40" s="16"/>
       <c r="F40" s="16"/>
       <c r="G40" s="16">
@@ -3776,7 +3845,7 @@
       </c>
       <c r="K40" s="16">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="R40" s="21"/>
       <c r="S40" s="21"/>
@@ -3798,12 +3867,14 @@
         <v>39</v>
       </c>
       <c r="B41" s="25" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C41" s="26">
         <v>230041700056</v>
       </c>
-      <c r="D41" s="16"/>
+      <c r="D41" s="16">
+        <v>14</v>
+      </c>
       <c r="E41" s="16"/>
       <c r="F41" s="16"/>
       <c r="G41" s="16">
@@ -3817,7 +3888,7 @@
       </c>
       <c r="K41" s="16">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="L41" s="20"/>
       <c r="R41" s="21"/>
@@ -3840,12 +3911,14 @@
         <v>40</v>
       </c>
       <c r="B42" s="25" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C42" s="26">
         <v>230041700058</v>
       </c>
-      <c r="D42" s="16"/>
+      <c r="D42" s="16">
+        <v>11</v>
+      </c>
       <c r="E42" s="16"/>
       <c r="F42" s="16"/>
       <c r="G42" s="16">
@@ -3859,7 +3932,7 @@
       </c>
       <c r="K42" s="16">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="R42" s="21"/>
       <c r="S42" s="21"/>
@@ -3881,12 +3954,14 @@
         <v>41</v>
       </c>
       <c r="B43" s="24" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C43" s="23">
         <v>230041700059</v>
       </c>
-      <c r="D43" s="16"/>
+      <c r="D43" s="16">
+        <v>12</v>
+      </c>
       <c r="E43" s="16"/>
       <c r="F43" s="16"/>
       <c r="G43" s="16">
@@ -3900,7 +3975,7 @@
       </c>
       <c r="K43" s="16">
         <f t="shared" si="4"/>
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="R43" s="21"/>
       <c r="S43" s="21"/>
@@ -3922,12 +3997,14 @@
         <v>42</v>
       </c>
       <c r="B44" s="25" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C44" s="26">
         <v>230041700062</v>
       </c>
-      <c r="D44" s="16"/>
+      <c r="D44" s="16">
+        <v>8</v>
+      </c>
       <c r="E44" s="16"/>
       <c r="F44" s="16"/>
       <c r="G44" s="16">
@@ -3941,7 +4018,7 @@
       </c>
       <c r="K44" s="16">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="R44" s="21"/>
       <c r="S44" s="21"/>
@@ -3963,12 +4040,14 @@
         <v>43</v>
       </c>
       <c r="B45" s="24" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C45" s="23">
         <v>230041700063</v>
       </c>
-      <c r="D45" s="16"/>
+      <c r="D45" s="16">
+        <v>14</v>
+      </c>
       <c r="E45" s="16"/>
       <c r="F45" s="16"/>
       <c r="G45" s="16">
@@ -3982,7 +4061,7 @@
       </c>
       <c r="K45" s="16">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="R45" s="21"/>
       <c r="S45" s="21"/>
@@ -4004,12 +4083,14 @@
         <v>44</v>
       </c>
       <c r="B46" s="25" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C46" s="26">
         <v>230041700066</v>
       </c>
-      <c r="D46" s="16"/>
+      <c r="D46" s="16">
+        <v>17</v>
+      </c>
       <c r="E46" s="16"/>
       <c r="F46" s="16"/>
       <c r="G46" s="16">
@@ -4023,7 +4104,7 @@
       </c>
       <c r="K46" s="16">
         <f t="shared" si="4"/>
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="R46" s="21"/>
       <c r="S46" s="21"/>
@@ -4045,12 +4126,14 @@
         <v>45</v>
       </c>
       <c r="B47" s="25" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C47" s="26">
         <v>230041700068</v>
       </c>
-      <c r="D47" s="16"/>
+      <c r="D47" s="16">
+        <v>12</v>
+      </c>
       <c r="E47" s="16"/>
       <c r="F47" s="16"/>
       <c r="G47" s="16">
@@ -4064,7 +4147,7 @@
       </c>
       <c r="K47" s="16">
         <f t="shared" si="4"/>
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="R47" s="21"/>
       <c r="S47" s="21"/>
@@ -4086,12 +4169,14 @@
         <v>46</v>
       </c>
       <c r="B48" s="24" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C48" s="23">
         <v>230041700069</v>
       </c>
-      <c r="D48" s="16"/>
+      <c r="D48" s="16">
+        <v>17</v>
+      </c>
       <c r="E48" s="16"/>
       <c r="F48" s="16"/>
       <c r="G48" s="16">
@@ -4105,7 +4190,7 @@
       </c>
       <c r="K48" s="16">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="R48" s="21"/>
       <c r="S48" s="21"/>
@@ -4127,12 +4212,14 @@
         <v>47</v>
       </c>
       <c r="B49" s="27" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C49" s="28">
         <v>230041724001</v>
       </c>
-      <c r="D49" s="16"/>
+      <c r="D49" s="16">
+        <v>9</v>
+      </c>
       <c r="E49" s="16"/>
       <c r="F49" s="16"/>
       <c r="G49" s="16">
@@ -4146,7 +4233,7 @@
       </c>
       <c r="K49" s="16">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="R49" s="21"/>
       <c r="S49" s="21"/>
@@ -4168,12 +4255,14 @@
         <v>48</v>
       </c>
       <c r="B50" s="27" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C50" s="28">
         <v>230041724004</v>
       </c>
-      <c r="D50" s="16"/>
+      <c r="D50" s="16">
+        <v>17</v>
+      </c>
       <c r="E50" s="16"/>
       <c r="F50" s="16"/>
       <c r="G50" s="16">
@@ -4187,7 +4276,7 @@
       </c>
       <c r="K50" s="16">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="R50" s="21"/>
       <c r="S50" s="21"/>
@@ -4209,12 +4298,14 @@
         <v>49</v>
       </c>
       <c r="B51" s="27" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C51" s="28">
         <v>230041724005</v>
       </c>
-      <c r="D51" s="16"/>
+      <c r="D51" s="16">
+        <v>20</v>
+      </c>
       <c r="E51" s="16"/>
       <c r="F51" s="16"/>
       <c r="G51" s="16">
@@ -4228,7 +4319,7 @@
       </c>
       <c r="K51" s="16">
         <f t="shared" si="4"/>
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="R51" s="21"/>
       <c r="S51" s="21"/>
@@ -4250,12 +4341,14 @@
         <v>50</v>
       </c>
       <c r="B52" s="27" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C52" s="28">
         <v>230041724006</v>
       </c>
-      <c r="D52" s="16"/>
+      <c r="D52" s="16">
+        <v>7</v>
+      </c>
       <c r="E52" s="16"/>
       <c r="F52" s="16"/>
       <c r="G52" s="16">
@@ -4269,7 +4362,7 @@
       </c>
       <c r="K52" s="16">
         <f t="shared" si="4"/>
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="L52" s="20"/>
       <c r="R52" s="21"/>
@@ -4292,12 +4385,14 @@
         <v>51</v>
       </c>
       <c r="B53" s="27" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C53" s="28">
         <v>230041724007</v>
       </c>
-      <c r="D53" s="16"/>
+      <c r="D53" s="16">
+        <v>14</v>
+      </c>
       <c r="E53" s="16"/>
       <c r="F53" s="16"/>
       <c r="G53" s="16">
@@ -4311,7 +4406,7 @@
       </c>
       <c r="K53" s="16">
         <f t="shared" si="4"/>
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="R53" s="21"/>
       <c r="S53" s="21"/>
@@ -4333,12 +4428,14 @@
         <v>52</v>
       </c>
       <c r="B54" s="27" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C54" s="28">
         <v>230041724008</v>
       </c>
-      <c r="D54" s="16"/>
+      <c r="D54" s="16">
+        <v>16</v>
+      </c>
       <c r="E54" s="16"/>
       <c r="F54" s="16"/>
       <c r="G54" s="16">
@@ -4352,7 +4449,7 @@
       </c>
       <c r="K54" s="16">
         <f t="shared" si="4"/>
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="L54" s="20"/>
       <c r="R54" s="21"/>
@@ -4375,12 +4472,14 @@
         <v>53</v>
       </c>
       <c r="B55" s="27" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C55" s="28">
         <v>230041724009</v>
       </c>
-      <c r="D55" s="16"/>
+      <c r="D55" s="16">
+        <v>12</v>
+      </c>
       <c r="E55" s="16"/>
       <c r="F55" s="16"/>
       <c r="G55" s="16">
@@ -4394,7 +4493,7 @@
       </c>
       <c r="K55" s="16">
         <f t="shared" si="4"/>
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="R55" s="21"/>
       <c r="S55" s="21"/>
@@ -4416,12 +4515,14 @@
         <v>54</v>
       </c>
       <c r="B56" s="27" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C56" s="28">
         <v>230041724010</v>
       </c>
-      <c r="D56" s="16"/>
+      <c r="D56" s="16">
+        <v>21</v>
+      </c>
       <c r="E56" s="16"/>
       <c r="F56" s="16"/>
       <c r="G56" s="16">
@@ -4435,7 +4536,7 @@
       </c>
       <c r="K56" s="16">
         <f t="shared" si="4"/>
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="R56" s="21"/>
       <c r="S56" s="21"/>
@@ -4457,12 +4558,14 @@
         <v>55</v>
       </c>
       <c r="B57" s="29" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C57" s="28">
         <v>230041724013</v>
       </c>
-      <c r="D57" s="16"/>
+      <c r="D57" s="16">
+        <v>27</v>
+      </c>
       <c r="E57" s="16"/>
       <c r="F57" s="16"/>
       <c r="G57" s="16">
@@ -4476,7 +4579,7 @@
       </c>
       <c r="K57" s="16">
         <f t="shared" si="4"/>
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="R57" s="21"/>
       <c r="S57" s="21"/>
@@ -4498,12 +4601,14 @@
         <v>56</v>
       </c>
       <c r="B58" s="29" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C58" s="28">
         <v>230041724014</v>
       </c>
-      <c r="D58" s="16"/>
+      <c r="D58" s="16">
+        <v>23</v>
+      </c>
       <c r="E58" s="16"/>
       <c r="F58" s="16"/>
       <c r="G58" s="16">
@@ -4517,7 +4622,7 @@
       </c>
       <c r="K58" s="16">
         <f t="shared" si="4"/>
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="R58" s="21"/>
       <c r="S58" s="21"/>
@@ -4539,10 +4644,10 @@
         <v>57</v>
       </c>
       <c r="B59" s="30" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C59" s="31" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D59" s="30">
         <v>12</v>
@@ -4582,10 +4687,10 @@
         <v>58</v>
       </c>
       <c r="B60" s="30" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C60" s="31" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D60" s="30">
         <v>15</v>
@@ -4625,10 +4730,10 @@
         <v>59</v>
       </c>
       <c r="B61" s="30" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C61" s="31" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D61" s="30">
         <v>20</v>
@@ -4669,10 +4774,10 @@
         <v>60</v>
       </c>
       <c r="B62" s="30" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C62" s="31" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D62" s="30">
         <v>11</v>
@@ -4713,10 +4818,10 @@
         <v>61</v>
       </c>
       <c r="B63" s="30" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C63" s="31" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D63" s="30">
         <v>17</v>
@@ -4757,7 +4862,7 @@
         <v>62</v>
       </c>
       <c r="B64" s="32" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C64" s="33">
         <v>230041700071</v>
@@ -4801,7 +4906,7 @@
         <v>63</v>
       </c>
       <c r="B65" s="34" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C65" s="35">
         <v>230041700072</v>
@@ -4845,7 +4950,7 @@
         <v>64</v>
       </c>
       <c r="B66" s="34" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C66" s="35">
         <v>230041700074</v>
@@ -4889,7 +4994,7 @@
         <v>65</v>
       </c>
       <c r="B67" s="34" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C67" s="35">
         <v>230041700076</v>
@@ -4933,7 +5038,7 @@
         <v>66</v>
       </c>
       <c r="B68" s="34" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C68" s="35">
         <v>230041700078</v>
@@ -4977,7 +5082,7 @@
         <v>67</v>
       </c>
       <c r="B69" s="32" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C69" s="33">
         <v>230041700079</v>
@@ -5021,7 +5126,7 @@
         <v>68</v>
       </c>
       <c r="B70" s="34" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C70" s="35">
         <v>230041700080</v>
@@ -5065,7 +5170,7 @@
         <v>69</v>
       </c>
       <c r="B71" s="34" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C71" s="35">
         <v>230041700082</v>
@@ -5109,7 +5214,7 @@
         <v>70</v>
       </c>
       <c r="B72" s="34" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C72" s="35">
         <v>230041700084</v>
@@ -5153,7 +5258,7 @@
         <v>71</v>
       </c>
       <c r="B73" s="32" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C73" s="33">
         <v>230041700087</v>
@@ -5197,7 +5302,7 @@
         <v>72</v>
       </c>
       <c r="B74" s="34" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C74" s="35">
         <v>230041700088</v>
@@ -5241,7 +5346,7 @@
         <v>73</v>
       </c>
       <c r="B75" s="32" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C75" s="33">
         <v>230041700091</v>
@@ -5285,7 +5390,7 @@
         <v>74</v>
       </c>
       <c r="B76" s="34" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C76" s="35">
         <v>230041700094</v>
@@ -5329,7 +5434,7 @@
         <v>75</v>
       </c>
       <c r="B77" s="32" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C77" s="33">
         <v>230041700097</v>
@@ -5373,7 +5478,7 @@
         <v>76</v>
       </c>
       <c r="B78" s="34" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C78" s="35">
         <v>230041700098</v>
@@ -5417,7 +5522,7 @@
         <v>77</v>
       </c>
       <c r="B79" s="34" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C79" s="35">
         <v>230041700102</v>
@@ -5461,7 +5566,7 @@
         <v>78</v>
       </c>
       <c r="B80" s="34" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C80" s="35">
         <v>230041700104</v>
@@ -5505,7 +5610,7 @@
         <v>79</v>
       </c>
       <c r="B81" s="32" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C81" s="33">
         <v>230041700105</v>
@@ -5549,7 +5654,7 @@
         <v>80</v>
       </c>
       <c r="B82" s="34" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C82" s="35">
         <v>230041700108</v>
@@ -5593,7 +5698,7 @@
         <v>81</v>
       </c>
       <c r="B83" s="34" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C83" s="35">
         <v>230041700110</v>
@@ -5637,7 +5742,7 @@
         <v>82</v>
       </c>
       <c r="B84" s="32" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C84" s="33">
         <v>230041700111</v>
@@ -5681,13 +5786,13 @@
         <v>83</v>
       </c>
       <c r="B85" s="34" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C85" s="35">
         <v>230041700112</v>
       </c>
       <c r="D85" s="34" t="s">
-        <v>104</v>
+        <v>22</v>
       </c>
       <c r="E85" s="16"/>
       <c r="F85" s="16"/>
@@ -6077,7 +6182,7 @@
         <v>92</v>
       </c>
       <c r="B94" s="36" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C94" s="37">
         <v>230041724015</v>
@@ -6165,7 +6270,7 @@
         <v>94</v>
       </c>
       <c r="B96" s="36" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C96" s="37">
         <v>230041724017</v>
@@ -6335,7 +6440,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" s="23">
         <v>220041700010</v>
@@ -6346,7 +6451,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" s="23">
         <v>220041700037</v>
@@ -6357,7 +6462,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" s="23">
         <v>220041700038</v>
@@ -6368,7 +6473,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C5" s="23">
         <v>220041700048</v>
@@ -6379,7 +6484,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C6" s="23">
         <v>220041700059</v>
@@ -6390,7 +6495,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C7" s="23">
         <v>220041723011</v>
@@ -6401,7 +6506,7 @@
         <v>8</v>
       </c>
       <c r="B8" s="24" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C8" s="23">
         <v>230041700001</v>
@@ -6412,7 +6517,7 @@
         <v>9</v>
       </c>
       <c r="B9" s="24" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C9" s="23">
         <v>230041700003</v>
@@ -6423,7 +6528,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="25" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C10" s="26">
         <v>230041700004</v>
@@ -6434,7 +6539,7 @@
         <v>11</v>
       </c>
       <c r="B11" s="24" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C11" s="23">
         <v>230041700005</v>
@@ -6445,7 +6550,7 @@
         <v>12</v>
       </c>
       <c r="B12" s="25" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C12" s="26">
         <v>230041700010</v>
@@ -6456,7 +6561,7 @@
         <v>13</v>
       </c>
       <c r="B13" s="25" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C13" s="26">
         <v>230041700012</v>
@@ -6467,7 +6572,7 @@
         <v>14</v>
       </c>
       <c r="B14" s="24" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C14" s="23">
         <v>230041700015</v>
@@ -6478,7 +6583,7 @@
         <v>15</v>
       </c>
       <c r="B15" s="25" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C15" s="26">
         <v>230041700016</v>
@@ -6489,7 +6594,7 @@
         <v>16</v>
       </c>
       <c r="B16" s="24" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C16" s="23">
         <v>230041700017</v>
@@ -6500,7 +6605,7 @@
         <v>17</v>
       </c>
       <c r="B17" s="25" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C17" s="26">
         <v>230041700018</v>
@@ -6511,7 +6616,7 @@
         <v>18</v>
       </c>
       <c r="B18" s="24" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C18" s="23">
         <v>230041700019</v>
@@ -6522,7 +6627,7 @@
         <v>19</v>
       </c>
       <c r="B19" s="24" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C19" s="23">
         <v>230041700021</v>
@@ -6533,7 +6638,7 @@
         <v>20</v>
       </c>
       <c r="B20" s="25" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C20" s="26">
         <v>230041700024</v>
@@ -6544,7 +6649,7 @@
         <v>21</v>
       </c>
       <c r="B21" s="24" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C21" s="23">
         <v>230041700025</v>
@@ -6555,7 +6660,7 @@
         <v>22</v>
       </c>
       <c r="B22" s="24" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C22" s="23">
         <v>230041700027</v>
@@ -6566,7 +6671,7 @@
         <v>23</v>
       </c>
       <c r="B23" s="24" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C23" s="23">
         <v>230041700029</v>
@@ -6577,7 +6682,7 @@
         <v>24</v>
       </c>
       <c r="B24" s="25" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C24" s="26">
         <v>230041700030</v>
@@ -6588,7 +6693,7 @@
         <v>25</v>
       </c>
       <c r="B25" s="25" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C25" s="26">
         <v>230041700032</v>
@@ -6599,7 +6704,7 @@
         <v>26</v>
       </c>
       <c r="B26" s="24" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C26" s="23">
         <v>230041700033</v>
@@ -6610,7 +6715,7 @@
         <v>27</v>
       </c>
       <c r="B27" s="25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C27" s="26">
         <v>230041700034</v>
@@ -6621,7 +6726,7 @@
         <v>28</v>
       </c>
       <c r="B28" s="24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C28" s="23">
         <v>230041700037</v>
@@ -6632,7 +6737,7 @@
         <v>29</v>
       </c>
       <c r="B29" s="24" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C29" s="23">
         <v>230041700041</v>
@@ -6643,7 +6748,7 @@
         <v>30</v>
       </c>
       <c r="B30" s="25" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C30" s="26">
         <v>230041700042</v>
@@ -6654,7 +6759,7 @@
         <v>31</v>
       </c>
       <c r="B31" s="25" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C31" s="26">
         <v>230041700044</v>
@@ -6665,7 +6770,7 @@
         <v>32</v>
       </c>
       <c r="B32" s="24" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C32" s="23">
         <v>230041700045</v>
@@ -6676,7 +6781,7 @@
         <v>33</v>
       </c>
       <c r="B33" s="25" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C33" s="26">
         <v>230041700046</v>
@@ -6687,7 +6792,7 @@
         <v>34</v>
       </c>
       <c r="B34" s="24" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C34" s="23">
         <v>230041700047</v>
@@ -6698,7 +6803,7 @@
         <v>35</v>
       </c>
       <c r="B35" s="25" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C35" s="26">
         <v>230041700048</v>
@@ -6709,7 +6814,7 @@
         <v>36</v>
       </c>
       <c r="B36" s="25" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C36" s="26">
         <v>230041700050</v>
@@ -6720,7 +6825,7 @@
         <v>37</v>
       </c>
       <c r="B37" s="24" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C37" s="23">
         <v>230041700051</v>
@@ -6731,7 +6836,7 @@
         <v>38</v>
       </c>
       <c r="B38" s="25" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C38" s="26">
         <v>230041700052</v>
@@ -6742,7 +6847,7 @@
         <v>39</v>
       </c>
       <c r="B39" s="25" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C39" s="26">
         <v>230041700056</v>
@@ -6753,7 +6858,7 @@
         <v>40</v>
       </c>
       <c r="B40" s="25" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C40" s="26">
         <v>230041700058</v>
@@ -6764,7 +6869,7 @@
         <v>41</v>
       </c>
       <c r="B41" s="24" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C41" s="23">
         <v>230041700059</v>
@@ -6775,7 +6880,7 @@
         <v>42</v>
       </c>
       <c r="B42" s="25" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C42" s="26">
         <v>230041700062</v>
@@ -6786,7 +6891,7 @@
         <v>43</v>
       </c>
       <c r="B43" s="24" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C43" s="23">
         <v>230041700063</v>
@@ -6797,7 +6902,7 @@
         <v>44</v>
       </c>
       <c r="B44" s="25" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C44" s="26">
         <v>230041700066</v>
@@ -6808,7 +6913,7 @@
         <v>45</v>
       </c>
       <c r="B45" s="25" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C45" s="26">
         <v>230041700068</v>
@@ -6819,7 +6924,7 @@
         <v>46</v>
       </c>
       <c r="B46" s="24" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C46" s="23">
         <v>230041700069</v>
@@ -6830,7 +6935,7 @@
         <v>47</v>
       </c>
       <c r="B47" s="27" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C47" s="28">
         <v>230041724001</v>
@@ -6841,7 +6946,7 @@
         <v>48</v>
       </c>
       <c r="B48" s="27" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C48" s="28">
         <v>230041724004</v>
@@ -6852,7 +6957,7 @@
         <v>49</v>
       </c>
       <c r="B49" s="27" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C49" s="28">
         <v>230041724005</v>
@@ -6863,7 +6968,7 @@
         <v>50</v>
       </c>
       <c r="B50" s="27" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C50" s="28">
         <v>230041724006</v>
@@ -6874,7 +6979,7 @@
         <v>51</v>
       </c>
       <c r="B51" s="27" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C51" s="28">
         <v>230041724007</v>
@@ -6885,7 +6990,7 @@
         <v>52</v>
       </c>
       <c r="B52" s="27" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C52" s="28">
         <v>230041724008</v>
@@ -6896,7 +7001,7 @@
         <v>53</v>
       </c>
       <c r="B53" s="27" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C53" s="28">
         <v>230041724009</v>
@@ -6907,7 +7012,7 @@
         <v>54</v>
       </c>
       <c r="B54" s="27" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C54" s="28">
         <v>230041724010</v>
@@ -6918,7 +7023,7 @@
         <v>55</v>
       </c>
       <c r="B55" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C55" s="28">
         <v>230041724013</v>
@@ -6929,7 +7034,7 @@
         <v>56</v>
       </c>
       <c r="B56" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C56" s="28">
         <v>230041724014</v>
@@ -7136,7 +7241,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C5" s="15">
         <v>220041700006</v>
@@ -7182,7 +7287,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C6" s="15">
         <v>220041700007</v>
@@ -7320,7 +7425,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C9" s="15">
         <v>220041700011</v>
@@ -7412,7 +7517,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C11" s="15">
         <v>220041700014</v>
@@ -7688,7 +7793,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C17" s="15">
         <v>220041700024</v>
@@ -7734,7 +7839,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C18" s="15">
         <v>220041700025</v>
@@ -7964,7 +8069,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C23" s="15">
         <v>220041700033</v>
@@ -8010,7 +8115,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C24" s="15">
         <v>220041700034</v>
@@ -8194,7 +8299,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="14" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C28" s="15">
         <v>220041700040</v>
@@ -8286,7 +8391,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="14" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C30" s="15">
         <v>220041700043</v>
@@ -8332,7 +8437,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="14" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C31" s="15">
         <v>220041700044</v>
@@ -8479,7 +8584,7 @@
         <v>13</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>104</v>
+        <v>22</v>
       </c>
       <c r="F34" s="16">
         <v>10</v>
@@ -8516,7 +8621,7 @@
         <v>33</v>
       </c>
       <c r="B35" s="14" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C35" s="15">
         <v>220041700051</v>
@@ -8700,7 +8805,7 @@
         <v>37</v>
       </c>
       <c r="B39" s="14" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C39" s="15">
         <v>220041700057</v>
@@ -8798,10 +8903,10 @@
         <v>220041700061</v>
       </c>
       <c r="D41" s="16" t="s">
-        <v>104</v>
+        <v>22</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>104</v>
+        <v>22</v>
       </c>
       <c r="F41" s="16">
         <v>0</v>
@@ -8838,7 +8943,7 @@
         <v>40</v>
       </c>
       <c r="B42" s="14" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C42" s="15">
         <v>220041700064</v>
@@ -8930,7 +9035,7 @@
         <v>42</v>
       </c>
       <c r="B44" s="14" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C44" s="15">
         <v>220041700066</v>
@@ -8942,7 +9047,7 @@
         <v>17</v>
       </c>
       <c r="F44" s="16" t="s">
-        <v>104</v>
+        <v>22</v>
       </c>
       <c r="G44" s="16">
         <v>5</v>
@@ -8985,7 +9090,7 @@
         <v>22</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>104</v>
+        <v>22</v>
       </c>
       <c r="F45" s="16">
         <v>25</v>
@@ -9304,7 +9409,7 @@
         <v>220041723008</v>
       </c>
       <c r="D52" s="16" t="s">
-        <v>104</v>
+        <v>22</v>
       </c>
       <c r="E52" s="16">
         <v>10</v>
@@ -9396,13 +9501,13 @@
         <v>220041723011</v>
       </c>
       <c r="D54" s="16" t="s">
-        <v>104</v>
+        <v>22</v>
       </c>
       <c r="E54" s="16" t="s">
-        <v>104</v>
+        <v>22</v>
       </c>
       <c r="F54" s="16" t="s">
-        <v>104</v>
+        <v>22</v>
       </c>
       <c r="G54" s="16">
         <v>0</v>
@@ -9491,7 +9596,7 @@
         <v>23</v>
       </c>
       <c r="E56" s="16" t="s">
-        <v>104</v>
+        <v>22</v>
       </c>
       <c r="F56" s="16">
         <v>1</v>
@@ -9629,7 +9734,7 @@
         <v>27</v>
       </c>
       <c r="E59" s="16" t="s">
-        <v>104</v>
+        <v>22</v>
       </c>
       <c r="F59" s="16">
         <v>29</v>
@@ -9804,7 +9909,7 @@
         <v>60</v>
       </c>
       <c r="B63" s="17" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C63" s="18">
         <v>210041700089</v>
@@ -10402,7 +10507,7 @@
         <v>73</v>
       </c>
       <c r="B76" s="14" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C76" s="15">
         <v>220041700096</v>
@@ -10448,7 +10553,7 @@
         <v>74</v>
       </c>
       <c r="B77" s="14" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C77" s="15">
         <v>220041700097</v>
@@ -10598,7 +10703,7 @@
         <v>10</v>
       </c>
       <c r="F80" s="16" t="s">
-        <v>104</v>
+        <v>22</v>
       </c>
       <c r="G80" s="16">
         <v>5</v>
@@ -11104,7 +11209,7 @@
         <v>16</v>
       </c>
       <c r="F91" s="16" t="s">
-        <v>104</v>
+        <v>22</v>
       </c>
       <c r="G91" s="16">
         <v>5</v>
@@ -11374,7 +11479,7 @@
         <v>220041700130</v>
       </c>
       <c r="D97" s="16" t="s">
-        <v>104</v>
+        <v>22</v>
       </c>
       <c r="E97" s="16">
         <v>11</v>
@@ -11423,7 +11528,7 @@
         <v>12</v>
       </c>
       <c r="E98" s="16" t="s">
-        <v>104</v>
+        <v>22</v>
       </c>
       <c r="F98" s="16">
         <v>22</v>
@@ -11697,7 +11802,7 @@
         <v>220041723021</v>
       </c>
       <c r="D104" s="16" t="s">
-        <v>104</v>
+        <v>22</v>
       </c>
       <c r="E104" s="16">
         <v>12</v>
@@ -11743,13 +11848,13 @@
         <v>220041723022</v>
       </c>
       <c r="D105" s="16" t="s">
-        <v>104</v>
+        <v>22</v>
       </c>
       <c r="E105" s="16" t="s">
-        <v>104</v>
+        <v>22</v>
       </c>
       <c r="F105" s="16" t="s">
-        <v>104</v>
+        <v>22</v>
       </c>
       <c r="G105" s="16">
         <v>0</v>
@@ -12466,7 +12571,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C10" s="4">
         <v>210041700010</v>
@@ -12510,7 +12615,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C11" s="4">
         <v>210041700011</v>
@@ -12774,7 +12879,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C17" s="4">
         <v>210041700020</v>
@@ -12950,7 +13055,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C21" s="4">
         <v>210041700028</v>
@@ -12994,7 +13099,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C22" s="4">
         <v>210041700029</v>
@@ -13038,7 +13143,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C23" s="4">
         <v>210041700030</v>
@@ -13082,7 +13187,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C24" s="4">
         <v>210041700032</v>
@@ -13170,7 +13275,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C26" s="4">
         <v>210041700034</v>
@@ -13522,7 +13627,7 @@
         <v>32</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C34" s="4">
         <v>210041700046</v>
@@ -13566,7 +13671,7 @@
         <v>33</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C35" s="4">
         <v>210041700049</v>
@@ -13918,7 +14023,7 @@
         <v>41</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C43" s="4">
         <v>210041700058</v>
@@ -14270,7 +14375,7 @@
         <v>49</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C51" s="4">
         <v>210041722004</v>
@@ -14314,7 +14419,7 @@
         <v>50</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C52" s="4">
         <v>210041722005</v>
@@ -14402,7 +14507,7 @@
         <v>52</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C54" s="4">
         <v>210041722008</v>
@@ -14534,7 +14639,7 @@
         <v>55</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C57" s="4">
         <v>210041722014</v>
@@ -14578,7 +14683,7 @@
         <v>56</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C58" s="4">
         <v>210041722015</v>
@@ -15018,7 +15123,7 @@
         <v>66</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C68" s="4">
         <v>210041700071</v>
@@ -15106,7 +15211,7 @@
         <v>68</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C70" s="4">
         <v>210041700076</v>
@@ -15590,7 +15695,7 @@
         <v>79</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C81" s="4">
         <v>210041700095</v>
@@ -15722,7 +15827,7 @@
         <v>82</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C84" s="4">
         <v>210041700104</v>
@@ -16470,7 +16575,7 @@
         <v>99</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C101" s="4">
         <v>210041722024</v>
@@ -16514,7 +16619,7 @@
         <v>100</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C102" s="4">
         <v>210041722025</v>
@@ -16558,7 +16663,7 @@
         <v>101</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C103" s="4">
         <v>210041722026</v>

--- a/static/Upload/5th sem.xlsx
+++ b/static/Upload/5th sem.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24000" windowHeight="9600"/>
+    <workbookView windowWidth="23145" windowHeight="8880"/>
   </bookViews>
   <sheets>
     <sheet name="CNC" sheetId="6" r:id="rId1"/>
@@ -2137,10 +2137,10 @@
   <sheetPr/>
   <dimension ref="A1:W98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D59" sqref="D59"/>
+      <selection pane="topRight" activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -2246,7 +2246,9 @@
       <c r="G3" s="16">
         <v>0</v>
       </c>
-      <c r="H3" s="8"/>
+      <c r="H3" s="8">
+        <v>0</v>
+      </c>
       <c r="I3" s="8"/>
       <c r="J3" s="16">
         <f>U3</f>
@@ -2289,7 +2291,9 @@
       <c r="G4" s="16">
         <v>0</v>
       </c>
-      <c r="H4" s="8"/>
+      <c r="H4" s="8">
+        <v>3</v>
+      </c>
       <c r="I4" s="8"/>
       <c r="J4" s="16">
         <f t="shared" ref="J4:J67" si="0">U4</f>
@@ -2332,7 +2336,9 @@
       <c r="G5" s="16">
         <v>0</v>
       </c>
-      <c r="H5" s="8"/>
+      <c r="H5" s="8">
+        <v>4</v>
+      </c>
       <c r="I5" s="8"/>
       <c r="J5" s="16">
         <f t="shared" si="0"/>
@@ -2375,7 +2381,9 @@
       <c r="G6" s="16">
         <v>0</v>
       </c>
-      <c r="H6" s="8"/>
+      <c r="H6" s="8">
+        <v>3</v>
+      </c>
       <c r="I6" s="8"/>
       <c r="J6" s="16">
         <f t="shared" si="0"/>
@@ -2418,7 +2426,9 @@
       <c r="G7" s="16">
         <v>0</v>
       </c>
-      <c r="H7" s="8"/>
+      <c r="H7" s="8">
+        <v>4</v>
+      </c>
       <c r="I7" s="8"/>
       <c r="J7" s="16">
         <f t="shared" si="0"/>
@@ -2461,7 +2471,9 @@
       <c r="G8" s="16">
         <v>0</v>
       </c>
-      <c r="H8" s="8"/>
+      <c r="H8" s="8">
+        <v>0</v>
+      </c>
       <c r="I8" s="8"/>
       <c r="J8" s="16">
         <f t="shared" si="0"/>
@@ -2504,7 +2516,9 @@
       <c r="G9" s="16">
         <v>5</v>
       </c>
-      <c r="H9" s="8"/>
+      <c r="H9" s="8">
+        <v>4</v>
+      </c>
       <c r="I9" s="8"/>
       <c r="J9" s="16">
         <f t="shared" si="0"/>
@@ -2547,7 +2561,9 @@
       <c r="G10" s="16">
         <v>5</v>
       </c>
-      <c r="H10" s="8"/>
+      <c r="H10" s="8">
+        <v>5</v>
+      </c>
       <c r="I10" s="8"/>
       <c r="J10" s="16">
         <f t="shared" si="0"/>
@@ -2590,7 +2606,9 @@
       <c r="G11" s="16">
         <v>5</v>
       </c>
-      <c r="H11" s="8"/>
+      <c r="H11" s="8">
+        <v>5</v>
+      </c>
       <c r="I11" s="8"/>
       <c r="J11" s="16">
         <f t="shared" si="0"/>
@@ -2633,7 +2651,9 @@
       <c r="G12" s="16">
         <v>5</v>
       </c>
-      <c r="H12" s="8"/>
+      <c r="H12" s="8">
+        <v>5</v>
+      </c>
       <c r="I12" s="8"/>
       <c r="J12" s="16">
         <f t="shared" si="0"/>
@@ -2676,7 +2696,9 @@
       <c r="G13" s="16">
         <v>5</v>
       </c>
-      <c r="H13" s="8"/>
+      <c r="H13" s="8">
+        <v>4</v>
+      </c>
       <c r="I13" s="8"/>
       <c r="J13" s="16">
         <f t="shared" si="0"/>
@@ -2719,7 +2741,9 @@
       <c r="G14" s="16">
         <v>5</v>
       </c>
-      <c r="H14" s="8"/>
+      <c r="H14" s="8">
+        <v>0</v>
+      </c>
       <c r="I14" s="8"/>
       <c r="J14" s="16">
         <f t="shared" si="0"/>
@@ -2762,7 +2786,9 @@
       <c r="G15" s="16">
         <v>0</v>
       </c>
-      <c r="H15" s="8"/>
+      <c r="H15" s="8">
+        <v>5</v>
+      </c>
       <c r="I15" s="8"/>
       <c r="J15" s="16">
         <f t="shared" si="0"/>
@@ -2805,7 +2831,9 @@
       <c r="G16" s="16">
         <v>5</v>
       </c>
-      <c r="H16" s="8"/>
+      <c r="H16" s="8">
+        <v>5</v>
+      </c>
       <c r="I16" s="8"/>
       <c r="J16" s="16">
         <f t="shared" si="0"/>
@@ -2848,7 +2876,9 @@
       <c r="G17" s="16">
         <v>0</v>
       </c>
-      <c r="H17" s="8"/>
+      <c r="H17" s="8">
+        <v>4</v>
+      </c>
       <c r="I17" s="8"/>
       <c r="J17" s="16">
         <f t="shared" si="0"/>
@@ -2891,7 +2921,9 @@
       <c r="G18" s="16">
         <v>5</v>
       </c>
-      <c r="H18" s="8"/>
+      <c r="H18" s="8">
+        <v>3</v>
+      </c>
       <c r="I18" s="8"/>
       <c r="J18" s="16">
         <f t="shared" si="0"/>
@@ -2934,7 +2966,9 @@
       <c r="G19" s="16">
         <v>0</v>
       </c>
-      <c r="H19" s="8"/>
+      <c r="H19" s="8">
+        <v>0</v>
+      </c>
       <c r="I19" s="8"/>
       <c r="J19" s="16">
         <f t="shared" si="0"/>
@@ -2977,7 +3011,9 @@
       <c r="G20" s="16">
         <v>5</v>
       </c>
-      <c r="H20" s="8"/>
+      <c r="H20" s="8">
+        <v>4</v>
+      </c>
       <c r="I20" s="8"/>
       <c r="J20" s="16">
         <f t="shared" si="0"/>
@@ -3020,7 +3056,9 @@
       <c r="G21" s="16">
         <v>5</v>
       </c>
-      <c r="H21" s="8"/>
+      <c r="H21" s="8">
+        <v>0</v>
+      </c>
       <c r="I21" s="8"/>
       <c r="J21" s="16">
         <f t="shared" si="0"/>
@@ -3063,7 +3101,9 @@
       <c r="G22" s="16">
         <v>5</v>
       </c>
-      <c r="H22" s="8"/>
+      <c r="H22" s="8">
+        <v>4</v>
+      </c>
       <c r="I22" s="8"/>
       <c r="J22" s="16">
         <f t="shared" si="0"/>
@@ -3106,7 +3146,9 @@
       <c r="G23" s="16">
         <v>5</v>
       </c>
-      <c r="H23" s="8"/>
+      <c r="H23" s="8">
+        <v>5</v>
+      </c>
       <c r="I23" s="8"/>
       <c r="J23" s="16">
         <f t="shared" si="0"/>
@@ -3149,7 +3191,9 @@
       <c r="G24" s="16">
         <v>5</v>
       </c>
-      <c r="H24" s="8"/>
+      <c r="H24" s="8">
+        <v>5</v>
+      </c>
       <c r="I24" s="8"/>
       <c r="J24" s="16">
         <f t="shared" si="0"/>
@@ -3192,7 +3236,9 @@
       <c r="G25" s="16">
         <v>5</v>
       </c>
-      <c r="H25" s="8"/>
+      <c r="H25" s="8">
+        <v>5</v>
+      </c>
       <c r="I25" s="8"/>
       <c r="J25" s="16">
         <f t="shared" si="0"/>
@@ -3235,7 +3281,9 @@
       <c r="G26" s="16">
         <v>0</v>
       </c>
-      <c r="H26" s="8"/>
+      <c r="H26" s="8">
+        <v>0</v>
+      </c>
       <c r="I26" s="8"/>
       <c r="J26" s="16">
         <f t="shared" si="0"/>
@@ -3278,7 +3326,9 @@
       <c r="G27" s="16">
         <v>5</v>
       </c>
-      <c r="H27" s="8"/>
+      <c r="H27" s="8">
+        <v>5</v>
+      </c>
       <c r="I27" s="8"/>
       <c r="J27" s="16">
         <f t="shared" si="0"/>
@@ -3321,7 +3371,9 @@
       <c r="G28" s="16">
         <v>0</v>
       </c>
-      <c r="H28" s="8"/>
+      <c r="H28" s="8">
+        <v>5</v>
+      </c>
       <c r="I28" s="8"/>
       <c r="J28" s="16">
         <f t="shared" si="0"/>
@@ -3364,7 +3416,9 @@
       <c r="G29" s="16">
         <v>0</v>
       </c>
-      <c r="H29" s="8"/>
+      <c r="H29" s="8">
+        <v>3</v>
+      </c>
       <c r="I29" s="8"/>
       <c r="J29" s="16">
         <f t="shared" si="0"/>
@@ -3407,7 +3461,9 @@
       <c r="G30" s="16">
         <v>0</v>
       </c>
-      <c r="H30" s="8"/>
+      <c r="H30" s="8">
+        <v>3</v>
+      </c>
       <c r="I30" s="8"/>
       <c r="J30" s="16">
         <f t="shared" si="0"/>
@@ -3450,7 +3506,9 @@
       <c r="G31" s="16">
         <v>5</v>
       </c>
-      <c r="H31" s="8"/>
+      <c r="H31" s="8">
+        <v>3</v>
+      </c>
       <c r="I31" s="8"/>
       <c r="J31" s="16">
         <f t="shared" si="0"/>
@@ -3493,7 +3551,9 @@
       <c r="G32" s="16">
         <v>5</v>
       </c>
-      <c r="H32" s="8"/>
+      <c r="H32" s="8">
+        <v>4</v>
+      </c>
       <c r="I32" s="8"/>
       <c r="J32" s="16">
         <f t="shared" si="0"/>
@@ -3536,7 +3596,9 @@
       <c r="G33" s="16">
         <v>5</v>
       </c>
-      <c r="H33" s="8"/>
+      <c r="H33" s="8">
+        <v>4</v>
+      </c>
       <c r="I33" s="8"/>
       <c r="J33" s="16">
         <f t="shared" si="0"/>
@@ -3579,7 +3641,9 @@
       <c r="G34" s="16">
         <v>5</v>
       </c>
-      <c r="H34" s="8"/>
+      <c r="H34" s="8">
+        <v>3</v>
+      </c>
       <c r="I34" s="8"/>
       <c r="J34" s="16">
         <f t="shared" si="0"/>
@@ -3622,7 +3686,9 @@
       <c r="G35" s="16">
         <v>0</v>
       </c>
-      <c r="H35" s="8"/>
+      <c r="H35" s="8">
+        <v>4</v>
+      </c>
       <c r="I35" s="8"/>
       <c r="J35" s="16">
         <f t="shared" si="0"/>
@@ -3665,7 +3731,9 @@
       <c r="G36" s="16">
         <v>5</v>
       </c>
-      <c r="H36" s="8"/>
+      <c r="H36" s="8">
+        <v>5</v>
+      </c>
       <c r="I36" s="8"/>
       <c r="J36" s="16">
         <f t="shared" si="0"/>
@@ -3708,7 +3776,9 @@
       <c r="G37" s="16">
         <v>5</v>
       </c>
-      <c r="H37" s="8"/>
+      <c r="H37" s="8">
+        <v>4</v>
+      </c>
       <c r="I37" s="8"/>
       <c r="J37" s="16">
         <f t="shared" si="0"/>
@@ -3751,7 +3821,9 @@
       <c r="G38" s="16">
         <v>5</v>
       </c>
-      <c r="H38" s="8"/>
+      <c r="H38" s="8">
+        <v>4</v>
+      </c>
       <c r="I38" s="8"/>
       <c r="J38" s="16">
         <f t="shared" si="0"/>
@@ -3794,7 +3866,9 @@
       <c r="G39" s="16">
         <v>5</v>
       </c>
-      <c r="H39" s="8"/>
+      <c r="H39" s="8">
+        <v>4</v>
+      </c>
       <c r="I39" s="8"/>
       <c r="J39" s="16">
         <f t="shared" si="0"/>
@@ -3837,7 +3911,9 @@
       <c r="G40" s="16">
         <v>0</v>
       </c>
-      <c r="H40" s="8"/>
+      <c r="H40" s="8">
+        <v>0</v>
+      </c>
       <c r="I40" s="8"/>
       <c r="J40" s="16">
         <f t="shared" si="0"/>
@@ -3880,7 +3956,9 @@
       <c r="G41" s="16">
         <v>0</v>
       </c>
-      <c r="H41" s="8"/>
+      <c r="H41" s="8">
+        <v>0</v>
+      </c>
       <c r="I41" s="8"/>
       <c r="J41" s="16">
         <f t="shared" si="0"/>
@@ -3924,7 +4002,9 @@
       <c r="G42" s="16">
         <v>0</v>
       </c>
-      <c r="H42" s="8"/>
+      <c r="H42" s="8">
+        <v>0</v>
+      </c>
       <c r="I42" s="8"/>
       <c r="J42" s="16">
         <f t="shared" si="0"/>
@@ -3967,7 +4047,9 @@
       <c r="G43" s="16">
         <v>0</v>
       </c>
-      <c r="H43" s="8"/>
+      <c r="H43" s="8">
+        <v>0</v>
+      </c>
       <c r="I43" s="8"/>
       <c r="J43" s="16">
         <f t="shared" si="0"/>
@@ -4010,7 +4092,9 @@
       <c r="G44" s="16">
         <v>0</v>
       </c>
-      <c r="H44" s="8"/>
+      <c r="H44" s="8">
+        <v>3</v>
+      </c>
       <c r="I44" s="8"/>
       <c r="J44" s="16">
         <f t="shared" si="0"/>
@@ -4053,7 +4137,9 @@
       <c r="G45" s="16">
         <v>0</v>
       </c>
-      <c r="H45" s="8"/>
+      <c r="H45" s="8">
+        <v>3</v>
+      </c>
       <c r="I45" s="8"/>
       <c r="J45" s="16">
         <f t="shared" si="0"/>
@@ -4096,7 +4182,9 @@
       <c r="G46" s="16">
         <v>5</v>
       </c>
-      <c r="H46" s="8"/>
+      <c r="H46" s="8">
+        <v>4</v>
+      </c>
       <c r="I46" s="8"/>
       <c r="J46" s="16">
         <f t="shared" si="0"/>
@@ -4139,7 +4227,9 @@
       <c r="G47" s="16">
         <v>5</v>
       </c>
-      <c r="H47" s="8"/>
+      <c r="H47" s="8">
+        <v>0</v>
+      </c>
       <c r="I47" s="8"/>
       <c r="J47" s="16">
         <f t="shared" si="0"/>
@@ -4182,7 +4272,9 @@
       <c r="G48" s="16">
         <v>0</v>
       </c>
-      <c r="H48" s="8"/>
+      <c r="H48" s="8">
+        <v>0</v>
+      </c>
       <c r="I48" s="8"/>
       <c r="J48" s="16">
         <f t="shared" si="0"/>
@@ -4225,7 +4317,9 @@
       <c r="G49" s="16">
         <v>0</v>
       </c>
-      <c r="H49" s="8"/>
+      <c r="H49" s="8">
+        <v>0</v>
+      </c>
       <c r="I49" s="8"/>
       <c r="J49" s="16">
         <f t="shared" si="0"/>
@@ -4268,7 +4362,9 @@
       <c r="G50" s="16">
         <v>0</v>
       </c>
-      <c r="H50" s="8"/>
+      <c r="H50" s="8">
+        <v>4</v>
+      </c>
       <c r="I50" s="8"/>
       <c r="J50" s="16">
         <f t="shared" si="0"/>
@@ -4309,9 +4405,11 @@
       <c r="E51" s="16"/>
       <c r="F51" s="16"/>
       <c r="G51" s="16">
-        <v>0</v>
-      </c>
-      <c r="H51" s="8"/>
+        <v>4</v>
+      </c>
+      <c r="H51" s="8">
+        <v>4</v>
+      </c>
       <c r="I51" s="8"/>
       <c r="J51" s="16">
         <f t="shared" si="0"/>
@@ -4319,7 +4417,7 @@
       </c>
       <c r="K51" s="16">
         <f t="shared" si="4"/>
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="R51" s="21"/>
       <c r="S51" s="21"/>
@@ -4354,7 +4452,9 @@
       <c r="G52" s="16">
         <v>0</v>
       </c>
-      <c r="H52" s="8"/>
+      <c r="H52" s="8">
+        <v>0</v>
+      </c>
       <c r="I52" s="8"/>
       <c r="J52" s="16">
         <f t="shared" si="0"/>
@@ -4398,7 +4498,9 @@
       <c r="G53" s="16">
         <v>5</v>
       </c>
-      <c r="H53" s="8"/>
+      <c r="H53" s="8">
+        <v>4</v>
+      </c>
       <c r="I53" s="8"/>
       <c r="J53" s="16">
         <f t="shared" si="0"/>
@@ -4441,7 +4543,9 @@
       <c r="G54" s="16">
         <v>5</v>
       </c>
-      <c r="H54" s="8"/>
+      <c r="H54" s="8">
+        <v>0</v>
+      </c>
       <c r="I54" s="8"/>
       <c r="J54" s="16">
         <f t="shared" si="0"/>
@@ -4485,7 +4589,9 @@
       <c r="G55" s="16">
         <v>5</v>
       </c>
-      <c r="H55" s="8"/>
+      <c r="H55" s="8">
+        <v>3</v>
+      </c>
       <c r="I55" s="8"/>
       <c r="J55" s="16">
         <f t="shared" si="0"/>
@@ -4528,7 +4634,9 @@
       <c r="G56" s="16">
         <v>5</v>
       </c>
-      <c r="H56" s="8"/>
+      <c r="H56" s="8">
+        <v>0</v>
+      </c>
       <c r="I56" s="8"/>
       <c r="J56" s="16">
         <f t="shared" si="0"/>
@@ -4571,7 +4679,9 @@
       <c r="G57" s="16">
         <v>5</v>
       </c>
-      <c r="H57" s="8"/>
+      <c r="H57" s="8">
+        <v>3</v>
+      </c>
       <c r="I57" s="8"/>
       <c r="J57" s="16">
         <f t="shared" si="0"/>
@@ -4607,14 +4717,16 @@
         <v>230041724014</v>
       </c>
       <c r="D58" s="16">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E58" s="16"/>
       <c r="F58" s="16"/>
       <c r="G58" s="16">
         <v>5</v>
       </c>
-      <c r="H58" s="8"/>
+      <c r="H58" s="8">
+        <v>4</v>
+      </c>
       <c r="I58" s="8"/>
       <c r="J58" s="16">
         <f t="shared" si="0"/>
@@ -4622,7 +4734,7 @@
       </c>
       <c r="K58" s="16">
         <f t="shared" si="4"/>
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="R58" s="21"/>
       <c r="S58" s="21"/>
@@ -4657,7 +4769,9 @@
       <c r="G59" s="16">
         <v>0</v>
       </c>
-      <c r="H59" s="8"/>
+      <c r="H59" s="8">
+        <v>3</v>
+      </c>
       <c r="I59" s="8"/>
       <c r="J59" s="16">
         <f t="shared" si="0"/>
@@ -4700,7 +4814,9 @@
       <c r="G60" s="16">
         <v>0</v>
       </c>
-      <c r="H60" s="8"/>
+      <c r="H60" s="8">
+        <v>0</v>
+      </c>
       <c r="I60" s="8"/>
       <c r="J60" s="16">
         <f t="shared" si="0"/>
@@ -4743,7 +4859,9 @@
       <c r="G61" s="16">
         <v>5</v>
       </c>
-      <c r="H61" s="8"/>
+      <c r="H61" s="8">
+        <v>3</v>
+      </c>
       <c r="I61" s="8"/>
       <c r="J61" s="16">
         <f t="shared" si="0"/>
@@ -4787,7 +4905,9 @@
       <c r="G62" s="16">
         <v>0</v>
       </c>
-      <c r="H62" s="8"/>
+      <c r="H62" s="8">
+        <v>0</v>
+      </c>
       <c r="I62" s="8"/>
       <c r="J62" s="16">
         <f t="shared" si="0"/>
@@ -4831,7 +4951,9 @@
       <c r="G63" s="16">
         <v>5</v>
       </c>
-      <c r="H63" s="8"/>
+      <c r="H63" s="8">
+        <v>3</v>
+      </c>
       <c r="I63" s="8"/>
       <c r="J63" s="16">
         <f t="shared" si="0"/>
@@ -4875,7 +4997,9 @@
       <c r="G64" s="16">
         <v>5</v>
       </c>
-      <c r="H64" s="8"/>
+      <c r="H64" s="8">
+        <v>5</v>
+      </c>
       <c r="I64" s="8"/>
       <c r="J64" s="16">
         <f t="shared" si="0"/>
@@ -4919,7 +5043,9 @@
       <c r="G65" s="16">
         <v>5</v>
       </c>
-      <c r="H65" s="8"/>
+      <c r="H65" s="8">
+        <v>4</v>
+      </c>
       <c r="I65" s="8"/>
       <c r="J65" s="16">
         <f t="shared" si="0"/>
@@ -4963,7 +5089,9 @@
       <c r="G66" s="16">
         <v>5</v>
       </c>
-      <c r="H66" s="8"/>
+      <c r="H66" s="8">
+        <v>5</v>
+      </c>
       <c r="I66" s="8"/>
       <c r="J66" s="16">
         <f t="shared" si="0"/>
@@ -5007,7 +5135,9 @@
       <c r="G67" s="16">
         <v>5</v>
       </c>
-      <c r="H67" s="8"/>
+      <c r="H67" s="8">
+        <v>4</v>
+      </c>
       <c r="I67" s="8"/>
       <c r="J67" s="16">
         <f t="shared" si="0"/>
@@ -5051,7 +5181,9 @@
       <c r="G68" s="16">
         <v>5</v>
       </c>
-      <c r="H68" s="8"/>
+      <c r="H68" s="8">
+        <v>3</v>
+      </c>
       <c r="I68" s="8"/>
       <c r="J68" s="16">
         <f t="shared" ref="J68:J98" si="6">U68</f>
@@ -5095,7 +5227,9 @@
       <c r="G69" s="16">
         <v>5</v>
       </c>
-      <c r="H69" s="8"/>
+      <c r="H69" s="8">
+        <v>4.5</v>
+      </c>
       <c r="I69" s="8"/>
       <c r="J69" s="16">
         <f t="shared" si="6"/>
@@ -5139,7 +5273,9 @@
       <c r="G70" s="16">
         <v>5</v>
       </c>
-      <c r="H70" s="8"/>
+      <c r="H70" s="8">
+        <v>3</v>
+      </c>
       <c r="I70" s="8"/>
       <c r="J70" s="16">
         <f t="shared" si="6"/>
@@ -5183,7 +5319,9 @@
       <c r="G71" s="16">
         <v>0</v>
       </c>
-      <c r="H71" s="8"/>
+      <c r="H71" s="8">
+        <v>3</v>
+      </c>
       <c r="I71" s="8"/>
       <c r="J71" s="16">
         <f t="shared" si="6"/>
@@ -5227,7 +5365,9 @@
       <c r="G72" s="16">
         <v>5</v>
       </c>
-      <c r="H72" s="8"/>
+      <c r="H72" s="8">
+        <v>5</v>
+      </c>
       <c r="I72" s="8"/>
       <c r="J72" s="16">
         <f t="shared" si="6"/>
@@ -5271,7 +5411,9 @@
       <c r="G73" s="16">
         <v>5</v>
       </c>
-      <c r="H73" s="8"/>
+      <c r="H73" s="8">
+        <v>5</v>
+      </c>
       <c r="I73" s="8"/>
       <c r="J73" s="16">
         <f t="shared" si="6"/>
@@ -5315,7 +5457,9 @@
       <c r="G74" s="16">
         <v>5</v>
       </c>
-      <c r="H74" s="8"/>
+      <c r="H74" s="8">
+        <v>5</v>
+      </c>
       <c r="I74" s="8"/>
       <c r="J74" s="16">
         <f t="shared" si="6"/>
@@ -5359,7 +5503,9 @@
       <c r="G75" s="16">
         <v>5</v>
       </c>
-      <c r="H75" s="8"/>
+      <c r="H75" s="8">
+        <v>3</v>
+      </c>
       <c r="I75" s="8"/>
       <c r="J75" s="16">
         <f t="shared" si="6"/>
@@ -5403,7 +5549,9 @@
       <c r="G76" s="16">
         <v>5</v>
       </c>
-      <c r="H76" s="8"/>
+      <c r="H76" s="8">
+        <v>5</v>
+      </c>
       <c r="I76" s="8"/>
       <c r="J76" s="16">
         <f t="shared" si="6"/>
@@ -5447,7 +5595,9 @@
       <c r="G77" s="16">
         <v>5</v>
       </c>
-      <c r="H77" s="8"/>
+      <c r="H77" s="8">
+        <v>5</v>
+      </c>
       <c r="I77" s="8"/>
       <c r="J77" s="16">
         <f t="shared" si="6"/>
@@ -5491,7 +5641,9 @@
       <c r="G78" s="16">
         <v>5</v>
       </c>
-      <c r="H78" s="8"/>
+      <c r="H78" s="8">
+        <v>5</v>
+      </c>
       <c r="I78" s="8"/>
       <c r="J78" s="16">
         <f t="shared" si="6"/>
@@ -5535,7 +5687,9 @@
       <c r="G79" s="16">
         <v>5</v>
       </c>
-      <c r="H79" s="8"/>
+      <c r="H79" s="8">
+        <v>3</v>
+      </c>
       <c r="I79" s="8"/>
       <c r="J79" s="16">
         <f t="shared" si="6"/>
@@ -5579,7 +5733,9 @@
       <c r="G80" s="16">
         <v>5</v>
       </c>
-      <c r="H80" s="8"/>
+      <c r="H80" s="8">
+        <v>5</v>
+      </c>
       <c r="I80" s="8"/>
       <c r="J80" s="16">
         <f t="shared" si="6"/>
@@ -5623,7 +5779,9 @@
       <c r="G81" s="16">
         <v>5</v>
       </c>
-      <c r="H81" s="8"/>
+      <c r="H81" s="8">
+        <v>5</v>
+      </c>
       <c r="I81" s="8"/>
       <c r="J81" s="16">
         <f t="shared" si="6"/>
@@ -5667,7 +5825,9 @@
       <c r="G82" s="16">
         <v>5</v>
       </c>
-      <c r="H82" s="8"/>
+      <c r="H82" s="8">
+        <v>0</v>
+      </c>
       <c r="I82" s="8"/>
       <c r="J82" s="16">
         <f t="shared" si="6"/>
@@ -5711,7 +5871,9 @@
       <c r="G83" s="16">
         <v>5</v>
       </c>
-      <c r="H83" s="8"/>
+      <c r="H83" s="8">
+        <v>3</v>
+      </c>
       <c r="I83" s="8"/>
       <c r="J83" s="16">
         <f t="shared" si="6"/>
@@ -5755,7 +5917,9 @@
       <c r="G84" s="16">
         <v>5</v>
       </c>
-      <c r="H84" s="8"/>
+      <c r="H84" s="8">
+        <v>5</v>
+      </c>
       <c r="I84" s="8"/>
       <c r="J84" s="16">
         <f t="shared" si="6"/>
@@ -5799,7 +5963,9 @@
       <c r="G85" s="16">
         <v>0</v>
       </c>
-      <c r="H85" s="8"/>
+      <c r="H85" s="8">
+        <v>0</v>
+      </c>
       <c r="I85" s="8"/>
       <c r="J85" s="16">
         <f t="shared" si="6"/>
@@ -5843,7 +6009,9 @@
       <c r="G86" s="16">
         <v>5</v>
       </c>
-      <c r="H86" s="8"/>
+      <c r="H86" s="8">
+        <v>3</v>
+      </c>
       <c r="I86" s="8"/>
       <c r="J86" s="16">
         <f t="shared" si="6"/>
@@ -5887,7 +6055,9 @@
       <c r="G87" s="16">
         <v>5</v>
       </c>
-      <c r="H87" s="8"/>
+      <c r="H87" s="8">
+        <v>0</v>
+      </c>
       <c r="I87" s="8"/>
       <c r="J87" s="16">
         <f t="shared" si="6"/>
@@ -5931,7 +6101,9 @@
       <c r="G88" s="16">
         <v>5</v>
       </c>
-      <c r="H88" s="8"/>
+      <c r="H88" s="8">
+        <v>5</v>
+      </c>
       <c r="I88" s="8"/>
       <c r="J88" s="16">
         <f t="shared" si="6"/>
@@ -5975,7 +6147,9 @@
       <c r="G89" s="16">
         <v>0</v>
       </c>
-      <c r="H89" s="8"/>
+      <c r="H89" s="8">
+        <v>3</v>
+      </c>
       <c r="I89" s="8"/>
       <c r="J89" s="16">
         <f t="shared" si="6"/>
@@ -6019,7 +6193,9 @@
       <c r="G90" s="16">
         <v>0</v>
       </c>
-      <c r="H90" s="8"/>
+      <c r="H90" s="8">
+        <v>0</v>
+      </c>
       <c r="I90" s="8"/>
       <c r="J90" s="16">
         <f t="shared" si="6"/>
@@ -6063,7 +6239,9 @@
       <c r="G91" s="16">
         <v>5</v>
       </c>
-      <c r="H91" s="8"/>
+      <c r="H91" s="8">
+        <v>5</v>
+      </c>
       <c r="I91" s="8"/>
       <c r="J91" s="16">
         <f t="shared" si="6"/>
@@ -6107,7 +6285,9 @@
       <c r="G92" s="16">
         <v>0</v>
       </c>
-      <c r="H92" s="8"/>
+      <c r="H92" s="8">
+        <v>0</v>
+      </c>
       <c r="I92" s="8"/>
       <c r="J92" s="16">
         <f t="shared" si="6"/>
@@ -6151,7 +6331,9 @@
       <c r="G93" s="16">
         <v>5</v>
       </c>
-      <c r="H93" s="8"/>
+      <c r="H93" s="8">
+        <v>0</v>
+      </c>
       <c r="I93" s="8"/>
       <c r="J93" s="16">
         <f t="shared" si="6"/>
@@ -6195,7 +6377,9 @@
       <c r="G94" s="16">
         <v>5</v>
       </c>
-      <c r="H94" s="8"/>
+      <c r="H94" s="8">
+        <v>5</v>
+      </c>
       <c r="I94" s="8"/>
       <c r="J94" s="16">
         <f t="shared" si="6"/>
@@ -6239,7 +6423,9 @@
       <c r="G95" s="16">
         <v>5</v>
       </c>
-      <c r="H95" s="8"/>
+      <c r="H95" s="8">
+        <v>5</v>
+      </c>
       <c r="I95" s="8"/>
       <c r="J95" s="16">
         <f t="shared" si="6"/>
@@ -6283,7 +6469,9 @@
       <c r="G96" s="16">
         <v>5</v>
       </c>
-      <c r="H96" s="8"/>
+      <c r="H96" s="8">
+        <v>3</v>
+      </c>
       <c r="I96" s="8"/>
       <c r="J96" s="16">
         <f t="shared" si="6"/>
@@ -6327,7 +6515,9 @@
       <c r="G97" s="16">
         <v>5</v>
       </c>
-      <c r="H97" s="8"/>
+      <c r="H97" s="8">
+        <v>3</v>
+      </c>
       <c r="I97" s="8"/>
       <c r="J97" s="16">
         <f t="shared" si="6"/>
@@ -6371,7 +6561,9 @@
       <c r="G98" s="16">
         <v>5</v>
       </c>
-      <c r="H98" s="8"/>
+      <c r="H98" s="8">
+        <v>0</v>
+      </c>
       <c r="I98" s="8"/>
       <c r="J98" s="16">
         <f t="shared" si="6"/>

--- a/static/Upload/5th sem.xlsx
+++ b/static/Upload/5th sem.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23145" windowHeight="8880"/>
+    <workbookView windowWidth="23145" windowHeight="9600"/>
   </bookViews>
   <sheets>
     <sheet name="CNC" sheetId="6" r:id="rId1"/>
@@ -2137,10 +2137,10 @@
   <sheetPr/>
   <dimension ref="A1:W98"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
       <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="H6" sqref="H6"/>
+      <selection pane="topRight" activeCell="J97" sqref="J97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -6056,7 +6056,7 @@
         <v>5</v>
       </c>
       <c r="H87" s="8">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I87" s="8"/>
       <c r="J87" s="16">
@@ -6562,7 +6562,7 @@
         <v>5</v>
       </c>
       <c r="H98" s="8">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I98" s="8"/>
       <c r="J98" s="16">

--- a/static/Upload/5th sem.xlsx
+++ b/static/Upload/5th sem.xlsx
@@ -2137,10 +2137,10 @@
   <sheetPr/>
   <dimension ref="A1:W98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
       <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="J97" sqref="J97"/>
+      <selection pane="topRight" activeCell="A98" sqref="A98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>

--- a/static/Upload/5th sem.xlsx
+++ b/static/Upload/5th sem.xlsx
@@ -13,7 +13,7 @@
     <sheet name="CNC 2023" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">CNC!$A$2:$T$98</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">CNC!$A$2:$Z$98</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'CNC 2024'!$A$2:$T$111</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'CNC 2023'!$A$2:$O$112</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">CNC!$A$1:$L$98</definedName>
@@ -36,8 +36,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="498" uniqueCount="304">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="507" uniqueCount="304">
   <si>
     <t>5th Sem 2022-25</t>
   </si>
@@ -84,6 +106,15 @@
     <t>Practical (60)</t>
   </si>
   <si>
+    <t>S1(40)</t>
+  </si>
+  <si>
+    <t>S2(40)</t>
+  </si>
+  <si>
+    <t>S3(40)</t>
+  </si>
+  <si>
     <t>P1</t>
   </si>
   <si>
@@ -91,15 +122,6 @@
   </si>
   <si>
     <t>P3</t>
-  </si>
-  <si>
-    <t>S1(40)</t>
-  </si>
-  <si>
-    <t>S2(40)</t>
-  </si>
-  <si>
-    <t>S3(40)</t>
   </si>
   <si>
     <t>ABHISHEK</t>
@@ -964,7 +986,7 @@
     <numFmt numFmtId="181" formatCode="0.000"/>
     <numFmt numFmtId="182" formatCode="0;[Red]0"/>
   </numFmts>
-  <fonts count="27">
+  <fonts count="28">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1013,6 +1035,12 @@
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color rgb="FF1C1C1D"/>
+      <name val="Consolas"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1561,16 +1589,13 @@
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1579,119 +1604,122 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1791,6 +1819,9 @@
     </xf>
     <xf numFmtId="182" fontId="7" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2135,12 +2166,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:W98"/>
+  <dimension ref="A1:Z98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="A98" sqref="A98"/>
+      <selection pane="topRight" activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -2154,10 +2185,10 @@
     <col min="11" max="11" width="14.4285714285714" style="2" customWidth="1"/>
     <col min="12" max="12" width="16.5714285714286" style="2" customWidth="1"/>
     <col min="13" max="13" width="13.8571428571429" style="2" customWidth="1"/>
-    <col min="14" max="14" width="13.5714285714286" style="2" customWidth="1"/>
-    <col min="15" max="17" width="8" style="2" customWidth="1"/>
-    <col min="18" max="20" width="11" style="2" customWidth="1"/>
-    <col min="21" max="16384" width="9.14285714285714" style="2"/>
+    <col min="14" max="17" width="13.5714285714286" style="2" customWidth="1"/>
+    <col min="18" max="20" width="8" style="2" customWidth="1"/>
+    <col min="21" max="23" width="11" style="2" customWidth="1"/>
+    <col min="24" max="16384" width="9.14285714285714" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -2166,7 +2197,7 @@
       </c>
       <c r="J1" s="2"/>
     </row>
-    <row r="2" s="1" customFormat="1" spans="1:20">
+    <row r="2" s="1" customFormat="1" spans="1:23">
       <c r="A2" s="8" t="s">
         <v>1</v>
       </c>
@@ -2218,17 +2249,26 @@
       <c r="Q2" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="R2" s="1" t="s">
+      <c r="R2" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="S2" s="1" t="s">
+      <c r="S2" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="T2" s="1" t="s">
+      <c r="T2" s="19" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="3" spans="1:23">
+      <c r="U2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26">
       <c r="A3" s="8">
         <v>1</v>
       </c>
@@ -2241,7 +2281,9 @@
       <c r="D3" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="E3" s="16"/>
+      <c r="E3" s="16" t="s">
+        <v>22</v>
+      </c>
       <c r="F3" s="16"/>
       <c r="G3" s="16">
         <v>0</v>
@@ -2251,29 +2293,41 @@
       </c>
       <c r="I3" s="8"/>
       <c r="J3" s="16">
-        <f>U3</f>
-        <v>0</v>
-      </c>
-      <c r="K3" s="16">
-        <f>ROUNDUP(SUM(D3)+SUM(G3)+ROUNDUP(SUM(W3),0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="R3" s="21"/>
-      <c r="S3" s="21"/>
-      <c r="T3" s="21"/>
-      <c r="U3" s="2">
-        <f>ROUNDUP((V3/14)*100,2)</f>
-        <v>0</v>
-      </c>
-      <c r="V3" s="2">
-        <v>0</v>
-      </c>
-      <c r="W3" s="2">
-        <f>(U3*5/100)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:23">
+        <f>X3</f>
+        <v>0</v>
+      </c>
+      <c r="K3" s="34" cm="1">
+        <f t="array" ref="K3">ROUNDUP(AVERAGE(LARGE(O3:Q3,{1,2})),0)</f>
+        <v>0</v>
+      </c>
+      <c r="O3" s="2">
+        <f>ROUNDUP(SUM(D3)+SUM(G3)+ROUNDUP(SUM(Z3),0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="P3" s="2">
+        <f>ROUNDUP(SUM(E3)+SUM(H3)+ROUNDUP(SUM(AA3),0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="Q3" s="2">
+        <f>ROUNDUP(SUM(F3)+SUM(I3)+ROUNDUP(SUM(AB3),0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="U3" s="21"/>
+      <c r="V3" s="21"/>
+      <c r="W3" s="21"/>
+      <c r="X3" s="2">
+        <f>ROUNDUP((Y3/14)*100,2)</f>
+        <v>0</v>
+      </c>
+      <c r="Y3" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z3" s="2">
+        <f>ROUNDUP((X3*5/100),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26">
       <c r="A4" s="8">
         <v>2</v>
       </c>
@@ -2286,39 +2340,51 @@
       <c r="D4" s="16">
         <v>12</v>
       </c>
-      <c r="E4" s="16"/>
+      <c r="E4" s="16">
+        <v>15</v>
+      </c>
       <c r="F4" s="16"/>
       <c r="G4" s="16">
         <v>0</v>
       </c>
       <c r="H4" s="8">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I4" s="8"/>
       <c r="J4" s="16">
-        <f t="shared" ref="J4:J67" si="0">U4</f>
+        <f t="shared" ref="J4:J67" si="0">X4</f>
         <v>28.58</v>
       </c>
-      <c r="K4" s="16">
-        <f t="shared" ref="K4:K35" si="1">ROUNDUP(SUM(D4)+SUM(G4)+ROUNDUP(SUM(W4),0),0)</f>
-        <v>14</v>
-      </c>
-      <c r="R4" s="21"/>
-      <c r="S4" s="21"/>
-      <c r="T4" s="21"/>
-      <c r="U4" s="2">
-        <f t="shared" ref="U4:U67" si="2">ROUNDUP((V4/14)*100,2)</f>
+      <c r="K4" s="34" cm="1">
+        <f t="array" ref="K4">ROUNDUP(AVERAGE(LARGE(O4:Q4,{1,2})),0)</f>
+        <v>20</v>
+      </c>
+      <c r="O4" s="2">
+        <v>17</v>
+      </c>
+      <c r="P4" s="2">
+        <v>23</v>
+      </c>
+      <c r="Q4" s="2">
+        <f t="shared" ref="Q4:Q35" si="1">ROUNDUP(SUM(F4)+SUM(I4)+ROUNDUP(SUM(AB4),0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="U4" s="21"/>
+      <c r="V4" s="21"/>
+      <c r="W4" s="21"/>
+      <c r="X4" s="2">
+        <f t="shared" ref="X4:X67" si="2">ROUNDUP((Y4/14)*100,2)</f>
         <v>28.58</v>
       </c>
-      <c r="V4" s="2">
+      <c r="Y4" s="2">
         <v>4</v>
       </c>
-      <c r="W4" s="2">
-        <f t="shared" ref="W4:W35" si="3">(U4*5/100)</f>
-        <v>1.429</v>
-      </c>
-    </row>
-    <row r="5" spans="1:23">
+      <c r="Z4" s="2">
+        <f t="shared" ref="Z4:Z35" si="3">ROUNDUP((X4*5/100),0)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26">
       <c r="A5" s="8">
         <v>3</v>
       </c>
@@ -2331,10 +2397,12 @@
       <c r="D5" s="16">
         <v>13</v>
       </c>
-      <c r="E5" s="16"/>
+      <c r="E5" s="16">
+        <v>19</v>
+      </c>
       <c r="F5" s="16"/>
       <c r="G5" s="16">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H5" s="8">
         <v>4</v>
@@ -2344,26 +2412,38 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K5" s="16">
-        <f t="shared" si="1"/>
-        <v>13</v>
-      </c>
-      <c r="R5" s="21"/>
-      <c r="S5" s="21"/>
-      <c r="T5" s="21"/>
-      <c r="U5" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="V5" s="2">
-        <v>0</v>
-      </c>
-      <c r="W5" s="2">
+      <c r="K5" s="34" cm="1">
+        <f t="array" ref="K5">ROUNDUP(AVERAGE(LARGE(O5:Q5,{1,2})),0)</f>
+        <v>20</v>
+      </c>
+      <c r="O5" s="2">
+        <f t="shared" ref="O4:O35" si="4">ROUNDUP(SUM(D5)+SUM(G5)+ROUNDUP(SUM(Z5),0),0)</f>
+        <v>16</v>
+      </c>
+      <c r="P5" s="2">
+        <f t="shared" ref="P4:P35" si="5">ROUNDUP(SUM(E5)+SUM(H5)+ROUNDUP(SUM(AA5),0),0)</f>
+        <v>23</v>
+      </c>
+      <c r="Q5" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="U5" s="21"/>
+      <c r="V5" s="21"/>
+      <c r="W5" s="21"/>
+      <c r="X5" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Y5" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z5" s="2">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23">
+    <row r="6" spans="1:26">
       <c r="A6" s="8">
         <v>4</v>
       </c>
@@ -2376,7 +2456,9 @@
       <c r="D6" s="16">
         <v>14</v>
       </c>
-      <c r="E6" s="16"/>
+      <c r="E6" s="16">
+        <v>23</v>
+      </c>
       <c r="F6" s="16"/>
       <c r="G6" s="16">
         <v>0</v>
@@ -2389,26 +2471,38 @@
         <f t="shared" si="0"/>
         <v>14.29</v>
       </c>
-      <c r="K6" s="16">
-        <f t="shared" si="1"/>
+      <c r="K6" s="34" cm="1">
+        <f t="array" ref="K6">ROUNDUP(AVERAGE(LARGE(O6:Q6,{1,2})),0)</f>
+        <v>21</v>
+      </c>
+      <c r="O6" s="2">
+        <f t="shared" si="4"/>
         <v>15</v>
       </c>
-      <c r="R6" s="21"/>
-      <c r="S6" s="21"/>
-      <c r="T6" s="21"/>
-      <c r="U6" s="2">
+      <c r="P6" s="2">
+        <f t="shared" si="5"/>
+        <v>26</v>
+      </c>
+      <c r="Q6" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="U6" s="21"/>
+      <c r="V6" s="21"/>
+      <c r="W6" s="21"/>
+      <c r="X6" s="2">
         <f t="shared" si="2"/>
         <v>14.29</v>
       </c>
-      <c r="V6" s="2">
+      <c r="Y6" s="2">
         <v>2</v>
       </c>
-      <c r="W6" s="2">
+      <c r="Z6" s="2">
         <f t="shared" si="3"/>
-        <v>0.7145</v>
-      </c>
-    </row>
-    <row r="7" spans="1:23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26">
       <c r="A7" s="8">
         <v>5</v>
       </c>
@@ -2421,7 +2515,9 @@
       <c r="D7" s="16">
         <v>14</v>
       </c>
-      <c r="E7" s="16"/>
+      <c r="E7" s="16">
+        <v>20</v>
+      </c>
       <c r="F7" s="16"/>
       <c r="G7" s="16">
         <v>0</v>
@@ -2434,26 +2530,38 @@
         <f t="shared" si="0"/>
         <v>21.43</v>
       </c>
-      <c r="K7" s="16">
-        <f t="shared" si="1"/>
+      <c r="K7" s="34" cm="1">
+        <f t="array" ref="K7">ROUNDUP(AVERAGE(LARGE(O7:Q7,{1,2})),0)</f>
+        <v>20</v>
+      </c>
+      <c r="O7" s="2">
+        <f t="shared" si="4"/>
         <v>16</v>
       </c>
-      <c r="R7" s="21"/>
-      <c r="S7" s="21"/>
-      <c r="T7" s="21"/>
-      <c r="U7" s="2">
+      <c r="P7" s="2">
+        <f t="shared" si="5"/>
+        <v>24</v>
+      </c>
+      <c r="Q7" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="U7" s="21"/>
+      <c r="V7" s="21"/>
+      <c r="W7" s="21"/>
+      <c r="X7" s="2">
         <f t="shared" si="2"/>
         <v>21.43</v>
       </c>
-      <c r="V7" s="2">
+      <c r="Y7" s="2">
         <v>3</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Z7" s="2">
         <f t="shared" si="3"/>
-        <v>1.0715</v>
-      </c>
-    </row>
-    <row r="8" spans="1:23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26">
       <c r="A8" s="8">
         <v>6</v>
       </c>
@@ -2466,7 +2574,9 @@
       <c r="D8" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="E8" s="16"/>
+      <c r="E8" s="16" t="s">
+        <v>22</v>
+      </c>
       <c r="F8" s="16"/>
       <c r="G8" s="16">
         <v>0</v>
@@ -2479,26 +2589,38 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K8" s="16">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="R8" s="21"/>
-      <c r="S8" s="21"/>
-      <c r="T8" s="21"/>
-      <c r="U8" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="V8" s="2">
-        <v>0</v>
-      </c>
-      <c r="W8" s="2">
+      <c r="K8" s="34" cm="1">
+        <f t="array" ref="K8">ROUNDUP(AVERAGE(LARGE(O8:Q8,{1,2})),0)</f>
+        <v>0</v>
+      </c>
+      <c r="O8" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P8" s="2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q8" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="U8" s="21"/>
+      <c r="V8" s="21"/>
+      <c r="W8" s="21"/>
+      <c r="X8" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Y8" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="2">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:23">
+    <row r="9" spans="1:26">
       <c r="A9" s="8">
         <v>7</v>
       </c>
@@ -2511,7 +2633,9 @@
       <c r="D9" s="16">
         <v>18</v>
       </c>
-      <c r="E9" s="16"/>
+      <c r="E9" s="16">
+        <v>22</v>
+      </c>
       <c r="F9" s="16"/>
       <c r="G9" s="16">
         <v>5</v>
@@ -2524,26 +2648,38 @@
         <f t="shared" si="0"/>
         <v>42.86</v>
       </c>
-      <c r="K9" s="16">
-        <f t="shared" si="1"/>
+      <c r="K9" s="34" cm="1">
+        <f t="array" ref="K9">ROUNDUP(AVERAGE(LARGE(O9:Q9,{1,2})),0)</f>
         <v>26</v>
       </c>
-      <c r="R9" s="21"/>
-      <c r="S9" s="21"/>
-      <c r="T9" s="21"/>
-      <c r="U9" s="2">
+      <c r="O9" s="2">
+        <f t="shared" si="4"/>
+        <v>26</v>
+      </c>
+      <c r="P9" s="2">
+        <f t="shared" si="5"/>
+        <v>26</v>
+      </c>
+      <c r="Q9" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="U9" s="21"/>
+      <c r="V9" s="21"/>
+      <c r="W9" s="21"/>
+      <c r="X9" s="2">
         <f t="shared" si="2"/>
         <v>42.86</v>
       </c>
-      <c r="V9" s="2">
+      <c r="Y9" s="2">
         <v>6</v>
       </c>
-      <c r="W9" s="2">
+      <c r="Z9" s="2">
         <f t="shared" si="3"/>
-        <v>2.143</v>
-      </c>
-    </row>
-    <row r="10" spans="1:23">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26">
       <c r="A10" s="8">
         <v>8</v>
       </c>
@@ -2556,7 +2692,9 @@
       <c r="D10" s="16">
         <v>18</v>
       </c>
-      <c r="E10" s="16"/>
+      <c r="E10" s="16">
+        <v>19</v>
+      </c>
       <c r="F10" s="16"/>
       <c r="G10" s="16">
         <v>5</v>
@@ -2569,26 +2707,38 @@
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="K10" s="16">
-        <f t="shared" si="1"/>
+      <c r="K10" s="34" cm="1">
+        <f t="array" ref="K10">ROUNDUP(AVERAGE(LARGE(O10:Q10,{1,2})),0)</f>
+        <v>25</v>
+      </c>
+      <c r="O10" s="2">
+        <f t="shared" si="4"/>
         <v>26</v>
       </c>
-      <c r="R10" s="21"/>
-      <c r="S10" s="21"/>
-      <c r="T10" s="21"/>
-      <c r="U10" s="2">
+      <c r="P10" s="2">
+        <f t="shared" si="5"/>
+        <v>24</v>
+      </c>
+      <c r="Q10" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="U10" s="21"/>
+      <c r="V10" s="21"/>
+      <c r="W10" s="21"/>
+      <c r="X10" s="2">
         <f t="shared" si="2"/>
         <v>50</v>
       </c>
-      <c r="V10" s="2">
+      <c r="Y10" s="2">
         <v>7</v>
       </c>
-      <c r="W10" s="2">
+      <c r="Z10" s="2">
         <f t="shared" si="3"/>
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:23">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26">
       <c r="A11" s="8">
         <v>9</v>
       </c>
@@ -2601,7 +2751,9 @@
       <c r="D11" s="16">
         <v>29</v>
       </c>
-      <c r="E11" s="16"/>
+      <c r="E11" s="16">
+        <v>30</v>
+      </c>
       <c r="F11" s="16"/>
       <c r="G11" s="16">
         <v>5</v>
@@ -2614,26 +2766,38 @@
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="K11" s="16">
-        <f t="shared" si="1"/>
+      <c r="K11" s="34" cm="1">
+        <f t="array" ref="K11">ROUNDUP(AVERAGE(LARGE(O11:Q11,{1,2})),0)</f>
+        <v>37</v>
+      </c>
+      <c r="O11" s="2">
+        <f t="shared" si="4"/>
         <v>39</v>
       </c>
-      <c r="R11" s="21"/>
-      <c r="S11" s="21"/>
-      <c r="T11" s="21"/>
-      <c r="U11" s="2">
+      <c r="P11" s="2">
+        <f t="shared" si="5"/>
+        <v>35</v>
+      </c>
+      <c r="Q11" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="U11" s="21"/>
+      <c r="V11" s="21"/>
+      <c r="W11" s="21"/>
+      <c r="X11" s="2">
         <f t="shared" si="2"/>
         <v>100</v>
       </c>
-      <c r="V11" s="2">
+      <c r="Y11" s="2">
         <v>14</v>
       </c>
-      <c r="W11" s="2">
+      <c r="Z11" s="2">
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:23">
+    <row r="12" spans="1:26">
       <c r="A12" s="8">
         <v>10</v>
       </c>
@@ -2646,7 +2810,9 @@
       <c r="D12" s="16">
         <v>19</v>
       </c>
-      <c r="E12" s="16"/>
+      <c r="E12" s="16">
+        <v>22</v>
+      </c>
       <c r="F12" s="16"/>
       <c r="G12" s="16">
         <v>5</v>
@@ -2659,26 +2825,38 @@
         <f t="shared" si="0"/>
         <v>71.43</v>
       </c>
-      <c r="K12" s="16">
-        <f t="shared" si="1"/>
+      <c r="K12" s="34" cm="1">
+        <f t="array" ref="K12">ROUNDUP(AVERAGE(LARGE(O12:Q12,{1,2})),0)</f>
         <v>28</v>
       </c>
-      <c r="R12" s="21"/>
-      <c r="S12" s="21"/>
-      <c r="T12" s="21"/>
-      <c r="U12" s="2">
+      <c r="O12" s="2">
+        <f t="shared" si="4"/>
+        <v>28</v>
+      </c>
+      <c r="P12" s="2">
+        <f t="shared" si="5"/>
+        <v>27</v>
+      </c>
+      <c r="Q12" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="U12" s="21"/>
+      <c r="V12" s="21"/>
+      <c r="W12" s="21"/>
+      <c r="X12" s="2">
         <f t="shared" si="2"/>
         <v>71.43</v>
       </c>
-      <c r="V12" s="2">
+      <c r="Y12" s="2">
         <v>10</v>
       </c>
-      <c r="W12" s="2">
+      <c r="Z12" s="2">
         <f t="shared" si="3"/>
-        <v>3.5715</v>
-      </c>
-    </row>
-    <row r="13" spans="1:23">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26">
       <c r="A13" s="8">
         <v>11</v>
       </c>
@@ -2691,7 +2869,9 @@
       <c r="D13" s="16">
         <v>20</v>
       </c>
-      <c r="E13" s="16"/>
+      <c r="E13" s="16">
+        <v>22</v>
+      </c>
       <c r="F13" s="16"/>
       <c r="G13" s="16">
         <v>5</v>
@@ -2704,26 +2884,38 @@
         <f t="shared" si="0"/>
         <v>85.72</v>
       </c>
-      <c r="K13" s="16">
-        <f t="shared" si="1"/>
+      <c r="K13" s="34" cm="1">
+        <f t="array" ref="K13">ROUNDUP(AVERAGE(LARGE(O13:Q13,{1,2})),0)</f>
+        <v>28</v>
+      </c>
+      <c r="O13" s="2">
+        <f t="shared" si="4"/>
         <v>30</v>
       </c>
-      <c r="R13" s="21"/>
-      <c r="S13" s="21"/>
-      <c r="T13" s="21"/>
-      <c r="U13" s="2">
+      <c r="P13" s="2">
+        <f t="shared" si="5"/>
+        <v>26</v>
+      </c>
+      <c r="Q13" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="U13" s="21"/>
+      <c r="V13" s="21"/>
+      <c r="W13" s="21"/>
+      <c r="X13" s="2">
         <f t="shared" si="2"/>
         <v>85.72</v>
       </c>
-      <c r="V13" s="2">
+      <c r="Y13" s="2">
         <v>12</v>
       </c>
-      <c r="W13" s="2">
+      <c r="Z13" s="2">
         <f t="shared" si="3"/>
-        <v>4.286</v>
-      </c>
-    </row>
-    <row r="14" spans="1:23">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26">
       <c r="A14" s="8">
         <v>12</v>
       </c>
@@ -2736,7 +2928,9 @@
       <c r="D14" s="16">
         <v>19</v>
       </c>
-      <c r="E14" s="16"/>
+      <c r="E14" s="16">
+        <v>15</v>
+      </c>
       <c r="F14" s="16"/>
       <c r="G14" s="16">
         <v>5</v>
@@ -2749,26 +2943,38 @@
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="K14" s="16">
-        <f t="shared" si="1"/>
+      <c r="K14" s="34" cm="1">
+        <f t="array" ref="K14">ROUNDUP(AVERAGE(LARGE(O14:Q14,{1,2})),0)</f>
+        <v>21</v>
+      </c>
+      <c r="O14" s="2">
+        <f t="shared" si="4"/>
         <v>27</v>
       </c>
-      <c r="R14" s="21"/>
-      <c r="S14" s="21"/>
-      <c r="T14" s="21"/>
-      <c r="U14" s="2">
+      <c r="P14" s="2">
+        <f t="shared" si="5"/>
+        <v>15</v>
+      </c>
+      <c r="Q14" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="U14" s="21"/>
+      <c r="V14" s="21"/>
+      <c r="W14" s="21"/>
+      <c r="X14" s="2">
         <f t="shared" si="2"/>
         <v>50</v>
       </c>
-      <c r="V14" s="2">
+      <c r="Y14" s="2">
         <v>7</v>
       </c>
-      <c r="W14" s="2">
+      <c r="Z14" s="2">
         <f t="shared" si="3"/>
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:23">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26">
       <c r="A15" s="8">
         <v>13</v>
       </c>
@@ -2781,7 +2987,9 @@
       <c r="D15" s="16">
         <v>12</v>
       </c>
-      <c r="E15" s="16"/>
+      <c r="E15" s="16">
+        <v>19</v>
+      </c>
       <c r="F15" s="16"/>
       <c r="G15" s="16">
         <v>0</v>
@@ -2794,26 +3002,38 @@
         <f t="shared" si="0"/>
         <v>42.86</v>
       </c>
-      <c r="K15" s="16">
-        <f t="shared" si="1"/>
+      <c r="K15" s="34" cm="1">
+        <f t="array" ref="K15">ROUNDUP(AVERAGE(LARGE(O15:Q15,{1,2})),0)</f>
+        <v>20</v>
+      </c>
+      <c r="O15" s="2">
+        <f t="shared" si="4"/>
         <v>15</v>
       </c>
-      <c r="R15" s="21"/>
-      <c r="S15" s="21"/>
-      <c r="T15" s="21"/>
-      <c r="U15" s="2">
+      <c r="P15" s="2">
+        <f t="shared" si="5"/>
+        <v>24</v>
+      </c>
+      <c r="Q15" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="U15" s="21"/>
+      <c r="V15" s="21"/>
+      <c r="W15" s="21"/>
+      <c r="X15" s="2">
         <f t="shared" si="2"/>
         <v>42.86</v>
       </c>
-      <c r="V15" s="2">
+      <c r="Y15" s="2">
         <v>6</v>
       </c>
-      <c r="W15" s="2">
+      <c r="Z15" s="2">
         <f t="shared" si="3"/>
-        <v>2.143</v>
-      </c>
-    </row>
-    <row r="16" spans="1:23">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26">
       <c r="A16" s="8">
         <v>14</v>
       </c>
@@ -2826,7 +3046,9 @@
       <c r="D16" s="16">
         <v>26</v>
       </c>
-      <c r="E16" s="16"/>
+      <c r="E16" s="16">
+        <v>26</v>
+      </c>
       <c r="F16" s="16"/>
       <c r="G16" s="16">
         <v>5</v>
@@ -2839,26 +3061,38 @@
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="K16" s="16">
-        <f t="shared" si="1"/>
+      <c r="K16" s="34" cm="1">
+        <f t="array" ref="K16">ROUNDUP(AVERAGE(LARGE(O16:Q16,{1,2})),0)</f>
+        <v>34</v>
+      </c>
+      <c r="O16" s="2">
+        <f t="shared" si="4"/>
         <v>36</v>
       </c>
-      <c r="R16" s="21"/>
-      <c r="S16" s="21"/>
-      <c r="T16" s="21"/>
-      <c r="U16" s="2">
+      <c r="P16" s="2">
+        <f t="shared" si="5"/>
+        <v>31</v>
+      </c>
+      <c r="Q16" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="U16" s="21"/>
+      <c r="V16" s="21"/>
+      <c r="W16" s="21"/>
+      <c r="X16" s="2">
         <f t="shared" si="2"/>
         <v>100</v>
       </c>
-      <c r="V16" s="2">
+      <c r="Y16" s="2">
         <v>14</v>
       </c>
-      <c r="W16" s="2">
+      <c r="Z16" s="2">
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:23">
+    <row r="17" spans="1:26">
       <c r="A17" s="8">
         <v>15</v>
       </c>
@@ -2871,7 +3105,9 @@
       <c r="D17" s="16">
         <v>5</v>
       </c>
-      <c r="E17" s="16"/>
+      <c r="E17" s="16">
+        <v>17</v>
+      </c>
       <c r="F17" s="16"/>
       <c r="G17" s="16">
         <v>0</v>
@@ -2884,26 +3120,36 @@
         <f t="shared" si="0"/>
         <v>28.58</v>
       </c>
-      <c r="K17" s="16">
-        <f t="shared" si="1"/>
-        <v>7</v>
-      </c>
-      <c r="R17" s="21"/>
-      <c r="S17" s="21"/>
-      <c r="T17" s="21"/>
-      <c r="U17" s="2">
+      <c r="K17" s="34" cm="1">
+        <f t="array" ref="K17">ROUNDUP(AVERAGE(LARGE(O17:Q17,{1,2})),0)</f>
+        <v>20</v>
+      </c>
+      <c r="O17" s="2">
+        <v>13</v>
+      </c>
+      <c r="P17" s="2">
+        <v>26</v>
+      </c>
+      <c r="Q17" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="U17" s="21"/>
+      <c r="V17" s="21"/>
+      <c r="W17" s="21"/>
+      <c r="X17" s="2">
         <f t="shared" si="2"/>
         <v>28.58</v>
       </c>
-      <c r="V17" s="2">
+      <c r="Y17" s="2">
         <v>4</v>
       </c>
-      <c r="W17" s="2">
+      <c r="Z17" s="2">
         <f t="shared" si="3"/>
-        <v>1.429</v>
-      </c>
-    </row>
-    <row r="18" spans="1:23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:26">
       <c r="A18" s="8">
         <v>16</v>
       </c>
@@ -2916,7 +3162,9 @@
       <c r="D18" s="16">
         <v>22</v>
       </c>
-      <c r="E18" s="16"/>
+      <c r="E18" s="16">
+        <v>21</v>
+      </c>
       <c r="F18" s="16"/>
       <c r="G18" s="16">
         <v>5</v>
@@ -2929,26 +3177,38 @@
         <f t="shared" si="0"/>
         <v>57.15</v>
       </c>
-      <c r="K18" s="16">
-        <f t="shared" si="1"/>
+      <c r="K18" s="34" cm="1">
+        <f t="array" ref="K18">ROUNDUP(AVERAGE(LARGE(O18:Q18,{1,2})),0)</f>
+        <v>27</v>
+      </c>
+      <c r="O18" s="2">
+        <f t="shared" si="4"/>
         <v>30</v>
       </c>
-      <c r="R18" s="21"/>
-      <c r="S18" s="21"/>
-      <c r="T18" s="21"/>
-      <c r="U18" s="2">
+      <c r="P18" s="2">
+        <f t="shared" si="5"/>
+        <v>24</v>
+      </c>
+      <c r="Q18" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="U18" s="21"/>
+      <c r="V18" s="21"/>
+      <c r="W18" s="21"/>
+      <c r="X18" s="2">
         <f t="shared" si="2"/>
         <v>57.15</v>
       </c>
-      <c r="V18" s="2">
+      <c r="Y18" s="2">
         <v>8</v>
       </c>
-      <c r="W18" s="2">
+      <c r="Z18" s="2">
         <f t="shared" si="3"/>
-        <v>2.8575</v>
-      </c>
-    </row>
-    <row r="19" spans="1:23">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:26">
       <c r="A19" s="8">
         <v>17</v>
       </c>
@@ -2961,7 +3221,9 @@
       <c r="D19" s="16">
         <v>6</v>
       </c>
-      <c r="E19" s="16"/>
+      <c r="E19" s="16" t="s">
+        <v>22</v>
+      </c>
       <c r="F19" s="16"/>
       <c r="G19" s="16">
         <v>0</v>
@@ -2974,26 +3236,38 @@
         <f t="shared" si="0"/>
         <v>28.58</v>
       </c>
-      <c r="K19" s="16">
-        <f t="shared" si="1"/>
+      <c r="K19" s="34" cm="1">
+        <f t="array" ref="K19">ROUNDUP(AVERAGE(LARGE(O19:Q19,{1,2})),0)</f>
+        <v>4</v>
+      </c>
+      <c r="O19" s="2">
+        <f t="shared" si="4"/>
         <v>8</v>
       </c>
-      <c r="R19" s="21"/>
-      <c r="S19" s="21"/>
-      <c r="T19" s="21"/>
-      <c r="U19" s="2">
+      <c r="P19" s="2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q19" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="U19" s="21"/>
+      <c r="V19" s="21"/>
+      <c r="W19" s="21"/>
+      <c r="X19" s="2">
         <f t="shared" si="2"/>
         <v>28.58</v>
       </c>
-      <c r="V19" s="2">
+      <c r="Y19" s="2">
         <v>4</v>
       </c>
-      <c r="W19" s="2">
+      <c r="Z19" s="2">
         <f t="shared" si="3"/>
-        <v>1.429</v>
-      </c>
-    </row>
-    <row r="20" spans="1:23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:26">
       <c r="A20" s="8">
         <v>18</v>
       </c>
@@ -3006,7 +3280,9 @@
       <c r="D20" s="16">
         <v>15</v>
       </c>
-      <c r="E20" s="16"/>
+      <c r="E20" s="16">
+        <v>17</v>
+      </c>
       <c r="F20" s="16"/>
       <c r="G20" s="16">
         <v>5</v>
@@ -3019,26 +3295,38 @@
         <f t="shared" si="0"/>
         <v>92.86</v>
       </c>
-      <c r="K20" s="16">
-        <f t="shared" si="1"/>
+      <c r="K20" s="34" cm="1">
+        <f t="array" ref="K20">ROUNDUP(AVERAGE(LARGE(O20:Q20,{1,2})),0)</f>
+        <v>23</v>
+      </c>
+      <c r="O20" s="2">
+        <f t="shared" si="4"/>
         <v>25</v>
       </c>
-      <c r="R20" s="21"/>
-      <c r="S20" s="21"/>
-      <c r="T20" s="21"/>
-      <c r="U20" s="2">
+      <c r="P20" s="2">
+        <f t="shared" si="5"/>
+        <v>21</v>
+      </c>
+      <c r="Q20" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="U20" s="21"/>
+      <c r="V20" s="21"/>
+      <c r="W20" s="21"/>
+      <c r="X20" s="2">
         <f t="shared" si="2"/>
         <v>92.86</v>
       </c>
-      <c r="V20" s="2">
+      <c r="Y20" s="2">
         <v>13</v>
       </c>
-      <c r="W20" s="2">
+      <c r="Z20" s="2">
         <f t="shared" si="3"/>
-        <v>4.643</v>
-      </c>
-    </row>
-    <row r="21" spans="1:23">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:26">
       <c r="A21" s="8">
         <v>19</v>
       </c>
@@ -3051,7 +3339,9 @@
       <c r="D21" s="16">
         <v>18</v>
       </c>
-      <c r="E21" s="16"/>
+      <c r="E21" s="16">
+        <v>17</v>
+      </c>
       <c r="F21" s="16"/>
       <c r="G21" s="16">
         <v>5</v>
@@ -3064,26 +3354,38 @@
         <f t="shared" si="0"/>
         <v>64.29</v>
       </c>
-      <c r="K21" s="16">
-        <f t="shared" si="1"/>
+      <c r="K21" s="34" cm="1">
+        <f t="array" ref="K21">ROUNDUP(AVERAGE(LARGE(O21:Q21,{1,2})),0)</f>
+        <v>22</v>
+      </c>
+      <c r="O21" s="2">
+        <f t="shared" si="4"/>
         <v>27</v>
       </c>
-      <c r="R21" s="21"/>
-      <c r="S21" s="21"/>
-      <c r="T21" s="21"/>
-      <c r="U21" s="2">
+      <c r="P21" s="2">
+        <f t="shared" si="5"/>
+        <v>17</v>
+      </c>
+      <c r="Q21" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="U21" s="21"/>
+      <c r="V21" s="21"/>
+      <c r="W21" s="21"/>
+      <c r="X21" s="2">
         <f t="shared" si="2"/>
         <v>64.29</v>
       </c>
-      <c r="V21" s="2">
+      <c r="Y21" s="2">
         <v>9</v>
       </c>
-      <c r="W21" s="2">
+      <c r="Z21" s="2">
         <f t="shared" si="3"/>
-        <v>3.2145</v>
-      </c>
-    </row>
-    <row r="22" spans="1:23">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:26">
       <c r="A22" s="8">
         <v>20</v>
       </c>
@@ -3096,7 +3398,9 @@
       <c r="D22" s="16">
         <v>18</v>
       </c>
-      <c r="E22" s="16"/>
+      <c r="E22" s="16">
+        <v>18</v>
+      </c>
       <c r="F22" s="16"/>
       <c r="G22" s="16">
         <v>5</v>
@@ -3109,26 +3413,38 @@
         <f t="shared" si="0"/>
         <v>28.58</v>
       </c>
-      <c r="K22" s="16">
-        <f t="shared" si="1"/>
+      <c r="K22" s="34" cm="1">
+        <f t="array" ref="K22">ROUNDUP(AVERAGE(LARGE(O22:Q22,{1,2})),0)</f>
+        <v>24</v>
+      </c>
+      <c r="O22" s="2">
+        <f t="shared" si="4"/>
         <v>25</v>
       </c>
-      <c r="R22" s="21"/>
-      <c r="S22" s="21"/>
-      <c r="T22" s="21"/>
-      <c r="U22" s="2">
+      <c r="P22" s="2">
+        <f t="shared" si="5"/>
+        <v>22</v>
+      </c>
+      <c r="Q22" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="U22" s="21"/>
+      <c r="V22" s="21"/>
+      <c r="W22" s="21"/>
+      <c r="X22" s="2">
         <f t="shared" si="2"/>
         <v>28.58</v>
       </c>
-      <c r="V22" s="2">
+      <c r="Y22" s="2">
         <v>4</v>
       </c>
-      <c r="W22" s="2">
+      <c r="Z22" s="2">
         <f t="shared" si="3"/>
-        <v>1.429</v>
-      </c>
-    </row>
-    <row r="23" spans="1:23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:26">
       <c r="A23" s="8">
         <v>21</v>
       </c>
@@ -3141,7 +3457,9 @@
       <c r="D23" s="16">
         <v>26</v>
       </c>
-      <c r="E23" s="16"/>
+      <c r="E23" s="16">
+        <v>27</v>
+      </c>
       <c r="F23" s="16"/>
       <c r="G23" s="16">
         <v>5</v>
@@ -3154,26 +3472,38 @@
         <f t="shared" si="0"/>
         <v>71.43</v>
       </c>
-      <c r="K23" s="16">
-        <f t="shared" si="1"/>
+      <c r="K23" s="34" cm="1">
+        <f t="array" ref="K23">ROUNDUP(AVERAGE(LARGE(O23:Q23,{1,2})),0)</f>
+        <v>34</v>
+      </c>
+      <c r="O23" s="2">
+        <f t="shared" si="4"/>
         <v>35</v>
       </c>
-      <c r="R23" s="21"/>
-      <c r="S23" s="21"/>
-      <c r="T23" s="21"/>
-      <c r="U23" s="2">
+      <c r="P23" s="2">
+        <f t="shared" si="5"/>
+        <v>32</v>
+      </c>
+      <c r="Q23" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="U23" s="21"/>
+      <c r="V23" s="21"/>
+      <c r="W23" s="21"/>
+      <c r="X23" s="2">
         <f t="shared" si="2"/>
         <v>71.43</v>
       </c>
-      <c r="V23" s="2">
+      <c r="Y23" s="2">
         <v>10</v>
       </c>
-      <c r="W23" s="2">
+      <c r="Z23" s="2">
         <f t="shared" si="3"/>
-        <v>3.5715</v>
-      </c>
-    </row>
-    <row r="24" spans="1:23">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:26">
       <c r="A24" s="8">
         <v>22</v>
       </c>
@@ -3186,7 +3516,9 @@
       <c r="D24" s="16">
         <v>19</v>
       </c>
-      <c r="E24" s="16"/>
+      <c r="E24" s="16">
+        <v>12</v>
+      </c>
       <c r="F24" s="16"/>
       <c r="G24" s="16">
         <v>5</v>
@@ -3199,26 +3531,38 @@
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="K24" s="16">
-        <f t="shared" si="1"/>
+      <c r="K24" s="34" cm="1">
+        <f t="array" ref="K24">ROUNDUP(AVERAGE(LARGE(O24:Q24,{1,2})),0)</f>
+        <v>23</v>
+      </c>
+      <c r="O24" s="2">
+        <f t="shared" si="4"/>
         <v>29</v>
       </c>
-      <c r="R24" s="21"/>
-      <c r="S24" s="21"/>
-      <c r="T24" s="21"/>
-      <c r="U24" s="2">
+      <c r="P24" s="2">
+        <f t="shared" si="5"/>
+        <v>17</v>
+      </c>
+      <c r="Q24" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="U24" s="21"/>
+      <c r="V24" s="21"/>
+      <c r="W24" s="21"/>
+      <c r="X24" s="2">
         <f t="shared" si="2"/>
         <v>100</v>
       </c>
-      <c r="V24" s="2">
+      <c r="Y24" s="2">
         <v>14</v>
       </c>
-      <c r="W24" s="2">
+      <c r="Z24" s="2">
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:23">
+    <row r="25" spans="1:26">
       <c r="A25" s="8">
         <v>23</v>
       </c>
@@ -3231,7 +3575,9 @@
       <c r="D25" s="16">
         <v>17</v>
       </c>
-      <c r="E25" s="16"/>
+      <c r="E25" s="16">
+        <v>15</v>
+      </c>
       <c r="F25" s="16"/>
       <c r="G25" s="16">
         <v>5</v>
@@ -3244,26 +3590,38 @@
         <f t="shared" si="0"/>
         <v>78.58</v>
       </c>
-      <c r="K25" s="16">
-        <f t="shared" si="1"/>
+      <c r="K25" s="34" cm="1">
+        <f t="array" ref="K25">ROUNDUP(AVERAGE(LARGE(O25:Q25,{1,2})),0)</f>
+        <v>23</v>
+      </c>
+      <c r="O25" s="2">
+        <f t="shared" si="4"/>
         <v>26</v>
       </c>
-      <c r="R25" s="21"/>
-      <c r="S25" s="21"/>
-      <c r="T25" s="21"/>
-      <c r="U25" s="2">
+      <c r="P25" s="2">
+        <f t="shared" si="5"/>
+        <v>20</v>
+      </c>
+      <c r="Q25" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="U25" s="21"/>
+      <c r="V25" s="21"/>
+      <c r="W25" s="21"/>
+      <c r="X25" s="2">
         <f t="shared" si="2"/>
         <v>78.58</v>
       </c>
-      <c r="V25" s="2">
+      <c r="Y25" s="2">
         <v>11</v>
       </c>
-      <c r="W25" s="2">
+      <c r="Z25" s="2">
         <f t="shared" si="3"/>
-        <v>3.929</v>
-      </c>
-    </row>
-    <row r="26" spans="1:23">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:26">
       <c r="A26" s="8">
         <v>24</v>
       </c>
@@ -3276,39 +3634,53 @@
       <c r="D26" s="16">
         <v>17</v>
       </c>
-      <c r="E26" s="16"/>
+      <c r="E26" s="16">
+        <v>18</v>
+      </c>
       <c r="F26" s="16"/>
       <c r="G26" s="16">
         <v>0</v>
       </c>
       <c r="H26" s="8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I26" s="8"/>
       <c r="J26" s="16">
         <f t="shared" si="0"/>
         <v>21.43</v>
       </c>
-      <c r="K26" s="16">
-        <f t="shared" si="1"/>
+      <c r="K26" s="34" cm="1">
+        <f t="array" ref="K26">ROUNDUP(AVERAGE(LARGE(O26:Q26,{1,2})),0)</f>
+        <v>20</v>
+      </c>
+      <c r="O26" s="2">
+        <f t="shared" si="4"/>
         <v>19</v>
       </c>
-      <c r="R26" s="21"/>
-      <c r="S26" s="21"/>
-      <c r="T26" s="21"/>
-      <c r="U26" s="2">
+      <c r="P26" s="2">
+        <f t="shared" si="5"/>
+        <v>20</v>
+      </c>
+      <c r="Q26" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="U26" s="21"/>
+      <c r="V26" s="21"/>
+      <c r="W26" s="21"/>
+      <c r="X26" s="2">
         <f t="shared" si="2"/>
         <v>21.43</v>
       </c>
-      <c r="V26" s="2">
+      <c r="Y26" s="2">
         <v>3</v>
       </c>
-      <c r="W26" s="2">
+      <c r="Z26" s="2">
         <f t="shared" si="3"/>
-        <v>1.0715</v>
-      </c>
-    </row>
-    <row r="27" spans="1:23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:26">
       <c r="A27" s="8">
         <v>25</v>
       </c>
@@ -3321,7 +3693,9 @@
       <c r="D27" s="16">
         <v>22</v>
       </c>
-      <c r="E27" s="16"/>
+      <c r="E27" s="16">
+        <v>25</v>
+      </c>
       <c r="F27" s="16"/>
       <c r="G27" s="16">
         <v>5</v>
@@ -3334,26 +3708,38 @@
         <f t="shared" si="0"/>
         <v>85.72</v>
       </c>
-      <c r="K27" s="16">
-        <f t="shared" si="1"/>
+      <c r="K27" s="34" cm="1">
+        <f t="array" ref="K27">ROUNDUP(AVERAGE(LARGE(O27:Q27,{1,2})),0)</f>
+        <v>31</v>
+      </c>
+      <c r="O27" s="2">
+        <f t="shared" si="4"/>
         <v>32</v>
       </c>
-      <c r="R27" s="21"/>
-      <c r="S27" s="21"/>
-      <c r="T27" s="21"/>
-      <c r="U27" s="2">
+      <c r="P27" s="2">
+        <f t="shared" si="5"/>
+        <v>30</v>
+      </c>
+      <c r="Q27" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="U27" s="21"/>
+      <c r="V27" s="21"/>
+      <c r="W27" s="21"/>
+      <c r="X27" s="2">
         <f t="shared" si="2"/>
         <v>85.72</v>
       </c>
-      <c r="V27" s="2">
+      <c r="Y27" s="2">
         <v>12</v>
       </c>
-      <c r="W27" s="2">
+      <c r="Z27" s="2">
         <f t="shared" si="3"/>
-        <v>4.286</v>
-      </c>
-    </row>
-    <row r="28" spans="1:23">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:26">
       <c r="A28" s="8">
         <v>26</v>
       </c>
@@ -3366,7 +3752,9 @@
       <c r="D28" s="16">
         <v>14</v>
       </c>
-      <c r="E28" s="16"/>
+      <c r="E28" s="16">
+        <v>15</v>
+      </c>
       <c r="F28" s="16"/>
       <c r="G28" s="16">
         <v>0</v>
@@ -3379,26 +3767,38 @@
         <f t="shared" si="0"/>
         <v>92.86</v>
       </c>
-      <c r="K28" s="16">
-        <f t="shared" si="1"/>
+      <c r="K28" s="34" cm="1">
+        <f t="array" ref="K28">ROUNDUP(AVERAGE(LARGE(O28:Q28,{1,2})),0)</f>
+        <v>20</v>
+      </c>
+      <c r="O28" s="2">
+        <f t="shared" si="4"/>
         <v>19</v>
       </c>
-      <c r="R28" s="21"/>
-      <c r="S28" s="21"/>
-      <c r="T28" s="21"/>
-      <c r="U28" s="2">
+      <c r="P28" s="2">
+        <f t="shared" si="5"/>
+        <v>20</v>
+      </c>
+      <c r="Q28" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="U28" s="21"/>
+      <c r="V28" s="21"/>
+      <c r="W28" s="21"/>
+      <c r="X28" s="2">
         <f t="shared" si="2"/>
         <v>92.86</v>
       </c>
-      <c r="V28" s="2">
+      <c r="Y28" s="2">
         <v>13</v>
       </c>
-      <c r="W28" s="2">
+      <c r="Z28" s="2">
         <f t="shared" si="3"/>
-        <v>4.643</v>
-      </c>
-    </row>
-    <row r="29" spans="1:23">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:26">
       <c r="A29" s="8">
         <v>27</v>
       </c>
@@ -3411,39 +3811,52 @@
       <c r="D29" s="16">
         <v>16</v>
       </c>
-      <c r="E29" s="16"/>
+      <c r="E29" s="16">
+        <v>11</v>
+      </c>
       <c r="F29" s="16"/>
       <c r="G29" s="16">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H29" s="8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I29" s="8"/>
       <c r="J29" s="16">
         <f t="shared" si="0"/>
         <v>57.15</v>
       </c>
-      <c r="K29" s="16">
-        <f t="shared" si="1"/>
-        <v>19</v>
-      </c>
-      <c r="R29" s="21"/>
-      <c r="S29" s="21"/>
-      <c r="T29" s="21"/>
-      <c r="U29" s="2">
+      <c r="K29" s="34" cm="1">
+        <f t="array" ref="K29">ROUNDUP(AVERAGE(LARGE(O29:Q29,{1,2})),0)</f>
+        <v>20</v>
+      </c>
+      <c r="O29" s="2">
+        <f t="shared" si="4"/>
+        <v>24</v>
+      </c>
+      <c r="P29" s="2">
+        <f t="shared" si="5"/>
+        <v>15</v>
+      </c>
+      <c r="Q29" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="U29" s="21"/>
+      <c r="V29" s="21"/>
+      <c r="W29" s="21"/>
+      <c r="X29" s="2">
         <f t="shared" si="2"/>
         <v>57.15</v>
       </c>
-      <c r="V29" s="2">
+      <c r="Y29" s="2">
         <v>8</v>
       </c>
-      <c r="W29" s="2">
-        <f t="shared" si="3"/>
-        <v>2.8575</v>
-      </c>
-    </row>
-    <row r="30" spans="1:23">
+      <c r="Z29" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:26">
       <c r="A30" s="8">
         <v>28</v>
       </c>
@@ -3456,7 +3869,9 @@
       <c r="D30" s="16">
         <v>10</v>
       </c>
-      <c r="E30" s="16"/>
+      <c r="E30" s="16">
+        <v>16</v>
+      </c>
       <c r="F30" s="16"/>
       <c r="G30" s="16">
         <v>0</v>
@@ -3469,26 +3884,36 @@
         <f t="shared" si="0"/>
         <v>35.72</v>
       </c>
-      <c r="K30" s="16">
-        <f t="shared" si="1"/>
-        <v>12</v>
-      </c>
-      <c r="R30" s="21"/>
-      <c r="S30" s="21"/>
-      <c r="T30" s="21"/>
-      <c r="U30" s="2">
+      <c r="K30" s="34" cm="1">
+        <f t="array" ref="K30">ROUNDUP(AVERAGE(LARGE(O30:Q30,{1,2})),0)</f>
+        <v>20</v>
+      </c>
+      <c r="O30" s="2">
+        <v>16</v>
+      </c>
+      <c r="P30" s="2">
+        <v>24</v>
+      </c>
+      <c r="Q30" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="U30" s="21"/>
+      <c r="V30" s="21"/>
+      <c r="W30" s="21"/>
+      <c r="X30" s="2">
         <f t="shared" si="2"/>
         <v>35.72</v>
       </c>
-      <c r="V30" s="2">
-        <v>5</v>
-      </c>
-      <c r="W30" s="2">
+      <c r="Y30" s="2">
+        <v>5</v>
+      </c>
+      <c r="Z30" s="2">
         <f t="shared" si="3"/>
-        <v>1.786</v>
-      </c>
-    </row>
-    <row r="31" spans="1:23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:26">
       <c r="A31" s="8">
         <v>29</v>
       </c>
@@ -3501,7 +3926,9 @@
       <c r="D31" s="16">
         <v>14</v>
       </c>
-      <c r="E31" s="16"/>
+      <c r="E31" s="16">
+        <v>15</v>
+      </c>
       <c r="F31" s="16"/>
       <c r="G31" s="16">
         <v>5</v>
@@ -3514,26 +3941,38 @@
         <f t="shared" si="0"/>
         <v>85.72</v>
       </c>
-      <c r="K31" s="16">
-        <f t="shared" si="1"/>
+      <c r="K31" s="34" cm="1">
+        <f t="array" ref="K31">ROUNDUP(AVERAGE(LARGE(O31:Q31,{1,2})),0)</f>
+        <v>21</v>
+      </c>
+      <c r="O31" s="2">
+        <f t="shared" si="4"/>
         <v>24</v>
       </c>
-      <c r="R31" s="21"/>
-      <c r="S31" s="21"/>
-      <c r="T31" s="21"/>
-      <c r="U31" s="2">
+      <c r="P31" s="2">
+        <f t="shared" si="5"/>
+        <v>18</v>
+      </c>
+      <c r="Q31" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="U31" s="21"/>
+      <c r="V31" s="21"/>
+      <c r="W31" s="21"/>
+      <c r="X31" s="2">
         <f t="shared" si="2"/>
         <v>85.72</v>
       </c>
-      <c r="V31" s="2">
+      <c r="Y31" s="2">
         <v>12</v>
       </c>
-      <c r="W31" s="2">
+      <c r="Z31" s="2">
         <f t="shared" si="3"/>
-        <v>4.286</v>
-      </c>
-    </row>
-    <row r="32" spans="1:23">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:26">
       <c r="A32" s="8">
         <v>30</v>
       </c>
@@ -3546,7 +3985,9 @@
       <c r="D32" s="16">
         <v>16</v>
       </c>
-      <c r="E32" s="16"/>
+      <c r="E32" s="16">
+        <v>14</v>
+      </c>
       <c r="F32" s="16"/>
       <c r="G32" s="16">
         <v>5</v>
@@ -3559,26 +4000,38 @@
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="K32" s="16">
-        <f t="shared" si="1"/>
+      <c r="K32" s="34" cm="1">
+        <f t="array" ref="K32">ROUNDUP(AVERAGE(LARGE(O32:Q32,{1,2})),0)</f>
+        <v>22</v>
+      </c>
+      <c r="O32" s="2">
+        <f t="shared" si="4"/>
         <v>26</v>
       </c>
-      <c r="R32" s="21"/>
-      <c r="S32" s="21"/>
-      <c r="T32" s="21"/>
-      <c r="U32" s="2">
+      <c r="P32" s="2">
+        <f t="shared" si="5"/>
+        <v>18</v>
+      </c>
+      <c r="Q32" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="U32" s="21"/>
+      <c r="V32" s="21"/>
+      <c r="W32" s="21"/>
+      <c r="X32" s="2">
         <f t="shared" si="2"/>
         <v>100</v>
       </c>
-      <c r="V32" s="2">
+      <c r="Y32" s="2">
         <v>14</v>
       </c>
-      <c r="W32" s="2">
+      <c r="Z32" s="2">
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="1:23">
+    <row r="33" spans="1:26">
       <c r="A33" s="8">
         <v>31</v>
       </c>
@@ -3591,7 +4044,9 @@
       <c r="D33" s="16">
         <v>20</v>
       </c>
-      <c r="E33" s="16"/>
+      <c r="E33" s="16">
+        <v>17</v>
+      </c>
       <c r="F33" s="16"/>
       <c r="G33" s="16">
         <v>5</v>
@@ -3604,26 +4059,38 @@
         <f t="shared" si="0"/>
         <v>71.43</v>
       </c>
-      <c r="K33" s="16">
-        <f t="shared" si="1"/>
+      <c r="K33" s="34" cm="1">
+        <f t="array" ref="K33">ROUNDUP(AVERAGE(LARGE(O33:Q33,{1,2})),0)</f>
+        <v>25</v>
+      </c>
+      <c r="O33" s="2">
+        <f t="shared" si="4"/>
         <v>29</v>
       </c>
-      <c r="R33" s="21"/>
-      <c r="S33" s="21"/>
-      <c r="T33" s="21"/>
-      <c r="U33" s="2">
+      <c r="P33" s="2">
+        <f t="shared" si="5"/>
+        <v>21</v>
+      </c>
+      <c r="Q33" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="U33" s="21"/>
+      <c r="V33" s="21"/>
+      <c r="W33" s="21"/>
+      <c r="X33" s="2">
         <f t="shared" si="2"/>
         <v>71.43</v>
       </c>
-      <c r="V33" s="2">
+      <c r="Y33" s="2">
         <v>10</v>
       </c>
-      <c r="W33" s="2">
+      <c r="Z33" s="2">
         <f t="shared" si="3"/>
-        <v>3.5715</v>
-      </c>
-    </row>
-    <row r="34" spans="1:23">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:26">
       <c r="A34" s="8">
         <v>32</v>
       </c>
@@ -3636,39 +4103,52 @@
       <c r="D34" s="16">
         <v>12</v>
       </c>
-      <c r="E34" s="16"/>
+      <c r="E34" s="16">
+        <v>13</v>
+      </c>
       <c r="F34" s="16"/>
       <c r="G34" s="16">
         <v>5</v>
       </c>
       <c r="H34" s="8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I34" s="8"/>
       <c r="J34" s="16">
         <f t="shared" si="0"/>
         <v>64.29</v>
       </c>
-      <c r="K34" s="16">
-        <f t="shared" si="1"/>
-        <v>21</v>
-      </c>
-      <c r="R34" s="21"/>
-      <c r="S34" s="21"/>
-      <c r="T34" s="21"/>
-      <c r="U34" s="2">
+      <c r="K34" s="34" cm="1">
+        <f t="array" ref="K34">ROUNDUP(AVERAGE(LARGE(O34:Q34,{1,2})),0)</f>
+        <v>20</v>
+      </c>
+      <c r="O34" s="2">
+        <f t="shared" si="4"/>
+        <v>22</v>
+      </c>
+      <c r="P34" s="2">
+        <f t="shared" si="5"/>
+        <v>17</v>
+      </c>
+      <c r="Q34" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="U34" s="21"/>
+      <c r="V34" s="21"/>
+      <c r="W34" s="21"/>
+      <c r="X34" s="2">
         <f t="shared" si="2"/>
         <v>64.29</v>
       </c>
-      <c r="V34" s="2">
+      <c r="Y34" s="2">
         <v>9</v>
       </c>
-      <c r="W34" s="2">
-        <f t="shared" si="3"/>
-        <v>3.2145</v>
-      </c>
-    </row>
-    <row r="35" spans="1:23">
+      <c r="Z34" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:26">
       <c r="A35" s="8">
         <v>33</v>
       </c>
@@ -3681,7 +4161,9 @@
       <c r="D35" s="16">
         <v>9</v>
       </c>
-      <c r="E35" s="16"/>
+      <c r="E35" s="16">
+        <v>17</v>
+      </c>
       <c r="F35" s="16"/>
       <c r="G35" s="16">
         <v>0</v>
@@ -3694,26 +4176,36 @@
         <f t="shared" si="0"/>
         <v>14.29</v>
       </c>
-      <c r="K35" s="16">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="R35" s="21"/>
-      <c r="S35" s="21"/>
-      <c r="T35" s="21"/>
-      <c r="U35" s="2">
+      <c r="K35" s="34" cm="1">
+        <f t="array" ref="K35">ROUNDUP(AVERAGE(LARGE(O35:Q35,{1,2})),0)</f>
+        <v>20</v>
+      </c>
+      <c r="O35" s="2">
+        <v>15</v>
+      </c>
+      <c r="P35" s="2">
+        <v>25</v>
+      </c>
+      <c r="Q35" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="U35" s="21"/>
+      <c r="V35" s="21"/>
+      <c r="W35" s="21"/>
+      <c r="X35" s="2">
         <f t="shared" si="2"/>
         <v>14.29</v>
       </c>
-      <c r="V35" s="2">
+      <c r="Y35" s="2">
         <v>2</v>
       </c>
-      <c r="W35" s="2">
+      <c r="Z35" s="2">
         <f t="shared" si="3"/>
-        <v>0.7145</v>
-      </c>
-    </row>
-    <row r="36" spans="1:23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:26">
       <c r="A36" s="8">
         <v>34</v>
       </c>
@@ -3726,7 +4218,9 @@
       <c r="D36" s="16">
         <v>21</v>
       </c>
-      <c r="E36" s="16"/>
+      <c r="E36" s="16">
+        <v>20</v>
+      </c>
       <c r="F36" s="16"/>
       <c r="G36" s="16">
         <v>5</v>
@@ -3739,26 +4233,38 @@
         <f t="shared" si="0"/>
         <v>71.43</v>
       </c>
-      <c r="K36" s="16">
-        <f t="shared" ref="K36:K67" si="4">ROUNDUP(SUM(D36)+SUM(G36)+ROUNDUP(SUM(W36),0),0)</f>
+      <c r="K36" s="34" cm="1">
+        <f t="array" ref="K36">ROUNDUP(AVERAGE(LARGE(O36:Q36,{1,2})),0)</f>
+        <v>28</v>
+      </c>
+      <c r="O36" s="2">
+        <f t="shared" ref="O36:O67" si="6">ROUNDUP(SUM(D36)+SUM(G36)+ROUNDUP(SUM(Z36),0),0)</f>
         <v>30</v>
       </c>
-      <c r="R36" s="21"/>
-      <c r="S36" s="21"/>
-      <c r="T36" s="21"/>
-      <c r="U36" s="2">
+      <c r="P36" s="2">
+        <f t="shared" ref="P36:P67" si="7">ROUNDUP(SUM(E36)+SUM(H36)+ROUNDUP(SUM(AA36),0),0)</f>
+        <v>25</v>
+      </c>
+      <c r="Q36" s="2">
+        <f t="shared" ref="Q36:Q67" si="8">ROUNDUP(SUM(F36)+SUM(I36)+ROUNDUP(SUM(AB36),0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="U36" s="21"/>
+      <c r="V36" s="21"/>
+      <c r="W36" s="21"/>
+      <c r="X36" s="2">
         <f t="shared" si="2"/>
         <v>71.43</v>
       </c>
-      <c r="V36" s="2">
+      <c r="Y36" s="2">
         <v>10</v>
       </c>
-      <c r="W36" s="2">
-        <f t="shared" ref="W36:W67" si="5">(U36*5/100)</f>
-        <v>3.5715</v>
-      </c>
-    </row>
-    <row r="37" spans="1:23">
+      <c r="Z36" s="2">
+        <f t="shared" ref="Z36:Z67" si="9">ROUNDUP((X36*5/100),0)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:26">
       <c r="A37" s="8">
         <v>35</v>
       </c>
@@ -3771,7 +4277,9 @@
       <c r="D37" s="16">
         <v>18</v>
       </c>
-      <c r="E37" s="16"/>
+      <c r="E37" s="16">
+        <v>18</v>
+      </c>
       <c r="F37" s="16"/>
       <c r="G37" s="16">
         <v>5</v>
@@ -3784,26 +4292,38 @@
         <f t="shared" si="0"/>
         <v>64.29</v>
       </c>
-      <c r="K37" s="16">
-        <f t="shared" si="4"/>
+      <c r="K37" s="34" cm="1">
+        <f t="array" ref="K37">ROUNDUP(AVERAGE(LARGE(O37:Q37,{1,2})),0)</f>
+        <v>25</v>
+      </c>
+      <c r="O37" s="2">
+        <f t="shared" si="6"/>
         <v>27</v>
       </c>
-      <c r="R37" s="21"/>
-      <c r="S37" s="21"/>
-      <c r="T37" s="21"/>
-      <c r="U37" s="2">
+      <c r="P37" s="2">
+        <f t="shared" si="7"/>
+        <v>22</v>
+      </c>
+      <c r="Q37" s="2">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="U37" s="21"/>
+      <c r="V37" s="21"/>
+      <c r="W37" s="21"/>
+      <c r="X37" s="2">
         <f t="shared" si="2"/>
         <v>64.29</v>
       </c>
-      <c r="V37" s="2">
+      <c r="Y37" s="2">
         <v>9</v>
       </c>
-      <c r="W37" s="2">
-        <f t="shared" si="5"/>
-        <v>3.2145</v>
-      </c>
-    </row>
-    <row r="38" spans="1:23">
+      <c r="Z37" s="2">
+        <f t="shared" si="9"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:26">
       <c r="A38" s="8">
         <v>36</v>
       </c>
@@ -3816,7 +4336,9 @@
       <c r="D38" s="16">
         <v>10</v>
       </c>
-      <c r="E38" s="16"/>
+      <c r="E38" s="16">
+        <v>20</v>
+      </c>
       <c r="F38" s="16"/>
       <c r="G38" s="16">
         <v>5</v>
@@ -3829,26 +4351,38 @@
         <f t="shared" si="0"/>
         <v>92.86</v>
       </c>
-      <c r="K38" s="16">
-        <f t="shared" si="4"/>
+      <c r="K38" s="34" cm="1">
+        <f t="array" ref="K38">ROUNDUP(AVERAGE(LARGE(O38:Q38,{1,2})),0)</f>
+        <v>22</v>
+      </c>
+      <c r="O38" s="2">
+        <f t="shared" si="6"/>
         <v>20</v>
       </c>
-      <c r="R38" s="21"/>
-      <c r="S38" s="21"/>
-      <c r="T38" s="21"/>
-      <c r="U38" s="2">
+      <c r="P38" s="2">
+        <f t="shared" si="7"/>
+        <v>24</v>
+      </c>
+      <c r="Q38" s="2">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="U38" s="21"/>
+      <c r="V38" s="21"/>
+      <c r="W38" s="21"/>
+      <c r="X38" s="2">
         <f t="shared" si="2"/>
         <v>92.86</v>
       </c>
-      <c r="V38" s="2">
+      <c r="Y38" s="2">
         <v>13</v>
       </c>
-      <c r="W38" s="2">
-        <f t="shared" si="5"/>
-        <v>4.643</v>
-      </c>
-    </row>
-    <row r="39" spans="1:23">
+      <c r="Z38" s="2">
+        <f t="shared" si="9"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:26">
       <c r="A39" s="8">
         <v>37</v>
       </c>
@@ -3861,7 +4395,9 @@
       <c r="D39" s="16">
         <v>21</v>
       </c>
-      <c r="E39" s="16"/>
+      <c r="E39" s="16">
+        <v>23</v>
+      </c>
       <c r="F39" s="16"/>
       <c r="G39" s="16">
         <v>5</v>
@@ -3874,26 +4410,38 @@
         <f t="shared" si="0"/>
         <v>78.58</v>
       </c>
-      <c r="K39" s="16">
-        <f t="shared" si="4"/>
+      <c r="K39" s="34" cm="1">
+        <f t="array" ref="K39">ROUNDUP(AVERAGE(LARGE(O39:Q39,{1,2})),0)</f>
+        <v>29</v>
+      </c>
+      <c r="O39" s="2">
+        <f t="shared" si="6"/>
         <v>30</v>
       </c>
-      <c r="R39" s="21"/>
-      <c r="S39" s="21"/>
-      <c r="T39" s="21"/>
-      <c r="U39" s="2">
+      <c r="P39" s="2">
+        <f t="shared" si="7"/>
+        <v>27</v>
+      </c>
+      <c r="Q39" s="2">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="U39" s="21"/>
+      <c r="V39" s="21"/>
+      <c r="W39" s="21"/>
+      <c r="X39" s="2">
         <f t="shared" si="2"/>
         <v>78.58</v>
       </c>
-      <c r="V39" s="2">
+      <c r="Y39" s="2">
         <v>11</v>
       </c>
-      <c r="W39" s="2">
-        <f t="shared" si="5"/>
-        <v>3.929</v>
-      </c>
-    </row>
-    <row r="40" spans="1:23">
+      <c r="Z39" s="2">
+        <f t="shared" si="9"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:26">
       <c r="A40" s="8">
         <v>38</v>
       </c>
@@ -3906,7 +4454,9 @@
       <c r="D40" s="16">
         <v>12</v>
       </c>
-      <c r="E40" s="16"/>
+      <c r="E40" s="16">
+        <v>12</v>
+      </c>
       <c r="F40" s="16"/>
       <c r="G40" s="16">
         <v>0</v>
@@ -3919,26 +4469,36 @@
         <f t="shared" si="0"/>
         <v>35.72</v>
       </c>
-      <c r="K40" s="16">
-        <f t="shared" si="4"/>
-        <v>14</v>
-      </c>
-      <c r="R40" s="21"/>
-      <c r="S40" s="21"/>
-      <c r="T40" s="21"/>
-      <c r="U40" s="2">
+      <c r="K40" s="34" cm="1">
+        <f t="array" ref="K40">ROUNDUP(AVERAGE(LARGE(O40:Q40,{1,2})),0)</f>
+        <v>20</v>
+      </c>
+      <c r="O40" s="2">
+        <v>19</v>
+      </c>
+      <c r="P40" s="2">
+        <v>20</v>
+      </c>
+      <c r="Q40" s="2">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="U40" s="21"/>
+      <c r="V40" s="21"/>
+      <c r="W40" s="21"/>
+      <c r="X40" s="2">
         <f t="shared" si="2"/>
         <v>35.72</v>
       </c>
-      <c r="V40" s="2">
-        <v>5</v>
-      </c>
-      <c r="W40" s="2">
-        <f t="shared" si="5"/>
-        <v>1.786</v>
-      </c>
-    </row>
-    <row r="41" spans="1:23">
+      <c r="Y40" s="2">
+        <v>5</v>
+      </c>
+      <c r="Z40" s="2">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:26">
       <c r="A41" s="8">
         <v>39</v>
       </c>
@@ -3951,7 +4511,9 @@
       <c r="D41" s="16">
         <v>14</v>
       </c>
-      <c r="E41" s="16"/>
+      <c r="E41" s="16">
+        <v>12</v>
+      </c>
       <c r="F41" s="16"/>
       <c r="G41" s="16">
         <v>0</v>
@@ -3964,27 +4526,37 @@
         <f t="shared" si="0"/>
         <v>35.72</v>
       </c>
-      <c r="K41" s="16">
-        <f t="shared" si="4"/>
-        <v>16</v>
+      <c r="K41" s="34" cm="1">
+        <f t="array" ref="K41">ROUNDUP(AVERAGE(LARGE(O41:Q41,{1,2})),0)</f>
+        <v>23</v>
       </c>
       <c r="L41" s="20"/>
-      <c r="R41" s="21"/>
-      <c r="S41" s="21"/>
-      <c r="T41" s="21"/>
-      <c r="U41" s="2">
+      <c r="O41" s="2">
+        <v>23</v>
+      </c>
+      <c r="P41" s="2">
+        <v>22</v>
+      </c>
+      <c r="Q41" s="2">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="U41" s="21"/>
+      <c r="V41" s="21"/>
+      <c r="W41" s="21"/>
+      <c r="X41" s="2">
         <f t="shared" si="2"/>
         <v>35.72</v>
       </c>
-      <c r="V41" s="2">
-        <v>5</v>
-      </c>
-      <c r="W41" s="2">
-        <f t="shared" si="5"/>
-        <v>1.786</v>
-      </c>
-    </row>
-    <row r="42" spans="1:23">
+      <c r="Y41" s="2">
+        <v>5</v>
+      </c>
+      <c r="Z41" s="2">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:26">
       <c r="A42" s="8">
         <v>40</v>
       </c>
@@ -3997,7 +4569,9 @@
       <c r="D42" s="16">
         <v>11</v>
       </c>
-      <c r="E42" s="16"/>
+      <c r="E42" s="16">
+        <v>12</v>
+      </c>
       <c r="F42" s="16"/>
       <c r="G42" s="16">
         <v>0</v>
@@ -4010,26 +4584,36 @@
         <f t="shared" si="0"/>
         <v>35.72</v>
       </c>
-      <c r="K42" s="16">
-        <f t="shared" si="4"/>
-        <v>13</v>
-      </c>
-      <c r="R42" s="21"/>
-      <c r="S42" s="21"/>
-      <c r="T42" s="21"/>
-      <c r="U42" s="2">
+      <c r="K42" s="34" cm="1">
+        <f t="array" ref="K42">ROUNDUP(AVERAGE(LARGE(O42:Q42,{1,2})),0)</f>
+        <v>20</v>
+      </c>
+      <c r="O42" s="2">
+        <v>19</v>
+      </c>
+      <c r="P42" s="2">
+        <v>21</v>
+      </c>
+      <c r="Q42" s="2">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="U42" s="21"/>
+      <c r="V42" s="21"/>
+      <c r="W42" s="21"/>
+      <c r="X42" s="2">
         <f t="shared" si="2"/>
         <v>35.72</v>
       </c>
-      <c r="V42" s="2">
-        <v>5</v>
-      </c>
-      <c r="W42" s="2">
-        <f t="shared" si="5"/>
-        <v>1.786</v>
-      </c>
-    </row>
-    <row r="43" spans="1:23">
+      <c r="Y42" s="2">
+        <v>5</v>
+      </c>
+      <c r="Z42" s="2">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:26">
       <c r="A43" s="8">
         <v>41</v>
       </c>
@@ -4042,39 +4626,53 @@
       <c r="D43" s="16">
         <v>12</v>
       </c>
-      <c r="E43" s="16"/>
+      <c r="E43" s="16">
+        <v>17</v>
+      </c>
       <c r="F43" s="16"/>
       <c r="G43" s="16">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H43" s="8">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I43" s="8"/>
       <c r="J43" s="16">
         <f t="shared" si="0"/>
         <v>78.58</v>
       </c>
-      <c r="K43" s="16">
-        <f t="shared" si="4"/>
-        <v>16</v>
-      </c>
-      <c r="R43" s="21"/>
-      <c r="S43" s="21"/>
-      <c r="T43" s="21"/>
-      <c r="U43" s="2">
+      <c r="K43" s="34" cm="1">
+        <f t="array" ref="K43">ROUNDUP(AVERAGE(LARGE(O43:Q43,{1,2})),0)</f>
+        <v>20</v>
+      </c>
+      <c r="O43" s="2">
+        <f t="shared" si="6"/>
+        <v>20</v>
+      </c>
+      <c r="P43" s="2">
+        <f t="shared" si="7"/>
+        <v>20</v>
+      </c>
+      <c r="Q43" s="2">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="U43" s="21"/>
+      <c r="V43" s="21"/>
+      <c r="W43" s="21"/>
+      <c r="X43" s="2">
         <f t="shared" si="2"/>
         <v>78.58</v>
       </c>
-      <c r="V43" s="2">
+      <c r="Y43" s="2">
         <v>11</v>
       </c>
-      <c r="W43" s="2">
-        <f t="shared" si="5"/>
-        <v>3.929</v>
-      </c>
-    </row>
-    <row r="44" spans="1:23">
+      <c r="Z43" s="2">
+        <f t="shared" si="9"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:26">
       <c r="A44" s="8">
         <v>42</v>
       </c>
@@ -4087,7 +4685,9 @@
       <c r="D44" s="16">
         <v>8</v>
       </c>
-      <c r="E44" s="16"/>
+      <c r="E44" s="16">
+        <v>16</v>
+      </c>
       <c r="F44" s="16"/>
       <c r="G44" s="16">
         <v>0</v>
@@ -4100,26 +4700,36 @@
         <f t="shared" si="0"/>
         <v>14.29</v>
       </c>
-      <c r="K44" s="16">
-        <f t="shared" si="4"/>
-        <v>9</v>
-      </c>
-      <c r="R44" s="21"/>
-      <c r="S44" s="21"/>
-      <c r="T44" s="21"/>
-      <c r="U44" s="2">
+      <c r="K44" s="34" cm="1">
+        <f t="array" ref="K44">ROUNDUP(AVERAGE(LARGE(O44:Q44,{1,2})),0)</f>
+        <v>20</v>
+      </c>
+      <c r="O44" s="2">
+        <v>15</v>
+      </c>
+      <c r="P44" s="2">
+        <v>24</v>
+      </c>
+      <c r="Q44" s="2">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="U44" s="21"/>
+      <c r="V44" s="21"/>
+      <c r="W44" s="21"/>
+      <c r="X44" s="2">
         <f t="shared" si="2"/>
         <v>14.29</v>
       </c>
-      <c r="V44" s="2">
+      <c r="Y44" s="2">
         <v>2</v>
       </c>
-      <c r="W44" s="2">
-        <f t="shared" si="5"/>
-        <v>0.7145</v>
-      </c>
-    </row>
-    <row r="45" spans="1:23">
+      <c r="Z44" s="2">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:26">
       <c r="A45" s="8">
         <v>43</v>
       </c>
@@ -4132,10 +4742,12 @@
       <c r="D45" s="16">
         <v>14</v>
       </c>
-      <c r="E45" s="16"/>
+      <c r="E45" s="16">
+        <v>16</v>
+      </c>
       <c r="F45" s="16"/>
       <c r="G45" s="16">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H45" s="8">
         <v>3</v>
@@ -4145,26 +4757,38 @@
         <f t="shared" si="0"/>
         <v>28.58</v>
       </c>
-      <c r="K45" s="16">
-        <f t="shared" si="4"/>
-        <v>16</v>
-      </c>
-      <c r="R45" s="21"/>
-      <c r="S45" s="21"/>
-      <c r="T45" s="21"/>
-      <c r="U45" s="2">
+      <c r="K45" s="34" cm="1">
+        <f t="array" ref="K45">ROUNDUP(AVERAGE(LARGE(O45:Q45,{1,2})),0)</f>
+        <v>20</v>
+      </c>
+      <c r="O45" s="2">
+        <f t="shared" si="6"/>
+        <v>20</v>
+      </c>
+      <c r="P45" s="2">
+        <f t="shared" si="7"/>
+        <v>19</v>
+      </c>
+      <c r="Q45" s="2">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="U45" s="21"/>
+      <c r="V45" s="21"/>
+      <c r="W45" s="21"/>
+      <c r="X45" s="2">
         <f t="shared" si="2"/>
         <v>28.58</v>
       </c>
-      <c r="V45" s="2">
+      <c r="Y45" s="2">
         <v>4</v>
       </c>
-      <c r="W45" s="2">
-        <f t="shared" si="5"/>
-        <v>1.429</v>
-      </c>
-    </row>
-    <row r="46" spans="1:23">
+      <c r="Z45" s="2">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:26">
       <c r="A46" s="8">
         <v>44</v>
       </c>
@@ -4177,7 +4801,9 @@
       <c r="D46" s="16">
         <v>17</v>
       </c>
-      <c r="E46" s="16"/>
+      <c r="E46" s="16">
+        <v>17</v>
+      </c>
       <c r="F46" s="16"/>
       <c r="G46" s="16">
         <v>5</v>
@@ -4190,26 +4816,38 @@
         <f t="shared" si="0"/>
         <v>57.15</v>
       </c>
-      <c r="K46" s="16">
-        <f t="shared" si="4"/>
+      <c r="K46" s="34" cm="1">
+        <f t="array" ref="K46">ROUNDUP(AVERAGE(LARGE(O46:Q46,{1,2})),0)</f>
+        <v>23</v>
+      </c>
+      <c r="O46" s="2">
+        <f t="shared" si="6"/>
         <v>25</v>
       </c>
-      <c r="R46" s="21"/>
-      <c r="S46" s="21"/>
-      <c r="T46" s="21"/>
-      <c r="U46" s="2">
+      <c r="P46" s="2">
+        <f t="shared" si="7"/>
+        <v>21</v>
+      </c>
+      <c r="Q46" s="2">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="U46" s="21"/>
+      <c r="V46" s="21"/>
+      <c r="W46" s="21"/>
+      <c r="X46" s="2">
         <f t="shared" si="2"/>
         <v>57.15</v>
       </c>
-      <c r="V46" s="2">
+      <c r="Y46" s="2">
         <v>8</v>
       </c>
-      <c r="W46" s="2">
-        <f t="shared" si="5"/>
-        <v>2.8575</v>
-      </c>
-    </row>
-    <row r="47" spans="1:23">
+      <c r="Z46" s="2">
+        <f t="shared" si="9"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:26">
       <c r="A47" s="8">
         <v>45</v>
       </c>
@@ -4222,39 +4860,53 @@
       <c r="D47" s="16">
         <v>12</v>
       </c>
-      <c r="E47" s="16"/>
+      <c r="E47" s="16">
+        <v>16</v>
+      </c>
       <c r="F47" s="16"/>
       <c r="G47" s="16">
         <v>5</v>
       </c>
       <c r="H47" s="8">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I47" s="8"/>
       <c r="J47" s="16">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="K47" s="16">
-        <f t="shared" si="4"/>
+      <c r="K47" s="34" cm="1">
+        <f t="array" ref="K47">ROUNDUP(AVERAGE(LARGE(O47:Q47,{1,2})),0)</f>
         <v>20</v>
       </c>
-      <c r="R47" s="21"/>
-      <c r="S47" s="21"/>
-      <c r="T47" s="21"/>
-      <c r="U47" s="2">
+      <c r="O47" s="2">
+        <f t="shared" si="6"/>
+        <v>20</v>
+      </c>
+      <c r="P47" s="2">
+        <f t="shared" si="7"/>
+        <v>19</v>
+      </c>
+      <c r="Q47" s="2">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="U47" s="21"/>
+      <c r="V47" s="21"/>
+      <c r="W47" s="21"/>
+      <c r="X47" s="2">
         <f t="shared" si="2"/>
         <v>50</v>
       </c>
-      <c r="V47" s="2">
+      <c r="Y47" s="2">
         <v>7</v>
       </c>
-      <c r="W47" s="2">
-        <f t="shared" si="5"/>
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="48" spans="1:23">
+      <c r="Z47" s="2">
+        <f t="shared" si="9"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:26">
       <c r="A48" s="8">
         <v>46</v>
       </c>
@@ -4267,7 +4919,9 @@
       <c r="D48" s="16">
         <v>17</v>
       </c>
-      <c r="E48" s="16"/>
+      <c r="E48" s="16">
+        <v>23</v>
+      </c>
       <c r="F48" s="16"/>
       <c r="G48" s="16">
         <v>0</v>
@@ -4280,26 +4934,38 @@
         <f t="shared" si="0"/>
         <v>21.43</v>
       </c>
-      <c r="K48" s="16">
-        <f t="shared" si="4"/>
+      <c r="K48" s="34" cm="1">
+        <f t="array" ref="K48">ROUNDUP(AVERAGE(LARGE(O48:Q48,{1,2})),0)</f>
+        <v>21</v>
+      </c>
+      <c r="O48" s="2">
+        <f t="shared" si="6"/>
         <v>19</v>
       </c>
-      <c r="R48" s="21"/>
-      <c r="S48" s="21"/>
-      <c r="T48" s="21"/>
-      <c r="U48" s="2">
+      <c r="P48" s="2">
+        <f t="shared" si="7"/>
+        <v>23</v>
+      </c>
+      <c r="Q48" s="2">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="U48" s="21"/>
+      <c r="V48" s="21"/>
+      <c r="W48" s="21"/>
+      <c r="X48" s="2">
         <f t="shared" si="2"/>
         <v>21.43</v>
       </c>
-      <c r="V48" s="2">
+      <c r="Y48" s="2">
         <v>3</v>
       </c>
-      <c r="W48" s="2">
-        <f t="shared" si="5"/>
-        <v>1.0715</v>
-      </c>
-    </row>
-    <row r="49" spans="1:23">
+      <c r="Z48" s="2">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:26">
       <c r="A49" s="8">
         <v>47</v>
       </c>
@@ -4312,7 +4978,9 @@
       <c r="D49" s="16">
         <v>9</v>
       </c>
-      <c r="E49" s="16"/>
+      <c r="E49" s="16">
+        <v>13</v>
+      </c>
       <c r="F49" s="16"/>
       <c r="G49" s="16">
         <v>0</v>
@@ -4325,26 +4993,36 @@
         <f t="shared" si="0"/>
         <v>21.43</v>
       </c>
-      <c r="K49" s="16">
-        <f t="shared" si="4"/>
-        <v>11</v>
-      </c>
-      <c r="R49" s="21"/>
-      <c r="S49" s="21"/>
-      <c r="T49" s="21"/>
-      <c r="U49" s="2">
+      <c r="K49" s="34" cm="1">
+        <f t="array" ref="K49">ROUNDUP(AVERAGE(LARGE(O49:Q49,{1,2})),0)</f>
+        <v>20</v>
+      </c>
+      <c r="O49" s="2">
+        <v>17</v>
+      </c>
+      <c r="P49" s="2">
+        <v>22</v>
+      </c>
+      <c r="Q49" s="2">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="U49" s="21"/>
+      <c r="V49" s="21"/>
+      <c r="W49" s="21"/>
+      <c r="X49" s="2">
         <f t="shared" si="2"/>
         <v>21.43</v>
       </c>
-      <c r="V49" s="2">
+      <c r="Y49" s="2">
         <v>3</v>
       </c>
-      <c r="W49" s="2">
-        <f t="shared" si="5"/>
-        <v>1.0715</v>
-      </c>
-    </row>
-    <row r="50" spans="1:23">
+      <c r="Z49" s="2">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:26">
       <c r="A50" s="8">
         <v>48</v>
       </c>
@@ -4357,10 +5035,12 @@
       <c r="D50" s="16">
         <v>17</v>
       </c>
-      <c r="E50" s="16"/>
+      <c r="E50" s="16">
+        <v>14</v>
+      </c>
       <c r="F50" s="16"/>
       <c r="G50" s="16">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H50" s="8">
         <v>4</v>
@@ -4370,26 +5050,38 @@
         <f t="shared" si="0"/>
         <v>14.29</v>
       </c>
-      <c r="K50" s="16">
-        <f t="shared" si="4"/>
+      <c r="K50" s="34" cm="1">
+        <f t="array" ref="K50">ROUNDUP(AVERAGE(LARGE(O50:Q50,{1,2})),0)</f>
+        <v>20</v>
+      </c>
+      <c r="O50" s="2">
+        <f t="shared" si="6"/>
+        <v>21</v>
+      </c>
+      <c r="P50" s="2">
+        <f t="shared" si="7"/>
         <v>18</v>
       </c>
-      <c r="R50" s="21"/>
-      <c r="S50" s="21"/>
-      <c r="T50" s="21"/>
-      <c r="U50" s="2">
+      <c r="Q50" s="2">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="U50" s="21"/>
+      <c r="V50" s="21"/>
+      <c r="W50" s="21"/>
+      <c r="X50" s="2">
         <f t="shared" si="2"/>
         <v>14.29</v>
       </c>
-      <c r="V50" s="2">
+      <c r="Y50" s="2">
         <v>2</v>
       </c>
-      <c r="W50" s="2">
-        <f t="shared" si="5"/>
-        <v>0.7145</v>
-      </c>
-    </row>
-    <row r="51" spans="1:23">
+      <c r="Z50" s="2">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:26">
       <c r="A51" s="8">
         <v>49</v>
       </c>
@@ -4402,7 +5094,9 @@
       <c r="D51" s="16">
         <v>20</v>
       </c>
-      <c r="E51" s="16"/>
+      <c r="E51" s="16">
+        <v>24</v>
+      </c>
       <c r="F51" s="16"/>
       <c r="G51" s="16">
         <v>4</v>
@@ -4415,26 +5109,38 @@
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="K51" s="16">
-        <f t="shared" si="4"/>
+      <c r="K51" s="34" cm="1">
+        <f t="array" ref="K51">ROUNDUP(AVERAGE(LARGE(O51:Q51,{1,2})),0)</f>
+        <v>28</v>
+      </c>
+      <c r="O51" s="2">
+        <f t="shared" si="6"/>
         <v>27</v>
       </c>
-      <c r="R51" s="21"/>
-      <c r="S51" s="21"/>
-      <c r="T51" s="21"/>
-      <c r="U51" s="2">
+      <c r="P51" s="2">
+        <f t="shared" si="7"/>
+        <v>28</v>
+      </c>
+      <c r="Q51" s="2">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="U51" s="21"/>
+      <c r="V51" s="21"/>
+      <c r="W51" s="21"/>
+      <c r="X51" s="2">
         <f t="shared" si="2"/>
         <v>50</v>
       </c>
-      <c r="V51" s="2">
+      <c r="Y51" s="2">
         <v>7</v>
       </c>
-      <c r="W51" s="2">
-        <f t="shared" si="5"/>
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="52" spans="1:23">
+      <c r="Z51" s="2">
+        <f t="shared" si="9"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:26">
       <c r="A52" s="8">
         <v>50</v>
       </c>
@@ -4447,7 +5153,9 @@
       <c r="D52" s="16">
         <v>7</v>
       </c>
-      <c r="E52" s="16"/>
+      <c r="E52" s="16">
+        <v>16</v>
+      </c>
       <c r="F52" s="16"/>
       <c r="G52" s="16">
         <v>0</v>
@@ -4460,27 +5168,37 @@
         <f t="shared" si="0"/>
         <v>42.86</v>
       </c>
-      <c r="K52" s="16">
-        <f t="shared" si="4"/>
-        <v>10</v>
+      <c r="K52" s="34" cm="1">
+        <f t="array" ref="K52">ROUNDUP(AVERAGE(LARGE(O52:Q52,{1,2})),0)</f>
+        <v>20</v>
       </c>
       <c r="L52" s="20"/>
-      <c r="R52" s="21"/>
-      <c r="S52" s="21"/>
-      <c r="T52" s="21"/>
-      <c r="U52" s="2">
+      <c r="O52" s="2">
+        <v>15</v>
+      </c>
+      <c r="P52" s="2">
+        <v>24</v>
+      </c>
+      <c r="Q52" s="2">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="U52" s="21"/>
+      <c r="V52" s="21"/>
+      <c r="W52" s="21"/>
+      <c r="X52" s="2">
         <f t="shared" si="2"/>
         <v>42.86</v>
       </c>
-      <c r="V52" s="2">
+      <c r="Y52" s="2">
         <v>6</v>
       </c>
-      <c r="W52" s="2">
-        <f t="shared" si="5"/>
-        <v>2.143</v>
-      </c>
-    </row>
-    <row r="53" spans="1:23">
+      <c r="Z52" s="2">
+        <f t="shared" si="9"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:26">
       <c r="A53" s="8">
         <v>51</v>
       </c>
@@ -4493,7 +5211,9 @@
       <c r="D53" s="16">
         <v>14</v>
       </c>
-      <c r="E53" s="16"/>
+      <c r="E53" s="16">
+        <v>13</v>
+      </c>
       <c r="F53" s="16"/>
       <c r="G53" s="16">
         <v>5</v>
@@ -4506,26 +5226,38 @@
         <f t="shared" si="0"/>
         <v>64.29</v>
       </c>
-      <c r="K53" s="16">
-        <f t="shared" si="4"/>
+      <c r="K53" s="34" cm="1">
+        <f t="array" ref="K53">ROUNDUP(AVERAGE(LARGE(O53:Q53,{1,2})),0)</f>
+        <v>20</v>
+      </c>
+      <c r="O53" s="2">
+        <f t="shared" si="6"/>
         <v>23</v>
       </c>
-      <c r="R53" s="21"/>
-      <c r="S53" s="21"/>
-      <c r="T53" s="21"/>
-      <c r="U53" s="2">
+      <c r="P53" s="2">
+        <f t="shared" si="7"/>
+        <v>17</v>
+      </c>
+      <c r="Q53" s="2">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="U53" s="21"/>
+      <c r="V53" s="21"/>
+      <c r="W53" s="21"/>
+      <c r="X53" s="2">
         <f t="shared" si="2"/>
         <v>64.29</v>
       </c>
-      <c r="V53" s="2">
+      <c r="Y53" s="2">
         <v>9</v>
       </c>
-      <c r="W53" s="2">
-        <f t="shared" si="5"/>
-        <v>3.2145</v>
-      </c>
-    </row>
-    <row r="54" spans="1:23">
+      <c r="Z53" s="2">
+        <f t="shared" si="9"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54" spans="1:26">
       <c r="A54" s="8">
         <v>52</v>
       </c>
@@ -4538,40 +5270,54 @@
       <c r="D54" s="16">
         <v>16</v>
       </c>
-      <c r="E54" s="16"/>
+      <c r="E54" s="16">
+        <v>12</v>
+      </c>
       <c r="F54" s="16"/>
       <c r="G54" s="16">
         <v>5</v>
       </c>
       <c r="H54" s="8">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I54" s="8"/>
       <c r="J54" s="16">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="K54" s="16">
-        <f t="shared" si="4"/>
+      <c r="K54" s="34" cm="1">
+        <f t="array" ref="K54">ROUNDUP(AVERAGE(LARGE(O54:Q54,{1,2})),0)</f>
+        <v>20</v>
+      </c>
+      <c r="L54" s="20"/>
+      <c r="O54" s="2">
+        <f t="shared" si="6"/>
         <v>24</v>
       </c>
-      <c r="L54" s="20"/>
-      <c r="R54" s="21"/>
-      <c r="S54" s="21"/>
-      <c r="T54" s="21"/>
-      <c r="U54" s="2">
+      <c r="P54" s="2">
+        <f t="shared" si="7"/>
+        <v>16</v>
+      </c>
+      <c r="Q54" s="2">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="U54" s="21"/>
+      <c r="V54" s="21"/>
+      <c r="W54" s="21"/>
+      <c r="X54" s="2">
         <f t="shared" si="2"/>
         <v>50</v>
       </c>
-      <c r="V54" s="2">
+      <c r="Y54" s="2">
         <v>7</v>
       </c>
-      <c r="W54" s="2">
-        <f t="shared" si="5"/>
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="55" spans="1:23">
+      <c r="Z54" s="2">
+        <f t="shared" si="9"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:26">
       <c r="A55" s="8">
         <v>53</v>
       </c>
@@ -4584,7 +5330,9 @@
       <c r="D55" s="16">
         <v>12</v>
       </c>
-      <c r="E55" s="16"/>
+      <c r="E55" s="16">
+        <v>15</v>
+      </c>
       <c r="F55" s="16"/>
       <c r="G55" s="16">
         <v>5</v>
@@ -4597,26 +5345,38 @@
         <f t="shared" si="0"/>
         <v>85.72</v>
       </c>
-      <c r="K55" s="16">
-        <f t="shared" si="4"/>
+      <c r="K55" s="34" cm="1">
+        <f t="array" ref="K55">ROUNDUP(AVERAGE(LARGE(O55:Q55,{1,2})),0)</f>
+        <v>20</v>
+      </c>
+      <c r="O55" s="2">
+        <f t="shared" si="6"/>
         <v>22</v>
       </c>
-      <c r="R55" s="21"/>
-      <c r="S55" s="21"/>
-      <c r="T55" s="21"/>
-      <c r="U55" s="2">
+      <c r="P55" s="2">
+        <f t="shared" si="7"/>
+        <v>18</v>
+      </c>
+      <c r="Q55" s="2">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="U55" s="21"/>
+      <c r="V55" s="21"/>
+      <c r="W55" s="21"/>
+      <c r="X55" s="2">
         <f t="shared" si="2"/>
         <v>85.72</v>
       </c>
-      <c r="V55" s="2">
+      <c r="Y55" s="2">
         <v>12</v>
       </c>
-      <c r="W55" s="2">
-        <f t="shared" si="5"/>
-        <v>4.286</v>
-      </c>
-    </row>
-    <row r="56" spans="1:23">
+      <c r="Z55" s="2">
+        <f t="shared" si="9"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56" spans="1:26">
       <c r="A56" s="8">
         <v>54</v>
       </c>
@@ -4629,7 +5389,9 @@
       <c r="D56" s="16">
         <v>21</v>
       </c>
-      <c r="E56" s="16"/>
+      <c r="E56" s="16">
+        <v>19</v>
+      </c>
       <c r="F56" s="16"/>
       <c r="G56" s="16">
         <v>5</v>
@@ -4642,26 +5404,38 @@
         <f t="shared" si="0"/>
         <v>78.58</v>
       </c>
-      <c r="K56" s="16">
-        <f t="shared" si="4"/>
+      <c r="K56" s="34" cm="1">
+        <f t="array" ref="K56">ROUNDUP(AVERAGE(LARGE(O56:Q56,{1,2})),0)</f>
+        <v>25</v>
+      </c>
+      <c r="O56" s="2">
+        <f t="shared" si="6"/>
         <v>30</v>
       </c>
-      <c r="R56" s="21"/>
-      <c r="S56" s="21"/>
-      <c r="T56" s="21"/>
-      <c r="U56" s="2">
+      <c r="P56" s="2">
+        <f t="shared" si="7"/>
+        <v>19</v>
+      </c>
+      <c r="Q56" s="2">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="U56" s="21"/>
+      <c r="V56" s="21"/>
+      <c r="W56" s="21"/>
+      <c r="X56" s="2">
         <f t="shared" si="2"/>
         <v>78.58</v>
       </c>
-      <c r="V56" s="2">
+      <c r="Y56" s="2">
         <v>11</v>
       </c>
-      <c r="W56" s="2">
-        <f t="shared" si="5"/>
-        <v>3.929</v>
-      </c>
-    </row>
-    <row r="57" spans="1:23">
+      <c r="Z56" s="2">
+        <f t="shared" si="9"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57" spans="1:26">
       <c r="A57" s="8">
         <v>55</v>
       </c>
@@ -4674,7 +5448,9 @@
       <c r="D57" s="16">
         <v>27</v>
       </c>
-      <c r="E57" s="16"/>
+      <c r="E57" s="16">
+        <v>27</v>
+      </c>
       <c r="F57" s="16"/>
       <c r="G57" s="16">
         <v>5</v>
@@ -4687,26 +5463,38 @@
         <f t="shared" si="0"/>
         <v>71.43</v>
       </c>
-      <c r="K57" s="16">
-        <f t="shared" si="4"/>
+      <c r="K57" s="34" cm="1">
+        <f t="array" ref="K57">ROUNDUP(AVERAGE(LARGE(O57:Q57,{1,2})),0)</f>
+        <v>33</v>
+      </c>
+      <c r="O57" s="2">
+        <f t="shared" si="6"/>
         <v>36</v>
       </c>
-      <c r="R57" s="21"/>
-      <c r="S57" s="21"/>
-      <c r="T57" s="21"/>
-      <c r="U57" s="2">
+      <c r="P57" s="2">
+        <f t="shared" si="7"/>
+        <v>30</v>
+      </c>
+      <c r="Q57" s="2">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="U57" s="21"/>
+      <c r="V57" s="21"/>
+      <c r="W57" s="21"/>
+      <c r="X57" s="2">
         <f t="shared" si="2"/>
         <v>71.43</v>
       </c>
-      <c r="V57" s="2">
+      <c r="Y57" s="2">
         <v>10</v>
       </c>
-      <c r="W57" s="2">
-        <f t="shared" si="5"/>
-        <v>3.5715</v>
-      </c>
-    </row>
-    <row r="58" spans="1:23">
+      <c r="Z57" s="2">
+        <f t="shared" si="9"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="1:26">
       <c r="A58" s="8">
         <v>56</v>
       </c>
@@ -4719,7 +5507,9 @@
       <c r="D58" s="16">
         <v>27</v>
       </c>
-      <c r="E58" s="16"/>
+      <c r="E58" s="16">
+        <v>25</v>
+      </c>
       <c r="F58" s="16"/>
       <c r="G58" s="16">
         <v>5</v>
@@ -4732,26 +5522,38 @@
         <f t="shared" si="0"/>
         <v>78.58</v>
       </c>
-      <c r="K58" s="16">
-        <f t="shared" si="4"/>
+      <c r="K58" s="34" cm="1">
+        <f t="array" ref="K58">ROUNDUP(AVERAGE(LARGE(O58:Q58,{1,2})),0)</f>
+        <v>33</v>
+      </c>
+      <c r="O58" s="2">
+        <f t="shared" si="6"/>
         <v>36</v>
       </c>
-      <c r="R58" s="21"/>
-      <c r="S58" s="21"/>
-      <c r="T58" s="21"/>
-      <c r="U58" s="2">
+      <c r="P58" s="2">
+        <f t="shared" si="7"/>
+        <v>29</v>
+      </c>
+      <c r="Q58" s="2">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="U58" s="21"/>
+      <c r="V58" s="21"/>
+      <c r="W58" s="21"/>
+      <c r="X58" s="2">
         <f t="shared" si="2"/>
         <v>78.58</v>
       </c>
-      <c r="V58" s="2">
+      <c r="Y58" s="2">
         <v>11</v>
       </c>
-      <c r="W58" s="2">
-        <f t="shared" si="5"/>
-        <v>3.929</v>
-      </c>
-    </row>
-    <row r="59" spans="1:23">
+      <c r="Z58" s="2">
+        <f t="shared" si="9"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="1:26">
       <c r="A59" s="8">
         <v>57</v>
       </c>
@@ -4764,39 +5566,52 @@
       <c r="D59" s="30">
         <v>12</v>
       </c>
-      <c r="E59" s="16"/>
+      <c r="E59" s="16">
+        <v>16</v>
+      </c>
       <c r="F59" s="16"/>
       <c r="G59" s="16">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H59" s="8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I59" s="8"/>
       <c r="J59" s="16">
         <f t="shared" si="0"/>
         <v>35.72</v>
       </c>
-      <c r="K59" s="16">
-        <f t="shared" si="4"/>
-        <v>14</v>
-      </c>
-      <c r="R59" s="21"/>
-      <c r="S59" s="21"/>
-      <c r="T59" s="21"/>
-      <c r="U59" s="2">
+      <c r="K59" s="34" cm="1">
+        <f t="array" ref="K59">ROUNDUP(AVERAGE(LARGE(O59:Q59,{1,2})),0)</f>
+        <v>20</v>
+      </c>
+      <c r="O59" s="2">
+        <f t="shared" si="6"/>
+        <v>19</v>
+      </c>
+      <c r="P59" s="2">
+        <f t="shared" si="7"/>
+        <v>20</v>
+      </c>
+      <c r="Q59" s="2">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="U59" s="21"/>
+      <c r="V59" s="21"/>
+      <c r="W59" s="21"/>
+      <c r="X59" s="2">
         <f t="shared" si="2"/>
         <v>35.72</v>
       </c>
-      <c r="V59" s="2">
-        <v>5</v>
-      </c>
-      <c r="W59" s="2">
-        <f t="shared" si="5"/>
-        <v>1.786</v>
-      </c>
-    </row>
-    <row r="60" spans="1:23">
+      <c r="Y59" s="2">
+        <v>5</v>
+      </c>
+      <c r="Z59" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:26">
       <c r="A60" s="8">
         <v>58</v>
       </c>
@@ -4809,7 +5624,9 @@
       <c r="D60" s="30">
         <v>15</v>
       </c>
-      <c r="E60" s="16"/>
+      <c r="E60" s="16">
+        <v>10</v>
+      </c>
       <c r="F60" s="16"/>
       <c r="G60" s="16">
         <v>0</v>
@@ -4822,26 +5639,36 @@
         <f t="shared" si="0"/>
         <v>28.58</v>
       </c>
-      <c r="K60" s="16">
-        <f t="shared" si="4"/>
-        <v>17</v>
-      </c>
-      <c r="R60" s="21"/>
-      <c r="S60" s="21"/>
-      <c r="T60" s="21"/>
-      <c r="U60" s="2">
+      <c r="K60" s="34" cm="1">
+        <f t="array" ref="K60">ROUNDUP(AVERAGE(LARGE(O60:Q60,{1,2})),0)</f>
+        <v>20</v>
+      </c>
+      <c r="O60" s="2">
+        <v>22</v>
+      </c>
+      <c r="P60" s="2">
+        <v>18</v>
+      </c>
+      <c r="Q60" s="2">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="U60" s="21"/>
+      <c r="V60" s="21"/>
+      <c r="W60" s="21"/>
+      <c r="X60" s="2">
         <f t="shared" si="2"/>
         <v>28.58</v>
       </c>
-      <c r="V60" s="2">
+      <c r="Y60" s="2">
         <v>4</v>
       </c>
-      <c r="W60" s="2">
-        <f t="shared" si="5"/>
-        <v>1.429</v>
-      </c>
-    </row>
-    <row r="61" spans="1:23">
+      <c r="Z60" s="2">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:26">
       <c r="A61" s="8">
         <v>59</v>
       </c>
@@ -4854,7 +5681,9 @@
       <c r="D61" s="30">
         <v>20</v>
       </c>
-      <c r="E61" s="16"/>
+      <c r="E61" s="16">
+        <v>14</v>
+      </c>
       <c r="F61" s="16"/>
       <c r="G61" s="16">
         <v>5</v>
@@ -4867,27 +5696,39 @@
         <f t="shared" si="0"/>
         <v>71.43</v>
       </c>
-      <c r="K61" s="16">
-        <f t="shared" si="4"/>
+      <c r="K61" s="34" cm="1">
+        <f t="array" ref="K61">ROUNDUP(AVERAGE(LARGE(O61:Q61,{1,2})),0)</f>
+        <v>23</v>
+      </c>
+      <c r="L61" s="16"/>
+      <c r="O61" s="2">
+        <f t="shared" si="6"/>
         <v>29</v>
       </c>
-      <c r="L61" s="16"/>
-      <c r="R61" s="21"/>
-      <c r="S61" s="21"/>
-      <c r="T61" s="21"/>
-      <c r="U61" s="2">
+      <c r="P61" s="2">
+        <f t="shared" si="7"/>
+        <v>17</v>
+      </c>
+      <c r="Q61" s="2">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="U61" s="21"/>
+      <c r="V61" s="21"/>
+      <c r="W61" s="21"/>
+      <c r="X61" s="2">
         <f t="shared" si="2"/>
         <v>71.43</v>
       </c>
-      <c r="V61" s="2">
+      <c r="Y61" s="2">
         <v>10</v>
       </c>
-      <c r="W61" s="2">
-        <f t="shared" si="5"/>
-        <v>3.5715</v>
-      </c>
-    </row>
-    <row r="62" spans="1:23">
+      <c r="Z61" s="2">
+        <f t="shared" si="9"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="62" spans="1:26">
       <c r="A62" s="8">
         <v>60</v>
       </c>
@@ -4900,7 +5741,9 @@
       <c r="D62" s="30">
         <v>11</v>
       </c>
-      <c r="E62" s="16"/>
+      <c r="E62" s="16" t="s">
+        <v>22</v>
+      </c>
       <c r="F62" s="16"/>
       <c r="G62" s="16">
         <v>0</v>
@@ -4913,27 +5756,38 @@
         <f t="shared" si="0"/>
         <v>35.72</v>
       </c>
-      <c r="K62" s="16">
-        <f t="shared" si="4"/>
-        <v>13</v>
+      <c r="K62" s="34" cm="1">
+        <f t="array" ref="K62">ROUNDUP(AVERAGE(LARGE(O62:Q62,{1,2})),0)</f>
+        <v>10</v>
       </c>
       <c r="L62" s="16"/>
-      <c r="R62" s="21"/>
-      <c r="S62" s="21"/>
-      <c r="T62" s="21"/>
-      <c r="U62" s="2">
+      <c r="O62" s="2">
+        <v>19</v>
+      </c>
+      <c r="P62" s="2">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Q62" s="2">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="U62" s="21"/>
+      <c r="V62" s="21"/>
+      <c r="W62" s="21"/>
+      <c r="X62" s="2">
         <f t="shared" si="2"/>
         <v>35.72</v>
       </c>
-      <c r="V62" s="2">
-        <v>5</v>
-      </c>
-      <c r="W62" s="2">
-        <f t="shared" si="5"/>
-        <v>1.786</v>
-      </c>
-    </row>
-    <row r="63" spans="1:23">
+      <c r="Y62" s="2">
+        <v>5</v>
+      </c>
+      <c r="Z62" s="2">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:26">
       <c r="A63" s="8">
         <v>61</v>
       </c>
@@ -4946,7 +5800,9 @@
       <c r="D63" s="30">
         <v>17</v>
       </c>
-      <c r="E63" s="16"/>
+      <c r="E63" s="16">
+        <v>12</v>
+      </c>
       <c r="F63" s="16"/>
       <c r="G63" s="16">
         <v>5</v>
@@ -4959,27 +5815,39 @@
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="K63" s="16">
-        <f t="shared" si="4"/>
+      <c r="K63" s="34" cm="1">
+        <f t="array" ref="K63">ROUNDUP(AVERAGE(LARGE(O63:Q63,{1,2})),0)</f>
+        <v>20</v>
+      </c>
+      <c r="L63" s="16"/>
+      <c r="O63" s="2">
+        <f t="shared" si="6"/>
         <v>25</v>
       </c>
-      <c r="L63" s="16"/>
-      <c r="R63" s="21"/>
-      <c r="S63" s="21"/>
-      <c r="T63" s="21"/>
-      <c r="U63" s="2">
+      <c r="P63" s="2">
+        <f t="shared" si="7"/>
+        <v>15</v>
+      </c>
+      <c r="Q63" s="2">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="U63" s="21"/>
+      <c r="V63" s="21"/>
+      <c r="W63" s="21"/>
+      <c r="X63" s="2">
         <f t="shared" si="2"/>
         <v>50</v>
       </c>
-      <c r="V63" s="2">
+      <c r="Y63" s="2">
         <v>7</v>
       </c>
-      <c r="W63" s="2">
-        <f t="shared" si="5"/>
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="64" spans="1:23">
+      <c r="Z63" s="2">
+        <f t="shared" si="9"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="64" spans="1:26">
       <c r="A64" s="8">
         <v>62</v>
       </c>
@@ -4992,7 +5860,9 @@
       <c r="D64" s="32">
         <v>24</v>
       </c>
-      <c r="E64" s="16"/>
+      <c r="E64" s="16">
+        <v>22</v>
+      </c>
       <c r="F64" s="16"/>
       <c r="G64" s="16">
         <v>5</v>
@@ -5005,40 +5875,54 @@
         <f t="shared" si="0"/>
         <v>85.72</v>
       </c>
-      <c r="K64" s="16">
-        <f t="shared" si="4"/>
+      <c r="K64" s="34" cm="1">
+        <f t="array" ref="K64">ROUNDUP(AVERAGE(LARGE(O64:Q64,{1,2})),0)</f>
+        <v>31</v>
+      </c>
+      <c r="L64" s="16"/>
+      <c r="O64" s="2">
+        <f t="shared" si="6"/>
         <v>34</v>
       </c>
-      <c r="L64" s="16"/>
-      <c r="R64" s="21"/>
-      <c r="S64" s="21"/>
-      <c r="T64" s="21"/>
-      <c r="U64" s="2">
+      <c r="P64" s="2">
+        <f t="shared" si="7"/>
+        <v>27</v>
+      </c>
+      <c r="Q64" s="2">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="U64" s="21"/>
+      <c r="V64" s="21"/>
+      <c r="W64" s="21"/>
+      <c r="X64" s="2">
         <f t="shared" si="2"/>
         <v>85.72</v>
       </c>
-      <c r="V64" s="2">
+      <c r="Y64" s="2">
         <v>12</v>
       </c>
-      <c r="W64" s="2">
-        <f t="shared" si="5"/>
-        <v>4.286</v>
-      </c>
-    </row>
-    <row r="65" spans="1:23">
+      <c r="Z64" s="2">
+        <f t="shared" si="9"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65" spans="1:26">
       <c r="A65" s="8">
         <v>63</v>
       </c>
-      <c r="B65" s="34" t="s">
+      <c r="B65" s="35" t="s">
         <v>85</v>
       </c>
-      <c r="C65" s="35">
+      <c r="C65" s="36">
         <v>230041700072</v>
       </c>
-      <c r="D65" s="34">
+      <c r="D65" s="35">
         <v>15</v>
       </c>
-      <c r="E65" s="16"/>
+      <c r="E65" s="16">
+        <v>12</v>
+      </c>
       <c r="F65" s="16"/>
       <c r="G65" s="16">
         <v>5</v>
@@ -5051,40 +5935,54 @@
         <f t="shared" si="0"/>
         <v>57.15</v>
       </c>
-      <c r="K65" s="16">
-        <f t="shared" si="4"/>
+      <c r="K65" s="34" cm="1">
+        <f t="array" ref="K65">ROUNDUP(AVERAGE(LARGE(O65:Q65,{1,2})),0)</f>
+        <v>20</v>
+      </c>
+      <c r="L65" s="16"/>
+      <c r="O65" s="2">
+        <f t="shared" si="6"/>
         <v>23</v>
       </c>
-      <c r="L65" s="16"/>
-      <c r="R65" s="21"/>
-      <c r="S65" s="21"/>
-      <c r="T65" s="21"/>
-      <c r="U65" s="2">
+      <c r="P65" s="2">
+        <f t="shared" si="7"/>
+        <v>16</v>
+      </c>
+      <c r="Q65" s="2">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="U65" s="21"/>
+      <c r="V65" s="21"/>
+      <c r="W65" s="21"/>
+      <c r="X65" s="2">
         <f t="shared" si="2"/>
         <v>57.15</v>
       </c>
-      <c r="V65" s="2">
+      <c r="Y65" s="2">
         <v>8</v>
       </c>
-      <c r="W65" s="2">
-        <f t="shared" si="5"/>
-        <v>2.8575</v>
-      </c>
-    </row>
-    <row r="66" spans="1:23">
+      <c r="Z65" s="2">
+        <f t="shared" si="9"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="66" spans="1:26">
       <c r="A66" s="8">
         <v>64</v>
       </c>
-      <c r="B66" s="34" t="s">
+      <c r="B66" s="35" t="s">
         <v>86</v>
       </c>
-      <c r="C66" s="35">
+      <c r="C66" s="36">
         <v>230041700074</v>
       </c>
-      <c r="D66" s="34">
+      <c r="D66" s="35">
         <v>29</v>
       </c>
-      <c r="E66" s="16"/>
+      <c r="E66" s="16">
+        <v>22</v>
+      </c>
       <c r="F66" s="16"/>
       <c r="G66" s="16">
         <v>5</v>
@@ -5097,40 +5995,54 @@
         <f t="shared" si="0"/>
         <v>85.72</v>
       </c>
-      <c r="K66" s="16">
-        <f t="shared" si="4"/>
+      <c r="K66" s="34" cm="1">
+        <f t="array" ref="K66">ROUNDUP(AVERAGE(LARGE(O66:Q66,{1,2})),0)</f>
+        <v>33</v>
+      </c>
+      <c r="L66" s="16"/>
+      <c r="O66" s="2">
+        <f t="shared" si="6"/>
         <v>39</v>
       </c>
-      <c r="L66" s="16"/>
-      <c r="R66" s="21"/>
-      <c r="S66" s="21"/>
-      <c r="T66" s="21"/>
-      <c r="U66" s="2">
+      <c r="P66" s="2">
+        <f t="shared" si="7"/>
+        <v>27</v>
+      </c>
+      <c r="Q66" s="2">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="U66" s="21"/>
+      <c r="V66" s="21"/>
+      <c r="W66" s="21"/>
+      <c r="X66" s="2">
         <f t="shared" si="2"/>
         <v>85.72</v>
       </c>
-      <c r="V66" s="2">
+      <c r="Y66" s="2">
         <v>12</v>
       </c>
-      <c r="W66" s="2">
-        <f t="shared" si="5"/>
-        <v>4.286</v>
-      </c>
-    </row>
-    <row r="67" spans="1:23">
+      <c r="Z66" s="2">
+        <f t="shared" si="9"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67" spans="1:26">
       <c r="A67" s="8">
         <v>65</v>
       </c>
-      <c r="B67" s="34" t="s">
+      <c r="B67" s="35" t="s">
         <v>87</v>
       </c>
-      <c r="C67" s="35">
+      <c r="C67" s="36">
         <v>230041700076</v>
       </c>
-      <c r="D67" s="34">
+      <c r="D67" s="35">
         <v>27</v>
       </c>
-      <c r="E67" s="16"/>
+      <c r="E67" s="16">
+        <v>20</v>
+      </c>
       <c r="F67" s="16"/>
       <c r="G67" s="16">
         <v>5</v>
@@ -5143,40 +6055,54 @@
         <f t="shared" si="0"/>
         <v>64.29</v>
       </c>
-      <c r="K67" s="16">
-        <f t="shared" si="4"/>
+      <c r="K67" s="34" cm="1">
+        <f t="array" ref="K67">ROUNDUP(AVERAGE(LARGE(O67:Q67,{1,2})),0)</f>
+        <v>30</v>
+      </c>
+      <c r="L67" s="16"/>
+      <c r="O67" s="2">
+        <f t="shared" si="6"/>
         <v>36</v>
       </c>
-      <c r="L67" s="16"/>
-      <c r="R67" s="21"/>
-      <c r="S67" s="21"/>
-      <c r="T67" s="21"/>
-      <c r="U67" s="2">
+      <c r="P67" s="2">
+        <f t="shared" si="7"/>
+        <v>24</v>
+      </c>
+      <c r="Q67" s="2">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="U67" s="21"/>
+      <c r="V67" s="21"/>
+      <c r="W67" s="21"/>
+      <c r="X67" s="2">
         <f t="shared" si="2"/>
         <v>64.29</v>
       </c>
-      <c r="V67" s="2">
+      <c r="Y67" s="2">
         <v>9</v>
       </c>
-      <c r="W67" s="2">
-        <f t="shared" si="5"/>
-        <v>3.2145</v>
-      </c>
-    </row>
-    <row r="68" spans="1:23">
+      <c r="Z67" s="2">
+        <f t="shared" si="9"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="68" spans="1:26">
       <c r="A68" s="8">
         <v>66</v>
       </c>
-      <c r="B68" s="34" t="s">
+      <c r="B68" s="35" t="s">
         <v>88</v>
       </c>
-      <c r="C68" s="35">
+      <c r="C68" s="36">
         <v>230041700078</v>
       </c>
-      <c r="D68" s="34">
+      <c r="D68" s="35">
         <v>13</v>
       </c>
-      <c r="E68" s="16"/>
+      <c r="E68" s="16">
+        <v>14</v>
+      </c>
       <c r="F68" s="16"/>
       <c r="G68" s="16">
         <v>5</v>
@@ -5186,30 +6112,41 @@
       </c>
       <c r="I68" s="8"/>
       <c r="J68" s="16">
-        <f t="shared" ref="J68:J98" si="6">U68</f>
+        <f t="shared" ref="J68:J98" si="10">X68</f>
         <v>50</v>
       </c>
-      <c r="K68" s="16">
-        <f t="shared" ref="K68:K98" si="7">ROUNDUP(SUM(D68)+SUM(G68)+ROUNDUP(SUM(W68),0),0)</f>
-        <v>21</v>
+      <c r="K68" s="34" cm="1">
+        <f t="array" ref="K68">ROUNDUP(AVERAGE(LARGE(O68:Q68,{1,2})),0)</f>
+        <v>20</v>
       </c>
       <c r="L68" s="16"/>
-      <c r="R68" s="21"/>
-      <c r="S68" s="21"/>
-      <c r="T68" s="21"/>
-      <c r="U68" s="2">
-        <f t="shared" ref="U68:U98" si="8">ROUNDUP((V68/14)*100,2)</f>
+      <c r="O68" s="2">
+        <f t="shared" ref="O68:O98" si="11">ROUNDUP(SUM(D68)+SUM(G68)+ROUNDUP(SUM(Z68),0),0)</f>
+        <v>22</v>
+      </c>
+      <c r="P68" s="2">
+        <f t="shared" ref="P68:P98" si="12">ROUNDUP(SUM(E68)+SUM(H68)+ROUNDUP(SUM(AA68),0),0)</f>
+        <v>17</v>
+      </c>
+      <c r="Q68" s="2">
+        <f t="shared" ref="Q68:Q98" si="13">ROUNDUP(SUM(F68)+SUM(I68)+ROUNDUP(SUM(AB68),0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="U68" s="21"/>
+      <c r="V68" s="21"/>
+      <c r="W68" s="21"/>
+      <c r="X68" s="2">
+        <f t="shared" ref="X68:X98" si="14">ROUNDUP((Y68/14)*100,2)</f>
         <v>50</v>
       </c>
-      <c r="V68" s="2">
+      <c r="Y68" s="2">
         <v>7</v>
       </c>
-      <c r="W68" s="2">
-        <f t="shared" ref="W68:W98" si="9">(U68*5/100)</f>
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="69" spans="1:23">
+      <c r="Z68" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="69" spans="1:26">
       <c r="A69" s="8">
         <v>67</v>
       </c>
@@ -5222,7 +6159,9 @@
       <c r="D69" s="32">
         <v>19</v>
       </c>
-      <c r="E69" s="16"/>
+      <c r="E69" s="16">
+        <v>21</v>
+      </c>
       <c r="F69" s="16"/>
       <c r="G69" s="16">
         <v>5</v>
@@ -5232,43 +6171,57 @@
       </c>
       <c r="I69" s="8"/>
       <c r="J69" s="16">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>92.86</v>
       </c>
-      <c r="K69" s="16">
-        <f t="shared" si="7"/>
+      <c r="K69" s="34" cm="1">
+        <f t="array" ref="K69">ROUNDUP(AVERAGE(LARGE(O69:Q69,{1,2})),0)</f>
+        <v>28</v>
+      </c>
+      <c r="L69" s="16"/>
+      <c r="O69" s="2">
+        <f t="shared" si="11"/>
         <v>29</v>
       </c>
-      <c r="L69" s="16"/>
-      <c r="R69" s="21"/>
-      <c r="S69" s="21"/>
-      <c r="T69" s="21"/>
-      <c r="U69" s="2">
-        <f t="shared" si="8"/>
+      <c r="P69" s="2">
+        <f t="shared" si="12"/>
+        <v>26</v>
+      </c>
+      <c r="Q69" s="2">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="U69" s="21"/>
+      <c r="V69" s="21"/>
+      <c r="W69" s="21"/>
+      <c r="X69" s="2">
+        <f t="shared" si="14"/>
         <v>92.86</v>
       </c>
-      <c r="V69" s="2">
+      <c r="Y69" s="2">
         <v>13</v>
       </c>
-      <c r="W69" s="2">
-        <f t="shared" si="9"/>
-        <v>4.643</v>
-      </c>
-    </row>
-    <row r="70" spans="1:23">
+      <c r="Z69" s="2">
+        <f t="shared" ref="Z68:Z98" si="15">ROUNDUP((X69*5/100),0)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="70" spans="1:26">
       <c r="A70" s="8">
         <v>68</v>
       </c>
-      <c r="B70" s="34" t="s">
+      <c r="B70" s="35" t="s">
         <v>90</v>
       </c>
-      <c r="C70" s="35">
+      <c r="C70" s="36">
         <v>230041700080</v>
       </c>
-      <c r="D70" s="34">
+      <c r="D70" s="35">
         <v>17</v>
       </c>
-      <c r="E70" s="16"/>
+      <c r="E70" s="16">
+        <v>12</v>
+      </c>
       <c r="F70" s="16"/>
       <c r="G70" s="16">
         <v>5</v>
@@ -5278,43 +6231,57 @@
       </c>
       <c r="I70" s="8"/>
       <c r="J70" s="16">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>92.86</v>
       </c>
-      <c r="K70" s="16">
-        <f t="shared" si="7"/>
+      <c r="K70" s="34" cm="1">
+        <f t="array" ref="K70">ROUNDUP(AVERAGE(LARGE(O70:Q70,{1,2})),0)</f>
+        <v>21</v>
+      </c>
+      <c r="L70" s="16"/>
+      <c r="O70" s="2">
+        <f t="shared" si="11"/>
         <v>27</v>
       </c>
-      <c r="L70" s="16"/>
-      <c r="R70" s="21"/>
-      <c r="S70" s="21"/>
-      <c r="T70" s="21"/>
-      <c r="U70" s="2">
-        <f t="shared" si="8"/>
+      <c r="P70" s="2">
+        <f t="shared" si="12"/>
+        <v>15</v>
+      </c>
+      <c r="Q70" s="2">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="U70" s="21"/>
+      <c r="V70" s="21"/>
+      <c r="W70" s="21"/>
+      <c r="X70" s="2">
+        <f t="shared" si="14"/>
         <v>92.86</v>
       </c>
-      <c r="V70" s="2">
+      <c r="Y70" s="2">
         <v>13</v>
       </c>
-      <c r="W70" s="2">
-        <f t="shared" si="9"/>
-        <v>4.643</v>
-      </c>
-    </row>
-    <row r="71" spans="1:23">
+      <c r="Z70" s="2">
+        <f t="shared" si="15"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="71" spans="1:26">
       <c r="A71" s="8">
         <v>69</v>
       </c>
-      <c r="B71" s="34" t="s">
+      <c r="B71" s="35" t="s">
         <v>91</v>
       </c>
-      <c r="C71" s="35">
+      <c r="C71" s="36">
         <v>230041700082</v>
       </c>
-      <c r="D71" s="34">
+      <c r="D71" s="35">
         <v>8</v>
       </c>
-      <c r="E71" s="16"/>
+      <c r="E71" s="16">
+        <v>15</v>
+      </c>
       <c r="F71" s="16"/>
       <c r="G71" s="16">
         <v>0</v>
@@ -5324,43 +6291,55 @@
       </c>
       <c r="I71" s="8"/>
       <c r="J71" s="16">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>42.86</v>
       </c>
-      <c r="K71" s="16">
-        <f t="shared" si="7"/>
-        <v>11</v>
+      <c r="K71" s="34" cm="1">
+        <f t="array" ref="K71">ROUNDUP(AVERAGE(LARGE(O71:Q71,{1,2})),0)</f>
+        <v>20</v>
       </c>
       <c r="L71" s="16"/>
-      <c r="R71" s="21"/>
-      <c r="S71" s="21"/>
-      <c r="T71" s="21"/>
-      <c r="U71" s="2">
-        <f t="shared" si="8"/>
+      <c r="O71" s="2">
+        <v>15</v>
+      </c>
+      <c r="P71" s="2">
+        <v>24</v>
+      </c>
+      <c r="Q71" s="2">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="U71" s="21"/>
+      <c r="V71" s="21"/>
+      <c r="W71" s="21"/>
+      <c r="X71" s="2">
+        <f t="shared" si="14"/>
         <v>42.86</v>
       </c>
-      <c r="V71" s="2">
+      <c r="Y71" s="2">
         <v>6</v>
       </c>
-      <c r="W71" s="2">
-        <f t="shared" si="9"/>
-        <v>2.143</v>
-      </c>
-    </row>
-    <row r="72" spans="1:23">
+      <c r="Z71" s="2">
+        <f t="shared" si="15"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="72" spans="1:26">
       <c r="A72" s="8">
         <v>70</v>
       </c>
-      <c r="B72" s="34" t="s">
+      <c r="B72" s="35" t="s">
         <v>92</v>
       </c>
-      <c r="C72" s="35">
+      <c r="C72" s="36">
         <v>230041700084</v>
       </c>
-      <c r="D72" s="34">
+      <c r="D72" s="35">
         <v>21</v>
       </c>
-      <c r="E72" s="16"/>
+      <c r="E72" s="16">
+        <v>22</v>
+      </c>
       <c r="F72" s="16"/>
       <c r="G72" s="16">
         <v>5</v>
@@ -5370,30 +6349,42 @@
       </c>
       <c r="I72" s="8"/>
       <c r="J72" s="16">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>92.86</v>
       </c>
-      <c r="K72" s="16">
-        <f t="shared" si="7"/>
+      <c r="K72" s="34" cm="1">
+        <f t="array" ref="K72">ROUNDUP(AVERAGE(LARGE(O72:Q72,{1,2})),0)</f>
+        <v>29</v>
+      </c>
+      <c r="L72" s="16"/>
+      <c r="O72" s="2">
+        <f t="shared" si="11"/>
         <v>31</v>
       </c>
-      <c r="L72" s="16"/>
-      <c r="R72" s="21"/>
-      <c r="S72" s="21"/>
-      <c r="T72" s="21"/>
-      <c r="U72" s="2">
-        <f t="shared" si="8"/>
+      <c r="P72" s="2">
+        <f t="shared" si="12"/>
+        <v>27</v>
+      </c>
+      <c r="Q72" s="2">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="U72" s="21"/>
+      <c r="V72" s="21"/>
+      <c r="W72" s="21"/>
+      <c r="X72" s="2">
+        <f t="shared" si="14"/>
         <v>92.86</v>
       </c>
-      <c r="V72" s="2">
+      <c r="Y72" s="2">
         <v>13</v>
       </c>
-      <c r="W72" s="2">
-        <f t="shared" si="9"/>
-        <v>4.643</v>
-      </c>
-    </row>
-    <row r="73" spans="1:23">
+      <c r="Z72" s="2">
+        <f t="shared" si="15"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73" spans="1:26">
       <c r="A73" s="8">
         <v>71</v>
       </c>
@@ -5406,7 +6397,9 @@
       <c r="D73" s="32">
         <v>23</v>
       </c>
-      <c r="E73" s="16"/>
+      <c r="E73" s="16">
+        <v>18</v>
+      </c>
       <c r="F73" s="16"/>
       <c r="G73" s="16">
         <v>5</v>
@@ -5416,43 +6409,57 @@
       </c>
       <c r="I73" s="8"/>
       <c r="J73" s="16">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>100</v>
       </c>
-      <c r="K73" s="16">
-        <f t="shared" si="7"/>
+      <c r="K73" s="34" cm="1">
+        <f t="array" ref="K73">ROUNDUP(AVERAGE(LARGE(O73:Q73,{1,2})),0)</f>
+        <v>28</v>
+      </c>
+      <c r="L73" s="16"/>
+      <c r="O73" s="2">
+        <f t="shared" si="11"/>
         <v>33</v>
       </c>
-      <c r="L73" s="16"/>
-      <c r="R73" s="21"/>
-      <c r="S73" s="21"/>
-      <c r="T73" s="21"/>
-      <c r="U73" s="2">
-        <f t="shared" si="8"/>
+      <c r="P73" s="2">
+        <f t="shared" si="12"/>
+        <v>23</v>
+      </c>
+      <c r="Q73" s="2">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="U73" s="21"/>
+      <c r="V73" s="21"/>
+      <c r="W73" s="21"/>
+      <c r="X73" s="2">
+        <f t="shared" si="14"/>
         <v>100</v>
       </c>
-      <c r="V73" s="2">
+      <c r="Y73" s="2">
         <v>14</v>
       </c>
-      <c r="W73" s="2">
-        <f t="shared" si="9"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="74" spans="1:23">
+      <c r="Z73" s="2">
+        <f t="shared" si="15"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="74" spans="1:26">
       <c r="A74" s="8">
         <v>72</v>
       </c>
-      <c r="B74" s="34" t="s">
+      <c r="B74" s="35" t="s">
         <v>94</v>
       </c>
-      <c r="C74" s="35">
+      <c r="C74" s="36">
         <v>230041700088</v>
       </c>
-      <c r="D74" s="34">
+      <c r="D74" s="35">
         <v>21</v>
       </c>
-      <c r="E74" s="16"/>
+      <c r="E74" s="16">
+        <v>21</v>
+      </c>
       <c r="F74" s="16"/>
       <c r="G74" s="16">
         <v>5</v>
@@ -5462,30 +6469,42 @@
       </c>
       <c r="I74" s="8"/>
       <c r="J74" s="16">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>92.86</v>
       </c>
-      <c r="K74" s="16">
-        <f t="shared" si="7"/>
+      <c r="K74" s="34" cm="1">
+        <f t="array" ref="K74">ROUNDUP(AVERAGE(LARGE(O74:Q74,{1,2})),0)</f>
+        <v>29</v>
+      </c>
+      <c r="L74" s="16"/>
+      <c r="O74" s="2">
+        <f t="shared" si="11"/>
         <v>31</v>
       </c>
-      <c r="L74" s="16"/>
-      <c r="R74" s="21"/>
-      <c r="S74" s="21"/>
-      <c r="T74" s="21"/>
-      <c r="U74" s="2">
-        <f t="shared" si="8"/>
+      <c r="P74" s="2">
+        <f t="shared" si="12"/>
+        <v>26</v>
+      </c>
+      <c r="Q74" s="2">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="U74" s="21"/>
+      <c r="V74" s="21"/>
+      <c r="W74" s="21"/>
+      <c r="X74" s="2">
+        <f t="shared" si="14"/>
         <v>92.86</v>
       </c>
-      <c r="V74" s="2">
+      <c r="Y74" s="2">
         <v>13</v>
       </c>
-      <c r="W74" s="2">
-        <f t="shared" si="9"/>
-        <v>4.643</v>
-      </c>
-    </row>
-    <row r="75" spans="1:23">
+      <c r="Z74" s="2">
+        <f t="shared" si="15"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="75" spans="1:26">
       <c r="A75" s="8">
         <v>73</v>
       </c>
@@ -5498,53 +6517,68 @@
       <c r="D75" s="32">
         <v>12</v>
       </c>
-      <c r="E75" s="16"/>
+      <c r="E75" s="16">
+        <v>12</v>
+      </c>
       <c r="F75" s="16"/>
       <c r="G75" s="16">
         <v>5</v>
       </c>
       <c r="H75" s="8">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I75" s="8"/>
       <c r="J75" s="16">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>71.43</v>
       </c>
-      <c r="K75" s="16">
-        <f t="shared" si="7"/>
-        <v>21</v>
+      <c r="K75" s="34" cm="1">
+        <f t="array" ref="K75">ROUNDUP(AVERAGE(LARGE(O75:Q75,{1,2})),0)</f>
+        <v>20</v>
       </c>
       <c r="L75" s="16"/>
-      <c r="R75" s="21"/>
-      <c r="S75" s="21"/>
-      <c r="T75" s="21"/>
-      <c r="U75" s="2">
-        <f t="shared" si="8"/>
+      <c r="O75" s="2">
+        <f t="shared" si="11"/>
+        <v>22</v>
+      </c>
+      <c r="P75" s="2">
+        <f t="shared" si="12"/>
+        <v>17</v>
+      </c>
+      <c r="Q75" s="2">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="U75" s="21"/>
+      <c r="V75" s="21"/>
+      <c r="W75" s="21"/>
+      <c r="X75" s="2">
+        <f t="shared" si="14"/>
         <v>71.43</v>
       </c>
-      <c r="V75" s="2">
+      <c r="Y75" s="2">
         <v>10</v>
       </c>
-      <c r="W75" s="2">
-        <f t="shared" si="9"/>
-        <v>3.5715</v>
-      </c>
-    </row>
-    <row r="76" spans="1:23">
+      <c r="Z75" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="76" spans="1:26">
       <c r="A76" s="8">
         <v>74</v>
       </c>
-      <c r="B76" s="34" t="s">
+      <c r="B76" s="35" t="s">
         <v>96</v>
       </c>
-      <c r="C76" s="35">
+      <c r="C76" s="36">
         <v>230041700094</v>
       </c>
-      <c r="D76" s="34">
+      <c r="D76" s="35">
         <v>21</v>
       </c>
-      <c r="E76" s="16"/>
+      <c r="E76" s="16">
+        <v>18</v>
+      </c>
       <c r="F76" s="16"/>
       <c r="G76" s="16">
         <v>5</v>
@@ -5554,30 +6588,42 @@
       </c>
       <c r="I76" s="8"/>
       <c r="J76" s="16">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>64.29</v>
       </c>
-      <c r="K76" s="16">
-        <f t="shared" si="7"/>
+      <c r="K76" s="34" cm="1">
+        <f t="array" ref="K76">ROUNDUP(AVERAGE(LARGE(O76:Q76,{1,2})),0)</f>
+        <v>27</v>
+      </c>
+      <c r="L76" s="16"/>
+      <c r="O76" s="2">
+        <f t="shared" si="11"/>
         <v>30</v>
       </c>
-      <c r="L76" s="16"/>
-      <c r="R76" s="21"/>
-      <c r="S76" s="21"/>
-      <c r="T76" s="21"/>
-      <c r="U76" s="2">
-        <f t="shared" si="8"/>
+      <c r="P76" s="2">
+        <f t="shared" si="12"/>
+        <v>23</v>
+      </c>
+      <c r="Q76" s="2">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="U76" s="21"/>
+      <c r="V76" s="21"/>
+      <c r="W76" s="21"/>
+      <c r="X76" s="2">
+        <f t="shared" si="14"/>
         <v>64.29</v>
       </c>
-      <c r="V76" s="2">
+      <c r="Y76" s="2">
         <v>9</v>
       </c>
-      <c r="W76" s="2">
-        <f t="shared" si="9"/>
-        <v>3.2145</v>
-      </c>
-    </row>
-    <row r="77" spans="1:23">
+      <c r="Z76" s="2">
+        <f t="shared" si="15"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="1:26">
       <c r="A77" s="8">
         <v>75</v>
       </c>
@@ -5590,7 +6636,9 @@
       <c r="D77" s="32">
         <v>20</v>
       </c>
-      <c r="E77" s="16"/>
+      <c r="E77" s="16">
+        <v>16</v>
+      </c>
       <c r="F77" s="16"/>
       <c r="G77" s="16">
         <v>5</v>
@@ -5600,43 +6648,57 @@
       </c>
       <c r="I77" s="8"/>
       <c r="J77" s="16">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>92.86</v>
       </c>
-      <c r="K77" s="16">
-        <f t="shared" si="7"/>
+      <c r="K77" s="34" cm="1">
+        <f t="array" ref="K77">ROUNDUP(AVERAGE(LARGE(O77:Q77,{1,2})),0)</f>
+        <v>26</v>
+      </c>
+      <c r="L77" s="16"/>
+      <c r="O77" s="2">
+        <f t="shared" si="11"/>
         <v>30</v>
       </c>
-      <c r="L77" s="16"/>
-      <c r="R77" s="21"/>
-      <c r="S77" s="21"/>
-      <c r="T77" s="21"/>
-      <c r="U77" s="2">
-        <f t="shared" si="8"/>
+      <c r="P77" s="2">
+        <f t="shared" si="12"/>
+        <v>21</v>
+      </c>
+      <c r="Q77" s="2">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="U77" s="21"/>
+      <c r="V77" s="21"/>
+      <c r="W77" s="21"/>
+      <c r="X77" s="2">
+        <f t="shared" si="14"/>
         <v>92.86</v>
       </c>
-      <c r="V77" s="2">
+      <c r="Y77" s="2">
         <v>13</v>
       </c>
-      <c r="W77" s="2">
-        <f t="shared" si="9"/>
-        <v>4.643</v>
-      </c>
-    </row>
-    <row r="78" spans="1:23">
+      <c r="Z77" s="2">
+        <f t="shared" si="15"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="78" spans="1:26">
       <c r="A78" s="8">
         <v>76</v>
       </c>
-      <c r="B78" s="34" t="s">
+      <c r="B78" s="35" t="s">
         <v>98</v>
       </c>
-      <c r="C78" s="35">
+      <c r="C78" s="36">
         <v>230041700098</v>
       </c>
-      <c r="D78" s="34">
+      <c r="D78" s="35">
         <v>15</v>
       </c>
-      <c r="E78" s="16"/>
+      <c r="E78" s="16">
+        <v>12</v>
+      </c>
       <c r="F78" s="16"/>
       <c r="G78" s="16">
         <v>5</v>
@@ -5646,43 +6708,57 @@
       </c>
       <c r="I78" s="8"/>
       <c r="J78" s="16">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>50</v>
       </c>
-      <c r="K78" s="16">
-        <f t="shared" si="7"/>
+      <c r="K78" s="34" cm="1">
+        <f t="array" ref="K78">ROUNDUP(AVERAGE(LARGE(O78:Q78,{1,2})),0)</f>
+        <v>20</v>
+      </c>
+      <c r="L78" s="16"/>
+      <c r="O78" s="2">
+        <f t="shared" si="11"/>
         <v>23</v>
       </c>
-      <c r="L78" s="16"/>
-      <c r="R78" s="21"/>
-      <c r="S78" s="21"/>
-      <c r="T78" s="21"/>
-      <c r="U78" s="2">
-        <f t="shared" si="8"/>
+      <c r="P78" s="2">
+        <f t="shared" si="12"/>
+        <v>17</v>
+      </c>
+      <c r="Q78" s="2">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="U78" s="21"/>
+      <c r="V78" s="21"/>
+      <c r="W78" s="21"/>
+      <c r="X78" s="2">
+        <f t="shared" si="14"/>
         <v>50</v>
       </c>
-      <c r="V78" s="2">
+      <c r="Y78" s="2">
         <v>7</v>
       </c>
-      <c r="W78" s="2">
-        <f t="shared" si="9"/>
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="79" spans="1:23">
+      <c r="Z78" s="2">
+        <f t="shared" si="15"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="79" spans="1:26">
       <c r="A79" s="8">
         <v>77</v>
       </c>
-      <c r="B79" s="34" t="s">
+      <c r="B79" s="35" t="s">
         <v>98</v>
       </c>
-      <c r="C79" s="35">
+      <c r="C79" s="36">
         <v>230041700102</v>
       </c>
-      <c r="D79" s="34">
+      <c r="D79" s="35">
         <v>7</v>
       </c>
-      <c r="E79" s="16"/>
+      <c r="E79" s="16">
+        <v>2</v>
+      </c>
       <c r="F79" s="16"/>
       <c r="G79" s="16">
         <v>5</v>
@@ -5692,43 +6768,57 @@
       </c>
       <c r="I79" s="8"/>
       <c r="J79" s="16">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>57.15</v>
       </c>
-      <c r="K79" s="16">
-        <f t="shared" si="7"/>
+      <c r="K79" s="34" cm="1">
+        <f t="array" ref="K79">ROUNDUP(AVERAGE(LARGE(O79:Q79,{1,2})),0)</f>
+        <v>10</v>
+      </c>
+      <c r="L79" s="16"/>
+      <c r="O79" s="2">
+        <f t="shared" si="11"/>
         <v>15</v>
       </c>
-      <c r="L79" s="16"/>
-      <c r="R79" s="21"/>
-      <c r="S79" s="21"/>
-      <c r="T79" s="21"/>
-      <c r="U79" s="2">
-        <f t="shared" si="8"/>
+      <c r="P79" s="2">
+        <f t="shared" si="12"/>
+        <v>5</v>
+      </c>
+      <c r="Q79" s="2">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="U79" s="21"/>
+      <c r="V79" s="21"/>
+      <c r="W79" s="21"/>
+      <c r="X79" s="2">
+        <f t="shared" si="14"/>
         <v>57.15</v>
       </c>
-      <c r="V79" s="2">
+      <c r="Y79" s="2">
         <v>8</v>
       </c>
-      <c r="W79" s="2">
-        <f t="shared" si="9"/>
-        <v>2.8575</v>
-      </c>
-    </row>
-    <row r="80" spans="1:23">
+      <c r="Z79" s="2">
+        <f t="shared" si="15"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="80" spans="1:26">
       <c r="A80" s="8">
         <v>78</v>
       </c>
-      <c r="B80" s="34" t="s">
+      <c r="B80" s="35" t="s">
         <v>99</v>
       </c>
-      <c r="C80" s="35">
+      <c r="C80" s="36">
         <v>230041700104</v>
       </c>
-      <c r="D80" s="34">
+      <c r="D80" s="35">
         <v>20</v>
       </c>
-      <c r="E80" s="16"/>
+      <c r="E80" s="16">
+        <v>21</v>
+      </c>
       <c r="F80" s="16"/>
       <c r="G80" s="16">
         <v>5</v>
@@ -5738,30 +6828,42 @@
       </c>
       <c r="I80" s="8"/>
       <c r="J80" s="16">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>92.86</v>
       </c>
-      <c r="K80" s="16">
-        <f t="shared" si="7"/>
+      <c r="K80" s="34" cm="1">
+        <f t="array" ref="K80">ROUNDUP(AVERAGE(LARGE(O80:Q80,{1,2})),0)</f>
+        <v>28</v>
+      </c>
+      <c r="L80" s="16"/>
+      <c r="O80" s="2">
+        <f t="shared" si="11"/>
         <v>30</v>
       </c>
-      <c r="L80" s="16"/>
-      <c r="R80" s="21"/>
-      <c r="S80" s="21"/>
-      <c r="T80" s="21"/>
-      <c r="U80" s="2">
-        <f t="shared" si="8"/>
+      <c r="P80" s="2">
+        <f t="shared" si="12"/>
+        <v>26</v>
+      </c>
+      <c r="Q80" s="2">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="U80" s="21"/>
+      <c r="V80" s="21"/>
+      <c r="W80" s="21"/>
+      <c r="X80" s="2">
+        <f t="shared" si="14"/>
         <v>92.86</v>
       </c>
-      <c r="V80" s="2">
+      <c r="Y80" s="2">
         <v>13</v>
       </c>
-      <c r="W80" s="2">
-        <f t="shared" si="9"/>
-        <v>4.643</v>
-      </c>
-    </row>
-    <row r="81" spans="1:23">
+      <c r="Z80" s="2">
+        <f t="shared" si="15"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="81" spans="1:26">
       <c r="A81" s="8">
         <v>79</v>
       </c>
@@ -5774,7 +6876,9 @@
       <c r="D81" s="32">
         <v>18</v>
       </c>
-      <c r="E81" s="16"/>
+      <c r="E81" s="16">
+        <v>18</v>
+      </c>
       <c r="F81" s="16"/>
       <c r="G81" s="16">
         <v>5</v>
@@ -5784,43 +6888,57 @@
       </c>
       <c r="I81" s="8"/>
       <c r="J81" s="16">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>100</v>
       </c>
-      <c r="K81" s="16">
-        <f t="shared" si="7"/>
+      <c r="K81" s="34" cm="1">
+        <f t="array" ref="K81">ROUNDUP(AVERAGE(LARGE(O81:Q81,{1,2})),0)</f>
+        <v>26</v>
+      </c>
+      <c r="L81" s="16"/>
+      <c r="O81" s="2">
+        <f t="shared" si="11"/>
         <v>28</v>
       </c>
-      <c r="L81" s="16"/>
-      <c r="R81" s="21"/>
-      <c r="S81" s="21"/>
-      <c r="T81" s="21"/>
-      <c r="U81" s="2">
-        <f t="shared" si="8"/>
+      <c r="P81" s="2">
+        <f t="shared" si="12"/>
+        <v>23</v>
+      </c>
+      <c r="Q81" s="2">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="U81" s="21"/>
+      <c r="V81" s="21"/>
+      <c r="W81" s="21"/>
+      <c r="X81" s="2">
+        <f t="shared" si="14"/>
         <v>100</v>
       </c>
-      <c r="V81" s="2">
+      <c r="Y81" s="2">
         <v>14</v>
       </c>
-      <c r="W81" s="2">
-        <f t="shared" si="9"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="82" spans="1:23">
+      <c r="Z81" s="2">
+        <f t="shared" si="15"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="82" spans="1:26">
       <c r="A82" s="8">
         <v>80</v>
       </c>
-      <c r="B82" s="34" t="s">
+      <c r="B82" s="35" t="s">
         <v>101</v>
       </c>
-      <c r="C82" s="35">
+      <c r="C82" s="36">
         <v>230041700108</v>
       </c>
-      <c r="D82" s="34">
+      <c r="D82" s="35">
         <v>25</v>
       </c>
-      <c r="E82" s="16"/>
+      <c r="E82" s="16">
+        <v>24</v>
+      </c>
       <c r="F82" s="16"/>
       <c r="G82" s="16">
         <v>5</v>
@@ -5830,43 +6948,57 @@
       </c>
       <c r="I82" s="8"/>
       <c r="J82" s="16">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>78.58</v>
       </c>
-      <c r="K82" s="16">
-        <f t="shared" si="7"/>
+      <c r="K82" s="34" cm="1">
+        <f t="array" ref="K82">ROUNDUP(AVERAGE(LARGE(O82:Q82,{1,2})),0)</f>
+        <v>29</v>
+      </c>
+      <c r="L82" s="16"/>
+      <c r="O82" s="2">
+        <f t="shared" si="11"/>
         <v>34</v>
       </c>
-      <c r="L82" s="16"/>
-      <c r="R82" s="21"/>
-      <c r="S82" s="21"/>
-      <c r="T82" s="21"/>
-      <c r="U82" s="2">
-        <f t="shared" si="8"/>
+      <c r="P82" s="2">
+        <f t="shared" si="12"/>
+        <v>24</v>
+      </c>
+      <c r="Q82" s="2">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="U82" s="21"/>
+      <c r="V82" s="21"/>
+      <c r="W82" s="21"/>
+      <c r="X82" s="2">
+        <f t="shared" si="14"/>
         <v>78.58</v>
       </c>
-      <c r="V82" s="2">
+      <c r="Y82" s="2">
         <v>11</v>
       </c>
-      <c r="W82" s="2">
-        <f t="shared" si="9"/>
-        <v>3.929</v>
-      </c>
-    </row>
-    <row r="83" spans="1:23">
+      <c r="Z82" s="2">
+        <f t="shared" si="15"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="83" spans="1:26">
       <c r="A83" s="8">
         <v>81</v>
       </c>
-      <c r="B83" s="34" t="s">
+      <c r="B83" s="35" t="s">
         <v>102</v>
       </c>
-      <c r="C83" s="35">
+      <c r="C83" s="36">
         <v>230041700110</v>
       </c>
-      <c r="D83" s="34">
+      <c r="D83" s="35">
         <v>14</v>
       </c>
-      <c r="E83" s="16"/>
+      <c r="E83" s="16">
+        <v>16</v>
+      </c>
       <c r="F83" s="16"/>
       <c r="G83" s="16">
         <v>5</v>
@@ -5876,30 +7008,42 @@
       </c>
       <c r="I83" s="8"/>
       <c r="J83" s="16">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>92.86</v>
       </c>
-      <c r="K83" s="16">
-        <f t="shared" si="7"/>
+      <c r="K83" s="34" cm="1">
+        <f t="array" ref="K83">ROUNDUP(AVERAGE(LARGE(O83:Q83,{1,2})),0)</f>
+        <v>22</v>
+      </c>
+      <c r="L83" s="16"/>
+      <c r="O83" s="2">
+        <f t="shared" si="11"/>
         <v>24</v>
       </c>
-      <c r="L83" s="16"/>
-      <c r="R83" s="21"/>
-      <c r="S83" s="21"/>
-      <c r="T83" s="21"/>
-      <c r="U83" s="2">
-        <f t="shared" si="8"/>
+      <c r="P83" s="2">
+        <f t="shared" si="12"/>
+        <v>19</v>
+      </c>
+      <c r="Q83" s="2">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="U83" s="21"/>
+      <c r="V83" s="21"/>
+      <c r="W83" s="21"/>
+      <c r="X83" s="2">
+        <f t="shared" si="14"/>
         <v>92.86</v>
       </c>
-      <c r="V83" s="2">
+      <c r="Y83" s="2">
         <v>13</v>
       </c>
-      <c r="W83" s="2">
-        <f t="shared" si="9"/>
-        <v>4.643</v>
-      </c>
-    </row>
-    <row r="84" spans="1:23">
+      <c r="Z83" s="2">
+        <f t="shared" si="15"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84" spans="1:26">
       <c r="A84" s="8">
         <v>82</v>
       </c>
@@ -5912,7 +7056,9 @@
       <c r="D84" s="32">
         <v>21</v>
       </c>
-      <c r="E84" s="16"/>
+      <c r="E84" s="16">
+        <v>21</v>
+      </c>
       <c r="F84" s="16"/>
       <c r="G84" s="16">
         <v>5</v>
@@ -5922,43 +7068,57 @@
       </c>
       <c r="I84" s="8"/>
       <c r="J84" s="16">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>71.43</v>
       </c>
-      <c r="K84" s="16">
-        <f t="shared" si="7"/>
+      <c r="K84" s="34" cm="1">
+        <f t="array" ref="K84">ROUNDUP(AVERAGE(LARGE(O84:Q84,{1,2})),0)</f>
+        <v>28</v>
+      </c>
+      <c r="L84" s="16"/>
+      <c r="O84" s="2">
+        <f t="shared" si="11"/>
         <v>30</v>
       </c>
-      <c r="L84" s="16"/>
-      <c r="R84" s="21"/>
-      <c r="S84" s="21"/>
-      <c r="T84" s="21"/>
-      <c r="U84" s="2">
-        <f t="shared" si="8"/>
+      <c r="P84" s="2">
+        <f t="shared" si="12"/>
+        <v>26</v>
+      </c>
+      <c r="Q84" s="2">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="U84" s="21"/>
+      <c r="V84" s="21"/>
+      <c r="W84" s="21"/>
+      <c r="X84" s="2">
+        <f t="shared" si="14"/>
         <v>71.43</v>
       </c>
-      <c r="V84" s="2">
+      <c r="Y84" s="2">
         <v>10</v>
       </c>
-      <c r="W84" s="2">
-        <f t="shared" si="9"/>
-        <v>3.5715</v>
-      </c>
-    </row>
-    <row r="85" spans="1:23">
+      <c r="Z84" s="2">
+        <f t="shared" si="15"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="85" spans="1:26">
       <c r="A85" s="8">
         <v>83</v>
       </c>
-      <c r="B85" s="34" t="s">
+      <c r="B85" s="35" t="s">
         <v>104</v>
       </c>
-      <c r="C85" s="35">
+      <c r="C85" s="36">
         <v>230041700112</v>
       </c>
-      <c r="D85" s="34" t="s">
+      <c r="D85" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="E85" s="16"/>
+      <c r="E85" s="16" t="s">
+        <v>22</v>
+      </c>
       <c r="F85" s="16"/>
       <c r="G85" s="16">
         <v>0</v>
@@ -5968,43 +7128,57 @@
       </c>
       <c r="I85" s="8"/>
       <c r="J85" s="16">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="K85" s="16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="K85" s="34" cm="1">
+        <f t="array" ref="K85">ROUNDUP(AVERAGE(LARGE(O85:Q85,{1,2})),0)</f>
         <v>0</v>
       </c>
       <c r="L85" s="16"/>
-      <c r="R85" s="21"/>
-      <c r="S85" s="21"/>
-      <c r="T85" s="21"/>
-      <c r="U85" s="2">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="V85" s="2">
-        <v>0</v>
-      </c>
-      <c r="W85" s="2">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="1:23">
+      <c r="O85" s="2">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="P85" s="2">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="Q85" s="2">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="U85" s="21"/>
+      <c r="V85" s="21"/>
+      <c r="W85" s="21"/>
+      <c r="X85" s="2">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="Y85" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z85" s="2">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:26">
       <c r="A86" s="8">
         <v>84</v>
       </c>
-      <c r="B86" s="34" t="s">
+      <c r="B86" s="35" t="s">
         <v>105</v>
       </c>
-      <c r="C86" s="35">
+      <c r="C86" s="36">
         <v>230041700116</v>
       </c>
-      <c r="D86" s="34">
+      <c r="D86" s="35">
         <v>12</v>
       </c>
-      <c r="E86" s="16"/>
+      <c r="E86" s="16">
+        <v>18</v>
+      </c>
       <c r="F86" s="16"/>
       <c r="G86" s="16">
         <v>5</v>
@@ -6014,30 +7188,42 @@
       </c>
       <c r="I86" s="8"/>
       <c r="J86" s="16">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>57.15</v>
       </c>
-      <c r="K86" s="16">
-        <f t="shared" si="7"/>
+      <c r="K86" s="34" cm="1">
+        <f t="array" ref="K86">ROUNDUP(AVERAGE(LARGE(O86:Q86,{1,2})),0)</f>
+        <v>21</v>
+      </c>
+      <c r="L86" s="16"/>
+      <c r="O86" s="2">
+        <f t="shared" si="11"/>
         <v>20</v>
       </c>
-      <c r="L86" s="16"/>
-      <c r="R86" s="21"/>
-      <c r="S86" s="21"/>
-      <c r="T86" s="21"/>
-      <c r="U86" s="2">
-        <f t="shared" si="8"/>
+      <c r="P86" s="2">
+        <f t="shared" si="12"/>
+        <v>21</v>
+      </c>
+      <c r="Q86" s="2">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="U86" s="21"/>
+      <c r="V86" s="21"/>
+      <c r="W86" s="21"/>
+      <c r="X86" s="2">
+        <f t="shared" si="14"/>
         <v>57.15</v>
       </c>
-      <c r="V86" s="2">
+      <c r="Y86" s="2">
         <v>8</v>
       </c>
-      <c r="W86" s="2">
-        <f t="shared" si="9"/>
-        <v>2.8575</v>
-      </c>
-    </row>
-    <row r="87" spans="1:23">
+      <c r="Z86" s="2">
+        <f t="shared" si="15"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="87" spans="1:26">
       <c r="A87" s="8">
         <v>85</v>
       </c>
@@ -6050,7 +7236,9 @@
       <c r="D87" s="32">
         <v>12</v>
       </c>
-      <c r="E87" s="16"/>
+      <c r="E87" s="16">
+        <v>15</v>
+      </c>
       <c r="F87" s="16"/>
       <c r="G87" s="16">
         <v>5</v>
@@ -6060,43 +7248,57 @@
       </c>
       <c r="I87" s="8"/>
       <c r="J87" s="16">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>57.15</v>
       </c>
-      <c r="K87" s="16">
-        <f t="shared" si="7"/>
+      <c r="K87" s="34" cm="1">
+        <f t="array" ref="K87">ROUNDUP(AVERAGE(LARGE(O87:Q87,{1,2})),0)</f>
         <v>20</v>
       </c>
       <c r="L87" s="16"/>
-      <c r="R87" s="21"/>
-      <c r="S87" s="21"/>
-      <c r="T87" s="21"/>
-      <c r="U87" s="2">
-        <f t="shared" si="8"/>
+      <c r="O87" s="2">
+        <f t="shared" si="11"/>
+        <v>20</v>
+      </c>
+      <c r="P87" s="2">
+        <f t="shared" si="12"/>
+        <v>20</v>
+      </c>
+      <c r="Q87" s="2">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="U87" s="21"/>
+      <c r="V87" s="21"/>
+      <c r="W87" s="21"/>
+      <c r="X87" s="2">
+        <f t="shared" si="14"/>
         <v>57.15</v>
       </c>
-      <c r="V87" s="2">
+      <c r="Y87" s="2">
         <v>8</v>
       </c>
-      <c r="W87" s="2">
-        <f t="shared" si="9"/>
-        <v>2.8575</v>
-      </c>
-    </row>
-    <row r="88" spans="1:23">
+      <c r="Z87" s="2">
+        <f t="shared" si="15"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="88" spans="1:26">
       <c r="A88" s="8">
         <v>86</v>
       </c>
-      <c r="B88" s="34" t="s">
+      <c r="B88" s="35" t="s">
         <v>107</v>
       </c>
-      <c r="C88" s="35">
+      <c r="C88" s="36">
         <v>230041700118</v>
       </c>
-      <c r="D88" s="34">
+      <c r="D88" s="35">
         <v>15</v>
       </c>
-      <c r="E88" s="16"/>
+      <c r="E88" s="16">
+        <v>19</v>
+      </c>
       <c r="F88" s="16"/>
       <c r="G88" s="16">
         <v>5</v>
@@ -6106,30 +7308,42 @@
       </c>
       <c r="I88" s="8"/>
       <c r="J88" s="16">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>64.29</v>
       </c>
-      <c r="K88" s="16">
-        <f t="shared" si="7"/>
+      <c r="K88" s="34" cm="1">
+        <f t="array" ref="K88">ROUNDUP(AVERAGE(LARGE(O88:Q88,{1,2})),0)</f>
         <v>24</v>
       </c>
       <c r="L88" s="16"/>
-      <c r="R88" s="21"/>
-      <c r="S88" s="21"/>
-      <c r="T88" s="21"/>
-      <c r="U88" s="2">
-        <f t="shared" si="8"/>
+      <c r="O88" s="2">
+        <f t="shared" si="11"/>
+        <v>24</v>
+      </c>
+      <c r="P88" s="2">
+        <f t="shared" si="12"/>
+        <v>24</v>
+      </c>
+      <c r="Q88" s="2">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="U88" s="21"/>
+      <c r="V88" s="21"/>
+      <c r="W88" s="21"/>
+      <c r="X88" s="2">
+        <f t="shared" si="14"/>
         <v>64.29</v>
       </c>
-      <c r="V88" s="2">
+      <c r="Y88" s="2">
         <v>9</v>
       </c>
-      <c r="W88" s="2">
-        <f t="shared" si="9"/>
-        <v>3.2145</v>
-      </c>
-    </row>
-    <row r="89" spans="1:23">
+      <c r="Z88" s="2">
+        <f t="shared" si="15"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="89" spans="1:26">
       <c r="A89" s="8">
         <v>87</v>
       </c>
@@ -6142,7 +7356,9 @@
       <c r="D89" s="32">
         <v>6</v>
       </c>
-      <c r="E89" s="16"/>
+      <c r="E89" s="16">
+        <v>12</v>
+      </c>
       <c r="F89" s="16"/>
       <c r="G89" s="16">
         <v>0</v>
@@ -6152,43 +7368,55 @@
       </c>
       <c r="I89" s="8"/>
       <c r="J89" s="16">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>7.15</v>
       </c>
-      <c r="K89" s="16">
-        <f t="shared" si="7"/>
-        <v>7</v>
+      <c r="K89" s="34" cm="1">
+        <f t="array" ref="K89">ROUNDUP(AVERAGE(LARGE(O89:Q89,{1,2})),0)</f>
+        <v>18</v>
       </c>
       <c r="L89" s="16"/>
-      <c r="R89" s="21"/>
-      <c r="S89" s="21"/>
-      <c r="T89" s="21"/>
-      <c r="U89" s="2">
-        <f t="shared" si="8"/>
+      <c r="O89" s="2">
+        <v>15</v>
+      </c>
+      <c r="P89" s="2">
+        <v>21</v>
+      </c>
+      <c r="Q89" s="2">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="U89" s="21"/>
+      <c r="V89" s="21"/>
+      <c r="W89" s="21"/>
+      <c r="X89" s="2">
+        <f t="shared" si="14"/>
         <v>7.15</v>
       </c>
-      <c r="V89" s="2">
+      <c r="Y89" s="2">
         <v>1</v>
       </c>
-      <c r="W89" s="2">
-        <f t="shared" si="9"/>
-        <v>0.3575</v>
-      </c>
-    </row>
-    <row r="90" spans="1:23">
+      <c r="Z89" s="2">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:26">
       <c r="A90" s="8">
         <v>88</v>
       </c>
-      <c r="B90" s="34" t="s">
+      <c r="B90" s="35" t="s">
         <v>109</v>
       </c>
-      <c r="C90" s="35">
+      <c r="C90" s="36">
         <v>230041700126</v>
       </c>
-      <c r="D90" s="34">
+      <c r="D90" s="35">
         <v>16</v>
       </c>
-      <c r="E90" s="16"/>
+      <c r="E90" s="16">
+        <v>20</v>
+      </c>
       <c r="F90" s="16"/>
       <c r="G90" s="16">
         <v>0</v>
@@ -6198,30 +7426,42 @@
       </c>
       <c r="I90" s="8"/>
       <c r="J90" s="16">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>50</v>
       </c>
-      <c r="K90" s="16">
-        <f t="shared" si="7"/>
+      <c r="K90" s="34" cm="1">
+        <f t="array" ref="K90">ROUNDUP(AVERAGE(LARGE(O90:Q90,{1,2})),0)</f>
+        <v>20</v>
+      </c>
+      <c r="L90" s="16"/>
+      <c r="O90" s="2">
+        <f t="shared" si="11"/>
         <v>19</v>
       </c>
-      <c r="L90" s="16"/>
-      <c r="R90" s="21"/>
-      <c r="S90" s="21"/>
-      <c r="T90" s="21"/>
-      <c r="U90" s="2">
-        <f t="shared" si="8"/>
+      <c r="P90" s="2">
+        <f t="shared" si="12"/>
+        <v>20</v>
+      </c>
+      <c r="Q90" s="2">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="U90" s="21"/>
+      <c r="V90" s="21"/>
+      <c r="W90" s="21"/>
+      <c r="X90" s="2">
+        <f t="shared" si="14"/>
         <v>50</v>
       </c>
-      <c r="V90" s="2">
+      <c r="Y90" s="2">
         <v>7</v>
       </c>
-      <c r="W90" s="2">
-        <f t="shared" si="9"/>
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="91" spans="1:23">
+      <c r="Z90" s="2">
+        <f t="shared" si="15"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="91" spans="1:26">
       <c r="A91" s="8">
         <v>89</v>
       </c>
@@ -6234,7 +7474,9 @@
       <c r="D91" s="32">
         <v>24</v>
       </c>
-      <c r="E91" s="16"/>
+      <c r="E91" s="16">
+        <v>16</v>
+      </c>
       <c r="F91" s="16"/>
       <c r="G91" s="16">
         <v>5</v>
@@ -6244,30 +7486,42 @@
       </c>
       <c r="I91" s="8"/>
       <c r="J91" s="16">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>92.86</v>
       </c>
-      <c r="K91" s="16">
-        <f t="shared" si="7"/>
+      <c r="K91" s="34" cm="1">
+        <f t="array" ref="K91">ROUNDUP(AVERAGE(LARGE(O91:Q91,{1,2})),0)</f>
+        <v>28</v>
+      </c>
+      <c r="L91" s="16"/>
+      <c r="O91" s="2">
+        <f t="shared" si="11"/>
         <v>34</v>
       </c>
-      <c r="L91" s="16"/>
-      <c r="R91" s="21"/>
-      <c r="S91" s="21"/>
-      <c r="T91" s="21"/>
-      <c r="U91" s="2">
-        <f t="shared" si="8"/>
+      <c r="P91" s="2">
+        <f t="shared" si="12"/>
+        <v>21</v>
+      </c>
+      <c r="Q91" s="2">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="U91" s="21"/>
+      <c r="V91" s="21"/>
+      <c r="W91" s="21"/>
+      <c r="X91" s="2">
+        <f t="shared" si="14"/>
         <v>92.86</v>
       </c>
-      <c r="V91" s="2">
+      <c r="Y91" s="2">
         <v>13</v>
       </c>
-      <c r="W91" s="2">
-        <f t="shared" si="9"/>
-        <v>4.643</v>
-      </c>
-    </row>
-    <row r="92" spans="1:23">
+      <c r="Z91" s="2">
+        <f t="shared" si="15"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92" spans="1:26">
       <c r="A92" s="8">
         <v>90</v>
       </c>
@@ -6280,53 +7534,69 @@
       <c r="D92" s="32">
         <v>15</v>
       </c>
-      <c r="E92" s="16"/>
+      <c r="E92" s="16">
+        <v>15</v>
+      </c>
       <c r="F92" s="16"/>
       <c r="G92" s="16">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H92" s="8">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I92" s="8"/>
       <c r="J92" s="16">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>42.86</v>
       </c>
-      <c r="K92" s="16">
-        <f t="shared" si="7"/>
+      <c r="K92" s="34" cm="1">
+        <f t="array" ref="K92">ROUNDUP(AVERAGE(LARGE(O92:Q92,{1,2})),0)</f>
+        <v>20</v>
+      </c>
+      <c r="L92" s="16"/>
+      <c r="O92" s="2">
+        <f t="shared" si="11"/>
+        <v>21</v>
+      </c>
+      <c r="P92" s="2">
+        <f t="shared" si="12"/>
         <v>18</v>
       </c>
-      <c r="L92" s="16"/>
-      <c r="R92" s="21"/>
-      <c r="S92" s="21"/>
-      <c r="T92" s="21"/>
-      <c r="U92" s="2">
-        <f t="shared" si="8"/>
+      <c r="Q92" s="2">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="U92" s="21"/>
+      <c r="V92" s="21"/>
+      <c r="W92" s="21"/>
+      <c r="X92" s="2">
+        <f t="shared" si="14"/>
         <v>42.86</v>
       </c>
-      <c r="V92" s="2">
+      <c r="Y92" s="2">
         <v>6</v>
       </c>
-      <c r="W92" s="2">
-        <f t="shared" si="9"/>
-        <v>2.143</v>
-      </c>
-    </row>
-    <row r="93" spans="1:23">
+      <c r="Z92" s="2">
+        <f t="shared" si="15"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="93" spans="1:26">
       <c r="A93" s="8">
         <v>91</v>
       </c>
-      <c r="B93" s="34" t="s">
+      <c r="B93" s="35" t="s">
         <v>111</v>
       </c>
-      <c r="C93" s="35">
+      <c r="C93" s="36">
         <v>230041700136</v>
       </c>
-      <c r="D93" s="34">
+      <c r="D93" s="35">
         <v>6</v>
       </c>
-      <c r="E93" s="16"/>
+      <c r="E93" s="16" t="s">
+        <v>22</v>
+      </c>
       <c r="F93" s="16"/>
       <c r="G93" s="16">
         <v>5</v>
@@ -6336,43 +7606,57 @@
       </c>
       <c r="I93" s="8"/>
       <c r="J93" s="16">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>57.15</v>
       </c>
-      <c r="K93" s="16">
-        <f t="shared" si="7"/>
+      <c r="K93" s="34" cm="1">
+        <f t="array" ref="K93">ROUNDUP(AVERAGE(LARGE(O93:Q93,{1,2})),0)</f>
+        <v>7</v>
+      </c>
+      <c r="L93" s="16"/>
+      <c r="O93" s="2">
+        <f t="shared" si="11"/>
         <v>14</v>
       </c>
-      <c r="L93" s="16"/>
-      <c r="R93" s="21"/>
-      <c r="S93" s="21"/>
-      <c r="T93" s="21"/>
-      <c r="U93" s="2">
-        <f t="shared" si="8"/>
+      <c r="P93" s="2">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="Q93" s="2">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="U93" s="21"/>
+      <c r="V93" s="21"/>
+      <c r="W93" s="21"/>
+      <c r="X93" s="2">
+        <f t="shared" si="14"/>
         <v>57.15</v>
       </c>
-      <c r="V93" s="2">
+      <c r="Y93" s="2">
         <v>8</v>
       </c>
-      <c r="W93" s="2">
-        <f t="shared" si="9"/>
-        <v>2.8575</v>
-      </c>
-    </row>
-    <row r="94" spans="1:23">
+      <c r="Z93" s="2">
+        <f t="shared" si="15"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="94" spans="1:26">
       <c r="A94" s="8">
         <v>92</v>
       </c>
-      <c r="B94" s="36" t="s">
+      <c r="B94" s="37" t="s">
         <v>90</v>
       </c>
-      <c r="C94" s="37">
+      <c r="C94" s="38">
         <v>230041724015</v>
       </c>
-      <c r="D94" s="36">
+      <c r="D94" s="37">
         <v>28</v>
       </c>
-      <c r="E94" s="16"/>
+      <c r="E94" s="16">
+        <v>23</v>
+      </c>
       <c r="F94" s="16"/>
       <c r="G94" s="16">
         <v>5</v>
@@ -6382,43 +7666,57 @@
       </c>
       <c r="I94" s="8"/>
       <c r="J94" s="16">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>92.86</v>
       </c>
-      <c r="K94" s="16">
-        <f t="shared" si="7"/>
+      <c r="K94" s="34" cm="1">
+        <f t="array" ref="K94">ROUNDUP(AVERAGE(LARGE(O94:Q94,{1,2})),0)</f>
+        <v>33</v>
+      </c>
+      <c r="L94" s="16"/>
+      <c r="O94" s="2">
+        <f t="shared" si="11"/>
         <v>38</v>
       </c>
-      <c r="L94" s="16"/>
-      <c r="R94" s="21"/>
-      <c r="S94" s="21"/>
-      <c r="T94" s="21"/>
-      <c r="U94" s="2">
-        <f t="shared" si="8"/>
+      <c r="P94" s="2">
+        <f t="shared" si="12"/>
+        <v>28</v>
+      </c>
+      <c r="Q94" s="2">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="U94" s="21"/>
+      <c r="V94" s="21"/>
+      <c r="W94" s="21"/>
+      <c r="X94" s="2">
+        <f t="shared" si="14"/>
         <v>92.86</v>
       </c>
-      <c r="V94" s="2">
+      <c r="Y94" s="2">
         <v>13</v>
       </c>
-      <c r="W94" s="2">
-        <f t="shared" si="9"/>
-        <v>4.643</v>
-      </c>
-    </row>
-    <row r="95" spans="1:23">
+      <c r="Z94" s="2">
+        <f t="shared" si="15"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="95" spans="1:26">
       <c r="A95" s="8">
         <v>93</v>
       </c>
-      <c r="B95" s="36" t="s">
+      <c r="B95" s="37" t="s">
         <v>112</v>
       </c>
-      <c r="C95" s="37">
+      <c r="C95" s="38">
         <v>230041724016</v>
       </c>
-      <c r="D95" s="36">
+      <c r="D95" s="37">
         <v>27</v>
       </c>
-      <c r="E95" s="16"/>
+      <c r="E95" s="16">
+        <v>30</v>
+      </c>
       <c r="F95" s="16"/>
       <c r="G95" s="16">
         <v>5</v>
@@ -6428,43 +7726,57 @@
       </c>
       <c r="I95" s="8"/>
       <c r="J95" s="16">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>100</v>
       </c>
-      <c r="K95" s="16">
-        <f t="shared" si="7"/>
+      <c r="K95" s="34" cm="1">
+        <f t="array" ref="K95">ROUNDUP(AVERAGE(LARGE(O95:Q95,{1,2})),0)</f>
+        <v>36</v>
+      </c>
+      <c r="L95" s="16"/>
+      <c r="O95" s="2">
+        <f t="shared" si="11"/>
         <v>37</v>
       </c>
-      <c r="L95" s="16"/>
-      <c r="R95" s="21"/>
-      <c r="S95" s="21"/>
-      <c r="T95" s="21"/>
-      <c r="U95" s="2">
-        <f t="shared" si="8"/>
+      <c r="P95" s="2">
+        <f t="shared" si="12"/>
+        <v>35</v>
+      </c>
+      <c r="Q95" s="2">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="U95" s="21"/>
+      <c r="V95" s="21"/>
+      <c r="W95" s="21"/>
+      <c r="X95" s="2">
+        <f t="shared" si="14"/>
         <v>100</v>
       </c>
-      <c r="V95" s="2">
+      <c r="Y95" s="2">
         <v>14</v>
       </c>
-      <c r="W95" s="2">
-        <f t="shared" si="9"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="96" spans="1:23">
+      <c r="Z95" s="2">
+        <f t="shared" si="15"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="96" spans="1:26">
       <c r="A96" s="8">
         <v>94</v>
       </c>
-      <c r="B96" s="36" t="s">
+      <c r="B96" s="37" t="s">
         <v>91</v>
       </c>
-      <c r="C96" s="37">
+      <c r="C96" s="38">
         <v>230041724017</v>
       </c>
-      <c r="D96" s="36">
+      <c r="D96" s="37">
         <v>27</v>
       </c>
-      <c r="E96" s="16"/>
+      <c r="E96" s="16">
+        <v>25</v>
+      </c>
       <c r="F96" s="16"/>
       <c r="G96" s="16">
         <v>5</v>
@@ -6474,43 +7786,57 @@
       </c>
       <c r="I96" s="8"/>
       <c r="J96" s="16">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>64.29</v>
       </c>
-      <c r="K96" s="16">
-        <f t="shared" si="7"/>
+      <c r="K96" s="34" cm="1">
+        <f t="array" ref="K96">ROUNDUP(AVERAGE(LARGE(O96:Q96,{1,2})),0)</f>
+        <v>32</v>
+      </c>
+      <c r="L96" s="16"/>
+      <c r="O96" s="2">
+        <f t="shared" si="11"/>
         <v>36</v>
       </c>
-      <c r="L96" s="16"/>
-      <c r="R96" s="21"/>
-      <c r="S96" s="21"/>
-      <c r="T96" s="21"/>
-      <c r="U96" s="2">
-        <f t="shared" si="8"/>
+      <c r="P96" s="2">
+        <f t="shared" si="12"/>
+        <v>28</v>
+      </c>
+      <c r="Q96" s="2">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="U96" s="21"/>
+      <c r="V96" s="21"/>
+      <c r="W96" s="21"/>
+      <c r="X96" s="2">
+        <f t="shared" si="14"/>
         <v>64.29</v>
       </c>
-      <c r="V96" s="2">
+      <c r="Y96" s="2">
         <v>9</v>
       </c>
-      <c r="W96" s="2">
-        <f t="shared" si="9"/>
-        <v>3.2145</v>
-      </c>
-    </row>
-    <row r="97" spans="1:23">
+      <c r="Z96" s="2">
+        <f t="shared" si="15"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="97" spans="1:26">
       <c r="A97" s="8">
         <v>95</v>
       </c>
-      <c r="B97" s="36" t="s">
+      <c r="B97" s="37" t="s">
         <v>113</v>
       </c>
-      <c r="C97" s="37">
+      <c r="C97" s="38">
         <v>230041724025</v>
       </c>
-      <c r="D97" s="36">
+      <c r="D97" s="37">
         <v>22</v>
       </c>
-      <c r="E97" s="16"/>
+      <c r="E97" s="16">
+        <v>22</v>
+      </c>
       <c r="F97" s="16"/>
       <c r="G97" s="16">
         <v>5</v>
@@ -6520,43 +7846,57 @@
       </c>
       <c r="I97" s="8"/>
       <c r="J97" s="16">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>42.86</v>
       </c>
-      <c r="K97" s="16">
-        <f t="shared" si="7"/>
+      <c r="K97" s="34" cm="1">
+        <f t="array" ref="K97">ROUNDUP(AVERAGE(LARGE(O97:Q97,{1,2})),0)</f>
+        <v>28</v>
+      </c>
+      <c r="L97" s="16"/>
+      <c r="O97" s="2">
+        <f t="shared" si="11"/>
         <v>30</v>
       </c>
-      <c r="L97" s="16"/>
-      <c r="R97" s="21"/>
-      <c r="S97" s="21"/>
-      <c r="T97" s="21"/>
-      <c r="U97" s="2">
-        <f t="shared" si="8"/>
+      <c r="P97" s="2">
+        <f t="shared" si="12"/>
+        <v>25</v>
+      </c>
+      <c r="Q97" s="2">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="U97" s="21"/>
+      <c r="V97" s="21"/>
+      <c r="W97" s="21"/>
+      <c r="X97" s="2">
+        <f t="shared" si="14"/>
         <v>42.86</v>
       </c>
-      <c r="V97" s="2">
+      <c r="Y97" s="2">
         <v>6</v>
       </c>
-      <c r="W97" s="2">
-        <f t="shared" si="9"/>
-        <v>2.143</v>
-      </c>
-    </row>
-    <row r="98" spans="1:23">
+      <c r="Z97" s="2">
+        <f t="shared" si="15"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="98" spans="1:26">
       <c r="A98" s="8">
         <v>96</v>
       </c>
-      <c r="B98" s="36" t="s">
+      <c r="B98" s="37" t="s">
         <v>114</v>
       </c>
-      <c r="C98" s="37">
+      <c r="C98" s="38">
         <v>230041724026</v>
       </c>
-      <c r="D98" s="36">
+      <c r="D98" s="37">
         <v>18</v>
       </c>
-      <c r="E98" s="16"/>
+      <c r="E98" s="16">
+        <v>13</v>
+      </c>
       <c r="F98" s="16"/>
       <c r="G98" s="16">
         <v>5</v>
@@ -6566,31 +7906,43 @@
       </c>
       <c r="I98" s="8"/>
       <c r="J98" s="16">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>85.72</v>
       </c>
-      <c r="K98" s="16">
-        <f t="shared" si="7"/>
+      <c r="K98" s="34" cm="1">
+        <f t="array" ref="K98">ROUNDUP(AVERAGE(LARGE(O98:Q98,{1,2})),0)</f>
+        <v>23</v>
+      </c>
+      <c r="L98" s="16"/>
+      <c r="O98" s="2">
+        <f t="shared" si="11"/>
         <v>28</v>
       </c>
-      <c r="L98" s="16"/>
-      <c r="R98" s="21"/>
-      <c r="S98" s="21"/>
-      <c r="T98" s="21"/>
-      <c r="U98" s="2">
-        <f t="shared" si="8"/>
+      <c r="P98" s="2">
+        <f t="shared" si="12"/>
+        <v>18</v>
+      </c>
+      <c r="Q98" s="2">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="U98" s="21"/>
+      <c r="V98" s="21"/>
+      <c r="W98" s="21"/>
+      <c r="X98" s="2">
+        <f t="shared" si="14"/>
         <v>85.72</v>
       </c>
-      <c r="V98" s="2">
+      <c r="Y98" s="2">
         <v>12</v>
       </c>
-      <c r="W98" s="2">
-        <f t="shared" si="9"/>
-        <v>4.286</v>
+      <c r="Z98" s="2">
+        <f t="shared" si="15"/>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A2:T98" etc:filterBottomFollowUsedRange="0">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A2:Z98" etc:filterBottomFollowUsedRange="0">
     <extLst/>
   </autoFilter>
   <mergeCells count="1">
@@ -7318,22 +8670,22 @@
         <v>14</v>
       </c>
       <c r="O2" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="P2" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q2" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="R2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="P2" s="19" t="s">
+      <c r="S2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="Q2" s="19" t="s">
+      <c r="T2" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="S2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="T2" s="1" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:20">
